--- a/wolf/Excel/Language_小镇多语言.xlsx
+++ b/wolf/Excel/Language_小镇多语言.xlsx
@@ -38,7 +38,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="@"/>
   </numFmts>
-  <fonts count="44">
+  <fonts count="38">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -47,7 +47,77 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9.75"/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF1F2329"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF1F2329"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -61,42 +131,119 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9.75"/>
+      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9.75"/>
+      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9.75"/>
+      <sz val="9"/>
+      <color rgb="FF1F2329"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9.75"/>
+      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9.75"/>
+      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9.75"/>
+      <sz val="9"/>
+      <color rgb="FF1F2329"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <color rgb="FF1F2329"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -110,189 +257,42 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9.75"/>
+      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9.75"/>
+      <sz val="9"/>
+      <color rgb="FF1F2329"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9.75"/>
+      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9.75"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9.75"/>
+      <sz val="9"/>
       <color rgb="FF1F2329"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9.75"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9.75"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10.5"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9.75"/>
-      <color rgb="FF1F2329"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9.75"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9.75"/>
-      <color rgb="FF1F2329"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9.75"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9.75"/>
-      <color rgb="FF1F2329"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9.75"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9.75"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9.75"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9.75"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9.75"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9.75"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9.75"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9.75"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9.75"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9.75"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9.75"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9.75"/>
-      <color rgb="FF1F2329"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9.75"/>
+      <sz val="9"/>
       <color rgb="FF1F2329"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -300,48 +300,6 @@
     </font>
     <font>
       <b val="true"/>
-      <sz val="10.5"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10.5"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9.75"/>
-      <color rgb="FF1F2329"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9.75"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9.75"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9.75"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9.75"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -349,7 +307,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="32">
+  <fills count="28">
     <fill>
       <patternFill patternType="none">
         <fgColor/>
@@ -359,36 +317,6 @@
     <fill>
       <patternFill patternType="gray125">
         <fgColor/>
-        <bgColor/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD9F5D6"/>
-        <bgColor/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFEEF6C6"/>
-        <bgColor/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFEEF6C6"/>
-        <bgColor/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFEEF6C6"/>
-        <bgColor/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF8EE085"/>
         <bgColor/>
       </patternFill>
     </fill>
@@ -412,7 +340,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFAF1D1"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFAF1D1"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9F5D6"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFEEF6C6"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFDDDEF"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFDDDEF"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF258"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEEF6C6"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEEF6C6"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFDDDEF"/>
         <bgColor/>
       </patternFill>
     </fill>
@@ -442,30 +424,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFECE2FE"/>
-        <bgColor/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFAF1D1"/>
-        <bgColor/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFAF1D1"/>
-        <bgColor/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFECE2FE"/>
-        <bgColor/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFD5F6F2"/>
         <bgColor/>
       </patternFill>
@@ -473,30 +431,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFD5F6F2"/>
-        <bgColor/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD5F6F2"/>
-        <bgColor/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFDDDEF"/>
-        <bgColor/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFDDDEF"/>
-        <bgColor/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFDDDEF"/>
         <bgColor/>
       </patternFill>
     </fill>
@@ -526,66 +460,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFAD355"/>
+        <fgColor rgb="FF8EE085"/>
         <bgColor/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFEEF6C6"/>
+        <fgColor rgb="FFECE2FE"/>
         <bgColor/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFF258"/>
+        <fgColor rgb="FFECE2FE"/>
         <bgColor/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="44">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+  <borders count="38">
     <border>
       <left/>
       <right/>
@@ -856,138 +748,120 @@
   <cellStyleXfs count="1">
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="38">
     <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="3" fillId="2" fontId="3" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="4" fillId="2" fontId="4" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="5" fillId="3" fontId="5" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="6" fillId="4" fontId="6" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="7" fillId="5" fontId="7" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="8" fillId="6" fontId="8" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="9" fillId="0" fontId="9" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="5" fillId="0" fontId="5" numFmtId="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="6" fillId="0" fontId="6" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="7" fillId="3" fontId="7" numFmtId="0" xfId="0">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="8" fillId="4" fontId="8" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="10" fillId="7" fontId="10" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="9" fillId="5" fontId="9" numFmtId="0" xfId="0">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="10" fillId="6" fontId="10" numFmtId="0" xfId="0">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="11" fillId="7" fontId="11" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="11" fillId="0" fontId="11" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="12" fillId="0" fontId="12" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="13" fillId="8" fontId="13" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="13" fillId="0" fontId="13" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="14" fillId="0" fontId="14" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="14" fillId="8" fontId="14" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="15" fillId="9" fontId="15" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="16" fillId="10" fontId="16" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="17" fillId="11" fontId="17" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="18" fillId="0" fontId="18" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="19" fillId="12" fontId="19" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="15" fillId="9" fontId="15" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="20" fillId="13" fontId="20" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="21" fillId="14" fontId="21" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="22" fillId="15" fontId="22" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="16" fillId="10" fontId="16" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="23" fillId="16" fontId="23" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" applyProtection="false" borderId="24" fillId="0" fontId="24" numFmtId="164" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="25" fillId="17" fontId="25" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="26" fillId="18" fontId="26" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="17" fillId="0" fontId="17" numFmtId="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="18" fillId="0" fontId="18" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="27" fillId="19" fontId="27" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="19" fillId="11" fontId="19" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="28" fillId="20" fontId="28" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="20" fillId="12" fontId="20" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="29" fillId="21" fontId="29" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="30" fillId="22" fontId="30" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="21" fillId="13" fontId="21" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="31" fillId="23" fontId="31" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="32" fillId="24" fontId="32" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="33" fillId="0" fontId="33" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="34" fillId="25" fontId="34" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="35" fillId="26" fontId="35" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="22" fillId="14" fontId="22" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="23" fillId="15" fontId="23" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="36" fillId="27" fontId="36" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="24" fillId="16" fontId="24" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="25" fillId="17" fontId="25" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="26" fillId="0" fontId="26" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="27" fillId="18" fontId="27" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="28" fillId="19" fontId="28" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="29" fillId="20" fontId="29" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="30" fillId="21" fontId="30" numFmtId="0" xfId="0">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" applyProtection="false" borderId="31" fillId="0" fontId="31" numFmtId="164" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="32" fillId="22" fontId="32" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="33" fillId="23" fontId="33" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="34" fillId="0" fontId="34" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="35" fillId="24" fontId="35" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="36" fillId="25" fontId="36" numFmtId="0" xfId="0">
-      <alignment vertical="center" wrapText="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="37" fillId="0" fontId="37" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="38" fillId="26" fontId="38" numFmtId="0" xfId="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="39" fillId="27" fontId="39" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="40" fillId="28" fontId="40" numFmtId="0" xfId="0">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="41" fillId="29" fontId="41" numFmtId="0" xfId="0">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="42" fillId="30" fontId="42" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="43" fillId="31" fontId="43" numFmtId="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1314,4187 +1188,4202 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="19"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" max="1" min="1" style="0" width="12"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="2" min="2" style="0" width="36"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="3" min="3" style="0" width="52"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="4" min="4" style="0" width="64"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="5" min="5" style="0" width="53"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="1" min="1" style="0" width="13"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="2" min="2" style="0" width="38"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="3" min="3" style="0" width="55"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="4" min="4" style="0" width="68"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="5" min="5" style="0" width="56"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="6" min="6" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="7" min="7" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="8" min="8" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="9" min="9" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="10" min="10" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="11" min="11" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="12" min="12" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="13" min="13" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="14" min="14" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="15" min="15" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="16" min="16" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="17" min="17" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="18" min="18" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="19" min="19" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="20" min="20" style="0" width="15"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="17" t="str">
+    <row customHeight="true" ht="21" r="1">
+      <c r="A1" s="12" t="str">
         <v>Int</v>
       </c>
-      <c r="B1" s="17" t="str">
+      <c r="B1" s="12" t="str">
         <v>String</v>
       </c>
-      <c r="C1" s="2" t="str">
+      <c r="C1" s="1" t="str">
         <v>String</v>
       </c>
-      <c r="D1" s="17" t="str">
+      <c r="D1" s="12" t="str">
         <v>String</v>
       </c>
-      <c r="E1" s="4" t="str">
+      <c r="E1" s="2" t="str">
         <v>String</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="17" t="str">
+    <row customHeight="true" ht="21" r="2">
+      <c r="A2" s="12" t="str">
         <v>ID</v>
       </c>
-      <c r="B2" s="17" t="str">
+      <c r="B2" s="12" t="str">
         <v>mur</v>
       </c>
-      <c r="C2" s="2" t="str">
+      <c r="C2" s="1" t="str">
         <v>Value</v>
       </c>
-      <c r="D2" s="17" t="str">
+      <c r="D2" s="12" t="str">
         <v>Value_Ch</v>
       </c>
-      <c r="E2" s="4" t="str">
+      <c r="E2" s="2" t="str">
         <v>Comment</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="17" t="str">
+    <row customHeight="true" ht="21" r="3">
+      <c r="A3" s="12" t="str">
         <v>ID</v>
       </c>
-      <c r="B3" s="17" t="str">
+      <c r="B3" s="12" t="str">
         <v>名字</v>
       </c>
-      <c r="C3" s="2" t="str">
+      <c r="C3" s="1" t="str">
         <v>英文</v>
       </c>
-      <c r="D3" s="17" t="str">
+      <c r="D3" s="12" t="str">
         <v>中文</v>
       </c>
-      <c r="E3" s="4" t="str">
+      <c r="E3" s="2" t="str">
         <v>备注</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="4" t="str"/>
+    <row customHeight="true" ht="21" r="4">
+      <c r="A4" s="2" t="str"/>
       <c r="B4" s="37" t="str">
         <v>Key|ReadByName</v>
       </c>
-      <c r="C4" s="2" t="str">
+      <c r="C4" s="1" t="str">
         <v>MainLanguage</v>
       </c>
       <c r="D4" s="37" t="str">
         <v>ChildLanguage</v>
       </c>
-      <c r="E4" s="4" t="str"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="4">
+      <c r="E4" s="2" t="str"/>
+    </row>
+    <row customHeight="true" ht="21" r="5">
+      <c r="A5" s="2">
         <v>10001</v>
       </c>
-      <c r="B5" s="4" t="str">
+      <c r="B5" s="2" t="str">
         <v>Guide_GuideContent_10001</v>
       </c>
-      <c r="C5" s="2" t="str">
+      <c r="C5" s="1" t="str">
         <v>This is what you are playing in this round</v>
       </c>
-      <c r="D5" s="4" t="str">
+      <c r="D5" s="2" t="str">
         <v>这里是本局中你的身份</v>
       </c>
-      <c r="E5" s="4" t="str">
+      <c r="E5" s="2" t="str">
         <v>10000：新手引导表</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="4">
+    <row customHeight="true" ht="21" r="6">
+      <c r="A6" s="2">
         <v>10002</v>
       </c>
-      <c r="B6" s="4" t="str">
+      <c r="B6" s="2" t="str">
         <v>Guide_GuideContent_10002</v>
       </c>
-      <c r="C6" s="2" t="str">
+      <c r="C6" s="1" t="str">
         <v>This is your goal in this round, check it here if you don't know what to do</v>
       </c>
-      <c r="D6" s="4" t="str">
+      <c r="D6" s="2" t="str">
         <v>这里是你本局的目标，不知道做什么的话就看一下这里吧</v>
       </c>
-      <c r="E6" s="4" t="str"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="4">
+      <c r="E6" s="2" t="str"/>
+    </row>
+    <row customHeight="true" ht="21" r="7">
+      <c r="A7" s="2">
         <v>10003</v>
       </c>
-      <c r="B7" s="4" t="str">
+      <c r="B7" s="2" t="str">
         <v>Guide_GuideContent_10003</v>
       </c>
-      <c r="C7" s="2" t="str">
+      <c r="C7" s="1" t="str">
         <v>Survive to win~</v>
       </c>
-      <c r="D7" s="4" t="str">
+      <c r="D7" s="2" t="str">
         <v>努力活下来才能够获得胜利~</v>
       </c>
-      <c r="E7" s="4" t="str"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="4">
+      <c r="E7" s="2" t="str"/>
+    </row>
+    <row customHeight="true" ht="21" r="8">
+      <c r="A8" s="2">
         <v>10004</v>
       </c>
-      <c r="B8" s="4" t="str">
+      <c r="B8" s="2" t="str">
         <v>Guide_GuideContent_10004</v>
       </c>
-      <c r="C8" s="2" t="str">
+      <c r="C8" s="1" t="str">
         <v>Here is the energy ball:</v>
       </c>
-      <c r="D8" s="4" t="str">
+      <c r="D8" s="2" t="str">
         <v>这是能量球：</v>
       </c>
-      <c r="E8" s="4" t="str"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="4">
+      <c r="E8" s="2" t="str"/>
+    </row>
+    <row customHeight="true" ht="21" r="9">
+      <c r="A9" s="2">
         <v>10005</v>
       </c>
-      <c r="B9" s="4" t="str">
+      <c r="B9" s="2" t="str">
         <v>Guide_GuideContent_10005</v>
       </c>
-      <c r="C9" s="2" t="str">
+      <c r="C9" s="1" t="str">
         <v>Collect them all to get a protective shield</v>
       </c>
-      <c r="D9" s="4" t="str">
+      <c r="D9" s="2" t="str">
         <v>集齐能量球，可以获得一层保护壳</v>
       </c>
-      <c r="E9" s="4" t="str"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="4">
+      <c r="E9" s="2" t="str"/>
+    </row>
+    <row customHeight="true" ht="21" r="10">
+      <c r="A10" s="2">
         <v>10006</v>
       </c>
-      <c r="B10" s="4" t="str">
+      <c r="B10" s="2" t="str">
         <v>Guide_GuideContent_10006</v>
       </c>
-      <c r="C10" s="2" t="str">
+      <c r="C10" s="1" t="str">
         <v>This is your goal in this round, achieve it before the game ends to win</v>
       </c>
-      <c r="D10" s="4" t="str">
+      <c r="D10" s="2" t="str">
         <v>这里是你本局的目标，在对局结束前完成目标才能获得胜利</v>
       </c>
-      <c r="E10" s="4" t="str"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="4">
+      <c r="E10" s="2" t="str"/>
+    </row>
+    <row customHeight="true" ht="21" r="11">
+      <c r="A11" s="2">
         <v>10007</v>
       </c>
-      <c r="B11" s="4" t="str">
+      <c r="B11" s="2" t="str">
         <v>Guide_GuideContent_10007</v>
       </c>
-      <c r="C11" s="2" t="str">
+      <c r="C11" s="1" t="str">
         <v>This is your goal in this round, achieve it before the game ends to win</v>
       </c>
-      <c r="D11" s="4" t="str">
+      <c r="D11" s="2" t="str">
         <v>这里是你本局的目标，在对局结束前完成目标才能获得胜利</v>
       </c>
-      <c r="E11" s="4" t="str"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="4">
+      <c r="E11" s="2" t="str"/>
+    </row>
+    <row customHeight="true" ht="21" r="12">
+      <c r="A12" s="2">
         <v>10008</v>
       </c>
-      <c r="B12" s="4" t="str">
+      <c r="B12" s="2" t="str">
         <v>Guide_GuideContent_10008</v>
       </c>
-      <c r="C12" s="2" t="str">
+      <c r="C12" s="1" t="str">
         <v>You have a new goal, to defeat the Murderer and protect the Students</v>
       </c>
-      <c r="D12" s="4" t="str">
+      <c r="D12" s="2" t="str">
         <v>你有了新的目标，击杀凶手，保护学生</v>
       </c>
-      <c r="E12" s="4" t="str"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="4">
+      <c r="E12" s="2" t="str"/>
+    </row>
+    <row customHeight="true" ht="21" r="13">
+      <c r="A13" s="2">
         <v>10009</v>
       </c>
-      <c r="B13" s="4" t="str">
+      <c r="B13" s="2" t="str">
         <v>Guide_GuideContent_10009</v>
       </c>
-      <c r="C13" s="2" t="str">
+      <c r="C13" s="1" t="str">
         <v>This is what you are playing in this round</v>
       </c>
-      <c r="D13" s="4" t="str">
+      <c r="D13" s="2" t="str">
         <v>这里是本局中你的身份</v>
       </c>
-      <c r="E13" s="4" t="str"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="4">
+      <c r="E13" s="2" t="str"/>
+    </row>
+    <row customHeight="true" ht="21" r="14">
+      <c r="A14" s="2">
         <v>10010</v>
       </c>
-      <c r="B14" s="4" t="str">
+      <c r="B14" s="2" t="str">
         <v>Guide_GuideContent_10010</v>
       </c>
-      <c r="C14" s="2" t="str">
+      <c r="C14" s="1" t="str">
         <v>This is what you are playing in this round</v>
       </c>
-      <c r="D14" s="4" t="str">
+      <c r="D14" s="2" t="str">
         <v>这里是本局中你的身份</v>
       </c>
-      <c r="E14" s="4" t="str"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="4">
+      <c r="E14" s="2" t="str"/>
+    </row>
+    <row customHeight="true" ht="21" r="15">
+      <c r="A15" s="2">
         <v>10011</v>
       </c>
-      <c r="B15" s="4" t="str">
+      <c r="B15" s="2" t="str">
         <v>Guide_GuideContent_10011</v>
       </c>
-      <c r="C15" s="2" t="str">
+      <c r="C15" s="1" t="str">
         <v>Congratulation! You just picked up the weapon and you're a Hero now</v>
       </c>
-      <c r="D15" s="4" t="str">
+      <c r="D15" s="2" t="str">
         <v>恭喜你拾取到武器，现在你成为了一名英雄</v>
       </c>
-      <c r="E15" s="4" t="str"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="4">
+      <c r="E15" s="2" t="str"/>
+    </row>
+    <row customHeight="true" ht="21" r="16">
+      <c r="A16" s="2">
         <v>10012</v>
       </c>
-      <c r="B16" s="4" t="str">
+      <c r="B16" s="2" t="str">
         <v>Guide_GuideContent_20001</v>
       </c>
-      <c r="C16" s="2" t="str">
+      <c r="C16" s="1" t="str">
         <v>The Coins gained in this game will be stored here and be given to you during the settlement; but there is a limitation for the Coin Bag and cannot gain more Coins when it's full.</v>
       </c>
-      <c r="D16" s="4" t="str">
+      <c r="D16" s="2" t="str">
         <v>本局游戏内获得的金币将存储在这里，结算时会发放给你；不过金币袋是有上限的，袋子装满就无法获得了</v>
       </c>
-      <c r="E16" s="4" t="str"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="4">
+      <c r="E16" s="2" t="str"/>
+    </row>
+    <row customHeight="true" ht="21" r="17">
+      <c r="A17" s="2">
         <v>10013</v>
       </c>
-      <c r="B17" s="4" t="str">
+      <c r="B17" s="2" t="str">
         <v>Guide_GuideContent_20002</v>
       </c>
-      <c r="C17" s="2" t="str">
+      <c r="C17" s="1" t="str">
         <v>Coin Bag is full, cannot gain more Coins in this round</v>
       </c>
-      <c r="D17" s="4" t="str">
+      <c r="D17" s="2" t="str">
         <v>金币袋已经满了，本局无法再拾取金币了</v>
       </c>
-      <c r="E17" s="4" t="str"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="4">
+      <c r="E17" s="2" t="str"/>
+    </row>
+    <row customHeight="true" ht="21" r="18">
+      <c r="A18" s="2">
         <v>10014</v>
       </c>
-      <c r="B18" s="4" t="str">
+      <c r="B18" s="2" t="str">
         <v>Guide_GuideContent_30001</v>
       </c>
-      <c r="C18" s="2" t="str">
+      <c r="C18" s="1" t="str">
         <v>Click here to switch your status, choose to show or hide the weapon</v>
       </c>
-      <c r="D18" s="4" t="str">
+      <c r="D18" s="2" t="str">
         <v>点击这里可以切换姿态，选择亮出武器或藏起武器</v>
       </c>
-      <c r="E18" s="4" t="str"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="4">
+      <c r="E18" s="2" t="str"/>
+    </row>
+    <row customHeight="true" ht="21" r="19">
+      <c r="A19" s="2">
         <v>10015</v>
       </c>
-      <c r="B19" s="4" t="str">
+      <c r="B19" s="2" t="str">
         <v>Guide_GuideContent_30002</v>
       </c>
-      <c r="C19" s="2" t="str">
+      <c r="C19" s="1" t="str">
         <v>Show the weapon, then you can click here to attack</v>
       </c>
-      <c r="D19" s="4" t="str">
+      <c r="D19" s="2" t="str">
         <v>在亮出武器后，可以点击这里进行攻击</v>
       </c>
-      <c r="E19" s="4" t="str"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="4">
+      <c r="E19" s="2" t="str"/>
+    </row>
+    <row customHeight="true" ht="21" r="20">
+      <c r="A20" s="2">
         <v>10016</v>
       </c>
-      <c r="B20" s="4" t="str">
+      <c r="B20" s="2" t="str">
         <v>Guide_GuideContent_30003</v>
       </c>
-      <c r="C20" s="2" t="str">
+      <c r="C20" s="1" t="str">
         <v>Click here to switch your status, choose to show or hide the weapon</v>
       </c>
-      <c r="D20" s="4" t="str">
+      <c r="D20" s="2" t="str">
         <v>点击这里可以切换姿态，选择亮出武器或藏起武器</v>
       </c>
-      <c r="E20" s="4" t="str"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="4">
+      <c r="E20" s="2" t="str"/>
+    </row>
+    <row customHeight="true" ht="21" r="21">
+      <c r="A21" s="2">
         <v>10017</v>
       </c>
-      <c r="B21" s="4" t="str">
+      <c r="B21" s="2" t="str">
         <v>Guide_GuideContent_30004</v>
       </c>
-      <c r="C21" s="2" t="str">
+      <c r="C21" s="1" t="str">
         <v>Show the weapon, then you can click here to attack</v>
       </c>
-      <c r="D21" s="4" t="str">
+      <c r="D21" s="2" t="str">
         <v>在亮出武器后，可以点击这里进行攻击</v>
       </c>
-      <c r="E21" s="4" t="str"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="4">
+      <c r="E21" s="2" t="str"/>
+    </row>
+    <row customHeight="true" ht="21" r="22">
+      <c r="A22" s="2">
         <v>10018</v>
       </c>
-      <c r="B22" s="4" t="str">
+      <c r="B22" s="2" t="str">
         <v>Guide_GuideContent_30005</v>
       </c>
-      <c r="C22" s="2" t="str">
+      <c r="C22" s="1" t="str">
         <v>Click here to switch your status, choose to show or hide the weapon</v>
       </c>
-      <c r="D22" s="4" t="str">
+      <c r="D22" s="2" t="str">
         <v>点击这里可以切换姿态，选择亮出武器或藏起武器</v>
       </c>
-      <c r="E22" s="4" t="str"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="4">
+      <c r="E22" s="2" t="str"/>
+    </row>
+    <row customHeight="true" ht="21" r="23">
+      <c r="A23" s="2">
         <v>10019</v>
       </c>
-      <c r="B23" s="4" t="str">
+      <c r="B23" s="2" t="str">
         <v>Guide_GuideContent_30006</v>
       </c>
-      <c r="C23" s="2" t="str">
+      <c r="C23" s="1" t="str">
         <v>Show the weapon, then you can click here to attack</v>
       </c>
-      <c r="D23" s="4" t="str">
+      <c r="D23" s="2" t="str">
         <v>在亮出武器后，可以点击这里进行攻击</v>
       </c>
-      <c r="E23" s="4" t="str"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="4">
+      <c r="E23" s="2" t="str"/>
+    </row>
+    <row customHeight="true" ht="21" r="24">
+      <c r="A24" s="2">
         <v>10020</v>
       </c>
-      <c r="B24" s="4" t="str">
+      <c r="B24" s="2" t="str">
         <v>Guide_GuideContent_40001</v>
       </c>
-      <c r="C24" s="2" t="str">
+      <c r="C24" s="1" t="str">
         <v>Congratulations! You collected all the energy balls! Now you have a protective shield! The protective shield can protect you from another player once, but you can only get it once per round</v>
       </c>
-      <c r="D24" s="4" t="str">
+      <c r="D24" s="2" t="str">
         <v>恭喜你集齐了道具！现在你获得了一个保护壳！保护壳可以为你抵挡一次来自其他玩家的攻击，但是每局游戏只能获得一次</v>
       </c>
-      <c r="E24" s="4" t="str"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="4">
+      <c r="E24" s="2" t="str"/>
+    </row>
+    <row customHeight="true" ht="21" r="25">
+      <c r="A25" s="2">
         <v>10021</v>
       </c>
-      <c r="B25" s="4" t="str">
+      <c r="B25" s="2" t="str">
         <v>Guide_GuideContent_50001</v>
       </c>
-      <c r="C25" s="2" t="str">
+      <c r="C25" s="1" t="str">
         <v>Your first round is over, take a look at the settlement panel</v>
       </c>
-      <c r="D25" s="4" t="str">
+      <c r="D25" s="2" t="str">
         <v>现在你的第一局游戏已经结束，来看看结算面板吧</v>
       </c>
-      <c r="E25" s="4" t="str"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="4">
+      <c r="E25" s="2" t="str"/>
+    </row>
+    <row customHeight="true" ht="21" r="26">
+      <c r="A26" s="2">
         <v>10022</v>
       </c>
-      <c r="B26" s="4" t="str">
+      <c r="B26" s="2" t="str">
         <v>Guide_GuideContent_50002</v>
       </c>
-      <c r="C26" s="2" t="str">
+      <c r="C26" s="1" t="str">
         <v>Here is the final result of the game</v>
       </c>
-      <c r="D26" s="4" t="str">
+      <c r="D26" s="2" t="str">
         <v>这里说明了对局的最终结果</v>
       </c>
-      <c r="E26" s="4" t="str"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="4">
+      <c r="E26" s="2" t="str"/>
+    </row>
+    <row customHeight="true" ht="21" r="27">
+      <c r="A27" s="2">
         <v>10023</v>
       </c>
-      <c r="B27" s="4" t="str">
+      <c r="B27" s="2" t="str">
         <v>Guide_GuideContent_50003</v>
       </c>
-      <c r="C27" s="2" t="str">
+      <c r="C27" s="1" t="str">
         <v>Here shows the two players who impacted the game most as well as their wins and losses</v>
       </c>
-      <c r="D27" s="4" t="str">
+      <c r="D27" s="2" t="str">
         <v>这里显示了对对局产生影响最大的两方玩家和他们的胜负</v>
       </c>
-      <c r="E27" s="4" t="str"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="4">
+      <c r="E27" s="2" t="str"/>
+    </row>
+    <row customHeight="true" ht="21" r="28">
+      <c r="A28" s="2">
         <v>10024</v>
       </c>
-      <c r="B28" s="4" t="str">
+      <c r="B28" s="2" t="str">
         <v>Guide_GuideContent_50004</v>
       </c>
-      <c r="C28" s="2" t="str">
+      <c r="C28" s="1" t="str">
         <v>Here's shows your earning in this round</v>
       </c>
-      <c r="D28" s="4" t="str">
+      <c r="D28" s="2" t="str">
         <v>这里显示了你在本轮对局获得的收益</v>
       </c>
-      <c r="E28" s="4" t="str"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="4">
+      <c r="E28" s="2" t="str"/>
+    </row>
+    <row customHeight="true" ht="21" r="29">
+      <c r="A29" s="2">
         <v>10025</v>
       </c>
-      <c r="B29" s="4" t="str">
+      <c r="B29" s="2" t="str">
         <v>Guide_GuideContent_60001</v>
       </c>
-      <c r="C29" s="2" t="str">
+      <c r="C29" s="1" t="str">
         <v>On behalf of justice, you can't shoot randomly, attacking good people leads to your own death</v>
       </c>
-      <c r="D29" s="4" t="str">
+      <c r="D29" s="2" t="str">
         <v>代表正义的你不可以乱开枪，攻击好人会导致自己死亡</v>
       </c>
-      <c r="E29" s="4" t="str"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="4">
+      <c r="E29" s="2" t="str"/>
+    </row>
+    <row customHeight="true" ht="21" r="30">
+      <c r="A30" s="2">
         <v>20001</v>
       </c>
-      <c r="B30" s="4" t="str">
+      <c r="B30" s="2" t="str">
         <v>Identity_IdentityName_10001</v>
       </c>
-      <c r="C30" s="2" t="str">
+      <c r="C30" s="1" t="str">
         <v>Detective</v>
       </c>
-      <c r="D30" s="2" t="str">
+      <c r="D30" s="1" t="str">
         <v>侦探</v>
       </c>
-      <c r="E30" s="4" t="str">
+      <c r="E30" s="2" t="str">
         <v>20000：身份属性表</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="4">
+    <row customHeight="true" ht="21" r="31">
+      <c r="A31" s="2">
         <v>20002</v>
       </c>
-      <c r="B31" s="4" t="str">
+      <c r="B31" s="2" t="str">
         <v>Identity_IdentityName_10002</v>
       </c>
-      <c r="C31" s="2" t="str">
+      <c r="C31" s="1" t="str">
         <v>Murderer</v>
       </c>
-      <c r="D31" s="2" t="str">
+      <c r="D31" s="1" t="str">
         <v>凶手</v>
       </c>
-      <c r="E31" s="4" t="str"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="4">
+      <c r="E31" s="2" t="str"/>
+    </row>
+    <row customHeight="true" ht="21" r="32">
+      <c r="A32" s="2">
         <v>20003</v>
       </c>
-      <c r="B32" s="4" t="str">
+      <c r="B32" s="2" t="str">
         <v>Identity_IdentityName_10003</v>
       </c>
-      <c r="C32" s="2" t="str">
+      <c r="C32" s="1" t="str">
         <v>Student</v>
       </c>
-      <c r="D32" s="2" t="str">
+      <c r="D32" s="1" t="str">
         <v>学生</v>
       </c>
-      <c r="E32" s="4" t="str"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="4">
+      <c r="E32" s="2" t="str"/>
+    </row>
+    <row customHeight="true" ht="21" r="33">
+      <c r="A33" s="2">
         <v>20004</v>
       </c>
-      <c r="B33" s="4" t="str">
+      <c r="B33" s="2" t="str">
         <v>Identity_IdentityName_10004</v>
       </c>
-      <c r="C33" s="2" t="str">
+      <c r="C33" s="1" t="str">
         <v>Hero</v>
       </c>
-      <c r="D33" s="2" t="str">
+      <c r="D33" s="1" t="str">
         <v>英雄</v>
       </c>
-      <c r="E33" s="4" t="str"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="4">
+      <c r="E33" s="2" t="str"/>
+    </row>
+    <row customHeight="true" ht="21" r="34">
+      <c r="A34" s="2">
         <v>30001</v>
       </c>
-      <c r="B34" s="4" t="str">
+      <c r="B34" s="2" t="str">
         <v>Text_Content_10001</v>
       </c>
-      <c r="C34" s="2" t="str">
+      <c r="C34" s="1" t="str">
         <v>Not enough player</v>
       </c>
-      <c r="D34" s="4" t="str">
+      <c r="D34" s="2" t="str">
         <v>当前人数不足</v>
       </c>
-      <c r="E34" s="4" t="str">
+      <c r="E34" s="2" t="str">
         <v>30000：文本表</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" s="4">
+    <row customHeight="true" ht="21" r="35">
+      <c r="A35" s="2">
         <v>30002</v>
       </c>
-      <c r="B35" s="4" t="str">
+      <c r="B35" s="2" t="str">
         <v>Text_Content_10002</v>
       </c>
-      <c r="C35" s="2" t="str">
+      <c r="C35" s="1" t="str">
         <v>Match in progress</v>
       </c>
-      <c r="D35" s="4" t="str">
+      <c r="D35" s="2" t="str">
         <v>对局进行中</v>
       </c>
-      <c r="E35" s="4" t="str"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="4">
+      <c r="E35" s="2" t="str"/>
+    </row>
+    <row customHeight="true" ht="21" r="36">
+      <c r="A36" s="2">
         <v>30003</v>
       </c>
-      <c r="B36" s="4" t="str">
+      <c r="B36" s="2" t="str">
         <v>Text_Content_10003</v>
       </c>
-      <c r="C36" s="2" t="str">
+      <c r="C36" s="1" t="str">
         <v>Matching</v>
       </c>
-      <c r="D36" s="4" t="str">
+      <c r="D36" s="2" t="str">
         <v>等待对局开始</v>
       </c>
-      <c r="E36" s="4" t="str"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="4">
+      <c r="E36" s="2" t="str"/>
+    </row>
+    <row customHeight="true" ht="21" r="37">
+      <c r="A37" s="2">
         <v>30004</v>
       </c>
-      <c r="B37" s="4" t="str">
+      <c r="B37" s="2" t="str">
         <v>Text_Content_11001</v>
       </c>
-      <c r="C37" s="2" t="str">
+      <c r="C37" s="1" t="str">
         <v>The game starts with a countdown...</v>
       </c>
-      <c r="D37" s="1" t="str">
+      <c r="D37" s="2" t="str">
         <v>游戏开始倒计时...</v>
       </c>
-      <c r="E37" s="4" t="str"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="4">
+      <c r="E37" s="2" t="str"/>
+    </row>
+    <row customHeight="true" ht="21" r="38">
+      <c r="A38" s="2">
         <v>30005</v>
       </c>
-      <c r="B38" s="4" t="str">
+      <c r="B38" s="2" t="str">
         <v>Text_Content_11002</v>
       </c>
-      <c r="C38" s="2" t="str">
+      <c r="C38" s="1" t="str">
         <v>End-of-game countdown</v>
       </c>
-      <c r="D38" s="4" t="str">
+      <c r="D38" s="2" t="str">
         <v>对局结束倒计时</v>
       </c>
-      <c r="E38" s="4" t="str"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="4">
+      <c r="E38" s="2" t="str"/>
+    </row>
+    <row customHeight="true" ht="21" r="39">
+      <c r="A39" s="2">
         <v>30006</v>
       </c>
-      <c r="B39" s="4" t="str">
+      <c r="B39" s="2" t="str">
         <v>Text_Content_11003</v>
       </c>
-      <c r="C39" s="2" t="str">
+      <c r="C39" s="1" t="str">
         <v>You are playing as:</v>
       </c>
-      <c r="D39" s="4" t="str">
+      <c r="D39" s="2" t="str">
         <v>你的身份是：</v>
       </c>
-      <c r="E39" s="4" t="str"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="4">
+      <c r="E39" s="2" t="str"/>
+    </row>
+    <row customHeight="true" ht="21" r="40">
+      <c r="A40" s="2">
         <v>30007</v>
       </c>
-      <c r="B40" s="4" t="str">
+      <c r="B40" s="2" t="str">
         <v>Text_Content_11004</v>
       </c>
-      <c r="C40" s="2" t="str">
+      <c r="C40" s="1" t="str">
         <v>Chance being Murderer:</v>
       </c>
-      <c r="D40" s="4" t="str">
+      <c r="D40" s="2" t="str">
         <v>成为凶手的概率：</v>
       </c>
-      <c r="E40" s="4" t="str"/>
-    </row>
-    <row r="41">
-      <c r="A41" s="4">
+      <c r="E40" s="2" t="str"/>
+    </row>
+    <row customHeight="true" ht="21" r="41">
+      <c r="A41" s="2">
         <v>30008</v>
       </c>
-      <c r="B41" s="4" t="str">
+      <c r="B41" s="2" t="str">
         <v>Text_Content_11005</v>
       </c>
-      <c r="C41" s="2" t="str">
+      <c r="C41" s="1" t="str">
         <v>(Match in the game will increase the possibility)</v>
       </c>
-      <c r="D41" s="4" t="str">
+      <c r="D41" s="2" t="str">
         <v>（参与对局将增加概率）</v>
       </c>
-      <c r="E41" s="4" t="str"/>
-    </row>
-    <row r="42">
-      <c r="A42" s="4">
+      <c r="E41" s="2" t="str"/>
+    </row>
+    <row customHeight="true" ht="21" r="42">
+      <c r="A42" s="2">
         <v>30009</v>
       </c>
-      <c r="B42" s="4" t="str">
+      <c r="B42" s="2" t="str">
         <v>Text_Content_11006</v>
       </c>
-      <c r="C42" s="2" t="str">
+      <c r="C42" s="1" t="str">
         <v>What you play</v>
       </c>
-      <c r="D42" s="4" t="str">
+      <c r="D42" s="2" t="str">
         <v>你的身份</v>
       </c>
-      <c r="E42" s="4" t="str"/>
-    </row>
-    <row r="43">
-      <c r="A43" s="4">
+      <c r="E42" s="2" t="str"/>
+    </row>
+    <row customHeight="true" ht="21" r="43">
+      <c r="A43" s="2">
         <v>30010</v>
       </c>
-      <c r="B43" s="4" t="str">
+      <c r="B43" s="2" t="str">
         <v>Text_Content_11007</v>
       </c>
-      <c r="C43" s="2" t="str">
+      <c r="C43" s="1" t="str">
         <v>You Died</v>
       </c>
-      <c r="D43" s="4" t="str">
+      <c r="D43" s="2" t="str">
         <v>你死了</v>
       </c>
-      <c r="E43" s="4" t="str"/>
-    </row>
-    <row r="44">
-      <c r="A44" s="4">
+      <c r="E43" s="2" t="str"/>
+    </row>
+    <row customHeight="true" ht="21" r="44">
+      <c r="A44" s="2">
         <v>30011</v>
       </c>
-      <c r="B44" s="4" t="str">
+      <c r="B44" s="2" t="str">
         <v>Text_Content_11008</v>
       </c>
-      <c r="C44" s="2" t="str">
+      <c r="C44" s="1" t="str">
         <v>Victory!</v>
       </c>
-      <c r="D44" s="4" t="str">
+      <c r="D44" s="2" t="str">
         <v>胜利！</v>
       </c>
-      <c r="E44" s="4" t="str"/>
-    </row>
-    <row r="45">
-      <c r="A45" s="4">
+      <c r="E44" s="2" t="str"/>
+    </row>
+    <row customHeight="true" ht="21" r="45">
+      <c r="A45" s="2">
         <v>30012</v>
       </c>
-      <c r="B45" s="4" t="str">
+      <c r="B45" s="2" t="str">
         <v>Text_Content_11009</v>
       </c>
-      <c r="C45" s="2" t="str">
+      <c r="C45" s="1" t="str">
         <v>Kill all the players {0}/{1}</v>
       </c>
-      <c r="D45" s="4" t="str">
+      <c r="D45" s="2" t="str">
         <v>击杀所有人{0}/{1}</v>
       </c>
-      <c r="E45" s="4" t="str"/>
-    </row>
-    <row r="46">
-      <c r="A46" s="4">
+      <c r="E45" s="2" t="str"/>
+    </row>
+    <row customHeight="true" ht="21" r="46">
+      <c r="A46" s="2">
         <v>30013</v>
       </c>
-      <c r="B46" s="4" t="str">
+      <c r="B46" s="2" t="str">
         <v>Text_Content_11010</v>
       </c>
-      <c r="C46" s="2" t="str">
+      <c r="C46" s="1" t="str">
         <v>Kill the Murderer {0}/{1}</v>
       </c>
-      <c r="D46" s="4" t="str">
+      <c r="D46" s="2" t="str">
         <v>击杀凶手{0}/{1}</v>
       </c>
-      <c r="E46" s="4" t="str"/>
-    </row>
-    <row r="47">
-      <c r="A47" s="4">
+      <c r="E46" s="2" t="str"/>
+    </row>
+    <row customHeight="true" ht="21" r="47">
+      <c r="A47" s="2">
         <v>30014</v>
       </c>
-      <c r="B47" s="4" t="str">
+      <c r="B47" s="2" t="str">
         <v>Text_Content_11011</v>
       </c>
-      <c r="C47" s="2" t="str">
+      <c r="C47" s="1" t="str">
         <v>Stay alive</v>
       </c>
-      <c r="D47" s="4" t="str">
+      <c r="D47" s="2" t="str">
         <v>活下去</v>
       </c>
-      <c r="E47" s="4" t="str"/>
-    </row>
-    <row r="48">
-      <c r="A48" s="4">
+      <c r="E47" s="2" t="str"/>
+    </row>
+    <row customHeight="true" ht="21" r="48">
+      <c r="A48" s="2">
         <v>30015</v>
       </c>
-      <c r="B48" s="4" t="str">
+      <c r="B48" s="2" t="str">
         <v>Text_Content_11012</v>
       </c>
-      <c r="C48" s="2" t="str">
+      <c r="C48" s="1" t="str">
         <v>Hidden energy balls collected {0}/{1}</v>
       </c>
-      <c r="D48" s="4" t="str">
+      <c r="D48" s="2" t="str">
         <v>收集隐秘的能量球{0}/{1}</v>
       </c>
-      <c r="E48" s="4" t="str"/>
-    </row>
-    <row r="49">
-      <c r="A49" s="4">
+      <c r="E48" s="2" t="str"/>
+    </row>
+    <row customHeight="true" ht="21" r="49">
+      <c r="A49" s="2">
         <v>30016</v>
       </c>
-      <c r="B49" s="4" t="str">
+      <c r="B49" s="2" t="str">
         <v>Text_Content_11013</v>
       </c>
-      <c r="C49" s="2" t="str">
+      <c r="C49" s="1" t="str">
         <v>Time's up!</v>
       </c>
-      <c r="D49" s="4" t="str">
+      <c r="D49" s="2" t="str">
         <v>时间到！</v>
       </c>
-      <c r="E49" s="4" t="str"/>
-    </row>
-    <row r="50">
-      <c r="A50" s="4">
+      <c r="E49" s="2" t="str"/>
+    </row>
+    <row customHeight="true" ht="21" r="50">
+      <c r="A50" s="2">
         <v>30017</v>
       </c>
-      <c r="B50" s="4" t="str">
+      <c r="B50" s="2" t="str">
         <v>Text_Content_12001</v>
       </c>
-      <c r="C50" s="2" t="str">
+      <c r="C50" s="1" t="str">
         <v>The Murderer is on a killing spree!</v>
       </c>
-      <c r="D50" s="4" t="str">
+      <c r="D50" s="2" t="str">
         <v>凶手大杀特杀！</v>
       </c>
-      <c r="E50" s="4" t="str"/>
-    </row>
-    <row r="51">
-      <c r="A51" s="4">
+      <c r="E50" s="2" t="str"/>
+    </row>
+    <row customHeight="true" ht="21" r="51">
+      <c r="A51" s="2">
         <v>30018</v>
       </c>
-      <c r="B51" s="4" t="str">
+      <c r="B51" s="2" t="str">
         <v>Text_Content_12002</v>
       </c>
-      <c r="C51" s="2" t="str">
+      <c r="C51" s="1" t="str">
         <v>The Murderer kills all the players!</v>
       </c>
-      <c r="D51" s="4" t="str">
+      <c r="D51" s="2" t="str">
         <v>凶手轻松解决了所有人！</v>
       </c>
-      <c r="E51" s="4" t="str"/>
-    </row>
-    <row r="52">
-      <c r="A52" s="4">
+      <c r="E51" s="2" t="str"/>
+    </row>
+    <row customHeight="true" ht="21" r="52">
+      <c r="A52" s="2">
         <v>30019</v>
       </c>
-      <c r="B52" s="4" t="str">
+      <c r="B52" s="2" t="str">
         <v>Text_Content_12003</v>
       </c>
-      <c r="C52" s="2" t="str">
+      <c r="C52" s="1" t="str">
         <v>Detective arrested the Murderer!</v>
       </c>
-      <c r="D52" s="4" t="str">
+      <c r="D52" s="2" t="str">
         <v>侦探逮捕了凶手！</v>
       </c>
-      <c r="E52" s="4" t="str"/>
-    </row>
-    <row r="53">
-      <c r="A53" s="4">
+      <c r="E52" s="2" t="str"/>
+    </row>
+    <row customHeight="true" ht="21" r="53">
+      <c r="A53" s="2">
         <v>30020</v>
       </c>
-      <c r="B53" s="4" t="str">
+      <c r="B53" s="2" t="str">
         <v>Text_Content_12004</v>
       </c>
-      <c r="C53" s="2" t="str">
+      <c r="C53" s="1" t="str">
         <v>Hero appeared and turned the tide!</v>
       </c>
-      <c r="D53" s="4" t="str">
+      <c r="D53" s="2" t="str">
         <v>一位英雄出现并逆转了局面！</v>
       </c>
-      <c r="E53" s="4" t="str"/>
-    </row>
-    <row r="54">
-      <c r="A54" s="4">
+      <c r="E53" s="2" t="str"/>
+    </row>
+    <row customHeight="true" ht="21" r="54">
+      <c r="A54" s="2">
         <v>30021</v>
       </c>
-      <c r="B54" s="4" t="str">
+      <c r="B54" s="2" t="str">
         <v>Text_Content_12005</v>
       </c>
-      <c r="C54" s="2" t="str">
+      <c r="C54" s="1" t="str">
         <v>Murderer seems to be missing something...</v>
       </c>
-      <c r="D54" s="4" t="str">
+      <c r="D54" s="2" t="str">
         <v>凶手似乎遗漏了什么...</v>
       </c>
-      <c r="E54" s="4" t="str"/>
-    </row>
-    <row r="55">
-      <c r="A55" s="4">
+      <c r="E54" s="2" t="str"/>
+    </row>
+    <row customHeight="true" ht="21" r="55">
+      <c r="A55" s="2">
         <v>30022</v>
       </c>
-      <c r="B55" s="4" t="str">
+      <c r="B55" s="2" t="str">
         <v>Text_Content_12006</v>
       </c>
-      <c r="C55" s="2" t="str">
+      <c r="C55" s="1" t="str">
         <v>Murderer seems to be missing something...</v>
       </c>
-      <c r="D55" s="4" t="str">
+      <c r="D55" s="2" t="str">
         <v>凶手似乎遗漏了什么...</v>
       </c>
-      <c r="E55" s="4" t="str"/>
-    </row>
-    <row r="56">
-      <c r="A56" s="4">
+      <c r="E55" s="2" t="str"/>
+    </row>
+    <row customHeight="true" ht="21" r="56">
+      <c r="A56" s="2">
         <v>30023</v>
       </c>
-      <c r="B56" s="4" t="str">
+      <c r="B56" s="2" t="str">
         <v>Text_Content_20001</v>
       </c>
-      <c r="C56" s="2" t="str">
+      <c r="C56" s="1" t="str">
         <v>Murder Mystery</v>
       </c>
-      <c r="D56" s="4" t="str">
+      <c r="D56" s="2" t="str">
         <v>合宿谜团</v>
       </c>
-      <c r="E56" s="4" t="str"/>
-    </row>
-    <row r="57">
-      <c r="A57" s="4">
+      <c r="E56" s="2" t="str"/>
+    </row>
+    <row customHeight="true" ht="21" r="57">
+      <c r="A57" s="2">
         <v>30024</v>
       </c>
-      <c r="B57" s="4" t="str">
+      <c r="B57" s="2" t="str">
         <v>Text_Content_20002</v>
       </c>
-      <c r="C57" s="2" t="str">
+      <c r="C57" s="1" t="str">
         <v>Start</v>
       </c>
-      <c r="D57" s="4" t="str">
+      <c r="D57" s="2" t="str">
         <v>开始</v>
       </c>
-      <c r="E57" s="4" t="str"/>
-    </row>
-    <row r="58">
-      <c r="A58" s="4">
+      <c r="E57" s="2" t="str"/>
+    </row>
+    <row customHeight="true" ht="21" r="58">
+      <c r="A58" s="2">
         <v>30025</v>
       </c>
-      <c r="B58" s="4" t="str">
+      <c r="B58" s="2" t="str">
         <v>Text_Content_20003</v>
       </c>
-      <c r="C58" s="2" t="str">
+      <c r="C58" s="1" t="str">
         <v>View</v>
       </c>
-      <c r="D58" s="4" t="str">
+      <c r="D58" s="2" t="str">
         <v>观战</v>
       </c>
-      <c r="E58" s="4" t="str"/>
-    </row>
-    <row r="59">
-      <c r="A59" s="4">
+      <c r="E58" s="2" t="str"/>
+    </row>
+    <row customHeight="true" ht="21" r="59">
+      <c r="A59" s="2">
         <v>30026</v>
       </c>
-      <c r="B59" s="4" t="str">
+      <c r="B59" s="2" t="str">
         <v>Text_Content_20004</v>
       </c>
-      <c r="C59" s="2" t="str">
+      <c r="C59" s="1" t="str">
         <v>View Countdown</v>
       </c>
-      <c r="D59" s="4" t="str">
+      <c r="D59" s="2" t="str">
         <v>观战倒计时</v>
       </c>
-      <c r="E59" s="4" t="str"/>
-    </row>
-    <row r="60">
-      <c r="A60" s="4">
+      <c r="E59" s="2" t="str"/>
+    </row>
+    <row customHeight="true" ht="21" r="60">
+      <c r="A60" s="2">
         <v>30027</v>
       </c>
-      <c r="B60" s="4" t="str">
+      <c r="B60" s="2" t="str">
         <v>Text_Content_20005</v>
       </c>
-      <c r="C60" s="2" t="str">
+      <c r="C60" s="1" t="str">
         <v>He is playing as:</v>
       </c>
-      <c r="D60" s="4" t="str">
+      <c r="D60" s="2" t="str">
         <v>他的身份是</v>
       </c>
-      <c r="E60" s="4" t="str"/>
-    </row>
-    <row r="61">
-      <c r="A61" s="4">
+      <c r="E60" s="2" t="str"/>
+    </row>
+    <row customHeight="true" ht="21" r="61">
+      <c r="A61" s="2">
         <v>30028</v>
       </c>
-      <c r="B61" s="4" t="str">
+      <c r="B61" s="2" t="str">
         <v>Text_Content_20006</v>
       </c>
-      <c r="C61" s="2" t="str">
+      <c r="C61" s="1" t="str">
         <v>Goals for your Identity</v>
       </c>
-      <c r="D61" s="4" t="str">
+      <c r="D61" s="2" t="str">
         <v>身份目标</v>
       </c>
-      <c r="E61" s="4" t="str"/>
-    </row>
-    <row r="62">
-      <c r="A62" s="4">
+      <c r="E61" s="2" t="str"/>
+    </row>
+    <row customHeight="true" ht="21" r="62">
+      <c r="A62" s="2">
         <v>30029</v>
       </c>
-      <c r="B62" s="4" t="str">
+      <c r="B62" s="2" t="str">
         <v>Text_Content_20007</v>
       </c>
-      <c r="C62" s="2" t="str">
+      <c r="C62" s="1" t="str">
         <v>Start</v>
       </c>
-      <c r="D62" s="4" t="str">
+      <c r="D62" s="2" t="str">
         <v>开始</v>
       </c>
-      <c r="E62" s="4" t="str"/>
-    </row>
-    <row r="63">
-      <c r="A63" s="4">
+      <c r="E62" s="2" t="str"/>
+    </row>
+    <row customHeight="true" ht="21" r="63">
+      <c r="A63" s="2">
         <v>30030</v>
       </c>
-      <c r="B63" s="4" t="str">
+      <c r="B63" s="2" t="str">
         <v>Text_Content_20008</v>
       </c>
-      <c r="C63" s="2" t="str">
+      <c r="C63" s="1" t="str">
         <v>Loading...</v>
       </c>
-      <c r="D63" s="4" t="str">
+      <c r="D63" s="2" t="str">
         <v>加载中...</v>
       </c>
-      <c r="E63" s="4" t="str"/>
-    </row>
-    <row r="64">
-      <c r="A64" s="4">
+      <c r="E63" s="2" t="str"/>
+    </row>
+    <row customHeight="true" ht="21" r="64">
+      <c r="A64" s="2">
         <v>30031</v>
       </c>
-      <c r="B64" s="2" t="str">
+      <c r="B64" s="1" t="str">
         <v>Tips_Content_20002</v>
       </c>
-      <c r="C64" s="2" t="str">
+      <c r="C64" s="1" t="str">
         <v>Insufficient currency</v>
       </c>
-      <c r="D64" s="4" t="str">
+      <c r="D64" s="2" t="str">
         <v>货币不足</v>
       </c>
-      <c r="E64" s="4" t="str"/>
-    </row>
-    <row r="65">
-      <c r="A65" s="4">
+      <c r="E64" s="2" t="str"/>
+    </row>
+    <row customHeight="true" ht="21" r="65">
+      <c r="A65" s="2">
         <v>30032</v>
       </c>
-      <c r="B65" s="4" t="str">
+      <c r="B65" s="2" t="str">
         <v>Text_Content_20009</v>
       </c>
-      <c r="C65" s="2" t="str">
+      <c r="C65" s="1" t="str">
         <v>Shop</v>
       </c>
-      <c r="D65" s="4" t="str">
+      <c r="D65" s="2" t="str">
         <v>商店</v>
       </c>
-      <c r="E65" s="4" t="str"/>
-    </row>
-    <row r="66">
-      <c r="A66" s="4">
+      <c r="E65" s="2" t="str"/>
+    </row>
+    <row customHeight="true" ht="21" r="66">
+      <c r="A66" s="2">
         <v>30033</v>
       </c>
-      <c r="B66" s="4" t="str">
+      <c r="B66" s="2" t="str">
         <v>Text_Content_20010</v>
       </c>
-      <c r="C66" s="2" t="str">
+      <c r="C66" s="1" t="str">
         <v>For Murderers</v>
       </c>
-      <c r="D66" s="2" t="str">
+      <c r="D66" s="1" t="str">
         <v>凶手专用</v>
       </c>
-      <c r="E66" s="4" t="str"/>
-    </row>
-    <row r="67">
-      <c r="A67" s="4">
+      <c r="E66" s="2" t="str"/>
+    </row>
+    <row customHeight="true" ht="21" r="67">
+      <c r="A67" s="2">
         <v>30034</v>
       </c>
-      <c r="B67" s="4" t="str">
+      <c r="B67" s="2" t="str">
         <v>Text_Content_20011</v>
       </c>
-      <c r="C67" s="2" t="str">
+      <c r="C67" s="1" t="str">
         <v>For Detectives</v>
       </c>
-      <c r="D67" s="2" t="str">
+      <c r="D67" s="1" t="str">
         <v>侦探专用</v>
       </c>
-      <c r="E67" s="4" t="str"/>
-    </row>
-    <row r="68">
-      <c r="A68" s="4">
+      <c r="E67" s="2" t="str"/>
+    </row>
+    <row customHeight="true" ht="21" r="68">
+      <c r="A68" s="2">
         <v>30035</v>
       </c>
-      <c r="B68" s="4" t="str">
+      <c r="B68" s="2" t="str">
         <v>Text_Content_20012</v>
       </c>
-      <c r="C68" s="2" t="str">
+      <c r="C68" s="1" t="str">
         <v>Gun</v>
       </c>
-      <c r="D68" s="4" t="str">
+      <c r="D68" s="2" t="str">
         <v>枪</v>
       </c>
-      <c r="E68" s="4" t="str"/>
-    </row>
-    <row r="69">
-      <c r="A69" s="4">
+      <c r="E68" s="2" t="str"/>
+    </row>
+    <row customHeight="true" ht="21" r="69">
+      <c r="A69" s="2">
         <v>30036</v>
       </c>
-      <c r="B69" s="4" t="str">
+      <c r="B69" s="2" t="str">
         <v>Text_Content_20013</v>
       </c>
-      <c r="C69" s="2" t="str">
+      <c r="C69" s="1" t="str">
         <v>Knife</v>
       </c>
-      <c r="D69" s="4" t="str">
+      <c r="D69" s="2" t="str">
         <v>刀</v>
       </c>
-      <c r="E69" s="4" t="str"/>
-    </row>
-    <row r="70">
-      <c r="A70" s="4">
+      <c r="E69" s="2" t="str"/>
+    </row>
+    <row customHeight="true" ht="21" r="70">
+      <c r="A70" s="2">
         <v>30037</v>
       </c>
-      <c r="B70" s="4" t="str">
+      <c r="B70" s="2" t="str">
         <v>Text_Content_20014</v>
       </c>
-      <c r="C70" s="2" t="str">
+      <c r="C70" s="1" t="str">
         <v>Acc</v>
       </c>
-      <c r="D70" s="4" t="str">
+      <c r="D70" s="2" t="str">
         <v>挂件</v>
       </c>
-      <c r="E70" s="4" t="str"/>
-    </row>
-    <row r="71">
-      <c r="A71" s="4">
+      <c r="E70" s="2" t="str"/>
+    </row>
+    <row customHeight="true" ht="21" r="71">
+      <c r="A71" s="2">
         <v>30038</v>
       </c>
-      <c r="B71" s="4" t="str">
+      <c r="B71" s="2" t="str">
         <v>Text_Content_20015</v>
       </c>
-      <c r="C71" s="2" t="str">
+      <c r="C71" s="1" t="str">
         <v>Buy</v>
       </c>
-      <c r="D71" s="2" t="str">
+      <c r="D71" s="1" t="str">
         <v>购买</v>
       </c>
-      <c r="E71" s="4" t="str"/>
-    </row>
-    <row r="72">
-      <c r="A72" s="4">
+      <c r="E71" s="2" t="str"/>
+    </row>
+    <row customHeight="true" ht="21" r="72">
+      <c r="A72" s="2">
         <v>30039</v>
       </c>
-      <c r="B72" s="4" t="str">
+      <c r="B72" s="2" t="str">
         <v>Text_Content_20016</v>
       </c>
-      <c r="C72" s="2" t="str">
+      <c r="C72" s="1" t="str">
         <v>Use</v>
       </c>
-      <c r="D72" s="18" t="str">
+      <c r="D72" s="9" t="str">
         <v>使用</v>
       </c>
-      <c r="E72" s="4" t="str"/>
-    </row>
-    <row r="73">
-      <c r="A73" s="4">
+      <c r="E72" s="2" t="str"/>
+    </row>
+    <row customHeight="true" ht="21" r="73">
+      <c r="A73" s="2">
         <v>30040</v>
       </c>
-      <c r="B73" s="4" t="str">
+      <c r="B73" s="2" t="str">
         <v>Text_Content_20017</v>
       </c>
-      <c r="C73" s="2" t="str">
+      <c r="C73" s="1" t="str">
         <v>Take Off</v>
       </c>
-      <c r="D73" s="4" t="str">
+      <c r="D73" s="2" t="str">
         <v>脱下</v>
       </c>
-      <c r="E73" s="4" t="str"/>
-    </row>
-    <row r="74">
-      <c r="A74" s="4">
+      <c r="E73" s="2" t="str"/>
+    </row>
+    <row customHeight="true" ht="21" r="74">
+      <c r="A74" s="2">
         <v>30041</v>
       </c>
-      <c r="B74" s="4" t="str">
+      <c r="B74" s="2" t="str">
         <v>Text_Content_20018</v>
       </c>
-      <c r="C74" s="2" t="str">
+      <c r="C74" s="1" t="str">
         <v>Buy Items</v>
       </c>
-      <c r="D74" s="4" t="str">
+      <c r="D74" s="2" t="str">
         <v>购买物品</v>
       </c>
-      <c r="E74" s="4" t="str"/>
-    </row>
-    <row r="75">
-      <c r="A75" s="4">
+      <c r="E74" s="2" t="str"/>
+    </row>
+    <row customHeight="true" ht="21" r="75">
+      <c r="A75" s="2">
         <v>30042</v>
       </c>
-      <c r="B75" s="4" t="str">
+      <c r="B75" s="2" t="str">
         <v>Text_Content_20019</v>
       </c>
-      <c r="C75" s="2" t="str">
+      <c r="C75" s="1" t="str">
         <v>For the Murderers</v>
       </c>
-      <c r="D75" s="2" t="str">
+      <c r="D75" s="1" t="str">
         <v>凶手专用</v>
       </c>
-      <c r="E75" s="4" t="str"/>
-    </row>
-    <row r="76">
-      <c r="A76" s="4">
+      <c r="E75" s="2" t="str"/>
+    </row>
+    <row customHeight="true" ht="21" r="76">
+      <c r="A76" s="2">
         <v>30043</v>
       </c>
-      <c r="B76" s="4" t="str">
+      <c r="B76" s="2" t="str">
         <v>Text_Content_20020</v>
       </c>
-      <c r="C76" s="2" t="str">
+      <c r="C76" s="1" t="str">
         <v>For Detectives</v>
       </c>
-      <c r="D76" s="2" t="str">
+      <c r="D76" s="1" t="str">
         <v>侦探专用</v>
       </c>
-      <c r="E76" s="4" t="str"/>
-    </row>
-    <row r="77">
-      <c r="A77" s="4">
+      <c r="E76" s="2" t="str"/>
+    </row>
+    <row customHeight="true" ht="21" r="77">
+      <c r="A77" s="2">
         <v>30044</v>
       </c>
-      <c r="B77" s="4" t="str">
+      <c r="B77" s="2" t="str">
         <v>Text_Content_20021</v>
       </c>
-      <c r="C77" s="2" t="str">
+      <c r="C77" s="1" t="str">
         <v>Confirm</v>
       </c>
-      <c r="D77" s="4" t="str">
+      <c r="D77" s="2" t="str">
         <v>确定</v>
       </c>
-      <c r="E77" s="4" t="str"/>
-    </row>
-    <row r="78">
-      <c r="A78" s="4">
+      <c r="E77" s="2" t="str"/>
+    </row>
+    <row customHeight="true" ht="21" r="78">
+      <c r="A78" s="2">
         <v>30045</v>
       </c>
-      <c r="B78" s="4" t="str">
+      <c r="B78" s="2" t="str">
         <v>Text_Content_20022</v>
       </c>
-      <c r="C78" s="2" t="str">
+      <c r="C78" s="1" t="str">
         <v>Cancel</v>
       </c>
-      <c r="D78" s="4" t="str">
+      <c r="D78" s="2" t="str">
         <v>取消</v>
       </c>
-      <c r="E78" s="4" t="str"/>
-    </row>
-    <row r="79">
-      <c r="A79" s="4">
+      <c r="E78" s="2" t="str"/>
+    </row>
+    <row customHeight="true" ht="21" r="79">
+      <c r="A79" s="2">
         <v>30046</v>
       </c>
-      <c r="B79" s="4" t="str">
+      <c r="B79" s="2" t="str">
         <v>Text_Content_20023</v>
       </c>
-      <c r="C79" s="2" t="str">
+      <c r="C79" s="1" t="str">
         <v>Tap anywhere to go back</v>
       </c>
-      <c r="D79" s="2" t="str">
+      <c r="D79" s="1" t="str">
         <v>点击任意一处返回</v>
       </c>
-      <c r="E79" s="4" t="str"/>
-    </row>
-    <row r="80">
-      <c r="A80" s="4">
+      <c r="E79" s="2" t="str"/>
+    </row>
+    <row customHeight="true" ht="21" r="80">
+      <c r="A80" s="2">
         <v>30047</v>
       </c>
-      <c r="B80" s="4" t="str">
+      <c r="B80" s="2" t="str">
         <v>Text_Content_20024</v>
       </c>
-      <c r="C80" s="2" t="str">
+      <c r="C80" s="1" t="str">
         <v>Purchase Successfully</v>
       </c>
-      <c r="D80" s="2" t="str">
+      <c r="D80" s="1" t="str">
         <v>购买成功</v>
       </c>
-      <c r="E80" s="4" t="str"/>
-    </row>
-    <row r="81">
-      <c r="A81" s="4">
+      <c r="E80" s="2" t="str"/>
+    </row>
+    <row customHeight="true" ht="21" r="81">
+      <c r="A81" s="2">
         <v>30048</v>
       </c>
-      <c r="B81" s="4" t="str">
+      <c r="B81" s="2" t="str">
         <v>Text_Content_20025</v>
       </c>
-      <c r="C81" s="2" t="str">
+      <c r="C81" s="1" t="str">
         <v>Use</v>
       </c>
-      <c r="D81" s="18" t="str">
+      <c r="D81" s="9" t="str">
         <v>使用</v>
       </c>
-      <c r="E81" s="4" t="str"/>
-    </row>
-    <row r="82">
-      <c r="A82" s="4">
+      <c r="E81" s="2" t="str"/>
+    </row>
+    <row customHeight="true" ht="21" r="82">
+      <c r="A82" s="2">
         <v>30049</v>
       </c>
-      <c r="B82" s="14" t="str">
+      <c r="B82" s="3" t="str">
         <v>Text_Content_10301</v>
       </c>
-      <c r="C82" s="14" t="str">
+      <c r="C82" s="3" t="str">
         <v>Please select a map to play</v>
       </c>
-      <c r="D82" s="14" t="str">
+      <c r="D82" s="3" t="str">
         <v>请选择要游玩的地图</v>
       </c>
-      <c r="E82" s="4" t="str"/>
-    </row>
-    <row r="83">
-      <c r="A83" s="4">
+      <c r="E82" s="2" t="str"/>
+    </row>
+    <row customHeight="true" ht="21" r="83">
+      <c r="A83" s="2">
         <v>30050</v>
       </c>
-      <c r="B83" s="14" t="str">
+      <c r="B83" s="3" t="str">
         <v>Text_Content_10302</v>
       </c>
-      <c r="C83" s="14" t="str">
+      <c r="C83" s="3" t="str">
         <v>Map Selected</v>
       </c>
-      <c r="D83" s="14" t="str">
+      <c r="D83" s="3" t="str">
         <v>地图已选出</v>
       </c>
-      <c r="E83" s="4" t="str"/>
-    </row>
-    <row r="84">
-      <c r="A84" s="4">
+      <c r="E83" s="2" t="str"/>
+    </row>
+    <row customHeight="true" ht="21" r="84">
+      <c r="A84" s="2">
         <v>30051</v>
       </c>
-      <c r="B84" s="14" t="str">
+      <c r="B84" s="3" t="str">
         <v>Text_Content_10004</v>
       </c>
-      <c r="C84" s="14" t="str">
+      <c r="C84" s="3" t="str">
         <v>Randomizing</v>
       </c>
-      <c r="D84" s="14" t="str">
+      <c r="D84" s="3" t="str">
         <v>随机地图中</v>
       </c>
-      <c r="E84" s="4" t="str"/>
-    </row>
-    <row r="85">
-      <c r="A85" s="4">
+      <c r="E84" s="2" t="str"/>
+    </row>
+    <row customHeight="true" ht="21" r="85">
+      <c r="A85" s="2">
         <v>30052</v>
       </c>
-      <c r="B85" s="14" t="str">
+      <c r="B85" s="3" t="str">
         <v>Text_Content_20029</v>
       </c>
-      <c r="C85" s="14" t="str">
+      <c r="C85" s="3" t="str">
         <v>Trail</v>
       </c>
-      <c r="D85" s="18" t="str">
+      <c r="D85" s="9" t="str">
         <v>拖尾</v>
       </c>
-      <c r="E85" s="4"/>
-    </row>
-    <row r="86">
-      <c r="A86" s="4">
+      <c r="E85" s="2"/>
+    </row>
+    <row customHeight="true" ht="21" r="86">
+      <c r="A86" s="2">
         <v>30053</v>
       </c>
-      <c r="B86" s="14" t="str">
+      <c r="B86" s="3" t="str">
         <v>Text_Content_20030</v>
       </c>
-      <c r="C86" s="14" t="str">
+      <c r="C86" s="3" t="str">
         <v>Get it for free</v>
       </c>
-      <c r="D86" s="18" t="str">
+      <c r="D86" s="9" t="str">
         <v>免费领取</v>
       </c>
-      <c r="E86" s="4" t="str"/>
-    </row>
-    <row r="87">
-      <c r="A87" s="4">
+      <c r="E86" s="2" t="str"/>
+    </row>
+    <row customHeight="true" ht="21" r="87">
+      <c r="A87" s="2">
         <v>30054</v>
       </c>
-      <c r="B87" s="14" t="str">
+      <c r="B87" s="3" t="str">
         <v>Text_Content_20031</v>
       </c>
-      <c r="C87" s="14" t="str">
+      <c r="C87" s="3" t="str">
         <v>Watch ads to get extra rewards</v>
       </c>
-      <c r="D87" s="18" t="str">
+      <c r="D87" s="9" t="str">
         <v>观看广告领取额外奖励</v>
       </c>
-      <c r="E87" s="4" t="str"/>
-    </row>
-    <row r="88">
-      <c r="A88" s="4">
+      <c r="E87" s="2" t="str"/>
+    </row>
+    <row customHeight="true" ht="21" r="88">
+      <c r="A88" s="2">
         <v>30055</v>
       </c>
-      <c r="B88" s="14" t="str">
+      <c r="B88" s="3" t="str">
         <v>Text_Content_20032</v>
       </c>
-      <c r="C88" s="14" t="str">
+      <c r="C88" s="3" t="str">
         <v>Watch the ad to receive compensation</v>
       </c>
-      <c r="D88" s="14" t="str">
+      <c r="D88" s="3" t="str">
         <v>观看广告领取补偿</v>
       </c>
-      <c r="E88" s="4" t="str"/>
-    </row>
-    <row r="89">
-      <c r="A89" s="4">
+      <c r="E88" s="2" t="str"/>
+    </row>
+    <row customHeight="true" ht="21" r="89">
+      <c r="A89" s="2">
         <v>30056</v>
       </c>
-      <c r="B89" s="14" t="str">
+      <c r="B89" s="3" t="str">
         <v>Text_Content_20033</v>
       </c>
-      <c r="C89" s="14" t="str">
+      <c r="C89" s="3" t="str">
         <v>Congratulations on receiving</v>
       </c>
-      <c r="D89" s="18" t="str">
+      <c r="D89" s="9" t="str">
         <v>恭喜获得</v>
       </c>
-      <c r="E89" s="4" t="str"/>
-    </row>
-    <row r="90">
-      <c r="A90" s="4">
+      <c r="E89" s="2" t="str"/>
+    </row>
+    <row customHeight="true" ht="21" r="90">
+      <c r="A90" s="2">
         <v>30057</v>
       </c>
-      <c r="B90" s="14" t="str">
+      <c r="B90" s="3" t="str">
         <v>Tips_Content_20003</v>
       </c>
-      <c r="C90" s="14" t="str">
+      <c r="C90" s="3" t="str">
         <v>It's not ready yet, please wait a little longer to get it~</v>
       </c>
-      <c r="D90" s="18" t="str">
+      <c r="D90" s="9" t="str">
         <v>时间还没到，再等一下才能获得哦~</v>
       </c>
-      <c r="E90" s="4" t="str"/>
-    </row>
-    <row r="91">
-      <c r="A91" s="4">
+      <c r="E90" s="2" t="str"/>
+    </row>
+    <row customHeight="true" ht="21" r="91">
+      <c r="A91" s="2">
         <v>30058</v>
       </c>
-      <c r="B91" s="14" t="str">
+      <c r="B91" s="3" t="str">
         <v>Tips_Content_20004</v>
       </c>
-      <c r="C91" s="14" t="str">
+      <c r="C91" s="3" t="str">
         <v>You've already received plenty of rewards today, so please come back tomorrow~</v>
       </c>
-      <c r="D91" s="18" t="str">
+      <c r="D91" s="9" t="str">
         <v>今天已经得到很多奖励了，明天再来吧~</v>
       </c>
-      <c r="E91" s="4" t="str"/>
-    </row>
-    <row r="92">
-      <c r="A92" s="4">
+      <c r="E91" s="2" t="str"/>
+    </row>
+    <row customHeight="true" ht="21" r="92">
+      <c r="A92" s="2">
         <v>30059</v>
       </c>
-      <c r="B92" s="14" t="str">
+      <c r="B92" s="3" t="str">
         <v>Text_Content_11014</v>
       </c>
-      <c r="C92" s="14" t="str">
+      <c r="C92" s="3" t="str">
         <v>Available</v>
       </c>
-      <c r="D92" s="18" t="str">
+      <c r="D92" s="9" t="str">
         <v>待拾取</v>
       </c>
-      <c r="E92" s="4"/>
-    </row>
-    <row r="93">
-      <c r="A93" s="4">
+      <c r="E92" s="2"/>
+    </row>
+    <row customHeight="true" ht="21" r="93">
+      <c r="A93" s="2">
         <v>30060</v>
       </c>
-      <c r="B93" s="14" t="str">
+      <c r="B93" s="3" t="str">
         <v>Text_Content_11015</v>
       </c>
-      <c r="C93" s="14" t="str">
+      <c r="C93" s="3" t="str">
         <v>Exist</v>
       </c>
-      <c r="D93" s="18" t="str">
+      <c r="D93" s="9" t="str">
         <v>存在</v>
       </c>
-      <c r="E93" s="4"/>
-    </row>
-    <row r="94">
-      <c r="A94" s="4">
+      <c r="E93" s="2"/>
+    </row>
+    <row customHeight="true" ht="21" r="94">
+      <c r="A94" s="2">
         <v>30061</v>
       </c>
-      <c r="B94" s="14" t="str">
+      <c r="B94" s="3" t="str">
         <v>Text_Content_11016</v>
       </c>
-      <c r="C94" s="14" t="str">
+      <c r="C94" s="3" t="str">
         <v>Survival experience +{0}EXP</v>
       </c>
-      <c r="D94" s="18" t="str">
+      <c r="D94" s="9" t="str">
         <v>存活经验+{0}EXP</v>
       </c>
-      <c r="E94" s="4"/>
-    </row>
-    <row r="95">
-      <c r="A95" s="4">
+      <c r="E94" s="2"/>
+    </row>
+    <row customHeight="true" ht="21" r="95">
+      <c r="A95" s="2">
         <v>30062</v>
       </c>
-      <c r="B95" s="14" t="str">
+      <c r="B95" s="3" t="str">
         <v>Text_Content_12007</v>
       </c>
-      <c r="C95" s="14" t="str">
+      <c r="C95" s="3" t="str">
         <v>Reward</v>
       </c>
-      <c r="D95" s="14" t="str">
+      <c r="D95" s="3" t="str">
         <v>奖励</v>
       </c>
-      <c r="E95" s="4" t="str"/>
-    </row>
-    <row r="96">
-      <c r="A96" s="4">
+      <c r="E95" s="2" t="str"/>
+    </row>
+    <row customHeight="true" ht="21" r="96">
+      <c r="A96" s="2">
         <v>30063</v>
       </c>
-      <c r="B96" s="2" t="str">
+      <c r="B96" s="1" t="str">
         <v>Text_Content_12008</v>
       </c>
-      <c r="C96" s="2" t="str">
+      <c r="C96" s="1" t="str">
         <v>Identity</v>
       </c>
-      <c r="D96" s="2" t="str">
+      <c r="D96" s="1" t="str">
         <v>本局身份</v>
       </c>
-      <c r="E96" s="4" t="str"/>
-    </row>
-    <row r="97">
-      <c r="A97" s="4">
+      <c r="E96" s="2" t="str"/>
+    </row>
+    <row customHeight="true" ht="21" r="97">
+      <c r="A97" s="2">
         <v>30064</v>
       </c>
-      <c r="B97" s="2" t="str">
+      <c r="B97" s="1" t="str">
         <v>Text_Content_12009</v>
       </c>
-      <c r="C97" s="2" t="str">
+      <c r="C97" s="1" t="str">
         <v>Coins</v>
       </c>
-      <c r="D97" s="2" t="str">
+      <c r="D97" s="1" t="str">
         <v>收集金币</v>
       </c>
-      <c r="E97" s="4" t="str"/>
-    </row>
-    <row r="98">
-      <c r="A98" s="4">
+      <c r="E97" s="2" t="str"/>
+    </row>
+    <row customHeight="true" ht="21" r="98">
+      <c r="A98" s="2">
         <v>30065</v>
       </c>
-      <c r="B98" s="2" t="str">
+      <c r="B98" s="1" t="str">
         <v>Text_Content_12010</v>
       </c>
-      <c r="C98" s="2" t="str">
+      <c r="C98" s="1" t="str">
         <v>Defeats {0}</v>
       </c>
-      <c r="D98" s="2" t="str">
+      <c r="D98" s="1" t="str">
         <v>消灭了{0}名学生！</v>
       </c>
-      <c r="E98" s="4" t="str"/>
-    </row>
-    <row r="99">
-      <c r="A99" s="4">
+      <c r="E98" s="2" t="str"/>
+    </row>
+    <row customHeight="true" ht="21" r="99">
+      <c r="A99" s="2">
         <v>30066</v>
       </c>
-      <c r="B99" s="2" t="str">
+      <c r="B99" s="1" t="str">
         <v>Text_Content_12011</v>
       </c>
-      <c r="C99" s="2" t="str">
+      <c r="C99" s="1" t="str">
         <v>Survived for {0}mins {1} s</v>
       </c>
-      <c r="D99" s="2" t="str">
+      <c r="D99" s="1" t="str">
         <v>已存活{0}分{1}秒</v>
       </c>
-      <c r="E99" s="4" t="str"/>
-    </row>
-    <row r="100">
-      <c r="A100" s="4">
+      <c r="E99" s="2" t="str"/>
+    </row>
+    <row customHeight="true" ht="21" r="100">
+      <c r="A100" s="2">
         <v>30067</v>
       </c>
-      <c r="B100" s="2" t="str">
+      <c r="B100" s="1" t="str">
         <v>Text_Content_12012</v>
       </c>
-      <c r="C100" s="2" t="str">
+      <c r="C100" s="1" t="str">
         <v>Saved {0} Students</v>
       </c>
-      <c r="D100" s="2" t="str">
+      <c r="D100" s="1" t="str">
         <v>拯救了{0}位学生</v>
       </c>
-      <c r="E100" s="4" t="str"/>
-    </row>
-    <row r="101">
-      <c r="A101" s="4">
+      <c r="E100" s="2" t="str"/>
+    </row>
+    <row customHeight="true" ht="21" r="101">
+      <c r="A101" s="2">
         <v>30068</v>
       </c>
-      <c r="B101" s="2" t="str">
+      <c r="B101" s="1" t="str">
         <v>Text_Content_12013</v>
       </c>
-      <c r="C101" s="2" t="str">
+      <c r="C101" s="1" t="str">
         <v>Saved {0} Students</v>
       </c>
-      <c r="D101" s="2" t="str">
+      <c r="D101" s="1" t="str">
         <v>拯救了{0}位学生</v>
       </c>
-      <c r="E101" s="4" t="str"/>
-    </row>
-    <row r="102">
-      <c r="A102" s="4">
+      <c r="E101" s="2" t="str"/>
+    </row>
+    <row customHeight="true" ht="21" r="102">
+      <c r="A102" s="2">
         <v>30069</v>
       </c>
-      <c r="B102" s="2" t="str">
+      <c r="B102" s="1" t="str">
         <v>Text_Content_12014</v>
       </c>
-      <c r="C102" s="31" t="str">
+      <c r="C102" s="24" t="str">
         <v>× 1.5 (Bonus)</v>
       </c>
-      <c r="D102" s="2" t="str">
+      <c r="D102" s="1" t="str">
         <v>× 1.5 ( 胜利奖励)</v>
       </c>
-      <c r="E102" s="4" t="str"/>
-    </row>
-    <row r="103">
-      <c r="A103" s="4">
+      <c r="E102" s="2" t="str"/>
+    </row>
+    <row customHeight="true" ht="21" r="103">
+      <c r="A103" s="2">
         <v>30070</v>
       </c>
-      <c r="B103" s="2" t="str">
+      <c r="B103" s="1" t="str">
         <v>Text_Content_12015</v>
       </c>
-      <c r="C103" s="31" t="str">
+      <c r="C103" s="24" t="str">
         <v>+ 900 (Bonus )</v>
       </c>
-      <c r="D103" s="2" t="str">
+      <c r="D103" s="1" t="str">
         <v>+ 900 ( 胜利奖励)</v>
       </c>
-      <c r="E103" s="4" t="str"/>
-    </row>
-    <row customHeight="true" ht="19" r="104">
-      <c r="A104" s="4">
+      <c r="E103" s="2" t="str"/>
+    </row>
+    <row customHeight="true" ht="21" r="104">
+      <c r="A104" s="2">
         <v>30071</v>
       </c>
-      <c r="B104" s="2" t="str">
+      <c r="B104" s="1" t="str">
         <v>Text_Content_12016</v>
       </c>
-      <c r="C104" s="2" t="str">
+      <c r="C104" s="1" t="str">
         <v>Watch ads to get double coins!</v>
       </c>
-      <c r="D104" s="2" t="str">
+      <c r="D104" s="1" t="str">
         <v>观看广告，获得双倍金币！</v>
       </c>
-      <c r="E104" s="4" t="str">
+      <c r="E104" s="2" t="str">
         <v>UI按钮上的文字</v>
       </c>
     </row>
-    <row customHeight="true" ht="19" r="105">
-      <c r="A105" s="4">
+    <row customHeight="true" ht="21" r="105">
+      <c r="A105" s="2">
         <v>30072</v>
       </c>
-      <c r="B105" s="26" t="str">
+      <c r="B105" s="1" t="str">
         <v>Text_Content_12017</v>
       </c>
-      <c r="C105" s="2" t="str">
+      <c r="C105" s="1" t="str">
         <v>GET</v>
       </c>
-      <c r="D105" s="2" t="str">
+      <c r="D105" s="1" t="str">
         <v>观看</v>
       </c>
-      <c r="E105" s="4" t="str">
+      <c r="E105" s="2" t="str">
         <v>UI按钮上的文字</v>
       </c>
     </row>
-    <row customHeight="true" ht="19" r="106">
-      <c r="A106" s="18">
+    <row customHeight="true" ht="21" r="106">
+      <c r="A106" s="9">
         <v>30073</v>
       </c>
-      <c r="B106" s="14" t="str">
+      <c r="B106" s="3" t="str">
         <v>Text_Content_12018</v>
       </c>
-      <c r="C106" s="14" t="str">
+      <c r="C106" s="3" t="str">
         <v>Lottery</v>
       </c>
-      <c r="D106" s="14" t="str">
+      <c r="D106" s="3" t="str">
         <v>抽奖</v>
       </c>
-      <c r="E106" s="18" t="str">
+      <c r="E106" s="9" t="str">
         <v>UI按钮上的文字</v>
       </c>
     </row>
-    <row customHeight="true" ht="19" r="107">
-      <c r="A107" s="18">
+    <row customHeight="true" ht="21" r="107">
+      <c r="A107" s="9">
         <v>30074</v>
       </c>
-      <c r="B107" s="14" t="str">
+      <c r="B107" s="3" t="str">
         <v>Text_Content_12019</v>
       </c>
-      <c r="C107" s="14" t="str">
+      <c r="C107" s="3" t="str">
         <v>Weapon Box</v>
       </c>
-      <c r="D107" s="14" t="str">
+      <c r="D107" s="3" t="str">
         <v>武器箱</v>
       </c>
-      <c r="E107" s="18" t="str">
+      <c r="E107" s="9" t="str">
         <v>UI按钮上的文字</v>
       </c>
     </row>
-    <row customHeight="true" ht="19" r="108">
-      <c r="A108" s="18">
+    <row customHeight="true" ht="21" r="108">
+      <c r="A108" s="9">
         <v>30075</v>
       </c>
-      <c r="B108" s="14" t="str">
+      <c r="B108" s="3" t="str">
         <v>Text_Content_12020</v>
       </c>
-      <c r="C108" s="14" t="str">
+      <c r="C108" s="3" t="str">
         <v>Watch the ad for a free draw</v>
       </c>
-      <c r="D108" s="14" t="str">
+      <c r="D108" s="3" t="str">
         <v>观看广告，免费抽奖一次</v>
       </c>
-      <c r="E108" s="18" t="str">
+      <c r="E108" s="9" t="str">
         <v>UI按钮上的文字</v>
       </c>
     </row>
-    <row customHeight="true" ht="19" r="109">
-      <c r="A109" s="18">
+    <row customHeight="true" ht="21" r="109">
+      <c r="A109" s="9">
         <v>30076</v>
       </c>
-      <c r="B109" s="14" t="str">
+      <c r="B109" s="3" t="str">
         <v>Text_Content_12021</v>
       </c>
-      <c r="C109" s="14" t="str">
+      <c r="C109" s="3" t="str">
         <v>Until the next free draw:</v>
       </c>
-      <c r="D109" s="14" t="str">
+      <c r="D109" s="3" t="str">
         <v>距离下次免费：</v>
       </c>
-      <c r="E109" s="18" t="str">
+      <c r="E109" s="9" t="str">
         <v>UI按钮上的文字</v>
       </c>
     </row>
-    <row customHeight="true" ht="19" r="110">
-      <c r="A110" s="18">
+    <row customHeight="true" ht="21" r="110">
+      <c r="A110" s="9">
         <v>30077</v>
       </c>
-      <c r="B110" s="14" t="str">
+      <c r="B110" s="3" t="str">
         <v>Text_Content_12022</v>
       </c>
-      <c r="C110" s="14" t="str">
+      <c r="C110" s="3" t="str">
         <v>Your draws</v>
       </c>
-      <c r="D110" s="14" t="str">
+      <c r="D110" s="3" t="str">
         <v>累计抽奖</v>
       </c>
-      <c r="E110" s="18" t="str">
+      <c r="E110" s="9" t="str">
         <v>UI按钮上的文字</v>
       </c>
     </row>
-    <row customHeight="true" ht="19" r="111">
-      <c r="A111" s="18">
+    <row customHeight="true" ht="21" r="111">
+      <c r="A111" s="9">
         <v>30078</v>
       </c>
-      <c r="B111" s="14" t="str">
+      <c r="B111" s="3" t="str">
         <v>Text_Content_12023</v>
       </c>
-      <c r="C111" s="14" t="str">
+      <c r="C111" s="3" t="str">
         <v>Next time you will get a RED quality weapon</v>
       </c>
-      <c r="D111" s="14" t="str">
+      <c r="D111" s="3" t="str">
         <v>下次必得红色品质武器</v>
       </c>
-      <c r="E111" s="18" t="str">
+      <c r="E111" s="9" t="str">
         <v>UI按钮上的文字</v>
       </c>
     </row>
-    <row customHeight="true" ht="19" r="112">
-      <c r="A112" s="18">
+    <row customHeight="true" ht="21" r="112">
+      <c r="A112" s="9">
         <v>30079</v>
       </c>
-      <c r="B112" s="14" t="str">
+      <c r="B112" s="3" t="str">
         <v>Text_Content_12024</v>
       </c>
-      <c r="C112" s="14" t="str">
+      <c r="C112" s="3" t="str">
         <v>Box opening...</v>
       </c>
-      <c r="D112" s="14" t="str">
+      <c r="D112" s="3" t="str">
         <v>正在打开箱子...</v>
       </c>
-      <c r="E112" s="18" t="str">
+      <c r="E112" s="9" t="str">
         <v>UI按钮上的文字</v>
       </c>
     </row>
-    <row customHeight="true" ht="19" r="113">
-      <c r="A113" s="18">
+    <row customHeight="true" ht="21" r="113">
+      <c r="A113" s="9">
         <v>30080</v>
       </c>
-      <c r="B113" s="14" t="str">
+      <c r="B113" s="3" t="str">
         <v>Text_Content_12025</v>
       </c>
-      <c r="C113" s="14" t="str">
+      <c r="C113" s="3" t="str">
         <v>Congratulations!</v>
       </c>
-      <c r="D113" s="14" t="str">
+      <c r="D113" s="3" t="str">
         <v>恭喜获得</v>
       </c>
-      <c r="E113" s="18" t="str">
+      <c r="E113" s="9" t="str">
         <v>UI按钮上的文字</v>
       </c>
     </row>
-    <row customHeight="true" ht="19" r="114">
-      <c r="A114" s="18">
+    <row customHeight="true" ht="21" r="114">
+      <c r="A114" s="9">
         <v>30081</v>
       </c>
-      <c r="B114" s="14" t="str">
+      <c r="B114" s="3" t="str">
         <v>Text_Content_12026</v>
       </c>
-      <c r="C114" s="14" t="str">
+      <c r="C114" s="3" t="str">
         <v>Owned, automatically recycled to gold coins</v>
       </c>
-      <c r="D114" s="14" t="str">
+      <c r="D114" s="3" t="str">
         <v>已拥有，自动回收为金币</v>
       </c>
-      <c r="E114" s="18" t="str">
+      <c r="E114" s="9" t="str">
         <v>UI按钮上的文字</v>
       </c>
     </row>
-    <row r="115">
-      <c r="A115" s="18">
+    <row customHeight="true" ht="21" r="115">
+      <c r="A115" s="9">
         <v>30082</v>
       </c>
-      <c r="B115" s="14" t="str">
+      <c r="B115" s="3" t="str">
         <v>Text_Content_11017</v>
       </c>
-      <c r="C115" s="14" t="str">
+      <c r="C115" s="3" t="str">
         <v>Defeat everyone and leave no one out!</v>
       </c>
-      <c r="D115" s="18" t="str">
+      <c r="D115" s="9" t="str">
         <v>击败所有人，一个也不要放过！</v>
       </c>
-      <c r="E115" s="18"/>
-    </row>
-    <row r="116">
-      <c r="A116" s="18">
+      <c r="E115" s="9"/>
+    </row>
+    <row customHeight="true" ht="21" r="116">
+      <c r="A116" s="9">
         <v>30083</v>
       </c>
-      <c r="B116" s="14" t="str">
+      <c r="B116" s="3" t="str">
         <v>Text_Content_11018</v>
       </c>
-      <c r="C116" s="14" t="str">
+      <c r="C116" s="3" t="str">
         <v>You are Detective, defeat the Murderer!</v>
       </c>
-      <c r="D116" s="18" t="str">
+      <c r="D116" s="9" t="str">
         <v>你是侦探，寻找凶手并击败他！</v>
       </c>
-      <c r="E116" s="18"/>
-    </row>
-    <row r="117">
-      <c r="A117" s="18">
+      <c r="E116" s="9"/>
+    </row>
+    <row customHeight="true" ht="21" r="117">
+      <c r="A117" s="9">
         <v>30084</v>
       </c>
-      <c r="B117" s="14" t="str">
+      <c r="B117" s="3" t="str">
         <v>Text_Content_11019</v>
       </c>
-      <c r="C117" s="14" t="str">
+      <c r="C117" s="3" t="str">
         <v>You're the Hero, find the Murderer and defeat him!</v>
       </c>
-      <c r="D117" s="18" t="str">
+      <c r="D117" s="9" t="str">
         <v>你化身英雄，找到凶手击败他！</v>
       </c>
-      <c r="E117" s="18"/>
-    </row>
-    <row r="118">
-      <c r="A118" s="18">
+      <c r="E117" s="9"/>
+    </row>
+    <row customHeight="true" ht="21" r="118">
+      <c r="A118" s="9">
         <v>30085</v>
       </c>
-      <c r="B118" s="14" t="str">
+      <c r="B118" s="3" t="str">
         <v>Text_Content_11020</v>
       </c>
-      <c r="C118" s="14" t="str">
+      <c r="C118" s="3" t="str">
         <v>Survive...</v>
       </c>
-      <c r="D118" s="18" t="str">
+      <c r="D118" s="9" t="str">
         <v>活下去...</v>
       </c>
-      <c r="E118" s="18"/>
-    </row>
-    <row r="119">
-      <c r="A119" s="18">
+      <c r="E118" s="9"/>
+    </row>
+    <row customHeight="true" ht="21" r="119">
+      <c r="A119" s="9">
         <v>30086</v>
       </c>
-      <c r="B119" s="14" t="str">
+      <c r="B119" s="3" t="str">
         <v>Text_Content_20034</v>
       </c>
-      <c r="C119" s="14" t="str">
+      <c r="C119" s="3" t="str">
         <v>Terminator!</v>
       </c>
-      <c r="D119" s="18" t="str">
+      <c r="D119" s="9" t="str">
         <v>本轮终结者！</v>
       </c>
-      <c r="E119" s="18"/>
-    </row>
-    <row customHeight="true" ht="19" r="120">
-      <c r="A120" s="18">
+      <c r="E119" s="9"/>
+    </row>
+    <row customHeight="true" ht="21" r="120">
+      <c r="A120" s="9">
         <v>30087</v>
       </c>
-      <c r="B120" s="14" t="str">
+      <c r="B120" s="3" t="str">
         <v>Text_Content_20035</v>
       </c>
-      <c r="C120" s="14" t="str">
+      <c r="C120" s="3" t="str">
         <v>Lottery</v>
       </c>
-      <c r="D120" s="18" t="str">
+      <c r="D120" s="9" t="str">
         <v>抽奖获得</v>
       </c>
-      <c r="E120" s="18"/>
-    </row>
-    <row r="121">
-      <c r="A121" s="4">
+      <c r="E120" s="9"/>
+    </row>
+    <row customHeight="true" ht="21" r="121">
+      <c r="A121" s="2">
         <v>40001</v>
       </c>
-      <c r="B121" s="4" t="str">
+      <c r="B121" s="2" t="str">
         <v>Tips_Content_10001</v>
       </c>
-      <c r="C121" s="2" t="str">
+      <c r="C121" s="1" t="str">
         <v>Please pick up your weapon first!</v>
       </c>
-      <c r="D121" s="4" t="str">
+      <c r="D121" s="2" t="str">
         <v>请先拿出武器！</v>
       </c>
-      <c r="E121" s="4" t="str">
+      <c r="E121" s="2" t="str">
         <v>40000：提示表</v>
       </c>
     </row>
-    <row r="122">
-      <c r="A122" s="4">
+    <row customHeight="true" ht="21" r="122">
+      <c r="A122" s="2">
         <v>40002</v>
       </c>
-      <c r="B122" s="4" t="str">
+      <c r="B122" s="2" t="str">
         <v>Tips_Content_10002</v>
       </c>
-      <c r="C122" s="2" t="str">
+      <c r="C122" s="1" t="str">
         <v>You are a Hero now! Pick up your weapon and attack!</v>
       </c>
-      <c r="D122" s="4" t="str">
+      <c r="D122" s="2" t="str">
         <v>变成了英雄！可以拿出武器攻击了！</v>
       </c>
-      <c r="E122" s="4" t="str"/>
-    </row>
-    <row r="123">
-      <c r="A123" s="4">
+      <c r="E122" s="2" t="str"/>
+    </row>
+    <row customHeight="true" ht="21" r="123">
+      <c r="A123" s="2">
         <v>40003</v>
       </c>
-      <c r="B123" s="4" t="str">
+      <c r="B123" s="2" t="str">
         <v>Tips_Content_10003</v>
       </c>
-      <c r="C123" s="2" t="str">
+      <c r="C123" s="1" t="str">
         <v>Energy balls collected +1~</v>
       </c>
-      <c r="D123" s="4" t="str">
+      <c r="D123" s="2" t="str">
         <v>收集能量球数量+1~</v>
       </c>
-      <c r="E123" s="4" t="str"/>
-    </row>
-    <row r="124">
-      <c r="A124" s="4">
+      <c r="E123" s="2" t="str"/>
+    </row>
+    <row customHeight="true" ht="21" r="124">
+      <c r="A124" s="2">
         <v>40004</v>
       </c>
-      <c r="B124" s="4" t="str">
+      <c r="B124" s="2" t="str">
         <v>Tips_Content_10004</v>
       </c>
-      <c r="C124" s="2" t="str">
+      <c r="C124" s="1" t="str">
         <v>Energy balls obtained in this round is full!</v>
       </c>
-      <c r="D124" s="4" t="str">
+      <c r="D124" s="2" t="str">
         <v>本局获得能量球数量已满！</v>
       </c>
-      <c r="E124" s="4" t="str"/>
-    </row>
-    <row r="125">
-      <c r="A125" s="4">
+      <c r="E124" s="2" t="str"/>
+    </row>
+    <row customHeight="true" ht="21" r="125">
+      <c r="A125" s="2">
         <v>40005</v>
       </c>
-      <c r="B125" s="4" t="str">
+      <c r="B125" s="2" t="str">
         <v>Tips_Content_10005</v>
       </c>
-      <c r="C125" s="2" t="str">
+      <c r="C125" s="1" t="str">
         <v>Energy shield obtained! You can resist an attack now!</v>
       </c>
-      <c r="D125" s="4" t="str">
+      <c r="D125" s="2" t="str">
         <v>获得了能量保护壳！可以抵挡一次攻击！</v>
       </c>
-      <c r="E125" s="4" t="str"/>
-    </row>
-    <row r="126">
-      <c r="A126" s="4">
+      <c r="E125" s="2" t="str"/>
+    </row>
+    <row customHeight="true" ht="21" r="126">
+      <c r="A126" s="2">
         <v>40006</v>
       </c>
-      <c r="B126" s="4" t="str">
+      <c r="B126" s="2" t="str">
         <v>Tips_Content_10006</v>
       </c>
-      <c r="C126" s="2" t="str">
+      <c r="C126" s="1" t="str">
         <v>Energy shield is shattered! Be careful!</v>
       </c>
-      <c r="D126" s="4" t="str">
+      <c r="D126" s="2" t="str">
         <v>能量保护壳被击碎了！小心！</v>
       </c>
-      <c r="E126" s="4" t="str"/>
-    </row>
-    <row r="127">
-      <c r="A127" s="4">
+      <c r="E126" s="2" t="str"/>
+    </row>
+    <row customHeight="true" ht="21" r="127">
+      <c r="A127" s="2">
         <v>40007</v>
       </c>
-      <c r="B127" s="4" t="str">
+      <c r="B127" s="2" t="str">
         <v>Tips_Content_10007</v>
       </c>
-      <c r="C127" s="2" t="str">
+      <c r="C127" s="1" t="str">
         <v>Energy of the shield is absorbed...</v>
       </c>
-      <c r="D127" s="4" t="str">
+      <c r="D127" s="2" t="str">
         <v>保护壳的能量被吸收了...</v>
       </c>
-      <c r="E127" s="4" t="str"/>
-    </row>
-    <row r="128">
-      <c r="A128" s="4">
+      <c r="E127" s="2" t="str"/>
+    </row>
+    <row customHeight="true" ht="21" r="128">
+      <c r="A128" s="2">
         <v>40008</v>
       </c>
-      <c r="B128" s="4" t="str">
+      <c r="B128" s="2" t="str">
         <v>Tips_Content_10008</v>
       </c>
-      <c r="C128" s="2" t="str">
+      <c r="C128" s="1" t="str">
         <v>Coin Bag is full!</v>
       </c>
-      <c r="D128" s="4" t="str">
+      <c r="D128" s="2" t="str">
         <v>金币袋已满！</v>
       </c>
-      <c r="E128" s="4" t="str"/>
-    </row>
-    <row r="129">
-      <c r="A129" s="4">
+      <c r="E128" s="2" t="str"/>
+    </row>
+    <row customHeight="true" ht="21" r="129">
+      <c r="A129" s="2">
         <v>40009</v>
       </c>
-      <c r="B129" s="4" t="str">
+      <c r="B129" s="2" t="str">
         <v>Tips_Content_10009</v>
       </c>
-      <c r="C129" s="2" t="str">
+      <c r="C129" s="1" t="str">
         <v>Someone died!</v>
       </c>
-      <c r="D129" s="4" t="str">
-        <v>有人死掉了！</v>
-      </c>
-      <c r="E129" s="4" t="str"/>
-    </row>
-    <row r="130">
-      <c r="A130" s="4">
+      <c r="D129" s="2" t="str">
+        <v>有人被淘汰了！</v>
+      </c>
+      <c r="E129" s="2" t="str"/>
+    </row>
+    <row customHeight="true" ht="21" r="130">
+      <c r="A130" s="2">
         <v>40010</v>
       </c>
-      <c r="B130" s="4" t="str">
+      <c r="B130" s="2" t="str">
         <v>Tips_Content_10010</v>
       </c>
-      <c r="C130" s="2" t="str">
+      <c r="C130" s="1" t="str">
         <v>The Detective is dead, find his weapon!</v>
       </c>
-      <c r="D130" s="4" t="str">
+      <c r="D130" s="2" t="str">
         <v>侦探死亡了，找找他的武器吧！</v>
       </c>
-      <c r="E130" s="4" t="str"/>
-    </row>
-    <row r="131">
-      <c r="A131" s="4">
+      <c r="E130" s="2" t="str"/>
+    </row>
+    <row customHeight="true" ht="21" r="131">
+      <c r="A131" s="2">
         <v>40011</v>
       </c>
-      <c r="B131" s="4" t="str">
+      <c r="B131" s="2" t="str">
         <v>Tips_Content_20001</v>
       </c>
-      <c r="C131" s="2" t="str">
+      <c r="C131" s="1" t="str">
         <v>There are currently no active matches!</v>
       </c>
-      <c r="D131" s="4" t="str">
+      <c r="D131" s="2" t="str">
         <v>当前没有正在进行的对局！</v>
       </c>
-      <c r="E131" s="4" t="str"/>
-    </row>
-    <row r="132">
-      <c r="A132" s="4">
+      <c r="E131" s="2" t="str"/>
+    </row>
+    <row customHeight="true" ht="21" r="132">
+      <c r="A132" s="2">
         <v>40012</v>
       </c>
-      <c r="B132" s="2" t="str">
+      <c r="B132" s="1" t="str">
         <v>Tips_Content_20005</v>
       </c>
-      <c r="C132" s="2" t="str">
+      <c r="C132" s="1" t="str">
         <v>Correct Password</v>
       </c>
-      <c r="D132" s="4" t="str">
+      <c r="D132" s="2" t="str">
         <v>密码输入正确</v>
       </c>
-      <c r="E132" s="4"/>
-    </row>
-    <row r="133">
-      <c r="A133" s="4">
+      <c r="E132" s="2"/>
+    </row>
+    <row customHeight="true" ht="21" r="133">
+      <c r="A133" s="2">
         <v>40013</v>
       </c>
-      <c r="B133" s="2" t="str">
+      <c r="B133" s="1" t="str">
         <v>Tips_Content_20006</v>
       </c>
-      <c r="C133" s="2" t="str">
+      <c r="C133" s="1" t="str">
         <v>Wrong Password！</v>
       </c>
-      <c r="D133" s="4" t="str">
+      <c r="D133" s="2" t="str">
         <v>密码输入错误！</v>
       </c>
-      <c r="E133" s="4"/>
-    </row>
-    <row customHeight="true" ht="19" r="134">
-      <c r="A134" s="4">
+      <c r="E133" s="2"/>
+    </row>
+    <row customHeight="true" ht="21" r="134">
+      <c r="A134" s="2">
         <v>40014</v>
       </c>
-      <c r="B134" s="2" t="str">
+      <c r="B134" s="1" t="str">
         <v>Tips_Content_20007</v>
       </c>
-      <c r="C134" s="2" t="str">
+      <c r="C134" s="1" t="str">
         <v>Weapon skins！Click to go！</v>
       </c>
-      <c r="D134" s="4" t="str">
+      <c r="D134" s="2" t="str">
         <v>免费抽取武器皮肤，点击前往！</v>
       </c>
-      <c r="E134" s="4"/>
-    </row>
-    <row customHeight="true" ht="19" r="135">
-      <c r="A135" s="4">
+      <c r="E134" s="2"/>
+    </row>
+    <row customHeight="true" ht="21" r="135">
+      <c r="A135" s="2">
         <v>40015</v>
       </c>
-      <c r="B135" s="2" t="str">
+      <c r="B135" s="1" t="str">
         <v>Tips_Content_20008</v>
       </c>
-      <c r="C135" s="2" t="str">
+      <c r="C135" s="1" t="str">
         <v>Ad in CD</v>
       </c>
-      <c r="D135" s="4" t="str">
+      <c r="D135" s="2" t="str">
         <v>广告冷却中</v>
       </c>
-      <c r="E135" s="4"/>
-    </row>
-    <row r="136">
-      <c r="A136" s="4">
+      <c r="E135" s="2"/>
+    </row>
+    <row customHeight="true" ht="21" r="136">
+      <c r="A136" s="2">
         <v>50001</v>
       </c>
-      <c r="B136" s="4" t="str">
+      <c r="B136" s="2" t="str">
         <v>Weapon_WeaponName_10001</v>
       </c>
-      <c r="C136" s="2" t="str">
+      <c r="C136" s="1" t="str">
         <v>Knife</v>
       </c>
-      <c r="D136" s="4" t="str">
+      <c r="D136" s="2" t="str">
         <v>小刀</v>
       </c>
-      <c r="E136" s="4" t="str">
+      <c r="E136" s="2" t="str">
         <v>50000：武器表</v>
       </c>
     </row>
-    <row r="137">
-      <c r="A137" s="4">
+    <row customHeight="true" ht="21" r="137">
+      <c r="A137" s="2">
         <v>50002</v>
       </c>
-      <c r="B137" s="4" t="str">
+      <c r="B137" s="2" t="str">
         <v>Weapon_WeaponName_20001</v>
       </c>
-      <c r="C137" s="2" t="str">
+      <c r="C137" s="1" t="str">
         <v>Revolver</v>
       </c>
-      <c r="D137" s="4" t="str">
+      <c r="D137" s="2" t="str">
         <v>左轮手枪</v>
       </c>
-      <c r="E137" s="4" t="str"/>
-    </row>
-    <row r="138">
-      <c r="A138" s="4">
+      <c r="E137" s="2" t="str"/>
+    </row>
+    <row customHeight="true" ht="21" r="138">
+      <c r="A138" s="2">
         <v>50003</v>
       </c>
-      <c r="B138" s="14" t="str">
+      <c r="B138" s="3" t="str">
         <v>Weapon_WeaponName_10002</v>
       </c>
-      <c r="C138" s="2" t="str">
+      <c r="C138" s="1" t="str">
         <v>Fire Axe</v>
       </c>
-      <c r="D138" s="18" t="str">
+      <c r="D138" s="9" t="str">
         <v>消防斧</v>
       </c>
-      <c r="E138" s="4" t="str">
+      <c r="E138" s="2" t="str">
         <v>武器名称</v>
       </c>
     </row>
-    <row r="139">
-      <c r="A139" s="4">
+    <row customHeight="true" ht="21" r="139">
+      <c r="A139" s="2">
         <v>50004</v>
       </c>
-      <c r="B139" s="14" t="str">
+      <c r="B139" s="3" t="str">
         <v>Weapon_WeaponName_10003</v>
       </c>
-      <c r="C139" s="2" t="str">
+      <c r="C139" s="1" t="str">
         <v>Nepalese Knife</v>
       </c>
-      <c r="D139" s="18" t="str">
+      <c r="D139" s="9" t="str">
         <v>尼泊尔军刀</v>
       </c>
-      <c r="E139" s="4" t="str">
+      <c r="E139" s="2" t="str">
         <v>武器名称</v>
       </c>
     </row>
-    <row r="140">
-      <c r="A140" s="4">
+    <row customHeight="true" ht="21" r="140">
+      <c r="A140" s="2">
         <v>50005</v>
       </c>
-      <c r="B140" s="14" t="str">
+      <c r="B140" s="3" t="str">
         <v>Weapon_WeaponName_20002</v>
       </c>
-      <c r="C140" s="2" t="str">
+      <c r="C140" s="1" t="str">
         <v>Submachine Gun</v>
       </c>
-      <c r="D140" s="18" t="str">
+      <c r="D140" s="9" t="str">
         <v>冲锋枪</v>
       </c>
-      <c r="E140" s="4" t="str">
+      <c r="E140" s="2" t="str">
         <v>武器名称</v>
       </c>
     </row>
-    <row r="141">
-      <c r="A141" s="4">
+    <row customHeight="true" ht="21" r="141">
+      <c r="A141" s="2">
         <v>50006</v>
       </c>
-      <c r="B141" s="14" t="str">
+      <c r="B141" s="3" t="str">
         <v>Weapon_WeaponName_20003</v>
       </c>
-      <c r="C141" s="2" t="str">
+      <c r="C141" s="1" t="str">
         <v>Rifle</v>
       </c>
-      <c r="D141" s="18" t="str">
+      <c r="D141" s="9" t="str">
         <v>步枪</v>
       </c>
-      <c r="E141" s="4" t="str">
+      <c r="E141" s="2" t="str">
         <v>武器名称</v>
       </c>
     </row>
-    <row r="142">
-      <c r="A142" s="4">
+    <row customHeight="true" ht="21" r="142">
+      <c r="A142" s="2">
         <v>50007</v>
       </c>
-      <c r="B142" s="2" t="str">
+      <c r="B142" s="1" t="str">
         <v>Weapon_WeaponName_10004</v>
       </c>
-      <c r="C142" s="2" t="str">
+      <c r="C142" s="1" t="str">
         <v>Assassin Dagger</v>
       </c>
-      <c r="D142" s="18" t="str">
+      <c r="D142" s="9" t="str">
         <v>暗杀匕首</v>
       </c>
-      <c r="E142" s="4" t="str">
+      <c r="E142" s="2" t="str">
         <v>武器名称</v>
       </c>
     </row>
-    <row r="143">
-      <c r="A143" s="4">
+    <row customHeight="true" ht="21" r="143">
+      <c r="A143" s="2">
         <v>50008</v>
       </c>
-      <c r="B143" s="2" t="str">
+      <c r="B143" s="1" t="str">
         <v>Weapon_WeaponName_10005</v>
       </c>
-      <c r="C143" s="2" t="str">
+      <c r="C143" s="1" t="str">
         <v>Survival Dagger</v>
       </c>
-      <c r="D143" s="18" t="str">
+      <c r="D143" s="9" t="str">
         <v>求生匕首</v>
       </c>
-      <c r="E143" s="4" t="str">
+      <c r="E143" s="2" t="str">
         <v>武器名称</v>
       </c>
     </row>
-    <row r="144">
-      <c r="A144" s="4">
+    <row customHeight="true" ht="21" r="144">
+      <c r="A144" s="2">
         <v>50009</v>
       </c>
-      <c r="B144" s="2" t="str">
+      <c r="B144" s="1" t="str">
         <v>Weapon_WeaponName_10006</v>
       </c>
-      <c r="C144" s="2" t="str">
+      <c r="C144" s="1" t="str">
         <v>Kitchen Knife</v>
       </c>
-      <c r="D144" s="18" t="str">
+      <c r="D144" s="9" t="str">
         <v>菜刀</v>
       </c>
-      <c r="E144" s="4" t="str">
+      <c r="E144" s="2" t="str">
         <v>武器名称</v>
       </c>
     </row>
-    <row customHeight="true" ht="19" r="145">
-      <c r="A145" s="4">
+    <row customHeight="true" ht="21" r="145">
+      <c r="A145" s="2">
         <v>50010</v>
       </c>
-      <c r="B145" s="5" t="str">
+      <c r="B145" s="18" t="str">
         <v>Weapon_WeaponName_10007</v>
       </c>
-      <c r="C145" s="2" t="str">
+      <c r="C145" s="1" t="str">
         <v>Dart (Wave)</v>
       </c>
-      <c r="D145" s="6" t="str">
+      <c r="D145" s="11" t="str">
         <v>镖(波)</v>
       </c>
-      <c r="E145" s="4" t="str">
+      <c r="E145" s="2" t="str">
         <v>武器名称</v>
       </c>
     </row>
-    <row customHeight="true" ht="19" r="146">
-      <c r="A146" s="4">
+    <row customHeight="true" ht="21" r="146">
+      <c r="A146" s="2">
         <v>50011</v>
       </c>
-      <c r="B146" s="5" t="str">
+      <c r="B146" s="18" t="str">
         <v>Weapon_WeaponName_10008</v>
       </c>
-      <c r="C146" s="2" t="str">
+      <c r="C146" s="1" t="str">
         <v>Dart (Fetter)</v>
       </c>
-      <c r="D146" s="6" t="str">
+      <c r="D146" s="11" t="str">
         <v>镖(桎)</v>
       </c>
-      <c r="E146" s="4" t="str">
+      <c r="E146" s="2" t="str">
         <v>武器名称</v>
       </c>
     </row>
-    <row customHeight="true" ht="19" r="147">
-      <c r="A147" s="4">
+    <row customHeight="true" ht="21" r="147">
+      <c r="A147" s="2">
         <v>50012</v>
       </c>
-      <c r="B147" s="5" t="str">
+      <c r="B147" s="18" t="str">
         <v>Weapon_WeaponName_10009</v>
       </c>
-      <c r="C147" s="2" t="str">
+      <c r="C147" s="1" t="str">
         <v>Dart (Shatter)</v>
       </c>
-      <c r="D147" s="6" t="str">
+      <c r="D147" s="11" t="str">
         <v>镖(碎)</v>
       </c>
-      <c r="E147" s="4" t="str">
+      <c r="E147" s="2" t="str">
         <v>武器名称</v>
       </c>
     </row>
-    <row customHeight="true" ht="19" r="148">
-      <c r="A148" s="4">
+    <row customHeight="true" ht="21" r="148">
+      <c r="A148" s="2">
         <v>50013</v>
       </c>
-      <c r="B148" s="5" t="str">
+      <c r="B148" s="18" t="str">
         <v>Weapon_WeaponName_10010</v>
       </c>
-      <c r="C148" s="2" t="str">
+      <c r="C148" s="1" t="str">
         <v>Dart (Swirl)</v>
       </c>
-      <c r="D148" s="6" t="str">
+      <c r="D148" s="11" t="str">
         <v>镖(漩)</v>
       </c>
-      <c r="E148" s="4" t="str">
+      <c r="E148" s="2" t="str">
         <v>武器名称</v>
       </c>
     </row>
-    <row customHeight="true" ht="19" r="149">
-      <c r="A149" s="4">
+    <row customHeight="true" ht="21" r="149">
+      <c r="A149" s="2">
         <v>50014</v>
       </c>
-      <c r="B149" s="5" t="str">
+      <c r="B149" s="18" t="str">
         <v>Weapon_WeaponName_10011</v>
       </c>
-      <c r="C149" s="2" t="str">
+      <c r="C149" s="1" t="str">
         <v>Dart (Qi)</v>
       </c>
-      <c r="D149" s="6" t="str">
+      <c r="D149" s="11" t="str">
         <v>镖(气)</v>
       </c>
-      <c r="E149" s="4" t="str">
+      <c r="E149" s="2" t="str">
         <v>武器名称</v>
       </c>
     </row>
-    <row customHeight="true" ht="19" r="150">
-      <c r="A150" s="4">
+    <row customHeight="true" ht="21" r="150">
+      <c r="A150" s="2">
         <v>50015</v>
       </c>
-      <c r="B150" s="5" t="str">
+      <c r="B150" s="18" t="str">
         <v>Weapon_WeaponName_10012</v>
       </c>
-      <c r="C150" s="2" t="str">
+      <c r="C150" s="1" t="str">
         <v>Dart (Stirring)</v>
       </c>
-      <c r="D150" s="6" t="str">
+      <c r="D150" s="11" t="str">
         <v>镖(激荡)</v>
       </c>
-      <c r="E150" s="4" t="str">
+      <c r="E150" s="2" t="str">
         <v>武器名称</v>
       </c>
     </row>
-    <row customHeight="true" ht="19" r="151">
-      <c r="A151" s="4">
+    <row customHeight="true" ht="21" r="151">
+      <c r="A151" s="2">
         <v>50016</v>
       </c>
-      <c r="B151" s="5" t="str">
+      <c r="B151" s="18" t="str">
         <v>Weapon_WeaponName_10013</v>
       </c>
-      <c r="C151" s="2" t="str">
+      <c r="C151" s="1" t="str">
         <v>Dart (Seal)</v>
       </c>
-      <c r="D151" s="6" t="str">
+      <c r="D151" s="11" t="str">
         <v>镖(封印)</v>
       </c>
-      <c r="E151" s="4" t="str">
+      <c r="E151" s="2" t="str">
         <v>武器名称</v>
       </c>
     </row>
-    <row customHeight="true" ht="19" r="152">
-      <c r="A152" s="4">
+    <row customHeight="true" ht="21" r="152">
+      <c r="A152" s="2">
         <v>50017</v>
       </c>
-      <c r="B152" s="5" t="str">
+      <c r="B152" s="18" t="str">
         <v>Weapon_WeaponName_10014</v>
       </c>
-      <c r="C152" s="2" t="str">
+      <c r="C152" s="1" t="str">
         <v>Dart (Fate)</v>
       </c>
-      <c r="D152" s="6" t="str">
+      <c r="D152" s="11" t="str">
         <v>镖(轮回)</v>
       </c>
-      <c r="E152" s="4" t="str">
+      <c r="E152" s="2" t="str">
         <v>武器名称</v>
       </c>
     </row>
-    <row customHeight="true" ht="19" r="153">
-      <c r="A153" s="4">
+    <row customHeight="true" ht="21" r="153">
+      <c r="A153" s="2">
         <v>50018</v>
       </c>
-      <c r="B153" s="5" t="str">
+      <c r="B153" s="18" t="str">
         <v>Weapon_WeaponName_10015</v>
       </c>
-      <c r="C153" s="2" t="str">
+      <c r="C153" s="1" t="str">
         <v>Dogfish</v>
       </c>
-      <c r="D153" s="6" t="str">
+      <c r="D153" s="11" t="str">
         <v>狗鱼</v>
       </c>
-      <c r="E153" s="4" t="str">
+      <c r="E153" s="2" t="str">
         <v>武器名称</v>
       </c>
     </row>
-    <row customHeight="true" ht="19" r="154">
-      <c r="A154" s="4">
+    <row customHeight="true" ht="21" r="154">
+      <c r="A154" s="2">
         <v>50019</v>
       </c>
-      <c r="B154" s="5" t="str">
+      <c r="B154" s="18" t="str">
         <v>Weapon_WeaponName_10016</v>
       </c>
-      <c r="C154" s="2" t="str">
+      <c r="C154" s="1" t="str">
         <v>Hairy-nosed catfish</v>
       </c>
-      <c r="D154" s="6" t="str">
+      <c r="D154" s="11" t="str">
         <v>毛鼻鲶</v>
       </c>
-      <c r="E154" s="4" t="str">
+      <c r="E154" s="2" t="str">
         <v>武器名称</v>
       </c>
     </row>
-    <row customHeight="true" ht="19" r="155">
-      <c r="A155" s="4">
+    <row customHeight="true" ht="21" r="155">
+      <c r="A155" s="2">
         <v>50020</v>
       </c>
-      <c r="B155" s="5" t="str">
+      <c r="B155" s="18" t="str">
         <v>Weapon_WeaponName_10017</v>
       </c>
-      <c r="C155" s="2" t="str">
+      <c r="C155" s="1" t="str">
         <v>Goldfish</v>
       </c>
-      <c r="D155" s="6" t="str">
+      <c r="D155" s="11" t="str">
         <v>金鱼</v>
       </c>
-      <c r="E155" s="4" t="str">
+      <c r="E155" s="2" t="str">
         <v>武器名称</v>
       </c>
     </row>
-    <row customHeight="true" ht="19" r="156">
-      <c r="A156" s="4">
+    <row customHeight="true" ht="21" r="156">
+      <c r="A156" s="2">
         <v>50021</v>
       </c>
-      <c r="B156" s="5" t="str">
+      <c r="B156" s="18" t="str">
         <v>Weapon_WeaponName_10018</v>
       </c>
-      <c r="C156" s="2" t="str">
+      <c r="C156" s="1" t="str">
         <v>Tuna</v>
       </c>
-      <c r="D156" s="6" t="str">
+      <c r="D156" s="11" t="str">
         <v>金枪鱼</v>
       </c>
-      <c r="E156" s="4" t="str">
+      <c r="E156" s="2" t="str">
         <v>武器名称</v>
       </c>
     </row>
-    <row customHeight="true" ht="19" r="157">
-      <c r="A157" s="4">
+    <row customHeight="true" ht="21" r="157">
+      <c r="A157" s="2">
         <v>50022</v>
       </c>
-      <c r="B157" s="5" t="str">
+      <c r="B157" s="18" t="str">
         <v>Weapon_WeaponName_10019</v>
       </c>
-      <c r="C157" s="2" t="str">
+      <c r="C157" s="1" t="str">
         <v>Lobster</v>
       </c>
-      <c r="D157" s="6" t="str">
+      <c r="D157" s="11" t="str">
         <v>龙虾</v>
       </c>
-      <c r="E157" s="4" t="str">
+      <c r="E157" s="2" t="str">
         <v>武器名称</v>
       </c>
     </row>
-    <row customHeight="true" ht="19" r="158">
-      <c r="A158" s="4">
+    <row customHeight="true" ht="21" r="158">
+      <c r="A158" s="2">
         <v>50023</v>
       </c>
-      <c r="B158" s="5" t="str">
+      <c r="B158" s="18" t="str">
         <v>Weapon_WeaponName_10020</v>
       </c>
-      <c r="C158" s="2" t="str">
+      <c r="C158" s="1" t="str">
         <v>Oarfish</v>
       </c>
-      <c r="D158" s="6" t="str">
+      <c r="D158" s="11" t="str">
         <v>皇带鱼</v>
       </c>
-      <c r="E158" s="4" t="str">
+      <c r="E158" s="2" t="str">
         <v>武器名称</v>
       </c>
     </row>
-    <row customHeight="true" ht="19" r="159">
-      <c r="A159" s="4">
+    <row customHeight="true" ht="21" r="159">
+      <c r="A159" s="2">
         <v>50024</v>
       </c>
-      <c r="B159" s="5" t="str">
+      <c r="B159" s="18" t="str">
         <v>Weapon_WeaponName_10021</v>
       </c>
-      <c r="C159" s="2" t="str">
+      <c r="C159" s="1" t="str">
         <v>Miracle Conch</v>
       </c>
-      <c r="D159" s="6" t="str">
+      <c r="D159" s="11" t="str">
         <v>神奇海螺</v>
       </c>
-      <c r="E159" s="4" t="str">
+      <c r="E159" s="2" t="str">
         <v>武器名称</v>
       </c>
     </row>
-    <row customHeight="true" ht="19" r="160">
-      <c r="A160" s="4">
+    <row customHeight="true" ht="21" r="160">
+      <c r="A160" s="2">
         <v>50025</v>
       </c>
-      <c r="B160" s="5" t="str">
+      <c r="B160" s="18" t="str">
         <v>Weapon_WeaponName_10022</v>
       </c>
-      <c r="C160" s="2" t="str">
+      <c r="C160" s="1" t="str">
         <v>King Trident</v>
       </c>
-      <c r="D160" s="6" t="str">
+      <c r="D160" s="11" t="str">
         <v>海王三叉戟</v>
       </c>
-      <c r="E160" s="4" t="str">
+      <c r="E160" s="2" t="str">
         <v>武器名称</v>
       </c>
     </row>
-    <row customHeight="true" ht="19" r="161">
-      <c r="A161" s="4">
+    <row customHeight="true" ht="21" r="161">
+      <c r="A161" s="2">
         <v>50027</v>
       </c>
-      <c r="B161" s="26" t="str">
+      <c r="B161" s="1" t="str">
         <v>Lottery_Name_10001</v>
       </c>
-      <c r="C161" s="2" t="str">
+      <c r="C161" s="1" t="str">
         <v>Dart Weapon Box</v>
       </c>
-      <c r="D161" s="6" t="str">
+      <c r="D161" s="11" t="str">
         <v>飞镖武器箱</v>
       </c>
-      <c r="E161" s="4" t="str">
+      <c r="E161" s="2" t="str">
         <v>武器箱子名称</v>
       </c>
     </row>
-    <row customHeight="true" ht="19" r="162">
-      <c r="A162" s="4">
+    <row customHeight="true" ht="21" r="162">
+      <c r="A162" s="2">
         <v>50028</v>
       </c>
-      <c r="B162" s="26" t="str">
+      <c r="B162" s="1" t="str">
         <v>Lottery_Name_10002</v>
       </c>
-      <c r="C162" s="2" t="str">
+      <c r="C162" s="1" t="str">
         <v>Ocean Weapon Box</v>
       </c>
-      <c r="D162" s="6" t="str">
+      <c r="D162" s="11" t="str">
         <v>深海武器箱</v>
       </c>
-      <c r="E162" s="4" t="str">
+      <c r="E162" s="2" t="str">
         <v>武器箱子名称</v>
       </c>
     </row>
-    <row r="163">
-      <c r="A163" s="4">
+    <row customHeight="true" ht="21" r="163">
+      <c r="A163" s="2">
         <v>60001</v>
       </c>
-      <c r="B163" s="4" t="str">
+      <c r="B163" s="2" t="str">
         <v>AIData_AIName_90001</v>
       </c>
-      <c r="C163" s="2" t="str">
+      <c r="C163" s="1" t="str">
         <v>Creabhop</v>
       </c>
-      <c r="D163" s="2" t="str">
+      <c r="D163" s="1" t="str">
         <v>Creabhop</v>
       </c>
-      <c r="E163" s="4" t="str">
+      <c r="E163" s="2" t="str">
         <v>60000：AI数据表</v>
       </c>
     </row>
-    <row r="164">
-      <c r="A164" s="4">
+    <row customHeight="true" ht="21" r="164">
+      <c r="A164" s="2">
         <v>60002</v>
       </c>
-      <c r="B164" s="4" t="str">
+      <c r="B164" s="2" t="str">
         <v>AIData_AIName_90002</v>
       </c>
-      <c r="C164" s="2" t="str">
+      <c r="C164" s="1" t="str">
         <v>Rival</v>
       </c>
-      <c r="D164" s="2" t="str">
+      <c r="D164" s="1" t="str">
         <v>Rival</v>
       </c>
-      <c r="E164" s="4" t="str"/>
-    </row>
-    <row r="165">
-      <c r="A165" s="4">
+      <c r="E164" s="2" t="str"/>
+    </row>
+    <row customHeight="true" ht="21" r="165">
+      <c r="A165" s="2">
         <v>60003</v>
       </c>
-      <c r="B165" s="4" t="str">
+      <c r="B165" s="2" t="str">
         <v>AIData_AIName_90003</v>
       </c>
-      <c r="C165" s="2" t="str">
+      <c r="C165" s="1" t="str">
         <v>Ironpup</v>
       </c>
-      <c r="D165" s="2" t="str">
+      <c r="D165" s="1" t="str">
         <v>Ironpup</v>
       </c>
-      <c r="E165" s="4" t="str"/>
-    </row>
-    <row r="166">
-      <c r="A166" s="4">
+      <c r="E165" s="2" t="str"/>
+    </row>
+    <row customHeight="true" ht="21" r="166">
+      <c r="A166" s="2">
         <v>60004</v>
       </c>
-      <c r="B166" s="4" t="str">
+      <c r="B166" s="2" t="str">
         <v>AIData_AIName_90004</v>
       </c>
-      <c r="C166" s="2" t="str">
+      <c r="C166" s="1" t="str">
         <v>TonyXenos</v>
       </c>
-      <c r="D166" s="2" t="str">
+      <c r="D166" s="1" t="str">
         <v>TonyXenos</v>
       </c>
-      <c r="E166" s="4" t="str"/>
-    </row>
-    <row r="167">
-      <c r="A167" s="4">
+      <c r="E166" s="2" t="str"/>
+    </row>
+    <row customHeight="true" ht="21" r="167">
+      <c r="A167" s="2">
         <v>60005</v>
       </c>
-      <c r="B167" s="4" t="str">
+      <c r="B167" s="2" t="str">
         <v>AIData_AIName_90005</v>
       </c>
-      <c r="C167" s="2" t="str">
+      <c r="C167" s="1" t="str">
         <v>L8s</v>
       </c>
-      <c r="D167" s="2" t="str">
+      <c r="D167" s="1" t="str">
         <v>L8s</v>
       </c>
-      <c r="E167" s="4" t="str"/>
-    </row>
-    <row r="168">
-      <c r="A168" s="4">
+      <c r="E167" s="2" t="str"/>
+    </row>
+    <row customHeight="true" ht="21" r="168">
+      <c r="A168" s="2">
         <v>60006</v>
       </c>
-      <c r="B168" s="4" t="str">
+      <c r="B168" s="2" t="str">
         <v>AIData_AIName_90006</v>
       </c>
-      <c r="C168" s="2" t="str">
+      <c r="C168" s="1" t="str">
         <v>Crilm</v>
       </c>
-      <c r="D168" s="2" t="str">
+      <c r="D168" s="1" t="str">
         <v>Crilm</v>
       </c>
-      <c r="E168" s="4" t="str"/>
-    </row>
-    <row r="169">
-      <c r="A169" s="4">
+      <c r="E168" s="2" t="str"/>
+    </row>
+    <row customHeight="true" ht="21" r="169">
+      <c r="A169" s="2">
         <v>60007</v>
       </c>
-      <c r="B169" s="4" t="str">
+      <c r="B169" s="2" t="str">
         <v>AIData_AIName_90007</v>
       </c>
-      <c r="C169" s="2" t="str">
+      <c r="C169" s="1" t="str">
         <v>Himiko Toga</v>
       </c>
-      <c r="D169" s="2" t="str">
+      <c r="D169" s="1" t="str">
         <v>Himiko Toga</v>
       </c>
-      <c r="E169" s="4" t="str"/>
-    </row>
-    <row r="170">
-      <c r="A170" s="4">
+      <c r="E169" s="2" t="str"/>
+    </row>
+    <row customHeight="true" ht="21" r="170">
+      <c r="A170" s="2">
         <v>60008</v>
       </c>
-      <c r="B170" s="4" t="str">
+      <c r="B170" s="2" t="str">
         <v>AIData_AIName_90008</v>
       </c>
-      <c r="C170" s="2" t="str">
+      <c r="C170" s="1" t="str">
         <v>Rocco21</v>
       </c>
-      <c r="D170" s="2" t="str">
+      <c r="D170" s="1" t="str">
         <v>Rocco21</v>
       </c>
-      <c r="E170" s="4" t="str"/>
-    </row>
-    <row r="171">
-      <c r="A171" s="4">
+      <c r="E170" s="2" t="str"/>
+    </row>
+    <row customHeight="true" ht="21" r="171">
+      <c r="A171" s="2">
         <v>60009</v>
       </c>
-      <c r="B171" s="4" t="str">
+      <c r="B171" s="2" t="str">
         <v>AIData_AIName_90009</v>
       </c>
-      <c r="C171" s="2" t="str">
+      <c r="C171" s="1" t="str">
         <v>Elysian</v>
       </c>
-      <c r="D171" s="2" t="str">
+      <c r="D171" s="1" t="str">
         <v>Elysian</v>
       </c>
-      <c r="E171" s="4" t="str"/>
-    </row>
-    <row r="172">
-      <c r="A172" s="4">
+      <c r="E171" s="2" t="str"/>
+    </row>
+    <row customHeight="true" ht="21" r="172">
+      <c r="A172" s="2">
         <v>60010</v>
       </c>
-      <c r="B172" s="4" t="str">
+      <c r="B172" s="2" t="str">
         <v>AIData_AIName_90010</v>
       </c>
-      <c r="C172" s="2" t="str">
+      <c r="C172" s="1" t="str">
         <v>Bunny Rat</v>
       </c>
-      <c r="D172" s="2" t="str">
+      <c r="D172" s="1" t="str">
         <v>Bunny Rat</v>
       </c>
-      <c r="E172" s="4" t="str"/>
-    </row>
-    <row r="173">
-      <c r="A173" s="4">
+      <c r="E172" s="2" t="str"/>
+    </row>
+    <row customHeight="true" ht="21" r="173">
+      <c r="A173" s="2">
         <v>60011</v>
       </c>
-      <c r="B173" s="4" t="str">
+      <c r="B173" s="2" t="str">
         <v>AIData_AIName_90011</v>
       </c>
-      <c r="C173" s="2" t="str">
+      <c r="C173" s="1" t="str">
         <v>Zaptar</v>
       </c>
-      <c r="D173" s="2" t="str">
+      <c r="D173" s="1" t="str">
         <v>Zaptar</v>
       </c>
-      <c r="E173" s="4" t="str"/>
-    </row>
-    <row r="174">
-      <c r="A174" s="4">
+      <c r="E173" s="2" t="str"/>
+    </row>
+    <row customHeight="true" ht="21" r="174">
+      <c r="A174" s="2">
         <v>70001</v>
       </c>
-      <c r="B174" s="2" t="str">
+      <c r="B174" s="1" t="str">
         <v>Level_Name_10000</v>
       </c>
-      <c r="C174" s="2" t="str">
+      <c r="C174" s="1" t="str">
         <v>Hall</v>
       </c>
-      <c r="D174" s="2" t="str">
+      <c r="D174" s="1" t="str">
         <v>大厅</v>
       </c>
-      <c r="E174" s="4" t="str"/>
-    </row>
-    <row r="175">
-      <c r="A175" s="4">
+      <c r="E174" s="2" t="str"/>
+    </row>
+    <row customHeight="true" ht="21" r="175">
+      <c r="A175" s="2">
         <v>70002</v>
       </c>
-      <c r="B175" s="2" t="str">
+      <c r="B175" s="1" t="str">
         <v>Level_Name_10001</v>
       </c>
-      <c r="C175" s="2" t="str">
+      <c r="C175" s="1" t="str">
         <v>Lakeside Manssion</v>
       </c>
-      <c r="D175" s="2" t="str">
+      <c r="D175" s="1" t="str">
         <v>湖边别墅</v>
       </c>
-      <c r="E175" s="4" t="str">
+      <c r="E175" s="2" t="str">
         <v>关卡地图名称</v>
       </c>
     </row>
-    <row r="176">
-      <c r="A176" s="4">
+    <row customHeight="true" ht="21" r="176">
+      <c r="A176" s="2">
         <v>70003</v>
       </c>
-      <c r="B176" s="2" t="str">
+      <c r="B176" s="1" t="str">
         <v>Level_Name_10002</v>
       </c>
-      <c r="C176" s="2" t="str">
+      <c r="C176" s="1" t="str">
         <v>Forest Cortyard</v>
       </c>
-      <c r="D176" s="4" t="str">
+      <c r="D176" s="2" t="str">
         <v>林中庭院</v>
       </c>
-      <c r="E176" s="4" t="str">
+      <c r="E176" s="2" t="str">
         <v>关卡地图名称</v>
       </c>
     </row>
-    <row r="177">
-      <c r="A177" s="4">
+    <row customHeight="true" ht="21" r="177">
+      <c r="A177" s="2">
         <v>70004</v>
       </c>
-      <c r="B177" s="2" t="str">
+      <c r="B177" s="1" t="str">
         <v>Level_Name_10003</v>
       </c>
-      <c r="C177" s="2" t="str">
+      <c r="C177" s="1" t="str">
         <v>Abandoned Hospital</v>
       </c>
-      <c r="D177" s="2" t="str">
-        <v>废弃医院</v>
-      </c>
-      <c r="E177" s="4" t="str">
+      <c r="D177" s="1" t="str">
+        <v>赛博之城</v>
+      </c>
+      <c r="E177" s="2" t="str">
         <v>关卡地图名称</v>
       </c>
     </row>
-    <row r="178">
-      <c r="A178" s="4">
+    <row customHeight="true" ht="21" r="178">
+      <c r="A178" s="2">
         <v>80001</v>
       </c>
-      <c r="B178" s="2" t="str">
+      <c r="B178" s="1" t="str">
         <v>Item_Name_20001</v>
       </c>
-      <c r="C178" s="2" t="str">
+      <c r="C178" s="1" t="str">
         <v>Smoke</v>
       </c>
-      <c r="D178" s="4" t="str">
+      <c r="D178" s="2" t="str">
         <v>烟雾</v>
       </c>
-      <c r="E178" s="2" t="str">
+      <c r="E178" s="1" t="str">
         <v>拖尾道具</v>
       </c>
     </row>
-    <row r="179">
-      <c r="A179" s="4">
+    <row customHeight="true" ht="21" r="179">
+      <c r="A179" s="2">
         <v>80002</v>
       </c>
-      <c r="B179" s="2" t="str">
+      <c r="B179" s="1" t="str">
         <v>Item_Name_20002</v>
       </c>
-      <c r="C179" s="2" t="str">
+      <c r="C179" s="1" t="str">
         <v>Aura</v>
       </c>
-      <c r="D179" s="4" t="str">
+      <c r="D179" s="2" t="str">
         <v>紫电</v>
       </c>
-      <c r="E179" s="2" t="str">
+      <c r="E179" s="1" t="str">
         <v>拖尾道具</v>
       </c>
     </row>
-    <row r="180">
-      <c r="A180" s="4">
+    <row customHeight="true" ht="21" r="180">
+      <c r="A180" s="2">
         <v>80003</v>
       </c>
-      <c r="B180" s="2" t="str">
+      <c r="B180" s="1" t="str">
         <v>Item_Name_20003</v>
       </c>
-      <c r="C180" s="2" t="str">
+      <c r="C180" s="1" t="str">
         <v>Thunder</v>
       </c>
-      <c r="D180" s="4" t="str">
+      <c r="D180" s="2" t="str">
         <v>雷霆</v>
       </c>
-      <c r="E180" s="2" t="str">
+      <c r="E180" s="1" t="str">
         <v>拖尾道具</v>
       </c>
     </row>
-    <row r="181">
-      <c r="A181" s="4">
+    <row customHeight="true" ht="21" r="181">
+      <c r="A181" s="2">
         <v>80004</v>
       </c>
-      <c r="B181" s="2" t="str">
+      <c r="B181" s="1" t="str">
         <v>Item_Name_20004</v>
       </c>
-      <c r="C181" s="2" t="str">
+      <c r="C181" s="1" t="str">
         <v>Breeze</v>
       </c>
-      <c r="D181" s="4" t="str">
+      <c r="D181" s="2" t="str">
         <v>清风</v>
       </c>
-      <c r="E181" s="2" t="str">
+      <c r="E181" s="1" t="str">
         <v>拖尾道具</v>
       </c>
     </row>
-    <row r="182">
-      <c r="A182" s="4">
+    <row customHeight="true" ht="21" r="182">
+      <c r="A182" s="2">
         <v>80005</v>
       </c>
-      <c r="B182" s="2" t="str">
+      <c r="B182" s="1" t="str">
         <v>Item_Name_20005</v>
       </c>
-      <c r="C182" s="2" t="str">
+      <c r="C182" s="1" t="str">
         <v>Rainbow</v>
       </c>
-      <c r="D182" s="4" t="str">
+      <c r="D182" s="2" t="str">
         <v>虹彩</v>
       </c>
-      <c r="E182" s="2" t="str">
+      <c r="E182" s="1" t="str">
         <v>拖尾道具</v>
       </c>
     </row>
-    <row r="183">
-      <c r="A183" s="4">
+    <row customHeight="true" ht="21" r="183">
+      <c r="A183" s="2">
         <v>80006</v>
       </c>
-      <c r="B183" s="2" t="str">
+      <c r="B183" s="1" t="str">
         <v>Item_Name_20006</v>
       </c>
-      <c r="C183" s="2" t="str">
+      <c r="C183" s="1" t="str">
         <v>Dream</v>
       </c>
-      <c r="D183" s="4" t="str">
+      <c r="D183" s="2" t="str">
         <v>梦幻</v>
       </c>
-      <c r="E183" s="2" t="str">
+      <c r="E183" s="1" t="str">
         <v>拖尾道具</v>
       </c>
     </row>
-    <row r="184">
-      <c r="A184" s="4">
+    <row customHeight="true" ht="21" r="184">
+      <c r="A184" s="2">
         <v>80007</v>
       </c>
-      <c r="B184" s="2" t="str">
+      <c r="B184" s="1" t="str">
         <v>Item_Name_30001</v>
       </c>
-      <c r="C184" s="2" t="str">
+      <c r="C184" s="1" t="str">
         <v>Gentle Senpai</v>
       </c>
-      <c r="D184" s="2" t="str">
+      <c r="D184" s="1" t="str">
         <v>温柔学姐</v>
       </c>
-      <c r="E184" s="4" t="str">
+      <c r="E184" s="2" t="str">
         <v>套装名称</v>
       </c>
     </row>
-    <row r="185">
-      <c r="A185" s="4">
+    <row customHeight="true" ht="21" r="185">
+      <c r="A185" s="2">
         <v>80008</v>
       </c>
-      <c r="B185" s="2" t="str">
+      <c r="B185" s="1" t="str">
         <v>Item_Name_30002</v>
       </c>
-      <c r="C185" s="2" t="str">
+      <c r="C185" s="1" t="str">
         <v>Discipline Member</v>
       </c>
-      <c r="D185" s="4" t="str">
+      <c r="D185" s="2" t="str">
         <v>风纪委员</v>
       </c>
-      <c r="E185" s="4" t="str">
+      <c r="E185" s="2" t="str">
         <v>套装名称</v>
       </c>
     </row>
-    <row r="186">
-      <c r="A186" s="4">
+    <row customHeight="true" ht="21" r="186">
+      <c r="A186" s="2">
         <v>80009</v>
       </c>
-      <c r="B186" s="2" t="str">
+      <c r="B186" s="1" t="str">
         <v>Item_Name_30003</v>
       </c>
-      <c r="C186" s="2" t="str">
+      <c r="C186" s="1" t="str">
         <v>Bad Girl</v>
       </c>
-      <c r="D186" s="4" t="str">
+      <c r="D186" s="2" t="str">
         <v>不良少女</v>
       </c>
-      <c r="E186" s="4" t="str">
+      <c r="E186" s="2" t="str">
         <v>套装名称</v>
       </c>
     </row>
-    <row r="187">
-      <c r="A187" s="4">
+    <row customHeight="true" ht="21" r="187">
+      <c r="A187" s="2">
         <v>80010</v>
       </c>
-      <c r="B187" s="2" t="str">
+      <c r="B187" s="1" t="str">
         <v>Item_Name_30004</v>
       </c>
-      <c r="C187" s="2" t="str">
+      <c r="C187" s="1" t="str">
         <v>Korean Girl</v>
       </c>
-      <c r="D187" s="4" t="str">
+      <c r="D187" s="2" t="str">
         <v>韩式淑女</v>
       </c>
-      <c r="E187" s="4" t="str">
+      <c r="E187" s="2" t="str">
         <v>套装名称</v>
       </c>
     </row>
-    <row r="188">
-      <c r="A188" s="4">
+    <row customHeight="true" ht="21" r="188">
+      <c r="A188" s="2">
         <v>80011</v>
       </c>
-      <c r="B188" s="2" t="str">
+      <c r="B188" s="1" t="str">
         <v>Item_Name_30005</v>
       </c>
-      <c r="C188" s="2" t="str">
+      <c r="C188" s="1" t="str">
         <v>Cute School Girl</v>
       </c>
-      <c r="D188" s="4" t="str">
+      <c r="D188" s="2" t="str">
         <v>可爱学妹</v>
       </c>
-      <c r="E188" s="4" t="str">
+      <c r="E188" s="2" t="str">
         <v>套装名称</v>
       </c>
     </row>
-    <row r="189">
-      <c r="A189" s="4">
+    <row customHeight="true" ht="21" r="189">
+      <c r="A189" s="2">
         <v>80012</v>
       </c>
-      <c r="B189" s="2" t="str">
+      <c r="B189" s="1" t="str">
         <v>Item_Name_30006</v>
       </c>
-      <c r="C189" s="2" t="str">
+      <c r="C189" s="1" t="str">
         <v>Fantasy Girl</v>
       </c>
-      <c r="D189" s="4" t="str">
+      <c r="D189" s="2" t="str">
         <v>奇幻少女</v>
       </c>
-      <c r="E189" s="4" t="str">
+      <c r="E189" s="2" t="str">
         <v>套装名称</v>
       </c>
     </row>
-    <row r="190">
-      <c r="A190" s="4">
+    <row customHeight="true" ht="21" r="190">
+      <c r="A190" s="2">
         <v>80013</v>
       </c>
-      <c r="B190" s="2" t="str">
+      <c r="B190" s="1" t="str">
         <v>Item_Name_30007</v>
       </c>
-      <c r="C190" s="2" t="str">
+      <c r="C190" s="1" t="str">
         <v>Gentle Senior</v>
       </c>
-      <c r="D190" s="4" t="str">
+      <c r="D190" s="2" t="str">
         <v>温柔学长</v>
       </c>
-      <c r="E190" s="4" t="str">
+      <c r="E190" s="2" t="str">
         <v>套装名称</v>
       </c>
     </row>
-    <row r="191">
-      <c r="A191" s="4">
+    <row customHeight="true" ht="21" r="191">
+      <c r="A191" s="2">
         <v>80014</v>
       </c>
-      <c r="B191" s="2" t="str">
+      <c r="B191" s="1" t="str">
         <v>Item_Name_30008</v>
       </c>
-      <c r="C191" s="2" t="str">
+      <c r="C191" s="1" t="str">
         <v>Bad Boy</v>
       </c>
-      <c r="D191" s="4" t="str">
+      <c r="D191" s="2" t="str">
         <v>不良少年</v>
       </c>
-      <c r="E191" s="4" t="str">
+      <c r="E191" s="2" t="str">
         <v>套装名称</v>
       </c>
     </row>
-    <row r="192">
-      <c r="A192" s="4">
+    <row customHeight="true" ht="21" r="192">
+      <c r="A192" s="2">
         <v>80015</v>
       </c>
-      <c r="B192" s="2" t="str">
+      <c r="B192" s="1" t="str">
         <v>Item_Name_30009</v>
       </c>
-      <c r="C192" s="2" t="str">
+      <c r="C192" s="1" t="str">
         <v>Cheerleader</v>
       </c>
-      <c r="D192" s="2" t="str">
+      <c r="D192" s="1" t="str">
         <v>啦啦队长</v>
       </c>
-      <c r="E192" s="4" t="str">
+      <c r="E192" s="2" t="str">
         <v>套装名称</v>
       </c>
     </row>
-    <row r="193">
-      <c r="A193" s="4">
+    <row customHeight="true" ht="21" r="193">
+      <c r="A193" s="2">
         <v>80016</v>
       </c>
-      <c r="B193" s="2" t="str">
+      <c r="B193" s="1" t="str">
         <v>Item_Name_30010</v>
       </c>
-      <c r="C193" s="2" t="str">
+      <c r="C193" s="1" t="str">
         <v>Art Student</v>
       </c>
-      <c r="D193" s="2" t="str">
+      <c r="D193" s="1" t="str">
         <v>艺术生</v>
       </c>
-      <c r="E193" s="4" t="str">
+      <c r="E193" s="2" t="str">
         <v>套装名称</v>
       </c>
     </row>
-    <row r="194">
-      <c r="A194" s="4">
+    <row customHeight="true" ht="21" r="194">
+      <c r="A194" s="2">
         <v>80017</v>
       </c>
-      <c r="B194" s="2" t="str">
+      <c r="B194" s="1" t="str">
         <v>Item_Name_30011</v>
       </c>
-      <c r="C194" s="2" t="str">
+      <c r="C194" s="1" t="str">
         <v>Anime Girl</v>
       </c>
-      <c r="D194" s="2" t="str">
+      <c r="D194" s="1" t="str">
         <v>二次元少女</v>
       </c>
-      <c r="E194" s="4" t="str">
+      <c r="E194" s="2" t="str">
         <v>套装名称</v>
       </c>
     </row>
-    <row r="195">
-      <c r="A195" s="4">
+    <row customHeight="true" ht="21" r="195">
+      <c r="A195" s="2">
         <v>80018</v>
       </c>
-      <c r="B195" s="2" t="str">
+      <c r="B195" s="1" t="str">
         <v>Item_Name_30012</v>
       </c>
-      <c r="C195" s="2" t="str">
+      <c r="C195" s="1" t="str">
         <v>English Teacher</v>
       </c>
-      <c r="D195" s="2" t="str">
+      <c r="D195" s="1" t="str">
         <v>英语老师</v>
       </c>
-      <c r="E195" s="4" t="str">
+      <c r="E195" s="2" t="str">
         <v>套装名称</v>
       </c>
     </row>
-    <row r="196">
-      <c r="A196" s="4">
+    <row customHeight="true" ht="21" r="196">
+      <c r="A196" s="2">
         <v>80019</v>
       </c>
-      <c r="B196" s="2" t="str">
+      <c r="B196" s="1" t="str">
         <v>Item_Name_30013</v>
       </c>
-      <c r="C196" s="2" t="str">
+      <c r="C196" s="1" t="str">
         <v>Justice Boy</v>
       </c>
-      <c r="D196" s="2" t="str">
+      <c r="D196" s="1" t="str">
         <v>正义少年</v>
       </c>
-      <c r="E196" s="4" t="str">
+      <c r="E196" s="2" t="str">
         <v>套装名称</v>
       </c>
     </row>
-    <row r="197">
-      <c r="A197" s="4">
+    <row customHeight="true" ht="21" r="197">
+      <c r="A197" s="2">
         <v>80020</v>
       </c>
-      <c r="B197" s="2" t="str">
+      <c r="B197" s="1" t="str">
         <v>Item_Name_30014</v>
       </c>
-      <c r="C197" s="2" t="str">
+      <c r="C197" s="1" t="str">
         <v>Trendy Girl</v>
       </c>
-      <c r="D197" s="2" t="str">
+      <c r="D197" s="1" t="str">
         <v>潮流少女</v>
       </c>
-      <c r="E197" s="4" t="str">
+      <c r="E197" s="2" t="str">
         <v>套装名称</v>
       </c>
     </row>
-    <row r="198">
-      <c r="A198" s="4">
+    <row customHeight="true" ht="21" r="198">
+      <c r="A198" s="2">
         <v>80021</v>
       </c>
-      <c r="B198" s="2" t="str">
+      <c r="B198" s="1" t="str">
         <v>Item_Name_30015</v>
       </c>
-      <c r="C198" s="2" t="str">
+      <c r="C198" s="1" t="str">
         <v>Student President</v>
       </c>
-      <c r="D198" s="4" t="str">
+      <c r="D198" s="2" t="str">
         <v>学生会长</v>
       </c>
-      <c r="E198" s="4" t="str">
+      <c r="E198" s="2" t="str">
         <v>套装名称</v>
       </c>
     </row>
-    <row r="199">
-      <c r="A199" s="4">
+    <row customHeight="true" ht="21" r="199">
+      <c r="A199" s="2">
         <v>80022</v>
       </c>
-      <c r="B199" s="2" t="str">
+      <c r="B199" s="1" t="str">
         <v>Item_Name_30016</v>
       </c>
-      <c r="C199" s="2" t="str">
+      <c r="C199" s="1" t="str">
         <v>Female Teacher</v>
       </c>
-      <c r="D199" s="4" t="str">
+      <c r="D199" s="2" t="str">
         <v>女老师</v>
       </c>
-      <c r="E199" s="4" t="str">
+      <c r="E199" s="2" t="str">
         <v>套装名称</v>
       </c>
     </row>
-    <row r="200">
-      <c r="A200" s="4">
+    <row customHeight="true" ht="21" r="200">
+      <c r="A200" s="2">
         <v>80023</v>
       </c>
-      <c r="B200" s="2" t="str">
+      <c r="B200" s="1" t="str">
         <v>Item_Name_30017</v>
       </c>
-      <c r="C200" s="2" t="str">
+      <c r="C200" s="1" t="str">
         <v>Class Monitor</v>
       </c>
-      <c r="D200" s="4" t="str">
+      <c r="D200" s="2" t="str">
         <v>班主任</v>
       </c>
-      <c r="E200" s="4" t="str">
+      <c r="E200" s="2" t="str">
         <v>套装名称</v>
       </c>
     </row>
-    <row r="201">
-      <c r="A201" s="4">
+    <row customHeight="true" ht="21" r="201">
+      <c r="A201" s="2">
         <v>80024</v>
       </c>
-      <c r="B201" s="2" t="str">
+      <c r="B201" s="1" t="str">
         <v>Item_Name_30018</v>
       </c>
-      <c r="C201" s="2" t="str">
+      <c r="C201" s="1" t="str">
         <v>Sea Girl</v>
       </c>
-      <c r="D201" s="4" t="str">
+      <c r="D201" s="2" t="str">
         <v>海边姐姐</v>
       </c>
-      <c r="E201" s="4" t="str">
+      <c r="E201" s="2" t="str">
         <v>套装名称</v>
       </c>
     </row>
-    <row r="202">
-      <c r="A202" s="4">
+    <row customHeight="true" ht="21" r="202">
+      <c r="A202" s="2">
         <v>80025</v>
       </c>
-      <c r="B202" s="2" t="str">
+      <c r="B202" s="1" t="str">
         <v>Item_Name_30019</v>
       </c>
-      <c r="C202" s="2" t="str">
+      <c r="C202" s="1" t="str">
         <v>Girl Next Door</v>
       </c>
-      <c r="D202" s="4" t="str">
+      <c r="D202" s="2" t="str">
         <v>邻家妹妹</v>
       </c>
-      <c r="E202" s="4" t="str">
+      <c r="E202" s="2" t="str">
         <v>套装名称</v>
       </c>
     </row>
-    <row r="203">
-      <c r="A203" s="4">
+    <row customHeight="true" ht="21" r="203">
+      <c r="A203" s="2">
         <v>80026</v>
       </c>
-      <c r="B203" s="2" t="str">
+      <c r="B203" s="1" t="str">
         <v>Item_Name_30020</v>
       </c>
-      <c r="C203" s="2" t="str">
+      <c r="C203" s="1" t="str">
         <v>Fitness Coach</v>
       </c>
-      <c r="D203" s="4" t="str">
+      <c r="D203" s="2" t="str">
         <v>健身教练</v>
       </c>
-      <c r="E203" s="4" t="str">
+      <c r="E203" s="2" t="str">
         <v>套装名称</v>
       </c>
     </row>
-    <row r="204">
-      <c r="A204" s="4">
+    <row customHeight="true" ht="21" r="204">
+      <c r="A204" s="2">
         <v>80027</v>
       </c>
-      <c r="B204" s="2" t="str">
+      <c r="B204" s="1" t="str">
         <v>Item_Name_30021</v>
       </c>
-      <c r="C204" s="2" t="str">
+      <c r="C204" s="1" t="str">
         <v>Elegant Girl</v>
       </c>
-      <c r="D204" s="4" t="str">
+      <c r="D204" s="2" t="str">
         <v>优雅少女</v>
       </c>
-      <c r="E204" s="4" t="str">
+      <c r="E204" s="2" t="str">
         <v>套装名称</v>
       </c>
     </row>
-    <row r="205">
-      <c r="A205" s="4">
+    <row customHeight="true" ht="21" r="205">
+      <c r="A205" s="2">
         <v>80028</v>
       </c>
-      <c r="B205" s="2" t="str">
+      <c r="B205" s="1" t="str">
         <v>Item_Name_30022</v>
       </c>
-      <c r="C205" s="2" t="str">
+      <c r="C205" s="1" t="str">
         <v>The Adventurer</v>
       </c>
-      <c r="D205" s="4" t="str">
+      <c r="D205" s="2" t="str">
         <v>探险家</v>
       </c>
-      <c r="E205" s="4" t="str">
+      <c r="E205" s="2" t="str">
         <v>套装名称</v>
       </c>
     </row>
-    <row r="206">
-      <c r="A206" s="4">
+    <row customHeight="true" ht="21" r="206">
+      <c r="A206" s="2">
         <v>80029</v>
       </c>
-      <c r="B206" s="2" t="str">
+      <c r="B206" s="1" t="str">
         <v>Item_Name_30023</v>
       </c>
-      <c r="C206" s="2" t="str">
+      <c r="C206" s="1" t="str">
         <v>Chinese Student</v>
       </c>
-      <c r="D206" s="4" t="str">
+      <c r="D206" s="2" t="str">
         <v>民国学生</v>
       </c>
-      <c r="E206" s="4" t="str">
+      <c r="E206" s="2" t="str">
         <v>套装名称</v>
       </c>
     </row>
-    <row r="207">
-      <c r="A207" s="4">
+    <row customHeight="true" ht="21" r="207">
+      <c r="A207" s="2">
         <v>80030</v>
       </c>
-      <c r="B207" s="2" t="str">
+      <c r="B207" s="1" t="str">
         <v>Item_Name_30024</v>
       </c>
-      <c r="C207" s="2" t="str">
+      <c r="C207" s="1" t="str">
         <v>Cocoa Girl</v>
       </c>
-      <c r="D207" s="4" t="str">
+      <c r="D207" s="2" t="str">
         <v>可可少女</v>
       </c>
-      <c r="E207" s="4" t="str">
+      <c r="E207" s="2" t="str">
         <v>套装名称</v>
       </c>
     </row>
-    <row r="208">
-      <c r="A208" s="4">
+    <row customHeight="true" ht="21" r="208">
+      <c r="A208" s="2">
         <v>80031</v>
       </c>
-      <c r="B208" s="2" t="str">
+      <c r="B208" s="1" t="str">
         <v>Item_Name_30025</v>
       </c>
-      <c r="C208" s="2" t="str">
+      <c r="C208" s="1" t="str">
         <v>Cat Shopkeeper</v>
       </c>
-      <c r="D208" s="4" t="str">
+      <c r="D208" s="2" t="str">
         <v>猫猫店员</v>
       </c>
-      <c r="E208" s="4" t="str">
+      <c r="E208" s="2" t="str">
         <v>套装名称</v>
       </c>
     </row>
-    <row r="209">
-      <c r="A209" s="4">
+    <row customHeight="true" ht="21" r="209">
+      <c r="A209" s="2">
         <v>80032</v>
       </c>
-      <c r="B209" s="2" t="str">
+      <c r="B209" s="1" t="str">
         <v>Item_Name_30026</v>
       </c>
-      <c r="C209" s="2" t="str">
+      <c r="C209" s="1" t="str">
         <v>Sweet Maid</v>
       </c>
-      <c r="D209" s="4" t="str">
+      <c r="D209" s="2" t="str">
         <v>女仆甜心</v>
       </c>
-      <c r="E209" s="4" t="str">
+      <c r="E209" s="2" t="str">
         <v>套装名称</v>
       </c>
     </row>
-    <row r="210">
-      <c r="A210" s="4">
+    <row customHeight="true" ht="21" r="210">
+      <c r="A210" s="2">
         <v>80033</v>
       </c>
-      <c r="B210" s="2" t="str">
+      <c r="B210" s="1" t="str">
         <v>Item_Name_30027</v>
       </c>
-      <c r="C210" s="2" t="str">
+      <c r="C210" s="1" t="str">
         <v>Cat-eared Maid</v>
       </c>
-      <c r="D210" s="4" t="str">
+      <c r="D210" s="2" t="str">
         <v>猫耳女仆</v>
       </c>
-      <c r="E210" s="4" t="str">
+      <c r="E210" s="2" t="str">
         <v>套装名称</v>
       </c>
     </row>
-    <row r="211">
-      <c r="A211" s="4">
+    <row customHeight="true" ht="21" r="211">
+      <c r="A211" s="2">
         <v>80034</v>
       </c>
-      <c r="B211" s="2" t="str">
+      <c r="B211" s="1" t="str">
         <v>Item_Name_30028</v>
       </c>
-      <c r="C211" s="2" t="str">
+      <c r="C211" s="1" t="str">
         <v>Girl Idol</v>
       </c>
-      <c r="D211" s="4" t="str">
+      <c r="D211" s="2" t="str">
         <v>少女偶像</v>
       </c>
-      <c r="E211" s="4" t="str">
+      <c r="E211" s="2" t="str">
         <v>套装名称</v>
       </c>
     </row>
-    <row r="212">
-      <c r="A212" s="4">
+    <row customHeight="true" ht="21" r="212">
+      <c r="A212" s="2">
         <v>80035</v>
       </c>
-      <c r="B212" s="2" t="str">
+      <c r="B212" s="1" t="str">
         <v>Item_Name_30029</v>
       </c>
-      <c r="C212" s="2" t="str">
+      <c r="C212" s="1" t="str">
         <v>Christmas Girl</v>
       </c>
-      <c r="D212" s="4" t="str">
+      <c r="D212" s="2" t="str">
         <v>圣诞少女</v>
       </c>
-      <c r="E212" s="4" t="str">
+      <c r="E212" s="2" t="str">
         <v>套装名称</v>
       </c>
     </row>
-    <row r="213">
-      <c r="A213" s="4">
+    <row customHeight="true" ht="21" r="213">
+      <c r="A213" s="2">
         <v>80036</v>
       </c>
-      <c r="B213" s="2" t="str">
+      <c r="B213" s="1" t="str">
         <v>Item_Name_20007</v>
       </c>
-      <c r="C213" s="2" t="str">
+      <c r="C213" s="1" t="str">
         <v>Flame</v>
       </c>
-      <c r="D213" s="4" t="str">
+      <c r="D213" s="2" t="str">
         <v>火焰</v>
       </c>
-      <c r="E213" s="4" t="str">
+      <c r="E213" s="2" t="str">
         <v>拖尾道具</v>
       </c>
     </row>
-    <row r="214">
-      <c r="A214" s="4">
+    <row customHeight="true" ht="21" r="214">
+      <c r="A214" s="2">
         <v>80037</v>
       </c>
-      <c r="B214" s="2" t="str">
+      <c r="B214" s="1" t="str">
         <v>Item_Name_20008</v>
       </c>
-      <c r="C214" s="2" t="str">
+      <c r="C214" s="1" t="str">
         <v>Witch</v>
       </c>
-      <c r="D214" s="4" t="str">
+      <c r="D214" s="2" t="str">
         <v>女巫</v>
       </c>
-      <c r="E214" s="4" t="str">
+      <c r="E214" s="2" t="str">
         <v>拖尾道具</v>
       </c>
     </row>
-    <row r="215">
-      <c r="A215" s="4">
+    <row customHeight="true" ht="21" r="215">
+      <c r="A215" s="2">
         <v>80038</v>
       </c>
-      <c r="B215" s="2" t="str">
+      <c r="B215" s="1" t="str">
         <v>Item_Name_20009</v>
       </c>
-      <c r="C215" s="2" t="str">
+      <c r="C215" s="1" t="str">
         <v>Knight</v>
       </c>
-      <c r="D215" s="4" t="str">
+      <c r="D215" s="2" t="str">
         <v>骑士</v>
       </c>
-      <c r="E215" s="4" t="str">
+      <c r="E215" s="2" t="str">
         <v>拖尾道具</v>
       </c>
     </row>
-    <row r="216">
-      <c r="A216" s="4">
+    <row customHeight="true" ht="21" r="216">
+      <c r="A216" s="2">
         <v>80039</v>
       </c>
-      <c r="B216" s="2" t="str">
+      <c r="B216" s="1" t="str">
         <v>Item_Name_20010</v>
       </c>
-      <c r="C216" s="2" t="str">
+      <c r="C216" s="1" t="str">
         <v>Demon</v>
       </c>
-      <c r="D216" s="4" t="str">
+      <c r="D216" s="2" t="str">
         <v>恶魔</v>
       </c>
-      <c r="E216" s="4" t="str">
+      <c r="E216" s="2" t="str">
         <v>拖尾道具</v>
       </c>
     </row>
-    <row r="217">
-      <c r="A217" s="4">
+    <row customHeight="true" ht="21" r="217">
+      <c r="A217" s="2">
         <v>80040</v>
       </c>
-      <c r="B217" s="2" t="str">
+      <c r="B217" s="1" t="str">
         <v>Item_Name_20011</v>
       </c>
-      <c r="C217" s="2" t="str">
+      <c r="C217" s="1" t="str">
         <v>Devil</v>
       </c>
-      <c r="D217" s="4" t="str">
+      <c r="D217" s="2" t="str">
         <v>魔鬼</v>
       </c>
-      <c r="E217" s="4" t="str">
+      <c r="E217" s="2" t="str">
         <v>拖尾道具</v>
       </c>
     </row>
-    <row r="218">
-      <c r="A218" s="7">
+    <row customHeight="true" ht="21" r="218">
+      <c r="A218" s="5">
         <v>90001</v>
       </c>
-      <c r="B218" s="20" t="str">
+      <c r="B218" s="23" t="str">
         <v>Chat_chat_1</v>
       </c>
-      <c r="C218" s="9" t="str">
+      <c r="C218" s="5" t="str">
         <v>I am {1}!</v>
       </c>
-      <c r="D218" s="38" t="str">
+      <c r="D218" s="30" t="str">
         <v>我是{1}~</v>
       </c>
-      <c r="E218" s="7"/>
-    </row>
-    <row r="219">
-      <c r="A219" s="7">
+      <c r="E218" s="5"/>
+    </row>
+    <row customHeight="true" ht="21" r="219">
+      <c r="A219" s="5">
         <v>90002</v>
       </c>
-      <c r="B219" s="20" t="str">
+      <c r="B219" s="23" t="str">
         <v>Chat_chat_2</v>
       </c>
-      <c r="C219" s="9" t="str">
+      <c r="C219" s="5" t="str">
         <v>Who is the murderer?</v>
       </c>
-      <c r="D219" s="19" t="str">
+      <c r="D219" s="22" t="str">
         <v>凶手是谁？</v>
       </c>
-      <c r="E219" s="7" t="str"/>
-    </row>
-    <row r="220">
-      <c r="A220" s="7">
+      <c r="E219" s="5" t="str"/>
+    </row>
+    <row customHeight="true" ht="21" r="220">
+      <c r="A220" s="5">
         <v>90003</v>
       </c>
-      <c r="B220" s="20" t="str">
+      <c r="B220" s="23" t="str">
         <v>Chat_chat_3</v>
       </c>
-      <c r="C220" s="9" t="str">
+      <c r="C220" s="5" t="str">
         <v>Help!</v>
       </c>
-      <c r="D220" s="19" t="str">
+      <c r="D220" s="22" t="str">
         <v>救命！</v>
       </c>
-      <c r="E220" s="7" t="str"/>
-    </row>
-    <row r="221">
-      <c r="A221" s="7">
+      <c r="E220" s="5" t="str"/>
+    </row>
+    <row customHeight="true" ht="21" r="221">
+      <c r="A221" s="5">
         <v>90004</v>
       </c>
-      <c r="B221" s="20" t="str">
+      <c r="B221" s="23" t="str">
         <v>Chat_chat_4</v>
       </c>
-      <c r="C221" s="9" t="str">
+      <c r="C221" s="5" t="str">
         <v>Thank you!</v>
       </c>
-      <c r="D221" s="19" t="str">
+      <c r="D221" s="22" t="str">
         <v>谢谢你！</v>
       </c>
-      <c r="E221" s="7" t="str"/>
-    </row>
-    <row r="222">
-      <c r="A222" s="7">
+      <c r="E221" s="5" t="str"/>
+    </row>
+    <row customHeight="true" ht="21" r="222">
+      <c r="A222" s="5">
         <v>90005</v>
       </c>
-      <c r="B222" s="20" t="str">
+      <c r="B222" s="23" t="str">
         <v>Chat_chat_5</v>
       </c>
-      <c r="C222" s="9" t="str">
+      <c r="C222" s="5" t="str">
         <v>Hello!</v>
       </c>
-      <c r="D222" s="42" t="str">
+      <c r="D222" s="6" t="str">
         <v>你好！</v>
       </c>
-      <c r="E222" s="7" t="str"/>
-    </row>
-    <row r="223">
-      <c r="A223" s="7">
+      <c r="E222" s="5" t="str"/>
+    </row>
+    <row customHeight="true" ht="21" r="223">
+      <c r="A223" s="5">
         <v>90006</v>
       </c>
-      <c r="B223" s="20" t="str">
+      <c r="B223" s="23" t="str">
         <v>Chat_chat_6</v>
       </c>
-      <c r="C223" s="9" t="str">
+      <c r="C223" s="5" t="str">
         <v>Don't kill me :(((</v>
       </c>
-      <c r="D223" s="19" t="str">
+      <c r="D223" s="22" t="str">
         <v>别刀我QAQ</v>
       </c>
-      <c r="E223" s="7" t="str">
+      <c r="E223" s="5" t="str">
         <v>QAQ希望也本地化一下，换成欧美比较熟悉的颜表情</v>
       </c>
     </row>
-    <row r="224">
-      <c r="A224" s="7">
+    <row customHeight="true" ht="21" r="224">
+      <c r="A224" s="5">
         <v>90007</v>
       </c>
-      <c r="B224" s="20" t="str">
+      <c r="B224" s="23" t="str">
         <v>Chat_chat_7</v>
       </c>
-      <c r="C224" s="9" t="str">
+      <c r="C224" s="5" t="str">
         <v>Stay away from me!</v>
       </c>
-      <c r="D224" s="19" t="str">
+      <c r="D224" s="22" t="str">
         <v>退！退！退！</v>
       </c>
-      <c r="E224" s="7"/>
-    </row>
-    <row r="225">
-      <c r="A225" s="7">
+      <c r="E224" s="5"/>
+    </row>
+    <row customHeight="true" ht="21" r="225">
+      <c r="A225" s="5">
         <v>90008</v>
       </c>
-      <c r="B225" s="20" t="str">
+      <c r="B225" s="23" t="str">
         <v>Chat_chat_8</v>
       </c>
-      <c r="C225" s="9" t="str">
+      <c r="C225" s="5" t="str">
         <v>Perfect!</v>
       </c>
-      <c r="D225" s="19" t="str">
+      <c r="D225" s="22" t="str">
         <v>满分操作~</v>
       </c>
-      <c r="E225" s="7" t="str"/>
-    </row>
-    <row r="226">
-      <c r="A226" s="7">
+      <c r="E225" s="5" t="str"/>
+    </row>
+    <row customHeight="true" ht="21" r="226">
+      <c r="A226" s="5">
         <v>90009</v>
       </c>
-      <c r="B226" s="20" t="str">
+      <c r="B226" s="23" t="str">
         <v>Chat_chat_9</v>
       </c>
-      <c r="C226" s="9" t="str">
+      <c r="C226" s="5" t="str">
         <v>Show time!</v>
       </c>
-      <c r="D226" s="19" t="str">
+      <c r="D226" s="22" t="str">
         <v>我要开始表演了~</v>
       </c>
-      <c r="E226" s="7" t="str"/>
-    </row>
-    <row r="227">
-      <c r="A227" s="7">
+      <c r="E226" s="5" t="str"/>
+    </row>
+    <row customHeight="true" ht="21" r="227">
+      <c r="A227" s="5">
         <v>90010</v>
       </c>
-      <c r="B227" s="8" t="str">
+      <c r="B227" s="19" t="str">
         <v>Text_Content_20042</v>
       </c>
-      <c r="C227" s="9" t="str">
+      <c r="C227" s="5" t="str">
         <v>Student</v>
       </c>
-      <c r="D227" s="7" t="str">
+      <c r="D227" s="5" t="str">
         <v>学生</v>
       </c>
-      <c r="E227" s="7" t="str"/>
-    </row>
-    <row r="228">
-      <c r="A228" s="7">
+      <c r="E227" s="5" t="str"/>
+    </row>
+    <row customHeight="true" ht="21" r="228">
+      <c r="A228" s="5">
         <v>90011</v>
       </c>
-      <c r="B228" s="8" t="str">
+      <c r="B228" s="19" t="str">
         <v>Text_Content_20043</v>
       </c>
-      <c r="C228" s="9" t="str">
+      <c r="C228" s="5" t="str">
         <v>Detective</v>
       </c>
-      <c r="D228" s="7" t="str">
+      <c r="D228" s="5" t="str">
         <v>侦探</v>
       </c>
-      <c r="E228" s="7" t="str"/>
-    </row>
-    <row r="229">
-      <c r="A229" s="7">
+      <c r="E228" s="5" t="str"/>
+    </row>
+    <row customHeight="true" ht="21" r="229">
+      <c r="A229" s="5">
         <v>90012</v>
       </c>
-      <c r="B229" s="8" t="str">
+      <c r="B229" s="19" t="str">
         <v>Text_Content_20044</v>
       </c>
-      <c r="C229" s="9" t="str">
+      <c r="C229" s="5" t="str">
         <v>Murderer</v>
       </c>
-      <c r="D229" s="7" t="str">
+      <c r="D229" s="5" t="str">
         <v>凶手</v>
       </c>
-      <c r="E229" s="7" t="str"/>
-    </row>
-    <row r="230">
-      <c r="A230" s="7">
+      <c r="E229" s="5" t="str"/>
+    </row>
+    <row customHeight="true" ht="21" r="230">
+      <c r="A230" s="5">
         <v>90013</v>
       </c>
-      <c r="B230" s="8" t="str">
+      <c r="B230" s="19" t="str">
         <v>Text_Content_20036</v>
       </c>
-      <c r="C230" s="9" t="str">
+      <c r="C230" s="5" t="str">
         <v>1. The Murderer can attack in two ways
 2. In melee attack mode, you will auto wave knife when aproaching other players.
 3. An aming sign will appear when you are nearby a target. Tap the sign to attack.</v>
       </c>
-      <c r="D230" s="7" t="str">
+      <c r="D230" s="5" t="str">
         <v>1.凶手有近战穿刺、远程飞刀两种方式，可以自由切换
 2.在近战状态下，靠近其他玩家并面向他们，就可以自动挥刀击杀
 3.在远程状态下，附近有可攻击的目标时，会出现瞄准标志，点击标志即可扔出飞刀</v>
       </c>
-      <c r="E230" s="7" t="str">
+      <c r="E230" s="5" t="str">
         <v>文本长度尽量和中文一致</v>
       </c>
     </row>
-    <row r="231">
-      <c r="A231" s="7">
+    <row customHeight="true" ht="21" r="231">
+      <c r="A231" s="5">
         <v>90014</v>
       </c>
-      <c r="B231" s="8" t="str">
+      <c r="B231" s="19" t="str">
         <v>Text_Content_20037</v>
       </c>
-      <c r="C231" s="9" t="str">
+      <c r="C231" s="5" t="str">
         <v>1. The detective can shoot in two ways.
 2. An aming sign will appear when holding the gun nearby a target. Tap the sign to fire.
 3. Also, you can tap any position to fire at.</v>
       </c>
-      <c r="D231" s="7" t="str">
+      <c r="D231" s="5" t="str">
         <v>1.侦探可以开枪进行射击，有两种射击方法
 2.在持枪状态下，附近有可攻击目标时，会出现瞄准标志，点击标志即可发射子弹
 3.除此之外，持枪状态下点击任意位置都可以发射子弹哦~</v>
       </c>
-      <c r="E231" s="7" t="str">
+      <c r="E231" s="5" t="str">
         <v>文本长度尽量和中文一致</v>
       </c>
     </row>
-    <row r="232">
-      <c r="A232" s="7">
+    <row customHeight="true" ht="21" r="232">
+      <c r="A232" s="5">
         <v>90015</v>
       </c>
-      <c r="B232" s="8" t="str">
+      <c r="B232" s="19" t="str">
         <v>Text_Content_20038</v>
       </c>
-      <c r="C232" s="9" t="str">
+      <c r="C232" s="5" t="str">
         <v>1. If you are a murderer/detective, try not to reveal your identity.
 2. Don't trust anyone who tries to get close to you, they are dangerous, always stay alert.
 3. If you are a student, try to survive!</v>
       </c>
-      <c r="D232" s="7" t="str">
+      <c r="D232" s="5" t="str">
         <v>1.如果你是杀手/侦探，请尽量不要暴露自己的身份
 2.不要相信任何试图靠近你的人，他们很危险，时刻保持警惕
 3.假如你是平民，那么努力活下来吧</v>
       </c>
-      <c r="E232" s="7" t="str">
+      <c r="E232" s="5" t="str">
         <v>文本长度尽量和中文一致</v>
       </c>
     </row>
-    <row r="233">
-      <c r="A233" s="7">
+    <row customHeight="true" ht="21" r="233">
+      <c r="A233" s="5">
         <v>90016</v>
       </c>
-      <c r="B233" s="8" t="str">
+      <c r="B233" s="19" t="str">
         <v>Text_Content_20039</v>
       </c>
-      <c r="C233" s="9" t="str">
+      <c r="C233" s="5" t="str">
         <v>Murderer Tutorial</v>
       </c>
-      <c r="D233" s="7" t="str">
+      <c r="D233" s="5" t="str">
         <v>凶手教学</v>
       </c>
-      <c r="E233" s="7" t="str"/>
-    </row>
-    <row r="234">
-      <c r="A234" s="7">
+      <c r="E233" s="5" t="str"/>
+    </row>
+    <row customHeight="true" ht="21" r="234">
+      <c r="A234" s="5">
         <v>90017</v>
       </c>
-      <c r="B234" s="8" t="str">
+      <c r="B234" s="19" t="str">
         <v>Text_Content_20040</v>
       </c>
-      <c r="C234" s="9" t="str">
+      <c r="C234" s="5" t="str">
         <v>Detective Tutorial</v>
       </c>
-      <c r="D234" s="7" t="str">
+      <c r="D234" s="5" t="str">
         <v>侦探教学</v>
       </c>
-      <c r="E234" s="7" t="str"/>
-    </row>
-    <row r="235">
-      <c r="A235" s="7">
+      <c r="E234" s="5" t="str"/>
+    </row>
+    <row customHeight="true" ht="21" r="235">
+      <c r="A235" s="5">
         <v>90018</v>
       </c>
-      <c r="B235" s="8" t="str">
+      <c r="B235" s="19" t="str">
         <v>Text_Content_20041</v>
       </c>
-      <c r="C235" s="9" t="str">
+      <c r="C235" s="5" t="str">
         <v>Tips</v>
       </c>
-      <c r="D235" s="7" t="str">
+      <c r="D235" s="5" t="str">
         <v>温馨提示</v>
       </c>
-      <c r="E235" s="7" t="str"/>
-    </row>
-    <row r="236">
-      <c r="A236" s="7">
+      <c r="E235" s="5" t="str"/>
+    </row>
+    <row customHeight="true" ht="21" r="236">
+      <c r="A236" s="5">
         <v>90019</v>
       </c>
-      <c r="B236" s="15" t="str">
+      <c r="B236" s="6" t="str">
         <v>Tips_Content_20009</v>
       </c>
-      <c r="C236" s="9" t="str">
+      <c r="C236" s="5" t="str">
         <v>The murderer defeated you.</v>
       </c>
-      <c r="D236" s="36" t="str">
+      <c r="D236" s="29" t="str">
         <v>凶手淘汰了你</v>
       </c>
-      <c r="E236" s="7" t="str"/>
-    </row>
-    <row r="237">
-      <c r="A237" s="7">
+      <c r="E236" s="5" t="str"/>
+    </row>
+    <row customHeight="true" ht="21" r="237">
+      <c r="A237" s="5">
         <v>90020</v>
       </c>
-      <c r="B237" s="15" t="str">
+      <c r="B237" s="6" t="str">
         <v>Tips_Content_20010</v>
       </c>
-      <c r="C237" s="9" t="str">
+      <c r="C237" s="5" t="str">
         <v>Wrong target, you're eliminated.</v>
       </c>
-      <c r="D237" s="36" t="str">
+      <c r="D237" s="29" t="str">
         <v>目标错误，你被淘汰了</v>
       </c>
-      <c r="E237" s="7" t="str"/>
-    </row>
-    <row r="238">
-      <c r="A238" s="7">
+      <c r="E237" s="5" t="str"/>
+    </row>
+    <row customHeight="true" ht="21" r="238">
+      <c r="A238" s="5">
         <v>90021</v>
       </c>
-      <c r="B238" s="15" t="str">
+      <c r="B238" s="6" t="str">
         <v>Tips_Content_20011</v>
       </c>
-      <c r="C238" s="9" t="str">
+      <c r="C238" s="5" t="str">
         <v>You have been eliminated by the detective.</v>
       </c>
-      <c r="D238" s="36" t="str">
+      <c r="D238" s="29" t="str">
         <v>已被正义的警探消灭</v>
       </c>
-      <c r="E238" s="7" t="str"/>
-    </row>
-    <row r="239">
-      <c r="A239" s="7">
+      <c r="E238" s="5" t="str"/>
+    </row>
+    <row customHeight="true" ht="21" r="239">
+      <c r="A239" s="5">
         <v>90022</v>
       </c>
-      <c r="B239" s="15" t="str">
+      <c r="B239" s="6" t="str">
         <v>Text_Content_12027</v>
       </c>
-      <c r="C239" s="9" t="str">
+      <c r="C239" s="5" t="str">
         <v>Power Store</v>
       </c>
-      <c r="D239" s="9" t="str">
+      <c r="D239" s="5" t="str">
         <v>能力商店</v>
       </c>
-      <c r="E239" s="7" t="str"/>
-    </row>
-    <row r="240">
-      <c r="A240" s="7">
+      <c r="E239" s="5" t="str"/>
+    </row>
+    <row customHeight="true" ht="21" r="240">
+      <c r="A240" s="5">
         <v>90023</v>
       </c>
-      <c r="B240" s="15" t="str">
+      <c r="B240" s="6" t="str">
         <v>Text_Content_12028</v>
       </c>
-      <c r="C240" s="9" t="str">
+      <c r="C240" s="5" t="str">
         <v>Power Details</v>
       </c>
-      <c r="D240" s="9" t="str">
+      <c r="D240" s="5" t="str">
         <v>能力详情</v>
       </c>
-      <c r="E240" s="7" t="str"/>
-    </row>
-    <row r="241">
-      <c r="A241" s="7">
+      <c r="E240" s="5" t="str"/>
+    </row>
+    <row customHeight="true" ht="21" r="241">
+      <c r="A241" s="5">
         <v>90024</v>
       </c>
-      <c r="B241" s="15" t="str">
+      <c r="B241" s="6" t="str">
         <v>Text_Content_12029</v>
       </c>
-      <c r="C241" s="9" t="str">
+      <c r="C241" s="5" t="str">
         <v>Equip</v>
       </c>
-      <c r="D241" s="9" t="str">
+      <c r="D241" s="5" t="str">
         <v>装备</v>
       </c>
-      <c r="E241" s="7" t="str">
+      <c r="E241" s="5" t="str">
         <v>动词</v>
       </c>
     </row>
-    <row r="242">
-      <c r="A242" s="7">
+    <row customHeight="true" ht="21" r="242">
+      <c r="A242" s="5">
         <v>90025</v>
       </c>
-      <c r="B242" s="15" t="str">
+      <c r="B242" s="6" t="str">
         <v>Text_Content_12030</v>
       </c>
-      <c r="C242" s="9" t="str">
+      <c r="C242" s="5" t="str">
         <v>Remove</v>
       </c>
-      <c r="D242" s="9" t="str">
+      <c r="D242" s="5" t="str">
         <v>卸下</v>
       </c>
-      <c r="E242" s="7" t="str"/>
-    </row>
-    <row r="243">
-      <c r="A243" s="7">
+      <c r="E242" s="5" t="str"/>
+    </row>
+    <row customHeight="true" ht="21" r="243">
+      <c r="A243" s="5">
         <v>90026</v>
       </c>
-      <c r="B243" s="15" t="str">
+      <c r="B243" s="6" t="str">
         <v>Text_Content_12031</v>
       </c>
-      <c r="C243" s="9" t="str">
+      <c r="C243" s="5" t="str">
         <v>Coin Purchase</v>
       </c>
-      <c r="D243" s="9" t="str">
+      <c r="D243" s="5" t="str">
         <v>金币购买</v>
       </c>
-      <c r="E243" s="7" t="str"/>
-    </row>
-    <row r="244">
-      <c r="A244" s="7">
+      <c r="E243" s="5" t="str"/>
+    </row>
+    <row customHeight="true" ht="21" r="244">
+      <c r="A244" s="5">
         <v>90027</v>
       </c>
-      <c r="B244" s="15" t="str">
+      <c r="B244" s="6" t="str">
         <v>Text_Content_12032</v>
       </c>
-      <c r="C244" s="9" t="str">
+      <c r="C244" s="5" t="str">
         <v>Diamond Purchase</v>
       </c>
-      <c r="D244" s="9" t="str">
+      <c r="D244" s="5" t="str">
         <v>钻石购买</v>
       </c>
-      <c r="E244" s="7" t="str"/>
-    </row>
-    <row r="245">
-      <c r="A245" s="7">
+      <c r="E244" s="5" t="str"/>
+    </row>
+    <row customHeight="true" ht="21" r="245">
+      <c r="A245" s="5">
         <v>90028</v>
       </c>
-      <c r="B245" s="15" t="str">
+      <c r="B245" s="6" t="str">
         <v>Text_Content_12033</v>
       </c>
-      <c r="C245" s="9" t="str">
+      <c r="C245" s="5" t="str">
         <v>Equipped</v>
       </c>
-      <c r="D245" s="9" t="str">
+      <c r="D245" s="5" t="str">
         <v>装备中</v>
       </c>
-      <c r="E245" s="7" t="str">
+      <c r="E245" s="5" t="str">
         <v>指“已装备”</v>
       </c>
     </row>
-    <row r="246">
-      <c r="A246" s="7">
+    <row customHeight="true" ht="21" r="246">
+      <c r="A246" s="5">
         <v>90029</v>
       </c>
-      <c r="B246" s="15" t="str">
+      <c r="B246" s="6" t="str">
         <v>Text_Content_12034</v>
       </c>
-      <c r="C246" s="9" t="str">
+      <c r="C246" s="5" t="str">
         <v>Owned</v>
       </c>
-      <c r="D246" s="9" t="str">
+      <c r="D246" s="5" t="str">
         <v>已拥有</v>
       </c>
-      <c r="E246" s="7" t="str"/>
-    </row>
-    <row r="247">
-      <c r="A247" s="7">
+      <c r="E246" s="5" t="str"/>
+    </row>
+    <row customHeight="true" ht="21" r="247">
+      <c r="A247" s="5">
         <v>90030</v>
       </c>
-      <c r="B247" s="15" t="str">
+      <c r="B247" s="6" t="str">
         <v>Tips_Content_10011</v>
       </c>
-      <c r="C247" s="9" t="str">
+      <c r="C247" s="5" t="str">
         <v>Purchase successfully!</v>
       </c>
-      <c r="D247" s="9" t="str">
+      <c r="D247" s="5" t="str">
         <v>购买成功</v>
       </c>
-      <c r="E247" s="7" t="str"/>
-    </row>
-    <row r="248">
-      <c r="A248" s="7">
+      <c r="E247" s="5" t="str"/>
+    </row>
+    <row customHeight="true" ht="21" r="248">
+      <c r="A248" s="5">
         <v>90031</v>
       </c>
-      <c r="B248" s="15" t="str">
+      <c r="B248" s="6" t="str">
         <v>Tips_Content_10012</v>
       </c>
-      <c r="C248" s="9" t="str">
+      <c r="C248" s="5" t="str">
         <v>Purchase failed</v>
       </c>
-      <c r="D248" s="26" t="str">
+      <c r="D248" s="1" t="str">
         <v>货币不足，再攒攒吧~</v>
       </c>
-      <c r="E248" s="7" t="str"/>
-    </row>
-    <row r="249">
-      <c r="A249" s="7">
+      <c r="E248" s="5" t="str"/>
+    </row>
+    <row customHeight="true" ht="21" r="249">
+      <c r="A249" s="5">
         <v>90032</v>
       </c>
-      <c r="B249" s="13" t="str">
+      <c r="B249" s="20" t="str">
         <v>SkillShop_Name_10001</v>
       </c>
-      <c r="C249" s="9" t="str">
+      <c r="C249" s="5" t="str">
         <v>Killer Pace</v>
       </c>
-      <c r="D249" s="13" t="str">
+      <c r="D249" s="20" t="str">
         <v>杀手步伐</v>
       </c>
-      <c r="E249" s="7" t="str">
+      <c r="E249" s="5" t="str">
         <v>杀手的特殊能力名称</v>
       </c>
     </row>
-    <row r="250">
-      <c r="A250" s="7">
+    <row customHeight="true" ht="21" r="250">
+      <c r="A250" s="5">
         <v>90033</v>
       </c>
-      <c r="B250" s="13" t="str">
+      <c r="B250" s="20" t="str">
         <v>SkillShop_Name_10002</v>
       </c>
-      <c r="C250" s="9" t="str">
+      <c r="C250" s="5" t="str">
         <v>Quick Throw</v>
       </c>
-      <c r="D250" s="13" t="str">
+      <c r="D250" s="20" t="str">
         <v>快速投掷</v>
       </c>
-      <c r="E250" s="7" t="str">
+      <c r="E250" s="5" t="str">
         <v>杀手的特殊能力名称</v>
       </c>
     </row>
-    <row r="251">
-      <c r="A251" s="7">
+    <row customHeight="true" ht="21" r="251">
+      <c r="A251" s="5">
         <v>90034</v>
       </c>
-      <c r="B251" s="13" t="str">
+      <c r="B251" s="20" t="str">
         <v>SkillShop_Name_10003</v>
       </c>
-      <c r="C251" s="9" t="str">
+      <c r="C251" s="5" t="str">
         <v>Explosive Knife</v>
       </c>
-      <c r="D251" s="13" t="str">
+      <c r="D251" s="20" t="str">
         <v>爆炸飞刀</v>
       </c>
-      <c r="E251" s="7" t="str">
+      <c r="E251" s="5" t="str">
         <v>杀手的特殊能力名称</v>
       </c>
     </row>
-    <row r="252">
-      <c r="A252" s="7">
+    <row customHeight="true" ht="21" r="252">
+      <c r="A252" s="5">
         <v>90035</v>
       </c>
-      <c r="B252" s="13" t="str">
+      <c r="B252" s="20" t="str">
         <v>SkillShop_Description_10001</v>
       </c>
-      <c r="C252" s="9" t="str">
+      <c r="C252" s="5" t="str">
         <v>[Murderer's Passive Ability] When you pull out your knife, your movement speed is increased by 10% faster than usual.</v>
       </c>
-      <c r="D252" s="13" t="str">
+      <c r="D252" s="20" t="str">
         <v>【杀手被动能力】
 当你掏出你的刀时，你的移动速度会比平时更快，提升10％</v>
       </c>
-      <c r="E252" s="7" t="str"/>
-    </row>
-    <row r="253">
-      <c r="A253" s="7">
+      <c r="E252" s="5" t="str"/>
+    </row>
+    <row customHeight="true" ht="21" r="253">
+      <c r="A253" s="5">
         <v>90036</v>
       </c>
-      <c r="B253" s="13" t="str">
+      <c r="B253" s="20" t="str">
         <v>SkillShop_Description_10002</v>
       </c>
-      <c r="C253" s="9" t="str">
+      <c r="C253" s="5" t="str">
         <v>[Murderer's Passive Ability] Now your thrown flying knives will fly faster, boosted by 100%!</v>
       </c>
-      <c r="D253" s="13" t="str">
+      <c r="D253" s="20" t="str">
         <v>【杀手被动能力】
 现在你扔出的飞刀会飞得更快，提升100％</v>
       </c>
-      <c r="E253" s="7" t="str"/>
-    </row>
-    <row r="254">
-      <c r="A254" s="7">
+      <c r="E253" s="5" t="str"/>
+    </row>
+    <row customHeight="true" ht="21" r="254">
+      <c r="A254" s="5">
         <v>90037</v>
       </c>
-      <c r="B254" s="13" t="str">
+      <c r="B254" s="20" t="str">
         <v>SkillShop_Description_10003</v>
       </c>
-      <c r="C254" s="9" t="str">
+      <c r="C254" s="5" t="str">
         <v>[Murderer Passive Ability] When your throwing knife hits a target, instead of immediately dealing damage to the target, it plants a bomb. The bomb will explode after a small delay and deal damage to players around a certain range.</v>
       </c>
-      <c r="D254" s="13" t="str">
+      <c r="D254" s="20" t="str">
         <v>【杀手被动能力】
 当你的飞刀命中目标时，不会立即对目标造成伤害，而是在目标处埋下一颗炸弹，延迟一小段时间后会爆炸，并对周围一定范围内的玩家同样造成伤害</v>
       </c>
-      <c r="E254" s="7" t="str"/>
-    </row>
-    <row r="255">
-      <c r="A255" s="7">
+      <c r="E254" s="5" t="str"/>
+    </row>
+    <row customHeight="true" ht="21" r="255">
+      <c r="A255" s="5">
         <v>90038</v>
       </c>
-      <c r="B255" s="15" t="str">
+      <c r="B255" s="6" t="str">
         <v>Shop_Name_40001</v>
       </c>
-      <c r="C255" s="9" t="str">
+      <c r="C255" s="5" t="str">
         <v>Skibidi Rainbow Toilet</v>
       </c>
-      <c r="D255" s="16" t="str">
+      <c r="D255" s="14" t="str">
         <v>彩虹马桶人</v>
       </c>
-      <c r="E255" s="7" t="str">
+      <c r="E255" s="5" t="str">
         <v>马桶人是外网热梗，就叫skibidi toilet</v>
       </c>
     </row>
-    <row r="256">
-      <c r="A256" s="7">
+    <row customHeight="true" ht="21" r="256">
+      <c r="A256" s="5">
         <v>90039</v>
       </c>
-      <c r="B256" s="15" t="str">
+      <c r="B256" s="6" t="str">
         <v>Shop_Name_40002</v>
       </c>
-      <c r="C256" s="9" t="str">
+      <c r="C256" s="5" t="str">
         <v>Skibidi Princess Toilet</v>
       </c>
-      <c r="D256" s="16" t="str">
+      <c r="D256" s="14" t="str">
         <v>公主马桶人</v>
       </c>
-      <c r="E256" s="7" t="str">
+      <c r="E256" s="5" t="str">
         <v>马桶人是外网热梗，就叫skibidi toilet</v>
       </c>
     </row>
-    <row r="257">
-      <c r="A257" s="7">
+    <row customHeight="true" ht="21" r="257">
+      <c r="A257" s="5">
         <v>90040</v>
       </c>
-      <c r="B257" s="15" t="str">
+      <c r="B257" s="6" t="str">
         <v>Shop_Name_40003</v>
       </c>
-      <c r="C257" s="9" t="str">
+      <c r="C257" s="5" t="str">
         <v>Skibidi Space Toilet</v>
       </c>
-      <c r="D257" s="16" t="str">
+      <c r="D257" s="14" t="str">
         <v>太空马桶人</v>
       </c>
-      <c r="E257" s="7" t="str">
+      <c r="E257" s="5" t="str">
         <v>马桶人是外网热梗，就叫skibidi toilet</v>
       </c>
     </row>
-    <row r="258">
-      <c r="A258" s="7">
+    <row customHeight="true" ht="21" r="258">
+      <c r="A258" s="5">
         <v>90041</v>
       </c>
-      <c r="B258" s="15" t="str">
+      <c r="B258" s="6" t="str">
         <v>Shop_Name_40004</v>
       </c>
-      <c r="C258" s="9" t="str">
+      <c r="C258" s="5" t="str">
         <v>Skibidi Spider Toilet</v>
       </c>
-      <c r="D258" s="16" t="str">
+      <c r="D258" s="14" t="str">
         <v>蜘蛛马桶人</v>
       </c>
-      <c r="E258" s="7" t="str">
+      <c r="E258" s="5" t="str">
         <v>马桶人是外网热梗，就叫skibidi toilet</v>
       </c>
     </row>
-    <row r="259">
-      <c r="A259" s="7">
+    <row customHeight="true" ht="21" r="259">
+      <c r="A259" s="5">
         <v>90042</v>
       </c>
-      <c r="B259" s="15" t="str">
+      <c r="B259" s="6" t="str">
         <v>Shop_Name_40005</v>
       </c>
-      <c r="C259" s="9" t="str">
+      <c r="C259" s="5" t="str">
         <v>Cameraman</v>
       </c>
-      <c r="D259" s="16" t="str">
+      <c r="D259" s="14" t="str">
         <v>监控人</v>
       </c>
-      <c r="E259" s="7" t="str">
+      <c r="E259" s="5" t="str">
         <v>马桶人系列，就叫这个</v>
       </c>
     </row>
-    <row r="260">
-      <c r="A260" s="7">
+    <row customHeight="true" ht="21" r="260">
+      <c r="A260" s="5">
         <v>90043</v>
       </c>
-      <c r="B260" s="15" t="str">
+      <c r="B260" s="6" t="str">
         <v>Shop_Name_40006</v>
       </c>
-      <c r="C260" s="9" t="str">
+      <c r="C260" s="5" t="str">
         <v>Speakerman</v>
       </c>
-      <c r="D260" s="16" t="str">
+      <c r="D260" s="14" t="str">
         <v>音响人</v>
       </c>
-      <c r="E260" s="7" t="str">
+      <c r="E260" s="5" t="str">
         <v>马桶人系列，就叫这个</v>
       </c>
     </row>
-    <row r="261">
-      <c r="A261" s="7">
+    <row customHeight="true" ht="21" r="261">
+      <c r="A261" s="5">
         <v>90044</v>
       </c>
-      <c r="B261" s="15" t="str">
+      <c r="B261" s="6" t="str">
         <v>Shop_Name_40007</v>
       </c>
-      <c r="C261" s="9" t="str">
+      <c r="C261" s="5" t="str">
         <v>TV Man</v>
       </c>
-      <c r="D261" s="16" t="str">
+      <c r="D261" s="14" t="str">
         <v>电视人</v>
       </c>
-      <c r="E261" s="7" t="str">
+      <c r="E261" s="5" t="str">
         <v>马桶人系列，就叫这个</v>
       </c>
     </row>
-    <row r="262">
-      <c r="A262" s="7">
+    <row customHeight="true" ht="21" r="262">
+      <c r="A262" s="5">
         <v>90045</v>
       </c>
-      <c r="B262" s="15" t="str">
+      <c r="B262" s="6" t="str">
         <v>Shop_Name_40008</v>
       </c>
-      <c r="C262" s="9" t="str">
+      <c r="C262" s="5" t="str">
         <v>Cartoon Speakerman</v>
       </c>
-      <c r="D262" s="16" t="str">
+      <c r="D262" s="14" t="str">
         <v>卡通音响人</v>
       </c>
-      <c r="E262" s="7" t="str"/>
-    </row>
-    <row r="263">
-      <c r="A263" s="7">
+      <c r="E262" s="5" t="str"/>
+    </row>
+    <row customHeight="true" ht="21" r="263">
+      <c r="A263" s="5">
         <v>90046</v>
       </c>
-      <c r="B263" s="15" t="str">
+      <c r="B263" s="6" t="str">
         <v>Shop_Name_40009</v>
       </c>
-      <c r="C263" s="9" t="str">
+      <c r="C263" s="5" t="str">
         <v>Cartoon TVman</v>
       </c>
-      <c r="D263" s="16" t="str">
+      <c r="D263" s="14" t="str">
         <v>卡通电视人</v>
       </c>
-      <c r="E263" s="7" t="str"/>
-    </row>
-    <row r="264">
-      <c r="A264" s="41">
+      <c r="E263" s="5" t="str"/>
+    </row>
+    <row customHeight="true" ht="21" r="264">
+      <c r="A264" s="31">
         <v>90047</v>
       </c>
-      <c r="B264" s="39" t="str">
+      <c r="B264" s="32" t="str">
         <v>Text_Content_10005</v>
       </c>
-      <c r="C264" s="9" t="str">
+      <c r="C264" s="5" t="str">
         <v>This update:
 1. New [Skibidi Toilet VS Cameraman] series of pendants, welcome to the shop!
 2. New [Power Store], the configuration of the murderer's special abilities is now available!
@@ -5502,7 +5391,7 @@
 4. Adjusted the lobby and level scenes to improve performance.
 5. New reset button, try to tap it when the camera stucks!</v>
       </c>
-      <c r="D264" s="40" t="str">
+      <c r="D264" s="31" t="str">
         <v>本次更新：
 1.新增【马桶人VS监控人】系列挂件，欢迎大家去商店选购~
 2.新增【能力商店】，开放杀手局内特殊能力的配置
@@ -5510,923 +5399,916 @@
 4.调整大厅及关卡场景，提升性能
 5.新增还原按钮，镜头卡住的时候点一下试试吧</v>
       </c>
-      <c r="E264" s="41" t="str">
+      <c r="E264" s="31" t="str">
         <v>马桶人是外网热梗，就叫skibidi toilet</v>
       </c>
     </row>
-    <row r="265">
-      <c r="A265" s="10">
+    <row customHeight="true" ht="21" r="265">
+      <c r="A265" s="4">
         <v>90048</v>
       </c>
-      <c r="B265" s="11" t="str">
+      <c r="B265" s="34" t="str">
         <v>Tips_Content_10013</v>
       </c>
-      <c r="C265" s="9" t="str">
+      <c r="C265" s="5" t="str">
         <v>A player fails to enter the scene, the game will restart.</v>
       </c>
-      <c r="D265" s="10" t="str">
+      <c r="D265" s="4" t="str">
         <v>有玩家进入场景失败，对局将重新开始</v>
       </c>
-      <c r="E265" s="10" t="str"/>
-    </row>
-    <row r="266">
-      <c r="A266" s="10">
+      <c r="E265" s="4" t="str"/>
+    </row>
+    <row customHeight="true" ht="21" r="266">
+      <c r="A266" s="4">
         <v>90049</v>
       </c>
-      <c r="B266" s="10" t="str">
+      <c r="B266" s="4" t="str">
         <v>Text_Content_10006</v>
       </c>
-      <c r="C266" s="2" t="str">
+      <c r="C266" s="1" t="str">
         <v>Jump</v>
       </c>
-      <c r="D266" s="10" t="str">
+      <c r="D266" s="4" t="str">
         <v>跳转</v>
       </c>
-      <c r="E266" s="10" t="str"/>
-    </row>
-    <row customHeight="true" ht="19" r="267">
-      <c r="A267" s="10">
+      <c r="E266" s="4" t="str"/>
+    </row>
+    <row customHeight="true" ht="21" r="267">
+      <c r="A267" s="4">
         <v>90050</v>
       </c>
-      <c r="B267" s="14" t="str">
+      <c r="B267" s="3" t="str">
         <v>Text_Content_20045</v>
       </c>
-      <c r="C267" s="2" t="str">
+      <c r="C267" s="1" t="str">
         <v>Pull out gun</v>
       </c>
-      <c r="D267" s="1" t="str">
+      <c r="D267" s="2" t="str">
         <v>掏出手枪</v>
       </c>
-      <c r="E267" s="10"/>
-    </row>
-    <row customHeight="true" ht="19" r="268">
-      <c r="A268" s="10">
+      <c r="E267" s="4"/>
+    </row>
+    <row customHeight="true" ht="21" r="268">
+      <c r="A268" s="4">
         <v>90051</v>
       </c>
-      <c r="B268" s="14" t="str">
+      <c r="B268" s="3" t="str">
         <v>Text_Content_20046</v>
       </c>
-      <c r="C268" s="2" t="str">
+      <c r="C268" s="1" t="str">
         <v>Put away gun</v>
       </c>
-      <c r="D268" s="1" t="str">
+      <c r="D268" s="2" t="str">
         <v>收起手枪</v>
       </c>
-      <c r="E268" s="10"/>
-    </row>
-    <row customHeight="true" ht="19" r="269">
-      <c r="A269" s="10">
+      <c r="E268" s="4"/>
+    </row>
+    <row customHeight="true" ht="21" r="269">
+      <c r="A269" s="4">
         <v>90052</v>
       </c>
-      <c r="B269" s="14" t="str">
+      <c r="B269" s="3" t="str">
         <v>Text_Content_20047</v>
       </c>
-      <c r="C269" s="2" t="str">
+      <c r="C269" s="1" t="str">
         <v>Aim Sign</v>
       </c>
-      <c r="D269" s="1" t="str">
+      <c r="D269" s="2" t="str">
         <v>准星图标</v>
       </c>
-      <c r="E269" s="10"/>
-    </row>
-    <row customHeight="true" ht="19" r="270">
-      <c r="A270" s="10">
+      <c r="E269" s="4"/>
+    </row>
+    <row customHeight="true" ht="21" r="270">
+      <c r="A270" s="4">
         <v>90053</v>
       </c>
-      <c r="B270" s="14" t="str">
+      <c r="B270" s="3" t="str">
         <v>Text_Content_20048</v>
       </c>
-      <c r="C270" s="2" t="str">
+      <c r="C270" s="1" t="str">
         <v>Melee mode</v>
       </c>
-      <c r="D270" s="1" t="str">
+      <c r="D270" s="2" t="str">
         <v>掏出近战匕首</v>
       </c>
-      <c r="E270" s="10"/>
-    </row>
-    <row customHeight="true" ht="19" r="271">
-      <c r="A271" s="10">
+      <c r="E270" s="4"/>
+    </row>
+    <row customHeight="true" ht="21" r="271">
+      <c r="A271" s="4">
         <v>90054</v>
       </c>
-      <c r="B271" s="14" t="str">
+      <c r="B271" s="3" t="str">
         <v>Text_Content_20049</v>
       </c>
-      <c r="C271" s="2" t="str">
+      <c r="C271" s="1" t="str">
         <v>Throwing mode</v>
       </c>
-      <c r="D271" s="1" t="str">
+      <c r="D271" s="2" t="str">
         <v>掏出远程飞刀</v>
       </c>
-      <c r="E271" s="10"/>
-    </row>
-    <row customHeight="true" ht="19" r="272">
-      <c r="A272" s="10">
+      <c r="E271" s="4"/>
+    </row>
+    <row customHeight="true" ht="21" r="272">
+      <c r="A272" s="4">
         <v>90055</v>
       </c>
-      <c r="B272" s="14" t="str">
+      <c r="B272" s="3" t="str">
         <v>Text_Content_20050</v>
       </c>
-      <c r="C272" s="2" t="str">
+      <c r="C272" s="1" t="str">
         <v>Put away knife</v>
       </c>
-      <c r="D272" s="1" t="str">
+      <c r="D272" s="2" t="str">
         <v>收起武器</v>
       </c>
-      <c r="E272" s="10"/>
-    </row>
-    <row r="273">
-      <c r="A273" s="10">
+      <c r="E272" s="4"/>
+    </row>
+    <row customHeight="true" ht="21" r="273">
+      <c r="A273" s="4">
         <v>90056</v>
       </c>
-      <c r="B273" s="14" t="str">
+      <c r="B273" s="3" t="str">
         <v>Text_Content_20051</v>
       </c>
-      <c r="C273" s="1" t="str">
+      <c r="C273" s="2" t="str">
         <v>A</v>
       </c>
-      <c r="D273" s="2" t="str">
+      <c r="D273" s="1" t="str">
         <v>暂无获取途径</v>
       </c>
     </row>
-    <row r="274">
+    <row customHeight="true" ht="21" r="274">
       <c r="A274" s="28">
         <v>90057</v>
       </c>
-      <c r="B274" s="29" t="str">
+      <c r="B274" s="28" t="str">
         <v>Lottery_Name_10003</v>
       </c>
-      <c r="C274" s="30" t="str">
+      <c r="C274" s="27" t="str">
         <v>Sci-Fi Weapon Box</v>
       </c>
-      <c r="D274" s="30" t="str">
+      <c r="D274" s="27" t="str">
         <v>科幻武器箱</v>
       </c>
       <c r="E274" s="28"/>
     </row>
-    <row r="275">
+    <row customHeight="true" ht="21" r="275">
       <c r="A275" s="28">
         <v>90058</v>
       </c>
-      <c r="B275" s="29" t="str">
+      <c r="B275" s="28" t="str">
         <v>Lottery_Name_10004</v>
       </c>
-      <c r="C275" s="30" t="str">
+      <c r="C275" s="27" t="str">
         <v>Myth Weapon Box</v>
       </c>
-      <c r="D275" s="30" t="str">
+      <c r="D275" s="27" t="str">
         <v>神话武器箱</v>
       </c>
       <c r="E275" s="28"/>
     </row>
-    <row r="276">
-      <c r="A276" s="2">
+    <row customHeight="true" ht="21" r="276">
+      <c r="A276" s="1">
         <v>90059</v>
       </c>
-      <c r="B276" s="22" t="str">
+      <c r="B276" s="25" t="str">
         <v>Weapon_WeaponName_20004</v>
       </c>
-      <c r="C276" s="1" t="str">
+      <c r="C276" s="2" t="str">
         <v>Gun of Singularity</v>
       </c>
-      <c r="D276" s="23" t="str">
+      <c r="D276" s="36" t="str">
         <v>奇点之枪</v>
       </c>
     </row>
-    <row r="277">
-      <c r="A277" s="2">
+    <row customHeight="true" ht="21" r="277">
+      <c r="A277" s="1">
         <v>90060</v>
       </c>
-      <c r="B277" s="22" t="str">
+      <c r="B277" s="25" t="str">
         <v>Weapon_WeaponName_10023</v>
       </c>
-      <c r="C277" s="2" t="str">
+      <c r="C277" s="1" t="str">
         <v>Staff of Imaginary</v>
       </c>
-      <c r="D277" s="21" t="str">
+      <c r="D277" s="35" t="str">
         <v>虚数之杖</v>
       </c>
     </row>
-    <row r="278">
-      <c r="A278" s="2">
+    <row customHeight="true" ht="21" r="278">
+      <c r="A278" s="1">
         <v>90061</v>
       </c>
-      <c r="B278" s="22" t="str">
+      <c r="B278" s="25" t="str">
         <v>Weapon_WeaponName_10024</v>
       </c>
-      <c r="C278" s="2" t="str">
+      <c r="C278" s="1" t="str">
         <v>Spectral Spear</v>
       </c>
-      <c r="D278" s="27" t="str">
+      <c r="D278" s="26" t="str">
         <v>光谱矛</v>
       </c>
     </row>
-    <row r="279">
-      <c r="A279" s="2">
+    <row customHeight="true" ht="21" r="279">
+      <c r="A279" s="1">
         <v>90062</v>
       </c>
-      <c r="B279" s="22" t="str">
+      <c r="B279" s="25" t="str">
         <v>Weapon_WeaponName_20005</v>
       </c>
-      <c r="C279" s="2" t="str">
+      <c r="C279" s="1" t="str">
         <v>Anti-Matter Gun</v>
       </c>
-      <c r="D279" s="27" t="str">
+      <c r="D279" s="26" t="str">
         <v>反物质枪</v>
       </c>
     </row>
-    <row r="280">
-      <c r="A280" s="2">
+    <row customHeight="true" ht="21" r="280">
+      <c r="A280" s="1">
         <v>90063</v>
       </c>
-      <c r="B280" s="22" t="str">
+      <c r="B280" s="25" t="str">
         <v>Weapon_WeaponName_10025</v>
       </c>
-      <c r="C280" s="2" t="str">
+      <c r="C280" s="1" t="str">
         <v>Spectral Blade</v>
       </c>
-      <c r="D280" s="27" t="str">
+      <c r="D280" s="26" t="str">
         <v>光谱剑</v>
       </c>
     </row>
-    <row r="281">
-      <c r="A281" s="2">
+    <row customHeight="true" ht="21" r="281">
+      <c r="A281" s="1">
         <v>90064</v>
       </c>
-      <c r="B281" s="22" t="str">
+      <c r="B281" s="25" t="str">
         <v>Weapon_WeaponName_10026</v>
       </c>
-      <c r="C281" s="2" t="str">
+      <c r="C281" s="1" t="str">
         <v>Spectral Blade (Ruby)</v>
       </c>
-      <c r="D281" s="27" t="str">
+      <c r="D281" s="26" t="str">
         <v>光谱剑(晶红)</v>
       </c>
     </row>
-    <row customHeight="true" ht="19" r="282">
-      <c r="A282" s="2">
+    <row customHeight="true" ht="21" r="282">
+      <c r="A282" s="1">
         <v>90065</v>
       </c>
-      <c r="B282" s="22" t="str">
+      <c r="B282" s="25" t="str">
         <v>Weapon_WeaponName_10027</v>
       </c>
-      <c r="C282" s="2" t="str">
+      <c r="C282" s="1" t="str">
         <v>Dagger (Simulacrum)</v>
       </c>
-      <c r="D282" s="27" t="str">
+      <c r="D282" s="26" t="str">
         <v>匕首(模拟)</v>
       </c>
     </row>
-    <row customHeight="true" ht="19" r="283">
-      <c r="A283" s="2">
+    <row customHeight="true" ht="21" r="283">
+      <c r="A283" s="1">
         <v>90066</v>
       </c>
-      <c r="B283" s="22" t="str">
+      <c r="B283" s="25" t="str">
         <v>Weapon_WeaponName_10028</v>
       </c>
-      <c r="C283" s="2" t="str">
+      <c r="C283" s="1" t="str">
         <v>Saber (Simulacrum)</v>
       </c>
-      <c r="D283" s="27" t="str">
+      <c r="D283" s="26" t="str">
         <v>军刀(模拟)</v>
       </c>
     </row>
-    <row customHeight="true" ht="19" r="284">
-      <c r="A284" s="2">
+    <row customHeight="true" ht="21" r="284">
+      <c r="A284" s="1">
         <v>90067</v>
       </c>
-      <c r="B284" s="22" t="str">
+      <c r="B284" s="25" t="str">
         <v>Weapon_WeaponName_20006</v>
       </c>
-      <c r="C284" s="2" t="str">
+      <c r="C284" s="1" t="str">
         <v>Revolver (Simulacrum)</v>
       </c>
-      <c r="D284" s="27" t="str">
+      <c r="D284" s="26" t="str">
         <v>左轮(模拟)</v>
       </c>
     </row>
-    <row customHeight="true" ht="19" r="285">
-      <c r="A285" s="2">
+    <row customHeight="true" ht="21" r="285">
+      <c r="A285" s="1">
         <v>90068</v>
       </c>
-      <c r="B285" s="22" t="str">
+      <c r="B285" s="25" t="str">
         <v>Weapon_WeaponName_20007</v>
       </c>
-      <c r="C285" s="2" t="str">
+      <c r="C285" s="1" t="str">
         <v>SMG (Simulacrum)</v>
       </c>
-      <c r="D285" s="27" t="str">
+      <c r="D285" s="26" t="str">
         <v>冲锋枪(模拟)</v>
       </c>
     </row>
-    <row customHeight="true" ht="19" r="286">
-      <c r="A286" s="2">
+    <row customHeight="true" ht="21" r="286">
+      <c r="A286" s="1">
         <v>90069</v>
       </c>
-      <c r="B286" s="24" t="str">
+      <c r="B286" s="7" t="str">
         <v>Weapon_WeaponName_10029</v>
       </c>
-      <c r="C286" s="2" t="str">
+      <c r="C286" s="1" t="str">
         <v>Storm Caller (Rune)</v>
       </c>
-      <c r="D286" s="25" t="str">
+      <c r="D286" s="8" t="str">
         <v>唤雷(符文)</v>
       </c>
     </row>
-    <row customHeight="true" ht="19" r="287">
-      <c r="A287" s="2">
+    <row customHeight="true" ht="21" r="287">
+      <c r="A287" s="1">
         <v>90070</v>
       </c>
-      <c r="B287" s="24" t="str">
+      <c r="B287" s="7" t="str">
         <v>Weapon_WeaponName_20008</v>
       </c>
-      <c r="C287" s="2" t="str">
+      <c r="C287" s="1" t="str">
         <v>Sun Seeker (Rune)</v>
       </c>
-      <c r="D287" s="25" t="str">
+      <c r="D287" s="8" t="str">
         <v>逐日(符文)</v>
       </c>
     </row>
-    <row customHeight="true" ht="19" r="288">
-      <c r="A288" s="2">
+    <row customHeight="true" ht="21" r="288">
+      <c r="A288" s="1">
         <v>90071</v>
       </c>
-      <c r="B288" s="24" t="str">
+      <c r="B288" s="7" t="str">
         <v>Weapon_WeaponName_10030</v>
       </c>
-      <c r="C288" s="2" t="str">
+      <c r="C288" s="1" t="str">
         <v>Hammer of Thor</v>
       </c>
-      <c r="D288" s="25" t="str">
+      <c r="D288" s="8" t="str">
         <v>雷神之锤</v>
       </c>
     </row>
-    <row customHeight="true" ht="19" r="289">
-      <c r="A289" s="2">
+    <row customHeight="true" ht="21" r="289">
+      <c r="A289" s="1">
         <v>90072</v>
       </c>
-      <c r="B289" s="24" t="str">
+      <c r="B289" s="7" t="str">
         <v>Weapon_WeaponName_20009</v>
       </c>
-      <c r="C289" s="2" t="str">
+      <c r="C289" s="1" t="str">
         <v>Blunderbuss</v>
       </c>
-      <c r="D289" s="25" t="str">
+      <c r="D289" s="8" t="str">
         <v>火铳</v>
       </c>
     </row>
-    <row customHeight="true" ht="19" r="290">
-      <c r="A290" s="2">
+    <row customHeight="true" ht="21" r="290">
+      <c r="A290" s="1">
         <v>90073</v>
       </c>
-      <c r="B290" s="24" t="str">
+      <c r="B290" s="7" t="str">
         <v>Weapon_WeaponName_10031</v>
       </c>
-      <c r="C290" s="2" t="str">
+      <c r="C290" s="1" t="str">
         <v>Bonespike Sword (Devine)</v>
       </c>
-      <c r="D290" s="25" t="str">
+      <c r="D290" s="8" t="str">
         <v>骨刺剑(圣)</v>
       </c>
     </row>
-    <row customHeight="true" ht="19" r="291">
-      <c r="A291" s="2">
+    <row customHeight="true" ht="21" r="291">
+      <c r="A291" s="1">
         <v>90074</v>
       </c>
-      <c r="B291" s="24" t="str">
+      <c r="B291" s="7" t="str">
         <v>Weapon_WeaponName_20010</v>
       </c>
-      <c r="C291" s="2" t="str">
+      <c r="C291" s="1" t="str">
         <v>Revolver (Devine)</v>
       </c>
-      <c r="D291" s="25" t="str">
+      <c r="D291" s="8" t="str">
         <v>左轮(圣)</v>
       </c>
     </row>
-    <row customHeight="true" ht="19" r="292">
-      <c r="A292" s="2">
+    <row customHeight="true" ht="21" r="292">
+      <c r="A292" s="1">
         <v>90075</v>
       </c>
-      <c r="B292" s="24" t="str">
+      <c r="B292" s="7" t="str">
         <v>Weapon_WeaponName_10032</v>
       </c>
-      <c r="C292" s="2" t="str">
+      <c r="C292" s="1" t="str">
         <v>Bonespike Sword (Love)</v>
       </c>
-      <c r="D292" s="25" t="str">
+      <c r="D292" s="8" t="str">
         <v>骨刺剑(恋)</v>
       </c>
     </row>
-    <row customHeight="true" ht="19" r="293">
-      <c r="A293" s="2">
+    <row customHeight="true" ht="21" r="293">
+      <c r="A293" s="1">
         <v>90076</v>
       </c>
-      <c r="B293" s="24" t="str">
+      <c r="B293" s="7" t="str">
         <v>Weapon_WeaponName_20011</v>
       </c>
-      <c r="C293" s="2" t="str">
+      <c r="C293" s="1" t="str">
         <v>Revolver (Love)</v>
       </c>
-      <c r="D293" s="25" t="str">
+      <c r="D293" s="8" t="str">
         <v>左轮(恋)</v>
       </c>
     </row>
-    <row customHeight="true" ht="19" r="294">
-      <c r="A294" s="2">
+    <row customHeight="true" ht="21" r="294">
+      <c r="A294" s="1">
         <v>90077</v>
       </c>
-      <c r="B294" s="24" t="str">
+      <c r="B294" s="7" t="str">
         <v>Weapon_WeaponName_10033</v>
       </c>
-      <c r="C294" s="2" t="str">
+      <c r="C294" s="1" t="str">
         <v>Bonespike Sword (Flame)</v>
       </c>
-      <c r="D294" s="25" t="str">
+      <c r="D294" s="8" t="str">
         <v>骨刺剑(炽)</v>
       </c>
     </row>
-    <row customHeight="true" ht="19" r="295">
-      <c r="A295" s="2">
+    <row customHeight="true" ht="21" r="295">
+      <c r="A295" s="1">
         <v>90078</v>
       </c>
-      <c r="B295" s="24" t="str">
+      <c r="B295" s="7" t="str">
         <v>Weapon_WeaponName_10034</v>
       </c>
-      <c r="C295" s="2" t="str">
+      <c r="C295" s="1" t="str">
         <v>Bonespike Sword (Frost)</v>
       </c>
-      <c r="D295" s="25" t="str">
+      <c r="D295" s="8" t="str">
         <v>骨刺剑(霜)</v>
       </c>
     </row>
-    <row customHeight="true" ht="19" r="296">
-      <c r="A296" s="2">
+    <row customHeight="true" ht="21" r="296">
+      <c r="A296" s="1">
         <v>90079</v>
       </c>
-      <c r="B296" s="32" t="str">
+      <c r="B296" s="16" t="str">
         <v>Weapon_WeaponName_10035</v>
       </c>
-      <c r="C296" s="2" t="str">
+      <c r="C296" s="1" t="str">
         <v>Sakura</v>
       </c>
-      <c r="D296" s="35" t="str">
+      <c r="D296" s="15" t="str">
         <v>樱</v>
       </c>
     </row>
-    <row customHeight="true" ht="19" r="297">
-      <c r="A297" s="2">
+    <row customHeight="true" ht="21" r="297">
+      <c r="A297" s="1">
         <v>90080</v>
       </c>
-      <c r="B297" s="32" t="str">
+      <c r="B297" s="16" t="str">
         <v>Weapon_WeaponName_20012</v>
       </c>
-      <c r="C297" s="2" t="str">
+      <c r="C297" s="1" t="str">
         <v>Butterfly</v>
       </c>
-      <c r="D297" s="35" t="str">
+      <c r="D297" s="15" t="str">
         <v>蝶</v>
       </c>
     </row>
-    <row customHeight="true" ht="19" r="298">
-      <c r="A298" s="2">
+    <row customHeight="true" ht="21" r="298">
+      <c r="A298" s="1">
         <v>90081</v>
       </c>
-      <c r="B298" s="32" t="str">
+      <c r="B298" s="16" t="str">
         <v>Weapon_WeaponName_10036</v>
       </c>
-      <c r="C298" s="2" t="str">
+      <c r="C298" s="1" t="str">
         <v>Golden Bat (Rainbow)</v>
       </c>
-      <c r="D298" s="33" t="str">
+      <c r="D298" s="21" t="str">
         <v>黄金球棍(虹彩)</v>
       </c>
     </row>
-    <row customHeight="true" ht="19" r="299">
-      <c r="A299" s="2">
+    <row customHeight="true" ht="21" r="299">
+      <c r="A299" s="1">
         <v>90082</v>
       </c>
-      <c r="B299" s="32" t="str">
+      <c r="B299" s="16" t="str">
         <v>Weapon_WeaponName_20013</v>
       </c>
-      <c r="C299" s="2" t="str">
+      <c r="C299" s="1" t="str">
         <v>Golden Revolver (Rainbow)</v>
       </c>
-      <c r="D299" s="33" t="str">
+      <c r="D299" s="21" t="str">
         <v>黄金左轮(虹彩)</v>
       </c>
     </row>
-    <row customHeight="true" ht="19" r="300">
-      <c r="A300" s="2">
+    <row customHeight="true" ht="21" r="300">
+      <c r="A300" s="1">
         <v>90083</v>
       </c>
-      <c r="B300" s="34" t="str">
+      <c r="B300" s="33" t="str">
         <v>SkillShop_Name_10004</v>
       </c>
-      <c r="C300" s="2" t="str">
+      <c r="C300" s="1" t="str">
         <v>Ghost's Cloak</v>
       </c>
-      <c r="D300" s="34" t="str">
+      <c r="D300" s="33" t="str">
         <v>幽灵斗篷</v>
       </c>
     </row>
-    <row r="301">
-      <c r="A301" s="2">
+    <row customHeight="true" ht="21" r="301">
+      <c r="A301" s="1">
         <v>90084</v>
       </c>
-      <c r="B301" s="34" t="str">
+      <c r="B301" s="33" t="str">
         <v>SkillShop_Description_10004</v>
       </c>
-      <c r="C301" s="1" t="str">
+      <c r="C301" s="2" t="str">
         <v>[Murderer Active Ability] When active, you become invisable for 5 secs, eliminating any player will instantly end the ghost‘s cloak</v>
       </c>
-      <c r="D301" s="1" t="str">
+      <c r="D301" s="2" t="str">
         <v>【杀手主动能力】
 激活后，你可以隐身5秒，若你在隐身时击败了任何玩家，则会立即结束隐身</v>
       </c>
     </row>
-    <row r="302">
-      <c r="A302" s="2">
+    <row customHeight="true" ht="21" r="302">
+      <c r="A302" s="1">
         <v>90085</v>
       </c>
-      <c r="B302" s="3" t="str">
+      <c r="B302" s="10" t="str">
         <v>Tips_Content_20012</v>
       </c>
-      <c r="C302" s="1" t="str">
+      <c r="C302" s="2" t="str">
         <v>A</v>
       </c>
-      <c r="D302" s="1" t="str">
+      <c r="D302" s="2" t="str">
         <v>兑换成功</v>
       </c>
     </row>
-    <row r="303">
-      <c r="A303" s="2">
+    <row customHeight="true" ht="21" r="303">
+      <c r="A303" s="1">
         <v>90086</v>
       </c>
-      <c r="B303" s="3" t="str">
+      <c r="B303" s="10" t="str">
         <v>Tips_Content_20013</v>
       </c>
-      <c r="C303" s="1" t="str">
+      <c r="C303" s="2" t="str">
         <v>A</v>
       </c>
-      <c r="D303" s="1" t="str">
+      <c r="D303" s="2" t="str">
         <v>兑换失败</v>
       </c>
     </row>
-    <row r="304">
-      <c r="A304" s="2">
+    <row customHeight="true" ht="21" r="304">
+      <c r="A304" s="1">
         <v>90087</v>
       </c>
-      <c r="B304" s="3" t="str">
+      <c r="B304" s="10" t="str">
         <v>Tips_Content_20014</v>
       </c>
-      <c r="C304" s="1" t="str">
+      <c r="C304" s="2" t="str">
         <v>A</v>
       </c>
-      <c r="D304" s="1" t="str">
+      <c r="D304" s="2" t="str">
         <v>恭喜激活会员特权</v>
       </c>
     </row>
-    <row r="305">
-      <c r="A305" s="2">
+    <row customHeight="true" ht="21" r="305">
+      <c r="A305" s="1">
         <v>90088</v>
       </c>
-      <c r="B305" s="3" t="str">
+      <c r="B305" s="10" t="str">
         <v>Tips_Content_20015</v>
       </c>
-      <c r="C305" s="1" t="str">
+      <c r="C305" s="2" t="str">
         <v>A</v>
       </c>
-      <c r="D305" s="1" t="str">
+      <c r="D305" s="2" t="str">
         <v>恭喜激活超级特权</v>
       </c>
     </row>
-    <row r="306">
-      <c r="A306" s="2">
+    <row customHeight="true" ht="21" r="306">
+      <c r="A306" s="1">
         <v>90089</v>
       </c>
-      <c r="B306" s="3" t="str">
+      <c r="B306" s="10" t="str">
         <v>Tips_Content_20016</v>
       </c>
-      <c r="C306" s="1" t="str">
+      <c r="C306" s="2" t="str">
         <v>A</v>
       </c>
-      <c r="D306" s="1" t="str">
+      <c r="D306" s="2" t="str">
         <v>会员特权已到期失效</v>
       </c>
     </row>
-    <row r="307">
-      <c r="A307" s="2">
+    <row customHeight="true" ht="21" r="307">
+      <c r="A307" s="1">
         <v>90090</v>
       </c>
-      <c r="B307" s="3" t="str">
+      <c r="B307" s="10" t="str">
         <v>Tips_Content_20017</v>
       </c>
-      <c r="C307" s="1" t="str">
+      <c r="C307" s="2" t="str">
         <v>A</v>
       </c>
-      <c r="D307" s="1" t="str">
+      <c r="D307" s="2" t="str">
         <v>超级特权已到期失效</v>
       </c>
     </row>
-    <row r="308">
-      <c r="A308" s="2">
+    <row customHeight="true" ht="21" r="308">
+      <c r="A308" s="1">
         <v>90091</v>
       </c>
-      <c r="B308" s="3" t="str">
+      <c r="B308" s="10" t="str">
         <v>Tips_Content_20018</v>
       </c>
-      <c r="C308" s="1" t="str">
+      <c r="C308" s="2" t="str">
         <v>A</v>
       </c>
-      <c r="D308" s="1" t="str">
+      <c r="D308" s="2" t="str">
         <v>持有数量已经达到上限</v>
       </c>
     </row>
-    <row r="309">
-      <c r="A309" s="2">
+    <row customHeight="true" ht="21" r="309">
+      <c r="A309" s="1">
         <v>90092</v>
       </c>
-      <c r="B309" s="14" t="str">
+      <c r="B309" s="3" t="str">
         <v>Text_Content_20052</v>
       </c>
-      <c r="C309" s="1" t="str">
+      <c r="C309" s="2" t="str">
         <v>A</v>
       </c>
-      <c r="D309" s="1" t="str">
+      <c r="D309" s="2" t="str">
         <v>兑换</v>
       </c>
     </row>
-    <row r="310">
-      <c r="A310" s="2">
+    <row customHeight="true" ht="21" r="310">
+      <c r="A310" s="1">
         <v>90093</v>
       </c>
-      <c r="B310" s="14" t="str">
+      <c r="B310" s="3" t="str">
         <v>Text_Content_20053</v>
       </c>
-      <c r="C310" s="1" t="str">
+      <c r="C310" s="2" t="str">
         <v>A</v>
       </c>
-      <c r="D310" s="1" t="str">
+      <c r="D310" s="2" t="str">
         <v>跳转</v>
       </c>
     </row>
-    <row r="311">
-      <c r="A311" s="2">
+    <row customHeight="true" ht="21" r="311">
+      <c r="A311" s="1">
         <v>90094</v>
       </c>
-      <c r="B311" s="14" t="str">
+      <c r="B311" s="3" t="str">
         <v>Text_Content_20054</v>
       </c>
-      <c r="C311" s="1" t="str">
+      <c r="C311" s="2" t="str">
         <v>A</v>
       </c>
-      <c r="D311" s="1" t="str">
+      <c r="D311" s="2" t="str">
         <v>会员特权激活中</v>
       </c>
     </row>
-    <row r="312">
-      <c r="A312" s="2">
+    <row customHeight="true" ht="21" r="312">
+      <c r="A312" s="1">
         <v>90095</v>
       </c>
-      <c r="B312" s="14" t="str">
+      <c r="B312" s="3" t="str">
         <v>Text_Content_20055</v>
       </c>
-      <c r="C312" s="1" t="str">
+      <c r="C312" s="2" t="str">
         <v>A</v>
       </c>
-      <c r="D312" s="1" t="str">
+      <c r="D312" s="2" t="str">
         <v>剩余激活时间{0}</v>
       </c>
     </row>
-    <row r="313">
-      <c r="A313" s="2">
+    <row customHeight="true" ht="21" r="313">
+      <c r="A313" s="1">
         <v>90096</v>
       </c>
-      <c r="B313" s="14" t="str">
+      <c r="B313" s="3" t="str">
         <v>Text_Content_20056</v>
       </c>
-      <c r="C313" s="1" t="str">
+      <c r="C313" s="2" t="str">
         <v>A</v>
       </c>
-      <c r="D313" s="1" t="str">
+      <c r="D313" s="2" t="str">
         <v>尚未激活会员特权</v>
       </c>
     </row>
-    <row r="314">
-      <c r="A314" s="2">
+    <row customHeight="true" ht="21" r="314">
+      <c r="A314" s="1">
         <v>90097</v>
       </c>
-      <c r="B314" s="14" t="str">
+      <c r="B314" s="3" t="str">
         <v>Text_Content_20057</v>
       </c>
-      <c r="C314" s="1" t="str">
+      <c r="C314" s="2" t="str">
         <v>A</v>
       </c>
-      <c r="D314" s="1" t="str">
+      <c r="D314" s="2" t="str">
         <v>尚未激活超级特权</v>
       </c>
     </row>
-    <row r="315">
-      <c r="A315" s="2">
+    <row customHeight="true" ht="21" r="315">
+      <c r="A315" s="1">
         <v>90098</v>
       </c>
-      <c r="B315" s="14" t="str">
+      <c r="B315" s="3" t="str">
         <v>Text_Content_20058</v>
       </c>
-      <c r="C315" s="1" t="str">
+      <c r="C315" s="2" t="str">
         <v>A</v>
       </c>
-      <c r="D315" s="1" t="str">
+      <c r="D315" s="2" t="str">
         <v>剩余激活时间{0}天</v>
       </c>
     </row>
-    <row r="316">
-      <c r="A316" s="2">
+    <row customHeight="true" ht="21" r="316">
+      <c r="A316" s="1">
         <v>90099</v>
       </c>
-      <c r="B316" s="14" t="str">
+      <c r="B316" s="3" t="str">
         <v>Text_Content_20059</v>
       </c>
-      <c r="C316" s="1" t="str">
+      <c r="C316" s="2" t="str">
         <v>A</v>
       </c>
-      <c r="D316" s="1" t="str">
+      <c r="D316" s="2" t="str">
         <v>会员特权</v>
       </c>
     </row>
-    <row r="317">
-      <c r="A317" s="2">
+    <row customHeight="true" ht="21" r="317">
+      <c r="A317" s="1">
         <v>90100</v>
       </c>
-      <c r="B317" s="14" t="str">
+      <c r="B317" s="3" t="str">
         <v>Text_Content_20060</v>
       </c>
-      <c r="C317" s="1" t="str">
+      <c r="C317" s="2" t="str">
         <v>A</v>
       </c>
-      <c r="D317" s="1" t="str">
+      <c r="D317" s="2" t="str">
         <v>超级特权</v>
       </c>
     </row>
-    <row r="318">
-      <c r="A318" s="2">
+    <row customHeight="true" ht="21" r="318">
+      <c r="A318" s="1">
         <v>90101</v>
       </c>
-      <c r="B318" s="3" t="str">
+      <c r="B318" s="10" t="str">
         <v>Tips_Content_20019</v>
       </c>
-      <c r="C318" s="1" t="str">
+      <c r="C318" s="2" t="str">
         <v>A</v>
       </c>
-      <c r="D318" s="1" t="str">
+      <c r="D318" s="2" t="str">
         <v>恭喜获得广告券*1</v>
       </c>
     </row>
-    <row r="319">
-      <c r="A319" s="2">
+    <row customHeight="true" ht="21" r="319">
+      <c r="A319" s="1">
         <v>90102</v>
       </c>
-      <c r="B319" s="26" t="str">
+      <c r="B319" s="1" t="str">
         <v>Item_Name_20012</v>
       </c>
-      <c r="C319" s="1" t="str">
+      <c r="C319" s="2" t="str">
         <v>A</v>
       </c>
-      <c r="D319" s="1" t="str">
+      <c r="D319" s="2" t="str">
         <v>土豪来啦</v>
       </c>
     </row>
-    <row r="320">
-      <c r="A320" s="2">
+    <row customHeight="true" ht="21" r="320">
+      <c r="A320" s="1">
         <v>90103</v>
       </c>
-      <c r="B320" s="12" t="str">
+      <c r="B320" s="13" t="str">
         <v>SkillShop_Name_10005</v>
       </c>
-      <c r="C320" s="1" t="str">
+      <c r="C320" s="2" t="str">
         <v>A</v>
       </c>
-      <c r="D320" s="43" t="str">
+      <c r="D320" s="17" t="str">
         <v>快速投掷体验券</v>
       </c>
     </row>
-    <row r="321">
-      <c r="A321" s="2">
+    <row customHeight="true" ht="21" r="321">
+      <c r="A321" s="1">
         <v>90104</v>
       </c>
-      <c r="B321" s="12" t="str">
+      <c r="B321" s="13" t="str">
         <v>SkillShop_Name_10006</v>
       </c>
-      <c r="C321" s="1" t="str">
+      <c r="C321" s="2" t="str">
         <v>A</v>
       </c>
-      <c r="D321" s="12" t="str">
+      <c r="D321" s="13" t="str">
         <v>爆炸飞刀体验券</v>
       </c>
     </row>
-    <row r="322">
-      <c r="A322" s="2">
+    <row customHeight="true" ht="21" r="322">
+      <c r="A322" s="1">
         <v>90105</v>
       </c>
-      <c r="B322" s="12" t="str">
+      <c r="B322" s="13" t="str">
         <v>SkillShop_Name_10007</v>
       </c>
-      <c r="C322" s="1" t="str">
+      <c r="C322" s="2" t="str">
         <v>A</v>
       </c>
-      <c r="D322" s="5" t="str">
+      <c r="D322" s="18" t="str">
         <v>幽灵斗篷体验券</v>
       </c>
     </row>
-    <row r="323">
-      <c r="A323" s="2">
+    <row customHeight="true" ht="21" r="323">
+      <c r="A323" s="1">
         <v>90106</v>
       </c>
-      <c r="B323" s="12" t="str">
+      <c r="B323" s="13" t="str">
         <v>SkillShop_Description_10005</v>
       </c>
-      <c r="C323" s="1" t="str">
+      <c r="C323" s="2" t="str">
         <v>A</v>
       </c>
-      <c r="D323" s="13" t="str">
+      <c r="D323" s="20" t="str">
         <v>【杀手被动能力】
 现在你扔出的飞刀会飞得更快，提升100％</v>
       </c>
-      <c r="E323" s="2" t="str">
+      <c r="E323" s="1" t="str">
         <v>和上面一样</v>
       </c>
     </row>
-    <row r="324">
-      <c r="A324" s="2">
+    <row customHeight="true" ht="21" r="324">
+      <c r="A324" s="1">
         <v>90107</v>
       </c>
-      <c r="B324" s="12" t="str">
+      <c r="B324" s="13" t="str">
         <v>SkillShop_Description_10006</v>
       </c>
-      <c r="C324" s="1" t="str">
+      <c r="C324" s="2" t="str">
         <v>A</v>
       </c>
-      <c r="D324" s="13" t="str">
+      <c r="D324" s="20" t="str">
         <v>【杀手被动能力】
 当你的飞刀命中目标时，不会立即对目标造成伤害，而是在目标处埋下一颗炸弹，延迟一小段时间后会爆炸，并对周围一定范围内的玩家同样造成伤害</v>
       </c>
-      <c r="E324" s="2" t="str">
+      <c r="E324" s="1" t="str">
         <v>和上面一样</v>
       </c>
     </row>
-    <row r="325">
-      <c r="A325" s="2">
+    <row customHeight="true" ht="21" r="325">
+      <c r="A325" s="1">
         <v>90108</v>
       </c>
-      <c r="B325" s="12" t="str">
+      <c r="B325" s="13" t="str">
         <v>SkillShop_Description_10007</v>
       </c>
-      <c r="C325" s="1" t="str">
+      <c r="C325" s="2" t="str">
         <v>A</v>
       </c>
-      <c r="D325" s="1" t="str">
+      <c r="D325" s="2" t="str">
         <v>【杀手主动能力】
 激活后，你可以隐身5秒，若你在隐身时击败了任何玩家，则会立即结束隐身</v>
       </c>
-      <c r="E325" s="2" t="str">
+      <c r="E325" s="1" t="str">
         <v>和上面一样</v>
       </c>
     </row>
-    <row r="326">
-      <c r="A326" s="2">
+    <row customHeight="true" ht="21" r="326">
+      <c r="A326" s="1">
         <v>90109</v>
       </c>
-      <c r="B326" s="3" t="str">
+      <c r="B326" s="10" t="str">
         <v>Tips_Content_20020</v>
       </c>
-      <c r="C326" s="1" t="str">
+      <c r="C326" s="2" t="str">
         <v>A</v>
       </c>
-      <c r="D326" s="1" t="str">
+      <c r="D326" s="2" t="str">
         <v>金钥匙数量不足</v>
       </c>
-      <c r="E326" s="2"/>
-    </row>
-    <row r="327">
-      <c r="A327" s="2">
+      <c r="E326" s="1"/>
+    </row>
+    <row customHeight="true" ht="21" r="327">
+      <c r="A327" s="1">
         <v>90110</v>
       </c>
-      <c r="B327" s="3" t="str">
+      <c r="B327" s="10" t="str">
         <v>Tips_Content_20021</v>
       </c>
-      <c r="C327" s="1" t="str">
+      <c r="C327" s="2" t="str">
         <v>A</v>
       </c>
-      <c r="D327" s="1" t="str">
+      <c r="D327" s="2" t="str">
         <v>这个版本不支持开通大会员</v>
       </c>
-      <c r="E327" s="2"/>
-    </row>
-    <row r="328">
-      <c r="A328" s="2"/>
-      <c r="B328" s="12"/>
-      <c r="C328" s="1"/>
-      <c r="D328" s="1"/>
-      <c r="E328" s="2"/>
+      <c r="E327" s="1"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -6444,27 +6326,48 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="19"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" max="1" min="1" style="0" width="12"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="2" min="2" style="0" width="35"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="3" min="3" style="0" width="75"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="4" min="4" style="0" width="75"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="5" min="5" style="0" width="21"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="6" min="6" style="0" width="12"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="7" min="7" style="0" width="35"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="8" min="8" style="0" width="75"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="9" min="9" style="0" width="75"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="10" min="10" style="0" width="21"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="11" min="11" style="0" width="12"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="12" min="12" style="0" width="35"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="13" min="13" style="0" width="75"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="14" min="14" style="0" width="75"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="15" min="15" style="0" width="21"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="16" min="16" style="0" width="12"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="17" min="17" style="0" width="35"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="18" min="18" style="0" width="75"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="19" min="19" style="0" width="75"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="20" min="20" style="0" width="21"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="1" min="1" style="0" width="13"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="2" min="2" style="0" width="37"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="3" min="3" style="0" width="79"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="4" min="4" style="0" width="79"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="5" min="5" style="0" width="23"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="6" min="6" style="0" width="13"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="7" min="7" style="0" width="37"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="8" min="8" style="0" width="79"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="9" min="9" style="0" width="79"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="10" min="10" style="0" width="23"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="11" min="11" style="0" width="13"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="12" min="12" style="0" width="37"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="13" min="13" style="0" width="79"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="14" min="14" style="0" width="79"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="15" min="15" style="0" width="23"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="16" min="16" style="0" width="13"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="17" min="17" style="0" width="37"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="18" min="18" style="0" width="79"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="19" min="19" style="0" width="79"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="20" min="20" style="0" width="23"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row customHeight="true" ht="21" r="1"/>
+    <row customHeight="true" ht="21" r="2"/>
+    <row customHeight="true" ht="21" r="3"/>
+    <row customHeight="true" ht="21" r="4"/>
+    <row customHeight="true" ht="21" r="5"/>
+    <row customHeight="true" ht="21" r="6"/>
+    <row customHeight="true" ht="21" r="7"/>
+    <row customHeight="true" ht="21" r="8"/>
+    <row customHeight="true" ht="21" r="9"/>
+    <row customHeight="true" ht="21" r="10"/>
+    <row customHeight="true" ht="21" r="11"/>
+    <row customHeight="true" ht="21" r="12"/>
+    <row customHeight="true" ht="21" r="13"/>
+    <row customHeight="true" ht="21" r="14"/>
+    <row customHeight="true" ht="21" r="15"/>
+    <row customHeight="true" ht="21" r="16"/>
+    <row customHeight="true" ht="21" r="17"/>
+    <row customHeight="true" ht="21" r="18"/>
+    <row customHeight="true" ht="21" r="19"/>
+    <row customHeight="true" ht="21" r="20"/>
+  </sheetData>
 </worksheet>
 </file>
--- a/wolf/Excel/Language_小镇多语言.xlsx
+++ b/wolf/Excel/Language_小镇多语言.xlsx
@@ -38,7 +38,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="@"/>
   </numFmts>
-  <fonts count="44">
+  <fonts count="38">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -47,7 +47,182 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9.75"/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF1F2329"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF1F2329"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF1F2329"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF1F2329"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF1F2329"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -61,42 +236,42 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9.75"/>
+      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9.75"/>
+      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9.75"/>
+      <sz val="9"/>
+      <color rgb="FF1F2329"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9.75"/>
-      <color rgb="FF000000"/>
+      <sz val="9"/>
+      <color rgb="FF1F2329"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9.75"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9.75"/>
+      <sz val="9"/>
       <color rgb="FF1F2329"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -110,238 +285,21 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9.75"/>
+      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9.75"/>
+      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9.75"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9.75"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9.75"/>
-      <color rgb="FF1F2329"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9.75"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9.75"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10.5"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9.75"/>
-      <color rgb="FF1F2329"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9.75"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9.75"/>
-      <color rgb="FF1F2329"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9.75"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9.75"/>
-      <color rgb="FF1F2329"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9.75"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9.75"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9.75"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9.75"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9.75"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9.75"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9.75"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9.75"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9.75"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9.75"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9.75"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9.75"/>
-      <color rgb="FF1F2329"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9.75"/>
-      <color rgb="FF1F2329"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b val="true"/>
-      <sz val="10.5"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10.5"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9.75"/>
-      <color rgb="FF1F2329"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9.75"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9.75"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9.75"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9.75"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -349,7 +307,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="32">
+  <fills count="28">
     <fill>
       <patternFill patternType="none">
         <fgColor/>
@@ -359,12 +317,6 @@
     <fill>
       <patternFill patternType="gray125">
         <fgColor/>
-        <bgColor/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD9F5D6"/>
         <bgColor/>
       </patternFill>
     </fill>
@@ -382,25 +334,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFEEF6C6"/>
+        <fgColor rgb="FFFAF1D1"/>
         <bgColor/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF8EE085"/>
-        <bgColor/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF8EE085"/>
-        <bgColor/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFEEF6C6"/>
+        <fgColor rgb="FFFAF1D1"/>
         <bgColor/>
       </patternFill>
     </fill>
@@ -442,25 +382,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFECE2FE"/>
-        <bgColor/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFAF1D1"/>
-        <bgColor/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFAF1D1"/>
-        <bgColor/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFECE2FE"/>
+        <fgColor rgb="FFD9F5D6"/>
         <bgColor/>
       </patternFill>
     </fill>
@@ -478,7 +400,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD5F6F2"/>
+        <fgColor rgb="FFEEF6C6"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEEF6C6"/>
         <bgColor/>
       </patternFill>
     </fill>
@@ -496,19 +424,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF8EE085"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFDDDEF"/>
         <bgColor/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFEEF6C6"/>
-        <bgColor/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFEEF6C6"/>
+        <fgColor rgb="FFECE2FE"/>
         <bgColor/>
       </patternFill>
     </fill>
@@ -526,7 +454,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFAD355"/>
+        <fgColor rgb="FFECE2FE"/>
         <bgColor/>
       </patternFill>
     </fill>
@@ -542,50 +470,14 @@
         <bgColor/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF8EE085"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="44">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+  <borders count="38">
     <border>
       <left/>
       <right/>
@@ -856,138 +748,120 @@
   <cellStyleXfs count="1">
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="38">
     <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="2" fillId="3" fontId="2" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="3" fillId="2" fontId="3" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="4" fillId="4" fontId="4" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="5" fillId="5" fontId="5" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="6" fillId="0" fontId="6" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="7" fillId="0" fontId="7" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="5" fillId="0" fontId="5" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="8" fillId="6" fontId="8" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="9" fillId="7" fontId="9" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="10" fillId="8" fontId="10" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="11" fillId="0" fontId="11" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="12" fillId="0" fontId="12" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="13" fillId="0" fontId="13" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="14" fillId="9" fontId="14" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="15" fillId="0" fontId="15" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="6" fillId="0" fontId="6" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="16" fillId="0" fontId="16" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="7" fillId="3" fontId="7" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="17" fillId="10" fontId="17" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="18" fillId="11" fontId="18" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="19" fillId="12" fontId="19" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="20" fillId="13" fontId="20" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="8" fillId="4" fontId="8" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="21" fillId="14" fontId="21" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="9" fillId="5" fontId="9" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="22" fillId="15" fontId="22" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="23" fillId="16" fontId="23" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="24" fillId="17" fontId="24" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="25" fillId="18" fontId="25" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" applyProtection="false" borderId="26" fillId="0" fontId="26" numFmtId="164" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="27" fillId="0" fontId="27" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="28" fillId="19" fontId="28" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="10" fillId="6" fontId="10" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="29" fillId="20" fontId="29" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="30" fillId="21" fontId="30" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="31" fillId="22" fontId="31" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="11" fillId="7" fontId="11" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="32" fillId="23" fontId="32" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="12" fillId="0" fontId="12" numFmtId="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="13" fillId="8" fontId="13" numFmtId="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="14" fillId="0" fontId="14" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="15" fillId="9" fontId="15" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="16" fillId="10" fontId="16" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="33" fillId="24" fontId="33" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="17" fillId="0" fontId="17" numFmtId="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="18" fillId="0" fontId="18" numFmtId="0" xfId="0">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="19" fillId="11" fontId="19" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="20" fillId="12" fontId="20" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="34" fillId="25" fontId="34" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="21" fillId="13" fontId="21" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="35" fillId="26" fontId="35" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="22" fillId="14" fontId="22" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="23" fillId="15" fontId="23" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="24" fillId="16" fontId="24" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="25" fillId="17" fontId="25" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="26" fillId="0" fontId="26" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="36" fillId="27" fontId="36" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="27" fillId="18" fontId="27" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="28" fillId="19" fontId="28" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="29" fillId="20" fontId="29" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="30" fillId="21" fontId="30" numFmtId="0" xfId="0">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" applyProtection="false" borderId="31" fillId="0" fontId="31" numFmtId="164" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="32" fillId="22" fontId="32" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="33" fillId="23" fontId="33" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="34" fillId="0" fontId="34" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="35" fillId="24" fontId="35" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="36" fillId="25" fontId="36" numFmtId="0" xfId="0">
-      <alignment vertical="center" wrapText="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="37" fillId="0" fontId="37" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="38" fillId="26" fontId="38" numFmtId="0" xfId="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="39" fillId="27" fontId="39" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="40" fillId="28" fontId="40" numFmtId="0" xfId="0">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="41" fillId="29" fontId="41" numFmtId="0" xfId="0">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="42" fillId="30" fontId="42" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="43" fillId="31" fontId="43" numFmtId="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1314,4187 +1188,4202 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="19"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" max="1" min="1" style="0" width="12"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="2" min="2" style="0" width="36"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="3" min="3" style="0" width="52"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="4" min="4" style="0" width="64"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="5" min="5" style="0" width="53"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="1" min="1" style="0" width="13"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="2" min="2" style="0" width="38"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="3" min="3" style="0" width="55"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="4" min="4" style="0" width="68"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="5" min="5" style="0" width="56"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="6" min="6" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="7" min="7" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="8" min="8" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="9" min="9" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="10" min="10" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="11" min="11" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="12" min="12" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="13" min="13" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="14" min="14" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="15" min="15" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="16" min="16" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="17" min="17" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="18" min="18" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="19" min="19" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="20" min="20" style="0" width="15"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="17" t="str">
+    <row customHeight="true" ht="21" r="1">
+      <c r="A1" s="27" t="str">
         <v>Int</v>
       </c>
-      <c r="B1" s="17" t="str">
+      <c r="B1" s="27" t="str">
         <v>String</v>
       </c>
-      <c r="C1" s="2" t="str">
+      <c r="C1" s="3" t="str">
         <v>String</v>
       </c>
-      <c r="D1" s="17" t="str">
+      <c r="D1" s="27" t="str">
         <v>String</v>
       </c>
-      <c r="E1" s="4" t="str">
+      <c r="E1" s="7" t="str">
         <v>String</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="17" t="str">
+    <row customHeight="true" ht="21" r="2">
+      <c r="A2" s="27" t="str">
         <v>ID</v>
       </c>
-      <c r="B2" s="17" t="str">
+      <c r="B2" s="27" t="str">
         <v>mur</v>
       </c>
-      <c r="C2" s="2" t="str">
+      <c r="C2" s="3" t="str">
         <v>Value</v>
       </c>
-      <c r="D2" s="17" t="str">
+      <c r="D2" s="27" t="str">
         <v>Value_Ch</v>
       </c>
-      <c r="E2" s="4" t="str">
+      <c r="E2" s="7" t="str">
         <v>Comment</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="17" t="str">
+    <row customHeight="true" ht="21" r="3">
+      <c r="A3" s="27" t="str">
         <v>ID</v>
       </c>
-      <c r="B3" s="17" t="str">
+      <c r="B3" s="27" t="str">
         <v>名字</v>
       </c>
-      <c r="C3" s="2" t="str">
+      <c r="C3" s="3" t="str">
         <v>英文</v>
       </c>
-      <c r="D3" s="17" t="str">
+      <c r="D3" s="27" t="str">
         <v>中文</v>
       </c>
-      <c r="E3" s="4" t="str">
+      <c r="E3" s="7" t="str">
         <v>备注</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="4" t="str"/>
+    <row customHeight="true" ht="21" r="4">
+      <c r="A4" s="7" t="str"/>
       <c r="B4" s="37" t="str">
         <v>Key|ReadByName</v>
       </c>
-      <c r="C4" s="2" t="str">
+      <c r="C4" s="3" t="str">
         <v>MainLanguage</v>
       </c>
       <c r="D4" s="37" t="str">
         <v>ChildLanguage</v>
       </c>
-      <c r="E4" s="4" t="str"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="4">
+      <c r="E4" s="7" t="str"/>
+    </row>
+    <row customHeight="true" ht="21" r="5">
+      <c r="A5" s="7">
         <v>10001</v>
       </c>
-      <c r="B5" s="4" t="str">
+      <c r="B5" s="7" t="str">
         <v>Guide_GuideContent_10001</v>
       </c>
-      <c r="C5" s="2" t="str">
+      <c r="C5" s="3" t="str">
         <v>This is what you are playing in this round</v>
       </c>
-      <c r="D5" s="4" t="str">
+      <c r="D5" s="7" t="str">
         <v>这里是本局中你的身份</v>
       </c>
-      <c r="E5" s="4" t="str">
+      <c r="E5" s="7" t="str">
         <v>10000：新手引导表</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="4">
+    <row customHeight="true" ht="21" r="6">
+      <c r="A6" s="7">
         <v>10002</v>
       </c>
-      <c r="B6" s="4" t="str">
+      <c r="B6" s="7" t="str">
         <v>Guide_GuideContent_10002</v>
       </c>
-      <c r="C6" s="2" t="str">
+      <c r="C6" s="3" t="str">
         <v>This is your goal in this round, check it here if you don't know what to do</v>
       </c>
-      <c r="D6" s="4" t="str">
+      <c r="D6" s="7" t="str">
         <v>这里是你本局的目标，不知道做什么的话就看一下这里吧</v>
       </c>
-      <c r="E6" s="4" t="str"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="4">
+      <c r="E6" s="7" t="str"/>
+    </row>
+    <row customHeight="true" ht="21" r="7">
+      <c r="A7" s="7">
         <v>10003</v>
       </c>
-      <c r="B7" s="4" t="str">
+      <c r="B7" s="7" t="str">
         <v>Guide_GuideContent_10003</v>
       </c>
-      <c r="C7" s="2" t="str">
+      <c r="C7" s="3" t="str">
         <v>Survive to win~</v>
       </c>
-      <c r="D7" s="4" t="str">
+      <c r="D7" s="7" t="str">
         <v>努力活下来才能够获得胜利~</v>
       </c>
-      <c r="E7" s="4" t="str"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="4">
+      <c r="E7" s="7" t="str"/>
+    </row>
+    <row customHeight="true" ht="21" r="8">
+      <c r="A8" s="7">
         <v>10004</v>
       </c>
-      <c r="B8" s="4" t="str">
+      <c r="B8" s="7" t="str">
         <v>Guide_GuideContent_10004</v>
       </c>
-      <c r="C8" s="2" t="str">
+      <c r="C8" s="3" t="str">
         <v>Here is the energy ball:</v>
       </c>
-      <c r="D8" s="4" t="str">
+      <c r="D8" s="7" t="str">
         <v>这是能量球：</v>
       </c>
-      <c r="E8" s="4" t="str"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="4">
+      <c r="E8" s="7" t="str"/>
+    </row>
+    <row customHeight="true" ht="21" r="9">
+      <c r="A9" s="7">
         <v>10005</v>
       </c>
-      <c r="B9" s="4" t="str">
+      <c r="B9" s="7" t="str">
         <v>Guide_GuideContent_10005</v>
       </c>
-      <c r="C9" s="2" t="str">
+      <c r="C9" s="3" t="str">
         <v>Collect them all to get a protective shield</v>
       </c>
-      <c r="D9" s="4" t="str">
+      <c r="D9" s="7" t="str">
         <v>集齐能量球，可以获得一层保护壳</v>
       </c>
-      <c r="E9" s="4" t="str"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="4">
+      <c r="E9" s="7" t="str"/>
+    </row>
+    <row customHeight="true" ht="21" r="10">
+      <c r="A10" s="7">
         <v>10006</v>
       </c>
-      <c r="B10" s="4" t="str">
+      <c r="B10" s="7" t="str">
         <v>Guide_GuideContent_10006</v>
       </c>
-      <c r="C10" s="2" t="str">
+      <c r="C10" s="3" t="str">
         <v>This is your goal in this round, achieve it before the game ends to win</v>
       </c>
-      <c r="D10" s="4" t="str">
+      <c r="D10" s="7" t="str">
         <v>这里是你本局的目标，在对局结束前完成目标才能获得胜利</v>
       </c>
-      <c r="E10" s="4" t="str"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="4">
+      <c r="E10" s="7" t="str"/>
+    </row>
+    <row customHeight="true" ht="21" r="11">
+      <c r="A11" s="7">
         <v>10007</v>
       </c>
-      <c r="B11" s="4" t="str">
+      <c r="B11" s="7" t="str">
         <v>Guide_GuideContent_10007</v>
       </c>
-      <c r="C11" s="2" t="str">
+      <c r="C11" s="3" t="str">
         <v>This is your goal in this round, achieve it before the game ends to win</v>
       </c>
-      <c r="D11" s="4" t="str">
+      <c r="D11" s="7" t="str">
         <v>这里是你本局的目标，在对局结束前完成目标才能获得胜利</v>
       </c>
-      <c r="E11" s="4" t="str"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="4">
+      <c r="E11" s="7" t="str"/>
+    </row>
+    <row customHeight="true" ht="21" r="12">
+      <c r="A12" s="7">
         <v>10008</v>
       </c>
-      <c r="B12" s="4" t="str">
+      <c r="B12" s="7" t="str">
         <v>Guide_GuideContent_10008</v>
       </c>
-      <c r="C12" s="2" t="str">
+      <c r="C12" s="3" t="str">
         <v>You have a new goal, to defeat the Murderer and protect the Students</v>
       </c>
-      <c r="D12" s="4" t="str">
+      <c r="D12" s="7" t="str">
         <v>你有了新的目标，击杀凶手，保护学生</v>
       </c>
-      <c r="E12" s="4" t="str"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="4">
+      <c r="E12" s="7" t="str"/>
+    </row>
+    <row customHeight="true" ht="21" r="13">
+      <c r="A13" s="7">
         <v>10009</v>
       </c>
-      <c r="B13" s="4" t="str">
+      <c r="B13" s="7" t="str">
         <v>Guide_GuideContent_10009</v>
       </c>
-      <c r="C13" s="2" t="str">
+      <c r="C13" s="3" t="str">
         <v>This is what you are playing in this round</v>
       </c>
-      <c r="D13" s="4" t="str">
+      <c r="D13" s="7" t="str">
         <v>这里是本局中你的身份</v>
       </c>
-      <c r="E13" s="4" t="str"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="4">
+      <c r="E13" s="7" t="str"/>
+    </row>
+    <row customHeight="true" ht="21" r="14">
+      <c r="A14" s="7">
         <v>10010</v>
       </c>
-      <c r="B14" s="4" t="str">
+      <c r="B14" s="7" t="str">
         <v>Guide_GuideContent_10010</v>
       </c>
-      <c r="C14" s="2" t="str">
+      <c r="C14" s="3" t="str">
         <v>This is what you are playing in this round</v>
       </c>
-      <c r="D14" s="4" t="str">
+      <c r="D14" s="7" t="str">
         <v>这里是本局中你的身份</v>
       </c>
-      <c r="E14" s="4" t="str"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="4">
+      <c r="E14" s="7" t="str"/>
+    </row>
+    <row customHeight="true" ht="21" r="15">
+      <c r="A15" s="7">
         <v>10011</v>
       </c>
-      <c r="B15" s="4" t="str">
+      <c r="B15" s="7" t="str">
         <v>Guide_GuideContent_10011</v>
       </c>
-      <c r="C15" s="2" t="str">
+      <c r="C15" s="3" t="str">
         <v>Congratulation! You just picked up the weapon and you're a Hero now</v>
       </c>
-      <c r="D15" s="4" t="str">
+      <c r="D15" s="7" t="str">
         <v>恭喜你拾取到武器，现在你成为了一名英雄</v>
       </c>
-      <c r="E15" s="4" t="str"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="4">
+      <c r="E15" s="7" t="str"/>
+    </row>
+    <row customHeight="true" ht="21" r="16">
+      <c r="A16" s="7">
         <v>10012</v>
       </c>
-      <c r="B16" s="4" t="str">
+      <c r="B16" s="7" t="str">
         <v>Guide_GuideContent_20001</v>
       </c>
-      <c r="C16" s="2" t="str">
+      <c r="C16" s="3" t="str">
         <v>The Coins gained in this game will be stored here and be given to you during the settlement; but there is a limitation for the Coin Bag and cannot gain more Coins when it's full.</v>
       </c>
-      <c r="D16" s="4" t="str">
+      <c r="D16" s="7" t="str">
         <v>本局游戏内获得的金币将存储在这里，结算时会发放给你；不过金币袋是有上限的，袋子装满就无法获得了</v>
       </c>
-      <c r="E16" s="4" t="str"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="4">
+      <c r="E16" s="7" t="str"/>
+    </row>
+    <row customHeight="true" ht="21" r="17">
+      <c r="A17" s="7">
         <v>10013</v>
       </c>
-      <c r="B17" s="4" t="str">
+      <c r="B17" s="7" t="str">
         <v>Guide_GuideContent_20002</v>
       </c>
-      <c r="C17" s="2" t="str">
+      <c r="C17" s="3" t="str">
         <v>Coin Bag is full, cannot gain more Coins in this round</v>
       </c>
-      <c r="D17" s="4" t="str">
+      <c r="D17" s="7" t="str">
         <v>金币袋已经满了，本局无法再拾取金币了</v>
       </c>
-      <c r="E17" s="4" t="str"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="4">
+      <c r="E17" s="7" t="str"/>
+    </row>
+    <row customHeight="true" ht="21" r="18">
+      <c r="A18" s="7">
         <v>10014</v>
       </c>
-      <c r="B18" s="4" t="str">
+      <c r="B18" s="7" t="str">
         <v>Guide_GuideContent_30001</v>
       </c>
-      <c r="C18" s="2" t="str">
+      <c r="C18" s="3" t="str">
         <v>Click here to switch your status, choose to show or hide the weapon</v>
       </c>
-      <c r="D18" s="4" t="str">
+      <c r="D18" s="7" t="str">
         <v>点击这里可以切换姿态，选择亮出武器或藏起武器</v>
       </c>
-      <c r="E18" s="4" t="str"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="4">
+      <c r="E18" s="7" t="str"/>
+    </row>
+    <row customHeight="true" ht="21" r="19">
+      <c r="A19" s="7">
         <v>10015</v>
       </c>
-      <c r="B19" s="4" t="str">
+      <c r="B19" s="7" t="str">
         <v>Guide_GuideContent_30002</v>
       </c>
-      <c r="C19" s="2" t="str">
+      <c r="C19" s="3" t="str">
         <v>Show the weapon, then you can click here to attack</v>
       </c>
-      <c r="D19" s="4" t="str">
+      <c r="D19" s="7" t="str">
         <v>在亮出武器后，可以点击这里进行攻击</v>
       </c>
-      <c r="E19" s="4" t="str"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="4">
+      <c r="E19" s="7" t="str"/>
+    </row>
+    <row customHeight="true" ht="21" r="20">
+      <c r="A20" s="7">
         <v>10016</v>
       </c>
-      <c r="B20" s="4" t="str">
+      <c r="B20" s="7" t="str">
         <v>Guide_GuideContent_30003</v>
       </c>
-      <c r="C20" s="2" t="str">
+      <c r="C20" s="3" t="str">
         <v>Click here to switch your status, choose to show or hide the weapon</v>
       </c>
-      <c r="D20" s="4" t="str">
+      <c r="D20" s="7" t="str">
         <v>点击这里可以切换姿态，选择亮出武器或藏起武器</v>
       </c>
-      <c r="E20" s="4" t="str"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="4">
+      <c r="E20" s="7" t="str"/>
+    </row>
+    <row customHeight="true" ht="21" r="21">
+      <c r="A21" s="7">
         <v>10017</v>
       </c>
-      <c r="B21" s="4" t="str">
+      <c r="B21" s="7" t="str">
         <v>Guide_GuideContent_30004</v>
       </c>
-      <c r="C21" s="2" t="str">
+      <c r="C21" s="3" t="str">
         <v>Show the weapon, then you can click here to attack</v>
       </c>
-      <c r="D21" s="4" t="str">
+      <c r="D21" s="7" t="str">
         <v>在亮出武器后，可以点击这里进行攻击</v>
       </c>
-      <c r="E21" s="4" t="str"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="4">
+      <c r="E21" s="7" t="str"/>
+    </row>
+    <row customHeight="true" ht="21" r="22">
+      <c r="A22" s="7">
         <v>10018</v>
       </c>
-      <c r="B22" s="4" t="str">
+      <c r="B22" s="7" t="str">
         <v>Guide_GuideContent_30005</v>
       </c>
-      <c r="C22" s="2" t="str">
+      <c r="C22" s="3" t="str">
         <v>Click here to switch your status, choose to show or hide the weapon</v>
       </c>
-      <c r="D22" s="4" t="str">
+      <c r="D22" s="7" t="str">
         <v>点击这里可以切换姿态，选择亮出武器或藏起武器</v>
       </c>
-      <c r="E22" s="4" t="str"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="4">
+      <c r="E22" s="7" t="str"/>
+    </row>
+    <row customHeight="true" ht="21" r="23">
+      <c r="A23" s="7">
         <v>10019</v>
       </c>
-      <c r="B23" s="4" t="str">
+      <c r="B23" s="7" t="str">
         <v>Guide_GuideContent_30006</v>
       </c>
-      <c r="C23" s="2" t="str">
+      <c r="C23" s="3" t="str">
         <v>Show the weapon, then you can click here to attack</v>
       </c>
-      <c r="D23" s="4" t="str">
+      <c r="D23" s="7" t="str">
         <v>在亮出武器后，可以点击这里进行攻击</v>
       </c>
-      <c r="E23" s="4" t="str"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="4">
+      <c r="E23" s="7" t="str"/>
+    </row>
+    <row customHeight="true" ht="21" r="24">
+      <c r="A24" s="7">
         <v>10020</v>
       </c>
-      <c r="B24" s="4" t="str">
+      <c r="B24" s="7" t="str">
         <v>Guide_GuideContent_40001</v>
       </c>
-      <c r="C24" s="2" t="str">
+      <c r="C24" s="3" t="str">
         <v>Congratulations! You collected all the energy balls! Now you have a protective shield! The protective shield can protect you from another player once, but you can only get it once per round</v>
       </c>
-      <c r="D24" s="4" t="str">
+      <c r="D24" s="7" t="str">
         <v>恭喜你集齐了道具！现在你获得了一个保护壳！保护壳可以为你抵挡一次来自其他玩家的攻击，但是每局游戏只能获得一次</v>
       </c>
-      <c r="E24" s="4" t="str"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="4">
+      <c r="E24" s="7" t="str"/>
+    </row>
+    <row customHeight="true" ht="21" r="25">
+      <c r="A25" s="7">
         <v>10021</v>
       </c>
-      <c r="B25" s="4" t="str">
+      <c r="B25" s="7" t="str">
         <v>Guide_GuideContent_50001</v>
       </c>
-      <c r="C25" s="2" t="str">
+      <c r="C25" s="3" t="str">
         <v>Your first round is over, take a look at the settlement panel</v>
       </c>
-      <c r="D25" s="4" t="str">
+      <c r="D25" s="7" t="str">
         <v>现在你的第一局游戏已经结束，来看看结算面板吧</v>
       </c>
-      <c r="E25" s="4" t="str"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="4">
+      <c r="E25" s="7" t="str"/>
+    </row>
+    <row customHeight="true" ht="21" r="26">
+      <c r="A26" s="7">
         <v>10022</v>
       </c>
-      <c r="B26" s="4" t="str">
+      <c r="B26" s="7" t="str">
         <v>Guide_GuideContent_50002</v>
       </c>
-      <c r="C26" s="2" t="str">
+      <c r="C26" s="3" t="str">
         <v>Here is the final result of the game</v>
       </c>
-      <c r="D26" s="4" t="str">
+      <c r="D26" s="7" t="str">
         <v>这里说明了对局的最终结果</v>
       </c>
-      <c r="E26" s="4" t="str"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="4">
+      <c r="E26" s="7" t="str"/>
+    </row>
+    <row customHeight="true" ht="21" r="27">
+      <c r="A27" s="7">
         <v>10023</v>
       </c>
-      <c r="B27" s="4" t="str">
+      <c r="B27" s="7" t="str">
         <v>Guide_GuideContent_50003</v>
       </c>
-      <c r="C27" s="2" t="str">
+      <c r="C27" s="3" t="str">
         <v>Here shows the two players who impacted the game most as well as their wins and losses</v>
       </c>
-      <c r="D27" s="4" t="str">
+      <c r="D27" s="7" t="str">
         <v>这里显示了对对局产生影响最大的两方玩家和他们的胜负</v>
       </c>
-      <c r="E27" s="4" t="str"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="4">
+      <c r="E27" s="7" t="str"/>
+    </row>
+    <row customHeight="true" ht="21" r="28">
+      <c r="A28" s="7">
         <v>10024</v>
       </c>
-      <c r="B28" s="4" t="str">
+      <c r="B28" s="7" t="str">
         <v>Guide_GuideContent_50004</v>
       </c>
-      <c r="C28" s="2" t="str">
+      <c r="C28" s="3" t="str">
         <v>Here's shows your earning in this round</v>
       </c>
-      <c r="D28" s="4" t="str">
+      <c r="D28" s="7" t="str">
         <v>这里显示了你在本轮对局获得的收益</v>
       </c>
-      <c r="E28" s="4" t="str"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="4">
+      <c r="E28" s="7" t="str"/>
+    </row>
+    <row customHeight="true" ht="21" r="29">
+      <c r="A29" s="7">
         <v>10025</v>
       </c>
-      <c r="B29" s="4" t="str">
+      <c r="B29" s="7" t="str">
         <v>Guide_GuideContent_60001</v>
       </c>
-      <c r="C29" s="2" t="str">
+      <c r="C29" s="3" t="str">
         <v>On behalf of justice, you can't shoot randomly, attacking good people leads to your own death</v>
       </c>
-      <c r="D29" s="4" t="str">
+      <c r="D29" s="7" t="str">
         <v>代表正义的你不可以乱开枪，攻击好人会导致自己死亡</v>
       </c>
-      <c r="E29" s="4" t="str"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="4">
+      <c r="E29" s="7" t="str"/>
+    </row>
+    <row customHeight="true" ht="21" r="30">
+      <c r="A30" s="7">
         <v>20001</v>
       </c>
-      <c r="B30" s="4" t="str">
+      <c r="B30" s="7" t="str">
         <v>Identity_IdentityName_10001</v>
       </c>
-      <c r="C30" s="2" t="str">
+      <c r="C30" s="3" t="str">
         <v>Detective</v>
       </c>
-      <c r="D30" s="2" t="str">
+      <c r="D30" s="3" t="str">
         <v>侦探</v>
       </c>
-      <c r="E30" s="4" t="str">
+      <c r="E30" s="7" t="str">
         <v>20000：身份属性表</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="4">
+    <row customHeight="true" ht="21" r="31">
+      <c r="A31" s="7">
         <v>20002</v>
       </c>
-      <c r="B31" s="4" t="str">
+      <c r="B31" s="7" t="str">
         <v>Identity_IdentityName_10002</v>
       </c>
-      <c r="C31" s="2" t="str">
+      <c r="C31" s="3" t="str">
         <v>Murderer</v>
       </c>
-      <c r="D31" s="2" t="str">
+      <c r="D31" s="3" t="str">
         <v>凶手</v>
       </c>
-      <c r="E31" s="4" t="str"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="4">
+      <c r="E31" s="7" t="str"/>
+    </row>
+    <row customHeight="true" ht="21" r="32">
+      <c r="A32" s="7">
         <v>20003</v>
       </c>
-      <c r="B32" s="4" t="str">
+      <c r="B32" s="7" t="str">
         <v>Identity_IdentityName_10003</v>
       </c>
-      <c r="C32" s="2" t="str">
+      <c r="C32" s="3" t="str">
         <v>Student</v>
       </c>
-      <c r="D32" s="2" t="str">
+      <c r="D32" s="3" t="str">
         <v>学生</v>
       </c>
-      <c r="E32" s="4" t="str"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="4">
+      <c r="E32" s="7" t="str"/>
+    </row>
+    <row customHeight="true" ht="21" r="33">
+      <c r="A33" s="7">
         <v>20004</v>
       </c>
-      <c r="B33" s="4" t="str">
+      <c r="B33" s="7" t="str">
         <v>Identity_IdentityName_10004</v>
       </c>
-      <c r="C33" s="2" t="str">
+      <c r="C33" s="3" t="str">
         <v>Hero</v>
       </c>
-      <c r="D33" s="2" t="str">
+      <c r="D33" s="3" t="str">
         <v>英雄</v>
       </c>
-      <c r="E33" s="4" t="str"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="4">
+      <c r="E33" s="7" t="str"/>
+    </row>
+    <row customHeight="true" ht="21" r="34">
+      <c r="A34" s="7">
         <v>30001</v>
       </c>
-      <c r="B34" s="4" t="str">
+      <c r="B34" s="7" t="str">
         <v>Text_Content_10001</v>
       </c>
-      <c r="C34" s="2" t="str">
+      <c r="C34" s="3" t="str">
         <v>Not enough player</v>
       </c>
-      <c r="D34" s="4" t="str">
+      <c r="D34" s="7" t="str">
         <v>当前人数不足</v>
       </c>
-      <c r="E34" s="4" t="str">
+      <c r="E34" s="7" t="str">
         <v>30000：文本表</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" s="4">
+    <row customHeight="true" ht="21" r="35">
+      <c r="A35" s="7">
         <v>30002</v>
       </c>
-      <c r="B35" s="4" t="str">
+      <c r="B35" s="7" t="str">
         <v>Text_Content_10002</v>
       </c>
-      <c r="C35" s="2" t="str">
+      <c r="C35" s="3" t="str">
         <v>Match in progress</v>
       </c>
-      <c r="D35" s="4" t="str">
+      <c r="D35" s="7" t="str">
         <v>对局进行中</v>
       </c>
-      <c r="E35" s="4" t="str"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="4">
+      <c r="E35" s="7" t="str"/>
+    </row>
+    <row customHeight="true" ht="21" r="36">
+      <c r="A36" s="7">
         <v>30003</v>
       </c>
-      <c r="B36" s="4" t="str">
+      <c r="B36" s="7" t="str">
         <v>Text_Content_10003</v>
       </c>
-      <c r="C36" s="2" t="str">
+      <c r="C36" s="3" t="str">
         <v>Matching</v>
       </c>
-      <c r="D36" s="4" t="str">
+      <c r="D36" s="7" t="str">
         <v>等待对局开始</v>
       </c>
-      <c r="E36" s="4" t="str"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="4">
+      <c r="E36" s="7" t="str"/>
+    </row>
+    <row customHeight="true" ht="21" r="37">
+      <c r="A37" s="7">
         <v>30004</v>
       </c>
-      <c r="B37" s="4" t="str">
+      <c r="B37" s="7" t="str">
         <v>Text_Content_11001</v>
       </c>
-      <c r="C37" s="2" t="str">
+      <c r="C37" s="3" t="str">
         <v>The game starts with a countdown...</v>
       </c>
-      <c r="D37" s="1" t="str">
+      <c r="D37" s="7" t="str">
         <v>游戏开始倒计时...</v>
       </c>
-      <c r="E37" s="4" t="str"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="4">
+      <c r="E37" s="7" t="str"/>
+    </row>
+    <row customHeight="true" ht="21" r="38">
+      <c r="A38" s="7">
         <v>30005</v>
       </c>
-      <c r="B38" s="4" t="str">
+      <c r="B38" s="7" t="str">
         <v>Text_Content_11002</v>
       </c>
-      <c r="C38" s="2" t="str">
+      <c r="C38" s="3" t="str">
         <v>End-of-game countdown</v>
       </c>
-      <c r="D38" s="4" t="str">
+      <c r="D38" s="7" t="str">
         <v>对局结束倒计时</v>
       </c>
-      <c r="E38" s="4" t="str"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="4">
+      <c r="E38" s="7" t="str"/>
+    </row>
+    <row customHeight="true" ht="21" r="39">
+      <c r="A39" s="7">
         <v>30006</v>
       </c>
-      <c r="B39" s="4" t="str">
+      <c r="B39" s="7" t="str">
         <v>Text_Content_11003</v>
       </c>
-      <c r="C39" s="2" t="str">
+      <c r="C39" s="3" t="str">
         <v>You are playing as:</v>
       </c>
-      <c r="D39" s="4" t="str">
+      <c r="D39" s="7" t="str">
         <v>你的身份是：</v>
       </c>
-      <c r="E39" s="4" t="str"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="4">
+      <c r="E39" s="7" t="str"/>
+    </row>
+    <row customHeight="true" ht="21" r="40">
+      <c r="A40" s="7">
         <v>30007</v>
       </c>
-      <c r="B40" s="4" t="str">
+      <c r="B40" s="7" t="str">
         <v>Text_Content_11004</v>
       </c>
-      <c r="C40" s="2" t="str">
+      <c r="C40" s="3" t="str">
         <v>Chance being Murderer:</v>
       </c>
-      <c r="D40" s="4" t="str">
+      <c r="D40" s="7" t="str">
         <v>成为凶手的概率：</v>
       </c>
-      <c r="E40" s="4" t="str"/>
-    </row>
-    <row r="41">
-      <c r="A41" s="4">
+      <c r="E40" s="7" t="str"/>
+    </row>
+    <row customHeight="true" ht="21" r="41">
+      <c r="A41" s="7">
         <v>30008</v>
       </c>
-      <c r="B41" s="4" t="str">
+      <c r="B41" s="7" t="str">
         <v>Text_Content_11005</v>
       </c>
-      <c r="C41" s="2" t="str">
+      <c r="C41" s="3" t="str">
         <v>(Match in the game will increase the possibility)</v>
       </c>
-      <c r="D41" s="4" t="str">
+      <c r="D41" s="7" t="str">
         <v>（参与对局将增加概率）</v>
       </c>
-      <c r="E41" s="4" t="str"/>
-    </row>
-    <row r="42">
-      <c r="A42" s="4">
+      <c r="E41" s="7" t="str"/>
+    </row>
+    <row customHeight="true" ht="21" r="42">
+      <c r="A42" s="7">
         <v>30009</v>
       </c>
-      <c r="B42" s="4" t="str">
+      <c r="B42" s="7" t="str">
         <v>Text_Content_11006</v>
       </c>
-      <c r="C42" s="2" t="str">
+      <c r="C42" s="3" t="str">
         <v>What you play</v>
       </c>
-      <c r="D42" s="4" t="str">
+      <c r="D42" s="7" t="str">
         <v>你的身份</v>
       </c>
-      <c r="E42" s="4" t="str"/>
-    </row>
-    <row r="43">
-      <c r="A43" s="4">
+      <c r="E42" s="7" t="str"/>
+    </row>
+    <row customHeight="true" ht="21" r="43">
+      <c r="A43" s="7">
         <v>30010</v>
       </c>
-      <c r="B43" s="4" t="str">
+      <c r="B43" s="7" t="str">
         <v>Text_Content_11007</v>
       </c>
-      <c r="C43" s="2" t="str">
+      <c r="C43" s="3" t="str">
         <v>You Died</v>
       </c>
-      <c r="D43" s="4" t="str">
+      <c r="D43" s="7" t="str">
         <v>你死了</v>
       </c>
-      <c r="E43" s="4" t="str"/>
-    </row>
-    <row r="44">
-      <c r="A44" s="4">
+      <c r="E43" s="7" t="str"/>
+    </row>
+    <row customHeight="true" ht="21" r="44">
+      <c r="A44" s="7">
         <v>30011</v>
       </c>
-      <c r="B44" s="4" t="str">
+      <c r="B44" s="7" t="str">
         <v>Text_Content_11008</v>
       </c>
-      <c r="C44" s="2" t="str">
+      <c r="C44" s="3" t="str">
         <v>Victory!</v>
       </c>
-      <c r="D44" s="4" t="str">
+      <c r="D44" s="7" t="str">
         <v>胜利！</v>
       </c>
-      <c r="E44" s="4" t="str"/>
-    </row>
-    <row r="45">
-      <c r="A45" s="4">
+      <c r="E44" s="7" t="str"/>
+    </row>
+    <row customHeight="true" ht="21" r="45">
+      <c r="A45" s="7">
         <v>30012</v>
       </c>
-      <c r="B45" s="4" t="str">
+      <c r="B45" s="7" t="str">
         <v>Text_Content_11009</v>
       </c>
-      <c r="C45" s="2" t="str">
+      <c r="C45" s="3" t="str">
         <v>Kill all the players {0}/{1}</v>
       </c>
-      <c r="D45" s="4" t="str">
+      <c r="D45" s="7" t="str">
         <v>击杀所有人{0}/{1}</v>
       </c>
-      <c r="E45" s="4" t="str"/>
-    </row>
-    <row r="46">
-      <c r="A46" s="4">
+      <c r="E45" s="7" t="str"/>
+    </row>
+    <row customHeight="true" ht="21" r="46">
+      <c r="A46" s="7">
         <v>30013</v>
       </c>
-      <c r="B46" s="4" t="str">
+      <c r="B46" s="7" t="str">
         <v>Text_Content_11010</v>
       </c>
-      <c r="C46" s="2" t="str">
+      <c r="C46" s="3" t="str">
         <v>Kill the Murderer {0}/{1}</v>
       </c>
-      <c r="D46" s="4" t="str">
+      <c r="D46" s="7" t="str">
         <v>击杀凶手{0}/{1}</v>
       </c>
-      <c r="E46" s="4" t="str"/>
-    </row>
-    <row r="47">
-      <c r="A47" s="4">
+      <c r="E46" s="7" t="str"/>
+    </row>
+    <row customHeight="true" ht="21" r="47">
+      <c r="A47" s="7">
         <v>30014</v>
       </c>
-      <c r="B47" s="4" t="str">
+      <c r="B47" s="7" t="str">
         <v>Text_Content_11011</v>
       </c>
-      <c r="C47" s="2" t="str">
+      <c r="C47" s="3" t="str">
         <v>Stay alive</v>
       </c>
-      <c r="D47" s="4" t="str">
+      <c r="D47" s="7" t="str">
         <v>活下去</v>
       </c>
-      <c r="E47" s="4" t="str"/>
-    </row>
-    <row r="48">
-      <c r="A48" s="4">
+      <c r="E47" s="7" t="str"/>
+    </row>
+    <row customHeight="true" ht="21" r="48">
+      <c r="A48" s="7">
         <v>30015</v>
       </c>
-      <c r="B48" s="4" t="str">
+      <c r="B48" s="7" t="str">
         <v>Text_Content_11012</v>
       </c>
-      <c r="C48" s="2" t="str">
+      <c r="C48" s="3" t="str">
         <v>Hidden energy balls collected {0}/{1}</v>
       </c>
-      <c r="D48" s="4" t="str">
+      <c r="D48" s="7" t="str">
         <v>收集隐秘的能量球{0}/{1}</v>
       </c>
-      <c r="E48" s="4" t="str"/>
-    </row>
-    <row r="49">
-      <c r="A49" s="4">
+      <c r="E48" s="7" t="str"/>
+    </row>
+    <row customHeight="true" ht="21" r="49">
+      <c r="A49" s="7">
         <v>30016</v>
       </c>
-      <c r="B49" s="4" t="str">
+      <c r="B49" s="7" t="str">
         <v>Text_Content_11013</v>
       </c>
-      <c r="C49" s="2" t="str">
+      <c r="C49" s="3" t="str">
         <v>Time's up!</v>
       </c>
-      <c r="D49" s="4" t="str">
+      <c r="D49" s="7" t="str">
         <v>时间到！</v>
       </c>
-      <c r="E49" s="4" t="str"/>
-    </row>
-    <row r="50">
-      <c r="A50" s="4">
+      <c r="E49" s="7" t="str"/>
+    </row>
+    <row customHeight="true" ht="21" r="50">
+      <c r="A50" s="7">
         <v>30017</v>
       </c>
-      <c r="B50" s="4" t="str">
+      <c r="B50" s="7" t="str">
         <v>Text_Content_12001</v>
       </c>
-      <c r="C50" s="2" t="str">
+      <c r="C50" s="3" t="str">
         <v>The Murderer is on a killing spree!</v>
       </c>
-      <c r="D50" s="4" t="str">
+      <c r="D50" s="7" t="str">
         <v>凶手大杀特杀！</v>
       </c>
-      <c r="E50" s="4" t="str"/>
-    </row>
-    <row r="51">
-      <c r="A51" s="4">
+      <c r="E50" s="7" t="str"/>
+    </row>
+    <row customHeight="true" ht="21" r="51">
+      <c r="A51" s="7">
         <v>30018</v>
       </c>
-      <c r="B51" s="4" t="str">
+      <c r="B51" s="7" t="str">
         <v>Text_Content_12002</v>
       </c>
-      <c r="C51" s="2" t="str">
+      <c r="C51" s="3" t="str">
         <v>The Murderer kills all the players!</v>
       </c>
-      <c r="D51" s="4" t="str">
+      <c r="D51" s="7" t="str">
         <v>凶手轻松解决了所有人！</v>
       </c>
-      <c r="E51" s="4" t="str"/>
-    </row>
-    <row r="52">
-      <c r="A52" s="4">
+      <c r="E51" s="7" t="str"/>
+    </row>
+    <row customHeight="true" ht="21" r="52">
+      <c r="A52" s="7">
         <v>30019</v>
       </c>
-      <c r="B52" s="4" t="str">
+      <c r="B52" s="7" t="str">
         <v>Text_Content_12003</v>
       </c>
-      <c r="C52" s="2" t="str">
+      <c r="C52" s="3" t="str">
         <v>Detective arrested the Murderer!</v>
       </c>
-      <c r="D52" s="4" t="str">
+      <c r="D52" s="7" t="str">
         <v>侦探逮捕了凶手！</v>
       </c>
-      <c r="E52" s="4" t="str"/>
-    </row>
-    <row r="53">
-      <c r="A53" s="4">
+      <c r="E52" s="7" t="str"/>
+    </row>
+    <row customHeight="true" ht="21" r="53">
+      <c r="A53" s="7">
         <v>30020</v>
       </c>
-      <c r="B53" s="4" t="str">
+      <c r="B53" s="7" t="str">
         <v>Text_Content_12004</v>
       </c>
-      <c r="C53" s="2" t="str">
+      <c r="C53" s="3" t="str">
         <v>Hero appeared and turned the tide!</v>
       </c>
-      <c r="D53" s="4" t="str">
+      <c r="D53" s="7" t="str">
         <v>一位英雄出现并逆转了局面！</v>
       </c>
-      <c r="E53" s="4" t="str"/>
-    </row>
-    <row r="54">
-      <c r="A54" s="4">
+      <c r="E53" s="7" t="str"/>
+    </row>
+    <row customHeight="true" ht="21" r="54">
+      <c r="A54" s="7">
         <v>30021</v>
       </c>
-      <c r="B54" s="4" t="str">
+      <c r="B54" s="7" t="str">
         <v>Text_Content_12005</v>
       </c>
-      <c r="C54" s="2" t="str">
+      <c r="C54" s="3" t="str">
         <v>Murderer seems to be missing something...</v>
       </c>
-      <c r="D54" s="4" t="str">
+      <c r="D54" s="7" t="str">
         <v>凶手似乎遗漏了什么...</v>
       </c>
-      <c r="E54" s="4" t="str"/>
-    </row>
-    <row r="55">
-      <c r="A55" s="4">
+      <c r="E54" s="7" t="str"/>
+    </row>
+    <row customHeight="true" ht="21" r="55">
+      <c r="A55" s="7">
         <v>30022</v>
       </c>
-      <c r="B55" s="4" t="str">
+      <c r="B55" s="7" t="str">
         <v>Text_Content_12006</v>
       </c>
-      <c r="C55" s="2" t="str">
+      <c r="C55" s="3" t="str">
         <v>Murderer seems to be missing something...</v>
       </c>
-      <c r="D55" s="4" t="str">
+      <c r="D55" s="7" t="str">
         <v>凶手似乎遗漏了什么...</v>
       </c>
-      <c r="E55" s="4" t="str"/>
-    </row>
-    <row r="56">
-      <c r="A56" s="4">
+      <c r="E55" s="7" t="str"/>
+    </row>
+    <row customHeight="true" ht="21" r="56">
+      <c r="A56" s="7">
         <v>30023</v>
       </c>
-      <c r="B56" s="4" t="str">
+      <c r="B56" s="7" t="str">
         <v>Text_Content_20001</v>
       </c>
-      <c r="C56" s="2" t="str">
+      <c r="C56" s="3" t="str">
         <v>Murder Mystery</v>
       </c>
-      <c r="D56" s="4" t="str">
+      <c r="D56" s="7" t="str">
         <v>合宿谜团</v>
       </c>
-      <c r="E56" s="4" t="str"/>
-    </row>
-    <row r="57">
-      <c r="A57" s="4">
+      <c r="E56" s="7" t="str"/>
+    </row>
+    <row customHeight="true" ht="21" r="57">
+      <c r="A57" s="7">
         <v>30024</v>
       </c>
-      <c r="B57" s="4" t="str">
+      <c r="B57" s="7" t="str">
         <v>Text_Content_20002</v>
       </c>
-      <c r="C57" s="2" t="str">
+      <c r="C57" s="3" t="str">
         <v>Start</v>
       </c>
-      <c r="D57" s="4" t="str">
+      <c r="D57" s="7" t="str">
         <v>开始</v>
       </c>
-      <c r="E57" s="4" t="str"/>
-    </row>
-    <row r="58">
-      <c r="A58" s="4">
+      <c r="E57" s="7" t="str"/>
+    </row>
+    <row customHeight="true" ht="21" r="58">
+      <c r="A58" s="7">
         <v>30025</v>
       </c>
-      <c r="B58" s="4" t="str">
+      <c r="B58" s="7" t="str">
         <v>Text_Content_20003</v>
       </c>
-      <c r="C58" s="2" t="str">
+      <c r="C58" s="3" t="str">
         <v>View</v>
       </c>
-      <c r="D58" s="4" t="str">
+      <c r="D58" s="7" t="str">
         <v>观战</v>
       </c>
-      <c r="E58" s="4" t="str"/>
-    </row>
-    <row r="59">
-      <c r="A59" s="4">
+      <c r="E58" s="7" t="str"/>
+    </row>
+    <row customHeight="true" ht="21" r="59">
+      <c r="A59" s="7">
         <v>30026</v>
       </c>
-      <c r="B59" s="4" t="str">
+      <c r="B59" s="7" t="str">
         <v>Text_Content_20004</v>
       </c>
-      <c r="C59" s="2" t="str">
+      <c r="C59" s="3" t="str">
         <v>View Countdown</v>
       </c>
-      <c r="D59" s="4" t="str">
+      <c r="D59" s="7" t="str">
         <v>观战倒计时</v>
       </c>
-      <c r="E59" s="4" t="str"/>
-    </row>
-    <row r="60">
-      <c r="A60" s="4">
+      <c r="E59" s="7" t="str"/>
+    </row>
+    <row customHeight="true" ht="21" r="60">
+      <c r="A60" s="7">
         <v>30027</v>
       </c>
-      <c r="B60" s="4" t="str">
+      <c r="B60" s="7" t="str">
         <v>Text_Content_20005</v>
       </c>
-      <c r="C60" s="2" t="str">
+      <c r="C60" s="3" t="str">
         <v>He is playing as:</v>
       </c>
-      <c r="D60" s="4" t="str">
+      <c r="D60" s="7" t="str">
         <v>他的身份是</v>
       </c>
-      <c r="E60" s="4" t="str"/>
-    </row>
-    <row r="61">
-      <c r="A61" s="4">
+      <c r="E60" s="7" t="str"/>
+    </row>
+    <row customHeight="true" ht="21" r="61">
+      <c r="A61" s="7">
         <v>30028</v>
       </c>
-      <c r="B61" s="4" t="str">
+      <c r="B61" s="7" t="str">
         <v>Text_Content_20006</v>
       </c>
-      <c r="C61" s="2" t="str">
+      <c r="C61" s="3" t="str">
         <v>Goals for your Identity</v>
       </c>
-      <c r="D61" s="4" t="str">
+      <c r="D61" s="7" t="str">
         <v>身份目标</v>
       </c>
-      <c r="E61" s="4" t="str"/>
-    </row>
-    <row r="62">
-      <c r="A62" s="4">
+      <c r="E61" s="7" t="str"/>
+    </row>
+    <row customHeight="true" ht="21" r="62">
+      <c r="A62" s="7">
         <v>30029</v>
       </c>
-      <c r="B62" s="4" t="str">
+      <c r="B62" s="7" t="str">
         <v>Text_Content_20007</v>
       </c>
-      <c r="C62" s="2" t="str">
+      <c r="C62" s="3" t="str">
         <v>Start</v>
       </c>
-      <c r="D62" s="4" t="str">
+      <c r="D62" s="7" t="str">
         <v>开始</v>
       </c>
-      <c r="E62" s="4" t="str"/>
-    </row>
-    <row r="63">
-      <c r="A63" s="4">
+      <c r="E62" s="7" t="str"/>
+    </row>
+    <row customHeight="true" ht="21" r="63">
+      <c r="A63" s="7">
         <v>30030</v>
       </c>
-      <c r="B63" s="4" t="str">
+      <c r="B63" s="7" t="str">
         <v>Text_Content_20008</v>
       </c>
-      <c r="C63" s="2" t="str">
+      <c r="C63" s="3" t="str">
         <v>Loading...</v>
       </c>
-      <c r="D63" s="4" t="str">
+      <c r="D63" s="7" t="str">
         <v>加载中...</v>
       </c>
-      <c r="E63" s="4" t="str"/>
-    </row>
-    <row r="64">
-      <c r="A64" s="4">
+      <c r="E63" s="7" t="str"/>
+    </row>
+    <row customHeight="true" ht="21" r="64">
+      <c r="A64" s="7">
         <v>30031</v>
       </c>
-      <c r="B64" s="2" t="str">
+      <c r="B64" s="3" t="str">
         <v>Tips_Content_20002</v>
       </c>
-      <c r="C64" s="2" t="str">
+      <c r="C64" s="3" t="str">
         <v>Insufficient currency</v>
       </c>
-      <c r="D64" s="4" t="str">
+      <c r="D64" s="7" t="str">
         <v>货币不足</v>
       </c>
-      <c r="E64" s="4" t="str"/>
-    </row>
-    <row r="65">
-      <c r="A65" s="4">
+      <c r="E64" s="7" t="str"/>
+    </row>
+    <row customHeight="true" ht="21" r="65">
+      <c r="A65" s="7">
         <v>30032</v>
       </c>
-      <c r="B65" s="4" t="str">
+      <c r="B65" s="7" t="str">
         <v>Text_Content_20009</v>
       </c>
-      <c r="C65" s="2" t="str">
+      <c r="C65" s="3" t="str">
         <v>Shop</v>
       </c>
-      <c r="D65" s="4" t="str">
+      <c r="D65" s="7" t="str">
         <v>商店</v>
       </c>
-      <c r="E65" s="4" t="str"/>
-    </row>
-    <row r="66">
-      <c r="A66" s="4">
+      <c r="E65" s="7" t="str"/>
+    </row>
+    <row customHeight="true" ht="21" r="66">
+      <c r="A66" s="7">
         <v>30033</v>
       </c>
-      <c r="B66" s="4" t="str">
+      <c r="B66" s="7" t="str">
         <v>Text_Content_20010</v>
       </c>
-      <c r="C66" s="2" t="str">
+      <c r="C66" s="3" t="str">
         <v>For Murderers</v>
       </c>
-      <c r="D66" s="2" t="str">
+      <c r="D66" s="3" t="str">
         <v>凶手专用</v>
       </c>
-      <c r="E66" s="4" t="str"/>
-    </row>
-    <row r="67">
-      <c r="A67" s="4">
+      <c r="E66" s="7" t="str"/>
+    </row>
+    <row customHeight="true" ht="21" r="67">
+      <c r="A67" s="7">
         <v>30034</v>
       </c>
-      <c r="B67" s="4" t="str">
+      <c r="B67" s="7" t="str">
         <v>Text_Content_20011</v>
       </c>
-      <c r="C67" s="2" t="str">
+      <c r="C67" s="3" t="str">
         <v>For Detectives</v>
       </c>
-      <c r="D67" s="2" t="str">
+      <c r="D67" s="3" t="str">
         <v>侦探专用</v>
       </c>
-      <c r="E67" s="4" t="str"/>
-    </row>
-    <row r="68">
-      <c r="A68" s="4">
+      <c r="E67" s="7" t="str"/>
+    </row>
+    <row customHeight="true" ht="21" r="68">
+      <c r="A68" s="7">
         <v>30035</v>
       </c>
-      <c r="B68" s="4" t="str">
+      <c r="B68" s="7" t="str">
         <v>Text_Content_20012</v>
       </c>
-      <c r="C68" s="2" t="str">
+      <c r="C68" s="3" t="str">
         <v>Gun</v>
       </c>
-      <c r="D68" s="4" t="str">
+      <c r="D68" s="7" t="str">
         <v>枪</v>
       </c>
-      <c r="E68" s="4" t="str"/>
-    </row>
-    <row r="69">
-      <c r="A69" s="4">
+      <c r="E68" s="7" t="str"/>
+    </row>
+    <row customHeight="true" ht="21" r="69">
+      <c r="A69" s="7">
         <v>30036</v>
       </c>
-      <c r="B69" s="4" t="str">
+      <c r="B69" s="7" t="str">
         <v>Text_Content_20013</v>
       </c>
-      <c r="C69" s="2" t="str">
+      <c r="C69" s="3" t="str">
         <v>Knife</v>
       </c>
-      <c r="D69" s="4" t="str">
+      <c r="D69" s="7" t="str">
         <v>刀</v>
       </c>
-      <c r="E69" s="4" t="str"/>
-    </row>
-    <row r="70">
-      <c r="A70" s="4">
+      <c r="E69" s="7" t="str"/>
+    </row>
+    <row customHeight="true" ht="21" r="70">
+      <c r="A70" s="7">
         <v>30037</v>
       </c>
-      <c r="B70" s="4" t="str">
+      <c r="B70" s="7" t="str">
         <v>Text_Content_20014</v>
       </c>
-      <c r="C70" s="2" t="str">
+      <c r="C70" s="3" t="str">
         <v>Acc</v>
       </c>
-      <c r="D70" s="4" t="str">
+      <c r="D70" s="7" t="str">
         <v>挂件</v>
       </c>
-      <c r="E70" s="4" t="str"/>
-    </row>
-    <row r="71">
-      <c r="A71" s="4">
+      <c r="E70" s="7" t="str"/>
+    </row>
+    <row customHeight="true" ht="21" r="71">
+      <c r="A71" s="7">
         <v>30038</v>
       </c>
-      <c r="B71" s="4" t="str">
+      <c r="B71" s="7" t="str">
         <v>Text_Content_20015</v>
       </c>
-      <c r="C71" s="2" t="str">
+      <c r="C71" s="3" t="str">
         <v>Buy</v>
       </c>
-      <c r="D71" s="2" t="str">
+      <c r="D71" s="3" t="str">
         <v>购买</v>
       </c>
-      <c r="E71" s="4" t="str"/>
-    </row>
-    <row r="72">
-      <c r="A72" s="4">
+      <c r="E71" s="7" t="str"/>
+    </row>
+    <row customHeight="true" ht="21" r="72">
+      <c r="A72" s="7">
         <v>30039</v>
       </c>
-      <c r="B72" s="4" t="str">
+      <c r="B72" s="7" t="str">
         <v>Text_Content_20016</v>
       </c>
-      <c r="C72" s="2" t="str">
+      <c r="C72" s="3" t="str">
         <v>Use</v>
       </c>
-      <c r="D72" s="18" t="str">
+      <c r="D72" s="13" t="str">
         <v>使用</v>
       </c>
-      <c r="E72" s="4" t="str"/>
-    </row>
-    <row r="73">
-      <c r="A73" s="4">
+      <c r="E72" s="7" t="str"/>
+    </row>
+    <row customHeight="true" ht="21" r="73">
+      <c r="A73" s="7">
         <v>30040</v>
       </c>
-      <c r="B73" s="4" t="str">
+      <c r="B73" s="7" t="str">
         <v>Text_Content_20017</v>
       </c>
-      <c r="C73" s="2" t="str">
+      <c r="C73" s="3" t="str">
         <v>Take Off</v>
       </c>
-      <c r="D73" s="4" t="str">
+      <c r="D73" s="7" t="str">
         <v>脱下</v>
       </c>
-      <c r="E73" s="4" t="str"/>
-    </row>
-    <row r="74">
-      <c r="A74" s="4">
+      <c r="E73" s="7" t="str"/>
+    </row>
+    <row customHeight="true" ht="21" r="74">
+      <c r="A74" s="7">
         <v>30041</v>
       </c>
-      <c r="B74" s="4" t="str">
+      <c r="B74" s="7" t="str">
         <v>Text_Content_20018</v>
       </c>
-      <c r="C74" s="2" t="str">
+      <c r="C74" s="3" t="str">
         <v>Buy Items</v>
       </c>
-      <c r="D74" s="4" t="str">
+      <c r="D74" s="7" t="str">
         <v>购买物品</v>
       </c>
-      <c r="E74" s="4" t="str"/>
-    </row>
-    <row r="75">
-      <c r="A75" s="4">
+      <c r="E74" s="7" t="str"/>
+    </row>
+    <row customHeight="true" ht="21" r="75">
+      <c r="A75" s="7">
         <v>30042</v>
       </c>
-      <c r="B75" s="4" t="str">
+      <c r="B75" s="7" t="str">
         <v>Text_Content_20019</v>
       </c>
-      <c r="C75" s="2" t="str">
+      <c r="C75" s="3" t="str">
         <v>For the Murderers</v>
       </c>
-      <c r="D75" s="2" t="str">
+      <c r="D75" s="3" t="str">
         <v>凶手专用</v>
       </c>
-      <c r="E75" s="4" t="str"/>
-    </row>
-    <row r="76">
-      <c r="A76" s="4">
+      <c r="E75" s="7" t="str"/>
+    </row>
+    <row customHeight="true" ht="21" r="76">
+      <c r="A76" s="7">
         <v>30043</v>
       </c>
-      <c r="B76" s="4" t="str">
+      <c r="B76" s="7" t="str">
         <v>Text_Content_20020</v>
       </c>
-      <c r="C76" s="2" t="str">
+      <c r="C76" s="3" t="str">
         <v>For Detectives</v>
       </c>
-      <c r="D76" s="2" t="str">
+      <c r="D76" s="3" t="str">
         <v>侦探专用</v>
       </c>
-      <c r="E76" s="4" t="str"/>
-    </row>
-    <row r="77">
-      <c r="A77" s="4">
+      <c r="E76" s="7" t="str"/>
+    </row>
+    <row customHeight="true" ht="21" r="77">
+      <c r="A77" s="7">
         <v>30044</v>
       </c>
-      <c r="B77" s="4" t="str">
+      <c r="B77" s="7" t="str">
         <v>Text_Content_20021</v>
       </c>
-      <c r="C77" s="2" t="str">
+      <c r="C77" s="3" t="str">
         <v>Confirm</v>
       </c>
-      <c r="D77" s="4" t="str">
+      <c r="D77" s="7" t="str">
         <v>确定</v>
       </c>
-      <c r="E77" s="4" t="str"/>
-    </row>
-    <row r="78">
-      <c r="A78" s="4">
+      <c r="E77" s="7" t="str"/>
+    </row>
+    <row customHeight="true" ht="21" r="78">
+      <c r="A78" s="7">
         <v>30045</v>
       </c>
-      <c r="B78" s="4" t="str">
+      <c r="B78" s="7" t="str">
         <v>Text_Content_20022</v>
       </c>
-      <c r="C78" s="2" t="str">
+      <c r="C78" s="3" t="str">
         <v>Cancel</v>
       </c>
-      <c r="D78" s="4" t="str">
+      <c r="D78" s="7" t="str">
         <v>取消</v>
       </c>
-      <c r="E78" s="4" t="str"/>
-    </row>
-    <row r="79">
-      <c r="A79" s="4">
+      <c r="E78" s="7" t="str"/>
+    </row>
+    <row customHeight="true" ht="21" r="79">
+      <c r="A79" s="7">
         <v>30046</v>
       </c>
-      <c r="B79" s="4" t="str">
+      <c r="B79" s="7" t="str">
         <v>Text_Content_20023</v>
       </c>
-      <c r="C79" s="2" t="str">
+      <c r="C79" s="3" t="str">
         <v>Tap anywhere to go back</v>
       </c>
-      <c r="D79" s="2" t="str">
+      <c r="D79" s="3" t="str">
         <v>点击任意一处返回</v>
       </c>
-      <c r="E79" s="4" t="str"/>
-    </row>
-    <row r="80">
-      <c r="A80" s="4">
+      <c r="E79" s="7" t="str"/>
+    </row>
+    <row customHeight="true" ht="21" r="80">
+      <c r="A80" s="7">
         <v>30047</v>
       </c>
-      <c r="B80" s="4" t="str">
+      <c r="B80" s="7" t="str">
         <v>Text_Content_20024</v>
       </c>
-      <c r="C80" s="2" t="str">
+      <c r="C80" s="3" t="str">
         <v>Purchase Successfully</v>
       </c>
-      <c r="D80" s="2" t="str">
+      <c r="D80" s="3" t="str">
         <v>购买成功</v>
       </c>
-      <c r="E80" s="4" t="str"/>
-    </row>
-    <row r="81">
-      <c r="A81" s="4">
+      <c r="E80" s="7" t="str"/>
+    </row>
+    <row customHeight="true" ht="21" r="81">
+      <c r="A81" s="7">
         <v>30048</v>
       </c>
-      <c r="B81" s="4" t="str">
+      <c r="B81" s="7" t="str">
         <v>Text_Content_20025</v>
       </c>
-      <c r="C81" s="2" t="str">
+      <c r="C81" s="3" t="str">
         <v>Use</v>
       </c>
-      <c r="D81" s="18" t="str">
+      <c r="D81" s="13" t="str">
         <v>使用</v>
       </c>
-      <c r="E81" s="4" t="str"/>
-    </row>
-    <row r="82">
-      <c r="A82" s="4">
+      <c r="E81" s="7" t="str"/>
+    </row>
+    <row customHeight="true" ht="21" r="82">
+      <c r="A82" s="7">
         <v>30049</v>
       </c>
-      <c r="B82" s="14" t="str">
+      <c r="B82" s="12" t="str">
         <v>Text_Content_10301</v>
       </c>
-      <c r="C82" s="14" t="str">
+      <c r="C82" s="12" t="str">
         <v>Please select a map to play</v>
       </c>
-      <c r="D82" s="14" t="str">
+      <c r="D82" s="12" t="str">
         <v>请选择要游玩的地图</v>
       </c>
-      <c r="E82" s="4" t="str"/>
-    </row>
-    <row r="83">
-      <c r="A83" s="4">
+      <c r="E82" s="7" t="str"/>
+    </row>
+    <row customHeight="true" ht="21" r="83">
+      <c r="A83" s="7">
         <v>30050</v>
       </c>
-      <c r="B83" s="14" t="str">
+      <c r="B83" s="12" t="str">
         <v>Text_Content_10302</v>
       </c>
-      <c r="C83" s="14" t="str">
+      <c r="C83" s="12" t="str">
         <v>Map Selected</v>
       </c>
-      <c r="D83" s="14" t="str">
+      <c r="D83" s="12" t="str">
         <v>地图已选出</v>
       </c>
-      <c r="E83" s="4" t="str"/>
-    </row>
-    <row r="84">
-      <c r="A84" s="4">
+      <c r="E83" s="7" t="str"/>
+    </row>
+    <row customHeight="true" ht="21" r="84">
+      <c r="A84" s="7">
         <v>30051</v>
       </c>
-      <c r="B84" s="14" t="str">
+      <c r="B84" s="12" t="str">
         <v>Text_Content_10004</v>
       </c>
-      <c r="C84" s="14" t="str">
+      <c r="C84" s="12" t="str">
         <v>Randomizing</v>
       </c>
-      <c r="D84" s="14" t="str">
+      <c r="D84" s="12" t="str">
         <v>随机地图中</v>
       </c>
-      <c r="E84" s="4" t="str"/>
-    </row>
-    <row r="85">
-      <c r="A85" s="4">
+      <c r="E84" s="7" t="str"/>
+    </row>
+    <row customHeight="true" ht="21" r="85">
+      <c r="A85" s="7">
         <v>30052</v>
       </c>
-      <c r="B85" s="14" t="str">
+      <c r="B85" s="12" t="str">
         <v>Text_Content_20029</v>
       </c>
-      <c r="C85" s="14" t="str">
+      <c r="C85" s="12" t="str">
         <v>Trail</v>
       </c>
-      <c r="D85" s="18" t="str">
+      <c r="D85" s="13" t="str">
         <v>拖尾</v>
       </c>
-      <c r="E85" s="4"/>
-    </row>
-    <row r="86">
-      <c r="A86" s="4">
+      <c r="E85" s="7"/>
+    </row>
+    <row customHeight="true" ht="21" r="86">
+      <c r="A86" s="7">
         <v>30053</v>
       </c>
-      <c r="B86" s="14" t="str">
+      <c r="B86" s="12" t="str">
         <v>Text_Content_20030</v>
       </c>
-      <c r="C86" s="14" t="str">
+      <c r="C86" s="12" t="str">
         <v>Get it for free</v>
       </c>
-      <c r="D86" s="18" t="str">
+      <c r="D86" s="13" t="str">
         <v>免费领取</v>
       </c>
-      <c r="E86" s="4" t="str"/>
-    </row>
-    <row r="87">
-      <c r="A87" s="4">
+      <c r="E86" s="7" t="str"/>
+    </row>
+    <row customHeight="true" ht="21" r="87">
+      <c r="A87" s="7">
         <v>30054</v>
       </c>
-      <c r="B87" s="14" t="str">
+      <c r="B87" s="12" t="str">
         <v>Text_Content_20031</v>
       </c>
-      <c r="C87" s="14" t="str">
+      <c r="C87" s="12" t="str">
         <v>Watch ads to get extra rewards</v>
       </c>
-      <c r="D87" s="18" t="str">
+      <c r="D87" s="13" t="str">
         <v>观看广告领取额外奖励</v>
       </c>
-      <c r="E87" s="4" t="str"/>
-    </row>
-    <row r="88">
-      <c r="A88" s="4">
+      <c r="E87" s="7" t="str"/>
+    </row>
+    <row customHeight="true" ht="21" r="88">
+      <c r="A88" s="7">
         <v>30055</v>
       </c>
-      <c r="B88" s="14" t="str">
+      <c r="B88" s="12" t="str">
         <v>Text_Content_20032</v>
       </c>
-      <c r="C88" s="14" t="str">
+      <c r="C88" s="12" t="str">
         <v>Watch the ad to receive compensation</v>
       </c>
-      <c r="D88" s="14" t="str">
+      <c r="D88" s="12" t="str">
         <v>观看广告领取补偿</v>
       </c>
-      <c r="E88" s="4" t="str"/>
-    </row>
-    <row r="89">
-      <c r="A89" s="4">
+      <c r="E88" s="7" t="str"/>
+    </row>
+    <row customHeight="true" ht="21" r="89">
+      <c r="A89" s="7">
         <v>30056</v>
       </c>
-      <c r="B89" s="14" t="str">
+      <c r="B89" s="12" t="str">
         <v>Text_Content_20033</v>
       </c>
-      <c r="C89" s="14" t="str">
+      <c r="C89" s="12" t="str">
         <v>Congratulations on receiving</v>
       </c>
-      <c r="D89" s="18" t="str">
+      <c r="D89" s="13" t="str">
         <v>恭喜获得</v>
       </c>
-      <c r="E89" s="4" t="str"/>
-    </row>
-    <row r="90">
-      <c r="A90" s="4">
+      <c r="E89" s="7" t="str"/>
+    </row>
+    <row customHeight="true" ht="21" r="90">
+      <c r="A90" s="7">
         <v>30057</v>
       </c>
-      <c r="B90" s="14" t="str">
+      <c r="B90" s="12" t="str">
         <v>Tips_Content_20003</v>
       </c>
-      <c r="C90" s="14" t="str">
+      <c r="C90" s="12" t="str">
         <v>It's not ready yet, please wait a little longer to get it~</v>
       </c>
-      <c r="D90" s="18" t="str">
+      <c r="D90" s="13" t="str">
         <v>时间还没到，再等一下才能获得哦~</v>
       </c>
-      <c r="E90" s="4" t="str"/>
-    </row>
-    <row r="91">
-      <c r="A91" s="4">
+      <c r="E90" s="7" t="str"/>
+    </row>
+    <row customHeight="true" ht="21" r="91">
+      <c r="A91" s="7">
         <v>30058</v>
       </c>
-      <c r="B91" s="14" t="str">
+      <c r="B91" s="12" t="str">
         <v>Tips_Content_20004</v>
       </c>
-      <c r="C91" s="14" t="str">
+      <c r="C91" s="12" t="str">
         <v>You've already received plenty of rewards today, so please come back tomorrow~</v>
       </c>
-      <c r="D91" s="18" t="str">
+      <c r="D91" s="13" t="str">
         <v>今天已经得到很多奖励了，明天再来吧~</v>
       </c>
-      <c r="E91" s="4" t="str"/>
-    </row>
-    <row r="92">
-      <c r="A92" s="4">
+      <c r="E91" s="7" t="str"/>
+    </row>
+    <row customHeight="true" ht="21" r="92">
+      <c r="A92" s="7">
         <v>30059</v>
       </c>
-      <c r="B92" s="14" t="str">
+      <c r="B92" s="12" t="str">
         <v>Text_Content_11014</v>
       </c>
-      <c r="C92" s="14" t="str">
+      <c r="C92" s="12" t="str">
         <v>Available</v>
       </c>
-      <c r="D92" s="18" t="str">
+      <c r="D92" s="13" t="str">
         <v>待拾取</v>
       </c>
-      <c r="E92" s="4"/>
-    </row>
-    <row r="93">
-      <c r="A93" s="4">
+      <c r="E92" s="7"/>
+    </row>
+    <row customHeight="true" ht="21" r="93">
+      <c r="A93" s="7">
         <v>30060</v>
       </c>
-      <c r="B93" s="14" t="str">
+      <c r="B93" s="12" t="str">
         <v>Text_Content_11015</v>
       </c>
-      <c r="C93" s="14" t="str">
+      <c r="C93" s="12" t="str">
         <v>Exist</v>
       </c>
-      <c r="D93" s="18" t="str">
+      <c r="D93" s="13" t="str">
         <v>存在</v>
       </c>
-      <c r="E93" s="4"/>
-    </row>
-    <row r="94">
-      <c r="A94" s="4">
+      <c r="E93" s="7"/>
+    </row>
+    <row customHeight="true" ht="21" r="94">
+      <c r="A94" s="7">
         <v>30061</v>
       </c>
-      <c r="B94" s="14" t="str">
+      <c r="B94" s="12" t="str">
         <v>Text_Content_11016</v>
       </c>
-      <c r="C94" s="14" t="str">
+      <c r="C94" s="12" t="str">
         <v>Survival experience +{0}EXP</v>
       </c>
-      <c r="D94" s="18" t="str">
+      <c r="D94" s="13" t="str">
         <v>存活经验+{0}EXP</v>
       </c>
-      <c r="E94" s="4"/>
-    </row>
-    <row r="95">
-      <c r="A95" s="4">
+      <c r="E94" s="7"/>
+    </row>
+    <row customHeight="true" ht="21" r="95">
+      <c r="A95" s="7">
         <v>30062</v>
       </c>
-      <c r="B95" s="14" t="str">
+      <c r="B95" s="12" t="str">
         <v>Text_Content_12007</v>
       </c>
-      <c r="C95" s="14" t="str">
+      <c r="C95" s="12" t="str">
         <v>Reward</v>
       </c>
-      <c r="D95" s="14" t="str">
+      <c r="D95" s="12" t="str">
         <v>奖励</v>
       </c>
-      <c r="E95" s="4" t="str"/>
-    </row>
-    <row r="96">
-      <c r="A96" s="4">
+      <c r="E95" s="7" t="str"/>
+    </row>
+    <row customHeight="true" ht="21" r="96">
+      <c r="A96" s="7">
         <v>30063</v>
       </c>
-      <c r="B96" s="2" t="str">
+      <c r="B96" s="3" t="str">
         <v>Text_Content_12008</v>
       </c>
-      <c r="C96" s="2" t="str">
+      <c r="C96" s="3" t="str">
         <v>Identity</v>
       </c>
-      <c r="D96" s="2" t="str">
+      <c r="D96" s="3" t="str">
         <v>本局身份</v>
       </c>
-      <c r="E96" s="4" t="str"/>
-    </row>
-    <row r="97">
-      <c r="A97" s="4">
+      <c r="E96" s="7" t="str"/>
+    </row>
+    <row customHeight="true" ht="21" r="97">
+      <c r="A97" s="7">
         <v>30064</v>
       </c>
-      <c r="B97" s="2" t="str">
+      <c r="B97" s="3" t="str">
         <v>Text_Content_12009</v>
       </c>
-      <c r="C97" s="2" t="str">
+      <c r="C97" s="3" t="str">
         <v>Coins</v>
       </c>
-      <c r="D97" s="2" t="str">
+      <c r="D97" s="3" t="str">
         <v>收集金币</v>
       </c>
-      <c r="E97" s="4" t="str"/>
-    </row>
-    <row r="98">
-      <c r="A98" s="4">
+      <c r="E97" s="7" t="str"/>
+    </row>
+    <row customHeight="true" ht="21" r="98">
+      <c r="A98" s="7">
         <v>30065</v>
       </c>
-      <c r="B98" s="2" t="str">
+      <c r="B98" s="3" t="str">
         <v>Text_Content_12010</v>
       </c>
-      <c r="C98" s="2" t="str">
+      <c r="C98" s="3" t="str">
         <v>Defeats {0}</v>
       </c>
-      <c r="D98" s="2" t="str">
+      <c r="D98" s="3" t="str">
         <v>消灭了{0}名学生！</v>
       </c>
-      <c r="E98" s="4" t="str"/>
-    </row>
-    <row r="99">
-      <c r="A99" s="4">
+      <c r="E98" s="7" t="str"/>
+    </row>
+    <row customHeight="true" ht="21" r="99">
+      <c r="A99" s="7">
         <v>30066</v>
       </c>
-      <c r="B99" s="2" t="str">
+      <c r="B99" s="3" t="str">
         <v>Text_Content_12011</v>
       </c>
-      <c r="C99" s="2" t="str">
+      <c r="C99" s="3" t="str">
         <v>Survived for {0}mins {1} s</v>
       </c>
-      <c r="D99" s="2" t="str">
+      <c r="D99" s="3" t="str">
         <v>已存活{0}分{1}秒</v>
       </c>
-      <c r="E99" s="4" t="str"/>
-    </row>
-    <row r="100">
-      <c r="A100" s="4">
+      <c r="E99" s="7" t="str"/>
+    </row>
+    <row customHeight="true" ht="21" r="100">
+      <c r="A100" s="7">
         <v>30067</v>
       </c>
-      <c r="B100" s="2" t="str">
+      <c r="B100" s="3" t="str">
         <v>Text_Content_12012</v>
       </c>
-      <c r="C100" s="2" t="str">
+      <c r="C100" s="3" t="str">
         <v>Saved {0} Students</v>
       </c>
-      <c r="D100" s="2" t="str">
+      <c r="D100" s="3" t="str">
         <v>拯救了{0}位学生</v>
       </c>
-      <c r="E100" s="4" t="str"/>
-    </row>
-    <row r="101">
-      <c r="A101" s="4">
+      <c r="E100" s="7" t="str"/>
+    </row>
+    <row customHeight="true" ht="21" r="101">
+      <c r="A101" s="7">
         <v>30068</v>
       </c>
-      <c r="B101" s="2" t="str">
+      <c r="B101" s="3" t="str">
         <v>Text_Content_12013</v>
       </c>
-      <c r="C101" s="2" t="str">
+      <c r="C101" s="3" t="str">
         <v>Saved {0} Students</v>
       </c>
-      <c r="D101" s="2" t="str">
+      <c r="D101" s="3" t="str">
         <v>拯救了{0}位学生</v>
       </c>
-      <c r="E101" s="4" t="str"/>
-    </row>
-    <row r="102">
-      <c r="A102" s="4">
+      <c r="E101" s="7" t="str"/>
+    </row>
+    <row customHeight="true" ht="21" r="102">
+      <c r="A102" s="7">
         <v>30069</v>
       </c>
-      <c r="B102" s="2" t="str">
+      <c r="B102" s="3" t="str">
         <v>Text_Content_12014</v>
       </c>
-      <c r="C102" s="31" t="str">
+      <c r="C102" s="26" t="str">
         <v>× 1.5 (Bonus)</v>
       </c>
-      <c r="D102" s="2" t="str">
+      <c r="D102" s="3" t="str">
         <v>× 1.5 ( 胜利奖励)</v>
       </c>
-      <c r="E102" s="4" t="str"/>
-    </row>
-    <row r="103">
-      <c r="A103" s="4">
+      <c r="E102" s="7" t="str"/>
+    </row>
+    <row customHeight="true" ht="21" r="103">
+      <c r="A103" s="7">
         <v>30070</v>
       </c>
-      <c r="B103" s="2" t="str">
+      <c r="B103" s="3" t="str">
         <v>Text_Content_12015</v>
       </c>
-      <c r="C103" s="31" t="str">
+      <c r="C103" s="26" t="str">
         <v>+ 900 (Bonus )</v>
       </c>
-      <c r="D103" s="2" t="str">
+      <c r="D103" s="3" t="str">
         <v>+ 900 ( 胜利奖励)</v>
       </c>
-      <c r="E103" s="4" t="str"/>
-    </row>
-    <row customHeight="true" ht="19" r="104">
-      <c r="A104" s="4">
+      <c r="E103" s="7" t="str"/>
+    </row>
+    <row customHeight="true" ht="21" r="104">
+      <c r="A104" s="7">
         <v>30071</v>
       </c>
-      <c r="B104" s="2" t="str">
+      <c r="B104" s="3" t="str">
         <v>Text_Content_12016</v>
       </c>
-      <c r="C104" s="2" t="str">
+      <c r="C104" s="3" t="str">
         <v>Watch ads to get double coins!</v>
       </c>
-      <c r="D104" s="2" t="str">
+      <c r="D104" s="3" t="str">
         <v>观看广告，获得双倍金币！</v>
       </c>
-      <c r="E104" s="4" t="str">
+      <c r="E104" s="7" t="str">
         <v>UI按钮上的文字</v>
       </c>
     </row>
-    <row customHeight="true" ht="19" r="105">
-      <c r="A105" s="4">
+    <row customHeight="true" ht="21" r="105">
+      <c r="A105" s="7">
         <v>30072</v>
       </c>
-      <c r="B105" s="26" t="str">
+      <c r="B105" s="3" t="str">
         <v>Text_Content_12017</v>
       </c>
-      <c r="C105" s="2" t="str">
+      <c r="C105" s="3" t="str">
         <v>GET</v>
       </c>
-      <c r="D105" s="2" t="str">
+      <c r="D105" s="3" t="str">
         <v>观看</v>
       </c>
-      <c r="E105" s="4" t="str">
+      <c r="E105" s="7" t="str">
         <v>UI按钮上的文字</v>
       </c>
     </row>
-    <row customHeight="true" ht="19" r="106">
-      <c r="A106" s="18">
+    <row customHeight="true" ht="21" r="106">
+      <c r="A106" s="13">
         <v>30073</v>
       </c>
-      <c r="B106" s="14" t="str">
+      <c r="B106" s="12" t="str">
         <v>Text_Content_12018</v>
       </c>
-      <c r="C106" s="14" t="str">
+      <c r="C106" s="12" t="str">
         <v>Lottery</v>
       </c>
-      <c r="D106" s="14" t="str">
+      <c r="D106" s="12" t="str">
         <v>抽奖</v>
       </c>
-      <c r="E106" s="18" t="str">
+      <c r="E106" s="13" t="str">
         <v>UI按钮上的文字</v>
       </c>
     </row>
-    <row customHeight="true" ht="19" r="107">
-      <c r="A107" s="18">
+    <row customHeight="true" ht="21" r="107">
+      <c r="A107" s="13">
         <v>30074</v>
       </c>
-      <c r="B107" s="14" t="str">
+      <c r="B107" s="12" t="str">
         <v>Text_Content_12019</v>
       </c>
-      <c r="C107" s="14" t="str">
+      <c r="C107" s="12" t="str">
         <v>Weapon Box</v>
       </c>
-      <c r="D107" s="14" t="str">
+      <c r="D107" s="12" t="str">
         <v>武器箱</v>
       </c>
-      <c r="E107" s="18" t="str">
+      <c r="E107" s="13" t="str">
         <v>UI按钮上的文字</v>
       </c>
     </row>
-    <row customHeight="true" ht="19" r="108">
-      <c r="A108" s="18">
+    <row customHeight="true" ht="21" r="108">
+      <c r="A108" s="13">
         <v>30075</v>
       </c>
-      <c r="B108" s="14" t="str">
+      <c r="B108" s="12" t="str">
         <v>Text_Content_12020</v>
       </c>
-      <c r="C108" s="14" t="str">
+      <c r="C108" s="12" t="str">
         <v>Watch the ad for a free draw</v>
       </c>
-      <c r="D108" s="14" t="str">
+      <c r="D108" s="12" t="str">
         <v>观看广告，免费抽奖一次</v>
       </c>
-      <c r="E108" s="18" t="str">
+      <c r="E108" s="13" t="str">
         <v>UI按钮上的文字</v>
       </c>
     </row>
-    <row customHeight="true" ht="19" r="109">
-      <c r="A109" s="18">
+    <row customHeight="true" ht="21" r="109">
+      <c r="A109" s="13">
         <v>30076</v>
       </c>
-      <c r="B109" s="14" t="str">
+      <c r="B109" s="12" t="str">
         <v>Text_Content_12021</v>
       </c>
-      <c r="C109" s="14" t="str">
+      <c r="C109" s="12" t="str">
         <v>Until the next free draw:</v>
       </c>
-      <c r="D109" s="14" t="str">
+      <c r="D109" s="12" t="str">
         <v>距离下次免费：</v>
       </c>
-      <c r="E109" s="18" t="str">
+      <c r="E109" s="13" t="str">
         <v>UI按钮上的文字</v>
       </c>
     </row>
-    <row customHeight="true" ht="19" r="110">
-      <c r="A110" s="18">
+    <row customHeight="true" ht="21" r="110">
+      <c r="A110" s="13">
         <v>30077</v>
       </c>
-      <c r="B110" s="14" t="str">
+      <c r="B110" s="12" t="str">
         <v>Text_Content_12022</v>
       </c>
-      <c r="C110" s="14" t="str">
+      <c r="C110" s="12" t="str">
         <v>Your draws</v>
       </c>
-      <c r="D110" s="14" t="str">
+      <c r="D110" s="12" t="str">
         <v>累计抽奖</v>
       </c>
-      <c r="E110" s="18" t="str">
+      <c r="E110" s="13" t="str">
         <v>UI按钮上的文字</v>
       </c>
     </row>
-    <row customHeight="true" ht="19" r="111">
-      <c r="A111" s="18">
+    <row customHeight="true" ht="21" r="111">
+      <c r="A111" s="13">
         <v>30078</v>
       </c>
-      <c r="B111" s="14" t="str">
+      <c r="B111" s="12" t="str">
         <v>Text_Content_12023</v>
       </c>
-      <c r="C111" s="14" t="str">
+      <c r="C111" s="12" t="str">
         <v>Next time you will get a RED quality weapon</v>
       </c>
-      <c r="D111" s="14" t="str">
+      <c r="D111" s="12" t="str">
         <v>下次必得红色品质武器</v>
       </c>
-      <c r="E111" s="18" t="str">
+      <c r="E111" s="13" t="str">
         <v>UI按钮上的文字</v>
       </c>
     </row>
-    <row customHeight="true" ht="19" r="112">
-      <c r="A112" s="18">
+    <row customHeight="true" ht="21" r="112">
+      <c r="A112" s="13">
         <v>30079</v>
       </c>
-      <c r="B112" s="14" t="str">
+      <c r="B112" s="12" t="str">
         <v>Text_Content_12024</v>
       </c>
-      <c r="C112" s="14" t="str">
+      <c r="C112" s="12" t="str">
         <v>Box opening...</v>
       </c>
-      <c r="D112" s="14" t="str">
+      <c r="D112" s="12" t="str">
         <v>正在打开箱子...</v>
       </c>
-      <c r="E112" s="18" t="str">
+      <c r="E112" s="13" t="str">
         <v>UI按钮上的文字</v>
       </c>
     </row>
-    <row customHeight="true" ht="19" r="113">
-      <c r="A113" s="18">
+    <row customHeight="true" ht="21" r="113">
+      <c r="A113" s="13">
         <v>30080</v>
       </c>
-      <c r="B113" s="14" t="str">
+      <c r="B113" s="12" t="str">
         <v>Text_Content_12025</v>
       </c>
-      <c r="C113" s="14" t="str">
+      <c r="C113" s="12" t="str">
         <v>Congratulations!</v>
       </c>
-      <c r="D113" s="14" t="str">
+      <c r="D113" s="12" t="str">
         <v>恭喜获得</v>
       </c>
-      <c r="E113" s="18" t="str">
+      <c r="E113" s="13" t="str">
         <v>UI按钮上的文字</v>
       </c>
     </row>
-    <row customHeight="true" ht="19" r="114">
-      <c r="A114" s="18">
+    <row customHeight="true" ht="21" r="114">
+      <c r="A114" s="13">
         <v>30081</v>
       </c>
-      <c r="B114" s="14" t="str">
+      <c r="B114" s="12" t="str">
         <v>Text_Content_12026</v>
       </c>
-      <c r="C114" s="14" t="str">
+      <c r="C114" s="12" t="str">
         <v>Owned, automatically recycled to gold coins</v>
       </c>
-      <c r="D114" s="14" t="str">
+      <c r="D114" s="12" t="str">
         <v>已拥有，自动回收为金币</v>
       </c>
-      <c r="E114" s="18" t="str">
+      <c r="E114" s="13" t="str">
         <v>UI按钮上的文字</v>
       </c>
     </row>
-    <row r="115">
-      <c r="A115" s="18">
+    <row customHeight="true" ht="21" r="115">
+      <c r="A115" s="13">
         <v>30082</v>
       </c>
-      <c r="B115" s="14" t="str">
+      <c r="B115" s="12" t="str">
         <v>Text_Content_11017</v>
       </c>
-      <c r="C115" s="14" t="str">
+      <c r="C115" s="12" t="str">
         <v>Defeat everyone and leave no one out!</v>
       </c>
-      <c r="D115" s="18" t="str">
+      <c r="D115" s="13" t="str">
         <v>击败所有人，一个也不要放过！</v>
       </c>
-      <c r="E115" s="18"/>
-    </row>
-    <row r="116">
-      <c r="A116" s="18">
+      <c r="E115" s="13"/>
+    </row>
+    <row customHeight="true" ht="21" r="116">
+      <c r="A116" s="13">
         <v>30083</v>
       </c>
-      <c r="B116" s="14" t="str">
+      <c r="B116" s="12" t="str">
         <v>Text_Content_11018</v>
       </c>
-      <c r="C116" s="14" t="str">
+      <c r="C116" s="12" t="str">
         <v>You are Detective, defeat the Murderer!</v>
       </c>
-      <c r="D116" s="18" t="str">
+      <c r="D116" s="13" t="str">
         <v>你是侦探，寻找凶手并击败他！</v>
       </c>
-      <c r="E116" s="18"/>
-    </row>
-    <row r="117">
-      <c r="A117" s="18">
+      <c r="E116" s="13"/>
+    </row>
+    <row customHeight="true" ht="21" r="117">
+      <c r="A117" s="13">
         <v>30084</v>
       </c>
-      <c r="B117" s="14" t="str">
+      <c r="B117" s="12" t="str">
         <v>Text_Content_11019</v>
       </c>
-      <c r="C117" s="14" t="str">
+      <c r="C117" s="12" t="str">
         <v>You're the Hero, find the Murderer and defeat him!</v>
       </c>
-      <c r="D117" s="18" t="str">
+      <c r="D117" s="13" t="str">
         <v>你化身英雄，找到凶手击败他！</v>
       </c>
-      <c r="E117" s="18"/>
-    </row>
-    <row r="118">
-      <c r="A118" s="18">
+      <c r="E117" s="13"/>
+    </row>
+    <row customHeight="true" ht="21" r="118">
+      <c r="A118" s="13">
         <v>30085</v>
       </c>
-      <c r="B118" s="14" t="str">
+      <c r="B118" s="12" t="str">
         <v>Text_Content_11020</v>
       </c>
-      <c r="C118" s="14" t="str">
+      <c r="C118" s="12" t="str">
         <v>Survive...</v>
       </c>
-      <c r="D118" s="18" t="str">
+      <c r="D118" s="13" t="str">
         <v>活下去...</v>
       </c>
-      <c r="E118" s="18"/>
-    </row>
-    <row r="119">
-      <c r="A119" s="18">
+      <c r="E118" s="13"/>
+    </row>
+    <row customHeight="true" ht="21" r="119">
+      <c r="A119" s="13">
         <v>30086</v>
       </c>
-      <c r="B119" s="14" t="str">
+      <c r="B119" s="12" t="str">
         <v>Text_Content_20034</v>
       </c>
-      <c r="C119" s="14" t="str">
+      <c r="C119" s="12" t="str">
         <v>Terminator!</v>
       </c>
-      <c r="D119" s="18" t="str">
+      <c r="D119" s="13" t="str">
         <v>本轮终结者！</v>
       </c>
-      <c r="E119" s="18"/>
-    </row>
-    <row customHeight="true" ht="19" r="120">
-      <c r="A120" s="18">
+      <c r="E119" s="13"/>
+    </row>
+    <row customHeight="true" ht="21" r="120">
+      <c r="A120" s="13">
         <v>30087</v>
       </c>
-      <c r="B120" s="14" t="str">
+      <c r="B120" s="12" t="str">
         <v>Text_Content_20035</v>
       </c>
-      <c r="C120" s="14" t="str">
+      <c r="C120" s="12" t="str">
         <v>Lottery</v>
       </c>
-      <c r="D120" s="18" t="str">
+      <c r="D120" s="13" t="str">
         <v>抽奖获得</v>
       </c>
-      <c r="E120" s="18"/>
-    </row>
-    <row r="121">
-      <c r="A121" s="4">
+      <c r="E120" s="13"/>
+    </row>
+    <row customHeight="true" ht="21" r="121">
+      <c r="A121" s="7">
         <v>40001</v>
       </c>
-      <c r="B121" s="4" t="str">
+      <c r="B121" s="7" t="str">
         <v>Tips_Content_10001</v>
       </c>
-      <c r="C121" s="2" t="str">
+      <c r="C121" s="3" t="str">
         <v>Please pick up your weapon first!</v>
       </c>
-      <c r="D121" s="4" t="str">
+      <c r="D121" s="7" t="str">
         <v>请先拿出武器！</v>
       </c>
-      <c r="E121" s="4" t="str">
+      <c r="E121" s="7" t="str">
         <v>40000：提示表</v>
       </c>
     </row>
-    <row r="122">
-      <c r="A122" s="4">
+    <row customHeight="true" ht="21" r="122">
+      <c r="A122" s="7">
         <v>40002</v>
       </c>
-      <c r="B122" s="4" t="str">
+      <c r="B122" s="7" t="str">
         <v>Tips_Content_10002</v>
       </c>
-      <c r="C122" s="2" t="str">
+      <c r="C122" s="3" t="str">
         <v>You are a Hero now! Pick up your weapon and attack!</v>
       </c>
-      <c r="D122" s="4" t="str">
+      <c r="D122" s="7" t="str">
         <v>变成了英雄！可以拿出武器攻击了！</v>
       </c>
-      <c r="E122" s="4" t="str"/>
-    </row>
-    <row r="123">
-      <c r="A123" s="4">
+      <c r="E122" s="7" t="str"/>
+    </row>
+    <row customHeight="true" ht="21" r="123">
+      <c r="A123" s="7">
         <v>40003</v>
       </c>
-      <c r="B123" s="4" t="str">
+      <c r="B123" s="7" t="str">
         <v>Tips_Content_10003</v>
       </c>
-      <c r="C123" s="2" t="str">
+      <c r="C123" s="3" t="str">
         <v>Energy balls collected +1~</v>
       </c>
-      <c r="D123" s="4" t="str">
+      <c r="D123" s="7" t="str">
         <v>收集能量球数量+1~</v>
       </c>
-      <c r="E123" s="4" t="str"/>
-    </row>
-    <row r="124">
-      <c r="A124" s="4">
+      <c r="E123" s="7" t="str"/>
+    </row>
+    <row customHeight="true" ht="21" r="124">
+      <c r="A124" s="7">
         <v>40004</v>
       </c>
-      <c r="B124" s="4" t="str">
+      <c r="B124" s="7" t="str">
         <v>Tips_Content_10004</v>
       </c>
-      <c r="C124" s="2" t="str">
+      <c r="C124" s="3" t="str">
         <v>Energy balls obtained in this round is full!</v>
       </c>
-      <c r="D124" s="4" t="str">
+      <c r="D124" s="7" t="str">
         <v>本局获得能量球数量已满！</v>
       </c>
-      <c r="E124" s="4" t="str"/>
-    </row>
-    <row r="125">
-      <c r="A125" s="4">
+      <c r="E124" s="7" t="str"/>
+    </row>
+    <row customHeight="true" ht="21" r="125">
+      <c r="A125" s="7">
         <v>40005</v>
       </c>
-      <c r="B125" s="4" t="str">
+      <c r="B125" s="7" t="str">
         <v>Tips_Content_10005</v>
       </c>
-      <c r="C125" s="2" t="str">
+      <c r="C125" s="3" t="str">
         <v>Energy shield obtained! You can resist an attack now!</v>
       </c>
-      <c r="D125" s="4" t="str">
+      <c r="D125" s="7" t="str">
         <v>获得了能量保护壳！可以抵挡一次攻击！</v>
       </c>
-      <c r="E125" s="4" t="str"/>
-    </row>
-    <row r="126">
-      <c r="A126" s="4">
+      <c r="E125" s="7" t="str"/>
+    </row>
+    <row customHeight="true" ht="21" r="126">
+      <c r="A126" s="7">
         <v>40006</v>
       </c>
-      <c r="B126" s="4" t="str">
+      <c r="B126" s="7" t="str">
         <v>Tips_Content_10006</v>
       </c>
-      <c r="C126" s="2" t="str">
+      <c r="C126" s="3" t="str">
         <v>Energy shield is shattered! Be careful!</v>
       </c>
-      <c r="D126" s="4" t="str">
+      <c r="D126" s="7" t="str">
         <v>能量保护壳被击碎了！小心！</v>
       </c>
-      <c r="E126" s="4" t="str"/>
-    </row>
-    <row r="127">
-      <c r="A127" s="4">
+      <c r="E126" s="7" t="str"/>
+    </row>
+    <row customHeight="true" ht="21" r="127">
+      <c r="A127" s="7">
         <v>40007</v>
       </c>
-      <c r="B127" s="4" t="str">
+      <c r="B127" s="7" t="str">
         <v>Tips_Content_10007</v>
       </c>
-      <c r="C127" s="2" t="str">
+      <c r="C127" s="3" t="str">
         <v>Energy of the shield is absorbed...</v>
       </c>
-      <c r="D127" s="4" t="str">
+      <c r="D127" s="7" t="str">
         <v>保护壳的能量被吸收了...</v>
       </c>
-      <c r="E127" s="4" t="str"/>
-    </row>
-    <row r="128">
-      <c r="A128" s="4">
+      <c r="E127" s="7" t="str"/>
+    </row>
+    <row customHeight="true" ht="21" r="128">
+      <c r="A128" s="7">
         <v>40008</v>
       </c>
-      <c r="B128" s="4" t="str">
+      <c r="B128" s="7" t="str">
         <v>Tips_Content_10008</v>
       </c>
-      <c r="C128" s="2" t="str">
+      <c r="C128" s="3" t="str">
         <v>Coin Bag is full!</v>
       </c>
-      <c r="D128" s="4" t="str">
+      <c r="D128" s="7" t="str">
         <v>金币袋已满！</v>
       </c>
-      <c r="E128" s="4" t="str"/>
-    </row>
-    <row r="129">
-      <c r="A129" s="4">
+      <c r="E128" s="7" t="str"/>
+    </row>
+    <row customHeight="true" ht="21" r="129">
+      <c r="A129" s="7">
         <v>40009</v>
       </c>
-      <c r="B129" s="4" t="str">
+      <c r="B129" s="7" t="str">
         <v>Tips_Content_10009</v>
       </c>
-      <c r="C129" s="2" t="str">
+      <c r="C129" s="3" t="str">
         <v>Someone died!</v>
       </c>
-      <c r="D129" s="4" t="str">
-        <v>有人死掉了！</v>
-      </c>
-      <c r="E129" s="4" t="str"/>
-    </row>
-    <row r="130">
-      <c r="A130" s="4">
+      <c r="D129" s="7" t="str">
+        <v>有人倒下了！</v>
+      </c>
+      <c r="E129" s="7" t="str"/>
+    </row>
+    <row customHeight="true" ht="21" r="130">
+      <c r="A130" s="7">
         <v>40010</v>
       </c>
-      <c r="B130" s="4" t="str">
+      <c r="B130" s="7" t="str">
         <v>Tips_Content_10010</v>
       </c>
-      <c r="C130" s="2" t="str">
+      <c r="C130" s="3" t="str">
         <v>The Detective is dead, find his weapon!</v>
       </c>
-      <c r="D130" s="4" t="str">
+      <c r="D130" s="7" t="str">
         <v>侦探死亡了，找找他的武器吧！</v>
       </c>
-      <c r="E130" s="4" t="str"/>
-    </row>
-    <row r="131">
-      <c r="A131" s="4">
+      <c r="E130" s="7" t="str"/>
+    </row>
+    <row customHeight="true" ht="21" r="131">
+      <c r="A131" s="7">
         <v>40011</v>
       </c>
-      <c r="B131" s="4" t="str">
+      <c r="B131" s="7" t="str">
         <v>Tips_Content_20001</v>
       </c>
-      <c r="C131" s="2" t="str">
+      <c r="C131" s="3" t="str">
         <v>There are currently no active matches!</v>
       </c>
-      <c r="D131" s="4" t="str">
+      <c r="D131" s="7" t="str">
         <v>当前没有正在进行的对局！</v>
       </c>
-      <c r="E131" s="4" t="str"/>
-    </row>
-    <row r="132">
-      <c r="A132" s="4">
+      <c r="E131" s="7" t="str"/>
+    </row>
+    <row customHeight="true" ht="21" r="132">
+      <c r="A132" s="7">
         <v>40012</v>
       </c>
-      <c r="B132" s="2" t="str">
+      <c r="B132" s="3" t="str">
         <v>Tips_Content_20005</v>
       </c>
-      <c r="C132" s="2" t="str">
+      <c r="C132" s="3" t="str">
         <v>Correct Password</v>
       </c>
-      <c r="D132" s="4" t="str">
+      <c r="D132" s="7" t="str">
         <v>密码输入正确</v>
       </c>
-      <c r="E132" s="4"/>
-    </row>
-    <row r="133">
-      <c r="A133" s="4">
+      <c r="E132" s="7"/>
+    </row>
+    <row customHeight="true" ht="21" r="133">
+      <c r="A133" s="7">
         <v>40013</v>
       </c>
-      <c r="B133" s="2" t="str">
+      <c r="B133" s="3" t="str">
         <v>Tips_Content_20006</v>
       </c>
-      <c r="C133" s="2" t="str">
+      <c r="C133" s="3" t="str">
         <v>Wrong Password！</v>
       </c>
-      <c r="D133" s="4" t="str">
+      <c r="D133" s="7" t="str">
         <v>密码输入错误！</v>
       </c>
-      <c r="E133" s="4"/>
-    </row>
-    <row customHeight="true" ht="19" r="134">
-      <c r="A134" s="4">
+      <c r="E133" s="7"/>
+    </row>
+    <row customHeight="true" ht="21" r="134">
+      <c r="A134" s="7">
         <v>40014</v>
       </c>
-      <c r="B134" s="2" t="str">
+      <c r="B134" s="3" t="str">
         <v>Tips_Content_20007</v>
       </c>
-      <c r="C134" s="2" t="str">
+      <c r="C134" s="3" t="str">
         <v>Weapon skins！Click to go！</v>
       </c>
-      <c r="D134" s="4" t="str">
+      <c r="D134" s="7" t="str">
         <v>免费抽取武器皮肤，点击前往！</v>
       </c>
-      <c r="E134" s="4"/>
-    </row>
-    <row customHeight="true" ht="19" r="135">
-      <c r="A135" s="4">
+      <c r="E134" s="7"/>
+    </row>
+    <row customHeight="true" ht="21" r="135">
+      <c r="A135" s="7">
         <v>40015</v>
       </c>
-      <c r="B135" s="2" t="str">
+      <c r="B135" s="3" t="str">
         <v>Tips_Content_20008</v>
       </c>
-      <c r="C135" s="2" t="str">
+      <c r="C135" s="3" t="str">
         <v>Ad in CD</v>
       </c>
-      <c r="D135" s="4" t="str">
+      <c r="D135" s="7" t="str">
         <v>广告冷却中</v>
       </c>
-      <c r="E135" s="4"/>
-    </row>
-    <row r="136">
-      <c r="A136" s="4">
+      <c r="E135" s="7"/>
+    </row>
+    <row customHeight="true" ht="21" r="136">
+      <c r="A136" s="7">
         <v>50001</v>
       </c>
-      <c r="B136" s="4" t="str">
+      <c r="B136" s="7" t="str">
         <v>Weapon_WeaponName_10001</v>
       </c>
-      <c r="C136" s="2" t="str">
+      <c r="C136" s="3" t="str">
         <v>Knife</v>
       </c>
-      <c r="D136" s="4" t="str">
+      <c r="D136" s="7" t="str">
         <v>小刀</v>
       </c>
-      <c r="E136" s="4" t="str">
+      <c r="E136" s="7" t="str">
         <v>50000：武器表</v>
       </c>
     </row>
-    <row r="137">
-      <c r="A137" s="4">
+    <row customHeight="true" ht="21" r="137">
+      <c r="A137" s="7">
         <v>50002</v>
       </c>
-      <c r="B137" s="4" t="str">
+      <c r="B137" s="7" t="str">
         <v>Weapon_WeaponName_20001</v>
       </c>
-      <c r="C137" s="2" t="str">
+      <c r="C137" s="3" t="str">
         <v>Revolver</v>
       </c>
-      <c r="D137" s="4" t="str">
+      <c r="D137" s="7" t="str">
         <v>左轮手枪</v>
       </c>
-      <c r="E137" s="4" t="str"/>
-    </row>
-    <row r="138">
-      <c r="A138" s="4">
+      <c r="E137" s="7" t="str"/>
+    </row>
+    <row customHeight="true" ht="21" r="138">
+      <c r="A138" s="7">
         <v>50003</v>
       </c>
-      <c r="B138" s="14" t="str">
+      <c r="B138" s="12" t="str">
         <v>Weapon_WeaponName_10002</v>
       </c>
-      <c r="C138" s="2" t="str">
+      <c r="C138" s="3" t="str">
         <v>Fire Axe</v>
       </c>
-      <c r="D138" s="18" t="str">
+      <c r="D138" s="13" t="str">
         <v>消防斧</v>
       </c>
-      <c r="E138" s="4" t="str">
+      <c r="E138" s="7" t="str">
         <v>武器名称</v>
       </c>
     </row>
-    <row r="139">
-      <c r="A139" s="4">
+    <row customHeight="true" ht="21" r="139">
+      <c r="A139" s="7">
         <v>50004</v>
       </c>
-      <c r="B139" s="14" t="str">
+      <c r="B139" s="12" t="str">
         <v>Weapon_WeaponName_10003</v>
       </c>
-      <c r="C139" s="2" t="str">
+      <c r="C139" s="3" t="str">
         <v>Nepalese Knife</v>
       </c>
-      <c r="D139" s="18" t="str">
+      <c r="D139" s="13" t="str">
         <v>尼泊尔军刀</v>
       </c>
-      <c r="E139" s="4" t="str">
+      <c r="E139" s="7" t="str">
         <v>武器名称</v>
       </c>
     </row>
-    <row r="140">
-      <c r="A140" s="4">
+    <row customHeight="true" ht="21" r="140">
+      <c r="A140" s="7">
         <v>50005</v>
       </c>
-      <c r="B140" s="14" t="str">
+      <c r="B140" s="12" t="str">
         <v>Weapon_WeaponName_20002</v>
       </c>
-      <c r="C140" s="2" t="str">
+      <c r="C140" s="3" t="str">
         <v>Submachine Gun</v>
       </c>
-      <c r="D140" s="18" t="str">
+      <c r="D140" s="13" t="str">
         <v>冲锋枪</v>
       </c>
-      <c r="E140" s="4" t="str">
+      <c r="E140" s="7" t="str">
         <v>武器名称</v>
       </c>
     </row>
-    <row r="141">
-      <c r="A141" s="4">
+    <row customHeight="true" ht="21" r="141">
+      <c r="A141" s="7">
         <v>50006</v>
       </c>
-      <c r="B141" s="14" t="str">
+      <c r="B141" s="12" t="str">
         <v>Weapon_WeaponName_20003</v>
       </c>
-      <c r="C141" s="2" t="str">
+      <c r="C141" s="3" t="str">
         <v>Rifle</v>
       </c>
-      <c r="D141" s="18" t="str">
+      <c r="D141" s="13" t="str">
         <v>步枪</v>
       </c>
-      <c r="E141" s="4" t="str">
+      <c r="E141" s="7" t="str">
         <v>武器名称</v>
       </c>
     </row>
-    <row r="142">
-      <c r="A142" s="4">
+    <row customHeight="true" ht="21" r="142">
+      <c r="A142" s="7">
         <v>50007</v>
       </c>
-      <c r="B142" s="2" t="str">
+      <c r="B142" s="3" t="str">
         <v>Weapon_WeaponName_10004</v>
       </c>
-      <c r="C142" s="2" t="str">
+      <c r="C142" s="3" t="str">
         <v>Assassin Dagger</v>
       </c>
-      <c r="D142" s="18" t="str">
+      <c r="D142" s="13" t="str">
         <v>暗杀匕首</v>
       </c>
-      <c r="E142" s="4" t="str">
+      <c r="E142" s="7" t="str">
         <v>武器名称</v>
       </c>
     </row>
-    <row r="143">
-      <c r="A143" s="4">
+    <row customHeight="true" ht="21" r="143">
+      <c r="A143" s="7">
         <v>50008</v>
       </c>
-      <c r="B143" s="2" t="str">
+      <c r="B143" s="3" t="str">
         <v>Weapon_WeaponName_10005</v>
       </c>
-      <c r="C143" s="2" t="str">
+      <c r="C143" s="3" t="str">
         <v>Survival Dagger</v>
       </c>
-      <c r="D143" s="18" t="str">
+      <c r="D143" s="13" t="str">
         <v>求生匕首</v>
       </c>
-      <c r="E143" s="4" t="str">
+      <c r="E143" s="7" t="str">
         <v>武器名称</v>
       </c>
     </row>
-    <row r="144">
-      <c r="A144" s="4">
+    <row customHeight="true" ht="21" r="144">
+      <c r="A144" s="7">
         <v>50009</v>
       </c>
-      <c r="B144" s="2" t="str">
+      <c r="B144" s="3" t="str">
         <v>Weapon_WeaponName_10006</v>
       </c>
-      <c r="C144" s="2" t="str">
+      <c r="C144" s="3" t="str">
         <v>Kitchen Knife</v>
       </c>
-      <c r="D144" s="18" t="str">
+      <c r="D144" s="13" t="str">
         <v>菜刀</v>
       </c>
-      <c r="E144" s="4" t="str">
+      <c r="E144" s="7" t="str">
         <v>武器名称</v>
       </c>
     </row>
-    <row customHeight="true" ht="19" r="145">
-      <c r="A145" s="4">
+    <row customHeight="true" ht="21" r="145">
+      <c r="A145" s="7">
         <v>50010</v>
       </c>
-      <c r="B145" s="5" t="str">
+      <c r="B145" s="15" t="str">
         <v>Weapon_WeaponName_10007</v>
       </c>
-      <c r="C145" s="2" t="str">
+      <c r="C145" s="3" t="str">
         <v>Dart (Wave)</v>
       </c>
-      <c r="D145" s="6" t="str">
+      <c r="D145" s="16" t="str">
         <v>镖(波)</v>
       </c>
-      <c r="E145" s="4" t="str">
+      <c r="E145" s="7" t="str">
         <v>武器名称</v>
       </c>
     </row>
-    <row customHeight="true" ht="19" r="146">
-      <c r="A146" s="4">
+    <row customHeight="true" ht="21" r="146">
+      <c r="A146" s="7">
         <v>50011</v>
       </c>
-      <c r="B146" s="5" t="str">
+      <c r="B146" s="15" t="str">
         <v>Weapon_WeaponName_10008</v>
       </c>
-      <c r="C146" s="2" t="str">
+      <c r="C146" s="3" t="str">
         <v>Dart (Fetter)</v>
       </c>
-      <c r="D146" s="6" t="str">
+      <c r="D146" s="16" t="str">
         <v>镖(桎)</v>
       </c>
-      <c r="E146" s="4" t="str">
+      <c r="E146" s="7" t="str">
         <v>武器名称</v>
       </c>
     </row>
-    <row customHeight="true" ht="19" r="147">
-      <c r="A147" s="4">
+    <row customHeight="true" ht="21" r="147">
+      <c r="A147" s="7">
         <v>50012</v>
       </c>
-      <c r="B147" s="5" t="str">
+      <c r="B147" s="15" t="str">
         <v>Weapon_WeaponName_10009</v>
       </c>
-      <c r="C147" s="2" t="str">
+      <c r="C147" s="3" t="str">
         <v>Dart (Shatter)</v>
       </c>
-      <c r="D147" s="6" t="str">
+      <c r="D147" s="16" t="str">
         <v>镖(碎)</v>
       </c>
-      <c r="E147" s="4" t="str">
+      <c r="E147" s="7" t="str">
         <v>武器名称</v>
       </c>
     </row>
-    <row customHeight="true" ht="19" r="148">
-      <c r="A148" s="4">
+    <row customHeight="true" ht="21" r="148">
+      <c r="A148" s="7">
         <v>50013</v>
       </c>
-      <c r="B148" s="5" t="str">
+      <c r="B148" s="15" t="str">
         <v>Weapon_WeaponName_10010</v>
       </c>
-      <c r="C148" s="2" t="str">
+      <c r="C148" s="3" t="str">
         <v>Dart (Swirl)</v>
       </c>
-      <c r="D148" s="6" t="str">
+      <c r="D148" s="16" t="str">
         <v>镖(漩)</v>
       </c>
-      <c r="E148" s="4" t="str">
+      <c r="E148" s="7" t="str">
         <v>武器名称</v>
       </c>
     </row>
-    <row customHeight="true" ht="19" r="149">
-      <c r="A149" s="4">
+    <row customHeight="true" ht="21" r="149">
+      <c r="A149" s="7">
         <v>50014</v>
       </c>
-      <c r="B149" s="5" t="str">
+      <c r="B149" s="15" t="str">
         <v>Weapon_WeaponName_10011</v>
       </c>
-      <c r="C149" s="2" t="str">
+      <c r="C149" s="3" t="str">
         <v>Dart (Qi)</v>
       </c>
-      <c r="D149" s="6" t="str">
+      <c r="D149" s="16" t="str">
         <v>镖(气)</v>
       </c>
-      <c r="E149" s="4" t="str">
+      <c r="E149" s="7" t="str">
         <v>武器名称</v>
       </c>
     </row>
-    <row customHeight="true" ht="19" r="150">
-      <c r="A150" s="4">
+    <row customHeight="true" ht="21" r="150">
+      <c r="A150" s="7">
         <v>50015</v>
       </c>
-      <c r="B150" s="5" t="str">
+      <c r="B150" s="15" t="str">
         <v>Weapon_WeaponName_10012</v>
       </c>
-      <c r="C150" s="2" t="str">
+      <c r="C150" s="3" t="str">
         <v>Dart (Stirring)</v>
       </c>
-      <c r="D150" s="6" t="str">
+      <c r="D150" s="16" t="str">
         <v>镖(激荡)</v>
       </c>
-      <c r="E150" s="4" t="str">
+      <c r="E150" s="7" t="str">
         <v>武器名称</v>
       </c>
     </row>
-    <row customHeight="true" ht="19" r="151">
-      <c r="A151" s="4">
+    <row customHeight="true" ht="21" r="151">
+      <c r="A151" s="7">
         <v>50016</v>
       </c>
-      <c r="B151" s="5" t="str">
+      <c r="B151" s="15" t="str">
         <v>Weapon_WeaponName_10013</v>
       </c>
-      <c r="C151" s="2" t="str">
+      <c r="C151" s="3" t="str">
         <v>Dart (Seal)</v>
       </c>
-      <c r="D151" s="6" t="str">
+      <c r="D151" s="16" t="str">
         <v>镖(封印)</v>
       </c>
-      <c r="E151" s="4" t="str">
+      <c r="E151" s="7" t="str">
         <v>武器名称</v>
       </c>
     </row>
-    <row customHeight="true" ht="19" r="152">
-      <c r="A152" s="4">
+    <row customHeight="true" ht="21" r="152">
+      <c r="A152" s="7">
         <v>50017</v>
       </c>
-      <c r="B152" s="5" t="str">
+      <c r="B152" s="15" t="str">
         <v>Weapon_WeaponName_10014</v>
       </c>
-      <c r="C152" s="2" t="str">
+      <c r="C152" s="3" t="str">
         <v>Dart (Fate)</v>
       </c>
-      <c r="D152" s="6" t="str">
+      <c r="D152" s="16" t="str">
         <v>镖(轮回)</v>
       </c>
-      <c r="E152" s="4" t="str">
+      <c r="E152" s="7" t="str">
         <v>武器名称</v>
       </c>
     </row>
-    <row customHeight="true" ht="19" r="153">
-      <c r="A153" s="4">
+    <row customHeight="true" ht="21" r="153">
+      <c r="A153" s="7">
         <v>50018</v>
       </c>
-      <c r="B153" s="5" t="str">
+      <c r="B153" s="15" t="str">
         <v>Weapon_WeaponName_10015</v>
       </c>
-      <c r="C153" s="2" t="str">
+      <c r="C153" s="3" t="str">
         <v>Dogfish</v>
       </c>
-      <c r="D153" s="6" t="str">
+      <c r="D153" s="16" t="str">
         <v>狗鱼</v>
       </c>
-      <c r="E153" s="4" t="str">
+      <c r="E153" s="7" t="str">
         <v>武器名称</v>
       </c>
     </row>
-    <row customHeight="true" ht="19" r="154">
-      <c r="A154" s="4">
+    <row customHeight="true" ht="21" r="154">
+      <c r="A154" s="7">
         <v>50019</v>
       </c>
-      <c r="B154" s="5" t="str">
+      <c r="B154" s="15" t="str">
         <v>Weapon_WeaponName_10016</v>
       </c>
-      <c r="C154" s="2" t="str">
+      <c r="C154" s="3" t="str">
         <v>Hairy-nosed catfish</v>
       </c>
-      <c r="D154" s="6" t="str">
+      <c r="D154" s="16" t="str">
         <v>毛鼻鲶</v>
       </c>
-      <c r="E154" s="4" t="str">
+      <c r="E154" s="7" t="str">
         <v>武器名称</v>
       </c>
     </row>
-    <row customHeight="true" ht="19" r="155">
-      <c r="A155" s="4">
+    <row customHeight="true" ht="21" r="155">
+      <c r="A155" s="7">
         <v>50020</v>
       </c>
-      <c r="B155" s="5" t="str">
+      <c r="B155" s="15" t="str">
         <v>Weapon_WeaponName_10017</v>
       </c>
-      <c r="C155" s="2" t="str">
+      <c r="C155" s="3" t="str">
         <v>Goldfish</v>
       </c>
-      <c r="D155" s="6" t="str">
+      <c r="D155" s="16" t="str">
         <v>金鱼</v>
       </c>
-      <c r="E155" s="4" t="str">
+      <c r="E155" s="7" t="str">
         <v>武器名称</v>
       </c>
     </row>
-    <row customHeight="true" ht="19" r="156">
-      <c r="A156" s="4">
+    <row customHeight="true" ht="21" r="156">
+      <c r="A156" s="7">
         <v>50021</v>
       </c>
-      <c r="B156" s="5" t="str">
+      <c r="B156" s="15" t="str">
         <v>Weapon_WeaponName_10018</v>
       </c>
-      <c r="C156" s="2" t="str">
+      <c r="C156" s="3" t="str">
         <v>Tuna</v>
       </c>
-      <c r="D156" s="6" t="str">
+      <c r="D156" s="16" t="str">
         <v>金枪鱼</v>
       </c>
-      <c r="E156" s="4" t="str">
+      <c r="E156" s="7" t="str">
         <v>武器名称</v>
       </c>
     </row>
-    <row customHeight="true" ht="19" r="157">
-      <c r="A157" s="4">
+    <row customHeight="true" ht="21" r="157">
+      <c r="A157" s="7">
         <v>50022</v>
       </c>
-      <c r="B157" s="5" t="str">
+      <c r="B157" s="15" t="str">
         <v>Weapon_WeaponName_10019</v>
       </c>
-      <c r="C157" s="2" t="str">
+      <c r="C157" s="3" t="str">
         <v>Lobster</v>
       </c>
-      <c r="D157" s="6" t="str">
+      <c r="D157" s="16" t="str">
         <v>龙虾</v>
       </c>
-      <c r="E157" s="4" t="str">
+      <c r="E157" s="7" t="str">
         <v>武器名称</v>
       </c>
     </row>
-    <row customHeight="true" ht="19" r="158">
-      <c r="A158" s="4">
+    <row customHeight="true" ht="21" r="158">
+      <c r="A158" s="7">
         <v>50023</v>
       </c>
-      <c r="B158" s="5" t="str">
+      <c r="B158" s="15" t="str">
         <v>Weapon_WeaponName_10020</v>
       </c>
-      <c r="C158" s="2" t="str">
+      <c r="C158" s="3" t="str">
         <v>Oarfish</v>
       </c>
-      <c r="D158" s="6" t="str">
+      <c r="D158" s="16" t="str">
         <v>皇带鱼</v>
       </c>
-      <c r="E158" s="4" t="str">
+      <c r="E158" s="7" t="str">
         <v>武器名称</v>
       </c>
     </row>
-    <row customHeight="true" ht="19" r="159">
-      <c r="A159" s="4">
+    <row customHeight="true" ht="21" r="159">
+      <c r="A159" s="7">
         <v>50024</v>
       </c>
-      <c r="B159" s="5" t="str">
+      <c r="B159" s="15" t="str">
         <v>Weapon_WeaponName_10021</v>
       </c>
-      <c r="C159" s="2" t="str">
+      <c r="C159" s="3" t="str">
         <v>Miracle Conch</v>
       </c>
-      <c r="D159" s="6" t="str">
+      <c r="D159" s="16" t="str">
         <v>神奇海螺</v>
       </c>
-      <c r="E159" s="4" t="str">
+      <c r="E159" s="7" t="str">
         <v>武器名称</v>
       </c>
     </row>
-    <row customHeight="true" ht="19" r="160">
-      <c r="A160" s="4">
+    <row customHeight="true" ht="21" r="160">
+      <c r="A160" s="7">
         <v>50025</v>
       </c>
-      <c r="B160" s="5" t="str">
+      <c r="B160" s="15" t="str">
         <v>Weapon_WeaponName_10022</v>
       </c>
-      <c r="C160" s="2" t="str">
+      <c r="C160" s="3" t="str">
         <v>King Trident</v>
       </c>
-      <c r="D160" s="6" t="str">
+      <c r="D160" s="16" t="str">
         <v>海王三叉戟</v>
       </c>
-      <c r="E160" s="4" t="str">
+      <c r="E160" s="7" t="str">
         <v>武器名称</v>
       </c>
     </row>
-    <row customHeight="true" ht="19" r="161">
-      <c r="A161" s="4">
+    <row customHeight="true" ht="21" r="161">
+      <c r="A161" s="7">
         <v>50027</v>
       </c>
-      <c r="B161" s="26" t="str">
+      <c r="B161" s="3" t="str">
         <v>Lottery_Name_10001</v>
       </c>
-      <c r="C161" s="2" t="str">
+      <c r="C161" s="3" t="str">
         <v>Dart Weapon Box</v>
       </c>
-      <c r="D161" s="6" t="str">
+      <c r="D161" s="16" t="str">
         <v>飞镖武器箱</v>
       </c>
-      <c r="E161" s="4" t="str">
+      <c r="E161" s="7" t="str">
         <v>武器箱子名称</v>
       </c>
     </row>
-    <row customHeight="true" ht="19" r="162">
-      <c r="A162" s="4">
+    <row customHeight="true" ht="21" r="162">
+      <c r="A162" s="7">
         <v>50028</v>
       </c>
-      <c r="B162" s="26" t="str">
+      <c r="B162" s="3" t="str">
         <v>Lottery_Name_10002</v>
       </c>
-      <c r="C162" s="2" t="str">
+      <c r="C162" s="3" t="str">
         <v>Ocean Weapon Box</v>
       </c>
-      <c r="D162" s="6" t="str">
+      <c r="D162" s="16" t="str">
         <v>深海武器箱</v>
       </c>
-      <c r="E162" s="4" t="str">
+      <c r="E162" s="7" t="str">
         <v>武器箱子名称</v>
       </c>
     </row>
-    <row r="163">
-      <c r="A163" s="4">
+    <row customHeight="true" ht="21" r="163">
+      <c r="A163" s="7">
         <v>60001</v>
       </c>
-      <c r="B163" s="4" t="str">
+      <c r="B163" s="7" t="str">
         <v>AIData_AIName_90001</v>
       </c>
-      <c r="C163" s="2" t="str">
+      <c r="C163" s="3" t="str">
         <v>Creabhop</v>
       </c>
-      <c r="D163" s="2" t="str">
+      <c r="D163" s="3" t="str">
         <v>Creabhop</v>
       </c>
-      <c r="E163" s="4" t="str">
+      <c r="E163" s="7" t="str">
         <v>60000：AI数据表</v>
       </c>
     </row>
-    <row r="164">
-      <c r="A164" s="4">
+    <row customHeight="true" ht="21" r="164">
+      <c r="A164" s="7">
         <v>60002</v>
       </c>
-      <c r="B164" s="4" t="str">
+      <c r="B164" s="7" t="str">
         <v>AIData_AIName_90002</v>
       </c>
-      <c r="C164" s="2" t="str">
+      <c r="C164" s="3" t="str">
         <v>Rival</v>
       </c>
-      <c r="D164" s="2" t="str">
+      <c r="D164" s="3" t="str">
         <v>Rival</v>
       </c>
-      <c r="E164" s="4" t="str"/>
-    </row>
-    <row r="165">
-      <c r="A165" s="4">
+      <c r="E164" s="7" t="str"/>
+    </row>
+    <row customHeight="true" ht="21" r="165">
+      <c r="A165" s="7">
         <v>60003</v>
       </c>
-      <c r="B165" s="4" t="str">
+      <c r="B165" s="7" t="str">
         <v>AIData_AIName_90003</v>
       </c>
-      <c r="C165" s="2" t="str">
+      <c r="C165" s="3" t="str">
         <v>Ironpup</v>
       </c>
-      <c r="D165" s="2" t="str">
+      <c r="D165" s="3" t="str">
         <v>Ironpup</v>
       </c>
-      <c r="E165" s="4" t="str"/>
-    </row>
-    <row r="166">
-      <c r="A166" s="4">
+      <c r="E165" s="7" t="str"/>
+    </row>
+    <row customHeight="true" ht="21" r="166">
+      <c r="A166" s="7">
         <v>60004</v>
       </c>
-      <c r="B166" s="4" t="str">
+      <c r="B166" s="7" t="str">
         <v>AIData_AIName_90004</v>
       </c>
-      <c r="C166" s="2" t="str">
+      <c r="C166" s="3" t="str">
         <v>TonyXenos</v>
       </c>
-      <c r="D166" s="2" t="str">
+      <c r="D166" s="3" t="str">
         <v>TonyXenos</v>
       </c>
-      <c r="E166" s="4" t="str"/>
-    </row>
-    <row r="167">
-      <c r="A167" s="4">
+      <c r="E166" s="7" t="str"/>
+    </row>
+    <row customHeight="true" ht="21" r="167">
+      <c r="A167" s="7">
         <v>60005</v>
       </c>
-      <c r="B167" s="4" t="str">
+      <c r="B167" s="7" t="str">
         <v>AIData_AIName_90005</v>
       </c>
-      <c r="C167" s="2" t="str">
+      <c r="C167" s="3" t="str">
         <v>L8s</v>
       </c>
-      <c r="D167" s="2" t="str">
+      <c r="D167" s="3" t="str">
         <v>L8s</v>
       </c>
-      <c r="E167" s="4" t="str"/>
-    </row>
-    <row r="168">
-      <c r="A168" s="4">
+      <c r="E167" s="7" t="str"/>
+    </row>
+    <row customHeight="true" ht="21" r="168">
+      <c r="A168" s="7">
         <v>60006</v>
       </c>
-      <c r="B168" s="4" t="str">
+      <c r="B168" s="7" t="str">
         <v>AIData_AIName_90006</v>
       </c>
-      <c r="C168" s="2" t="str">
+      <c r="C168" s="3" t="str">
         <v>Crilm</v>
       </c>
-      <c r="D168" s="2" t="str">
+      <c r="D168" s="3" t="str">
         <v>Crilm</v>
       </c>
-      <c r="E168" s="4" t="str"/>
-    </row>
-    <row r="169">
-      <c r="A169" s="4">
+      <c r="E168" s="7" t="str"/>
+    </row>
+    <row customHeight="true" ht="21" r="169">
+      <c r="A169" s="7">
         <v>60007</v>
       </c>
-      <c r="B169" s="4" t="str">
+      <c r="B169" s="7" t="str">
         <v>AIData_AIName_90007</v>
       </c>
-      <c r="C169" s="2" t="str">
+      <c r="C169" s="3" t="str">
         <v>Himiko Toga</v>
       </c>
-      <c r="D169" s="2" t="str">
+      <c r="D169" s="3" t="str">
         <v>Himiko Toga</v>
       </c>
-      <c r="E169" s="4" t="str"/>
-    </row>
-    <row r="170">
-      <c r="A170" s="4">
+      <c r="E169" s="7" t="str"/>
+    </row>
+    <row customHeight="true" ht="21" r="170">
+      <c r="A170" s="7">
         <v>60008</v>
       </c>
-      <c r="B170" s="4" t="str">
+      <c r="B170" s="7" t="str">
         <v>AIData_AIName_90008</v>
       </c>
-      <c r="C170" s="2" t="str">
+      <c r="C170" s="3" t="str">
         <v>Rocco21</v>
       </c>
-      <c r="D170" s="2" t="str">
+      <c r="D170" s="3" t="str">
         <v>Rocco21</v>
       </c>
-      <c r="E170" s="4" t="str"/>
-    </row>
-    <row r="171">
-      <c r="A171" s="4">
+      <c r="E170" s="7" t="str"/>
+    </row>
+    <row customHeight="true" ht="21" r="171">
+      <c r="A171" s="7">
         <v>60009</v>
       </c>
-      <c r="B171" s="4" t="str">
+      <c r="B171" s="7" t="str">
         <v>AIData_AIName_90009</v>
       </c>
-      <c r="C171" s="2" t="str">
+      <c r="C171" s="3" t="str">
         <v>Elysian</v>
       </c>
-      <c r="D171" s="2" t="str">
+      <c r="D171" s="3" t="str">
         <v>Elysian</v>
       </c>
-      <c r="E171" s="4" t="str"/>
-    </row>
-    <row r="172">
-      <c r="A172" s="4">
+      <c r="E171" s="7" t="str"/>
+    </row>
+    <row customHeight="true" ht="21" r="172">
+      <c r="A172" s="7">
         <v>60010</v>
       </c>
-      <c r="B172" s="4" t="str">
+      <c r="B172" s="7" t="str">
         <v>AIData_AIName_90010</v>
       </c>
-      <c r="C172" s="2" t="str">
+      <c r="C172" s="3" t="str">
         <v>Bunny Rat</v>
       </c>
-      <c r="D172" s="2" t="str">
+      <c r="D172" s="3" t="str">
         <v>Bunny Rat</v>
       </c>
-      <c r="E172" s="4" t="str"/>
-    </row>
-    <row r="173">
-      <c r="A173" s="4">
+      <c r="E172" s="7" t="str"/>
+    </row>
+    <row customHeight="true" ht="21" r="173">
+      <c r="A173" s="7">
         <v>60011</v>
       </c>
-      <c r="B173" s="4" t="str">
+      <c r="B173" s="7" t="str">
         <v>AIData_AIName_90011</v>
       </c>
-      <c r="C173" s="2" t="str">
+      <c r="C173" s="3" t="str">
         <v>Zaptar</v>
       </c>
-      <c r="D173" s="2" t="str">
+      <c r="D173" s="3" t="str">
         <v>Zaptar</v>
       </c>
-      <c r="E173" s="4" t="str"/>
-    </row>
-    <row r="174">
-      <c r="A174" s="4">
+      <c r="E173" s="7" t="str"/>
+    </row>
+    <row customHeight="true" ht="21" r="174">
+      <c r="A174" s="7">
         <v>70001</v>
       </c>
-      <c r="B174" s="2" t="str">
+      <c r="B174" s="3" t="str">
         <v>Level_Name_10000</v>
       </c>
-      <c r="C174" s="2" t="str">
+      <c r="C174" s="3" t="str">
         <v>Hall</v>
       </c>
-      <c r="D174" s="2" t="str">
+      <c r="D174" s="3" t="str">
         <v>大厅</v>
       </c>
-      <c r="E174" s="4" t="str"/>
-    </row>
-    <row r="175">
-      <c r="A175" s="4">
+      <c r="E174" s="7" t="str"/>
+    </row>
+    <row customHeight="true" ht="21" r="175">
+      <c r="A175" s="7">
         <v>70002</v>
       </c>
-      <c r="B175" s="2" t="str">
+      <c r="B175" s="3" t="str">
         <v>Level_Name_10001</v>
       </c>
-      <c r="C175" s="2" t="str">
+      <c r="C175" s="3" t="str">
         <v>Lakeside Manssion</v>
       </c>
-      <c r="D175" s="2" t="str">
+      <c r="D175" s="3" t="str">
         <v>湖边别墅</v>
       </c>
-      <c r="E175" s="4" t="str">
+      <c r="E175" s="7" t="str">
         <v>关卡地图名称</v>
       </c>
     </row>
-    <row r="176">
-      <c r="A176" s="4">
+    <row customHeight="true" ht="21" r="176">
+      <c r="A176" s="7">
         <v>70003</v>
       </c>
-      <c r="B176" s="2" t="str">
+      <c r="B176" s="3" t="str">
         <v>Level_Name_10002</v>
       </c>
-      <c r="C176" s="2" t="str">
+      <c r="C176" s="3" t="str">
         <v>Forest Cortyard</v>
       </c>
-      <c r="D176" s="4" t="str">
+      <c r="D176" s="7" t="str">
         <v>林中庭院</v>
       </c>
-      <c r="E176" s="4" t="str">
+      <c r="E176" s="7" t="str">
         <v>关卡地图名称</v>
       </c>
     </row>
-    <row r="177">
-      <c r="A177" s="4">
+    <row customHeight="true" ht="21" r="177">
+      <c r="A177" s="7">
         <v>70004</v>
       </c>
-      <c r="B177" s="2" t="str">
+      <c r="B177" s="3" t="str">
         <v>Level_Name_10003</v>
       </c>
-      <c r="C177" s="2" t="str">
+      <c r="C177" s="3" t="str">
         <v>Abandoned Hospital</v>
       </c>
-      <c r="D177" s="2" t="str">
+      <c r="D177" s="3" t="str">
         <v>废弃医院</v>
       </c>
-      <c r="E177" s="4" t="str">
+      <c r="E177" s="7" t="str">
         <v>关卡地图名称</v>
       </c>
     </row>
-    <row r="178">
-      <c r="A178" s="4">
+    <row customHeight="true" ht="21" r="178">
+      <c r="A178" s="7">
         <v>80001</v>
       </c>
-      <c r="B178" s="2" t="str">
+      <c r="B178" s="3" t="str">
         <v>Item_Name_20001</v>
       </c>
-      <c r="C178" s="2" t="str">
+      <c r="C178" s="3" t="str">
         <v>Smoke</v>
       </c>
-      <c r="D178" s="4" t="str">
+      <c r="D178" s="7" t="str">
         <v>烟雾</v>
       </c>
-      <c r="E178" s="2" t="str">
+      <c r="E178" s="3" t="str">
         <v>拖尾道具</v>
       </c>
     </row>
-    <row r="179">
-      <c r="A179" s="4">
+    <row customHeight="true" ht="21" r="179">
+      <c r="A179" s="7">
         <v>80002</v>
       </c>
-      <c r="B179" s="2" t="str">
+      <c r="B179" s="3" t="str">
         <v>Item_Name_20002</v>
       </c>
-      <c r="C179" s="2" t="str">
+      <c r="C179" s="3" t="str">
         <v>Aura</v>
       </c>
-      <c r="D179" s="4" t="str">
+      <c r="D179" s="7" t="str">
         <v>紫电</v>
       </c>
-      <c r="E179" s="2" t="str">
+      <c r="E179" s="3" t="str">
         <v>拖尾道具</v>
       </c>
     </row>
-    <row r="180">
-      <c r="A180" s="4">
+    <row customHeight="true" ht="21" r="180">
+      <c r="A180" s="7">
         <v>80003</v>
       </c>
-      <c r="B180" s="2" t="str">
+      <c r="B180" s="3" t="str">
         <v>Item_Name_20003</v>
       </c>
-      <c r="C180" s="2" t="str">
+      <c r="C180" s="3" t="str">
         <v>Thunder</v>
       </c>
-      <c r="D180" s="4" t="str">
+      <c r="D180" s="7" t="str">
         <v>雷霆</v>
       </c>
-      <c r="E180" s="2" t="str">
+      <c r="E180" s="3" t="str">
         <v>拖尾道具</v>
       </c>
     </row>
-    <row r="181">
-      <c r="A181" s="4">
+    <row customHeight="true" ht="21" r="181">
+      <c r="A181" s="7">
         <v>80004</v>
       </c>
-      <c r="B181" s="2" t="str">
+      <c r="B181" s="3" t="str">
         <v>Item_Name_20004</v>
       </c>
-      <c r="C181" s="2" t="str">
+      <c r="C181" s="3" t="str">
         <v>Breeze</v>
       </c>
-      <c r="D181" s="4" t="str">
+      <c r="D181" s="7" t="str">
         <v>清风</v>
       </c>
-      <c r="E181" s="2" t="str">
+      <c r="E181" s="3" t="str">
         <v>拖尾道具</v>
       </c>
     </row>
-    <row r="182">
-      <c r="A182" s="4">
+    <row customHeight="true" ht="21" r="182">
+      <c r="A182" s="7">
         <v>80005</v>
       </c>
-      <c r="B182" s="2" t="str">
+      <c r="B182" s="3" t="str">
         <v>Item_Name_20005</v>
       </c>
-      <c r="C182" s="2" t="str">
+      <c r="C182" s="3" t="str">
         <v>Rainbow</v>
       </c>
-      <c r="D182" s="4" t="str">
+      <c r="D182" s="7" t="str">
         <v>虹彩</v>
       </c>
-      <c r="E182" s="2" t="str">
+      <c r="E182" s="3" t="str">
         <v>拖尾道具</v>
       </c>
     </row>
-    <row r="183">
-      <c r="A183" s="4">
+    <row customHeight="true" ht="21" r="183">
+      <c r="A183" s="7">
         <v>80006</v>
       </c>
-      <c r="B183" s="2" t="str">
+      <c r="B183" s="3" t="str">
         <v>Item_Name_20006</v>
       </c>
-      <c r="C183" s="2" t="str">
+      <c r="C183" s="3" t="str">
         <v>Dream</v>
       </c>
-      <c r="D183" s="4" t="str">
+      <c r="D183" s="7" t="str">
         <v>梦幻</v>
       </c>
-      <c r="E183" s="2" t="str">
+      <c r="E183" s="3" t="str">
         <v>拖尾道具</v>
       </c>
     </row>
-    <row r="184">
-      <c r="A184" s="4">
+    <row customHeight="true" ht="21" r="184">
+      <c r="A184" s="7">
         <v>80007</v>
       </c>
-      <c r="B184" s="2" t="str">
+      <c r="B184" s="3" t="str">
         <v>Item_Name_30001</v>
       </c>
-      <c r="C184" s="2" t="str">
+      <c r="C184" s="3" t="str">
         <v>Gentle Senpai</v>
       </c>
-      <c r="D184" s="2" t="str">
+      <c r="D184" s="3" t="str">
         <v>温柔学姐</v>
       </c>
-      <c r="E184" s="4" t="str">
+      <c r="E184" s="7" t="str">
         <v>套装名称</v>
       </c>
     </row>
-    <row r="185">
-      <c r="A185" s="4">
+    <row customHeight="true" ht="21" r="185">
+      <c r="A185" s="7">
         <v>80008</v>
       </c>
-      <c r="B185" s="2" t="str">
+      <c r="B185" s="3" t="str">
         <v>Item_Name_30002</v>
       </c>
-      <c r="C185" s="2" t="str">
+      <c r="C185" s="3" t="str">
         <v>Discipline Member</v>
       </c>
-      <c r="D185" s="4" t="str">
+      <c r="D185" s="7" t="str">
         <v>风纪委员</v>
       </c>
-      <c r="E185" s="4" t="str">
+      <c r="E185" s="7" t="str">
         <v>套装名称</v>
       </c>
     </row>
-    <row r="186">
-      <c r="A186" s="4">
+    <row customHeight="true" ht="21" r="186">
+      <c r="A186" s="7">
         <v>80009</v>
       </c>
-      <c r="B186" s="2" t="str">
+      <c r="B186" s="3" t="str">
         <v>Item_Name_30003</v>
       </c>
-      <c r="C186" s="2" t="str">
+      <c r="C186" s="3" t="str">
         <v>Bad Girl</v>
       </c>
-      <c r="D186" s="4" t="str">
+      <c r="D186" s="7" t="str">
         <v>不良少女</v>
       </c>
-      <c r="E186" s="4" t="str">
+      <c r="E186" s="7" t="str">
         <v>套装名称</v>
       </c>
     </row>
-    <row r="187">
-      <c r="A187" s="4">
+    <row customHeight="true" ht="21" r="187">
+      <c r="A187" s="7">
         <v>80010</v>
       </c>
-      <c r="B187" s="2" t="str">
+      <c r="B187" s="3" t="str">
         <v>Item_Name_30004</v>
       </c>
-      <c r="C187" s="2" t="str">
+      <c r="C187" s="3" t="str">
         <v>Korean Girl</v>
       </c>
-      <c r="D187" s="4" t="str">
+      <c r="D187" s="7" t="str">
         <v>韩式淑女</v>
       </c>
-      <c r="E187" s="4" t="str">
+      <c r="E187" s="7" t="str">
         <v>套装名称</v>
       </c>
     </row>
-    <row r="188">
-      <c r="A188" s="4">
+    <row customHeight="true" ht="21" r="188">
+      <c r="A188" s="7">
         <v>80011</v>
       </c>
-      <c r="B188" s="2" t="str">
+      <c r="B188" s="3" t="str">
         <v>Item_Name_30005</v>
       </c>
-      <c r="C188" s="2" t="str">
+      <c r="C188" s="3" t="str">
         <v>Cute School Girl</v>
       </c>
-      <c r="D188" s="4" t="str">
+      <c r="D188" s="7" t="str">
         <v>可爱学妹</v>
       </c>
-      <c r="E188" s="4" t="str">
+      <c r="E188" s="7" t="str">
         <v>套装名称</v>
       </c>
     </row>
-    <row r="189">
-      <c r="A189" s="4">
+    <row customHeight="true" ht="21" r="189">
+      <c r="A189" s="7">
         <v>80012</v>
       </c>
-      <c r="B189" s="2" t="str">
+      <c r="B189" s="3" t="str">
         <v>Item_Name_30006</v>
       </c>
-      <c r="C189" s="2" t="str">
+      <c r="C189" s="3" t="str">
         <v>Fantasy Girl</v>
       </c>
-      <c r="D189" s="4" t="str">
+      <c r="D189" s="7" t="str">
         <v>奇幻少女</v>
       </c>
-      <c r="E189" s="4" t="str">
+      <c r="E189" s="7" t="str">
         <v>套装名称</v>
       </c>
     </row>
-    <row r="190">
-      <c r="A190" s="4">
+    <row customHeight="true" ht="21" r="190">
+      <c r="A190" s="7">
         <v>80013</v>
       </c>
-      <c r="B190" s="2" t="str">
+      <c r="B190" s="3" t="str">
         <v>Item_Name_30007</v>
       </c>
-      <c r="C190" s="2" t="str">
+      <c r="C190" s="3" t="str">
         <v>Gentle Senior</v>
       </c>
-      <c r="D190" s="4" t="str">
+      <c r="D190" s="7" t="str">
         <v>温柔学长</v>
       </c>
-      <c r="E190" s="4" t="str">
+      <c r="E190" s="7" t="str">
         <v>套装名称</v>
       </c>
     </row>
-    <row r="191">
-      <c r="A191" s="4">
+    <row customHeight="true" ht="21" r="191">
+      <c r="A191" s="7">
         <v>80014</v>
       </c>
-      <c r="B191" s="2" t="str">
+      <c r="B191" s="3" t="str">
         <v>Item_Name_30008</v>
       </c>
-      <c r="C191" s="2" t="str">
+      <c r="C191" s="3" t="str">
         <v>Bad Boy</v>
       </c>
-      <c r="D191" s="4" t="str">
+      <c r="D191" s="7" t="str">
         <v>不良少年</v>
       </c>
-      <c r="E191" s="4" t="str">
+      <c r="E191" s="7" t="str">
         <v>套装名称</v>
       </c>
     </row>
-    <row r="192">
-      <c r="A192" s="4">
+    <row customHeight="true" ht="21" r="192">
+      <c r="A192" s="7">
         <v>80015</v>
       </c>
-      <c r="B192" s="2" t="str">
+      <c r="B192" s="3" t="str">
         <v>Item_Name_30009</v>
       </c>
-      <c r="C192" s="2" t="str">
+      <c r="C192" s="3" t="str">
         <v>Cheerleader</v>
       </c>
-      <c r="D192" s="2" t="str">
+      <c r="D192" s="3" t="str">
         <v>啦啦队长</v>
       </c>
-      <c r="E192" s="4" t="str">
+      <c r="E192" s="7" t="str">
         <v>套装名称</v>
       </c>
     </row>
-    <row r="193">
-      <c r="A193" s="4">
+    <row customHeight="true" ht="21" r="193">
+      <c r="A193" s="7">
         <v>80016</v>
       </c>
-      <c r="B193" s="2" t="str">
+      <c r="B193" s="3" t="str">
         <v>Item_Name_30010</v>
       </c>
-      <c r="C193" s="2" t="str">
+      <c r="C193" s="3" t="str">
         <v>Art Student</v>
       </c>
-      <c r="D193" s="2" t="str">
+      <c r="D193" s="3" t="str">
         <v>艺术生</v>
       </c>
-      <c r="E193" s="4" t="str">
+      <c r="E193" s="7" t="str">
         <v>套装名称</v>
       </c>
     </row>
-    <row r="194">
-      <c r="A194" s="4">
+    <row customHeight="true" ht="21" r="194">
+      <c r="A194" s="7">
         <v>80017</v>
       </c>
-      <c r="B194" s="2" t="str">
+      <c r="B194" s="3" t="str">
         <v>Item_Name_30011</v>
       </c>
-      <c r="C194" s="2" t="str">
+      <c r="C194" s="3" t="str">
         <v>Anime Girl</v>
       </c>
-      <c r="D194" s="2" t="str">
+      <c r="D194" s="3" t="str">
         <v>二次元少女</v>
       </c>
-      <c r="E194" s="4" t="str">
+      <c r="E194" s="7" t="str">
         <v>套装名称</v>
       </c>
     </row>
-    <row r="195">
-      <c r="A195" s="4">
+    <row customHeight="true" ht="21" r="195">
+      <c r="A195" s="7">
         <v>80018</v>
       </c>
-      <c r="B195" s="2" t="str">
+      <c r="B195" s="3" t="str">
         <v>Item_Name_30012</v>
       </c>
-      <c r="C195" s="2" t="str">
+      <c r="C195" s="3" t="str">
         <v>English Teacher</v>
       </c>
-      <c r="D195" s="2" t="str">
+      <c r="D195" s="3" t="str">
         <v>英语老师</v>
       </c>
-      <c r="E195" s="4" t="str">
+      <c r="E195" s="7" t="str">
         <v>套装名称</v>
       </c>
     </row>
-    <row r="196">
-      <c r="A196" s="4">
+    <row customHeight="true" ht="21" r="196">
+      <c r="A196" s="7">
         <v>80019</v>
       </c>
-      <c r="B196" s="2" t="str">
+      <c r="B196" s="3" t="str">
         <v>Item_Name_30013</v>
       </c>
-      <c r="C196" s="2" t="str">
+      <c r="C196" s="3" t="str">
         <v>Justice Boy</v>
       </c>
-      <c r="D196" s="2" t="str">
+      <c r="D196" s="3" t="str">
         <v>正义少年</v>
       </c>
-      <c r="E196" s="4" t="str">
+      <c r="E196" s="7" t="str">
         <v>套装名称</v>
       </c>
     </row>
-    <row r="197">
-      <c r="A197" s="4">
+    <row customHeight="true" ht="21" r="197">
+      <c r="A197" s="7">
         <v>80020</v>
       </c>
-      <c r="B197" s="2" t="str">
+      <c r="B197" s="3" t="str">
         <v>Item_Name_30014</v>
       </c>
-      <c r="C197" s="2" t="str">
+      <c r="C197" s="3" t="str">
         <v>Trendy Girl</v>
       </c>
-      <c r="D197" s="2" t="str">
+      <c r="D197" s="3" t="str">
         <v>潮流少女</v>
       </c>
-      <c r="E197" s="4" t="str">
+      <c r="E197" s="7" t="str">
         <v>套装名称</v>
       </c>
     </row>
-    <row r="198">
-      <c r="A198" s="4">
+    <row customHeight="true" ht="21" r="198">
+      <c r="A198" s="7">
         <v>80021</v>
       </c>
-      <c r="B198" s="2" t="str">
+      <c r="B198" s="3" t="str">
         <v>Item_Name_30015</v>
       </c>
-      <c r="C198" s="2" t="str">
+      <c r="C198" s="3" t="str">
         <v>Student President</v>
       </c>
-      <c r="D198" s="4" t="str">
+      <c r="D198" s="7" t="str">
         <v>学生会长</v>
       </c>
-      <c r="E198" s="4" t="str">
+      <c r="E198" s="7" t="str">
         <v>套装名称</v>
       </c>
     </row>
-    <row r="199">
-      <c r="A199" s="4">
+    <row customHeight="true" ht="21" r="199">
+      <c r="A199" s="7">
         <v>80022</v>
       </c>
-      <c r="B199" s="2" t="str">
+      <c r="B199" s="3" t="str">
         <v>Item_Name_30016</v>
       </c>
-      <c r="C199" s="2" t="str">
+      <c r="C199" s="3" t="str">
         <v>Female Teacher</v>
       </c>
-      <c r="D199" s="4" t="str">
+      <c r="D199" s="7" t="str">
         <v>女老师</v>
       </c>
-      <c r="E199" s="4" t="str">
+      <c r="E199" s="7" t="str">
         <v>套装名称</v>
       </c>
     </row>
-    <row r="200">
-      <c r="A200" s="4">
+    <row customHeight="true" ht="21" r="200">
+      <c r="A200" s="7">
         <v>80023</v>
       </c>
-      <c r="B200" s="2" t="str">
+      <c r="B200" s="3" t="str">
         <v>Item_Name_30017</v>
       </c>
-      <c r="C200" s="2" t="str">
+      <c r="C200" s="3" t="str">
         <v>Class Monitor</v>
       </c>
-      <c r="D200" s="4" t="str">
+      <c r="D200" s="7" t="str">
         <v>班主任</v>
       </c>
-      <c r="E200" s="4" t="str">
+      <c r="E200" s="7" t="str">
         <v>套装名称</v>
       </c>
     </row>
-    <row r="201">
-      <c r="A201" s="4">
+    <row customHeight="true" ht="21" r="201">
+      <c r="A201" s="7">
         <v>80024</v>
       </c>
-      <c r="B201" s="2" t="str">
+      <c r="B201" s="3" t="str">
         <v>Item_Name_30018</v>
       </c>
-      <c r="C201" s="2" t="str">
+      <c r="C201" s="3" t="str">
         <v>Sea Girl</v>
       </c>
-      <c r="D201" s="4" t="str">
+      <c r="D201" s="7" t="str">
         <v>海边姐姐</v>
       </c>
-      <c r="E201" s="4" t="str">
+      <c r="E201" s="7" t="str">
         <v>套装名称</v>
       </c>
     </row>
-    <row r="202">
-      <c r="A202" s="4">
+    <row customHeight="true" ht="21" r="202">
+      <c r="A202" s="7">
         <v>80025</v>
       </c>
-      <c r="B202" s="2" t="str">
+      <c r="B202" s="3" t="str">
         <v>Item_Name_30019</v>
       </c>
-      <c r="C202" s="2" t="str">
+      <c r="C202" s="3" t="str">
         <v>Girl Next Door</v>
       </c>
-      <c r="D202" s="4" t="str">
+      <c r="D202" s="7" t="str">
         <v>邻家妹妹</v>
       </c>
-      <c r="E202" s="4" t="str">
+      <c r="E202" s="7" t="str">
         <v>套装名称</v>
       </c>
     </row>
-    <row r="203">
-      <c r="A203" s="4">
+    <row customHeight="true" ht="21" r="203">
+      <c r="A203" s="7">
         <v>80026</v>
       </c>
-      <c r="B203" s="2" t="str">
+      <c r="B203" s="3" t="str">
         <v>Item_Name_30020</v>
       </c>
-      <c r="C203" s="2" t="str">
+      <c r="C203" s="3" t="str">
         <v>Fitness Coach</v>
       </c>
-      <c r="D203" s="4" t="str">
+      <c r="D203" s="7" t="str">
         <v>健身教练</v>
       </c>
-      <c r="E203" s="4" t="str">
+      <c r="E203" s="7" t="str">
         <v>套装名称</v>
       </c>
     </row>
-    <row r="204">
-      <c r="A204" s="4">
+    <row customHeight="true" ht="21" r="204">
+      <c r="A204" s="7">
         <v>80027</v>
       </c>
-      <c r="B204" s="2" t="str">
+      <c r="B204" s="3" t="str">
         <v>Item_Name_30021</v>
       </c>
-      <c r="C204" s="2" t="str">
+      <c r="C204" s="3" t="str">
         <v>Elegant Girl</v>
       </c>
-      <c r="D204" s="4" t="str">
+      <c r="D204" s="7" t="str">
         <v>优雅少女</v>
       </c>
-      <c r="E204" s="4" t="str">
+      <c r="E204" s="7" t="str">
         <v>套装名称</v>
       </c>
     </row>
-    <row r="205">
-      <c r="A205" s="4">
+    <row customHeight="true" ht="21" r="205">
+      <c r="A205" s="7">
         <v>80028</v>
       </c>
-      <c r="B205" s="2" t="str">
+      <c r="B205" s="3" t="str">
         <v>Item_Name_30022</v>
       </c>
-      <c r="C205" s="2" t="str">
+      <c r="C205" s="3" t="str">
         <v>The Adventurer</v>
       </c>
-      <c r="D205" s="4" t="str">
+      <c r="D205" s="7" t="str">
         <v>探险家</v>
       </c>
-      <c r="E205" s="4" t="str">
+      <c r="E205" s="7" t="str">
         <v>套装名称</v>
       </c>
     </row>
-    <row r="206">
-      <c r="A206" s="4">
+    <row customHeight="true" ht="21" r="206">
+      <c r="A206" s="7">
         <v>80029</v>
       </c>
-      <c r="B206" s="2" t="str">
+      <c r="B206" s="3" t="str">
         <v>Item_Name_30023</v>
       </c>
-      <c r="C206" s="2" t="str">
+      <c r="C206" s="3" t="str">
         <v>Chinese Student</v>
       </c>
-      <c r="D206" s="4" t="str">
+      <c r="D206" s="7" t="str">
         <v>民国学生</v>
       </c>
-      <c r="E206" s="4" t="str">
+      <c r="E206" s="7" t="str">
         <v>套装名称</v>
       </c>
     </row>
-    <row r="207">
-      <c r="A207" s="4">
+    <row customHeight="true" ht="21" r="207">
+      <c r="A207" s="7">
         <v>80030</v>
       </c>
-      <c r="B207" s="2" t="str">
+      <c r="B207" s="3" t="str">
         <v>Item_Name_30024</v>
       </c>
-      <c r="C207" s="2" t="str">
+      <c r="C207" s="3" t="str">
         <v>Cocoa Girl</v>
       </c>
-      <c r="D207" s="4" t="str">
+      <c r="D207" s="7" t="str">
         <v>可可少女</v>
       </c>
-      <c r="E207" s="4" t="str">
+      <c r="E207" s="7" t="str">
         <v>套装名称</v>
       </c>
     </row>
-    <row r="208">
-      <c r="A208" s="4">
+    <row customHeight="true" ht="21" r="208">
+      <c r="A208" s="7">
         <v>80031</v>
       </c>
-      <c r="B208" s="2" t="str">
+      <c r="B208" s="3" t="str">
         <v>Item_Name_30025</v>
       </c>
-      <c r="C208" s="2" t="str">
+      <c r="C208" s="3" t="str">
         <v>Cat Shopkeeper</v>
       </c>
-      <c r="D208" s="4" t="str">
+      <c r="D208" s="7" t="str">
         <v>猫猫店员</v>
       </c>
-      <c r="E208" s="4" t="str">
+      <c r="E208" s="7" t="str">
         <v>套装名称</v>
       </c>
     </row>
-    <row r="209">
-      <c r="A209" s="4">
+    <row customHeight="true" ht="21" r="209">
+      <c r="A209" s="7">
         <v>80032</v>
       </c>
-      <c r="B209" s="2" t="str">
+      <c r="B209" s="3" t="str">
         <v>Item_Name_30026</v>
       </c>
-      <c r="C209" s="2" t="str">
+      <c r="C209" s="3" t="str">
         <v>Sweet Maid</v>
       </c>
-      <c r="D209" s="4" t="str">
+      <c r="D209" s="7" t="str">
         <v>女仆甜心</v>
       </c>
-      <c r="E209" s="4" t="str">
+      <c r="E209" s="7" t="str">
         <v>套装名称</v>
       </c>
     </row>
-    <row r="210">
-      <c r="A210" s="4">
+    <row customHeight="true" ht="21" r="210">
+      <c r="A210" s="7">
         <v>80033</v>
       </c>
-      <c r="B210" s="2" t="str">
+      <c r="B210" s="3" t="str">
         <v>Item_Name_30027</v>
       </c>
-      <c r="C210" s="2" t="str">
+      <c r="C210" s="3" t="str">
         <v>Cat-eared Maid</v>
       </c>
-      <c r="D210" s="4" t="str">
+      <c r="D210" s="7" t="str">
         <v>猫耳女仆</v>
       </c>
-      <c r="E210" s="4" t="str">
+      <c r="E210" s="7" t="str">
         <v>套装名称</v>
       </c>
     </row>
-    <row r="211">
-      <c r="A211" s="4">
+    <row customHeight="true" ht="21" r="211">
+      <c r="A211" s="7">
         <v>80034</v>
       </c>
-      <c r="B211" s="2" t="str">
+      <c r="B211" s="3" t="str">
         <v>Item_Name_30028</v>
       </c>
-      <c r="C211" s="2" t="str">
+      <c r="C211" s="3" t="str">
         <v>Girl Idol</v>
       </c>
-      <c r="D211" s="4" t="str">
+      <c r="D211" s="7" t="str">
         <v>少女偶像</v>
       </c>
-      <c r="E211" s="4" t="str">
+      <c r="E211" s="7" t="str">
         <v>套装名称</v>
       </c>
     </row>
-    <row r="212">
-      <c r="A212" s="4">
+    <row customHeight="true" ht="21" r="212">
+      <c r="A212" s="7">
         <v>80035</v>
       </c>
-      <c r="B212" s="2" t="str">
+      <c r="B212" s="3" t="str">
         <v>Item_Name_30029</v>
       </c>
-      <c r="C212" s="2" t="str">
+      <c r="C212" s="3" t="str">
         <v>Christmas Girl</v>
       </c>
-      <c r="D212" s="4" t="str">
+      <c r="D212" s="7" t="str">
         <v>圣诞少女</v>
       </c>
-      <c r="E212" s="4" t="str">
+      <c r="E212" s="7" t="str">
         <v>套装名称</v>
       </c>
     </row>
-    <row r="213">
-      <c r="A213" s="4">
+    <row customHeight="true" ht="21" r="213">
+      <c r="A213" s="7">
         <v>80036</v>
       </c>
-      <c r="B213" s="2" t="str">
+      <c r="B213" s="3" t="str">
         <v>Item_Name_20007</v>
       </c>
-      <c r="C213" s="2" t="str">
+      <c r="C213" s="3" t="str">
         <v>Flame</v>
       </c>
-      <c r="D213" s="4" t="str">
+      <c r="D213" s="7" t="str">
         <v>火焰</v>
       </c>
-      <c r="E213" s="4" t="str">
+      <c r="E213" s="7" t="str">
         <v>拖尾道具</v>
       </c>
     </row>
-    <row r="214">
-      <c r="A214" s="4">
+    <row customHeight="true" ht="21" r="214">
+      <c r="A214" s="7">
         <v>80037</v>
       </c>
-      <c r="B214" s="2" t="str">
+      <c r="B214" s="3" t="str">
         <v>Item_Name_20008</v>
       </c>
-      <c r="C214" s="2" t="str">
+      <c r="C214" s="3" t="str">
         <v>Witch</v>
       </c>
-      <c r="D214" s="4" t="str">
+      <c r="D214" s="7" t="str">
         <v>女巫</v>
       </c>
-      <c r="E214" s="4" t="str">
+      <c r="E214" s="7" t="str">
         <v>拖尾道具</v>
       </c>
     </row>
-    <row r="215">
-      <c r="A215" s="4">
+    <row customHeight="true" ht="21" r="215">
+      <c r="A215" s="7">
         <v>80038</v>
       </c>
-      <c r="B215" s="2" t="str">
+      <c r="B215" s="3" t="str">
         <v>Item_Name_20009</v>
       </c>
-      <c r="C215" s="2" t="str">
+      <c r="C215" s="3" t="str">
         <v>Knight</v>
       </c>
-      <c r="D215" s="4" t="str">
+      <c r="D215" s="7" t="str">
         <v>骑士</v>
       </c>
-      <c r="E215" s="4" t="str">
+      <c r="E215" s="7" t="str">
         <v>拖尾道具</v>
       </c>
     </row>
-    <row r="216">
-      <c r="A216" s="4">
+    <row customHeight="true" ht="21" r="216">
+      <c r="A216" s="7">
         <v>80039</v>
       </c>
-      <c r="B216" s="2" t="str">
+      <c r="B216" s="3" t="str">
         <v>Item_Name_20010</v>
       </c>
-      <c r="C216" s="2" t="str">
+      <c r="C216" s="3" t="str">
         <v>Demon</v>
       </c>
-      <c r="D216" s="4" t="str">
+      <c r="D216" s="7" t="str">
         <v>恶魔</v>
       </c>
-      <c r="E216" s="4" t="str">
+      <c r="E216" s="7" t="str">
         <v>拖尾道具</v>
       </c>
     </row>
-    <row r="217">
-      <c r="A217" s="4">
+    <row customHeight="true" ht="21" r="217">
+      <c r="A217" s="7">
         <v>80040</v>
       </c>
-      <c r="B217" s="2" t="str">
+      <c r="B217" s="3" t="str">
         <v>Item_Name_20011</v>
       </c>
-      <c r="C217" s="2" t="str">
+      <c r="C217" s="3" t="str">
         <v>Devil</v>
       </c>
-      <c r="D217" s="4" t="str">
+      <c r="D217" s="7" t="str">
         <v>魔鬼</v>
       </c>
-      <c r="E217" s="4" t="str">
+      <c r="E217" s="7" t="str">
         <v>拖尾道具</v>
       </c>
     </row>
-    <row r="218">
-      <c r="A218" s="7">
+    <row customHeight="true" ht="21" r="218">
+      <c r="A218" s="1">
         <v>90001</v>
       </c>
-      <c r="B218" s="20" t="str">
+      <c r="B218" s="22" t="str">
         <v>Chat_chat_1</v>
       </c>
-      <c r="C218" s="9" t="str">
+      <c r="C218" s="1" t="str">
         <v>I am {1}!</v>
       </c>
-      <c r="D218" s="38" t="str">
+      <c r="D218" s="34" t="str">
         <v>我是{1}~</v>
       </c>
-      <c r="E218" s="7"/>
-    </row>
-    <row r="219">
-      <c r="A219" s="7">
+      <c r="E218" s="1"/>
+    </row>
+    <row customHeight="true" ht="21" r="219">
+      <c r="A219" s="1">
         <v>90002</v>
       </c>
-      <c r="B219" s="20" t="str">
+      <c r="B219" s="22" t="str">
         <v>Chat_chat_2</v>
       </c>
-      <c r="C219" s="9" t="str">
+      <c r="C219" s="1" t="str">
         <v>Who is the murderer?</v>
       </c>
-      <c r="D219" s="19" t="str">
+      <c r="D219" s="23" t="str">
         <v>凶手是谁？</v>
       </c>
-      <c r="E219" s="7" t="str"/>
-    </row>
-    <row r="220">
-      <c r="A220" s="7">
+      <c r="E219" s="1" t="str"/>
+    </row>
+    <row customHeight="true" ht="21" r="220">
+      <c r="A220" s="1">
         <v>90003</v>
       </c>
-      <c r="B220" s="20" t="str">
+      <c r="B220" s="22" t="str">
         <v>Chat_chat_3</v>
       </c>
-      <c r="C220" s="9" t="str">
+      <c r="C220" s="1" t="str">
         <v>Help!</v>
       </c>
-      <c r="D220" s="19" t="str">
+      <c r="D220" s="23" t="str">
         <v>救命！</v>
       </c>
-      <c r="E220" s="7" t="str"/>
-    </row>
-    <row r="221">
-      <c r="A221" s="7">
+      <c r="E220" s="1" t="str"/>
+    </row>
+    <row customHeight="true" ht="21" r="221">
+      <c r="A221" s="1">
         <v>90004</v>
       </c>
-      <c r="B221" s="20" t="str">
+      <c r="B221" s="22" t="str">
         <v>Chat_chat_4</v>
       </c>
-      <c r="C221" s="9" t="str">
+      <c r="C221" s="1" t="str">
         <v>Thank you!</v>
       </c>
-      <c r="D221" s="19" t="str">
+      <c r="D221" s="23" t="str">
         <v>谢谢你！</v>
       </c>
-      <c r="E221" s="7" t="str"/>
-    </row>
-    <row r="222">
-      <c r="A222" s="7">
+      <c r="E221" s="1" t="str"/>
+    </row>
+    <row customHeight="true" ht="21" r="222">
+      <c r="A222" s="1">
         <v>90005</v>
       </c>
-      <c r="B222" s="20" t="str">
+      <c r="B222" s="22" t="str">
         <v>Chat_chat_5</v>
       </c>
-      <c r="C222" s="9" t="str">
+      <c r="C222" s="1" t="str">
         <v>Hello!</v>
       </c>
-      <c r="D222" s="42" t="str">
+      <c r="D222" s="2" t="str">
         <v>你好！</v>
       </c>
-      <c r="E222" s="7" t="str"/>
-    </row>
-    <row r="223">
-      <c r="A223" s="7">
+      <c r="E222" s="1" t="str"/>
+    </row>
+    <row customHeight="true" ht="21" r="223">
+      <c r="A223" s="1">
         <v>90006</v>
       </c>
-      <c r="B223" s="20" t="str">
+      <c r="B223" s="22" t="str">
         <v>Chat_chat_6</v>
       </c>
-      <c r="C223" s="9" t="str">
+      <c r="C223" s="1" t="str">
         <v>Don't kill me :(((</v>
       </c>
-      <c r="D223" s="19" t="str">
+      <c r="D223" s="23" t="str">
         <v>别刀我QAQ</v>
       </c>
-      <c r="E223" s="7" t="str">
+      <c r="E223" s="1" t="str">
         <v>QAQ希望也本地化一下，换成欧美比较熟悉的颜表情</v>
       </c>
     </row>
-    <row r="224">
-      <c r="A224" s="7">
+    <row customHeight="true" ht="21" r="224">
+      <c r="A224" s="1">
         <v>90007</v>
       </c>
-      <c r="B224" s="20" t="str">
+      <c r="B224" s="22" t="str">
         <v>Chat_chat_7</v>
       </c>
-      <c r="C224" s="9" t="str">
+      <c r="C224" s="1" t="str">
         <v>Stay away from me!</v>
       </c>
-      <c r="D224" s="19" t="str">
+      <c r="D224" s="23" t="str">
         <v>退！退！退！</v>
       </c>
-      <c r="E224" s="7"/>
-    </row>
-    <row r="225">
-      <c r="A225" s="7">
+      <c r="E224" s="1"/>
+    </row>
+    <row customHeight="true" ht="21" r="225">
+      <c r="A225" s="1">
         <v>90008</v>
       </c>
-      <c r="B225" s="20" t="str">
+      <c r="B225" s="22" t="str">
         <v>Chat_chat_8</v>
       </c>
-      <c r="C225" s="9" t="str">
+      <c r="C225" s="1" t="str">
         <v>Perfect!</v>
       </c>
-      <c r="D225" s="19" t="str">
+      <c r="D225" s="23" t="str">
         <v>满分操作~</v>
       </c>
-      <c r="E225" s="7" t="str"/>
-    </row>
-    <row r="226">
-      <c r="A226" s="7">
+      <c r="E225" s="1" t="str"/>
+    </row>
+    <row customHeight="true" ht="21" r="226">
+      <c r="A226" s="1">
         <v>90009</v>
       </c>
-      <c r="B226" s="20" t="str">
+      <c r="B226" s="22" t="str">
         <v>Chat_chat_9</v>
       </c>
-      <c r="C226" s="9" t="str">
+      <c r="C226" s="1" t="str">
         <v>Show time!</v>
       </c>
-      <c r="D226" s="19" t="str">
+      <c r="D226" s="23" t="str">
         <v>我要开始表演了~</v>
       </c>
-      <c r="E226" s="7" t="str"/>
-    </row>
-    <row r="227">
-      <c r="A227" s="7">
+      <c r="E226" s="1" t="str"/>
+    </row>
+    <row customHeight="true" ht="21" r="227">
+      <c r="A227" s="1">
         <v>90010</v>
       </c>
-      <c r="B227" s="8" t="str">
+      <c r="B227" s="9" t="str">
         <v>Text_Content_20042</v>
       </c>
-      <c r="C227" s="9" t="str">
+      <c r="C227" s="1" t="str">
         <v>Student</v>
       </c>
-      <c r="D227" s="7" t="str">
+      <c r="D227" s="1" t="str">
         <v>学生</v>
       </c>
-      <c r="E227" s="7" t="str"/>
-    </row>
-    <row r="228">
-      <c r="A228" s="7">
+      <c r="E227" s="1" t="str"/>
+    </row>
+    <row customHeight="true" ht="21" r="228">
+      <c r="A228" s="1">
         <v>90011</v>
       </c>
-      <c r="B228" s="8" t="str">
+      <c r="B228" s="9" t="str">
         <v>Text_Content_20043</v>
       </c>
-      <c r="C228" s="9" t="str">
+      <c r="C228" s="1" t="str">
         <v>Detective</v>
       </c>
-      <c r="D228" s="7" t="str">
+      <c r="D228" s="1" t="str">
         <v>侦探</v>
       </c>
-      <c r="E228" s="7" t="str"/>
-    </row>
-    <row r="229">
-      <c r="A229" s="7">
+      <c r="E228" s="1" t="str"/>
+    </row>
+    <row customHeight="true" ht="21" r="229">
+      <c r="A229" s="1">
         <v>90012</v>
       </c>
-      <c r="B229" s="8" t="str">
+      <c r="B229" s="9" t="str">
         <v>Text_Content_20044</v>
       </c>
-      <c r="C229" s="9" t="str">
+      <c r="C229" s="1" t="str">
         <v>Murderer</v>
       </c>
-      <c r="D229" s="7" t="str">
+      <c r="D229" s="1" t="str">
         <v>凶手</v>
       </c>
-      <c r="E229" s="7" t="str"/>
-    </row>
-    <row r="230">
-      <c r="A230" s="7">
+      <c r="E229" s="1" t="str"/>
+    </row>
+    <row customHeight="true" ht="21" r="230">
+      <c r="A230" s="1">
         <v>90013</v>
       </c>
-      <c r="B230" s="8" t="str">
+      <c r="B230" s="9" t="str">
         <v>Text_Content_20036</v>
       </c>
-      <c r="C230" s="9" t="str">
+      <c r="C230" s="1" t="str">
         <v>1. The Murderer can attack in two ways
 2. In melee attack mode, you will auto wave knife when aproaching other players.
 3. An aming sign will appear when you are nearby a target. Tap the sign to attack.</v>
       </c>
-      <c r="D230" s="7" t="str">
+      <c r="D230" s="1" t="str">
         <v>1.凶手有近战穿刺、远程飞刀两种方式，可以自由切换
 2.在近战状态下，靠近其他玩家并面向他们，就可以自动挥刀击杀
 3.在远程状态下，附近有可攻击的目标时，会出现瞄准标志，点击标志即可扔出飞刀</v>
       </c>
-      <c r="E230" s="7" t="str">
+      <c r="E230" s="1" t="str">
         <v>文本长度尽量和中文一致</v>
       </c>
     </row>
-    <row r="231">
-      <c r="A231" s="7">
+    <row customHeight="true" ht="21" r="231">
+      <c r="A231" s="1">
         <v>90014</v>
       </c>
-      <c r="B231" s="8" t="str">
+      <c r="B231" s="9" t="str">
         <v>Text_Content_20037</v>
       </c>
-      <c r="C231" s="9" t="str">
+      <c r="C231" s="1" t="str">
         <v>1. The detective can shoot in two ways.
 2. An aming sign will appear when holding the gun nearby a target. Tap the sign to fire.
 3. Also, you can tap any position to fire at.</v>
       </c>
-      <c r="D231" s="7" t="str">
+      <c r="D231" s="1" t="str">
         <v>1.侦探可以开枪进行射击，有两种射击方法
 2.在持枪状态下，附近有可攻击目标时，会出现瞄准标志，点击标志即可发射子弹
 3.除此之外，持枪状态下点击任意位置都可以发射子弹哦~</v>
       </c>
-      <c r="E231" s="7" t="str">
+      <c r="E231" s="1" t="str">
         <v>文本长度尽量和中文一致</v>
       </c>
     </row>
-    <row r="232">
-      <c r="A232" s="7">
+    <row customHeight="true" ht="21" r="232">
+      <c r="A232" s="1">
         <v>90015</v>
       </c>
-      <c r="B232" s="8" t="str">
+      <c r="B232" s="9" t="str">
         <v>Text_Content_20038</v>
       </c>
-      <c r="C232" s="9" t="str">
+      <c r="C232" s="1" t="str">
         <v>1. If you are a murderer/detective, try not to reveal your identity.
 2. Don't trust anyone who tries to get close to you, they are dangerous, always stay alert.
 3. If you are a student, try to survive!</v>
       </c>
-      <c r="D232" s="7" t="str">
+      <c r="D232" s="1" t="str">
         <v>1.如果你是杀手/侦探，请尽量不要暴露自己的身份
 2.不要相信任何试图靠近你的人，他们很危险，时刻保持警惕
 3.假如你是平民，那么努力活下来吧</v>
       </c>
-      <c r="E232" s="7" t="str">
+      <c r="E232" s="1" t="str">
         <v>文本长度尽量和中文一致</v>
       </c>
     </row>
-    <row r="233">
-      <c r="A233" s="7">
+    <row customHeight="true" ht="21" r="233">
+      <c r="A233" s="1">
         <v>90016</v>
       </c>
-      <c r="B233" s="8" t="str">
+      <c r="B233" s="9" t="str">
         <v>Text_Content_20039</v>
       </c>
-      <c r="C233" s="9" t="str">
+      <c r="C233" s="1" t="str">
         <v>Murderer Tutorial</v>
       </c>
-      <c r="D233" s="7" t="str">
+      <c r="D233" s="1" t="str">
         <v>凶手教学</v>
       </c>
-      <c r="E233" s="7" t="str"/>
-    </row>
-    <row r="234">
-      <c r="A234" s="7">
+      <c r="E233" s="1" t="str"/>
+    </row>
+    <row customHeight="true" ht="21" r="234">
+      <c r="A234" s="1">
         <v>90017</v>
       </c>
-      <c r="B234" s="8" t="str">
+      <c r="B234" s="9" t="str">
         <v>Text_Content_20040</v>
       </c>
-      <c r="C234" s="9" t="str">
+      <c r="C234" s="1" t="str">
         <v>Detective Tutorial</v>
       </c>
-      <c r="D234" s="7" t="str">
+      <c r="D234" s="1" t="str">
         <v>侦探教学</v>
       </c>
-      <c r="E234" s="7" t="str"/>
-    </row>
-    <row r="235">
-      <c r="A235" s="7">
+      <c r="E234" s="1" t="str"/>
+    </row>
+    <row customHeight="true" ht="21" r="235">
+      <c r="A235" s="1">
         <v>90018</v>
       </c>
-      <c r="B235" s="8" t="str">
+      <c r="B235" s="9" t="str">
         <v>Text_Content_20041</v>
       </c>
-      <c r="C235" s="9" t="str">
+      <c r="C235" s="1" t="str">
         <v>Tips</v>
       </c>
-      <c r="D235" s="7" t="str">
+      <c r="D235" s="1" t="str">
         <v>温馨提示</v>
       </c>
-      <c r="E235" s="7" t="str"/>
-    </row>
-    <row r="236">
-      <c r="A236" s="7">
+      <c r="E235" s="1" t="str"/>
+    </row>
+    <row customHeight="true" ht="21" r="236">
+      <c r="A236" s="1">
         <v>90019</v>
       </c>
-      <c r="B236" s="15" t="str">
+      <c r="B236" s="2" t="str">
         <v>Tips_Content_20009</v>
       </c>
-      <c r="C236" s="9" t="str">
+      <c r="C236" s="1" t="str">
         <v>The murderer defeated you.</v>
       </c>
-      <c r="D236" s="36" t="str">
+      <c r="D236" s="10" t="str">
         <v>凶手淘汰了你</v>
       </c>
-      <c r="E236" s="7" t="str"/>
-    </row>
-    <row r="237">
-      <c r="A237" s="7">
+      <c r="E236" s="1" t="str"/>
+    </row>
+    <row customHeight="true" ht="21" r="237">
+      <c r="A237" s="1">
         <v>90020</v>
       </c>
-      <c r="B237" s="15" t="str">
+      <c r="B237" s="2" t="str">
         <v>Tips_Content_20010</v>
       </c>
-      <c r="C237" s="9" t="str">
+      <c r="C237" s="1" t="str">
         <v>Wrong target, you're eliminated.</v>
       </c>
-      <c r="D237" s="36" t="str">
+      <c r="D237" s="10" t="str">
         <v>目标错误，你被淘汰了</v>
       </c>
-      <c r="E237" s="7" t="str"/>
-    </row>
-    <row r="238">
-      <c r="A238" s="7">
+      <c r="E237" s="1" t="str"/>
+    </row>
+    <row customHeight="true" ht="21" r="238">
+      <c r="A238" s="1">
         <v>90021</v>
       </c>
-      <c r="B238" s="15" t="str">
+      <c r="B238" s="2" t="str">
         <v>Tips_Content_20011</v>
       </c>
-      <c r="C238" s="9" t="str">
+      <c r="C238" s="1" t="str">
         <v>You have been eliminated by the detective.</v>
       </c>
-      <c r="D238" s="36" t="str">
+      <c r="D238" s="10" t="str">
         <v>已被正义的警探消灭</v>
       </c>
-      <c r="E238" s="7" t="str"/>
-    </row>
-    <row r="239">
-      <c r="A239" s="7">
+      <c r="E238" s="1" t="str"/>
+    </row>
+    <row customHeight="true" ht="21" r="239">
+      <c r="A239" s="1">
         <v>90022</v>
       </c>
-      <c r="B239" s="15" t="str">
+      <c r="B239" s="2" t="str">
         <v>Text_Content_12027</v>
       </c>
-      <c r="C239" s="9" t="str">
+      <c r="C239" s="1" t="str">
         <v>Power Store</v>
       </c>
-      <c r="D239" s="9" t="str">
+      <c r="D239" s="1" t="str">
         <v>能力商店</v>
       </c>
-      <c r="E239" s="7" t="str"/>
-    </row>
-    <row r="240">
-      <c r="A240" s="7">
+      <c r="E239" s="1" t="str"/>
+    </row>
+    <row customHeight="true" ht="21" r="240">
+      <c r="A240" s="1">
         <v>90023</v>
       </c>
-      <c r="B240" s="15" t="str">
+      <c r="B240" s="2" t="str">
         <v>Text_Content_12028</v>
       </c>
-      <c r="C240" s="9" t="str">
+      <c r="C240" s="1" t="str">
         <v>Power Details</v>
       </c>
-      <c r="D240" s="9" t="str">
+      <c r="D240" s="1" t="str">
         <v>能力详情</v>
       </c>
-      <c r="E240" s="7" t="str"/>
-    </row>
-    <row r="241">
-      <c r="A241" s="7">
+      <c r="E240" s="1" t="str"/>
+    </row>
+    <row customHeight="true" ht="21" r="241">
+      <c r="A241" s="1">
         <v>90024</v>
       </c>
-      <c r="B241" s="15" t="str">
+      <c r="B241" s="2" t="str">
         <v>Text_Content_12029</v>
       </c>
-      <c r="C241" s="9" t="str">
+      <c r="C241" s="1" t="str">
         <v>Equip</v>
       </c>
-      <c r="D241" s="9" t="str">
+      <c r="D241" s="1" t="str">
         <v>装备</v>
       </c>
-      <c r="E241" s="7" t="str">
+      <c r="E241" s="1" t="str">
         <v>动词</v>
       </c>
     </row>
-    <row r="242">
-      <c r="A242" s="7">
+    <row customHeight="true" ht="21" r="242">
+      <c r="A242" s="1">
         <v>90025</v>
       </c>
-      <c r="B242" s="15" t="str">
+      <c r="B242" s="2" t="str">
         <v>Text_Content_12030</v>
       </c>
-      <c r="C242" s="9" t="str">
+      <c r="C242" s="1" t="str">
         <v>Remove</v>
       </c>
-      <c r="D242" s="9" t="str">
+      <c r="D242" s="1" t="str">
         <v>卸下</v>
       </c>
-      <c r="E242" s="7" t="str"/>
-    </row>
-    <row r="243">
-      <c r="A243" s="7">
+      <c r="E242" s="1" t="str"/>
+    </row>
+    <row customHeight="true" ht="21" r="243">
+      <c r="A243" s="1">
         <v>90026</v>
       </c>
-      <c r="B243" s="15" t="str">
+      <c r="B243" s="2" t="str">
         <v>Text_Content_12031</v>
       </c>
-      <c r="C243" s="9" t="str">
+      <c r="C243" s="1" t="str">
         <v>Coin Purchase</v>
       </c>
-      <c r="D243" s="9" t="str">
+      <c r="D243" s="1" t="str">
         <v>金币购买</v>
       </c>
-      <c r="E243" s="7" t="str"/>
-    </row>
-    <row r="244">
-      <c r="A244" s="7">
+      <c r="E243" s="1" t="str"/>
+    </row>
+    <row customHeight="true" ht="21" r="244">
+      <c r="A244" s="1">
         <v>90027</v>
       </c>
-      <c r="B244" s="15" t="str">
+      <c r="B244" s="2" t="str">
         <v>Text_Content_12032</v>
       </c>
-      <c r="C244" s="9" t="str">
+      <c r="C244" s="1" t="str">
         <v>Diamond Purchase</v>
       </c>
-      <c r="D244" s="9" t="str">
+      <c r="D244" s="1" t="str">
         <v>钻石购买</v>
       </c>
-      <c r="E244" s="7" t="str"/>
-    </row>
-    <row r="245">
-      <c r="A245" s="7">
+      <c r="E244" s="1" t="str"/>
+    </row>
+    <row customHeight="true" ht="21" r="245">
+      <c r="A245" s="1">
         <v>90028</v>
       </c>
-      <c r="B245" s="15" t="str">
+      <c r="B245" s="2" t="str">
         <v>Text_Content_12033</v>
       </c>
-      <c r="C245" s="9" t="str">
+      <c r="C245" s="1" t="str">
         <v>Equipped</v>
       </c>
-      <c r="D245" s="9" t="str">
+      <c r="D245" s="1" t="str">
         <v>装备中</v>
       </c>
-      <c r="E245" s="7" t="str">
+      <c r="E245" s="1" t="str">
         <v>指“已装备”</v>
       </c>
     </row>
-    <row r="246">
-      <c r="A246" s="7">
+    <row customHeight="true" ht="21" r="246">
+      <c r="A246" s="1">
         <v>90029</v>
       </c>
-      <c r="B246" s="15" t="str">
+      <c r="B246" s="2" t="str">
         <v>Text_Content_12034</v>
       </c>
-      <c r="C246" s="9" t="str">
+      <c r="C246" s="1" t="str">
         <v>Owned</v>
       </c>
-      <c r="D246" s="9" t="str">
+      <c r="D246" s="1" t="str">
         <v>已拥有</v>
       </c>
-      <c r="E246" s="7" t="str"/>
-    </row>
-    <row r="247">
-      <c r="A247" s="7">
+      <c r="E246" s="1" t="str"/>
+    </row>
+    <row customHeight="true" ht="21" r="247">
+      <c r="A247" s="1">
         <v>90030</v>
       </c>
-      <c r="B247" s="15" t="str">
+      <c r="B247" s="2" t="str">
         <v>Tips_Content_10011</v>
       </c>
-      <c r="C247" s="9" t="str">
+      <c r="C247" s="1" t="str">
         <v>Purchase successfully!</v>
       </c>
-      <c r="D247" s="9" t="str">
+      <c r="D247" s="1" t="str">
         <v>购买成功</v>
       </c>
-      <c r="E247" s="7" t="str"/>
-    </row>
-    <row r="248">
-      <c r="A248" s="7">
+      <c r="E247" s="1" t="str"/>
+    </row>
+    <row customHeight="true" ht="21" r="248">
+      <c r="A248" s="1">
         <v>90031</v>
       </c>
-      <c r="B248" s="15" t="str">
+      <c r="B248" s="2" t="str">
         <v>Tips_Content_10012</v>
       </c>
-      <c r="C248" s="9" t="str">
+      <c r="C248" s="1" t="str">
         <v>Purchase failed</v>
       </c>
-      <c r="D248" s="26" t="str">
+      <c r="D248" s="3" t="str">
         <v>货币不足，再攒攒吧~</v>
       </c>
-      <c r="E248" s="7" t="str"/>
-    </row>
-    <row r="249">
-      <c r="A249" s="7">
+      <c r="E248" s="1" t="str"/>
+    </row>
+    <row customHeight="true" ht="21" r="249">
+      <c r="A249" s="1">
         <v>90032</v>
       </c>
-      <c r="B249" s="13" t="str">
+      <c r="B249" s="8" t="str">
         <v>SkillShop_Name_10001</v>
       </c>
-      <c r="C249" s="9" t="str">
+      <c r="C249" s="1" t="str">
         <v>Killer Pace</v>
       </c>
-      <c r="D249" s="13" t="str">
+      <c r="D249" s="8" t="str">
         <v>杀手步伐</v>
       </c>
-      <c r="E249" s="7" t="str">
+      <c r="E249" s="1" t="str">
         <v>杀手的特殊能力名称</v>
       </c>
     </row>
-    <row r="250">
-      <c r="A250" s="7">
+    <row customHeight="true" ht="21" r="250">
+      <c r="A250" s="1">
         <v>90033</v>
       </c>
-      <c r="B250" s="13" t="str">
+      <c r="B250" s="8" t="str">
         <v>SkillShop_Name_10002</v>
       </c>
-      <c r="C250" s="9" t="str">
+      <c r="C250" s="1" t="str">
         <v>Quick Throw</v>
       </c>
-      <c r="D250" s="13" t="str">
+      <c r="D250" s="8" t="str">
         <v>快速投掷</v>
       </c>
-      <c r="E250" s="7" t="str">
+      <c r="E250" s="1" t="str">
         <v>杀手的特殊能力名称</v>
       </c>
     </row>
-    <row r="251">
-      <c r="A251" s="7">
+    <row customHeight="true" ht="21" r="251">
+      <c r="A251" s="1">
         <v>90034</v>
       </c>
-      <c r="B251" s="13" t="str">
+      <c r="B251" s="8" t="str">
         <v>SkillShop_Name_10003</v>
       </c>
-      <c r="C251" s="9" t="str">
+      <c r="C251" s="1" t="str">
         <v>Explosive Knife</v>
       </c>
-      <c r="D251" s="13" t="str">
+      <c r="D251" s="8" t="str">
         <v>爆炸飞刀</v>
       </c>
-      <c r="E251" s="7" t="str">
+      <c r="E251" s="1" t="str">
         <v>杀手的特殊能力名称</v>
       </c>
     </row>
-    <row r="252">
-      <c r="A252" s="7">
+    <row customHeight="true" ht="21" r="252">
+      <c r="A252" s="1">
         <v>90035</v>
       </c>
-      <c r="B252" s="13" t="str">
+      <c r="B252" s="8" t="str">
         <v>SkillShop_Description_10001</v>
       </c>
-      <c r="C252" s="9" t="str">
+      <c r="C252" s="1" t="str">
         <v>[Murderer's Passive Ability] When you pull out your knife, your movement speed is increased by 10% faster than usual.</v>
       </c>
-      <c r="D252" s="13" t="str">
+      <c r="D252" s="8" t="str">
         <v>【杀手被动能力】
 当你掏出你的刀时，你的移动速度会比平时更快，提升10％</v>
       </c>
-      <c r="E252" s="7" t="str"/>
-    </row>
-    <row r="253">
-      <c r="A253" s="7">
+      <c r="E252" s="1" t="str"/>
+    </row>
+    <row customHeight="true" ht="21" r="253">
+      <c r="A253" s="1">
         <v>90036</v>
       </c>
-      <c r="B253" s="13" t="str">
+      <c r="B253" s="8" t="str">
         <v>SkillShop_Description_10002</v>
       </c>
-      <c r="C253" s="9" t="str">
+      <c r="C253" s="1" t="str">
         <v>[Murderer's Passive Ability] Now your thrown flying knives will fly faster, boosted by 100%!</v>
       </c>
-      <c r="D253" s="13" t="str">
+      <c r="D253" s="8" t="str">
         <v>【杀手被动能力】
 现在你扔出的飞刀会飞得更快，提升100％</v>
       </c>
-      <c r="E253" s="7" t="str"/>
-    </row>
-    <row r="254">
-      <c r="A254" s="7">
+      <c r="E253" s="1" t="str"/>
+    </row>
+    <row customHeight="true" ht="21" r="254">
+      <c r="A254" s="1">
         <v>90037</v>
       </c>
-      <c r="B254" s="13" t="str">
+      <c r="B254" s="8" t="str">
         <v>SkillShop_Description_10003</v>
       </c>
-      <c r="C254" s="9" t="str">
+      <c r="C254" s="1" t="str">
         <v>[Murderer Passive Ability] When your throwing knife hits a target, instead of immediately dealing damage to the target, it plants a bomb. The bomb will explode after a small delay and deal damage to players around a certain range.</v>
       </c>
-      <c r="D254" s="13" t="str">
+      <c r="D254" s="8" t="str">
         <v>【杀手被动能力】
 当你的飞刀命中目标时，不会立即对目标造成伤害，而是在目标处埋下一颗炸弹，延迟一小段时间后会爆炸，并对周围一定范围内的玩家同样造成伤害</v>
       </c>
-      <c r="E254" s="7" t="str"/>
-    </row>
-    <row r="255">
-      <c r="A255" s="7">
+      <c r="E254" s="1" t="str"/>
+    </row>
+    <row customHeight="true" ht="21" r="255">
+      <c r="A255" s="1">
         <v>90038</v>
       </c>
-      <c r="B255" s="15" t="str">
+      <c r="B255" s="2" t="str">
         <v>Shop_Name_40001</v>
       </c>
-      <c r="C255" s="9" t="str">
+      <c r="C255" s="1" t="str">
         <v>Skibidi Rainbow Toilet</v>
       </c>
-      <c r="D255" s="16" t="str">
+      <c r="D255" s="14" t="str">
         <v>彩虹马桶人</v>
       </c>
-      <c r="E255" s="7" t="str">
+      <c r="E255" s="1" t="str">
         <v>马桶人是外网热梗，就叫skibidi toilet</v>
       </c>
     </row>
-    <row r="256">
-      <c r="A256" s="7">
+    <row customHeight="true" ht="21" r="256">
+      <c r="A256" s="1">
         <v>90039</v>
       </c>
-      <c r="B256" s="15" t="str">
+      <c r="B256" s="2" t="str">
         <v>Shop_Name_40002</v>
       </c>
-      <c r="C256" s="9" t="str">
+      <c r="C256" s="1" t="str">
         <v>Skibidi Princess Toilet</v>
       </c>
-      <c r="D256" s="16" t="str">
+      <c r="D256" s="14" t="str">
         <v>公主马桶人</v>
       </c>
-      <c r="E256" s="7" t="str">
+      <c r="E256" s="1" t="str">
         <v>马桶人是外网热梗，就叫skibidi toilet</v>
       </c>
     </row>
-    <row r="257">
-      <c r="A257" s="7">
+    <row customHeight="true" ht="21" r="257">
+      <c r="A257" s="1">
         <v>90040</v>
       </c>
-      <c r="B257" s="15" t="str">
+      <c r="B257" s="2" t="str">
         <v>Shop_Name_40003</v>
       </c>
-      <c r="C257" s="9" t="str">
+      <c r="C257" s="1" t="str">
         <v>Skibidi Space Toilet</v>
       </c>
-      <c r="D257" s="16" t="str">
+      <c r="D257" s="14" t="str">
         <v>太空马桶人</v>
       </c>
-      <c r="E257" s="7" t="str">
+      <c r="E257" s="1" t="str">
         <v>马桶人是外网热梗，就叫skibidi toilet</v>
       </c>
     </row>
-    <row r="258">
-      <c r="A258" s="7">
+    <row customHeight="true" ht="21" r="258">
+      <c r="A258" s="1">
         <v>90041</v>
       </c>
-      <c r="B258" s="15" t="str">
+      <c r="B258" s="2" t="str">
         <v>Shop_Name_40004</v>
       </c>
-      <c r="C258" s="9" t="str">
+      <c r="C258" s="1" t="str">
         <v>Skibidi Spider Toilet</v>
       </c>
-      <c r="D258" s="16" t="str">
+      <c r="D258" s="14" t="str">
         <v>蜘蛛马桶人</v>
       </c>
-      <c r="E258" s="7" t="str">
+      <c r="E258" s="1" t="str">
         <v>马桶人是外网热梗，就叫skibidi toilet</v>
       </c>
     </row>
-    <row r="259">
-      <c r="A259" s="7">
+    <row customHeight="true" ht="21" r="259">
+      <c r="A259" s="1">
         <v>90042</v>
       </c>
-      <c r="B259" s="15" t="str">
+      <c r="B259" s="2" t="str">
         <v>Shop_Name_40005</v>
       </c>
-      <c r="C259" s="9" t="str">
+      <c r="C259" s="1" t="str">
         <v>Cameraman</v>
       </c>
-      <c r="D259" s="16" t="str">
+      <c r="D259" s="14" t="str">
         <v>监控人</v>
       </c>
-      <c r="E259" s="7" t="str">
+      <c r="E259" s="1" t="str">
         <v>马桶人系列，就叫这个</v>
       </c>
     </row>
-    <row r="260">
-      <c r="A260" s="7">
+    <row customHeight="true" ht="21" r="260">
+      <c r="A260" s="1">
         <v>90043</v>
       </c>
-      <c r="B260" s="15" t="str">
+      <c r="B260" s="2" t="str">
         <v>Shop_Name_40006</v>
       </c>
-      <c r="C260" s="9" t="str">
+      <c r="C260" s="1" t="str">
         <v>Speakerman</v>
       </c>
-      <c r="D260" s="16" t="str">
+      <c r="D260" s="14" t="str">
         <v>音响人</v>
       </c>
-      <c r="E260" s="7" t="str">
+      <c r="E260" s="1" t="str">
         <v>马桶人系列，就叫这个</v>
       </c>
     </row>
-    <row r="261">
-      <c r="A261" s="7">
+    <row customHeight="true" ht="21" r="261">
+      <c r="A261" s="1">
         <v>90044</v>
       </c>
-      <c r="B261" s="15" t="str">
+      <c r="B261" s="2" t="str">
         <v>Shop_Name_40007</v>
       </c>
-      <c r="C261" s="9" t="str">
+      <c r="C261" s="1" t="str">
         <v>TV Man</v>
       </c>
-      <c r="D261" s="16" t="str">
+      <c r="D261" s="14" t="str">
         <v>电视人</v>
       </c>
-      <c r="E261" s="7" t="str">
+      <c r="E261" s="1" t="str">
         <v>马桶人系列，就叫这个</v>
       </c>
     </row>
-    <row r="262">
-      <c r="A262" s="7">
+    <row customHeight="true" ht="21" r="262">
+      <c r="A262" s="1">
         <v>90045</v>
       </c>
-      <c r="B262" s="15" t="str">
+      <c r="B262" s="2" t="str">
         <v>Shop_Name_40008</v>
       </c>
-      <c r="C262" s="9" t="str">
+      <c r="C262" s="1" t="str">
         <v>Cartoon Speakerman</v>
       </c>
-      <c r="D262" s="16" t="str">
+      <c r="D262" s="14" t="str">
         <v>卡通音响人</v>
       </c>
-      <c r="E262" s="7" t="str"/>
-    </row>
-    <row r="263">
-      <c r="A263" s="7">
+      <c r="E262" s="1" t="str"/>
+    </row>
+    <row customHeight="true" ht="21" r="263">
+      <c r="A263" s="1">
         <v>90046</v>
       </c>
-      <c r="B263" s="15" t="str">
+      <c r="B263" s="2" t="str">
         <v>Shop_Name_40009</v>
       </c>
-      <c r="C263" s="9" t="str">
+      <c r="C263" s="1" t="str">
         <v>Cartoon TVman</v>
       </c>
-      <c r="D263" s="16" t="str">
+      <c r="D263" s="14" t="str">
         <v>卡通电视人</v>
       </c>
-      <c r="E263" s="7" t="str"/>
-    </row>
-    <row r="264">
-      <c r="A264" s="41">
+      <c r="E263" s="1" t="str"/>
+    </row>
+    <row customHeight="true" ht="21" r="264">
+      <c r="A264" s="31">
         <v>90047</v>
       </c>
-      <c r="B264" s="39" t="str">
+      <c r="B264" s="32" t="str">
         <v>Text_Content_10005</v>
       </c>
-      <c r="C264" s="9" t="str">
+      <c r="C264" s="1" t="str">
         <v>This update:
 1. New [Skibidi Toilet VS Cameraman] series of pendants, welcome to the shop!
 2. New [Power Store], the configuration of the murderer's special abilities is now available!
@@ -5502,7 +5391,7 @@
 4. Adjusted the lobby and level scenes to improve performance.
 5. New reset button, try to tap it when the camera stucks!</v>
       </c>
-      <c r="D264" s="40" t="str">
+      <c r="D264" s="31" t="str">
         <v>本次更新：
 1.新增【马桶人VS监控人】系列挂件，欢迎大家去商店选购~
 2.新增【能力商店】，开放杀手局内特殊能力的配置
@@ -5510,923 +5399,916 @@
 4.调整大厅及关卡场景，提升性能
 5.新增还原按钮，镜头卡住的时候点一下试试吧</v>
       </c>
-      <c r="E264" s="41" t="str">
+      <c r="E264" s="31" t="str">
         <v>马桶人是外网热梗，就叫skibidi toilet</v>
       </c>
     </row>
-    <row r="265">
-      <c r="A265" s="10">
+    <row customHeight="true" ht="21" r="265">
+      <c r="A265" s="28">
         <v>90048</v>
       </c>
-      <c r="B265" s="11" t="str">
+      <c r="B265" s="36" t="str">
         <v>Tips_Content_10013</v>
       </c>
-      <c r="C265" s="9" t="str">
+      <c r="C265" s="1" t="str">
         <v>A player fails to enter the scene, the game will restart.</v>
       </c>
-      <c r="D265" s="10" t="str">
+      <c r="D265" s="28" t="str">
         <v>有玩家进入场景失败，对局将重新开始</v>
       </c>
-      <c r="E265" s="10" t="str"/>
-    </row>
-    <row r="266">
-      <c r="A266" s="10">
+      <c r="E265" s="28" t="str"/>
+    </row>
+    <row customHeight="true" ht="21" r="266">
+      <c r="A266" s="28">
         <v>90049</v>
       </c>
-      <c r="B266" s="10" t="str">
+      <c r="B266" s="28" t="str">
         <v>Text_Content_10006</v>
       </c>
-      <c r="C266" s="2" t="str">
+      <c r="C266" s="3" t="str">
         <v>Jump</v>
       </c>
-      <c r="D266" s="10" t="str">
+      <c r="D266" s="28" t="str">
         <v>跳转</v>
       </c>
-      <c r="E266" s="10" t="str"/>
-    </row>
-    <row customHeight="true" ht="19" r="267">
-      <c r="A267" s="10">
+      <c r="E266" s="28" t="str"/>
+    </row>
+    <row customHeight="true" ht="21" r="267">
+      <c r="A267" s="28">
         <v>90050</v>
       </c>
-      <c r="B267" s="14" t="str">
+      <c r="B267" s="12" t="str">
         <v>Text_Content_20045</v>
       </c>
-      <c r="C267" s="2" t="str">
+      <c r="C267" s="3" t="str">
         <v>Pull out gun</v>
       </c>
-      <c r="D267" s="1" t="str">
+      <c r="D267" s="7" t="str">
         <v>掏出手枪</v>
       </c>
-      <c r="E267" s="10"/>
-    </row>
-    <row customHeight="true" ht="19" r="268">
-      <c r="A268" s="10">
+      <c r="E267" s="28"/>
+    </row>
+    <row customHeight="true" ht="21" r="268">
+      <c r="A268" s="28">
         <v>90051</v>
       </c>
-      <c r="B268" s="14" t="str">
+      <c r="B268" s="12" t="str">
         <v>Text_Content_20046</v>
       </c>
-      <c r="C268" s="2" t="str">
+      <c r="C268" s="3" t="str">
         <v>Put away gun</v>
       </c>
-      <c r="D268" s="1" t="str">
+      <c r="D268" s="7" t="str">
         <v>收起手枪</v>
       </c>
-      <c r="E268" s="10"/>
-    </row>
-    <row customHeight="true" ht="19" r="269">
-      <c r="A269" s="10">
+      <c r="E268" s="28"/>
+    </row>
+    <row customHeight="true" ht="21" r="269">
+      <c r="A269" s="28">
         <v>90052</v>
       </c>
-      <c r="B269" s="14" t="str">
+      <c r="B269" s="12" t="str">
         <v>Text_Content_20047</v>
       </c>
-      <c r="C269" s="2" t="str">
+      <c r="C269" s="3" t="str">
         <v>Aim Sign</v>
       </c>
-      <c r="D269" s="1" t="str">
+      <c r="D269" s="7" t="str">
         <v>准星图标</v>
       </c>
-      <c r="E269" s="10"/>
-    </row>
-    <row customHeight="true" ht="19" r="270">
-      <c r="A270" s="10">
+      <c r="E269" s="28"/>
+    </row>
+    <row customHeight="true" ht="21" r="270">
+      <c r="A270" s="28">
         <v>90053</v>
       </c>
-      <c r="B270" s="14" t="str">
+      <c r="B270" s="12" t="str">
         <v>Text_Content_20048</v>
       </c>
-      <c r="C270" s="2" t="str">
+      <c r="C270" s="3" t="str">
         <v>Melee mode</v>
       </c>
-      <c r="D270" s="1" t="str">
+      <c r="D270" s="7" t="str">
         <v>掏出近战匕首</v>
       </c>
-      <c r="E270" s="10"/>
-    </row>
-    <row customHeight="true" ht="19" r="271">
-      <c r="A271" s="10">
+      <c r="E270" s="28"/>
+    </row>
+    <row customHeight="true" ht="21" r="271">
+      <c r="A271" s="28">
         <v>90054</v>
       </c>
-      <c r="B271" s="14" t="str">
+      <c r="B271" s="12" t="str">
         <v>Text_Content_20049</v>
       </c>
-      <c r="C271" s="2" t="str">
+      <c r="C271" s="3" t="str">
         <v>Throwing mode</v>
       </c>
-      <c r="D271" s="1" t="str">
+      <c r="D271" s="7" t="str">
         <v>掏出远程飞刀</v>
       </c>
-      <c r="E271" s="10"/>
-    </row>
-    <row customHeight="true" ht="19" r="272">
-      <c r="A272" s="10">
+      <c r="E271" s="28"/>
+    </row>
+    <row customHeight="true" ht="21" r="272">
+      <c r="A272" s="28">
         <v>90055</v>
       </c>
-      <c r="B272" s="14" t="str">
+      <c r="B272" s="12" t="str">
         <v>Text_Content_20050</v>
       </c>
-      <c r="C272" s="2" t="str">
+      <c r="C272" s="3" t="str">
         <v>Put away knife</v>
       </c>
-      <c r="D272" s="1" t="str">
+      <c r="D272" s="7" t="str">
         <v>收起武器</v>
       </c>
-      <c r="E272" s="10"/>
-    </row>
-    <row r="273">
-      <c r="A273" s="10">
+      <c r="E272" s="28"/>
+    </row>
+    <row customHeight="true" ht="21" r="273">
+      <c r="A273" s="28">
         <v>90056</v>
       </c>
-      <c r="B273" s="14" t="str">
+      <c r="B273" s="12" t="str">
         <v>Text_Content_20051</v>
       </c>
-      <c r="C273" s="1" t="str">
+      <c r="C273" s="7" t="str">
         <v>A</v>
       </c>
-      <c r="D273" s="2" t="str">
+      <c r="D273" s="3" t="str">
         <v>暂无获取途径</v>
       </c>
     </row>
-    <row r="274">
-      <c r="A274" s="28">
+    <row customHeight="true" ht="21" r="274">
+      <c r="A274" s="21">
         <v>90057</v>
       </c>
-      <c r="B274" s="29" t="str">
+      <c r="B274" s="21" t="str">
         <v>Lottery_Name_10003</v>
       </c>
-      <c r="C274" s="30" t="str">
+      <c r="C274" s="20" t="str">
         <v>Sci-Fi Weapon Box</v>
       </c>
-      <c r="D274" s="30" t="str">
+      <c r="D274" s="20" t="str">
         <v>科幻武器箱</v>
       </c>
-      <c r="E274" s="28"/>
-    </row>
-    <row r="275">
-      <c r="A275" s="28">
+      <c r="E274" s="21"/>
+    </row>
+    <row customHeight="true" ht="21" r="275">
+      <c r="A275" s="21">
         <v>90058</v>
       </c>
-      <c r="B275" s="29" t="str">
+      <c r="B275" s="21" t="str">
         <v>Lottery_Name_10004</v>
       </c>
-      <c r="C275" s="30" t="str">
+      <c r="C275" s="20" t="str">
         <v>Myth Weapon Box</v>
       </c>
-      <c r="D275" s="30" t="str">
+      <c r="D275" s="20" t="str">
         <v>神话武器箱</v>
       </c>
-      <c r="E275" s="28"/>
-    </row>
-    <row r="276">
-      <c r="A276" s="2">
+      <c r="E275" s="21"/>
+    </row>
+    <row customHeight="true" ht="21" r="276">
+      <c r="A276" s="3">
         <v>90059</v>
       </c>
-      <c r="B276" s="22" t="str">
+      <c r="B276" s="18" t="str">
         <v>Weapon_WeaponName_20004</v>
       </c>
-      <c r="C276" s="1" t="str">
+      <c r="C276" s="7" t="str">
         <v>Gun of Singularity</v>
       </c>
-      <c r="D276" s="23" t="str">
+      <c r="D276" s="33" t="str">
         <v>奇点之枪</v>
       </c>
     </row>
-    <row r="277">
-      <c r="A277" s="2">
+    <row customHeight="true" ht="21" r="277">
+      <c r="A277" s="3">
         <v>90060</v>
       </c>
-      <c r="B277" s="22" t="str">
+      <c r="B277" s="18" t="str">
         <v>Weapon_WeaponName_10023</v>
       </c>
-      <c r="C277" s="2" t="str">
+      <c r="C277" s="3" t="str">
         <v>Staff of Imaginary</v>
       </c>
-      <c r="D277" s="21" t="str">
+      <c r="D277" s="30" t="str">
         <v>虚数之杖</v>
       </c>
     </row>
-    <row r="278">
-      <c r="A278" s="2">
+    <row customHeight="true" ht="21" r="278">
+      <c r="A278" s="3">
         <v>90061</v>
       </c>
-      <c r="B278" s="22" t="str">
+      <c r="B278" s="18" t="str">
         <v>Weapon_WeaponName_10024</v>
       </c>
-      <c r="C278" s="2" t="str">
+      <c r="C278" s="3" t="str">
         <v>Spectral Spear</v>
       </c>
-      <c r="D278" s="27" t="str">
+      <c r="D278" s="17" t="str">
         <v>光谱矛</v>
       </c>
     </row>
-    <row r="279">
-      <c r="A279" s="2">
+    <row customHeight="true" ht="21" r="279">
+      <c r="A279" s="3">
         <v>90062</v>
       </c>
-      <c r="B279" s="22" t="str">
+      <c r="B279" s="18" t="str">
         <v>Weapon_WeaponName_20005</v>
       </c>
-      <c r="C279" s="2" t="str">
+      <c r="C279" s="3" t="str">
         <v>Anti-Matter Gun</v>
       </c>
-      <c r="D279" s="27" t="str">
+      <c r="D279" s="17" t="str">
         <v>反物质枪</v>
       </c>
     </row>
-    <row r="280">
-      <c r="A280" s="2">
+    <row customHeight="true" ht="21" r="280">
+      <c r="A280" s="3">
         <v>90063</v>
       </c>
-      <c r="B280" s="22" t="str">
+      <c r="B280" s="18" t="str">
         <v>Weapon_WeaponName_10025</v>
       </c>
-      <c r="C280" s="2" t="str">
+      <c r="C280" s="3" t="str">
         <v>Spectral Blade</v>
       </c>
-      <c r="D280" s="27" t="str">
+      <c r="D280" s="17" t="str">
         <v>光谱剑</v>
       </c>
     </row>
-    <row r="281">
-      <c r="A281" s="2">
+    <row customHeight="true" ht="21" r="281">
+      <c r="A281" s="3">
         <v>90064</v>
       </c>
-      <c r="B281" s="22" t="str">
+      <c r="B281" s="18" t="str">
         <v>Weapon_WeaponName_10026</v>
       </c>
-      <c r="C281" s="2" t="str">
+      <c r="C281" s="3" t="str">
         <v>Spectral Blade (Ruby)</v>
       </c>
-      <c r="D281" s="27" t="str">
+      <c r="D281" s="17" t="str">
         <v>光谱剑(晶红)</v>
       </c>
     </row>
-    <row customHeight="true" ht="19" r="282">
-      <c r="A282" s="2">
+    <row customHeight="true" ht="21" r="282">
+      <c r="A282" s="3">
         <v>90065</v>
       </c>
-      <c r="B282" s="22" t="str">
+      <c r="B282" s="18" t="str">
         <v>Weapon_WeaponName_10027</v>
       </c>
-      <c r="C282" s="2" t="str">
+      <c r="C282" s="3" t="str">
         <v>Dagger (Simulacrum)</v>
       </c>
-      <c r="D282" s="27" t="str">
+      <c r="D282" s="17" t="str">
         <v>匕首(模拟)</v>
       </c>
     </row>
-    <row customHeight="true" ht="19" r="283">
-      <c r="A283" s="2">
+    <row customHeight="true" ht="21" r="283">
+      <c r="A283" s="3">
         <v>90066</v>
       </c>
-      <c r="B283" s="22" t="str">
+      <c r="B283" s="18" t="str">
         <v>Weapon_WeaponName_10028</v>
       </c>
-      <c r="C283" s="2" t="str">
+      <c r="C283" s="3" t="str">
         <v>Saber (Simulacrum)</v>
       </c>
-      <c r="D283" s="27" t="str">
+      <c r="D283" s="17" t="str">
         <v>军刀(模拟)</v>
       </c>
     </row>
-    <row customHeight="true" ht="19" r="284">
-      <c r="A284" s="2">
+    <row customHeight="true" ht="21" r="284">
+      <c r="A284" s="3">
         <v>90067</v>
       </c>
-      <c r="B284" s="22" t="str">
+      <c r="B284" s="18" t="str">
         <v>Weapon_WeaponName_20006</v>
       </c>
-      <c r="C284" s="2" t="str">
+      <c r="C284" s="3" t="str">
         <v>Revolver (Simulacrum)</v>
       </c>
-      <c r="D284" s="27" t="str">
+      <c r="D284" s="17" t="str">
         <v>左轮(模拟)</v>
       </c>
     </row>
-    <row customHeight="true" ht="19" r="285">
-      <c r="A285" s="2">
+    <row customHeight="true" ht="21" r="285">
+      <c r="A285" s="3">
         <v>90068</v>
       </c>
-      <c r="B285" s="22" t="str">
+      <c r="B285" s="18" t="str">
         <v>Weapon_WeaponName_20007</v>
       </c>
-      <c r="C285" s="2" t="str">
+      <c r="C285" s="3" t="str">
         <v>SMG (Simulacrum)</v>
       </c>
-      <c r="D285" s="27" t="str">
+      <c r="D285" s="17" t="str">
         <v>冲锋枪(模拟)</v>
       </c>
     </row>
-    <row customHeight="true" ht="19" r="286">
-      <c r="A286" s="2">
+    <row customHeight="true" ht="21" r="286">
+      <c r="A286" s="3">
         <v>90069</v>
       </c>
-      <c r="B286" s="24" t="str">
+      <c r="B286" s="4" t="str">
         <v>Weapon_WeaponName_10029</v>
       </c>
-      <c r="C286" s="2" t="str">
+      <c r="C286" s="3" t="str">
         <v>Storm Caller (Rune)</v>
       </c>
-      <c r="D286" s="25" t="str">
+      <c r="D286" s="5" t="str">
         <v>唤雷(符文)</v>
       </c>
     </row>
-    <row customHeight="true" ht="19" r="287">
-      <c r="A287" s="2">
+    <row customHeight="true" ht="21" r="287">
+      <c r="A287" s="3">
         <v>90070</v>
       </c>
-      <c r="B287" s="24" t="str">
+      <c r="B287" s="4" t="str">
         <v>Weapon_WeaponName_20008</v>
       </c>
-      <c r="C287" s="2" t="str">
+      <c r="C287" s="3" t="str">
         <v>Sun Seeker (Rune)</v>
       </c>
-      <c r="D287" s="25" t="str">
+      <c r="D287" s="5" t="str">
         <v>逐日(符文)</v>
       </c>
     </row>
-    <row customHeight="true" ht="19" r="288">
-      <c r="A288" s="2">
+    <row customHeight="true" ht="21" r="288">
+      <c r="A288" s="3">
         <v>90071</v>
       </c>
-      <c r="B288" s="24" t="str">
+      <c r="B288" s="4" t="str">
         <v>Weapon_WeaponName_10030</v>
       </c>
-      <c r="C288" s="2" t="str">
+      <c r="C288" s="3" t="str">
         <v>Hammer of Thor</v>
       </c>
-      <c r="D288" s="25" t="str">
+      <c r="D288" s="5" t="str">
         <v>雷神之锤</v>
       </c>
     </row>
-    <row customHeight="true" ht="19" r="289">
-      <c r="A289" s="2">
+    <row customHeight="true" ht="21" r="289">
+      <c r="A289" s="3">
         <v>90072</v>
       </c>
-      <c r="B289" s="24" t="str">
+      <c r="B289" s="4" t="str">
         <v>Weapon_WeaponName_20009</v>
       </c>
-      <c r="C289" s="2" t="str">
+      <c r="C289" s="3" t="str">
         <v>Blunderbuss</v>
       </c>
-      <c r="D289" s="25" t="str">
+      <c r="D289" s="5" t="str">
         <v>火铳</v>
       </c>
     </row>
-    <row customHeight="true" ht="19" r="290">
-      <c r="A290" s="2">
+    <row customHeight="true" ht="21" r="290">
+      <c r="A290" s="3">
         <v>90073</v>
       </c>
-      <c r="B290" s="24" t="str">
+      <c r="B290" s="4" t="str">
         <v>Weapon_WeaponName_10031</v>
       </c>
-      <c r="C290" s="2" t="str">
+      <c r="C290" s="3" t="str">
         <v>Bonespike Sword (Devine)</v>
       </c>
-      <c r="D290" s="25" t="str">
+      <c r="D290" s="5" t="str">
         <v>骨刺剑(圣)</v>
       </c>
     </row>
-    <row customHeight="true" ht="19" r="291">
-      <c r="A291" s="2">
+    <row customHeight="true" ht="21" r="291">
+      <c r="A291" s="3">
         <v>90074</v>
       </c>
-      <c r="B291" s="24" t="str">
+      <c r="B291" s="4" t="str">
         <v>Weapon_WeaponName_20010</v>
       </c>
-      <c r="C291" s="2" t="str">
+      <c r="C291" s="3" t="str">
         <v>Revolver (Devine)</v>
       </c>
-      <c r="D291" s="25" t="str">
+      <c r="D291" s="5" t="str">
         <v>左轮(圣)</v>
       </c>
     </row>
-    <row customHeight="true" ht="19" r="292">
-      <c r="A292" s="2">
+    <row customHeight="true" ht="21" r="292">
+      <c r="A292" s="3">
         <v>90075</v>
       </c>
-      <c r="B292" s="24" t="str">
+      <c r="B292" s="4" t="str">
         <v>Weapon_WeaponName_10032</v>
       </c>
-      <c r="C292" s="2" t="str">
+      <c r="C292" s="3" t="str">
         <v>Bonespike Sword (Love)</v>
       </c>
-      <c r="D292" s="25" t="str">
+      <c r="D292" s="5" t="str">
         <v>骨刺剑(恋)</v>
       </c>
     </row>
-    <row customHeight="true" ht="19" r="293">
-      <c r="A293" s="2">
+    <row customHeight="true" ht="21" r="293">
+      <c r="A293" s="3">
         <v>90076</v>
       </c>
-      <c r="B293" s="24" t="str">
+      <c r="B293" s="4" t="str">
         <v>Weapon_WeaponName_20011</v>
       </c>
-      <c r="C293" s="2" t="str">
+      <c r="C293" s="3" t="str">
         <v>Revolver (Love)</v>
       </c>
-      <c r="D293" s="25" t="str">
+      <c r="D293" s="5" t="str">
         <v>左轮(恋)</v>
       </c>
     </row>
-    <row customHeight="true" ht="19" r="294">
-      <c r="A294" s="2">
+    <row customHeight="true" ht="21" r="294">
+      <c r="A294" s="3">
         <v>90077</v>
       </c>
-      <c r="B294" s="24" t="str">
+      <c r="B294" s="4" t="str">
         <v>Weapon_WeaponName_10033</v>
       </c>
-      <c r="C294" s="2" t="str">
+      <c r="C294" s="3" t="str">
         <v>Bonespike Sword (Flame)</v>
       </c>
-      <c r="D294" s="25" t="str">
+      <c r="D294" s="5" t="str">
         <v>骨刺剑(炽)</v>
       </c>
     </row>
-    <row customHeight="true" ht="19" r="295">
-      <c r="A295" s="2">
+    <row customHeight="true" ht="21" r="295">
+      <c r="A295" s="3">
         <v>90078</v>
       </c>
-      <c r="B295" s="24" t="str">
+      <c r="B295" s="4" t="str">
         <v>Weapon_WeaponName_10034</v>
       </c>
-      <c r="C295" s="2" t="str">
+      <c r="C295" s="3" t="str">
         <v>Bonespike Sword (Frost)</v>
       </c>
-      <c r="D295" s="25" t="str">
+      <c r="D295" s="5" t="str">
         <v>骨刺剑(霜)</v>
       </c>
     </row>
-    <row customHeight="true" ht="19" r="296">
-      <c r="A296" s="2">
+    <row customHeight="true" ht="21" r="296">
+      <c r="A296" s="3">
         <v>90079</v>
       </c>
-      <c r="B296" s="32" t="str">
+      <c r="B296" s="25" t="str">
         <v>Weapon_WeaponName_10035</v>
       </c>
-      <c r="C296" s="2" t="str">
+      <c r="C296" s="3" t="str">
         <v>Sakura</v>
       </c>
-      <c r="D296" s="35" t="str">
+      <c r="D296" s="24" t="str">
         <v>樱</v>
       </c>
     </row>
-    <row customHeight="true" ht="19" r="297">
-      <c r="A297" s="2">
+    <row customHeight="true" ht="21" r="297">
+      <c r="A297" s="3">
         <v>90080</v>
       </c>
-      <c r="B297" s="32" t="str">
+      <c r="B297" s="25" t="str">
         <v>Weapon_WeaponName_20012</v>
       </c>
-      <c r="C297" s="2" t="str">
+      <c r="C297" s="3" t="str">
         <v>Butterfly</v>
       </c>
-      <c r="D297" s="35" t="str">
+      <c r="D297" s="24" t="str">
         <v>蝶</v>
       </c>
     </row>
-    <row customHeight="true" ht="19" r="298">
-      <c r="A298" s="2">
+    <row customHeight="true" ht="21" r="298">
+      <c r="A298" s="3">
         <v>90081</v>
       </c>
-      <c r="B298" s="32" t="str">
+      <c r="B298" s="25" t="str">
         <v>Weapon_WeaponName_10036</v>
       </c>
-      <c r="C298" s="2" t="str">
+      <c r="C298" s="3" t="str">
         <v>Golden Bat (Rainbow)</v>
       </c>
-      <c r="D298" s="33" t="str">
+      <c r="D298" s="29" t="str">
         <v>黄金球棍(虹彩)</v>
       </c>
     </row>
-    <row customHeight="true" ht="19" r="299">
-      <c r="A299" s="2">
+    <row customHeight="true" ht="21" r="299">
+      <c r="A299" s="3">
         <v>90082</v>
       </c>
-      <c r="B299" s="32" t="str">
+      <c r="B299" s="25" t="str">
         <v>Weapon_WeaponName_20013</v>
       </c>
-      <c r="C299" s="2" t="str">
+      <c r="C299" s="3" t="str">
         <v>Golden Revolver (Rainbow)</v>
       </c>
-      <c r="D299" s="33" t="str">
+      <c r="D299" s="29" t="str">
         <v>黄金左轮(虹彩)</v>
       </c>
     </row>
-    <row customHeight="true" ht="19" r="300">
-      <c r="A300" s="2">
+    <row customHeight="true" ht="21" r="300">
+      <c r="A300" s="3">
         <v>90083</v>
       </c>
-      <c r="B300" s="34" t="str">
+      <c r="B300" s="11" t="str">
         <v>SkillShop_Name_10004</v>
       </c>
-      <c r="C300" s="2" t="str">
+      <c r="C300" s="3" t="str">
         <v>Ghost's Cloak</v>
       </c>
-      <c r="D300" s="34" t="str">
+      <c r="D300" s="11" t="str">
         <v>幽灵斗篷</v>
       </c>
     </row>
-    <row r="301">
-      <c r="A301" s="2">
+    <row customHeight="true" ht="21" r="301">
+      <c r="A301" s="3">
         <v>90084</v>
       </c>
-      <c r="B301" s="34" t="str">
+      <c r="B301" s="11" t="str">
         <v>SkillShop_Description_10004</v>
       </c>
-      <c r="C301" s="1" t="str">
+      <c r="C301" s="7" t="str">
         <v>[Murderer Active Ability] When active, you become invisable for 5 secs, eliminating any player will instantly end the ghost‘s cloak</v>
       </c>
-      <c r="D301" s="1" t="str">
+      <c r="D301" s="7" t="str">
         <v>【杀手主动能力】
 激活后，你可以隐身5秒，若你在隐身时击败了任何玩家，则会立即结束隐身</v>
       </c>
     </row>
-    <row r="302">
-      <c r="A302" s="2">
+    <row customHeight="true" ht="21" r="302">
+      <c r="A302" s="3">
         <v>90085</v>
       </c>
-      <c r="B302" s="3" t="str">
+      <c r="B302" s="19" t="str">
         <v>Tips_Content_20012</v>
       </c>
-      <c r="C302" s="1" t="str">
+      <c r="C302" s="7" t="str">
         <v>A</v>
       </c>
-      <c r="D302" s="1" t="str">
+      <c r="D302" s="7" t="str">
         <v>兑换成功</v>
       </c>
     </row>
-    <row r="303">
-      <c r="A303" s="2">
+    <row customHeight="true" ht="21" r="303">
+      <c r="A303" s="3">
         <v>90086</v>
       </c>
-      <c r="B303" s="3" t="str">
+      <c r="B303" s="19" t="str">
         <v>Tips_Content_20013</v>
       </c>
-      <c r="C303" s="1" t="str">
+      <c r="C303" s="7" t="str">
         <v>A</v>
       </c>
-      <c r="D303" s="1" t="str">
+      <c r="D303" s="7" t="str">
         <v>兑换失败</v>
       </c>
     </row>
-    <row r="304">
-      <c r="A304" s="2">
+    <row customHeight="true" ht="21" r="304">
+      <c r="A304" s="3">
         <v>90087</v>
       </c>
-      <c r="B304" s="3" t="str">
+      <c r="B304" s="19" t="str">
         <v>Tips_Content_20014</v>
       </c>
-      <c r="C304" s="1" t="str">
+      <c r="C304" s="7" t="str">
         <v>A</v>
       </c>
-      <c r="D304" s="1" t="str">
+      <c r="D304" s="7" t="str">
         <v>恭喜激活会员特权</v>
       </c>
     </row>
-    <row r="305">
-      <c r="A305" s="2">
+    <row customHeight="true" ht="21" r="305">
+      <c r="A305" s="3">
         <v>90088</v>
       </c>
-      <c r="B305" s="3" t="str">
+      <c r="B305" s="19" t="str">
         <v>Tips_Content_20015</v>
       </c>
-      <c r="C305" s="1" t="str">
+      <c r="C305" s="7" t="str">
         <v>A</v>
       </c>
-      <c r="D305" s="1" t="str">
+      <c r="D305" s="7" t="str">
         <v>恭喜激活超级特权</v>
       </c>
     </row>
-    <row r="306">
-      <c r="A306" s="2">
+    <row customHeight="true" ht="21" r="306">
+      <c r="A306" s="3">
         <v>90089</v>
       </c>
-      <c r="B306" s="3" t="str">
+      <c r="B306" s="19" t="str">
         <v>Tips_Content_20016</v>
       </c>
-      <c r="C306" s="1" t="str">
+      <c r="C306" s="7" t="str">
         <v>A</v>
       </c>
-      <c r="D306" s="1" t="str">
+      <c r="D306" s="7" t="str">
         <v>会员特权已到期失效</v>
       </c>
     </row>
-    <row r="307">
-      <c r="A307" s="2">
+    <row customHeight="true" ht="21" r="307">
+      <c r="A307" s="3">
         <v>90090</v>
       </c>
-      <c r="B307" s="3" t="str">
+      <c r="B307" s="19" t="str">
         <v>Tips_Content_20017</v>
       </c>
-      <c r="C307" s="1" t="str">
+      <c r="C307" s="7" t="str">
         <v>A</v>
       </c>
-      <c r="D307" s="1" t="str">
+      <c r="D307" s="7" t="str">
         <v>超级特权已到期失效</v>
       </c>
     </row>
-    <row r="308">
-      <c r="A308" s="2">
+    <row customHeight="true" ht="21" r="308">
+      <c r="A308" s="3">
         <v>90091</v>
       </c>
-      <c r="B308" s="3" t="str">
+      <c r="B308" s="19" t="str">
         <v>Tips_Content_20018</v>
       </c>
-      <c r="C308" s="1" t="str">
+      <c r="C308" s="7" t="str">
         <v>A</v>
       </c>
-      <c r="D308" s="1" t="str">
+      <c r="D308" s="7" t="str">
         <v>持有数量已经达到上限</v>
       </c>
     </row>
-    <row r="309">
-      <c r="A309" s="2">
+    <row customHeight="true" ht="21" r="309">
+      <c r="A309" s="3">
         <v>90092</v>
       </c>
-      <c r="B309" s="14" t="str">
+      <c r="B309" s="12" t="str">
         <v>Text_Content_20052</v>
       </c>
-      <c r="C309" s="1" t="str">
+      <c r="C309" s="7" t="str">
         <v>A</v>
       </c>
-      <c r="D309" s="1" t="str">
+      <c r="D309" s="7" t="str">
         <v>兑换</v>
       </c>
     </row>
-    <row r="310">
-      <c r="A310" s="2">
+    <row customHeight="true" ht="21" r="310">
+      <c r="A310" s="3">
         <v>90093</v>
       </c>
-      <c r="B310" s="14" t="str">
+      <c r="B310" s="12" t="str">
         <v>Text_Content_20053</v>
       </c>
-      <c r="C310" s="1" t="str">
+      <c r="C310" s="7" t="str">
         <v>A</v>
       </c>
-      <c r="D310" s="1" t="str">
+      <c r="D310" s="7" t="str">
         <v>跳转</v>
       </c>
     </row>
-    <row r="311">
-      <c r="A311" s="2">
+    <row customHeight="true" ht="21" r="311">
+      <c r="A311" s="3">
         <v>90094</v>
       </c>
-      <c r="B311" s="14" t="str">
+      <c r="B311" s="12" t="str">
         <v>Text_Content_20054</v>
       </c>
-      <c r="C311" s="1" t="str">
+      <c r="C311" s="7" t="str">
         <v>A</v>
       </c>
-      <c r="D311" s="1" t="str">
+      <c r="D311" s="7" t="str">
         <v>会员特权激活中</v>
       </c>
     </row>
-    <row r="312">
-      <c r="A312" s="2">
+    <row customHeight="true" ht="21" r="312">
+      <c r="A312" s="3">
         <v>90095</v>
       </c>
-      <c r="B312" s="14" t="str">
+      <c r="B312" s="12" t="str">
         <v>Text_Content_20055</v>
       </c>
-      <c r="C312" s="1" t="str">
+      <c r="C312" s="7" t="str">
         <v>A</v>
       </c>
-      <c r="D312" s="1" t="str">
+      <c r="D312" s="7" t="str">
         <v>剩余激活时间{0}</v>
       </c>
     </row>
-    <row r="313">
-      <c r="A313" s="2">
+    <row customHeight="true" ht="21" r="313">
+      <c r="A313" s="3">
         <v>90096</v>
       </c>
-      <c r="B313" s="14" t="str">
+      <c r="B313" s="12" t="str">
         <v>Text_Content_20056</v>
       </c>
-      <c r="C313" s="1" t="str">
+      <c r="C313" s="7" t="str">
         <v>A</v>
       </c>
-      <c r="D313" s="1" t="str">
+      <c r="D313" s="7" t="str">
         <v>尚未激活会员特权</v>
       </c>
     </row>
-    <row r="314">
-      <c r="A314" s="2">
+    <row customHeight="true" ht="21" r="314">
+      <c r="A314" s="3">
         <v>90097</v>
       </c>
-      <c r="B314" s="14" t="str">
+      <c r="B314" s="12" t="str">
         <v>Text_Content_20057</v>
       </c>
-      <c r="C314" s="1" t="str">
+      <c r="C314" s="7" t="str">
         <v>A</v>
       </c>
-      <c r="D314" s="1" t="str">
+      <c r="D314" s="7" t="str">
         <v>尚未激活超级特权</v>
       </c>
     </row>
-    <row r="315">
-      <c r="A315" s="2">
+    <row customHeight="true" ht="21" r="315">
+      <c r="A315" s="3">
         <v>90098</v>
       </c>
-      <c r="B315" s="14" t="str">
+      <c r="B315" s="12" t="str">
         <v>Text_Content_20058</v>
       </c>
-      <c r="C315" s="1" t="str">
+      <c r="C315" s="7" t="str">
         <v>A</v>
       </c>
-      <c r="D315" s="1" t="str">
+      <c r="D315" s="7" t="str">
         <v>剩余激活时间{0}天</v>
       </c>
     </row>
-    <row r="316">
-      <c r="A316" s="2">
+    <row customHeight="true" ht="21" r="316">
+      <c r="A316" s="3">
         <v>90099</v>
       </c>
-      <c r="B316" s="14" t="str">
+      <c r="B316" s="12" t="str">
         <v>Text_Content_20059</v>
       </c>
-      <c r="C316" s="1" t="str">
+      <c r="C316" s="7" t="str">
         <v>A</v>
       </c>
-      <c r="D316" s="1" t="str">
+      <c r="D316" s="7" t="str">
         <v>会员特权</v>
       </c>
     </row>
-    <row r="317">
-      <c r="A317" s="2">
+    <row customHeight="true" ht="21" r="317">
+      <c r="A317" s="3">
         <v>90100</v>
       </c>
-      <c r="B317" s="14" t="str">
+      <c r="B317" s="12" t="str">
         <v>Text_Content_20060</v>
       </c>
-      <c r="C317" s="1" t="str">
+      <c r="C317" s="7" t="str">
         <v>A</v>
       </c>
-      <c r="D317" s="1" t="str">
+      <c r="D317" s="7" t="str">
         <v>超级特权</v>
       </c>
     </row>
-    <row r="318">
-      <c r="A318" s="2">
+    <row customHeight="true" ht="21" r="318">
+      <c r="A318" s="3">
         <v>90101</v>
       </c>
-      <c r="B318" s="3" t="str">
+      <c r="B318" s="19" t="str">
         <v>Tips_Content_20019</v>
       </c>
-      <c r="C318" s="1" t="str">
+      <c r="C318" s="7" t="str">
         <v>A</v>
       </c>
-      <c r="D318" s="1" t="str">
+      <c r="D318" s="7" t="str">
         <v>恭喜获得广告券*1</v>
       </c>
     </row>
-    <row r="319">
-      <c r="A319" s="2">
+    <row customHeight="true" ht="21" r="319">
+      <c r="A319" s="3">
         <v>90102</v>
       </c>
-      <c r="B319" s="26" t="str">
+      <c r="B319" s="3" t="str">
         <v>Item_Name_20012</v>
       </c>
-      <c r="C319" s="1" t="str">
+      <c r="C319" s="7" t="str">
         <v>A</v>
       </c>
-      <c r="D319" s="1" t="str">
+      <c r="D319" s="7" t="str">
         <v>土豪来啦</v>
       </c>
     </row>
-    <row r="320">
-      <c r="A320" s="2">
+    <row customHeight="true" ht="21" r="320">
+      <c r="A320" s="3">
         <v>90103</v>
       </c>
-      <c r="B320" s="12" t="str">
+      <c r="B320" s="6" t="str">
         <v>SkillShop_Name_10005</v>
       </c>
-      <c r="C320" s="1" t="str">
+      <c r="C320" s="7" t="str">
         <v>A</v>
       </c>
-      <c r="D320" s="43" t="str">
+      <c r="D320" s="35" t="str">
         <v>快速投掷体验券</v>
       </c>
     </row>
-    <row r="321">
-      <c r="A321" s="2">
+    <row customHeight="true" ht="21" r="321">
+      <c r="A321" s="3">
         <v>90104</v>
       </c>
-      <c r="B321" s="12" t="str">
+      <c r="B321" s="6" t="str">
         <v>SkillShop_Name_10006</v>
       </c>
-      <c r="C321" s="1" t="str">
+      <c r="C321" s="7" t="str">
         <v>A</v>
       </c>
-      <c r="D321" s="12" t="str">
+      <c r="D321" s="6" t="str">
         <v>爆炸飞刀体验券</v>
       </c>
     </row>
-    <row r="322">
-      <c r="A322" s="2">
+    <row customHeight="true" ht="21" r="322">
+      <c r="A322" s="3">
         <v>90105</v>
       </c>
-      <c r="B322" s="12" t="str">
+      <c r="B322" s="6" t="str">
         <v>SkillShop_Name_10007</v>
       </c>
-      <c r="C322" s="1" t="str">
+      <c r="C322" s="7" t="str">
         <v>A</v>
       </c>
-      <c r="D322" s="5" t="str">
+      <c r="D322" s="15" t="str">
         <v>幽灵斗篷体验券</v>
       </c>
     </row>
-    <row r="323">
-      <c r="A323" s="2">
+    <row customHeight="true" ht="21" r="323">
+      <c r="A323" s="3">
         <v>90106</v>
       </c>
-      <c r="B323" s="12" t="str">
+      <c r="B323" s="6" t="str">
         <v>SkillShop_Description_10005</v>
       </c>
-      <c r="C323" s="1" t="str">
+      <c r="C323" s="7" t="str">
         <v>A</v>
       </c>
-      <c r="D323" s="13" t="str">
+      <c r="D323" s="8" t="str">
         <v>【杀手被动能力】
 现在你扔出的飞刀会飞得更快，提升100％</v>
       </c>
-      <c r="E323" s="2" t="str">
+      <c r="E323" s="3" t="str">
         <v>和上面一样</v>
       </c>
     </row>
-    <row r="324">
-      <c r="A324" s="2">
+    <row customHeight="true" ht="21" r="324">
+      <c r="A324" s="3">
         <v>90107</v>
       </c>
-      <c r="B324" s="12" t="str">
+      <c r="B324" s="6" t="str">
         <v>SkillShop_Description_10006</v>
       </c>
-      <c r="C324" s="1" t="str">
+      <c r="C324" s="7" t="str">
         <v>A</v>
       </c>
-      <c r="D324" s="13" t="str">
+      <c r="D324" s="8" t="str">
         <v>【杀手被动能力】
 当你的飞刀命中目标时，不会立即对目标造成伤害，而是在目标处埋下一颗炸弹，延迟一小段时间后会爆炸，并对周围一定范围内的玩家同样造成伤害</v>
       </c>
-      <c r="E324" s="2" t="str">
+      <c r="E324" s="3" t="str">
         <v>和上面一样</v>
       </c>
     </row>
-    <row r="325">
-      <c r="A325" s="2">
+    <row customHeight="true" ht="21" r="325">
+      <c r="A325" s="3">
         <v>90108</v>
       </c>
-      <c r="B325" s="12" t="str">
+      <c r="B325" s="6" t="str">
         <v>SkillShop_Description_10007</v>
       </c>
-      <c r="C325" s="1" t="str">
+      <c r="C325" s="7" t="str">
         <v>A</v>
       </c>
-      <c r="D325" s="1" t="str">
+      <c r="D325" s="7" t="str">
         <v>【杀手主动能力】
 激活后，你可以隐身5秒，若你在隐身时击败了任何玩家，则会立即结束隐身</v>
       </c>
-      <c r="E325" s="2" t="str">
+      <c r="E325" s="3" t="str">
         <v>和上面一样</v>
       </c>
     </row>
-    <row r="326">
-      <c r="A326" s="2">
+    <row customHeight="true" ht="21" r="326">
+      <c r="A326" s="3">
         <v>90109</v>
       </c>
-      <c r="B326" s="3" t="str">
+      <c r="B326" s="19" t="str">
         <v>Tips_Content_20020</v>
       </c>
-      <c r="C326" s="1" t="str">
+      <c r="C326" s="7" t="str">
         <v>A</v>
       </c>
-      <c r="D326" s="1" t="str">
+      <c r="D326" s="7" t="str">
         <v>金钥匙数量不足</v>
       </c>
-      <c r="E326" s="2"/>
-    </row>
-    <row r="327">
-      <c r="A327" s="2">
+      <c r="E326" s="3"/>
+    </row>
+    <row customHeight="true" ht="21" r="327">
+      <c r="A327" s="3">
         <v>90110</v>
       </c>
-      <c r="B327" s="3" t="str">
+      <c r="B327" s="19" t="str">
         <v>Tips_Content_20021</v>
       </c>
-      <c r="C327" s="1" t="str">
+      <c r="C327" s="7" t="str">
         <v>A</v>
       </c>
-      <c r="D327" s="1" t="str">
+      <c r="D327" s="7" t="str">
         <v>这个版本不支持开通大会员</v>
       </c>
-      <c r="E327" s="2"/>
-    </row>
-    <row r="328">
-      <c r="A328" s="2"/>
-      <c r="B328" s="12"/>
-      <c r="C328" s="1"/>
-      <c r="D328" s="1"/>
-      <c r="E328" s="2"/>
+      <c r="E327" s="3"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -6444,27 +6326,48 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="19"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" max="1" min="1" style="0" width="12"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="2" min="2" style="0" width="35"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="3" min="3" style="0" width="75"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="4" min="4" style="0" width="75"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="5" min="5" style="0" width="21"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="6" min="6" style="0" width="12"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="7" min="7" style="0" width="35"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="8" min="8" style="0" width="75"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="9" min="9" style="0" width="75"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="10" min="10" style="0" width="21"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="11" min="11" style="0" width="12"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="12" min="12" style="0" width="35"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="13" min="13" style="0" width="75"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="14" min="14" style="0" width="75"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="15" min="15" style="0" width="21"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="16" min="16" style="0" width="12"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="17" min="17" style="0" width="35"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="18" min="18" style="0" width="75"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="19" min="19" style="0" width="75"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="20" min="20" style="0" width="21"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="1" min="1" style="0" width="13"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="2" min="2" style="0" width="37"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="3" min="3" style="0" width="79"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="4" min="4" style="0" width="79"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="5" min="5" style="0" width="23"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="6" min="6" style="0" width="13"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="7" min="7" style="0" width="37"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="8" min="8" style="0" width="79"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="9" min="9" style="0" width="79"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="10" min="10" style="0" width="23"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="11" min="11" style="0" width="13"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="12" min="12" style="0" width="37"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="13" min="13" style="0" width="79"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="14" min="14" style="0" width="79"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="15" min="15" style="0" width="23"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="16" min="16" style="0" width="13"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="17" min="17" style="0" width="37"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="18" min="18" style="0" width="79"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="19" min="19" style="0" width="79"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="20" min="20" style="0" width="23"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row customHeight="true" ht="21" r="1"/>
+    <row customHeight="true" ht="21" r="2"/>
+    <row customHeight="true" ht="21" r="3"/>
+    <row customHeight="true" ht="21" r="4"/>
+    <row customHeight="true" ht="21" r="5"/>
+    <row customHeight="true" ht="21" r="6"/>
+    <row customHeight="true" ht="21" r="7"/>
+    <row customHeight="true" ht="21" r="8"/>
+    <row customHeight="true" ht="21" r="9"/>
+    <row customHeight="true" ht="21" r="10"/>
+    <row customHeight="true" ht="21" r="11"/>
+    <row customHeight="true" ht="21" r="12"/>
+    <row customHeight="true" ht="21" r="13"/>
+    <row customHeight="true" ht="21" r="14"/>
+    <row customHeight="true" ht="21" r="15"/>
+    <row customHeight="true" ht="21" r="16"/>
+    <row customHeight="true" ht="21" r="17"/>
+    <row customHeight="true" ht="21" r="18"/>
+    <row customHeight="true" ht="21" r="19"/>
+    <row customHeight="true" ht="21" r="20"/>
+  </sheetData>
 </worksheet>
 </file>
--- a/wolf/Excel/Language_小镇多语言.xlsx
+++ b/wolf/Excel/Language_小镇多语言.xlsx
@@ -42,76 +42,6 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF1F2329"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF1F2329"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -181,7 +111,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <color rgb="FF000000"/>
+      <color rgb="FF1F2329"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -201,7 +131,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="9"/>
+      <color rgb="FF1F2329"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -209,7 +146,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <color rgb="FF1F2329"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -251,7 +188,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <color rgb="FF1F2329"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -272,13 +209,34 @@
     </font>
     <font>
       <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <color rgb="FF1F2329"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9.75"/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -306,6 +264,48 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF1F2329"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF1F2329"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9.75"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="28">
     <fill>
@@ -322,31 +322,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFEEF6C6"/>
-        <bgColor/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFEEF6C6"/>
-        <bgColor/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFAF1D1"/>
-        <bgColor/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFAF1D1"/>
-        <bgColor/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFEEF6C6"/>
+        <fgColor rgb="FFD9F5D6"/>
         <bgColor/>
       </patternFill>
     </fill>
@@ -382,19 +358,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD9F5D6"/>
+        <fgColor rgb="FFEEF6C6"/>
         <bgColor/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD5F6F2"/>
-        <bgColor/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD5F6F2"/>
+        <fgColor rgb="FF8EE085"/>
         <bgColor/>
       </patternFill>
     </fill>
@@ -407,6 +377,48 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFEEF6C6"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFAF1D1"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFAF1D1"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFAD355"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFAD355"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEEF6C6"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEEF6C6"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFECE2FE"/>
         <bgColor/>
       </patternFill>
     </fill>
@@ -436,19 +448,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFECE2FE"/>
+        <fgColor rgb="FFD5F6F2"/>
         <bgColor/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFAD355"/>
+        <fgColor rgb="FFD5F6F2"/>
         <bgColor/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFAD355"/>
+        <fgColor rgb="FFFFF258"/>
         <bgColor/>
       </patternFill>
     </fill>
@@ -461,18 +473,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFEEF6C6"/>
-        <bgColor/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFF258"/>
-        <bgColor/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF8EE085"/>
         <bgColor/>
       </patternFill>
     </fill>
@@ -752,116 +752,116 @@
     <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="2" fillId="3" fontId="2" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="4" fillId="4" fontId="4" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="5" fillId="2" fontId="5" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="6" fillId="3" fontId="6" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="7" fillId="4" fontId="7" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="8" fillId="0" fontId="8" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="9" fillId="0" fontId="9" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="5" fillId="5" fontId="5" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="10" fillId="5" fontId="10" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="11" fillId="6" fontId="11" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="12" fillId="7" fontId="12" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="6" fillId="0" fontId="6" numFmtId="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="7" fillId="0" fontId="7" numFmtId="0" xfId="0">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="8" fillId="6" fontId="8" numFmtId="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="9" fillId="7" fontId="9" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="10" fillId="8" fontId="10" numFmtId="0" xfId="0">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="11" fillId="0" fontId="11" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="12" fillId="0" fontId="12" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="13" fillId="0" fontId="13" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="13" fillId="8" fontId="13" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="14" fillId="9" fontId="14" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" applyProtection="false" borderId="15" fillId="0" fontId="15" numFmtId="164" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="16" fillId="10" fontId="16" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="15" fillId="0" fontId="15" numFmtId="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="17" fillId="11" fontId="17" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="16" fillId="0" fontId="16" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="18" fillId="0" fontId="18" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="19" fillId="12" fontId="19" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="17" fillId="10" fontId="17" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="20" fillId="13" fontId="20" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="18" fillId="11" fontId="18" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="21" fillId="0" fontId="21" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="22" fillId="14" fontId="22" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="23" fillId="15" fontId="23" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="24" fillId="16" fontId="24" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="25" fillId="17" fontId="25" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="26" fillId="18" fontId="26" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="27" fillId="19" fontId="27" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="19" fillId="12" fontId="19" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="20" fillId="13" fontId="20" numFmtId="0" xfId="0">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="21" fillId="14" fontId="21" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="22" fillId="15" fontId="22" numFmtId="0" xfId="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="23" fillId="16" fontId="23" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="24" fillId="17" fontId="24" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="28" fillId="20" fontId="28" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="25" fillId="18" fontId="25" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" applyProtection="false" borderId="26" fillId="0" fontId="26" numFmtId="164" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="27" fillId="0" fontId="27" numFmtId="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="28" fillId="19" fontId="28" numFmtId="0" xfId="0">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="29" fillId="20" fontId="29" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="29" fillId="0" fontId="29" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="30" fillId="21" fontId="30" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="31" fillId="0" fontId="31" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="32" fillId="22" fontId="32" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="33" fillId="23" fontId="33" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="34" fillId="24" fontId="34" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="35" fillId="25" fontId="35" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="36" fillId="26" fontId="36" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="31" fillId="22" fontId="31" numFmtId="0" xfId="0">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="32" fillId="23" fontId="32" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="33" fillId="24" fontId="33" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="34" fillId="25" fontId="34" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="37" fillId="27" fontId="37" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="35" fillId="26" fontId="35" numFmtId="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="36" fillId="27" fontId="36" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="37" fillId="0" fontId="37" numFmtId="0" xfId="0">
-      <alignment vertical="center" wrapText="true"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1211,4179 +1211,4179 @@
   </cols>
   <sheetData>
     <row customHeight="true" ht="21" r="1">
-      <c r="A1" s="27" t="str">
+      <c r="A1" s="18" t="str">
         <v>Int</v>
       </c>
-      <c r="B1" s="27" t="str">
+      <c r="B1" s="18" t="str">
         <v>String</v>
       </c>
-      <c r="C1" s="3" t="str">
+      <c r="C1" s="4" t="str">
         <v>String</v>
       </c>
-      <c r="D1" s="27" t="str">
+      <c r="D1" s="18" t="str">
         <v>String</v>
       </c>
-      <c r="E1" s="7" t="str">
+      <c r="E1" s="1" t="str">
         <v>String</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="2">
-      <c r="A2" s="27" t="str">
+      <c r="A2" s="18" t="str">
         <v>ID</v>
       </c>
-      <c r="B2" s="27" t="str">
+      <c r="B2" s="18" t="str">
         <v>mur</v>
       </c>
-      <c r="C2" s="3" t="str">
+      <c r="C2" s="4" t="str">
         <v>Value</v>
       </c>
-      <c r="D2" s="27" t="str">
+      <c r="D2" s="18" t="str">
         <v>Value_Ch</v>
       </c>
-      <c r="E2" s="7" t="str">
+      <c r="E2" s="1" t="str">
         <v>Comment</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="3">
-      <c r="A3" s="27" t="str">
+      <c r="A3" s="18" t="str">
         <v>ID</v>
       </c>
-      <c r="B3" s="27" t="str">
+      <c r="B3" s="18" t="str">
         <v>名字</v>
       </c>
-      <c r="C3" s="3" t="str">
+      <c r="C3" s="4" t="str">
         <v>英文</v>
       </c>
-      <c r="D3" s="27" t="str">
+      <c r="D3" s="18" t="str">
         <v>中文</v>
       </c>
-      <c r="E3" s="7" t="str">
+      <c r="E3" s="1" t="str">
         <v>备注</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="4">
-      <c r="A4" s="7" t="str"/>
-      <c r="B4" s="37" t="str">
+      <c r="A4" s="1" t="str"/>
+      <c r="B4" s="31" t="str">
         <v>Key|ReadByName</v>
       </c>
-      <c r="C4" s="3" t="str">
+      <c r="C4" s="4" t="str">
         <v>MainLanguage</v>
       </c>
-      <c r="D4" s="37" t="str">
+      <c r="D4" s="31" t="str">
         <v>ChildLanguage</v>
       </c>
-      <c r="E4" s="7" t="str"/>
+      <c r="E4" s="1" t="str"/>
     </row>
     <row customHeight="true" ht="21" r="5">
-      <c r="A5" s="7">
+      <c r="A5" s="1">
         <v>10001</v>
       </c>
-      <c r="B5" s="7" t="str">
+      <c r="B5" s="1" t="str">
         <v>Guide_GuideContent_10001</v>
       </c>
-      <c r="C5" s="3" t="str">
+      <c r="C5" s="4" t="str">
         <v>This is what you are playing in this round</v>
       </c>
-      <c r="D5" s="7" t="str">
+      <c r="D5" s="1" t="str">
         <v>这里是本局中你的身份</v>
       </c>
-      <c r="E5" s="7" t="str">
+      <c r="E5" s="1" t="str">
         <v>10000：新手引导表</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="6">
-      <c r="A6" s="7">
+      <c r="A6" s="1">
         <v>10002</v>
       </c>
-      <c r="B6" s="7" t="str">
+      <c r="B6" s="1" t="str">
         <v>Guide_GuideContent_10002</v>
       </c>
-      <c r="C6" s="3" t="str">
+      <c r="C6" s="4" t="str">
         <v>This is your goal in this round, check it here if you don't know what to do</v>
       </c>
-      <c r="D6" s="7" t="str">
+      <c r="D6" s="1" t="str">
         <v>这里是你本局的目标，不知道做什么的话就看一下这里吧</v>
       </c>
-      <c r="E6" s="7" t="str"/>
+      <c r="E6" s="1" t="str"/>
     </row>
     <row customHeight="true" ht="21" r="7">
-      <c r="A7" s="7">
+      <c r="A7" s="1">
         <v>10003</v>
       </c>
-      <c r="B7" s="7" t="str">
+      <c r="B7" s="1" t="str">
         <v>Guide_GuideContent_10003</v>
       </c>
-      <c r="C7" s="3" t="str">
+      <c r="C7" s="4" t="str">
         <v>Survive to win~</v>
       </c>
-      <c r="D7" s="7" t="str">
+      <c r="D7" s="1" t="str">
         <v>努力活下来才能够获得胜利~</v>
       </c>
-      <c r="E7" s="7" t="str"/>
+      <c r="E7" s="1" t="str"/>
     </row>
     <row customHeight="true" ht="21" r="8">
-      <c r="A8" s="7">
+      <c r="A8" s="1">
         <v>10004</v>
       </c>
-      <c r="B8" s="7" t="str">
+      <c r="B8" s="1" t="str">
         <v>Guide_GuideContent_10004</v>
       </c>
-      <c r="C8" s="3" t="str">
+      <c r="C8" s="4" t="str">
         <v>Here is the energy ball:</v>
       </c>
-      <c r="D8" s="7" t="str">
+      <c r="D8" s="1" t="str">
         <v>这是能量球：</v>
       </c>
-      <c r="E8" s="7" t="str"/>
+      <c r="E8" s="1" t="str"/>
     </row>
     <row customHeight="true" ht="21" r="9">
-      <c r="A9" s="7">
+      <c r="A9" s="1">
         <v>10005</v>
       </c>
-      <c r="B9" s="7" t="str">
+      <c r="B9" s="1" t="str">
         <v>Guide_GuideContent_10005</v>
       </c>
-      <c r="C9" s="3" t="str">
+      <c r="C9" s="4" t="str">
         <v>Collect them all to get a protective shield</v>
       </c>
-      <c r="D9" s="7" t="str">
+      <c r="D9" s="1" t="str">
         <v>集齐能量球，可以获得一层保护壳</v>
       </c>
-      <c r="E9" s="7" t="str"/>
+      <c r="E9" s="1" t="str"/>
     </row>
     <row customHeight="true" ht="21" r="10">
-      <c r="A10" s="7">
+      <c r="A10" s="1">
         <v>10006</v>
       </c>
-      <c r="B10" s="7" t="str">
+      <c r="B10" s="1" t="str">
         <v>Guide_GuideContent_10006</v>
       </c>
-      <c r="C10" s="3" t="str">
+      <c r="C10" s="4" t="str">
         <v>This is your goal in this round, achieve it before the game ends to win</v>
       </c>
-      <c r="D10" s="7" t="str">
+      <c r="D10" s="1" t="str">
         <v>这里是你本局的目标，在对局结束前完成目标才能获得胜利</v>
       </c>
-      <c r="E10" s="7" t="str"/>
+      <c r="E10" s="1" t="str"/>
     </row>
     <row customHeight="true" ht="21" r="11">
-      <c r="A11" s="7">
+      <c r="A11" s="1">
         <v>10007</v>
       </c>
-      <c r="B11" s="7" t="str">
+      <c r="B11" s="1" t="str">
         <v>Guide_GuideContent_10007</v>
       </c>
-      <c r="C11" s="3" t="str">
+      <c r="C11" s="4" t="str">
         <v>This is your goal in this round, achieve it before the game ends to win</v>
       </c>
-      <c r="D11" s="7" t="str">
+      <c r="D11" s="1" t="str">
         <v>这里是你本局的目标，在对局结束前完成目标才能获得胜利</v>
       </c>
-      <c r="E11" s="7" t="str"/>
+      <c r="E11" s="1" t="str"/>
     </row>
     <row customHeight="true" ht="21" r="12">
-      <c r="A12" s="7">
+      <c r="A12" s="1">
         <v>10008</v>
       </c>
-      <c r="B12" s="7" t="str">
+      <c r="B12" s="1" t="str">
         <v>Guide_GuideContent_10008</v>
       </c>
-      <c r="C12" s="3" t="str">
+      <c r="C12" s="4" t="str">
         <v>You have a new goal, to defeat the Murderer and protect the Students</v>
       </c>
-      <c r="D12" s="7" t="str">
+      <c r="D12" s="1" t="str">
         <v>你有了新的目标，击杀凶手，保护学生</v>
       </c>
-      <c r="E12" s="7" t="str"/>
+      <c r="E12" s="1" t="str"/>
     </row>
     <row customHeight="true" ht="21" r="13">
-      <c r="A13" s="7">
+      <c r="A13" s="1">
         <v>10009</v>
       </c>
-      <c r="B13" s="7" t="str">
+      <c r="B13" s="1" t="str">
         <v>Guide_GuideContent_10009</v>
       </c>
-      <c r="C13" s="3" t="str">
+      <c r="C13" s="4" t="str">
         <v>This is what you are playing in this round</v>
       </c>
-      <c r="D13" s="7" t="str">
+      <c r="D13" s="1" t="str">
         <v>这里是本局中你的身份</v>
       </c>
-      <c r="E13" s="7" t="str"/>
+      <c r="E13" s="1" t="str"/>
     </row>
     <row customHeight="true" ht="21" r="14">
-      <c r="A14" s="7">
+      <c r="A14" s="1">
         <v>10010</v>
       </c>
-      <c r="B14" s="7" t="str">
+      <c r="B14" s="1" t="str">
         <v>Guide_GuideContent_10010</v>
       </c>
-      <c r="C14" s="3" t="str">
+      <c r="C14" s="4" t="str">
         <v>This is what you are playing in this round</v>
       </c>
-      <c r="D14" s="7" t="str">
+      <c r="D14" s="1" t="str">
         <v>这里是本局中你的身份</v>
       </c>
-      <c r="E14" s="7" t="str"/>
+      <c r="E14" s="1" t="str"/>
     </row>
     <row customHeight="true" ht="21" r="15">
-      <c r="A15" s="7">
+      <c r="A15" s="1">
         <v>10011</v>
       </c>
-      <c r="B15" s="7" t="str">
+      <c r="B15" s="1" t="str">
         <v>Guide_GuideContent_10011</v>
       </c>
-      <c r="C15" s="3" t="str">
+      <c r="C15" s="4" t="str">
         <v>Congratulation! You just picked up the weapon and you're a Hero now</v>
       </c>
-      <c r="D15" s="7" t="str">
+      <c r="D15" s="1" t="str">
         <v>恭喜你拾取到武器，现在你成为了一名英雄</v>
       </c>
-      <c r="E15" s="7" t="str"/>
+      <c r="E15" s="1" t="str"/>
     </row>
     <row customHeight="true" ht="21" r="16">
-      <c r="A16" s="7">
+      <c r="A16" s="1">
         <v>10012</v>
       </c>
-      <c r="B16" s="7" t="str">
+      <c r="B16" s="1" t="str">
         <v>Guide_GuideContent_20001</v>
       </c>
-      <c r="C16" s="3" t="str">
+      <c r="C16" s="4" t="str">
         <v>The Coins gained in this game will be stored here and be given to you during the settlement; but there is a limitation for the Coin Bag and cannot gain more Coins when it's full.</v>
       </c>
-      <c r="D16" s="7" t="str">
+      <c r="D16" s="1" t="str">
         <v>本局游戏内获得的金币将存储在这里，结算时会发放给你；不过金币袋是有上限的，袋子装满就无法获得了</v>
       </c>
-      <c r="E16" s="7" t="str"/>
+      <c r="E16" s="1" t="str"/>
     </row>
     <row customHeight="true" ht="21" r="17">
-      <c r="A17" s="7">
+      <c r="A17" s="1">
         <v>10013</v>
       </c>
-      <c r="B17" s="7" t="str">
+      <c r="B17" s="1" t="str">
         <v>Guide_GuideContent_20002</v>
       </c>
-      <c r="C17" s="3" t="str">
+      <c r="C17" s="4" t="str">
         <v>Coin Bag is full, cannot gain more Coins in this round</v>
       </c>
-      <c r="D17" s="7" t="str">
+      <c r="D17" s="1" t="str">
         <v>金币袋已经满了，本局无法再拾取金币了</v>
       </c>
-      <c r="E17" s="7" t="str"/>
+      <c r="E17" s="1" t="str"/>
     </row>
     <row customHeight="true" ht="21" r="18">
-      <c r="A18" s="7">
+      <c r="A18" s="1">
         <v>10014</v>
       </c>
-      <c r="B18" s="7" t="str">
+      <c r="B18" s="1" t="str">
         <v>Guide_GuideContent_30001</v>
       </c>
-      <c r="C18" s="3" t="str">
+      <c r="C18" s="4" t="str">
         <v>Click here to switch your status, choose to show or hide the weapon</v>
       </c>
-      <c r="D18" s="7" t="str">
+      <c r="D18" s="1" t="str">
         <v>点击这里可以切换姿态，选择亮出武器或藏起武器</v>
       </c>
-      <c r="E18" s="7" t="str"/>
+      <c r="E18" s="1" t="str"/>
     </row>
     <row customHeight="true" ht="21" r="19">
-      <c r="A19" s="7">
+      <c r="A19" s="1">
         <v>10015</v>
       </c>
-      <c r="B19" s="7" t="str">
+      <c r="B19" s="1" t="str">
         <v>Guide_GuideContent_30002</v>
       </c>
-      <c r="C19" s="3" t="str">
+      <c r="C19" s="4" t="str">
         <v>Show the weapon, then you can click here to attack</v>
       </c>
-      <c r="D19" s="7" t="str">
+      <c r="D19" s="1" t="str">
         <v>在亮出武器后，可以点击这里进行攻击</v>
       </c>
-      <c r="E19" s="7" t="str"/>
+      <c r="E19" s="1" t="str"/>
     </row>
     <row customHeight="true" ht="21" r="20">
-      <c r="A20" s="7">
+      <c r="A20" s="1">
         <v>10016</v>
       </c>
-      <c r="B20" s="7" t="str">
+      <c r="B20" s="1" t="str">
         <v>Guide_GuideContent_30003</v>
       </c>
-      <c r="C20" s="3" t="str">
+      <c r="C20" s="4" t="str">
         <v>Click here to switch your status, choose to show or hide the weapon</v>
       </c>
-      <c r="D20" s="7" t="str">
+      <c r="D20" s="1" t="str">
         <v>点击这里可以切换姿态，选择亮出武器或藏起武器</v>
       </c>
-      <c r="E20" s="7" t="str"/>
+      <c r="E20" s="1" t="str"/>
     </row>
     <row customHeight="true" ht="21" r="21">
-      <c r="A21" s="7">
+      <c r="A21" s="1">
         <v>10017</v>
       </c>
-      <c r="B21" s="7" t="str">
+      <c r="B21" s="1" t="str">
         <v>Guide_GuideContent_30004</v>
       </c>
-      <c r="C21" s="3" t="str">
+      <c r="C21" s="4" t="str">
         <v>Show the weapon, then you can click here to attack</v>
       </c>
-      <c r="D21" s="7" t="str">
+      <c r="D21" s="1" t="str">
         <v>在亮出武器后，可以点击这里进行攻击</v>
       </c>
-      <c r="E21" s="7" t="str"/>
+      <c r="E21" s="1" t="str"/>
     </row>
     <row customHeight="true" ht="21" r="22">
-      <c r="A22" s="7">
+      <c r="A22" s="1">
         <v>10018</v>
       </c>
-      <c r="B22" s="7" t="str">
+      <c r="B22" s="1" t="str">
         <v>Guide_GuideContent_30005</v>
       </c>
-      <c r="C22" s="3" t="str">
+      <c r="C22" s="4" t="str">
         <v>Click here to switch your status, choose to show or hide the weapon</v>
       </c>
-      <c r="D22" s="7" t="str">
+      <c r="D22" s="1" t="str">
         <v>点击这里可以切换姿态，选择亮出武器或藏起武器</v>
       </c>
-      <c r="E22" s="7" t="str"/>
+      <c r="E22" s="1" t="str"/>
     </row>
     <row customHeight="true" ht="21" r="23">
-      <c r="A23" s="7">
+      <c r="A23" s="1">
         <v>10019</v>
       </c>
-      <c r="B23" s="7" t="str">
+      <c r="B23" s="1" t="str">
         <v>Guide_GuideContent_30006</v>
       </c>
-      <c r="C23" s="3" t="str">
+      <c r="C23" s="4" t="str">
         <v>Show the weapon, then you can click here to attack</v>
       </c>
-      <c r="D23" s="7" t="str">
+      <c r="D23" s="1" t="str">
         <v>在亮出武器后，可以点击这里进行攻击</v>
       </c>
-      <c r="E23" s="7" t="str"/>
+      <c r="E23" s="1" t="str"/>
     </row>
     <row customHeight="true" ht="21" r="24">
-      <c r="A24" s="7">
+      <c r="A24" s="1">
         <v>10020</v>
       </c>
-      <c r="B24" s="7" t="str">
+      <c r="B24" s="1" t="str">
         <v>Guide_GuideContent_40001</v>
       </c>
-      <c r="C24" s="3" t="str">
+      <c r="C24" s="4" t="str">
         <v>Congratulations! You collected all the energy balls! Now you have a protective shield! The protective shield can protect you from another player once, but you can only get it once per round</v>
       </c>
-      <c r="D24" s="7" t="str">
+      <c r="D24" s="1" t="str">
         <v>恭喜你集齐了道具！现在你获得了一个保护壳！保护壳可以为你抵挡一次来自其他玩家的攻击，但是每局游戏只能获得一次</v>
       </c>
-      <c r="E24" s="7" t="str"/>
+      <c r="E24" s="1" t="str"/>
     </row>
     <row customHeight="true" ht="21" r="25">
-      <c r="A25" s="7">
+      <c r="A25" s="1">
         <v>10021</v>
       </c>
-      <c r="B25" s="7" t="str">
+      <c r="B25" s="1" t="str">
         <v>Guide_GuideContent_50001</v>
       </c>
-      <c r="C25" s="3" t="str">
+      <c r="C25" s="4" t="str">
         <v>Your first round is over, take a look at the settlement panel</v>
       </c>
-      <c r="D25" s="7" t="str">
+      <c r="D25" s="1" t="str">
         <v>现在你的第一局游戏已经结束，来看看结算面板吧</v>
       </c>
-      <c r="E25" s="7" t="str"/>
+      <c r="E25" s="1" t="str"/>
     </row>
     <row customHeight="true" ht="21" r="26">
-      <c r="A26" s="7">
+      <c r="A26" s="1">
         <v>10022</v>
       </c>
-      <c r="B26" s="7" t="str">
+      <c r="B26" s="1" t="str">
         <v>Guide_GuideContent_50002</v>
       </c>
-      <c r="C26" s="3" t="str">
+      <c r="C26" s="4" t="str">
         <v>Here is the final result of the game</v>
       </c>
-      <c r="D26" s="7" t="str">
+      <c r="D26" s="1" t="str">
         <v>这里说明了对局的最终结果</v>
       </c>
-      <c r="E26" s="7" t="str"/>
+      <c r="E26" s="1" t="str"/>
     </row>
     <row customHeight="true" ht="21" r="27">
-      <c r="A27" s="7">
+      <c r="A27" s="1">
         <v>10023</v>
       </c>
-      <c r="B27" s="7" t="str">
+      <c r="B27" s="1" t="str">
         <v>Guide_GuideContent_50003</v>
       </c>
-      <c r="C27" s="3" t="str">
+      <c r="C27" s="4" t="str">
         <v>Here shows the two players who impacted the game most as well as their wins and losses</v>
       </c>
-      <c r="D27" s="7" t="str">
+      <c r="D27" s="1" t="str">
         <v>这里显示了对对局产生影响最大的两方玩家和他们的胜负</v>
       </c>
-      <c r="E27" s="7" t="str"/>
+      <c r="E27" s="1" t="str"/>
     </row>
     <row customHeight="true" ht="21" r="28">
-      <c r="A28" s="7">
+      <c r="A28" s="1">
         <v>10024</v>
       </c>
-      <c r="B28" s="7" t="str">
+      <c r="B28" s="1" t="str">
         <v>Guide_GuideContent_50004</v>
       </c>
-      <c r="C28" s="3" t="str">
+      <c r="C28" s="4" t="str">
         <v>Here's shows your earning in this round</v>
       </c>
-      <c r="D28" s="7" t="str">
+      <c r="D28" s="1" t="str">
         <v>这里显示了你在本轮对局获得的收益</v>
       </c>
-      <c r="E28" s="7" t="str"/>
+      <c r="E28" s="1" t="str"/>
     </row>
     <row customHeight="true" ht="21" r="29">
-      <c r="A29" s="7">
+      <c r="A29" s="1">
         <v>10025</v>
       </c>
-      <c r="B29" s="7" t="str">
+      <c r="B29" s="1" t="str">
         <v>Guide_GuideContent_60001</v>
       </c>
-      <c r="C29" s="3" t="str">
+      <c r="C29" s="4" t="str">
         <v>On behalf of justice, you can't shoot randomly, attacking good people leads to your own death</v>
       </c>
-      <c r="D29" s="7" t="str">
+      <c r="D29" s="1" t="str">
         <v>代表正义的你不可以乱开枪，攻击好人会导致自己死亡</v>
       </c>
-      <c r="E29" s="7" t="str"/>
+      <c r="E29" s="1" t="str"/>
     </row>
     <row customHeight="true" ht="21" r="30">
-      <c r="A30" s="7">
+      <c r="A30" s="1">
         <v>20001</v>
       </c>
-      <c r="B30" s="7" t="str">
+      <c r="B30" s="1" t="str">
         <v>Identity_IdentityName_10001</v>
       </c>
-      <c r="C30" s="3" t="str">
+      <c r="C30" s="4" t="str">
         <v>Detective</v>
       </c>
-      <c r="D30" s="3" t="str">
+      <c r="D30" s="4" t="str">
         <v>侦探</v>
       </c>
-      <c r="E30" s="7" t="str">
+      <c r="E30" s="1" t="str">
         <v>20000：身份属性表</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="31">
-      <c r="A31" s="7">
+      <c r="A31" s="1">
         <v>20002</v>
       </c>
-      <c r="B31" s="7" t="str">
+      <c r="B31" s="1" t="str">
         <v>Identity_IdentityName_10002</v>
       </c>
-      <c r="C31" s="3" t="str">
+      <c r="C31" s="4" t="str">
         <v>Murderer</v>
       </c>
-      <c r="D31" s="3" t="str">
+      <c r="D31" s="4" t="str">
         <v>凶手</v>
       </c>
-      <c r="E31" s="7" t="str"/>
+      <c r="E31" s="1" t="str"/>
     </row>
     <row customHeight="true" ht="21" r="32">
-      <c r="A32" s="7">
+      <c r="A32" s="1">
         <v>20003</v>
       </c>
-      <c r="B32" s="7" t="str">
+      <c r="B32" s="1" t="str">
         <v>Identity_IdentityName_10003</v>
       </c>
-      <c r="C32" s="3" t="str">
+      <c r="C32" s="4" t="str">
         <v>Student</v>
       </c>
-      <c r="D32" s="3" t="str">
+      <c r="D32" s="4" t="str">
         <v>学生</v>
       </c>
-      <c r="E32" s="7" t="str"/>
+      <c r="E32" s="1" t="str"/>
     </row>
     <row customHeight="true" ht="21" r="33">
-      <c r="A33" s="7">
+      <c r="A33" s="1">
         <v>20004</v>
       </c>
-      <c r="B33" s="7" t="str">
+      <c r="B33" s="1" t="str">
         <v>Identity_IdentityName_10004</v>
       </c>
-      <c r="C33" s="3" t="str">
+      <c r="C33" s="4" t="str">
         <v>Hero</v>
       </c>
-      <c r="D33" s="3" t="str">
+      <c r="D33" s="4" t="str">
         <v>英雄</v>
       </c>
-      <c r="E33" s="7" t="str"/>
+      <c r="E33" s="1" t="str"/>
     </row>
     <row customHeight="true" ht="21" r="34">
-      <c r="A34" s="7">
+      <c r="A34" s="1">
         <v>30001</v>
       </c>
-      <c r="B34" s="7" t="str">
+      <c r="B34" s="1" t="str">
         <v>Text_Content_10001</v>
       </c>
-      <c r="C34" s="3" t="str">
+      <c r="C34" s="4" t="str">
         <v>Not enough player</v>
       </c>
-      <c r="D34" s="7" t="str">
+      <c r="D34" s="1" t="str">
         <v>当前人数不足</v>
       </c>
-      <c r="E34" s="7" t="str">
+      <c r="E34" s="1" t="str">
         <v>30000：文本表</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="35">
-      <c r="A35" s="7">
+      <c r="A35" s="1">
         <v>30002</v>
       </c>
-      <c r="B35" s="7" t="str">
+      <c r="B35" s="1" t="str">
         <v>Text_Content_10002</v>
       </c>
-      <c r="C35" s="3" t="str">
+      <c r="C35" s="4" t="str">
         <v>Match in progress</v>
       </c>
-      <c r="D35" s="7" t="str">
+      <c r="D35" s="1" t="str">
         <v>对局进行中</v>
       </c>
-      <c r="E35" s="7" t="str"/>
+      <c r="E35" s="1" t="str"/>
     </row>
     <row customHeight="true" ht="21" r="36">
-      <c r="A36" s="7">
+      <c r="A36" s="1">
         <v>30003</v>
       </c>
-      <c r="B36" s="7" t="str">
+      <c r="B36" s="1" t="str">
         <v>Text_Content_10003</v>
       </c>
-      <c r="C36" s="3" t="str">
+      <c r="C36" s="4" t="str">
         <v>Matching</v>
       </c>
-      <c r="D36" s="7" t="str">
+      <c r="D36" s="1" t="str">
         <v>等待对局开始</v>
       </c>
-      <c r="E36" s="7" t="str"/>
+      <c r="E36" s="1" t="str"/>
     </row>
     <row customHeight="true" ht="21" r="37">
-      <c r="A37" s="7">
+      <c r="A37" s="1">
         <v>30004</v>
       </c>
-      <c r="B37" s="7" t="str">
+      <c r="B37" s="1" t="str">
         <v>Text_Content_11001</v>
       </c>
-      <c r="C37" s="3" t="str">
+      <c r="C37" s="4" t="str">
         <v>The game starts with a countdown...</v>
       </c>
-      <c r="D37" s="7" t="str">
+      <c r="D37" s="1" t="str">
         <v>游戏开始倒计时...</v>
       </c>
-      <c r="E37" s="7" t="str"/>
+      <c r="E37" s="1" t="str"/>
     </row>
     <row customHeight="true" ht="21" r="38">
-      <c r="A38" s="7">
+      <c r="A38" s="1">
         <v>30005</v>
       </c>
-      <c r="B38" s="7" t="str">
+      <c r="B38" s="1" t="str">
         <v>Text_Content_11002</v>
       </c>
-      <c r="C38" s="3" t="str">
+      <c r="C38" s="4" t="str">
         <v>End-of-game countdown</v>
       </c>
-      <c r="D38" s="7" t="str">
+      <c r="D38" s="1" t="str">
         <v>对局结束倒计时</v>
       </c>
-      <c r="E38" s="7" t="str"/>
+      <c r="E38" s="1" t="str"/>
     </row>
     <row customHeight="true" ht="21" r="39">
-      <c r="A39" s="7">
+      <c r="A39" s="1">
         <v>30006</v>
       </c>
-      <c r="B39" s="7" t="str">
+      <c r="B39" s="1" t="str">
         <v>Text_Content_11003</v>
       </c>
-      <c r="C39" s="3" t="str">
+      <c r="C39" s="4" t="str">
         <v>You are playing as:</v>
       </c>
-      <c r="D39" s="7" t="str">
+      <c r="D39" s="1" t="str">
         <v>你的身份是：</v>
       </c>
-      <c r="E39" s="7" t="str"/>
+      <c r="E39" s="1" t="str"/>
     </row>
     <row customHeight="true" ht="21" r="40">
-      <c r="A40" s="7">
+      <c r="A40" s="1">
         <v>30007</v>
       </c>
-      <c r="B40" s="7" t="str">
+      <c r="B40" s="1" t="str">
         <v>Text_Content_11004</v>
       </c>
-      <c r="C40" s="3" t="str">
+      <c r="C40" s="4" t="str">
         <v>Chance being Murderer:</v>
       </c>
-      <c r="D40" s="7" t="str">
+      <c r="D40" s="1" t="str">
         <v>成为凶手的概率：</v>
       </c>
-      <c r="E40" s="7" t="str"/>
+      <c r="E40" s="1" t="str"/>
     </row>
     <row customHeight="true" ht="21" r="41">
-      <c r="A41" s="7">
+      <c r="A41" s="1">
         <v>30008</v>
       </c>
-      <c r="B41" s="7" t="str">
+      <c r="B41" s="1" t="str">
         <v>Text_Content_11005</v>
       </c>
-      <c r="C41" s="3" t="str">
+      <c r="C41" s="4" t="str">
         <v>(Match in the game will increase the possibility)</v>
       </c>
-      <c r="D41" s="7" t="str">
+      <c r="D41" s="1" t="str">
         <v>（参与对局将增加概率）</v>
       </c>
-      <c r="E41" s="7" t="str"/>
+      <c r="E41" s="1" t="str"/>
     </row>
     <row customHeight="true" ht="21" r="42">
-      <c r="A42" s="7">
+      <c r="A42" s="1">
         <v>30009</v>
       </c>
-      <c r="B42" s="7" t="str">
+      <c r="B42" s="1" t="str">
         <v>Text_Content_11006</v>
       </c>
-      <c r="C42" s="3" t="str">
+      <c r="C42" s="4" t="str">
         <v>What you play</v>
       </c>
-      <c r="D42" s="7" t="str">
+      <c r="D42" s="1" t="str">
         <v>你的身份</v>
       </c>
-      <c r="E42" s="7" t="str"/>
+      <c r="E42" s="1" t="str"/>
     </row>
     <row customHeight="true" ht="21" r="43">
-      <c r="A43" s="7">
+      <c r="A43" s="1">
         <v>30010</v>
       </c>
-      <c r="B43" s="7" t="str">
+      <c r="B43" s="1" t="str">
         <v>Text_Content_11007</v>
       </c>
-      <c r="C43" s="3" t="str">
+      <c r="C43" s="4" t="str">
         <v>You Died</v>
       </c>
-      <c r="D43" s="7" t="str">
+      <c r="D43" s="1" t="str">
         <v>你死了</v>
       </c>
-      <c r="E43" s="7" t="str"/>
+      <c r="E43" s="1" t="str"/>
     </row>
     <row customHeight="true" ht="21" r="44">
-      <c r="A44" s="7">
+      <c r="A44" s="1">
         <v>30011</v>
       </c>
-      <c r="B44" s="7" t="str">
+      <c r="B44" s="1" t="str">
         <v>Text_Content_11008</v>
       </c>
-      <c r="C44" s="3" t="str">
+      <c r="C44" s="4" t="str">
         <v>Victory!</v>
       </c>
-      <c r="D44" s="7" t="str">
+      <c r="D44" s="1" t="str">
         <v>胜利！</v>
       </c>
-      <c r="E44" s="7" t="str"/>
+      <c r="E44" s="1" t="str"/>
     </row>
     <row customHeight="true" ht="21" r="45">
-      <c r="A45" s="7">
+      <c r="A45" s="1">
         <v>30012</v>
       </c>
-      <c r="B45" s="7" t="str">
+      <c r="B45" s="1" t="str">
         <v>Text_Content_11009</v>
       </c>
-      <c r="C45" s="3" t="str">
+      <c r="C45" s="4" t="str">
         <v>Kill all the players {0}/{1}</v>
       </c>
-      <c r="D45" s="7" t="str">
+      <c r="D45" s="1" t="str">
         <v>击杀所有人{0}/{1}</v>
       </c>
-      <c r="E45" s="7" t="str"/>
+      <c r="E45" s="1" t="str"/>
     </row>
     <row customHeight="true" ht="21" r="46">
-      <c r="A46" s="7">
+      <c r="A46" s="1">
         <v>30013</v>
       </c>
-      <c r="B46" s="7" t="str">
+      <c r="B46" s="1" t="str">
         <v>Text_Content_11010</v>
       </c>
-      <c r="C46" s="3" t="str">
+      <c r="C46" s="4" t="str">
         <v>Kill the Murderer {0}/{1}</v>
       </c>
-      <c r="D46" s="7" t="str">
+      <c r="D46" s="1" t="str">
         <v>击杀凶手{0}/{1}</v>
       </c>
-      <c r="E46" s="7" t="str"/>
+      <c r="E46" s="1" t="str"/>
     </row>
     <row customHeight="true" ht="21" r="47">
-      <c r="A47" s="7">
+      <c r="A47" s="1">
         <v>30014</v>
       </c>
-      <c r="B47" s="7" t="str">
+      <c r="B47" s="1" t="str">
         <v>Text_Content_11011</v>
       </c>
-      <c r="C47" s="3" t="str">
+      <c r="C47" s="4" t="str">
         <v>Stay alive</v>
       </c>
-      <c r="D47" s="7" t="str">
+      <c r="D47" s="1" t="str">
         <v>活下去</v>
       </c>
-      <c r="E47" s="7" t="str"/>
+      <c r="E47" s="1" t="str"/>
     </row>
     <row customHeight="true" ht="21" r="48">
-      <c r="A48" s="7">
+      <c r="A48" s="1">
         <v>30015</v>
       </c>
-      <c r="B48" s="7" t="str">
+      <c r="B48" s="1" t="str">
         <v>Text_Content_11012</v>
       </c>
-      <c r="C48" s="3" t="str">
+      <c r="C48" s="4" t="str">
         <v>Hidden energy balls collected {0}/{1}</v>
       </c>
-      <c r="D48" s="7" t="str">
+      <c r="D48" s="1" t="str">
         <v>收集隐秘的能量球{0}/{1}</v>
       </c>
-      <c r="E48" s="7" t="str"/>
+      <c r="E48" s="1" t="str"/>
     </row>
     <row customHeight="true" ht="21" r="49">
-      <c r="A49" s="7">
+      <c r="A49" s="1">
         <v>30016</v>
       </c>
-      <c r="B49" s="7" t="str">
+      <c r="B49" s="1" t="str">
         <v>Text_Content_11013</v>
       </c>
-      <c r="C49" s="3" t="str">
+      <c r="C49" s="4" t="str">
         <v>Time's up!</v>
       </c>
-      <c r="D49" s="7" t="str">
+      <c r="D49" s="1" t="str">
         <v>时间到！</v>
       </c>
-      <c r="E49" s="7" t="str"/>
+      <c r="E49" s="1" t="str"/>
     </row>
     <row customHeight="true" ht="21" r="50">
-      <c r="A50" s="7">
+      <c r="A50" s="1">
         <v>30017</v>
       </c>
-      <c r="B50" s="7" t="str">
+      <c r="B50" s="1" t="str">
         <v>Text_Content_12001</v>
       </c>
-      <c r="C50" s="3" t="str">
+      <c r="C50" s="4" t="str">
         <v>The Murderer is on a killing spree!</v>
       </c>
-      <c r="D50" s="7" t="str">
+      <c r="D50" s="1" t="str">
         <v>凶手大杀特杀！</v>
       </c>
-      <c r="E50" s="7" t="str"/>
+      <c r="E50" s="1" t="str"/>
     </row>
     <row customHeight="true" ht="21" r="51">
-      <c r="A51" s="7">
+      <c r="A51" s="1">
         <v>30018</v>
       </c>
-      <c r="B51" s="7" t="str">
+      <c r="B51" s="1" t="str">
         <v>Text_Content_12002</v>
       </c>
-      <c r="C51" s="3" t="str">
+      <c r="C51" s="4" t="str">
         <v>The Murderer kills all the players!</v>
       </c>
-      <c r="D51" s="7" t="str">
+      <c r="D51" s="1" t="str">
         <v>凶手轻松解决了所有人！</v>
       </c>
-      <c r="E51" s="7" t="str"/>
+      <c r="E51" s="1" t="str"/>
     </row>
     <row customHeight="true" ht="21" r="52">
-      <c r="A52" s="7">
+      <c r="A52" s="1">
         <v>30019</v>
       </c>
-      <c r="B52" s="7" t="str">
+      <c r="B52" s="1" t="str">
         <v>Text_Content_12003</v>
       </c>
-      <c r="C52" s="3" t="str">
+      <c r="C52" s="4" t="str">
         <v>Detective arrested the Murderer!</v>
       </c>
-      <c r="D52" s="7" t="str">
+      <c r="D52" s="1" t="str">
         <v>侦探逮捕了凶手！</v>
       </c>
-      <c r="E52" s="7" t="str"/>
+      <c r="E52" s="1" t="str"/>
     </row>
     <row customHeight="true" ht="21" r="53">
-      <c r="A53" s="7">
+      <c r="A53" s="1">
         <v>30020</v>
       </c>
-      <c r="B53" s="7" t="str">
+      <c r="B53" s="1" t="str">
         <v>Text_Content_12004</v>
       </c>
-      <c r="C53" s="3" t="str">
+      <c r="C53" s="4" t="str">
         <v>Hero appeared and turned the tide!</v>
       </c>
-      <c r="D53" s="7" t="str">
+      <c r="D53" s="1" t="str">
         <v>一位英雄出现并逆转了局面！</v>
       </c>
-      <c r="E53" s="7" t="str"/>
+      <c r="E53" s="1" t="str"/>
     </row>
     <row customHeight="true" ht="21" r="54">
-      <c r="A54" s="7">
+      <c r="A54" s="1">
         <v>30021</v>
       </c>
-      <c r="B54" s="7" t="str">
+      <c r="B54" s="1" t="str">
         <v>Text_Content_12005</v>
       </c>
-      <c r="C54" s="3" t="str">
+      <c r="C54" s="4" t="str">
         <v>Murderer seems to be missing something...</v>
       </c>
-      <c r="D54" s="7" t="str">
+      <c r="D54" s="1" t="str">
         <v>凶手似乎遗漏了什么...</v>
       </c>
-      <c r="E54" s="7" t="str"/>
+      <c r="E54" s="1" t="str"/>
     </row>
     <row customHeight="true" ht="21" r="55">
-      <c r="A55" s="7">
+      <c r="A55" s="1">
         <v>30022</v>
       </c>
-      <c r="B55" s="7" t="str">
+      <c r="B55" s="1" t="str">
         <v>Text_Content_12006</v>
       </c>
-      <c r="C55" s="3" t="str">
+      <c r="C55" s="4" t="str">
         <v>Murderer seems to be missing something...</v>
       </c>
-      <c r="D55" s="7" t="str">
+      <c r="D55" s="1" t="str">
         <v>凶手似乎遗漏了什么...</v>
       </c>
-      <c r="E55" s="7" t="str"/>
+      <c r="E55" s="1" t="str"/>
     </row>
     <row customHeight="true" ht="21" r="56">
-      <c r="A56" s="7">
+      <c r="A56" s="1">
         <v>30023</v>
       </c>
-      <c r="B56" s="7" t="str">
+      <c r="B56" s="1" t="str">
         <v>Text_Content_20001</v>
       </c>
-      <c r="C56" s="3" t="str">
+      <c r="C56" s="4" t="str">
         <v>Murder Mystery</v>
       </c>
-      <c r="D56" s="7" t="str">
+      <c r="D56" s="1" t="str">
         <v>合宿谜团</v>
       </c>
-      <c r="E56" s="7" t="str"/>
+      <c r="E56" s="1" t="str"/>
     </row>
     <row customHeight="true" ht="21" r="57">
-      <c r="A57" s="7">
+      <c r="A57" s="1">
         <v>30024</v>
       </c>
-      <c r="B57" s="7" t="str">
+      <c r="B57" s="1" t="str">
         <v>Text_Content_20002</v>
       </c>
-      <c r="C57" s="3" t="str">
+      <c r="C57" s="4" t="str">
         <v>Start</v>
       </c>
-      <c r="D57" s="7" t="str">
+      <c r="D57" s="1" t="str">
         <v>开始</v>
       </c>
-      <c r="E57" s="7" t="str"/>
+      <c r="E57" s="1" t="str"/>
     </row>
     <row customHeight="true" ht="21" r="58">
-      <c r="A58" s="7">
+      <c r="A58" s="1">
         <v>30025</v>
       </c>
-      <c r="B58" s="7" t="str">
+      <c r="B58" s="1" t="str">
         <v>Text_Content_20003</v>
       </c>
-      <c r="C58" s="3" t="str">
+      <c r="C58" s="4" t="str">
         <v>View</v>
       </c>
-      <c r="D58" s="7" t="str">
+      <c r="D58" s="1" t="str">
         <v>观战</v>
       </c>
-      <c r="E58" s="7" t="str"/>
+      <c r="E58" s="1" t="str"/>
     </row>
     <row customHeight="true" ht="21" r="59">
-      <c r="A59" s="7">
+      <c r="A59" s="1">
         <v>30026</v>
       </c>
-      <c r="B59" s="7" t="str">
+      <c r="B59" s="1" t="str">
         <v>Text_Content_20004</v>
       </c>
-      <c r="C59" s="3" t="str">
+      <c r="C59" s="4" t="str">
         <v>View Countdown</v>
       </c>
-      <c r="D59" s="7" t="str">
+      <c r="D59" s="1" t="str">
         <v>观战倒计时</v>
       </c>
-      <c r="E59" s="7" t="str"/>
+      <c r="E59" s="1" t="str"/>
     </row>
     <row customHeight="true" ht="21" r="60">
-      <c r="A60" s="7">
+      <c r="A60" s="1">
         <v>30027</v>
       </c>
-      <c r="B60" s="7" t="str">
+      <c r="B60" s="1" t="str">
         <v>Text_Content_20005</v>
       </c>
-      <c r="C60" s="3" t="str">
+      <c r="C60" s="4" t="str">
         <v>He is playing as:</v>
       </c>
-      <c r="D60" s="7" t="str">
+      <c r="D60" s="1" t="str">
         <v>他的身份是</v>
       </c>
-      <c r="E60" s="7" t="str"/>
+      <c r="E60" s="1" t="str"/>
     </row>
     <row customHeight="true" ht="21" r="61">
-      <c r="A61" s="7">
+      <c r="A61" s="1">
         <v>30028</v>
       </c>
-      <c r="B61" s="7" t="str">
+      <c r="B61" s="1" t="str">
         <v>Text_Content_20006</v>
       </c>
-      <c r="C61" s="3" t="str">
+      <c r="C61" s="4" t="str">
         <v>Goals for your Identity</v>
       </c>
-      <c r="D61" s="7" t="str">
+      <c r="D61" s="1" t="str">
         <v>身份目标</v>
       </c>
-      <c r="E61" s="7" t="str"/>
+      <c r="E61" s="1" t="str"/>
     </row>
     <row customHeight="true" ht="21" r="62">
-      <c r="A62" s="7">
+      <c r="A62" s="1">
         <v>30029</v>
       </c>
-      <c r="B62" s="7" t="str">
+      <c r="B62" s="1" t="str">
         <v>Text_Content_20007</v>
       </c>
-      <c r="C62" s="3" t="str">
+      <c r="C62" s="4" t="str">
         <v>Start</v>
       </c>
-      <c r="D62" s="7" t="str">
+      <c r="D62" s="1" t="str">
         <v>开始</v>
       </c>
-      <c r="E62" s="7" t="str"/>
+      <c r="E62" s="1" t="str"/>
     </row>
     <row customHeight="true" ht="21" r="63">
-      <c r="A63" s="7">
+      <c r="A63" s="1">
         <v>30030</v>
       </c>
-      <c r="B63" s="7" t="str">
+      <c r="B63" s="1" t="str">
         <v>Text_Content_20008</v>
       </c>
-      <c r="C63" s="3" t="str">
+      <c r="C63" s="4" t="str">
         <v>Loading...</v>
       </c>
-      <c r="D63" s="7" t="str">
+      <c r="D63" s="1" t="str">
         <v>加载中...</v>
       </c>
-      <c r="E63" s="7" t="str"/>
+      <c r="E63" s="1" t="str"/>
     </row>
     <row customHeight="true" ht="21" r="64">
-      <c r="A64" s="7">
+      <c r="A64" s="1">
         <v>30031</v>
       </c>
-      <c r="B64" s="3" t="str">
+      <c r="B64" s="4" t="str">
         <v>Tips_Content_20002</v>
       </c>
-      <c r="C64" s="3" t="str">
+      <c r="C64" s="4" t="str">
         <v>Insufficient currency</v>
       </c>
-      <c r="D64" s="7" t="str">
+      <c r="D64" s="1" t="str">
         <v>货币不足</v>
       </c>
-      <c r="E64" s="7" t="str"/>
+      <c r="E64" s="1" t="str"/>
     </row>
     <row customHeight="true" ht="21" r="65">
-      <c r="A65" s="7">
+      <c r="A65" s="1">
         <v>30032</v>
       </c>
-      <c r="B65" s="7" t="str">
+      <c r="B65" s="1" t="str">
         <v>Text_Content_20009</v>
       </c>
-      <c r="C65" s="3" t="str">
+      <c r="C65" s="4" t="str">
         <v>Shop</v>
       </c>
-      <c r="D65" s="7" t="str">
+      <c r="D65" s="1" t="str">
         <v>商店</v>
       </c>
-      <c r="E65" s="7" t="str"/>
+      <c r="E65" s="1" t="str"/>
     </row>
     <row customHeight="true" ht="21" r="66">
-      <c r="A66" s="7">
+      <c r="A66" s="1">
         <v>30033</v>
       </c>
-      <c r="B66" s="7" t="str">
+      <c r="B66" s="1" t="str">
         <v>Text_Content_20010</v>
       </c>
-      <c r="C66" s="3" t="str">
+      <c r="C66" s="4" t="str">
         <v>For Murderers</v>
       </c>
-      <c r="D66" s="3" t="str">
+      <c r="D66" s="4" t="str">
         <v>凶手专用</v>
       </c>
-      <c r="E66" s="7" t="str"/>
+      <c r="E66" s="1" t="str"/>
     </row>
     <row customHeight="true" ht="21" r="67">
-      <c r="A67" s="7">
+      <c r="A67" s="1">
         <v>30034</v>
       </c>
-      <c r="B67" s="7" t="str">
+      <c r="B67" s="1" t="str">
         <v>Text_Content_20011</v>
       </c>
-      <c r="C67" s="3" t="str">
+      <c r="C67" s="4" t="str">
         <v>For Detectives</v>
       </c>
-      <c r="D67" s="3" t="str">
+      <c r="D67" s="4" t="str">
         <v>侦探专用</v>
       </c>
-      <c r="E67" s="7" t="str"/>
+      <c r="E67" s="1" t="str"/>
     </row>
     <row customHeight="true" ht="21" r="68">
-      <c r="A68" s="7">
+      <c r="A68" s="1">
         <v>30035</v>
       </c>
-      <c r="B68" s="7" t="str">
+      <c r="B68" s="1" t="str">
         <v>Text_Content_20012</v>
       </c>
-      <c r="C68" s="3" t="str">
+      <c r="C68" s="4" t="str">
         <v>Gun</v>
       </c>
-      <c r="D68" s="7" t="str">
+      <c r="D68" s="1" t="str">
         <v>枪</v>
       </c>
-      <c r="E68" s="7" t="str"/>
+      <c r="E68" s="1" t="str"/>
     </row>
     <row customHeight="true" ht="21" r="69">
-      <c r="A69" s="7">
+      <c r="A69" s="1">
         <v>30036</v>
       </c>
-      <c r="B69" s="7" t="str">
+      <c r="B69" s="1" t="str">
         <v>Text_Content_20013</v>
       </c>
-      <c r="C69" s="3" t="str">
+      <c r="C69" s="4" t="str">
         <v>Knife</v>
       </c>
-      <c r="D69" s="7" t="str">
+      <c r="D69" s="1" t="str">
         <v>刀</v>
       </c>
-      <c r="E69" s="7" t="str"/>
+      <c r="E69" s="1" t="str"/>
     </row>
     <row customHeight="true" ht="21" r="70">
-      <c r="A70" s="7">
+      <c r="A70" s="1">
         <v>30037</v>
       </c>
-      <c r="B70" s="7" t="str">
+      <c r="B70" s="1" t="str">
         <v>Text_Content_20014</v>
       </c>
-      <c r="C70" s="3" t="str">
+      <c r="C70" s="4" t="str">
         <v>Acc</v>
       </c>
-      <c r="D70" s="7" t="str">
+      <c r="D70" s="1" t="str">
         <v>挂件</v>
       </c>
-      <c r="E70" s="7" t="str"/>
+      <c r="E70" s="1" t="str"/>
     </row>
     <row customHeight="true" ht="21" r="71">
-      <c r="A71" s="7">
+      <c r="A71" s="1">
         <v>30038</v>
       </c>
-      <c r="B71" s="7" t="str">
+      <c r="B71" s="1" t="str">
         <v>Text_Content_20015</v>
       </c>
-      <c r="C71" s="3" t="str">
+      <c r="C71" s="4" t="str">
         <v>Buy</v>
       </c>
-      <c r="D71" s="3" t="str">
+      <c r="D71" s="4" t="str">
         <v>购买</v>
       </c>
-      <c r="E71" s="7" t="str"/>
+      <c r="E71" s="1" t="str"/>
     </row>
     <row customHeight="true" ht="21" r="72">
-      <c r="A72" s="7">
+      <c r="A72" s="1">
         <v>30039</v>
       </c>
-      <c r="B72" s="7" t="str">
+      <c r="B72" s="1" t="str">
         <v>Text_Content_20016</v>
       </c>
-      <c r="C72" s="3" t="str">
+      <c r="C72" s="4" t="str">
         <v>Use</v>
       </c>
-      <c r="D72" s="13" t="str">
+      <c r="D72" s="3" t="str">
         <v>使用</v>
       </c>
-      <c r="E72" s="7" t="str"/>
+      <c r="E72" s="1" t="str"/>
     </row>
     <row customHeight="true" ht="21" r="73">
-      <c r="A73" s="7">
+      <c r="A73" s="1">
         <v>30040</v>
       </c>
-      <c r="B73" s="7" t="str">
+      <c r="B73" s="1" t="str">
         <v>Text_Content_20017</v>
       </c>
-      <c r="C73" s="3" t="str">
+      <c r="C73" s="4" t="str">
         <v>Take Off</v>
       </c>
-      <c r="D73" s="7" t="str">
+      <c r="D73" s="1" t="str">
         <v>脱下</v>
       </c>
-      <c r="E73" s="7" t="str"/>
+      <c r="E73" s="1" t="str"/>
     </row>
     <row customHeight="true" ht="21" r="74">
-      <c r="A74" s="7">
+      <c r="A74" s="1">
         <v>30041</v>
       </c>
-      <c r="B74" s="7" t="str">
+      <c r="B74" s="1" t="str">
         <v>Text_Content_20018</v>
       </c>
-      <c r="C74" s="3" t="str">
+      <c r="C74" s="4" t="str">
         <v>Buy Items</v>
       </c>
-      <c r="D74" s="7" t="str">
+      <c r="D74" s="1" t="str">
         <v>购买物品</v>
       </c>
-      <c r="E74" s="7" t="str"/>
+      <c r="E74" s="1" t="str"/>
     </row>
     <row customHeight="true" ht="21" r="75">
-      <c r="A75" s="7">
+      <c r="A75" s="1">
         <v>30042</v>
       </c>
-      <c r="B75" s="7" t="str">
+      <c r="B75" s="1" t="str">
         <v>Text_Content_20019</v>
       </c>
-      <c r="C75" s="3" t="str">
+      <c r="C75" s="4" t="str">
         <v>For the Murderers</v>
       </c>
-      <c r="D75" s="3" t="str">
+      <c r="D75" s="4" t="str">
         <v>凶手专用</v>
       </c>
-      <c r="E75" s="7" t="str"/>
+      <c r="E75" s="1" t="str"/>
     </row>
     <row customHeight="true" ht="21" r="76">
-      <c r="A76" s="7">
+      <c r="A76" s="1">
         <v>30043</v>
       </c>
-      <c r="B76" s="7" t="str">
+      <c r="B76" s="1" t="str">
         <v>Text_Content_20020</v>
       </c>
-      <c r="C76" s="3" t="str">
+      <c r="C76" s="4" t="str">
         <v>For Detectives</v>
       </c>
-      <c r="D76" s="3" t="str">
+      <c r="D76" s="4" t="str">
         <v>侦探专用</v>
       </c>
-      <c r="E76" s="7" t="str"/>
+      <c r="E76" s="1" t="str"/>
     </row>
     <row customHeight="true" ht="21" r="77">
-      <c r="A77" s="7">
+      <c r="A77" s="1">
         <v>30044</v>
       </c>
-      <c r="B77" s="7" t="str">
+      <c r="B77" s="1" t="str">
         <v>Text_Content_20021</v>
       </c>
-      <c r="C77" s="3" t="str">
+      <c r="C77" s="4" t="str">
         <v>Confirm</v>
       </c>
-      <c r="D77" s="7" t="str">
+      <c r="D77" s="1" t="str">
         <v>确定</v>
       </c>
-      <c r="E77" s="7" t="str"/>
+      <c r="E77" s="1" t="str"/>
     </row>
     <row customHeight="true" ht="21" r="78">
-      <c r="A78" s="7">
+      <c r="A78" s="1">
         <v>30045</v>
       </c>
-      <c r="B78" s="7" t="str">
+      <c r="B78" s="1" t="str">
         <v>Text_Content_20022</v>
       </c>
-      <c r="C78" s="3" t="str">
+      <c r="C78" s="4" t="str">
         <v>Cancel</v>
       </c>
-      <c r="D78" s="7" t="str">
+      <c r="D78" s="1" t="str">
         <v>取消</v>
       </c>
-      <c r="E78" s="7" t="str"/>
+      <c r="E78" s="1" t="str"/>
     </row>
     <row customHeight="true" ht="21" r="79">
-      <c r="A79" s="7">
+      <c r="A79" s="1">
         <v>30046</v>
       </c>
-      <c r="B79" s="7" t="str">
+      <c r="B79" s="1" t="str">
         <v>Text_Content_20023</v>
       </c>
-      <c r="C79" s="3" t="str">
+      <c r="C79" s="4" t="str">
         <v>Tap anywhere to go back</v>
       </c>
-      <c r="D79" s="3" t="str">
+      <c r="D79" s="4" t="str">
         <v>点击任意一处返回</v>
       </c>
-      <c r="E79" s="7" t="str"/>
+      <c r="E79" s="1" t="str"/>
     </row>
     <row customHeight="true" ht="21" r="80">
-      <c r="A80" s="7">
+      <c r="A80" s="1">
         <v>30047</v>
       </c>
-      <c r="B80" s="7" t="str">
+      <c r="B80" s="1" t="str">
         <v>Text_Content_20024</v>
       </c>
-      <c r="C80" s="3" t="str">
+      <c r="C80" s="4" t="str">
         <v>Purchase Successfully</v>
       </c>
-      <c r="D80" s="3" t="str">
+      <c r="D80" s="4" t="str">
         <v>购买成功</v>
       </c>
-      <c r="E80" s="7" t="str"/>
+      <c r="E80" s="1" t="str"/>
     </row>
     <row customHeight="true" ht="21" r="81">
-      <c r="A81" s="7">
+      <c r="A81" s="1">
         <v>30048</v>
       </c>
-      <c r="B81" s="7" t="str">
+      <c r="B81" s="1" t="str">
         <v>Text_Content_20025</v>
       </c>
-      <c r="C81" s="3" t="str">
+      <c r="C81" s="4" t="str">
         <v>Use</v>
       </c>
-      <c r="D81" s="13" t="str">
+      <c r="D81" s="3" t="str">
         <v>使用</v>
       </c>
-      <c r="E81" s="7" t="str"/>
+      <c r="E81" s="1" t="str"/>
     </row>
     <row customHeight="true" ht="21" r="82">
-      <c r="A82" s="7">
+      <c r="A82" s="1">
         <v>30049</v>
       </c>
-      <c r="B82" s="12" t="str">
+      <c r="B82" s="2" t="str">
         <v>Text_Content_10301</v>
       </c>
-      <c r="C82" s="12" t="str">
+      <c r="C82" s="2" t="str">
         <v>Please select a map to play</v>
       </c>
-      <c r="D82" s="12" t="str">
+      <c r="D82" s="2" t="str">
         <v>请选择要游玩的地图</v>
       </c>
-      <c r="E82" s="7" t="str"/>
+      <c r="E82" s="1" t="str"/>
     </row>
     <row customHeight="true" ht="21" r="83">
-      <c r="A83" s="7">
+      <c r="A83" s="1">
         <v>30050</v>
       </c>
-      <c r="B83" s="12" t="str">
+      <c r="B83" s="2" t="str">
         <v>Text_Content_10302</v>
       </c>
-      <c r="C83" s="12" t="str">
+      <c r="C83" s="2" t="str">
         <v>Map Selected</v>
       </c>
-      <c r="D83" s="12" t="str">
+      <c r="D83" s="2" t="str">
         <v>地图已选出</v>
       </c>
-      <c r="E83" s="7" t="str"/>
+      <c r="E83" s="1" t="str"/>
     </row>
     <row customHeight="true" ht="21" r="84">
-      <c r="A84" s="7">
+      <c r="A84" s="1">
         <v>30051</v>
       </c>
-      <c r="B84" s="12" t="str">
+      <c r="B84" s="2" t="str">
         <v>Text_Content_10004</v>
       </c>
-      <c r="C84" s="12" t="str">
+      <c r="C84" s="2" t="str">
         <v>Randomizing</v>
       </c>
-      <c r="D84" s="12" t="str">
+      <c r="D84" s="2" t="str">
         <v>随机地图中</v>
       </c>
-      <c r="E84" s="7" t="str"/>
+      <c r="E84" s="1" t="str"/>
     </row>
     <row customHeight="true" ht="21" r="85">
-      <c r="A85" s="7">
+      <c r="A85" s="1">
         <v>30052</v>
       </c>
-      <c r="B85" s="12" t="str">
+      <c r="B85" s="2" t="str">
         <v>Text_Content_20029</v>
       </c>
-      <c r="C85" s="12" t="str">
+      <c r="C85" s="2" t="str">
         <v>Trail</v>
       </c>
-      <c r="D85" s="13" t="str">
+      <c r="D85" s="3" t="str">
         <v>拖尾</v>
       </c>
-      <c r="E85" s="7"/>
+      <c r="E85" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="86">
-      <c r="A86" s="7">
+      <c r="A86" s="1">
         <v>30053</v>
       </c>
-      <c r="B86" s="12" t="str">
+      <c r="B86" s="2" t="str">
         <v>Text_Content_20030</v>
       </c>
-      <c r="C86" s="12" t="str">
+      <c r="C86" s="2" t="str">
         <v>Get it for free</v>
       </c>
-      <c r="D86" s="13" t="str">
+      <c r="D86" s="3" t="str">
         <v>免费领取</v>
       </c>
-      <c r="E86" s="7" t="str"/>
+      <c r="E86" s="1" t="str"/>
     </row>
     <row customHeight="true" ht="21" r="87">
-      <c r="A87" s="7">
+      <c r="A87" s="1">
         <v>30054</v>
       </c>
-      <c r="B87" s="12" t="str">
+      <c r="B87" s="2" t="str">
         <v>Text_Content_20031</v>
       </c>
-      <c r="C87" s="12" t="str">
+      <c r="C87" s="2" t="str">
         <v>Watch ads to get extra rewards</v>
       </c>
-      <c r="D87" s="13" t="str">
+      <c r="D87" s="3" t="str">
         <v>观看广告领取额外奖励</v>
       </c>
-      <c r="E87" s="7" t="str"/>
+      <c r="E87" s="1" t="str"/>
     </row>
     <row customHeight="true" ht="21" r="88">
-      <c r="A88" s="7">
+      <c r="A88" s="1">
         <v>30055</v>
       </c>
-      <c r="B88" s="12" t="str">
+      <c r="B88" s="2" t="str">
         <v>Text_Content_20032</v>
       </c>
-      <c r="C88" s="12" t="str">
+      <c r="C88" s="2" t="str">
         <v>Watch the ad to receive compensation</v>
       </c>
-      <c r="D88" s="12" t="str">
+      <c r="D88" s="2" t="str">
         <v>观看广告领取补偿</v>
       </c>
-      <c r="E88" s="7" t="str"/>
+      <c r="E88" s="1" t="str"/>
     </row>
     <row customHeight="true" ht="21" r="89">
-      <c r="A89" s="7">
+      <c r="A89" s="1">
         <v>30056</v>
       </c>
-      <c r="B89" s="12" t="str">
+      <c r="B89" s="2" t="str">
         <v>Text_Content_20033</v>
       </c>
-      <c r="C89" s="12" t="str">
+      <c r="C89" s="2" t="str">
         <v>Congratulations on receiving</v>
       </c>
-      <c r="D89" s="13" t="str">
+      <c r="D89" s="3" t="str">
         <v>恭喜获得</v>
       </c>
-      <c r="E89" s="7" t="str"/>
+      <c r="E89" s="1" t="str"/>
     </row>
     <row customHeight="true" ht="21" r="90">
-      <c r="A90" s="7">
+      <c r="A90" s="1">
         <v>30057</v>
       </c>
-      <c r="B90" s="12" t="str">
+      <c r="B90" s="2" t="str">
         <v>Tips_Content_20003</v>
       </c>
-      <c r="C90" s="12" t="str">
+      <c r="C90" s="2" t="str">
         <v>It's not ready yet, please wait a little longer to get it~</v>
       </c>
-      <c r="D90" s="13" t="str">
+      <c r="D90" s="3" t="str">
         <v>时间还没到，再等一下才能获得哦~</v>
       </c>
-      <c r="E90" s="7" t="str"/>
+      <c r="E90" s="1" t="str"/>
     </row>
     <row customHeight="true" ht="21" r="91">
-      <c r="A91" s="7">
+      <c r="A91" s="1">
         <v>30058</v>
       </c>
-      <c r="B91" s="12" t="str">
+      <c r="B91" s="2" t="str">
         <v>Tips_Content_20004</v>
       </c>
-      <c r="C91" s="12" t="str">
+      <c r="C91" s="2" t="str">
         <v>You've already received plenty of rewards today, so please come back tomorrow~</v>
       </c>
-      <c r="D91" s="13" t="str">
+      <c r="D91" s="3" t="str">
         <v>今天已经得到很多奖励了，明天再来吧~</v>
       </c>
-      <c r="E91" s="7" t="str"/>
+      <c r="E91" s="1" t="str"/>
     </row>
     <row customHeight="true" ht="21" r="92">
-      <c r="A92" s="7">
+      <c r="A92" s="1">
         <v>30059</v>
       </c>
-      <c r="B92" s="12" t="str">
+      <c r="B92" s="2" t="str">
         <v>Text_Content_11014</v>
       </c>
-      <c r="C92" s="12" t="str">
+      <c r="C92" s="2" t="str">
         <v>Available</v>
       </c>
-      <c r="D92" s="13" t="str">
+      <c r="D92" s="3" t="str">
         <v>待拾取</v>
       </c>
-      <c r="E92" s="7"/>
+      <c r="E92" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="93">
-      <c r="A93" s="7">
+      <c r="A93" s="1">
         <v>30060</v>
       </c>
-      <c r="B93" s="12" t="str">
+      <c r="B93" s="2" t="str">
         <v>Text_Content_11015</v>
       </c>
-      <c r="C93" s="12" t="str">
+      <c r="C93" s="2" t="str">
         <v>Exist</v>
       </c>
-      <c r="D93" s="13" t="str">
+      <c r="D93" s="3" t="str">
         <v>存在</v>
       </c>
-      <c r="E93" s="7"/>
+      <c r="E93" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="94">
-      <c r="A94" s="7">
+      <c r="A94" s="1">
         <v>30061</v>
       </c>
-      <c r="B94" s="12" t="str">
+      <c r="B94" s="2" t="str">
         <v>Text_Content_11016</v>
       </c>
-      <c r="C94" s="12" t="str">
+      <c r="C94" s="2" t="str">
         <v>Survival experience +{0}EXP</v>
       </c>
-      <c r="D94" s="13" t="str">
+      <c r="D94" s="3" t="str">
         <v>存活经验+{0}EXP</v>
       </c>
-      <c r="E94" s="7"/>
+      <c r="E94" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="95">
-      <c r="A95" s="7">
+      <c r="A95" s="1">
         <v>30062</v>
       </c>
-      <c r="B95" s="12" t="str">
+      <c r="B95" s="2" t="str">
         <v>Text_Content_12007</v>
       </c>
-      <c r="C95" s="12" t="str">
+      <c r="C95" s="2" t="str">
         <v>Reward</v>
       </c>
-      <c r="D95" s="12" t="str">
+      <c r="D95" s="2" t="str">
         <v>奖励</v>
       </c>
-      <c r="E95" s="7" t="str"/>
+      <c r="E95" s="1" t="str"/>
     </row>
     <row customHeight="true" ht="21" r="96">
-      <c r="A96" s="7">
+      <c r="A96" s="1">
         <v>30063</v>
       </c>
-      <c r="B96" s="3" t="str">
+      <c r="B96" s="4" t="str">
         <v>Text_Content_12008</v>
       </c>
-      <c r="C96" s="3" t="str">
+      <c r="C96" s="4" t="str">
         <v>Identity</v>
       </c>
-      <c r="D96" s="3" t="str">
+      <c r="D96" s="4" t="str">
         <v>本局身份</v>
       </c>
-      <c r="E96" s="7" t="str"/>
+      <c r="E96" s="1" t="str"/>
     </row>
     <row customHeight="true" ht="21" r="97">
-      <c r="A97" s="7">
+      <c r="A97" s="1">
         <v>30064</v>
       </c>
-      <c r="B97" s="3" t="str">
+      <c r="B97" s="4" t="str">
         <v>Text_Content_12009</v>
       </c>
-      <c r="C97" s="3" t="str">
+      <c r="C97" s="4" t="str">
         <v>Coins</v>
       </c>
-      <c r="D97" s="3" t="str">
+      <c r="D97" s="4" t="str">
         <v>收集金币</v>
       </c>
-      <c r="E97" s="7" t="str"/>
+      <c r="E97" s="1" t="str"/>
     </row>
     <row customHeight="true" ht="21" r="98">
-      <c r="A98" s="7">
+      <c r="A98" s="1">
         <v>30065</v>
       </c>
-      <c r="B98" s="3" t="str">
+      <c r="B98" s="4" t="str">
         <v>Text_Content_12010</v>
       </c>
-      <c r="C98" s="3" t="str">
+      <c r="C98" s="4" t="str">
         <v>Defeats {0}</v>
       </c>
-      <c r="D98" s="3" t="str">
+      <c r="D98" s="4" t="str">
         <v>消灭了{0}名学生！</v>
       </c>
-      <c r="E98" s="7" t="str"/>
+      <c r="E98" s="1" t="str"/>
     </row>
     <row customHeight="true" ht="21" r="99">
-      <c r="A99" s="7">
+      <c r="A99" s="1">
         <v>30066</v>
       </c>
-      <c r="B99" s="3" t="str">
+      <c r="B99" s="4" t="str">
         <v>Text_Content_12011</v>
       </c>
-      <c r="C99" s="3" t="str">
+      <c r="C99" s="4" t="str">
         <v>Survived for {0}mins {1} s</v>
       </c>
-      <c r="D99" s="3" t="str">
+      <c r="D99" s="4" t="str">
         <v>已存活{0}分{1}秒</v>
       </c>
-      <c r="E99" s="7" t="str"/>
+      <c r="E99" s="1" t="str"/>
     </row>
     <row customHeight="true" ht="21" r="100">
-      <c r="A100" s="7">
+      <c r="A100" s="1">
         <v>30067</v>
       </c>
-      <c r="B100" s="3" t="str">
+      <c r="B100" s="4" t="str">
         <v>Text_Content_12012</v>
       </c>
-      <c r="C100" s="3" t="str">
+      <c r="C100" s="4" t="str">
         <v>Saved {0} Students</v>
       </c>
-      <c r="D100" s="3" t="str">
+      <c r="D100" s="4" t="str">
         <v>拯救了{0}位学生</v>
       </c>
-      <c r="E100" s="7" t="str"/>
+      <c r="E100" s="1" t="str"/>
     </row>
     <row customHeight="true" ht="21" r="101">
-      <c r="A101" s="7">
+      <c r="A101" s="1">
         <v>30068</v>
       </c>
-      <c r="B101" s="3" t="str">
+      <c r="B101" s="4" t="str">
         <v>Text_Content_12013</v>
       </c>
-      <c r="C101" s="3" t="str">
+      <c r="C101" s="4" t="str">
         <v>Saved {0} Students</v>
       </c>
-      <c r="D101" s="3" t="str">
+      <c r="D101" s="4" t="str">
         <v>拯救了{0}位学生</v>
       </c>
-      <c r="E101" s="7" t="str"/>
+      <c r="E101" s="1" t="str"/>
     </row>
     <row customHeight="true" ht="21" r="102">
-      <c r="A102" s="7">
+      <c r="A102" s="1">
         <v>30069</v>
       </c>
-      <c r="B102" s="3" t="str">
+      <c r="B102" s="4" t="str">
         <v>Text_Content_12014</v>
       </c>
-      <c r="C102" s="26" t="str">
+      <c r="C102" s="15" t="str">
         <v>× 1.5 (Bonus)</v>
       </c>
-      <c r="D102" s="3" t="str">
+      <c r="D102" s="4" t="str">
         <v>× 1.5 ( 胜利奖励)</v>
       </c>
-      <c r="E102" s="7" t="str"/>
+      <c r="E102" s="1" t="str"/>
     </row>
     <row customHeight="true" ht="21" r="103">
-      <c r="A103" s="7">
+      <c r="A103" s="1">
         <v>30070</v>
       </c>
-      <c r="B103" s="3" t="str">
+      <c r="B103" s="4" t="str">
         <v>Text_Content_12015</v>
       </c>
-      <c r="C103" s="26" t="str">
+      <c r="C103" s="15" t="str">
         <v>+ 900 (Bonus )</v>
       </c>
-      <c r="D103" s="3" t="str">
+      <c r="D103" s="4" t="str">
         <v>+ 900 ( 胜利奖励)</v>
       </c>
-      <c r="E103" s="7" t="str"/>
+      <c r="E103" s="1" t="str"/>
     </row>
     <row customHeight="true" ht="21" r="104">
-      <c r="A104" s="7">
+      <c r="A104" s="1">
         <v>30071</v>
       </c>
-      <c r="B104" s="3" t="str">
+      <c r="B104" s="4" t="str">
         <v>Text_Content_12016</v>
       </c>
-      <c r="C104" s="3" t="str">
+      <c r="C104" s="4" t="str">
         <v>Watch ads to get double coins!</v>
       </c>
-      <c r="D104" s="3" t="str">
+      <c r="D104" s="4" t="str">
         <v>观看广告，获得双倍金币！</v>
       </c>
-      <c r="E104" s="7" t="str">
+      <c r="E104" s="1" t="str">
         <v>UI按钮上的文字</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="105">
-      <c r="A105" s="7">
+      <c r="A105" s="1">
         <v>30072</v>
       </c>
-      <c r="B105" s="3" t="str">
+      <c r="B105" s="4" t="str">
         <v>Text_Content_12017</v>
       </c>
-      <c r="C105" s="3" t="str">
+      <c r="C105" s="4" t="str">
         <v>GET</v>
       </c>
-      <c r="D105" s="3" t="str">
+      <c r="D105" s="4" t="str">
         <v>观看</v>
       </c>
-      <c r="E105" s="7" t="str">
+      <c r="E105" s="1" t="str">
         <v>UI按钮上的文字</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="106">
-      <c r="A106" s="13">
+      <c r="A106" s="3">
         <v>30073</v>
       </c>
-      <c r="B106" s="12" t="str">
+      <c r="B106" s="2" t="str">
         <v>Text_Content_12018</v>
       </c>
-      <c r="C106" s="12" t="str">
+      <c r="C106" s="2" t="str">
         <v>Lottery</v>
       </c>
-      <c r="D106" s="12" t="str">
+      <c r="D106" s="2" t="str">
         <v>抽奖</v>
       </c>
-      <c r="E106" s="13" t="str">
+      <c r="E106" s="3" t="str">
         <v>UI按钮上的文字</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="107">
-      <c r="A107" s="13">
+      <c r="A107" s="3">
         <v>30074</v>
       </c>
-      <c r="B107" s="12" t="str">
+      <c r="B107" s="2" t="str">
         <v>Text_Content_12019</v>
       </c>
-      <c r="C107" s="12" t="str">
+      <c r="C107" s="2" t="str">
         <v>Weapon Box</v>
       </c>
-      <c r="D107" s="12" t="str">
+      <c r="D107" s="2" t="str">
         <v>武器箱</v>
       </c>
-      <c r="E107" s="13" t="str">
+      <c r="E107" s="3" t="str">
         <v>UI按钮上的文字</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="108">
-      <c r="A108" s="13">
+      <c r="A108" s="3">
         <v>30075</v>
       </c>
-      <c r="B108" s="12" t="str">
+      <c r="B108" s="2" t="str">
         <v>Text_Content_12020</v>
       </c>
-      <c r="C108" s="12" t="str">
+      <c r="C108" s="2" t="str">
         <v>Watch the ad for a free draw</v>
       </c>
-      <c r="D108" s="12" t="str">
+      <c r="D108" s="2" t="str">
         <v>观看广告，免费抽奖一次</v>
       </c>
-      <c r="E108" s="13" t="str">
+      <c r="E108" s="3" t="str">
         <v>UI按钮上的文字</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="109">
-      <c r="A109" s="13">
+      <c r="A109" s="3">
         <v>30076</v>
       </c>
-      <c r="B109" s="12" t="str">
+      <c r="B109" s="2" t="str">
         <v>Text_Content_12021</v>
       </c>
-      <c r="C109" s="12" t="str">
+      <c r="C109" s="2" t="str">
         <v>Until the next free draw:</v>
       </c>
-      <c r="D109" s="12" t="str">
+      <c r="D109" s="2" t="str">
         <v>距离下次免费：</v>
       </c>
-      <c r="E109" s="13" t="str">
+      <c r="E109" s="3" t="str">
         <v>UI按钮上的文字</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="110">
-      <c r="A110" s="13">
+      <c r="A110" s="3">
         <v>30077</v>
       </c>
-      <c r="B110" s="12" t="str">
+      <c r="B110" s="2" t="str">
         <v>Text_Content_12022</v>
       </c>
-      <c r="C110" s="12" t="str">
+      <c r="C110" s="2" t="str">
         <v>Your draws</v>
       </c>
-      <c r="D110" s="12" t="str">
+      <c r="D110" s="2" t="str">
         <v>累计抽奖</v>
       </c>
-      <c r="E110" s="13" t="str">
+      <c r="E110" s="3" t="str">
         <v>UI按钮上的文字</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="111">
-      <c r="A111" s="13">
+      <c r="A111" s="3">
         <v>30078</v>
       </c>
-      <c r="B111" s="12" t="str">
+      <c r="B111" s="2" t="str">
         <v>Text_Content_12023</v>
       </c>
-      <c r="C111" s="12" t="str">
+      <c r="C111" s="2" t="str">
         <v>Next time you will get a RED quality weapon</v>
       </c>
-      <c r="D111" s="12" t="str">
+      <c r="D111" s="2" t="str">
         <v>下次必得红色品质武器</v>
       </c>
-      <c r="E111" s="13" t="str">
+      <c r="E111" s="3" t="str">
         <v>UI按钮上的文字</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="112">
-      <c r="A112" s="13">
+      <c r="A112" s="3">
         <v>30079</v>
       </c>
-      <c r="B112" s="12" t="str">
+      <c r="B112" s="2" t="str">
         <v>Text_Content_12024</v>
       </c>
-      <c r="C112" s="12" t="str">
+      <c r="C112" s="2" t="str">
         <v>Box opening...</v>
       </c>
-      <c r="D112" s="12" t="str">
+      <c r="D112" s="2" t="str">
         <v>正在打开箱子...</v>
       </c>
-      <c r="E112" s="13" t="str">
+      <c r="E112" s="3" t="str">
         <v>UI按钮上的文字</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="113">
-      <c r="A113" s="13">
+      <c r="A113" s="3">
         <v>30080</v>
       </c>
-      <c r="B113" s="12" t="str">
+      <c r="B113" s="2" t="str">
         <v>Text_Content_12025</v>
       </c>
-      <c r="C113" s="12" t="str">
+      <c r="C113" s="2" t="str">
         <v>Congratulations!</v>
       </c>
-      <c r="D113" s="12" t="str">
+      <c r="D113" s="2" t="str">
         <v>恭喜获得</v>
       </c>
-      <c r="E113" s="13" t="str">
+      <c r="E113" s="3" t="str">
         <v>UI按钮上的文字</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="114">
-      <c r="A114" s="13">
+      <c r="A114" s="3">
         <v>30081</v>
       </c>
-      <c r="B114" s="12" t="str">
+      <c r="B114" s="2" t="str">
         <v>Text_Content_12026</v>
       </c>
-      <c r="C114" s="12" t="str">
+      <c r="C114" s="2" t="str">
         <v>Owned, automatically recycled to gold coins</v>
       </c>
-      <c r="D114" s="12" t="str">
+      <c r="D114" s="2" t="str">
         <v>已拥有，自动回收为金币</v>
       </c>
-      <c r="E114" s="13" t="str">
+      <c r="E114" s="3" t="str">
         <v>UI按钮上的文字</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="115">
-      <c r="A115" s="13">
+      <c r="A115" s="3">
         <v>30082</v>
       </c>
-      <c r="B115" s="12" t="str">
+      <c r="B115" s="2" t="str">
         <v>Text_Content_11017</v>
       </c>
-      <c r="C115" s="12" t="str">
+      <c r="C115" s="2" t="str">
         <v>Defeat everyone and leave no one out!</v>
       </c>
-      <c r="D115" s="13" t="str">
+      <c r="D115" s="3" t="str">
         <v>击败所有人，一个也不要放过！</v>
       </c>
-      <c r="E115" s="13"/>
+      <c r="E115" s="3"/>
     </row>
     <row customHeight="true" ht="21" r="116">
-      <c r="A116" s="13">
+      <c r="A116" s="3">
         <v>30083</v>
       </c>
-      <c r="B116" s="12" t="str">
+      <c r="B116" s="2" t="str">
         <v>Text_Content_11018</v>
       </c>
-      <c r="C116" s="12" t="str">
+      <c r="C116" s="2" t="str">
         <v>You are Detective, defeat the Murderer!</v>
       </c>
-      <c r="D116" s="13" t="str">
+      <c r="D116" s="3" t="str">
         <v>你是侦探，寻找凶手并击败他！</v>
       </c>
-      <c r="E116" s="13"/>
+      <c r="E116" s="3"/>
     </row>
     <row customHeight="true" ht="21" r="117">
-      <c r="A117" s="13">
+      <c r="A117" s="3">
         <v>30084</v>
       </c>
-      <c r="B117" s="12" t="str">
+      <c r="B117" s="2" t="str">
         <v>Text_Content_11019</v>
       </c>
-      <c r="C117" s="12" t="str">
+      <c r="C117" s="2" t="str">
         <v>You're the Hero, find the Murderer and defeat him!</v>
       </c>
-      <c r="D117" s="13" t="str">
+      <c r="D117" s="3" t="str">
         <v>你化身英雄，找到凶手击败他！</v>
       </c>
-      <c r="E117" s="13"/>
+      <c r="E117" s="3"/>
     </row>
     <row customHeight="true" ht="21" r="118">
-      <c r="A118" s="13">
+      <c r="A118" s="3">
         <v>30085</v>
       </c>
-      <c r="B118" s="12" t="str">
+      <c r="B118" s="2" t="str">
         <v>Text_Content_11020</v>
       </c>
-      <c r="C118" s="12" t="str">
+      <c r="C118" s="2" t="str">
         <v>Survive...</v>
       </c>
-      <c r="D118" s="13" t="str">
+      <c r="D118" s="3" t="str">
         <v>活下去...</v>
       </c>
-      <c r="E118" s="13"/>
+      <c r="E118" s="3"/>
     </row>
     <row customHeight="true" ht="21" r="119">
-      <c r="A119" s="13">
+      <c r="A119" s="3">
         <v>30086</v>
       </c>
-      <c r="B119" s="12" t="str">
+      <c r="B119" s="2" t="str">
         <v>Text_Content_20034</v>
       </c>
-      <c r="C119" s="12" t="str">
+      <c r="C119" s="2" t="str">
         <v>Terminator!</v>
       </c>
-      <c r="D119" s="13" t="str">
+      <c r="D119" s="3" t="str">
         <v>本轮终结者！</v>
       </c>
-      <c r="E119" s="13"/>
+      <c r="E119" s="3"/>
     </row>
     <row customHeight="true" ht="21" r="120">
-      <c r="A120" s="13">
+      <c r="A120" s="3">
         <v>30087</v>
       </c>
-      <c r="B120" s="12" t="str">
+      <c r="B120" s="2" t="str">
         <v>Text_Content_20035</v>
       </c>
-      <c r="C120" s="12" t="str">
+      <c r="C120" s="2" t="str">
         <v>Lottery</v>
       </c>
-      <c r="D120" s="13" t="str">
+      <c r="D120" s="3" t="str">
         <v>抽奖获得</v>
       </c>
-      <c r="E120" s="13"/>
+      <c r="E120" s="3"/>
     </row>
     <row customHeight="true" ht="21" r="121">
-      <c r="A121" s="7">
+      <c r="A121" s="1">
         <v>40001</v>
       </c>
-      <c r="B121" s="7" t="str">
+      <c r="B121" s="1" t="str">
         <v>Tips_Content_10001</v>
       </c>
-      <c r="C121" s="3" t="str">
+      <c r="C121" s="4" t="str">
         <v>Please pick up your weapon first!</v>
       </c>
-      <c r="D121" s="7" t="str">
+      <c r="D121" s="1" t="str">
         <v>请先拿出武器！</v>
       </c>
-      <c r="E121" s="7" t="str">
+      <c r="E121" s="1" t="str">
         <v>40000：提示表</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="122">
-      <c r="A122" s="7">
+      <c r="A122" s="1">
         <v>40002</v>
       </c>
-      <c r="B122" s="7" t="str">
+      <c r="B122" s="1" t="str">
         <v>Tips_Content_10002</v>
       </c>
-      <c r="C122" s="3" t="str">
+      <c r="C122" s="4" t="str">
         <v>You are a Hero now! Pick up your weapon and attack!</v>
       </c>
-      <c r="D122" s="7" t="str">
+      <c r="D122" s="1" t="str">
         <v>变成了英雄！可以拿出武器攻击了！</v>
       </c>
-      <c r="E122" s="7" t="str"/>
+      <c r="E122" s="1" t="str"/>
     </row>
     <row customHeight="true" ht="21" r="123">
-      <c r="A123" s="7">
+      <c r="A123" s="1">
         <v>40003</v>
       </c>
-      <c r="B123" s="7" t="str">
+      <c r="B123" s="1" t="str">
         <v>Tips_Content_10003</v>
       </c>
-      <c r="C123" s="3" t="str">
+      <c r="C123" s="4" t="str">
         <v>Energy balls collected +1~</v>
       </c>
-      <c r="D123" s="7" t="str">
+      <c r="D123" s="1" t="str">
         <v>收集能量球数量+1~</v>
       </c>
-      <c r="E123" s="7" t="str"/>
+      <c r="E123" s="1" t="str"/>
     </row>
     <row customHeight="true" ht="21" r="124">
-      <c r="A124" s="7">
+      <c r="A124" s="1">
         <v>40004</v>
       </c>
-      <c r="B124" s="7" t="str">
+      <c r="B124" s="1" t="str">
         <v>Tips_Content_10004</v>
       </c>
-      <c r="C124" s="3" t="str">
+      <c r="C124" s="4" t="str">
         <v>Energy balls obtained in this round is full!</v>
       </c>
-      <c r="D124" s="7" t="str">
+      <c r="D124" s="1" t="str">
         <v>本局获得能量球数量已满！</v>
       </c>
-      <c r="E124" s="7" t="str"/>
+      <c r="E124" s="1" t="str"/>
     </row>
     <row customHeight="true" ht="21" r="125">
-      <c r="A125" s="7">
+      <c r="A125" s="1">
         <v>40005</v>
       </c>
-      <c r="B125" s="7" t="str">
+      <c r="B125" s="1" t="str">
         <v>Tips_Content_10005</v>
       </c>
-      <c r="C125" s="3" t="str">
+      <c r="C125" s="4" t="str">
         <v>Energy shield obtained! You can resist an attack now!</v>
       </c>
-      <c r="D125" s="7" t="str">
+      <c r="D125" s="1" t="str">
         <v>获得了能量保护壳！可以抵挡一次攻击！</v>
       </c>
-      <c r="E125" s="7" t="str"/>
+      <c r="E125" s="1" t="str"/>
     </row>
     <row customHeight="true" ht="21" r="126">
-      <c r="A126" s="7">
+      <c r="A126" s="1">
         <v>40006</v>
       </c>
-      <c r="B126" s="7" t="str">
+      <c r="B126" s="1" t="str">
         <v>Tips_Content_10006</v>
       </c>
-      <c r="C126" s="3" t="str">
+      <c r="C126" s="4" t="str">
         <v>Energy shield is shattered! Be careful!</v>
       </c>
-      <c r="D126" s="7" t="str">
+      <c r="D126" s="1" t="str">
         <v>能量保护壳被击碎了！小心！</v>
       </c>
-      <c r="E126" s="7" t="str"/>
+      <c r="E126" s="1" t="str"/>
     </row>
     <row customHeight="true" ht="21" r="127">
-      <c r="A127" s="7">
+      <c r="A127" s="1">
         <v>40007</v>
       </c>
-      <c r="B127" s="7" t="str">
+      <c r="B127" s="1" t="str">
         <v>Tips_Content_10007</v>
       </c>
-      <c r="C127" s="3" t="str">
+      <c r="C127" s="4" t="str">
         <v>Energy of the shield is absorbed...</v>
       </c>
-      <c r="D127" s="7" t="str">
+      <c r="D127" s="1" t="str">
         <v>保护壳的能量被吸收了...</v>
       </c>
-      <c r="E127" s="7" t="str"/>
+      <c r="E127" s="1" t="str"/>
     </row>
     <row customHeight="true" ht="21" r="128">
-      <c r="A128" s="7">
+      <c r="A128" s="1">
         <v>40008</v>
       </c>
-      <c r="B128" s="7" t="str">
+      <c r="B128" s="1" t="str">
         <v>Tips_Content_10008</v>
       </c>
-      <c r="C128" s="3" t="str">
+      <c r="C128" s="4" t="str">
         <v>Coin Bag is full!</v>
       </c>
-      <c r="D128" s="7" t="str">
+      <c r="D128" s="1" t="str">
         <v>金币袋已满！</v>
       </c>
-      <c r="E128" s="7" t="str"/>
+      <c r="E128" s="1" t="str"/>
     </row>
     <row customHeight="true" ht="21" r="129">
-      <c r="A129" s="7">
+      <c r="A129" s="1">
         <v>40009</v>
       </c>
-      <c r="B129" s="7" t="str">
+      <c r="B129" s="1" t="str">
         <v>Tips_Content_10009</v>
       </c>
-      <c r="C129" s="3" t="str">
+      <c r="C129" s="4" t="str">
         <v>Someone died!</v>
       </c>
-      <c r="D129" s="7" t="str">
+      <c r="D129" s="1" t="str">
         <v>有人倒下了！</v>
       </c>
-      <c r="E129" s="7" t="str"/>
+      <c r="E129" s="1" t="str"/>
     </row>
     <row customHeight="true" ht="21" r="130">
-      <c r="A130" s="7">
+      <c r="A130" s="1">
         <v>40010</v>
       </c>
-      <c r="B130" s="7" t="str">
+      <c r="B130" s="1" t="str">
         <v>Tips_Content_10010</v>
       </c>
-      <c r="C130" s="3" t="str">
+      <c r="C130" s="4" t="str">
         <v>The Detective is dead, find his weapon!</v>
       </c>
-      <c r="D130" s="7" t="str">
+      <c r="D130" s="1" t="str">
         <v>侦探死亡了，找找他的武器吧！</v>
       </c>
-      <c r="E130" s="7" t="str"/>
+      <c r="E130" s="1" t="str"/>
     </row>
     <row customHeight="true" ht="21" r="131">
-      <c r="A131" s="7">
+      <c r="A131" s="1">
         <v>40011</v>
       </c>
-      <c r="B131" s="7" t="str">
+      <c r="B131" s="1" t="str">
         <v>Tips_Content_20001</v>
       </c>
-      <c r="C131" s="3" t="str">
+      <c r="C131" s="4" t="str">
         <v>There are currently no active matches!</v>
       </c>
-      <c r="D131" s="7" t="str">
+      <c r="D131" s="1" t="str">
         <v>当前没有正在进行的对局！</v>
       </c>
-      <c r="E131" s="7" t="str"/>
+      <c r="E131" s="1" t="str"/>
     </row>
     <row customHeight="true" ht="21" r="132">
-      <c r="A132" s="7">
+      <c r="A132" s="1">
         <v>40012</v>
       </c>
-      <c r="B132" s="3" t="str">
+      <c r="B132" s="4" t="str">
         <v>Tips_Content_20005</v>
       </c>
-      <c r="C132" s="3" t="str">
+      <c r="C132" s="4" t="str">
         <v>Correct Password</v>
       </c>
-      <c r="D132" s="7" t="str">
+      <c r="D132" s="1" t="str">
         <v>密码输入正确</v>
       </c>
-      <c r="E132" s="7"/>
+      <c r="E132" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="133">
-      <c r="A133" s="7">
+      <c r="A133" s="1">
         <v>40013</v>
       </c>
-      <c r="B133" s="3" t="str">
+      <c r="B133" s="4" t="str">
         <v>Tips_Content_20006</v>
       </c>
-      <c r="C133" s="3" t="str">
+      <c r="C133" s="4" t="str">
         <v>Wrong Password！</v>
       </c>
-      <c r="D133" s="7" t="str">
+      <c r="D133" s="1" t="str">
         <v>密码输入错误！</v>
       </c>
-      <c r="E133" s="7"/>
+      <c r="E133" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="134">
-      <c r="A134" s="7">
+      <c r="A134" s="1">
         <v>40014</v>
       </c>
-      <c r="B134" s="3" t="str">
+      <c r="B134" s="4" t="str">
         <v>Tips_Content_20007</v>
       </c>
-      <c r="C134" s="3" t="str">
+      <c r="C134" s="4" t="str">
         <v>Weapon skins！Click to go！</v>
       </c>
-      <c r="D134" s="7" t="str">
+      <c r="D134" s="1" t="str">
         <v>免费抽取武器皮肤，点击前往！</v>
       </c>
-      <c r="E134" s="7"/>
+      <c r="E134" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="135">
-      <c r="A135" s="7">
+      <c r="A135" s="1">
         <v>40015</v>
       </c>
-      <c r="B135" s="3" t="str">
+      <c r="B135" s="4" t="str">
         <v>Tips_Content_20008</v>
       </c>
-      <c r="C135" s="3" t="str">
+      <c r="C135" s="4" t="str">
         <v>Ad in CD</v>
       </c>
-      <c r="D135" s="7" t="str">
+      <c r="D135" s="1" t="str">
         <v>广告冷却中</v>
       </c>
-      <c r="E135" s="7"/>
+      <c r="E135" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="136">
-      <c r="A136" s="7">
+      <c r="A136" s="1">
         <v>50001</v>
       </c>
-      <c r="B136" s="7" t="str">
+      <c r="B136" s="1" t="str">
         <v>Weapon_WeaponName_10001</v>
       </c>
-      <c r="C136" s="3" t="str">
+      <c r="C136" s="4" t="str">
         <v>Knife</v>
       </c>
-      <c r="D136" s="7" t="str">
+      <c r="D136" s="1" t="str">
         <v>小刀</v>
       </c>
-      <c r="E136" s="7" t="str">
+      <c r="E136" s="1" t="str">
         <v>50000：武器表</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="137">
-      <c r="A137" s="7">
+      <c r="A137" s="1">
         <v>50002</v>
       </c>
-      <c r="B137" s="7" t="str">
+      <c r="B137" s="1" t="str">
         <v>Weapon_WeaponName_20001</v>
       </c>
-      <c r="C137" s="3" t="str">
+      <c r="C137" s="4" t="str">
         <v>Revolver</v>
       </c>
-      <c r="D137" s="7" t="str">
+      <c r="D137" s="1" t="str">
         <v>左轮手枪</v>
       </c>
-      <c r="E137" s="7" t="str"/>
+      <c r="E137" s="1" t="str"/>
     </row>
     <row customHeight="true" ht="21" r="138">
-      <c r="A138" s="7">
+      <c r="A138" s="1">
         <v>50003</v>
       </c>
-      <c r="B138" s="12" t="str">
+      <c r="B138" s="2" t="str">
         <v>Weapon_WeaponName_10002</v>
       </c>
-      <c r="C138" s="3" t="str">
+      <c r="C138" s="4" t="str">
         <v>Fire Axe</v>
       </c>
-      <c r="D138" s="13" t="str">
+      <c r="D138" s="3" t="str">
         <v>消防斧</v>
       </c>
-      <c r="E138" s="7" t="str">
+      <c r="E138" s="1" t="str">
         <v>武器名称</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="139">
-      <c r="A139" s="7">
+      <c r="A139" s="1">
         <v>50004</v>
       </c>
-      <c r="B139" s="12" t="str">
+      <c r="B139" s="2" t="str">
         <v>Weapon_WeaponName_10003</v>
       </c>
-      <c r="C139" s="3" t="str">
+      <c r="C139" s="4" t="str">
         <v>Nepalese Knife</v>
       </c>
-      <c r="D139" s="13" t="str">
+      <c r="D139" s="3" t="str">
         <v>尼泊尔军刀</v>
       </c>
-      <c r="E139" s="7" t="str">
+      <c r="E139" s="1" t="str">
         <v>武器名称</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="140">
-      <c r="A140" s="7">
+      <c r="A140" s="1">
         <v>50005</v>
       </c>
-      <c r="B140" s="12" t="str">
+      <c r="B140" s="2" t="str">
         <v>Weapon_WeaponName_20002</v>
       </c>
-      <c r="C140" s="3" t="str">
+      <c r="C140" s="4" t="str">
         <v>Submachine Gun</v>
       </c>
-      <c r="D140" s="13" t="str">
+      <c r="D140" s="3" t="str">
         <v>冲锋枪</v>
       </c>
-      <c r="E140" s="7" t="str">
+      <c r="E140" s="1" t="str">
         <v>武器名称</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="141">
-      <c r="A141" s="7">
+      <c r="A141" s="1">
         <v>50006</v>
       </c>
-      <c r="B141" s="12" t="str">
+      <c r="B141" s="2" t="str">
         <v>Weapon_WeaponName_20003</v>
       </c>
-      <c r="C141" s="3" t="str">
+      <c r="C141" s="4" t="str">
         <v>Rifle</v>
       </c>
-      <c r="D141" s="13" t="str">
+      <c r="D141" s="3" t="str">
         <v>步枪</v>
       </c>
-      <c r="E141" s="7" t="str">
+      <c r="E141" s="1" t="str">
         <v>武器名称</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="142">
-      <c r="A142" s="7">
+      <c r="A142" s="1">
         <v>50007</v>
       </c>
-      <c r="B142" s="3" t="str">
+      <c r="B142" s="4" t="str">
         <v>Weapon_WeaponName_10004</v>
       </c>
-      <c r="C142" s="3" t="str">
+      <c r="C142" s="4" t="str">
         <v>Assassin Dagger</v>
       </c>
-      <c r="D142" s="13" t="str">
+      <c r="D142" s="3" t="str">
         <v>暗杀匕首</v>
       </c>
-      <c r="E142" s="7" t="str">
+      <c r="E142" s="1" t="str">
         <v>武器名称</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="143">
-      <c r="A143" s="7">
+      <c r="A143" s="1">
         <v>50008</v>
       </c>
-      <c r="B143" s="3" t="str">
+      <c r="B143" s="4" t="str">
         <v>Weapon_WeaponName_10005</v>
       </c>
-      <c r="C143" s="3" t="str">
+      <c r="C143" s="4" t="str">
         <v>Survival Dagger</v>
       </c>
-      <c r="D143" s="13" t="str">
+      <c r="D143" s="3" t="str">
         <v>求生匕首</v>
       </c>
-      <c r="E143" s="7" t="str">
+      <c r="E143" s="1" t="str">
         <v>武器名称</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="144">
-      <c r="A144" s="7">
+      <c r="A144" s="1">
         <v>50009</v>
       </c>
-      <c r="B144" s="3" t="str">
+      <c r="B144" s="4" t="str">
         <v>Weapon_WeaponName_10006</v>
       </c>
-      <c r="C144" s="3" t="str">
+      <c r="C144" s="4" t="str">
         <v>Kitchen Knife</v>
       </c>
-      <c r="D144" s="13" t="str">
+      <c r="D144" s="3" t="str">
         <v>菜刀</v>
       </c>
-      <c r="E144" s="7" t="str">
+      <c r="E144" s="1" t="str">
         <v>武器名称</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="145">
-      <c r="A145" s="7">
+      <c r="A145" s="1">
         <v>50010</v>
       </c>
-      <c r="B145" s="15" t="str">
+      <c r="B145" s="8" t="str">
         <v>Weapon_WeaponName_10007</v>
       </c>
-      <c r="C145" s="3" t="str">
+      <c r="C145" s="4" t="str">
         <v>Dart (Wave)</v>
       </c>
-      <c r="D145" s="16" t="str">
+      <c r="D145" s="9" t="str">
         <v>镖(波)</v>
       </c>
-      <c r="E145" s="7" t="str">
+      <c r="E145" s="1" t="str">
         <v>武器名称</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="146">
-      <c r="A146" s="7">
+      <c r="A146" s="1">
         <v>50011</v>
       </c>
-      <c r="B146" s="15" t="str">
+      <c r="B146" s="8" t="str">
         <v>Weapon_WeaponName_10008</v>
       </c>
-      <c r="C146" s="3" t="str">
+      <c r="C146" s="4" t="str">
         <v>Dart (Fetter)</v>
       </c>
-      <c r="D146" s="16" t="str">
+      <c r="D146" s="9" t="str">
         <v>镖(桎)</v>
       </c>
-      <c r="E146" s="7" t="str">
+      <c r="E146" s="1" t="str">
         <v>武器名称</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="147">
-      <c r="A147" s="7">
+      <c r="A147" s="1">
         <v>50012</v>
       </c>
-      <c r="B147" s="15" t="str">
+      <c r="B147" s="8" t="str">
         <v>Weapon_WeaponName_10009</v>
       </c>
-      <c r="C147" s="3" t="str">
+      <c r="C147" s="4" t="str">
         <v>Dart (Shatter)</v>
       </c>
-      <c r="D147" s="16" t="str">
+      <c r="D147" s="9" t="str">
         <v>镖(碎)</v>
       </c>
-      <c r="E147" s="7" t="str">
+      <c r="E147" s="1" t="str">
         <v>武器名称</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="148">
-      <c r="A148" s="7">
+      <c r="A148" s="1">
         <v>50013</v>
       </c>
-      <c r="B148" s="15" t="str">
+      <c r="B148" s="8" t="str">
         <v>Weapon_WeaponName_10010</v>
       </c>
-      <c r="C148" s="3" t="str">
+      <c r="C148" s="4" t="str">
         <v>Dart (Swirl)</v>
       </c>
-      <c r="D148" s="16" t="str">
+      <c r="D148" s="9" t="str">
         <v>镖(漩)</v>
       </c>
-      <c r="E148" s="7" t="str">
+      <c r="E148" s="1" t="str">
         <v>武器名称</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="149">
-      <c r="A149" s="7">
+      <c r="A149" s="1">
         <v>50014</v>
       </c>
-      <c r="B149" s="15" t="str">
+      <c r="B149" s="8" t="str">
         <v>Weapon_WeaponName_10011</v>
       </c>
-      <c r="C149" s="3" t="str">
+      <c r="C149" s="4" t="str">
         <v>Dart (Qi)</v>
       </c>
-      <c r="D149" s="16" t="str">
+      <c r="D149" s="9" t="str">
         <v>镖(气)</v>
       </c>
-      <c r="E149" s="7" t="str">
+      <c r="E149" s="1" t="str">
         <v>武器名称</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="150">
-      <c r="A150" s="7">
+      <c r="A150" s="1">
         <v>50015</v>
       </c>
-      <c r="B150" s="15" t="str">
+      <c r="B150" s="8" t="str">
         <v>Weapon_WeaponName_10012</v>
       </c>
-      <c r="C150" s="3" t="str">
+      <c r="C150" s="4" t="str">
         <v>Dart (Stirring)</v>
       </c>
-      <c r="D150" s="16" t="str">
+      <c r="D150" s="9" t="str">
         <v>镖(激荡)</v>
       </c>
-      <c r="E150" s="7" t="str">
+      <c r="E150" s="1" t="str">
         <v>武器名称</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="151">
-      <c r="A151" s="7">
+      <c r="A151" s="1">
         <v>50016</v>
       </c>
-      <c r="B151" s="15" t="str">
+      <c r="B151" s="8" t="str">
         <v>Weapon_WeaponName_10013</v>
       </c>
-      <c r="C151" s="3" t="str">
+      <c r="C151" s="4" t="str">
         <v>Dart (Seal)</v>
       </c>
-      <c r="D151" s="16" t="str">
+      <c r="D151" s="9" t="str">
         <v>镖(封印)</v>
       </c>
-      <c r="E151" s="7" t="str">
+      <c r="E151" s="1" t="str">
         <v>武器名称</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="152">
-      <c r="A152" s="7">
+      <c r="A152" s="1">
         <v>50017</v>
       </c>
-      <c r="B152" s="15" t="str">
+      <c r="B152" s="8" t="str">
         <v>Weapon_WeaponName_10014</v>
       </c>
-      <c r="C152" s="3" t="str">
+      <c r="C152" s="4" t="str">
         <v>Dart (Fate)</v>
       </c>
-      <c r="D152" s="16" t="str">
+      <c r="D152" s="9" t="str">
         <v>镖(轮回)</v>
       </c>
-      <c r="E152" s="7" t="str">
+      <c r="E152" s="1" t="str">
         <v>武器名称</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="153">
-      <c r="A153" s="7">
+      <c r="A153" s="1">
         <v>50018</v>
       </c>
-      <c r="B153" s="15" t="str">
+      <c r="B153" s="8" t="str">
         <v>Weapon_WeaponName_10015</v>
       </c>
-      <c r="C153" s="3" t="str">
+      <c r="C153" s="4" t="str">
         <v>Dogfish</v>
       </c>
-      <c r="D153" s="16" t="str">
+      <c r="D153" s="9" t="str">
         <v>狗鱼</v>
       </c>
-      <c r="E153" s="7" t="str">
+      <c r="E153" s="1" t="str">
         <v>武器名称</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="154">
-      <c r="A154" s="7">
+      <c r="A154" s="1">
         <v>50019</v>
       </c>
-      <c r="B154" s="15" t="str">
+      <c r="B154" s="8" t="str">
         <v>Weapon_WeaponName_10016</v>
       </c>
-      <c r="C154" s="3" t="str">
+      <c r="C154" s="4" t="str">
         <v>Hairy-nosed catfish</v>
       </c>
-      <c r="D154" s="16" t="str">
+      <c r="D154" s="9" t="str">
         <v>毛鼻鲶</v>
       </c>
-      <c r="E154" s="7" t="str">
+      <c r="E154" s="1" t="str">
         <v>武器名称</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="155">
-      <c r="A155" s="7">
+      <c r="A155" s="1">
         <v>50020</v>
       </c>
-      <c r="B155" s="15" t="str">
+      <c r="B155" s="8" t="str">
         <v>Weapon_WeaponName_10017</v>
       </c>
-      <c r="C155" s="3" t="str">
+      <c r="C155" s="4" t="str">
         <v>Goldfish</v>
       </c>
-      <c r="D155" s="16" t="str">
+      <c r="D155" s="9" t="str">
         <v>金鱼</v>
       </c>
-      <c r="E155" s="7" t="str">
+      <c r="E155" s="1" t="str">
         <v>武器名称</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="156">
-      <c r="A156" s="7">
+      <c r="A156" s="1">
         <v>50021</v>
       </c>
-      <c r="B156" s="15" t="str">
+      <c r="B156" s="8" t="str">
         <v>Weapon_WeaponName_10018</v>
       </c>
-      <c r="C156" s="3" t="str">
+      <c r="C156" s="4" t="str">
         <v>Tuna</v>
       </c>
-      <c r="D156" s="16" t="str">
+      <c r="D156" s="9" t="str">
         <v>金枪鱼</v>
       </c>
-      <c r="E156" s="7" t="str">
+      <c r="E156" s="1" t="str">
         <v>武器名称</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="157">
-      <c r="A157" s="7">
+      <c r="A157" s="1">
         <v>50022</v>
       </c>
-      <c r="B157" s="15" t="str">
+      <c r="B157" s="8" t="str">
         <v>Weapon_WeaponName_10019</v>
       </c>
-      <c r="C157" s="3" t="str">
+      <c r="C157" s="4" t="str">
         <v>Lobster</v>
       </c>
-      <c r="D157" s="16" t="str">
+      <c r="D157" s="9" t="str">
         <v>龙虾</v>
       </c>
-      <c r="E157" s="7" t="str">
+      <c r="E157" s="1" t="str">
         <v>武器名称</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="158">
-      <c r="A158" s="7">
+      <c r="A158" s="1">
         <v>50023</v>
       </c>
-      <c r="B158" s="15" t="str">
+      <c r="B158" s="8" t="str">
         <v>Weapon_WeaponName_10020</v>
       </c>
-      <c r="C158" s="3" t="str">
+      <c r="C158" s="4" t="str">
         <v>Oarfish</v>
       </c>
-      <c r="D158" s="16" t="str">
+      <c r="D158" s="9" t="str">
         <v>皇带鱼</v>
       </c>
-      <c r="E158" s="7" t="str">
+      <c r="E158" s="1" t="str">
         <v>武器名称</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="159">
-      <c r="A159" s="7">
+      <c r="A159" s="1">
         <v>50024</v>
       </c>
-      <c r="B159" s="15" t="str">
+      <c r="B159" s="8" t="str">
         <v>Weapon_WeaponName_10021</v>
       </c>
-      <c r="C159" s="3" t="str">
+      <c r="C159" s="4" t="str">
         <v>Miracle Conch</v>
       </c>
-      <c r="D159" s="16" t="str">
+      <c r="D159" s="9" t="str">
         <v>神奇海螺</v>
       </c>
-      <c r="E159" s="7" t="str">
+      <c r="E159" s="1" t="str">
         <v>武器名称</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="160">
-      <c r="A160" s="7">
+      <c r="A160" s="1">
         <v>50025</v>
       </c>
-      <c r="B160" s="15" t="str">
+      <c r="B160" s="8" t="str">
         <v>Weapon_WeaponName_10022</v>
       </c>
-      <c r="C160" s="3" t="str">
+      <c r="C160" s="4" t="str">
         <v>King Trident</v>
       </c>
-      <c r="D160" s="16" t="str">
+      <c r="D160" s="9" t="str">
         <v>海王三叉戟</v>
       </c>
-      <c r="E160" s="7" t="str">
+      <c r="E160" s="1" t="str">
         <v>武器名称</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="161">
-      <c r="A161" s="7">
+      <c r="A161" s="1">
         <v>50027</v>
       </c>
-      <c r="B161" s="3" t="str">
+      <c r="B161" s="4" t="str">
         <v>Lottery_Name_10001</v>
       </c>
-      <c r="C161" s="3" t="str">
+      <c r="C161" s="4" t="str">
         <v>Dart Weapon Box</v>
       </c>
-      <c r="D161" s="16" t="str">
+      <c r="D161" s="9" t="str">
         <v>飞镖武器箱</v>
       </c>
-      <c r="E161" s="7" t="str">
+      <c r="E161" s="1" t="str">
         <v>武器箱子名称</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="162">
-      <c r="A162" s="7">
+      <c r="A162" s="1">
         <v>50028</v>
       </c>
-      <c r="B162" s="3" t="str">
+      <c r="B162" s="4" t="str">
         <v>Lottery_Name_10002</v>
       </c>
-      <c r="C162" s="3" t="str">
+      <c r="C162" s="4" t="str">
         <v>Ocean Weapon Box</v>
       </c>
-      <c r="D162" s="16" t="str">
+      <c r="D162" s="9" t="str">
         <v>深海武器箱</v>
       </c>
-      <c r="E162" s="7" t="str">
+      <c r="E162" s="1" t="str">
         <v>武器箱子名称</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="163">
-      <c r="A163" s="7">
+      <c r="A163" s="1">
         <v>60001</v>
       </c>
-      <c r="B163" s="7" t="str">
+      <c r="B163" s="1" t="str">
         <v>AIData_AIName_90001</v>
       </c>
-      <c r="C163" s="3" t="str">
+      <c r="C163" s="4" t="str">
         <v>Creabhop</v>
       </c>
-      <c r="D163" s="3" t="str">
+      <c r="D163" s="4" t="str">
         <v>Creabhop</v>
       </c>
-      <c r="E163" s="7" t="str">
+      <c r="E163" s="1" t="str">
         <v>60000：AI数据表</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="164">
-      <c r="A164" s="7">
+      <c r="A164" s="1">
         <v>60002</v>
       </c>
-      <c r="B164" s="7" t="str">
+      <c r="B164" s="1" t="str">
         <v>AIData_AIName_90002</v>
       </c>
-      <c r="C164" s="3" t="str">
+      <c r="C164" s="4" t="str">
         <v>Rival</v>
       </c>
-      <c r="D164" s="3" t="str">
+      <c r="D164" s="4" t="str">
         <v>Rival</v>
       </c>
-      <c r="E164" s="7" t="str"/>
+      <c r="E164" s="1" t="str"/>
     </row>
     <row customHeight="true" ht="21" r="165">
-      <c r="A165" s="7">
+      <c r="A165" s="1">
         <v>60003</v>
       </c>
-      <c r="B165" s="7" t="str">
+      <c r="B165" s="1" t="str">
         <v>AIData_AIName_90003</v>
       </c>
-      <c r="C165" s="3" t="str">
+      <c r="C165" s="4" t="str">
         <v>Ironpup</v>
       </c>
-      <c r="D165" s="3" t="str">
+      <c r="D165" s="4" t="str">
         <v>Ironpup</v>
       </c>
-      <c r="E165" s="7" t="str"/>
+      <c r="E165" s="1" t="str"/>
     </row>
     <row customHeight="true" ht="21" r="166">
-      <c r="A166" s="7">
+      <c r="A166" s="1">
         <v>60004</v>
       </c>
-      <c r="B166" s="7" t="str">
+      <c r="B166" s="1" t="str">
         <v>AIData_AIName_90004</v>
       </c>
-      <c r="C166" s="3" t="str">
+      <c r="C166" s="4" t="str">
         <v>TonyXenos</v>
       </c>
-      <c r="D166" s="3" t="str">
+      <c r="D166" s="4" t="str">
         <v>TonyXenos</v>
       </c>
-      <c r="E166" s="7" t="str"/>
+      <c r="E166" s="1" t="str"/>
     </row>
     <row customHeight="true" ht="21" r="167">
-      <c r="A167" s="7">
+      <c r="A167" s="1">
         <v>60005</v>
       </c>
-      <c r="B167" s="7" t="str">
+      <c r="B167" s="1" t="str">
         <v>AIData_AIName_90005</v>
       </c>
-      <c r="C167" s="3" t="str">
+      <c r="C167" s="4" t="str">
         <v>L8s</v>
       </c>
-      <c r="D167" s="3" t="str">
+      <c r="D167" s="4" t="str">
         <v>L8s</v>
       </c>
-      <c r="E167" s="7" t="str"/>
+      <c r="E167" s="1" t="str"/>
     </row>
     <row customHeight="true" ht="21" r="168">
-      <c r="A168" s="7">
+      <c r="A168" s="1">
         <v>60006</v>
       </c>
-      <c r="B168" s="7" t="str">
+      <c r="B168" s="1" t="str">
         <v>AIData_AIName_90006</v>
       </c>
-      <c r="C168" s="3" t="str">
+      <c r="C168" s="4" t="str">
         <v>Crilm</v>
       </c>
-      <c r="D168" s="3" t="str">
+      <c r="D168" s="4" t="str">
         <v>Crilm</v>
       </c>
-      <c r="E168" s="7" t="str"/>
+      <c r="E168" s="1" t="str"/>
     </row>
     <row customHeight="true" ht="21" r="169">
-      <c r="A169" s="7">
+      <c r="A169" s="1">
         <v>60007</v>
       </c>
-      <c r="B169" s="7" t="str">
+      <c r="B169" s="1" t="str">
         <v>AIData_AIName_90007</v>
       </c>
-      <c r="C169" s="3" t="str">
+      <c r="C169" s="4" t="str">
         <v>Himiko Toga</v>
       </c>
-      <c r="D169" s="3" t="str">
+      <c r="D169" s="4" t="str">
         <v>Himiko Toga</v>
       </c>
-      <c r="E169" s="7" t="str"/>
+      <c r="E169" s="1" t="str"/>
     </row>
     <row customHeight="true" ht="21" r="170">
-      <c r="A170" s="7">
+      <c r="A170" s="1">
         <v>60008</v>
       </c>
-      <c r="B170" s="7" t="str">
+      <c r="B170" s="1" t="str">
         <v>AIData_AIName_90008</v>
       </c>
-      <c r="C170" s="3" t="str">
+      <c r="C170" s="4" t="str">
         <v>Rocco21</v>
       </c>
-      <c r="D170" s="3" t="str">
+      <c r="D170" s="4" t="str">
         <v>Rocco21</v>
       </c>
-      <c r="E170" s="7" t="str"/>
+      <c r="E170" s="1" t="str"/>
     </row>
     <row customHeight="true" ht="21" r="171">
-      <c r="A171" s="7">
+      <c r="A171" s="1">
         <v>60009</v>
       </c>
-      <c r="B171" s="7" t="str">
+      <c r="B171" s="1" t="str">
         <v>AIData_AIName_90009</v>
       </c>
-      <c r="C171" s="3" t="str">
+      <c r="C171" s="4" t="str">
         <v>Elysian</v>
       </c>
-      <c r="D171" s="3" t="str">
+      <c r="D171" s="4" t="str">
         <v>Elysian</v>
       </c>
-      <c r="E171" s="7" t="str"/>
+      <c r="E171" s="1" t="str"/>
     </row>
     <row customHeight="true" ht="21" r="172">
-      <c r="A172" s="7">
+      <c r="A172" s="1">
         <v>60010</v>
       </c>
-      <c r="B172" s="7" t="str">
+      <c r="B172" s="1" t="str">
         <v>AIData_AIName_90010</v>
       </c>
-      <c r="C172" s="3" t="str">
+      <c r="C172" s="4" t="str">
         <v>Bunny Rat</v>
       </c>
-      <c r="D172" s="3" t="str">
+      <c r="D172" s="4" t="str">
         <v>Bunny Rat</v>
       </c>
-      <c r="E172" s="7" t="str"/>
+      <c r="E172" s="1" t="str"/>
     </row>
     <row customHeight="true" ht="21" r="173">
-      <c r="A173" s="7">
+      <c r="A173" s="1">
         <v>60011</v>
       </c>
-      <c r="B173" s="7" t="str">
+      <c r="B173" s="1" t="str">
         <v>AIData_AIName_90011</v>
       </c>
-      <c r="C173" s="3" t="str">
+      <c r="C173" s="4" t="str">
         <v>Zaptar</v>
       </c>
-      <c r="D173" s="3" t="str">
+      <c r="D173" s="4" t="str">
         <v>Zaptar</v>
       </c>
-      <c r="E173" s="7" t="str"/>
+      <c r="E173" s="1" t="str"/>
     </row>
     <row customHeight="true" ht="21" r="174">
-      <c r="A174" s="7">
+      <c r="A174" s="1">
         <v>70001</v>
       </c>
-      <c r="B174" s="3" t="str">
+      <c r="B174" s="4" t="str">
         <v>Level_Name_10000</v>
       </c>
-      <c r="C174" s="3" t="str">
+      <c r="C174" s="4" t="str">
         <v>Hall</v>
       </c>
-      <c r="D174" s="3" t="str">
+      <c r="D174" s="4" t="str">
         <v>大厅</v>
       </c>
-      <c r="E174" s="7" t="str"/>
+      <c r="E174" s="1" t="str"/>
     </row>
     <row customHeight="true" ht="21" r="175">
-      <c r="A175" s="7">
+      <c r="A175" s="1">
         <v>70002</v>
       </c>
-      <c r="B175" s="3" t="str">
+      <c r="B175" s="4" t="str">
         <v>Level_Name_10001</v>
       </c>
-      <c r="C175" s="3" t="str">
+      <c r="C175" s="4" t="str">
         <v>Lakeside Manssion</v>
       </c>
-      <c r="D175" s="3" t="str">
+      <c r="D175" s="4" t="str">
         <v>湖边别墅</v>
       </c>
-      <c r="E175" s="7" t="str">
+      <c r="E175" s="1" t="str">
         <v>关卡地图名称</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="176">
-      <c r="A176" s="7">
+      <c r="A176" s="1">
         <v>70003</v>
       </c>
-      <c r="B176" s="3" t="str">
+      <c r="B176" s="4" t="str">
         <v>Level_Name_10002</v>
       </c>
-      <c r="C176" s="3" t="str">
+      <c r="C176" s="4" t="str">
         <v>Forest Cortyard</v>
       </c>
-      <c r="D176" s="7" t="str">
+      <c r="D176" s="1" t="str">
         <v>林中庭院</v>
       </c>
-      <c r="E176" s="7" t="str">
+      <c r="E176" s="1" t="str">
         <v>关卡地图名称</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="177">
-      <c r="A177" s="7">
+      <c r="A177" s="1">
         <v>70004</v>
       </c>
-      <c r="B177" s="3" t="str">
+      <c r="B177" s="4" t="str">
         <v>Level_Name_10003</v>
       </c>
-      <c r="C177" s="3" t="str">
+      <c r="C177" s="4" t="str">
         <v>Abandoned Hospital</v>
       </c>
-      <c r="D177" s="3" t="str">
+      <c r="D177" s="4" t="str">
         <v>废弃医院</v>
       </c>
-      <c r="E177" s="7" t="str">
+      <c r="E177" s="1" t="str">
         <v>关卡地图名称</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="178">
-      <c r="A178" s="7">
+      <c r="A178" s="1">
         <v>80001</v>
       </c>
-      <c r="B178" s="3" t="str">
+      <c r="B178" s="4" t="str">
         <v>Item_Name_20001</v>
       </c>
-      <c r="C178" s="3" t="str">
+      <c r="C178" s="4" t="str">
         <v>Smoke</v>
       </c>
-      <c r="D178" s="7" t="str">
+      <c r="D178" s="1" t="str">
         <v>烟雾</v>
       </c>
-      <c r="E178" s="3" t="str">
+      <c r="E178" s="4" t="str">
         <v>拖尾道具</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="179">
-      <c r="A179" s="7">
+      <c r="A179" s="1">
         <v>80002</v>
       </c>
-      <c r="B179" s="3" t="str">
+      <c r="B179" s="4" t="str">
         <v>Item_Name_20002</v>
       </c>
-      <c r="C179" s="3" t="str">
+      <c r="C179" s="4" t="str">
         <v>Aura</v>
       </c>
-      <c r="D179" s="7" t="str">
+      <c r="D179" s="1" t="str">
         <v>紫电</v>
       </c>
-      <c r="E179" s="3" t="str">
+      <c r="E179" s="4" t="str">
         <v>拖尾道具</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="180">
-      <c r="A180" s="7">
+      <c r="A180" s="1">
         <v>80003</v>
       </c>
-      <c r="B180" s="3" t="str">
+      <c r="B180" s="4" t="str">
         <v>Item_Name_20003</v>
       </c>
-      <c r="C180" s="3" t="str">
+      <c r="C180" s="4" t="str">
         <v>Thunder</v>
       </c>
-      <c r="D180" s="7" t="str">
+      <c r="D180" s="1" t="str">
         <v>雷霆</v>
       </c>
-      <c r="E180" s="3" t="str">
+      <c r="E180" s="4" t="str">
         <v>拖尾道具</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="181">
-      <c r="A181" s="7">
+      <c r="A181" s="1">
         <v>80004</v>
       </c>
-      <c r="B181" s="3" t="str">
+      <c r="B181" s="4" t="str">
         <v>Item_Name_20004</v>
       </c>
-      <c r="C181" s="3" t="str">
+      <c r="C181" s="4" t="str">
         <v>Breeze</v>
       </c>
-      <c r="D181" s="7" t="str">
+      <c r="D181" s="1" t="str">
         <v>清风</v>
       </c>
-      <c r="E181" s="3" t="str">
+      <c r="E181" s="4" t="str">
         <v>拖尾道具</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="182">
-      <c r="A182" s="7">
+      <c r="A182" s="1">
         <v>80005</v>
       </c>
-      <c r="B182" s="3" t="str">
+      <c r="B182" s="4" t="str">
         <v>Item_Name_20005</v>
       </c>
-      <c r="C182" s="3" t="str">
+      <c r="C182" s="4" t="str">
         <v>Rainbow</v>
       </c>
-      <c r="D182" s="7" t="str">
+      <c r="D182" s="1" t="str">
         <v>虹彩</v>
       </c>
-      <c r="E182" s="3" t="str">
+      <c r="E182" s="4" t="str">
         <v>拖尾道具</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="183">
-      <c r="A183" s="7">
+      <c r="A183" s="1">
         <v>80006</v>
       </c>
-      <c r="B183" s="3" t="str">
+      <c r="B183" s="4" t="str">
         <v>Item_Name_20006</v>
       </c>
-      <c r="C183" s="3" t="str">
+      <c r="C183" s="4" t="str">
         <v>Dream</v>
       </c>
-      <c r="D183" s="7" t="str">
+      <c r="D183" s="1" t="str">
         <v>梦幻</v>
       </c>
-      <c r="E183" s="3" t="str">
+      <c r="E183" s="4" t="str">
         <v>拖尾道具</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="184">
-      <c r="A184" s="7">
+      <c r="A184" s="1">
         <v>80007</v>
       </c>
-      <c r="B184" s="3" t="str">
+      <c r="B184" s="4" t="str">
         <v>Item_Name_30001</v>
       </c>
-      <c r="C184" s="3" t="str">
+      <c r="C184" s="4" t="str">
         <v>Gentle Senpai</v>
       </c>
-      <c r="D184" s="3" t="str">
+      <c r="D184" s="4" t="str">
         <v>温柔学姐</v>
       </c>
-      <c r="E184" s="7" t="str">
+      <c r="E184" s="1" t="str">
         <v>套装名称</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="185">
-      <c r="A185" s="7">
+      <c r="A185" s="1">
         <v>80008</v>
       </c>
-      <c r="B185" s="3" t="str">
+      <c r="B185" s="4" t="str">
         <v>Item_Name_30002</v>
       </c>
-      <c r="C185" s="3" t="str">
+      <c r="C185" s="4" t="str">
         <v>Discipline Member</v>
       </c>
-      <c r="D185" s="7" t="str">
+      <c r="D185" s="1" t="str">
         <v>风纪委员</v>
       </c>
-      <c r="E185" s="7" t="str">
+      <c r="E185" s="1" t="str">
         <v>套装名称</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="186">
-      <c r="A186" s="7">
+      <c r="A186" s="1">
         <v>80009</v>
       </c>
-      <c r="B186" s="3" t="str">
+      <c r="B186" s="4" t="str">
         <v>Item_Name_30003</v>
       </c>
-      <c r="C186" s="3" t="str">
+      <c r="C186" s="4" t="str">
         <v>Bad Girl</v>
       </c>
-      <c r="D186" s="7" t="str">
+      <c r="D186" s="1" t="str">
         <v>不良少女</v>
       </c>
-      <c r="E186" s="7" t="str">
+      <c r="E186" s="1" t="str">
         <v>套装名称</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="187">
-      <c r="A187" s="7">
+      <c r="A187" s="1">
         <v>80010</v>
       </c>
-      <c r="B187" s="3" t="str">
+      <c r="B187" s="4" t="str">
         <v>Item_Name_30004</v>
       </c>
-      <c r="C187" s="3" t="str">
+      <c r="C187" s="4" t="str">
         <v>Korean Girl</v>
       </c>
-      <c r="D187" s="7" t="str">
+      <c r="D187" s="1" t="str">
         <v>韩式淑女</v>
       </c>
-      <c r="E187" s="7" t="str">
+      <c r="E187" s="1" t="str">
         <v>套装名称</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="188">
-      <c r="A188" s="7">
+      <c r="A188" s="1">
         <v>80011</v>
       </c>
-      <c r="B188" s="3" t="str">
+      <c r="B188" s="4" t="str">
         <v>Item_Name_30005</v>
       </c>
-      <c r="C188" s="3" t="str">
+      <c r="C188" s="4" t="str">
         <v>Cute School Girl</v>
       </c>
-      <c r="D188" s="7" t="str">
+      <c r="D188" s="1" t="str">
         <v>可爱学妹</v>
       </c>
-      <c r="E188" s="7" t="str">
+      <c r="E188" s="1" t="str">
         <v>套装名称</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="189">
-      <c r="A189" s="7">
+      <c r="A189" s="1">
         <v>80012</v>
       </c>
-      <c r="B189" s="3" t="str">
+      <c r="B189" s="4" t="str">
         <v>Item_Name_30006</v>
       </c>
-      <c r="C189" s="3" t="str">
+      <c r="C189" s="4" t="str">
         <v>Fantasy Girl</v>
       </c>
-      <c r="D189" s="7" t="str">
+      <c r="D189" s="1" t="str">
         <v>奇幻少女</v>
       </c>
-      <c r="E189" s="7" t="str">
+      <c r="E189" s="1" t="str">
         <v>套装名称</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="190">
-      <c r="A190" s="7">
+      <c r="A190" s="1">
         <v>80013</v>
       </c>
-      <c r="B190" s="3" t="str">
+      <c r="B190" s="4" t="str">
         <v>Item_Name_30007</v>
       </c>
-      <c r="C190" s="3" t="str">
+      <c r="C190" s="4" t="str">
         <v>Gentle Senior</v>
       </c>
-      <c r="D190" s="7" t="str">
+      <c r="D190" s="1" t="str">
         <v>温柔学长</v>
       </c>
-      <c r="E190" s="7" t="str">
+      <c r="E190" s="1" t="str">
         <v>套装名称</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="191">
-      <c r="A191" s="7">
+      <c r="A191" s="1">
         <v>80014</v>
       </c>
-      <c r="B191" s="3" t="str">
+      <c r="B191" s="4" t="str">
         <v>Item_Name_30008</v>
       </c>
-      <c r="C191" s="3" t="str">
+      <c r="C191" s="4" t="str">
         <v>Bad Boy</v>
       </c>
-      <c r="D191" s="7" t="str">
+      <c r="D191" s="1" t="str">
         <v>不良少年</v>
       </c>
-      <c r="E191" s="7" t="str">
+      <c r="E191" s="1" t="str">
         <v>套装名称</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="192">
-      <c r="A192" s="7">
+      <c r="A192" s="1">
         <v>80015</v>
       </c>
-      <c r="B192" s="3" t="str">
+      <c r="B192" s="4" t="str">
         <v>Item_Name_30009</v>
       </c>
-      <c r="C192" s="3" t="str">
+      <c r="C192" s="4" t="str">
         <v>Cheerleader</v>
       </c>
-      <c r="D192" s="3" t="str">
+      <c r="D192" s="4" t="str">
         <v>啦啦队长</v>
       </c>
-      <c r="E192" s="7" t="str">
+      <c r="E192" s="1" t="str">
         <v>套装名称</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="193">
-      <c r="A193" s="7">
+      <c r="A193" s="1">
         <v>80016</v>
       </c>
-      <c r="B193" s="3" t="str">
+      <c r="B193" s="4" t="str">
         <v>Item_Name_30010</v>
       </c>
-      <c r="C193" s="3" t="str">
+      <c r="C193" s="4" t="str">
         <v>Art Student</v>
       </c>
-      <c r="D193" s="3" t="str">
+      <c r="D193" s="4" t="str">
         <v>艺术生</v>
       </c>
-      <c r="E193" s="7" t="str">
+      <c r="E193" s="1" t="str">
         <v>套装名称</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="194">
-      <c r="A194" s="7">
+      <c r="A194" s="1">
         <v>80017</v>
       </c>
-      <c r="B194" s="3" t="str">
+      <c r="B194" s="4" t="str">
         <v>Item_Name_30011</v>
       </c>
-      <c r="C194" s="3" t="str">
+      <c r="C194" s="4" t="str">
         <v>Anime Girl</v>
       </c>
-      <c r="D194" s="3" t="str">
+      <c r="D194" s="4" t="str">
         <v>二次元少女</v>
       </c>
-      <c r="E194" s="7" t="str">
+      <c r="E194" s="1" t="str">
         <v>套装名称</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="195">
-      <c r="A195" s="7">
+      <c r="A195" s="1">
         <v>80018</v>
       </c>
-      <c r="B195" s="3" t="str">
+      <c r="B195" s="4" t="str">
         <v>Item_Name_30012</v>
       </c>
-      <c r="C195" s="3" t="str">
+      <c r="C195" s="4" t="str">
         <v>English Teacher</v>
       </c>
-      <c r="D195" s="3" t="str">
+      <c r="D195" s="4" t="str">
         <v>英语老师</v>
       </c>
-      <c r="E195" s="7" t="str">
+      <c r="E195" s="1" t="str">
         <v>套装名称</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="196">
-      <c r="A196" s="7">
+      <c r="A196" s="1">
         <v>80019</v>
       </c>
-      <c r="B196" s="3" t="str">
+      <c r="B196" s="4" t="str">
         <v>Item_Name_30013</v>
       </c>
-      <c r="C196" s="3" t="str">
+      <c r="C196" s="4" t="str">
         <v>Justice Boy</v>
       </c>
-      <c r="D196" s="3" t="str">
+      <c r="D196" s="4" t="str">
         <v>正义少年</v>
       </c>
-      <c r="E196" s="7" t="str">
+      <c r="E196" s="1" t="str">
         <v>套装名称</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="197">
-      <c r="A197" s="7">
+      <c r="A197" s="1">
         <v>80020</v>
       </c>
-      <c r="B197" s="3" t="str">
+      <c r="B197" s="4" t="str">
         <v>Item_Name_30014</v>
       </c>
-      <c r="C197" s="3" t="str">
+      <c r="C197" s="4" t="str">
         <v>Trendy Girl</v>
       </c>
-      <c r="D197" s="3" t="str">
+      <c r="D197" s="4" t="str">
         <v>潮流少女</v>
       </c>
-      <c r="E197" s="7" t="str">
+      <c r="E197" s="1" t="str">
         <v>套装名称</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="198">
-      <c r="A198" s="7">
+      <c r="A198" s="1">
         <v>80021</v>
       </c>
-      <c r="B198" s="3" t="str">
+      <c r="B198" s="4" t="str">
         <v>Item_Name_30015</v>
       </c>
-      <c r="C198" s="3" t="str">
+      <c r="C198" s="4" t="str">
         <v>Student President</v>
       </c>
-      <c r="D198" s="7" t="str">
+      <c r="D198" s="1" t="str">
         <v>学生会长</v>
       </c>
-      <c r="E198" s="7" t="str">
+      <c r="E198" s="1" t="str">
         <v>套装名称</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="199">
-      <c r="A199" s="7">
+      <c r="A199" s="1">
         <v>80022</v>
       </c>
-      <c r="B199" s="3" t="str">
+      <c r="B199" s="4" t="str">
         <v>Item_Name_30016</v>
       </c>
-      <c r="C199" s="3" t="str">
+      <c r="C199" s="4" t="str">
         <v>Female Teacher</v>
       </c>
-      <c r="D199" s="7" t="str">
+      <c r="D199" s="1" t="str">
         <v>女老师</v>
       </c>
-      <c r="E199" s="7" t="str">
+      <c r="E199" s="1" t="str">
         <v>套装名称</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="200">
-      <c r="A200" s="7">
+      <c r="A200" s="1">
         <v>80023</v>
       </c>
-      <c r="B200" s="3" t="str">
+      <c r="B200" s="4" t="str">
         <v>Item_Name_30017</v>
       </c>
-      <c r="C200" s="3" t="str">
+      <c r="C200" s="4" t="str">
         <v>Class Monitor</v>
       </c>
-      <c r="D200" s="7" t="str">
+      <c r="D200" s="1" t="str">
         <v>班主任</v>
       </c>
-      <c r="E200" s="7" t="str">
+      <c r="E200" s="1" t="str">
         <v>套装名称</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="201">
-      <c r="A201" s="7">
+      <c r="A201" s="1">
         <v>80024</v>
       </c>
-      <c r="B201" s="3" t="str">
+      <c r="B201" s="4" t="str">
         <v>Item_Name_30018</v>
       </c>
-      <c r="C201" s="3" t="str">
+      <c r="C201" s="4" t="str">
         <v>Sea Girl</v>
       </c>
-      <c r="D201" s="7" t="str">
+      <c r="D201" s="1" t="str">
         <v>海边姐姐</v>
       </c>
-      <c r="E201" s="7" t="str">
+      <c r="E201" s="1" t="str">
         <v>套装名称</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="202">
-      <c r="A202" s="7">
+      <c r="A202" s="1">
         <v>80025</v>
       </c>
-      <c r="B202" s="3" t="str">
+      <c r="B202" s="4" t="str">
         <v>Item_Name_30019</v>
       </c>
-      <c r="C202" s="3" t="str">
+      <c r="C202" s="4" t="str">
         <v>Girl Next Door</v>
       </c>
-      <c r="D202" s="7" t="str">
+      <c r="D202" s="1" t="str">
         <v>邻家妹妹</v>
       </c>
-      <c r="E202" s="7" t="str">
+      <c r="E202" s="1" t="str">
         <v>套装名称</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="203">
-      <c r="A203" s="7">
+      <c r="A203" s="1">
         <v>80026</v>
       </c>
-      <c r="B203" s="3" t="str">
+      <c r="B203" s="4" t="str">
         <v>Item_Name_30020</v>
       </c>
-      <c r="C203" s="3" t="str">
+      <c r="C203" s="4" t="str">
         <v>Fitness Coach</v>
       </c>
-      <c r="D203" s="7" t="str">
+      <c r="D203" s="1" t="str">
         <v>健身教练</v>
       </c>
-      <c r="E203" s="7" t="str">
+      <c r="E203" s="1" t="str">
         <v>套装名称</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="204">
-      <c r="A204" s="7">
+      <c r="A204" s="1">
         <v>80027</v>
       </c>
-      <c r="B204" s="3" t="str">
+      <c r="B204" s="4" t="str">
         <v>Item_Name_30021</v>
       </c>
-      <c r="C204" s="3" t="str">
+      <c r="C204" s="4" t="str">
         <v>Elegant Girl</v>
       </c>
-      <c r="D204" s="7" t="str">
+      <c r="D204" s="1" t="str">
         <v>优雅少女</v>
       </c>
-      <c r="E204" s="7" t="str">
+      <c r="E204" s="1" t="str">
         <v>套装名称</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="205">
-      <c r="A205" s="7">
+      <c r="A205" s="1">
         <v>80028</v>
       </c>
-      <c r="B205" s="3" t="str">
+      <c r="B205" s="4" t="str">
         <v>Item_Name_30022</v>
       </c>
-      <c r="C205" s="3" t="str">
+      <c r="C205" s="4" t="str">
         <v>The Adventurer</v>
       </c>
-      <c r="D205" s="7" t="str">
+      <c r="D205" s="1" t="str">
         <v>探险家</v>
       </c>
-      <c r="E205" s="7" t="str">
+      <c r="E205" s="1" t="str">
         <v>套装名称</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="206">
-      <c r="A206" s="7">
+      <c r="A206" s="1">
         <v>80029</v>
       </c>
-      <c r="B206" s="3" t="str">
+      <c r="B206" s="4" t="str">
         <v>Item_Name_30023</v>
       </c>
-      <c r="C206" s="3" t="str">
+      <c r="C206" s="4" t="str">
         <v>Chinese Student</v>
       </c>
-      <c r="D206" s="7" t="str">
+      <c r="D206" s="1" t="str">
         <v>民国学生</v>
       </c>
-      <c r="E206" s="7" t="str">
+      <c r="E206" s="1" t="str">
         <v>套装名称</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="207">
-      <c r="A207" s="7">
+      <c r="A207" s="1">
         <v>80030</v>
       </c>
-      <c r="B207" s="3" t="str">
+      <c r="B207" s="4" t="str">
         <v>Item_Name_30024</v>
       </c>
-      <c r="C207" s="3" t="str">
+      <c r="C207" s="4" t="str">
         <v>Cocoa Girl</v>
       </c>
-      <c r="D207" s="7" t="str">
+      <c r="D207" s="1" t="str">
         <v>可可少女</v>
       </c>
-      <c r="E207" s="7" t="str">
+      <c r="E207" s="1" t="str">
         <v>套装名称</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="208">
-      <c r="A208" s="7">
+      <c r="A208" s="1">
         <v>80031</v>
       </c>
-      <c r="B208" s="3" t="str">
+      <c r="B208" s="4" t="str">
         <v>Item_Name_30025</v>
       </c>
-      <c r="C208" s="3" t="str">
+      <c r="C208" s="4" t="str">
         <v>Cat Shopkeeper</v>
       </c>
-      <c r="D208" s="7" t="str">
+      <c r="D208" s="1" t="str">
         <v>猫猫店员</v>
       </c>
-      <c r="E208" s="7" t="str">
+      <c r="E208" s="1" t="str">
         <v>套装名称</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="209">
-      <c r="A209" s="7">
+      <c r="A209" s="1">
         <v>80032</v>
       </c>
-      <c r="B209" s="3" t="str">
+      <c r="B209" s="4" t="str">
         <v>Item_Name_30026</v>
       </c>
-      <c r="C209" s="3" t="str">
+      <c r="C209" s="4" t="str">
         <v>Sweet Maid</v>
       </c>
-      <c r="D209" s="7" t="str">
+      <c r="D209" s="1" t="str">
         <v>女仆甜心</v>
       </c>
-      <c r="E209" s="7" t="str">
+      <c r="E209" s="1" t="str">
         <v>套装名称</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="210">
-      <c r="A210" s="7">
+      <c r="A210" s="1">
         <v>80033</v>
       </c>
-      <c r="B210" s="3" t="str">
+      <c r="B210" s="4" t="str">
         <v>Item_Name_30027</v>
       </c>
-      <c r="C210" s="3" t="str">
+      <c r="C210" s="4" t="str">
         <v>Cat-eared Maid</v>
       </c>
-      <c r="D210" s="7" t="str">
+      <c r="D210" s="1" t="str">
         <v>猫耳女仆</v>
       </c>
-      <c r="E210" s="7" t="str">
+      <c r="E210" s="1" t="str">
         <v>套装名称</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="211">
-      <c r="A211" s="7">
+      <c r="A211" s="1">
         <v>80034</v>
       </c>
-      <c r="B211" s="3" t="str">
+      <c r="B211" s="4" t="str">
         <v>Item_Name_30028</v>
       </c>
-      <c r="C211" s="3" t="str">
+      <c r="C211" s="4" t="str">
         <v>Girl Idol</v>
       </c>
-      <c r="D211" s="7" t="str">
+      <c r="D211" s="1" t="str">
         <v>少女偶像</v>
       </c>
-      <c r="E211" s="7" t="str">
+      <c r="E211" s="1" t="str">
         <v>套装名称</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="212">
-      <c r="A212" s="7">
+      <c r="A212" s="1">
         <v>80035</v>
       </c>
-      <c r="B212" s="3" t="str">
+      <c r="B212" s="4" t="str">
         <v>Item_Name_30029</v>
       </c>
-      <c r="C212" s="3" t="str">
+      <c r="C212" s="4" t="str">
         <v>Christmas Girl</v>
       </c>
-      <c r="D212" s="7" t="str">
+      <c r="D212" s="1" t="str">
         <v>圣诞少女</v>
       </c>
-      <c r="E212" s="7" t="str">
+      <c r="E212" s="1" t="str">
         <v>套装名称</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="213">
-      <c r="A213" s="7">
+      <c r="A213" s="1">
         <v>80036</v>
       </c>
-      <c r="B213" s="3" t="str">
+      <c r="B213" s="4" t="str">
         <v>Item_Name_20007</v>
       </c>
-      <c r="C213" s="3" t="str">
+      <c r="C213" s="4" t="str">
         <v>Flame</v>
       </c>
-      <c r="D213" s="7" t="str">
+      <c r="D213" s="1" t="str">
         <v>火焰</v>
       </c>
-      <c r="E213" s="7" t="str">
+      <c r="E213" s="1" t="str">
         <v>拖尾道具</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="214">
-      <c r="A214" s="7">
+      <c r="A214" s="1">
         <v>80037</v>
       </c>
-      <c r="B214" s="3" t="str">
+      <c r="B214" s="4" t="str">
         <v>Item_Name_20008</v>
       </c>
-      <c r="C214" s="3" t="str">
+      <c r="C214" s="4" t="str">
         <v>Witch</v>
       </c>
-      <c r="D214" s="7" t="str">
+      <c r="D214" s="1" t="str">
         <v>女巫</v>
       </c>
-      <c r="E214" s="7" t="str">
+      <c r="E214" s="1" t="str">
         <v>拖尾道具</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="215">
-      <c r="A215" s="7">
+      <c r="A215" s="1">
         <v>80038</v>
       </c>
-      <c r="B215" s="3" t="str">
+      <c r="B215" s="4" t="str">
         <v>Item_Name_20009</v>
       </c>
-      <c r="C215" s="3" t="str">
+      <c r="C215" s="4" t="str">
         <v>Knight</v>
       </c>
-      <c r="D215" s="7" t="str">
+      <c r="D215" s="1" t="str">
         <v>骑士</v>
       </c>
-      <c r="E215" s="7" t="str">
+      <c r="E215" s="1" t="str">
         <v>拖尾道具</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="216">
-      <c r="A216" s="7">
+      <c r="A216" s="1">
         <v>80039</v>
       </c>
-      <c r="B216" s="3" t="str">
+      <c r="B216" s="4" t="str">
         <v>Item_Name_20010</v>
       </c>
-      <c r="C216" s="3" t="str">
+      <c r="C216" s="4" t="str">
         <v>Demon</v>
       </c>
-      <c r="D216" s="7" t="str">
+      <c r="D216" s="1" t="str">
         <v>恶魔</v>
       </c>
-      <c r="E216" s="7" t="str">
+      <c r="E216" s="1" t="str">
         <v>拖尾道具</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="217">
-      <c r="A217" s="7">
+      <c r="A217" s="1">
         <v>80040</v>
       </c>
-      <c r="B217" s="3" t="str">
+      <c r="B217" s="4" t="str">
         <v>Item_Name_20011</v>
       </c>
-      <c r="C217" s="3" t="str">
+      <c r="C217" s="4" t="str">
         <v>Devil</v>
       </c>
-      <c r="D217" s="7" t="str">
+      <c r="D217" s="1" t="str">
         <v>魔鬼</v>
       </c>
-      <c r="E217" s="7" t="str">
+      <c r="E217" s="1" t="str">
         <v>拖尾道具</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="218">
-      <c r="A218" s="1">
+      <c r="A218" s="6">
         <v>90001</v>
       </c>
-      <c r="B218" s="22" t="str">
+      <c r="B218" s="24" t="str">
         <v>Chat_chat_1</v>
       </c>
-      <c r="C218" s="1" t="str">
+      <c r="C218" s="6" t="str">
         <v>I am {1}!</v>
       </c>
-      <c r="D218" s="34" t="str">
+      <c r="D218" s="37" t="str">
         <v>我是{1}~</v>
       </c>
-      <c r="E218" s="1"/>
+      <c r="E218" s="6"/>
     </row>
     <row customHeight="true" ht="21" r="219">
-      <c r="A219" s="1">
+      <c r="A219" s="6">
         <v>90002</v>
       </c>
-      <c r="B219" s="22" t="str">
+      <c r="B219" s="24" t="str">
         <v>Chat_chat_2</v>
       </c>
-      <c r="C219" s="1" t="str">
+      <c r="C219" s="6" t="str">
         <v>Who is the murderer?</v>
       </c>
-      <c r="D219" s="23" t="str">
+      <c r="D219" s="25" t="str">
         <v>凶手是谁？</v>
       </c>
-      <c r="E219" s="1" t="str"/>
+      <c r="E219" s="6" t="str"/>
     </row>
     <row customHeight="true" ht="21" r="220">
-      <c r="A220" s="1">
+      <c r="A220" s="6">
         <v>90003</v>
       </c>
-      <c r="B220" s="22" t="str">
+      <c r="B220" s="24" t="str">
         <v>Chat_chat_3</v>
       </c>
-      <c r="C220" s="1" t="str">
+      <c r="C220" s="6" t="str">
         <v>Help!</v>
       </c>
-      <c r="D220" s="23" t="str">
+      <c r="D220" s="25" t="str">
         <v>救命！</v>
       </c>
-      <c r="E220" s="1" t="str"/>
+      <c r="E220" s="6" t="str"/>
     </row>
     <row customHeight="true" ht="21" r="221">
-      <c r="A221" s="1">
+      <c r="A221" s="6">
         <v>90004</v>
       </c>
-      <c r="B221" s="22" t="str">
+      <c r="B221" s="24" t="str">
         <v>Chat_chat_4</v>
       </c>
-      <c r="C221" s="1" t="str">
+      <c r="C221" s="6" t="str">
         <v>Thank you!</v>
       </c>
-      <c r="D221" s="23" t="str">
+      <c r="D221" s="25" t="str">
         <v>谢谢你！</v>
       </c>
-      <c r="E221" s="1" t="str"/>
+      <c r="E221" s="6" t="str"/>
     </row>
     <row customHeight="true" ht="21" r="222">
-      <c r="A222" s="1">
+      <c r="A222" s="6">
         <v>90005</v>
       </c>
-      <c r="B222" s="22" t="str">
+      <c r="B222" s="24" t="str">
         <v>Chat_chat_5</v>
       </c>
-      <c r="C222" s="1" t="str">
+      <c r="C222" s="6" t="str">
         <v>Hello!</v>
       </c>
-      <c r="D222" s="2" t="str">
+      <c r="D222" s="7" t="str">
         <v>你好！</v>
       </c>
-      <c r="E222" s="1" t="str"/>
+      <c r="E222" s="6" t="str"/>
     </row>
     <row customHeight="true" ht="21" r="223">
-      <c r="A223" s="1">
+      <c r="A223" s="6">
         <v>90006</v>
       </c>
-      <c r="B223" s="22" t="str">
+      <c r="B223" s="24" t="str">
         <v>Chat_chat_6</v>
       </c>
-      <c r="C223" s="1" t="str">
+      <c r="C223" s="6" t="str">
         <v>Don't kill me :(((</v>
       </c>
-      <c r="D223" s="23" t="str">
+      <c r="D223" s="25" t="str">
         <v>别刀我QAQ</v>
       </c>
-      <c r="E223" s="1" t="str">
+      <c r="E223" s="6" t="str">
         <v>QAQ希望也本地化一下，换成欧美比较熟悉的颜表情</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="224">
-      <c r="A224" s="1">
+      <c r="A224" s="6">
         <v>90007</v>
       </c>
-      <c r="B224" s="22" t="str">
+      <c r="B224" s="24" t="str">
         <v>Chat_chat_7</v>
       </c>
-      <c r="C224" s="1" t="str">
+      <c r="C224" s="6" t="str">
         <v>Stay away from me!</v>
       </c>
-      <c r="D224" s="23" t="str">
+      <c r="D224" s="25" t="str">
         <v>退！退！退！</v>
       </c>
-      <c r="E224" s="1"/>
+      <c r="E224" s="6"/>
     </row>
     <row customHeight="true" ht="21" r="225">
-      <c r="A225" s="1">
+      <c r="A225" s="6">
         <v>90008</v>
       </c>
-      <c r="B225" s="22" t="str">
+      <c r="B225" s="24" t="str">
         <v>Chat_chat_8</v>
       </c>
-      <c r="C225" s="1" t="str">
+      <c r="C225" s="6" t="str">
         <v>Perfect!</v>
       </c>
-      <c r="D225" s="23" t="str">
+      <c r="D225" s="25" t="str">
         <v>满分操作~</v>
       </c>
-      <c r="E225" s="1" t="str"/>
+      <c r="E225" s="6" t="str"/>
     </row>
     <row customHeight="true" ht="21" r="226">
-      <c r="A226" s="1">
+      <c r="A226" s="6">
         <v>90009</v>
       </c>
-      <c r="B226" s="22" t="str">
+      <c r="B226" s="24" t="str">
         <v>Chat_chat_9</v>
       </c>
-      <c r="C226" s="1" t="str">
+      <c r="C226" s="6" t="str">
         <v>Show time!</v>
       </c>
-      <c r="D226" s="23" t="str">
+      <c r="D226" s="25" t="str">
         <v>我要开始表演了~</v>
       </c>
-      <c r="E226" s="1" t="str"/>
+      <c r="E226" s="6" t="str"/>
     </row>
     <row customHeight="true" ht="21" r="227">
-      <c r="A227" s="1">
+      <c r="A227" s="6">
         <v>90010</v>
       </c>
-      <c r="B227" s="9" t="str">
+      <c r="B227" s="10" t="str">
         <v>Text_Content_20042</v>
       </c>
-      <c r="C227" s="1" t="str">
+      <c r="C227" s="6" t="str">
         <v>Student</v>
       </c>
-      <c r="D227" s="1" t="str">
+      <c r="D227" s="6" t="str">
         <v>学生</v>
       </c>
-      <c r="E227" s="1" t="str"/>
+      <c r="E227" s="6" t="str"/>
     </row>
     <row customHeight="true" ht="21" r="228">
-      <c r="A228" s="1">
+      <c r="A228" s="6">
         <v>90011</v>
       </c>
-      <c r="B228" s="9" t="str">
+      <c r="B228" s="10" t="str">
         <v>Text_Content_20043</v>
       </c>
-      <c r="C228" s="1" t="str">
+      <c r="C228" s="6" t="str">
         <v>Detective</v>
       </c>
-      <c r="D228" s="1" t="str">
+      <c r="D228" s="6" t="str">
         <v>侦探</v>
       </c>
-      <c r="E228" s="1" t="str"/>
+      <c r="E228" s="6" t="str"/>
     </row>
     <row customHeight="true" ht="21" r="229">
-      <c r="A229" s="1">
+      <c r="A229" s="6">
         <v>90012</v>
       </c>
-      <c r="B229" s="9" t="str">
+      <c r="B229" s="10" t="str">
         <v>Text_Content_20044</v>
       </c>
-      <c r="C229" s="1" t="str">
+      <c r="C229" s="6" t="str">
         <v>Murderer</v>
       </c>
-      <c r="D229" s="1" t="str">
+      <c r="D229" s="6" t="str">
         <v>凶手</v>
       </c>
-      <c r="E229" s="1" t="str"/>
+      <c r="E229" s="6" t="str"/>
     </row>
     <row customHeight="true" ht="21" r="230">
-      <c r="A230" s="1">
+      <c r="A230" s="6">
         <v>90013</v>
       </c>
-      <c r="B230" s="9" t="str">
+      <c r="B230" s="10" t="str">
         <v>Text_Content_20036</v>
       </c>
-      <c r="C230" s="1" t="str">
+      <c r="C230" s="6" t="str">
         <v>1. The Murderer can attack in two ways
 2. In melee attack mode, you will auto wave knife when aproaching other players.
 3. An aming sign will appear when you are nearby a target. Tap the sign to attack.</v>
       </c>
-      <c r="D230" s="1" t="str">
+      <c r="D230" s="6" t="str">
         <v>1.凶手有近战穿刺、远程飞刀两种方式，可以自由切换
 2.在近战状态下，靠近其他玩家并面向他们，就可以自动挥刀击杀
 3.在远程状态下，附近有可攻击的目标时，会出现瞄准标志，点击标志即可扔出飞刀</v>
       </c>
-      <c r="E230" s="1" t="str">
+      <c r="E230" s="6" t="str">
         <v>文本长度尽量和中文一致</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="231">
-      <c r="A231" s="1">
+      <c r="A231" s="6">
         <v>90014</v>
       </c>
-      <c r="B231" s="9" t="str">
+      <c r="B231" s="10" t="str">
         <v>Text_Content_20037</v>
       </c>
-      <c r="C231" s="1" t="str">
+      <c r="C231" s="6" t="str">
         <v>1. The detective can shoot in two ways.
 2. An aming sign will appear when holding the gun nearby a target. Tap the sign to fire.
 3. Also, you can tap any position to fire at.</v>
       </c>
-      <c r="D231" s="1" t="str">
+      <c r="D231" s="6" t="str">
         <v>1.侦探可以开枪进行射击，有两种射击方法
 2.在持枪状态下，附近有可攻击目标时，会出现瞄准标志，点击标志即可发射子弹
 3.除此之外，持枪状态下点击任意位置都可以发射子弹哦~</v>
       </c>
-      <c r="E231" s="1" t="str">
+      <c r="E231" s="6" t="str">
         <v>文本长度尽量和中文一致</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="232">
-      <c r="A232" s="1">
+      <c r="A232" s="6">
         <v>90015</v>
       </c>
-      <c r="B232" s="9" t="str">
+      <c r="B232" s="10" t="str">
         <v>Text_Content_20038</v>
       </c>
-      <c r="C232" s="1" t="str">
+      <c r="C232" s="6" t="str">
         <v>1. If you are a murderer/detective, try not to reveal your identity.
 2. Don't trust anyone who tries to get close to you, they are dangerous, always stay alert.
 3. If you are a student, try to survive!</v>
       </c>
-      <c r="D232" s="1" t="str">
+      <c r="D232" s="6" t="str">
         <v>1.如果你是杀手/侦探，请尽量不要暴露自己的身份
 2.不要相信任何试图靠近你的人，他们很危险，时刻保持警惕
 3.假如你是平民，那么努力活下来吧</v>
       </c>
-      <c r="E232" s="1" t="str">
+      <c r="E232" s="6" t="str">
         <v>文本长度尽量和中文一致</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="233">
-      <c r="A233" s="1">
+      <c r="A233" s="6">
         <v>90016</v>
       </c>
-      <c r="B233" s="9" t="str">
+      <c r="B233" s="10" t="str">
         <v>Text_Content_20039</v>
       </c>
-      <c r="C233" s="1" t="str">
+      <c r="C233" s="6" t="str">
         <v>Murderer Tutorial</v>
       </c>
-      <c r="D233" s="1" t="str">
+      <c r="D233" s="6" t="str">
         <v>凶手教学</v>
       </c>
-      <c r="E233" s="1" t="str"/>
+      <c r="E233" s="6" t="str"/>
     </row>
     <row customHeight="true" ht="21" r="234">
-      <c r="A234" s="1">
+      <c r="A234" s="6">
         <v>90017</v>
       </c>
-      <c r="B234" s="9" t="str">
+      <c r="B234" s="10" t="str">
         <v>Text_Content_20040</v>
       </c>
-      <c r="C234" s="1" t="str">
+      <c r="C234" s="6" t="str">
         <v>Detective Tutorial</v>
       </c>
-      <c r="D234" s="1" t="str">
+      <c r="D234" s="6" t="str">
         <v>侦探教学</v>
       </c>
-      <c r="E234" s="1" t="str"/>
+      <c r="E234" s="6" t="str"/>
     </row>
     <row customHeight="true" ht="21" r="235">
-      <c r="A235" s="1">
+      <c r="A235" s="6">
         <v>90018</v>
       </c>
-      <c r="B235" s="9" t="str">
+      <c r="B235" s="10" t="str">
         <v>Text_Content_20041</v>
       </c>
-      <c r="C235" s="1" t="str">
+      <c r="C235" s="6" t="str">
         <v>Tips</v>
       </c>
-      <c r="D235" s="1" t="str">
+      <c r="D235" s="6" t="str">
         <v>温馨提示</v>
       </c>
-      <c r="E235" s="1" t="str"/>
+      <c r="E235" s="6" t="str"/>
     </row>
     <row customHeight="true" ht="21" r="236">
-      <c r="A236" s="1">
+      <c r="A236" s="6">
         <v>90019</v>
       </c>
-      <c r="B236" s="2" t="str">
+      <c r="B236" s="7" t="str">
         <v>Tips_Content_20009</v>
       </c>
-      <c r="C236" s="1" t="str">
+      <c r="C236" s="6" t="str">
         <v>The murderer defeated you.</v>
       </c>
-      <c r="D236" s="10" t="str">
+      <c r="D236" s="13" t="str">
         <v>凶手淘汰了你</v>
       </c>
-      <c r="E236" s="1" t="str"/>
+      <c r="E236" s="6" t="str"/>
     </row>
     <row customHeight="true" ht="21" r="237">
-      <c r="A237" s="1">
+      <c r="A237" s="6">
         <v>90020</v>
       </c>
-      <c r="B237" s="2" t="str">
+      <c r="B237" s="7" t="str">
         <v>Tips_Content_20010</v>
       </c>
-      <c r="C237" s="1" t="str">
+      <c r="C237" s="6" t="str">
         <v>Wrong target, you're eliminated.</v>
       </c>
-      <c r="D237" s="10" t="str">
+      <c r="D237" s="13" t="str">
         <v>目标错误，你被淘汰了</v>
       </c>
-      <c r="E237" s="1" t="str"/>
+      <c r="E237" s="6" t="str"/>
     </row>
     <row customHeight="true" ht="21" r="238">
-      <c r="A238" s="1">
+      <c r="A238" s="6">
         <v>90021</v>
       </c>
-      <c r="B238" s="2" t="str">
+      <c r="B238" s="7" t="str">
         <v>Tips_Content_20011</v>
       </c>
-      <c r="C238" s="1" t="str">
+      <c r="C238" s="6" t="str">
         <v>You have been eliminated by the detective.</v>
       </c>
-      <c r="D238" s="10" t="str">
+      <c r="D238" s="13" t="str">
         <v>已被正义的警探消灭</v>
       </c>
-      <c r="E238" s="1" t="str"/>
+      <c r="E238" s="6" t="str"/>
     </row>
     <row customHeight="true" ht="21" r="239">
-      <c r="A239" s="1">
+      <c r="A239" s="6">
         <v>90022</v>
       </c>
-      <c r="B239" s="2" t="str">
+      <c r="B239" s="7" t="str">
         <v>Text_Content_12027</v>
       </c>
-      <c r="C239" s="1" t="str">
+      <c r="C239" s="6" t="str">
         <v>Power Store</v>
       </c>
-      <c r="D239" s="1" t="str">
+      <c r="D239" s="6" t="str">
         <v>能力商店</v>
       </c>
-      <c r="E239" s="1" t="str"/>
+      <c r="E239" s="6" t="str"/>
     </row>
     <row customHeight="true" ht="21" r="240">
-      <c r="A240" s="1">
+      <c r="A240" s="6">
         <v>90023</v>
       </c>
-      <c r="B240" s="2" t="str">
+      <c r="B240" s="7" t="str">
         <v>Text_Content_12028</v>
       </c>
-      <c r="C240" s="1" t="str">
+      <c r="C240" s="6" t="str">
         <v>Power Details</v>
       </c>
-      <c r="D240" s="1" t="str">
+      <c r="D240" s="6" t="str">
         <v>能力详情</v>
       </c>
-      <c r="E240" s="1" t="str"/>
+      <c r="E240" s="6" t="str"/>
     </row>
     <row customHeight="true" ht="21" r="241">
-      <c r="A241" s="1">
+      <c r="A241" s="6">
         <v>90024</v>
       </c>
-      <c r="B241" s="2" t="str">
+      <c r="B241" s="7" t="str">
         <v>Text_Content_12029</v>
       </c>
-      <c r="C241" s="1" t="str">
+      <c r="C241" s="6" t="str">
         <v>Equip</v>
       </c>
-      <c r="D241" s="1" t="str">
+      <c r="D241" s="6" t="str">
         <v>装备</v>
       </c>
-      <c r="E241" s="1" t="str">
+      <c r="E241" s="6" t="str">
         <v>动词</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="242">
-      <c r="A242" s="1">
+      <c r="A242" s="6">
         <v>90025</v>
       </c>
-      <c r="B242" s="2" t="str">
+      <c r="B242" s="7" t="str">
         <v>Text_Content_12030</v>
       </c>
-      <c r="C242" s="1" t="str">
+      <c r="C242" s="6" t="str">
         <v>Remove</v>
       </c>
-      <c r="D242" s="1" t="str">
+      <c r="D242" s="6" t="str">
         <v>卸下</v>
       </c>
-      <c r="E242" s="1" t="str"/>
+      <c r="E242" s="6" t="str"/>
     </row>
     <row customHeight="true" ht="21" r="243">
-      <c r="A243" s="1">
+      <c r="A243" s="6">
         <v>90026</v>
       </c>
-      <c r="B243" s="2" t="str">
+      <c r="B243" s="7" t="str">
         <v>Text_Content_12031</v>
       </c>
-      <c r="C243" s="1" t="str">
+      <c r="C243" s="6" t="str">
         <v>Coin Purchase</v>
       </c>
-      <c r="D243" s="1" t="str">
+      <c r="D243" s="6" t="str">
         <v>金币购买</v>
       </c>
-      <c r="E243" s="1" t="str"/>
+      <c r="E243" s="6" t="str"/>
     </row>
     <row customHeight="true" ht="21" r="244">
-      <c r="A244" s="1">
+      <c r="A244" s="6">
         <v>90027</v>
       </c>
-      <c r="B244" s="2" t="str">
+      <c r="B244" s="7" t="str">
         <v>Text_Content_12032</v>
       </c>
-      <c r="C244" s="1" t="str">
+      <c r="C244" s="6" t="str">
         <v>Diamond Purchase</v>
       </c>
-      <c r="D244" s="1" t="str">
+      <c r="D244" s="6" t="str">
         <v>钻石购买</v>
       </c>
-      <c r="E244" s="1" t="str"/>
+      <c r="E244" s="6" t="str"/>
     </row>
     <row customHeight="true" ht="21" r="245">
-      <c r="A245" s="1">
+      <c r="A245" s="6">
         <v>90028</v>
       </c>
-      <c r="B245" s="2" t="str">
+      <c r="B245" s="7" t="str">
         <v>Text_Content_12033</v>
       </c>
-      <c r="C245" s="1" t="str">
+      <c r="C245" s="6" t="str">
         <v>Equipped</v>
       </c>
-      <c r="D245" s="1" t="str">
+      <c r="D245" s="6" t="str">
         <v>装备中</v>
       </c>
-      <c r="E245" s="1" t="str">
+      <c r="E245" s="6" t="str">
         <v>指“已装备”</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="246">
-      <c r="A246" s="1">
+      <c r="A246" s="6">
         <v>90029</v>
       </c>
-      <c r="B246" s="2" t="str">
+      <c r="B246" s="7" t="str">
         <v>Text_Content_12034</v>
       </c>
-      <c r="C246" s="1" t="str">
+      <c r="C246" s="6" t="str">
         <v>Owned</v>
       </c>
-      <c r="D246" s="1" t="str">
+      <c r="D246" s="6" t="str">
         <v>已拥有</v>
       </c>
-      <c r="E246" s="1" t="str"/>
+      <c r="E246" s="6" t="str"/>
     </row>
     <row customHeight="true" ht="21" r="247">
-      <c r="A247" s="1">
+      <c r="A247" s="6">
         <v>90030</v>
       </c>
-      <c r="B247" s="2" t="str">
+      <c r="B247" s="7" t="str">
         <v>Tips_Content_10011</v>
       </c>
-      <c r="C247" s="1" t="str">
+      <c r="C247" s="6" t="str">
         <v>Purchase successfully!</v>
       </c>
-      <c r="D247" s="1" t="str">
+      <c r="D247" s="6" t="str">
         <v>购买成功</v>
       </c>
-      <c r="E247" s="1" t="str"/>
+      <c r="E247" s="6" t="str"/>
     </row>
     <row customHeight="true" ht="21" r="248">
-      <c r="A248" s="1">
+      <c r="A248" s="6">
         <v>90031</v>
       </c>
-      <c r="B248" s="2" t="str">
+      <c r="B248" s="7" t="str">
         <v>Tips_Content_10012</v>
       </c>
-      <c r="C248" s="1" t="str">
+      <c r="C248" s="6" t="str">
         <v>Purchase failed</v>
       </c>
-      <c r="D248" s="3" t="str">
+      <c r="D248" s="4" t="str">
         <v>货币不足，再攒攒吧~</v>
       </c>
-      <c r="E248" s="1" t="str"/>
+      <c r="E248" s="6" t="str"/>
     </row>
     <row customHeight="true" ht="21" r="249">
-      <c r="A249" s="1">
+      <c r="A249" s="6">
         <v>90032</v>
       </c>
-      <c r="B249" s="8" t="str">
+      <c r="B249" s="17" t="str">
         <v>SkillShop_Name_10001</v>
       </c>
-      <c r="C249" s="1" t="str">
+      <c r="C249" s="6" t="str">
         <v>Killer Pace</v>
       </c>
-      <c r="D249" s="8" t="str">
+      <c r="D249" s="17" t="str">
         <v>杀手步伐</v>
       </c>
-      <c r="E249" s="1" t="str">
+      <c r="E249" s="6" t="str">
         <v>杀手的特殊能力名称</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="250">
-      <c r="A250" s="1">
+      <c r="A250" s="6">
         <v>90033</v>
       </c>
-      <c r="B250" s="8" t="str">
+      <c r="B250" s="17" t="str">
         <v>SkillShop_Name_10002</v>
       </c>
-      <c r="C250" s="1" t="str">
+      <c r="C250" s="6" t="str">
         <v>Quick Throw</v>
       </c>
-      <c r="D250" s="8" t="str">
+      <c r="D250" s="17" t="str">
         <v>快速投掷</v>
       </c>
-      <c r="E250" s="1" t="str">
+      <c r="E250" s="6" t="str">
         <v>杀手的特殊能力名称</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="251">
-      <c r="A251" s="1">
+      <c r="A251" s="6">
         <v>90034</v>
       </c>
-      <c r="B251" s="8" t="str">
+      <c r="B251" s="17" t="str">
         <v>SkillShop_Name_10003</v>
       </c>
-      <c r="C251" s="1" t="str">
+      <c r="C251" s="6" t="str">
         <v>Explosive Knife</v>
       </c>
-      <c r="D251" s="8" t="str">
+      <c r="D251" s="17" t="str">
         <v>爆炸飞刀</v>
       </c>
-      <c r="E251" s="1" t="str">
+      <c r="E251" s="6" t="str">
         <v>杀手的特殊能力名称</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="252">
-      <c r="A252" s="1">
+      <c r="A252" s="6">
         <v>90035</v>
       </c>
-      <c r="B252" s="8" t="str">
+      <c r="B252" s="17" t="str">
         <v>SkillShop_Description_10001</v>
       </c>
-      <c r="C252" s="1" t="str">
+      <c r="C252" s="6" t="str">
         <v>[Murderer's Passive Ability] When you pull out your knife, your movement speed is increased by 10% faster than usual.</v>
       </c>
-      <c r="D252" s="8" t="str">
+      <c r="D252" s="17" t="str">
         <v>【杀手被动能力】
 当你掏出你的刀时，你的移动速度会比平时更快，提升10％</v>
       </c>
-      <c r="E252" s="1" t="str"/>
+      <c r="E252" s="6" t="str"/>
     </row>
     <row customHeight="true" ht="21" r="253">
-      <c r="A253" s="1">
+      <c r="A253" s="6">
         <v>90036</v>
       </c>
-      <c r="B253" s="8" t="str">
+      <c r="B253" s="17" t="str">
         <v>SkillShop_Description_10002</v>
       </c>
-      <c r="C253" s="1" t="str">
+      <c r="C253" s="6" t="str">
         <v>[Murderer's Passive Ability] Now your thrown flying knives will fly faster, boosted by 100%!</v>
       </c>
-      <c r="D253" s="8" t="str">
+      <c r="D253" s="17" t="str">
         <v>【杀手被动能力】
 现在你扔出的飞刀会飞得更快，提升100％</v>
       </c>
-      <c r="E253" s="1" t="str"/>
+      <c r="E253" s="6" t="str"/>
     </row>
     <row customHeight="true" ht="21" r="254">
-      <c r="A254" s="1">
+      <c r="A254" s="6">
         <v>90037</v>
       </c>
-      <c r="B254" s="8" t="str">
+      <c r="B254" s="17" t="str">
         <v>SkillShop_Description_10003</v>
       </c>
-      <c r="C254" s="1" t="str">
+      <c r="C254" s="6" t="str">
         <v>[Murderer Passive Ability] When your throwing knife hits a target, instead of immediately dealing damage to the target, it plants a bomb. The bomb will explode after a small delay and deal damage to players around a certain range.</v>
       </c>
-      <c r="D254" s="8" t="str">
+      <c r="D254" s="17" t="str">
         <v>【杀手被动能力】
 当你的飞刀命中目标时，不会立即对目标造成伤害，而是在目标处埋下一颗炸弹，延迟一小段时间后会爆炸，并对周围一定范围内的玩家同样造成伤害</v>
       </c>
-      <c r="E254" s="1" t="str"/>
+      <c r="E254" s="6" t="str"/>
     </row>
     <row customHeight="true" ht="21" r="255">
-      <c r="A255" s="1">
+      <c r="A255" s="6">
         <v>90038</v>
       </c>
-      <c r="B255" s="2" t="str">
+      <c r="B255" s="7" t="str">
         <v>Shop_Name_40001</v>
       </c>
-      <c r="C255" s="1" t="str">
+      <c r="C255" s="6" t="str">
         <v>Skibidi Rainbow Toilet</v>
       </c>
-      <c r="D255" s="14" t="str">
+      <c r="D255" s="16" t="str">
         <v>彩虹马桶人</v>
       </c>
-      <c r="E255" s="1" t="str">
+      <c r="E255" s="6" t="str">
         <v>马桶人是外网热梗，就叫skibidi toilet</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="256">
-      <c r="A256" s="1">
+      <c r="A256" s="6">
         <v>90039</v>
       </c>
-      <c r="B256" s="2" t="str">
+      <c r="B256" s="7" t="str">
         <v>Shop_Name_40002</v>
       </c>
-      <c r="C256" s="1" t="str">
+      <c r="C256" s="6" t="str">
         <v>Skibidi Princess Toilet</v>
       </c>
-      <c r="D256" s="14" t="str">
+      <c r="D256" s="16" t="str">
         <v>公主马桶人</v>
       </c>
-      <c r="E256" s="1" t="str">
+      <c r="E256" s="6" t="str">
         <v>马桶人是外网热梗，就叫skibidi toilet</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="257">
-      <c r="A257" s="1">
+      <c r="A257" s="6">
         <v>90040</v>
       </c>
-      <c r="B257" s="2" t="str">
+      <c r="B257" s="7" t="str">
         <v>Shop_Name_40003</v>
       </c>
-      <c r="C257" s="1" t="str">
+      <c r="C257" s="6" t="str">
         <v>Skibidi Space Toilet</v>
       </c>
-      <c r="D257" s="14" t="str">
+      <c r="D257" s="16" t="str">
         <v>太空马桶人</v>
       </c>
-      <c r="E257" s="1" t="str">
+      <c r="E257" s="6" t="str">
         <v>马桶人是外网热梗，就叫skibidi toilet</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="258">
-      <c r="A258" s="1">
+      <c r="A258" s="6">
         <v>90041</v>
       </c>
-      <c r="B258" s="2" t="str">
+      <c r="B258" s="7" t="str">
         <v>Shop_Name_40004</v>
       </c>
-      <c r="C258" s="1" t="str">
+      <c r="C258" s="6" t="str">
         <v>Skibidi Spider Toilet</v>
       </c>
-      <c r="D258" s="14" t="str">
+      <c r="D258" s="16" t="str">
         <v>蜘蛛马桶人</v>
       </c>
-      <c r="E258" s="1" t="str">
+      <c r="E258" s="6" t="str">
         <v>马桶人是外网热梗，就叫skibidi toilet</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="259">
-      <c r="A259" s="1">
+      <c r="A259" s="6">
         <v>90042</v>
       </c>
-      <c r="B259" s="2" t="str">
+      <c r="B259" s="7" t="str">
         <v>Shop_Name_40005</v>
       </c>
-      <c r="C259" s="1" t="str">
+      <c r="C259" s="6" t="str">
         <v>Cameraman</v>
       </c>
-      <c r="D259" s="14" t="str">
+      <c r="D259" s="16" t="str">
         <v>监控人</v>
       </c>
-      <c r="E259" s="1" t="str">
+      <c r="E259" s="6" t="str">
         <v>马桶人系列，就叫这个</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="260">
-      <c r="A260" s="1">
+      <c r="A260" s="6">
         <v>90043</v>
       </c>
-      <c r="B260" s="2" t="str">
+      <c r="B260" s="7" t="str">
         <v>Shop_Name_40006</v>
       </c>
-      <c r="C260" s="1" t="str">
+      <c r="C260" s="6" t="str">
         <v>Speakerman</v>
       </c>
-      <c r="D260" s="14" t="str">
+      <c r="D260" s="16" t="str">
         <v>音响人</v>
       </c>
-      <c r="E260" s="1" t="str">
+      <c r="E260" s="6" t="str">
         <v>马桶人系列，就叫这个</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="261">
-      <c r="A261" s="1">
+      <c r="A261" s="6">
         <v>90044</v>
       </c>
-      <c r="B261" s="2" t="str">
+      <c r="B261" s="7" t="str">
         <v>Shop_Name_40007</v>
       </c>
-      <c r="C261" s="1" t="str">
+      <c r="C261" s="6" t="str">
         <v>TV Man</v>
       </c>
-      <c r="D261" s="14" t="str">
+      <c r="D261" s="16" t="str">
         <v>电视人</v>
       </c>
-      <c r="E261" s="1" t="str">
+      <c r="E261" s="6" t="str">
         <v>马桶人系列，就叫这个</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="262">
-      <c r="A262" s="1">
+      <c r="A262" s="6">
         <v>90045</v>
       </c>
-      <c r="B262" s="2" t="str">
+      <c r="B262" s="7" t="str">
         <v>Shop_Name_40008</v>
       </c>
-      <c r="C262" s="1" t="str">
+      <c r="C262" s="6" t="str">
         <v>Cartoon Speakerman</v>
       </c>
-      <c r="D262" s="14" t="str">
+      <c r="D262" s="16" t="str">
         <v>卡通音响人</v>
       </c>
-      <c r="E262" s="1" t="str"/>
+      <c r="E262" s="6" t="str"/>
     </row>
     <row customHeight="true" ht="21" r="263">
-      <c r="A263" s="1">
+      <c r="A263" s="6">
         <v>90046</v>
       </c>
-      <c r="B263" s="2" t="str">
+      <c r="B263" s="7" t="str">
         <v>Shop_Name_40009</v>
       </c>
-      <c r="C263" s="1" t="str">
+      <c r="C263" s="6" t="str">
         <v>Cartoon TVman</v>
       </c>
-      <c r="D263" s="14" t="str">
+      <c r="D263" s="16" t="str">
         <v>卡通电视人</v>
       </c>
-      <c r="E263" s="1" t="str"/>
+      <c r="E263" s="6" t="str"/>
     </row>
     <row customHeight="true" ht="21" r="264">
-      <c r="A264" s="31">
+      <c r="A264" s="22">
         <v>90047</v>
       </c>
-      <c r="B264" s="32" t="str">
+      <c r="B264" s="23" t="str">
         <v>Text_Content_10005</v>
       </c>
-      <c r="C264" s="1" t="str">
+      <c r="C264" s="6" t="str">
         <v>This update:
 1. New [Skibidi Toilet VS Cameraman] series of pendants, welcome to the shop!
 2. New [Power Store], the configuration of the murderer's special abilities is now available!
@@ -5391,7 +5391,7 @@
 4. Adjusted the lobby and level scenes to improve performance.
 5. New reset button, try to tap it when the camera stucks!</v>
       </c>
-      <c r="D264" s="31" t="str">
+      <c r="D264" s="22" t="str">
         <v>本次更新：
 1.新增【马桶人VS监控人】系列挂件，欢迎大家去商店选购~
 2.新增【能力商店】，开放杀手局内特殊能力的配置
@@ -5399,799 +5399,799 @@
 4.调整大厅及关卡场景，提升性能
 5.新增还原按钮，镜头卡住的时候点一下试试吧</v>
       </c>
-      <c r="E264" s="31" t="str">
+      <c r="E264" s="22" t="str">
         <v>马桶人是外网热梗，就叫skibidi toilet</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="265">
-      <c r="A265" s="28">
+      <c r="A265" s="14">
         <v>90048</v>
       </c>
-      <c r="B265" s="36" t="str">
+      <c r="B265" s="30" t="str">
         <v>Tips_Content_10013</v>
       </c>
-      <c r="C265" s="1" t="str">
+      <c r="C265" s="6" t="str">
         <v>A player fails to enter the scene, the game will restart.</v>
       </c>
-      <c r="D265" s="28" t="str">
+      <c r="D265" s="14" t="str">
         <v>有玩家进入场景失败，对局将重新开始</v>
       </c>
-      <c r="E265" s="28" t="str"/>
+      <c r="E265" s="14" t="str"/>
     </row>
     <row customHeight="true" ht="21" r="266">
-      <c r="A266" s="28">
+      <c r="A266" s="14">
         <v>90049</v>
       </c>
-      <c r="B266" s="28" t="str">
+      <c r="B266" s="14" t="str">
         <v>Text_Content_10006</v>
       </c>
-      <c r="C266" s="3" t="str">
+      <c r="C266" s="4" t="str">
         <v>Jump</v>
       </c>
-      <c r="D266" s="28" t="str">
+      <c r="D266" s="14" t="str">
         <v>跳转</v>
       </c>
-      <c r="E266" s="28" t="str"/>
+      <c r="E266" s="14" t="str"/>
     </row>
     <row customHeight="true" ht="21" r="267">
-      <c r="A267" s="28">
+      <c r="A267" s="14">
         <v>90050</v>
       </c>
-      <c r="B267" s="12" t="str">
+      <c r="B267" s="2" t="str">
         <v>Text_Content_20045</v>
       </c>
-      <c r="C267" s="3" t="str">
+      <c r="C267" s="4" t="str">
         <v>Pull out gun</v>
       </c>
-      <c r="D267" s="7" t="str">
+      <c r="D267" s="1" t="str">
         <v>掏出手枪</v>
       </c>
-      <c r="E267" s="28"/>
+      <c r="E267" s="14"/>
     </row>
     <row customHeight="true" ht="21" r="268">
-      <c r="A268" s="28">
+      <c r="A268" s="14">
         <v>90051</v>
       </c>
-      <c r="B268" s="12" t="str">
+      <c r="B268" s="2" t="str">
         <v>Text_Content_20046</v>
       </c>
-      <c r="C268" s="3" t="str">
+      <c r="C268" s="4" t="str">
         <v>Put away gun</v>
       </c>
-      <c r="D268" s="7" t="str">
+      <c r="D268" s="1" t="str">
         <v>收起手枪</v>
       </c>
-      <c r="E268" s="28"/>
+      <c r="E268" s="14"/>
     </row>
     <row customHeight="true" ht="21" r="269">
-      <c r="A269" s="28">
+      <c r="A269" s="14">
         <v>90052</v>
       </c>
-      <c r="B269" s="12" t="str">
+      <c r="B269" s="2" t="str">
         <v>Text_Content_20047</v>
       </c>
-      <c r="C269" s="3" t="str">
+      <c r="C269" s="4" t="str">
         <v>Aim Sign</v>
       </c>
-      <c r="D269" s="7" t="str">
+      <c r="D269" s="1" t="str">
         <v>准星图标</v>
       </c>
-      <c r="E269" s="28"/>
+      <c r="E269" s="14"/>
     </row>
     <row customHeight="true" ht="21" r="270">
-      <c r="A270" s="28">
+      <c r="A270" s="14">
         <v>90053</v>
       </c>
-      <c r="B270" s="12" t="str">
+      <c r="B270" s="2" t="str">
         <v>Text_Content_20048</v>
       </c>
-      <c r="C270" s="3" t="str">
+      <c r="C270" s="4" t="str">
         <v>Melee mode</v>
       </c>
-      <c r="D270" s="7" t="str">
+      <c r="D270" s="1" t="str">
         <v>掏出近战匕首</v>
       </c>
-      <c r="E270" s="28"/>
+      <c r="E270" s="14"/>
     </row>
     <row customHeight="true" ht="21" r="271">
-      <c r="A271" s="28">
+      <c r="A271" s="14">
         <v>90054</v>
       </c>
-      <c r="B271" s="12" t="str">
+      <c r="B271" s="2" t="str">
         <v>Text_Content_20049</v>
       </c>
-      <c r="C271" s="3" t="str">
+      <c r="C271" s="4" t="str">
         <v>Throwing mode</v>
       </c>
-      <c r="D271" s="7" t="str">
+      <c r="D271" s="1" t="str">
         <v>掏出远程飞刀</v>
       </c>
-      <c r="E271" s="28"/>
+      <c r="E271" s="14"/>
     </row>
     <row customHeight="true" ht="21" r="272">
-      <c r="A272" s="28">
+      <c r="A272" s="14">
         <v>90055</v>
       </c>
-      <c r="B272" s="12" t="str">
+      <c r="B272" s="2" t="str">
         <v>Text_Content_20050</v>
       </c>
-      <c r="C272" s="3" t="str">
+      <c r="C272" s="4" t="str">
         <v>Put away knife</v>
       </c>
-      <c r="D272" s="7" t="str">
+      <c r="D272" s="1" t="str">
         <v>收起武器</v>
       </c>
-      <c r="E272" s="28"/>
+      <c r="E272" s="14"/>
     </row>
     <row customHeight="true" ht="21" r="273">
-      <c r="A273" s="28">
+      <c r="A273" s="14">
         <v>90056</v>
       </c>
-      <c r="B273" s="12" t="str">
+      <c r="B273" s="2" t="str">
         <v>Text_Content_20051</v>
       </c>
-      <c r="C273" s="7" t="str">
+      <c r="C273" s="1" t="str">
         <v>A</v>
       </c>
-      <c r="D273" s="3" t="str">
+      <c r="D273" s="4" t="str">
         <v>暂无获取途径</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="274">
-      <c r="A274" s="21">
+      <c r="A274" s="33">
         <v>90057</v>
       </c>
-      <c r="B274" s="21" t="str">
+      <c r="B274" s="33" t="str">
         <v>Lottery_Name_10003</v>
       </c>
-      <c r="C274" s="20" t="str">
+      <c r="C274" s="34" t="str">
         <v>Sci-Fi Weapon Box</v>
       </c>
-      <c r="D274" s="20" t="str">
+      <c r="D274" s="34" t="str">
         <v>科幻武器箱</v>
       </c>
-      <c r="E274" s="21"/>
+      <c r="E274" s="33"/>
     </row>
     <row customHeight="true" ht="21" r="275">
-      <c r="A275" s="21">
+      <c r="A275" s="33">
         <v>90058</v>
       </c>
-      <c r="B275" s="21" t="str">
+      <c r="B275" s="33" t="str">
         <v>Lottery_Name_10004</v>
       </c>
-      <c r="C275" s="20" t="str">
+      <c r="C275" s="34" t="str">
         <v>Myth Weapon Box</v>
       </c>
-      <c r="D275" s="20" t="str">
+      <c r="D275" s="34" t="str">
         <v>神话武器箱</v>
       </c>
-      <c r="E275" s="21"/>
+      <c r="E275" s="33"/>
     </row>
     <row customHeight="true" ht="21" r="276">
-      <c r="A276" s="3">
+      <c r="A276" s="4">
         <v>90059</v>
       </c>
-      <c r="B276" s="18" t="str">
+      <c r="B276" s="11" t="str">
         <v>Weapon_WeaponName_20004</v>
       </c>
-      <c r="C276" s="7" t="str">
+      <c r="C276" s="1" t="str">
         <v>Gun of Singularity</v>
       </c>
-      <c r="D276" s="33" t="str">
+      <c r="D276" s="26" t="str">
         <v>奇点之枪</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="277">
-      <c r="A277" s="3">
+      <c r="A277" s="4">
         <v>90060</v>
       </c>
-      <c r="B277" s="18" t="str">
+      <c r="B277" s="11" t="str">
         <v>Weapon_WeaponName_10023</v>
       </c>
-      <c r="C277" s="3" t="str">
+      <c r="C277" s="4" t="str">
         <v>Staff of Imaginary</v>
       </c>
-      <c r="D277" s="30" t="str">
+      <c r="D277" s="36" t="str">
         <v>虚数之杖</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="278">
-      <c r="A278" s="3">
+      <c r="A278" s="4">
         <v>90061</v>
       </c>
-      <c r="B278" s="18" t="str">
+      <c r="B278" s="11" t="str">
         <v>Weapon_WeaponName_10024</v>
       </c>
-      <c r="C278" s="3" t="str">
+      <c r="C278" s="4" t="str">
         <v>Spectral Spear</v>
       </c>
-      <c r="D278" s="17" t="str">
+      <c r="D278" s="12" t="str">
         <v>光谱矛</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="279">
-      <c r="A279" s="3">
+      <c r="A279" s="4">
         <v>90062</v>
       </c>
-      <c r="B279" s="18" t="str">
+      <c r="B279" s="11" t="str">
         <v>Weapon_WeaponName_20005</v>
       </c>
-      <c r="C279" s="3" t="str">
+      <c r="C279" s="4" t="str">
         <v>Anti-Matter Gun</v>
       </c>
-      <c r="D279" s="17" t="str">
+      <c r="D279" s="12" t="str">
         <v>反物质枪</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="280">
-      <c r="A280" s="3">
+      <c r="A280" s="4">
         <v>90063</v>
       </c>
-      <c r="B280" s="18" t="str">
+      <c r="B280" s="11" t="str">
         <v>Weapon_WeaponName_10025</v>
       </c>
-      <c r="C280" s="3" t="str">
+      <c r="C280" s="4" t="str">
         <v>Spectral Blade</v>
       </c>
-      <c r="D280" s="17" t="str">
+      <c r="D280" s="12" t="str">
         <v>光谱剑</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="281">
-      <c r="A281" s="3">
+      <c r="A281" s="4">
         <v>90064</v>
       </c>
-      <c r="B281" s="18" t="str">
+      <c r="B281" s="11" t="str">
         <v>Weapon_WeaponName_10026</v>
       </c>
-      <c r="C281" s="3" t="str">
+      <c r="C281" s="4" t="str">
         <v>Spectral Blade (Ruby)</v>
       </c>
-      <c r="D281" s="17" t="str">
+      <c r="D281" s="12" t="str">
         <v>光谱剑(晶红)</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="282">
-      <c r="A282" s="3">
+      <c r="A282" s="4">
         <v>90065</v>
       </c>
-      <c r="B282" s="18" t="str">
+      <c r="B282" s="11" t="str">
         <v>Weapon_WeaponName_10027</v>
       </c>
-      <c r="C282" s="3" t="str">
+      <c r="C282" s="4" t="str">
         <v>Dagger (Simulacrum)</v>
       </c>
-      <c r="D282" s="17" t="str">
+      <c r="D282" s="12" t="str">
         <v>匕首(模拟)</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="283">
-      <c r="A283" s="3">
+      <c r="A283" s="4">
         <v>90066</v>
       </c>
-      <c r="B283" s="18" t="str">
+      <c r="B283" s="11" t="str">
         <v>Weapon_WeaponName_10028</v>
       </c>
-      <c r="C283" s="3" t="str">
+      <c r="C283" s="4" t="str">
         <v>Saber (Simulacrum)</v>
       </c>
-      <c r="D283" s="17" t="str">
+      <c r="D283" s="12" t="str">
         <v>军刀(模拟)</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="284">
-      <c r="A284" s="3">
+      <c r="A284" s="4">
         <v>90067</v>
       </c>
-      <c r="B284" s="18" t="str">
+      <c r="B284" s="11" t="str">
         <v>Weapon_WeaponName_20006</v>
       </c>
-      <c r="C284" s="3" t="str">
+      <c r="C284" s="4" t="str">
         <v>Revolver (Simulacrum)</v>
       </c>
-      <c r="D284" s="17" t="str">
+      <c r="D284" s="12" t="str">
         <v>左轮(模拟)</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="285">
-      <c r="A285" s="3">
+      <c r="A285" s="4">
         <v>90068</v>
       </c>
-      <c r="B285" s="18" t="str">
+      <c r="B285" s="11" t="str">
         <v>Weapon_WeaponName_20007</v>
       </c>
-      <c r="C285" s="3" t="str">
+      <c r="C285" s="4" t="str">
         <v>SMG (Simulacrum)</v>
       </c>
-      <c r="D285" s="17" t="str">
+      <c r="D285" s="12" t="str">
         <v>冲锋枪(模拟)</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="286">
-      <c r="A286" s="3">
+      <c r="A286" s="4">
         <v>90069</v>
       </c>
-      <c r="B286" s="4" t="str">
+      <c r="B286" s="19" t="str">
         <v>Weapon_WeaponName_10029</v>
       </c>
-      <c r="C286" s="3" t="str">
+      <c r="C286" s="4" t="str">
         <v>Storm Caller (Rune)</v>
       </c>
-      <c r="D286" s="5" t="str">
+      <c r="D286" s="20" t="str">
         <v>唤雷(符文)</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="287">
-      <c r="A287" s="3">
+      <c r="A287" s="4">
         <v>90070</v>
       </c>
-      <c r="B287" s="4" t="str">
+      <c r="B287" s="19" t="str">
         <v>Weapon_WeaponName_20008</v>
       </c>
-      <c r="C287" s="3" t="str">
+      <c r="C287" s="4" t="str">
         <v>Sun Seeker (Rune)</v>
       </c>
-      <c r="D287" s="5" t="str">
+      <c r="D287" s="20" t="str">
         <v>逐日(符文)</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="288">
-      <c r="A288" s="3">
+      <c r="A288" s="4">
         <v>90071</v>
       </c>
-      <c r="B288" s="4" t="str">
+      <c r="B288" s="19" t="str">
         <v>Weapon_WeaponName_10030</v>
       </c>
-      <c r="C288" s="3" t="str">
+      <c r="C288" s="4" t="str">
         <v>Hammer of Thor</v>
       </c>
-      <c r="D288" s="5" t="str">
+      <c r="D288" s="20" t="str">
         <v>雷神之锤</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="289">
-      <c r="A289" s="3">
+      <c r="A289" s="4">
         <v>90072</v>
       </c>
-      <c r="B289" s="4" t="str">
+      <c r="B289" s="19" t="str">
         <v>Weapon_WeaponName_20009</v>
       </c>
-      <c r="C289" s="3" t="str">
+      <c r="C289" s="4" t="str">
         <v>Blunderbuss</v>
       </c>
-      <c r="D289" s="5" t="str">
+      <c r="D289" s="20" t="str">
         <v>火铳</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="290">
-      <c r="A290" s="3">
+      <c r="A290" s="4">
         <v>90073</v>
       </c>
-      <c r="B290" s="4" t="str">
+      <c r="B290" s="19" t="str">
         <v>Weapon_WeaponName_10031</v>
       </c>
-      <c r="C290" s="3" t="str">
+      <c r="C290" s="4" t="str">
         <v>Bonespike Sword (Devine)</v>
       </c>
-      <c r="D290" s="5" t="str">
+      <c r="D290" s="20" t="str">
         <v>骨刺剑(圣)</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="291">
-      <c r="A291" s="3">
+      <c r="A291" s="4">
         <v>90074</v>
       </c>
-      <c r="B291" s="4" t="str">
+      <c r="B291" s="19" t="str">
         <v>Weapon_WeaponName_20010</v>
       </c>
-      <c r="C291" s="3" t="str">
+      <c r="C291" s="4" t="str">
         <v>Revolver (Devine)</v>
       </c>
-      <c r="D291" s="5" t="str">
+      <c r="D291" s="20" t="str">
         <v>左轮(圣)</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="292">
-      <c r="A292" s="3">
+      <c r="A292" s="4">
         <v>90075</v>
       </c>
-      <c r="B292" s="4" t="str">
+      <c r="B292" s="19" t="str">
         <v>Weapon_WeaponName_10032</v>
       </c>
-      <c r="C292" s="3" t="str">
+      <c r="C292" s="4" t="str">
         <v>Bonespike Sword (Love)</v>
       </c>
-      <c r="D292" s="5" t="str">
+      <c r="D292" s="20" t="str">
         <v>骨刺剑(恋)</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="293">
-      <c r="A293" s="3">
+      <c r="A293" s="4">
         <v>90076</v>
       </c>
-      <c r="B293" s="4" t="str">
+      <c r="B293" s="19" t="str">
         <v>Weapon_WeaponName_20011</v>
       </c>
-      <c r="C293" s="3" t="str">
+      <c r="C293" s="4" t="str">
         <v>Revolver (Love)</v>
       </c>
-      <c r="D293" s="5" t="str">
+      <c r="D293" s="20" t="str">
         <v>左轮(恋)</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="294">
-      <c r="A294" s="3">
+      <c r="A294" s="4">
         <v>90077</v>
       </c>
-      <c r="B294" s="4" t="str">
+      <c r="B294" s="19" t="str">
         <v>Weapon_WeaponName_10033</v>
       </c>
-      <c r="C294" s="3" t="str">
+      <c r="C294" s="4" t="str">
         <v>Bonespike Sword (Flame)</v>
       </c>
-      <c r="D294" s="5" t="str">
+      <c r="D294" s="20" t="str">
         <v>骨刺剑(炽)</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="295">
-      <c r="A295" s="3">
+      <c r="A295" s="4">
         <v>90078</v>
       </c>
-      <c r="B295" s="4" t="str">
+      <c r="B295" s="19" t="str">
         <v>Weapon_WeaponName_10034</v>
       </c>
-      <c r="C295" s="3" t="str">
+      <c r="C295" s="4" t="str">
         <v>Bonespike Sword (Frost)</v>
       </c>
-      <c r="D295" s="5" t="str">
+      <c r="D295" s="20" t="str">
         <v>骨刺剑(霜)</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="296">
-      <c r="A296" s="3">
+      <c r="A296" s="4">
         <v>90079</v>
       </c>
-      <c r="B296" s="25" t="str">
+      <c r="B296" s="27" t="str">
         <v>Weapon_WeaponName_10035</v>
       </c>
-      <c r="C296" s="3" t="str">
+      <c r="C296" s="4" t="str">
         <v>Sakura</v>
       </c>
-      <c r="D296" s="24" t="str">
+      <c r="D296" s="32" t="str">
         <v>樱</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="297">
-      <c r="A297" s="3">
+      <c r="A297" s="4">
         <v>90080</v>
       </c>
-      <c r="B297" s="25" t="str">
+      <c r="B297" s="27" t="str">
         <v>Weapon_WeaponName_20012</v>
       </c>
-      <c r="C297" s="3" t="str">
+      <c r="C297" s="4" t="str">
         <v>Butterfly</v>
       </c>
-      <c r="D297" s="24" t="str">
+      <c r="D297" s="32" t="str">
         <v>蝶</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="298">
-      <c r="A298" s="3">
+      <c r="A298" s="4">
         <v>90081</v>
       </c>
-      <c r="B298" s="25" t="str">
+      <c r="B298" s="27" t="str">
         <v>Weapon_WeaponName_10036</v>
       </c>
-      <c r="C298" s="3" t="str">
+      <c r="C298" s="4" t="str">
         <v>Golden Bat (Rainbow)</v>
       </c>
-      <c r="D298" s="29" t="str">
+      <c r="D298" s="28" t="str">
         <v>黄金球棍(虹彩)</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="299">
-      <c r="A299" s="3">
+      <c r="A299" s="4">
         <v>90082</v>
       </c>
-      <c r="B299" s="25" t="str">
+      <c r="B299" s="27" t="str">
         <v>Weapon_WeaponName_20013</v>
       </c>
-      <c r="C299" s="3" t="str">
+      <c r="C299" s="4" t="str">
         <v>Golden Revolver (Rainbow)</v>
       </c>
-      <c r="D299" s="29" t="str">
+      <c r="D299" s="28" t="str">
         <v>黄金左轮(虹彩)</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="300">
-      <c r="A300" s="3">
+      <c r="A300" s="4">
         <v>90083</v>
       </c>
-      <c r="B300" s="11" t="str">
+      <c r="B300" s="29" t="str">
         <v>SkillShop_Name_10004</v>
       </c>
-      <c r="C300" s="3" t="str">
+      <c r="C300" s="4" t="str">
         <v>Ghost's Cloak</v>
       </c>
-      <c r="D300" s="11" t="str">
+      <c r="D300" s="29" t="str">
         <v>幽灵斗篷</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="301">
-      <c r="A301" s="3">
+      <c r="A301" s="4">
         <v>90084</v>
       </c>
-      <c r="B301" s="11" t="str">
+      <c r="B301" s="29" t="str">
         <v>SkillShop_Description_10004</v>
       </c>
-      <c r="C301" s="7" t="str">
+      <c r="C301" s="1" t="str">
         <v>[Murderer Active Ability] When active, you become invisable for 5 secs, eliminating any player will instantly end the ghost‘s cloak</v>
       </c>
-      <c r="D301" s="7" t="str">
+      <c r="D301" s="1" t="str">
         <v>【杀手主动能力】
 激活后，你可以隐身5秒，若你在隐身时击败了任何玩家，则会立即结束隐身</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="302">
-      <c r="A302" s="3">
+      <c r="A302" s="4">
         <v>90085</v>
       </c>
-      <c r="B302" s="19" t="str">
+      <c r="B302" s="5" t="str">
         <v>Tips_Content_20012</v>
       </c>
-      <c r="C302" s="7" t="str">
+      <c r="C302" s="1" t="str">
         <v>A</v>
       </c>
-      <c r="D302" s="7" t="str">
+      <c r="D302" s="1" t="str">
         <v>兑换成功</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="303">
-      <c r="A303" s="3">
+      <c r="A303" s="4">
         <v>90086</v>
       </c>
-      <c r="B303" s="19" t="str">
+      <c r="B303" s="5" t="str">
         <v>Tips_Content_20013</v>
       </c>
-      <c r="C303" s="7" t="str">
+      <c r="C303" s="1" t="str">
         <v>A</v>
       </c>
-      <c r="D303" s="7" t="str">
+      <c r="D303" s="1" t="str">
         <v>兑换失败</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="304">
-      <c r="A304" s="3">
+      <c r="A304" s="4">
         <v>90087</v>
       </c>
-      <c r="B304" s="19" t="str">
+      <c r="B304" s="5" t="str">
         <v>Tips_Content_20014</v>
       </c>
-      <c r="C304" s="7" t="str">
+      <c r="C304" s="1" t="str">
         <v>A</v>
       </c>
-      <c r="D304" s="7" t="str">
+      <c r="D304" s="1" t="str">
         <v>恭喜激活会员特权</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="305">
-      <c r="A305" s="3">
+      <c r="A305" s="4">
         <v>90088</v>
       </c>
-      <c r="B305" s="19" t="str">
+      <c r="B305" s="5" t="str">
         <v>Tips_Content_20015</v>
       </c>
-      <c r="C305" s="7" t="str">
+      <c r="C305" s="1" t="str">
         <v>A</v>
       </c>
-      <c r="D305" s="7" t="str">
+      <c r="D305" s="1" t="str">
         <v>恭喜激活超级特权</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="306">
-      <c r="A306" s="3">
+      <c r="A306" s="4">
         <v>90089</v>
       </c>
-      <c r="B306" s="19" t="str">
+      <c r="B306" s="5" t="str">
         <v>Tips_Content_20016</v>
       </c>
-      <c r="C306" s="7" t="str">
+      <c r="C306" s="1" t="str">
         <v>A</v>
       </c>
-      <c r="D306" s="7" t="str">
+      <c r="D306" s="1" t="str">
         <v>会员特权已到期失效</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="307">
-      <c r="A307" s="3">
+      <c r="A307" s="4">
         <v>90090</v>
       </c>
-      <c r="B307" s="19" t="str">
+      <c r="B307" s="5" t="str">
         <v>Tips_Content_20017</v>
       </c>
-      <c r="C307" s="7" t="str">
+      <c r="C307" s="1" t="str">
         <v>A</v>
       </c>
-      <c r="D307" s="7" t="str">
+      <c r="D307" s="1" t="str">
         <v>超级特权已到期失效</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="308">
-      <c r="A308" s="3">
+      <c r="A308" s="4">
         <v>90091</v>
       </c>
-      <c r="B308" s="19" t="str">
+      <c r="B308" s="5" t="str">
         <v>Tips_Content_20018</v>
       </c>
-      <c r="C308" s="7" t="str">
+      <c r="C308" s="1" t="str">
         <v>A</v>
       </c>
-      <c r="D308" s="7" t="str">
+      <c r="D308" s="1" t="str">
         <v>持有数量已经达到上限</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="309">
-      <c r="A309" s="3">
+      <c r="A309" s="4">
         <v>90092</v>
       </c>
-      <c r="B309" s="12" t="str">
+      <c r="B309" s="2" t="str">
         <v>Text_Content_20052</v>
       </c>
-      <c r="C309" s="7" t="str">
+      <c r="C309" s="1" t="str">
         <v>A</v>
       </c>
-      <c r="D309" s="7" t="str">
+      <c r="D309" s="1" t="str">
         <v>兑换</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="310">
-      <c r="A310" s="3">
+      <c r="A310" s="4">
         <v>90093</v>
       </c>
-      <c r="B310" s="12" t="str">
+      <c r="B310" s="2" t="str">
         <v>Text_Content_20053</v>
       </c>
-      <c r="C310" s="7" t="str">
+      <c r="C310" s="1" t="str">
         <v>A</v>
       </c>
-      <c r="D310" s="7" t="str">
+      <c r="D310" s="1" t="str">
         <v>跳转</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="311">
-      <c r="A311" s="3">
+      <c r="A311" s="4">
         <v>90094</v>
       </c>
-      <c r="B311" s="12" t="str">
+      <c r="B311" s="2" t="str">
         <v>Text_Content_20054</v>
       </c>
-      <c r="C311" s="7" t="str">
+      <c r="C311" s="1" t="str">
         <v>A</v>
       </c>
-      <c r="D311" s="7" t="str">
+      <c r="D311" s="1" t="str">
         <v>会员特权激活中</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="312">
-      <c r="A312" s="3">
+      <c r="A312" s="4">
         <v>90095</v>
       </c>
-      <c r="B312" s="12" t="str">
+      <c r="B312" s="2" t="str">
         <v>Text_Content_20055</v>
       </c>
-      <c r="C312" s="7" t="str">
+      <c r="C312" s="1" t="str">
         <v>A</v>
       </c>
-      <c r="D312" s="7" t="str">
+      <c r="D312" s="1" t="str">
         <v>剩余激活时间{0}</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="313">
-      <c r="A313" s="3">
+      <c r="A313" s="4">
         <v>90096</v>
       </c>
-      <c r="B313" s="12" t="str">
+      <c r="B313" s="2" t="str">
         <v>Text_Content_20056</v>
       </c>
-      <c r="C313" s="7" t="str">
+      <c r="C313" s="1" t="str">
         <v>A</v>
       </c>
-      <c r="D313" s="7" t="str">
+      <c r="D313" s="1" t="str">
         <v>尚未激活会员特权</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="314">
-      <c r="A314" s="3">
+      <c r="A314" s="4">
         <v>90097</v>
       </c>
-      <c r="B314" s="12" t="str">
+      <c r="B314" s="2" t="str">
         <v>Text_Content_20057</v>
       </c>
-      <c r="C314" s="7" t="str">
+      <c r="C314" s="1" t="str">
         <v>A</v>
       </c>
-      <c r="D314" s="7" t="str">
+      <c r="D314" s="1" t="str">
         <v>尚未激活超级特权</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="315">
-      <c r="A315" s="3">
+      <c r="A315" s="4">
         <v>90098</v>
       </c>
-      <c r="B315" s="12" t="str">
+      <c r="B315" s="2" t="str">
         <v>Text_Content_20058</v>
       </c>
-      <c r="C315" s="7" t="str">
+      <c r="C315" s="1" t="str">
         <v>A</v>
       </c>
-      <c r="D315" s="7" t="str">
+      <c r="D315" s="1" t="str">
         <v>剩余激活时间{0}天</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="316">
-      <c r="A316" s="3">
+      <c r="A316" s="4">
         <v>90099</v>
       </c>
-      <c r="B316" s="12" t="str">
+      <c r="B316" s="2" t="str">
         <v>Text_Content_20059</v>
       </c>
-      <c r="C316" s="7" t="str">
+      <c r="C316" s="1" t="str">
         <v>A</v>
       </c>
-      <c r="D316" s="7" t="str">
+      <c r="D316" s="1" t="str">
         <v>会员特权</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="317">
-      <c r="A317" s="3">
+      <c r="A317" s="4">
         <v>90100</v>
       </c>
-      <c r="B317" s="12" t="str">
+      <c r="B317" s="2" t="str">
         <v>Text_Content_20060</v>
       </c>
-      <c r="C317" s="7" t="str">
+      <c r="C317" s="1" t="str">
         <v>A</v>
       </c>
-      <c r="D317" s="7" t="str">
+      <c r="D317" s="1" t="str">
         <v>超级特权</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="318">
-      <c r="A318" s="3">
+      <c r="A318" s="4">
         <v>90101</v>
       </c>
-      <c r="B318" s="19" t="str">
+      <c r="B318" s="5" t="str">
         <v>Tips_Content_20019</v>
       </c>
-      <c r="C318" s="7" t="str">
+      <c r="C318" s="1" t="str">
         <v>A</v>
       </c>
-      <c r="D318" s="7" t="str">
+      <c r="D318" s="1" t="str">
         <v>恭喜获得广告券*1</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="319">
-      <c r="A319" s="3">
+      <c r="A319" s="4">
         <v>90102</v>
       </c>
-      <c r="B319" s="3" t="str">
+      <c r="B319" s="4" t="str">
         <v>Item_Name_20012</v>
       </c>
-      <c r="C319" s="7" t="str">
+      <c r="C319" s="1" t="str">
         <v>A</v>
       </c>
-      <c r="D319" s="7" t="str">
+      <c r="D319" s="1" t="str">
         <v>土豪来啦</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="320">
-      <c r="A320" s="3">
+      <c r="A320" s="4">
         <v>90103</v>
       </c>
-      <c r="B320" s="6" t="str">
+      <c r="B320" s="21" t="str">
         <v>SkillShop_Name_10005</v>
       </c>
-      <c r="C320" s="7" t="str">
+      <c r="C320" s="1" t="str">
         <v>A</v>
       </c>
       <c r="D320" s="35" t="str">
@@ -6199,116 +6199,1532 @@
       </c>
     </row>
     <row customHeight="true" ht="21" r="321">
-      <c r="A321" s="3">
+      <c r="A321" s="4">
         <v>90104</v>
       </c>
-      <c r="B321" s="6" t="str">
+      <c r="B321" s="21" t="str">
         <v>SkillShop_Name_10006</v>
       </c>
-      <c r="C321" s="7" t="str">
+      <c r="C321" s="1" t="str">
         <v>A</v>
       </c>
-      <c r="D321" s="6" t="str">
+      <c r="D321" s="21" t="str">
         <v>爆炸飞刀体验券</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="322">
-      <c r="A322" s="3">
+      <c r="A322" s="4">
         <v>90105</v>
       </c>
-      <c r="B322" s="6" t="str">
+      <c r="B322" s="21" t="str">
         <v>SkillShop_Name_10007</v>
       </c>
-      <c r="C322" s="7" t="str">
+      <c r="C322" s="1" t="str">
         <v>A</v>
       </c>
-      <c r="D322" s="15" t="str">
+      <c r="D322" s="8" t="str">
         <v>幽灵斗篷体验券</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="323">
-      <c r="A323" s="3">
+      <c r="A323" s="4">
         <v>90106</v>
       </c>
-      <c r="B323" s="6" t="str">
+      <c r="B323" s="21" t="str">
         <v>SkillShop_Description_10005</v>
       </c>
-      <c r="C323" s="7" t="str">
+      <c r="C323" s="1" t="str">
         <v>A</v>
       </c>
-      <c r="D323" s="8" t="str">
+      <c r="D323" s="17" t="str">
         <v>【杀手被动能力】
 现在你扔出的飞刀会飞得更快，提升100％</v>
       </c>
-      <c r="E323" s="3" t="str">
+      <c r="E323" s="4" t="str">
         <v>和上面一样</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="324">
-      <c r="A324" s="3">
+      <c r="A324" s="4">
         <v>90107</v>
       </c>
-      <c r="B324" s="6" t="str">
+      <c r="B324" s="21" t="str">
         <v>SkillShop_Description_10006</v>
       </c>
-      <c r="C324" s="7" t="str">
+      <c r="C324" s="1" t="str">
         <v>A</v>
       </c>
-      <c r="D324" s="8" t="str">
+      <c r="D324" s="17" t="str">
         <v>【杀手被动能力】
 当你的飞刀命中目标时，不会立即对目标造成伤害，而是在目标处埋下一颗炸弹，延迟一小段时间后会爆炸，并对周围一定范围内的玩家同样造成伤害</v>
       </c>
-      <c r="E324" s="3" t="str">
+      <c r="E324" s="4" t="str">
         <v>和上面一样</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="325">
-      <c r="A325" s="3">
+      <c r="A325" s="4">
         <v>90108</v>
       </c>
-      <c r="B325" s="6" t="str">
+      <c r="B325" s="21" t="str">
         <v>SkillShop_Description_10007</v>
       </c>
-      <c r="C325" s="7" t="str">
+      <c r="C325" s="1" t="str">
         <v>A</v>
       </c>
-      <c r="D325" s="7" t="str">
+      <c r="D325" s="1" t="str">
         <v>【杀手主动能力】
 激活后，你可以隐身5秒，若你在隐身时击败了任何玩家，则会立即结束隐身</v>
       </c>
-      <c r="E325" s="3" t="str">
+      <c r="E325" s="4" t="str">
         <v>和上面一样</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="326">
-      <c r="A326" s="3">
+      <c r="A326" s="4">
         <v>90109</v>
       </c>
-      <c r="B326" s="19" t="str">
+      <c r="B326" s="5" t="str">
         <v>Tips_Content_20020</v>
       </c>
-      <c r="C326" s="7" t="str">
+      <c r="C326" s="1" t="str">
         <v>A</v>
       </c>
-      <c r="D326" s="7" t="str">
+      <c r="D326" s="1" t="str">
         <v>金钥匙数量不足</v>
       </c>
-      <c r="E326" s="3"/>
+      <c r="E326" s="4"/>
     </row>
     <row customHeight="true" ht="21" r="327">
-      <c r="A327" s="3">
+      <c r="A327" s="4">
         <v>90110</v>
       </c>
-      <c r="B327" s="19" t="str">
+      <c r="B327" s="5" t="str">
         <v>Tips_Content_20021</v>
       </c>
-      <c r="C327" s="7" t="str">
+      <c r="C327" s="1" t="str">
         <v>A</v>
       </c>
-      <c r="D327" s="7" t="str">
+      <c r="D327" s="1" t="str">
         <v>这个版本不支持开通大会员</v>
       </c>
-      <c r="E327" s="3"/>
+      <c r="E327" s="4"/>
+    </row>
+    <row r="328">
+      <c r="A328" s="4">
+        <v>90111</v>
+      </c>
+      <c r="B328" s="5" t="str">
+        <v>Weapon_WeaponName_10037</v>
+      </c>
+      <c r="C328" s="1" t="str">
+        <v>A</v>
+      </c>
+      <c r="D328" s="1" t="str">
+        <v>紫光剑</v>
+      </c>
+      <c r="E328" s="4"/>
+    </row>
+    <row r="329">
+      <c r="A329" s="4">
+        <v>90112</v>
+      </c>
+      <c r="B329" s="5" t="str">
+        <v>Weapon_WeaponName_20014</v>
+      </c>
+      <c r="C329" s="1" t="str">
+        <v>A</v>
+      </c>
+      <c r="D329" s="1" t="str">
+        <v>冰寒弓箭</v>
+      </c>
+      <c r="E329" s="4"/>
+    </row>
+    <row r="330">
+      <c r="A330" s="4"/>
+      <c r="B330" s="5"/>
+      <c r="C330" s="1"/>
+      <c r="D330" s="1"/>
+      <c r="E330" s="4"/>
+    </row>
+    <row r="331">
+      <c r="A331" s="4"/>
+      <c r="B331" s="5"/>
+      <c r="C331" s="1"/>
+      <c r="D331" s="1"/>
+      <c r="E331" s="4"/>
+    </row>
+    <row r="332">
+      <c r="A332" s="4"/>
+      <c r="B332" s="5"/>
+      <c r="C332" s="1"/>
+      <c r="D332" s="1"/>
+      <c r="E332" s="4"/>
+    </row>
+    <row r="333">
+      <c r="A333" s="4"/>
+      <c r="B333" s="5"/>
+      <c r="C333" s="1"/>
+      <c r="D333" s="1"/>
+      <c r="E333" s="4"/>
+    </row>
+    <row r="334">
+      <c r="A334" s="4"/>
+      <c r="B334" s="5"/>
+      <c r="C334" s="1"/>
+      <c r="D334" s="1"/>
+      <c r="E334" s="4"/>
+    </row>
+    <row r="335">
+      <c r="A335" s="4"/>
+      <c r="B335" s="5"/>
+      <c r="C335" s="1"/>
+      <c r="D335" s="1"/>
+      <c r="E335" s="4"/>
+    </row>
+    <row r="336">
+      <c r="A336" s="4"/>
+      <c r="B336" s="5"/>
+      <c r="C336" s="1"/>
+      <c r="D336" s="1"/>
+      <c r="E336" s="4"/>
+    </row>
+    <row r="337">
+      <c r="A337" s="4"/>
+      <c r="B337" s="5"/>
+      <c r="C337" s="1"/>
+      <c r="D337" s="1"/>
+      <c r="E337" s="4"/>
+    </row>
+    <row r="338">
+      <c r="A338" s="4"/>
+      <c r="B338" s="5"/>
+      <c r="C338" s="1"/>
+      <c r="D338" s="1"/>
+      <c r="E338" s="4"/>
+    </row>
+    <row r="339">
+      <c r="A339" s="4"/>
+      <c r="B339" s="5"/>
+      <c r="C339" s="1"/>
+      <c r="D339" s="1"/>
+      <c r="E339" s="4"/>
+    </row>
+    <row r="340">
+      <c r="A340" s="4"/>
+      <c r="B340" s="5"/>
+      <c r="C340" s="1"/>
+      <c r="D340" s="1"/>
+      <c r="E340" s="4"/>
+    </row>
+    <row r="341">
+      <c r="A341" s="4"/>
+      <c r="B341" s="5"/>
+      <c r="C341" s="1"/>
+      <c r="D341" s="1"/>
+      <c r="E341" s="4"/>
+    </row>
+    <row r="342">
+      <c r="A342" s="4"/>
+      <c r="B342" s="5"/>
+      <c r="C342" s="1"/>
+      <c r="D342" s="1"/>
+      <c r="E342" s="4"/>
+    </row>
+    <row r="343">
+      <c r="A343" s="4"/>
+      <c r="B343" s="5"/>
+      <c r="C343" s="1"/>
+      <c r="D343" s="1"/>
+      <c r="E343" s="4"/>
+    </row>
+    <row r="344">
+      <c r="A344" s="4"/>
+      <c r="B344" s="5"/>
+      <c r="C344" s="1"/>
+      <c r="D344" s="1"/>
+      <c r="E344" s="4"/>
+    </row>
+    <row r="345">
+      <c r="A345" s="4"/>
+      <c r="B345" s="5"/>
+      <c r="C345" s="1"/>
+      <c r="D345" s="1"/>
+      <c r="E345" s="4"/>
+    </row>
+    <row r="346">
+      <c r="A346" s="4"/>
+      <c r="B346" s="5"/>
+      <c r="C346" s="1"/>
+      <c r="D346" s="1"/>
+      <c r="E346" s="4"/>
+    </row>
+    <row r="347">
+      <c r="A347" s="4"/>
+      <c r="B347" s="5"/>
+      <c r="C347" s="1"/>
+      <c r="D347" s="1"/>
+      <c r="E347" s="4"/>
+    </row>
+    <row r="348">
+      <c r="A348" s="4"/>
+      <c r="B348" s="5"/>
+      <c r="C348" s="1"/>
+      <c r="D348" s="1"/>
+      <c r="E348" s="4"/>
+    </row>
+    <row r="349">
+      <c r="A349" s="4"/>
+      <c r="B349" s="5"/>
+      <c r="C349" s="1"/>
+      <c r="D349" s="1"/>
+      <c r="E349" s="4"/>
+    </row>
+    <row r="350">
+      <c r="A350" s="4"/>
+      <c r="B350" s="5"/>
+      <c r="C350" s="1"/>
+      <c r="D350" s="1"/>
+      <c r="E350" s="4"/>
+    </row>
+    <row r="351">
+      <c r="A351" s="4"/>
+      <c r="B351" s="5"/>
+      <c r="C351" s="1"/>
+      <c r="D351" s="1"/>
+      <c r="E351" s="4"/>
+    </row>
+    <row r="352">
+      <c r="A352" s="4"/>
+      <c r="B352" s="5"/>
+      <c r="C352" s="1"/>
+      <c r="D352" s="1"/>
+      <c r="E352" s="4"/>
+    </row>
+    <row r="353">
+      <c r="A353" s="4"/>
+      <c r="B353" s="5"/>
+      <c r="C353" s="1"/>
+      <c r="D353" s="1"/>
+      <c r="E353" s="4"/>
+    </row>
+    <row r="354">
+      <c r="A354" s="4"/>
+      <c r="B354" s="5"/>
+      <c r="C354" s="1"/>
+      <c r="D354" s="1"/>
+      <c r="E354" s="4"/>
+    </row>
+    <row r="355">
+      <c r="A355" s="4"/>
+      <c r="B355" s="5"/>
+      <c r="C355" s="1"/>
+      <c r="D355" s="1"/>
+      <c r="E355" s="4"/>
+    </row>
+    <row r="356">
+      <c r="A356" s="4"/>
+      <c r="B356" s="5"/>
+      <c r="C356" s="1"/>
+      <c r="D356" s="1"/>
+      <c r="E356" s="4"/>
+    </row>
+    <row r="357">
+      <c r="A357" s="4"/>
+      <c r="B357" s="5"/>
+      <c r="C357" s="1"/>
+      <c r="D357" s="1"/>
+      <c r="E357" s="4"/>
+    </row>
+    <row r="358">
+      <c r="A358" s="4"/>
+      <c r="B358" s="5"/>
+      <c r="C358" s="1"/>
+      <c r="D358" s="1"/>
+      <c r="E358" s="4"/>
+    </row>
+    <row r="359">
+      <c r="A359" s="4"/>
+      <c r="B359" s="5"/>
+      <c r="C359" s="1"/>
+      <c r="D359" s="1"/>
+      <c r="E359" s="4"/>
+    </row>
+    <row r="360">
+      <c r="A360" s="4"/>
+      <c r="B360" s="5"/>
+      <c r="C360" s="1"/>
+      <c r="D360" s="1"/>
+      <c r="E360" s="4"/>
+    </row>
+    <row r="361">
+      <c r="A361" s="4"/>
+      <c r="B361" s="5"/>
+      <c r="C361" s="1"/>
+      <c r="D361" s="1"/>
+      <c r="E361" s="4"/>
+    </row>
+    <row r="362">
+      <c r="A362" s="4"/>
+      <c r="B362" s="5"/>
+      <c r="C362" s="1"/>
+      <c r="D362" s="1"/>
+      <c r="E362" s="4"/>
+    </row>
+    <row r="363">
+      <c r="A363" s="4"/>
+      <c r="B363" s="5"/>
+      <c r="C363" s="1"/>
+      <c r="D363" s="1"/>
+      <c r="E363" s="4"/>
+    </row>
+    <row r="364">
+      <c r="A364" s="4"/>
+      <c r="B364" s="5"/>
+      <c r="C364" s="1"/>
+      <c r="D364" s="1"/>
+      <c r="E364" s="4"/>
+    </row>
+    <row r="365">
+      <c r="A365" s="4"/>
+      <c r="B365" s="5"/>
+      <c r="C365" s="1"/>
+      <c r="D365" s="1"/>
+      <c r="E365" s="4"/>
+    </row>
+    <row r="366">
+      <c r="A366" s="4"/>
+      <c r="B366" s="5"/>
+      <c r="C366" s="1"/>
+      <c r="D366" s="1"/>
+      <c r="E366" s="4"/>
+    </row>
+    <row r="367">
+      <c r="A367" s="4"/>
+      <c r="B367" s="5"/>
+      <c r="C367" s="1"/>
+      <c r="D367" s="1"/>
+      <c r="E367" s="4"/>
+    </row>
+    <row r="368">
+      <c r="A368" s="4"/>
+      <c r="B368" s="5"/>
+      <c r="C368" s="1"/>
+      <c r="D368" s="1"/>
+      <c r="E368" s="4"/>
+    </row>
+    <row r="369">
+      <c r="A369" s="4"/>
+      <c r="B369" s="5"/>
+      <c r="C369" s="1"/>
+      <c r="D369" s="1"/>
+      <c r="E369" s="4"/>
+    </row>
+    <row r="370">
+      <c r="A370" s="4"/>
+      <c r="B370" s="5"/>
+      <c r="C370" s="1"/>
+      <c r="D370" s="1"/>
+      <c r="E370" s="4"/>
+    </row>
+    <row r="371">
+      <c r="A371" s="4"/>
+      <c r="B371" s="5"/>
+      <c r="C371" s="1"/>
+      <c r="D371" s="1"/>
+      <c r="E371" s="4"/>
+    </row>
+    <row r="372">
+      <c r="A372" s="4"/>
+      <c r="B372" s="5"/>
+      <c r="C372" s="1"/>
+      <c r="D372" s="1"/>
+      <c r="E372" s="4"/>
+    </row>
+    <row r="373">
+      <c r="A373" s="4"/>
+      <c r="B373" s="5"/>
+      <c r="C373" s="1"/>
+      <c r="D373" s="1"/>
+      <c r="E373" s="4"/>
+    </row>
+    <row r="374">
+      <c r="A374" s="4"/>
+      <c r="B374" s="5"/>
+      <c r="C374" s="1"/>
+      <c r="D374" s="1"/>
+      <c r="E374" s="4"/>
+    </row>
+    <row r="375">
+      <c r="A375" s="4"/>
+      <c r="B375" s="5"/>
+      <c r="C375" s="1"/>
+      <c r="D375" s="1"/>
+      <c r="E375" s="4"/>
+    </row>
+    <row r="376">
+      <c r="A376" s="4"/>
+      <c r="B376" s="5"/>
+      <c r="C376" s="1"/>
+      <c r="D376" s="1"/>
+      <c r="E376" s="4"/>
+    </row>
+    <row r="377">
+      <c r="A377" s="4"/>
+      <c r="B377" s="5"/>
+      <c r="C377" s="1"/>
+      <c r="D377" s="1"/>
+      <c r="E377" s="4"/>
+    </row>
+    <row r="378">
+      <c r="A378" s="4"/>
+      <c r="B378" s="5"/>
+      <c r="C378" s="1"/>
+      <c r="D378" s="1"/>
+      <c r="E378" s="4"/>
+    </row>
+    <row r="379">
+      <c r="A379" s="4"/>
+      <c r="B379" s="5"/>
+      <c r="C379" s="1"/>
+      <c r="D379" s="1"/>
+      <c r="E379" s="4"/>
+    </row>
+    <row r="380">
+      <c r="A380" s="4"/>
+      <c r="B380" s="5"/>
+      <c r="C380" s="1"/>
+      <c r="D380" s="1"/>
+      <c r="E380" s="4"/>
+    </row>
+    <row r="381">
+      <c r="A381" s="4"/>
+      <c r="B381" s="5"/>
+      <c r="C381" s="1"/>
+      <c r="D381" s="1"/>
+      <c r="E381" s="4"/>
+    </row>
+    <row r="382">
+      <c r="A382" s="4"/>
+      <c r="B382" s="5"/>
+      <c r="C382" s="1"/>
+      <c r="D382" s="1"/>
+      <c r="E382" s="4"/>
+    </row>
+    <row r="383">
+      <c r="A383" s="4"/>
+      <c r="B383" s="5"/>
+      <c r="C383" s="1"/>
+      <c r="D383" s="1"/>
+      <c r="E383" s="4"/>
+    </row>
+    <row r="384">
+      <c r="A384" s="4"/>
+      <c r="B384" s="5"/>
+      <c r="C384" s="1"/>
+      <c r="D384" s="1"/>
+      <c r="E384" s="4"/>
+    </row>
+    <row r="385">
+      <c r="A385" s="4"/>
+      <c r="B385" s="5"/>
+      <c r="C385" s="1"/>
+      <c r="D385" s="1"/>
+      <c r="E385" s="4"/>
+    </row>
+    <row r="386">
+      <c r="A386" s="4"/>
+      <c r="B386" s="5"/>
+      <c r="C386" s="1"/>
+      <c r="D386" s="1"/>
+      <c r="E386" s="4"/>
+    </row>
+    <row r="387">
+      <c r="A387" s="4"/>
+      <c r="B387" s="5"/>
+      <c r="C387" s="1"/>
+      <c r="D387" s="1"/>
+      <c r="E387" s="4"/>
+    </row>
+    <row r="388">
+      <c r="A388" s="4"/>
+      <c r="B388" s="5"/>
+      <c r="C388" s="1"/>
+      <c r="D388" s="1"/>
+      <c r="E388" s="4"/>
+    </row>
+    <row r="389">
+      <c r="A389" s="4"/>
+      <c r="B389" s="5"/>
+      <c r="C389" s="1"/>
+      <c r="D389" s="1"/>
+      <c r="E389" s="4"/>
+    </row>
+    <row r="390">
+      <c r="A390" s="4"/>
+      <c r="B390" s="5"/>
+      <c r="C390" s="1"/>
+      <c r="D390" s="1"/>
+      <c r="E390" s="4"/>
+    </row>
+    <row r="391">
+      <c r="A391" s="4"/>
+      <c r="B391" s="5"/>
+      <c r="C391" s="1"/>
+      <c r="D391" s="1"/>
+      <c r="E391" s="4"/>
+    </row>
+    <row r="392">
+      <c r="A392" s="4"/>
+      <c r="B392" s="5"/>
+      <c r="C392" s="1"/>
+      <c r="D392" s="1"/>
+      <c r="E392" s="4"/>
+    </row>
+    <row r="393">
+      <c r="A393" s="4"/>
+      <c r="B393" s="5"/>
+      <c r="C393" s="1"/>
+      <c r="D393" s="1"/>
+      <c r="E393" s="4"/>
+    </row>
+    <row r="394">
+      <c r="A394" s="4"/>
+      <c r="B394" s="5"/>
+      <c r="C394" s="1"/>
+      <c r="D394" s="1"/>
+      <c r="E394" s="4"/>
+    </row>
+    <row r="395">
+      <c r="A395" s="4"/>
+      <c r="B395" s="5"/>
+      <c r="C395" s="1"/>
+      <c r="D395" s="1"/>
+      <c r="E395" s="4"/>
+    </row>
+    <row r="396">
+      <c r="A396" s="4"/>
+      <c r="B396" s="5"/>
+      <c r="C396" s="1"/>
+      <c r="D396" s="1"/>
+      <c r="E396" s="4"/>
+    </row>
+    <row r="397">
+      <c r="A397" s="4"/>
+      <c r="B397" s="5"/>
+      <c r="C397" s="1"/>
+      <c r="D397" s="1"/>
+      <c r="E397" s="4"/>
+    </row>
+    <row r="398">
+      <c r="A398" s="4"/>
+      <c r="B398" s="5"/>
+      <c r="C398" s="1"/>
+      <c r="D398" s="1"/>
+      <c r="E398" s="4"/>
+    </row>
+    <row r="399">
+      <c r="A399" s="4"/>
+      <c r="B399" s="5"/>
+      <c r="C399" s="1"/>
+      <c r="D399" s="1"/>
+      <c r="E399" s="4"/>
+    </row>
+    <row r="400">
+      <c r="A400" s="4"/>
+      <c r="B400" s="5"/>
+      <c r="C400" s="1"/>
+      <c r="D400" s="1"/>
+      <c r="E400" s="4"/>
+    </row>
+    <row r="401">
+      <c r="A401" s="4"/>
+      <c r="B401" s="5"/>
+      <c r="C401" s="1"/>
+      <c r="D401" s="1"/>
+      <c r="E401" s="4"/>
+    </row>
+    <row r="402">
+      <c r="A402" s="4"/>
+      <c r="B402" s="5"/>
+      <c r="C402" s="1"/>
+      <c r="D402" s="1"/>
+      <c r="E402" s="4"/>
+    </row>
+    <row r="403">
+      <c r="A403" s="4"/>
+      <c r="B403" s="5"/>
+      <c r="C403" s="1"/>
+      <c r="D403" s="1"/>
+      <c r="E403" s="4"/>
+    </row>
+    <row r="404">
+      <c r="A404" s="4"/>
+      <c r="B404" s="5"/>
+      <c r="C404" s="1"/>
+      <c r="D404" s="1"/>
+      <c r="E404" s="4"/>
+    </row>
+    <row r="405">
+      <c r="A405" s="4"/>
+      <c r="B405" s="5"/>
+      <c r="C405" s="1"/>
+      <c r="D405" s="1"/>
+      <c r="E405" s="4"/>
+    </row>
+    <row r="406">
+      <c r="A406" s="4"/>
+      <c r="B406" s="5"/>
+      <c r="C406" s="1"/>
+      <c r="D406" s="1"/>
+      <c r="E406" s="4"/>
+    </row>
+    <row r="407">
+      <c r="A407" s="4"/>
+      <c r="B407" s="5"/>
+      <c r="C407" s="1"/>
+      <c r="D407" s="1"/>
+      <c r="E407" s="4"/>
+    </row>
+    <row r="408">
+      <c r="A408" s="4"/>
+      <c r="B408" s="5"/>
+      <c r="C408" s="1"/>
+      <c r="D408" s="1"/>
+      <c r="E408" s="4"/>
+    </row>
+    <row r="409">
+      <c r="A409" s="4"/>
+      <c r="B409" s="5"/>
+      <c r="C409" s="1"/>
+      <c r="D409" s="1"/>
+      <c r="E409" s="4"/>
+    </row>
+    <row r="410">
+      <c r="A410" s="4"/>
+      <c r="B410" s="5"/>
+      <c r="C410" s="1"/>
+      <c r="D410" s="1"/>
+      <c r="E410" s="4"/>
+    </row>
+    <row r="411">
+      <c r="A411" s="4"/>
+      <c r="B411" s="5"/>
+      <c r="C411" s="1"/>
+      <c r="D411" s="1"/>
+      <c r="E411" s="4"/>
+    </row>
+    <row r="412">
+      <c r="A412" s="4"/>
+      <c r="B412" s="5"/>
+      <c r="C412" s="1"/>
+      <c r="D412" s="1"/>
+      <c r="E412" s="4"/>
+    </row>
+    <row r="413">
+      <c r="A413" s="4"/>
+      <c r="B413" s="5"/>
+      <c r="C413" s="1"/>
+      <c r="D413" s="1"/>
+      <c r="E413" s="4"/>
+    </row>
+    <row r="414">
+      <c r="A414" s="4"/>
+      <c r="B414" s="5"/>
+      <c r="C414" s="1"/>
+      <c r="D414" s="1"/>
+      <c r="E414" s="4"/>
+    </row>
+    <row r="415">
+      <c r="A415" s="4"/>
+      <c r="B415" s="5"/>
+      <c r="C415" s="1"/>
+      <c r="D415" s="1"/>
+      <c r="E415" s="4"/>
+    </row>
+    <row r="416">
+      <c r="A416" s="4"/>
+      <c r="B416" s="5"/>
+      <c r="C416" s="1"/>
+      <c r="D416" s="1"/>
+      <c r="E416" s="4"/>
+    </row>
+    <row r="417">
+      <c r="A417" s="4"/>
+      <c r="B417" s="5"/>
+      <c r="C417" s="1"/>
+      <c r="D417" s="1"/>
+      <c r="E417" s="4"/>
+    </row>
+    <row r="418">
+      <c r="A418" s="4"/>
+      <c r="B418" s="5"/>
+      <c r="C418" s="1"/>
+      <c r="D418" s="1"/>
+      <c r="E418" s="4"/>
+    </row>
+    <row r="419">
+      <c r="A419" s="4"/>
+      <c r="B419" s="5"/>
+      <c r="C419" s="1"/>
+      <c r="D419" s="1"/>
+      <c r="E419" s="4"/>
+    </row>
+    <row r="420">
+      <c r="A420" s="4"/>
+      <c r="B420" s="5"/>
+      <c r="C420" s="1"/>
+      <c r="D420" s="1"/>
+      <c r="E420" s="4"/>
+    </row>
+    <row r="421">
+      <c r="A421" s="4"/>
+      <c r="B421" s="5"/>
+      <c r="C421" s="1"/>
+      <c r="D421" s="1"/>
+      <c r="E421" s="4"/>
+    </row>
+    <row r="422">
+      <c r="A422" s="4"/>
+      <c r="B422" s="5"/>
+      <c r="C422" s="1"/>
+      <c r="D422" s="1"/>
+      <c r="E422" s="4"/>
+    </row>
+    <row r="423">
+      <c r="A423" s="4"/>
+      <c r="B423" s="5"/>
+      <c r="C423" s="1"/>
+      <c r="D423" s="1"/>
+      <c r="E423" s="4"/>
+    </row>
+    <row r="424">
+      <c r="A424" s="4"/>
+      <c r="B424" s="5"/>
+      <c r="C424" s="1"/>
+      <c r="D424" s="1"/>
+      <c r="E424" s="4"/>
+    </row>
+    <row r="425">
+      <c r="A425" s="4"/>
+      <c r="B425" s="5"/>
+      <c r="C425" s="1"/>
+      <c r="D425" s="1"/>
+      <c r="E425" s="4"/>
+    </row>
+    <row r="426">
+      <c r="A426" s="4"/>
+      <c r="B426" s="5"/>
+      <c r="C426" s="1"/>
+      <c r="D426" s="1"/>
+      <c r="E426" s="4"/>
+    </row>
+    <row r="427">
+      <c r="A427" s="4"/>
+      <c r="B427" s="5"/>
+      <c r="C427" s="1"/>
+      <c r="D427" s="1"/>
+      <c r="E427" s="4"/>
+    </row>
+    <row r="428">
+      <c r="A428" s="4"/>
+      <c r="B428" s="5"/>
+      <c r="C428" s="1"/>
+      <c r="D428" s="1"/>
+      <c r="E428" s="4"/>
+    </row>
+    <row r="429">
+      <c r="A429" s="4"/>
+      <c r="B429" s="5"/>
+      <c r="C429" s="1"/>
+      <c r="D429" s="1"/>
+      <c r="E429" s="4"/>
+    </row>
+    <row r="430">
+      <c r="A430" s="4"/>
+      <c r="B430" s="5"/>
+      <c r="C430" s="1"/>
+      <c r="D430" s="1"/>
+      <c r="E430" s="4"/>
+    </row>
+    <row r="431">
+      <c r="A431" s="4"/>
+      <c r="B431" s="5"/>
+      <c r="C431" s="1"/>
+      <c r="D431" s="1"/>
+      <c r="E431" s="4"/>
+    </row>
+    <row r="432">
+      <c r="A432" s="4"/>
+      <c r="B432" s="5"/>
+      <c r="C432" s="1"/>
+      <c r="D432" s="1"/>
+      <c r="E432" s="4"/>
+    </row>
+    <row r="433">
+      <c r="A433" s="4"/>
+      <c r="B433" s="5"/>
+      <c r="C433" s="1"/>
+      <c r="D433" s="1"/>
+      <c r="E433" s="4"/>
+    </row>
+    <row r="434">
+      <c r="A434" s="4"/>
+      <c r="B434" s="5"/>
+      <c r="C434" s="1"/>
+      <c r="D434" s="1"/>
+      <c r="E434" s="4"/>
+    </row>
+    <row r="435">
+      <c r="A435" s="4"/>
+      <c r="B435" s="5"/>
+      <c r="C435" s="1"/>
+      <c r="D435" s="1"/>
+      <c r="E435" s="4"/>
+    </row>
+    <row r="436">
+      <c r="A436" s="4"/>
+      <c r="B436" s="5"/>
+      <c r="C436" s="1"/>
+      <c r="D436" s="1"/>
+      <c r="E436" s="4"/>
+    </row>
+    <row r="437">
+      <c r="A437" s="4"/>
+      <c r="B437" s="5"/>
+      <c r="C437" s="1"/>
+      <c r="D437" s="1"/>
+      <c r="E437" s="4"/>
+    </row>
+    <row r="438">
+      <c r="A438" s="4"/>
+      <c r="B438" s="5"/>
+      <c r="C438" s="1"/>
+      <c r="D438" s="1"/>
+      <c r="E438" s="4"/>
+    </row>
+    <row r="439">
+      <c r="A439" s="4"/>
+      <c r="B439" s="5"/>
+      <c r="C439" s="1"/>
+      <c r="D439" s="1"/>
+      <c r="E439" s="4"/>
+    </row>
+    <row r="440">
+      <c r="A440" s="4"/>
+      <c r="B440" s="5"/>
+      <c r="C440" s="1"/>
+      <c r="D440" s="1"/>
+      <c r="E440" s="4"/>
+    </row>
+    <row r="441">
+      <c r="A441" s="4"/>
+      <c r="B441" s="5"/>
+      <c r="C441" s="1"/>
+      <c r="D441" s="1"/>
+      <c r="E441" s="4"/>
+    </row>
+    <row r="442">
+      <c r="A442" s="4"/>
+      <c r="B442" s="5"/>
+      <c r="C442" s="1"/>
+      <c r="D442" s="1"/>
+      <c r="E442" s="4"/>
+    </row>
+    <row r="443">
+      <c r="A443" s="4"/>
+      <c r="B443" s="5"/>
+      <c r="C443" s="1"/>
+      <c r="D443" s="1"/>
+      <c r="E443" s="4"/>
+    </row>
+    <row r="444">
+      <c r="A444" s="4"/>
+      <c r="B444" s="5"/>
+      <c r="C444" s="1"/>
+      <c r="D444" s="1"/>
+      <c r="E444" s="4"/>
+    </row>
+    <row r="445">
+      <c r="A445" s="4"/>
+      <c r="B445" s="5"/>
+      <c r="C445" s="1"/>
+      <c r="D445" s="1"/>
+      <c r="E445" s="4"/>
+    </row>
+    <row r="446">
+      <c r="A446" s="4"/>
+      <c r="B446" s="5"/>
+      <c r="C446" s="1"/>
+      <c r="D446" s="1"/>
+      <c r="E446" s="4"/>
+    </row>
+    <row r="447">
+      <c r="A447" s="4"/>
+      <c r="B447" s="5"/>
+      <c r="C447" s="1"/>
+      <c r="D447" s="1"/>
+      <c r="E447" s="4"/>
+    </row>
+    <row r="448">
+      <c r="A448" s="4"/>
+      <c r="B448" s="5"/>
+      <c r="C448" s="1"/>
+      <c r="D448" s="1"/>
+      <c r="E448" s="4"/>
+    </row>
+    <row r="449">
+      <c r="A449" s="4"/>
+      <c r="B449" s="5"/>
+      <c r="C449" s="1"/>
+      <c r="D449" s="1"/>
+      <c r="E449" s="4"/>
+    </row>
+    <row r="450">
+      <c r="A450" s="4"/>
+      <c r="B450" s="5"/>
+      <c r="C450" s="1"/>
+      <c r="D450" s="1"/>
+      <c r="E450" s="4"/>
+    </row>
+    <row r="451">
+      <c r="A451" s="4"/>
+      <c r="B451" s="5"/>
+      <c r="C451" s="1"/>
+      <c r="D451" s="1"/>
+      <c r="E451" s="4"/>
+    </row>
+    <row r="452">
+      <c r="A452" s="4"/>
+      <c r="B452" s="5"/>
+      <c r="C452" s="1"/>
+      <c r="D452" s="1"/>
+      <c r="E452" s="4"/>
+    </row>
+    <row r="453">
+      <c r="A453" s="4"/>
+      <c r="B453" s="5"/>
+      <c r="C453" s="1"/>
+      <c r="D453" s="1"/>
+      <c r="E453" s="4"/>
+    </row>
+    <row r="454">
+      <c r="A454" s="4"/>
+      <c r="B454" s="5"/>
+      <c r="C454" s="1"/>
+      <c r="D454" s="1"/>
+      <c r="E454" s="4"/>
+    </row>
+    <row r="455">
+      <c r="A455" s="4"/>
+      <c r="B455" s="5"/>
+      <c r="C455" s="1"/>
+      <c r="D455" s="1"/>
+      <c r="E455" s="4"/>
+    </row>
+    <row r="456">
+      <c r="A456" s="4"/>
+      <c r="B456" s="5"/>
+      <c r="C456" s="1"/>
+      <c r="D456" s="1"/>
+      <c r="E456" s="4"/>
+    </row>
+    <row r="457">
+      <c r="A457" s="4"/>
+      <c r="B457" s="5"/>
+      <c r="C457" s="1"/>
+      <c r="D457" s="1"/>
+      <c r="E457" s="4"/>
+    </row>
+    <row r="458">
+      <c r="A458" s="4"/>
+      <c r="B458" s="5"/>
+      <c r="C458" s="1"/>
+      <c r="D458" s="1"/>
+      <c r="E458" s="4"/>
+    </row>
+    <row r="459">
+      <c r="A459" s="4"/>
+      <c r="B459" s="5"/>
+      <c r="C459" s="1"/>
+      <c r="D459" s="1"/>
+      <c r="E459" s="4"/>
+    </row>
+    <row r="460">
+      <c r="A460" s="4"/>
+      <c r="B460" s="5"/>
+      <c r="C460" s="1"/>
+      <c r="D460" s="1"/>
+      <c r="E460" s="4"/>
+    </row>
+    <row r="461">
+      <c r="A461" s="4"/>
+      <c r="B461" s="5"/>
+      <c r="C461" s="1"/>
+      <c r="D461" s="1"/>
+      <c r="E461" s="4"/>
+    </row>
+    <row r="462">
+      <c r="A462" s="4"/>
+      <c r="B462" s="5"/>
+      <c r="C462" s="1"/>
+      <c r="D462" s="1"/>
+      <c r="E462" s="4"/>
+    </row>
+    <row r="463">
+      <c r="A463" s="4"/>
+      <c r="B463" s="5"/>
+      <c r="C463" s="1"/>
+      <c r="D463" s="1"/>
+      <c r="E463" s="4"/>
+    </row>
+    <row r="464">
+      <c r="A464" s="4"/>
+      <c r="B464" s="5"/>
+      <c r="C464" s="1"/>
+      <c r="D464" s="1"/>
+      <c r="E464" s="4"/>
+    </row>
+    <row r="465">
+      <c r="A465" s="4"/>
+      <c r="B465" s="5"/>
+      <c r="C465" s="1"/>
+      <c r="D465" s="1"/>
+      <c r="E465" s="4"/>
+    </row>
+    <row r="466">
+      <c r="A466" s="4"/>
+      <c r="B466" s="5"/>
+      <c r="C466" s="1"/>
+      <c r="D466" s="1"/>
+      <c r="E466" s="4"/>
+    </row>
+    <row r="467">
+      <c r="A467" s="4"/>
+      <c r="B467" s="5"/>
+      <c r="C467" s="1"/>
+      <c r="D467" s="1"/>
+      <c r="E467" s="4"/>
+    </row>
+    <row r="468">
+      <c r="A468" s="4"/>
+      <c r="B468" s="5"/>
+      <c r="C468" s="1"/>
+      <c r="D468" s="1"/>
+      <c r="E468" s="4"/>
+    </row>
+    <row r="469">
+      <c r="A469" s="4"/>
+      <c r="B469" s="5"/>
+      <c r="C469" s="1"/>
+      <c r="D469" s="1"/>
+      <c r="E469" s="4"/>
+    </row>
+    <row r="470">
+      <c r="A470" s="4"/>
+      <c r="B470" s="5"/>
+      <c r="C470" s="1"/>
+      <c r="D470" s="1"/>
+      <c r="E470" s="4"/>
+    </row>
+    <row r="471">
+      <c r="A471" s="4"/>
+      <c r="B471" s="5"/>
+      <c r="C471" s="1"/>
+      <c r="D471" s="1"/>
+      <c r="E471" s="4"/>
+    </row>
+    <row r="472">
+      <c r="A472" s="4"/>
+      <c r="B472" s="5"/>
+      <c r="C472" s="1"/>
+      <c r="D472" s="1"/>
+      <c r="E472" s="4"/>
+    </row>
+    <row r="473">
+      <c r="A473" s="4"/>
+      <c r="B473" s="5"/>
+      <c r="C473" s="1"/>
+      <c r="D473" s="1"/>
+      <c r="E473" s="4"/>
+    </row>
+    <row r="474">
+      <c r="A474" s="4"/>
+      <c r="B474" s="5"/>
+      <c r="C474" s="1"/>
+      <c r="D474" s="1"/>
+      <c r="E474" s="4"/>
+    </row>
+    <row r="475">
+      <c r="A475" s="4"/>
+      <c r="B475" s="5"/>
+      <c r="C475" s="1"/>
+      <c r="D475" s="1"/>
+      <c r="E475" s="4"/>
+    </row>
+    <row r="476">
+      <c r="A476" s="4"/>
+      <c r="B476" s="5"/>
+      <c r="C476" s="1"/>
+      <c r="D476" s="1"/>
+      <c r="E476" s="4"/>
+    </row>
+    <row r="477">
+      <c r="A477" s="4"/>
+      <c r="B477" s="5"/>
+      <c r="C477" s="1"/>
+      <c r="D477" s="1"/>
+      <c r="E477" s="4"/>
+    </row>
+    <row r="478">
+      <c r="A478" s="4"/>
+      <c r="B478" s="5"/>
+      <c r="C478" s="1"/>
+      <c r="D478" s="1"/>
+      <c r="E478" s="4"/>
+    </row>
+    <row r="479">
+      <c r="A479" s="4"/>
+      <c r="B479" s="5"/>
+      <c r="C479" s="1"/>
+      <c r="D479" s="1"/>
+      <c r="E479" s="4"/>
+    </row>
+    <row r="480">
+      <c r="A480" s="4"/>
+      <c r="B480" s="5"/>
+      <c r="C480" s="1"/>
+      <c r="D480" s="1"/>
+      <c r="E480" s="4"/>
+    </row>
+    <row r="481">
+      <c r="A481" s="4"/>
+      <c r="B481" s="5"/>
+      <c r="C481" s="1"/>
+      <c r="D481" s="1"/>
+      <c r="E481" s="4"/>
+    </row>
+    <row r="482">
+      <c r="A482" s="4"/>
+      <c r="B482" s="5"/>
+      <c r="C482" s="1"/>
+      <c r="D482" s="1"/>
+      <c r="E482" s="4"/>
+    </row>
+    <row r="483">
+      <c r="A483" s="4"/>
+      <c r="B483" s="5"/>
+      <c r="C483" s="1"/>
+      <c r="D483" s="1"/>
+      <c r="E483" s="4"/>
+    </row>
+    <row r="484">
+      <c r="A484" s="4"/>
+      <c r="B484" s="5"/>
+      <c r="C484" s="1"/>
+      <c r="D484" s="1"/>
+      <c r="E484" s="4"/>
+    </row>
+    <row r="485">
+      <c r="A485" s="4"/>
+      <c r="B485" s="5"/>
+      <c r="C485" s="1"/>
+      <c r="D485" s="1"/>
+      <c r="E485" s="4"/>
+    </row>
+    <row r="486">
+      <c r="A486" s="4"/>
+      <c r="B486" s="5"/>
+      <c r="C486" s="1"/>
+      <c r="D486" s="1"/>
+      <c r="E486" s="4"/>
+    </row>
+    <row r="487">
+      <c r="A487" s="4"/>
+      <c r="B487" s="5"/>
+      <c r="C487" s="1"/>
+      <c r="D487" s="1"/>
+      <c r="E487" s="4"/>
+    </row>
+    <row r="488">
+      <c r="A488" s="4"/>
+      <c r="B488" s="5"/>
+      <c r="C488" s="1"/>
+      <c r="D488" s="1"/>
+      <c r="E488" s="4"/>
+    </row>
+    <row r="489">
+      <c r="A489" s="4"/>
+      <c r="B489" s="5"/>
+      <c r="C489" s="1"/>
+      <c r="D489" s="1"/>
+      <c r="E489" s="4"/>
+    </row>
+    <row r="490">
+      <c r="A490" s="4"/>
+      <c r="B490" s="5"/>
+      <c r="C490" s="1"/>
+      <c r="D490" s="1"/>
+      <c r="E490" s="4"/>
+    </row>
+    <row r="491">
+      <c r="A491" s="4"/>
+      <c r="B491" s="5"/>
+      <c r="C491" s="1"/>
+      <c r="D491" s="1"/>
+      <c r="E491" s="4"/>
+    </row>
+    <row r="492">
+      <c r="A492" s="4"/>
+      <c r="B492" s="5"/>
+      <c r="C492" s="1"/>
+      <c r="D492" s="1"/>
+      <c r="E492" s="4"/>
+    </row>
+    <row r="493">
+      <c r="A493" s="4"/>
+      <c r="B493" s="5"/>
+      <c r="C493" s="1"/>
+      <c r="D493" s="1"/>
+      <c r="E493" s="4"/>
+    </row>
+    <row r="494">
+      <c r="A494" s="4"/>
+      <c r="B494" s="5"/>
+      <c r="C494" s="1"/>
+      <c r="D494" s="1"/>
+      <c r="E494" s="4"/>
+    </row>
+    <row r="495">
+      <c r="A495" s="4"/>
+      <c r="B495" s="5"/>
+      <c r="C495" s="1"/>
+      <c r="D495" s="1"/>
+      <c r="E495" s="4"/>
+    </row>
+    <row r="496">
+      <c r="A496" s="4"/>
+      <c r="B496" s="5"/>
+      <c r="C496" s="1"/>
+      <c r="D496" s="1"/>
+      <c r="E496" s="4"/>
+    </row>
+    <row r="497">
+      <c r="A497" s="4"/>
+      <c r="B497" s="5"/>
+      <c r="C497" s="1"/>
+      <c r="D497" s="1"/>
+      <c r="E497" s="4"/>
+    </row>
+    <row r="498">
+      <c r="A498" s="4"/>
+      <c r="B498" s="5"/>
+      <c r="C498" s="1"/>
+      <c r="D498" s="1"/>
+      <c r="E498" s="4"/>
+    </row>
+    <row r="499">
+      <c r="A499" s="4"/>
+      <c r="B499" s="5"/>
+      <c r="C499" s="1"/>
+      <c r="D499" s="1"/>
+      <c r="E499" s="4"/>
+    </row>
+    <row r="500">
+      <c r="A500" s="4"/>
+      <c r="B500" s="5"/>
+      <c r="C500" s="1"/>
+      <c r="D500" s="1"/>
+      <c r="E500" s="4"/>
+    </row>
+    <row r="501">
+      <c r="A501" s="4"/>
+      <c r="B501" s="5"/>
+      <c r="C501" s="1"/>
+      <c r="D501" s="1"/>
+      <c r="E501" s="4"/>
+    </row>
+    <row r="502">
+      <c r="A502" s="4"/>
+      <c r="B502" s="5"/>
+      <c r="C502" s="1"/>
+      <c r="D502" s="1"/>
+      <c r="E502" s="4"/>
+    </row>
+    <row r="503">
+      <c r="A503" s="4"/>
+      <c r="B503" s="5"/>
+      <c r="C503" s="1"/>
+      <c r="D503" s="1"/>
+      <c r="E503" s="4"/>
+    </row>
+    <row r="504">
+      <c r="A504" s="4"/>
+      <c r="B504" s="5"/>
+      <c r="C504" s="1"/>
+      <c r="D504" s="1"/>
+      <c r="E504" s="4"/>
+    </row>
+    <row r="505">
+      <c r="A505" s="4"/>
+      <c r="B505" s="5"/>
+      <c r="C505" s="1"/>
+      <c r="D505" s="1"/>
+      <c r="E505" s="4"/>
+    </row>
+    <row r="506">
+      <c r="A506" s="4"/>
+      <c r="B506" s="5"/>
+      <c r="C506" s="1"/>
+      <c r="D506" s="1"/>
+      <c r="E506" s="4"/>
+    </row>
+    <row r="507">
+      <c r="A507" s="4"/>
+      <c r="B507" s="5"/>
+      <c r="C507" s="1"/>
+      <c r="D507" s="1"/>
+      <c r="E507" s="4"/>
+    </row>
+    <row r="508">
+      <c r="A508" s="4"/>
+      <c r="B508" s="5"/>
+      <c r="C508" s="1"/>
+      <c r="D508" s="1"/>
+      <c r="E508" s="4"/>
+    </row>
+    <row r="509">
+      <c r="A509" s="4"/>
+      <c r="B509" s="5"/>
+      <c r="C509" s="1"/>
+      <c r="D509" s="1"/>
+      <c r="E509" s="4"/>
+    </row>
+    <row r="510">
+      <c r="A510" s="4"/>
+      <c r="B510" s="5"/>
+      <c r="C510" s="1"/>
+      <c r="D510" s="1"/>
+      <c r="E510" s="4"/>
+    </row>
+    <row r="511">
+      <c r="A511" s="4"/>
+      <c r="B511" s="5"/>
+      <c r="C511" s="1"/>
+      <c r="D511" s="1"/>
+      <c r="E511" s="4"/>
+    </row>
+    <row r="512">
+      <c r="A512" s="4"/>
+      <c r="B512" s="5"/>
+      <c r="C512" s="1"/>
+      <c r="D512" s="1"/>
+      <c r="E512" s="4"/>
+    </row>
+    <row r="513">
+      <c r="A513" s="4"/>
+      <c r="B513" s="5"/>
+      <c r="C513" s="1"/>
+      <c r="D513" s="1"/>
+      <c r="E513" s="4"/>
+    </row>
+    <row r="514">
+      <c r="A514" s="4"/>
+      <c r="B514" s="5"/>
+      <c r="C514" s="1"/>
+      <c r="D514" s="1"/>
+      <c r="E514" s="4"/>
+    </row>
+    <row r="515">
+      <c r="A515" s="4"/>
+      <c r="B515" s="5"/>
+      <c r="C515" s="1"/>
+      <c r="D515" s="1"/>
+      <c r="E515" s="4"/>
+    </row>
+    <row r="516">
+      <c r="A516" s="4"/>
+      <c r="B516" s="5"/>
+      <c r="C516" s="1"/>
+      <c r="D516" s="1"/>
+      <c r="E516" s="4"/>
+    </row>
+    <row r="517">
+      <c r="A517" s="4"/>
+      <c r="B517" s="5"/>
+      <c r="C517" s="1"/>
+      <c r="D517" s="1"/>
+      <c r="E517" s="4"/>
+    </row>
+    <row r="518">
+      <c r="A518" s="4"/>
+      <c r="B518" s="5"/>
+      <c r="C518" s="1"/>
+      <c r="D518" s="1"/>
+      <c r="E518" s="4"/>
+    </row>
+    <row r="519">
+      <c r="A519" s="4"/>
+      <c r="B519" s="5"/>
+      <c r="C519" s="1"/>
+      <c r="D519" s="1"/>
+      <c r="E519" s="4"/>
+    </row>
+    <row r="520">
+      <c r="A520" s="4"/>
+      <c r="B520" s="5"/>
+      <c r="C520" s="1"/>
+      <c r="D520" s="1"/>
+      <c r="E520" s="4"/>
+    </row>
+    <row r="521">
+      <c r="A521" s="4"/>
+      <c r="B521" s="5"/>
+      <c r="C521" s="1"/>
+      <c r="D521" s="1"/>
+      <c r="E521" s="4"/>
+    </row>
+    <row r="522">
+      <c r="A522" s="4"/>
+      <c r="B522" s="5"/>
+      <c r="C522" s="1"/>
+      <c r="D522" s="1"/>
+      <c r="E522" s="4"/>
+    </row>
+    <row r="523">
+      <c r="A523" s="4"/>
+      <c r="B523" s="5"/>
+      <c r="C523" s="1"/>
+      <c r="D523" s="1"/>
+      <c r="E523" s="4"/>
+    </row>
+    <row r="524">
+      <c r="A524" s="4"/>
+      <c r="B524" s="5"/>
+      <c r="C524" s="1"/>
+      <c r="D524" s="1"/>
+      <c r="E524" s="4"/>
+    </row>
+    <row r="525">
+      <c r="A525" s="4"/>
+      <c r="B525" s="5"/>
+      <c r="C525" s="1"/>
+      <c r="D525" s="1"/>
+      <c r="E525" s="4"/>
+    </row>
+    <row r="526">
+      <c r="A526" s="4"/>
+      <c r="B526" s="5"/>
+      <c r="C526" s="1"/>
+      <c r="D526" s="1"/>
+      <c r="E526" s="4"/>
+    </row>
+    <row r="527">
+      <c r="A527" s="4"/>
+      <c r="B527" s="5"/>
+      <c r="C527" s="1"/>
+      <c r="D527" s="1"/>
+      <c r="E527" s="4"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/wolf/Excel/Language_小镇多语言.xlsx
+++ b/wolf/Excel/Language_小镇多语言.xlsx
@@ -38,10 +38,24 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="@"/>
   </numFmts>
-  <fonts count="38">
+  <fonts count="41">
     <font>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -111,7 +125,49 @@
     </font>
     <font>
       <sz val="9"/>
-      <color rgb="FF1F2329"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -133,6 +189,34 @@
     <font>
       <sz val="9"/>
       <color rgb="FF1F2329"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF1F2329"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9.75"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF1F2329"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -202,20 +286,6 @@
     </font>
     <font>
       <sz val="9"/>
-      <color rgb="FF1F2329"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -224,27 +294,6 @@
     <font>
       <sz val="9"/>
       <color rgb="FF1F2329"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -273,35 +322,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
       <color rgb="FF1F2329"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9.75"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -364,18 +385,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF8EE085"/>
-        <bgColor/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFEEF6C6"/>
-        <bgColor/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFEEF6C6"/>
         <bgColor/>
       </patternFill>
@@ -394,13 +403,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFAD355"/>
+        <fgColor rgb="FFD5F6F2"/>
         <bgColor/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFAD355"/>
+        <fgColor rgb="FFD5F6F2"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFDDDEF"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFDDDEF"/>
         <bgColor/>
       </patternFill>
     </fill>
@@ -424,7 +445,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFDDDEF"/>
+        <fgColor rgb="FFEEF6C6"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEEF6C6"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF258"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF8EE085"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF8EE085"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFAD355"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFAD355"/>
         <bgColor/>
       </patternFill>
     </fill>
@@ -436,48 +493,33 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF8EE085"/>
-        <bgColor/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFDDDEF"/>
-        <bgColor/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD5F6F2"/>
-        <bgColor/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD5F6F2"/>
-        <bgColor/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFF258"/>
-        <bgColor/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFECE2FE"/>
         <bgColor/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFEEF6C6"/>
-        <bgColor/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="38">
+  <borders count="41">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left/>
       <right/>
@@ -748,39 +790,39 @@
   <cellStyleXfs count="1">
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="41">
     <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="5" fillId="0" fontId="5" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="5" fillId="2" fontId="5" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="6" fillId="0" fontId="6" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="7" fillId="0" fontId="7" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="8" fillId="3" fontId="8" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="9" fillId="4" fontId="9" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="6" fillId="3" fontId="6" numFmtId="0" xfId="0">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="7" fillId="4" fontId="7" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="8" fillId="0" fontId="8" numFmtId="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="9" fillId="0" fontId="9" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="10" fillId="5" fontId="10" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="11" fillId="6" fontId="11" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -789,79 +831,88 @@
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="13" fillId="8" fontId="13" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="14" fillId="9" fontId="14" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="15" fillId="10" fontId="15" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="16" fillId="11" fontId="16" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="17" fillId="12" fontId="17" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="18" fillId="13" fontId="18" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="14" fillId="9" fontId="14" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="19" fillId="14" fontId="19" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="20" fillId="15" fontId="20" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="21" fillId="16" fontId="21" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="22" fillId="17" fontId="22" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" applyProtection="false" borderId="15" fillId="0" fontId="15" numFmtId="164" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="23" fillId="0" fontId="23" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="24" fillId="18" fontId="24" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="25" fillId="19" fontId="25" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="26" fillId="0" fontId="26" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="27" fillId="0" fontId="27" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="28" fillId="0" fontId="28" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="29" fillId="0" fontId="29" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="16" fillId="10" fontId="16" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="17" fillId="11" fontId="17" numFmtId="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="18" fillId="0" fontId="18" numFmtId="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="19" fillId="12" fontId="19" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="20" fillId="13" fontId="20" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="21" fillId="0" fontId="21" numFmtId="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="22" fillId="14" fontId="22" numFmtId="0" xfId="0">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="23" fillId="15" fontId="23" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="24" fillId="16" fontId="24" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="30" fillId="20" fontId="30" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="25" fillId="17" fontId="25" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="26" fillId="18" fontId="26" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="27" fillId="19" fontId="27" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="28" fillId="20" fontId="28" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="29" fillId="0" fontId="29" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="30" fillId="21" fontId="30" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="31" fillId="0" fontId="31" numFmtId="0" xfId="0">
-      <alignment vertical="center" wrapText="true"/>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="31" fillId="21" fontId="31" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="32" fillId="22" fontId="32" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
+      <alignment vertical="center" wrapText="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="33" fillId="23" fontId="33" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="34" fillId="24" fontId="34" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" applyProtection="false" borderId="34" fillId="0" fontId="34" numFmtId="164" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="35" fillId="24" fontId="35" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="35" fillId="25" fontId="35" numFmtId="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="36" fillId="25" fontId="36" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="36" fillId="26" fontId="36" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="37" fillId="0" fontId="37" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="37" fillId="27" fontId="37" numFmtId="0" xfId="0">
-      <alignment horizontal="left" vertical="bottom"/>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="38" fillId="0" fontId="38" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="39" fillId="26" fontId="39" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="40" fillId="27" fontId="40" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1211,4179 +1262,4179 @@
   </cols>
   <sheetData>
     <row customHeight="true" ht="21" r="1">
-      <c r="A1" s="18" t="str">
+      <c r="A1" s="23" t="str">
         <v>Int</v>
       </c>
-      <c r="B1" s="18" t="str">
+      <c r="B1" s="23" t="str">
         <v>String</v>
       </c>
-      <c r="C1" s="4" t="str">
+      <c r="C1" s="3" t="str">
         <v>String</v>
       </c>
-      <c r="D1" s="18" t="str">
+      <c r="D1" s="23" t="str">
         <v>String</v>
       </c>
-      <c r="E1" s="1" t="str">
+      <c r="E1" s="2" t="str">
         <v>String</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="2">
-      <c r="A2" s="18" t="str">
+      <c r="A2" s="23" t="str">
         <v>ID</v>
       </c>
-      <c r="B2" s="18" t="str">
+      <c r="B2" s="23" t="str">
         <v>mur</v>
       </c>
-      <c r="C2" s="4" t="str">
+      <c r="C2" s="3" t="str">
         <v>Value</v>
       </c>
-      <c r="D2" s="18" t="str">
+      <c r="D2" s="23" t="str">
         <v>Value_Ch</v>
       </c>
-      <c r="E2" s="1" t="str">
+      <c r="E2" s="2" t="str">
         <v>Comment</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="3">
-      <c r="A3" s="18" t="str">
+      <c r="A3" s="23" t="str">
         <v>ID</v>
       </c>
-      <c r="B3" s="18" t="str">
+      <c r="B3" s="23" t="str">
         <v>名字</v>
       </c>
-      <c r="C3" s="4" t="str">
+      <c r="C3" s="3" t="str">
         <v>英文</v>
       </c>
-      <c r="D3" s="18" t="str">
+      <c r="D3" s="23" t="str">
         <v>中文</v>
       </c>
-      <c r="E3" s="1" t="str">
+      <c r="E3" s="2" t="str">
         <v>备注</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="4">
-      <c r="A4" s="1" t="str"/>
-      <c r="B4" s="31" t="str">
+      <c r="A4" s="2" t="str"/>
+      <c r="B4" s="38" t="str">
         <v>Key|ReadByName</v>
       </c>
-      <c r="C4" s="4" t="str">
+      <c r="C4" s="3" t="str">
         <v>MainLanguage</v>
       </c>
-      <c r="D4" s="31" t="str">
+      <c r="D4" s="38" t="str">
         <v>ChildLanguage</v>
       </c>
-      <c r="E4" s="1" t="str"/>
+      <c r="E4" s="2" t="str"/>
     </row>
     <row customHeight="true" ht="21" r="5">
-      <c r="A5" s="1">
+      <c r="A5" s="2">
         <v>10001</v>
       </c>
-      <c r="B5" s="1" t="str">
+      <c r="B5" s="2" t="str">
         <v>Guide_GuideContent_10001</v>
       </c>
-      <c r="C5" s="4" t="str">
+      <c r="C5" s="3" t="str">
         <v>This is what you are playing in this round</v>
       </c>
-      <c r="D5" s="1" t="str">
+      <c r="D5" s="2" t="str">
         <v>这里是本局中你的身份</v>
       </c>
-      <c r="E5" s="1" t="str">
+      <c r="E5" s="2" t="str">
         <v>10000：新手引导表</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="6">
-      <c r="A6" s="1">
+      <c r="A6" s="2">
         <v>10002</v>
       </c>
-      <c r="B6" s="1" t="str">
+      <c r="B6" s="2" t="str">
         <v>Guide_GuideContent_10002</v>
       </c>
-      <c r="C6" s="4" t="str">
+      <c r="C6" s="3" t="str">
         <v>This is your goal in this round, check it here if you don't know what to do</v>
       </c>
-      <c r="D6" s="1" t="str">
+      <c r="D6" s="2" t="str">
         <v>这里是你本局的目标，不知道做什么的话就看一下这里吧</v>
       </c>
-      <c r="E6" s="1" t="str"/>
+      <c r="E6" s="2" t="str"/>
     </row>
     <row customHeight="true" ht="21" r="7">
-      <c r="A7" s="1">
+      <c r="A7" s="2">
         <v>10003</v>
       </c>
-      <c r="B7" s="1" t="str">
+      <c r="B7" s="2" t="str">
         <v>Guide_GuideContent_10003</v>
       </c>
-      <c r="C7" s="4" t="str">
+      <c r="C7" s="3" t="str">
         <v>Survive to win~</v>
       </c>
-      <c r="D7" s="1" t="str">
+      <c r="D7" s="2" t="str">
         <v>努力活下来才能够获得胜利~</v>
       </c>
-      <c r="E7" s="1" t="str"/>
+      <c r="E7" s="2" t="str"/>
     </row>
     <row customHeight="true" ht="21" r="8">
-      <c r="A8" s="1">
+      <c r="A8" s="2">
         <v>10004</v>
       </c>
-      <c r="B8" s="1" t="str">
+      <c r="B8" s="2" t="str">
         <v>Guide_GuideContent_10004</v>
       </c>
-      <c r="C8" s="4" t="str">
+      <c r="C8" s="3" t="str">
         <v>Here is the energy ball:</v>
       </c>
-      <c r="D8" s="1" t="str">
+      <c r="D8" s="2" t="str">
         <v>这是能量球：</v>
       </c>
-      <c r="E8" s="1" t="str"/>
+      <c r="E8" s="2" t="str"/>
     </row>
     <row customHeight="true" ht="21" r="9">
-      <c r="A9" s="1">
+      <c r="A9" s="2">
         <v>10005</v>
       </c>
-      <c r="B9" s="1" t="str">
+      <c r="B9" s="2" t="str">
         <v>Guide_GuideContent_10005</v>
       </c>
-      <c r="C9" s="4" t="str">
+      <c r="C9" s="3" t="str">
         <v>Collect them all to get a protective shield</v>
       </c>
-      <c r="D9" s="1" t="str">
+      <c r="D9" s="2" t="str">
         <v>集齐能量球，可以获得一层保护壳</v>
       </c>
-      <c r="E9" s="1" t="str"/>
+      <c r="E9" s="2" t="str"/>
     </row>
     <row customHeight="true" ht="21" r="10">
-      <c r="A10" s="1">
+      <c r="A10" s="2">
         <v>10006</v>
       </c>
-      <c r="B10" s="1" t="str">
+      <c r="B10" s="2" t="str">
         <v>Guide_GuideContent_10006</v>
       </c>
-      <c r="C10" s="4" t="str">
+      <c r="C10" s="3" t="str">
         <v>This is your goal in this round, achieve it before the game ends to win</v>
       </c>
-      <c r="D10" s="1" t="str">
+      <c r="D10" s="2" t="str">
         <v>这里是你本局的目标，在对局结束前完成目标才能获得胜利</v>
       </c>
-      <c r="E10" s="1" t="str"/>
+      <c r="E10" s="2" t="str"/>
     </row>
     <row customHeight="true" ht="21" r="11">
-      <c r="A11" s="1">
+      <c r="A11" s="2">
         <v>10007</v>
       </c>
-      <c r="B11" s="1" t="str">
+      <c r="B11" s="2" t="str">
         <v>Guide_GuideContent_10007</v>
       </c>
-      <c r="C11" s="4" t="str">
+      <c r="C11" s="3" t="str">
         <v>This is your goal in this round, achieve it before the game ends to win</v>
       </c>
-      <c r="D11" s="1" t="str">
+      <c r="D11" s="2" t="str">
         <v>这里是你本局的目标，在对局结束前完成目标才能获得胜利</v>
       </c>
-      <c r="E11" s="1" t="str"/>
+      <c r="E11" s="2" t="str"/>
     </row>
     <row customHeight="true" ht="21" r="12">
-      <c r="A12" s="1">
+      <c r="A12" s="2">
         <v>10008</v>
       </c>
-      <c r="B12" s="1" t="str">
+      <c r="B12" s="2" t="str">
         <v>Guide_GuideContent_10008</v>
       </c>
-      <c r="C12" s="4" t="str">
+      <c r="C12" s="3" t="str">
         <v>You have a new goal, to defeat the Murderer and protect the Students</v>
       </c>
-      <c r="D12" s="1" t="str">
+      <c r="D12" s="2" t="str">
         <v>你有了新的目标，击杀凶手，保护学生</v>
       </c>
-      <c r="E12" s="1" t="str"/>
+      <c r="E12" s="2" t="str"/>
     </row>
     <row customHeight="true" ht="21" r="13">
-      <c r="A13" s="1">
+      <c r="A13" s="2">
         <v>10009</v>
       </c>
-      <c r="B13" s="1" t="str">
+      <c r="B13" s="2" t="str">
         <v>Guide_GuideContent_10009</v>
       </c>
-      <c r="C13" s="4" t="str">
+      <c r="C13" s="3" t="str">
         <v>This is what you are playing in this round</v>
       </c>
-      <c r="D13" s="1" t="str">
+      <c r="D13" s="2" t="str">
         <v>这里是本局中你的身份</v>
       </c>
-      <c r="E13" s="1" t="str"/>
+      <c r="E13" s="2" t="str"/>
     </row>
     <row customHeight="true" ht="21" r="14">
-      <c r="A14" s="1">
+      <c r="A14" s="2">
         <v>10010</v>
       </c>
-      <c r="B14" s="1" t="str">
+      <c r="B14" s="2" t="str">
         <v>Guide_GuideContent_10010</v>
       </c>
-      <c r="C14" s="4" t="str">
+      <c r="C14" s="3" t="str">
         <v>This is what you are playing in this round</v>
       </c>
-      <c r="D14" s="1" t="str">
+      <c r="D14" s="2" t="str">
         <v>这里是本局中你的身份</v>
       </c>
-      <c r="E14" s="1" t="str"/>
+      <c r="E14" s="2" t="str"/>
     </row>
     <row customHeight="true" ht="21" r="15">
-      <c r="A15" s="1">
+      <c r="A15" s="2">
         <v>10011</v>
       </c>
-      <c r="B15" s="1" t="str">
+      <c r="B15" s="2" t="str">
         <v>Guide_GuideContent_10011</v>
       </c>
-      <c r="C15" s="4" t="str">
+      <c r="C15" s="3" t="str">
         <v>Congratulation! You just picked up the weapon and you're a Hero now</v>
       </c>
-      <c r="D15" s="1" t="str">
+      <c r="D15" s="2" t="str">
         <v>恭喜你拾取到武器，现在你成为了一名英雄</v>
       </c>
-      <c r="E15" s="1" t="str"/>
+      <c r="E15" s="2" t="str"/>
     </row>
     <row customHeight="true" ht="21" r="16">
-      <c r="A16" s="1">
+      <c r="A16" s="2">
         <v>10012</v>
       </c>
-      <c r="B16" s="1" t="str">
+      <c r="B16" s="2" t="str">
         <v>Guide_GuideContent_20001</v>
       </c>
-      <c r="C16" s="4" t="str">
+      <c r="C16" s="3" t="str">
         <v>The Coins gained in this game will be stored here and be given to you during the settlement; but there is a limitation for the Coin Bag and cannot gain more Coins when it's full.</v>
       </c>
-      <c r="D16" s="1" t="str">
+      <c r="D16" s="2" t="str">
         <v>本局游戏内获得的金币将存储在这里，结算时会发放给你；不过金币袋是有上限的，袋子装满就无法获得了</v>
       </c>
-      <c r="E16" s="1" t="str"/>
+      <c r="E16" s="2" t="str"/>
     </row>
     <row customHeight="true" ht="21" r="17">
-      <c r="A17" s="1">
+      <c r="A17" s="2">
         <v>10013</v>
       </c>
-      <c r="B17" s="1" t="str">
+      <c r="B17" s="2" t="str">
         <v>Guide_GuideContent_20002</v>
       </c>
-      <c r="C17" s="4" t="str">
+      <c r="C17" s="3" t="str">
         <v>Coin Bag is full, cannot gain more Coins in this round</v>
       </c>
-      <c r="D17" s="1" t="str">
+      <c r="D17" s="2" t="str">
         <v>金币袋已经满了，本局无法再拾取金币了</v>
       </c>
-      <c r="E17" s="1" t="str"/>
+      <c r="E17" s="2" t="str"/>
     </row>
     <row customHeight="true" ht="21" r="18">
-      <c r="A18" s="1">
+      <c r="A18" s="2">
         <v>10014</v>
       </c>
-      <c r="B18" s="1" t="str">
+      <c r="B18" s="2" t="str">
         <v>Guide_GuideContent_30001</v>
       </c>
-      <c r="C18" s="4" t="str">
+      <c r="C18" s="3" t="str">
         <v>Click here to switch your status, choose to show or hide the weapon</v>
       </c>
-      <c r="D18" s="1" t="str">
+      <c r="D18" s="2" t="str">
         <v>点击这里可以切换姿态，选择亮出武器或藏起武器</v>
       </c>
-      <c r="E18" s="1" t="str"/>
+      <c r="E18" s="2" t="str"/>
     </row>
     <row customHeight="true" ht="21" r="19">
-      <c r="A19" s="1">
+      <c r="A19" s="2">
         <v>10015</v>
       </c>
-      <c r="B19" s="1" t="str">
+      <c r="B19" s="2" t="str">
         <v>Guide_GuideContent_30002</v>
       </c>
-      <c r="C19" s="4" t="str">
+      <c r="C19" s="3" t="str">
         <v>Show the weapon, then you can click here to attack</v>
       </c>
-      <c r="D19" s="1" t="str">
+      <c r="D19" s="2" t="str">
         <v>在亮出武器后，可以点击这里进行攻击</v>
       </c>
-      <c r="E19" s="1" t="str"/>
+      <c r="E19" s="2" t="str"/>
     </row>
     <row customHeight="true" ht="21" r="20">
-      <c r="A20" s="1">
+      <c r="A20" s="2">
         <v>10016</v>
       </c>
-      <c r="B20" s="1" t="str">
+      <c r="B20" s="2" t="str">
         <v>Guide_GuideContent_30003</v>
       </c>
-      <c r="C20" s="4" t="str">
+      <c r="C20" s="3" t="str">
         <v>Click here to switch your status, choose to show or hide the weapon</v>
       </c>
-      <c r="D20" s="1" t="str">
+      <c r="D20" s="2" t="str">
         <v>点击这里可以切换姿态，选择亮出武器或藏起武器</v>
       </c>
-      <c r="E20" s="1" t="str"/>
+      <c r="E20" s="2" t="str"/>
     </row>
     <row customHeight="true" ht="21" r="21">
-      <c r="A21" s="1">
+      <c r="A21" s="2">
         <v>10017</v>
       </c>
-      <c r="B21" s="1" t="str">
+      <c r="B21" s="2" t="str">
         <v>Guide_GuideContent_30004</v>
       </c>
-      <c r="C21" s="4" t="str">
+      <c r="C21" s="3" t="str">
         <v>Show the weapon, then you can click here to attack</v>
       </c>
-      <c r="D21" s="1" t="str">
+      <c r="D21" s="2" t="str">
         <v>在亮出武器后，可以点击这里进行攻击</v>
       </c>
-      <c r="E21" s="1" t="str"/>
+      <c r="E21" s="2" t="str"/>
     </row>
     <row customHeight="true" ht="21" r="22">
-      <c r="A22" s="1">
+      <c r="A22" s="2">
         <v>10018</v>
       </c>
-      <c r="B22" s="1" t="str">
+      <c r="B22" s="2" t="str">
         <v>Guide_GuideContent_30005</v>
       </c>
-      <c r="C22" s="4" t="str">
+      <c r="C22" s="3" t="str">
         <v>Click here to switch your status, choose to show or hide the weapon</v>
       </c>
-      <c r="D22" s="1" t="str">
+      <c r="D22" s="2" t="str">
         <v>点击这里可以切换姿态，选择亮出武器或藏起武器</v>
       </c>
-      <c r="E22" s="1" t="str"/>
+      <c r="E22" s="2" t="str"/>
     </row>
     <row customHeight="true" ht="21" r="23">
-      <c r="A23" s="1">
+      <c r="A23" s="2">
         <v>10019</v>
       </c>
-      <c r="B23" s="1" t="str">
+      <c r="B23" s="2" t="str">
         <v>Guide_GuideContent_30006</v>
       </c>
-      <c r="C23" s="4" t="str">
+      <c r="C23" s="3" t="str">
         <v>Show the weapon, then you can click here to attack</v>
       </c>
-      <c r="D23" s="1" t="str">
+      <c r="D23" s="2" t="str">
         <v>在亮出武器后，可以点击这里进行攻击</v>
       </c>
-      <c r="E23" s="1" t="str"/>
+      <c r="E23" s="2" t="str"/>
     </row>
     <row customHeight="true" ht="21" r="24">
-      <c r="A24" s="1">
+      <c r="A24" s="2">
         <v>10020</v>
       </c>
-      <c r="B24" s="1" t="str">
+      <c r="B24" s="2" t="str">
         <v>Guide_GuideContent_40001</v>
       </c>
-      <c r="C24" s="4" t="str">
+      <c r="C24" s="3" t="str">
         <v>Congratulations! You collected all the energy balls! Now you have a protective shield! The protective shield can protect you from another player once, but you can only get it once per round</v>
       </c>
-      <c r="D24" s="1" t="str">
+      <c r="D24" s="2" t="str">
         <v>恭喜你集齐了道具！现在你获得了一个保护壳！保护壳可以为你抵挡一次来自其他玩家的攻击，但是每局游戏只能获得一次</v>
       </c>
-      <c r="E24" s="1" t="str"/>
+      <c r="E24" s="2" t="str"/>
     </row>
     <row customHeight="true" ht="21" r="25">
-      <c r="A25" s="1">
+      <c r="A25" s="2">
         <v>10021</v>
       </c>
-      <c r="B25" s="1" t="str">
+      <c r="B25" s="2" t="str">
         <v>Guide_GuideContent_50001</v>
       </c>
-      <c r="C25" s="4" t="str">
+      <c r="C25" s="3" t="str">
         <v>Your first round is over, take a look at the settlement panel</v>
       </c>
-      <c r="D25" s="1" t="str">
+      <c r="D25" s="2" t="str">
         <v>现在你的第一局游戏已经结束，来看看结算面板吧</v>
       </c>
-      <c r="E25" s="1" t="str"/>
+      <c r="E25" s="2" t="str"/>
     </row>
     <row customHeight="true" ht="21" r="26">
-      <c r="A26" s="1">
+      <c r="A26" s="2">
         <v>10022</v>
       </c>
-      <c r="B26" s="1" t="str">
+      <c r="B26" s="2" t="str">
         <v>Guide_GuideContent_50002</v>
       </c>
-      <c r="C26" s="4" t="str">
+      <c r="C26" s="3" t="str">
         <v>Here is the final result of the game</v>
       </c>
-      <c r="D26" s="1" t="str">
+      <c r="D26" s="2" t="str">
         <v>这里说明了对局的最终结果</v>
       </c>
-      <c r="E26" s="1" t="str"/>
+      <c r="E26" s="2" t="str"/>
     </row>
     <row customHeight="true" ht="21" r="27">
-      <c r="A27" s="1">
+      <c r="A27" s="2">
         <v>10023</v>
       </c>
-      <c r="B27" s="1" t="str">
+      <c r="B27" s="2" t="str">
         <v>Guide_GuideContent_50003</v>
       </c>
-      <c r="C27" s="4" t="str">
+      <c r="C27" s="3" t="str">
         <v>Here shows the two players who impacted the game most as well as their wins and losses</v>
       </c>
-      <c r="D27" s="1" t="str">
+      <c r="D27" s="2" t="str">
         <v>这里显示了对对局产生影响最大的两方玩家和他们的胜负</v>
       </c>
-      <c r="E27" s="1" t="str"/>
+      <c r="E27" s="2" t="str"/>
     </row>
     <row customHeight="true" ht="21" r="28">
-      <c r="A28" s="1">
+      <c r="A28" s="2">
         <v>10024</v>
       </c>
-      <c r="B28" s="1" t="str">
+      <c r="B28" s="2" t="str">
         <v>Guide_GuideContent_50004</v>
       </c>
-      <c r="C28" s="4" t="str">
+      <c r="C28" s="3" t="str">
         <v>Here's shows your earning in this round</v>
       </c>
-      <c r="D28" s="1" t="str">
+      <c r="D28" s="2" t="str">
         <v>这里显示了你在本轮对局获得的收益</v>
       </c>
-      <c r="E28" s="1" t="str"/>
+      <c r="E28" s="2" t="str"/>
     </row>
     <row customHeight="true" ht="21" r="29">
-      <c r="A29" s="1">
+      <c r="A29" s="2">
         <v>10025</v>
       </c>
-      <c r="B29" s="1" t="str">
+      <c r="B29" s="2" t="str">
         <v>Guide_GuideContent_60001</v>
       </c>
-      <c r="C29" s="4" t="str">
+      <c r="C29" s="3" t="str">
         <v>On behalf of justice, you can't shoot randomly, attacking good people leads to your own death</v>
       </c>
-      <c r="D29" s="1" t="str">
+      <c r="D29" s="2" t="str">
         <v>代表正义的你不可以乱开枪，攻击好人会导致自己死亡</v>
       </c>
-      <c r="E29" s="1" t="str"/>
+      <c r="E29" s="2" t="str"/>
     </row>
     <row customHeight="true" ht="21" r="30">
-      <c r="A30" s="1">
+      <c r="A30" s="2">
         <v>20001</v>
       </c>
-      <c r="B30" s="1" t="str">
+      <c r="B30" s="2" t="str">
         <v>Identity_IdentityName_10001</v>
       </c>
-      <c r="C30" s="4" t="str">
+      <c r="C30" s="3" t="str">
         <v>Detective</v>
       </c>
-      <c r="D30" s="4" t="str">
+      <c r="D30" s="3" t="str">
         <v>侦探</v>
       </c>
-      <c r="E30" s="1" t="str">
+      <c r="E30" s="2" t="str">
         <v>20000：身份属性表</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="31">
-      <c r="A31" s="1">
+      <c r="A31" s="2">
         <v>20002</v>
       </c>
-      <c r="B31" s="1" t="str">
+      <c r="B31" s="2" t="str">
         <v>Identity_IdentityName_10002</v>
       </c>
-      <c r="C31" s="4" t="str">
+      <c r="C31" s="3" t="str">
         <v>Murderer</v>
       </c>
-      <c r="D31" s="4" t="str">
+      <c r="D31" s="3" t="str">
         <v>凶手</v>
       </c>
-      <c r="E31" s="1" t="str"/>
+      <c r="E31" s="2" t="str"/>
     </row>
     <row customHeight="true" ht="21" r="32">
-      <c r="A32" s="1">
+      <c r="A32" s="2">
         <v>20003</v>
       </c>
-      <c r="B32" s="1" t="str">
+      <c r="B32" s="2" t="str">
         <v>Identity_IdentityName_10003</v>
       </c>
-      <c r="C32" s="4" t="str">
+      <c r="C32" s="3" t="str">
         <v>Student</v>
       </c>
-      <c r="D32" s="4" t="str">
+      <c r="D32" s="3" t="str">
         <v>学生</v>
       </c>
-      <c r="E32" s="1" t="str"/>
+      <c r="E32" s="2" t="str"/>
     </row>
     <row customHeight="true" ht="21" r="33">
-      <c r="A33" s="1">
+      <c r="A33" s="2">
         <v>20004</v>
       </c>
-      <c r="B33" s="1" t="str">
+      <c r="B33" s="2" t="str">
         <v>Identity_IdentityName_10004</v>
       </c>
-      <c r="C33" s="4" t="str">
+      <c r="C33" s="3" t="str">
         <v>Hero</v>
       </c>
-      <c r="D33" s="4" t="str">
+      <c r="D33" s="3" t="str">
         <v>英雄</v>
       </c>
-      <c r="E33" s="1" t="str"/>
+      <c r="E33" s="2" t="str"/>
     </row>
     <row customHeight="true" ht="21" r="34">
-      <c r="A34" s="1">
+      <c r="A34" s="2">
         <v>30001</v>
       </c>
-      <c r="B34" s="1" t="str">
+      <c r="B34" s="2" t="str">
         <v>Text_Content_10001</v>
       </c>
-      <c r="C34" s="4" t="str">
+      <c r="C34" s="3" t="str">
         <v>Not enough player</v>
       </c>
-      <c r="D34" s="1" t="str">
+      <c r="D34" s="2" t="str">
         <v>当前人数不足</v>
       </c>
-      <c r="E34" s="1" t="str">
+      <c r="E34" s="2" t="str">
         <v>30000：文本表</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="35">
-      <c r="A35" s="1">
+      <c r="A35" s="2">
         <v>30002</v>
       </c>
-      <c r="B35" s="1" t="str">
+      <c r="B35" s="2" t="str">
         <v>Text_Content_10002</v>
       </c>
-      <c r="C35" s="4" t="str">
+      <c r="C35" s="3" t="str">
         <v>Match in progress</v>
       </c>
-      <c r="D35" s="1" t="str">
+      <c r="D35" s="2" t="str">
         <v>对局进行中</v>
       </c>
-      <c r="E35" s="1" t="str"/>
+      <c r="E35" s="2" t="str"/>
     </row>
     <row customHeight="true" ht="21" r="36">
-      <c r="A36" s="1">
+      <c r="A36" s="2">
         <v>30003</v>
       </c>
-      <c r="B36" s="1" t="str">
+      <c r="B36" s="2" t="str">
         <v>Text_Content_10003</v>
       </c>
-      <c r="C36" s="4" t="str">
+      <c r="C36" s="3" t="str">
         <v>Matching</v>
       </c>
-      <c r="D36" s="1" t="str">
+      <c r="D36" s="2" t="str">
         <v>等待对局开始</v>
       </c>
-      <c r="E36" s="1" t="str"/>
+      <c r="E36" s="2" t="str"/>
     </row>
     <row customHeight="true" ht="21" r="37">
-      <c r="A37" s="1">
+      <c r="A37" s="2">
         <v>30004</v>
       </c>
-      <c r="B37" s="1" t="str">
+      <c r="B37" s="2" t="str">
         <v>Text_Content_11001</v>
       </c>
-      <c r="C37" s="4" t="str">
+      <c r="C37" s="3" t="str">
         <v>The game starts with a countdown...</v>
       </c>
-      <c r="D37" s="1" t="str">
+      <c r="D37" s="2" t="str">
         <v>游戏开始倒计时...</v>
       </c>
-      <c r="E37" s="1" t="str"/>
+      <c r="E37" s="2" t="str"/>
     </row>
     <row customHeight="true" ht="21" r="38">
-      <c r="A38" s="1">
+      <c r="A38" s="2">
         <v>30005</v>
       </c>
-      <c r="B38" s="1" t="str">
+      <c r="B38" s="2" t="str">
         <v>Text_Content_11002</v>
       </c>
-      <c r="C38" s="4" t="str">
+      <c r="C38" s="3" t="str">
         <v>End-of-game countdown</v>
       </c>
-      <c r="D38" s="1" t="str">
+      <c r="D38" s="2" t="str">
         <v>对局结束倒计时</v>
       </c>
-      <c r="E38" s="1" t="str"/>
+      <c r="E38" s="2" t="str"/>
     </row>
     <row customHeight="true" ht="21" r="39">
-      <c r="A39" s="1">
+      <c r="A39" s="2">
         <v>30006</v>
       </c>
-      <c r="B39" s="1" t="str">
+      <c r="B39" s="2" t="str">
         <v>Text_Content_11003</v>
       </c>
-      <c r="C39" s="4" t="str">
+      <c r="C39" s="3" t="str">
         <v>You are playing as:</v>
       </c>
-      <c r="D39" s="1" t="str">
+      <c r="D39" s="2" t="str">
         <v>你的身份是：</v>
       </c>
-      <c r="E39" s="1" t="str"/>
+      <c r="E39" s="2" t="str"/>
     </row>
     <row customHeight="true" ht="21" r="40">
-      <c r="A40" s="1">
+      <c r="A40" s="2">
         <v>30007</v>
       </c>
-      <c r="B40" s="1" t="str">
+      <c r="B40" s="2" t="str">
         <v>Text_Content_11004</v>
       </c>
-      <c r="C40" s="4" t="str">
+      <c r="C40" s="3" t="str">
         <v>Chance being Murderer:</v>
       </c>
-      <c r="D40" s="1" t="str">
+      <c r="D40" s="2" t="str">
         <v>成为凶手的概率：</v>
       </c>
-      <c r="E40" s="1" t="str"/>
+      <c r="E40" s="2" t="str"/>
     </row>
     <row customHeight="true" ht="21" r="41">
-      <c r="A41" s="1">
+      <c r="A41" s="2">
         <v>30008</v>
       </c>
-      <c r="B41" s="1" t="str">
+      <c r="B41" s="2" t="str">
         <v>Text_Content_11005</v>
       </c>
-      <c r="C41" s="4" t="str">
+      <c r="C41" s="3" t="str">
         <v>(Match in the game will increase the possibility)</v>
       </c>
-      <c r="D41" s="1" t="str">
+      <c r="D41" s="2" t="str">
         <v>（参与对局将增加概率）</v>
       </c>
-      <c r="E41" s="1" t="str"/>
+      <c r="E41" s="2" t="str"/>
     </row>
     <row customHeight="true" ht="21" r="42">
-      <c r="A42" s="1">
+      <c r="A42" s="2">
         <v>30009</v>
       </c>
-      <c r="B42" s="1" t="str">
+      <c r="B42" s="2" t="str">
         <v>Text_Content_11006</v>
       </c>
-      <c r="C42" s="4" t="str">
+      <c r="C42" s="3" t="str">
         <v>What you play</v>
       </c>
-      <c r="D42" s="1" t="str">
+      <c r="D42" s="2" t="str">
         <v>你的身份</v>
       </c>
-      <c r="E42" s="1" t="str"/>
+      <c r="E42" s="2" t="str"/>
     </row>
     <row customHeight="true" ht="21" r="43">
-      <c r="A43" s="1">
+      <c r="A43" s="2">
         <v>30010</v>
       </c>
-      <c r="B43" s="1" t="str">
+      <c r="B43" s="2" t="str">
         <v>Text_Content_11007</v>
       </c>
-      <c r="C43" s="4" t="str">
+      <c r="C43" s="3" t="str">
         <v>You Died</v>
       </c>
-      <c r="D43" s="1" t="str">
+      <c r="D43" s="2" t="str">
         <v>你死了</v>
       </c>
-      <c r="E43" s="1" t="str"/>
+      <c r="E43" s="2" t="str"/>
     </row>
     <row customHeight="true" ht="21" r="44">
-      <c r="A44" s="1">
+      <c r="A44" s="2">
         <v>30011</v>
       </c>
-      <c r="B44" s="1" t="str">
+      <c r="B44" s="2" t="str">
         <v>Text_Content_11008</v>
       </c>
-      <c r="C44" s="4" t="str">
+      <c r="C44" s="3" t="str">
         <v>Victory!</v>
       </c>
-      <c r="D44" s="1" t="str">
+      <c r="D44" s="2" t="str">
         <v>胜利！</v>
       </c>
-      <c r="E44" s="1" t="str"/>
+      <c r="E44" s="2" t="str"/>
     </row>
     <row customHeight="true" ht="21" r="45">
-      <c r="A45" s="1">
+      <c r="A45" s="2">
         <v>30012</v>
       </c>
-      <c r="B45" s="1" t="str">
+      <c r="B45" s="2" t="str">
         <v>Text_Content_11009</v>
       </c>
-      <c r="C45" s="4" t="str">
+      <c r="C45" s="3" t="str">
         <v>Kill all the players {0}/{1}</v>
       </c>
-      <c r="D45" s="1" t="str">
+      <c r="D45" s="2" t="str">
         <v>击杀所有人{0}/{1}</v>
       </c>
-      <c r="E45" s="1" t="str"/>
+      <c r="E45" s="2" t="str"/>
     </row>
     <row customHeight="true" ht="21" r="46">
-      <c r="A46" s="1">
+      <c r="A46" s="2">
         <v>30013</v>
       </c>
-      <c r="B46" s="1" t="str">
+      <c r="B46" s="2" t="str">
         <v>Text_Content_11010</v>
       </c>
-      <c r="C46" s="4" t="str">
+      <c r="C46" s="3" t="str">
         <v>Kill the Murderer {0}/{1}</v>
       </c>
-      <c r="D46" s="1" t="str">
+      <c r="D46" s="2" t="str">
         <v>击杀凶手{0}/{1}</v>
       </c>
-      <c r="E46" s="1" t="str"/>
+      <c r="E46" s="2" t="str"/>
     </row>
     <row customHeight="true" ht="21" r="47">
-      <c r="A47" s="1">
+      <c r="A47" s="2">
         <v>30014</v>
       </c>
-      <c r="B47" s="1" t="str">
+      <c r="B47" s="2" t="str">
         <v>Text_Content_11011</v>
       </c>
-      <c r="C47" s="4" t="str">
+      <c r="C47" s="3" t="str">
         <v>Stay alive</v>
       </c>
-      <c r="D47" s="1" t="str">
+      <c r="D47" s="2" t="str">
         <v>活下去</v>
       </c>
-      <c r="E47" s="1" t="str"/>
+      <c r="E47" s="2" t="str"/>
     </row>
     <row customHeight="true" ht="21" r="48">
-      <c r="A48" s="1">
+      <c r="A48" s="2">
         <v>30015</v>
       </c>
-      <c r="B48" s="1" t="str">
+      <c r="B48" s="2" t="str">
         <v>Text_Content_11012</v>
       </c>
-      <c r="C48" s="4" t="str">
+      <c r="C48" s="3" t="str">
         <v>Hidden energy balls collected {0}/{1}</v>
       </c>
-      <c r="D48" s="1" t="str">
+      <c r="D48" s="2" t="str">
         <v>收集隐秘的能量球{0}/{1}</v>
       </c>
-      <c r="E48" s="1" t="str"/>
+      <c r="E48" s="2" t="str"/>
     </row>
     <row customHeight="true" ht="21" r="49">
-      <c r="A49" s="1">
+      <c r="A49" s="2">
         <v>30016</v>
       </c>
-      <c r="B49" s="1" t="str">
+      <c r="B49" s="2" t="str">
         <v>Text_Content_11013</v>
       </c>
-      <c r="C49" s="4" t="str">
+      <c r="C49" s="3" t="str">
         <v>Time's up!</v>
       </c>
-      <c r="D49" s="1" t="str">
+      <c r="D49" s="2" t="str">
         <v>时间到！</v>
       </c>
-      <c r="E49" s="1" t="str"/>
+      <c r="E49" s="2" t="str"/>
     </row>
     <row customHeight="true" ht="21" r="50">
-      <c r="A50" s="1">
+      <c r="A50" s="2">
         <v>30017</v>
       </c>
-      <c r="B50" s="1" t="str">
+      <c r="B50" s="2" t="str">
         <v>Text_Content_12001</v>
       </c>
-      <c r="C50" s="4" t="str">
+      <c r="C50" s="3" t="str">
         <v>The Murderer is on a killing spree!</v>
       </c>
-      <c r="D50" s="1" t="str">
+      <c r="D50" s="2" t="str">
         <v>凶手大杀特杀！</v>
       </c>
-      <c r="E50" s="1" t="str"/>
+      <c r="E50" s="2" t="str"/>
     </row>
     <row customHeight="true" ht="21" r="51">
-      <c r="A51" s="1">
+      <c r="A51" s="2">
         <v>30018</v>
       </c>
-      <c r="B51" s="1" t="str">
+      <c r="B51" s="2" t="str">
         <v>Text_Content_12002</v>
       </c>
-      <c r="C51" s="4" t="str">
+      <c r="C51" s="3" t="str">
         <v>The Murderer kills all the players!</v>
       </c>
-      <c r="D51" s="1" t="str">
+      <c r="D51" s="2" t="str">
         <v>凶手轻松解决了所有人！</v>
       </c>
-      <c r="E51" s="1" t="str"/>
+      <c r="E51" s="2" t="str"/>
     </row>
     <row customHeight="true" ht="21" r="52">
-      <c r="A52" s="1">
+      <c r="A52" s="2">
         <v>30019</v>
       </c>
-      <c r="B52" s="1" t="str">
+      <c r="B52" s="2" t="str">
         <v>Text_Content_12003</v>
       </c>
-      <c r="C52" s="4" t="str">
+      <c r="C52" s="3" t="str">
         <v>Detective arrested the Murderer!</v>
       </c>
-      <c r="D52" s="1" t="str">
+      <c r="D52" s="2" t="str">
         <v>侦探逮捕了凶手！</v>
       </c>
-      <c r="E52" s="1" t="str"/>
+      <c r="E52" s="2" t="str"/>
     </row>
     <row customHeight="true" ht="21" r="53">
-      <c r="A53" s="1">
+      <c r="A53" s="2">
         <v>30020</v>
       </c>
-      <c r="B53" s="1" t="str">
+      <c r="B53" s="2" t="str">
         <v>Text_Content_12004</v>
       </c>
-      <c r="C53" s="4" t="str">
+      <c r="C53" s="3" t="str">
         <v>Hero appeared and turned the tide!</v>
       </c>
-      <c r="D53" s="1" t="str">
+      <c r="D53" s="2" t="str">
         <v>一位英雄出现并逆转了局面！</v>
       </c>
-      <c r="E53" s="1" t="str"/>
+      <c r="E53" s="2" t="str"/>
     </row>
     <row customHeight="true" ht="21" r="54">
-      <c r="A54" s="1">
+      <c r="A54" s="2">
         <v>30021</v>
       </c>
-      <c r="B54" s="1" t="str">
+      <c r="B54" s="2" t="str">
         <v>Text_Content_12005</v>
       </c>
-      <c r="C54" s="4" t="str">
+      <c r="C54" s="3" t="str">
         <v>Murderer seems to be missing something...</v>
       </c>
-      <c r="D54" s="1" t="str">
+      <c r="D54" s="2" t="str">
         <v>凶手似乎遗漏了什么...</v>
       </c>
-      <c r="E54" s="1" t="str"/>
+      <c r="E54" s="2" t="str"/>
     </row>
     <row customHeight="true" ht="21" r="55">
-      <c r="A55" s="1">
+      <c r="A55" s="2">
         <v>30022</v>
       </c>
-      <c r="B55" s="1" t="str">
+      <c r="B55" s="2" t="str">
         <v>Text_Content_12006</v>
       </c>
-      <c r="C55" s="4" t="str">
+      <c r="C55" s="3" t="str">
         <v>Murderer seems to be missing something...</v>
       </c>
-      <c r="D55" s="1" t="str">
+      <c r="D55" s="2" t="str">
         <v>凶手似乎遗漏了什么...</v>
       </c>
-      <c r="E55" s="1" t="str"/>
+      <c r="E55" s="2" t="str"/>
     </row>
     <row customHeight="true" ht="21" r="56">
-      <c r="A56" s="1">
+      <c r="A56" s="2">
         <v>30023</v>
       </c>
-      <c r="B56" s="1" t="str">
+      <c r="B56" s="2" t="str">
         <v>Text_Content_20001</v>
       </c>
-      <c r="C56" s="4" t="str">
+      <c r="C56" s="3" t="str">
         <v>Murder Mystery</v>
       </c>
-      <c r="D56" s="1" t="str">
+      <c r="D56" s="2" t="str">
         <v>合宿谜团</v>
       </c>
-      <c r="E56" s="1" t="str"/>
+      <c r="E56" s="2" t="str"/>
     </row>
     <row customHeight="true" ht="21" r="57">
-      <c r="A57" s="1">
+      <c r="A57" s="2">
         <v>30024</v>
       </c>
-      <c r="B57" s="1" t="str">
+      <c r="B57" s="2" t="str">
         <v>Text_Content_20002</v>
       </c>
-      <c r="C57" s="4" t="str">
+      <c r="C57" s="3" t="str">
         <v>Start</v>
       </c>
-      <c r="D57" s="1" t="str">
+      <c r="D57" s="2" t="str">
         <v>开始</v>
       </c>
-      <c r="E57" s="1" t="str"/>
+      <c r="E57" s="2" t="str"/>
     </row>
     <row customHeight="true" ht="21" r="58">
-      <c r="A58" s="1">
+      <c r="A58" s="2">
         <v>30025</v>
       </c>
-      <c r="B58" s="1" t="str">
+      <c r="B58" s="2" t="str">
         <v>Text_Content_20003</v>
       </c>
-      <c r="C58" s="4" t="str">
+      <c r="C58" s="3" t="str">
         <v>View</v>
       </c>
-      <c r="D58" s="1" t="str">
+      <c r="D58" s="2" t="str">
         <v>观战</v>
       </c>
-      <c r="E58" s="1" t="str"/>
+      <c r="E58" s="2" t="str"/>
     </row>
     <row customHeight="true" ht="21" r="59">
-      <c r="A59" s="1">
+      <c r="A59" s="2">
         <v>30026</v>
       </c>
-      <c r="B59" s="1" t="str">
+      <c r="B59" s="2" t="str">
         <v>Text_Content_20004</v>
       </c>
-      <c r="C59" s="4" t="str">
+      <c r="C59" s="3" t="str">
         <v>View Countdown</v>
       </c>
-      <c r="D59" s="1" t="str">
+      <c r="D59" s="2" t="str">
         <v>观战倒计时</v>
       </c>
-      <c r="E59" s="1" t="str"/>
+      <c r="E59" s="2" t="str"/>
     </row>
     <row customHeight="true" ht="21" r="60">
-      <c r="A60" s="1">
+      <c r="A60" s="2">
         <v>30027</v>
       </c>
-      <c r="B60" s="1" t="str">
+      <c r="B60" s="2" t="str">
         <v>Text_Content_20005</v>
       </c>
-      <c r="C60" s="4" t="str">
+      <c r="C60" s="3" t="str">
         <v>He is playing as:</v>
       </c>
-      <c r="D60" s="1" t="str">
+      <c r="D60" s="2" t="str">
         <v>他的身份是</v>
       </c>
-      <c r="E60" s="1" t="str"/>
+      <c r="E60" s="2" t="str"/>
     </row>
     <row customHeight="true" ht="21" r="61">
-      <c r="A61" s="1">
+      <c r="A61" s="2">
         <v>30028</v>
       </c>
-      <c r="B61" s="1" t="str">
+      <c r="B61" s="2" t="str">
         <v>Text_Content_20006</v>
       </c>
-      <c r="C61" s="4" t="str">
+      <c r="C61" s="3" t="str">
         <v>Goals for your Identity</v>
       </c>
-      <c r="D61" s="1" t="str">
+      <c r="D61" s="2" t="str">
         <v>身份目标</v>
       </c>
-      <c r="E61" s="1" t="str"/>
+      <c r="E61" s="2" t="str"/>
     </row>
     <row customHeight="true" ht="21" r="62">
-      <c r="A62" s="1">
+      <c r="A62" s="2">
         <v>30029</v>
       </c>
-      <c r="B62" s="1" t="str">
+      <c r="B62" s="2" t="str">
         <v>Text_Content_20007</v>
       </c>
-      <c r="C62" s="4" t="str">
+      <c r="C62" s="3" t="str">
         <v>Start</v>
       </c>
-      <c r="D62" s="1" t="str">
+      <c r="D62" s="2" t="str">
         <v>开始</v>
       </c>
-      <c r="E62" s="1" t="str"/>
+      <c r="E62" s="2" t="str"/>
     </row>
     <row customHeight="true" ht="21" r="63">
-      <c r="A63" s="1">
+      <c r="A63" s="2">
         <v>30030</v>
       </c>
-      <c r="B63" s="1" t="str">
+      <c r="B63" s="2" t="str">
         <v>Text_Content_20008</v>
       </c>
-      <c r="C63" s="4" t="str">
+      <c r="C63" s="3" t="str">
         <v>Loading...</v>
       </c>
-      <c r="D63" s="1" t="str">
+      <c r="D63" s="2" t="str">
         <v>加载中...</v>
       </c>
-      <c r="E63" s="1" t="str"/>
+      <c r="E63" s="2" t="str"/>
     </row>
     <row customHeight="true" ht="21" r="64">
-      <c r="A64" s="1">
+      <c r="A64" s="2">
         <v>30031</v>
       </c>
-      <c r="B64" s="4" t="str">
+      <c r="B64" s="3" t="str">
         <v>Tips_Content_20002</v>
       </c>
-      <c r="C64" s="4" t="str">
+      <c r="C64" s="3" t="str">
         <v>Insufficient currency</v>
       </c>
-      <c r="D64" s="1" t="str">
+      <c r="D64" s="2" t="str">
         <v>货币不足</v>
       </c>
-      <c r="E64" s="1" t="str"/>
+      <c r="E64" s="2" t="str"/>
     </row>
     <row customHeight="true" ht="21" r="65">
-      <c r="A65" s="1">
+      <c r="A65" s="2">
         <v>30032</v>
       </c>
-      <c r="B65" s="1" t="str">
+      <c r="B65" s="2" t="str">
         <v>Text_Content_20009</v>
       </c>
-      <c r="C65" s="4" t="str">
+      <c r="C65" s="3" t="str">
         <v>Shop</v>
       </c>
-      <c r="D65" s="1" t="str">
+      <c r="D65" s="2" t="str">
         <v>商店</v>
       </c>
-      <c r="E65" s="1" t="str"/>
+      <c r="E65" s="2" t="str"/>
     </row>
     <row customHeight="true" ht="21" r="66">
-      <c r="A66" s="1">
+      <c r="A66" s="2">
         <v>30033</v>
       </c>
-      <c r="B66" s="1" t="str">
+      <c r="B66" s="2" t="str">
         <v>Text_Content_20010</v>
       </c>
-      <c r="C66" s="4" t="str">
+      <c r="C66" s="3" t="str">
         <v>For Murderers</v>
       </c>
-      <c r="D66" s="4" t="str">
+      <c r="D66" s="3" t="str">
         <v>凶手专用</v>
       </c>
-      <c r="E66" s="1" t="str"/>
+      <c r="E66" s="2" t="str"/>
     </row>
     <row customHeight="true" ht="21" r="67">
-      <c r="A67" s="1">
+      <c r="A67" s="2">
         <v>30034</v>
       </c>
-      <c r="B67" s="1" t="str">
+      <c r="B67" s="2" t="str">
         <v>Text_Content_20011</v>
       </c>
-      <c r="C67" s="4" t="str">
+      <c r="C67" s="3" t="str">
         <v>For Detectives</v>
       </c>
-      <c r="D67" s="4" t="str">
+      <c r="D67" s="3" t="str">
         <v>侦探专用</v>
       </c>
-      <c r="E67" s="1" t="str"/>
+      <c r="E67" s="2" t="str"/>
     </row>
     <row customHeight="true" ht="21" r="68">
-      <c r="A68" s="1">
+      <c r="A68" s="2">
         <v>30035</v>
       </c>
-      <c r="B68" s="1" t="str">
+      <c r="B68" s="2" t="str">
         <v>Text_Content_20012</v>
       </c>
-      <c r="C68" s="4" t="str">
+      <c r="C68" s="3" t="str">
         <v>Gun</v>
       </c>
-      <c r="D68" s="1" t="str">
+      <c r="D68" s="2" t="str">
         <v>枪</v>
       </c>
-      <c r="E68" s="1" t="str"/>
+      <c r="E68" s="2" t="str"/>
     </row>
     <row customHeight="true" ht="21" r="69">
-      <c r="A69" s="1">
+      <c r="A69" s="2">
         <v>30036</v>
       </c>
-      <c r="B69" s="1" t="str">
+      <c r="B69" s="2" t="str">
         <v>Text_Content_20013</v>
       </c>
-      <c r="C69" s="4" t="str">
+      <c r="C69" s="3" t="str">
         <v>Knife</v>
       </c>
-      <c r="D69" s="1" t="str">
+      <c r="D69" s="2" t="str">
         <v>刀</v>
       </c>
-      <c r="E69" s="1" t="str"/>
+      <c r="E69" s="2" t="str"/>
     </row>
     <row customHeight="true" ht="21" r="70">
-      <c r="A70" s="1">
+      <c r="A70" s="2">
         <v>30037</v>
       </c>
-      <c r="B70" s="1" t="str">
+      <c r="B70" s="2" t="str">
         <v>Text_Content_20014</v>
       </c>
-      <c r="C70" s="4" t="str">
+      <c r="C70" s="3" t="str">
         <v>Acc</v>
       </c>
-      <c r="D70" s="1" t="str">
+      <c r="D70" s="2" t="str">
         <v>挂件</v>
       </c>
-      <c r="E70" s="1" t="str"/>
+      <c r="E70" s="2" t="str"/>
     </row>
     <row customHeight="true" ht="21" r="71">
-      <c r="A71" s="1">
+      <c r="A71" s="2">
         <v>30038</v>
       </c>
-      <c r="B71" s="1" t="str">
+      <c r="B71" s="2" t="str">
         <v>Text_Content_20015</v>
       </c>
-      <c r="C71" s="4" t="str">
+      <c r="C71" s="3" t="str">
         <v>Buy</v>
       </c>
-      <c r="D71" s="4" t="str">
+      <c r="D71" s="3" t="str">
         <v>购买</v>
       </c>
-      <c r="E71" s="1" t="str"/>
+      <c r="E71" s="2" t="str"/>
     </row>
     <row customHeight="true" ht="21" r="72">
-      <c r="A72" s="1">
+      <c r="A72" s="2">
         <v>30039</v>
       </c>
-      <c r="B72" s="1" t="str">
+      <c r="B72" s="2" t="str">
         <v>Text_Content_20016</v>
       </c>
-      <c r="C72" s="4" t="str">
+      <c r="C72" s="3" t="str">
         <v>Use</v>
       </c>
-      <c r="D72" s="3" t="str">
+      <c r="D72" s="4" t="str">
         <v>使用</v>
       </c>
-      <c r="E72" s="1" t="str"/>
+      <c r="E72" s="2" t="str"/>
     </row>
     <row customHeight="true" ht="21" r="73">
-      <c r="A73" s="1">
+      <c r="A73" s="2">
         <v>30040</v>
       </c>
-      <c r="B73" s="1" t="str">
+      <c r="B73" s="2" t="str">
         <v>Text_Content_20017</v>
       </c>
-      <c r="C73" s="4" t="str">
+      <c r="C73" s="3" t="str">
         <v>Take Off</v>
       </c>
-      <c r="D73" s="1" t="str">
+      <c r="D73" s="2" t="str">
         <v>脱下</v>
       </c>
-      <c r="E73" s="1" t="str"/>
+      <c r="E73" s="2" t="str"/>
     </row>
     <row customHeight="true" ht="21" r="74">
-      <c r="A74" s="1">
+      <c r="A74" s="2">
         <v>30041</v>
       </c>
-      <c r="B74" s="1" t="str">
+      <c r="B74" s="2" t="str">
         <v>Text_Content_20018</v>
       </c>
-      <c r="C74" s="4" t="str">
+      <c r="C74" s="3" t="str">
         <v>Buy Items</v>
       </c>
-      <c r="D74" s="1" t="str">
+      <c r="D74" s="2" t="str">
         <v>购买物品</v>
       </c>
-      <c r="E74" s="1" t="str"/>
+      <c r="E74" s="2" t="str"/>
     </row>
     <row customHeight="true" ht="21" r="75">
-      <c r="A75" s="1">
+      <c r="A75" s="2">
         <v>30042</v>
       </c>
-      <c r="B75" s="1" t="str">
+      <c r="B75" s="2" t="str">
         <v>Text_Content_20019</v>
       </c>
-      <c r="C75" s="4" t="str">
+      <c r="C75" s="3" t="str">
         <v>For the Murderers</v>
       </c>
-      <c r="D75" s="4" t="str">
+      <c r="D75" s="3" t="str">
         <v>凶手专用</v>
       </c>
-      <c r="E75" s="1" t="str"/>
+      <c r="E75" s="2" t="str"/>
     </row>
     <row customHeight="true" ht="21" r="76">
-      <c r="A76" s="1">
+      <c r="A76" s="2">
         <v>30043</v>
       </c>
-      <c r="B76" s="1" t="str">
+      <c r="B76" s="2" t="str">
         <v>Text_Content_20020</v>
       </c>
-      <c r="C76" s="4" t="str">
+      <c r="C76" s="3" t="str">
         <v>For Detectives</v>
       </c>
-      <c r="D76" s="4" t="str">
+      <c r="D76" s="3" t="str">
         <v>侦探专用</v>
       </c>
-      <c r="E76" s="1" t="str"/>
+      <c r="E76" s="2" t="str"/>
     </row>
     <row customHeight="true" ht="21" r="77">
-      <c r="A77" s="1">
+      <c r="A77" s="2">
         <v>30044</v>
       </c>
-      <c r="B77" s="1" t="str">
+      <c r="B77" s="2" t="str">
         <v>Text_Content_20021</v>
       </c>
-      <c r="C77" s="4" t="str">
+      <c r="C77" s="3" t="str">
         <v>Confirm</v>
       </c>
-      <c r="D77" s="1" t="str">
+      <c r="D77" s="2" t="str">
         <v>确定</v>
       </c>
-      <c r="E77" s="1" t="str"/>
+      <c r="E77" s="2" t="str"/>
     </row>
     <row customHeight="true" ht="21" r="78">
-      <c r="A78" s="1">
+      <c r="A78" s="2">
         <v>30045</v>
       </c>
-      <c r="B78" s="1" t="str">
+      <c r="B78" s="2" t="str">
         <v>Text_Content_20022</v>
       </c>
-      <c r="C78" s="4" t="str">
+      <c r="C78" s="3" t="str">
         <v>Cancel</v>
       </c>
-      <c r="D78" s="1" t="str">
+      <c r="D78" s="2" t="str">
         <v>取消</v>
       </c>
-      <c r="E78" s="1" t="str"/>
+      <c r="E78" s="2" t="str"/>
     </row>
     <row customHeight="true" ht="21" r="79">
-      <c r="A79" s="1">
+      <c r="A79" s="2">
         <v>30046</v>
       </c>
-      <c r="B79" s="1" t="str">
+      <c r="B79" s="2" t="str">
         <v>Text_Content_20023</v>
       </c>
-      <c r="C79" s="4" t="str">
+      <c r="C79" s="3" t="str">
         <v>Tap anywhere to go back</v>
       </c>
-      <c r="D79" s="4" t="str">
+      <c r="D79" s="3" t="str">
         <v>点击任意一处返回</v>
       </c>
-      <c r="E79" s="1" t="str"/>
+      <c r="E79" s="2" t="str"/>
     </row>
     <row customHeight="true" ht="21" r="80">
-      <c r="A80" s="1">
+      <c r="A80" s="2">
         <v>30047</v>
       </c>
-      <c r="B80" s="1" t="str">
+      <c r="B80" s="2" t="str">
         <v>Text_Content_20024</v>
       </c>
-      <c r="C80" s="4" t="str">
+      <c r="C80" s="3" t="str">
         <v>Purchase Successfully</v>
       </c>
-      <c r="D80" s="4" t="str">
+      <c r="D80" s="3" t="str">
         <v>购买成功</v>
       </c>
-      <c r="E80" s="1" t="str"/>
+      <c r="E80" s="2" t="str"/>
     </row>
     <row customHeight="true" ht="21" r="81">
-      <c r="A81" s="1">
+      <c r="A81" s="2">
         <v>30048</v>
       </c>
-      <c r="B81" s="1" t="str">
+      <c r="B81" s="2" t="str">
         <v>Text_Content_20025</v>
       </c>
-      <c r="C81" s="4" t="str">
+      <c r="C81" s="3" t="str">
         <v>Use</v>
       </c>
-      <c r="D81" s="3" t="str">
+      <c r="D81" s="4" t="str">
         <v>使用</v>
       </c>
-      <c r="E81" s="1" t="str"/>
+      <c r="E81" s="2" t="str"/>
     </row>
     <row customHeight="true" ht="21" r="82">
-      <c r="A82" s="1">
+      <c r="A82" s="2">
         <v>30049</v>
       </c>
-      <c r="B82" s="2" t="str">
+      <c r="B82" s="5" t="str">
         <v>Text_Content_10301</v>
       </c>
-      <c r="C82" s="2" t="str">
+      <c r="C82" s="5" t="str">
         <v>Please select a map to play</v>
       </c>
-      <c r="D82" s="2" t="str">
+      <c r="D82" s="5" t="str">
         <v>请选择要游玩的地图</v>
       </c>
-      <c r="E82" s="1" t="str"/>
+      <c r="E82" s="2" t="str"/>
     </row>
     <row customHeight="true" ht="21" r="83">
-      <c r="A83" s="1">
+      <c r="A83" s="2">
         <v>30050</v>
       </c>
-      <c r="B83" s="2" t="str">
+      <c r="B83" s="5" t="str">
         <v>Text_Content_10302</v>
       </c>
-      <c r="C83" s="2" t="str">
+      <c r="C83" s="5" t="str">
         <v>Map Selected</v>
       </c>
-      <c r="D83" s="2" t="str">
+      <c r="D83" s="5" t="str">
         <v>地图已选出</v>
       </c>
-      <c r="E83" s="1" t="str"/>
+      <c r="E83" s="2" t="str"/>
     </row>
     <row customHeight="true" ht="21" r="84">
-      <c r="A84" s="1">
+      <c r="A84" s="2">
         <v>30051</v>
       </c>
-      <c r="B84" s="2" t="str">
+      <c r="B84" s="5" t="str">
         <v>Text_Content_10004</v>
       </c>
-      <c r="C84" s="2" t="str">
+      <c r="C84" s="5" t="str">
         <v>Randomizing</v>
       </c>
-      <c r="D84" s="2" t="str">
+      <c r="D84" s="5" t="str">
         <v>随机地图中</v>
       </c>
-      <c r="E84" s="1" t="str"/>
+      <c r="E84" s="2" t="str"/>
     </row>
     <row customHeight="true" ht="21" r="85">
-      <c r="A85" s="1">
+      <c r="A85" s="2">
         <v>30052</v>
       </c>
-      <c r="B85" s="2" t="str">
+      <c r="B85" s="5" t="str">
         <v>Text_Content_20029</v>
       </c>
-      <c r="C85" s="2" t="str">
+      <c r="C85" s="5" t="str">
         <v>Trail</v>
       </c>
-      <c r="D85" s="3" t="str">
+      <c r="D85" s="4" t="str">
         <v>拖尾</v>
       </c>
-      <c r="E85" s="1"/>
+      <c r="E85" s="2"/>
     </row>
     <row customHeight="true" ht="21" r="86">
-      <c r="A86" s="1">
+      <c r="A86" s="2">
         <v>30053</v>
       </c>
-      <c r="B86" s="2" t="str">
+      <c r="B86" s="5" t="str">
         <v>Text_Content_20030</v>
       </c>
-      <c r="C86" s="2" t="str">
+      <c r="C86" s="5" t="str">
         <v>Get it for free</v>
       </c>
-      <c r="D86" s="3" t="str">
+      <c r="D86" s="4" t="str">
         <v>免费领取</v>
       </c>
-      <c r="E86" s="1" t="str"/>
+      <c r="E86" s="2" t="str"/>
     </row>
     <row customHeight="true" ht="21" r="87">
-      <c r="A87" s="1">
+      <c r="A87" s="2">
         <v>30054</v>
       </c>
-      <c r="B87" s="2" t="str">
+      <c r="B87" s="5" t="str">
         <v>Text_Content_20031</v>
       </c>
-      <c r="C87" s="2" t="str">
+      <c r="C87" s="5" t="str">
         <v>Watch ads to get extra rewards</v>
       </c>
-      <c r="D87" s="3" t="str">
+      <c r="D87" s="4" t="str">
         <v>观看广告领取额外奖励</v>
       </c>
-      <c r="E87" s="1" t="str"/>
+      <c r="E87" s="2" t="str"/>
     </row>
     <row customHeight="true" ht="21" r="88">
-      <c r="A88" s="1">
+      <c r="A88" s="2">
         <v>30055</v>
       </c>
-      <c r="B88" s="2" t="str">
+      <c r="B88" s="5" t="str">
         <v>Text_Content_20032</v>
       </c>
-      <c r="C88" s="2" t="str">
+      <c r="C88" s="5" t="str">
         <v>Watch the ad to receive compensation</v>
       </c>
-      <c r="D88" s="2" t="str">
+      <c r="D88" s="5" t="str">
         <v>观看广告领取补偿</v>
       </c>
-      <c r="E88" s="1" t="str"/>
+      <c r="E88" s="2" t="str"/>
     </row>
     <row customHeight="true" ht="21" r="89">
-      <c r="A89" s="1">
+      <c r="A89" s="2">
         <v>30056</v>
       </c>
-      <c r="B89" s="2" t="str">
+      <c r="B89" s="5" t="str">
         <v>Text_Content_20033</v>
       </c>
-      <c r="C89" s="2" t="str">
+      <c r="C89" s="5" t="str">
         <v>Congratulations on receiving</v>
       </c>
-      <c r="D89" s="3" t="str">
+      <c r="D89" s="4" t="str">
         <v>恭喜获得</v>
       </c>
-      <c r="E89" s="1" t="str"/>
+      <c r="E89" s="2" t="str"/>
     </row>
     <row customHeight="true" ht="21" r="90">
-      <c r="A90" s="1">
+      <c r="A90" s="2">
         <v>30057</v>
       </c>
-      <c r="B90" s="2" t="str">
+      <c r="B90" s="5" t="str">
         <v>Tips_Content_20003</v>
       </c>
-      <c r="C90" s="2" t="str">
+      <c r="C90" s="5" t="str">
         <v>It's not ready yet, please wait a little longer to get it~</v>
       </c>
-      <c r="D90" s="3" t="str">
+      <c r="D90" s="4" t="str">
         <v>时间还没到，再等一下才能获得哦~</v>
       </c>
-      <c r="E90" s="1" t="str"/>
+      <c r="E90" s="2" t="str"/>
     </row>
     <row customHeight="true" ht="21" r="91">
-      <c r="A91" s="1">
+      <c r="A91" s="2">
         <v>30058</v>
       </c>
-      <c r="B91" s="2" t="str">
+      <c r="B91" s="5" t="str">
         <v>Tips_Content_20004</v>
       </c>
-      <c r="C91" s="2" t="str">
+      <c r="C91" s="5" t="str">
         <v>You've already received plenty of rewards today, so please come back tomorrow~</v>
       </c>
-      <c r="D91" s="3" t="str">
+      <c r="D91" s="4" t="str">
         <v>今天已经得到很多奖励了，明天再来吧~</v>
       </c>
-      <c r="E91" s="1" t="str"/>
+      <c r="E91" s="2" t="str"/>
     </row>
     <row customHeight="true" ht="21" r="92">
-      <c r="A92" s="1">
+      <c r="A92" s="2">
         <v>30059</v>
       </c>
-      <c r="B92" s="2" t="str">
+      <c r="B92" s="5" t="str">
         <v>Text_Content_11014</v>
       </c>
-      <c r="C92" s="2" t="str">
+      <c r="C92" s="5" t="str">
         <v>Available</v>
       </c>
-      <c r="D92" s="3" t="str">
+      <c r="D92" s="4" t="str">
         <v>待拾取</v>
       </c>
-      <c r="E92" s="1"/>
+      <c r="E92" s="2"/>
     </row>
     <row customHeight="true" ht="21" r="93">
-      <c r="A93" s="1">
+      <c r="A93" s="2">
         <v>30060</v>
       </c>
-      <c r="B93" s="2" t="str">
+      <c r="B93" s="5" t="str">
         <v>Text_Content_11015</v>
       </c>
-      <c r="C93" s="2" t="str">
+      <c r="C93" s="5" t="str">
         <v>Exist</v>
       </c>
-      <c r="D93" s="3" t="str">
+      <c r="D93" s="4" t="str">
         <v>存在</v>
       </c>
-      <c r="E93" s="1"/>
+      <c r="E93" s="2"/>
     </row>
     <row customHeight="true" ht="21" r="94">
-      <c r="A94" s="1">
+      <c r="A94" s="2">
         <v>30061</v>
       </c>
-      <c r="B94" s="2" t="str">
+      <c r="B94" s="5" t="str">
         <v>Text_Content_11016</v>
       </c>
-      <c r="C94" s="2" t="str">
+      <c r="C94" s="5" t="str">
         <v>Survival experience +{0}EXP</v>
       </c>
-      <c r="D94" s="3" t="str">
+      <c r="D94" s="4" t="str">
         <v>存活经验+{0}EXP</v>
       </c>
-      <c r="E94" s="1"/>
+      <c r="E94" s="2"/>
     </row>
     <row customHeight="true" ht="21" r="95">
-      <c r="A95" s="1">
+      <c r="A95" s="2">
         <v>30062</v>
       </c>
-      <c r="B95" s="2" t="str">
+      <c r="B95" s="5" t="str">
         <v>Text_Content_12007</v>
       </c>
-      <c r="C95" s="2" t="str">
+      <c r="C95" s="5" t="str">
         <v>Reward</v>
       </c>
-      <c r="D95" s="2" t="str">
+      <c r="D95" s="5" t="str">
         <v>奖励</v>
       </c>
-      <c r="E95" s="1" t="str"/>
+      <c r="E95" s="2" t="str"/>
     </row>
     <row customHeight="true" ht="21" r="96">
-      <c r="A96" s="1">
+      <c r="A96" s="2">
         <v>30063</v>
       </c>
-      <c r="B96" s="4" t="str">
+      <c r="B96" s="3" t="str">
         <v>Text_Content_12008</v>
       </c>
-      <c r="C96" s="4" t="str">
+      <c r="C96" s="3" t="str">
         <v>Identity</v>
       </c>
-      <c r="D96" s="4" t="str">
+      <c r="D96" s="3" t="str">
         <v>本局身份</v>
       </c>
-      <c r="E96" s="1" t="str"/>
+      <c r="E96" s="2" t="str"/>
     </row>
     <row customHeight="true" ht="21" r="97">
-      <c r="A97" s="1">
+      <c r="A97" s="2">
         <v>30064</v>
       </c>
-      <c r="B97" s="4" t="str">
+      <c r="B97" s="3" t="str">
         <v>Text_Content_12009</v>
       </c>
-      <c r="C97" s="4" t="str">
+      <c r="C97" s="3" t="str">
         <v>Coins</v>
       </c>
-      <c r="D97" s="4" t="str">
+      <c r="D97" s="3" t="str">
         <v>收集金币</v>
       </c>
-      <c r="E97" s="1" t="str"/>
+      <c r="E97" s="2" t="str"/>
     </row>
     <row customHeight="true" ht="21" r="98">
-      <c r="A98" s="1">
+      <c r="A98" s="2">
         <v>30065</v>
       </c>
-      <c r="B98" s="4" t="str">
+      <c r="B98" s="3" t="str">
         <v>Text_Content_12010</v>
       </c>
-      <c r="C98" s="4" t="str">
+      <c r="C98" s="3" t="str">
         <v>Defeats {0}</v>
       </c>
-      <c r="D98" s="4" t="str">
+      <c r="D98" s="3" t="str">
         <v>消灭了{0}名学生！</v>
       </c>
-      <c r="E98" s="1" t="str"/>
+      <c r="E98" s="2" t="str"/>
     </row>
     <row customHeight="true" ht="21" r="99">
-      <c r="A99" s="1">
+      <c r="A99" s="2">
         <v>30066</v>
       </c>
-      <c r="B99" s="4" t="str">
+      <c r="B99" s="3" t="str">
         <v>Text_Content_12011</v>
       </c>
-      <c r="C99" s="4" t="str">
+      <c r="C99" s="3" t="str">
         <v>Survived for {0}mins {1} s</v>
       </c>
-      <c r="D99" s="4" t="str">
+      <c r="D99" s="3" t="str">
         <v>已存活{0}分{1}秒</v>
       </c>
-      <c r="E99" s="1" t="str"/>
+      <c r="E99" s="2" t="str"/>
     </row>
     <row customHeight="true" ht="21" r="100">
-      <c r="A100" s="1">
+      <c r="A100" s="2">
         <v>30067</v>
       </c>
-      <c r="B100" s="4" t="str">
+      <c r="B100" s="3" t="str">
         <v>Text_Content_12012</v>
       </c>
-      <c r="C100" s="4" t="str">
+      <c r="C100" s="3" t="str">
         <v>Saved {0} Students</v>
       </c>
-      <c r="D100" s="4" t="str">
+      <c r="D100" s="3" t="str">
         <v>拯救了{0}位学生</v>
       </c>
-      <c r="E100" s="1" t="str"/>
+      <c r="E100" s="2" t="str"/>
     </row>
     <row customHeight="true" ht="21" r="101">
-      <c r="A101" s="1">
+      <c r="A101" s="2">
         <v>30068</v>
       </c>
-      <c r="B101" s="4" t="str">
+      <c r="B101" s="3" t="str">
         <v>Text_Content_12013</v>
       </c>
-      <c r="C101" s="4" t="str">
+      <c r="C101" s="3" t="str">
         <v>Saved {0} Students</v>
       </c>
-      <c r="D101" s="4" t="str">
+      <c r="D101" s="3" t="str">
         <v>拯救了{0}位学生</v>
       </c>
-      <c r="E101" s="1" t="str"/>
+      <c r="E101" s="2" t="str"/>
     </row>
     <row customHeight="true" ht="21" r="102">
-      <c r="A102" s="1">
+      <c r="A102" s="2">
         <v>30069</v>
       </c>
-      <c r="B102" s="4" t="str">
+      <c r="B102" s="3" t="str">
         <v>Text_Content_12014</v>
       </c>
-      <c r="C102" s="15" t="str">
+      <c r="C102" s="34" t="str">
         <v>× 1.5 (Bonus)</v>
       </c>
-      <c r="D102" s="4" t="str">
+      <c r="D102" s="3" t="str">
         <v>× 1.5 ( 胜利奖励)</v>
       </c>
-      <c r="E102" s="1" t="str"/>
+      <c r="E102" s="2" t="str"/>
     </row>
     <row customHeight="true" ht="21" r="103">
-      <c r="A103" s="1">
+      <c r="A103" s="2">
         <v>30070</v>
       </c>
-      <c r="B103" s="4" t="str">
+      <c r="B103" s="3" t="str">
         <v>Text_Content_12015</v>
       </c>
-      <c r="C103" s="15" t="str">
+      <c r="C103" s="34" t="str">
         <v>+ 900 (Bonus )</v>
       </c>
-      <c r="D103" s="4" t="str">
+      <c r="D103" s="3" t="str">
         <v>+ 900 ( 胜利奖励)</v>
       </c>
-      <c r="E103" s="1" t="str"/>
+      <c r="E103" s="2" t="str"/>
     </row>
     <row customHeight="true" ht="21" r="104">
-      <c r="A104" s="1">
+      <c r="A104" s="2">
         <v>30071</v>
       </c>
-      <c r="B104" s="4" t="str">
+      <c r="B104" s="3" t="str">
         <v>Text_Content_12016</v>
       </c>
-      <c r="C104" s="4" t="str">
+      <c r="C104" s="3" t="str">
         <v>Watch ads to get double coins!</v>
       </c>
-      <c r="D104" s="4" t="str">
+      <c r="D104" s="3" t="str">
         <v>观看广告，获得双倍金币！</v>
       </c>
-      <c r="E104" s="1" t="str">
+      <c r="E104" s="2" t="str">
         <v>UI按钮上的文字</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="105">
-      <c r="A105" s="1">
+      <c r="A105" s="2">
         <v>30072</v>
       </c>
-      <c r="B105" s="4" t="str">
+      <c r="B105" s="3" t="str">
         <v>Text_Content_12017</v>
       </c>
-      <c r="C105" s="4" t="str">
+      <c r="C105" s="3" t="str">
         <v>GET</v>
       </c>
-      <c r="D105" s="4" t="str">
+      <c r="D105" s="3" t="str">
         <v>观看</v>
       </c>
-      <c r="E105" s="1" t="str">
+      <c r="E105" s="2" t="str">
         <v>UI按钮上的文字</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="106">
-      <c r="A106" s="3">
+      <c r="A106" s="4">
         <v>30073</v>
       </c>
-      <c r="B106" s="2" t="str">
+      <c r="B106" s="5" t="str">
         <v>Text_Content_12018</v>
       </c>
-      <c r="C106" s="2" t="str">
+      <c r="C106" s="5" t="str">
         <v>Lottery</v>
       </c>
-      <c r="D106" s="2" t="str">
+      <c r="D106" s="5" t="str">
         <v>抽奖</v>
       </c>
-      <c r="E106" s="3" t="str">
+      <c r="E106" s="4" t="str">
         <v>UI按钮上的文字</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="107">
-      <c r="A107" s="3">
+      <c r="A107" s="4">
         <v>30074</v>
       </c>
-      <c r="B107" s="2" t="str">
+      <c r="B107" s="5" t="str">
         <v>Text_Content_12019</v>
       </c>
-      <c r="C107" s="2" t="str">
+      <c r="C107" s="5" t="str">
         <v>Weapon Box</v>
       </c>
-      <c r="D107" s="2" t="str">
+      <c r="D107" s="5" t="str">
         <v>武器箱</v>
       </c>
-      <c r="E107" s="3" t="str">
+      <c r="E107" s="4" t="str">
         <v>UI按钮上的文字</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="108">
-      <c r="A108" s="3">
+      <c r="A108" s="4">
         <v>30075</v>
       </c>
-      <c r="B108" s="2" t="str">
+      <c r="B108" s="5" t="str">
         <v>Text_Content_12020</v>
       </c>
-      <c r="C108" s="2" t="str">
+      <c r="C108" s="5" t="str">
         <v>Watch the ad for a free draw</v>
       </c>
-      <c r="D108" s="2" t="str">
+      <c r="D108" s="5" t="str">
         <v>观看广告，免费抽奖一次</v>
       </c>
-      <c r="E108" s="3" t="str">
+      <c r="E108" s="4" t="str">
         <v>UI按钮上的文字</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="109">
-      <c r="A109" s="3">
+      <c r="A109" s="4">
         <v>30076</v>
       </c>
-      <c r="B109" s="2" t="str">
+      <c r="B109" s="5" t="str">
         <v>Text_Content_12021</v>
       </c>
-      <c r="C109" s="2" t="str">
+      <c r="C109" s="5" t="str">
         <v>Until the next free draw:</v>
       </c>
-      <c r="D109" s="2" t="str">
+      <c r="D109" s="5" t="str">
         <v>距离下次免费：</v>
       </c>
-      <c r="E109" s="3" t="str">
+      <c r="E109" s="4" t="str">
         <v>UI按钮上的文字</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="110">
-      <c r="A110" s="3">
+      <c r="A110" s="4">
         <v>30077</v>
       </c>
-      <c r="B110" s="2" t="str">
+      <c r="B110" s="5" t="str">
         <v>Text_Content_12022</v>
       </c>
-      <c r="C110" s="2" t="str">
+      <c r="C110" s="5" t="str">
         <v>Your draws</v>
       </c>
-      <c r="D110" s="2" t="str">
+      <c r="D110" s="5" t="str">
         <v>累计抽奖</v>
       </c>
-      <c r="E110" s="3" t="str">
+      <c r="E110" s="4" t="str">
         <v>UI按钮上的文字</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="111">
-      <c r="A111" s="3">
+      <c r="A111" s="4">
         <v>30078</v>
       </c>
-      <c r="B111" s="2" t="str">
+      <c r="B111" s="5" t="str">
         <v>Text_Content_12023</v>
       </c>
-      <c r="C111" s="2" t="str">
+      <c r="C111" s="5" t="str">
         <v>Next time you will get a RED quality weapon</v>
       </c>
-      <c r="D111" s="2" t="str">
+      <c r="D111" s="5" t="str">
         <v>下次必得红色品质武器</v>
       </c>
-      <c r="E111" s="3" t="str">
+      <c r="E111" s="4" t="str">
         <v>UI按钮上的文字</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="112">
-      <c r="A112" s="3">
+      <c r="A112" s="4">
         <v>30079</v>
       </c>
-      <c r="B112" s="2" t="str">
+      <c r="B112" s="5" t="str">
         <v>Text_Content_12024</v>
       </c>
-      <c r="C112" s="2" t="str">
+      <c r="C112" s="5" t="str">
         <v>Box opening...</v>
       </c>
-      <c r="D112" s="2" t="str">
+      <c r="D112" s="5" t="str">
         <v>正在打开箱子...</v>
       </c>
-      <c r="E112" s="3" t="str">
+      <c r="E112" s="4" t="str">
         <v>UI按钮上的文字</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="113">
-      <c r="A113" s="3">
+      <c r="A113" s="4">
         <v>30080</v>
       </c>
-      <c r="B113" s="2" t="str">
+      <c r="B113" s="5" t="str">
         <v>Text_Content_12025</v>
       </c>
-      <c r="C113" s="2" t="str">
+      <c r="C113" s="5" t="str">
         <v>Congratulations!</v>
       </c>
-      <c r="D113" s="2" t="str">
+      <c r="D113" s="5" t="str">
         <v>恭喜获得</v>
       </c>
-      <c r="E113" s="3" t="str">
+      <c r="E113" s="4" t="str">
         <v>UI按钮上的文字</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="114">
-      <c r="A114" s="3">
+      <c r="A114" s="4">
         <v>30081</v>
       </c>
-      <c r="B114" s="2" t="str">
+      <c r="B114" s="5" t="str">
         <v>Text_Content_12026</v>
       </c>
-      <c r="C114" s="2" t="str">
+      <c r="C114" s="5" t="str">
         <v>Owned, automatically recycled to gold coins</v>
       </c>
-      <c r="D114" s="2" t="str">
+      <c r="D114" s="5" t="str">
         <v>已拥有，自动回收为金币</v>
       </c>
-      <c r="E114" s="3" t="str">
+      <c r="E114" s="4" t="str">
         <v>UI按钮上的文字</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="115">
-      <c r="A115" s="3">
+      <c r="A115" s="4">
         <v>30082</v>
       </c>
-      <c r="B115" s="2" t="str">
+      <c r="B115" s="5" t="str">
         <v>Text_Content_11017</v>
       </c>
-      <c r="C115" s="2" t="str">
+      <c r="C115" s="5" t="str">
         <v>Defeat everyone and leave no one out!</v>
       </c>
-      <c r="D115" s="3" t="str">
+      <c r="D115" s="4" t="str">
         <v>击败所有人，一个也不要放过！</v>
       </c>
-      <c r="E115" s="3"/>
+      <c r="E115" s="4"/>
     </row>
     <row customHeight="true" ht="21" r="116">
-      <c r="A116" s="3">
+      <c r="A116" s="4">
         <v>30083</v>
       </c>
-      <c r="B116" s="2" t="str">
+      <c r="B116" s="5" t="str">
         <v>Text_Content_11018</v>
       </c>
-      <c r="C116" s="2" t="str">
+      <c r="C116" s="5" t="str">
         <v>You are Detective, defeat the Murderer!</v>
       </c>
-      <c r="D116" s="3" t="str">
+      <c r="D116" s="4" t="str">
         <v>你是侦探，寻找凶手并击败他！</v>
       </c>
-      <c r="E116" s="3"/>
+      <c r="E116" s="4"/>
     </row>
     <row customHeight="true" ht="21" r="117">
-      <c r="A117" s="3">
+      <c r="A117" s="4">
         <v>30084</v>
       </c>
-      <c r="B117" s="2" t="str">
+      <c r="B117" s="5" t="str">
         <v>Text_Content_11019</v>
       </c>
-      <c r="C117" s="2" t="str">
+      <c r="C117" s="5" t="str">
         <v>You're the Hero, find the Murderer and defeat him!</v>
       </c>
-      <c r="D117" s="3" t="str">
+      <c r="D117" s="4" t="str">
         <v>你化身英雄，找到凶手击败他！</v>
       </c>
-      <c r="E117" s="3"/>
+      <c r="E117" s="4"/>
     </row>
     <row customHeight="true" ht="21" r="118">
-      <c r="A118" s="3">
+      <c r="A118" s="4">
         <v>30085</v>
       </c>
-      <c r="B118" s="2" t="str">
+      <c r="B118" s="5" t="str">
         <v>Text_Content_11020</v>
       </c>
-      <c r="C118" s="2" t="str">
+      <c r="C118" s="5" t="str">
         <v>Survive...</v>
       </c>
-      <c r="D118" s="3" t="str">
+      <c r="D118" s="4" t="str">
         <v>活下去...</v>
       </c>
-      <c r="E118" s="3"/>
+      <c r="E118" s="4"/>
     </row>
     <row customHeight="true" ht="21" r="119">
-      <c r="A119" s="3">
+      <c r="A119" s="4">
         <v>30086</v>
       </c>
-      <c r="B119" s="2" t="str">
+      <c r="B119" s="5" t="str">
         <v>Text_Content_20034</v>
       </c>
-      <c r="C119" s="2" t="str">
+      <c r="C119" s="5" t="str">
         <v>Terminator!</v>
       </c>
-      <c r="D119" s="3" t="str">
+      <c r="D119" s="4" t="str">
         <v>本轮终结者！</v>
       </c>
-      <c r="E119" s="3"/>
+      <c r="E119" s="4"/>
     </row>
     <row customHeight="true" ht="21" r="120">
-      <c r="A120" s="3">
+      <c r="A120" s="4">
         <v>30087</v>
       </c>
-      <c r="B120" s="2" t="str">
+      <c r="B120" s="5" t="str">
         <v>Text_Content_20035</v>
       </c>
-      <c r="C120" s="2" t="str">
+      <c r="C120" s="5" t="str">
         <v>Lottery</v>
       </c>
-      <c r="D120" s="3" t="str">
+      <c r="D120" s="4" t="str">
         <v>抽奖获得</v>
       </c>
-      <c r="E120" s="3"/>
+      <c r="E120" s="4"/>
     </row>
     <row customHeight="true" ht="21" r="121">
-      <c r="A121" s="1">
+      <c r="A121" s="2">
         <v>40001</v>
       </c>
-      <c r="B121" s="1" t="str">
+      <c r="B121" s="2" t="str">
         <v>Tips_Content_10001</v>
       </c>
-      <c r="C121" s="4" t="str">
+      <c r="C121" s="3" t="str">
         <v>Please pick up your weapon first!</v>
       </c>
-      <c r="D121" s="1" t="str">
+      <c r="D121" s="2" t="str">
         <v>请先拿出武器！</v>
       </c>
-      <c r="E121" s="1" t="str">
+      <c r="E121" s="2" t="str">
         <v>40000：提示表</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="122">
-      <c r="A122" s="1">
+      <c r="A122" s="2">
         <v>40002</v>
       </c>
-      <c r="B122" s="1" t="str">
+      <c r="B122" s="2" t="str">
         <v>Tips_Content_10002</v>
       </c>
-      <c r="C122" s="4" t="str">
+      <c r="C122" s="3" t="str">
         <v>You are a Hero now! Pick up your weapon and attack!</v>
       </c>
-      <c r="D122" s="1" t="str">
+      <c r="D122" s="2" t="str">
         <v>变成了英雄！可以拿出武器攻击了！</v>
       </c>
-      <c r="E122" s="1" t="str"/>
+      <c r="E122" s="2" t="str"/>
     </row>
     <row customHeight="true" ht="21" r="123">
-      <c r="A123" s="1">
+      <c r="A123" s="2">
         <v>40003</v>
       </c>
-      <c r="B123" s="1" t="str">
+      <c r="B123" s="2" t="str">
         <v>Tips_Content_10003</v>
       </c>
-      <c r="C123" s="4" t="str">
+      <c r="C123" s="3" t="str">
         <v>Energy balls collected +1~</v>
       </c>
-      <c r="D123" s="1" t="str">
+      <c r="D123" s="2" t="str">
         <v>收集能量球数量+1~</v>
       </c>
-      <c r="E123" s="1" t="str"/>
+      <c r="E123" s="2" t="str"/>
     </row>
     <row customHeight="true" ht="21" r="124">
-      <c r="A124" s="1">
+      <c r="A124" s="2">
         <v>40004</v>
       </c>
-      <c r="B124" s="1" t="str">
+      <c r="B124" s="2" t="str">
         <v>Tips_Content_10004</v>
       </c>
-      <c r="C124" s="4" t="str">
+      <c r="C124" s="3" t="str">
         <v>Energy balls obtained in this round is full!</v>
       </c>
-      <c r="D124" s="1" t="str">
+      <c r="D124" s="2" t="str">
         <v>本局获得能量球数量已满！</v>
       </c>
-      <c r="E124" s="1" t="str"/>
+      <c r="E124" s="2" t="str"/>
     </row>
     <row customHeight="true" ht="21" r="125">
-      <c r="A125" s="1">
+      <c r="A125" s="2">
         <v>40005</v>
       </c>
-      <c r="B125" s="1" t="str">
+      <c r="B125" s="2" t="str">
         <v>Tips_Content_10005</v>
       </c>
-      <c r="C125" s="4" t="str">
+      <c r="C125" s="3" t="str">
         <v>Energy shield obtained! You can resist an attack now!</v>
       </c>
-      <c r="D125" s="1" t="str">
+      <c r="D125" s="2" t="str">
         <v>获得了能量保护壳！可以抵挡一次攻击！</v>
       </c>
-      <c r="E125" s="1" t="str"/>
+      <c r="E125" s="2" t="str"/>
     </row>
     <row customHeight="true" ht="21" r="126">
-      <c r="A126" s="1">
+      <c r="A126" s="2">
         <v>40006</v>
       </c>
-      <c r="B126" s="1" t="str">
+      <c r="B126" s="2" t="str">
         <v>Tips_Content_10006</v>
       </c>
-      <c r="C126" s="4" t="str">
+      <c r="C126" s="3" t="str">
         <v>Energy shield is shattered! Be careful!</v>
       </c>
-      <c r="D126" s="1" t="str">
+      <c r="D126" s="2" t="str">
         <v>能量保护壳被击碎了！小心！</v>
       </c>
-      <c r="E126" s="1" t="str"/>
+      <c r="E126" s="2" t="str"/>
     </row>
     <row customHeight="true" ht="21" r="127">
-      <c r="A127" s="1">
+      <c r="A127" s="2">
         <v>40007</v>
       </c>
-      <c r="B127" s="1" t="str">
+      <c r="B127" s="2" t="str">
         <v>Tips_Content_10007</v>
       </c>
-      <c r="C127" s="4" t="str">
+      <c r="C127" s="3" t="str">
         <v>Energy of the shield is absorbed...</v>
       </c>
-      <c r="D127" s="1" t="str">
+      <c r="D127" s="2" t="str">
         <v>保护壳的能量被吸收了...</v>
       </c>
-      <c r="E127" s="1" t="str"/>
+      <c r="E127" s="2" t="str"/>
     </row>
     <row customHeight="true" ht="21" r="128">
-      <c r="A128" s="1">
+      <c r="A128" s="2">
         <v>40008</v>
       </c>
-      <c r="B128" s="1" t="str">
+      <c r="B128" s="2" t="str">
         <v>Tips_Content_10008</v>
       </c>
-      <c r="C128" s="4" t="str">
+      <c r="C128" s="3" t="str">
         <v>Coin Bag is full!</v>
       </c>
-      <c r="D128" s="1" t="str">
+      <c r="D128" s="2" t="str">
         <v>金币袋已满！</v>
       </c>
-      <c r="E128" s="1" t="str"/>
+      <c r="E128" s="2" t="str"/>
     </row>
     <row customHeight="true" ht="21" r="129">
-      <c r="A129" s="1">
+      <c r="A129" s="2">
         <v>40009</v>
       </c>
-      <c r="B129" s="1" t="str">
+      <c r="B129" s="2" t="str">
         <v>Tips_Content_10009</v>
       </c>
-      <c r="C129" s="4" t="str">
+      <c r="C129" s="3" t="str">
         <v>Someone died!</v>
       </c>
-      <c r="D129" s="1" t="str">
+      <c r="D129" s="2" t="str">
         <v>有人倒下了！</v>
       </c>
-      <c r="E129" s="1" t="str"/>
+      <c r="E129" s="2" t="str"/>
     </row>
     <row customHeight="true" ht="21" r="130">
-      <c r="A130" s="1">
+      <c r="A130" s="2">
         <v>40010</v>
       </c>
-      <c r="B130" s="1" t="str">
+      <c r="B130" s="2" t="str">
         <v>Tips_Content_10010</v>
       </c>
-      <c r="C130" s="4" t="str">
+      <c r="C130" s="3" t="str">
         <v>The Detective is dead, find his weapon!</v>
       </c>
-      <c r="D130" s="1" t="str">
+      <c r="D130" s="2" t="str">
         <v>侦探死亡了，找找他的武器吧！</v>
       </c>
-      <c r="E130" s="1" t="str"/>
+      <c r="E130" s="2" t="str"/>
     </row>
     <row customHeight="true" ht="21" r="131">
-      <c r="A131" s="1">
+      <c r="A131" s="2">
         <v>40011</v>
       </c>
-      <c r="B131" s="1" t="str">
+      <c r="B131" s="2" t="str">
         <v>Tips_Content_20001</v>
       </c>
-      <c r="C131" s="4" t="str">
+      <c r="C131" s="3" t="str">
         <v>There are currently no active matches!</v>
       </c>
-      <c r="D131" s="1" t="str">
+      <c r="D131" s="2" t="str">
         <v>当前没有正在进行的对局！</v>
       </c>
-      <c r="E131" s="1" t="str"/>
+      <c r="E131" s="2" t="str"/>
     </row>
     <row customHeight="true" ht="21" r="132">
-      <c r="A132" s="1">
+      <c r="A132" s="2">
         <v>40012</v>
       </c>
-      <c r="B132" s="4" t="str">
+      <c r="B132" s="3" t="str">
         <v>Tips_Content_20005</v>
       </c>
-      <c r="C132" s="4" t="str">
+      <c r="C132" s="3" t="str">
         <v>Correct Password</v>
       </c>
-      <c r="D132" s="1" t="str">
+      <c r="D132" s="2" t="str">
         <v>密码输入正确</v>
       </c>
-      <c r="E132" s="1"/>
+      <c r="E132" s="2"/>
     </row>
     <row customHeight="true" ht="21" r="133">
-      <c r="A133" s="1">
+      <c r="A133" s="2">
         <v>40013</v>
       </c>
-      <c r="B133" s="4" t="str">
+      <c r="B133" s="3" t="str">
         <v>Tips_Content_20006</v>
       </c>
-      <c r="C133" s="4" t="str">
+      <c r="C133" s="3" t="str">
         <v>Wrong Password！</v>
       </c>
-      <c r="D133" s="1" t="str">
+      <c r="D133" s="2" t="str">
         <v>密码输入错误！</v>
       </c>
-      <c r="E133" s="1"/>
+      <c r="E133" s="2"/>
     </row>
     <row customHeight="true" ht="21" r="134">
-      <c r="A134" s="1">
+      <c r="A134" s="2">
         <v>40014</v>
       </c>
-      <c r="B134" s="4" t="str">
+      <c r="B134" s="3" t="str">
         <v>Tips_Content_20007</v>
       </c>
-      <c r="C134" s="4" t="str">
+      <c r="C134" s="3" t="str">
         <v>Weapon skins！Click to go！</v>
       </c>
-      <c r="D134" s="1" t="str">
+      <c r="D134" s="2" t="str">
         <v>免费抽取武器皮肤，点击前往！</v>
       </c>
-      <c r="E134" s="1"/>
+      <c r="E134" s="2"/>
     </row>
     <row customHeight="true" ht="21" r="135">
-      <c r="A135" s="1">
+      <c r="A135" s="2">
         <v>40015</v>
       </c>
-      <c r="B135" s="4" t="str">
+      <c r="B135" s="3" t="str">
         <v>Tips_Content_20008</v>
       </c>
-      <c r="C135" s="4" t="str">
+      <c r="C135" s="3" t="str">
         <v>Ad in CD</v>
       </c>
-      <c r="D135" s="1" t="str">
+      <c r="D135" s="2" t="str">
         <v>广告冷却中</v>
       </c>
-      <c r="E135" s="1"/>
+      <c r="E135" s="2"/>
     </row>
     <row customHeight="true" ht="21" r="136">
-      <c r="A136" s="1">
+      <c r="A136" s="2">
         <v>50001</v>
       </c>
-      <c r="B136" s="1" t="str">
+      <c r="B136" s="2" t="str">
         <v>Weapon_WeaponName_10001</v>
       </c>
-      <c r="C136" s="4" t="str">
+      <c r="C136" s="3" t="str">
         <v>Knife</v>
       </c>
-      <c r="D136" s="1" t="str">
+      <c r="D136" s="2" t="str">
         <v>小刀</v>
       </c>
-      <c r="E136" s="1" t="str">
+      <c r="E136" s="2" t="str">
         <v>50000：武器表</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="137">
-      <c r="A137" s="1">
+      <c r="A137" s="2">
         <v>50002</v>
       </c>
-      <c r="B137" s="1" t="str">
+      <c r="B137" s="2" t="str">
         <v>Weapon_WeaponName_20001</v>
       </c>
-      <c r="C137" s="4" t="str">
+      <c r="C137" s="3" t="str">
         <v>Revolver</v>
       </c>
-      <c r="D137" s="1" t="str">
+      <c r="D137" s="2" t="str">
         <v>左轮手枪</v>
       </c>
-      <c r="E137" s="1" t="str"/>
+      <c r="E137" s="2" t="str"/>
     </row>
     <row customHeight="true" ht="21" r="138">
-      <c r="A138" s="1">
+      <c r="A138" s="2">
         <v>50003</v>
       </c>
-      <c r="B138" s="2" t="str">
+      <c r="B138" s="5" t="str">
         <v>Weapon_WeaponName_10002</v>
       </c>
-      <c r="C138" s="4" t="str">
+      <c r="C138" s="3" t="str">
         <v>Fire Axe</v>
       </c>
-      <c r="D138" s="3" t="str">
+      <c r="D138" s="4" t="str">
         <v>消防斧</v>
       </c>
-      <c r="E138" s="1" t="str">
+      <c r="E138" s="2" t="str">
         <v>武器名称</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="139">
-      <c r="A139" s="1">
+      <c r="A139" s="2">
         <v>50004</v>
       </c>
-      <c r="B139" s="2" t="str">
+      <c r="B139" s="5" t="str">
         <v>Weapon_WeaponName_10003</v>
       </c>
-      <c r="C139" s="4" t="str">
+      <c r="C139" s="3" t="str">
         <v>Nepalese Knife</v>
       </c>
-      <c r="D139" s="3" t="str">
+      <c r="D139" s="4" t="str">
         <v>尼泊尔军刀</v>
       </c>
-      <c r="E139" s="1" t="str">
+      <c r="E139" s="2" t="str">
         <v>武器名称</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="140">
-      <c r="A140" s="1">
+      <c r="A140" s="2">
         <v>50005</v>
       </c>
-      <c r="B140" s="2" t="str">
+      <c r="B140" s="5" t="str">
         <v>Weapon_WeaponName_20002</v>
       </c>
-      <c r="C140" s="4" t="str">
+      <c r="C140" s="3" t="str">
         <v>Submachine Gun</v>
       </c>
-      <c r="D140" s="3" t="str">
+      <c r="D140" s="4" t="str">
         <v>冲锋枪</v>
       </c>
-      <c r="E140" s="1" t="str">
+      <c r="E140" s="2" t="str">
         <v>武器名称</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="141">
-      <c r="A141" s="1">
+      <c r="A141" s="2">
         <v>50006</v>
       </c>
-      <c r="B141" s="2" t="str">
+      <c r="B141" s="5" t="str">
         <v>Weapon_WeaponName_20003</v>
       </c>
-      <c r="C141" s="4" t="str">
+      <c r="C141" s="3" t="str">
         <v>Rifle</v>
       </c>
-      <c r="D141" s="3" t="str">
+      <c r="D141" s="4" t="str">
         <v>步枪</v>
       </c>
-      <c r="E141" s="1" t="str">
+      <c r="E141" s="2" t="str">
         <v>武器名称</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="142">
-      <c r="A142" s="1">
+      <c r="A142" s="2">
         <v>50007</v>
       </c>
-      <c r="B142" s="4" t="str">
+      <c r="B142" s="3" t="str">
         <v>Weapon_WeaponName_10004</v>
       </c>
-      <c r="C142" s="4" t="str">
+      <c r="C142" s="3" t="str">
         <v>Assassin Dagger</v>
       </c>
-      <c r="D142" s="3" t="str">
+      <c r="D142" s="4" t="str">
         <v>暗杀匕首</v>
       </c>
-      <c r="E142" s="1" t="str">
+      <c r="E142" s="2" t="str">
         <v>武器名称</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="143">
-      <c r="A143" s="1">
+      <c r="A143" s="2">
         <v>50008</v>
       </c>
-      <c r="B143" s="4" t="str">
+      <c r="B143" s="3" t="str">
         <v>Weapon_WeaponName_10005</v>
       </c>
-      <c r="C143" s="4" t="str">
+      <c r="C143" s="3" t="str">
         <v>Survival Dagger</v>
       </c>
-      <c r="D143" s="3" t="str">
+      <c r="D143" s="4" t="str">
         <v>求生匕首</v>
       </c>
-      <c r="E143" s="1" t="str">
+      <c r="E143" s="2" t="str">
         <v>武器名称</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="144">
-      <c r="A144" s="1">
+      <c r="A144" s="2">
         <v>50009</v>
       </c>
-      <c r="B144" s="4" t="str">
+      <c r="B144" s="3" t="str">
         <v>Weapon_WeaponName_10006</v>
       </c>
-      <c r="C144" s="4" t="str">
+      <c r="C144" s="3" t="str">
         <v>Kitchen Knife</v>
       </c>
-      <c r="D144" s="3" t="str">
+      <c r="D144" s="4" t="str">
         <v>菜刀</v>
       </c>
-      <c r="E144" s="1" t="str">
+      <c r="E144" s="2" t="str">
         <v>武器名称</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="145">
-      <c r="A145" s="1">
+      <c r="A145" s="2">
         <v>50010</v>
       </c>
-      <c r="B145" s="8" t="str">
+      <c r="B145" s="6" t="str">
         <v>Weapon_WeaponName_10007</v>
       </c>
-      <c r="C145" s="4" t="str">
+      <c r="C145" s="3" t="str">
         <v>Dart (Wave)</v>
       </c>
-      <c r="D145" s="9" t="str">
+      <c r="D145" s="7" t="str">
         <v>镖(波)</v>
       </c>
-      <c r="E145" s="1" t="str">
+      <c r="E145" s="2" t="str">
         <v>武器名称</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="146">
-      <c r="A146" s="1">
+      <c r="A146" s="2">
         <v>50011</v>
       </c>
-      <c r="B146" s="8" t="str">
+      <c r="B146" s="6" t="str">
         <v>Weapon_WeaponName_10008</v>
       </c>
-      <c r="C146" s="4" t="str">
+      <c r="C146" s="3" t="str">
         <v>Dart (Fetter)</v>
       </c>
-      <c r="D146" s="9" t="str">
+      <c r="D146" s="7" t="str">
         <v>镖(桎)</v>
       </c>
-      <c r="E146" s="1" t="str">
+      <c r="E146" s="2" t="str">
         <v>武器名称</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="147">
-      <c r="A147" s="1">
+      <c r="A147" s="2">
         <v>50012</v>
       </c>
-      <c r="B147" s="8" t="str">
+      <c r="B147" s="6" t="str">
         <v>Weapon_WeaponName_10009</v>
       </c>
-      <c r="C147" s="4" t="str">
+      <c r="C147" s="3" t="str">
         <v>Dart (Shatter)</v>
       </c>
-      <c r="D147" s="9" t="str">
+      <c r="D147" s="7" t="str">
         <v>镖(碎)</v>
       </c>
-      <c r="E147" s="1" t="str">
+      <c r="E147" s="2" t="str">
         <v>武器名称</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="148">
-      <c r="A148" s="1">
+      <c r="A148" s="2">
         <v>50013</v>
       </c>
-      <c r="B148" s="8" t="str">
+      <c r="B148" s="6" t="str">
         <v>Weapon_WeaponName_10010</v>
       </c>
-      <c r="C148" s="4" t="str">
+      <c r="C148" s="3" t="str">
         <v>Dart (Swirl)</v>
       </c>
-      <c r="D148" s="9" t="str">
+      <c r="D148" s="7" t="str">
         <v>镖(漩)</v>
       </c>
-      <c r="E148" s="1" t="str">
+      <c r="E148" s="2" t="str">
         <v>武器名称</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="149">
-      <c r="A149" s="1">
+      <c r="A149" s="2">
         <v>50014</v>
       </c>
-      <c r="B149" s="8" t="str">
+      <c r="B149" s="6" t="str">
         <v>Weapon_WeaponName_10011</v>
       </c>
-      <c r="C149" s="4" t="str">
+      <c r="C149" s="3" t="str">
         <v>Dart (Qi)</v>
       </c>
-      <c r="D149" s="9" t="str">
+      <c r="D149" s="7" t="str">
         <v>镖(气)</v>
       </c>
-      <c r="E149" s="1" t="str">
+      <c r="E149" s="2" t="str">
         <v>武器名称</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="150">
-      <c r="A150" s="1">
+      <c r="A150" s="2">
         <v>50015</v>
       </c>
-      <c r="B150" s="8" t="str">
+      <c r="B150" s="6" t="str">
         <v>Weapon_WeaponName_10012</v>
       </c>
-      <c r="C150" s="4" t="str">
+      <c r="C150" s="3" t="str">
         <v>Dart (Stirring)</v>
       </c>
-      <c r="D150" s="9" t="str">
+      <c r="D150" s="7" t="str">
         <v>镖(激荡)</v>
       </c>
-      <c r="E150" s="1" t="str">
+      <c r="E150" s="2" t="str">
         <v>武器名称</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="151">
-      <c r="A151" s="1">
+      <c r="A151" s="2">
         <v>50016</v>
       </c>
-      <c r="B151" s="8" t="str">
+      <c r="B151" s="6" t="str">
         <v>Weapon_WeaponName_10013</v>
       </c>
-      <c r="C151" s="4" t="str">
+      <c r="C151" s="3" t="str">
         <v>Dart (Seal)</v>
       </c>
-      <c r="D151" s="9" t="str">
+      <c r="D151" s="7" t="str">
         <v>镖(封印)</v>
       </c>
-      <c r="E151" s="1" t="str">
+      <c r="E151" s="2" t="str">
         <v>武器名称</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="152">
-      <c r="A152" s="1">
+      <c r="A152" s="2">
         <v>50017</v>
       </c>
-      <c r="B152" s="8" t="str">
+      <c r="B152" s="6" t="str">
         <v>Weapon_WeaponName_10014</v>
       </c>
-      <c r="C152" s="4" t="str">
+      <c r="C152" s="3" t="str">
         <v>Dart (Fate)</v>
       </c>
-      <c r="D152" s="9" t="str">
+      <c r="D152" s="7" t="str">
         <v>镖(轮回)</v>
       </c>
-      <c r="E152" s="1" t="str">
+      <c r="E152" s="2" t="str">
         <v>武器名称</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="153">
-      <c r="A153" s="1">
+      <c r="A153" s="2">
         <v>50018</v>
       </c>
-      <c r="B153" s="8" t="str">
+      <c r="B153" s="6" t="str">
         <v>Weapon_WeaponName_10015</v>
       </c>
-      <c r="C153" s="4" t="str">
+      <c r="C153" s="3" t="str">
         <v>Dogfish</v>
       </c>
-      <c r="D153" s="9" t="str">
+      <c r="D153" s="7" t="str">
         <v>狗鱼</v>
       </c>
-      <c r="E153" s="1" t="str">
+      <c r="E153" s="2" t="str">
         <v>武器名称</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="154">
-      <c r="A154" s="1">
+      <c r="A154" s="2">
         <v>50019</v>
       </c>
-      <c r="B154" s="8" t="str">
+      <c r="B154" s="6" t="str">
         <v>Weapon_WeaponName_10016</v>
       </c>
-      <c r="C154" s="4" t="str">
+      <c r="C154" s="3" t="str">
         <v>Hairy-nosed catfish</v>
       </c>
-      <c r="D154" s="9" t="str">
+      <c r="D154" s="7" t="str">
         <v>毛鼻鲶</v>
       </c>
-      <c r="E154" s="1" t="str">
+      <c r="E154" s="2" t="str">
         <v>武器名称</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="155">
-      <c r="A155" s="1">
+      <c r="A155" s="2">
         <v>50020</v>
       </c>
-      <c r="B155" s="8" t="str">
+      <c r="B155" s="6" t="str">
         <v>Weapon_WeaponName_10017</v>
       </c>
-      <c r="C155" s="4" t="str">
+      <c r="C155" s="3" t="str">
         <v>Goldfish</v>
       </c>
-      <c r="D155" s="9" t="str">
+      <c r="D155" s="7" t="str">
         <v>金鱼</v>
       </c>
-      <c r="E155" s="1" t="str">
+      <c r="E155" s="2" t="str">
         <v>武器名称</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="156">
-      <c r="A156" s="1">
+      <c r="A156" s="2">
         <v>50021</v>
       </c>
-      <c r="B156" s="8" t="str">
+      <c r="B156" s="6" t="str">
         <v>Weapon_WeaponName_10018</v>
       </c>
-      <c r="C156" s="4" t="str">
+      <c r="C156" s="3" t="str">
         <v>Tuna</v>
       </c>
-      <c r="D156" s="9" t="str">
+      <c r="D156" s="7" t="str">
         <v>金枪鱼</v>
       </c>
-      <c r="E156" s="1" t="str">
+      <c r="E156" s="2" t="str">
         <v>武器名称</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="157">
-      <c r="A157" s="1">
+      <c r="A157" s="2">
         <v>50022</v>
       </c>
-      <c r="B157" s="8" t="str">
+      <c r="B157" s="6" t="str">
         <v>Weapon_WeaponName_10019</v>
       </c>
-      <c r="C157" s="4" t="str">
+      <c r="C157" s="3" t="str">
         <v>Lobster</v>
       </c>
-      <c r="D157" s="9" t="str">
+      <c r="D157" s="7" t="str">
         <v>龙虾</v>
       </c>
-      <c r="E157" s="1" t="str">
+      <c r="E157" s="2" t="str">
         <v>武器名称</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="158">
-      <c r="A158" s="1">
+      <c r="A158" s="2">
         <v>50023</v>
       </c>
-      <c r="B158" s="8" t="str">
+      <c r="B158" s="6" t="str">
         <v>Weapon_WeaponName_10020</v>
       </c>
-      <c r="C158" s="4" t="str">
+      <c r="C158" s="3" t="str">
         <v>Oarfish</v>
       </c>
-      <c r="D158" s="9" t="str">
+      <c r="D158" s="7" t="str">
         <v>皇带鱼</v>
       </c>
-      <c r="E158" s="1" t="str">
+      <c r="E158" s="2" t="str">
         <v>武器名称</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="159">
-      <c r="A159" s="1">
+      <c r="A159" s="2">
         <v>50024</v>
       </c>
-      <c r="B159" s="8" t="str">
+      <c r="B159" s="6" t="str">
         <v>Weapon_WeaponName_10021</v>
       </c>
-      <c r="C159" s="4" t="str">
+      <c r="C159" s="3" t="str">
         <v>Miracle Conch</v>
       </c>
-      <c r="D159" s="9" t="str">
+      <c r="D159" s="7" t="str">
         <v>神奇海螺</v>
       </c>
-      <c r="E159" s="1" t="str">
+      <c r="E159" s="2" t="str">
         <v>武器名称</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="160">
-      <c r="A160" s="1">
+      <c r="A160" s="2">
         <v>50025</v>
       </c>
-      <c r="B160" s="8" t="str">
+      <c r="B160" s="6" t="str">
         <v>Weapon_WeaponName_10022</v>
       </c>
-      <c r="C160" s="4" t="str">
+      <c r="C160" s="3" t="str">
         <v>King Trident</v>
       </c>
-      <c r="D160" s="9" t="str">
+      <c r="D160" s="7" t="str">
         <v>海王三叉戟</v>
       </c>
-      <c r="E160" s="1" t="str">
+      <c r="E160" s="2" t="str">
         <v>武器名称</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="161">
-      <c r="A161" s="1">
+      <c r="A161" s="2">
         <v>50027</v>
       </c>
-      <c r="B161" s="4" t="str">
+      <c r="B161" s="3" t="str">
         <v>Lottery_Name_10001</v>
       </c>
-      <c r="C161" s="4" t="str">
+      <c r="C161" s="3" t="str">
         <v>Dart Weapon Box</v>
       </c>
-      <c r="D161" s="9" t="str">
+      <c r="D161" s="7" t="str">
         <v>飞镖武器箱</v>
       </c>
-      <c r="E161" s="1" t="str">
+      <c r="E161" s="2" t="str">
         <v>武器箱子名称</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="162">
-      <c r="A162" s="1">
+      <c r="A162" s="2">
         <v>50028</v>
       </c>
-      <c r="B162" s="4" t="str">
+      <c r="B162" s="3" t="str">
         <v>Lottery_Name_10002</v>
       </c>
-      <c r="C162" s="4" t="str">
+      <c r="C162" s="3" t="str">
         <v>Ocean Weapon Box</v>
       </c>
-      <c r="D162" s="9" t="str">
+      <c r="D162" s="7" t="str">
         <v>深海武器箱</v>
       </c>
-      <c r="E162" s="1" t="str">
+      <c r="E162" s="2" t="str">
         <v>武器箱子名称</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="163">
-      <c r="A163" s="1">
+      <c r="A163" s="2">
         <v>60001</v>
       </c>
-      <c r="B163" s="1" t="str">
+      <c r="B163" s="2" t="str">
         <v>AIData_AIName_90001</v>
       </c>
-      <c r="C163" s="4" t="str">
+      <c r="C163" s="3" t="str">
         <v>Creabhop</v>
       </c>
-      <c r="D163" s="4" t="str">
+      <c r="D163" s="3" t="str">
         <v>Creabhop</v>
       </c>
-      <c r="E163" s="1" t="str">
+      <c r="E163" s="2" t="str">
         <v>60000：AI数据表</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="164">
-      <c r="A164" s="1">
+      <c r="A164" s="2">
         <v>60002</v>
       </c>
-      <c r="B164" s="1" t="str">
+      <c r="B164" s="2" t="str">
         <v>AIData_AIName_90002</v>
       </c>
-      <c r="C164" s="4" t="str">
+      <c r="C164" s="3" t="str">
         <v>Rival</v>
       </c>
-      <c r="D164" s="4" t="str">
+      <c r="D164" s="3" t="str">
         <v>Rival</v>
       </c>
-      <c r="E164" s="1" t="str"/>
+      <c r="E164" s="2" t="str"/>
     </row>
     <row customHeight="true" ht="21" r="165">
-      <c r="A165" s="1">
+      <c r="A165" s="2">
         <v>60003</v>
       </c>
-      <c r="B165" s="1" t="str">
+      <c r="B165" s="2" t="str">
         <v>AIData_AIName_90003</v>
       </c>
-      <c r="C165" s="4" t="str">
+      <c r="C165" s="3" t="str">
         <v>Ironpup</v>
       </c>
-      <c r="D165" s="4" t="str">
+      <c r="D165" s="3" t="str">
         <v>Ironpup</v>
       </c>
-      <c r="E165" s="1" t="str"/>
+      <c r="E165" s="2" t="str"/>
     </row>
     <row customHeight="true" ht="21" r="166">
-      <c r="A166" s="1">
+      <c r="A166" s="2">
         <v>60004</v>
       </c>
-      <c r="B166" s="1" t="str">
+      <c r="B166" s="2" t="str">
         <v>AIData_AIName_90004</v>
       </c>
-      <c r="C166" s="4" t="str">
+      <c r="C166" s="3" t="str">
         <v>TonyXenos</v>
       </c>
-      <c r="D166" s="4" t="str">
+      <c r="D166" s="3" t="str">
         <v>TonyXenos</v>
       </c>
-      <c r="E166" s="1" t="str"/>
+      <c r="E166" s="2" t="str"/>
     </row>
     <row customHeight="true" ht="21" r="167">
-      <c r="A167" s="1">
+      <c r="A167" s="2">
         <v>60005</v>
       </c>
-      <c r="B167" s="1" t="str">
+      <c r="B167" s="2" t="str">
         <v>AIData_AIName_90005</v>
       </c>
-      <c r="C167" s="4" t="str">
+      <c r="C167" s="3" t="str">
         <v>L8s</v>
       </c>
-      <c r="D167" s="4" t="str">
+      <c r="D167" s="3" t="str">
         <v>L8s</v>
       </c>
-      <c r="E167" s="1" t="str"/>
+      <c r="E167" s="2" t="str"/>
     </row>
     <row customHeight="true" ht="21" r="168">
-      <c r="A168" s="1">
+      <c r="A168" s="2">
         <v>60006</v>
       </c>
-      <c r="B168" s="1" t="str">
+      <c r="B168" s="2" t="str">
         <v>AIData_AIName_90006</v>
       </c>
-      <c r="C168" s="4" t="str">
+      <c r="C168" s="3" t="str">
         <v>Crilm</v>
       </c>
-      <c r="D168" s="4" t="str">
+      <c r="D168" s="3" t="str">
         <v>Crilm</v>
       </c>
-      <c r="E168" s="1" t="str"/>
+      <c r="E168" s="2" t="str"/>
     </row>
     <row customHeight="true" ht="21" r="169">
-      <c r="A169" s="1">
+      <c r="A169" s="2">
         <v>60007</v>
       </c>
-      <c r="B169" s="1" t="str">
+      <c r="B169" s="2" t="str">
         <v>AIData_AIName_90007</v>
       </c>
-      <c r="C169" s="4" t="str">
+      <c r="C169" s="3" t="str">
         <v>Himiko Toga</v>
       </c>
-      <c r="D169" s="4" t="str">
+      <c r="D169" s="3" t="str">
         <v>Himiko Toga</v>
       </c>
-      <c r="E169" s="1" t="str"/>
+      <c r="E169" s="2" t="str"/>
     </row>
     <row customHeight="true" ht="21" r="170">
-      <c r="A170" s="1">
+      <c r="A170" s="2">
         <v>60008</v>
       </c>
-      <c r="B170" s="1" t="str">
+      <c r="B170" s="2" t="str">
         <v>AIData_AIName_90008</v>
       </c>
-      <c r="C170" s="4" t="str">
+      <c r="C170" s="3" t="str">
         <v>Rocco21</v>
       </c>
-      <c r="D170" s="4" t="str">
+      <c r="D170" s="3" t="str">
         <v>Rocco21</v>
       </c>
-      <c r="E170" s="1" t="str"/>
+      <c r="E170" s="2" t="str"/>
     </row>
     <row customHeight="true" ht="21" r="171">
-      <c r="A171" s="1">
+      <c r="A171" s="2">
         <v>60009</v>
       </c>
-      <c r="B171" s="1" t="str">
+      <c r="B171" s="2" t="str">
         <v>AIData_AIName_90009</v>
       </c>
-      <c r="C171" s="4" t="str">
+      <c r="C171" s="3" t="str">
         <v>Elysian</v>
       </c>
-      <c r="D171" s="4" t="str">
+      <c r="D171" s="3" t="str">
         <v>Elysian</v>
       </c>
-      <c r="E171" s="1" t="str"/>
+      <c r="E171" s="2" t="str"/>
     </row>
     <row customHeight="true" ht="21" r="172">
-      <c r="A172" s="1">
+      <c r="A172" s="2">
         <v>60010</v>
       </c>
-      <c r="B172" s="1" t="str">
+      <c r="B172" s="2" t="str">
         <v>AIData_AIName_90010</v>
       </c>
-      <c r="C172" s="4" t="str">
+      <c r="C172" s="3" t="str">
         <v>Bunny Rat</v>
       </c>
-      <c r="D172" s="4" t="str">
+      <c r="D172" s="3" t="str">
         <v>Bunny Rat</v>
       </c>
-      <c r="E172" s="1" t="str"/>
+      <c r="E172" s="2" t="str"/>
     </row>
     <row customHeight="true" ht="21" r="173">
-      <c r="A173" s="1">
+      <c r="A173" s="2">
         <v>60011</v>
       </c>
-      <c r="B173" s="1" t="str">
+      <c r="B173" s="2" t="str">
         <v>AIData_AIName_90011</v>
       </c>
-      <c r="C173" s="4" t="str">
+      <c r="C173" s="3" t="str">
         <v>Zaptar</v>
       </c>
-      <c r="D173" s="4" t="str">
+      <c r="D173" s="3" t="str">
         <v>Zaptar</v>
       </c>
-      <c r="E173" s="1" t="str"/>
+      <c r="E173" s="2" t="str"/>
     </row>
     <row customHeight="true" ht="21" r="174">
-      <c r="A174" s="1">
+      <c r="A174" s="2">
         <v>70001</v>
       </c>
-      <c r="B174" s="4" t="str">
+      <c r="B174" s="3" t="str">
         <v>Level_Name_10000</v>
       </c>
-      <c r="C174" s="4" t="str">
+      <c r="C174" s="3" t="str">
         <v>Hall</v>
       </c>
-      <c r="D174" s="4" t="str">
+      <c r="D174" s="3" t="str">
         <v>大厅</v>
       </c>
-      <c r="E174" s="1" t="str"/>
+      <c r="E174" s="2" t="str"/>
     </row>
     <row customHeight="true" ht="21" r="175">
-      <c r="A175" s="1">
+      <c r="A175" s="2">
         <v>70002</v>
       </c>
-      <c r="B175" s="4" t="str">
+      <c r="B175" s="3" t="str">
         <v>Level_Name_10001</v>
       </c>
-      <c r="C175" s="4" t="str">
+      <c r="C175" s="3" t="str">
         <v>Lakeside Manssion</v>
       </c>
-      <c r="D175" s="4" t="str">
+      <c r="D175" s="3" t="str">
         <v>湖边别墅</v>
       </c>
-      <c r="E175" s="1" t="str">
+      <c r="E175" s="2" t="str">
         <v>关卡地图名称</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="176">
-      <c r="A176" s="1">
+      <c r="A176" s="2">
         <v>70003</v>
       </c>
-      <c r="B176" s="4" t="str">
+      <c r="B176" s="3" t="str">
         <v>Level_Name_10002</v>
       </c>
-      <c r="C176" s="4" t="str">
+      <c r="C176" s="3" t="str">
         <v>Forest Cortyard</v>
       </c>
-      <c r="D176" s="1" t="str">
+      <c r="D176" s="2" t="str">
         <v>林中庭院</v>
       </c>
-      <c r="E176" s="1" t="str">
+      <c r="E176" s="2" t="str">
         <v>关卡地图名称</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="177">
-      <c r="A177" s="1">
+      <c r="A177" s="2">
         <v>70004</v>
       </c>
-      <c r="B177" s="4" t="str">
+      <c r="B177" s="3" t="str">
         <v>Level_Name_10003</v>
       </c>
-      <c r="C177" s="4" t="str">
+      <c r="C177" s="3" t="str">
         <v>Abandoned Hospital</v>
       </c>
-      <c r="D177" s="4" t="str">
+      <c r="D177" s="3" t="str">
         <v>废弃医院</v>
       </c>
-      <c r="E177" s="1" t="str">
+      <c r="E177" s="2" t="str">
         <v>关卡地图名称</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="178">
-      <c r="A178" s="1">
+      <c r="A178" s="2">
         <v>80001</v>
       </c>
-      <c r="B178" s="4" t="str">
+      <c r="B178" s="3" t="str">
         <v>Item_Name_20001</v>
       </c>
-      <c r="C178" s="4" t="str">
+      <c r="C178" s="3" t="str">
         <v>Smoke</v>
       </c>
-      <c r="D178" s="1" t="str">
+      <c r="D178" s="2" t="str">
         <v>烟雾</v>
       </c>
-      <c r="E178" s="4" t="str">
+      <c r="E178" s="3" t="str">
         <v>拖尾道具</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="179">
-      <c r="A179" s="1">
+      <c r="A179" s="2">
         <v>80002</v>
       </c>
-      <c r="B179" s="4" t="str">
+      <c r="B179" s="3" t="str">
         <v>Item_Name_20002</v>
       </c>
-      <c r="C179" s="4" t="str">
+      <c r="C179" s="3" t="str">
         <v>Aura</v>
       </c>
-      <c r="D179" s="1" t="str">
+      <c r="D179" s="2" t="str">
         <v>紫电</v>
       </c>
-      <c r="E179" s="4" t="str">
+      <c r="E179" s="3" t="str">
         <v>拖尾道具</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="180">
-      <c r="A180" s="1">
+      <c r="A180" s="2">
         <v>80003</v>
       </c>
-      <c r="B180" s="4" t="str">
+      <c r="B180" s="3" t="str">
         <v>Item_Name_20003</v>
       </c>
-      <c r="C180" s="4" t="str">
+      <c r="C180" s="3" t="str">
         <v>Thunder</v>
       </c>
-      <c r="D180" s="1" t="str">
+      <c r="D180" s="2" t="str">
         <v>雷霆</v>
       </c>
-      <c r="E180" s="4" t="str">
+      <c r="E180" s="3" t="str">
         <v>拖尾道具</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="181">
-      <c r="A181" s="1">
+      <c r="A181" s="2">
         <v>80004</v>
       </c>
-      <c r="B181" s="4" t="str">
+      <c r="B181" s="3" t="str">
         <v>Item_Name_20004</v>
       </c>
-      <c r="C181" s="4" t="str">
+      <c r="C181" s="3" t="str">
         <v>Breeze</v>
       </c>
-      <c r="D181" s="1" t="str">
+      <c r="D181" s="2" t="str">
         <v>清风</v>
       </c>
-      <c r="E181" s="4" t="str">
+      <c r="E181" s="3" t="str">
         <v>拖尾道具</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="182">
-      <c r="A182" s="1">
+      <c r="A182" s="2">
         <v>80005</v>
       </c>
-      <c r="B182" s="4" t="str">
+      <c r="B182" s="3" t="str">
         <v>Item_Name_20005</v>
       </c>
-      <c r="C182" s="4" t="str">
+      <c r="C182" s="3" t="str">
         <v>Rainbow</v>
       </c>
-      <c r="D182" s="1" t="str">
+      <c r="D182" s="2" t="str">
         <v>虹彩</v>
       </c>
-      <c r="E182" s="4" t="str">
+      <c r="E182" s="3" t="str">
         <v>拖尾道具</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="183">
-      <c r="A183" s="1">
+      <c r="A183" s="2">
         <v>80006</v>
       </c>
-      <c r="B183" s="4" t="str">
+      <c r="B183" s="3" t="str">
         <v>Item_Name_20006</v>
       </c>
-      <c r="C183" s="4" t="str">
+      <c r="C183" s="3" t="str">
         <v>Dream</v>
       </c>
-      <c r="D183" s="1" t="str">
+      <c r="D183" s="2" t="str">
         <v>梦幻</v>
       </c>
-      <c r="E183" s="4" t="str">
+      <c r="E183" s="3" t="str">
         <v>拖尾道具</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="184">
-      <c r="A184" s="1">
+      <c r="A184" s="2">
         <v>80007</v>
       </c>
-      <c r="B184" s="4" t="str">
+      <c r="B184" s="3" t="str">
         <v>Item_Name_30001</v>
       </c>
-      <c r="C184" s="4" t="str">
+      <c r="C184" s="3" t="str">
         <v>Gentle Senpai</v>
       </c>
-      <c r="D184" s="4" t="str">
+      <c r="D184" s="3" t="str">
         <v>温柔学姐</v>
       </c>
-      <c r="E184" s="1" t="str">
+      <c r="E184" s="2" t="str">
         <v>套装名称</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="185">
-      <c r="A185" s="1">
+      <c r="A185" s="2">
         <v>80008</v>
       </c>
-      <c r="B185" s="4" t="str">
+      <c r="B185" s="3" t="str">
         <v>Item_Name_30002</v>
       </c>
-      <c r="C185" s="4" t="str">
+      <c r="C185" s="3" t="str">
         <v>Discipline Member</v>
       </c>
-      <c r="D185" s="1" t="str">
+      <c r="D185" s="2" t="str">
         <v>风纪委员</v>
       </c>
-      <c r="E185" s="1" t="str">
+      <c r="E185" s="2" t="str">
         <v>套装名称</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="186">
-      <c r="A186" s="1">
+      <c r="A186" s="2">
         <v>80009</v>
       </c>
-      <c r="B186" s="4" t="str">
+      <c r="B186" s="3" t="str">
         <v>Item_Name_30003</v>
       </c>
-      <c r="C186" s="4" t="str">
+      <c r="C186" s="3" t="str">
         <v>Bad Girl</v>
       </c>
-      <c r="D186" s="1" t="str">
+      <c r="D186" s="2" t="str">
         <v>不良少女</v>
       </c>
-      <c r="E186" s="1" t="str">
+      <c r="E186" s="2" t="str">
         <v>套装名称</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="187">
-      <c r="A187" s="1">
+      <c r="A187" s="2">
         <v>80010</v>
       </c>
-      <c r="B187" s="4" t="str">
+      <c r="B187" s="3" t="str">
         <v>Item_Name_30004</v>
       </c>
-      <c r="C187" s="4" t="str">
+      <c r="C187" s="3" t="str">
         <v>Korean Girl</v>
       </c>
-      <c r="D187" s="1" t="str">
+      <c r="D187" s="2" t="str">
         <v>韩式淑女</v>
       </c>
-      <c r="E187" s="1" t="str">
+      <c r="E187" s="2" t="str">
         <v>套装名称</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="188">
-      <c r="A188" s="1">
+      <c r="A188" s="2">
         <v>80011</v>
       </c>
-      <c r="B188" s="4" t="str">
+      <c r="B188" s="3" t="str">
         <v>Item_Name_30005</v>
       </c>
-      <c r="C188" s="4" t="str">
+      <c r="C188" s="3" t="str">
         <v>Cute School Girl</v>
       </c>
-      <c r="D188" s="1" t="str">
+      <c r="D188" s="2" t="str">
         <v>可爱学妹</v>
       </c>
-      <c r="E188" s="1" t="str">
+      <c r="E188" s="2" t="str">
         <v>套装名称</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="189">
-      <c r="A189" s="1">
+      <c r="A189" s="2">
         <v>80012</v>
       </c>
-      <c r="B189" s="4" t="str">
+      <c r="B189" s="3" t="str">
         <v>Item_Name_30006</v>
       </c>
-      <c r="C189" s="4" t="str">
+      <c r="C189" s="3" t="str">
         <v>Fantasy Girl</v>
       </c>
-      <c r="D189" s="1" t="str">
+      <c r="D189" s="2" t="str">
         <v>奇幻少女</v>
       </c>
-      <c r="E189" s="1" t="str">
+      <c r="E189" s="2" t="str">
         <v>套装名称</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="190">
-      <c r="A190" s="1">
+      <c r="A190" s="2">
         <v>80013</v>
       </c>
-      <c r="B190" s="4" t="str">
+      <c r="B190" s="3" t="str">
         <v>Item_Name_30007</v>
       </c>
-      <c r="C190" s="4" t="str">
+      <c r="C190" s="3" t="str">
         <v>Gentle Senior</v>
       </c>
-      <c r="D190" s="1" t="str">
+      <c r="D190" s="2" t="str">
         <v>温柔学长</v>
       </c>
-      <c r="E190" s="1" t="str">
+      <c r="E190" s="2" t="str">
         <v>套装名称</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="191">
-      <c r="A191" s="1">
+      <c r="A191" s="2">
         <v>80014</v>
       </c>
-      <c r="B191" s="4" t="str">
+      <c r="B191" s="3" t="str">
         <v>Item_Name_30008</v>
       </c>
-      <c r="C191" s="4" t="str">
+      <c r="C191" s="3" t="str">
         <v>Bad Boy</v>
       </c>
-      <c r="D191" s="1" t="str">
+      <c r="D191" s="2" t="str">
         <v>不良少年</v>
       </c>
-      <c r="E191" s="1" t="str">
+      <c r="E191" s="2" t="str">
         <v>套装名称</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="192">
-      <c r="A192" s="1">
+      <c r="A192" s="2">
         <v>80015</v>
       </c>
-      <c r="B192" s="4" t="str">
+      <c r="B192" s="3" t="str">
         <v>Item_Name_30009</v>
       </c>
-      <c r="C192" s="4" t="str">
+      <c r="C192" s="3" t="str">
         <v>Cheerleader</v>
       </c>
-      <c r="D192" s="4" t="str">
+      <c r="D192" s="3" t="str">
         <v>啦啦队长</v>
       </c>
-      <c r="E192" s="1" t="str">
+      <c r="E192" s="2" t="str">
         <v>套装名称</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="193">
-      <c r="A193" s="1">
+      <c r="A193" s="2">
         <v>80016</v>
       </c>
-      <c r="B193" s="4" t="str">
+      <c r="B193" s="3" t="str">
         <v>Item_Name_30010</v>
       </c>
-      <c r="C193" s="4" t="str">
+      <c r="C193" s="3" t="str">
         <v>Art Student</v>
       </c>
-      <c r="D193" s="4" t="str">
+      <c r="D193" s="3" t="str">
         <v>艺术生</v>
       </c>
-      <c r="E193" s="1" t="str">
+      <c r="E193" s="2" t="str">
         <v>套装名称</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="194">
-      <c r="A194" s="1">
+      <c r="A194" s="2">
         <v>80017</v>
       </c>
-      <c r="B194" s="4" t="str">
+      <c r="B194" s="3" t="str">
         <v>Item_Name_30011</v>
       </c>
-      <c r="C194" s="4" t="str">
+      <c r="C194" s="3" t="str">
         <v>Anime Girl</v>
       </c>
-      <c r="D194" s="4" t="str">
+      <c r="D194" s="3" t="str">
         <v>二次元少女</v>
       </c>
-      <c r="E194" s="1" t="str">
+      <c r="E194" s="2" t="str">
         <v>套装名称</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="195">
-      <c r="A195" s="1">
+      <c r="A195" s="2">
         <v>80018</v>
       </c>
-      <c r="B195" s="4" t="str">
+      <c r="B195" s="3" t="str">
         <v>Item_Name_30012</v>
       </c>
-      <c r="C195" s="4" t="str">
+      <c r="C195" s="3" t="str">
         <v>English Teacher</v>
       </c>
-      <c r="D195" s="4" t="str">
+      <c r="D195" s="3" t="str">
         <v>英语老师</v>
       </c>
-      <c r="E195" s="1" t="str">
+      <c r="E195" s="2" t="str">
         <v>套装名称</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="196">
-      <c r="A196" s="1">
+      <c r="A196" s="2">
         <v>80019</v>
       </c>
-      <c r="B196" s="4" t="str">
+      <c r="B196" s="3" t="str">
         <v>Item_Name_30013</v>
       </c>
-      <c r="C196" s="4" t="str">
+      <c r="C196" s="3" t="str">
         <v>Justice Boy</v>
       </c>
-      <c r="D196" s="4" t="str">
+      <c r="D196" s="3" t="str">
         <v>正义少年</v>
       </c>
-      <c r="E196" s="1" t="str">
+      <c r="E196" s="2" t="str">
         <v>套装名称</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="197">
-      <c r="A197" s="1">
+      <c r="A197" s="2">
         <v>80020</v>
       </c>
-      <c r="B197" s="4" t="str">
+      <c r="B197" s="3" t="str">
         <v>Item_Name_30014</v>
       </c>
-      <c r="C197" s="4" t="str">
+      <c r="C197" s="3" t="str">
         <v>Trendy Girl</v>
       </c>
-      <c r="D197" s="4" t="str">
+      <c r="D197" s="3" t="str">
         <v>潮流少女</v>
       </c>
-      <c r="E197" s="1" t="str">
+      <c r="E197" s="2" t="str">
         <v>套装名称</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="198">
-      <c r="A198" s="1">
+      <c r="A198" s="2">
         <v>80021</v>
       </c>
-      <c r="B198" s="4" t="str">
+      <c r="B198" s="3" t="str">
         <v>Item_Name_30015</v>
       </c>
-      <c r="C198" s="4" t="str">
+      <c r="C198" s="3" t="str">
         <v>Student President</v>
       </c>
-      <c r="D198" s="1" t="str">
+      <c r="D198" s="2" t="str">
         <v>学生会长</v>
       </c>
-      <c r="E198" s="1" t="str">
+      <c r="E198" s="2" t="str">
         <v>套装名称</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="199">
-      <c r="A199" s="1">
+      <c r="A199" s="2">
         <v>80022</v>
       </c>
-      <c r="B199" s="4" t="str">
+      <c r="B199" s="3" t="str">
         <v>Item_Name_30016</v>
       </c>
-      <c r="C199" s="4" t="str">
+      <c r="C199" s="3" t="str">
         <v>Female Teacher</v>
       </c>
-      <c r="D199" s="1" t="str">
+      <c r="D199" s="2" t="str">
         <v>女老师</v>
       </c>
-      <c r="E199" s="1" t="str">
+      <c r="E199" s="2" t="str">
         <v>套装名称</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="200">
-      <c r="A200" s="1">
+      <c r="A200" s="2">
         <v>80023</v>
       </c>
-      <c r="B200" s="4" t="str">
+      <c r="B200" s="3" t="str">
         <v>Item_Name_30017</v>
       </c>
-      <c r="C200" s="4" t="str">
+      <c r="C200" s="3" t="str">
         <v>Class Monitor</v>
       </c>
-      <c r="D200" s="1" t="str">
+      <c r="D200" s="2" t="str">
         <v>班主任</v>
       </c>
-      <c r="E200" s="1" t="str">
+      <c r="E200" s="2" t="str">
         <v>套装名称</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="201">
-      <c r="A201" s="1">
+      <c r="A201" s="2">
         <v>80024</v>
       </c>
-      <c r="B201" s="4" t="str">
+      <c r="B201" s="3" t="str">
         <v>Item_Name_30018</v>
       </c>
-      <c r="C201" s="4" t="str">
+      <c r="C201" s="3" t="str">
         <v>Sea Girl</v>
       </c>
-      <c r="D201" s="1" t="str">
+      <c r="D201" s="2" t="str">
         <v>海边姐姐</v>
       </c>
-      <c r="E201" s="1" t="str">
+      <c r="E201" s="2" t="str">
         <v>套装名称</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="202">
-      <c r="A202" s="1">
+      <c r="A202" s="2">
         <v>80025</v>
       </c>
-      <c r="B202" s="4" t="str">
+      <c r="B202" s="3" t="str">
         <v>Item_Name_30019</v>
       </c>
-      <c r="C202" s="4" t="str">
+      <c r="C202" s="3" t="str">
         <v>Girl Next Door</v>
       </c>
-      <c r="D202" s="1" t="str">
+      <c r="D202" s="2" t="str">
         <v>邻家妹妹</v>
       </c>
-      <c r="E202" s="1" t="str">
+      <c r="E202" s="2" t="str">
         <v>套装名称</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="203">
-      <c r="A203" s="1">
+      <c r="A203" s="2">
         <v>80026</v>
       </c>
-      <c r="B203" s="4" t="str">
+      <c r="B203" s="3" t="str">
         <v>Item_Name_30020</v>
       </c>
-      <c r="C203" s="4" t="str">
+      <c r="C203" s="3" t="str">
         <v>Fitness Coach</v>
       </c>
-      <c r="D203" s="1" t="str">
+      <c r="D203" s="2" t="str">
         <v>健身教练</v>
       </c>
-      <c r="E203" s="1" t="str">
+      <c r="E203" s="2" t="str">
         <v>套装名称</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="204">
-      <c r="A204" s="1">
+      <c r="A204" s="2">
         <v>80027</v>
       </c>
-      <c r="B204" s="4" t="str">
+      <c r="B204" s="3" t="str">
         <v>Item_Name_30021</v>
       </c>
-      <c r="C204" s="4" t="str">
+      <c r="C204" s="3" t="str">
         <v>Elegant Girl</v>
       </c>
-      <c r="D204" s="1" t="str">
+      <c r="D204" s="2" t="str">
         <v>优雅少女</v>
       </c>
-      <c r="E204" s="1" t="str">
+      <c r="E204" s="2" t="str">
         <v>套装名称</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="205">
-      <c r="A205" s="1">
+      <c r="A205" s="2">
         <v>80028</v>
       </c>
-      <c r="B205" s="4" t="str">
+      <c r="B205" s="3" t="str">
         <v>Item_Name_30022</v>
       </c>
-      <c r="C205" s="4" t="str">
+      <c r="C205" s="3" t="str">
         <v>The Adventurer</v>
       </c>
-      <c r="D205" s="1" t="str">
+      <c r="D205" s="2" t="str">
         <v>探险家</v>
       </c>
-      <c r="E205" s="1" t="str">
+      <c r="E205" s="2" t="str">
         <v>套装名称</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="206">
-      <c r="A206" s="1">
+      <c r="A206" s="2">
         <v>80029</v>
       </c>
-      <c r="B206" s="4" t="str">
+      <c r="B206" s="3" t="str">
         <v>Item_Name_30023</v>
       </c>
-      <c r="C206" s="4" t="str">
+      <c r="C206" s="3" t="str">
         <v>Chinese Student</v>
       </c>
-      <c r="D206" s="1" t="str">
+      <c r="D206" s="2" t="str">
         <v>民国学生</v>
       </c>
-      <c r="E206" s="1" t="str">
+      <c r="E206" s="2" t="str">
         <v>套装名称</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="207">
-      <c r="A207" s="1">
+      <c r="A207" s="2">
         <v>80030</v>
       </c>
-      <c r="B207" s="4" t="str">
+      <c r="B207" s="3" t="str">
         <v>Item_Name_30024</v>
       </c>
-      <c r="C207" s="4" t="str">
+      <c r="C207" s="3" t="str">
         <v>Cocoa Girl</v>
       </c>
-      <c r="D207" s="1" t="str">
+      <c r="D207" s="2" t="str">
         <v>可可少女</v>
       </c>
-      <c r="E207" s="1" t="str">
+      <c r="E207" s="2" t="str">
         <v>套装名称</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="208">
-      <c r="A208" s="1">
+      <c r="A208" s="2">
         <v>80031</v>
       </c>
-      <c r="B208" s="4" t="str">
+      <c r="B208" s="3" t="str">
         <v>Item_Name_30025</v>
       </c>
-      <c r="C208" s="4" t="str">
+      <c r="C208" s="3" t="str">
         <v>Cat Shopkeeper</v>
       </c>
-      <c r="D208" s="1" t="str">
+      <c r="D208" s="2" t="str">
         <v>猫猫店员</v>
       </c>
-      <c r="E208" s="1" t="str">
+      <c r="E208" s="2" t="str">
         <v>套装名称</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="209">
-      <c r="A209" s="1">
+      <c r="A209" s="2">
         <v>80032</v>
       </c>
-      <c r="B209" s="4" t="str">
+      <c r="B209" s="3" t="str">
         <v>Item_Name_30026</v>
       </c>
-      <c r="C209" s="4" t="str">
+      <c r="C209" s="3" t="str">
         <v>Sweet Maid</v>
       </c>
-      <c r="D209" s="1" t="str">
+      <c r="D209" s="2" t="str">
         <v>女仆甜心</v>
       </c>
-      <c r="E209" s="1" t="str">
+      <c r="E209" s="2" t="str">
         <v>套装名称</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="210">
-      <c r="A210" s="1">
+      <c r="A210" s="2">
         <v>80033</v>
       </c>
-      <c r="B210" s="4" t="str">
+      <c r="B210" s="3" t="str">
         <v>Item_Name_30027</v>
       </c>
-      <c r="C210" s="4" t="str">
+      <c r="C210" s="3" t="str">
         <v>Cat-eared Maid</v>
       </c>
-      <c r="D210" s="1" t="str">
+      <c r="D210" s="2" t="str">
         <v>猫耳女仆</v>
       </c>
-      <c r="E210" s="1" t="str">
+      <c r="E210" s="2" t="str">
         <v>套装名称</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="211">
-      <c r="A211" s="1">
+      <c r="A211" s="2">
         <v>80034</v>
       </c>
-      <c r="B211" s="4" t="str">
+      <c r="B211" s="3" t="str">
         <v>Item_Name_30028</v>
       </c>
-      <c r="C211" s="4" t="str">
+      <c r="C211" s="3" t="str">
         <v>Girl Idol</v>
       </c>
-      <c r="D211" s="1" t="str">
+      <c r="D211" s="2" t="str">
         <v>少女偶像</v>
       </c>
-      <c r="E211" s="1" t="str">
+      <c r="E211" s="2" t="str">
         <v>套装名称</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="212">
-      <c r="A212" s="1">
+      <c r="A212" s="2">
         <v>80035</v>
       </c>
-      <c r="B212" s="4" t="str">
+      <c r="B212" s="3" t="str">
         <v>Item_Name_30029</v>
       </c>
-      <c r="C212" s="4" t="str">
+      <c r="C212" s="3" t="str">
         <v>Christmas Girl</v>
       </c>
-      <c r="D212" s="1" t="str">
+      <c r="D212" s="2" t="str">
         <v>圣诞少女</v>
       </c>
-      <c r="E212" s="1" t="str">
+      <c r="E212" s="2" t="str">
         <v>套装名称</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="213">
-      <c r="A213" s="1">
+      <c r="A213" s="2">
         <v>80036</v>
       </c>
-      <c r="B213" s="4" t="str">
+      <c r="B213" s="3" t="str">
         <v>Item_Name_20007</v>
       </c>
-      <c r="C213" s="4" t="str">
+      <c r="C213" s="3" t="str">
         <v>Flame</v>
       </c>
-      <c r="D213" s="1" t="str">
+      <c r="D213" s="2" t="str">
         <v>火焰</v>
       </c>
-      <c r="E213" s="1" t="str">
+      <c r="E213" s="2" t="str">
         <v>拖尾道具</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="214">
-      <c r="A214" s="1">
+      <c r="A214" s="2">
         <v>80037</v>
       </c>
-      <c r="B214" s="4" t="str">
+      <c r="B214" s="3" t="str">
         <v>Item_Name_20008</v>
       </c>
-      <c r="C214" s="4" t="str">
+      <c r="C214" s="3" t="str">
         <v>Witch</v>
       </c>
-      <c r="D214" s="1" t="str">
+      <c r="D214" s="2" t="str">
         <v>女巫</v>
       </c>
-      <c r="E214" s="1" t="str">
+      <c r="E214" s="2" t="str">
         <v>拖尾道具</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="215">
-      <c r="A215" s="1">
+      <c r="A215" s="2">
         <v>80038</v>
       </c>
-      <c r="B215" s="4" t="str">
+      <c r="B215" s="3" t="str">
         <v>Item_Name_20009</v>
       </c>
-      <c r="C215" s="4" t="str">
+      <c r="C215" s="3" t="str">
         <v>Knight</v>
       </c>
-      <c r="D215" s="1" t="str">
+      <c r="D215" s="2" t="str">
         <v>骑士</v>
       </c>
-      <c r="E215" s="1" t="str">
+      <c r="E215" s="2" t="str">
         <v>拖尾道具</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="216">
-      <c r="A216" s="1">
+      <c r="A216" s="2">
         <v>80039</v>
       </c>
-      <c r="B216" s="4" t="str">
+      <c r="B216" s="3" t="str">
         <v>Item_Name_20010</v>
       </c>
-      <c r="C216" s="4" t="str">
+      <c r="C216" s="3" t="str">
         <v>Demon</v>
       </c>
-      <c r="D216" s="1" t="str">
+      <c r="D216" s="2" t="str">
         <v>恶魔</v>
       </c>
-      <c r="E216" s="1" t="str">
+      <c r="E216" s="2" t="str">
         <v>拖尾道具</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="217">
-      <c r="A217" s="1">
+      <c r="A217" s="2">
         <v>80040</v>
       </c>
-      <c r="B217" s="4" t="str">
+      <c r="B217" s="3" t="str">
         <v>Item_Name_20011</v>
       </c>
-      <c r="C217" s="4" t="str">
+      <c r="C217" s="3" t="str">
         <v>Devil</v>
       </c>
-      <c r="D217" s="1" t="str">
+      <c r="D217" s="2" t="str">
         <v>魔鬼</v>
       </c>
-      <c r="E217" s="1" t="str">
+      <c r="E217" s="2" t="str">
         <v>拖尾道具</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="218">
-      <c r="A218" s="6">
+      <c r="A218" s="8">
         <v>90001</v>
       </c>
-      <c r="B218" s="24" t="str">
+      <c r="B218" s="14" t="str">
         <v>Chat_chat_1</v>
       </c>
-      <c r="C218" s="6" t="str">
+      <c r="C218" s="8" t="str">
         <v>I am {1}!</v>
       </c>
-      <c r="D218" s="37" t="str">
+      <c r="D218" s="30" t="str">
         <v>我是{1}~</v>
       </c>
-      <c r="E218" s="6"/>
+      <c r="E218" s="8"/>
     </row>
     <row customHeight="true" ht="21" r="219">
-      <c r="A219" s="6">
+      <c r="A219" s="8">
         <v>90002</v>
       </c>
-      <c r="B219" s="24" t="str">
+      <c r="B219" s="14" t="str">
         <v>Chat_chat_2</v>
       </c>
-      <c r="C219" s="6" t="str">
+      <c r="C219" s="8" t="str">
         <v>Who is the murderer?</v>
       </c>
-      <c r="D219" s="25" t="str">
+      <c r="D219" s="13" t="str">
         <v>凶手是谁？</v>
       </c>
-      <c r="E219" s="6" t="str"/>
+      <c r="E219" s="8" t="str"/>
     </row>
     <row customHeight="true" ht="21" r="220">
-      <c r="A220" s="6">
+      <c r="A220" s="8">
         <v>90003</v>
       </c>
-      <c r="B220" s="24" t="str">
+      <c r="B220" s="14" t="str">
         <v>Chat_chat_3</v>
       </c>
-      <c r="C220" s="6" t="str">
+      <c r="C220" s="8" t="str">
         <v>Help!</v>
       </c>
-      <c r="D220" s="25" t="str">
+      <c r="D220" s="13" t="str">
         <v>救命！</v>
       </c>
-      <c r="E220" s="6" t="str"/>
+      <c r="E220" s="8" t="str"/>
     </row>
     <row customHeight="true" ht="21" r="221">
-      <c r="A221" s="6">
+      <c r="A221" s="8">
         <v>90004</v>
       </c>
-      <c r="B221" s="24" t="str">
+      <c r="B221" s="14" t="str">
         <v>Chat_chat_4</v>
       </c>
-      <c r="C221" s="6" t="str">
+      <c r="C221" s="8" t="str">
         <v>Thank you!</v>
       </c>
-      <c r="D221" s="25" t="str">
+      <c r="D221" s="13" t="str">
         <v>谢谢你！</v>
       </c>
-      <c r="E221" s="6" t="str"/>
+      <c r="E221" s="8" t="str"/>
     </row>
     <row customHeight="true" ht="21" r="222">
-      <c r="A222" s="6">
+      <c r="A222" s="8">
         <v>90005</v>
       </c>
-      <c r="B222" s="24" t="str">
+      <c r="B222" s="14" t="str">
         <v>Chat_chat_5</v>
       </c>
-      <c r="C222" s="6" t="str">
+      <c r="C222" s="8" t="str">
         <v>Hello!</v>
       </c>
-      <c r="D222" s="7" t="str">
+      <c r="D222" s="9" t="str">
         <v>你好！</v>
       </c>
-      <c r="E222" s="6" t="str"/>
+      <c r="E222" s="8" t="str"/>
     </row>
     <row customHeight="true" ht="21" r="223">
-      <c r="A223" s="6">
+      <c r="A223" s="8">
         <v>90006</v>
       </c>
-      <c r="B223" s="24" t="str">
+      <c r="B223" s="14" t="str">
         <v>Chat_chat_6</v>
       </c>
-      <c r="C223" s="6" t="str">
+      <c r="C223" s="8" t="str">
         <v>Don't kill me :(((</v>
       </c>
-      <c r="D223" s="25" t="str">
+      <c r="D223" s="13" t="str">
         <v>别刀我QAQ</v>
       </c>
-      <c r="E223" s="6" t="str">
+      <c r="E223" s="8" t="str">
         <v>QAQ希望也本地化一下，换成欧美比较熟悉的颜表情</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="224">
-      <c r="A224" s="6">
+      <c r="A224" s="8">
         <v>90007</v>
       </c>
-      <c r="B224" s="24" t="str">
+      <c r="B224" s="14" t="str">
         <v>Chat_chat_7</v>
       </c>
-      <c r="C224" s="6" t="str">
+      <c r="C224" s="8" t="str">
         <v>Stay away from me!</v>
       </c>
-      <c r="D224" s="25" t="str">
+      <c r="D224" s="13" t="str">
         <v>退！退！退！</v>
       </c>
-      <c r="E224" s="6"/>
+      <c r="E224" s="8"/>
     </row>
     <row customHeight="true" ht="21" r="225">
-      <c r="A225" s="6">
+      <c r="A225" s="8">
         <v>90008</v>
       </c>
-      <c r="B225" s="24" t="str">
+      <c r="B225" s="14" t="str">
         <v>Chat_chat_8</v>
       </c>
-      <c r="C225" s="6" t="str">
+      <c r="C225" s="8" t="str">
         <v>Perfect!</v>
       </c>
-      <c r="D225" s="25" t="str">
+      <c r="D225" s="13" t="str">
         <v>满分操作~</v>
       </c>
-      <c r="E225" s="6" t="str"/>
+      <c r="E225" s="8" t="str"/>
     </row>
     <row customHeight="true" ht="21" r="226">
-      <c r="A226" s="6">
+      <c r="A226" s="8">
         <v>90009</v>
       </c>
-      <c r="B226" s="24" t="str">
+      <c r="B226" s="14" t="str">
         <v>Chat_chat_9</v>
       </c>
-      <c r="C226" s="6" t="str">
+      <c r="C226" s="8" t="str">
         <v>Show time!</v>
       </c>
-      <c r="D226" s="25" t="str">
+      <c r="D226" s="13" t="str">
         <v>我要开始表演了~</v>
       </c>
-      <c r="E226" s="6" t="str"/>
+      <c r="E226" s="8" t="str"/>
     </row>
     <row customHeight="true" ht="21" r="227">
-      <c r="A227" s="6">
+      <c r="A227" s="8">
         <v>90010</v>
       </c>
-      <c r="B227" s="10" t="str">
+      <c r="B227" s="21" t="str">
         <v>Text_Content_20042</v>
       </c>
-      <c r="C227" s="6" t="str">
+      <c r="C227" s="8" t="str">
         <v>Student</v>
       </c>
-      <c r="D227" s="6" t="str">
+      <c r="D227" s="8" t="str">
         <v>学生</v>
       </c>
-      <c r="E227" s="6" t="str"/>
+      <c r="E227" s="8" t="str"/>
     </row>
     <row customHeight="true" ht="21" r="228">
-      <c r="A228" s="6">
+      <c r="A228" s="8">
         <v>90011</v>
       </c>
-      <c r="B228" s="10" t="str">
+      <c r="B228" s="21" t="str">
         <v>Text_Content_20043</v>
       </c>
-      <c r="C228" s="6" t="str">
+      <c r="C228" s="8" t="str">
         <v>Detective</v>
       </c>
-      <c r="D228" s="6" t="str">
+      <c r="D228" s="8" t="str">
         <v>侦探</v>
       </c>
-      <c r="E228" s="6" t="str"/>
+      <c r="E228" s="8" t="str"/>
     </row>
     <row customHeight="true" ht="21" r="229">
-      <c r="A229" s="6">
+      <c r="A229" s="8">
         <v>90012</v>
       </c>
-      <c r="B229" s="10" t="str">
+      <c r="B229" s="21" t="str">
         <v>Text_Content_20044</v>
       </c>
-      <c r="C229" s="6" t="str">
+      <c r="C229" s="8" t="str">
         <v>Murderer</v>
       </c>
-      <c r="D229" s="6" t="str">
+      <c r="D229" s="8" t="str">
         <v>凶手</v>
       </c>
-      <c r="E229" s="6" t="str"/>
+      <c r="E229" s="8" t="str"/>
     </row>
     <row customHeight="true" ht="21" r="230">
-      <c r="A230" s="6">
+      <c r="A230" s="8">
         <v>90013</v>
       </c>
-      <c r="B230" s="10" t="str">
+      <c r="B230" s="21" t="str">
         <v>Text_Content_20036</v>
       </c>
-      <c r="C230" s="6" t="str">
+      <c r="C230" s="8" t="str">
         <v>1. The Murderer can attack in two ways
 2. In melee attack mode, you will auto wave knife when aproaching other players.
 3. An aming sign will appear when you are nearby a target. Tap the sign to attack.</v>
       </c>
-      <c r="D230" s="6" t="str">
+      <c r="D230" s="8" t="str">
         <v>1.凶手有近战穿刺、远程飞刀两种方式，可以自由切换
 2.在近战状态下，靠近其他玩家并面向他们，就可以自动挥刀击杀
 3.在远程状态下，附近有可攻击的目标时，会出现瞄准标志，点击标志即可扔出飞刀</v>
       </c>
-      <c r="E230" s="6" t="str">
+      <c r="E230" s="8" t="str">
         <v>文本长度尽量和中文一致</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="231">
-      <c r="A231" s="6">
+      <c r="A231" s="8">
         <v>90014</v>
       </c>
-      <c r="B231" s="10" t="str">
+      <c r="B231" s="21" t="str">
         <v>Text_Content_20037</v>
       </c>
-      <c r="C231" s="6" t="str">
+      <c r="C231" s="8" t="str">
         <v>1. The detective can shoot in two ways.
 2. An aming sign will appear when holding the gun nearby a target. Tap the sign to fire.
 3. Also, you can tap any position to fire at.</v>
       </c>
-      <c r="D231" s="6" t="str">
+      <c r="D231" s="8" t="str">
         <v>1.侦探可以开枪进行射击，有两种射击方法
 2.在持枪状态下，附近有可攻击目标时，会出现瞄准标志，点击标志即可发射子弹
 3.除此之外，持枪状态下点击任意位置都可以发射子弹哦~</v>
       </c>
-      <c r="E231" s="6" t="str">
+      <c r="E231" s="8" t="str">
         <v>文本长度尽量和中文一致</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="232">
-      <c r="A232" s="6">
+      <c r="A232" s="8">
         <v>90015</v>
       </c>
-      <c r="B232" s="10" t="str">
+      <c r="B232" s="21" t="str">
         <v>Text_Content_20038</v>
       </c>
-      <c r="C232" s="6" t="str">
+      <c r="C232" s="8" t="str">
         <v>1. If you are a murderer/detective, try not to reveal your identity.
 2. Don't trust anyone who tries to get close to you, they are dangerous, always stay alert.
 3. If you are a student, try to survive!</v>
       </c>
-      <c r="D232" s="6" t="str">
+      <c r="D232" s="8" t="str">
         <v>1.如果你是杀手/侦探，请尽量不要暴露自己的身份
 2.不要相信任何试图靠近你的人，他们很危险，时刻保持警惕
 3.假如你是平民，那么努力活下来吧</v>
       </c>
-      <c r="E232" s="6" t="str">
+      <c r="E232" s="8" t="str">
         <v>文本长度尽量和中文一致</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="233">
-      <c r="A233" s="6">
+      <c r="A233" s="8">
         <v>90016</v>
       </c>
-      <c r="B233" s="10" t="str">
+      <c r="B233" s="21" t="str">
         <v>Text_Content_20039</v>
       </c>
-      <c r="C233" s="6" t="str">
+      <c r="C233" s="8" t="str">
         <v>Murderer Tutorial</v>
       </c>
-      <c r="D233" s="6" t="str">
+      <c r="D233" s="8" t="str">
         <v>凶手教学</v>
       </c>
-      <c r="E233" s="6" t="str"/>
+      <c r="E233" s="8" t="str"/>
     </row>
     <row customHeight="true" ht="21" r="234">
-      <c r="A234" s="6">
+      <c r="A234" s="8">
         <v>90017</v>
       </c>
-      <c r="B234" s="10" t="str">
+      <c r="B234" s="21" t="str">
         <v>Text_Content_20040</v>
       </c>
-      <c r="C234" s="6" t="str">
+      <c r="C234" s="8" t="str">
         <v>Detective Tutorial</v>
       </c>
-      <c r="D234" s="6" t="str">
+      <c r="D234" s="8" t="str">
         <v>侦探教学</v>
       </c>
-      <c r="E234" s="6" t="str"/>
+      <c r="E234" s="8" t="str"/>
     </row>
     <row customHeight="true" ht="21" r="235">
-      <c r="A235" s="6">
+      <c r="A235" s="8">
         <v>90018</v>
       </c>
-      <c r="B235" s="10" t="str">
+      <c r="B235" s="21" t="str">
         <v>Text_Content_20041</v>
       </c>
-      <c r="C235" s="6" t="str">
+      <c r="C235" s="8" t="str">
         <v>Tips</v>
       </c>
-      <c r="D235" s="6" t="str">
+      <c r="D235" s="8" t="str">
         <v>温馨提示</v>
       </c>
-      <c r="E235" s="6" t="str"/>
+      <c r="E235" s="8" t="str"/>
     </row>
     <row customHeight="true" ht="21" r="236">
-      <c r="A236" s="6">
+      <c r="A236" s="8">
         <v>90019</v>
       </c>
-      <c r="B236" s="7" t="str">
+      <c r="B236" s="9" t="str">
         <v>Tips_Content_20009</v>
       </c>
-      <c r="C236" s="6" t="str">
+      <c r="C236" s="8" t="str">
         <v>The murderer defeated you.</v>
       </c>
-      <c r="D236" s="13" t="str">
+      <c r="D236" s="22" t="str">
         <v>凶手淘汰了你</v>
       </c>
-      <c r="E236" s="6" t="str"/>
+      <c r="E236" s="8" t="str"/>
     </row>
     <row customHeight="true" ht="21" r="237">
-      <c r="A237" s="6">
+      <c r="A237" s="8">
         <v>90020</v>
       </c>
-      <c r="B237" s="7" t="str">
+      <c r="B237" s="9" t="str">
         <v>Tips_Content_20010</v>
       </c>
-      <c r="C237" s="6" t="str">
+      <c r="C237" s="8" t="str">
         <v>Wrong target, you're eliminated.</v>
       </c>
-      <c r="D237" s="13" t="str">
+      <c r="D237" s="22" t="str">
         <v>目标错误，你被淘汰了</v>
       </c>
-      <c r="E237" s="6" t="str"/>
+      <c r="E237" s="8" t="str"/>
     </row>
     <row customHeight="true" ht="21" r="238">
-      <c r="A238" s="6">
+      <c r="A238" s="8">
         <v>90021</v>
       </c>
-      <c r="B238" s="7" t="str">
+      <c r="B238" s="9" t="str">
         <v>Tips_Content_20011</v>
       </c>
-      <c r="C238" s="6" t="str">
+      <c r="C238" s="8" t="str">
         <v>You have been eliminated by the detective.</v>
       </c>
-      <c r="D238" s="13" t="str">
+      <c r="D238" s="22" t="str">
         <v>已被正义的警探消灭</v>
       </c>
-      <c r="E238" s="6" t="str"/>
+      <c r="E238" s="8" t="str"/>
     </row>
     <row customHeight="true" ht="21" r="239">
-      <c r="A239" s="6">
+      <c r="A239" s="8">
         <v>90022</v>
       </c>
-      <c r="B239" s="7" t="str">
+      <c r="B239" s="9" t="str">
         <v>Text_Content_12027</v>
       </c>
-      <c r="C239" s="6" t="str">
+      <c r="C239" s="8" t="str">
         <v>Power Store</v>
       </c>
-      <c r="D239" s="6" t="str">
+      <c r="D239" s="8" t="str">
         <v>能力商店</v>
       </c>
-      <c r="E239" s="6" t="str"/>
+      <c r="E239" s="8" t="str"/>
     </row>
     <row customHeight="true" ht="21" r="240">
-      <c r="A240" s="6">
+      <c r="A240" s="8">
         <v>90023</v>
       </c>
-      <c r="B240" s="7" t="str">
+      <c r="B240" s="9" t="str">
         <v>Text_Content_12028</v>
       </c>
-      <c r="C240" s="6" t="str">
+      <c r="C240" s="8" t="str">
         <v>Power Details</v>
       </c>
-      <c r="D240" s="6" t="str">
+      <c r="D240" s="8" t="str">
         <v>能力详情</v>
       </c>
-      <c r="E240" s="6" t="str"/>
+      <c r="E240" s="8" t="str"/>
     </row>
     <row customHeight="true" ht="21" r="241">
-      <c r="A241" s="6">
+      <c r="A241" s="8">
         <v>90024</v>
       </c>
-      <c r="B241" s="7" t="str">
+      <c r="B241" s="9" t="str">
         <v>Text_Content_12029</v>
       </c>
-      <c r="C241" s="6" t="str">
+      <c r="C241" s="8" t="str">
         <v>Equip</v>
       </c>
-      <c r="D241" s="6" t="str">
+      <c r="D241" s="8" t="str">
         <v>装备</v>
       </c>
-      <c r="E241" s="6" t="str">
+      <c r="E241" s="8" t="str">
         <v>动词</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="242">
-      <c r="A242" s="6">
+      <c r="A242" s="8">
         <v>90025</v>
       </c>
-      <c r="B242" s="7" t="str">
+      <c r="B242" s="9" t="str">
         <v>Text_Content_12030</v>
       </c>
-      <c r="C242" s="6" t="str">
+      <c r="C242" s="8" t="str">
         <v>Remove</v>
       </c>
-      <c r="D242" s="6" t="str">
+      <c r="D242" s="8" t="str">
         <v>卸下</v>
       </c>
-      <c r="E242" s="6" t="str"/>
+      <c r="E242" s="8" t="str"/>
     </row>
     <row customHeight="true" ht="21" r="243">
-      <c r="A243" s="6">
+      <c r="A243" s="8">
         <v>90026</v>
       </c>
-      <c r="B243" s="7" t="str">
+      <c r="B243" s="9" t="str">
         <v>Text_Content_12031</v>
       </c>
-      <c r="C243" s="6" t="str">
+      <c r="C243" s="8" t="str">
         <v>Coin Purchase</v>
       </c>
-      <c r="D243" s="6" t="str">
+      <c r="D243" s="8" t="str">
         <v>金币购买</v>
       </c>
-      <c r="E243" s="6" t="str"/>
+      <c r="E243" s="8" t="str"/>
     </row>
     <row customHeight="true" ht="21" r="244">
-      <c r="A244" s="6">
+      <c r="A244" s="8">
         <v>90027</v>
       </c>
-      <c r="B244" s="7" t="str">
+      <c r="B244" s="9" t="str">
         <v>Text_Content_12032</v>
       </c>
-      <c r="C244" s="6" t="str">
+      <c r="C244" s="8" t="str">
         <v>Diamond Purchase</v>
       </c>
-      <c r="D244" s="6" t="str">
+      <c r="D244" s="8" t="str">
         <v>钻石购买</v>
       </c>
-      <c r="E244" s="6" t="str"/>
+      <c r="E244" s="8" t="str"/>
     </row>
     <row customHeight="true" ht="21" r="245">
-      <c r="A245" s="6">
+      <c r="A245" s="8">
         <v>90028</v>
       </c>
-      <c r="B245" s="7" t="str">
+      <c r="B245" s="9" t="str">
         <v>Text_Content_12033</v>
       </c>
-      <c r="C245" s="6" t="str">
+      <c r="C245" s="8" t="str">
         <v>Equipped</v>
       </c>
-      <c r="D245" s="6" t="str">
+      <c r="D245" s="8" t="str">
         <v>装备中</v>
       </c>
-      <c r="E245" s="6" t="str">
+      <c r="E245" s="8" t="str">
         <v>指“已装备”</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="246">
-      <c r="A246" s="6">
+      <c r="A246" s="8">
         <v>90029</v>
       </c>
-      <c r="B246" s="7" t="str">
+      <c r="B246" s="9" t="str">
         <v>Text_Content_12034</v>
       </c>
-      <c r="C246" s="6" t="str">
+      <c r="C246" s="8" t="str">
         <v>Owned</v>
       </c>
-      <c r="D246" s="6" t="str">
+      <c r="D246" s="8" t="str">
         <v>已拥有</v>
       </c>
-      <c r="E246" s="6" t="str"/>
+      <c r="E246" s="8" t="str"/>
     </row>
     <row customHeight="true" ht="21" r="247">
-      <c r="A247" s="6">
+      <c r="A247" s="8">
         <v>90030</v>
       </c>
-      <c r="B247" s="7" t="str">
+      <c r="B247" s="9" t="str">
         <v>Tips_Content_10011</v>
       </c>
-      <c r="C247" s="6" t="str">
+      <c r="C247" s="8" t="str">
         <v>Purchase successfully!</v>
       </c>
-      <c r="D247" s="6" t="str">
+      <c r="D247" s="8" t="str">
         <v>购买成功</v>
       </c>
-      <c r="E247" s="6" t="str"/>
+      <c r="E247" s="8" t="str"/>
     </row>
     <row customHeight="true" ht="21" r="248">
-      <c r="A248" s="6">
+      <c r="A248" s="8">
         <v>90031</v>
       </c>
-      <c r="B248" s="7" t="str">
+      <c r="B248" s="9" t="str">
         <v>Tips_Content_10012</v>
       </c>
-      <c r="C248" s="6" t="str">
+      <c r="C248" s="8" t="str">
         <v>Purchase failed</v>
       </c>
-      <c r="D248" s="4" t="str">
+      <c r="D248" s="3" t="str">
         <v>货币不足，再攒攒吧~</v>
       </c>
-      <c r="E248" s="6" t="str"/>
+      <c r="E248" s="8" t="str"/>
     </row>
     <row customHeight="true" ht="21" r="249">
-      <c r="A249" s="6">
+      <c r="A249" s="8">
         <v>90032</v>
       </c>
-      <c r="B249" s="17" t="str">
+      <c r="B249" s="25" t="str">
         <v>SkillShop_Name_10001</v>
       </c>
-      <c r="C249" s="6" t="str">
+      <c r="C249" s="8" t="str">
         <v>Killer Pace</v>
       </c>
-      <c r="D249" s="17" t="str">
+      <c r="D249" s="25" t="str">
         <v>杀手步伐</v>
       </c>
-      <c r="E249" s="6" t="str">
+      <c r="E249" s="8" t="str">
         <v>杀手的特殊能力名称</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="250">
-      <c r="A250" s="6">
+      <c r="A250" s="8">
         <v>90033</v>
       </c>
-      <c r="B250" s="17" t="str">
+      <c r="B250" s="25" t="str">
         <v>SkillShop_Name_10002</v>
       </c>
-      <c r="C250" s="6" t="str">
+      <c r="C250" s="8" t="str">
         <v>Quick Throw</v>
       </c>
-      <c r="D250" s="17" t="str">
+      <c r="D250" s="25" t="str">
         <v>快速投掷</v>
       </c>
-      <c r="E250" s="6" t="str">
+      <c r="E250" s="8" t="str">
         <v>杀手的特殊能力名称</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="251">
-      <c r="A251" s="6">
+      <c r="A251" s="8">
         <v>90034</v>
       </c>
-      <c r="B251" s="17" t="str">
+      <c r="B251" s="25" t="str">
         <v>SkillShop_Name_10003</v>
       </c>
-      <c r="C251" s="6" t="str">
+      <c r="C251" s="8" t="str">
         <v>Explosive Knife</v>
       </c>
-      <c r="D251" s="17" t="str">
+      <c r="D251" s="25" t="str">
         <v>爆炸飞刀</v>
       </c>
-      <c r="E251" s="6" t="str">
+      <c r="E251" s="8" t="str">
         <v>杀手的特殊能力名称</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="252">
-      <c r="A252" s="6">
+      <c r="A252" s="8">
         <v>90035</v>
       </c>
-      <c r="B252" s="17" t="str">
+      <c r="B252" s="25" t="str">
         <v>SkillShop_Description_10001</v>
       </c>
-      <c r="C252" s="6" t="str">
+      <c r="C252" s="8" t="str">
         <v>[Murderer's Passive Ability] When you pull out your knife, your movement speed is increased by 10% faster than usual.</v>
       </c>
-      <c r="D252" s="17" t="str">
+      <c r="D252" s="25" t="str">
         <v>【杀手被动能力】
 当你掏出你的刀时，你的移动速度会比平时更快，提升10％</v>
       </c>
-      <c r="E252" s="6" t="str"/>
+      <c r="E252" s="8" t="str"/>
     </row>
     <row customHeight="true" ht="21" r="253">
-      <c r="A253" s="6">
+      <c r="A253" s="8">
         <v>90036</v>
       </c>
-      <c r="B253" s="17" t="str">
+      <c r="B253" s="25" t="str">
         <v>SkillShop_Description_10002</v>
       </c>
-      <c r="C253" s="6" t="str">
+      <c r="C253" s="8" t="str">
         <v>[Murderer's Passive Ability] Now your thrown flying knives will fly faster, boosted by 100%!</v>
       </c>
-      <c r="D253" s="17" t="str">
+      <c r="D253" s="25" t="str">
         <v>【杀手被动能力】
 现在你扔出的飞刀会飞得更快，提升100％</v>
       </c>
-      <c r="E253" s="6" t="str"/>
+      <c r="E253" s="8" t="str"/>
     </row>
     <row customHeight="true" ht="21" r="254">
-      <c r="A254" s="6">
+      <c r="A254" s="8">
         <v>90037</v>
       </c>
-      <c r="B254" s="17" t="str">
+      <c r="B254" s="25" t="str">
         <v>SkillShop_Description_10003</v>
       </c>
-      <c r="C254" s="6" t="str">
+      <c r="C254" s="8" t="str">
         <v>[Murderer Passive Ability] When your throwing knife hits a target, instead of immediately dealing damage to the target, it plants a bomb. The bomb will explode after a small delay and deal damage to players around a certain range.</v>
       </c>
-      <c r="D254" s="17" t="str">
+      <c r="D254" s="25" t="str">
         <v>【杀手被动能力】
 当你的飞刀命中目标时，不会立即对目标造成伤害，而是在目标处埋下一颗炸弹，延迟一小段时间后会爆炸，并对周围一定范围内的玩家同样造成伤害</v>
       </c>
-      <c r="E254" s="6" t="str"/>
+      <c r="E254" s="8" t="str"/>
     </row>
     <row customHeight="true" ht="21" r="255">
-      <c r="A255" s="6">
+      <c r="A255" s="8">
         <v>90038</v>
       </c>
-      <c r="B255" s="7" t="str">
+      <c r="B255" s="9" t="str">
         <v>Shop_Name_40001</v>
       </c>
-      <c r="C255" s="6" t="str">
+      <c r="C255" s="8" t="str">
         <v>Skibidi Rainbow Toilet</v>
       </c>
-      <c r="D255" s="16" t="str">
+      <c r="D255" s="10" t="str">
         <v>彩虹马桶人</v>
       </c>
-      <c r="E255" s="6" t="str">
+      <c r="E255" s="8" t="str">
         <v>马桶人是外网热梗，就叫skibidi toilet</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="256">
-      <c r="A256" s="6">
+      <c r="A256" s="8">
         <v>90039</v>
       </c>
-      <c r="B256" s="7" t="str">
+      <c r="B256" s="9" t="str">
         <v>Shop_Name_40002</v>
       </c>
-      <c r="C256" s="6" t="str">
+      <c r="C256" s="8" t="str">
         <v>Skibidi Princess Toilet</v>
       </c>
-      <c r="D256" s="16" t="str">
+      <c r="D256" s="10" t="str">
         <v>公主马桶人</v>
       </c>
-      <c r="E256" s="6" t="str">
+      <c r="E256" s="8" t="str">
         <v>马桶人是外网热梗，就叫skibidi toilet</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="257">
-      <c r="A257" s="6">
+      <c r="A257" s="8">
         <v>90040</v>
       </c>
-      <c r="B257" s="7" t="str">
+      <c r="B257" s="9" t="str">
         <v>Shop_Name_40003</v>
       </c>
-      <c r="C257" s="6" t="str">
+      <c r="C257" s="8" t="str">
         <v>Skibidi Space Toilet</v>
       </c>
-      <c r="D257" s="16" t="str">
+      <c r="D257" s="10" t="str">
         <v>太空马桶人</v>
       </c>
-      <c r="E257" s="6" t="str">
+      <c r="E257" s="8" t="str">
         <v>马桶人是外网热梗，就叫skibidi toilet</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="258">
-      <c r="A258" s="6">
+      <c r="A258" s="8">
         <v>90041</v>
       </c>
-      <c r="B258" s="7" t="str">
+      <c r="B258" s="9" t="str">
         <v>Shop_Name_40004</v>
       </c>
-      <c r="C258" s="6" t="str">
+      <c r="C258" s="8" t="str">
         <v>Skibidi Spider Toilet</v>
       </c>
-      <c r="D258" s="16" t="str">
+      <c r="D258" s="10" t="str">
         <v>蜘蛛马桶人</v>
       </c>
-      <c r="E258" s="6" t="str">
+      <c r="E258" s="8" t="str">
         <v>马桶人是外网热梗，就叫skibidi toilet</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="259">
-      <c r="A259" s="6">
+      <c r="A259" s="8">
         <v>90042</v>
       </c>
-      <c r="B259" s="7" t="str">
+      <c r="B259" s="9" t="str">
         <v>Shop_Name_40005</v>
       </c>
-      <c r="C259" s="6" t="str">
+      <c r="C259" s="8" t="str">
         <v>Cameraman</v>
       </c>
-      <c r="D259" s="16" t="str">
+      <c r="D259" s="10" t="str">
         <v>监控人</v>
       </c>
-      <c r="E259" s="6" t="str">
+      <c r="E259" s="8" t="str">
         <v>马桶人系列，就叫这个</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="260">
-      <c r="A260" s="6">
+      <c r="A260" s="8">
         <v>90043</v>
       </c>
-      <c r="B260" s="7" t="str">
+      <c r="B260" s="9" t="str">
         <v>Shop_Name_40006</v>
       </c>
-      <c r="C260" s="6" t="str">
+      <c r="C260" s="8" t="str">
         <v>Speakerman</v>
       </c>
-      <c r="D260" s="16" t="str">
+      <c r="D260" s="10" t="str">
         <v>音响人</v>
       </c>
-      <c r="E260" s="6" t="str">
+      <c r="E260" s="8" t="str">
         <v>马桶人系列，就叫这个</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="261">
-      <c r="A261" s="6">
+      <c r="A261" s="8">
         <v>90044</v>
       </c>
-      <c r="B261" s="7" t="str">
+      <c r="B261" s="9" t="str">
         <v>Shop_Name_40007</v>
       </c>
-      <c r="C261" s="6" t="str">
+      <c r="C261" s="8" t="str">
         <v>TV Man</v>
       </c>
-      <c r="D261" s="16" t="str">
+      <c r="D261" s="10" t="str">
         <v>电视人</v>
       </c>
-      <c r="E261" s="6" t="str">
+      <c r="E261" s="8" t="str">
         <v>马桶人系列，就叫这个</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="262">
-      <c r="A262" s="6">
+      <c r="A262" s="8">
         <v>90045</v>
       </c>
-      <c r="B262" s="7" t="str">
+      <c r="B262" s="9" t="str">
         <v>Shop_Name_40008</v>
       </c>
-      <c r="C262" s="6" t="str">
+      <c r="C262" s="8" t="str">
         <v>Cartoon Speakerman</v>
       </c>
-      <c r="D262" s="16" t="str">
+      <c r="D262" s="10" t="str">
         <v>卡通音响人</v>
       </c>
-      <c r="E262" s="6" t="str"/>
+      <c r="E262" s="8" t="str"/>
     </row>
     <row customHeight="true" ht="21" r="263">
-      <c r="A263" s="6">
+      <c r="A263" s="8">
         <v>90046</v>
       </c>
-      <c r="B263" s="7" t="str">
+      <c r="B263" s="9" t="str">
         <v>Shop_Name_40009</v>
       </c>
-      <c r="C263" s="6" t="str">
+      <c r="C263" s="8" t="str">
         <v>Cartoon TVman</v>
       </c>
-      <c r="D263" s="16" t="str">
+      <c r="D263" s="10" t="str">
         <v>卡通电视人</v>
       </c>
-      <c r="E263" s="6" t="str"/>
+      <c r="E263" s="8" t="str"/>
     </row>
     <row customHeight="true" ht="21" r="264">
-      <c r="A264" s="22">
+      <c r="A264" s="35">
         <v>90047</v>
       </c>
-      <c r="B264" s="23" t="str">
+      <c r="B264" s="36" t="str">
         <v>Text_Content_10005</v>
       </c>
-      <c r="C264" s="6" t="str">
+      <c r="C264" s="8" t="str">
         <v>This update:
 1. New [Skibidi Toilet VS Cameraman] series of pendants, welcome to the shop!
 2. New [Power Store], the configuration of the murderer's special abilities is now available!
@@ -5391,7 +5442,7 @@
 4. Adjusted the lobby and level scenes to improve performance.
 5. New reset button, try to tap it when the camera stucks!</v>
       </c>
-      <c r="D264" s="22" t="str">
+      <c r="D264" s="35" t="str">
         <v>本次更新：
 1.新增【马桶人VS监控人】系列挂件，欢迎大家去商店选购~
 2.新增【能力商店】，开放杀手局内特殊能力的配置
@@ -5399,210 +5450,210 @@
 4.调整大厅及关卡场景，提升性能
 5.新增还原按钮，镜头卡住的时候点一下试试吧</v>
       </c>
-      <c r="E264" s="22" t="str">
+      <c r="E264" s="35" t="str">
         <v>马桶人是外网热梗，就叫skibidi toilet</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="265">
-      <c r="A265" s="14">
+      <c r="A265" s="32">
         <v>90048</v>
       </c>
-      <c r="B265" s="30" t="str">
+      <c r="B265" s="33" t="str">
         <v>Tips_Content_10013</v>
       </c>
-      <c r="C265" s="6" t="str">
+      <c r="C265" s="8" t="str">
         <v>A player fails to enter the scene, the game will restart.</v>
       </c>
-      <c r="D265" s="14" t="str">
+      <c r="D265" s="32" t="str">
         <v>有玩家进入场景失败，对局将重新开始</v>
       </c>
-      <c r="E265" s="14" t="str"/>
+      <c r="E265" s="32" t="str"/>
     </row>
     <row customHeight="true" ht="21" r="266">
-      <c r="A266" s="14">
+      <c r="A266" s="32">
         <v>90049</v>
       </c>
-      <c r="B266" s="14" t="str">
+      <c r="B266" s="32" t="str">
         <v>Text_Content_10006</v>
       </c>
-      <c r="C266" s="4" t="str">
+      <c r="C266" s="3" t="str">
         <v>Jump</v>
       </c>
-      <c r="D266" s="14" t="str">
+      <c r="D266" s="32" t="str">
         <v>跳转</v>
       </c>
-      <c r="E266" s="14" t="str"/>
+      <c r="E266" s="32" t="str"/>
     </row>
     <row customHeight="true" ht="21" r="267">
-      <c r="A267" s="14">
+      <c r="A267" s="32">
         <v>90050</v>
       </c>
-      <c r="B267" s="2" t="str">
+      <c r="B267" s="5" t="str">
         <v>Text_Content_20045</v>
       </c>
-      <c r="C267" s="4" t="str">
+      <c r="C267" s="3" t="str">
         <v>Pull out gun</v>
       </c>
-      <c r="D267" s="1" t="str">
+      <c r="D267" s="2" t="str">
         <v>掏出手枪</v>
       </c>
-      <c r="E267" s="14"/>
+      <c r="E267" s="32"/>
     </row>
     <row customHeight="true" ht="21" r="268">
-      <c r="A268" s="14">
+      <c r="A268" s="32">
         <v>90051</v>
       </c>
-      <c r="B268" s="2" t="str">
+      <c r="B268" s="5" t="str">
         <v>Text_Content_20046</v>
       </c>
-      <c r="C268" s="4" t="str">
+      <c r="C268" s="3" t="str">
         <v>Put away gun</v>
       </c>
-      <c r="D268" s="1" t="str">
+      <c r="D268" s="2" t="str">
         <v>收起手枪</v>
       </c>
-      <c r="E268" s="14"/>
+      <c r="E268" s="32"/>
     </row>
     <row customHeight="true" ht="21" r="269">
-      <c r="A269" s="14">
+      <c r="A269" s="32">
         <v>90052</v>
       </c>
-      <c r="B269" s="2" t="str">
+      <c r="B269" s="5" t="str">
         <v>Text_Content_20047</v>
       </c>
-      <c r="C269" s="4" t="str">
+      <c r="C269" s="3" t="str">
         <v>Aim Sign</v>
       </c>
-      <c r="D269" s="1" t="str">
+      <c r="D269" s="2" t="str">
         <v>准星图标</v>
       </c>
-      <c r="E269" s="14"/>
+      <c r="E269" s="32"/>
     </row>
     <row customHeight="true" ht="21" r="270">
-      <c r="A270" s="14">
+      <c r="A270" s="32">
         <v>90053</v>
       </c>
-      <c r="B270" s="2" t="str">
+      <c r="B270" s="5" t="str">
         <v>Text_Content_20048</v>
       </c>
-      <c r="C270" s="4" t="str">
+      <c r="C270" s="3" t="str">
         <v>Melee mode</v>
       </c>
-      <c r="D270" s="1" t="str">
+      <c r="D270" s="2" t="str">
         <v>掏出近战匕首</v>
       </c>
-      <c r="E270" s="14"/>
+      <c r="E270" s="32"/>
     </row>
     <row customHeight="true" ht="21" r="271">
-      <c r="A271" s="14">
+      <c r="A271" s="32">
         <v>90054</v>
       </c>
-      <c r="B271" s="2" t="str">
+      <c r="B271" s="5" t="str">
         <v>Text_Content_20049</v>
       </c>
-      <c r="C271" s="4" t="str">
+      <c r="C271" s="3" t="str">
         <v>Throwing mode</v>
       </c>
-      <c r="D271" s="1" t="str">
+      <c r="D271" s="2" t="str">
         <v>掏出远程飞刀</v>
       </c>
-      <c r="E271" s="14"/>
+      <c r="E271" s="32"/>
     </row>
     <row customHeight="true" ht="21" r="272">
-      <c r="A272" s="14">
+      <c r="A272" s="32">
         <v>90055</v>
       </c>
-      <c r="B272" s="2" t="str">
+      <c r="B272" s="5" t="str">
         <v>Text_Content_20050</v>
       </c>
-      <c r="C272" s="4" t="str">
+      <c r="C272" s="3" t="str">
         <v>Put away knife</v>
       </c>
-      <c r="D272" s="1" t="str">
+      <c r="D272" s="2" t="str">
         <v>收起武器</v>
       </c>
-      <c r="E272" s="14"/>
+      <c r="E272" s="32"/>
     </row>
     <row customHeight="true" ht="21" r="273">
-      <c r="A273" s="14">
+      <c r="A273" s="32">
         <v>90056</v>
       </c>
-      <c r="B273" s="2" t="str">
+      <c r="B273" s="5" t="str">
         <v>Text_Content_20051</v>
       </c>
-      <c r="C273" s="1" t="str">
+      <c r="C273" s="2" t="str">
         <v>A</v>
       </c>
-      <c r="D273" s="4" t="str">
+      <c r="D273" s="3" t="str">
         <v>暂无获取途径</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="274">
-      <c r="A274" s="33">
+      <c r="A274" s="17">
         <v>90057</v>
       </c>
-      <c r="B274" s="33" t="str">
+      <c r="B274" s="17" t="str">
         <v>Lottery_Name_10003</v>
       </c>
-      <c r="C274" s="34" t="str">
+      <c r="C274" s="18" t="str">
         <v>Sci-Fi Weapon Box</v>
       </c>
-      <c r="D274" s="34" t="str">
+      <c r="D274" s="18" t="str">
         <v>科幻武器箱</v>
       </c>
-      <c r="E274" s="33"/>
+      <c r="E274" s="17"/>
     </row>
     <row customHeight="true" ht="21" r="275">
-      <c r="A275" s="33">
+      <c r="A275" s="17">
         <v>90058</v>
       </c>
-      <c r="B275" s="33" t="str">
+      <c r="B275" s="17" t="str">
         <v>Lottery_Name_10004</v>
       </c>
-      <c r="C275" s="34" t="str">
+      <c r="C275" s="18" t="str">
         <v>Myth Weapon Box</v>
       </c>
-      <c r="D275" s="34" t="str">
+      <c r="D275" s="18" t="str">
         <v>神话武器箱</v>
       </c>
-      <c r="E275" s="33"/>
+      <c r="E275" s="17"/>
     </row>
     <row customHeight="true" ht="21" r="276">
-      <c r="A276" s="4">
+      <c r="A276" s="3">
         <v>90059</v>
       </c>
       <c r="B276" s="11" t="str">
         <v>Weapon_WeaponName_20004</v>
       </c>
-      <c r="C276" s="1" t="str">
+      <c r="C276" s="2" t="str">
         <v>Gun of Singularity</v>
       </c>
-      <c r="D276" s="26" t="str">
+      <c r="D276" s="40" t="str">
         <v>奇点之枪</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="277">
-      <c r="A277" s="4">
+      <c r="A277" s="3">
         <v>90060</v>
       </c>
       <c r="B277" s="11" t="str">
         <v>Weapon_WeaponName_10023</v>
       </c>
-      <c r="C277" s="4" t="str">
+      <c r="C277" s="3" t="str">
         <v>Staff of Imaginary</v>
       </c>
-      <c r="D277" s="36" t="str">
+      <c r="D277" s="24" t="str">
         <v>虚数之杖</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="278">
-      <c r="A278" s="4">
+      <c r="A278" s="3">
         <v>90061</v>
       </c>
       <c r="B278" s="11" t="str">
         <v>Weapon_WeaponName_10024</v>
       </c>
-      <c r="C278" s="4" t="str">
+      <c r="C278" s="3" t="str">
         <v>Spectral Spear</v>
       </c>
       <c r="D278" s="12" t="str">
@@ -5610,13 +5661,13 @@
       </c>
     </row>
     <row customHeight="true" ht="21" r="279">
-      <c r="A279" s="4">
+      <c r="A279" s="3">
         <v>90062</v>
       </c>
       <c r="B279" s="11" t="str">
         <v>Weapon_WeaponName_20005</v>
       </c>
-      <c r="C279" s="4" t="str">
+      <c r="C279" s="3" t="str">
         <v>Anti-Matter Gun</v>
       </c>
       <c r="D279" s="12" t="str">
@@ -5624,13 +5675,13 @@
       </c>
     </row>
     <row customHeight="true" ht="21" r="280">
-      <c r="A280" s="4">
+      <c r="A280" s="3">
         <v>90063</v>
       </c>
       <c r="B280" s="11" t="str">
         <v>Weapon_WeaponName_10025</v>
       </c>
-      <c r="C280" s="4" t="str">
+      <c r="C280" s="3" t="str">
         <v>Spectral Blade</v>
       </c>
       <c r="D280" s="12" t="str">
@@ -5638,13 +5689,13 @@
       </c>
     </row>
     <row customHeight="true" ht="21" r="281">
-      <c r="A281" s="4">
+      <c r="A281" s="3">
         <v>90064</v>
       </c>
       <c r="B281" s="11" t="str">
         <v>Weapon_WeaponName_10026</v>
       </c>
-      <c r="C281" s="4" t="str">
+      <c r="C281" s="3" t="str">
         <v>Spectral Blade (Ruby)</v>
       </c>
       <c r="D281" s="12" t="str">
@@ -5652,13 +5703,13 @@
       </c>
     </row>
     <row customHeight="true" ht="21" r="282">
-      <c r="A282" s="4">
+      <c r="A282" s="3">
         <v>90065</v>
       </c>
       <c r="B282" s="11" t="str">
         <v>Weapon_WeaponName_10027</v>
       </c>
-      <c r="C282" s="4" t="str">
+      <c r="C282" s="3" t="str">
         <v>Dagger (Simulacrum)</v>
       </c>
       <c r="D282" s="12" t="str">
@@ -5666,13 +5717,13 @@
       </c>
     </row>
     <row customHeight="true" ht="21" r="283">
-      <c r="A283" s="4">
+      <c r="A283" s="3">
         <v>90066</v>
       </c>
       <c r="B283" s="11" t="str">
         <v>Weapon_WeaponName_10028</v>
       </c>
-      <c r="C283" s="4" t="str">
+      <c r="C283" s="3" t="str">
         <v>Saber (Simulacrum)</v>
       </c>
       <c r="D283" s="12" t="str">
@@ -5680,13 +5731,13 @@
       </c>
     </row>
     <row customHeight="true" ht="21" r="284">
-      <c r="A284" s="4">
+      <c r="A284" s="3">
         <v>90067</v>
       </c>
       <c r="B284" s="11" t="str">
         <v>Weapon_WeaponName_20006</v>
       </c>
-      <c r="C284" s="4" t="str">
+      <c r="C284" s="3" t="str">
         <v>Revolver (Simulacrum)</v>
       </c>
       <c r="D284" s="12" t="str">
@@ -5694,13 +5745,13 @@
       </c>
     </row>
     <row customHeight="true" ht="21" r="285">
-      <c r="A285" s="4">
+      <c r="A285" s="3">
         <v>90068</v>
       </c>
       <c r="B285" s="11" t="str">
         <v>Weapon_WeaponName_20007</v>
       </c>
-      <c r="C285" s="4" t="str">
+      <c r="C285" s="3" t="str">
         <v>SMG (Simulacrum)</v>
       </c>
       <c r="D285" s="12" t="str">
@@ -5708,2023 +5759,2119 @@
       </c>
     </row>
     <row customHeight="true" ht="21" r="286">
-      <c r="A286" s="4">
+      <c r="A286" s="3">
         <v>90069</v>
       </c>
-      <c r="B286" s="19" t="str">
+      <c r="B286" s="15" t="str">
         <v>Weapon_WeaponName_10029</v>
       </c>
-      <c r="C286" s="4" t="str">
+      <c r="C286" s="3" t="str">
         <v>Storm Caller (Rune)</v>
       </c>
-      <c r="D286" s="20" t="str">
+      <c r="D286" s="16" t="str">
         <v>唤雷(符文)</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="287">
-      <c r="A287" s="4">
+      <c r="A287" s="3">
         <v>90070</v>
       </c>
-      <c r="B287" s="19" t="str">
+      <c r="B287" s="15" t="str">
         <v>Weapon_WeaponName_20008</v>
       </c>
-      <c r="C287" s="4" t="str">
+      <c r="C287" s="3" t="str">
         <v>Sun Seeker (Rune)</v>
       </c>
-      <c r="D287" s="20" t="str">
+      <c r="D287" s="16" t="str">
         <v>逐日(符文)</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="288">
-      <c r="A288" s="4">
+      <c r="A288" s="3">
         <v>90071</v>
       </c>
-      <c r="B288" s="19" t="str">
+      <c r="B288" s="15" t="str">
         <v>Weapon_WeaponName_10030</v>
       </c>
-      <c r="C288" s="4" t="str">
+      <c r="C288" s="3" t="str">
         <v>Hammer of Thor</v>
       </c>
-      <c r="D288" s="20" t="str">
+      <c r="D288" s="16" t="str">
         <v>雷神之锤</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="289">
-      <c r="A289" s="4">
+      <c r="A289" s="3">
         <v>90072</v>
       </c>
-      <c r="B289" s="19" t="str">
+      <c r="B289" s="15" t="str">
         <v>Weapon_WeaponName_20009</v>
       </c>
-      <c r="C289" s="4" t="str">
+      <c r="C289" s="3" t="str">
         <v>Blunderbuss</v>
       </c>
-      <c r="D289" s="20" t="str">
+      <c r="D289" s="16" t="str">
         <v>火铳</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="290">
-      <c r="A290" s="4">
+      <c r="A290" s="3">
         <v>90073</v>
       </c>
-      <c r="B290" s="19" t="str">
+      <c r="B290" s="15" t="str">
         <v>Weapon_WeaponName_10031</v>
       </c>
-      <c r="C290" s="4" t="str">
+      <c r="C290" s="3" t="str">
         <v>Bonespike Sword (Devine)</v>
       </c>
-      <c r="D290" s="20" t="str">
+      <c r="D290" s="16" t="str">
         <v>骨刺剑(圣)</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="291">
-      <c r="A291" s="4">
+      <c r="A291" s="3">
         <v>90074</v>
       </c>
-      <c r="B291" s="19" t="str">
+      <c r="B291" s="15" t="str">
         <v>Weapon_WeaponName_20010</v>
       </c>
-      <c r="C291" s="4" t="str">
+      <c r="C291" s="3" t="str">
         <v>Revolver (Devine)</v>
       </c>
-      <c r="D291" s="20" t="str">
+      <c r="D291" s="16" t="str">
         <v>左轮(圣)</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="292">
-      <c r="A292" s="4">
+      <c r="A292" s="3">
         <v>90075</v>
       </c>
-      <c r="B292" s="19" t="str">
+      <c r="B292" s="15" t="str">
         <v>Weapon_WeaponName_10032</v>
       </c>
-      <c r="C292" s="4" t="str">
+      <c r="C292" s="3" t="str">
         <v>Bonespike Sword (Love)</v>
       </c>
-      <c r="D292" s="20" t="str">
+      <c r="D292" s="16" t="str">
         <v>骨刺剑(恋)</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="293">
-      <c r="A293" s="4">
+      <c r="A293" s="3">
         <v>90076</v>
       </c>
-      <c r="B293" s="19" t="str">
+      <c r="B293" s="15" t="str">
         <v>Weapon_WeaponName_20011</v>
       </c>
-      <c r="C293" s="4" t="str">
+      <c r="C293" s="3" t="str">
         <v>Revolver (Love)</v>
       </c>
-      <c r="D293" s="20" t="str">
+      <c r="D293" s="16" t="str">
         <v>左轮(恋)</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="294">
-      <c r="A294" s="4">
+      <c r="A294" s="3">
         <v>90077</v>
       </c>
-      <c r="B294" s="19" t="str">
+      <c r="B294" s="15" t="str">
         <v>Weapon_WeaponName_10033</v>
       </c>
-      <c r="C294" s="4" t="str">
+      <c r="C294" s="3" t="str">
         <v>Bonespike Sword (Flame)</v>
       </c>
-      <c r="D294" s="20" t="str">
+      <c r="D294" s="16" t="str">
         <v>骨刺剑(炽)</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="295">
-      <c r="A295" s="4">
+      <c r="A295" s="3">
         <v>90078</v>
       </c>
-      <c r="B295" s="19" t="str">
+      <c r="B295" s="15" t="str">
         <v>Weapon_WeaponName_10034</v>
       </c>
-      <c r="C295" s="4" t="str">
+      <c r="C295" s="3" t="str">
         <v>Bonespike Sword (Frost)</v>
       </c>
-      <c r="D295" s="20" t="str">
+      <c r="D295" s="16" t="str">
         <v>骨刺剑(霜)</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="296">
-      <c r="A296" s="4">
+      <c r="A296" s="3">
         <v>90079</v>
       </c>
-      <c r="B296" s="27" t="str">
+      <c r="B296" s="19" t="str">
         <v>Weapon_WeaponName_10035</v>
       </c>
-      <c r="C296" s="4" t="str">
+      <c r="C296" s="3" t="str">
         <v>Sakura</v>
       </c>
-      <c r="D296" s="32" t="str">
+      <c r="D296" s="39" t="str">
         <v>樱</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="297">
-      <c r="A297" s="4">
+      <c r="A297" s="3">
         <v>90080</v>
       </c>
-      <c r="B297" s="27" t="str">
+      <c r="B297" s="19" t="str">
         <v>Weapon_WeaponName_20012</v>
       </c>
-      <c r="C297" s="4" t="str">
+      <c r="C297" s="3" t="str">
         <v>Butterfly</v>
       </c>
-      <c r="D297" s="32" t="str">
+      <c r="D297" s="39" t="str">
         <v>蝶</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="298">
-      <c r="A298" s="4">
+      <c r="A298" s="3">
         <v>90081</v>
       </c>
-      <c r="B298" s="27" t="str">
+      <c r="B298" s="19" t="str">
         <v>Weapon_WeaponName_10036</v>
       </c>
-      <c r="C298" s="4" t="str">
+      <c r="C298" s="3" t="str">
         <v>Golden Bat (Rainbow)</v>
       </c>
-      <c r="D298" s="28" t="str">
+      <c r="D298" s="20" t="str">
         <v>黄金球棍(虹彩)</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="299">
-      <c r="A299" s="4">
+      <c r="A299" s="3">
         <v>90082</v>
       </c>
-      <c r="B299" s="27" t="str">
+      <c r="B299" s="19" t="str">
         <v>Weapon_WeaponName_20013</v>
       </c>
-      <c r="C299" s="4" t="str">
+      <c r="C299" s="3" t="str">
         <v>Golden Revolver (Rainbow)</v>
       </c>
-      <c r="D299" s="28" t="str">
+      <c r="D299" s="20" t="str">
         <v>黄金左轮(虹彩)</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="300">
-      <c r="A300" s="4">
+      <c r="A300" s="3">
         <v>90083</v>
       </c>
-      <c r="B300" s="29" t="str">
+      <c r="B300" s="37" t="str">
         <v>SkillShop_Name_10004</v>
       </c>
-      <c r="C300" s="4" t="str">
+      <c r="C300" s="3" t="str">
         <v>Ghost's Cloak</v>
       </c>
-      <c r="D300" s="29" t="str">
+      <c r="D300" s="37" t="str">
         <v>幽灵斗篷</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="301">
-      <c r="A301" s="4">
+      <c r="A301" s="3">
         <v>90084</v>
       </c>
-      <c r="B301" s="29" t="str">
+      <c r="B301" s="37" t="str">
         <v>SkillShop_Description_10004</v>
       </c>
-      <c r="C301" s="1" t="str">
+      <c r="C301" s="2" t="str">
         <v>[Murderer Active Ability] When active, you become invisable for 5 secs, eliminating any player will instantly end the ghost‘s cloak</v>
       </c>
-      <c r="D301" s="1" t="str">
+      <c r="D301" s="2" t="str">
         <v>【杀手主动能力】
 激活后，你可以隐身5秒，若你在隐身时击败了任何玩家，则会立即结束隐身</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="302">
-      <c r="A302" s="4">
+      <c r="A302" s="3">
         <v>90085</v>
       </c>
-      <c r="B302" s="5" t="str">
+      <c r="B302" s="1" t="str">
         <v>Tips_Content_20012</v>
       </c>
-      <c r="C302" s="1" t="str">
+      <c r="C302" s="2" t="str">
         <v>A</v>
       </c>
-      <c r="D302" s="1" t="str">
+      <c r="D302" s="2" t="str">
         <v>兑换成功</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="303">
-      <c r="A303" s="4">
+      <c r="A303" s="3">
         <v>90086</v>
       </c>
-      <c r="B303" s="5" t="str">
+      <c r="B303" s="1" t="str">
         <v>Tips_Content_20013</v>
       </c>
-      <c r="C303" s="1" t="str">
+      <c r="C303" s="2" t="str">
         <v>A</v>
       </c>
-      <c r="D303" s="1" t="str">
+      <c r="D303" s="2" t="str">
         <v>兑换失败</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="304">
-      <c r="A304" s="4">
+      <c r="A304" s="3">
         <v>90087</v>
       </c>
-      <c r="B304" s="5" t="str">
+      <c r="B304" s="1" t="str">
         <v>Tips_Content_20014</v>
       </c>
-      <c r="C304" s="1" t="str">
+      <c r="C304" s="2" t="str">
         <v>A</v>
       </c>
-      <c r="D304" s="1" t="str">
+      <c r="D304" s="2" t="str">
         <v>恭喜激活会员特权</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="305">
-      <c r="A305" s="4">
+      <c r="A305" s="3">
         <v>90088</v>
       </c>
-      <c r="B305" s="5" t="str">
+      <c r="B305" s="1" t="str">
         <v>Tips_Content_20015</v>
       </c>
-      <c r="C305" s="1" t="str">
+      <c r="C305" s="2" t="str">
         <v>A</v>
       </c>
-      <c r="D305" s="1" t="str">
+      <c r="D305" s="2" t="str">
         <v>恭喜激活超级特权</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="306">
-      <c r="A306" s="4">
+      <c r="A306" s="3">
         <v>90089</v>
       </c>
-      <c r="B306" s="5" t="str">
+      <c r="B306" s="1" t="str">
         <v>Tips_Content_20016</v>
       </c>
-      <c r="C306" s="1" t="str">
+      <c r="C306" s="2" t="str">
         <v>A</v>
       </c>
-      <c r="D306" s="1" t="str">
+      <c r="D306" s="2" t="str">
         <v>会员特权已到期失效</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="307">
-      <c r="A307" s="4">
+      <c r="A307" s="3">
         <v>90090</v>
       </c>
-      <c r="B307" s="5" t="str">
+      <c r="B307" s="1" t="str">
         <v>Tips_Content_20017</v>
       </c>
-      <c r="C307" s="1" t="str">
+      <c r="C307" s="2" t="str">
         <v>A</v>
       </c>
-      <c r="D307" s="1" t="str">
+      <c r="D307" s="2" t="str">
         <v>超级特权已到期失效</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="308">
-      <c r="A308" s="4">
+      <c r="A308" s="3">
         <v>90091</v>
       </c>
-      <c r="B308" s="5" t="str">
+      <c r="B308" s="1" t="str">
         <v>Tips_Content_20018</v>
       </c>
-      <c r="C308" s="1" t="str">
+      <c r="C308" s="2" t="str">
         <v>A</v>
       </c>
-      <c r="D308" s="1" t="str">
+      <c r="D308" s="2" t="str">
         <v>持有数量已经达到上限</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="309">
-      <c r="A309" s="4">
+      <c r="A309" s="3">
         <v>90092</v>
       </c>
-      <c r="B309" s="2" t="str">
+      <c r="B309" s="5" t="str">
         <v>Text_Content_20052</v>
       </c>
-      <c r="C309" s="1" t="str">
+      <c r="C309" s="2" t="str">
         <v>A</v>
       </c>
-      <c r="D309" s="1" t="str">
+      <c r="D309" s="2" t="str">
         <v>兑换</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="310">
-      <c r="A310" s="4">
+      <c r="A310" s="3">
         <v>90093</v>
       </c>
-      <c r="B310" s="2" t="str">
+      <c r="B310" s="5" t="str">
         <v>Text_Content_20053</v>
       </c>
-      <c r="C310" s="1" t="str">
+      <c r="C310" s="2" t="str">
         <v>A</v>
       </c>
-      <c r="D310" s="1" t="str">
+      <c r="D310" s="2" t="str">
         <v>跳转</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="311">
-      <c r="A311" s="4">
+      <c r="A311" s="3">
         <v>90094</v>
       </c>
-      <c r="B311" s="2" t="str">
+      <c r="B311" s="5" t="str">
         <v>Text_Content_20054</v>
       </c>
-      <c r="C311" s="1" t="str">
+      <c r="C311" s="2" t="str">
         <v>A</v>
       </c>
-      <c r="D311" s="1" t="str">
+      <c r="D311" s="2" t="str">
         <v>会员特权激活中</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="312">
-      <c r="A312" s="4">
+      <c r="A312" s="3">
         <v>90095</v>
       </c>
-      <c r="B312" s="2" t="str">
+      <c r="B312" s="5" t="str">
         <v>Text_Content_20055</v>
       </c>
-      <c r="C312" s="1" t="str">
+      <c r="C312" s="2" t="str">
         <v>A</v>
       </c>
-      <c r="D312" s="1" t="str">
+      <c r="D312" s="2" t="str">
         <v>剩余激活时间{0}</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="313">
-      <c r="A313" s="4">
+      <c r="A313" s="3">
         <v>90096</v>
       </c>
-      <c r="B313" s="2" t="str">
+      <c r="B313" s="5" t="str">
         <v>Text_Content_20056</v>
       </c>
-      <c r="C313" s="1" t="str">
+      <c r="C313" s="2" t="str">
         <v>A</v>
       </c>
-      <c r="D313" s="1" t="str">
+      <c r="D313" s="2" t="str">
         <v>尚未激活会员特权</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="314">
-      <c r="A314" s="4">
+      <c r="A314" s="3">
         <v>90097</v>
       </c>
-      <c r="B314" s="2" t="str">
+      <c r="B314" s="5" t="str">
         <v>Text_Content_20057</v>
       </c>
-      <c r="C314" s="1" t="str">
+      <c r="C314" s="2" t="str">
         <v>A</v>
       </c>
-      <c r="D314" s="1" t="str">
+      <c r="D314" s="2" t="str">
         <v>尚未激活超级特权</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="315">
-      <c r="A315" s="4">
+      <c r="A315" s="3">
         <v>90098</v>
       </c>
-      <c r="B315" s="2" t="str">
+      <c r="B315" s="5" t="str">
         <v>Text_Content_20058</v>
       </c>
-      <c r="C315" s="1" t="str">
+      <c r="C315" s="2" t="str">
         <v>A</v>
       </c>
-      <c r="D315" s="1" t="str">
+      <c r="D315" s="2" t="str">
         <v>剩余激活时间{0}天</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="316">
-      <c r="A316" s="4">
+      <c r="A316" s="3">
         <v>90099</v>
       </c>
-      <c r="B316" s="2" t="str">
+      <c r="B316" s="5" t="str">
         <v>Text_Content_20059</v>
       </c>
-      <c r="C316" s="1" t="str">
+      <c r="C316" s="2" t="str">
         <v>A</v>
       </c>
-      <c r="D316" s="1" t="str">
+      <c r="D316" s="2" t="str">
         <v>会员特权</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="317">
-      <c r="A317" s="4">
+      <c r="A317" s="3">
         <v>90100</v>
       </c>
-      <c r="B317" s="2" t="str">
+      <c r="B317" s="5" t="str">
         <v>Text_Content_20060</v>
       </c>
-      <c r="C317" s="1" t="str">
+      <c r="C317" s="2" t="str">
         <v>A</v>
       </c>
-      <c r="D317" s="1" t="str">
+      <c r="D317" s="2" t="str">
         <v>超级特权</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="318">
-      <c r="A318" s="4">
+      <c r="A318" s="3">
         <v>90101</v>
       </c>
-      <c r="B318" s="5" t="str">
+      <c r="B318" s="1" t="str">
         <v>Tips_Content_20019</v>
       </c>
-      <c r="C318" s="1" t="str">
+      <c r="C318" s="2" t="str">
         <v>A</v>
       </c>
-      <c r="D318" s="1" t="str">
+      <c r="D318" s="2" t="str">
         <v>恭喜获得广告券*1</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="319">
-      <c r="A319" s="4">
+      <c r="A319" s="3">
         <v>90102</v>
       </c>
-      <c r="B319" s="4" t="str">
+      <c r="B319" s="3" t="str">
         <v>Item_Name_20012</v>
       </c>
-      <c r="C319" s="1" t="str">
+      <c r="C319" s="2" t="str">
         <v>A</v>
       </c>
-      <c r="D319" s="1" t="str">
+      <c r="D319" s="2" t="str">
         <v>土豪来啦</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="320">
-      <c r="A320" s="4">
+      <c r="A320" s="3">
         <v>90103</v>
       </c>
-      <c r="B320" s="21" t="str">
+      <c r="B320" s="28" t="str">
         <v>SkillShop_Name_10005</v>
       </c>
-      <c r="C320" s="1" t="str">
+      <c r="C320" s="2" t="str">
         <v>A</v>
       </c>
-      <c r="D320" s="35" t="str">
+      <c r="D320" s="31" t="str">
         <v>快速投掷体验券</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="321">
-      <c r="A321" s="4">
+      <c r="A321" s="3">
         <v>90104</v>
       </c>
-      <c r="B321" s="21" t="str">
+      <c r="B321" s="28" t="str">
         <v>SkillShop_Name_10006</v>
       </c>
-      <c r="C321" s="1" t="str">
+      <c r="C321" s="2" t="str">
         <v>A</v>
       </c>
-      <c r="D321" s="21" t="str">
+      <c r="D321" s="28" t="str">
         <v>爆炸飞刀体验券</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="322">
-      <c r="A322" s="4">
+      <c r="A322" s="3">
         <v>90105</v>
       </c>
-      <c r="B322" s="21" t="str">
+      <c r="B322" s="28" t="str">
         <v>SkillShop_Name_10007</v>
       </c>
-      <c r="C322" s="1" t="str">
+      <c r="C322" s="2" t="str">
         <v>A</v>
       </c>
-      <c r="D322" s="8" t="str">
+      <c r="D322" s="6" t="str">
         <v>幽灵斗篷体验券</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="323">
-      <c r="A323" s="4">
+      <c r="A323" s="3">
         <v>90106</v>
       </c>
-      <c r="B323" s="21" t="str">
+      <c r="B323" s="28" t="str">
         <v>SkillShop_Description_10005</v>
       </c>
-      <c r="C323" s="1" t="str">
+      <c r="C323" s="2" t="str">
         <v>A</v>
       </c>
-      <c r="D323" s="17" t="str">
+      <c r="D323" s="25" t="str">
         <v>【杀手被动能力】
 现在你扔出的飞刀会飞得更快，提升100％</v>
       </c>
-      <c r="E323" s="4" t="str">
+      <c r="E323" s="3" t="str">
         <v>和上面一样</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="324">
-      <c r="A324" s="4">
+      <c r="A324" s="3">
         <v>90107</v>
       </c>
-      <c r="B324" s="21" t="str">
+      <c r="B324" s="28" t="str">
         <v>SkillShop_Description_10006</v>
       </c>
-      <c r="C324" s="1" t="str">
+      <c r="C324" s="2" t="str">
         <v>A</v>
       </c>
-      <c r="D324" s="17" t="str">
+      <c r="D324" s="25" t="str">
         <v>【杀手被动能力】
 当你的飞刀命中目标时，不会立即对目标造成伤害，而是在目标处埋下一颗炸弹，延迟一小段时间后会爆炸，并对周围一定范围内的玩家同样造成伤害</v>
       </c>
-      <c r="E324" s="4" t="str">
+      <c r="E324" s="3" t="str">
         <v>和上面一样</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="325">
-      <c r="A325" s="4">
+      <c r="A325" s="3">
         <v>90108</v>
       </c>
-      <c r="B325" s="21" t="str">
+      <c r="B325" s="28" t="str">
         <v>SkillShop_Description_10007</v>
       </c>
-      <c r="C325" s="1" t="str">
+      <c r="C325" s="2" t="str">
         <v>A</v>
       </c>
-      <c r="D325" s="1" t="str">
+      <c r="D325" s="2" t="str">
         <v>【杀手主动能力】
 激活后，你可以隐身5秒，若你在隐身时击败了任何玩家，则会立即结束隐身</v>
       </c>
-      <c r="E325" s="4" t="str">
+      <c r="E325" s="3" t="str">
         <v>和上面一样</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="326">
-      <c r="A326" s="4">
+      <c r="A326" s="3">
         <v>90109</v>
       </c>
-      <c r="B326" s="5" t="str">
+      <c r="B326" s="1" t="str">
         <v>Tips_Content_20020</v>
       </c>
-      <c r="C326" s="1" t="str">
+      <c r="C326" s="2" t="str">
         <v>A</v>
       </c>
-      <c r="D326" s="1" t="str">
+      <c r="D326" s="2" t="str">
         <v>金钥匙数量不足</v>
       </c>
-      <c r="E326" s="4"/>
+      <c r="E326" s="3"/>
     </row>
     <row customHeight="true" ht="21" r="327">
-      <c r="A327" s="4">
+      <c r="A327" s="3">
         <v>90110</v>
       </c>
-      <c r="B327" s="5" t="str">
+      <c r="B327" s="1" t="str">
         <v>Tips_Content_20021</v>
       </c>
-      <c r="C327" s="1" t="str">
+      <c r="C327" s="2" t="str">
         <v>A</v>
       </c>
-      <c r="D327" s="1" t="str">
+      <c r="D327" s="2" t="str">
         <v>这个版本不支持开通大会员</v>
       </c>
-      <c r="E327" s="4"/>
+      <c r="E327" s="3"/>
     </row>
     <row r="328">
-      <c r="A328" s="4">
+      <c r="A328" s="3">
         <v>90111</v>
       </c>
-      <c r="B328" s="5" t="str">
+      <c r="B328" s="1" t="str">
         <v>Weapon_WeaponName_10037</v>
       </c>
-      <c r="C328" s="1" t="str">
+      <c r="C328" s="2" t="str">
         <v>A</v>
       </c>
-      <c r="D328" s="1" t="str">
+      <c r="D328" s="2" t="str">
         <v>紫光剑</v>
       </c>
-      <c r="E328" s="4"/>
+      <c r="E328" s="3"/>
     </row>
     <row r="329">
-      <c r="A329" s="4">
+      <c r="A329" s="3">
         <v>90112</v>
       </c>
-      <c r="B329" s="5" t="str">
+      <c r="B329" s="1" t="str">
         <v>Weapon_WeaponName_20014</v>
       </c>
-      <c r="C329" s="1" t="str">
+      <c r="C329" s="2" t="str">
         <v>A</v>
       </c>
-      <c r="D329" s="1" t="str">
+      <c r="D329" s="2" t="str">
         <v>冰寒弓箭</v>
       </c>
-      <c r="E329" s="4"/>
+      <c r="E329" s="3"/>
     </row>
     <row r="330">
-      <c r="A330" s="4"/>
-      <c r="B330" s="5"/>
-      <c r="C330" s="1"/>
-      <c r="D330" s="1"/>
-      <c r="E330" s="4"/>
+      <c r="A330" s="3">
+        <v>90113</v>
+      </c>
+      <c r="B330" s="26" t="str">
+        <v>Item_Name_20013</v>
+      </c>
+      <c r="C330" s="2" t="str">
+        <v>A</v>
+      </c>
+      <c r="D330" s="27" t="str">
+        <v>烟花拖尾</v>
+      </c>
+      <c r="E330" s="3"/>
     </row>
     <row r="331">
-      <c r="A331" s="4"/>
-      <c r="B331" s="5"/>
-      <c r="C331" s="1"/>
-      <c r="D331" s="1"/>
-      <c r="E331" s="4"/>
+      <c r="A331" s="3">
+        <v>90114</v>
+      </c>
+      <c r="B331" s="26" t="str">
+        <v>Item_Name_20014</v>
+      </c>
+      <c r="C331" s="2" t="str">
+        <v>A</v>
+      </c>
+      <c r="D331" s="27" t="str">
+        <v>爆竹拖尾</v>
+      </c>
+      <c r="E331" s="3"/>
     </row>
     <row r="332">
-      <c r="A332" s="4"/>
-      <c r="B332" s="5"/>
-      <c r="C332" s="1"/>
-      <c r="D332" s="1"/>
-      <c r="E332" s="4"/>
+      <c r="A332" s="3">
+        <v>90115</v>
+      </c>
+      <c r="B332" s="26" t="str">
+        <v>Item_Name_20015</v>
+      </c>
+      <c r="C332" s="2" t="str">
+        <v>A</v>
+      </c>
+      <c r="D332" s="27" t="str">
+        <v>礼物拖尾</v>
+      </c>
+      <c r="E332" s="3"/>
     </row>
     <row r="333">
-      <c r="A333" s="4"/>
-      <c r="B333" s="5"/>
-      <c r="C333" s="1"/>
-      <c r="D333" s="1"/>
-      <c r="E333" s="4"/>
+      <c r="A333" s="3">
+        <v>90116</v>
+      </c>
+      <c r="B333" s="26" t="str">
+        <v>Item_Name_20016</v>
+      </c>
+      <c r="C333" s="2" t="str">
+        <v>A</v>
+      </c>
+      <c r="D333" s="27" t="str">
+        <v>糖果拖尾</v>
+      </c>
+      <c r="E333" s="3"/>
     </row>
     <row r="334">
-      <c r="A334" s="4"/>
-      <c r="B334" s="5"/>
-      <c r="C334" s="1"/>
-      <c r="D334" s="1"/>
-      <c r="E334" s="4"/>
+      <c r="A334" s="3">
+        <v>90117</v>
+      </c>
+      <c r="B334" s="26" t="str">
+        <v>Item_Name_20017</v>
+      </c>
+      <c r="C334" s="2" t="str">
+        <v>A</v>
+      </c>
+      <c r="D334" s="27" t="str">
+        <v>便便拖尾</v>
+      </c>
+      <c r="E334" s="3"/>
     </row>
     <row r="335">
-      <c r="A335" s="4"/>
-      <c r="B335" s="5"/>
-      <c r="C335" s="1"/>
-      <c r="D335" s="1"/>
-      <c r="E335" s="4"/>
+      <c r="A335" s="3">
+        <v>90118</v>
+      </c>
+      <c r="B335" s="29" t="str">
+        <v>Shop_Name_40010</v>
+      </c>
+      <c r="C335" s="2" t="str">
+        <v>A</v>
+      </c>
+      <c r="D335" s="27" t="str" xml:space="preserve">
+        <v> 火焰翅膀</v>
+      </c>
+      <c r="E335" s="3"/>
     </row>
     <row r="336">
-      <c r="A336" s="4"/>
-      <c r="B336" s="5"/>
-      <c r="C336" s="1"/>
-      <c r="D336" s="1"/>
-      <c r="E336" s="4"/>
+      <c r="A336" s="3">
+        <v>90119</v>
+      </c>
+      <c r="B336" s="29" t="str">
+        <v>Shop_Name_40011</v>
+      </c>
+      <c r="C336" s="2" t="str">
+        <v>A</v>
+      </c>
+      <c r="D336" s="27" t="str">
+        <v>火焰翅膀</v>
+      </c>
+      <c r="E336" s="3"/>
     </row>
     <row r="337">
-      <c r="A337" s="4"/>
-      <c r="B337" s="5"/>
-      <c r="C337" s="1"/>
-      <c r="D337" s="1"/>
-      <c r="E337" s="4"/>
+      <c r="A337" s="3">
+        <v>90120</v>
+      </c>
+      <c r="B337" s="29" t="str">
+        <v>Shop_Name_40012</v>
+      </c>
+      <c r="C337" s="2" t="str">
+        <v>A</v>
+      </c>
+      <c r="D337" s="27" t="str">
+        <v>水系翅膀</v>
+      </c>
+      <c r="E337" s="3"/>
     </row>
     <row r="338">
-      <c r="A338" s="4"/>
-      <c r="B338" s="5"/>
-      <c r="C338" s="1"/>
-      <c r="D338" s="1"/>
-      <c r="E338" s="4"/>
+      <c r="A338" s="3">
+        <v>90121</v>
+      </c>
+      <c r="B338" s="29" t="str">
+        <v>Shop_Name_40013</v>
+      </c>
+      <c r="C338" s="2" t="str">
+        <v>A</v>
+      </c>
+      <c r="D338" s="27" t="str">
+        <v>黑暗翅膀</v>
+      </c>
+      <c r="E338" s="3"/>
     </row>
     <row r="339">
-      <c r="A339" s="4"/>
-      <c r="B339" s="5"/>
-      <c r="C339" s="1"/>
-      <c r="D339" s="1"/>
-      <c r="E339" s="4"/>
+      <c r="A339" s="3">
+        <v>90122</v>
+      </c>
+      <c r="B339" s="29" t="str">
+        <v>Shop_Name_40014</v>
+      </c>
+      <c r="C339" s="2" t="str">
+        <v>A</v>
+      </c>
+      <c r="D339" s="27" t="str">
+        <v>恶魔翅膀</v>
+      </c>
+      <c r="E339" s="3"/>
     </row>
     <row r="340">
-      <c r="A340" s="4"/>
-      <c r="B340" s="5"/>
-      <c r="C340" s="1"/>
-      <c r="D340" s="1"/>
-      <c r="E340" s="4"/>
+      <c r="A340" s="3">
+        <v>90123</v>
+      </c>
+      <c r="B340" s="29" t="str">
+        <v>Shop_Name_40015</v>
+      </c>
+      <c r="C340" s="2" t="str">
+        <v>A</v>
+      </c>
+      <c r="D340" s="27" t="str">
+        <v>恶灵翅膀</v>
+      </c>
+      <c r="E340" s="3"/>
     </row>
     <row r="341">
-      <c r="A341" s="4"/>
-      <c r="B341" s="5"/>
-      <c r="C341" s="1"/>
-      <c r="D341" s="1"/>
-      <c r="E341" s="4"/>
+      <c r="A341" s="3">
+        <v>90124</v>
+      </c>
+      <c r="B341" s="29" t="str">
+        <v>Shop_Name_40016</v>
+      </c>
+      <c r="C341" s="2" t="str">
+        <v>A</v>
+      </c>
+      <c r="D341" s="27" t="str">
+        <v>天使翅膀</v>
+      </c>
+      <c r="E341" s="3"/>
     </row>
     <row r="342">
-      <c r="A342" s="4"/>
-      <c r="B342" s="5"/>
-      <c r="C342" s="1"/>
-      <c r="D342" s="1"/>
-      <c r="E342" s="4"/>
+      <c r="A342" s="3"/>
+      <c r="B342" s="1"/>
+      <c r="C342" s="2"/>
+      <c r="D342" s="2"/>
+      <c r="E342" s="3"/>
     </row>
     <row r="343">
-      <c r="A343" s="4"/>
-      <c r="B343" s="5"/>
-      <c r="C343" s="1"/>
-      <c r="D343" s="1"/>
-      <c r="E343" s="4"/>
+      <c r="A343" s="3"/>
+      <c r="B343" s="1"/>
+      <c r="C343" s="2"/>
+      <c r="D343" s="2"/>
+      <c r="E343" s="3"/>
     </row>
     <row r="344">
-      <c r="A344" s="4"/>
-      <c r="B344" s="5"/>
-      <c r="C344" s="1"/>
-      <c r="D344" s="1"/>
-      <c r="E344" s="4"/>
+      <c r="A344" s="3"/>
+      <c r="B344" s="1"/>
+      <c r="C344" s="2"/>
+      <c r="D344" s="2"/>
+      <c r="E344" s="3"/>
     </row>
     <row r="345">
-      <c r="A345" s="4"/>
-      <c r="B345" s="5"/>
-      <c r="C345" s="1"/>
-      <c r="D345" s="1"/>
-      <c r="E345" s="4"/>
+      <c r="A345" s="3"/>
+      <c r="B345" s="1"/>
+      <c r="C345" s="2"/>
+      <c r="D345" s="2"/>
+      <c r="E345" s="3"/>
     </row>
     <row r="346">
-      <c r="A346" s="4"/>
-      <c r="B346" s="5"/>
-      <c r="C346" s="1"/>
-      <c r="D346" s="1"/>
-      <c r="E346" s="4"/>
+      <c r="A346" s="3"/>
+      <c r="B346" s="1"/>
+      <c r="C346" s="2"/>
+      <c r="D346" s="2"/>
+      <c r="E346" s="3"/>
     </row>
     <row r="347">
-      <c r="A347" s="4"/>
-      <c r="B347" s="5"/>
-      <c r="C347" s="1"/>
-      <c r="D347" s="1"/>
-      <c r="E347" s="4"/>
+      <c r="A347" s="3"/>
+      <c r="B347" s="1"/>
+      <c r="C347" s="2"/>
+      <c r="D347" s="2"/>
+      <c r="E347" s="3"/>
     </row>
     <row r="348">
-      <c r="A348" s="4"/>
-      <c r="B348" s="5"/>
-      <c r="C348" s="1"/>
-      <c r="D348" s="1"/>
-      <c r="E348" s="4"/>
+      <c r="A348" s="3"/>
+      <c r="B348" s="1"/>
+      <c r="C348" s="2"/>
+      <c r="D348" s="2"/>
+      <c r="E348" s="3"/>
     </row>
     <row r="349">
-      <c r="A349" s="4"/>
-      <c r="B349" s="5"/>
-      <c r="C349" s="1"/>
-      <c r="D349" s="1"/>
-      <c r="E349" s="4"/>
+      <c r="A349" s="3"/>
+      <c r="B349" s="1"/>
+      <c r="C349" s="2"/>
+      <c r="D349" s="2"/>
+      <c r="E349" s="3"/>
     </row>
     <row r="350">
-      <c r="A350" s="4"/>
-      <c r="B350" s="5"/>
-      <c r="C350" s="1"/>
-      <c r="D350" s="1"/>
-      <c r="E350" s="4"/>
+      <c r="A350" s="3"/>
+      <c r="B350" s="1"/>
+      <c r="C350" s="2"/>
+      <c r="D350" s="2"/>
+      <c r="E350" s="3"/>
     </row>
     <row r="351">
-      <c r="A351" s="4"/>
-      <c r="B351" s="5"/>
-      <c r="C351" s="1"/>
-      <c r="D351" s="1"/>
-      <c r="E351" s="4"/>
+      <c r="A351" s="3"/>
+      <c r="B351" s="1"/>
+      <c r="C351" s="2"/>
+      <c r="D351" s="2"/>
+      <c r="E351" s="3"/>
     </row>
     <row r="352">
-      <c r="A352" s="4"/>
-      <c r="B352" s="5"/>
-      <c r="C352" s="1"/>
-      <c r="D352" s="1"/>
-      <c r="E352" s="4"/>
+      <c r="A352" s="3"/>
+      <c r="B352" s="1"/>
+      <c r="C352" s="2"/>
+      <c r="D352" s="2"/>
+      <c r="E352" s="3"/>
     </row>
     <row r="353">
-      <c r="A353" s="4"/>
-      <c r="B353" s="5"/>
-      <c r="C353" s="1"/>
-      <c r="D353" s="1"/>
-      <c r="E353" s="4"/>
+      <c r="A353" s="3"/>
+      <c r="B353" s="1"/>
+      <c r="C353" s="2"/>
+      <c r="D353" s="2"/>
+      <c r="E353" s="3"/>
     </row>
     <row r="354">
-      <c r="A354" s="4"/>
-      <c r="B354" s="5"/>
-      <c r="C354" s="1"/>
-      <c r="D354" s="1"/>
-      <c r="E354" s="4"/>
+      <c r="A354" s="3"/>
+      <c r="B354" s="1"/>
+      <c r="C354" s="2"/>
+      <c r="D354" s="2"/>
+      <c r="E354" s="3"/>
     </row>
     <row r="355">
-      <c r="A355" s="4"/>
-      <c r="B355" s="5"/>
-      <c r="C355" s="1"/>
-      <c r="D355" s="1"/>
-      <c r="E355" s="4"/>
+      <c r="A355" s="3"/>
+      <c r="B355" s="1"/>
+      <c r="C355" s="2"/>
+      <c r="D355" s="2"/>
+      <c r="E355" s="3"/>
     </row>
     <row r="356">
-      <c r="A356" s="4"/>
-      <c r="B356" s="5"/>
-      <c r="C356" s="1"/>
-      <c r="D356" s="1"/>
-      <c r="E356" s="4"/>
+      <c r="A356" s="3"/>
+      <c r="B356" s="1"/>
+      <c r="C356" s="2"/>
+      <c r="D356" s="2"/>
+      <c r="E356" s="3"/>
     </row>
     <row r="357">
-      <c r="A357" s="4"/>
-      <c r="B357" s="5"/>
-      <c r="C357" s="1"/>
-      <c r="D357" s="1"/>
-      <c r="E357" s="4"/>
+      <c r="A357" s="3"/>
+      <c r="B357" s="1"/>
+      <c r="C357" s="2"/>
+      <c r="D357" s="2"/>
+      <c r="E357" s="3"/>
     </row>
     <row r="358">
-      <c r="A358" s="4"/>
-      <c r="B358" s="5"/>
-      <c r="C358" s="1"/>
-      <c r="D358" s="1"/>
-      <c r="E358" s="4"/>
+      <c r="A358" s="3"/>
+      <c r="B358" s="1"/>
+      <c r="C358" s="2"/>
+      <c r="D358" s="2"/>
+      <c r="E358" s="3"/>
     </row>
     <row r="359">
-      <c r="A359" s="4"/>
-      <c r="B359" s="5"/>
-      <c r="C359" s="1"/>
-      <c r="D359" s="1"/>
-      <c r="E359" s="4"/>
+      <c r="A359" s="3"/>
+      <c r="B359" s="1"/>
+      <c r="C359" s="2"/>
+      <c r="D359" s="2"/>
+      <c r="E359" s="3"/>
     </row>
     <row r="360">
-      <c r="A360" s="4"/>
-      <c r="B360" s="5"/>
-      <c r="C360" s="1"/>
-      <c r="D360" s="1"/>
-      <c r="E360" s="4"/>
+      <c r="A360" s="3"/>
+      <c r="B360" s="1"/>
+      <c r="C360" s="2"/>
+      <c r="D360" s="2"/>
+      <c r="E360" s="3"/>
     </row>
     <row r="361">
-      <c r="A361" s="4"/>
-      <c r="B361" s="5"/>
-      <c r="C361" s="1"/>
-      <c r="D361" s="1"/>
-      <c r="E361" s="4"/>
+      <c r="A361" s="3"/>
+      <c r="B361" s="1"/>
+      <c r="C361" s="2"/>
+      <c r="D361" s="2"/>
+      <c r="E361" s="3"/>
     </row>
     <row r="362">
-      <c r="A362" s="4"/>
-      <c r="B362" s="5"/>
-      <c r="C362" s="1"/>
-      <c r="D362" s="1"/>
-      <c r="E362" s="4"/>
+      <c r="A362" s="3"/>
+      <c r="B362" s="1"/>
+      <c r="C362" s="2"/>
+      <c r="D362" s="2"/>
+      <c r="E362" s="3"/>
     </row>
     <row r="363">
-      <c r="A363" s="4"/>
-      <c r="B363" s="5"/>
-      <c r="C363" s="1"/>
-      <c r="D363" s="1"/>
-      <c r="E363" s="4"/>
+      <c r="A363" s="3"/>
+      <c r="B363" s="1"/>
+      <c r="C363" s="2"/>
+      <c r="D363" s="2"/>
+      <c r="E363" s="3"/>
     </row>
     <row r="364">
-      <c r="A364" s="4"/>
-      <c r="B364" s="5"/>
-      <c r="C364" s="1"/>
-      <c r="D364" s="1"/>
-      <c r="E364" s="4"/>
+      <c r="A364" s="3"/>
+      <c r="B364" s="1"/>
+      <c r="C364" s="2"/>
+      <c r="D364" s="2"/>
+      <c r="E364" s="3"/>
     </row>
     <row r="365">
-      <c r="A365" s="4"/>
-      <c r="B365" s="5"/>
-      <c r="C365" s="1"/>
-      <c r="D365" s="1"/>
-      <c r="E365" s="4"/>
+      <c r="A365" s="3"/>
+      <c r="B365" s="1"/>
+      <c r="C365" s="2"/>
+      <c r="D365" s="2"/>
+      <c r="E365" s="3"/>
     </row>
     <row r="366">
-      <c r="A366" s="4"/>
-      <c r="B366" s="5"/>
-      <c r="C366" s="1"/>
-      <c r="D366" s="1"/>
-      <c r="E366" s="4"/>
+      <c r="A366" s="3"/>
+      <c r="B366" s="1"/>
+      <c r="C366" s="2"/>
+      <c r="D366" s="2"/>
+      <c r="E366" s="3"/>
     </row>
     <row r="367">
-      <c r="A367" s="4"/>
-      <c r="B367" s="5"/>
-      <c r="C367" s="1"/>
-      <c r="D367" s="1"/>
-      <c r="E367" s="4"/>
+      <c r="A367" s="3"/>
+      <c r="B367" s="1"/>
+      <c r="C367" s="2"/>
+      <c r="D367" s="2"/>
+      <c r="E367" s="3"/>
     </row>
     <row r="368">
-      <c r="A368" s="4"/>
-      <c r="B368" s="5"/>
-      <c r="C368" s="1"/>
-      <c r="D368" s="1"/>
-      <c r="E368" s="4"/>
+      <c r="A368" s="3"/>
+      <c r="B368" s="1"/>
+      <c r="C368" s="2"/>
+      <c r="D368" s="2"/>
+      <c r="E368" s="3"/>
     </row>
     <row r="369">
-      <c r="A369" s="4"/>
-      <c r="B369" s="5"/>
-      <c r="C369" s="1"/>
-      <c r="D369" s="1"/>
-      <c r="E369" s="4"/>
+      <c r="A369" s="3"/>
+      <c r="B369" s="1"/>
+      <c r="C369" s="2"/>
+      <c r="D369" s="2"/>
+      <c r="E369" s="3"/>
     </row>
     <row r="370">
-      <c r="A370" s="4"/>
-      <c r="B370" s="5"/>
-      <c r="C370" s="1"/>
-      <c r="D370" s="1"/>
-      <c r="E370" s="4"/>
+      <c r="A370" s="3"/>
+      <c r="B370" s="1"/>
+      <c r="C370" s="2"/>
+      <c r="D370" s="2"/>
+      <c r="E370" s="3"/>
     </row>
     <row r="371">
-      <c r="A371" s="4"/>
-      <c r="B371" s="5"/>
-      <c r="C371" s="1"/>
-      <c r="D371" s="1"/>
-      <c r="E371" s="4"/>
+      <c r="A371" s="3"/>
+      <c r="B371" s="1"/>
+      <c r="C371" s="2"/>
+      <c r="D371" s="2"/>
+      <c r="E371" s="3"/>
     </row>
     <row r="372">
-      <c r="A372" s="4"/>
-      <c r="B372" s="5"/>
-      <c r="C372" s="1"/>
-      <c r="D372" s="1"/>
-      <c r="E372" s="4"/>
+      <c r="A372" s="3"/>
+      <c r="B372" s="1"/>
+      <c r="C372" s="2"/>
+      <c r="D372" s="2"/>
+      <c r="E372" s="3"/>
     </row>
     <row r="373">
-      <c r="A373" s="4"/>
-      <c r="B373" s="5"/>
-      <c r="C373" s="1"/>
-      <c r="D373" s="1"/>
-      <c r="E373" s="4"/>
+      <c r="A373" s="3"/>
+      <c r="B373" s="1"/>
+      <c r="C373" s="2"/>
+      <c r="D373" s="2"/>
+      <c r="E373" s="3"/>
     </row>
     <row r="374">
-      <c r="A374" s="4"/>
-      <c r="B374" s="5"/>
-      <c r="C374" s="1"/>
-      <c r="D374" s="1"/>
-      <c r="E374" s="4"/>
+      <c r="A374" s="3"/>
+      <c r="B374" s="1"/>
+      <c r="C374" s="2"/>
+      <c r="D374" s="2"/>
+      <c r="E374" s="3"/>
     </row>
     <row r="375">
-      <c r="A375" s="4"/>
-      <c r="B375" s="5"/>
-      <c r="C375" s="1"/>
-      <c r="D375" s="1"/>
-      <c r="E375" s="4"/>
+      <c r="A375" s="3"/>
+      <c r="B375" s="1"/>
+      <c r="C375" s="2"/>
+      <c r="D375" s="2"/>
+      <c r="E375" s="3"/>
     </row>
     <row r="376">
-      <c r="A376" s="4"/>
-      <c r="B376" s="5"/>
-      <c r="C376" s="1"/>
-      <c r="D376" s="1"/>
-      <c r="E376" s="4"/>
+      <c r="A376" s="3"/>
+      <c r="B376" s="1"/>
+      <c r="C376" s="2"/>
+      <c r="D376" s="2"/>
+      <c r="E376" s="3"/>
     </row>
     <row r="377">
-      <c r="A377" s="4"/>
-      <c r="B377" s="5"/>
-      <c r="C377" s="1"/>
-      <c r="D377" s="1"/>
-      <c r="E377" s="4"/>
+      <c r="A377" s="3"/>
+      <c r="B377" s="1"/>
+      <c r="C377" s="2"/>
+      <c r="D377" s="2"/>
+      <c r="E377" s="3"/>
     </row>
     <row r="378">
-      <c r="A378" s="4"/>
-      <c r="B378" s="5"/>
-      <c r="C378" s="1"/>
-      <c r="D378" s="1"/>
-      <c r="E378" s="4"/>
+      <c r="A378" s="3"/>
+      <c r="B378" s="1"/>
+      <c r="C378" s="2"/>
+      <c r="D378" s="2"/>
+      <c r="E378" s="3"/>
     </row>
     <row r="379">
-      <c r="A379" s="4"/>
-      <c r="B379" s="5"/>
-      <c r="C379" s="1"/>
-      <c r="D379" s="1"/>
-      <c r="E379" s="4"/>
+      <c r="A379" s="3"/>
+      <c r="B379" s="1"/>
+      <c r="C379" s="2"/>
+      <c r="D379" s="2"/>
+      <c r="E379" s="3"/>
     </row>
     <row r="380">
-      <c r="A380" s="4"/>
-      <c r="B380" s="5"/>
-      <c r="C380" s="1"/>
-      <c r="D380" s="1"/>
-      <c r="E380" s="4"/>
+      <c r="A380" s="3"/>
+      <c r="B380" s="1"/>
+      <c r="C380" s="2"/>
+      <c r="D380" s="2"/>
+      <c r="E380" s="3"/>
     </row>
     <row r="381">
-      <c r="A381" s="4"/>
-      <c r="B381" s="5"/>
-      <c r="C381" s="1"/>
-      <c r="D381" s="1"/>
-      <c r="E381" s="4"/>
+      <c r="A381" s="3"/>
+      <c r="B381" s="1"/>
+      <c r="C381" s="2"/>
+      <c r="D381" s="2"/>
+      <c r="E381" s="3"/>
     </row>
     <row r="382">
-      <c r="A382" s="4"/>
-      <c r="B382" s="5"/>
-      <c r="C382" s="1"/>
-      <c r="D382" s="1"/>
-      <c r="E382" s="4"/>
+      <c r="A382" s="3"/>
+      <c r="B382" s="1"/>
+      <c r="C382" s="2"/>
+      <c r="D382" s="2"/>
+      <c r="E382" s="3"/>
     </row>
     <row r="383">
-      <c r="A383" s="4"/>
-      <c r="B383" s="5"/>
-      <c r="C383" s="1"/>
-      <c r="D383" s="1"/>
-      <c r="E383" s="4"/>
+      <c r="A383" s="3"/>
+      <c r="B383" s="1"/>
+      <c r="C383" s="2"/>
+      <c r="D383" s="2"/>
+      <c r="E383" s="3"/>
     </row>
     <row r="384">
-      <c r="A384" s="4"/>
-      <c r="B384" s="5"/>
-      <c r="C384" s="1"/>
-      <c r="D384" s="1"/>
-      <c r="E384" s="4"/>
+      <c r="A384" s="3"/>
+      <c r="B384" s="1"/>
+      <c r="C384" s="2"/>
+      <c r="D384" s="2"/>
+      <c r="E384" s="3"/>
     </row>
     <row r="385">
-      <c r="A385" s="4"/>
-      <c r="B385" s="5"/>
-      <c r="C385" s="1"/>
-      <c r="D385" s="1"/>
-      <c r="E385" s="4"/>
+      <c r="A385" s="3"/>
+      <c r="B385" s="1"/>
+      <c r="C385" s="2"/>
+      <c r="D385" s="2"/>
+      <c r="E385" s="3"/>
     </row>
     <row r="386">
-      <c r="A386" s="4"/>
-      <c r="B386" s="5"/>
-      <c r="C386" s="1"/>
-      <c r="D386" s="1"/>
-      <c r="E386" s="4"/>
+      <c r="A386" s="3"/>
+      <c r="B386" s="1"/>
+      <c r="C386" s="2"/>
+      <c r="D386" s="2"/>
+      <c r="E386" s="3"/>
     </row>
     <row r="387">
-      <c r="A387" s="4"/>
-      <c r="B387" s="5"/>
-      <c r="C387" s="1"/>
-      <c r="D387" s="1"/>
-      <c r="E387" s="4"/>
+      <c r="A387" s="3"/>
+      <c r="B387" s="1"/>
+      <c r="C387" s="2"/>
+      <c r="D387" s="2"/>
+      <c r="E387" s="3"/>
     </row>
     <row r="388">
-      <c r="A388" s="4"/>
-      <c r="B388" s="5"/>
-      <c r="C388" s="1"/>
-      <c r="D388" s="1"/>
-      <c r="E388" s="4"/>
+      <c r="A388" s="3"/>
+      <c r="B388" s="1"/>
+      <c r="C388" s="2"/>
+      <c r="D388" s="2"/>
+      <c r="E388" s="3"/>
     </row>
     <row r="389">
-      <c r="A389" s="4"/>
-      <c r="B389" s="5"/>
-      <c r="C389" s="1"/>
-      <c r="D389" s="1"/>
-      <c r="E389" s="4"/>
+      <c r="A389" s="3"/>
+      <c r="B389" s="1"/>
+      <c r="C389" s="2"/>
+      <c r="D389" s="2"/>
+      <c r="E389" s="3"/>
     </row>
     <row r="390">
-      <c r="A390" s="4"/>
-      <c r="B390" s="5"/>
-      <c r="C390" s="1"/>
-      <c r="D390" s="1"/>
-      <c r="E390" s="4"/>
+      <c r="A390" s="3"/>
+      <c r="B390" s="1"/>
+      <c r="C390" s="2"/>
+      <c r="D390" s="2"/>
+      <c r="E390" s="3"/>
     </row>
     <row r="391">
-      <c r="A391" s="4"/>
-      <c r="B391" s="5"/>
-      <c r="C391" s="1"/>
-      <c r="D391" s="1"/>
-      <c r="E391" s="4"/>
+      <c r="A391" s="3"/>
+      <c r="B391" s="1"/>
+      <c r="C391" s="2"/>
+      <c r="D391" s="2"/>
+      <c r="E391" s="3"/>
     </row>
     <row r="392">
-      <c r="A392" s="4"/>
-      <c r="B392" s="5"/>
-      <c r="C392" s="1"/>
-      <c r="D392" s="1"/>
-      <c r="E392" s="4"/>
+      <c r="A392" s="3"/>
+      <c r="B392" s="1"/>
+      <c r="C392" s="2"/>
+      <c r="D392" s="2"/>
+      <c r="E392" s="3"/>
     </row>
     <row r="393">
-      <c r="A393" s="4"/>
-      <c r="B393" s="5"/>
-      <c r="C393" s="1"/>
-      <c r="D393" s="1"/>
-      <c r="E393" s="4"/>
+      <c r="A393" s="3"/>
+      <c r="B393" s="1"/>
+      <c r="C393" s="2"/>
+      <c r="D393" s="2"/>
+      <c r="E393" s="3"/>
     </row>
     <row r="394">
-      <c r="A394" s="4"/>
-      <c r="B394" s="5"/>
-      <c r="C394" s="1"/>
-      <c r="D394" s="1"/>
-      <c r="E394" s="4"/>
+      <c r="A394" s="3"/>
+      <c r="B394" s="1"/>
+      <c r="C394" s="2"/>
+      <c r="D394" s="2"/>
+      <c r="E394" s="3"/>
     </row>
     <row r="395">
-      <c r="A395" s="4"/>
-      <c r="B395" s="5"/>
-      <c r="C395" s="1"/>
-      <c r="D395" s="1"/>
-      <c r="E395" s="4"/>
+      <c r="A395" s="3"/>
+      <c r="B395" s="1"/>
+      <c r="C395" s="2"/>
+      <c r="D395" s="2"/>
+      <c r="E395" s="3"/>
     </row>
     <row r="396">
-      <c r="A396" s="4"/>
-      <c r="B396" s="5"/>
-      <c r="C396" s="1"/>
-      <c r="D396" s="1"/>
-      <c r="E396" s="4"/>
+      <c r="A396" s="3"/>
+      <c r="B396" s="1"/>
+      <c r="C396" s="2"/>
+      <c r="D396" s="2"/>
+      <c r="E396" s="3"/>
     </row>
     <row r="397">
-      <c r="A397" s="4"/>
-      <c r="B397" s="5"/>
-      <c r="C397" s="1"/>
-      <c r="D397" s="1"/>
-      <c r="E397" s="4"/>
+      <c r="A397" s="3"/>
+      <c r="B397" s="1"/>
+      <c r="C397" s="2"/>
+      <c r="D397" s="2"/>
+      <c r="E397" s="3"/>
     </row>
     <row r="398">
-      <c r="A398" s="4"/>
-      <c r="B398" s="5"/>
-      <c r="C398" s="1"/>
-      <c r="D398" s="1"/>
-      <c r="E398" s="4"/>
+      <c r="A398" s="3"/>
+      <c r="B398" s="1"/>
+      <c r="C398" s="2"/>
+      <c r="D398" s="2"/>
+      <c r="E398" s="3"/>
     </row>
     <row r="399">
-      <c r="A399" s="4"/>
-      <c r="B399" s="5"/>
-      <c r="C399" s="1"/>
-      <c r="D399" s="1"/>
-      <c r="E399" s="4"/>
+      <c r="A399" s="3"/>
+      <c r="B399" s="1"/>
+      <c r="C399" s="2"/>
+      <c r="D399" s="2"/>
+      <c r="E399" s="3"/>
     </row>
     <row r="400">
-      <c r="A400" s="4"/>
-      <c r="B400" s="5"/>
-      <c r="C400" s="1"/>
-      <c r="D400" s="1"/>
-      <c r="E400" s="4"/>
+      <c r="A400" s="3"/>
+      <c r="B400" s="1"/>
+      <c r="C400" s="2"/>
+      <c r="D400" s="2"/>
+      <c r="E400" s="3"/>
     </row>
     <row r="401">
-      <c r="A401" s="4"/>
-      <c r="B401" s="5"/>
-      <c r="C401" s="1"/>
-      <c r="D401" s="1"/>
-      <c r="E401" s="4"/>
+      <c r="A401" s="3"/>
+      <c r="B401" s="1"/>
+      <c r="C401" s="2"/>
+      <c r="D401" s="2"/>
+      <c r="E401" s="3"/>
     </row>
     <row r="402">
-      <c r="A402" s="4"/>
-      <c r="B402" s="5"/>
-      <c r="C402" s="1"/>
-      <c r="D402" s="1"/>
-      <c r="E402" s="4"/>
+      <c r="A402" s="3"/>
+      <c r="B402" s="1"/>
+      <c r="C402" s="2"/>
+      <c r="D402" s="2"/>
+      <c r="E402" s="3"/>
     </row>
     <row r="403">
-      <c r="A403" s="4"/>
-      <c r="B403" s="5"/>
-      <c r="C403" s="1"/>
-      <c r="D403" s="1"/>
-      <c r="E403" s="4"/>
+      <c r="A403" s="3"/>
+      <c r="B403" s="1"/>
+      <c r="C403" s="2"/>
+      <c r="D403" s="2"/>
+      <c r="E403" s="3"/>
     </row>
     <row r="404">
-      <c r="A404" s="4"/>
-      <c r="B404" s="5"/>
-      <c r="C404" s="1"/>
-      <c r="D404" s="1"/>
-      <c r="E404" s="4"/>
+      <c r="A404" s="3"/>
+      <c r="B404" s="1"/>
+      <c r="C404" s="2"/>
+      <c r="D404" s="2"/>
+      <c r="E404" s="3"/>
     </row>
     <row r="405">
-      <c r="A405" s="4"/>
-      <c r="B405" s="5"/>
-      <c r="C405" s="1"/>
-      <c r="D405" s="1"/>
-      <c r="E405" s="4"/>
+      <c r="A405" s="3"/>
+      <c r="B405" s="1"/>
+      <c r="C405" s="2"/>
+      <c r="D405" s="2"/>
+      <c r="E405" s="3"/>
     </row>
     <row r="406">
-      <c r="A406" s="4"/>
-      <c r="B406" s="5"/>
-      <c r="C406" s="1"/>
-      <c r="D406" s="1"/>
-      <c r="E406" s="4"/>
+      <c r="A406" s="3"/>
+      <c r="B406" s="1"/>
+      <c r="C406" s="2"/>
+      <c r="D406" s="2"/>
+      <c r="E406" s="3"/>
     </row>
     <row r="407">
-      <c r="A407" s="4"/>
-      <c r="B407" s="5"/>
-      <c r="C407" s="1"/>
-      <c r="D407" s="1"/>
-      <c r="E407" s="4"/>
+      <c r="A407" s="3"/>
+      <c r="B407" s="1"/>
+      <c r="C407" s="2"/>
+      <c r="D407" s="2"/>
+      <c r="E407" s="3"/>
     </row>
     <row r="408">
-      <c r="A408" s="4"/>
-      <c r="B408" s="5"/>
-      <c r="C408" s="1"/>
-      <c r="D408" s="1"/>
-      <c r="E408" s="4"/>
+      <c r="A408" s="3"/>
+      <c r="B408" s="1"/>
+      <c r="C408" s="2"/>
+      <c r="D408" s="2"/>
+      <c r="E408" s="3"/>
     </row>
     <row r="409">
-      <c r="A409" s="4"/>
-      <c r="B409" s="5"/>
-      <c r="C409" s="1"/>
-      <c r="D409" s="1"/>
-      <c r="E409" s="4"/>
+      <c r="A409" s="3"/>
+      <c r="B409" s="1"/>
+      <c r="C409" s="2"/>
+      <c r="D409" s="2"/>
+      <c r="E409" s="3"/>
     </row>
     <row r="410">
-      <c r="A410" s="4"/>
-      <c r="B410" s="5"/>
-      <c r="C410" s="1"/>
-      <c r="D410" s="1"/>
-      <c r="E410" s="4"/>
+      <c r="A410" s="3"/>
+      <c r="B410" s="1"/>
+      <c r="C410" s="2"/>
+      <c r="D410" s="2"/>
+      <c r="E410" s="3"/>
     </row>
     <row r="411">
-      <c r="A411" s="4"/>
-      <c r="B411" s="5"/>
-      <c r="C411" s="1"/>
-      <c r="D411" s="1"/>
-      <c r="E411" s="4"/>
+      <c r="A411" s="3"/>
+      <c r="B411" s="1"/>
+      <c r="C411" s="2"/>
+      <c r="D411" s="2"/>
+      <c r="E411" s="3"/>
     </row>
     <row r="412">
-      <c r="A412" s="4"/>
-      <c r="B412" s="5"/>
-      <c r="C412" s="1"/>
-      <c r="D412" s="1"/>
-      <c r="E412" s="4"/>
+      <c r="A412" s="3"/>
+      <c r="B412" s="1"/>
+      <c r="C412" s="2"/>
+      <c r="D412" s="2"/>
+      <c r="E412" s="3"/>
     </row>
     <row r="413">
-      <c r="A413" s="4"/>
-      <c r="B413" s="5"/>
-      <c r="C413" s="1"/>
-      <c r="D413" s="1"/>
-      <c r="E413" s="4"/>
+      <c r="A413" s="3"/>
+      <c r="B413" s="1"/>
+      <c r="C413" s="2"/>
+      <c r="D413" s="2"/>
+      <c r="E413" s="3"/>
     </row>
     <row r="414">
-      <c r="A414" s="4"/>
-      <c r="B414" s="5"/>
-      <c r="C414" s="1"/>
-      <c r="D414" s="1"/>
-      <c r="E414" s="4"/>
+      <c r="A414" s="3"/>
+      <c r="B414" s="1"/>
+      <c r="C414" s="2"/>
+      <c r="D414" s="2"/>
+      <c r="E414" s="3"/>
     </row>
     <row r="415">
-      <c r="A415" s="4"/>
-      <c r="B415" s="5"/>
-      <c r="C415" s="1"/>
-      <c r="D415" s="1"/>
-      <c r="E415" s="4"/>
+      <c r="A415" s="3"/>
+      <c r="B415" s="1"/>
+      <c r="C415" s="2"/>
+      <c r="D415" s="2"/>
+      <c r="E415" s="3"/>
     </row>
     <row r="416">
-      <c r="A416" s="4"/>
-      <c r="B416" s="5"/>
-      <c r="C416" s="1"/>
-      <c r="D416" s="1"/>
-      <c r="E416" s="4"/>
+      <c r="A416" s="3"/>
+      <c r="B416" s="1"/>
+      <c r="C416" s="2"/>
+      <c r="D416" s="2"/>
+      <c r="E416" s="3"/>
     </row>
     <row r="417">
-      <c r="A417" s="4"/>
-      <c r="B417" s="5"/>
-      <c r="C417" s="1"/>
-      <c r="D417" s="1"/>
-      <c r="E417" s="4"/>
+      <c r="A417" s="3"/>
+      <c r="B417" s="1"/>
+      <c r="C417" s="2"/>
+      <c r="D417" s="2"/>
+      <c r="E417" s="3"/>
     </row>
     <row r="418">
-      <c r="A418" s="4"/>
-      <c r="B418" s="5"/>
-      <c r="C418" s="1"/>
-      <c r="D418" s="1"/>
-      <c r="E418" s="4"/>
+      <c r="A418" s="3"/>
+      <c r="B418" s="1"/>
+      <c r="C418" s="2"/>
+      <c r="D418" s="2"/>
+      <c r="E418" s="3"/>
     </row>
     <row r="419">
-      <c r="A419" s="4"/>
-      <c r="B419" s="5"/>
-      <c r="C419" s="1"/>
-      <c r="D419" s="1"/>
-      <c r="E419" s="4"/>
+      <c r="A419" s="3"/>
+      <c r="B419" s="1"/>
+      <c r="C419" s="2"/>
+      <c r="D419" s="2"/>
+      <c r="E419" s="3"/>
     </row>
     <row r="420">
-      <c r="A420" s="4"/>
-      <c r="B420" s="5"/>
-      <c r="C420" s="1"/>
-      <c r="D420" s="1"/>
-      <c r="E420" s="4"/>
+      <c r="A420" s="3"/>
+      <c r="B420" s="1"/>
+      <c r="C420" s="2"/>
+      <c r="D420" s="2"/>
+      <c r="E420" s="3"/>
     </row>
     <row r="421">
-      <c r="A421" s="4"/>
-      <c r="B421" s="5"/>
-      <c r="C421" s="1"/>
-      <c r="D421" s="1"/>
-      <c r="E421" s="4"/>
+      <c r="A421" s="3"/>
+      <c r="B421" s="1"/>
+      <c r="C421" s="2"/>
+      <c r="D421" s="2"/>
+      <c r="E421" s="3"/>
     </row>
     <row r="422">
-      <c r="A422" s="4"/>
-      <c r="B422" s="5"/>
-      <c r="C422" s="1"/>
-      <c r="D422" s="1"/>
-      <c r="E422" s="4"/>
+      <c r="A422" s="3"/>
+      <c r="B422" s="1"/>
+      <c r="C422" s="2"/>
+      <c r="D422" s="2"/>
+      <c r="E422" s="3"/>
     </row>
     <row r="423">
-      <c r="A423" s="4"/>
-      <c r="B423" s="5"/>
-      <c r="C423" s="1"/>
-      <c r="D423" s="1"/>
-      <c r="E423" s="4"/>
+      <c r="A423" s="3"/>
+      <c r="B423" s="1"/>
+      <c r="C423" s="2"/>
+      <c r="D423" s="2"/>
+      <c r="E423" s="3"/>
     </row>
     <row r="424">
-      <c r="A424" s="4"/>
-      <c r="B424" s="5"/>
-      <c r="C424" s="1"/>
-      <c r="D424" s="1"/>
-      <c r="E424" s="4"/>
+      <c r="A424" s="3"/>
+      <c r="B424" s="1"/>
+      <c r="C424" s="2"/>
+      <c r="D424" s="2"/>
+      <c r="E424" s="3"/>
     </row>
     <row r="425">
-      <c r="A425" s="4"/>
-      <c r="B425" s="5"/>
-      <c r="C425" s="1"/>
-      <c r="D425" s="1"/>
-      <c r="E425" s="4"/>
+      <c r="A425" s="3"/>
+      <c r="B425" s="1"/>
+      <c r="C425" s="2"/>
+      <c r="D425" s="2"/>
+      <c r="E425" s="3"/>
     </row>
     <row r="426">
-      <c r="A426" s="4"/>
-      <c r="B426" s="5"/>
-      <c r="C426" s="1"/>
-      <c r="D426" s="1"/>
-      <c r="E426" s="4"/>
+      <c r="A426" s="3"/>
+      <c r="B426" s="1"/>
+      <c r="C426" s="2"/>
+      <c r="D426" s="2"/>
+      <c r="E426" s="3"/>
     </row>
     <row r="427">
-      <c r="A427" s="4"/>
-      <c r="B427" s="5"/>
-      <c r="C427" s="1"/>
-      <c r="D427" s="1"/>
-      <c r="E427" s="4"/>
+      <c r="A427" s="3"/>
+      <c r="B427" s="1"/>
+      <c r="C427" s="2"/>
+      <c r="D427" s="2"/>
+      <c r="E427" s="3"/>
     </row>
     <row r="428">
-      <c r="A428" s="4"/>
-      <c r="B428" s="5"/>
-      <c r="C428" s="1"/>
-      <c r="D428" s="1"/>
-      <c r="E428" s="4"/>
+      <c r="A428" s="3"/>
+      <c r="B428" s="1"/>
+      <c r="C428" s="2"/>
+      <c r="D428" s="2"/>
+      <c r="E428" s="3"/>
     </row>
     <row r="429">
-      <c r="A429" s="4"/>
-      <c r="B429" s="5"/>
-      <c r="C429" s="1"/>
-      <c r="D429" s="1"/>
-      <c r="E429" s="4"/>
+      <c r="A429" s="3"/>
+      <c r="B429" s="1"/>
+      <c r="C429" s="2"/>
+      <c r="D429" s="2"/>
+      <c r="E429" s="3"/>
     </row>
     <row r="430">
-      <c r="A430" s="4"/>
-      <c r="B430" s="5"/>
-      <c r="C430" s="1"/>
-      <c r="D430" s="1"/>
-      <c r="E430" s="4"/>
+      <c r="A430" s="3"/>
+      <c r="B430" s="1"/>
+      <c r="C430" s="2"/>
+      <c r="D430" s="2"/>
+      <c r="E430" s="3"/>
     </row>
     <row r="431">
-      <c r="A431" s="4"/>
-      <c r="B431" s="5"/>
-      <c r="C431" s="1"/>
-      <c r="D431" s="1"/>
-      <c r="E431" s="4"/>
+      <c r="A431" s="3"/>
+      <c r="B431" s="1"/>
+      <c r="C431" s="2"/>
+      <c r="D431" s="2"/>
+      <c r="E431" s="3"/>
     </row>
     <row r="432">
-      <c r="A432" s="4"/>
-      <c r="B432" s="5"/>
-      <c r="C432" s="1"/>
-      <c r="D432" s="1"/>
-      <c r="E432" s="4"/>
+      <c r="A432" s="3"/>
+      <c r="B432" s="1"/>
+      <c r="C432" s="2"/>
+      <c r="D432" s="2"/>
+      <c r="E432" s="3"/>
     </row>
     <row r="433">
-      <c r="A433" s="4"/>
-      <c r="B433" s="5"/>
-      <c r="C433" s="1"/>
-      <c r="D433" s="1"/>
-      <c r="E433" s="4"/>
+      <c r="A433" s="3"/>
+      <c r="B433" s="1"/>
+      <c r="C433" s="2"/>
+      <c r="D433" s="2"/>
+      <c r="E433" s="3"/>
     </row>
     <row r="434">
-      <c r="A434" s="4"/>
-      <c r="B434" s="5"/>
-      <c r="C434" s="1"/>
-      <c r="D434" s="1"/>
-      <c r="E434" s="4"/>
+      <c r="A434" s="3"/>
+      <c r="B434" s="1"/>
+      <c r="C434" s="2"/>
+      <c r="D434" s="2"/>
+      <c r="E434" s="3"/>
     </row>
     <row r="435">
-      <c r="A435" s="4"/>
-      <c r="B435" s="5"/>
-      <c r="C435" s="1"/>
-      <c r="D435" s="1"/>
-      <c r="E435" s="4"/>
+      <c r="A435" s="3"/>
+      <c r="B435" s="1"/>
+      <c r="C435" s="2"/>
+      <c r="D435" s="2"/>
+      <c r="E435" s="3"/>
     </row>
     <row r="436">
-      <c r="A436" s="4"/>
-      <c r="B436" s="5"/>
-      <c r="C436" s="1"/>
-      <c r="D436" s="1"/>
-      <c r="E436" s="4"/>
+      <c r="A436" s="3"/>
+      <c r="B436" s="1"/>
+      <c r="C436" s="2"/>
+      <c r="D436" s="2"/>
+      <c r="E436" s="3"/>
     </row>
     <row r="437">
-      <c r="A437" s="4"/>
-      <c r="B437" s="5"/>
-      <c r="C437" s="1"/>
-      <c r="D437" s="1"/>
-      <c r="E437" s="4"/>
+      <c r="A437" s="3"/>
+      <c r="B437" s="1"/>
+      <c r="C437" s="2"/>
+      <c r="D437" s="2"/>
+      <c r="E437" s="3"/>
     </row>
     <row r="438">
-      <c r="A438" s="4"/>
-      <c r="B438" s="5"/>
-      <c r="C438" s="1"/>
-      <c r="D438" s="1"/>
-      <c r="E438" s="4"/>
+      <c r="A438" s="3"/>
+      <c r="B438" s="1"/>
+      <c r="C438" s="2"/>
+      <c r="D438" s="2"/>
+      <c r="E438" s="3"/>
     </row>
     <row r="439">
-      <c r="A439" s="4"/>
-      <c r="B439" s="5"/>
-      <c r="C439" s="1"/>
-      <c r="D439" s="1"/>
-      <c r="E439" s="4"/>
+      <c r="A439" s="3"/>
+      <c r="B439" s="1"/>
+      <c r="C439" s="2"/>
+      <c r="D439" s="2"/>
+      <c r="E439" s="3"/>
     </row>
     <row r="440">
-      <c r="A440" s="4"/>
-      <c r="B440" s="5"/>
-      <c r="C440" s="1"/>
-      <c r="D440" s="1"/>
-      <c r="E440" s="4"/>
+      <c r="A440" s="3"/>
+      <c r="B440" s="1"/>
+      <c r="C440" s="2"/>
+      <c r="D440" s="2"/>
+      <c r="E440" s="3"/>
     </row>
     <row r="441">
-      <c r="A441" s="4"/>
-      <c r="B441" s="5"/>
-      <c r="C441" s="1"/>
-      <c r="D441" s="1"/>
-      <c r="E441" s="4"/>
+      <c r="A441" s="3"/>
+      <c r="B441" s="1"/>
+      <c r="C441" s="2"/>
+      <c r="D441" s="2"/>
+      <c r="E441" s="3"/>
     </row>
     <row r="442">
-      <c r="A442" s="4"/>
-      <c r="B442" s="5"/>
-      <c r="C442" s="1"/>
-      <c r="D442" s="1"/>
-      <c r="E442" s="4"/>
+      <c r="A442" s="3"/>
+      <c r="B442" s="1"/>
+      <c r="C442" s="2"/>
+      <c r="D442" s="2"/>
+      <c r="E442" s="3"/>
     </row>
     <row r="443">
-      <c r="A443" s="4"/>
-      <c r="B443" s="5"/>
-      <c r="C443" s="1"/>
-      <c r="D443" s="1"/>
-      <c r="E443" s="4"/>
+      <c r="A443" s="3"/>
+      <c r="B443" s="1"/>
+      <c r="C443" s="2"/>
+      <c r="D443" s="2"/>
+      <c r="E443" s="3"/>
     </row>
     <row r="444">
-      <c r="A444" s="4"/>
-      <c r="B444" s="5"/>
-      <c r="C444" s="1"/>
-      <c r="D444" s="1"/>
-      <c r="E444" s="4"/>
+      <c r="A444" s="3"/>
+      <c r="B444" s="1"/>
+      <c r="C444" s="2"/>
+      <c r="D444" s="2"/>
+      <c r="E444" s="3"/>
     </row>
     <row r="445">
-      <c r="A445" s="4"/>
-      <c r="B445" s="5"/>
-      <c r="C445" s="1"/>
-      <c r="D445" s="1"/>
-      <c r="E445" s="4"/>
+      <c r="A445" s="3"/>
+      <c r="B445" s="1"/>
+      <c r="C445" s="2"/>
+      <c r="D445" s="2"/>
+      <c r="E445" s="3"/>
     </row>
     <row r="446">
-      <c r="A446" s="4"/>
-      <c r="B446" s="5"/>
-      <c r="C446" s="1"/>
-      <c r="D446" s="1"/>
-      <c r="E446" s="4"/>
+      <c r="A446" s="3"/>
+      <c r="B446" s="1"/>
+      <c r="C446" s="2"/>
+      <c r="D446" s="2"/>
+      <c r="E446" s="3"/>
     </row>
     <row r="447">
-      <c r="A447" s="4"/>
-      <c r="B447" s="5"/>
-      <c r="C447" s="1"/>
-      <c r="D447" s="1"/>
-      <c r="E447" s="4"/>
+      <c r="A447" s="3"/>
+      <c r="B447" s="1"/>
+      <c r="C447" s="2"/>
+      <c r="D447" s="2"/>
+      <c r="E447" s="3"/>
     </row>
     <row r="448">
-      <c r="A448" s="4"/>
-      <c r="B448" s="5"/>
-      <c r="C448" s="1"/>
-      <c r="D448" s="1"/>
-      <c r="E448" s="4"/>
+      <c r="A448" s="3"/>
+      <c r="B448" s="1"/>
+      <c r="C448" s="2"/>
+      <c r="D448" s="2"/>
+      <c r="E448" s="3"/>
     </row>
     <row r="449">
-      <c r="A449" s="4"/>
-      <c r="B449" s="5"/>
-      <c r="C449" s="1"/>
-      <c r="D449" s="1"/>
-      <c r="E449" s="4"/>
+      <c r="A449" s="3"/>
+      <c r="B449" s="1"/>
+      <c r="C449" s="2"/>
+      <c r="D449" s="2"/>
+      <c r="E449" s="3"/>
     </row>
     <row r="450">
-      <c r="A450" s="4"/>
-      <c r="B450" s="5"/>
-      <c r="C450" s="1"/>
-      <c r="D450" s="1"/>
-      <c r="E450" s="4"/>
+      <c r="A450" s="3"/>
+      <c r="B450" s="1"/>
+      <c r="C450" s="2"/>
+      <c r="D450" s="2"/>
+      <c r="E450" s="3"/>
     </row>
     <row r="451">
-      <c r="A451" s="4"/>
-      <c r="B451" s="5"/>
-      <c r="C451" s="1"/>
-      <c r="D451" s="1"/>
-      <c r="E451" s="4"/>
+      <c r="A451" s="3"/>
+      <c r="B451" s="1"/>
+      <c r="C451" s="2"/>
+      <c r="D451" s="2"/>
+      <c r="E451" s="3"/>
     </row>
     <row r="452">
-      <c r="A452" s="4"/>
-      <c r="B452" s="5"/>
-      <c r="C452" s="1"/>
-      <c r="D452" s="1"/>
-      <c r="E452" s="4"/>
+      <c r="A452" s="3"/>
+      <c r="B452" s="1"/>
+      <c r="C452" s="2"/>
+      <c r="D452" s="2"/>
+      <c r="E452" s="3"/>
     </row>
     <row r="453">
-      <c r="A453" s="4"/>
-      <c r="B453" s="5"/>
-      <c r="C453" s="1"/>
-      <c r="D453" s="1"/>
-      <c r="E453" s="4"/>
+      <c r="A453" s="3"/>
+      <c r="B453" s="1"/>
+      <c r="C453" s="2"/>
+      <c r="D453" s="2"/>
+      <c r="E453" s="3"/>
     </row>
     <row r="454">
-      <c r="A454" s="4"/>
-      <c r="B454" s="5"/>
-      <c r="C454" s="1"/>
-      <c r="D454" s="1"/>
-      <c r="E454" s="4"/>
+      <c r="A454" s="3"/>
+      <c r="B454" s="1"/>
+      <c r="C454" s="2"/>
+      <c r="D454" s="2"/>
+      <c r="E454" s="3"/>
     </row>
     <row r="455">
-      <c r="A455" s="4"/>
-      <c r="B455" s="5"/>
-      <c r="C455" s="1"/>
-      <c r="D455" s="1"/>
-      <c r="E455" s="4"/>
+      <c r="A455" s="3"/>
+      <c r="B455" s="1"/>
+      <c r="C455" s="2"/>
+      <c r="D455" s="2"/>
+      <c r="E455" s="3"/>
     </row>
     <row r="456">
-      <c r="A456" s="4"/>
-      <c r="B456" s="5"/>
-      <c r="C456" s="1"/>
-      <c r="D456" s="1"/>
-      <c r="E456" s="4"/>
+      <c r="A456" s="3"/>
+      <c r="B456" s="1"/>
+      <c r="C456" s="2"/>
+      <c r="D456" s="2"/>
+      <c r="E456" s="3"/>
     </row>
     <row r="457">
-      <c r="A457" s="4"/>
-      <c r="B457" s="5"/>
-      <c r="C457" s="1"/>
-      <c r="D457" s="1"/>
-      <c r="E457" s="4"/>
+      <c r="A457" s="3"/>
+      <c r="B457" s="1"/>
+      <c r="C457" s="2"/>
+      <c r="D457" s="2"/>
+      <c r="E457" s="3"/>
     </row>
     <row r="458">
-      <c r="A458" s="4"/>
-      <c r="B458" s="5"/>
-      <c r="C458" s="1"/>
-      <c r="D458" s="1"/>
-      <c r="E458" s="4"/>
+      <c r="A458" s="3"/>
+      <c r="B458" s="1"/>
+      <c r="C458" s="2"/>
+      <c r="D458" s="2"/>
+      <c r="E458" s="3"/>
     </row>
     <row r="459">
-      <c r="A459" s="4"/>
-      <c r="B459" s="5"/>
-      <c r="C459" s="1"/>
-      <c r="D459" s="1"/>
-      <c r="E459" s="4"/>
+      <c r="A459" s="3"/>
+      <c r="B459" s="1"/>
+      <c r="C459" s="2"/>
+      <c r="D459" s="2"/>
+      <c r="E459" s="3"/>
     </row>
     <row r="460">
-      <c r="A460" s="4"/>
-      <c r="B460" s="5"/>
-      <c r="C460" s="1"/>
-      <c r="D460" s="1"/>
-      <c r="E460" s="4"/>
+      <c r="A460" s="3"/>
+      <c r="B460" s="1"/>
+      <c r="C460" s="2"/>
+      <c r="D460" s="2"/>
+      <c r="E460" s="3"/>
     </row>
     <row r="461">
-      <c r="A461" s="4"/>
-      <c r="B461" s="5"/>
-      <c r="C461" s="1"/>
-      <c r="D461" s="1"/>
-      <c r="E461" s="4"/>
+      <c r="A461" s="3"/>
+      <c r="B461" s="1"/>
+      <c r="C461" s="2"/>
+      <c r="D461" s="2"/>
+      <c r="E461" s="3"/>
     </row>
     <row r="462">
-      <c r="A462" s="4"/>
-      <c r="B462" s="5"/>
-      <c r="C462" s="1"/>
-      <c r="D462" s="1"/>
-      <c r="E462" s="4"/>
+      <c r="A462" s="3"/>
+      <c r="B462" s="1"/>
+      <c r="C462" s="2"/>
+      <c r="D462" s="2"/>
+      <c r="E462" s="3"/>
     </row>
     <row r="463">
-      <c r="A463" s="4"/>
-      <c r="B463" s="5"/>
-      <c r="C463" s="1"/>
-      <c r="D463" s="1"/>
-      <c r="E463" s="4"/>
+      <c r="A463" s="3"/>
+      <c r="B463" s="1"/>
+      <c r="C463" s="2"/>
+      <c r="D463" s="2"/>
+      <c r="E463" s="3"/>
     </row>
     <row r="464">
-      <c r="A464" s="4"/>
-      <c r="B464" s="5"/>
-      <c r="C464" s="1"/>
-      <c r="D464" s="1"/>
-      <c r="E464" s="4"/>
+      <c r="A464" s="3"/>
+      <c r="B464" s="1"/>
+      <c r="C464" s="2"/>
+      <c r="D464" s="2"/>
+      <c r="E464" s="3"/>
     </row>
     <row r="465">
-      <c r="A465" s="4"/>
-      <c r="B465" s="5"/>
-      <c r="C465" s="1"/>
-      <c r="D465" s="1"/>
-      <c r="E465" s="4"/>
+      <c r="A465" s="3"/>
+      <c r="B465" s="1"/>
+      <c r="C465" s="2"/>
+      <c r="D465" s="2"/>
+      <c r="E465" s="3"/>
     </row>
     <row r="466">
-      <c r="A466" s="4"/>
-      <c r="B466" s="5"/>
-      <c r="C466" s="1"/>
-      <c r="D466" s="1"/>
-      <c r="E466" s="4"/>
+      <c r="A466" s="3"/>
+      <c r="B466" s="1"/>
+      <c r="C466" s="2"/>
+      <c r="D466" s="2"/>
+      <c r="E466" s="3"/>
     </row>
     <row r="467">
-      <c r="A467" s="4"/>
-      <c r="B467" s="5"/>
-      <c r="C467" s="1"/>
-      <c r="D467" s="1"/>
-      <c r="E467" s="4"/>
+      <c r="A467" s="3"/>
+      <c r="B467" s="1"/>
+      <c r="C467" s="2"/>
+      <c r="D467" s="2"/>
+      <c r="E467" s="3"/>
     </row>
     <row r="468">
-      <c r="A468" s="4"/>
-      <c r="B468" s="5"/>
-      <c r="C468" s="1"/>
-      <c r="D468" s="1"/>
-      <c r="E468" s="4"/>
+      <c r="A468" s="3"/>
+      <c r="B468" s="1"/>
+      <c r="C468" s="2"/>
+      <c r="D468" s="2"/>
+      <c r="E468" s="3"/>
     </row>
     <row r="469">
-      <c r="A469" s="4"/>
-      <c r="B469" s="5"/>
-      <c r="C469" s="1"/>
-      <c r="D469" s="1"/>
-      <c r="E469" s="4"/>
+      <c r="A469" s="3"/>
+      <c r="B469" s="1"/>
+      <c r="C469" s="2"/>
+      <c r="D469" s="2"/>
+      <c r="E469" s="3"/>
     </row>
     <row r="470">
-      <c r="A470" s="4"/>
-      <c r="B470" s="5"/>
-      <c r="C470" s="1"/>
-      <c r="D470" s="1"/>
-      <c r="E470" s="4"/>
+      <c r="A470" s="3"/>
+      <c r="B470" s="1"/>
+      <c r="C470" s="2"/>
+      <c r="D470" s="2"/>
+      <c r="E470" s="3"/>
     </row>
     <row r="471">
-      <c r="A471" s="4"/>
-      <c r="B471" s="5"/>
-      <c r="C471" s="1"/>
-      <c r="D471" s="1"/>
-      <c r="E471" s="4"/>
+      <c r="A471" s="3"/>
+      <c r="B471" s="1"/>
+      <c r="C471" s="2"/>
+      <c r="D471" s="2"/>
+      <c r="E471" s="3"/>
     </row>
     <row r="472">
-      <c r="A472" s="4"/>
-      <c r="B472" s="5"/>
-      <c r="C472" s="1"/>
-      <c r="D472" s="1"/>
-      <c r="E472" s="4"/>
+      <c r="A472" s="3"/>
+      <c r="B472" s="1"/>
+      <c r="C472" s="2"/>
+      <c r="D472" s="2"/>
+      <c r="E472" s="3"/>
     </row>
     <row r="473">
-      <c r="A473" s="4"/>
-      <c r="B473" s="5"/>
-      <c r="C473" s="1"/>
-      <c r="D473" s="1"/>
-      <c r="E473" s="4"/>
+      <c r="A473" s="3"/>
+      <c r="B473" s="1"/>
+      <c r="C473" s="2"/>
+      <c r="D473" s="2"/>
+      <c r="E473" s="3"/>
     </row>
     <row r="474">
-      <c r="A474" s="4"/>
-      <c r="B474" s="5"/>
-      <c r="C474" s="1"/>
-      <c r="D474" s="1"/>
-      <c r="E474" s="4"/>
+      <c r="A474" s="3"/>
+      <c r="B474" s="1"/>
+      <c r="C474" s="2"/>
+      <c r="D474" s="2"/>
+      <c r="E474" s="3"/>
     </row>
     <row r="475">
-      <c r="A475" s="4"/>
-      <c r="B475" s="5"/>
-      <c r="C475" s="1"/>
-      <c r="D475" s="1"/>
-      <c r="E475" s="4"/>
+      <c r="A475" s="3"/>
+      <c r="B475" s="1"/>
+      <c r="C475" s="2"/>
+      <c r="D475" s="2"/>
+      <c r="E475" s="3"/>
     </row>
     <row r="476">
-      <c r="A476" s="4"/>
-      <c r="B476" s="5"/>
-      <c r="C476" s="1"/>
-      <c r="D476" s="1"/>
-      <c r="E476" s="4"/>
+      <c r="A476" s="3"/>
+      <c r="B476" s="1"/>
+      <c r="C476" s="2"/>
+      <c r="D476" s="2"/>
+      <c r="E476" s="3"/>
     </row>
     <row r="477">
-      <c r="A477" s="4"/>
-      <c r="B477" s="5"/>
-      <c r="C477" s="1"/>
-      <c r="D477" s="1"/>
-      <c r="E477" s="4"/>
+      <c r="A477" s="3"/>
+      <c r="B477" s="1"/>
+      <c r="C477" s="2"/>
+      <c r="D477" s="2"/>
+      <c r="E477" s="3"/>
     </row>
     <row r="478">
-      <c r="A478" s="4"/>
-      <c r="B478" s="5"/>
-      <c r="C478" s="1"/>
-      <c r="D478" s="1"/>
-      <c r="E478" s="4"/>
+      <c r="A478" s="3"/>
+      <c r="B478" s="1"/>
+      <c r="C478" s="2"/>
+      <c r="D478" s="2"/>
+      <c r="E478" s="3"/>
     </row>
     <row r="479">
-      <c r="A479" s="4"/>
-      <c r="B479" s="5"/>
-      <c r="C479" s="1"/>
-      <c r="D479" s="1"/>
-      <c r="E479" s="4"/>
+      <c r="A479" s="3"/>
+      <c r="B479" s="1"/>
+      <c r="C479" s="2"/>
+      <c r="D479" s="2"/>
+      <c r="E479" s="3"/>
     </row>
     <row r="480">
-      <c r="A480" s="4"/>
-      <c r="B480" s="5"/>
-      <c r="C480" s="1"/>
-      <c r="D480" s="1"/>
-      <c r="E480" s="4"/>
+      <c r="A480" s="3"/>
+      <c r="B480" s="1"/>
+      <c r="C480" s="2"/>
+      <c r="D480" s="2"/>
+      <c r="E480" s="3"/>
     </row>
     <row r="481">
-      <c r="A481" s="4"/>
-      <c r="B481" s="5"/>
-      <c r="C481" s="1"/>
-      <c r="D481" s="1"/>
-      <c r="E481" s="4"/>
+      <c r="A481" s="3"/>
+      <c r="B481" s="1"/>
+      <c r="C481" s="2"/>
+      <c r="D481" s="2"/>
+      <c r="E481" s="3"/>
     </row>
     <row r="482">
-      <c r="A482" s="4"/>
-      <c r="B482" s="5"/>
-      <c r="C482" s="1"/>
-      <c r="D482" s="1"/>
-      <c r="E482" s="4"/>
+      <c r="A482" s="3"/>
+      <c r="B482" s="1"/>
+      <c r="C482" s="2"/>
+      <c r="D482" s="2"/>
+      <c r="E482" s="3"/>
     </row>
     <row r="483">
-      <c r="A483" s="4"/>
-      <c r="B483" s="5"/>
-      <c r="C483" s="1"/>
-      <c r="D483" s="1"/>
-      <c r="E483" s="4"/>
+      <c r="A483" s="3"/>
+      <c r="B483" s="1"/>
+      <c r="C483" s="2"/>
+      <c r="D483" s="2"/>
+      <c r="E483" s="3"/>
     </row>
     <row r="484">
-      <c r="A484" s="4"/>
-      <c r="B484" s="5"/>
-      <c r="C484" s="1"/>
-      <c r="D484" s="1"/>
-      <c r="E484" s="4"/>
+      <c r="A484" s="3"/>
+      <c r="B484" s="1"/>
+      <c r="C484" s="2"/>
+      <c r="D484" s="2"/>
+      <c r="E484" s="3"/>
     </row>
     <row r="485">
-      <c r="A485" s="4"/>
-      <c r="B485" s="5"/>
-      <c r="C485" s="1"/>
-      <c r="D485" s="1"/>
-      <c r="E485" s="4"/>
+      <c r="A485" s="3"/>
+      <c r="B485" s="1"/>
+      <c r="C485" s="2"/>
+      <c r="D485" s="2"/>
+      <c r="E485" s="3"/>
     </row>
     <row r="486">
-      <c r="A486" s="4"/>
-      <c r="B486" s="5"/>
-      <c r="C486" s="1"/>
-      <c r="D486" s="1"/>
-      <c r="E486" s="4"/>
+      <c r="A486" s="3"/>
+      <c r="B486" s="1"/>
+      <c r="C486" s="2"/>
+      <c r="D486" s="2"/>
+      <c r="E486" s="3"/>
     </row>
     <row r="487">
-      <c r="A487" s="4"/>
-      <c r="B487" s="5"/>
-      <c r="C487" s="1"/>
-      <c r="D487" s="1"/>
-      <c r="E487" s="4"/>
+      <c r="A487" s="3"/>
+      <c r="B487" s="1"/>
+      <c r="C487" s="2"/>
+      <c r="D487" s="2"/>
+      <c r="E487" s="3"/>
     </row>
     <row r="488">
-      <c r="A488" s="4"/>
-      <c r="B488" s="5"/>
-      <c r="C488" s="1"/>
-      <c r="D488" s="1"/>
-      <c r="E488" s="4"/>
+      <c r="A488" s="3"/>
+      <c r="B488" s="1"/>
+      <c r="C488" s="2"/>
+      <c r="D488" s="2"/>
+      <c r="E488" s="3"/>
     </row>
     <row r="489">
-      <c r="A489" s="4"/>
-      <c r="B489" s="5"/>
-      <c r="C489" s="1"/>
-      <c r="D489" s="1"/>
-      <c r="E489" s="4"/>
+      <c r="A489" s="3"/>
+      <c r="B489" s="1"/>
+      <c r="C489" s="2"/>
+      <c r="D489" s="2"/>
+      <c r="E489" s="3"/>
     </row>
     <row r="490">
-      <c r="A490" s="4"/>
-      <c r="B490" s="5"/>
-      <c r="C490" s="1"/>
-      <c r="D490" s="1"/>
-      <c r="E490" s="4"/>
+      <c r="A490" s="3"/>
+      <c r="B490" s="1"/>
+      <c r="C490" s="2"/>
+      <c r="D490" s="2"/>
+      <c r="E490" s="3"/>
     </row>
     <row r="491">
-      <c r="A491" s="4"/>
-      <c r="B491" s="5"/>
-      <c r="C491" s="1"/>
-      <c r="D491" s="1"/>
-      <c r="E491" s="4"/>
+      <c r="A491" s="3"/>
+      <c r="B491" s="1"/>
+      <c r="C491" s="2"/>
+      <c r="D491" s="2"/>
+      <c r="E491" s="3"/>
     </row>
     <row r="492">
-      <c r="A492" s="4"/>
-      <c r="B492" s="5"/>
-      <c r="C492" s="1"/>
-      <c r="D492" s="1"/>
-      <c r="E492" s="4"/>
+      <c r="A492" s="3"/>
+      <c r="B492" s="1"/>
+      <c r="C492" s="2"/>
+      <c r="D492" s="2"/>
+      <c r="E492" s="3"/>
     </row>
     <row r="493">
-      <c r="A493" s="4"/>
-      <c r="B493" s="5"/>
-      <c r="C493" s="1"/>
-      <c r="D493" s="1"/>
-      <c r="E493" s="4"/>
+      <c r="A493" s="3"/>
+      <c r="B493" s="1"/>
+      <c r="C493" s="2"/>
+      <c r="D493" s="2"/>
+      <c r="E493" s="3"/>
     </row>
     <row r="494">
-      <c r="A494" s="4"/>
-      <c r="B494" s="5"/>
-      <c r="C494" s="1"/>
-      <c r="D494" s="1"/>
-      <c r="E494" s="4"/>
+      <c r="A494" s="3"/>
+      <c r="B494" s="1"/>
+      <c r="C494" s="2"/>
+      <c r="D494" s="2"/>
+      <c r="E494" s="3"/>
     </row>
     <row r="495">
-      <c r="A495" s="4"/>
-      <c r="B495" s="5"/>
-      <c r="C495" s="1"/>
-      <c r="D495" s="1"/>
-      <c r="E495" s="4"/>
+      <c r="A495" s="3"/>
+      <c r="B495" s="1"/>
+      <c r="C495" s="2"/>
+      <c r="D495" s="2"/>
+      <c r="E495" s="3"/>
     </row>
     <row r="496">
-      <c r="A496" s="4"/>
-      <c r="B496" s="5"/>
-      <c r="C496" s="1"/>
-      <c r="D496" s="1"/>
-      <c r="E496" s="4"/>
+      <c r="A496" s="3"/>
+      <c r="B496" s="1"/>
+      <c r="C496" s="2"/>
+      <c r="D496" s="2"/>
+      <c r="E496" s="3"/>
     </row>
     <row r="497">
-      <c r="A497" s="4"/>
-      <c r="B497" s="5"/>
-      <c r="C497" s="1"/>
-      <c r="D497" s="1"/>
-      <c r="E497" s="4"/>
+      <c r="A497" s="3"/>
+      <c r="B497" s="1"/>
+      <c r="C497" s="2"/>
+      <c r="D497" s="2"/>
+      <c r="E497" s="3"/>
     </row>
     <row r="498">
-      <c r="A498" s="4"/>
-      <c r="B498" s="5"/>
-      <c r="C498" s="1"/>
-      <c r="D498" s="1"/>
-      <c r="E498" s="4"/>
+      <c r="A498" s="3"/>
+      <c r="B498" s="1"/>
+      <c r="C498" s="2"/>
+      <c r="D498" s="2"/>
+      <c r="E498" s="3"/>
     </row>
     <row r="499">
-      <c r="A499" s="4"/>
-      <c r="B499" s="5"/>
-      <c r="C499" s="1"/>
-      <c r="D499" s="1"/>
-      <c r="E499" s="4"/>
+      <c r="A499" s="3"/>
+      <c r="B499" s="1"/>
+      <c r="C499" s="2"/>
+      <c r="D499" s="2"/>
+      <c r="E499" s="3"/>
     </row>
     <row r="500">
-      <c r="A500" s="4"/>
-      <c r="B500" s="5"/>
-      <c r="C500" s="1"/>
-      <c r="D500" s="1"/>
-      <c r="E500" s="4"/>
+      <c r="A500" s="3"/>
+      <c r="B500" s="1"/>
+      <c r="C500" s="2"/>
+      <c r="D500" s="2"/>
+      <c r="E500" s="3"/>
     </row>
     <row r="501">
-      <c r="A501" s="4"/>
-      <c r="B501" s="5"/>
-      <c r="C501" s="1"/>
-      <c r="D501" s="1"/>
-      <c r="E501" s="4"/>
+      <c r="A501" s="3"/>
+      <c r="B501" s="1"/>
+      <c r="C501" s="2"/>
+      <c r="D501" s="2"/>
+      <c r="E501" s="3"/>
     </row>
     <row r="502">
-      <c r="A502" s="4"/>
-      <c r="B502" s="5"/>
-      <c r="C502" s="1"/>
-      <c r="D502" s="1"/>
-      <c r="E502" s="4"/>
+      <c r="A502" s="3"/>
+      <c r="B502" s="1"/>
+      <c r="C502" s="2"/>
+      <c r="D502" s="2"/>
+      <c r="E502" s="3"/>
     </row>
     <row r="503">
-      <c r="A503" s="4"/>
-      <c r="B503" s="5"/>
-      <c r="C503" s="1"/>
-      <c r="D503" s="1"/>
-      <c r="E503" s="4"/>
+      <c r="A503" s="3"/>
+      <c r="B503" s="1"/>
+      <c r="C503" s="2"/>
+      <c r="D503" s="2"/>
+      <c r="E503" s="3"/>
     </row>
     <row r="504">
-      <c r="A504" s="4"/>
-      <c r="B504" s="5"/>
-      <c r="C504" s="1"/>
-      <c r="D504" s="1"/>
-      <c r="E504" s="4"/>
+      <c r="A504" s="3"/>
+      <c r="B504" s="1"/>
+      <c r="C504" s="2"/>
+      <c r="D504" s="2"/>
+      <c r="E504" s="3"/>
     </row>
     <row r="505">
-      <c r="A505" s="4"/>
-      <c r="B505" s="5"/>
-      <c r="C505" s="1"/>
-      <c r="D505" s="1"/>
-      <c r="E505" s="4"/>
+      <c r="A505" s="3"/>
+      <c r="B505" s="1"/>
+      <c r="C505" s="2"/>
+      <c r="D505" s="2"/>
+      <c r="E505" s="3"/>
     </row>
     <row r="506">
-      <c r="A506" s="4"/>
-      <c r="B506" s="5"/>
-      <c r="C506" s="1"/>
-      <c r="D506" s="1"/>
-      <c r="E506" s="4"/>
+      <c r="A506" s="3"/>
+      <c r="B506" s="1"/>
+      <c r="C506" s="2"/>
+      <c r="D506" s="2"/>
+      <c r="E506" s="3"/>
     </row>
     <row r="507">
-      <c r="A507" s="4"/>
-      <c r="B507" s="5"/>
-      <c r="C507" s="1"/>
-      <c r="D507" s="1"/>
-      <c r="E507" s="4"/>
+      <c r="A507" s="3"/>
+      <c r="B507" s="1"/>
+      <c r="C507" s="2"/>
+      <c r="D507" s="2"/>
+      <c r="E507" s="3"/>
     </row>
     <row r="508">
-      <c r="A508" s="4"/>
-      <c r="B508" s="5"/>
-      <c r="C508" s="1"/>
-      <c r="D508" s="1"/>
-      <c r="E508" s="4"/>
+      <c r="A508" s="3"/>
+      <c r="B508" s="1"/>
+      <c r="C508" s="2"/>
+      <c r="D508" s="2"/>
+      <c r="E508" s="3"/>
     </row>
     <row r="509">
-      <c r="A509" s="4"/>
-      <c r="B509" s="5"/>
-      <c r="C509" s="1"/>
-      <c r="D509" s="1"/>
-      <c r="E509" s="4"/>
+      <c r="A509" s="3"/>
+      <c r="B509" s="1"/>
+      <c r="C509" s="2"/>
+      <c r="D509" s="2"/>
+      <c r="E509" s="3"/>
     </row>
     <row r="510">
-      <c r="A510" s="4"/>
-      <c r="B510" s="5"/>
-      <c r="C510" s="1"/>
-      <c r="D510" s="1"/>
-      <c r="E510" s="4"/>
+      <c r="A510" s="3"/>
+      <c r="B510" s="1"/>
+      <c r="C510" s="2"/>
+      <c r="D510" s="2"/>
+      <c r="E510" s="3"/>
     </row>
     <row r="511">
-      <c r="A511" s="4"/>
-      <c r="B511" s="5"/>
-      <c r="C511" s="1"/>
-      <c r="D511" s="1"/>
-      <c r="E511" s="4"/>
+      <c r="A511" s="3"/>
+      <c r="B511" s="1"/>
+      <c r="C511" s="2"/>
+      <c r="D511" s="2"/>
+      <c r="E511" s="3"/>
     </row>
     <row r="512">
-      <c r="A512" s="4"/>
-      <c r="B512" s="5"/>
-      <c r="C512" s="1"/>
-      <c r="D512" s="1"/>
-      <c r="E512" s="4"/>
+      <c r="A512" s="3"/>
+      <c r="B512" s="1"/>
+      <c r="C512" s="2"/>
+      <c r="D512" s="2"/>
+      <c r="E512" s="3"/>
     </row>
     <row r="513">
-      <c r="A513" s="4"/>
-      <c r="B513" s="5"/>
-      <c r="C513" s="1"/>
-      <c r="D513" s="1"/>
-      <c r="E513" s="4"/>
+      <c r="A513" s="3"/>
+      <c r="B513" s="1"/>
+      <c r="C513" s="2"/>
+      <c r="D513" s="2"/>
+      <c r="E513" s="3"/>
     </row>
     <row r="514">
-      <c r="A514" s="4"/>
-      <c r="B514" s="5"/>
-      <c r="C514" s="1"/>
-      <c r="D514" s="1"/>
-      <c r="E514" s="4"/>
+      <c r="A514" s="3"/>
+      <c r="B514" s="1"/>
+      <c r="C514" s="2"/>
+      <c r="D514" s="2"/>
+      <c r="E514" s="3"/>
     </row>
     <row r="515">
-      <c r="A515" s="4"/>
-      <c r="B515" s="5"/>
-      <c r="C515" s="1"/>
-      <c r="D515" s="1"/>
-      <c r="E515" s="4"/>
+      <c r="A515" s="3"/>
+      <c r="B515" s="1"/>
+      <c r="C515" s="2"/>
+      <c r="D515" s="2"/>
+      <c r="E515" s="3"/>
     </row>
     <row r="516">
-      <c r="A516" s="4"/>
-      <c r="B516" s="5"/>
-      <c r="C516" s="1"/>
-      <c r="D516" s="1"/>
-      <c r="E516" s="4"/>
+      <c r="A516" s="3"/>
+      <c r="B516" s="1"/>
+      <c r="C516" s="2"/>
+      <c r="D516" s="2"/>
+      <c r="E516" s="3"/>
     </row>
     <row r="517">
-      <c r="A517" s="4"/>
-      <c r="B517" s="5"/>
-      <c r="C517" s="1"/>
-      <c r="D517" s="1"/>
-      <c r="E517" s="4"/>
+      <c r="A517" s="3"/>
+      <c r="B517" s="1"/>
+      <c r="C517" s="2"/>
+      <c r="D517" s="2"/>
+      <c r="E517" s="3"/>
     </row>
     <row r="518">
-      <c r="A518" s="4"/>
-      <c r="B518" s="5"/>
-      <c r="C518" s="1"/>
-      <c r="D518" s="1"/>
-      <c r="E518" s="4"/>
+      <c r="A518" s="3"/>
+      <c r="B518" s="1"/>
+      <c r="C518" s="2"/>
+      <c r="D518" s="2"/>
+      <c r="E518" s="3"/>
     </row>
     <row r="519">
-      <c r="A519" s="4"/>
-      <c r="B519" s="5"/>
-      <c r="C519" s="1"/>
-      <c r="D519" s="1"/>
-      <c r="E519" s="4"/>
+      <c r="A519" s="3"/>
+      <c r="B519" s="1"/>
+      <c r="C519" s="2"/>
+      <c r="D519" s="2"/>
+      <c r="E519" s="3"/>
     </row>
     <row r="520">
-      <c r="A520" s="4"/>
-      <c r="B520" s="5"/>
-      <c r="C520" s="1"/>
-      <c r="D520" s="1"/>
-      <c r="E520" s="4"/>
+      <c r="A520" s="3"/>
+      <c r="B520" s="1"/>
+      <c r="C520" s="2"/>
+      <c r="D520" s="2"/>
+      <c r="E520" s="3"/>
     </row>
     <row r="521">
-      <c r="A521" s="4"/>
-      <c r="B521" s="5"/>
-      <c r="C521" s="1"/>
-      <c r="D521" s="1"/>
-      <c r="E521" s="4"/>
+      <c r="A521" s="3"/>
+      <c r="B521" s="1"/>
+      <c r="C521" s="2"/>
+      <c r="D521" s="2"/>
+      <c r="E521" s="3"/>
     </row>
     <row r="522">
-      <c r="A522" s="4"/>
-      <c r="B522" s="5"/>
-      <c r="C522" s="1"/>
-      <c r="D522" s="1"/>
-      <c r="E522" s="4"/>
+      <c r="A522" s="3"/>
+      <c r="B522" s="1"/>
+      <c r="C522" s="2"/>
+      <c r="D522" s="2"/>
+      <c r="E522" s="3"/>
     </row>
     <row r="523">
-      <c r="A523" s="4"/>
-      <c r="B523" s="5"/>
-      <c r="C523" s="1"/>
-      <c r="D523" s="1"/>
-      <c r="E523" s="4"/>
+      <c r="A523" s="3"/>
+      <c r="B523" s="1"/>
+      <c r="C523" s="2"/>
+      <c r="D523" s="2"/>
+      <c r="E523" s="3"/>
     </row>
     <row r="524">
-      <c r="A524" s="4"/>
-      <c r="B524" s="5"/>
-      <c r="C524" s="1"/>
-      <c r="D524" s="1"/>
-      <c r="E524" s="4"/>
+      <c r="A524" s="3"/>
+      <c r="B524" s="1"/>
+      <c r="C524" s="2"/>
+      <c r="D524" s="2"/>
+      <c r="E524" s="3"/>
     </row>
     <row r="525">
-      <c r="A525" s="4"/>
-      <c r="B525" s="5"/>
-      <c r="C525" s="1"/>
-      <c r="D525" s="1"/>
-      <c r="E525" s="4"/>
+      <c r="A525" s="3"/>
+      <c r="B525" s="1"/>
+      <c r="C525" s="2"/>
+      <c r="D525" s="2"/>
+      <c r="E525" s="3"/>
     </row>
     <row r="526">
-      <c r="A526" s="4"/>
-      <c r="B526" s="5"/>
-      <c r="C526" s="1"/>
-      <c r="D526" s="1"/>
-      <c r="E526" s="4"/>
+      <c r="A526" s="3"/>
+      <c r="B526" s="1"/>
+      <c r="C526" s="2"/>
+      <c r="D526" s="2"/>
+      <c r="E526" s="3"/>
     </row>
     <row r="527">
-      <c r="A527" s="4"/>
-      <c r="B527" s="5"/>
-      <c r="C527" s="1"/>
-      <c r="D527" s="1"/>
-      <c r="E527" s="4"/>
+      <c r="A527" s="3"/>
+      <c r="B527" s="1"/>
+      <c r="C527" s="2"/>
+      <c r="D527" s="2"/>
+      <c r="E527" s="3"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/wolf/Excel/Language_小镇多语言.xlsx
+++ b/wolf/Excel/Language_小镇多语言.xlsx
@@ -38,45 +38,10 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="@"/>
   </numFmts>
-  <fonts count="41">
+  <fonts count="40">
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF1F2329"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF1F2329"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -167,48 +132,6 @@
     </font>
     <font>
       <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF1F2329"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF1F2329"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9.75"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
       <color rgb="FF1F2329"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -245,6 +168,41 @@
     <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF1F2329"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF1F2329"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF1F2329"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -300,14 +258,27 @@
     </font>
     <font>
       <sz val="9"/>
+      <color rgb="FF1F2329"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="true"/>
-      <sz val="9.75"/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -327,8 +298,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="28">
+  <fills count="27">
     <fill>
       <patternFill patternType="none">
         <fgColor/>
@@ -338,12 +331,6 @@
     <fill>
       <patternFill patternType="gray125">
         <fgColor/>
-        <bgColor/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD9F5D6"/>
         <bgColor/>
       </patternFill>
     </fill>
@@ -367,18 +354,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFECE2FE"/>
-        <bgColor/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFECE2FE"/>
-        <bgColor/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFEEF6C6"/>
         <bgColor/>
       </patternFill>
@@ -391,7 +366,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFAF1D1"/>
+        <fgColor rgb="FF8EE085"/>
         <bgColor/>
       </patternFill>
     </fill>
@@ -403,13 +378,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD5F6F2"/>
-        <bgColor/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD5F6F2"/>
+        <fgColor rgb="FFFAF1D1"/>
         <bgColor/>
       </patternFill>
     </fill>
@@ -433,7 +402,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFEEF6C6"/>
+        <fgColor rgb="FFECE2FE"/>
         <bgColor/>
       </patternFill>
     </fill>
@@ -445,7 +414,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFEEF6C6"/>
+        <fgColor rgb="FFECE2FE"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD5F6F2"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD5F6F2"/>
         <bgColor/>
       </patternFill>
     </fill>
@@ -457,13 +438,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFF258"/>
+        <fgColor rgb="FFD9F5D6"/>
         <bgColor/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF8EE085"/>
+        <fgColor rgb="FFECE2FE"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFDDDEF"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF258"/>
         <bgColor/>
       </patternFill>
     </fill>
@@ -487,25 +480,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFDDDEF"/>
-        <bgColor/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFECE2FE"/>
+        <fgColor rgb="FFEEF6C6"/>
         <bgColor/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="41">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+  <borders count="40">
     <border>
       <left/>
       <right/>
@@ -790,129 +770,126 @@
   <cellStyleXfs count="1">
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="40">
     <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="4" fillId="2" fontId="4" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="5" fillId="3" fontId="5" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0">
-      <alignment vertical="center" wrapText="true"/>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="6" fillId="4" fontId="6" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="5" fillId="0" fontId="5" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="7" fillId="5" fontId="7" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="8" fillId="6" fontId="8" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="6" fillId="0" fontId="6" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="9" fillId="0" fontId="9" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="10" fillId="0" fontId="10" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="7" fillId="0" fontId="7" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="8" fillId="3" fontId="8" numFmtId="0" xfId="0">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="9" fillId="4" fontId="9" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="10" fillId="5" fontId="10" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="11" fillId="6" fontId="11" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="11" fillId="0" fontId="11" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="12" fillId="7" fontId="12" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="13" fillId="0" fontId="13" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="14" fillId="8" fontId="14" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="15" fillId="9" fontId="15" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="13" fillId="8" fontId="13" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="16" fillId="0" fontId="16" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="14" fillId="9" fontId="14" numFmtId="0" xfId="0">
-      <alignment horizontal="left" vertical="bottom"/>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="17" fillId="10" fontId="17" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="15" fillId="10" fontId="15" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="18" fillId="11" fontId="18" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="16" fillId="11" fontId="16" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="19" fillId="12" fontId="19" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="20" fillId="0" fontId="20" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="21" fillId="13" fontId="21" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="17" fillId="12" fontId="17" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="22" fillId="14" fontId="22" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="23" fillId="15" fontId="23" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="24" fillId="0" fontId="24" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="18" fillId="13" fontId="18" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="25" fillId="16" fontId="25" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="26" fillId="17" fontId="26" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="19" fillId="14" fontId="19" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="27" fillId="18" fontId="27" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="20" fillId="15" fontId="20" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="21" fillId="16" fontId="21" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="28" fillId="19" fontId="28" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="22" fillId="17" fontId="22" numFmtId="0" xfId="0">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="23" fillId="0" fontId="23" numFmtId="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="24" fillId="18" fontId="24" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="25" fillId="19" fontId="25" numFmtId="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="26" fillId="0" fontId="26" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="27" fillId="0" fontId="27" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="28" fillId="0" fontId="28" numFmtId="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="29" fillId="0" fontId="29" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" applyProtection="false" borderId="29" fillId="0" fontId="29" numFmtId="164" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="30" fillId="20" fontId="30" numFmtId="0" xfId="0">
-      <alignment horizontal="left" vertical="bottom"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="31" fillId="21" fontId="31" numFmtId="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="32" fillId="22" fontId="32" numFmtId="0" xfId="0">
-      <alignment vertical="center" wrapText="true"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="33" fillId="23" fontId="33" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" applyProtection="false" borderId="34" fillId="0" fontId="34" numFmtId="164" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="34" fillId="24" fontId="34" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="35" fillId="25" fontId="35" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="35" fillId="24" fontId="35" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="36" fillId="26" fontId="36" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="36" fillId="25" fontId="36" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="37" fillId="0" fontId="37" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="38" fillId="0" fontId="38" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="39" fillId="0" fontId="39" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="39" fillId="26" fontId="39" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="40" fillId="27" fontId="40" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1239,100 +1216,100 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="19"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" max="1" min="1" style="0" width="13"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="2" min="2" style="0" width="38"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="3" min="3" style="0" width="55"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="4" min="4" style="0" width="68"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="5" min="5" style="0" width="56"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="6" min="6" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="7" min="7" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="8" min="8" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="9" min="9" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="10" min="10" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="11" min="11" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="12" min="12" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="13" min="13" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="14" min="14" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="15" min="15" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="16" min="16" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="17" min="17" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="18" min="18" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="19" min="19" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="20" min="20" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="1" min="1" style="0" width="14"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="2" min="2" style="0" width="40"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="3" min="3" style="0" width="58"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="4" min="4" style="0" width="72"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="5" min="5" style="0" width="59"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="6" min="6" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="7" min="7" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="8" min="8" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="9" min="9" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="10" min="10" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="11" min="11" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="12" min="12" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="13" min="13" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="14" min="14" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="15" min="15" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="16" min="16" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="17" min="17" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="18" min="18" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="19" min="19" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="20" min="20" style="0" width="16"/>
   </cols>
   <sheetData>
-    <row customHeight="true" ht="21" r="1">
-      <c r="A1" s="23" t="str">
+    <row customHeight="true" ht="23" r="1">
+      <c r="A1" s="9" t="str">
         <v>Int</v>
       </c>
-      <c r="B1" s="23" t="str">
+      <c r="B1" s="9" t="str">
         <v>String</v>
       </c>
-      <c r="C1" s="3" t="str">
+      <c r="C1" s="1" t="str">
         <v>String</v>
       </c>
-      <c r="D1" s="23" t="str">
+      <c r="D1" s="9" t="str">
         <v>String</v>
       </c>
       <c r="E1" s="2" t="str">
         <v>String</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="2">
-      <c r="A2" s="23" t="str">
+    <row customHeight="true" ht="23" r="2">
+      <c r="A2" s="9" t="str">
         <v>ID</v>
       </c>
-      <c r="B2" s="23" t="str">
+      <c r="B2" s="9" t="str">
         <v>mur</v>
       </c>
-      <c r="C2" s="3" t="str">
+      <c r="C2" s="1" t="str">
         <v>Value</v>
       </c>
-      <c r="D2" s="23" t="str">
+      <c r="D2" s="9" t="str">
         <v>Value_Ch</v>
       </c>
       <c r="E2" s="2" t="str">
         <v>Comment</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="3">
-      <c r="A3" s="23" t="str">
+    <row customHeight="true" ht="23" r="3">
+      <c r="A3" s="9" t="str">
         <v>ID</v>
       </c>
-      <c r="B3" s="23" t="str">
+      <c r="B3" s="9" t="str">
         <v>名字</v>
       </c>
-      <c r="C3" s="3" t="str">
+      <c r="C3" s="1" t="str">
         <v>英文</v>
       </c>
-      <c r="D3" s="23" t="str">
+      <c r="D3" s="9" t="str">
         <v>中文</v>
       </c>
       <c r="E3" s="2" t="str">
         <v>备注</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="4">
+    <row customHeight="true" ht="23" r="4">
       <c r="A4" s="2" t="str"/>
-      <c r="B4" s="38" t="str">
+      <c r="B4" s="39" t="str">
         <v>Key|ReadByName</v>
       </c>
-      <c r="C4" s="3" t="str">
+      <c r="C4" s="1" t="str">
         <v>MainLanguage</v>
       </c>
-      <c r="D4" s="38" t="str">
+      <c r="D4" s="39" t="str">
         <v>ChildLanguage</v>
       </c>
       <c r="E4" s="2" t="str"/>
     </row>
-    <row customHeight="true" ht="21" r="5">
+    <row customHeight="true" ht="23" r="5">
       <c r="A5" s="2">
         <v>10001</v>
       </c>
       <c r="B5" s="2" t="str">
         <v>Guide_GuideContent_10001</v>
       </c>
-      <c r="C5" s="3" t="str">
+      <c r="C5" s="1" t="str">
         <v>This is what you are playing in this round</v>
       </c>
       <c r="D5" s="2" t="str">
@@ -1342,14 +1319,14 @@
         <v>10000：新手引导表</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="6">
+    <row customHeight="true" ht="23" r="6">
       <c r="A6" s="2">
         <v>10002</v>
       </c>
       <c r="B6" s="2" t="str">
         <v>Guide_GuideContent_10002</v>
       </c>
-      <c r="C6" s="3" t="str">
+      <c r="C6" s="1" t="str">
         <v>This is your goal in this round, check it here if you don't know what to do</v>
       </c>
       <c r="D6" s="2" t="str">
@@ -1357,14 +1334,14 @@
       </c>
       <c r="E6" s="2" t="str"/>
     </row>
-    <row customHeight="true" ht="21" r="7">
+    <row customHeight="true" ht="23" r="7">
       <c r="A7" s="2">
         <v>10003</v>
       </c>
       <c r="B7" s="2" t="str">
         <v>Guide_GuideContent_10003</v>
       </c>
-      <c r="C7" s="3" t="str">
+      <c r="C7" s="1" t="str">
         <v>Survive to win~</v>
       </c>
       <c r="D7" s="2" t="str">
@@ -1372,14 +1349,14 @@
       </c>
       <c r="E7" s="2" t="str"/>
     </row>
-    <row customHeight="true" ht="21" r="8">
+    <row customHeight="true" ht="23" r="8">
       <c r="A8" s="2">
         <v>10004</v>
       </c>
       <c r="B8" s="2" t="str">
         <v>Guide_GuideContent_10004</v>
       </c>
-      <c r="C8" s="3" t="str">
+      <c r="C8" s="1" t="str">
         <v>Here is the energy ball:</v>
       </c>
       <c r="D8" s="2" t="str">
@@ -1387,14 +1364,14 @@
       </c>
       <c r="E8" s="2" t="str"/>
     </row>
-    <row customHeight="true" ht="21" r="9">
+    <row customHeight="true" ht="23" r="9">
       <c r="A9" s="2">
         <v>10005</v>
       </c>
       <c r="B9" s="2" t="str">
         <v>Guide_GuideContent_10005</v>
       </c>
-      <c r="C9" s="3" t="str">
+      <c r="C9" s="1" t="str">
         <v>Collect them all to get a protective shield</v>
       </c>
       <c r="D9" s="2" t="str">
@@ -1402,14 +1379,14 @@
       </c>
       <c r="E9" s="2" t="str"/>
     </row>
-    <row customHeight="true" ht="21" r="10">
+    <row customHeight="true" ht="23" r="10">
       <c r="A10" s="2">
         <v>10006</v>
       </c>
       <c r="B10" s="2" t="str">
         <v>Guide_GuideContent_10006</v>
       </c>
-      <c r="C10" s="3" t="str">
+      <c r="C10" s="1" t="str">
         <v>This is your goal in this round, achieve it before the game ends to win</v>
       </c>
       <c r="D10" s="2" t="str">
@@ -1417,14 +1394,14 @@
       </c>
       <c r="E10" s="2" t="str"/>
     </row>
-    <row customHeight="true" ht="21" r="11">
+    <row customHeight="true" ht="23" r="11">
       <c r="A11" s="2">
         <v>10007</v>
       </c>
       <c r="B11" s="2" t="str">
         <v>Guide_GuideContent_10007</v>
       </c>
-      <c r="C11" s="3" t="str">
+      <c r="C11" s="1" t="str">
         <v>This is your goal in this round, achieve it before the game ends to win</v>
       </c>
       <c r="D11" s="2" t="str">
@@ -1432,14 +1409,14 @@
       </c>
       <c r="E11" s="2" t="str"/>
     </row>
-    <row customHeight="true" ht="21" r="12">
+    <row customHeight="true" ht="23" r="12">
       <c r="A12" s="2">
         <v>10008</v>
       </c>
       <c r="B12" s="2" t="str">
         <v>Guide_GuideContent_10008</v>
       </c>
-      <c r="C12" s="3" t="str">
+      <c r="C12" s="1" t="str">
         <v>You have a new goal, to defeat the Murderer and protect the Students</v>
       </c>
       <c r="D12" s="2" t="str">
@@ -1447,14 +1424,14 @@
       </c>
       <c r="E12" s="2" t="str"/>
     </row>
-    <row customHeight="true" ht="21" r="13">
+    <row customHeight="true" ht="23" r="13">
       <c r="A13" s="2">
         <v>10009</v>
       </c>
       <c r="B13" s="2" t="str">
         <v>Guide_GuideContent_10009</v>
       </c>
-      <c r="C13" s="3" t="str">
+      <c r="C13" s="1" t="str">
         <v>This is what you are playing in this round</v>
       </c>
       <c r="D13" s="2" t="str">
@@ -1462,14 +1439,14 @@
       </c>
       <c r="E13" s="2" t="str"/>
     </row>
-    <row customHeight="true" ht="21" r="14">
+    <row customHeight="true" ht="23" r="14">
       <c r="A14" s="2">
         <v>10010</v>
       </c>
       <c r="B14" s="2" t="str">
         <v>Guide_GuideContent_10010</v>
       </c>
-      <c r="C14" s="3" t="str">
+      <c r="C14" s="1" t="str">
         <v>This is what you are playing in this round</v>
       </c>
       <c r="D14" s="2" t="str">
@@ -1477,14 +1454,14 @@
       </c>
       <c r="E14" s="2" t="str"/>
     </row>
-    <row customHeight="true" ht="21" r="15">
+    <row customHeight="true" ht="23" r="15">
       <c r="A15" s="2">
         <v>10011</v>
       </c>
       <c r="B15" s="2" t="str">
         <v>Guide_GuideContent_10011</v>
       </c>
-      <c r="C15" s="3" t="str">
+      <c r="C15" s="1" t="str">
         <v>Congratulation! You just picked up the weapon and you're a Hero now</v>
       </c>
       <c r="D15" s="2" t="str">
@@ -1492,14 +1469,14 @@
       </c>
       <c r="E15" s="2" t="str"/>
     </row>
-    <row customHeight="true" ht="21" r="16">
+    <row customHeight="true" ht="23" r="16">
       <c r="A16" s="2">
         <v>10012</v>
       </c>
       <c r="B16" s="2" t="str">
         <v>Guide_GuideContent_20001</v>
       </c>
-      <c r="C16" s="3" t="str">
+      <c r="C16" s="1" t="str">
         <v>The Coins gained in this game will be stored here and be given to you during the settlement; but there is a limitation for the Coin Bag and cannot gain more Coins when it's full.</v>
       </c>
       <c r="D16" s="2" t="str">
@@ -1507,14 +1484,14 @@
       </c>
       <c r="E16" s="2" t="str"/>
     </row>
-    <row customHeight="true" ht="21" r="17">
+    <row customHeight="true" ht="23" r="17">
       <c r="A17" s="2">
         <v>10013</v>
       </c>
       <c r="B17" s="2" t="str">
         <v>Guide_GuideContent_20002</v>
       </c>
-      <c r="C17" s="3" t="str">
+      <c r="C17" s="1" t="str">
         <v>Coin Bag is full, cannot gain more Coins in this round</v>
       </c>
       <c r="D17" s="2" t="str">
@@ -1522,14 +1499,14 @@
       </c>
       <c r="E17" s="2" t="str"/>
     </row>
-    <row customHeight="true" ht="21" r="18">
+    <row customHeight="true" ht="23" r="18">
       <c r="A18" s="2">
         <v>10014</v>
       </c>
       <c r="B18" s="2" t="str">
         <v>Guide_GuideContent_30001</v>
       </c>
-      <c r="C18" s="3" t="str">
+      <c r="C18" s="1" t="str">
         <v>Click here to switch your status, choose to show or hide the weapon</v>
       </c>
       <c r="D18" s="2" t="str">
@@ -1537,14 +1514,14 @@
       </c>
       <c r="E18" s="2" t="str"/>
     </row>
-    <row customHeight="true" ht="21" r="19">
+    <row customHeight="true" ht="23" r="19">
       <c r="A19" s="2">
         <v>10015</v>
       </c>
       <c r="B19" s="2" t="str">
         <v>Guide_GuideContent_30002</v>
       </c>
-      <c r="C19" s="3" t="str">
+      <c r="C19" s="1" t="str">
         <v>Show the weapon, then you can click here to attack</v>
       </c>
       <c r="D19" s="2" t="str">
@@ -1552,14 +1529,14 @@
       </c>
       <c r="E19" s="2" t="str"/>
     </row>
-    <row customHeight="true" ht="21" r="20">
+    <row customHeight="true" ht="23" r="20">
       <c r="A20" s="2">
         <v>10016</v>
       </c>
       <c r="B20" s="2" t="str">
         <v>Guide_GuideContent_30003</v>
       </c>
-      <c r="C20" s="3" t="str">
+      <c r="C20" s="1" t="str">
         <v>Click here to switch your status, choose to show or hide the weapon</v>
       </c>
       <c r="D20" s="2" t="str">
@@ -1567,14 +1544,14 @@
       </c>
       <c r="E20" s="2" t="str"/>
     </row>
-    <row customHeight="true" ht="21" r="21">
+    <row customHeight="true" ht="23" r="21">
       <c r="A21" s="2">
         <v>10017</v>
       </c>
       <c r="B21" s="2" t="str">
         <v>Guide_GuideContent_30004</v>
       </c>
-      <c r="C21" s="3" t="str">
+      <c r="C21" s="1" t="str">
         <v>Show the weapon, then you can click here to attack</v>
       </c>
       <c r="D21" s="2" t="str">
@@ -1582,14 +1559,14 @@
       </c>
       <c r="E21" s="2" t="str"/>
     </row>
-    <row customHeight="true" ht="21" r="22">
+    <row customHeight="true" ht="23" r="22">
       <c r="A22" s="2">
         <v>10018</v>
       </c>
       <c r="B22" s="2" t="str">
         <v>Guide_GuideContent_30005</v>
       </c>
-      <c r="C22" s="3" t="str">
+      <c r="C22" s="1" t="str">
         <v>Click here to switch your status, choose to show or hide the weapon</v>
       </c>
       <c r="D22" s="2" t="str">
@@ -1597,14 +1574,14 @@
       </c>
       <c r="E22" s="2" t="str"/>
     </row>
-    <row customHeight="true" ht="21" r="23">
+    <row customHeight="true" ht="23" r="23">
       <c r="A23" s="2">
         <v>10019</v>
       </c>
       <c r="B23" s="2" t="str">
         <v>Guide_GuideContent_30006</v>
       </c>
-      <c r="C23" s="3" t="str">
+      <c r="C23" s="1" t="str">
         <v>Show the weapon, then you can click here to attack</v>
       </c>
       <c r="D23" s="2" t="str">
@@ -1612,14 +1589,14 @@
       </c>
       <c r="E23" s="2" t="str"/>
     </row>
-    <row customHeight="true" ht="21" r="24">
+    <row customHeight="true" ht="23" r="24">
       <c r="A24" s="2">
         <v>10020</v>
       </c>
       <c r="B24" s="2" t="str">
         <v>Guide_GuideContent_40001</v>
       </c>
-      <c r="C24" s="3" t="str">
+      <c r="C24" s="1" t="str">
         <v>Congratulations! You collected all the energy balls! Now you have a protective shield! The protective shield can protect you from another player once, but you can only get it once per round</v>
       </c>
       <c r="D24" s="2" t="str">
@@ -1627,14 +1604,14 @@
       </c>
       <c r="E24" s="2" t="str"/>
     </row>
-    <row customHeight="true" ht="21" r="25">
+    <row customHeight="true" ht="23" r="25">
       <c r="A25" s="2">
         <v>10021</v>
       </c>
       <c r="B25" s="2" t="str">
         <v>Guide_GuideContent_50001</v>
       </c>
-      <c r="C25" s="3" t="str">
+      <c r="C25" s="1" t="str">
         <v>Your first round is over, take a look at the settlement panel</v>
       </c>
       <c r="D25" s="2" t="str">
@@ -1642,14 +1619,14 @@
       </c>
       <c r="E25" s="2" t="str"/>
     </row>
-    <row customHeight="true" ht="21" r="26">
+    <row customHeight="true" ht="23" r="26">
       <c r="A26" s="2">
         <v>10022</v>
       </c>
       <c r="B26" s="2" t="str">
         <v>Guide_GuideContent_50002</v>
       </c>
-      <c r="C26" s="3" t="str">
+      <c r="C26" s="1" t="str">
         <v>Here is the final result of the game</v>
       </c>
       <c r="D26" s="2" t="str">
@@ -1657,14 +1634,14 @@
       </c>
       <c r="E26" s="2" t="str"/>
     </row>
-    <row customHeight="true" ht="21" r="27">
+    <row customHeight="true" ht="23" r="27">
       <c r="A27" s="2">
         <v>10023</v>
       </c>
       <c r="B27" s="2" t="str">
         <v>Guide_GuideContent_50003</v>
       </c>
-      <c r="C27" s="3" t="str">
+      <c r="C27" s="1" t="str">
         <v>Here shows the two players who impacted the game most as well as their wins and losses</v>
       </c>
       <c r="D27" s="2" t="str">
@@ -1672,14 +1649,14 @@
       </c>
       <c r="E27" s="2" t="str"/>
     </row>
-    <row customHeight="true" ht="21" r="28">
+    <row customHeight="true" ht="23" r="28">
       <c r="A28" s="2">
         <v>10024</v>
       </c>
       <c r="B28" s="2" t="str">
         <v>Guide_GuideContent_50004</v>
       </c>
-      <c r="C28" s="3" t="str">
+      <c r="C28" s="1" t="str">
         <v>Here's shows your earning in this round</v>
       </c>
       <c r="D28" s="2" t="str">
@@ -1687,14 +1664,14 @@
       </c>
       <c r="E28" s="2" t="str"/>
     </row>
-    <row customHeight="true" ht="21" r="29">
+    <row customHeight="true" ht="23" r="29">
       <c r="A29" s="2">
         <v>10025</v>
       </c>
       <c r="B29" s="2" t="str">
         <v>Guide_GuideContent_60001</v>
       </c>
-      <c r="C29" s="3" t="str">
+      <c r="C29" s="1" t="str">
         <v>On behalf of justice, you can't shoot randomly, attacking good people leads to your own death</v>
       </c>
       <c r="D29" s="2" t="str">
@@ -1702,76 +1679,76 @@
       </c>
       <c r="E29" s="2" t="str"/>
     </row>
-    <row customHeight="true" ht="21" r="30">
+    <row customHeight="true" ht="23" r="30">
       <c r="A30" s="2">
         <v>20001</v>
       </c>
       <c r="B30" s="2" t="str">
         <v>Identity_IdentityName_10001</v>
       </c>
-      <c r="C30" s="3" t="str">
+      <c r="C30" s="1" t="str">
         <v>Detective</v>
       </c>
-      <c r="D30" s="3" t="str">
+      <c r="D30" s="1" t="str">
         <v>侦探</v>
       </c>
       <c r="E30" s="2" t="str">
         <v>20000：身份属性表</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="31">
+    <row customHeight="true" ht="23" r="31">
       <c r="A31" s="2">
         <v>20002</v>
       </c>
       <c r="B31" s="2" t="str">
         <v>Identity_IdentityName_10002</v>
       </c>
-      <c r="C31" s="3" t="str">
+      <c r="C31" s="1" t="str">
         <v>Murderer</v>
       </c>
-      <c r="D31" s="3" t="str">
+      <c r="D31" s="1" t="str">
         <v>凶手</v>
       </c>
       <c r="E31" s="2" t="str"/>
     </row>
-    <row customHeight="true" ht="21" r="32">
+    <row customHeight="true" ht="23" r="32">
       <c r="A32" s="2">
         <v>20003</v>
       </c>
       <c r="B32" s="2" t="str">
         <v>Identity_IdentityName_10003</v>
       </c>
-      <c r="C32" s="3" t="str">
+      <c r="C32" s="1" t="str">
         <v>Student</v>
       </c>
-      <c r="D32" s="3" t="str">
+      <c r="D32" s="1" t="str">
         <v>学生</v>
       </c>
       <c r="E32" s="2" t="str"/>
     </row>
-    <row customHeight="true" ht="21" r="33">
+    <row customHeight="true" ht="23" r="33">
       <c r="A33" s="2">
         <v>20004</v>
       </c>
       <c r="B33" s="2" t="str">
         <v>Identity_IdentityName_10004</v>
       </c>
-      <c r="C33" s="3" t="str">
+      <c r="C33" s="1" t="str">
         <v>Hero</v>
       </c>
-      <c r="D33" s="3" t="str">
+      <c r="D33" s="1" t="str">
         <v>英雄</v>
       </c>
       <c r="E33" s="2" t="str"/>
     </row>
-    <row customHeight="true" ht="21" r="34">
+    <row customHeight="true" ht="23" r="34">
       <c r="A34" s="2">
         <v>30001</v>
       </c>
       <c r="B34" s="2" t="str">
         <v>Text_Content_10001</v>
       </c>
-      <c r="C34" s="3" t="str">
+      <c r="C34" s="1" t="str">
         <v>Not enough player</v>
       </c>
       <c r="D34" s="2" t="str">
@@ -1781,14 +1758,14 @@
         <v>30000：文本表</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="35">
+    <row customHeight="true" ht="23" r="35">
       <c r="A35" s="2">
         <v>30002</v>
       </c>
       <c r="B35" s="2" t="str">
         <v>Text_Content_10002</v>
       </c>
-      <c r="C35" s="3" t="str">
+      <c r="C35" s="1" t="str">
         <v>Match in progress</v>
       </c>
       <c r="D35" s="2" t="str">
@@ -1796,14 +1773,14 @@
       </c>
       <c r="E35" s="2" t="str"/>
     </row>
-    <row customHeight="true" ht="21" r="36">
+    <row customHeight="true" ht="23" r="36">
       <c r="A36" s="2">
         <v>30003</v>
       </c>
       <c r="B36" s="2" t="str">
         <v>Text_Content_10003</v>
       </c>
-      <c r="C36" s="3" t="str">
+      <c r="C36" s="1" t="str">
         <v>Matching</v>
       </c>
       <c r="D36" s="2" t="str">
@@ -1811,14 +1788,14 @@
       </c>
       <c r="E36" s="2" t="str"/>
     </row>
-    <row customHeight="true" ht="21" r="37">
+    <row customHeight="true" ht="23" r="37">
       <c r="A37" s="2">
         <v>30004</v>
       </c>
       <c r="B37" s="2" t="str">
         <v>Text_Content_11001</v>
       </c>
-      <c r="C37" s="3" t="str">
+      <c r="C37" s="1" t="str">
         <v>The game starts with a countdown...</v>
       </c>
       <c r="D37" s="2" t="str">
@@ -1826,14 +1803,14 @@
       </c>
       <c r="E37" s="2" t="str"/>
     </row>
-    <row customHeight="true" ht="21" r="38">
+    <row customHeight="true" ht="23" r="38">
       <c r="A38" s="2">
         <v>30005</v>
       </c>
       <c r="B38" s="2" t="str">
         <v>Text_Content_11002</v>
       </c>
-      <c r="C38" s="3" t="str">
+      <c r="C38" s="1" t="str">
         <v>End-of-game countdown</v>
       </c>
       <c r="D38" s="2" t="str">
@@ -1841,14 +1818,14 @@
       </c>
       <c r="E38" s="2" t="str"/>
     </row>
-    <row customHeight="true" ht="21" r="39">
+    <row customHeight="true" ht="23" r="39">
       <c r="A39" s="2">
         <v>30006</v>
       </c>
       <c r="B39" s="2" t="str">
         <v>Text_Content_11003</v>
       </c>
-      <c r="C39" s="3" t="str">
+      <c r="C39" s="1" t="str">
         <v>You are playing as:</v>
       </c>
       <c r="D39" s="2" t="str">
@@ -1856,14 +1833,14 @@
       </c>
       <c r="E39" s="2" t="str"/>
     </row>
-    <row customHeight="true" ht="21" r="40">
+    <row customHeight="true" ht="23" r="40">
       <c r="A40" s="2">
         <v>30007</v>
       </c>
       <c r="B40" s="2" t="str">
         <v>Text_Content_11004</v>
       </c>
-      <c r="C40" s="3" t="str">
+      <c r="C40" s="1" t="str">
         <v>Chance being Murderer:</v>
       </c>
       <c r="D40" s="2" t="str">
@@ -1871,14 +1848,14 @@
       </c>
       <c r="E40" s="2" t="str"/>
     </row>
-    <row customHeight="true" ht="21" r="41">
+    <row customHeight="true" ht="23" r="41">
       <c r="A41" s="2">
         <v>30008</v>
       </c>
       <c r="B41" s="2" t="str">
         <v>Text_Content_11005</v>
       </c>
-      <c r="C41" s="3" t="str">
+      <c r="C41" s="1" t="str">
         <v>(Match in the game will increase the possibility)</v>
       </c>
       <c r="D41" s="2" t="str">
@@ -1886,14 +1863,14 @@
       </c>
       <c r="E41" s="2" t="str"/>
     </row>
-    <row customHeight="true" ht="21" r="42">
+    <row customHeight="true" ht="23" r="42">
       <c r="A42" s="2">
         <v>30009</v>
       </c>
       <c r="B42" s="2" t="str">
         <v>Text_Content_11006</v>
       </c>
-      <c r="C42" s="3" t="str">
+      <c r="C42" s="1" t="str">
         <v>What you play</v>
       </c>
       <c r="D42" s="2" t="str">
@@ -1901,14 +1878,14 @@
       </c>
       <c r="E42" s="2" t="str"/>
     </row>
-    <row customHeight="true" ht="21" r="43">
+    <row customHeight="true" ht="23" r="43">
       <c r="A43" s="2">
         <v>30010</v>
       </c>
       <c r="B43" s="2" t="str">
         <v>Text_Content_11007</v>
       </c>
-      <c r="C43" s="3" t="str">
+      <c r="C43" s="1" t="str">
         <v>You Died</v>
       </c>
       <c r="D43" s="2" t="str">
@@ -1916,14 +1893,14 @@
       </c>
       <c r="E43" s="2" t="str"/>
     </row>
-    <row customHeight="true" ht="21" r="44">
+    <row customHeight="true" ht="23" r="44">
       <c r="A44" s="2">
         <v>30011</v>
       </c>
       <c r="B44" s="2" t="str">
         <v>Text_Content_11008</v>
       </c>
-      <c r="C44" s="3" t="str">
+      <c r="C44" s="1" t="str">
         <v>Victory!</v>
       </c>
       <c r="D44" s="2" t="str">
@@ -1931,14 +1908,14 @@
       </c>
       <c r="E44" s="2" t="str"/>
     </row>
-    <row customHeight="true" ht="21" r="45">
+    <row customHeight="true" ht="23" r="45">
       <c r="A45" s="2">
         <v>30012</v>
       </c>
       <c r="B45" s="2" t="str">
         <v>Text_Content_11009</v>
       </c>
-      <c r="C45" s="3" t="str">
+      <c r="C45" s="1" t="str">
         <v>Kill all the players {0}/{1}</v>
       </c>
       <c r="D45" s="2" t="str">
@@ -1946,14 +1923,14 @@
       </c>
       <c r="E45" s="2" t="str"/>
     </row>
-    <row customHeight="true" ht="21" r="46">
+    <row customHeight="true" ht="23" r="46">
       <c r="A46" s="2">
         <v>30013</v>
       </c>
       <c r="B46" s="2" t="str">
         <v>Text_Content_11010</v>
       </c>
-      <c r="C46" s="3" t="str">
+      <c r="C46" s="1" t="str">
         <v>Kill the Murderer {0}/{1}</v>
       </c>
       <c r="D46" s="2" t="str">
@@ -1961,14 +1938,14 @@
       </c>
       <c r="E46" s="2" t="str"/>
     </row>
-    <row customHeight="true" ht="21" r="47">
+    <row customHeight="true" ht="23" r="47">
       <c r="A47" s="2">
         <v>30014</v>
       </c>
       <c r="B47" s="2" t="str">
         <v>Text_Content_11011</v>
       </c>
-      <c r="C47" s="3" t="str">
+      <c r="C47" s="1" t="str">
         <v>Stay alive</v>
       </c>
       <c r="D47" s="2" t="str">
@@ -1976,14 +1953,14 @@
       </c>
       <c r="E47" s="2" t="str"/>
     </row>
-    <row customHeight="true" ht="21" r="48">
+    <row customHeight="true" ht="23" r="48">
       <c r="A48" s="2">
         <v>30015</v>
       </c>
       <c r="B48" s="2" t="str">
         <v>Text_Content_11012</v>
       </c>
-      <c r="C48" s="3" t="str">
+      <c r="C48" s="1" t="str">
         <v>Hidden energy balls collected {0}/{1}</v>
       </c>
       <c r="D48" s="2" t="str">
@@ -1991,14 +1968,14 @@
       </c>
       <c r="E48" s="2" t="str"/>
     </row>
-    <row customHeight="true" ht="21" r="49">
+    <row customHeight="true" ht="23" r="49">
       <c r="A49" s="2">
         <v>30016</v>
       </c>
       <c r="B49" s="2" t="str">
         <v>Text_Content_11013</v>
       </c>
-      <c r="C49" s="3" t="str">
+      <c r="C49" s="1" t="str">
         <v>Time's up!</v>
       </c>
       <c r="D49" s="2" t="str">
@@ -2006,14 +1983,14 @@
       </c>
       <c r="E49" s="2" t="str"/>
     </row>
-    <row customHeight="true" ht="21" r="50">
+    <row customHeight="true" ht="23" r="50">
       <c r="A50" s="2">
         <v>30017</v>
       </c>
       <c r="B50" s="2" t="str">
         <v>Text_Content_12001</v>
       </c>
-      <c r="C50" s="3" t="str">
+      <c r="C50" s="1" t="str">
         <v>The Murderer is on a killing spree!</v>
       </c>
       <c r="D50" s="2" t="str">
@@ -2021,14 +1998,14 @@
       </c>
       <c r="E50" s="2" t="str"/>
     </row>
-    <row customHeight="true" ht="21" r="51">
+    <row customHeight="true" ht="23" r="51">
       <c r="A51" s="2">
         <v>30018</v>
       </c>
       <c r="B51" s="2" t="str">
         <v>Text_Content_12002</v>
       </c>
-      <c r="C51" s="3" t="str">
+      <c r="C51" s="1" t="str">
         <v>The Murderer kills all the players!</v>
       </c>
       <c r="D51" s="2" t="str">
@@ -2036,14 +2013,14 @@
       </c>
       <c r="E51" s="2" t="str"/>
     </row>
-    <row customHeight="true" ht="21" r="52">
+    <row customHeight="true" ht="23" r="52">
       <c r="A52" s="2">
         <v>30019</v>
       </c>
       <c r="B52" s="2" t="str">
         <v>Text_Content_12003</v>
       </c>
-      <c r="C52" s="3" t="str">
+      <c r="C52" s="1" t="str">
         <v>Detective arrested the Murderer!</v>
       </c>
       <c r="D52" s="2" t="str">
@@ -2051,14 +2028,14 @@
       </c>
       <c r="E52" s="2" t="str"/>
     </row>
-    <row customHeight="true" ht="21" r="53">
+    <row customHeight="true" ht="23" r="53">
       <c r="A53" s="2">
         <v>30020</v>
       </c>
       <c r="B53" s="2" t="str">
         <v>Text_Content_12004</v>
       </c>
-      <c r="C53" s="3" t="str">
+      <c r="C53" s="1" t="str">
         <v>Hero appeared and turned the tide!</v>
       </c>
       <c r="D53" s="2" t="str">
@@ -2066,14 +2043,14 @@
       </c>
       <c r="E53" s="2" t="str"/>
     </row>
-    <row customHeight="true" ht="21" r="54">
+    <row customHeight="true" ht="23" r="54">
       <c r="A54" s="2">
         <v>30021</v>
       </c>
       <c r="B54" s="2" t="str">
         <v>Text_Content_12005</v>
       </c>
-      <c r="C54" s="3" t="str">
+      <c r="C54" s="1" t="str">
         <v>Murderer seems to be missing something...</v>
       </c>
       <c r="D54" s="2" t="str">
@@ -2081,14 +2058,14 @@
       </c>
       <c r="E54" s="2" t="str"/>
     </row>
-    <row customHeight="true" ht="21" r="55">
+    <row customHeight="true" ht="23" r="55">
       <c r="A55" s="2">
         <v>30022</v>
       </c>
       <c r="B55" s="2" t="str">
         <v>Text_Content_12006</v>
       </c>
-      <c r="C55" s="3" t="str">
+      <c r="C55" s="1" t="str">
         <v>Murderer seems to be missing something...</v>
       </c>
       <c r="D55" s="2" t="str">
@@ -2096,14 +2073,14 @@
       </c>
       <c r="E55" s="2" t="str"/>
     </row>
-    <row customHeight="true" ht="21" r="56">
+    <row customHeight="true" ht="23" r="56">
       <c r="A56" s="2">
         <v>30023</v>
       </c>
       <c r="B56" s="2" t="str">
         <v>Text_Content_20001</v>
       </c>
-      <c r="C56" s="3" t="str">
+      <c r="C56" s="1" t="str">
         <v>Murder Mystery</v>
       </c>
       <c r="D56" s="2" t="str">
@@ -2111,14 +2088,14 @@
       </c>
       <c r="E56" s="2" t="str"/>
     </row>
-    <row customHeight="true" ht="21" r="57">
+    <row customHeight="true" ht="23" r="57">
       <c r="A57" s="2">
         <v>30024</v>
       </c>
       <c r="B57" s="2" t="str">
         <v>Text_Content_20002</v>
       </c>
-      <c r="C57" s="3" t="str">
+      <c r="C57" s="1" t="str">
         <v>Start</v>
       </c>
       <c r="D57" s="2" t="str">
@@ -2126,14 +2103,14 @@
       </c>
       <c r="E57" s="2" t="str"/>
     </row>
-    <row customHeight="true" ht="21" r="58">
+    <row customHeight="true" ht="23" r="58">
       <c r="A58" s="2">
         <v>30025</v>
       </c>
       <c r="B58" s="2" t="str">
         <v>Text_Content_20003</v>
       </c>
-      <c r="C58" s="3" t="str">
+      <c r="C58" s="1" t="str">
         <v>View</v>
       </c>
       <c r="D58" s="2" t="str">
@@ -2141,14 +2118,14 @@
       </c>
       <c r="E58" s="2" t="str"/>
     </row>
-    <row customHeight="true" ht="21" r="59">
+    <row customHeight="true" ht="23" r="59">
       <c r="A59" s="2">
         <v>30026</v>
       </c>
       <c r="B59" s="2" t="str">
         <v>Text_Content_20004</v>
       </c>
-      <c r="C59" s="3" t="str">
+      <c r="C59" s="1" t="str">
         <v>View Countdown</v>
       </c>
       <c r="D59" s="2" t="str">
@@ -2156,14 +2133,14 @@
       </c>
       <c r="E59" s="2" t="str"/>
     </row>
-    <row customHeight="true" ht="21" r="60">
+    <row customHeight="true" ht="23" r="60">
       <c r="A60" s="2">
         <v>30027</v>
       </c>
       <c r="B60" s="2" t="str">
         <v>Text_Content_20005</v>
       </c>
-      <c r="C60" s="3" t="str">
+      <c r="C60" s="1" t="str">
         <v>He is playing as:</v>
       </c>
       <c r="D60" s="2" t="str">
@@ -2171,14 +2148,14 @@
       </c>
       <c r="E60" s="2" t="str"/>
     </row>
-    <row customHeight="true" ht="21" r="61">
+    <row customHeight="true" ht="23" r="61">
       <c r="A61" s="2">
         <v>30028</v>
       </c>
       <c r="B61" s="2" t="str">
         <v>Text_Content_20006</v>
       </c>
-      <c r="C61" s="3" t="str">
+      <c r="C61" s="1" t="str">
         <v>Goals for your Identity</v>
       </c>
       <c r="D61" s="2" t="str">
@@ -2186,14 +2163,14 @@
       </c>
       <c r="E61" s="2" t="str"/>
     </row>
-    <row customHeight="true" ht="21" r="62">
+    <row customHeight="true" ht="23" r="62">
       <c r="A62" s="2">
         <v>30029</v>
       </c>
       <c r="B62" s="2" t="str">
         <v>Text_Content_20007</v>
       </c>
-      <c r="C62" s="3" t="str">
+      <c r="C62" s="1" t="str">
         <v>Start</v>
       </c>
       <c r="D62" s="2" t="str">
@@ -2201,14 +2178,14 @@
       </c>
       <c r="E62" s="2" t="str"/>
     </row>
-    <row customHeight="true" ht="21" r="63">
+    <row customHeight="true" ht="23" r="63">
       <c r="A63" s="2">
         <v>30030</v>
       </c>
       <c r="B63" s="2" t="str">
         <v>Text_Content_20008</v>
       </c>
-      <c r="C63" s="3" t="str">
+      <c r="C63" s="1" t="str">
         <v>Loading...</v>
       </c>
       <c r="D63" s="2" t="str">
@@ -2216,14 +2193,14 @@
       </c>
       <c r="E63" s="2" t="str"/>
     </row>
-    <row customHeight="true" ht="21" r="64">
+    <row customHeight="true" ht="23" r="64">
       <c r="A64" s="2">
         <v>30031</v>
       </c>
-      <c r="B64" s="3" t="str">
+      <c r="B64" s="1" t="str">
         <v>Tips_Content_20002</v>
       </c>
-      <c r="C64" s="3" t="str">
+      <c r="C64" s="1" t="str">
         <v>Insufficient currency</v>
       </c>
       <c r="D64" s="2" t="str">
@@ -2231,14 +2208,14 @@
       </c>
       <c r="E64" s="2" t="str"/>
     </row>
-    <row customHeight="true" ht="21" r="65">
+    <row customHeight="true" ht="23" r="65">
       <c r="A65" s="2">
         <v>30032</v>
       </c>
       <c r="B65" s="2" t="str">
         <v>Text_Content_20009</v>
       </c>
-      <c r="C65" s="3" t="str">
+      <c r="C65" s="1" t="str">
         <v>Shop</v>
       </c>
       <c r="D65" s="2" t="str">
@@ -2246,44 +2223,44 @@
       </c>
       <c r="E65" s="2" t="str"/>
     </row>
-    <row customHeight="true" ht="21" r="66">
+    <row customHeight="true" ht="23" r="66">
       <c r="A66" s="2">
         <v>30033</v>
       </c>
       <c r="B66" s="2" t="str">
         <v>Text_Content_20010</v>
       </c>
-      <c r="C66" s="3" t="str">
+      <c r="C66" s="1" t="str">
         <v>For Murderers</v>
       </c>
-      <c r="D66" s="3" t="str">
+      <c r="D66" s="1" t="str">
         <v>凶手专用</v>
       </c>
       <c r="E66" s="2" t="str"/>
     </row>
-    <row customHeight="true" ht="21" r="67">
+    <row customHeight="true" ht="23" r="67">
       <c r="A67" s="2">
         <v>30034</v>
       </c>
       <c r="B67" s="2" t="str">
         <v>Text_Content_20011</v>
       </c>
-      <c r="C67" s="3" t="str">
+      <c r="C67" s="1" t="str">
         <v>For Detectives</v>
       </c>
-      <c r="D67" s="3" t="str">
+      <c r="D67" s="1" t="str">
         <v>侦探专用</v>
       </c>
       <c r="E67" s="2" t="str"/>
     </row>
-    <row customHeight="true" ht="21" r="68">
+    <row customHeight="true" ht="23" r="68">
       <c r="A68" s="2">
         <v>30035</v>
       </c>
       <c r="B68" s="2" t="str">
         <v>Text_Content_20012</v>
       </c>
-      <c r="C68" s="3" t="str">
+      <c r="C68" s="1" t="str">
         <v>Gun</v>
       </c>
       <c r="D68" s="2" t="str">
@@ -2291,14 +2268,14 @@
       </c>
       <c r="E68" s="2" t="str"/>
     </row>
-    <row customHeight="true" ht="21" r="69">
+    <row customHeight="true" ht="23" r="69">
       <c r="A69" s="2">
         <v>30036</v>
       </c>
       <c r="B69" s="2" t="str">
         <v>Text_Content_20013</v>
       </c>
-      <c r="C69" s="3" t="str">
+      <c r="C69" s="1" t="str">
         <v>Knife</v>
       </c>
       <c r="D69" s="2" t="str">
@@ -2306,14 +2283,14 @@
       </c>
       <c r="E69" s="2" t="str"/>
     </row>
-    <row customHeight="true" ht="21" r="70">
+    <row customHeight="true" ht="23" r="70">
       <c r="A70" s="2">
         <v>30037</v>
       </c>
       <c r="B70" s="2" t="str">
         <v>Text_Content_20014</v>
       </c>
-      <c r="C70" s="3" t="str">
+      <c r="C70" s="1" t="str">
         <v>Acc</v>
       </c>
       <c r="D70" s="2" t="str">
@@ -2321,44 +2298,44 @@
       </c>
       <c r="E70" s="2" t="str"/>
     </row>
-    <row customHeight="true" ht="21" r="71">
+    <row customHeight="true" ht="23" r="71">
       <c r="A71" s="2">
         <v>30038</v>
       </c>
       <c r="B71" s="2" t="str">
         <v>Text_Content_20015</v>
       </c>
-      <c r="C71" s="3" t="str">
+      <c r="C71" s="1" t="str">
         <v>Buy</v>
       </c>
-      <c r="D71" s="3" t="str">
+      <c r="D71" s="1" t="str">
         <v>购买</v>
       </c>
       <c r="E71" s="2" t="str"/>
     </row>
-    <row customHeight="true" ht="21" r="72">
+    <row customHeight="true" ht="23" r="72">
       <c r="A72" s="2">
         <v>30039</v>
       </c>
       <c r="B72" s="2" t="str">
         <v>Text_Content_20016</v>
       </c>
-      <c r="C72" s="3" t="str">
+      <c r="C72" s="1" t="str">
         <v>Use</v>
       </c>
-      <c r="D72" s="4" t="str">
+      <c r="D72" s="20" t="str">
         <v>使用</v>
       </c>
       <c r="E72" s="2" t="str"/>
     </row>
-    <row customHeight="true" ht="21" r="73">
+    <row customHeight="true" ht="23" r="73">
       <c r="A73" s="2">
         <v>30040</v>
       </c>
       <c r="B73" s="2" t="str">
         <v>Text_Content_20017</v>
       </c>
-      <c r="C73" s="3" t="str">
+      <c r="C73" s="1" t="str">
         <v>Take Off</v>
       </c>
       <c r="D73" s="2" t="str">
@@ -2366,14 +2343,14 @@
       </c>
       <c r="E73" s="2" t="str"/>
     </row>
-    <row customHeight="true" ht="21" r="74">
+    <row customHeight="true" ht="23" r="74">
       <c r="A74" s="2">
         <v>30041</v>
       </c>
       <c r="B74" s="2" t="str">
         <v>Text_Content_20018</v>
       </c>
-      <c r="C74" s="3" t="str">
+      <c r="C74" s="1" t="str">
         <v>Buy Items</v>
       </c>
       <c r="D74" s="2" t="str">
@@ -2381,44 +2358,44 @@
       </c>
       <c r="E74" s="2" t="str"/>
     </row>
-    <row customHeight="true" ht="21" r="75">
+    <row customHeight="true" ht="23" r="75">
       <c r="A75" s="2">
         <v>30042</v>
       </c>
       <c r="B75" s="2" t="str">
         <v>Text_Content_20019</v>
       </c>
-      <c r="C75" s="3" t="str">
+      <c r="C75" s="1" t="str">
         <v>For the Murderers</v>
       </c>
-      <c r="D75" s="3" t="str">
+      <c r="D75" s="1" t="str">
         <v>凶手专用</v>
       </c>
       <c r="E75" s="2" t="str"/>
     </row>
-    <row customHeight="true" ht="21" r="76">
+    <row customHeight="true" ht="23" r="76">
       <c r="A76" s="2">
         <v>30043</v>
       </c>
       <c r="B76" s="2" t="str">
         <v>Text_Content_20020</v>
       </c>
-      <c r="C76" s="3" t="str">
+      <c r="C76" s="1" t="str">
         <v>For Detectives</v>
       </c>
-      <c r="D76" s="3" t="str">
+      <c r="D76" s="1" t="str">
         <v>侦探专用</v>
       </c>
       <c r="E76" s="2" t="str"/>
     </row>
-    <row customHeight="true" ht="21" r="77">
+    <row customHeight="true" ht="23" r="77">
       <c r="A77" s="2">
         <v>30044</v>
       </c>
       <c r="B77" s="2" t="str">
         <v>Text_Content_20021</v>
       </c>
-      <c r="C77" s="3" t="str">
+      <c r="C77" s="1" t="str">
         <v>Confirm</v>
       </c>
       <c r="D77" s="2" t="str">
@@ -2426,14 +2403,14 @@
       </c>
       <c r="E77" s="2" t="str"/>
     </row>
-    <row customHeight="true" ht="21" r="78">
+    <row customHeight="true" ht="23" r="78">
       <c r="A78" s="2">
         <v>30045</v>
       </c>
       <c r="B78" s="2" t="str">
         <v>Text_Content_20022</v>
       </c>
-      <c r="C78" s="3" t="str">
+      <c r="C78" s="1" t="str">
         <v>Cancel</v>
       </c>
       <c r="D78" s="2" t="str">
@@ -2441,666 +2418,666 @@
       </c>
       <c r="E78" s="2" t="str"/>
     </row>
-    <row customHeight="true" ht="21" r="79">
+    <row customHeight="true" ht="23" r="79">
       <c r="A79" s="2">
         <v>30046</v>
       </c>
       <c r="B79" s="2" t="str">
         <v>Text_Content_20023</v>
       </c>
-      <c r="C79" s="3" t="str">
+      <c r="C79" s="1" t="str">
         <v>Tap anywhere to go back</v>
       </c>
-      <c r="D79" s="3" t="str">
+      <c r="D79" s="1" t="str">
         <v>点击任意一处返回</v>
       </c>
       <c r="E79" s="2" t="str"/>
     </row>
-    <row customHeight="true" ht="21" r="80">
+    <row customHeight="true" ht="23" r="80">
       <c r="A80" s="2">
         <v>30047</v>
       </c>
       <c r="B80" s="2" t="str">
         <v>Text_Content_20024</v>
       </c>
-      <c r="C80" s="3" t="str">
+      <c r="C80" s="1" t="str">
         <v>Purchase Successfully</v>
       </c>
-      <c r="D80" s="3" t="str">
+      <c r="D80" s="1" t="str">
         <v>购买成功</v>
       </c>
       <c r="E80" s="2" t="str"/>
     </row>
-    <row customHeight="true" ht="21" r="81">
+    <row customHeight="true" ht="23" r="81">
       <c r="A81" s="2">
         <v>30048</v>
       </c>
       <c r="B81" s="2" t="str">
         <v>Text_Content_20025</v>
       </c>
-      <c r="C81" s="3" t="str">
+      <c r="C81" s="1" t="str">
         <v>Use</v>
       </c>
-      <c r="D81" s="4" t="str">
+      <c r="D81" s="20" t="str">
         <v>使用</v>
       </c>
       <c r="E81" s="2" t="str"/>
     </row>
-    <row customHeight="true" ht="21" r="82">
+    <row customHeight="true" ht="23" r="82">
       <c r="A82" s="2">
         <v>30049</v>
       </c>
-      <c r="B82" s="5" t="str">
+      <c r="B82" s="13" t="str">
         <v>Text_Content_10301</v>
       </c>
-      <c r="C82" s="5" t="str">
+      <c r="C82" s="13" t="str">
         <v>Please select a map to play</v>
       </c>
-      <c r="D82" s="5" t="str">
+      <c r="D82" s="13" t="str">
         <v>请选择要游玩的地图</v>
       </c>
       <c r="E82" s="2" t="str"/>
     </row>
-    <row customHeight="true" ht="21" r="83">
+    <row customHeight="true" ht="23" r="83">
       <c r="A83" s="2">
         <v>30050</v>
       </c>
-      <c r="B83" s="5" t="str">
+      <c r="B83" s="13" t="str">
         <v>Text_Content_10302</v>
       </c>
-      <c r="C83" s="5" t="str">
+      <c r="C83" s="13" t="str">
         <v>Map Selected</v>
       </c>
-      <c r="D83" s="5" t="str">
+      <c r="D83" s="13" t="str">
         <v>地图已选出</v>
       </c>
       <c r="E83" s="2" t="str"/>
     </row>
-    <row customHeight="true" ht="21" r="84">
+    <row customHeight="true" ht="23" r="84">
       <c r="A84" s="2">
         <v>30051</v>
       </c>
-      <c r="B84" s="5" t="str">
+      <c r="B84" s="13" t="str">
         <v>Text_Content_10004</v>
       </c>
-      <c r="C84" s="5" t="str">
+      <c r="C84" s="13" t="str">
         <v>Randomizing</v>
       </c>
-      <c r="D84" s="5" t="str">
+      <c r="D84" s="13" t="str">
         <v>随机地图中</v>
       </c>
       <c r="E84" s="2" t="str"/>
     </row>
-    <row customHeight="true" ht="21" r="85">
+    <row customHeight="true" ht="23" r="85">
       <c r="A85" s="2">
         <v>30052</v>
       </c>
-      <c r="B85" s="5" t="str">
+      <c r="B85" s="13" t="str">
         <v>Text_Content_20029</v>
       </c>
-      <c r="C85" s="5" t="str">
+      <c r="C85" s="13" t="str">
         <v>Trail</v>
       </c>
-      <c r="D85" s="4" t="str">
+      <c r="D85" s="20" t="str">
         <v>拖尾</v>
       </c>
       <c r="E85" s="2"/>
     </row>
-    <row customHeight="true" ht="21" r="86">
+    <row customHeight="true" ht="23" r="86">
       <c r="A86" s="2">
         <v>30053</v>
       </c>
-      <c r="B86" s="5" t="str">
+      <c r="B86" s="13" t="str">
         <v>Text_Content_20030</v>
       </c>
-      <c r="C86" s="5" t="str">
+      <c r="C86" s="13" t="str">
         <v>Get it for free</v>
       </c>
-      <c r="D86" s="4" t="str">
+      <c r="D86" s="20" t="str">
         <v>免费领取</v>
       </c>
       <c r="E86" s="2" t="str"/>
     </row>
-    <row customHeight="true" ht="21" r="87">
+    <row customHeight="true" ht="23" r="87">
       <c r="A87" s="2">
         <v>30054</v>
       </c>
-      <c r="B87" s="5" t="str">
+      <c r="B87" s="13" t="str">
         <v>Text_Content_20031</v>
       </c>
-      <c r="C87" s="5" t="str">
+      <c r="C87" s="13" t="str">
         <v>Watch ads to get extra rewards</v>
       </c>
-      <c r="D87" s="4" t="str">
+      <c r="D87" s="20" t="str">
         <v>观看广告领取额外奖励</v>
       </c>
       <c r="E87" s="2" t="str"/>
     </row>
-    <row customHeight="true" ht="21" r="88">
+    <row customHeight="true" ht="23" r="88">
       <c r="A88" s="2">
         <v>30055</v>
       </c>
-      <c r="B88" s="5" t="str">
+      <c r="B88" s="13" t="str">
         <v>Text_Content_20032</v>
       </c>
-      <c r="C88" s="5" t="str">
+      <c r="C88" s="13" t="str">
         <v>Watch the ad to receive compensation</v>
       </c>
-      <c r="D88" s="5" t="str">
+      <c r="D88" s="13" t="str">
         <v>观看广告领取补偿</v>
       </c>
       <c r="E88" s="2" t="str"/>
     </row>
-    <row customHeight="true" ht="21" r="89">
+    <row customHeight="true" ht="23" r="89">
       <c r="A89" s="2">
         <v>30056</v>
       </c>
-      <c r="B89" s="5" t="str">
+      <c r="B89" s="13" t="str">
         <v>Text_Content_20033</v>
       </c>
-      <c r="C89" s="5" t="str">
+      <c r="C89" s="13" t="str">
         <v>Congratulations on receiving</v>
       </c>
-      <c r="D89" s="4" t="str">
+      <c r="D89" s="20" t="str">
         <v>恭喜获得</v>
       </c>
       <c r="E89" s="2" t="str"/>
     </row>
-    <row customHeight="true" ht="21" r="90">
+    <row customHeight="true" ht="23" r="90">
       <c r="A90" s="2">
         <v>30057</v>
       </c>
-      <c r="B90" s="5" t="str">
+      <c r="B90" s="13" t="str">
         <v>Tips_Content_20003</v>
       </c>
-      <c r="C90" s="5" t="str">
+      <c r="C90" s="13" t="str">
         <v>It's not ready yet, please wait a little longer to get it~</v>
       </c>
-      <c r="D90" s="4" t="str">
+      <c r="D90" s="20" t="str">
         <v>时间还没到，再等一下才能获得哦~</v>
       </c>
       <c r="E90" s="2" t="str"/>
     </row>
-    <row customHeight="true" ht="21" r="91">
+    <row customHeight="true" ht="23" r="91">
       <c r="A91" s="2">
         <v>30058</v>
       </c>
-      <c r="B91" s="5" t="str">
+      <c r="B91" s="13" t="str">
         <v>Tips_Content_20004</v>
       </c>
-      <c r="C91" s="5" t="str">
+      <c r="C91" s="13" t="str">
         <v>You've already received plenty of rewards today, so please come back tomorrow~</v>
       </c>
-      <c r="D91" s="4" t="str">
+      <c r="D91" s="20" t="str">
         <v>今天已经得到很多奖励了，明天再来吧~</v>
       </c>
       <c r="E91" s="2" t="str"/>
     </row>
-    <row customHeight="true" ht="21" r="92">
+    <row customHeight="true" ht="23" r="92">
       <c r="A92" s="2">
         <v>30059</v>
       </c>
-      <c r="B92" s="5" t="str">
+      <c r="B92" s="13" t="str">
         <v>Text_Content_11014</v>
       </c>
-      <c r="C92" s="5" t="str">
+      <c r="C92" s="13" t="str">
         <v>Available</v>
       </c>
-      <c r="D92" s="4" t="str">
+      <c r="D92" s="20" t="str">
         <v>待拾取</v>
       </c>
       <c r="E92" s="2"/>
     </row>
-    <row customHeight="true" ht="21" r="93">
+    <row customHeight="true" ht="23" r="93">
       <c r="A93" s="2">
         <v>30060</v>
       </c>
-      <c r="B93" s="5" t="str">
+      <c r="B93" s="13" t="str">
         <v>Text_Content_11015</v>
       </c>
-      <c r="C93" s="5" t="str">
+      <c r="C93" s="13" t="str">
         <v>Exist</v>
       </c>
-      <c r="D93" s="4" t="str">
+      <c r="D93" s="20" t="str">
         <v>存在</v>
       </c>
       <c r="E93" s="2"/>
     </row>
-    <row customHeight="true" ht="21" r="94">
+    <row customHeight="true" ht="23" r="94">
       <c r="A94" s="2">
         <v>30061</v>
       </c>
-      <c r="B94" s="5" t="str">
+      <c r="B94" s="13" t="str">
         <v>Text_Content_11016</v>
       </c>
-      <c r="C94" s="5" t="str">
+      <c r="C94" s="13" t="str">
         <v>Survival experience +{0}EXP</v>
       </c>
-      <c r="D94" s="4" t="str">
+      <c r="D94" s="20" t="str">
         <v>存活经验+{0}EXP</v>
       </c>
       <c r="E94" s="2"/>
     </row>
-    <row customHeight="true" ht="21" r="95">
+    <row customHeight="true" ht="23" r="95">
       <c r="A95" s="2">
         <v>30062</v>
       </c>
-      <c r="B95" s="5" t="str">
+      <c r="B95" s="13" t="str">
         <v>Text_Content_12007</v>
       </c>
-      <c r="C95" s="5" t="str">
+      <c r="C95" s="13" t="str">
         <v>Reward</v>
       </c>
-      <c r="D95" s="5" t="str">
+      <c r="D95" s="13" t="str">
         <v>奖励</v>
       </c>
       <c r="E95" s="2" t="str"/>
     </row>
-    <row customHeight="true" ht="21" r="96">
+    <row customHeight="true" ht="23" r="96">
       <c r="A96" s="2">
         <v>30063</v>
       </c>
-      <c r="B96" s="3" t="str">
+      <c r="B96" s="1" t="str">
         <v>Text_Content_12008</v>
       </c>
-      <c r="C96" s="3" t="str">
+      <c r="C96" s="1" t="str">
         <v>Identity</v>
       </c>
-      <c r="D96" s="3" t="str">
+      <c r="D96" s="1" t="str">
         <v>本局身份</v>
       </c>
       <c r="E96" s="2" t="str"/>
     </row>
-    <row customHeight="true" ht="21" r="97">
+    <row customHeight="true" ht="23" r="97">
       <c r="A97" s="2">
         <v>30064</v>
       </c>
-      <c r="B97" s="3" t="str">
+      <c r="B97" s="1" t="str">
         <v>Text_Content_12009</v>
       </c>
-      <c r="C97" s="3" t="str">
+      <c r="C97" s="1" t="str">
         <v>Coins</v>
       </c>
-      <c r="D97" s="3" t="str">
+      <c r="D97" s="1" t="str">
         <v>收集金币</v>
       </c>
       <c r="E97" s="2" t="str"/>
     </row>
-    <row customHeight="true" ht="21" r="98">
+    <row customHeight="true" ht="23" r="98">
       <c r="A98" s="2">
         <v>30065</v>
       </c>
-      <c r="B98" s="3" t="str">
+      <c r="B98" s="1" t="str">
         <v>Text_Content_12010</v>
       </c>
-      <c r="C98" s="3" t="str">
+      <c r="C98" s="1" t="str">
         <v>Defeats {0}</v>
       </c>
-      <c r="D98" s="3" t="str">
+      <c r="D98" s="1" t="str">
         <v>消灭了{0}名学生！</v>
       </c>
       <c r="E98" s="2" t="str"/>
     </row>
-    <row customHeight="true" ht="21" r="99">
+    <row customHeight="true" ht="23" r="99">
       <c r="A99" s="2">
         <v>30066</v>
       </c>
-      <c r="B99" s="3" t="str">
+      <c r="B99" s="1" t="str">
         <v>Text_Content_12011</v>
       </c>
-      <c r="C99" s="3" t="str">
+      <c r="C99" s="1" t="str">
         <v>Survived for {0}mins {1} s</v>
       </c>
-      <c r="D99" s="3" t="str">
+      <c r="D99" s="1" t="str">
         <v>已存活{0}分{1}秒</v>
       </c>
       <c r="E99" s="2" t="str"/>
     </row>
-    <row customHeight="true" ht="21" r="100">
+    <row customHeight="true" ht="23" r="100">
       <c r="A100" s="2">
         <v>30067</v>
       </c>
-      <c r="B100" s="3" t="str">
+      <c r="B100" s="1" t="str">
         <v>Text_Content_12012</v>
       </c>
-      <c r="C100" s="3" t="str">
+      <c r="C100" s="1" t="str">
         <v>Saved {0} Students</v>
       </c>
-      <c r="D100" s="3" t="str">
+      <c r="D100" s="1" t="str">
         <v>拯救了{0}位学生</v>
       </c>
       <c r="E100" s="2" t="str"/>
     </row>
-    <row customHeight="true" ht="21" r="101">
+    <row customHeight="true" ht="23" r="101">
       <c r="A101" s="2">
         <v>30068</v>
       </c>
-      <c r="B101" s="3" t="str">
+      <c r="B101" s="1" t="str">
         <v>Text_Content_12013</v>
       </c>
-      <c r="C101" s="3" t="str">
+      <c r="C101" s="1" t="str">
         <v>Saved {0} Students</v>
       </c>
-      <c r="D101" s="3" t="str">
+      <c r="D101" s="1" t="str">
         <v>拯救了{0}位学生</v>
       </c>
       <c r="E101" s="2" t="str"/>
     </row>
-    <row customHeight="true" ht="21" r="102">
+    <row customHeight="true" ht="23" r="102">
       <c r="A102" s="2">
         <v>30069</v>
       </c>
-      <c r="B102" s="3" t="str">
+      <c r="B102" s="1" t="str">
         <v>Text_Content_12014</v>
       </c>
-      <c r="C102" s="34" t="str">
+      <c r="C102" s="29" t="str">
         <v>× 1.5 (Bonus)</v>
       </c>
-      <c r="D102" s="3" t="str">
+      <c r="D102" s="1" t="str">
         <v>× 1.5 ( 胜利奖励)</v>
       </c>
       <c r="E102" s="2" t="str"/>
     </row>
-    <row customHeight="true" ht="21" r="103">
+    <row customHeight="true" ht="23" r="103">
       <c r="A103" s="2">
         <v>30070</v>
       </c>
-      <c r="B103" s="3" t="str">
+      <c r="B103" s="1" t="str">
         <v>Text_Content_12015</v>
       </c>
-      <c r="C103" s="34" t="str">
+      <c r="C103" s="29" t="str">
         <v>+ 900 (Bonus )</v>
       </c>
-      <c r="D103" s="3" t="str">
+      <c r="D103" s="1" t="str">
         <v>+ 900 ( 胜利奖励)</v>
       </c>
       <c r="E103" s="2" t="str"/>
     </row>
-    <row customHeight="true" ht="21" r="104">
+    <row customHeight="true" ht="23" r="104">
       <c r="A104" s="2">
         <v>30071</v>
       </c>
-      <c r="B104" s="3" t="str">
+      <c r="B104" s="1" t="str">
         <v>Text_Content_12016</v>
       </c>
-      <c r="C104" s="3" t="str">
+      <c r="C104" s="1" t="str">
         <v>Watch ads to get double coins!</v>
       </c>
-      <c r="D104" s="3" t="str">
+      <c r="D104" s="1" t="str">
         <v>观看广告，获得双倍金币！</v>
       </c>
       <c r="E104" s="2" t="str">
         <v>UI按钮上的文字</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="105">
+    <row customHeight="true" ht="23" r="105">
       <c r="A105" s="2">
         <v>30072</v>
       </c>
-      <c r="B105" s="3" t="str">
+      <c r="B105" s="1" t="str">
         <v>Text_Content_12017</v>
       </c>
-      <c r="C105" s="3" t="str">
+      <c r="C105" s="1" t="str">
         <v>GET</v>
       </c>
-      <c r="D105" s="3" t="str">
+      <c r="D105" s="1" t="str">
         <v>观看</v>
       </c>
       <c r="E105" s="2" t="str">
         <v>UI按钮上的文字</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="106">
-      <c r="A106" s="4">
+    <row customHeight="true" ht="23" r="106">
+      <c r="A106" s="20">
         <v>30073</v>
       </c>
-      <c r="B106" s="5" t="str">
+      <c r="B106" s="13" t="str">
         <v>Text_Content_12018</v>
       </c>
-      <c r="C106" s="5" t="str">
+      <c r="C106" s="13" t="str">
         <v>Lottery</v>
       </c>
-      <c r="D106" s="5" t="str">
+      <c r="D106" s="13" t="str">
         <v>抽奖</v>
       </c>
-      <c r="E106" s="4" t="str">
+      <c r="E106" s="20" t="str">
         <v>UI按钮上的文字</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="107">
-      <c r="A107" s="4">
+    <row customHeight="true" ht="23" r="107">
+      <c r="A107" s="20">
         <v>30074</v>
       </c>
-      <c r="B107" s="5" t="str">
+      <c r="B107" s="13" t="str">
         <v>Text_Content_12019</v>
       </c>
-      <c r="C107" s="5" t="str">
+      <c r="C107" s="13" t="str">
         <v>Weapon Box</v>
       </c>
-      <c r="D107" s="5" t="str">
+      <c r="D107" s="13" t="str">
         <v>武器箱</v>
       </c>
-      <c r="E107" s="4" t="str">
+      <c r="E107" s="20" t="str">
         <v>UI按钮上的文字</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="108">
-      <c r="A108" s="4">
+    <row customHeight="true" ht="23" r="108">
+      <c r="A108" s="20">
         <v>30075</v>
       </c>
-      <c r="B108" s="5" t="str">
+      <c r="B108" s="13" t="str">
         <v>Text_Content_12020</v>
       </c>
-      <c r="C108" s="5" t="str">
+      <c r="C108" s="13" t="str">
         <v>Watch the ad for a free draw</v>
       </c>
-      <c r="D108" s="5" t="str">
+      <c r="D108" s="13" t="str">
         <v>观看广告，免费抽奖一次</v>
       </c>
-      <c r="E108" s="4" t="str">
+      <c r="E108" s="20" t="str">
         <v>UI按钮上的文字</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="109">
-      <c r="A109" s="4">
+    <row customHeight="true" ht="23" r="109">
+      <c r="A109" s="20">
         <v>30076</v>
       </c>
-      <c r="B109" s="5" t="str">
+      <c r="B109" s="13" t="str">
         <v>Text_Content_12021</v>
       </c>
-      <c r="C109" s="5" t="str">
+      <c r="C109" s="13" t="str">
         <v>Until the next free draw:</v>
       </c>
-      <c r="D109" s="5" t="str">
+      <c r="D109" s="13" t="str">
         <v>距离下次免费：</v>
       </c>
-      <c r="E109" s="4" t="str">
+      <c r="E109" s="20" t="str">
         <v>UI按钮上的文字</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="110">
-      <c r="A110" s="4">
+    <row customHeight="true" ht="23" r="110">
+      <c r="A110" s="20">
         <v>30077</v>
       </c>
-      <c r="B110" s="5" t="str">
+      <c r="B110" s="13" t="str">
         <v>Text_Content_12022</v>
       </c>
-      <c r="C110" s="5" t="str">
+      <c r="C110" s="13" t="str">
         <v>Your draws</v>
       </c>
-      <c r="D110" s="5" t="str">
+      <c r="D110" s="13" t="str">
         <v>累计抽奖</v>
       </c>
-      <c r="E110" s="4" t="str">
+      <c r="E110" s="20" t="str">
         <v>UI按钮上的文字</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="111">
-      <c r="A111" s="4">
+    <row customHeight="true" ht="23" r="111">
+      <c r="A111" s="20">
         <v>30078</v>
       </c>
-      <c r="B111" s="5" t="str">
+      <c r="B111" s="13" t="str">
         <v>Text_Content_12023</v>
       </c>
-      <c r="C111" s="5" t="str">
+      <c r="C111" s="13" t="str">
         <v>Next time you will get a RED quality weapon</v>
       </c>
-      <c r="D111" s="5" t="str">
+      <c r="D111" s="13" t="str">
         <v>下次必得红色品质武器</v>
       </c>
-      <c r="E111" s="4" t="str">
+      <c r="E111" s="20" t="str">
         <v>UI按钮上的文字</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="112">
-      <c r="A112" s="4">
+    <row customHeight="true" ht="23" r="112">
+      <c r="A112" s="20">
         <v>30079</v>
       </c>
-      <c r="B112" s="5" t="str">
+      <c r="B112" s="13" t="str">
         <v>Text_Content_12024</v>
       </c>
-      <c r="C112" s="5" t="str">
+      <c r="C112" s="13" t="str">
         <v>Box opening...</v>
       </c>
-      <c r="D112" s="5" t="str">
+      <c r="D112" s="13" t="str">
         <v>正在打开箱子...</v>
       </c>
-      <c r="E112" s="4" t="str">
+      <c r="E112" s="20" t="str">
         <v>UI按钮上的文字</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="113">
-      <c r="A113" s="4">
+    <row customHeight="true" ht="23" r="113">
+      <c r="A113" s="20">
         <v>30080</v>
       </c>
-      <c r="B113" s="5" t="str">
+      <c r="B113" s="13" t="str">
         <v>Text_Content_12025</v>
       </c>
-      <c r="C113" s="5" t="str">
+      <c r="C113" s="13" t="str">
         <v>Congratulations!</v>
       </c>
-      <c r="D113" s="5" t="str">
+      <c r="D113" s="13" t="str">
         <v>恭喜获得</v>
       </c>
-      <c r="E113" s="4" t="str">
+      <c r="E113" s="20" t="str">
         <v>UI按钮上的文字</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="114">
-      <c r="A114" s="4">
+    <row customHeight="true" ht="23" r="114">
+      <c r="A114" s="20">
         <v>30081</v>
       </c>
-      <c r="B114" s="5" t="str">
+      <c r="B114" s="13" t="str">
         <v>Text_Content_12026</v>
       </c>
-      <c r="C114" s="5" t="str">
+      <c r="C114" s="13" t="str">
         <v>Owned, automatically recycled to gold coins</v>
       </c>
-      <c r="D114" s="5" t="str">
+      <c r="D114" s="13" t="str">
         <v>已拥有，自动回收为金币</v>
       </c>
-      <c r="E114" s="4" t="str">
+      <c r="E114" s="20" t="str">
         <v>UI按钮上的文字</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="115">
-      <c r="A115" s="4">
+    <row customHeight="true" ht="23" r="115">
+      <c r="A115" s="20">
         <v>30082</v>
       </c>
-      <c r="B115" s="5" t="str">
+      <c r="B115" s="13" t="str">
         <v>Text_Content_11017</v>
       </c>
-      <c r="C115" s="5" t="str">
+      <c r="C115" s="13" t="str">
         <v>Defeat everyone and leave no one out!</v>
       </c>
-      <c r="D115" s="4" t="str">
+      <c r="D115" s="20" t="str">
         <v>击败所有人，一个也不要放过！</v>
       </c>
-      <c r="E115" s="4"/>
-    </row>
-    <row customHeight="true" ht="21" r="116">
-      <c r="A116" s="4">
+      <c r="E115" s="20"/>
+    </row>
+    <row customHeight="true" ht="23" r="116">
+      <c r="A116" s="20">
         <v>30083</v>
       </c>
-      <c r="B116" s="5" t="str">
+      <c r="B116" s="13" t="str">
         <v>Text_Content_11018</v>
       </c>
-      <c r="C116" s="5" t="str">
+      <c r="C116" s="13" t="str">
         <v>You are Detective, defeat the Murderer!</v>
       </c>
-      <c r="D116" s="4" t="str">
+      <c r="D116" s="20" t="str">
         <v>你是侦探，寻找凶手并击败他！</v>
       </c>
-      <c r="E116" s="4"/>
-    </row>
-    <row customHeight="true" ht="21" r="117">
-      <c r="A117" s="4">
+      <c r="E116" s="20"/>
+    </row>
+    <row customHeight="true" ht="23" r="117">
+      <c r="A117" s="20">
         <v>30084</v>
       </c>
-      <c r="B117" s="5" t="str">
+      <c r="B117" s="13" t="str">
         <v>Text_Content_11019</v>
       </c>
-      <c r="C117" s="5" t="str">
+      <c r="C117" s="13" t="str">
         <v>You're the Hero, find the Murderer and defeat him!</v>
       </c>
-      <c r="D117" s="4" t="str">
+      <c r="D117" s="20" t="str">
         <v>你化身英雄，找到凶手击败他！</v>
       </c>
-      <c r="E117" s="4"/>
-    </row>
-    <row customHeight="true" ht="21" r="118">
-      <c r="A118" s="4">
+      <c r="E117" s="20"/>
+    </row>
+    <row customHeight="true" ht="23" r="118">
+      <c r="A118" s="20">
         <v>30085</v>
       </c>
-      <c r="B118" s="5" t="str">
+      <c r="B118" s="13" t="str">
         <v>Text_Content_11020</v>
       </c>
-      <c r="C118" s="5" t="str">
+      <c r="C118" s="13" t="str">
         <v>Survive...</v>
       </c>
-      <c r="D118" s="4" t="str">
+      <c r="D118" s="20" t="str">
         <v>活下去...</v>
       </c>
-      <c r="E118" s="4"/>
-    </row>
-    <row customHeight="true" ht="21" r="119">
-      <c r="A119" s="4">
+      <c r="E118" s="20"/>
+    </row>
+    <row customHeight="true" ht="23" r="119">
+      <c r="A119" s="20">
         <v>30086</v>
       </c>
-      <c r="B119" s="5" t="str">
+      <c r="B119" s="13" t="str">
         <v>Text_Content_20034</v>
       </c>
-      <c r="C119" s="5" t="str">
+      <c r="C119" s="13" t="str">
         <v>Terminator!</v>
       </c>
-      <c r="D119" s="4" t="str">
+      <c r="D119" s="20" t="str">
         <v>本轮终结者！</v>
       </c>
-      <c r="E119" s="4"/>
-    </row>
-    <row customHeight="true" ht="21" r="120">
-      <c r="A120" s="4">
+      <c r="E119" s="20"/>
+    </row>
+    <row customHeight="true" ht="23" r="120">
+      <c r="A120" s="20">
         <v>30087</v>
       </c>
-      <c r="B120" s="5" t="str">
+      <c r="B120" s="13" t="str">
         <v>Text_Content_20035</v>
       </c>
-      <c r="C120" s="5" t="str">
+      <c r="C120" s="13" t="str">
         <v>Lottery</v>
       </c>
-      <c r="D120" s="4" t="str">
+      <c r="D120" s="20" t="str">
         <v>抽奖获得</v>
       </c>
-      <c r="E120" s="4"/>
-    </row>
-    <row customHeight="true" ht="21" r="121">
+      <c r="E120" s="20"/>
+    </row>
+    <row customHeight="true" ht="23" r="121">
       <c r="A121" s="2">
         <v>40001</v>
       </c>
       <c r="B121" s="2" t="str">
         <v>Tips_Content_10001</v>
       </c>
-      <c r="C121" s="3" t="str">
+      <c r="C121" s="1" t="str">
         <v>Please pick up your weapon first!</v>
       </c>
       <c r="D121" s="2" t="str">
@@ -3110,14 +3087,14 @@
         <v>40000：提示表</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="122">
+    <row customHeight="true" ht="23" r="122">
       <c r="A122" s="2">
         <v>40002</v>
       </c>
       <c r="B122" s="2" t="str">
         <v>Tips_Content_10002</v>
       </c>
-      <c r="C122" s="3" t="str">
+      <c r="C122" s="1" t="str">
         <v>You are a Hero now! Pick up your weapon and attack!</v>
       </c>
       <c r="D122" s="2" t="str">
@@ -3125,14 +3102,14 @@
       </c>
       <c r="E122" s="2" t="str"/>
     </row>
-    <row customHeight="true" ht="21" r="123">
+    <row customHeight="true" ht="23" r="123">
       <c r="A123" s="2">
         <v>40003</v>
       </c>
       <c r="B123" s="2" t="str">
         <v>Tips_Content_10003</v>
       </c>
-      <c r="C123" s="3" t="str">
+      <c r="C123" s="1" t="str">
         <v>Energy balls collected +1~</v>
       </c>
       <c r="D123" s="2" t="str">
@@ -3140,14 +3117,14 @@
       </c>
       <c r="E123" s="2" t="str"/>
     </row>
-    <row customHeight="true" ht="21" r="124">
+    <row customHeight="true" ht="23" r="124">
       <c r="A124" s="2">
         <v>40004</v>
       </c>
       <c r="B124" s="2" t="str">
         <v>Tips_Content_10004</v>
       </c>
-      <c r="C124" s="3" t="str">
+      <c r="C124" s="1" t="str">
         <v>Energy balls obtained in this round is full!</v>
       </c>
       <c r="D124" s="2" t="str">
@@ -3155,14 +3132,14 @@
       </c>
       <c r="E124" s="2" t="str"/>
     </row>
-    <row customHeight="true" ht="21" r="125">
+    <row customHeight="true" ht="23" r="125">
       <c r="A125" s="2">
         <v>40005</v>
       </c>
       <c r="B125" s="2" t="str">
         <v>Tips_Content_10005</v>
       </c>
-      <c r="C125" s="3" t="str">
+      <c r="C125" s="1" t="str">
         <v>Energy shield obtained! You can resist an attack now!</v>
       </c>
       <c r="D125" s="2" t="str">
@@ -3170,14 +3147,14 @@
       </c>
       <c r="E125" s="2" t="str"/>
     </row>
-    <row customHeight="true" ht="21" r="126">
+    <row customHeight="true" ht="23" r="126">
       <c r="A126" s="2">
         <v>40006</v>
       </c>
       <c r="B126" s="2" t="str">
         <v>Tips_Content_10006</v>
       </c>
-      <c r="C126" s="3" t="str">
+      <c r="C126" s="1" t="str">
         <v>Energy shield is shattered! Be careful!</v>
       </c>
       <c r="D126" s="2" t="str">
@@ -3185,14 +3162,14 @@
       </c>
       <c r="E126" s="2" t="str"/>
     </row>
-    <row customHeight="true" ht="21" r="127">
+    <row customHeight="true" ht="23" r="127">
       <c r="A127" s="2">
         <v>40007</v>
       </c>
       <c r="B127" s="2" t="str">
         <v>Tips_Content_10007</v>
       </c>
-      <c r="C127" s="3" t="str">
+      <c r="C127" s="1" t="str">
         <v>Energy of the shield is absorbed...</v>
       </c>
       <c r="D127" s="2" t="str">
@@ -3200,14 +3177,14 @@
       </c>
       <c r="E127" s="2" t="str"/>
     </row>
-    <row customHeight="true" ht="21" r="128">
+    <row customHeight="true" ht="23" r="128">
       <c r="A128" s="2">
         <v>40008</v>
       </c>
       <c r="B128" s="2" t="str">
         <v>Tips_Content_10008</v>
       </c>
-      <c r="C128" s="3" t="str">
+      <c r="C128" s="1" t="str">
         <v>Coin Bag is full!</v>
       </c>
       <c r="D128" s="2" t="str">
@@ -3215,14 +3192,14 @@
       </c>
       <c r="E128" s="2" t="str"/>
     </row>
-    <row customHeight="true" ht="21" r="129">
+    <row customHeight="true" ht="23" r="129">
       <c r="A129" s="2">
         <v>40009</v>
       </c>
       <c r="B129" s="2" t="str">
         <v>Tips_Content_10009</v>
       </c>
-      <c r="C129" s="3" t="str">
+      <c r="C129" s="1" t="str">
         <v>Someone died!</v>
       </c>
       <c r="D129" s="2" t="str">
@@ -3230,14 +3207,14 @@
       </c>
       <c r="E129" s="2" t="str"/>
     </row>
-    <row customHeight="true" ht="21" r="130">
+    <row customHeight="true" ht="23" r="130">
       <c r="A130" s="2">
         <v>40010</v>
       </c>
       <c r="B130" s="2" t="str">
         <v>Tips_Content_10010</v>
       </c>
-      <c r="C130" s="3" t="str">
+      <c r="C130" s="1" t="str">
         <v>The Detective is dead, find his weapon!</v>
       </c>
       <c r="D130" s="2" t="str">
@@ -3245,14 +3222,14 @@
       </c>
       <c r="E130" s="2" t="str"/>
     </row>
-    <row customHeight="true" ht="21" r="131">
+    <row customHeight="true" ht="23" r="131">
       <c r="A131" s="2">
         <v>40011</v>
       </c>
       <c r="B131" s="2" t="str">
         <v>Tips_Content_20001</v>
       </c>
-      <c r="C131" s="3" t="str">
+      <c r="C131" s="1" t="str">
         <v>There are currently no active matches!</v>
       </c>
       <c r="D131" s="2" t="str">
@@ -3260,14 +3237,14 @@
       </c>
       <c r="E131" s="2" t="str"/>
     </row>
-    <row customHeight="true" ht="21" r="132">
+    <row customHeight="true" ht="23" r="132">
       <c r="A132" s="2">
         <v>40012</v>
       </c>
-      <c r="B132" s="3" t="str">
+      <c r="B132" s="1" t="str">
         <v>Tips_Content_20005</v>
       </c>
-      <c r="C132" s="3" t="str">
+      <c r="C132" s="1" t="str">
         <v>Correct Password</v>
       </c>
       <c r="D132" s="2" t="str">
@@ -3275,14 +3252,14 @@
       </c>
       <c r="E132" s="2"/>
     </row>
-    <row customHeight="true" ht="21" r="133">
+    <row customHeight="true" ht="23" r="133">
       <c r="A133" s="2">
         <v>40013</v>
       </c>
-      <c r="B133" s="3" t="str">
+      <c r="B133" s="1" t="str">
         <v>Tips_Content_20006</v>
       </c>
-      <c r="C133" s="3" t="str">
+      <c r="C133" s="1" t="str">
         <v>Wrong Password！</v>
       </c>
       <c r="D133" s="2" t="str">
@@ -3290,14 +3267,14 @@
       </c>
       <c r="E133" s="2"/>
     </row>
-    <row customHeight="true" ht="21" r="134">
+    <row customHeight="true" ht="23" r="134">
       <c r="A134" s="2">
         <v>40014</v>
       </c>
-      <c r="B134" s="3" t="str">
+      <c r="B134" s="1" t="str">
         <v>Tips_Content_20007</v>
       </c>
-      <c r="C134" s="3" t="str">
+      <c r="C134" s="1" t="str">
         <v>Weapon skins！Click to go！</v>
       </c>
       <c r="D134" s="2" t="str">
@@ -3305,14 +3282,14 @@
       </c>
       <c r="E134" s="2"/>
     </row>
-    <row customHeight="true" ht="21" r="135">
+    <row customHeight="true" ht="23" r="135">
       <c r="A135" s="2">
         <v>40015</v>
       </c>
-      <c r="B135" s="3" t="str">
+      <c r="B135" s="1" t="str">
         <v>Tips_Content_20008</v>
       </c>
-      <c r="C135" s="3" t="str">
+      <c r="C135" s="1" t="str">
         <v>Ad in CD</v>
       </c>
       <c r="D135" s="2" t="str">
@@ -3320,14 +3297,14 @@
       </c>
       <c r="E135" s="2"/>
     </row>
-    <row customHeight="true" ht="21" r="136">
+    <row customHeight="true" ht="23" r="136">
       <c r="A136" s="2">
         <v>50001</v>
       </c>
       <c r="B136" s="2" t="str">
         <v>Weapon_WeaponName_10001</v>
       </c>
-      <c r="C136" s="3" t="str">
+      <c r="C136" s="1" t="str">
         <v>Knife</v>
       </c>
       <c r="D136" s="2" t="str">
@@ -3337,14 +3314,14 @@
         <v>50000：武器表</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="137">
+    <row customHeight="true" ht="23" r="137">
       <c r="A137" s="2">
         <v>50002</v>
       </c>
       <c r="B137" s="2" t="str">
         <v>Weapon_WeaponName_20001</v>
       </c>
-      <c r="C137" s="3" t="str">
+      <c r="C137" s="1" t="str">
         <v>Revolver</v>
       </c>
       <c r="D137" s="2" t="str">
@@ -3352,638 +3329,638 @@
       </c>
       <c r="E137" s="2" t="str"/>
     </row>
-    <row customHeight="true" ht="21" r="138">
+    <row customHeight="true" ht="23" r="138">
       <c r="A138" s="2">
         <v>50003</v>
       </c>
-      <c r="B138" s="5" t="str">
+      <c r="B138" s="13" t="str">
         <v>Weapon_WeaponName_10002</v>
       </c>
-      <c r="C138" s="3" t="str">
+      <c r="C138" s="1" t="str">
         <v>Fire Axe</v>
       </c>
-      <c r="D138" s="4" t="str">
+      <c r="D138" s="20" t="str">
         <v>消防斧</v>
       </c>
       <c r="E138" s="2" t="str">
         <v>武器名称</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="139">
+    <row customHeight="true" ht="23" r="139">
       <c r="A139" s="2">
         <v>50004</v>
       </c>
-      <c r="B139" s="5" t="str">
+      <c r="B139" s="13" t="str">
         <v>Weapon_WeaponName_10003</v>
       </c>
-      <c r="C139" s="3" t="str">
+      <c r="C139" s="1" t="str">
         <v>Nepalese Knife</v>
       </c>
-      <c r="D139" s="4" t="str">
+      <c r="D139" s="20" t="str">
         <v>尼泊尔军刀</v>
       </c>
       <c r="E139" s="2" t="str">
         <v>武器名称</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="140">
+    <row customHeight="true" ht="23" r="140">
       <c r="A140" s="2">
         <v>50005</v>
       </c>
-      <c r="B140" s="5" t="str">
+      <c r="B140" s="13" t="str">
         <v>Weapon_WeaponName_20002</v>
       </c>
-      <c r="C140" s="3" t="str">
+      <c r="C140" s="1" t="str">
         <v>Submachine Gun</v>
       </c>
-      <c r="D140" s="4" t="str">
+      <c r="D140" s="20" t="str">
         <v>冲锋枪</v>
       </c>
       <c r="E140" s="2" t="str">
         <v>武器名称</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="141">
+    <row customHeight="true" ht="23" r="141">
       <c r="A141" s="2">
         <v>50006</v>
       </c>
-      <c r="B141" s="5" t="str">
+      <c r="B141" s="13" t="str">
         <v>Weapon_WeaponName_20003</v>
       </c>
-      <c r="C141" s="3" t="str">
+      <c r="C141" s="1" t="str">
         <v>Rifle</v>
       </c>
-      <c r="D141" s="4" t="str">
+      <c r="D141" s="20" t="str">
         <v>步枪</v>
       </c>
       <c r="E141" s="2" t="str">
         <v>武器名称</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="142">
+    <row customHeight="true" ht="23" r="142">
       <c r="A142" s="2">
         <v>50007</v>
       </c>
-      <c r="B142" s="3" t="str">
+      <c r="B142" s="1" t="str">
         <v>Weapon_WeaponName_10004</v>
       </c>
-      <c r="C142" s="3" t="str">
+      <c r="C142" s="1" t="str">
         <v>Assassin Dagger</v>
       </c>
-      <c r="D142" s="4" t="str">
+      <c r="D142" s="20" t="str">
         <v>暗杀匕首</v>
       </c>
       <c r="E142" s="2" t="str">
         <v>武器名称</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="143">
+    <row customHeight="true" ht="23" r="143">
       <c r="A143" s="2">
         <v>50008</v>
       </c>
-      <c r="B143" s="3" t="str">
+      <c r="B143" s="1" t="str">
         <v>Weapon_WeaponName_10005</v>
       </c>
-      <c r="C143" s="3" t="str">
+      <c r="C143" s="1" t="str">
         <v>Survival Dagger</v>
       </c>
-      <c r="D143" s="4" t="str">
+      <c r="D143" s="20" t="str">
         <v>求生匕首</v>
       </c>
       <c r="E143" s="2" t="str">
         <v>武器名称</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="144">
+    <row customHeight="true" ht="23" r="144">
       <c r="A144" s="2">
         <v>50009</v>
       </c>
-      <c r="B144" s="3" t="str">
+      <c r="B144" s="1" t="str">
         <v>Weapon_WeaponName_10006</v>
       </c>
-      <c r="C144" s="3" t="str">
+      <c r="C144" s="1" t="str">
         <v>Kitchen Knife</v>
       </c>
-      <c r="D144" s="4" t="str">
+      <c r="D144" s="20" t="str">
         <v>菜刀</v>
       </c>
       <c r="E144" s="2" t="str">
         <v>武器名称</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="145">
+    <row customHeight="true" ht="23" r="145">
       <c r="A145" s="2">
         <v>50010</v>
       </c>
-      <c r="B145" s="6" t="str">
+      <c r="B145" s="10" t="str">
         <v>Weapon_WeaponName_10007</v>
       </c>
-      <c r="C145" s="3" t="str">
+      <c r="C145" s="1" t="str">
         <v>Dart (Wave)</v>
       </c>
-      <c r="D145" s="7" t="str">
+      <c r="D145" s="11" t="str">
         <v>镖(波)</v>
       </c>
       <c r="E145" s="2" t="str">
         <v>武器名称</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="146">
+    <row customHeight="true" ht="23" r="146">
       <c r="A146" s="2">
         <v>50011</v>
       </c>
-      <c r="B146" s="6" t="str">
+      <c r="B146" s="10" t="str">
         <v>Weapon_WeaponName_10008</v>
       </c>
-      <c r="C146" s="3" t="str">
+      <c r="C146" s="1" t="str">
         <v>Dart (Fetter)</v>
       </c>
-      <c r="D146" s="7" t="str">
+      <c r="D146" s="11" t="str">
         <v>镖(桎)</v>
       </c>
       <c r="E146" s="2" t="str">
         <v>武器名称</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="147">
+    <row customHeight="true" ht="23" r="147">
       <c r="A147" s="2">
         <v>50012</v>
       </c>
-      <c r="B147" s="6" t="str">
+      <c r="B147" s="10" t="str">
         <v>Weapon_WeaponName_10009</v>
       </c>
-      <c r="C147" s="3" t="str">
+      <c r="C147" s="1" t="str">
         <v>Dart (Shatter)</v>
       </c>
-      <c r="D147" s="7" t="str">
+      <c r="D147" s="11" t="str">
         <v>镖(碎)</v>
       </c>
       <c r="E147" s="2" t="str">
         <v>武器名称</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="148">
+    <row customHeight="true" ht="23" r="148">
       <c r="A148" s="2">
         <v>50013</v>
       </c>
-      <c r="B148" s="6" t="str">
+      <c r="B148" s="10" t="str">
         <v>Weapon_WeaponName_10010</v>
       </c>
-      <c r="C148" s="3" t="str">
+      <c r="C148" s="1" t="str">
         <v>Dart (Swirl)</v>
       </c>
-      <c r="D148" s="7" t="str">
+      <c r="D148" s="11" t="str">
         <v>镖(漩)</v>
       </c>
       <c r="E148" s="2" t="str">
         <v>武器名称</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="149">
+    <row customHeight="true" ht="23" r="149">
       <c r="A149" s="2">
         <v>50014</v>
       </c>
-      <c r="B149" s="6" t="str">
+      <c r="B149" s="10" t="str">
         <v>Weapon_WeaponName_10011</v>
       </c>
-      <c r="C149" s="3" t="str">
+      <c r="C149" s="1" t="str">
         <v>Dart (Qi)</v>
       </c>
-      <c r="D149" s="7" t="str">
+      <c r="D149" s="11" t="str">
         <v>镖(气)</v>
       </c>
       <c r="E149" s="2" t="str">
         <v>武器名称</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="150">
+    <row customHeight="true" ht="23" r="150">
       <c r="A150" s="2">
         <v>50015</v>
       </c>
-      <c r="B150" s="6" t="str">
+      <c r="B150" s="10" t="str">
         <v>Weapon_WeaponName_10012</v>
       </c>
-      <c r="C150" s="3" t="str">
+      <c r="C150" s="1" t="str">
         <v>Dart (Stirring)</v>
       </c>
-      <c r="D150" s="7" t="str">
+      <c r="D150" s="11" t="str">
         <v>镖(激荡)</v>
       </c>
       <c r="E150" s="2" t="str">
         <v>武器名称</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="151">
+    <row customHeight="true" ht="23" r="151">
       <c r="A151" s="2">
         <v>50016</v>
       </c>
-      <c r="B151" s="6" t="str">
+      <c r="B151" s="10" t="str">
         <v>Weapon_WeaponName_10013</v>
       </c>
-      <c r="C151" s="3" t="str">
+      <c r="C151" s="1" t="str">
         <v>Dart (Seal)</v>
       </c>
-      <c r="D151" s="7" t="str">
+      <c r="D151" s="11" t="str">
         <v>镖(封印)</v>
       </c>
       <c r="E151" s="2" t="str">
         <v>武器名称</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="152">
+    <row customHeight="true" ht="23" r="152">
       <c r="A152" s="2">
         <v>50017</v>
       </c>
-      <c r="B152" s="6" t="str">
+      <c r="B152" s="10" t="str">
         <v>Weapon_WeaponName_10014</v>
       </c>
-      <c r="C152" s="3" t="str">
+      <c r="C152" s="1" t="str">
         <v>Dart (Fate)</v>
       </c>
-      <c r="D152" s="7" t="str">
+      <c r="D152" s="11" t="str">
         <v>镖(轮回)</v>
       </c>
       <c r="E152" s="2" t="str">
         <v>武器名称</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="153">
+    <row customHeight="true" ht="23" r="153">
       <c r="A153" s="2">
         <v>50018</v>
       </c>
-      <c r="B153" s="6" t="str">
+      <c r="B153" s="10" t="str">
         <v>Weapon_WeaponName_10015</v>
       </c>
-      <c r="C153" s="3" t="str">
+      <c r="C153" s="1" t="str">
         <v>Dogfish</v>
       </c>
-      <c r="D153" s="7" t="str">
+      <c r="D153" s="11" t="str">
         <v>狗鱼</v>
       </c>
       <c r="E153" s="2" t="str">
         <v>武器名称</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="154">
+    <row customHeight="true" ht="23" r="154">
       <c r="A154" s="2">
         <v>50019</v>
       </c>
-      <c r="B154" s="6" t="str">
+      <c r="B154" s="10" t="str">
         <v>Weapon_WeaponName_10016</v>
       </c>
-      <c r="C154" s="3" t="str">
+      <c r="C154" s="1" t="str">
         <v>Hairy-nosed catfish</v>
       </c>
-      <c r="D154" s="7" t="str">
+      <c r="D154" s="11" t="str">
         <v>毛鼻鲶</v>
       </c>
       <c r="E154" s="2" t="str">
         <v>武器名称</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="155">
+    <row customHeight="true" ht="23" r="155">
       <c r="A155" s="2">
         <v>50020</v>
       </c>
-      <c r="B155" s="6" t="str">
+      <c r="B155" s="10" t="str">
         <v>Weapon_WeaponName_10017</v>
       </c>
-      <c r="C155" s="3" t="str">
+      <c r="C155" s="1" t="str">
         <v>Goldfish</v>
       </c>
-      <c r="D155" s="7" t="str">
+      <c r="D155" s="11" t="str">
         <v>金鱼</v>
       </c>
       <c r="E155" s="2" t="str">
         <v>武器名称</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="156">
+    <row customHeight="true" ht="23" r="156">
       <c r="A156" s="2">
         <v>50021</v>
       </c>
-      <c r="B156" s="6" t="str">
+      <c r="B156" s="10" t="str">
         <v>Weapon_WeaponName_10018</v>
       </c>
-      <c r="C156" s="3" t="str">
+      <c r="C156" s="1" t="str">
         <v>Tuna</v>
       </c>
-      <c r="D156" s="7" t="str">
+      <c r="D156" s="11" t="str">
         <v>金枪鱼</v>
       </c>
       <c r="E156" s="2" t="str">
         <v>武器名称</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="157">
+    <row customHeight="true" ht="23" r="157">
       <c r="A157" s="2">
         <v>50022</v>
       </c>
-      <c r="B157" s="6" t="str">
+      <c r="B157" s="10" t="str">
         <v>Weapon_WeaponName_10019</v>
       </c>
-      <c r="C157" s="3" t="str">
+      <c r="C157" s="1" t="str">
         <v>Lobster</v>
       </c>
-      <c r="D157" s="7" t="str">
+      <c r="D157" s="11" t="str">
         <v>龙虾</v>
       </c>
       <c r="E157" s="2" t="str">
         <v>武器名称</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="158">
+    <row customHeight="true" ht="23" r="158">
       <c r="A158" s="2">
         <v>50023</v>
       </c>
-      <c r="B158" s="6" t="str">
+      <c r="B158" s="10" t="str">
         <v>Weapon_WeaponName_10020</v>
       </c>
-      <c r="C158" s="3" t="str">
+      <c r="C158" s="1" t="str">
         <v>Oarfish</v>
       </c>
-      <c r="D158" s="7" t="str">
+      <c r="D158" s="11" t="str">
         <v>皇带鱼</v>
       </c>
       <c r="E158" s="2" t="str">
         <v>武器名称</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="159">
+    <row customHeight="true" ht="23" r="159">
       <c r="A159" s="2">
         <v>50024</v>
       </c>
-      <c r="B159" s="6" t="str">
+      <c r="B159" s="10" t="str">
         <v>Weapon_WeaponName_10021</v>
       </c>
-      <c r="C159" s="3" t="str">
+      <c r="C159" s="1" t="str">
         <v>Miracle Conch</v>
       </c>
-      <c r="D159" s="7" t="str">
+      <c r="D159" s="11" t="str">
         <v>神奇海螺</v>
       </c>
       <c r="E159" s="2" t="str">
         <v>武器名称</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="160">
+    <row customHeight="true" ht="23" r="160">
       <c r="A160" s="2">
         <v>50025</v>
       </c>
-      <c r="B160" s="6" t="str">
+      <c r="B160" s="10" t="str">
         <v>Weapon_WeaponName_10022</v>
       </c>
-      <c r="C160" s="3" t="str">
+      <c r="C160" s="1" t="str">
         <v>King Trident</v>
       </c>
-      <c r="D160" s="7" t="str">
+      <c r="D160" s="11" t="str">
         <v>海王三叉戟</v>
       </c>
       <c r="E160" s="2" t="str">
         <v>武器名称</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="161">
+    <row customHeight="true" ht="23" r="161">
       <c r="A161" s="2">
         <v>50027</v>
       </c>
-      <c r="B161" s="3" t="str">
+      <c r="B161" s="1" t="str">
         <v>Lottery_Name_10001</v>
       </c>
-      <c r="C161" s="3" t="str">
+      <c r="C161" s="1" t="str">
         <v>Dart Weapon Box</v>
       </c>
-      <c r="D161" s="7" t="str">
+      <c r="D161" s="11" t="str">
         <v>飞镖武器箱</v>
       </c>
       <c r="E161" s="2" t="str">
         <v>武器箱子名称</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="162">
+    <row customHeight="true" ht="23" r="162">
       <c r="A162" s="2">
         <v>50028</v>
       </c>
-      <c r="B162" s="3" t="str">
+      <c r="B162" s="1" t="str">
         <v>Lottery_Name_10002</v>
       </c>
-      <c r="C162" s="3" t="str">
+      <c r="C162" s="1" t="str">
         <v>Ocean Weapon Box</v>
       </c>
-      <c r="D162" s="7" t="str">
+      <c r="D162" s="11" t="str">
         <v>深海武器箱</v>
       </c>
       <c r="E162" s="2" t="str">
         <v>武器箱子名称</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="163">
+    <row customHeight="true" ht="23" r="163">
       <c r="A163" s="2">
         <v>60001</v>
       </c>
       <c r="B163" s="2" t="str">
         <v>AIData_AIName_90001</v>
       </c>
-      <c r="C163" s="3" t="str">
+      <c r="C163" s="1" t="str">
         <v>Creabhop</v>
       </c>
-      <c r="D163" s="3" t="str">
+      <c r="D163" s="1" t="str">
         <v>Creabhop</v>
       </c>
       <c r="E163" s="2" t="str">
         <v>60000：AI数据表</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="164">
+    <row customHeight="true" ht="23" r="164">
       <c r="A164" s="2">
         <v>60002</v>
       </c>
       <c r="B164" s="2" t="str">
         <v>AIData_AIName_90002</v>
       </c>
-      <c r="C164" s="3" t="str">
+      <c r="C164" s="1" t="str">
         <v>Rival</v>
       </c>
-      <c r="D164" s="3" t="str">
+      <c r="D164" s="1" t="str">
         <v>Rival</v>
       </c>
       <c r="E164" s="2" t="str"/>
     </row>
-    <row customHeight="true" ht="21" r="165">
+    <row customHeight="true" ht="23" r="165">
       <c r="A165" s="2">
         <v>60003</v>
       </c>
       <c r="B165" s="2" t="str">
         <v>AIData_AIName_90003</v>
       </c>
-      <c r="C165" s="3" t="str">
+      <c r="C165" s="1" t="str">
         <v>Ironpup</v>
       </c>
-      <c r="D165" s="3" t="str">
+      <c r="D165" s="1" t="str">
         <v>Ironpup</v>
       </c>
       <c r="E165" s="2" t="str"/>
     </row>
-    <row customHeight="true" ht="21" r="166">
+    <row customHeight="true" ht="23" r="166">
       <c r="A166" s="2">
         <v>60004</v>
       </c>
       <c r="B166" s="2" t="str">
         <v>AIData_AIName_90004</v>
       </c>
-      <c r="C166" s="3" t="str">
+      <c r="C166" s="1" t="str">
         <v>TonyXenos</v>
       </c>
-      <c r="D166" s="3" t="str">
+      <c r="D166" s="1" t="str">
         <v>TonyXenos</v>
       </c>
       <c r="E166" s="2" t="str"/>
     </row>
-    <row customHeight="true" ht="21" r="167">
+    <row customHeight="true" ht="23" r="167">
       <c r="A167" s="2">
         <v>60005</v>
       </c>
       <c r="B167" s="2" t="str">
         <v>AIData_AIName_90005</v>
       </c>
-      <c r="C167" s="3" t="str">
+      <c r="C167" s="1" t="str">
         <v>L8s</v>
       </c>
-      <c r="D167" s="3" t="str">
+      <c r="D167" s="1" t="str">
         <v>L8s</v>
       </c>
       <c r="E167" s="2" t="str"/>
     </row>
-    <row customHeight="true" ht="21" r="168">
+    <row customHeight="true" ht="23" r="168">
       <c r="A168" s="2">
         <v>60006</v>
       </c>
       <c r="B168" s="2" t="str">
         <v>AIData_AIName_90006</v>
       </c>
-      <c r="C168" s="3" t="str">
+      <c r="C168" s="1" t="str">
         <v>Crilm</v>
       </c>
-      <c r="D168" s="3" t="str">
+      <c r="D168" s="1" t="str">
         <v>Crilm</v>
       </c>
       <c r="E168" s="2" t="str"/>
     </row>
-    <row customHeight="true" ht="21" r="169">
+    <row customHeight="true" ht="23" r="169">
       <c r="A169" s="2">
         <v>60007</v>
       </c>
       <c r="B169" s="2" t="str">
         <v>AIData_AIName_90007</v>
       </c>
-      <c r="C169" s="3" t="str">
+      <c r="C169" s="1" t="str">
         <v>Himiko Toga</v>
       </c>
-      <c r="D169" s="3" t="str">
+      <c r="D169" s="1" t="str">
         <v>Himiko Toga</v>
       </c>
       <c r="E169" s="2" t="str"/>
     </row>
-    <row customHeight="true" ht="21" r="170">
+    <row customHeight="true" ht="23" r="170">
       <c r="A170" s="2">
         <v>60008</v>
       </c>
       <c r="B170" s="2" t="str">
         <v>AIData_AIName_90008</v>
       </c>
-      <c r="C170" s="3" t="str">
+      <c r="C170" s="1" t="str">
         <v>Rocco21</v>
       </c>
-      <c r="D170" s="3" t="str">
+      <c r="D170" s="1" t="str">
         <v>Rocco21</v>
       </c>
       <c r="E170" s="2" t="str"/>
     </row>
-    <row customHeight="true" ht="21" r="171">
+    <row customHeight="true" ht="23" r="171">
       <c r="A171" s="2">
         <v>60009</v>
       </c>
       <c r="B171" s="2" t="str">
         <v>AIData_AIName_90009</v>
       </c>
-      <c r="C171" s="3" t="str">
+      <c r="C171" s="1" t="str">
         <v>Elysian</v>
       </c>
-      <c r="D171" s="3" t="str">
+      <c r="D171" s="1" t="str">
         <v>Elysian</v>
       </c>
       <c r="E171" s="2" t="str"/>
     </row>
-    <row customHeight="true" ht="21" r="172">
+    <row customHeight="true" ht="23" r="172">
       <c r="A172" s="2">
         <v>60010</v>
       </c>
       <c r="B172" s="2" t="str">
         <v>AIData_AIName_90010</v>
       </c>
-      <c r="C172" s="3" t="str">
+      <c r="C172" s="1" t="str">
         <v>Bunny Rat</v>
       </c>
-      <c r="D172" s="3" t="str">
+      <c r="D172" s="1" t="str">
         <v>Bunny Rat</v>
       </c>
       <c r="E172" s="2" t="str"/>
     </row>
-    <row customHeight="true" ht="21" r="173">
+    <row customHeight="true" ht="23" r="173">
       <c r="A173" s="2">
         <v>60011</v>
       </c>
       <c r="B173" s="2" t="str">
         <v>AIData_AIName_90011</v>
       </c>
-      <c r="C173" s="3" t="str">
+      <c r="C173" s="1" t="str">
         <v>Zaptar</v>
       </c>
-      <c r="D173" s="3" t="str">
+      <c r="D173" s="1" t="str">
         <v>Zaptar</v>
       </c>
       <c r="E173" s="2" t="str"/>
     </row>
-    <row customHeight="true" ht="21" r="174">
+    <row customHeight="true" ht="23" r="174">
       <c r="A174" s="2">
         <v>70001</v>
       </c>
-      <c r="B174" s="3" t="str">
+      <c r="B174" s="1" t="str">
         <v>Level_Name_10000</v>
       </c>
-      <c r="C174" s="3" t="str">
+      <c r="C174" s="1" t="str">
         <v>Hall</v>
       </c>
-      <c r="D174" s="3" t="str">
+      <c r="D174" s="1" t="str">
         <v>大厅</v>
       </c>
       <c r="E174" s="2" t="str"/>
     </row>
-    <row customHeight="true" ht="21" r="175">
+    <row customHeight="true" ht="23" r="175">
       <c r="A175" s="2">
         <v>70002</v>
       </c>
-      <c r="B175" s="3" t="str">
+      <c r="B175" s="1" t="str">
         <v>Level_Name_10001</v>
       </c>
-      <c r="C175" s="3" t="str">
+      <c r="C175" s="1" t="str">
         <v>Lakeside Manssion</v>
       </c>
-      <c r="D175" s="3" t="str">
+      <c r="D175" s="1" t="str">
         <v>湖边别墅</v>
       </c>
       <c r="E175" s="2" t="str">
         <v>关卡地图名称</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="176">
+    <row customHeight="true" ht="23" r="176">
       <c r="A176" s="2">
         <v>70003</v>
       </c>
-      <c r="B176" s="3" t="str">
+      <c r="B176" s="1" t="str">
         <v>Level_Name_10002</v>
       </c>
-      <c r="C176" s="3" t="str">
+      <c r="C176" s="1" t="str">
         <v>Forest Cortyard</v>
       </c>
       <c r="D176" s="2" t="str">
@@ -3993,150 +3970,150 @@
         <v>关卡地图名称</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="177">
+    <row customHeight="true" ht="23" r="177">
       <c r="A177" s="2">
         <v>70004</v>
       </c>
-      <c r="B177" s="3" t="str">
+      <c r="B177" s="1" t="str">
         <v>Level_Name_10003</v>
       </c>
-      <c r="C177" s="3" t="str">
+      <c r="C177" s="1" t="str">
         <v>Abandoned Hospital</v>
       </c>
-      <c r="D177" s="3" t="str">
+      <c r="D177" s="1" t="str">
         <v>废弃医院</v>
       </c>
       <c r="E177" s="2" t="str">
         <v>关卡地图名称</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="178">
+    <row customHeight="true" ht="23" r="178">
       <c r="A178" s="2">
         <v>80001</v>
       </c>
-      <c r="B178" s="3" t="str">
+      <c r="B178" s="1" t="str">
         <v>Item_Name_20001</v>
       </c>
-      <c r="C178" s="3" t="str">
+      <c r="C178" s="1" t="str">
         <v>Smoke</v>
       </c>
       <c r="D178" s="2" t="str">
         <v>烟雾</v>
       </c>
-      <c r="E178" s="3" t="str">
+      <c r="E178" s="1" t="str">
         <v>拖尾道具</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="179">
+    <row customHeight="true" ht="23" r="179">
       <c r="A179" s="2">
         <v>80002</v>
       </c>
-      <c r="B179" s="3" t="str">
+      <c r="B179" s="1" t="str">
         <v>Item_Name_20002</v>
       </c>
-      <c r="C179" s="3" t="str">
+      <c r="C179" s="1" t="str">
         <v>Aura</v>
       </c>
       <c r="D179" s="2" t="str">
         <v>紫电</v>
       </c>
-      <c r="E179" s="3" t="str">
+      <c r="E179" s="1" t="str">
         <v>拖尾道具</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="180">
+    <row customHeight="true" ht="23" r="180">
       <c r="A180" s="2">
         <v>80003</v>
       </c>
-      <c r="B180" s="3" t="str">
+      <c r="B180" s="1" t="str">
         <v>Item_Name_20003</v>
       </c>
-      <c r="C180" s="3" t="str">
+      <c r="C180" s="1" t="str">
         <v>Thunder</v>
       </c>
       <c r="D180" s="2" t="str">
         <v>雷霆</v>
       </c>
-      <c r="E180" s="3" t="str">
+      <c r="E180" s="1" t="str">
         <v>拖尾道具</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="181">
+    <row customHeight="true" ht="23" r="181">
       <c r="A181" s="2">
         <v>80004</v>
       </c>
-      <c r="B181" s="3" t="str">
+      <c r="B181" s="1" t="str">
         <v>Item_Name_20004</v>
       </c>
-      <c r="C181" s="3" t="str">
+      <c r="C181" s="1" t="str">
         <v>Breeze</v>
       </c>
       <c r="D181" s="2" t="str">
         <v>清风</v>
       </c>
-      <c r="E181" s="3" t="str">
+      <c r="E181" s="1" t="str">
         <v>拖尾道具</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="182">
+    <row customHeight="true" ht="23" r="182">
       <c r="A182" s="2">
         <v>80005</v>
       </c>
-      <c r="B182" s="3" t="str">
+      <c r="B182" s="1" t="str">
         <v>Item_Name_20005</v>
       </c>
-      <c r="C182" s="3" t="str">
+      <c r="C182" s="1" t="str">
         <v>Rainbow</v>
       </c>
       <c r="D182" s="2" t="str">
         <v>虹彩</v>
       </c>
-      <c r="E182" s="3" t="str">
+      <c r="E182" s="1" t="str">
         <v>拖尾道具</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="183">
+    <row customHeight="true" ht="23" r="183">
       <c r="A183" s="2">
         <v>80006</v>
       </c>
-      <c r="B183" s="3" t="str">
+      <c r="B183" s="1" t="str">
         <v>Item_Name_20006</v>
       </c>
-      <c r="C183" s="3" t="str">
+      <c r="C183" s="1" t="str">
         <v>Dream</v>
       </c>
       <c r="D183" s="2" t="str">
         <v>梦幻</v>
       </c>
-      <c r="E183" s="3" t="str">
+      <c r="E183" s="1" t="str">
         <v>拖尾道具</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="184">
+    <row customHeight="true" ht="23" r="184">
       <c r="A184" s="2">
         <v>80007</v>
       </c>
-      <c r="B184" s="3" t="str">
+      <c r="B184" s="1" t="str">
         <v>Item_Name_30001</v>
       </c>
-      <c r="C184" s="3" t="str">
+      <c r="C184" s="1" t="str">
         <v>Gentle Senpai</v>
       </c>
-      <c r="D184" s="3" t="str">
+      <c r="D184" s="1" t="str">
         <v>温柔学姐</v>
       </c>
       <c r="E184" s="2" t="str">
         <v>套装名称</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="185">
+    <row customHeight="true" ht="23" r="185">
       <c r="A185" s="2">
         <v>80008</v>
       </c>
-      <c r="B185" s="3" t="str">
+      <c r="B185" s="1" t="str">
         <v>Item_Name_30002</v>
       </c>
-      <c r="C185" s="3" t="str">
+      <c r="C185" s="1" t="str">
         <v>Discipline Member</v>
       </c>
       <c r="D185" s="2" t="str">
@@ -4146,14 +4123,14 @@
         <v>套装名称</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="186">
+    <row customHeight="true" ht="23" r="186">
       <c r="A186" s="2">
         <v>80009</v>
       </c>
-      <c r="B186" s="3" t="str">
+      <c r="B186" s="1" t="str">
         <v>Item_Name_30003</v>
       </c>
-      <c r="C186" s="3" t="str">
+      <c r="C186" s="1" t="str">
         <v>Bad Girl</v>
       </c>
       <c r="D186" s="2" t="str">
@@ -4163,14 +4140,14 @@
         <v>套装名称</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="187">
+    <row customHeight="true" ht="23" r="187">
       <c r="A187" s="2">
         <v>80010</v>
       </c>
-      <c r="B187" s="3" t="str">
+      <c r="B187" s="1" t="str">
         <v>Item_Name_30004</v>
       </c>
-      <c r="C187" s="3" t="str">
+      <c r="C187" s="1" t="str">
         <v>Korean Girl</v>
       </c>
       <c r="D187" s="2" t="str">
@@ -4180,14 +4157,14 @@
         <v>套装名称</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="188">
+    <row customHeight="true" ht="23" r="188">
       <c r="A188" s="2">
         <v>80011</v>
       </c>
-      <c r="B188" s="3" t="str">
+      <c r="B188" s="1" t="str">
         <v>Item_Name_30005</v>
       </c>
-      <c r="C188" s="3" t="str">
+      <c r="C188" s="1" t="str">
         <v>Cute School Girl</v>
       </c>
       <c r="D188" s="2" t="str">
@@ -4197,14 +4174,14 @@
         <v>套装名称</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="189">
+    <row customHeight="true" ht="23" r="189">
       <c r="A189" s="2">
         <v>80012</v>
       </c>
-      <c r="B189" s="3" t="str">
+      <c r="B189" s="1" t="str">
         <v>Item_Name_30006</v>
       </c>
-      <c r="C189" s="3" t="str">
+      <c r="C189" s="1" t="str">
         <v>Fantasy Girl</v>
       </c>
       <c r="D189" s="2" t="str">
@@ -4214,14 +4191,14 @@
         <v>套装名称</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="190">
+    <row customHeight="true" ht="23" r="190">
       <c r="A190" s="2">
         <v>80013</v>
       </c>
-      <c r="B190" s="3" t="str">
+      <c r="B190" s="1" t="str">
         <v>Item_Name_30007</v>
       </c>
-      <c r="C190" s="3" t="str">
+      <c r="C190" s="1" t="str">
         <v>Gentle Senior</v>
       </c>
       <c r="D190" s="2" t="str">
@@ -4231,14 +4208,14 @@
         <v>套装名称</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="191">
+    <row customHeight="true" ht="23" r="191">
       <c r="A191" s="2">
         <v>80014</v>
       </c>
-      <c r="B191" s="3" t="str">
+      <c r="B191" s="1" t="str">
         <v>Item_Name_30008</v>
       </c>
-      <c r="C191" s="3" t="str">
+      <c r="C191" s="1" t="str">
         <v>Bad Boy</v>
       </c>
       <c r="D191" s="2" t="str">
@@ -4248,116 +4225,116 @@
         <v>套装名称</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="192">
+    <row customHeight="true" ht="23" r="192">
       <c r="A192" s="2">
         <v>80015</v>
       </c>
-      <c r="B192" s="3" t="str">
+      <c r="B192" s="1" t="str">
         <v>Item_Name_30009</v>
       </c>
-      <c r="C192" s="3" t="str">
+      <c r="C192" s="1" t="str">
         <v>Cheerleader</v>
       </c>
-      <c r="D192" s="3" t="str">
+      <c r="D192" s="1" t="str">
         <v>啦啦队长</v>
       </c>
       <c r="E192" s="2" t="str">
         <v>套装名称</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="193">
+    <row customHeight="true" ht="23" r="193">
       <c r="A193" s="2">
         <v>80016</v>
       </c>
-      <c r="B193" s="3" t="str">
+      <c r="B193" s="1" t="str">
         <v>Item_Name_30010</v>
       </c>
-      <c r="C193" s="3" t="str">
+      <c r="C193" s="1" t="str">
         <v>Art Student</v>
       </c>
-      <c r="D193" s="3" t="str">
+      <c r="D193" s="1" t="str">
         <v>艺术生</v>
       </c>
       <c r="E193" s="2" t="str">
         <v>套装名称</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="194">
+    <row customHeight="true" ht="23" r="194">
       <c r="A194" s="2">
         <v>80017</v>
       </c>
-      <c r="B194" s="3" t="str">
+      <c r="B194" s="1" t="str">
         <v>Item_Name_30011</v>
       </c>
-      <c r="C194" s="3" t="str">
+      <c r="C194" s="1" t="str">
         <v>Anime Girl</v>
       </c>
-      <c r="D194" s="3" t="str">
+      <c r="D194" s="1" t="str">
         <v>二次元少女</v>
       </c>
       <c r="E194" s="2" t="str">
         <v>套装名称</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="195">
+    <row customHeight="true" ht="23" r="195">
       <c r="A195" s="2">
         <v>80018</v>
       </c>
-      <c r="B195" s="3" t="str">
+      <c r="B195" s="1" t="str">
         <v>Item_Name_30012</v>
       </c>
-      <c r="C195" s="3" t="str">
+      <c r="C195" s="1" t="str">
         <v>English Teacher</v>
       </c>
-      <c r="D195" s="3" t="str">
+      <c r="D195" s="1" t="str">
         <v>英语老师</v>
       </c>
       <c r="E195" s="2" t="str">
         <v>套装名称</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="196">
+    <row customHeight="true" ht="23" r="196">
       <c r="A196" s="2">
         <v>80019</v>
       </c>
-      <c r="B196" s="3" t="str">
+      <c r="B196" s="1" t="str">
         <v>Item_Name_30013</v>
       </c>
-      <c r="C196" s="3" t="str">
+      <c r="C196" s="1" t="str">
         <v>Justice Boy</v>
       </c>
-      <c r="D196" s="3" t="str">
+      <c r="D196" s="1" t="str">
         <v>正义少年</v>
       </c>
       <c r="E196" s="2" t="str">
         <v>套装名称</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="197">
+    <row customHeight="true" ht="23" r="197">
       <c r="A197" s="2">
         <v>80020</v>
       </c>
-      <c r="B197" s="3" t="str">
+      <c r="B197" s="1" t="str">
         <v>Item_Name_30014</v>
       </c>
-      <c r="C197" s="3" t="str">
+      <c r="C197" s="1" t="str">
         <v>Trendy Girl</v>
       </c>
-      <c r="D197" s="3" t="str">
+      <c r="D197" s="1" t="str">
         <v>潮流少女</v>
       </c>
       <c r="E197" s="2" t="str">
         <v>套装名称</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="198">
+    <row customHeight="true" ht="23" r="198">
       <c r="A198" s="2">
         <v>80021</v>
       </c>
-      <c r="B198" s="3" t="str">
+      <c r="B198" s="1" t="str">
         <v>Item_Name_30015</v>
       </c>
-      <c r="C198" s="3" t="str">
+      <c r="C198" s="1" t="str">
         <v>Student President</v>
       </c>
       <c r="D198" s="2" t="str">
@@ -4367,14 +4344,14 @@
         <v>套装名称</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="199">
+    <row customHeight="true" ht="23" r="199">
       <c r="A199" s="2">
         <v>80022</v>
       </c>
-      <c r="B199" s="3" t="str">
+      <c r="B199" s="1" t="str">
         <v>Item_Name_30016</v>
       </c>
-      <c r="C199" s="3" t="str">
+      <c r="C199" s="1" t="str">
         <v>Female Teacher</v>
       </c>
       <c r="D199" s="2" t="str">
@@ -4384,14 +4361,14 @@
         <v>套装名称</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="200">
+    <row customHeight="true" ht="23" r="200">
       <c r="A200" s="2">
         <v>80023</v>
       </c>
-      <c r="B200" s="3" t="str">
+      <c r="B200" s="1" t="str">
         <v>Item_Name_30017</v>
       </c>
-      <c r="C200" s="3" t="str">
+      <c r="C200" s="1" t="str">
         <v>Class Monitor</v>
       </c>
       <c r="D200" s="2" t="str">
@@ -4401,14 +4378,14 @@
         <v>套装名称</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="201">
+    <row customHeight="true" ht="23" r="201">
       <c r="A201" s="2">
         <v>80024</v>
       </c>
-      <c r="B201" s="3" t="str">
+      <c r="B201" s="1" t="str">
         <v>Item_Name_30018</v>
       </c>
-      <c r="C201" s="3" t="str">
+      <c r="C201" s="1" t="str">
         <v>Sea Girl</v>
       </c>
       <c r="D201" s="2" t="str">
@@ -4418,14 +4395,14 @@
         <v>套装名称</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="202">
+    <row customHeight="true" ht="23" r="202">
       <c r="A202" s="2">
         <v>80025</v>
       </c>
-      <c r="B202" s="3" t="str">
+      <c r="B202" s="1" t="str">
         <v>Item_Name_30019</v>
       </c>
-      <c r="C202" s="3" t="str">
+      <c r="C202" s="1" t="str">
         <v>Girl Next Door</v>
       </c>
       <c r="D202" s="2" t="str">
@@ -4435,14 +4412,14 @@
         <v>套装名称</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="203">
+    <row customHeight="true" ht="23" r="203">
       <c r="A203" s="2">
         <v>80026</v>
       </c>
-      <c r="B203" s="3" t="str">
+      <c r="B203" s="1" t="str">
         <v>Item_Name_30020</v>
       </c>
-      <c r="C203" s="3" t="str">
+      <c r="C203" s="1" t="str">
         <v>Fitness Coach</v>
       </c>
       <c r="D203" s="2" t="str">
@@ -4452,14 +4429,14 @@
         <v>套装名称</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="204">
+    <row customHeight="true" ht="23" r="204">
       <c r="A204" s="2">
         <v>80027</v>
       </c>
-      <c r="B204" s="3" t="str">
+      <c r="B204" s="1" t="str">
         <v>Item_Name_30021</v>
       </c>
-      <c r="C204" s="3" t="str">
+      <c r="C204" s="1" t="str">
         <v>Elegant Girl</v>
       </c>
       <c r="D204" s="2" t="str">
@@ -4469,14 +4446,14 @@
         <v>套装名称</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="205">
+    <row customHeight="true" ht="23" r="205">
       <c r="A205" s="2">
         <v>80028</v>
       </c>
-      <c r="B205" s="3" t="str">
+      <c r="B205" s="1" t="str">
         <v>Item_Name_30022</v>
       </c>
-      <c r="C205" s="3" t="str">
+      <c r="C205" s="1" t="str">
         <v>The Adventurer</v>
       </c>
       <c r="D205" s="2" t="str">
@@ -4486,14 +4463,14 @@
         <v>套装名称</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="206">
+    <row customHeight="true" ht="23" r="206">
       <c r="A206" s="2">
         <v>80029</v>
       </c>
-      <c r="B206" s="3" t="str">
+      <c r="B206" s="1" t="str">
         <v>Item_Name_30023</v>
       </c>
-      <c r="C206" s="3" t="str">
+      <c r="C206" s="1" t="str">
         <v>Chinese Student</v>
       </c>
       <c r="D206" s="2" t="str">
@@ -4503,14 +4480,14 @@
         <v>套装名称</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="207">
+    <row customHeight="true" ht="23" r="207">
       <c r="A207" s="2">
         <v>80030</v>
       </c>
-      <c r="B207" s="3" t="str">
+      <c r="B207" s="1" t="str">
         <v>Item_Name_30024</v>
       </c>
-      <c r="C207" s="3" t="str">
+      <c r="C207" s="1" t="str">
         <v>Cocoa Girl</v>
       </c>
       <c r="D207" s="2" t="str">
@@ -4520,14 +4497,14 @@
         <v>套装名称</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="208">
+    <row customHeight="true" ht="23" r="208">
       <c r="A208" s="2">
         <v>80031</v>
       </c>
-      <c r="B208" s="3" t="str">
+      <c r="B208" s="1" t="str">
         <v>Item_Name_30025</v>
       </c>
-      <c r="C208" s="3" t="str">
+      <c r="C208" s="1" t="str">
         <v>Cat Shopkeeper</v>
       </c>
       <c r="D208" s="2" t="str">
@@ -4537,14 +4514,14 @@
         <v>套装名称</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="209">
+    <row customHeight="true" ht="23" r="209">
       <c r="A209" s="2">
         <v>80032</v>
       </c>
-      <c r="B209" s="3" t="str">
+      <c r="B209" s="1" t="str">
         <v>Item_Name_30026</v>
       </c>
-      <c r="C209" s="3" t="str">
+      <c r="C209" s="1" t="str">
         <v>Sweet Maid</v>
       </c>
       <c r="D209" s="2" t="str">
@@ -4554,14 +4531,14 @@
         <v>套装名称</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="210">
+    <row customHeight="true" ht="23" r="210">
       <c r="A210" s="2">
         <v>80033</v>
       </c>
-      <c r="B210" s="3" t="str">
+      <c r="B210" s="1" t="str">
         <v>Item_Name_30027</v>
       </c>
-      <c r="C210" s="3" t="str">
+      <c r="C210" s="1" t="str">
         <v>Cat-eared Maid</v>
       </c>
       <c r="D210" s="2" t="str">
@@ -4571,14 +4548,14 @@
         <v>套装名称</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="211">
+    <row customHeight="true" ht="23" r="211">
       <c r="A211" s="2">
         <v>80034</v>
       </c>
-      <c r="B211" s="3" t="str">
+      <c r="B211" s="1" t="str">
         <v>Item_Name_30028</v>
       </c>
-      <c r="C211" s="3" t="str">
+      <c r="C211" s="1" t="str">
         <v>Girl Idol</v>
       </c>
       <c r="D211" s="2" t="str">
@@ -4588,14 +4565,14 @@
         <v>套装名称</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="212">
+    <row customHeight="true" ht="23" r="212">
       <c r="A212" s="2">
         <v>80035</v>
       </c>
-      <c r="B212" s="3" t="str">
+      <c r="B212" s="1" t="str">
         <v>Item_Name_30029</v>
       </c>
-      <c r="C212" s="3" t="str">
+      <c r="C212" s="1" t="str">
         <v>Christmas Girl</v>
       </c>
       <c r="D212" s="2" t="str">
@@ -4605,14 +4582,14 @@
         <v>套装名称</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="213">
+    <row customHeight="true" ht="23" r="213">
       <c r="A213" s="2">
         <v>80036</v>
       </c>
-      <c r="B213" s="3" t="str">
+      <c r="B213" s="1" t="str">
         <v>Item_Name_20007</v>
       </c>
-      <c r="C213" s="3" t="str">
+      <c r="C213" s="1" t="str">
         <v>Flame</v>
       </c>
       <c r="D213" s="2" t="str">
@@ -4622,14 +4599,14 @@
         <v>拖尾道具</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="214">
+    <row customHeight="true" ht="23" r="214">
       <c r="A214" s="2">
         <v>80037</v>
       </c>
-      <c r="B214" s="3" t="str">
+      <c r="B214" s="1" t="str">
         <v>Item_Name_20008</v>
       </c>
-      <c r="C214" s="3" t="str">
+      <c r="C214" s="1" t="str">
         <v>Witch</v>
       </c>
       <c r="D214" s="2" t="str">
@@ -4639,14 +4616,14 @@
         <v>拖尾道具</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="215">
+    <row customHeight="true" ht="23" r="215">
       <c r="A215" s="2">
         <v>80038</v>
       </c>
-      <c r="B215" s="3" t="str">
+      <c r="B215" s="1" t="str">
         <v>Item_Name_20009</v>
       </c>
-      <c r="C215" s="3" t="str">
+      <c r="C215" s="1" t="str">
         <v>Knight</v>
       </c>
       <c r="D215" s="2" t="str">
@@ -4656,14 +4633,14 @@
         <v>拖尾道具</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="216">
+    <row customHeight="true" ht="23" r="216">
       <c r="A216" s="2">
         <v>80039</v>
       </c>
-      <c r="B216" s="3" t="str">
+      <c r="B216" s="1" t="str">
         <v>Item_Name_20010</v>
       </c>
-      <c r="C216" s="3" t="str">
+      <c r="C216" s="1" t="str">
         <v>Demon</v>
       </c>
       <c r="D216" s="2" t="str">
@@ -4673,14 +4650,14 @@
         <v>拖尾道具</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="217">
+    <row customHeight="true" ht="23" r="217">
       <c r="A217" s="2">
         <v>80040</v>
       </c>
-      <c r="B217" s="3" t="str">
+      <c r="B217" s="1" t="str">
         <v>Item_Name_20011</v>
       </c>
-      <c r="C217" s="3" t="str">
+      <c r="C217" s="1" t="str">
         <v>Devil</v>
       </c>
       <c r="D217" s="2" t="str">
@@ -4690,751 +4667,751 @@
         <v>拖尾道具</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="218">
-      <c r="A218" s="8">
+    <row customHeight="true" ht="23" r="218">
+      <c r="A218" s="4">
         <v>90001</v>
       </c>
-      <c r="B218" s="14" t="str">
+      <c r="B218" s="7" t="str">
         <v>Chat_chat_1</v>
       </c>
-      <c r="C218" s="8" t="str">
+      <c r="C218" s="4" t="str">
         <v>I am {1}!</v>
       </c>
-      <c r="D218" s="30" t="str">
+      <c r="D218" s="7" t="str">
         <v>我是{1}~</v>
       </c>
-      <c r="E218" s="8"/>
-    </row>
-    <row customHeight="true" ht="21" r="219">
-      <c r="A219" s="8">
+      <c r="E218" s="4"/>
+    </row>
+    <row customHeight="true" ht="23" r="219">
+      <c r="A219" s="4">
         <v>90002</v>
       </c>
-      <c r="B219" s="14" t="str">
+      <c r="B219" s="7" t="str">
         <v>Chat_chat_2</v>
       </c>
-      <c r="C219" s="8" t="str">
+      <c r="C219" s="4" t="str">
         <v>Who is the murderer?</v>
       </c>
-      <c r="D219" s="13" t="str">
+      <c r="D219" s="8" t="str">
         <v>凶手是谁？</v>
       </c>
-      <c r="E219" s="8" t="str"/>
-    </row>
-    <row customHeight="true" ht="21" r="220">
-      <c r="A220" s="8">
+      <c r="E219" s="4" t="str"/>
+    </row>
+    <row customHeight="true" ht="23" r="220">
+      <c r="A220" s="4">
         <v>90003</v>
       </c>
-      <c r="B220" s="14" t="str">
+      <c r="B220" s="7" t="str">
         <v>Chat_chat_3</v>
       </c>
-      <c r="C220" s="8" t="str">
+      <c r="C220" s="4" t="str">
         <v>Help!</v>
       </c>
-      <c r="D220" s="13" t="str">
+      <c r="D220" s="8" t="str">
         <v>救命！</v>
       </c>
-      <c r="E220" s="8" t="str"/>
-    </row>
-    <row customHeight="true" ht="21" r="221">
-      <c r="A221" s="8">
+      <c r="E220" s="4" t="str"/>
+    </row>
+    <row customHeight="true" ht="23" r="221">
+      <c r="A221" s="4">
         <v>90004</v>
       </c>
-      <c r="B221" s="14" t="str">
+      <c r="B221" s="7" t="str">
         <v>Chat_chat_4</v>
       </c>
-      <c r="C221" s="8" t="str">
+      <c r="C221" s="4" t="str">
         <v>Thank you!</v>
       </c>
-      <c r="D221" s="13" t="str">
+      <c r="D221" s="8" t="str">
         <v>谢谢你！</v>
       </c>
-      <c r="E221" s="8" t="str"/>
-    </row>
-    <row customHeight="true" ht="21" r="222">
-      <c r="A222" s="8">
+      <c r="E221" s="4" t="str"/>
+    </row>
+    <row customHeight="true" ht="23" r="222">
+      <c r="A222" s="4">
         <v>90005</v>
       </c>
-      <c r="B222" s="14" t="str">
+      <c r="B222" s="7" t="str">
         <v>Chat_chat_5</v>
       </c>
-      <c r="C222" s="8" t="str">
+      <c r="C222" s="4" t="str">
         <v>Hello!</v>
       </c>
-      <c r="D222" s="9" t="str">
+      <c r="D222" s="5" t="str">
         <v>你好！</v>
       </c>
-      <c r="E222" s="8" t="str"/>
-    </row>
-    <row customHeight="true" ht="21" r="223">
-      <c r="A223" s="8">
+      <c r="E222" s="4" t="str"/>
+    </row>
+    <row customHeight="true" ht="23" r="223">
+      <c r="A223" s="4">
         <v>90006</v>
       </c>
-      <c r="B223" s="14" t="str">
+      <c r="B223" s="7" t="str">
         <v>Chat_chat_6</v>
       </c>
-      <c r="C223" s="8" t="str">
+      <c r="C223" s="4" t="str">
         <v>Don't kill me :(((</v>
       </c>
-      <c r="D223" s="13" t="str">
+      <c r="D223" s="8" t="str">
         <v>别刀我QAQ</v>
       </c>
-      <c r="E223" s="8" t="str">
+      <c r="E223" s="4" t="str">
         <v>QAQ希望也本地化一下，换成欧美比较熟悉的颜表情</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="224">
-      <c r="A224" s="8">
+    <row customHeight="true" ht="23" r="224">
+      <c r="A224" s="4">
         <v>90007</v>
       </c>
-      <c r="B224" s="14" t="str">
+      <c r="B224" s="7" t="str">
         <v>Chat_chat_7</v>
       </c>
-      <c r="C224" s="8" t="str">
+      <c r="C224" s="4" t="str">
         <v>Stay away from me!</v>
       </c>
-      <c r="D224" s="13" t="str">
+      <c r="D224" s="8" t="str">
         <v>退！退！退！</v>
       </c>
-      <c r="E224" s="8"/>
-    </row>
-    <row customHeight="true" ht="21" r="225">
-      <c r="A225" s="8">
+      <c r="E224" s="4"/>
+    </row>
+    <row customHeight="true" ht="23" r="225">
+      <c r="A225" s="4">
         <v>90008</v>
       </c>
-      <c r="B225" s="14" t="str">
+      <c r="B225" s="7" t="str">
         <v>Chat_chat_8</v>
       </c>
-      <c r="C225" s="8" t="str">
+      <c r="C225" s="4" t="str">
         <v>Perfect!</v>
       </c>
-      <c r="D225" s="13" t="str">
+      <c r="D225" s="8" t="str">
         <v>满分操作~</v>
       </c>
-      <c r="E225" s="8" t="str"/>
-    </row>
-    <row customHeight="true" ht="21" r="226">
-      <c r="A226" s="8">
+      <c r="E225" s="4" t="str"/>
+    </row>
+    <row customHeight="true" ht="23" r="226">
+      <c r="A226" s="4">
         <v>90009</v>
       </c>
-      <c r="B226" s="14" t="str">
+      <c r="B226" s="7" t="str">
         <v>Chat_chat_9</v>
       </c>
-      <c r="C226" s="8" t="str">
+      <c r="C226" s="4" t="str">
         <v>Show time!</v>
       </c>
-      <c r="D226" s="13" t="str">
+      <c r="D226" s="8" t="str">
         <v>我要开始表演了~</v>
       </c>
-      <c r="E226" s="8" t="str"/>
-    </row>
-    <row customHeight="true" ht="21" r="227">
-      <c r="A227" s="8">
+      <c r="E226" s="4" t="str"/>
+    </row>
+    <row customHeight="true" ht="23" r="227">
+      <c r="A227" s="4">
         <v>90010</v>
       </c>
-      <c r="B227" s="21" t="str">
+      <c r="B227" s="19" t="str">
         <v>Text_Content_20042</v>
       </c>
-      <c r="C227" s="8" t="str">
+      <c r="C227" s="4" t="str">
         <v>Student</v>
       </c>
-      <c r="D227" s="8" t="str">
+      <c r="D227" s="4" t="str">
         <v>学生</v>
       </c>
-      <c r="E227" s="8" t="str"/>
-    </row>
-    <row customHeight="true" ht="21" r="228">
-      <c r="A228" s="8">
+      <c r="E227" s="4" t="str"/>
+    </row>
+    <row customHeight="true" ht="23" r="228">
+      <c r="A228" s="4">
         <v>90011</v>
       </c>
-      <c r="B228" s="21" t="str">
+      <c r="B228" s="19" t="str">
         <v>Text_Content_20043</v>
       </c>
-      <c r="C228" s="8" t="str">
+      <c r="C228" s="4" t="str">
         <v>Detective</v>
       </c>
-      <c r="D228" s="8" t="str">
+      <c r="D228" s="4" t="str">
         <v>侦探</v>
       </c>
-      <c r="E228" s="8" t="str"/>
-    </row>
-    <row customHeight="true" ht="21" r="229">
-      <c r="A229" s="8">
+      <c r="E228" s="4" t="str"/>
+    </row>
+    <row customHeight="true" ht="23" r="229">
+      <c r="A229" s="4">
         <v>90012</v>
       </c>
-      <c r="B229" s="21" t="str">
+      <c r="B229" s="19" t="str">
         <v>Text_Content_20044</v>
       </c>
-      <c r="C229" s="8" t="str">
+      <c r="C229" s="4" t="str">
         <v>Murderer</v>
       </c>
-      <c r="D229" s="8" t="str">
+      <c r="D229" s="4" t="str">
         <v>凶手</v>
       </c>
-      <c r="E229" s="8" t="str"/>
-    </row>
-    <row customHeight="true" ht="21" r="230">
-      <c r="A230" s="8">
+      <c r="E229" s="4" t="str"/>
+    </row>
+    <row customHeight="true" ht="23" r="230">
+      <c r="A230" s="4">
         <v>90013</v>
       </c>
-      <c r="B230" s="21" t="str">
+      <c r="B230" s="19" t="str">
         <v>Text_Content_20036</v>
       </c>
-      <c r="C230" s="8" t="str">
+      <c r="C230" s="4" t="str">
         <v>1. The Murderer can attack in two ways
 2. In melee attack mode, you will auto wave knife when aproaching other players.
 3. An aming sign will appear when you are nearby a target. Tap the sign to attack.</v>
       </c>
-      <c r="D230" s="8" t="str">
+      <c r="D230" s="4" t="str">
         <v>1.凶手有近战穿刺、远程飞刀两种方式，可以自由切换
 2.在近战状态下，靠近其他玩家并面向他们，就可以自动挥刀击杀
 3.在远程状态下，附近有可攻击的目标时，会出现瞄准标志，点击标志即可扔出飞刀</v>
       </c>
-      <c r="E230" s="8" t="str">
+      <c r="E230" s="4" t="str">
         <v>文本长度尽量和中文一致</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="231">
-      <c r="A231" s="8">
+    <row customHeight="true" ht="23" r="231">
+      <c r="A231" s="4">
         <v>90014</v>
       </c>
-      <c r="B231" s="21" t="str">
+      <c r="B231" s="19" t="str">
         <v>Text_Content_20037</v>
       </c>
-      <c r="C231" s="8" t="str">
+      <c r="C231" s="4" t="str">
         <v>1. The detective can shoot in two ways.
 2. An aming sign will appear when holding the gun nearby a target. Tap the sign to fire.
 3. Also, you can tap any position to fire at.</v>
       </c>
-      <c r="D231" s="8" t="str">
+      <c r="D231" s="4" t="str">
         <v>1.侦探可以开枪进行射击，有两种射击方法
 2.在持枪状态下，附近有可攻击目标时，会出现瞄准标志，点击标志即可发射子弹
 3.除此之外，持枪状态下点击任意位置都可以发射子弹哦~</v>
       </c>
-      <c r="E231" s="8" t="str">
+      <c r="E231" s="4" t="str">
         <v>文本长度尽量和中文一致</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="232">
-      <c r="A232" s="8">
+    <row customHeight="true" ht="23" r="232">
+      <c r="A232" s="4">
         <v>90015</v>
       </c>
-      <c r="B232" s="21" t="str">
+      <c r="B232" s="19" t="str">
         <v>Text_Content_20038</v>
       </c>
-      <c r="C232" s="8" t="str">
+      <c r="C232" s="4" t="str">
         <v>1. If you are a murderer/detective, try not to reveal your identity.
 2. Don't trust anyone who tries to get close to you, they are dangerous, always stay alert.
 3. If you are a student, try to survive!</v>
       </c>
-      <c r="D232" s="8" t="str">
+      <c r="D232" s="4" t="str">
         <v>1.如果你是杀手/侦探，请尽量不要暴露自己的身份
 2.不要相信任何试图靠近你的人，他们很危险，时刻保持警惕
 3.假如你是平民，那么努力活下来吧</v>
       </c>
-      <c r="E232" s="8" t="str">
+      <c r="E232" s="4" t="str">
         <v>文本长度尽量和中文一致</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="233">
-      <c r="A233" s="8">
+    <row customHeight="true" ht="23" r="233">
+      <c r="A233" s="4">
         <v>90016</v>
       </c>
-      <c r="B233" s="21" t="str">
+      <c r="B233" s="19" t="str">
         <v>Text_Content_20039</v>
       </c>
-      <c r="C233" s="8" t="str">
+      <c r="C233" s="4" t="str">
         <v>Murderer Tutorial</v>
       </c>
-      <c r="D233" s="8" t="str">
+      <c r="D233" s="4" t="str">
         <v>凶手教学</v>
       </c>
-      <c r="E233" s="8" t="str"/>
-    </row>
-    <row customHeight="true" ht="21" r="234">
-      <c r="A234" s="8">
+      <c r="E233" s="4" t="str"/>
+    </row>
+    <row customHeight="true" ht="23" r="234">
+      <c r="A234" s="4">
         <v>90017</v>
       </c>
-      <c r="B234" s="21" t="str">
+      <c r="B234" s="19" t="str">
         <v>Text_Content_20040</v>
       </c>
-      <c r="C234" s="8" t="str">
+      <c r="C234" s="4" t="str">
         <v>Detective Tutorial</v>
       </c>
-      <c r="D234" s="8" t="str">
+      <c r="D234" s="4" t="str">
         <v>侦探教学</v>
       </c>
-      <c r="E234" s="8" t="str"/>
-    </row>
-    <row customHeight="true" ht="21" r="235">
-      <c r="A235" s="8">
+      <c r="E234" s="4" t="str"/>
+    </row>
+    <row customHeight="true" ht="23" r="235">
+      <c r="A235" s="4">
         <v>90018</v>
       </c>
-      <c r="B235" s="21" t="str">
+      <c r="B235" s="19" t="str">
         <v>Text_Content_20041</v>
       </c>
-      <c r="C235" s="8" t="str">
+      <c r="C235" s="4" t="str">
         <v>Tips</v>
       </c>
-      <c r="D235" s="8" t="str">
+      <c r="D235" s="4" t="str">
         <v>温馨提示</v>
       </c>
-      <c r="E235" s="8" t="str"/>
-    </row>
-    <row customHeight="true" ht="21" r="236">
-      <c r="A236" s="8">
+      <c r="E235" s="4" t="str"/>
+    </row>
+    <row customHeight="true" ht="23" r="236">
+      <c r="A236" s="4">
         <v>90019</v>
       </c>
-      <c r="B236" s="9" t="str">
+      <c r="B236" s="5" t="str">
         <v>Tips_Content_20009</v>
       </c>
-      <c r="C236" s="8" t="str">
+      <c r="C236" s="4" t="str">
         <v>The murderer defeated you.</v>
       </c>
-      <c r="D236" s="22" t="str">
+      <c r="D236" s="36" t="str">
         <v>凶手淘汰了你</v>
       </c>
-      <c r="E236" s="8" t="str"/>
-    </row>
-    <row customHeight="true" ht="21" r="237">
-      <c r="A237" s="8">
+      <c r="E236" s="4" t="str"/>
+    </row>
+    <row customHeight="true" ht="23" r="237">
+      <c r="A237" s="4">
         <v>90020</v>
       </c>
-      <c r="B237" s="9" t="str">
+      <c r="B237" s="5" t="str">
         <v>Tips_Content_20010</v>
       </c>
-      <c r="C237" s="8" t="str">
+      <c r="C237" s="4" t="str">
         <v>Wrong target, you're eliminated.</v>
       </c>
-      <c r="D237" s="22" t="str">
+      <c r="D237" s="36" t="str">
         <v>目标错误，你被淘汰了</v>
       </c>
-      <c r="E237" s="8" t="str"/>
-    </row>
-    <row customHeight="true" ht="21" r="238">
-      <c r="A238" s="8">
+      <c r="E237" s="4" t="str"/>
+    </row>
+    <row customHeight="true" ht="23" r="238">
+      <c r="A238" s="4">
         <v>90021</v>
       </c>
-      <c r="B238" s="9" t="str">
+      <c r="B238" s="5" t="str">
         <v>Tips_Content_20011</v>
       </c>
-      <c r="C238" s="8" t="str">
+      <c r="C238" s="4" t="str">
         <v>You have been eliminated by the detective.</v>
       </c>
-      <c r="D238" s="22" t="str">
+      <c r="D238" s="36" t="str">
         <v>已被正义的警探消灭</v>
       </c>
-      <c r="E238" s="8" t="str"/>
-    </row>
-    <row customHeight="true" ht="21" r="239">
-      <c r="A239" s="8">
+      <c r="E238" s="4" t="str"/>
+    </row>
+    <row customHeight="true" ht="23" r="239">
+      <c r="A239" s="4">
         <v>90022</v>
       </c>
-      <c r="B239" s="9" t="str">
+      <c r="B239" s="5" t="str">
         <v>Text_Content_12027</v>
       </c>
-      <c r="C239" s="8" t="str">
+      <c r="C239" s="4" t="str">
         <v>Power Store</v>
       </c>
-      <c r="D239" s="8" t="str">
+      <c r="D239" s="4" t="str">
         <v>能力商店</v>
       </c>
-      <c r="E239" s="8" t="str"/>
-    </row>
-    <row customHeight="true" ht="21" r="240">
-      <c r="A240" s="8">
+      <c r="E239" s="4" t="str"/>
+    </row>
+    <row customHeight="true" ht="23" r="240">
+      <c r="A240" s="4">
         <v>90023</v>
       </c>
-      <c r="B240" s="9" t="str">
+      <c r="B240" s="5" t="str">
         <v>Text_Content_12028</v>
       </c>
-      <c r="C240" s="8" t="str">
+      <c r="C240" s="4" t="str">
         <v>Power Details</v>
       </c>
-      <c r="D240" s="8" t="str">
+      <c r="D240" s="4" t="str">
         <v>能力详情</v>
       </c>
-      <c r="E240" s="8" t="str"/>
-    </row>
-    <row customHeight="true" ht="21" r="241">
-      <c r="A241" s="8">
+      <c r="E240" s="4" t="str"/>
+    </row>
+    <row customHeight="true" ht="23" r="241">
+      <c r="A241" s="4">
         <v>90024</v>
       </c>
-      <c r="B241" s="9" t="str">
+      <c r="B241" s="5" t="str">
         <v>Text_Content_12029</v>
       </c>
-      <c r="C241" s="8" t="str">
+      <c r="C241" s="4" t="str">
         <v>Equip</v>
       </c>
-      <c r="D241" s="8" t="str">
+      <c r="D241" s="4" t="str">
         <v>装备</v>
       </c>
-      <c r="E241" s="8" t="str">
+      <c r="E241" s="4" t="str">
         <v>动词</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="242">
-      <c r="A242" s="8">
+    <row customHeight="true" ht="23" r="242">
+      <c r="A242" s="4">
         <v>90025</v>
       </c>
-      <c r="B242" s="9" t="str">
+      <c r="B242" s="5" t="str">
         <v>Text_Content_12030</v>
       </c>
-      <c r="C242" s="8" t="str">
+      <c r="C242" s="4" t="str">
         <v>Remove</v>
       </c>
-      <c r="D242" s="8" t="str">
+      <c r="D242" s="4" t="str">
         <v>卸下</v>
       </c>
-      <c r="E242" s="8" t="str"/>
-    </row>
-    <row customHeight="true" ht="21" r="243">
-      <c r="A243" s="8">
+      <c r="E242" s="4" t="str"/>
+    </row>
+    <row customHeight="true" ht="23" r="243">
+      <c r="A243" s="4">
         <v>90026</v>
       </c>
-      <c r="B243" s="9" t="str">
+      <c r="B243" s="5" t="str">
         <v>Text_Content_12031</v>
       </c>
-      <c r="C243" s="8" t="str">
+      <c r="C243" s="4" t="str">
         <v>Coin Purchase</v>
       </c>
-      <c r="D243" s="8" t="str">
+      <c r="D243" s="4" t="str">
         <v>金币购买</v>
       </c>
-      <c r="E243" s="8" t="str"/>
-    </row>
-    <row customHeight="true" ht="21" r="244">
-      <c r="A244" s="8">
+      <c r="E243" s="4" t="str"/>
+    </row>
+    <row customHeight="true" ht="23" r="244">
+      <c r="A244" s="4">
         <v>90027</v>
       </c>
-      <c r="B244" s="9" t="str">
+      <c r="B244" s="5" t="str">
         <v>Text_Content_12032</v>
       </c>
-      <c r="C244" s="8" t="str">
+      <c r="C244" s="4" t="str">
         <v>Diamond Purchase</v>
       </c>
-      <c r="D244" s="8" t="str">
+      <c r="D244" s="4" t="str">
         <v>钻石购买</v>
       </c>
-      <c r="E244" s="8" t="str"/>
-    </row>
-    <row customHeight="true" ht="21" r="245">
-      <c r="A245" s="8">
+      <c r="E244" s="4" t="str"/>
+    </row>
+    <row customHeight="true" ht="23" r="245">
+      <c r="A245" s="4">
         <v>90028</v>
       </c>
-      <c r="B245" s="9" t="str">
+      <c r="B245" s="5" t="str">
         <v>Text_Content_12033</v>
       </c>
-      <c r="C245" s="8" t="str">
+      <c r="C245" s="4" t="str">
         <v>Equipped</v>
       </c>
-      <c r="D245" s="8" t="str">
+      <c r="D245" s="4" t="str">
         <v>装备中</v>
       </c>
-      <c r="E245" s="8" t="str">
+      <c r="E245" s="4" t="str">
         <v>指“已装备”</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="246">
-      <c r="A246" s="8">
+    <row customHeight="true" ht="23" r="246">
+      <c r="A246" s="4">
         <v>90029</v>
       </c>
-      <c r="B246" s="9" t="str">
+      <c r="B246" s="5" t="str">
         <v>Text_Content_12034</v>
       </c>
-      <c r="C246" s="8" t="str">
+      <c r="C246" s="4" t="str">
         <v>Owned</v>
       </c>
-      <c r="D246" s="8" t="str">
+      <c r="D246" s="4" t="str">
         <v>已拥有</v>
       </c>
-      <c r="E246" s="8" t="str"/>
-    </row>
-    <row customHeight="true" ht="21" r="247">
-      <c r="A247" s="8">
+      <c r="E246" s="4" t="str"/>
+    </row>
+    <row customHeight="true" ht="23" r="247">
+      <c r="A247" s="4">
         <v>90030</v>
       </c>
-      <c r="B247" s="9" t="str">
+      <c r="B247" s="5" t="str">
         <v>Tips_Content_10011</v>
       </c>
-      <c r="C247" s="8" t="str">
+      <c r="C247" s="4" t="str">
         <v>Purchase successfully!</v>
       </c>
-      <c r="D247" s="8" t="str">
+      <c r="D247" s="4" t="str">
         <v>购买成功</v>
       </c>
-      <c r="E247" s="8" t="str"/>
-    </row>
-    <row customHeight="true" ht="21" r="248">
-      <c r="A248" s="8">
+      <c r="E247" s="4" t="str"/>
+    </row>
+    <row customHeight="true" ht="23" r="248">
+      <c r="A248" s="4">
         <v>90031</v>
       </c>
-      <c r="B248" s="9" t="str">
+      <c r="B248" s="5" t="str">
         <v>Tips_Content_10012</v>
       </c>
-      <c r="C248" s="8" t="str">
+      <c r="C248" s="4" t="str">
         <v>Purchase failed</v>
       </c>
-      <c r="D248" s="3" t="str">
+      <c r="D248" s="1" t="str">
         <v>货币不足，再攒攒吧~</v>
       </c>
-      <c r="E248" s="8" t="str"/>
-    </row>
-    <row customHeight="true" ht="21" r="249">
-      <c r="A249" s="8">
+      <c r="E248" s="4" t="str"/>
+    </row>
+    <row customHeight="true" ht="23" r="249">
+      <c r="A249" s="4">
         <v>90032</v>
       </c>
-      <c r="B249" s="25" t="str">
+      <c r="B249" s="27" t="str">
         <v>SkillShop_Name_10001</v>
       </c>
-      <c r="C249" s="8" t="str">
+      <c r="C249" s="4" t="str">
         <v>Killer Pace</v>
       </c>
-      <c r="D249" s="25" t="str">
+      <c r="D249" s="27" t="str">
         <v>杀手步伐</v>
       </c>
-      <c r="E249" s="8" t="str">
+      <c r="E249" s="4" t="str">
         <v>杀手的特殊能力名称</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="250">
-      <c r="A250" s="8">
+    <row customHeight="true" ht="23" r="250">
+      <c r="A250" s="4">
         <v>90033</v>
       </c>
-      <c r="B250" s="25" t="str">
+      <c r="B250" s="27" t="str">
         <v>SkillShop_Name_10002</v>
       </c>
-      <c r="C250" s="8" t="str">
+      <c r="C250" s="4" t="str">
         <v>Quick Throw</v>
       </c>
-      <c r="D250" s="25" t="str">
+      <c r="D250" s="27" t="str">
         <v>快速投掷</v>
       </c>
-      <c r="E250" s="8" t="str">
+      <c r="E250" s="4" t="str">
         <v>杀手的特殊能力名称</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="251">
-      <c r="A251" s="8">
+    <row customHeight="true" ht="23" r="251">
+      <c r="A251" s="4">
         <v>90034</v>
       </c>
-      <c r="B251" s="25" t="str">
+      <c r="B251" s="27" t="str">
         <v>SkillShop_Name_10003</v>
       </c>
-      <c r="C251" s="8" t="str">
+      <c r="C251" s="4" t="str">
         <v>Explosive Knife</v>
       </c>
-      <c r="D251" s="25" t="str">
+      <c r="D251" s="27" t="str">
         <v>爆炸飞刀</v>
       </c>
-      <c r="E251" s="8" t="str">
+      <c r="E251" s="4" t="str">
         <v>杀手的特殊能力名称</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="252">
-      <c r="A252" s="8">
+    <row customHeight="true" ht="23" r="252">
+      <c r="A252" s="4">
         <v>90035</v>
       </c>
-      <c r="B252" s="25" t="str">
+      <c r="B252" s="27" t="str">
         <v>SkillShop_Description_10001</v>
       </c>
-      <c r="C252" s="8" t="str">
+      <c r="C252" s="4" t="str">
         <v>[Murderer's Passive Ability] When you pull out your knife, your movement speed is increased by 10% faster than usual.</v>
       </c>
-      <c r="D252" s="25" t="str">
+      <c r="D252" s="27" t="str">
         <v>【杀手被动能力】
 当你掏出你的刀时，你的移动速度会比平时更快，提升10％</v>
       </c>
-      <c r="E252" s="8" t="str"/>
-    </row>
-    <row customHeight="true" ht="21" r="253">
-      <c r="A253" s="8">
+      <c r="E252" s="4" t="str"/>
+    </row>
+    <row customHeight="true" ht="23" r="253">
+      <c r="A253" s="4">
         <v>90036</v>
       </c>
-      <c r="B253" s="25" t="str">
+      <c r="B253" s="27" t="str">
         <v>SkillShop_Description_10002</v>
       </c>
-      <c r="C253" s="8" t="str">
+      <c r="C253" s="4" t="str">
         <v>[Murderer's Passive Ability] Now your thrown flying knives will fly faster, boosted by 100%!</v>
       </c>
-      <c r="D253" s="25" t="str">
+      <c r="D253" s="27" t="str">
         <v>【杀手被动能力】
 现在你扔出的飞刀会飞得更快，提升100％</v>
       </c>
-      <c r="E253" s="8" t="str"/>
-    </row>
-    <row customHeight="true" ht="21" r="254">
-      <c r="A254" s="8">
+      <c r="E253" s="4" t="str"/>
+    </row>
+    <row customHeight="true" ht="23" r="254">
+      <c r="A254" s="4">
         <v>90037</v>
       </c>
-      <c r="B254" s="25" t="str">
+      <c r="B254" s="27" t="str">
         <v>SkillShop_Description_10003</v>
       </c>
-      <c r="C254" s="8" t="str">
+      <c r="C254" s="4" t="str">
         <v>[Murderer Passive Ability] When your throwing knife hits a target, instead of immediately dealing damage to the target, it plants a bomb. The bomb will explode after a small delay and deal damage to players around a certain range.</v>
       </c>
-      <c r="D254" s="25" t="str">
+      <c r="D254" s="27" t="str">
         <v>【杀手被动能力】
 当你的飞刀命中目标时，不会立即对目标造成伤害，而是在目标处埋下一颗炸弹，延迟一小段时间后会爆炸，并对周围一定范围内的玩家同样造成伤害</v>
       </c>
-      <c r="E254" s="8" t="str"/>
-    </row>
-    <row customHeight="true" ht="21" r="255">
-      <c r="A255" s="8">
+      <c r="E254" s="4" t="str"/>
+    </row>
+    <row customHeight="true" ht="23" r="255">
+      <c r="A255" s="4">
         <v>90038</v>
       </c>
-      <c r="B255" s="9" t="str">
+      <c r="B255" s="5" t="str">
         <v>Shop_Name_40001</v>
       </c>
-      <c r="C255" s="8" t="str">
+      <c r="C255" s="4" t="str">
         <v>Skibidi Rainbow Toilet</v>
       </c>
-      <c r="D255" s="10" t="str">
+      <c r="D255" s="6" t="str">
         <v>彩虹马桶人</v>
       </c>
-      <c r="E255" s="8" t="str">
+      <c r="E255" s="4" t="str">
         <v>马桶人是外网热梗，就叫skibidi toilet</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="256">
-      <c r="A256" s="8">
+    <row customHeight="true" ht="23" r="256">
+      <c r="A256" s="4">
         <v>90039</v>
       </c>
-      <c r="B256" s="9" t="str">
+      <c r="B256" s="5" t="str">
         <v>Shop_Name_40002</v>
       </c>
-      <c r="C256" s="8" t="str">
+      <c r="C256" s="4" t="str">
         <v>Skibidi Princess Toilet</v>
       </c>
-      <c r="D256" s="10" t="str">
+      <c r="D256" s="6" t="str">
         <v>公主马桶人</v>
       </c>
-      <c r="E256" s="8" t="str">
+      <c r="E256" s="4" t="str">
         <v>马桶人是外网热梗，就叫skibidi toilet</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="257">
-      <c r="A257" s="8">
+    <row customHeight="true" ht="23" r="257">
+      <c r="A257" s="4">
         <v>90040</v>
       </c>
-      <c r="B257" s="9" t="str">
+      <c r="B257" s="5" t="str">
         <v>Shop_Name_40003</v>
       </c>
-      <c r="C257" s="8" t="str">
+      <c r="C257" s="4" t="str">
         <v>Skibidi Space Toilet</v>
       </c>
-      <c r="D257" s="10" t="str">
+      <c r="D257" s="6" t="str">
         <v>太空马桶人</v>
       </c>
-      <c r="E257" s="8" t="str">
+      <c r="E257" s="4" t="str">
         <v>马桶人是外网热梗，就叫skibidi toilet</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="258">
-      <c r="A258" s="8">
+    <row customHeight="true" ht="23" r="258">
+      <c r="A258" s="4">
         <v>90041</v>
       </c>
-      <c r="B258" s="9" t="str">
+      <c r="B258" s="5" t="str">
         <v>Shop_Name_40004</v>
       </c>
-      <c r="C258" s="8" t="str">
+      <c r="C258" s="4" t="str">
         <v>Skibidi Spider Toilet</v>
       </c>
-      <c r="D258" s="10" t="str">
+      <c r="D258" s="6" t="str">
         <v>蜘蛛马桶人</v>
       </c>
-      <c r="E258" s="8" t="str">
+      <c r="E258" s="4" t="str">
         <v>马桶人是外网热梗，就叫skibidi toilet</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="259">
-      <c r="A259" s="8">
+    <row customHeight="true" ht="23" r="259">
+      <c r="A259" s="4">
         <v>90042</v>
       </c>
-      <c r="B259" s="9" t="str">
+      <c r="B259" s="5" t="str">
         <v>Shop_Name_40005</v>
       </c>
-      <c r="C259" s="8" t="str">
+      <c r="C259" s="4" t="str">
         <v>Cameraman</v>
       </c>
-      <c r="D259" s="10" t="str">
+      <c r="D259" s="6" t="str">
         <v>监控人</v>
       </c>
-      <c r="E259" s="8" t="str">
+      <c r="E259" s="4" t="str">
         <v>马桶人系列，就叫这个</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="260">
-      <c r="A260" s="8">
+    <row customHeight="true" ht="23" r="260">
+      <c r="A260" s="4">
         <v>90043</v>
       </c>
-      <c r="B260" s="9" t="str">
+      <c r="B260" s="5" t="str">
         <v>Shop_Name_40006</v>
       </c>
-      <c r="C260" s="8" t="str">
+      <c r="C260" s="4" t="str">
         <v>Speakerman</v>
       </c>
-      <c r="D260" s="10" t="str">
+      <c r="D260" s="6" t="str">
         <v>音响人</v>
       </c>
-      <c r="E260" s="8" t="str">
+      <c r="E260" s="4" t="str">
         <v>马桶人系列，就叫这个</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="261">
-      <c r="A261" s="8">
+    <row customHeight="true" ht="23" r="261">
+      <c r="A261" s="4">
         <v>90044</v>
       </c>
-      <c r="B261" s="9" t="str">
+      <c r="B261" s="5" t="str">
         <v>Shop_Name_40007</v>
       </c>
-      <c r="C261" s="8" t="str">
+      <c r="C261" s="4" t="str">
         <v>TV Man</v>
       </c>
-      <c r="D261" s="10" t="str">
+      <c r="D261" s="6" t="str">
         <v>电视人</v>
       </c>
-      <c r="E261" s="8" t="str">
+      <c r="E261" s="4" t="str">
         <v>马桶人系列，就叫这个</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="262">
-      <c r="A262" s="8">
+    <row customHeight="true" ht="23" r="262">
+      <c r="A262" s="4">
         <v>90045</v>
       </c>
-      <c r="B262" s="9" t="str">
+      <c r="B262" s="5" t="str">
         <v>Shop_Name_40008</v>
       </c>
-      <c r="C262" s="8" t="str">
+      <c r="C262" s="4" t="str">
         <v>Cartoon Speakerman</v>
       </c>
-      <c r="D262" s="10" t="str">
+      <c r="D262" s="6" t="str">
         <v>卡通音响人</v>
       </c>
-      <c r="E262" s="8" t="str"/>
-    </row>
-    <row customHeight="true" ht="21" r="263">
-      <c r="A263" s="8">
+      <c r="E262" s="4" t="str"/>
+    </row>
+    <row customHeight="true" ht="23" r="263">
+      <c r="A263" s="4">
         <v>90046</v>
       </c>
-      <c r="B263" s="9" t="str">
+      <c r="B263" s="5" t="str">
         <v>Shop_Name_40009</v>
       </c>
-      <c r="C263" s="8" t="str">
+      <c r="C263" s="4" t="str">
         <v>Cartoon TVman</v>
       </c>
-      <c r="D263" s="10" t="str">
+      <c r="D263" s="6" t="str">
         <v>卡通电视人</v>
       </c>
-      <c r="E263" s="8" t="str"/>
-    </row>
-    <row customHeight="true" ht="21" r="264">
-      <c r="A264" s="35">
+      <c r="E263" s="4" t="str"/>
+    </row>
+    <row customHeight="true" ht="23" r="264">
+      <c r="A264" s="34">
         <v>90047</v>
       </c>
-      <c r="B264" s="36" t="str">
+      <c r="B264" s="35" t="str">
         <v>Text_Content_10005</v>
       </c>
-      <c r="C264" s="8" t="str">
+      <c r="C264" s="4" t="str">
         <v>This update:
 1. New [Skibidi Toilet VS Cameraman] series of pendants, welcome to the shop!
 2. New [Power Store], the configuration of the murderer's special abilities is now available!
@@ -5442,7 +5419,7 @@
 4. Adjusted the lobby and level scenes to improve performance.
 5. New reset button, try to tap it when the camera stucks!</v>
       </c>
-      <c r="D264" s="35" t="str">
+      <c r="D264" s="34" t="str">
         <v>本次更新：
 1.新增【马桶人VS监控人】系列挂件，欢迎大家去商店选购~
 2.新增【能力商店】，开放杀手局内特殊能力的配置
@@ -5450,529 +5427,529 @@
 4.调整大厅及关卡场景，提升性能
 5.新增还原按钮，镜头卡住的时候点一下试试吧</v>
       </c>
-      <c r="E264" s="35" t="str">
+      <c r="E264" s="34" t="str">
         <v>马桶人是外网热梗，就叫skibidi toilet</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="265">
-      <c r="A265" s="32">
+    <row customHeight="true" ht="23" r="265">
+      <c r="A265" s="12">
         <v>90048</v>
       </c>
       <c r="B265" s="33" t="str">
         <v>Tips_Content_10013</v>
       </c>
-      <c r="C265" s="8" t="str">
+      <c r="C265" s="4" t="str">
         <v>A player fails to enter the scene, the game will restart.</v>
       </c>
-      <c r="D265" s="32" t="str">
+      <c r="D265" s="12" t="str">
         <v>有玩家进入场景失败，对局将重新开始</v>
       </c>
-      <c r="E265" s="32" t="str"/>
-    </row>
-    <row customHeight="true" ht="21" r="266">
-      <c r="A266" s="32">
+      <c r="E265" s="12" t="str"/>
+    </row>
+    <row customHeight="true" ht="23" r="266">
+      <c r="A266" s="12">
         <v>90049</v>
       </c>
-      <c r="B266" s="32" t="str">
+      <c r="B266" s="12" t="str">
         <v>Text_Content_10006</v>
       </c>
-      <c r="C266" s="3" t="str">
+      <c r="C266" s="1" t="str">
         <v>Jump</v>
       </c>
-      <c r="D266" s="32" t="str">
+      <c r="D266" s="12" t="str">
         <v>跳转</v>
       </c>
-      <c r="E266" s="32" t="str"/>
-    </row>
-    <row customHeight="true" ht="21" r="267">
-      <c r="A267" s="32">
+      <c r="E266" s="12" t="str"/>
+    </row>
+    <row customHeight="true" ht="23" r="267">
+      <c r="A267" s="12">
         <v>90050</v>
       </c>
-      <c r="B267" s="5" t="str">
+      <c r="B267" s="13" t="str">
         <v>Text_Content_20045</v>
       </c>
-      <c r="C267" s="3" t="str">
+      <c r="C267" s="1" t="str">
         <v>Pull out gun</v>
       </c>
       <c r="D267" s="2" t="str">
         <v>掏出手枪</v>
       </c>
-      <c r="E267" s="32"/>
-    </row>
-    <row customHeight="true" ht="21" r="268">
-      <c r="A268" s="32">
+      <c r="E267" s="12"/>
+    </row>
+    <row customHeight="true" ht="23" r="268">
+      <c r="A268" s="12">
         <v>90051</v>
       </c>
-      <c r="B268" s="5" t="str">
+      <c r="B268" s="13" t="str">
         <v>Text_Content_20046</v>
       </c>
-      <c r="C268" s="3" t="str">
+      <c r="C268" s="1" t="str">
         <v>Put away gun</v>
       </c>
       <c r="D268" s="2" t="str">
         <v>收起手枪</v>
       </c>
-      <c r="E268" s="32"/>
-    </row>
-    <row customHeight="true" ht="21" r="269">
-      <c r="A269" s="32">
+      <c r="E268" s="12"/>
+    </row>
+    <row customHeight="true" ht="23" r="269">
+      <c r="A269" s="12">
         <v>90052</v>
       </c>
-      <c r="B269" s="5" t="str">
+      <c r="B269" s="13" t="str">
         <v>Text_Content_20047</v>
       </c>
-      <c r="C269" s="3" t="str">
+      <c r="C269" s="1" t="str">
         <v>Aim Sign</v>
       </c>
       <c r="D269" s="2" t="str">
         <v>准星图标</v>
       </c>
-      <c r="E269" s="32"/>
-    </row>
-    <row customHeight="true" ht="21" r="270">
-      <c r="A270" s="32">
+      <c r="E269" s="12"/>
+    </row>
+    <row customHeight="true" ht="23" r="270">
+      <c r="A270" s="12">
         <v>90053</v>
       </c>
-      <c r="B270" s="5" t="str">
+      <c r="B270" s="13" t="str">
         <v>Text_Content_20048</v>
       </c>
-      <c r="C270" s="3" t="str">
+      <c r="C270" s="1" t="str">
         <v>Melee mode</v>
       </c>
       <c r="D270" s="2" t="str">
         <v>掏出近战匕首</v>
       </c>
-      <c r="E270" s="32"/>
-    </row>
-    <row customHeight="true" ht="21" r="271">
-      <c r="A271" s="32">
+      <c r="E270" s="12"/>
+    </row>
+    <row customHeight="true" ht="23" r="271">
+      <c r="A271" s="12">
         <v>90054</v>
       </c>
-      <c r="B271" s="5" t="str">
+      <c r="B271" s="13" t="str">
         <v>Text_Content_20049</v>
       </c>
-      <c r="C271" s="3" t="str">
+      <c r="C271" s="1" t="str">
         <v>Throwing mode</v>
       </c>
       <c r="D271" s="2" t="str">
         <v>掏出远程飞刀</v>
       </c>
-      <c r="E271" s="32"/>
-    </row>
-    <row customHeight="true" ht="21" r="272">
-      <c r="A272" s="32">
+      <c r="E271" s="12"/>
+    </row>
+    <row customHeight="true" ht="23" r="272">
+      <c r="A272" s="12">
         <v>90055</v>
       </c>
-      <c r="B272" s="5" t="str">
+      <c r="B272" s="13" t="str">
         <v>Text_Content_20050</v>
       </c>
-      <c r="C272" s="3" t="str">
+      <c r="C272" s="1" t="str">
         <v>Put away knife</v>
       </c>
       <c r="D272" s="2" t="str">
         <v>收起武器</v>
       </c>
-      <c r="E272" s="32"/>
-    </row>
-    <row customHeight="true" ht="21" r="273">
-      <c r="A273" s="32">
+      <c r="E272" s="12"/>
+    </row>
+    <row customHeight="true" ht="23" r="273">
+      <c r="A273" s="12">
         <v>90056</v>
       </c>
-      <c r="B273" s="5" t="str">
+      <c r="B273" s="13" t="str">
         <v>Text_Content_20051</v>
       </c>
       <c r="C273" s="2" t="str">
         <v>A</v>
       </c>
-      <c r="D273" s="3" t="str">
+      <c r="D273" s="1" t="str">
         <v>暂无获取途径</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="274">
-      <c r="A274" s="17">
+    <row customHeight="true" ht="23" r="274">
+      <c r="A274" s="25">
         <v>90057</v>
       </c>
-      <c r="B274" s="17" t="str">
+      <c r="B274" s="25" t="str">
         <v>Lottery_Name_10003</v>
       </c>
-      <c r="C274" s="18" t="str">
+      <c r="C274" s="26" t="str">
         <v>Sci-Fi Weapon Box</v>
       </c>
-      <c r="D274" s="18" t="str">
+      <c r="D274" s="26" t="str">
         <v>科幻武器箱</v>
       </c>
-      <c r="E274" s="17"/>
-    </row>
-    <row customHeight="true" ht="21" r="275">
-      <c r="A275" s="17">
+      <c r="E274" s="25"/>
+    </row>
+    <row customHeight="true" ht="23" r="275">
+      <c r="A275" s="25">
         <v>90058</v>
       </c>
-      <c r="B275" s="17" t="str">
+      <c r="B275" s="25" t="str">
         <v>Lottery_Name_10004</v>
       </c>
-      <c r="C275" s="18" t="str">
+      <c r="C275" s="26" t="str">
         <v>Myth Weapon Box</v>
       </c>
-      <c r="D275" s="18" t="str">
+      <c r="D275" s="26" t="str">
         <v>神话武器箱</v>
       </c>
-      <c r="E275" s="17"/>
-    </row>
-    <row customHeight="true" ht="21" r="276">
-      <c r="A276" s="3">
+      <c r="E275" s="25"/>
+    </row>
+    <row customHeight="true" ht="23" r="276">
+      <c r="A276" s="1">
         <v>90059</v>
       </c>
-      <c r="B276" s="11" t="str">
+      <c r="B276" s="22" t="str">
         <v>Weapon_WeaponName_20004</v>
       </c>
       <c r="C276" s="2" t="str">
         <v>Gun of Singularity</v>
       </c>
-      <c r="D276" s="40" t="str">
+      <c r="D276" s="30" t="str">
         <v>奇点之枪</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="277">
-      <c r="A277" s="3">
+    <row customHeight="true" ht="23" r="277">
+      <c r="A277" s="1">
         <v>90060</v>
       </c>
-      <c r="B277" s="11" t="str">
+      <c r="B277" s="22" t="str">
         <v>Weapon_WeaponName_10023</v>
       </c>
-      <c r="C277" s="3" t="str">
+      <c r="C277" s="1" t="str">
         <v>Staff of Imaginary</v>
       </c>
-      <c r="D277" s="24" t="str">
+      <c r="D277" s="23" t="str">
         <v>虚数之杖</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="278">
-      <c r="A278" s="3">
+    <row customHeight="true" ht="23" r="278">
+      <c r="A278" s="1">
         <v>90061</v>
       </c>
-      <c r="B278" s="11" t="str">
+      <c r="B278" s="22" t="str">
         <v>Weapon_WeaponName_10024</v>
       </c>
-      <c r="C278" s="3" t="str">
+      <c r="C278" s="1" t="str">
         <v>Spectral Spear</v>
       </c>
-      <c r="D278" s="12" t="str">
+      <c r="D278" s="21" t="str">
         <v>光谱矛</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="279">
-      <c r="A279" s="3">
+    <row customHeight="true" ht="23" r="279">
+      <c r="A279" s="1">
         <v>90062</v>
       </c>
-      <c r="B279" s="11" t="str">
+      <c r="B279" s="22" t="str">
         <v>Weapon_WeaponName_20005</v>
       </c>
-      <c r="C279" s="3" t="str">
+      <c r="C279" s="1" t="str">
         <v>Anti-Matter Gun</v>
       </c>
-      <c r="D279" s="12" t="str">
+      <c r="D279" s="21" t="str">
         <v>反物质枪</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="280">
-      <c r="A280" s="3">
+    <row customHeight="true" ht="23" r="280">
+      <c r="A280" s="1">
         <v>90063</v>
       </c>
-      <c r="B280" s="11" t="str">
+      <c r="B280" s="22" t="str">
         <v>Weapon_WeaponName_10025</v>
       </c>
-      <c r="C280" s="3" t="str">
+      <c r="C280" s="1" t="str">
         <v>Spectral Blade</v>
       </c>
-      <c r="D280" s="12" t="str">
+      <c r="D280" s="21" t="str">
         <v>光谱剑</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="281">
-      <c r="A281" s="3">
+    <row customHeight="true" ht="23" r="281">
+      <c r="A281" s="1">
         <v>90064</v>
       </c>
-      <c r="B281" s="11" t="str">
+      <c r="B281" s="22" t="str">
         <v>Weapon_WeaponName_10026</v>
       </c>
-      <c r="C281" s="3" t="str">
+      <c r="C281" s="1" t="str">
         <v>Spectral Blade (Ruby)</v>
       </c>
-      <c r="D281" s="12" t="str">
+      <c r="D281" s="21" t="str">
         <v>光谱剑(晶红)</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="282">
-      <c r="A282" s="3">
+    <row customHeight="true" ht="23" r="282">
+      <c r="A282" s="1">
         <v>90065</v>
       </c>
-      <c r="B282" s="11" t="str">
+      <c r="B282" s="22" t="str">
         <v>Weapon_WeaponName_10027</v>
       </c>
-      <c r="C282" s="3" t="str">
+      <c r="C282" s="1" t="str">
         <v>Dagger (Simulacrum)</v>
       </c>
-      <c r="D282" s="12" t="str">
+      <c r="D282" s="21" t="str">
         <v>匕首(模拟)</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="283">
-      <c r="A283" s="3">
+    <row customHeight="true" ht="23" r="283">
+      <c r="A283" s="1">
         <v>90066</v>
       </c>
-      <c r="B283" s="11" t="str">
+      <c r="B283" s="22" t="str">
         <v>Weapon_WeaponName_10028</v>
       </c>
-      <c r="C283" s="3" t="str">
+      <c r="C283" s="1" t="str">
         <v>Saber (Simulacrum)</v>
       </c>
-      <c r="D283" s="12" t="str">
+      <c r="D283" s="21" t="str">
         <v>军刀(模拟)</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="284">
-      <c r="A284" s="3">
+    <row customHeight="true" ht="23" r="284">
+      <c r="A284" s="1">
         <v>90067</v>
       </c>
-      <c r="B284" s="11" t="str">
+      <c r="B284" s="22" t="str">
         <v>Weapon_WeaponName_20006</v>
       </c>
-      <c r="C284" s="3" t="str">
+      <c r="C284" s="1" t="str">
         <v>Revolver (Simulacrum)</v>
       </c>
-      <c r="D284" s="12" t="str">
+      <c r="D284" s="21" t="str">
         <v>左轮(模拟)</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="285">
-      <c r="A285" s="3">
+    <row customHeight="true" ht="23" r="285">
+      <c r="A285" s="1">
         <v>90068</v>
       </c>
-      <c r="B285" s="11" t="str">
+      <c r="B285" s="22" t="str">
         <v>Weapon_WeaponName_20007</v>
       </c>
-      <c r="C285" s="3" t="str">
+      <c r="C285" s="1" t="str">
         <v>SMG (Simulacrum)</v>
       </c>
-      <c r="D285" s="12" t="str">
+      <c r="D285" s="21" t="str">
         <v>冲锋枪(模拟)</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="286">
-      <c r="A286" s="3">
+    <row customHeight="true" ht="23" r="286">
+      <c r="A286" s="1">
         <v>90069</v>
       </c>
-      <c r="B286" s="15" t="str">
+      <c r="B286" s="14" t="str">
         <v>Weapon_WeaponName_10029</v>
       </c>
-      <c r="C286" s="3" t="str">
+      <c r="C286" s="1" t="str">
         <v>Storm Caller (Rune)</v>
       </c>
-      <c r="D286" s="16" t="str">
+      <c r="D286" s="15" t="str">
         <v>唤雷(符文)</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="287">
-      <c r="A287" s="3">
+    <row customHeight="true" ht="23" r="287">
+      <c r="A287" s="1">
         <v>90070</v>
       </c>
-      <c r="B287" s="15" t="str">
+      <c r="B287" s="14" t="str">
         <v>Weapon_WeaponName_20008</v>
       </c>
-      <c r="C287" s="3" t="str">
+      <c r="C287" s="1" t="str">
         <v>Sun Seeker (Rune)</v>
       </c>
-      <c r="D287" s="16" t="str">
+      <c r="D287" s="15" t="str">
         <v>逐日(符文)</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="288">
-      <c r="A288" s="3">
+    <row customHeight="true" ht="23" r="288">
+      <c r="A288" s="1">
         <v>90071</v>
       </c>
-      <c r="B288" s="15" t="str">
+      <c r="B288" s="14" t="str">
         <v>Weapon_WeaponName_10030</v>
       </c>
-      <c r="C288" s="3" t="str">
+      <c r="C288" s="1" t="str">
         <v>Hammer of Thor</v>
       </c>
-      <c r="D288" s="16" t="str">
+      <c r="D288" s="15" t="str">
         <v>雷神之锤</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="289">
-      <c r="A289" s="3">
+    <row customHeight="true" ht="23" r="289">
+      <c r="A289" s="1">
         <v>90072</v>
       </c>
-      <c r="B289" s="15" t="str">
+      <c r="B289" s="14" t="str">
         <v>Weapon_WeaponName_20009</v>
       </c>
-      <c r="C289" s="3" t="str">
+      <c r="C289" s="1" t="str">
         <v>Blunderbuss</v>
       </c>
-      <c r="D289" s="16" t="str">
+      <c r="D289" s="15" t="str">
         <v>火铳</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="290">
-      <c r="A290" s="3">
+    <row customHeight="true" ht="23" r="290">
+      <c r="A290" s="1">
         <v>90073</v>
       </c>
-      <c r="B290" s="15" t="str">
+      <c r="B290" s="14" t="str">
         <v>Weapon_WeaponName_10031</v>
       </c>
-      <c r="C290" s="3" t="str">
+      <c r="C290" s="1" t="str">
         <v>Bonespike Sword (Devine)</v>
       </c>
-      <c r="D290" s="16" t="str">
+      <c r="D290" s="15" t="str">
         <v>骨刺剑(圣)</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="291">
-      <c r="A291" s="3">
+    <row customHeight="true" ht="23" r="291">
+      <c r="A291" s="1">
         <v>90074</v>
       </c>
-      <c r="B291" s="15" t="str">
+      <c r="B291" s="14" t="str">
         <v>Weapon_WeaponName_20010</v>
       </c>
-      <c r="C291" s="3" t="str">
+      <c r="C291" s="1" t="str">
         <v>Revolver (Devine)</v>
       </c>
-      <c r="D291" s="16" t="str">
+      <c r="D291" s="15" t="str">
         <v>左轮(圣)</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="292">
-      <c r="A292" s="3">
+    <row customHeight="true" ht="23" r="292">
+      <c r="A292" s="1">
         <v>90075</v>
       </c>
-      <c r="B292" s="15" t="str">
+      <c r="B292" s="14" t="str">
         <v>Weapon_WeaponName_10032</v>
       </c>
-      <c r="C292" s="3" t="str">
+      <c r="C292" s="1" t="str">
         <v>Bonespike Sword (Love)</v>
       </c>
-      <c r="D292" s="16" t="str">
+      <c r="D292" s="15" t="str">
         <v>骨刺剑(恋)</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="293">
-      <c r="A293" s="3">
+    <row customHeight="true" ht="23" r="293">
+      <c r="A293" s="1">
         <v>90076</v>
       </c>
-      <c r="B293" s="15" t="str">
+      <c r="B293" s="14" t="str">
         <v>Weapon_WeaponName_20011</v>
       </c>
-      <c r="C293" s="3" t="str">
+      <c r="C293" s="1" t="str">
         <v>Revolver (Love)</v>
       </c>
-      <c r="D293" s="16" t="str">
+      <c r="D293" s="15" t="str">
         <v>左轮(恋)</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="294">
-      <c r="A294" s="3">
+    <row customHeight="true" ht="23" r="294">
+      <c r="A294" s="1">
         <v>90077</v>
       </c>
-      <c r="B294" s="15" t="str">
+      <c r="B294" s="14" t="str">
         <v>Weapon_WeaponName_10033</v>
       </c>
-      <c r="C294" s="3" t="str">
+      <c r="C294" s="1" t="str">
         <v>Bonespike Sword (Flame)</v>
       </c>
-      <c r="D294" s="16" t="str">
+      <c r="D294" s="15" t="str">
         <v>骨刺剑(炽)</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="295">
-      <c r="A295" s="3">
+    <row customHeight="true" ht="23" r="295">
+      <c r="A295" s="1">
         <v>90078</v>
       </c>
-      <c r="B295" s="15" t="str">
+      <c r="B295" s="14" t="str">
         <v>Weapon_WeaponName_10034</v>
       </c>
-      <c r="C295" s="3" t="str">
+      <c r="C295" s="1" t="str">
         <v>Bonespike Sword (Frost)</v>
       </c>
-      <c r="D295" s="16" t="str">
+      <c r="D295" s="15" t="str">
         <v>骨刺剑(霜)</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="296">
-      <c r="A296" s="3">
+    <row customHeight="true" ht="23" r="296">
+      <c r="A296" s="1">
         <v>90079</v>
       </c>
-      <c r="B296" s="19" t="str">
+      <c r="B296" s="18" t="str">
         <v>Weapon_WeaponName_10035</v>
       </c>
-      <c r="C296" s="3" t="str">
+      <c r="C296" s="1" t="str">
         <v>Sakura</v>
       </c>
-      <c r="D296" s="39" t="str">
+      <c r="D296" s="31" t="str">
         <v>樱</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="297">
-      <c r="A297" s="3">
+    <row customHeight="true" ht="23" r="297">
+      <c r="A297" s="1">
         <v>90080</v>
       </c>
-      <c r="B297" s="19" t="str">
+      <c r="B297" s="18" t="str">
         <v>Weapon_WeaponName_20012</v>
       </c>
-      <c r="C297" s="3" t="str">
+      <c r="C297" s="1" t="str">
         <v>Butterfly</v>
       </c>
-      <c r="D297" s="39" t="str">
+      <c r="D297" s="31" t="str">
         <v>蝶</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="298">
-      <c r="A298" s="3">
+    <row customHeight="true" ht="23" r="298">
+      <c r="A298" s="1">
         <v>90081</v>
       </c>
-      <c r="B298" s="19" t="str">
+      <c r="B298" s="18" t="str">
         <v>Weapon_WeaponName_10036</v>
       </c>
-      <c r="C298" s="3" t="str">
+      <c r="C298" s="1" t="str">
         <v>Golden Bat (Rainbow)</v>
       </c>
-      <c r="D298" s="20" t="str">
+      <c r="D298" s="17" t="str">
         <v>黄金球棍(虹彩)</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="299">
-      <c r="A299" s="3">
+    <row customHeight="true" ht="23" r="299">
+      <c r="A299" s="1">
         <v>90082</v>
       </c>
-      <c r="B299" s="19" t="str">
+      <c r="B299" s="18" t="str">
         <v>Weapon_WeaponName_20013</v>
       </c>
-      <c r="C299" s="3" t="str">
+      <c r="C299" s="1" t="str">
         <v>Golden Revolver (Rainbow)</v>
       </c>
-      <c r="D299" s="20" t="str">
+      <c r="D299" s="17" t="str">
         <v>黄金左轮(虹彩)</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="300">
-      <c r="A300" s="3">
+    <row customHeight="true" ht="23" r="300">
+      <c r="A300" s="1">
         <v>90083</v>
       </c>
-      <c r="B300" s="37" t="str">
+      <c r="B300" s="3" t="str">
         <v>SkillShop_Name_10004</v>
       </c>
-      <c r="C300" s="3" t="str">
+      <c r="C300" s="1" t="str">
         <v>Ghost's Cloak</v>
       </c>
-      <c r="D300" s="37" t="str">
+      <c r="D300" s="3" t="str">
         <v>幽灵斗篷</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="301">
-      <c r="A301" s="3">
+    <row customHeight="true" ht="23" r="301">
+      <c r="A301" s="1">
         <v>90084</v>
       </c>
-      <c r="B301" s="37" t="str">
+      <c r="B301" s="3" t="str">
         <v>SkillShop_Description_10004</v>
       </c>
       <c r="C301" s="2" t="str">
@@ -5983,1895 +5960,2253 @@
 激活后，你可以隐身5秒，若你在隐身时击败了任何玩家，则会立即结束隐身</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="302">
-      <c r="A302" s="3">
+    <row customHeight="true" ht="23" r="302">
+      <c r="A302" s="1">
         <v>90085</v>
       </c>
-      <c r="B302" s="1" t="str">
+      <c r="B302" s="28" t="str">
         <v>Tips_Content_20012</v>
       </c>
       <c r="C302" s="2" t="str">
-        <v>A</v>
+        <v>Successful exchange</v>
       </c>
       <c r="D302" s="2" t="str">
         <v>兑换成功</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="303">
-      <c r="A303" s="3">
+    <row customHeight="true" ht="23" r="303">
+      <c r="A303" s="1">
         <v>90086</v>
       </c>
-      <c r="B303" s="1" t="str">
+      <c r="B303" s="28" t="str">
         <v>Tips_Content_20013</v>
       </c>
       <c r="C303" s="2" t="str">
-        <v>A</v>
+        <v>Conversion failure</v>
       </c>
       <c r="D303" s="2" t="str">
         <v>兑换失败</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="304">
-      <c r="A304" s="3">
+    <row customHeight="true" ht="23" r="304">
+      <c r="A304" s="1">
         <v>90087</v>
       </c>
-      <c r="B304" s="1" t="str">
+      <c r="B304" s="28" t="str">
         <v>Tips_Content_20014</v>
       </c>
       <c r="C304" s="2" t="str">
-        <v>A</v>
+        <v>Congratulations on activating membership privileges</v>
       </c>
       <c r="D304" s="2" t="str">
         <v>恭喜激活会员特权</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="305">
-      <c r="A305" s="3">
+    <row customHeight="true" ht="23" r="305">
+      <c r="A305" s="1">
         <v>90088</v>
       </c>
-      <c r="B305" s="1" t="str">
+      <c r="B305" s="28" t="str">
         <v>Tips_Content_20015</v>
       </c>
       <c r="C305" s="2" t="str">
-        <v>A</v>
+        <v>Congratulations on activating Super Privilege</v>
       </c>
       <c r="D305" s="2" t="str">
         <v>恭喜激活超级特权</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="306">
-      <c r="A306" s="3">
+    <row customHeight="true" ht="23" r="306">
+      <c r="A306" s="1">
         <v>90089</v>
       </c>
-      <c r="B306" s="1" t="str">
+      <c r="B306" s="28" t="str">
         <v>Tips_Content_20016</v>
       </c>
       <c r="C306" s="2" t="str">
-        <v>A</v>
+        <v>Membership privileges have expired</v>
       </c>
       <c r="D306" s="2" t="str">
         <v>会员特权已到期失效</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="307">
-      <c r="A307" s="3">
+    <row customHeight="true" ht="23" r="307">
+      <c r="A307" s="1">
         <v>90090</v>
       </c>
-      <c r="B307" s="1" t="str">
+      <c r="B307" s="28" t="str">
         <v>Tips_Content_20017</v>
       </c>
       <c r="C307" s="2" t="str">
-        <v>A</v>
+        <v>The super privilege has expired</v>
       </c>
       <c r="D307" s="2" t="str">
         <v>超级特权已到期失效</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="308">
-      <c r="A308" s="3">
+    <row customHeight="true" ht="23" r="308">
+      <c r="A308" s="1">
         <v>90091</v>
       </c>
-      <c r="B308" s="1" t="str">
+      <c r="B308" s="28" t="str">
         <v>Tips_Content_20018</v>
       </c>
       <c r="C308" s="2" t="str">
-        <v>A</v>
+        <v>The number of holdings has reached its limit</v>
       </c>
       <c r="D308" s="2" t="str">
         <v>持有数量已经达到上限</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="309">
-      <c r="A309" s="3">
+    <row customHeight="true" ht="23" r="309">
+      <c r="A309" s="1">
         <v>90092</v>
       </c>
-      <c r="B309" s="5" t="str">
+      <c r="B309" s="13" t="str">
         <v>Text_Content_20052</v>
       </c>
       <c r="C309" s="2" t="str">
-        <v>A</v>
+        <v>Exchange</v>
       </c>
       <c r="D309" s="2" t="str">
         <v>兑换</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="310">
-      <c r="A310" s="3">
+    <row customHeight="true" ht="23" r="310">
+      <c r="A310" s="1">
         <v>90093</v>
       </c>
-      <c r="B310" s="5" t="str">
+      <c r="B310" s="13" t="str">
         <v>Text_Content_20053</v>
       </c>
       <c r="C310" s="2" t="str">
-        <v>A</v>
+        <v>skip</v>
       </c>
       <c r="D310" s="2" t="str">
         <v>跳转</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="311">
-      <c r="A311" s="3">
+    <row customHeight="true" ht="23" r="311">
+      <c r="A311" s="1">
         <v>90094</v>
       </c>
-      <c r="B311" s="5" t="str">
+      <c r="B311" s="13" t="str">
         <v>Text_Content_20054</v>
       </c>
       <c r="C311" s="2" t="str">
-        <v>A</v>
+        <v>Member privileges active</v>
       </c>
       <c r="D311" s="2" t="str">
         <v>会员特权激活中</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="312">
-      <c r="A312" s="3">
+    <row customHeight="true" ht="23" r="312">
+      <c r="A312" s="1">
         <v>90095</v>
       </c>
-      <c r="B312" s="5" t="str">
+      <c r="B312" s="13" t="str">
         <v>Text_Content_20055</v>
       </c>
       <c r="C312" s="2" t="str">
-        <v>A</v>
+        <v>Remaining activation time {0}</v>
       </c>
       <c r="D312" s="2" t="str">
         <v>剩余激活时间{0}</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="313">
-      <c r="A313" s="3">
+    <row customHeight="true" ht="23" r="313">
+      <c r="A313" s="1">
         <v>90096</v>
       </c>
-      <c r="B313" s="5" t="str">
+      <c r="B313" s="13" t="str">
         <v>Text_Content_20056</v>
       </c>
       <c r="C313" s="2" t="str">
-        <v>A</v>
+        <v>Member privileges have not been activated</v>
       </c>
       <c r="D313" s="2" t="str">
         <v>尚未激活会员特权</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="314">
-      <c r="A314" s="3">
+    <row customHeight="true" ht="23" r="314">
+      <c r="A314" s="1">
         <v>90097</v>
       </c>
-      <c r="B314" s="5" t="str">
+      <c r="B314" s="13" t="str">
         <v>Text_Content_20057</v>
       </c>
       <c r="C314" s="2" t="str">
-        <v>A</v>
+        <v>Super privilege has not been activated</v>
       </c>
       <c r="D314" s="2" t="str">
         <v>尚未激活超级特权</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="315">
-      <c r="A315" s="3">
+    <row customHeight="true" ht="23" r="315">
+      <c r="A315" s="1">
         <v>90098</v>
       </c>
-      <c r="B315" s="5" t="str">
+      <c r="B315" s="13" t="str">
         <v>Text_Content_20058</v>
       </c>
       <c r="C315" s="2" t="str">
-        <v>A</v>
+        <v>Remaining activation time {0} days</v>
       </c>
       <c r="D315" s="2" t="str">
         <v>剩余激活时间{0}天</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="316">
-      <c r="A316" s="3">
+    <row customHeight="true" ht="23" r="316">
+      <c r="A316" s="1">
         <v>90099</v>
       </c>
-      <c r="B316" s="5" t="str">
+      <c r="B316" s="13" t="str">
         <v>Text_Content_20059</v>
       </c>
       <c r="C316" s="2" t="str">
-        <v>A</v>
+        <v>Membership privileges</v>
       </c>
       <c r="D316" s="2" t="str">
         <v>会员特权</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="317">
-      <c r="A317" s="3">
+    <row customHeight="true" ht="23" r="317">
+      <c r="A317" s="1">
         <v>90100</v>
       </c>
-      <c r="B317" s="5" t="str">
+      <c r="B317" s="13" t="str">
         <v>Text_Content_20060</v>
       </c>
       <c r="C317" s="2" t="str">
-        <v>A</v>
+        <v>Super privilege</v>
       </c>
       <c r="D317" s="2" t="str">
         <v>超级特权</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="318">
-      <c r="A318" s="3">
+    <row customHeight="true" ht="23" r="318">
+      <c r="A318" s="1">
         <v>90101</v>
       </c>
-      <c r="B318" s="1" t="str">
+      <c r="B318" s="28" t="str">
         <v>Tips_Content_20019</v>
       </c>
       <c r="C318" s="2" t="str">
-        <v>A</v>
+        <v>Congratulations on getting an advertising voucher *1</v>
       </c>
       <c r="D318" s="2" t="str">
         <v>恭喜获得广告券*1</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="319">
-      <c r="A319" s="3">
+    <row customHeight="true" ht="23" r="319">
+      <c r="A319" s="1">
         <v>90102</v>
       </c>
-      <c r="B319" s="3" t="str">
+      <c r="B319" s="1" t="str">
         <v>Item_Name_20012</v>
       </c>
       <c r="C319" s="2" t="str">
-        <v>A</v>
+        <v>Here comes the Tuhao</v>
       </c>
       <c r="D319" s="2" t="str">
         <v>土豪来啦</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="320">
-      <c r="A320" s="3">
+    <row customHeight="true" ht="23" r="320">
+      <c r="A320" s="1">
         <v>90103</v>
       </c>
-      <c r="B320" s="28" t="str">
+      <c r="B320" s="9" t="str">
         <v>SkillShop_Name_10005</v>
       </c>
       <c r="C320" s="2" t="str">
-        <v>A</v>
-      </c>
-      <c r="D320" s="31" t="str">
+        <v>Quick throw
+experience pass</v>
+      </c>
+      <c r="D320" s="32" t="str">
         <v>快速投掷体验券</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="321">
-      <c r="A321" s="3">
+    <row customHeight="true" ht="23" r="321">
+      <c r="A321" s="1">
         <v>90104</v>
       </c>
-      <c r="B321" s="28" t="str">
+      <c r="B321" s="9" t="str">
         <v>SkillShop_Name_10006</v>
       </c>
       <c r="C321" s="2" t="str">
-        <v>A</v>
-      </c>
-      <c r="D321" s="28" t="str">
+        <v>Explosive knife
+experience coupon</v>
+      </c>
+      <c r="D321" s="9" t="str">
         <v>爆炸飞刀体验券</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="322">
-      <c r="A322" s="3">
+    <row customHeight="true" ht="23" r="322">
+      <c r="A322" s="1">
         <v>90105</v>
       </c>
-      <c r="B322" s="28" t="str">
+      <c r="B322" s="9" t="str">
         <v>SkillShop_Name_10007</v>
       </c>
       <c r="C322" s="2" t="str">
-        <v>A</v>
-      </c>
-      <c r="D322" s="6" t="str">
+        <v>Ghost Cloak
+experience pass</v>
+      </c>
+      <c r="D322" s="10" t="str">
         <v>幽灵斗篷体验券</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="323">
-      <c r="A323" s="3">
+    <row customHeight="true" ht="23" r="323">
+      <c r="A323" s="1">
         <v>90106</v>
       </c>
-      <c r="B323" s="28" t="str">
+      <c r="B323" s="9" t="str">
         <v>SkillShop_Description_10005</v>
       </c>
       <c r="C323" s="2" t="str">
-        <v>A</v>
-      </c>
-      <c r="D323" s="25" t="str">
+        <v>【 Killer passivity 】
+The knife you throw will now fly faster, increasing by 100%</v>
+      </c>
+      <c r="D323" s="27" t="str">
         <v>【杀手被动能力】
 现在你扔出的飞刀会飞得更快，提升100％</v>
       </c>
-      <c r="E323" s="3" t="str">
+      <c r="E323" s="1" t="str">
         <v>和上面一样</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="324">
-      <c r="A324" s="3">
+    <row customHeight="true" ht="23" r="324">
+      <c r="A324" s="1">
         <v>90107</v>
       </c>
-      <c r="B324" s="28" t="str">
+      <c r="B324" s="9" t="str">
         <v>SkillShop_Description_10006</v>
       </c>
       <c r="C324" s="2" t="str">
-        <v>A</v>
-      </c>
-      <c r="D324" s="25" t="str">
+        <v>【 Killer passivity 】
+When your throwing knife hits a target, it does not deal immediate damage to the target, but instead plants a bomb at the target, which explodes after a short delay and also deals damage to players within a certain radius</v>
+      </c>
+      <c r="D324" s="27" t="str">
         <v>【杀手被动能力】
 当你的飞刀命中目标时，不会立即对目标造成伤害，而是在目标处埋下一颗炸弹，延迟一小段时间后会爆炸，并对周围一定范围内的玩家同样造成伤害</v>
       </c>
-      <c r="E324" s="3" t="str">
+      <c r="E324" s="1" t="str">
         <v>和上面一样</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="325">
-      <c r="A325" s="3">
+    <row customHeight="true" ht="23" r="325">
+      <c r="A325" s="1">
         <v>90108</v>
       </c>
-      <c r="B325" s="28" t="str">
+      <c r="B325" s="9" t="str">
         <v>SkillShop_Description_10007</v>
       </c>
       <c r="C325" s="2" t="str">
-        <v>A</v>
+        <v>【 Killer initiative 】
+Once activated, you can be invisible for 5 seconds, and if you beat any player while cloaking, the cloaking ends immediately</v>
       </c>
       <c r="D325" s="2" t="str">
         <v>【杀手主动能力】
 激活后，你可以隐身5秒，若你在隐身时击败了任何玩家，则会立即结束隐身</v>
       </c>
-      <c r="E325" s="3" t="str">
+      <c r="E325" s="1" t="str">
         <v>和上面一样</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="326">
-      <c r="A326" s="3">
+    <row customHeight="true" ht="23" r="326">
+      <c r="A326" s="1">
         <v>90109</v>
       </c>
-      <c r="B326" s="1" t="str">
+      <c r="B326" s="28" t="str">
         <v>Tips_Content_20020</v>
       </c>
       <c r="C326" s="2" t="str">
-        <v>A</v>
+        <v>There are not enough golden keys</v>
       </c>
       <c r="D326" s="2" t="str">
         <v>金钥匙数量不足</v>
       </c>
-      <c r="E326" s="3"/>
-    </row>
-    <row customHeight="true" ht="21" r="327">
-      <c r="A327" s="3">
+      <c r="E326" s="1"/>
+    </row>
+    <row customHeight="true" ht="23" r="327">
+      <c r="A327" s="1">
         <v>90110</v>
       </c>
-      <c r="B327" s="1" t="str">
+      <c r="B327" s="28" t="str">
         <v>Tips_Content_20021</v>
       </c>
       <c r="C327" s="2" t="str">
-        <v>A</v>
+        <v>This version does not support large membership</v>
       </c>
       <c r="D327" s="2" t="str">
         <v>这个版本不支持开通大会员</v>
       </c>
-      <c r="E327" s="3"/>
-    </row>
-    <row r="328">
-      <c r="A328" s="3">
+      <c r="E327" s="1"/>
+    </row>
+    <row customHeight="true" ht="21" r="328">
+      <c r="A328" s="1">
         <v>90111</v>
       </c>
-      <c r="B328" s="1" t="str">
+      <c r="B328" s="28" t="str">
         <v>Weapon_WeaponName_10037</v>
       </c>
       <c r="C328" s="2" t="str">
-        <v>A</v>
+        <v>Purple Lightsaber</v>
       </c>
       <c r="D328" s="2" t="str">
         <v>紫光剑</v>
       </c>
-      <c r="E328" s="3"/>
-    </row>
-    <row r="329">
-      <c r="A329" s="3">
+      <c r="E328" s="1"/>
+    </row>
+    <row customHeight="true" ht="21" r="329">
+      <c r="A329" s="1">
         <v>90112</v>
       </c>
-      <c r="B329" s="1" t="str">
+      <c r="B329" s="28" t="str">
         <v>Weapon_WeaponName_20014</v>
       </c>
       <c r="C329" s="2" t="str">
-        <v>A</v>
+        <v>Ice bow and arrow</v>
       </c>
       <c r="D329" s="2" t="str">
         <v>冰寒弓箭</v>
       </c>
-      <c r="E329" s="3"/>
-    </row>
-    <row r="330">
-      <c r="A330" s="3">
+      <c r="E329" s="1"/>
+    </row>
+    <row customHeight="true" ht="21" r="330">
+      <c r="A330" s="1">
         <v>90113</v>
       </c>
-      <c r="B330" s="26" t="str">
+      <c r="B330" s="11" t="str">
         <v>Item_Name_20013</v>
       </c>
       <c r="C330" s="2" t="str">
-        <v>A</v>
-      </c>
-      <c r="D330" s="27" t="str">
+        <v>Firework tail</v>
+      </c>
+      <c r="D330" s="3" t="str">
         <v>烟花拖尾</v>
       </c>
-      <c r="E330" s="3"/>
-    </row>
-    <row r="331">
-      <c r="A331" s="3">
+      <c r="E330" s="1"/>
+    </row>
+    <row customHeight="true" ht="21" r="331">
+      <c r="A331" s="1">
         <v>90114</v>
       </c>
-      <c r="B331" s="26" t="str">
+      <c r="B331" s="11" t="str">
         <v>Item_Name_20014</v>
       </c>
       <c r="C331" s="2" t="str">
-        <v>A</v>
-      </c>
-      <c r="D331" s="27" t="str">
+        <v>Firecracker tail</v>
+      </c>
+      <c r="D331" s="3" t="str">
         <v>爆竹拖尾</v>
       </c>
-      <c r="E331" s="3"/>
-    </row>
-    <row r="332">
-      <c r="A332" s="3">
+      <c r="E331" s="1"/>
+    </row>
+    <row customHeight="true" ht="21" r="332">
+      <c r="A332" s="1">
         <v>90115</v>
       </c>
-      <c r="B332" s="26" t="str">
+      <c r="B332" s="11" t="str">
         <v>Item_Name_20015</v>
       </c>
       <c r="C332" s="2" t="str">
-        <v>A</v>
-      </c>
-      <c r="D332" s="27" t="str">
+        <v>Gift trail</v>
+      </c>
+      <c r="D332" s="3" t="str">
         <v>礼物拖尾</v>
       </c>
-      <c r="E332" s="3"/>
-    </row>
-    <row r="333">
-      <c r="A333" s="3">
+      <c r="E332" s="1"/>
+    </row>
+    <row customHeight="true" ht="21" r="333">
+      <c r="A333" s="1">
         <v>90116</v>
       </c>
-      <c r="B333" s="26" t="str">
+      <c r="B333" s="11" t="str">
         <v>Item_Name_20016</v>
       </c>
       <c r="C333" s="2" t="str">
-        <v>A</v>
-      </c>
-      <c r="D333" s="27" t="str">
+        <v>Candy tail</v>
+      </c>
+      <c r="D333" s="3" t="str">
         <v>糖果拖尾</v>
       </c>
-      <c r="E333" s="3"/>
-    </row>
-    <row r="334">
-      <c r="A334" s="3">
+      <c r="E333" s="1"/>
+    </row>
+    <row customHeight="true" ht="21" r="334">
+      <c r="A334" s="1">
         <v>90117</v>
       </c>
-      <c r="B334" s="26" t="str">
+      <c r="B334" s="11" t="str">
         <v>Item_Name_20017</v>
       </c>
       <c r="C334" s="2" t="str">
-        <v>A</v>
-      </c>
-      <c r="D334" s="27" t="str">
+        <v>Poop trail</v>
+      </c>
+      <c r="D334" s="3" t="str">
         <v>便便拖尾</v>
       </c>
-      <c r="E334" s="3"/>
-    </row>
-    <row r="335">
-      <c r="A335" s="3">
+      <c r="E334" s="1"/>
+    </row>
+    <row customHeight="true" ht="21" r="335">
+      <c r="A335" s="1">
         <v>90118</v>
       </c>
-      <c r="B335" s="29" t="str">
+      <c r="B335" s="1" t="str">
         <v>Shop_Name_40010</v>
       </c>
       <c r="C335" s="2" t="str">
-        <v>A</v>
-      </c>
-      <c r="D335" s="27" t="str" xml:space="preserve">
+        <v>Flame wing</v>
+      </c>
+      <c r="D335" s="3" t="str" xml:space="preserve">
         <v> 火焰翅膀</v>
       </c>
-      <c r="E335" s="3"/>
-    </row>
-    <row r="336">
-      <c r="A336" s="3">
+      <c r="E335" s="1"/>
+    </row>
+    <row customHeight="true" ht="21" r="336">
+      <c r="A336" s="1">
         <v>90119</v>
       </c>
-      <c r="B336" s="29" t="str">
+      <c r="B336" s="1" t="str">
         <v>Shop_Name_40011</v>
       </c>
       <c r="C336" s="2" t="str">
-        <v>A</v>
-      </c>
-      <c r="D336" s="27" t="str">
+        <v>Flame wing</v>
+      </c>
+      <c r="D336" s="3" t="str">
         <v>火焰翅膀</v>
       </c>
-      <c r="E336" s="3"/>
-    </row>
-    <row r="337">
-      <c r="A337" s="3">
+      <c r="E336" s="1"/>
+    </row>
+    <row customHeight="true" ht="21" r="337">
+      <c r="A337" s="1">
         <v>90120</v>
       </c>
-      <c r="B337" s="29" t="str">
+      <c r="B337" s="1" t="str">
         <v>Shop_Name_40012</v>
       </c>
       <c r="C337" s="2" t="str">
-        <v>A</v>
-      </c>
-      <c r="D337" s="27" t="str">
+        <v>Drainage wing</v>
+      </c>
+      <c r="D337" s="3" t="str">
         <v>水系翅膀</v>
       </c>
-      <c r="E337" s="3"/>
-    </row>
-    <row r="338">
-      <c r="A338" s="3">
+      <c r="E337" s="1"/>
+    </row>
+    <row customHeight="true" ht="21" r="338">
+      <c r="A338" s="1">
         <v>90121</v>
       </c>
-      <c r="B338" s="29" t="str">
+      <c r="B338" s="1" t="str">
         <v>Shop_Name_40013</v>
       </c>
       <c r="C338" s="2" t="str">
-        <v>A</v>
-      </c>
-      <c r="D338" s="27" t="str">
+        <v>Dark wing</v>
+      </c>
+      <c r="D338" s="3" t="str">
         <v>黑暗翅膀</v>
       </c>
-      <c r="E338" s="3"/>
-    </row>
-    <row r="339">
-      <c r="A339" s="3">
+      <c r="E338" s="1"/>
+    </row>
+    <row customHeight="true" ht="21" r="339">
+      <c r="A339" s="1">
         <v>90122</v>
       </c>
-      <c r="B339" s="29" t="str">
+      <c r="B339" s="1" t="str">
         <v>Shop_Name_40014</v>
       </c>
       <c r="C339" s="2" t="str">
-        <v>A</v>
-      </c>
-      <c r="D339" s="27" t="str">
+        <v>Devil wing</v>
+      </c>
+      <c r="D339" s="3" t="str">
         <v>恶魔翅膀</v>
       </c>
-      <c r="E339" s="3"/>
-    </row>
-    <row r="340">
-      <c r="A340" s="3">
+      <c r="E339" s="1"/>
+    </row>
+    <row customHeight="true" ht="21" r="340">
+      <c r="A340" s="1">
         <v>90123</v>
       </c>
-      <c r="B340" s="29" t="str">
+      <c r="B340" s="1" t="str">
         <v>Shop_Name_40015</v>
       </c>
       <c r="C340" s="2" t="str">
-        <v>A</v>
-      </c>
-      <c r="D340" s="27" t="str">
+        <v>Ghost wing</v>
+      </c>
+      <c r="D340" s="3" t="str">
         <v>恶灵翅膀</v>
       </c>
-      <c r="E340" s="3"/>
-    </row>
-    <row r="341">
-      <c r="A341" s="3">
+      <c r="E340" s="1"/>
+    </row>
+    <row customHeight="true" ht="21" r="341">
+      <c r="A341" s="1">
         <v>90124</v>
       </c>
-      <c r="B341" s="29" t="str">
+      <c r="B341" s="1" t="str">
         <v>Shop_Name_40016</v>
       </c>
       <c r="C341" s="2" t="str">
-        <v>A</v>
-      </c>
-      <c r="D341" s="27" t="str">
+        <v>Angel wings</v>
+      </c>
+      <c r="D341" s="3" t="str">
         <v>天使翅膀</v>
       </c>
-      <c r="E341" s="3"/>
+      <c r="E341" s="1"/>
     </row>
     <row r="342">
-      <c r="A342" s="3"/>
-      <c r="B342" s="1"/>
-      <c r="C342" s="2"/>
-      <c r="D342" s="2"/>
-      <c r="E342" s="3"/>
+      <c r="A342" s="1">
+        <v>100001</v>
+      </c>
+      <c r="B342" s="1" t="str">
+        <v>Text_FreeCoupon</v>
+      </c>
+      <c r="C342" s="2" t="str">
+        <v>Free Coupon</v>
+      </c>
+      <c r="D342" s="3" t="str">
+        <v>免费领券</v>
+      </c>
+      <c r="E342" s="1"/>
     </row>
     <row r="343">
-      <c r="A343" s="3"/>
-      <c r="B343" s="1"/>
-      <c r="C343" s="2"/>
-      <c r="D343" s="2"/>
-      <c r="E343" s="3"/>
+      <c r="A343" s="1">
+        <v>100002</v>
+      </c>
+      <c r="B343" s="1" t="str">
+        <v>Text_Set</v>
+      </c>
+      <c r="C343" s="2" t="str">
+        <v>Set</v>
+      </c>
+      <c r="D343" s="3" t="str">
+        <v>设置</v>
+      </c>
+      <c r="E343" s="1"/>
     </row>
     <row r="344">
-      <c r="A344" s="3"/>
-      <c r="B344" s="1"/>
-      <c r="C344" s="2"/>
-      <c r="D344" s="2"/>
-      <c r="E344" s="3"/>
+      <c r="A344" s="1">
+        <v>100003</v>
+      </c>
+      <c r="B344" s="1" t="str">
+        <v>Text_Pay</v>
+      </c>
+      <c r="C344" s="2" t="str">
+        <v>Pay</v>
+      </c>
+      <c r="D344" s="3" t="str">
+        <v>充值</v>
+      </c>
+      <c r="E344" s="1"/>
     </row>
     <row r="345">
-      <c r="A345" s="3"/>
-      <c r="B345" s="1"/>
-      <c r="C345" s="2"/>
-      <c r="D345" s="2"/>
-      <c r="E345" s="3"/>
+      <c r="A345" s="1">
+        <v>100004</v>
+      </c>
+      <c r="B345" s="1" t="str">
+        <v>Text_HUD_SkillShop</v>
+      </c>
+      <c r="C345" s="2" t="str">
+        <v>Skill</v>
+      </c>
+      <c r="D345" s="3" t="str">
+        <v>能力商店</v>
+      </c>
+      <c r="E345" s="1"/>
     </row>
     <row r="346">
-      <c r="A346" s="3"/>
-      <c r="B346" s="1"/>
-      <c r="C346" s="2"/>
-      <c r="D346" s="2"/>
-      <c r="E346" s="3"/>
+      <c r="A346" s="1">
+        <v>100005</v>
+      </c>
+      <c r="B346" s="1" t="str">
+        <v>Text_Shop_Skin</v>
+      </c>
+      <c r="C346" s="2" t="str">
+        <v>Skin</v>
+      </c>
+      <c r="D346" s="3" t="str">
+        <v>皮肤</v>
+      </c>
+      <c r="E346" s="1"/>
     </row>
     <row r="347">
-      <c r="A347" s="3"/>
-      <c r="B347" s="1"/>
-      <c r="C347" s="2"/>
-      <c r="D347" s="2"/>
-      <c r="E347" s="3"/>
+      <c r="A347" s="1">
+        <v>100006</v>
+      </c>
+      <c r="B347" s="24" t="str">
+        <v>Text_VoucherExchange</v>
+      </c>
+      <c r="C347" t="str">
+        <v>Voucher Exchange</v>
+      </c>
+      <c r="D347" t="str">
+        <v>广告券兑换</v>
+      </c>
+      <c r="E347" s="1"/>
     </row>
     <row r="348">
-      <c r="A348" s="3"/>
-      <c r="B348" s="1"/>
-      <c r="C348" s="2"/>
-      <c r="D348" s="2"/>
-      <c r="E348" s="3"/>
+      <c r="A348" s="1">
+        <v>100007</v>
+      </c>
+      <c r="B348" s="24" t="str">
+        <v>Text_ASmallPileOfGoldCoins</v>
+      </c>
+      <c r="C348" s="24" t="str">
+        <v>Small Pile Of Gold Coins</v>
+      </c>
+      <c r="D348" t="str">
+        <v>一小堆金币</v>
+      </c>
+      <c r="E348" s="1"/>
     </row>
     <row r="349">
-      <c r="A349" s="3"/>
-      <c r="B349" s="1"/>
-      <c r="C349" s="2"/>
-      <c r="D349" s="2"/>
-      <c r="E349" s="3"/>
+      <c r="A349" s="1">
+        <v>100008</v>
+      </c>
+      <c r="B349" s="24" t="str">
+        <v>Text_APileOfGoldCoins</v>
+      </c>
+      <c r="C349" s="24" t="str">
+        <v>Pile Of Gold Coins</v>
+      </c>
+      <c r="D349" t="str">
+        <v>一大堆金币</v>
+      </c>
+      <c r="E349" s="1"/>
     </row>
     <row r="350">
-      <c r="A350" s="3"/>
-      <c r="B350" s="1"/>
-      <c r="C350" s="2"/>
-      <c r="D350" s="2"/>
-      <c r="E350" s="3"/>
+      <c r="A350" s="1">
+        <v>100009</v>
+      </c>
+      <c r="B350" s="24" t="str">
+        <v>Text_LimitedWeaponSakura</v>
+      </c>
+      <c r="C350" s="24" t="str">
+        <v>Limited Weapon
+Sakura</v>
+      </c>
+      <c r="D350" t="str">
+        <v>限定武器-樱</v>
+      </c>
+      <c r="E350" s="1"/>
     </row>
     <row r="351">
-      <c r="A351" s="3"/>
-      <c r="B351" s="1"/>
-      <c r="C351" s="2"/>
-      <c r="D351" s="2"/>
-      <c r="E351" s="3"/>
+      <c r="A351" s="1">
+        <v>100010</v>
+      </c>
+      <c r="B351" s="24" t="str">
+        <v>Text_LimitedWeaponButterfly</v>
+      </c>
+      <c r="C351" s="24" t="str">
+        <v>Limited Weapon
+Butterfly</v>
+      </c>
+      <c r="D351" t="str">
+        <v>限定武器-蝶</v>
+      </c>
+      <c r="E351" s="1"/>
     </row>
     <row r="352">
-      <c r="A352" s="3"/>
-      <c r="B352" s="1"/>
-      <c r="C352" s="2"/>
-      <c r="D352" s="2"/>
-      <c r="E352" s="3"/>
+      <c r="A352" s="1">
+        <v>100011</v>
+      </c>
+      <c r="B352" s="24" t="str">
+        <v>Text_LimitedWeaponPurpleLightsaber</v>
+      </c>
+      <c r="C352" s="24" t="str">
+        <v>Limited Weapon
+Purple Lightsaber</v>
+      </c>
+      <c r="D352" t="str">
+        <v>限定武器-紫光剑</v>
+      </c>
+      <c r="E352" s="1"/>
     </row>
     <row r="353">
-      <c r="A353" s="3"/>
-      <c r="B353" s="1"/>
-      <c r="C353" s="2"/>
-      <c r="D353" s="2"/>
-      <c r="E353" s="3"/>
+      <c r="A353" s="1">
+        <v>100012</v>
+      </c>
+      <c r="B353" s="24" t="str">
+        <v>Text_LimitedWeaponIceBow</v>
+      </c>
+      <c r="C353" s="24" t="str">
+        <v>Limited Weapon
+Ice Bow</v>
+      </c>
+      <c r="D353" t="str">
+        <v>限定武器-冰寒弓箭</v>
+      </c>
+      <c r="E353" s="1"/>
     </row>
     <row r="354">
-      <c r="A354" s="3"/>
-      <c r="B354" s="1"/>
-      <c r="C354" s="2"/>
-      <c r="D354" s="2"/>
-      <c r="E354" s="3"/>
+      <c r="A354" s="1">
+        <v>100013</v>
+      </c>
+      <c r="B354" s="24" t="str">
+        <v>Text_Expend</v>
+      </c>
+      <c r="C354" s="24" t="str">
+        <v>Expend</v>
+      </c>
+      <c r="D354" t="str">
+        <v>消耗</v>
+      </c>
+      <c r="E354" s="1"/>
     </row>
     <row r="355">
-      <c r="A355" s="3"/>
-      <c r="B355" s="1"/>
-      <c r="C355" s="2"/>
-      <c r="D355" s="2"/>
-      <c r="E355" s="3"/>
+      <c r="A355" s="1">
+        <v>100014</v>
+      </c>
+      <c r="B355" s="1" t="str">
+        <v>Text_KillerPowerAssembly</v>
+      </c>
+      <c r="C355" s="38" t="str">
+        <v>Killer Power Assembly</v>
+      </c>
+      <c r="D355" s="3" t="str">
+        <v>凶手能力装配</v>
+      </c>
+      <c r="E355" s="1"/>
     </row>
     <row r="356">
-      <c r="A356" s="3"/>
-      <c r="B356" s="1"/>
-      <c r="C356" s="2"/>
-      <c r="D356" s="2"/>
-      <c r="E356" s="3"/>
+      <c r="A356" s="1">
+        <v>100015</v>
+      </c>
+      <c r="B356" s="1" t="str">
+        <v>Text_Ads_1</v>
+      </c>
+      <c r="C356" s="37" t="str">
+        <v>Free Reward</v>
+      </c>
+      <c r="D356" s="3" t="str">
+        <v>免费奖励</v>
+      </c>
+      <c r="E356" s="1"/>
     </row>
     <row r="357">
-      <c r="A357" s="3"/>
-      <c r="B357" s="1"/>
-      <c r="C357" s="2"/>
-      <c r="D357" s="2"/>
-      <c r="E357" s="3"/>
+      <c r="A357" s="1">
+        <v>100016</v>
+      </c>
+      <c r="B357" s="16" t="str">
+        <v>Text_Ads_2</v>
+      </c>
+      <c r="C357" s="2" t="str">
+        <v>{0} Failed, Please Try Again</v>
+      </c>
+      <c r="D357" s="3" t="str">
+        <v>{0}失败，请重试</v>
+      </c>
+      <c r="E357" s="1"/>
     </row>
     <row r="358">
-      <c r="A358" s="3"/>
-      <c r="B358" s="1"/>
-      <c r="C358" s="2"/>
-      <c r="D358" s="2"/>
-      <c r="E358" s="3"/>
+      <c r="A358" s="1">
+        <v>100017</v>
+      </c>
+      <c r="B358" s="1" t="str">
+        <v>Text_Ads_3</v>
+      </c>
+      <c r="C358" s="2" t="str">
+        <v>Successful Costume Change</v>
+      </c>
+      <c r="D358" s="3" t="str">
+        <v>换装成功</v>
+      </c>
+      <c r="E358" s="1"/>
     </row>
     <row r="359">
-      <c r="A359" s="3"/>
-      <c r="B359" s="1"/>
-      <c r="C359" s="2"/>
-      <c r="D359" s="2"/>
-      <c r="E359" s="3"/>
+      <c r="A359" s="1">
+        <v>100018</v>
+      </c>
+      <c r="B359" s="16" t="str">
+        <v>Text_Ads_4</v>
+      </c>
+      <c r="C359" s="2" t="str">
+        <v>See Ads For Free Fittings</v>
+      </c>
+      <c r="D359" s="3" t="str">
+        <v>看广告免费试穿</v>
+      </c>
+      <c r="E359" s="1"/>
     </row>
     <row r="360">
-      <c r="A360" s="3"/>
-      <c r="B360" s="1"/>
-      <c r="C360" s="2"/>
-      <c r="D360" s="2"/>
-      <c r="E360" s="3"/>
+      <c r="A360" s="1">
+        <v>100019</v>
+      </c>
+      <c r="B360" s="1" t="str">
+        <v>Text_Ads_5</v>
+      </c>
+      <c r="C360" s="2" t="str">
+        <v>Free Try On</v>
+      </c>
+      <c r="D360" s="3" t="str">
+        <v>免费试穿</v>
+      </c>
+      <c r="E360" s="1"/>
     </row>
     <row r="361">
-      <c r="A361" s="3"/>
-      <c r="B361" s="1"/>
-      <c r="C361" s="2"/>
-      <c r="D361" s="2"/>
-      <c r="E361" s="3"/>
+      <c r="A361" s="1">
+        <v>100020</v>
+      </c>
+      <c r="B361" s="16" t="str">
+        <v>Text_Ads_6</v>
+      </c>
+      <c r="C361" s="2" t="str">
+        <v>Congratulations On Winning {0} Gold</v>
+      </c>
+      <c r="D361" s="3" t="str">
+        <v>恭喜获得{0}金币</v>
+      </c>
+      <c r="E361" s="1"/>
     </row>
     <row r="362">
-      <c r="A362" s="3"/>
-      <c r="B362" s="1"/>
-      <c r="C362" s="2"/>
-      <c r="D362" s="2"/>
-      <c r="E362" s="3"/>
+      <c r="A362" s="1">
+        <v>100021</v>
+      </c>
+      <c r="B362" s="1" t="str">
+        <v>Text_Ads_7</v>
+      </c>
+      <c r="C362" s="2" t="str">
+        <v>See Ads To Receive {0} Coins For Free</v>
+      </c>
+      <c r="D362" s="3" t="str">
+        <v>看广告免费领取{0}金币</v>
+      </c>
+      <c r="E362" s="1"/>
     </row>
     <row r="363">
-      <c r="A363" s="3"/>
-      <c r="B363" s="1"/>
-      <c r="C363" s="2"/>
-      <c r="D363" s="2"/>
-      <c r="E363" s="3"/>
+      <c r="A363" s="1">
+        <v>100022</v>
+      </c>
+      <c r="B363" s="16" t="str">
+        <v>Text_Ads_8</v>
+      </c>
+      <c r="C363" s="2" t="str">
+        <v>Congratulations On Getting {0} Advertising Vouchers</v>
+      </c>
+      <c r="D363" s="3" t="str">
+        <v>恭喜获得{0}张广告券</v>
+      </c>
+      <c r="E363" s="1"/>
     </row>
     <row r="364">
-      <c r="A364" s="3"/>
-      <c r="B364" s="1"/>
-      <c r="C364" s="2"/>
-      <c r="D364" s="2"/>
-      <c r="E364" s="3"/>
+      <c r="A364" s="1">
+        <v>100023</v>
+      </c>
+      <c r="B364" s="1" t="str">
+        <v>Text_Ads_9</v>
+      </c>
+      <c r="C364" s="2" t="str">
+        <v>Receive {0} Free Advertising Vouchers</v>
+      </c>
+      <c r="D364" s="3" t="str">
+        <v>免费领取{0}张广告券</v>
+      </c>
+      <c r="E364" s="1"/>
     </row>
     <row r="365">
-      <c r="A365" s="3"/>
-      <c r="B365" s="1"/>
-      <c r="C365" s="2"/>
-      <c r="D365" s="2"/>
-      <c r="E365" s="3"/>
+      <c r="A365" s="1">
+        <v>100024</v>
+      </c>
+      <c r="B365" s="16" t="str">
+        <v>Text_Ads_10</v>
+      </c>
+      <c r="C365" s="2" t="str">
+        <v>Free Double Gold
+Send Another Advertising Voucher.</v>
+      </c>
+      <c r="D365" s="3" t="str">
+        <v>免费领取双倍金币
+再送一张广告券</v>
+      </c>
+      <c r="E365" s="1"/>
     </row>
     <row r="366">
-      <c r="A366" s="3"/>
-      <c r="B366" s="1"/>
-      <c r="C366" s="2"/>
-      <c r="D366" s="2"/>
-      <c r="E366" s="3"/>
+      <c r="A366" s="1">
+        <v>100025</v>
+      </c>
+      <c r="B366" s="1" t="str">
+        <v>Text_FreeDraw</v>
+      </c>
+      <c r="C366" s="2" t="str">
+        <v>Free draw</v>
+      </c>
+      <c r="D366" s="3" t="str">
+        <v>免费抽奖</v>
+      </c>
+      <c r="E366" s="1"/>
     </row>
     <row r="367">
-      <c r="A367" s="3"/>
-      <c r="B367" s="1"/>
-      <c r="C367" s="2"/>
-      <c r="D367" s="2"/>
-      <c r="E367" s="3"/>
+      <c r="A367" s="1">
+        <v>100026</v>
+      </c>
+      <c r="B367" s="1" t="str">
+        <v>Text_Ranking</v>
+      </c>
+      <c r="C367" s="2" t="str">
+        <v>Ranking</v>
+      </c>
+      <c r="D367" s="3" t="str">
+        <v>排名</v>
+      </c>
+      <c r="E367" s="1"/>
     </row>
     <row r="368">
-      <c r="A368" s="3"/>
-      <c r="B368" s="1"/>
-      <c r="C368" s="2"/>
-      <c r="D368" s="2"/>
-      <c r="E368" s="3"/>
+      <c r="A368" s="1">
+        <v>100027</v>
+      </c>
+      <c r="B368" s="1" t="str">
+        <v>Text_nickname</v>
+      </c>
+      <c r="C368" s="2" t="str">
+        <v>nickname</v>
+      </c>
+      <c r="D368" s="3" t="str">
+        <v>昵称</v>
+      </c>
+      <c r="E368" s="1"/>
     </row>
     <row r="369">
-      <c r="A369" s="3"/>
-      <c r="B369" s="1"/>
-      <c r="C369" s="2"/>
-      <c r="D369" s="2"/>
-      <c r="E369" s="3"/>
+      <c r="A369" s="1">
+        <v>100028</v>
+      </c>
+      <c r="B369" s="1" t="str">
+        <v>Text_Altitude</v>
+      </c>
+      <c r="C369" s="2" t="str">
+        <v>Altitude</v>
+      </c>
+      <c r="D369" s="3" t="str">
+        <v>高度</v>
+      </c>
+      <c r="E369" s="1"/>
     </row>
     <row r="370">
-      <c r="A370" s="3"/>
-      <c r="B370" s="1"/>
-      <c r="C370" s="2"/>
-      <c r="D370" s="2"/>
-      <c r="E370" s="3"/>
+      <c r="A370" s="1">
+        <v>100029</v>
+      </c>
+      <c r="B370" s="1" t="str">
+        <v>Text_StartSettlement</v>
+      </c>
+      <c r="C370" s="2" t="str">
+        <v>Start settlement</v>
+      </c>
+      <c r="D370" s="3" t="str">
+        <v>开始结算</v>
+      </c>
+      <c r="E370" s="1"/>
     </row>
     <row r="371">
-      <c r="A371" s="3"/>
-      <c r="B371" s="1"/>
-      <c r="C371" s="2"/>
-      <c r="D371" s="2"/>
-      <c r="E371" s="3"/>
+      <c r="A371" s="1">
+        <v>100030</v>
+      </c>
+      <c r="B371" s="1" t="str">
+        <v>Text_PlayerIsDead</v>
+      </c>
+      <c r="C371" s="2" t="str">
+        <v>Player {0} is dead</v>
+      </c>
+      <c r="D371" s="3" t="str">
+        <v>玩家{0}死亡了</v>
+      </c>
+      <c r="E371" s="1"/>
     </row>
     <row r="372">
-      <c r="A372" s="3"/>
-      <c r="B372" s="1"/>
-      <c r="C372" s="2"/>
-      <c r="D372" s="2"/>
-      <c r="E372" s="3"/>
+      <c r="A372" s="1">
+        <v>100031</v>
+      </c>
+      <c r="B372" s="1" t="str">
+        <v>Text_1</v>
+      </c>
+      <c r="C372" s="2" t="str">
+        <v>If a player fails to enter the scene, the game restarts</v>
+      </c>
+      <c r="D372" s="3" t="str">
+        <v>有玩家没有成功进入场景，游戏重新开始</v>
+      </c>
+      <c r="E372" s="1"/>
     </row>
     <row r="373">
-      <c r="A373" s="3"/>
+      <c r="A373" s="1"/>
       <c r="B373" s="1"/>
       <c r="C373" s="2"/>
-      <c r="D373" s="2"/>
-      <c r="E373" s="3"/>
+      <c r="D373" s="3"/>
+      <c r="E373" s="1"/>
     </row>
     <row r="374">
-      <c r="A374" s="3"/>
+      <c r="A374" s="1"/>
       <c r="B374" s="1"/>
       <c r="C374" s="2"/>
-      <c r="D374" s="2"/>
-      <c r="E374" s="3"/>
+      <c r="D374" s="3"/>
+      <c r="E374" s="1"/>
     </row>
     <row r="375">
-      <c r="A375" s="3"/>
+      <c r="A375" s="1"/>
       <c r="B375" s="1"/>
       <c r="C375" s="2"/>
-      <c r="D375" s="2"/>
-      <c r="E375" s="3"/>
+      <c r="D375" s="3"/>
+      <c r="E375" s="1"/>
     </row>
     <row r="376">
-      <c r="A376" s="3"/>
+      <c r="A376" s="1"/>
       <c r="B376" s="1"/>
       <c r="C376" s="2"/>
-      <c r="D376" s="2"/>
-      <c r="E376" s="3"/>
+      <c r="D376" s="3"/>
+      <c r="E376" s="1"/>
     </row>
     <row r="377">
-      <c r="A377" s="3"/>
+      <c r="A377" s="1"/>
       <c r="B377" s="1"/>
       <c r="C377" s="2"/>
-      <c r="D377" s="2"/>
-      <c r="E377" s="3"/>
+      <c r="D377" s="3"/>
+      <c r="E377" s="1"/>
     </row>
     <row r="378">
-      <c r="A378" s="3"/>
+      <c r="A378" s="1"/>
       <c r="B378" s="1"/>
       <c r="C378" s="2"/>
-      <c r="D378" s="2"/>
-      <c r="E378" s="3"/>
+      <c r="D378" s="3"/>
+      <c r="E378" s="1"/>
     </row>
     <row r="379">
-      <c r="A379" s="3"/>
+      <c r="A379" s="1"/>
       <c r="B379" s="1"/>
       <c r="C379" s="2"/>
-      <c r="D379" s="2"/>
-      <c r="E379" s="3"/>
+      <c r="D379" s="3"/>
+      <c r="E379" s="1"/>
     </row>
     <row r="380">
-      <c r="A380" s="3"/>
+      <c r="A380" s="1"/>
       <c r="B380" s="1"/>
       <c r="C380" s="2"/>
-      <c r="D380" s="2"/>
-      <c r="E380" s="3"/>
+      <c r="D380" s="3"/>
+      <c r="E380" s="1"/>
     </row>
     <row r="381">
-      <c r="A381" s="3"/>
+      <c r="A381" s="1"/>
       <c r="B381" s="1"/>
       <c r="C381" s="2"/>
-      <c r="D381" s="2"/>
-      <c r="E381" s="3"/>
+      <c r="D381" s="3"/>
+      <c r="E381" s="1"/>
     </row>
     <row r="382">
-      <c r="A382" s="3"/>
+      <c r="A382" s="1"/>
       <c r="B382" s="1"/>
       <c r="C382" s="2"/>
-      <c r="D382" s="2"/>
-      <c r="E382" s="3"/>
+      <c r="D382" s="3"/>
+      <c r="E382" s="1"/>
     </row>
     <row r="383">
-      <c r="A383" s="3"/>
+      <c r="A383" s="1"/>
       <c r="B383" s="1"/>
       <c r="C383" s="2"/>
-      <c r="D383" s="2"/>
-      <c r="E383" s="3"/>
+      <c r="D383" s="3"/>
+      <c r="E383" s="1"/>
     </row>
     <row r="384">
-      <c r="A384" s="3"/>
+      <c r="A384" s="1"/>
       <c r="B384" s="1"/>
       <c r="C384" s="2"/>
-      <c r="D384" s="2"/>
-      <c r="E384" s="3"/>
+      <c r="D384" s="3"/>
+      <c r="E384" s="1"/>
     </row>
     <row r="385">
-      <c r="A385" s="3"/>
+      <c r="A385" s="1"/>
       <c r="B385" s="1"/>
       <c r="C385" s="2"/>
-      <c r="D385" s="2"/>
-      <c r="E385" s="3"/>
+      <c r="D385" s="3"/>
+      <c r="E385" s="1"/>
     </row>
     <row r="386">
-      <c r="A386" s="3"/>
+      <c r="A386" s="1"/>
       <c r="B386" s="1"/>
       <c r="C386" s="2"/>
-      <c r="D386" s="2"/>
-      <c r="E386" s="3"/>
+      <c r="D386" s="3"/>
+      <c r="E386" s="1"/>
     </row>
     <row r="387">
-      <c r="A387" s="3"/>
+      <c r="A387" s="1"/>
       <c r="B387" s="1"/>
       <c r="C387" s="2"/>
-      <c r="D387" s="2"/>
-      <c r="E387" s="3"/>
+      <c r="D387" s="3"/>
+      <c r="E387" s="1"/>
     </row>
     <row r="388">
-      <c r="A388" s="3"/>
+      <c r="A388" s="1"/>
       <c r="B388" s="1"/>
       <c r="C388" s="2"/>
-      <c r="D388" s="2"/>
-      <c r="E388" s="3"/>
+      <c r="D388" s="3"/>
+      <c r="E388" s="1"/>
     </row>
     <row r="389">
-      <c r="A389" s="3"/>
+      <c r="A389" s="1"/>
       <c r="B389" s="1"/>
       <c r="C389" s="2"/>
-      <c r="D389" s="2"/>
-      <c r="E389" s="3"/>
+      <c r="D389" s="3"/>
+      <c r="E389" s="1"/>
     </row>
     <row r="390">
-      <c r="A390" s="3"/>
+      <c r="A390" s="1"/>
       <c r="B390" s="1"/>
       <c r="C390" s="2"/>
-      <c r="D390" s="2"/>
-      <c r="E390" s="3"/>
+      <c r="D390" s="3"/>
+      <c r="E390" s="1"/>
     </row>
     <row r="391">
-      <c r="A391" s="3"/>
+      <c r="A391" s="1"/>
       <c r="B391" s="1"/>
       <c r="C391" s="2"/>
-      <c r="D391" s="2"/>
-      <c r="E391" s="3"/>
+      <c r="D391" s="3"/>
+      <c r="E391" s="1"/>
     </row>
     <row r="392">
-      <c r="A392" s="3"/>
+      <c r="A392" s="1"/>
       <c r="B392" s="1"/>
       <c r="C392" s="2"/>
-      <c r="D392" s="2"/>
-      <c r="E392" s="3"/>
+      <c r="D392" s="3"/>
+      <c r="E392" s="1"/>
     </row>
     <row r="393">
-      <c r="A393" s="3"/>
+      <c r="A393" s="1"/>
       <c r="B393" s="1"/>
       <c r="C393" s="2"/>
-      <c r="D393" s="2"/>
-      <c r="E393" s="3"/>
+      <c r="D393" s="3"/>
+      <c r="E393" s="1"/>
     </row>
     <row r="394">
-      <c r="A394" s="3"/>
+      <c r="A394" s="1"/>
       <c r="B394" s="1"/>
       <c r="C394" s="2"/>
-      <c r="D394" s="2"/>
-      <c r="E394" s="3"/>
+      <c r="D394" s="3"/>
+      <c r="E394" s="1"/>
     </row>
     <row r="395">
-      <c r="A395" s="3"/>
+      <c r="A395" s="1"/>
       <c r="B395" s="1"/>
       <c r="C395" s="2"/>
-      <c r="D395" s="2"/>
-      <c r="E395" s="3"/>
+      <c r="D395" s="3"/>
+      <c r="E395" s="1"/>
     </row>
     <row r="396">
-      <c r="A396" s="3"/>
+      <c r="A396" s="1"/>
       <c r="B396" s="1"/>
       <c r="C396" s="2"/>
-      <c r="D396" s="2"/>
-      <c r="E396" s="3"/>
+      <c r="D396" s="3"/>
+      <c r="E396" s="1"/>
     </row>
     <row r="397">
-      <c r="A397" s="3"/>
+      <c r="A397" s="1"/>
       <c r="B397" s="1"/>
       <c r="C397" s="2"/>
-      <c r="D397" s="2"/>
-      <c r="E397" s="3"/>
+      <c r="D397" s="3"/>
+      <c r="E397" s="1"/>
     </row>
     <row r="398">
-      <c r="A398" s="3"/>
+      <c r="A398" s="1"/>
       <c r="B398" s="1"/>
       <c r="C398" s="2"/>
-      <c r="D398" s="2"/>
-      <c r="E398" s="3"/>
+      <c r="D398" s="3"/>
+      <c r="E398" s="1"/>
     </row>
     <row r="399">
-      <c r="A399" s="3"/>
+      <c r="A399" s="1"/>
       <c r="B399" s="1"/>
       <c r="C399" s="2"/>
-      <c r="D399" s="2"/>
-      <c r="E399" s="3"/>
+      <c r="D399" s="3"/>
+      <c r="E399" s="1"/>
     </row>
     <row r="400">
-      <c r="A400" s="3"/>
+      <c r="A400" s="1"/>
       <c r="B400" s="1"/>
       <c r="C400" s="2"/>
-      <c r="D400" s="2"/>
-      <c r="E400" s="3"/>
+      <c r="D400" s="3"/>
+      <c r="E400" s="1"/>
     </row>
     <row r="401">
-      <c r="A401" s="3"/>
+      <c r="A401" s="1"/>
       <c r="B401" s="1"/>
       <c r="C401" s="2"/>
-      <c r="D401" s="2"/>
-      <c r="E401" s="3"/>
+      <c r="D401" s="3"/>
+      <c r="E401" s="1"/>
     </row>
     <row r="402">
-      <c r="A402" s="3"/>
+      <c r="A402" s="1"/>
       <c r="B402" s="1"/>
       <c r="C402" s="2"/>
-      <c r="D402" s="2"/>
-      <c r="E402" s="3"/>
+      <c r="D402" s="3"/>
+      <c r="E402" s="1"/>
     </row>
     <row r="403">
-      <c r="A403" s="3"/>
+      <c r="A403" s="1"/>
       <c r="B403" s="1"/>
       <c r="C403" s="2"/>
-      <c r="D403" s="2"/>
-      <c r="E403" s="3"/>
+      <c r="D403" s="3"/>
+      <c r="E403" s="1"/>
     </row>
     <row r="404">
-      <c r="A404" s="3"/>
+      <c r="A404" s="1"/>
       <c r="B404" s="1"/>
       <c r="C404" s="2"/>
-      <c r="D404" s="2"/>
-      <c r="E404" s="3"/>
+      <c r="D404" s="3"/>
+      <c r="E404" s="1"/>
     </row>
     <row r="405">
-      <c r="A405" s="3"/>
+      <c r="A405" s="1"/>
       <c r="B405" s="1"/>
       <c r="C405" s="2"/>
-      <c r="D405" s="2"/>
-      <c r="E405" s="3"/>
+      <c r="D405" s="3"/>
+      <c r="E405" s="1"/>
     </row>
     <row r="406">
-      <c r="A406" s="3"/>
+      <c r="A406" s="1"/>
       <c r="B406" s="1"/>
       <c r="C406" s="2"/>
-      <c r="D406" s="2"/>
-      <c r="E406" s="3"/>
+      <c r="D406" s="3"/>
+      <c r="E406" s="1"/>
     </row>
     <row r="407">
-      <c r="A407" s="3"/>
+      <c r="A407" s="1"/>
       <c r="B407" s="1"/>
       <c r="C407" s="2"/>
-      <c r="D407" s="2"/>
-      <c r="E407" s="3"/>
+      <c r="D407" s="3"/>
+      <c r="E407" s="1"/>
     </row>
     <row r="408">
-      <c r="A408" s="3"/>
+      <c r="A408" s="1"/>
       <c r="B408" s="1"/>
       <c r="C408" s="2"/>
-      <c r="D408" s="2"/>
-      <c r="E408" s="3"/>
+      <c r="D408" s="3"/>
+      <c r="E408" s="1"/>
     </row>
     <row r="409">
-      <c r="A409" s="3"/>
+      <c r="A409" s="1"/>
       <c r="B409" s="1"/>
       <c r="C409" s="2"/>
-      <c r="D409" s="2"/>
-      <c r="E409" s="3"/>
+      <c r="D409" s="3"/>
+      <c r="E409" s="1"/>
     </row>
     <row r="410">
-      <c r="A410" s="3"/>
+      <c r="A410" s="1"/>
       <c r="B410" s="1"/>
       <c r="C410" s="2"/>
-      <c r="D410" s="2"/>
-      <c r="E410" s="3"/>
+      <c r="D410" s="3"/>
+      <c r="E410" s="1"/>
     </row>
     <row r="411">
-      <c r="A411" s="3"/>
+      <c r="A411" s="1"/>
       <c r="B411" s="1"/>
       <c r="C411" s="2"/>
-      <c r="D411" s="2"/>
-      <c r="E411" s="3"/>
+      <c r="D411" s="3"/>
+      <c r="E411" s="1"/>
     </row>
     <row r="412">
-      <c r="A412" s="3"/>
+      <c r="A412" s="1"/>
       <c r="B412" s="1"/>
       <c r="C412" s="2"/>
-      <c r="D412" s="2"/>
-      <c r="E412" s="3"/>
+      <c r="D412" s="3"/>
+      <c r="E412" s="1"/>
     </row>
     <row r="413">
-      <c r="A413" s="3"/>
+      <c r="A413" s="1"/>
       <c r="B413" s="1"/>
       <c r="C413" s="2"/>
-      <c r="D413" s="2"/>
-      <c r="E413" s="3"/>
+      <c r="D413" s="3"/>
+      <c r="E413" s="1"/>
     </row>
     <row r="414">
-      <c r="A414" s="3"/>
+      <c r="A414" s="1"/>
       <c r="B414" s="1"/>
       <c r="C414" s="2"/>
-      <c r="D414" s="2"/>
-      <c r="E414" s="3"/>
+      <c r="D414" s="3"/>
+      <c r="E414" s="1"/>
     </row>
     <row r="415">
-      <c r="A415" s="3"/>
+      <c r="A415" s="1"/>
       <c r="B415" s="1"/>
       <c r="C415" s="2"/>
-      <c r="D415" s="2"/>
-      <c r="E415" s="3"/>
+      <c r="D415" s="3"/>
+      <c r="E415" s="1"/>
     </row>
     <row r="416">
-      <c r="A416" s="3"/>
+      <c r="A416" s="1"/>
       <c r="B416" s="1"/>
       <c r="C416" s="2"/>
-      <c r="D416" s="2"/>
-      <c r="E416" s="3"/>
+      <c r="D416" s="3"/>
+      <c r="E416" s="1"/>
     </row>
     <row r="417">
-      <c r="A417" s="3"/>
+      <c r="A417" s="1"/>
       <c r="B417" s="1"/>
       <c r="C417" s="2"/>
-      <c r="D417" s="2"/>
-      <c r="E417" s="3"/>
+      <c r="D417" s="3"/>
+      <c r="E417" s="1"/>
     </row>
     <row r="418">
-      <c r="A418" s="3"/>
+      <c r="A418" s="1"/>
       <c r="B418" s="1"/>
       <c r="C418" s="2"/>
-      <c r="D418" s="2"/>
-      <c r="E418" s="3"/>
+      <c r="D418" s="3"/>
+      <c r="E418" s="1"/>
     </row>
     <row r="419">
-      <c r="A419" s="3"/>
+      <c r="A419" s="1"/>
       <c r="B419" s="1"/>
       <c r="C419" s="2"/>
-      <c r="D419" s="2"/>
-      <c r="E419" s="3"/>
+      <c r="D419" s="3"/>
+      <c r="E419" s="1"/>
     </row>
     <row r="420">
-      <c r="A420" s="3"/>
+      <c r="A420" s="1"/>
       <c r="B420" s="1"/>
       <c r="C420" s="2"/>
-      <c r="D420" s="2"/>
-      <c r="E420" s="3"/>
+      <c r="D420" s="3"/>
+      <c r="E420" s="1"/>
     </row>
     <row r="421">
-      <c r="A421" s="3"/>
+      <c r="A421" s="1"/>
       <c r="B421" s="1"/>
       <c r="C421" s="2"/>
-      <c r="D421" s="2"/>
-      <c r="E421" s="3"/>
+      <c r="D421" s="3"/>
+      <c r="E421" s="1"/>
     </row>
     <row r="422">
-      <c r="A422" s="3"/>
+      <c r="A422" s="1"/>
       <c r="B422" s="1"/>
       <c r="C422" s="2"/>
-      <c r="D422" s="2"/>
-      <c r="E422" s="3"/>
+      <c r="D422" s="3"/>
+      <c r="E422" s="1"/>
     </row>
     <row r="423">
-      <c r="A423" s="3"/>
+      <c r="A423" s="1"/>
       <c r="B423" s="1"/>
       <c r="C423" s="2"/>
-      <c r="D423" s="2"/>
-      <c r="E423" s="3"/>
+      <c r="D423" s="3"/>
+      <c r="E423" s="1"/>
     </row>
     <row r="424">
-      <c r="A424" s="3"/>
+      <c r="A424" s="1"/>
       <c r="B424" s="1"/>
       <c r="C424" s="2"/>
-      <c r="D424" s="2"/>
-      <c r="E424" s="3"/>
+      <c r="D424" s="3"/>
+      <c r="E424" s="1"/>
     </row>
     <row r="425">
-      <c r="A425" s="3"/>
+      <c r="A425" s="1"/>
       <c r="B425" s="1"/>
       <c r="C425" s="2"/>
-      <c r="D425" s="2"/>
-      <c r="E425" s="3"/>
+      <c r="D425" s="3"/>
+      <c r="E425" s="1"/>
     </row>
     <row r="426">
-      <c r="A426" s="3"/>
+      <c r="A426" s="1"/>
       <c r="B426" s="1"/>
       <c r="C426" s="2"/>
-      <c r="D426" s="2"/>
-      <c r="E426" s="3"/>
+      <c r="D426" s="3"/>
+      <c r="E426" s="1"/>
     </row>
     <row r="427">
-      <c r="A427" s="3"/>
+      <c r="A427" s="1"/>
       <c r="B427" s="1"/>
       <c r="C427" s="2"/>
-      <c r="D427" s="2"/>
-      <c r="E427" s="3"/>
+      <c r="D427" s="3"/>
+      <c r="E427" s="1"/>
     </row>
     <row r="428">
-      <c r="A428" s="3"/>
+      <c r="A428" s="1"/>
       <c r="B428" s="1"/>
       <c r="C428" s="2"/>
-      <c r="D428" s="2"/>
-      <c r="E428" s="3"/>
+      <c r="D428" s="3"/>
+      <c r="E428" s="1"/>
     </row>
     <row r="429">
-      <c r="A429" s="3"/>
+      <c r="A429" s="1"/>
       <c r="B429" s="1"/>
       <c r="C429" s="2"/>
-      <c r="D429" s="2"/>
-      <c r="E429" s="3"/>
+      <c r="D429" s="3"/>
+      <c r="E429" s="1"/>
     </row>
     <row r="430">
-      <c r="A430" s="3"/>
+      <c r="A430" s="1"/>
       <c r="B430" s="1"/>
       <c r="C430" s="2"/>
-      <c r="D430" s="2"/>
-      <c r="E430" s="3"/>
+      <c r="D430" s="3"/>
+      <c r="E430" s="1"/>
     </row>
     <row r="431">
-      <c r="A431" s="3"/>
+      <c r="A431" s="1"/>
       <c r="B431" s="1"/>
       <c r="C431" s="2"/>
-      <c r="D431" s="2"/>
-      <c r="E431" s="3"/>
+      <c r="D431" s="3"/>
+      <c r="E431" s="1"/>
     </row>
     <row r="432">
-      <c r="A432" s="3"/>
+      <c r="A432" s="1"/>
       <c r="B432" s="1"/>
       <c r="C432" s="2"/>
-      <c r="D432" s="2"/>
-      <c r="E432" s="3"/>
+      <c r="D432" s="3"/>
+      <c r="E432" s="1"/>
     </row>
     <row r="433">
-      <c r="A433" s="3"/>
+      <c r="A433" s="1"/>
       <c r="B433" s="1"/>
       <c r="C433" s="2"/>
-      <c r="D433" s="2"/>
-      <c r="E433" s="3"/>
+      <c r="D433" s="3"/>
+      <c r="E433" s="1"/>
     </row>
     <row r="434">
-      <c r="A434" s="3"/>
+      <c r="A434" s="1"/>
       <c r="B434" s="1"/>
       <c r="C434" s="2"/>
-      <c r="D434" s="2"/>
-      <c r="E434" s="3"/>
+      <c r="D434" s="3"/>
+      <c r="E434" s="1"/>
     </row>
     <row r="435">
-      <c r="A435" s="3"/>
+      <c r="A435" s="1"/>
       <c r="B435" s="1"/>
       <c r="C435" s="2"/>
-      <c r="D435" s="2"/>
-      <c r="E435" s="3"/>
+      <c r="D435" s="3"/>
+      <c r="E435" s="1"/>
     </row>
     <row r="436">
-      <c r="A436" s="3"/>
+      <c r="A436" s="1"/>
       <c r="B436" s="1"/>
       <c r="C436" s="2"/>
-      <c r="D436" s="2"/>
-      <c r="E436" s="3"/>
+      <c r="D436" s="3"/>
+      <c r="E436" s="1"/>
     </row>
     <row r="437">
-      <c r="A437" s="3"/>
+      <c r="A437" s="1"/>
       <c r="B437" s="1"/>
       <c r="C437" s="2"/>
-      <c r="D437" s="2"/>
-      <c r="E437" s="3"/>
+      <c r="D437" s="3"/>
+      <c r="E437" s="1"/>
     </row>
     <row r="438">
-      <c r="A438" s="3"/>
+      <c r="A438" s="1"/>
       <c r="B438" s="1"/>
       <c r="C438" s="2"/>
-      <c r="D438" s="2"/>
-      <c r="E438" s="3"/>
+      <c r="D438" s="3"/>
+      <c r="E438" s="1"/>
     </row>
     <row r="439">
-      <c r="A439" s="3"/>
+      <c r="A439" s="1"/>
       <c r="B439" s="1"/>
       <c r="C439" s="2"/>
-      <c r="D439" s="2"/>
-      <c r="E439" s="3"/>
+      <c r="D439" s="3"/>
+      <c r="E439" s="1"/>
     </row>
     <row r="440">
-      <c r="A440" s="3"/>
+      <c r="A440" s="1"/>
       <c r="B440" s="1"/>
       <c r="C440" s="2"/>
-      <c r="D440" s="2"/>
-      <c r="E440" s="3"/>
+      <c r="D440" s="3"/>
+      <c r="E440" s="1"/>
     </row>
     <row r="441">
-      <c r="A441" s="3"/>
+      <c r="A441" s="1"/>
       <c r="B441" s="1"/>
       <c r="C441" s="2"/>
-      <c r="D441" s="2"/>
-      <c r="E441" s="3"/>
+      <c r="D441" s="3"/>
+      <c r="E441" s="1"/>
     </row>
     <row r="442">
-      <c r="A442" s="3"/>
+      <c r="A442" s="1"/>
       <c r="B442" s="1"/>
       <c r="C442" s="2"/>
-      <c r="D442" s="2"/>
-      <c r="E442" s="3"/>
+      <c r="D442" s="3"/>
+      <c r="E442" s="1"/>
     </row>
     <row r="443">
-      <c r="A443" s="3"/>
+      <c r="A443" s="1"/>
       <c r="B443" s="1"/>
       <c r="C443" s="2"/>
-      <c r="D443" s="2"/>
-      <c r="E443" s="3"/>
+      <c r="D443" s="3"/>
+      <c r="E443" s="1"/>
     </row>
     <row r="444">
-      <c r="A444" s="3"/>
+      <c r="A444" s="1"/>
       <c r="B444" s="1"/>
       <c r="C444" s="2"/>
-      <c r="D444" s="2"/>
-      <c r="E444" s="3"/>
+      <c r="D444" s="3"/>
+      <c r="E444" s="1"/>
     </row>
     <row r="445">
-      <c r="A445" s="3"/>
+      <c r="A445" s="1"/>
       <c r="B445" s="1"/>
       <c r="C445" s="2"/>
-      <c r="D445" s="2"/>
-      <c r="E445" s="3"/>
+      <c r="D445" s="3"/>
+      <c r="E445" s="1"/>
     </row>
     <row r="446">
-      <c r="A446" s="3"/>
+      <c r="A446" s="1"/>
       <c r="B446" s="1"/>
       <c r="C446" s="2"/>
-      <c r="D446" s="2"/>
-      <c r="E446" s="3"/>
+      <c r="D446" s="3"/>
+      <c r="E446" s="1"/>
     </row>
     <row r="447">
-      <c r="A447" s="3"/>
+      <c r="A447" s="1"/>
       <c r="B447" s="1"/>
       <c r="C447" s="2"/>
-      <c r="D447" s="2"/>
-      <c r="E447" s="3"/>
+      <c r="D447" s="3"/>
+      <c r="E447" s="1"/>
     </row>
     <row r="448">
-      <c r="A448" s="3"/>
+      <c r="A448" s="1"/>
       <c r="B448" s="1"/>
       <c r="C448" s="2"/>
-      <c r="D448" s="2"/>
-      <c r="E448" s="3"/>
+      <c r="D448" s="3"/>
+      <c r="E448" s="1"/>
     </row>
     <row r="449">
-      <c r="A449" s="3"/>
+      <c r="A449" s="1"/>
       <c r="B449" s="1"/>
       <c r="C449" s="2"/>
-      <c r="D449" s="2"/>
-      <c r="E449" s="3"/>
+      <c r="D449" s="3"/>
+      <c r="E449" s="1"/>
     </row>
     <row r="450">
-      <c r="A450" s="3"/>
+      <c r="A450" s="1"/>
       <c r="B450" s="1"/>
       <c r="C450" s="2"/>
-      <c r="D450" s="2"/>
-      <c r="E450" s="3"/>
+      <c r="D450" s="3"/>
+      <c r="E450" s="1"/>
     </row>
     <row r="451">
-      <c r="A451" s="3"/>
+      <c r="A451" s="1"/>
       <c r="B451" s="1"/>
       <c r="C451" s="2"/>
-      <c r="D451" s="2"/>
-      <c r="E451" s="3"/>
+      <c r="D451" s="3"/>
+      <c r="E451" s="1"/>
     </row>
     <row r="452">
-      <c r="A452" s="3"/>
+      <c r="A452" s="1"/>
       <c r="B452" s="1"/>
       <c r="C452" s="2"/>
-      <c r="D452" s="2"/>
-      <c r="E452" s="3"/>
+      <c r="D452" s="3"/>
+      <c r="E452" s="1"/>
     </row>
     <row r="453">
-      <c r="A453" s="3"/>
+      <c r="A453" s="1"/>
       <c r="B453" s="1"/>
       <c r="C453" s="2"/>
-      <c r="D453" s="2"/>
-      <c r="E453" s="3"/>
+      <c r="D453" s="3"/>
+      <c r="E453" s="1"/>
     </row>
     <row r="454">
-      <c r="A454" s="3"/>
+      <c r="A454" s="1"/>
       <c r="B454" s="1"/>
       <c r="C454" s="2"/>
-      <c r="D454" s="2"/>
-      <c r="E454" s="3"/>
+      <c r="D454" s="3"/>
+      <c r="E454" s="1"/>
     </row>
     <row r="455">
-      <c r="A455" s="3"/>
+      <c r="A455" s="1"/>
       <c r="B455" s="1"/>
       <c r="C455" s="2"/>
-      <c r="D455" s="2"/>
-      <c r="E455" s="3"/>
+      <c r="D455" s="3"/>
+      <c r="E455" s="1"/>
     </row>
     <row r="456">
-      <c r="A456" s="3"/>
+      <c r="A456" s="1"/>
       <c r="B456" s="1"/>
       <c r="C456" s="2"/>
-      <c r="D456" s="2"/>
-      <c r="E456" s="3"/>
+      <c r="D456" s="3"/>
+      <c r="E456" s="1"/>
     </row>
     <row r="457">
-      <c r="A457" s="3"/>
+      <c r="A457" s="1"/>
       <c r="B457" s="1"/>
       <c r="C457" s="2"/>
-      <c r="D457" s="2"/>
-      <c r="E457" s="3"/>
+      <c r="D457" s="3"/>
+      <c r="E457" s="1"/>
     </row>
     <row r="458">
-      <c r="A458" s="3"/>
+      <c r="A458" s="1"/>
       <c r="B458" s="1"/>
       <c r="C458" s="2"/>
-      <c r="D458" s="2"/>
-      <c r="E458" s="3"/>
+      <c r="D458" s="3"/>
+      <c r="E458" s="1"/>
     </row>
     <row r="459">
-      <c r="A459" s="3"/>
+      <c r="A459" s="1"/>
       <c r="B459" s="1"/>
       <c r="C459" s="2"/>
-      <c r="D459" s="2"/>
-      <c r="E459" s="3"/>
+      <c r="D459" s="3"/>
+      <c r="E459" s="1"/>
     </row>
     <row r="460">
-      <c r="A460" s="3"/>
+      <c r="A460" s="1"/>
       <c r="B460" s="1"/>
       <c r="C460" s="2"/>
-      <c r="D460" s="2"/>
-      <c r="E460" s="3"/>
+      <c r="D460" s="3"/>
+      <c r="E460" s="1"/>
     </row>
     <row r="461">
-      <c r="A461" s="3"/>
+      <c r="A461" s="1"/>
       <c r="B461" s="1"/>
       <c r="C461" s="2"/>
-      <c r="D461" s="2"/>
-      <c r="E461" s="3"/>
+      <c r="D461" s="3"/>
+      <c r="E461" s="1"/>
     </row>
     <row r="462">
-      <c r="A462" s="3"/>
+      <c r="A462" s="1"/>
       <c r="B462" s="1"/>
       <c r="C462" s="2"/>
-      <c r="D462" s="2"/>
-      <c r="E462" s="3"/>
+      <c r="D462" s="3"/>
+      <c r="E462" s="1"/>
     </row>
     <row r="463">
-      <c r="A463" s="3"/>
+      <c r="A463" s="1"/>
       <c r="B463" s="1"/>
       <c r="C463" s="2"/>
-      <c r="D463" s="2"/>
-      <c r="E463" s="3"/>
+      <c r="D463" s="3"/>
+      <c r="E463" s="1"/>
     </row>
     <row r="464">
-      <c r="A464" s="3"/>
+      <c r="A464" s="1"/>
       <c r="B464" s="1"/>
       <c r="C464" s="2"/>
-      <c r="D464" s="2"/>
-      <c r="E464" s="3"/>
+      <c r="D464" s="3"/>
+      <c r="E464" s="1"/>
     </row>
     <row r="465">
-      <c r="A465" s="3"/>
+      <c r="A465" s="1"/>
       <c r="B465" s="1"/>
       <c r="C465" s="2"/>
-      <c r="D465" s="2"/>
-      <c r="E465" s="3"/>
+      <c r="D465" s="3"/>
+      <c r="E465" s="1"/>
     </row>
     <row r="466">
-      <c r="A466" s="3"/>
+      <c r="A466" s="1"/>
       <c r="B466" s="1"/>
       <c r="C466" s="2"/>
-      <c r="D466" s="2"/>
-      <c r="E466" s="3"/>
+      <c r="D466" s="3"/>
+      <c r="E466" s="1"/>
     </row>
     <row r="467">
-      <c r="A467" s="3"/>
+      <c r="A467" s="1"/>
       <c r="B467" s="1"/>
       <c r="C467" s="2"/>
-      <c r="D467" s="2"/>
-      <c r="E467" s="3"/>
+      <c r="D467" s="3"/>
+      <c r="E467" s="1"/>
     </row>
     <row r="468">
-      <c r="A468" s="3"/>
+      <c r="A468" s="1"/>
       <c r="B468" s="1"/>
       <c r="C468" s="2"/>
-      <c r="D468" s="2"/>
-      <c r="E468" s="3"/>
+      <c r="D468" s="3"/>
+      <c r="E468" s="1"/>
     </row>
     <row r="469">
-      <c r="A469" s="3"/>
+      <c r="A469" s="1"/>
       <c r="B469" s="1"/>
       <c r="C469" s="2"/>
-      <c r="D469" s="2"/>
-      <c r="E469" s="3"/>
+      <c r="D469" s="3"/>
+      <c r="E469" s="1"/>
     </row>
     <row r="470">
-      <c r="A470" s="3"/>
+      <c r="A470" s="1"/>
       <c r="B470" s="1"/>
       <c r="C470" s="2"/>
-      <c r="D470" s="2"/>
-      <c r="E470" s="3"/>
+      <c r="D470" s="3"/>
+      <c r="E470" s="1"/>
     </row>
     <row r="471">
-      <c r="A471" s="3"/>
+      <c r="A471" s="1"/>
       <c r="B471" s="1"/>
       <c r="C471" s="2"/>
-      <c r="D471" s="2"/>
-      <c r="E471" s="3"/>
+      <c r="D471" s="3"/>
+      <c r="E471" s="1"/>
     </row>
     <row r="472">
-      <c r="A472" s="3"/>
+      <c r="A472" s="1"/>
       <c r="B472" s="1"/>
       <c r="C472" s="2"/>
-      <c r="D472" s="2"/>
-      <c r="E472" s="3"/>
+      <c r="D472" s="3"/>
+      <c r="E472" s="1"/>
     </row>
     <row r="473">
-      <c r="A473" s="3"/>
+      <c r="A473" s="1"/>
       <c r="B473" s="1"/>
       <c r="C473" s="2"/>
-      <c r="D473" s="2"/>
-      <c r="E473" s="3"/>
+      <c r="D473" s="3"/>
+      <c r="E473" s="1"/>
     </row>
     <row r="474">
-      <c r="A474" s="3"/>
+      <c r="A474" s="1"/>
       <c r="B474" s="1"/>
       <c r="C474" s="2"/>
-      <c r="D474" s="2"/>
-      <c r="E474" s="3"/>
+      <c r="D474" s="3"/>
+      <c r="E474" s="1"/>
     </row>
     <row r="475">
-      <c r="A475" s="3"/>
+      <c r="A475" s="1"/>
       <c r="B475" s="1"/>
       <c r="C475" s="2"/>
-      <c r="D475" s="2"/>
-      <c r="E475" s="3"/>
+      <c r="D475" s="3"/>
+      <c r="E475" s="1"/>
     </row>
     <row r="476">
-      <c r="A476" s="3"/>
+      <c r="A476" s="1"/>
       <c r="B476" s="1"/>
       <c r="C476" s="2"/>
-      <c r="D476" s="2"/>
-      <c r="E476" s="3"/>
+      <c r="D476" s="3"/>
+      <c r="E476" s="1"/>
     </row>
     <row r="477">
-      <c r="A477" s="3"/>
+      <c r="A477" s="1"/>
       <c r="B477" s="1"/>
       <c r="C477" s="2"/>
-      <c r="D477" s="2"/>
-      <c r="E477" s="3"/>
+      <c r="D477" s="3"/>
+      <c r="E477" s="1"/>
     </row>
     <row r="478">
-      <c r="A478" s="3"/>
+      <c r="A478" s="1"/>
       <c r="B478" s="1"/>
       <c r="C478" s="2"/>
-      <c r="D478" s="2"/>
-      <c r="E478" s="3"/>
+      <c r="D478" s="3"/>
+      <c r="E478" s="1"/>
     </row>
     <row r="479">
-      <c r="A479" s="3"/>
+      <c r="A479" s="1"/>
       <c r="B479" s="1"/>
       <c r="C479" s="2"/>
-      <c r="D479" s="2"/>
-      <c r="E479" s="3"/>
+      <c r="D479" s="3"/>
+      <c r="E479" s="1"/>
     </row>
     <row r="480">
-      <c r="A480" s="3"/>
+      <c r="A480" s="1"/>
       <c r="B480" s="1"/>
       <c r="C480" s="2"/>
-      <c r="D480" s="2"/>
-      <c r="E480" s="3"/>
+      <c r="D480" s="3"/>
+      <c r="E480" s="1"/>
     </row>
     <row r="481">
-      <c r="A481" s="3"/>
+      <c r="A481" s="1"/>
       <c r="B481" s="1"/>
       <c r="C481" s="2"/>
-      <c r="D481" s="2"/>
-      <c r="E481" s="3"/>
+      <c r="D481" s="3"/>
+      <c r="E481" s="1"/>
     </row>
     <row r="482">
-      <c r="A482" s="3"/>
+      <c r="A482" s="1"/>
       <c r="B482" s="1"/>
       <c r="C482" s="2"/>
-      <c r="D482" s="2"/>
-      <c r="E482" s="3"/>
+      <c r="D482" s="3"/>
+      <c r="E482" s="1"/>
     </row>
     <row r="483">
-      <c r="A483" s="3"/>
+      <c r="A483" s="1"/>
       <c r="B483" s="1"/>
       <c r="C483" s="2"/>
-      <c r="D483" s="2"/>
-      <c r="E483" s="3"/>
+      <c r="D483" s="3"/>
+      <c r="E483" s="1"/>
     </row>
     <row r="484">
-      <c r="A484" s="3"/>
+      <c r="A484" s="1"/>
       <c r="B484" s="1"/>
       <c r="C484" s="2"/>
-      <c r="D484" s="2"/>
-      <c r="E484" s="3"/>
+      <c r="D484" s="3"/>
+      <c r="E484" s="1"/>
     </row>
     <row r="485">
-      <c r="A485" s="3"/>
+      <c r="A485" s="1"/>
       <c r="B485" s="1"/>
       <c r="C485" s="2"/>
-      <c r="D485" s="2"/>
-      <c r="E485" s="3"/>
+      <c r="D485" s="3"/>
+      <c r="E485" s="1"/>
     </row>
     <row r="486">
-      <c r="A486" s="3"/>
+      <c r="A486" s="1"/>
       <c r="B486" s="1"/>
       <c r="C486" s="2"/>
-      <c r="D486" s="2"/>
-      <c r="E486" s="3"/>
+      <c r="D486" s="3"/>
+      <c r="E486" s="1"/>
     </row>
     <row r="487">
-      <c r="A487" s="3"/>
+      <c r="A487" s="1"/>
       <c r="B487" s="1"/>
       <c r="C487" s="2"/>
-      <c r="D487" s="2"/>
-      <c r="E487" s="3"/>
+      <c r="D487" s="3"/>
+      <c r="E487" s="1"/>
     </row>
     <row r="488">
-      <c r="A488" s="3"/>
+      <c r="A488" s="1"/>
       <c r="B488" s="1"/>
       <c r="C488" s="2"/>
-      <c r="D488" s="2"/>
-      <c r="E488" s="3"/>
+      <c r="D488" s="3"/>
+      <c r="E488" s="1"/>
     </row>
     <row r="489">
-      <c r="A489" s="3"/>
+      <c r="A489" s="1"/>
       <c r="B489" s="1"/>
       <c r="C489" s="2"/>
-      <c r="D489" s="2"/>
-      <c r="E489" s="3"/>
+      <c r="D489" s="3"/>
+      <c r="E489" s="1"/>
     </row>
     <row r="490">
-      <c r="A490" s="3"/>
+      <c r="A490" s="1"/>
       <c r="B490" s="1"/>
       <c r="C490" s="2"/>
-      <c r="D490" s="2"/>
-      <c r="E490" s="3"/>
+      <c r="D490" s="3"/>
+      <c r="E490" s="1"/>
     </row>
     <row r="491">
-      <c r="A491" s="3"/>
+      <c r="A491" s="1"/>
       <c r="B491" s="1"/>
       <c r="C491" s="2"/>
-      <c r="D491" s="2"/>
-      <c r="E491" s="3"/>
+      <c r="D491" s="3"/>
+      <c r="E491" s="1"/>
     </row>
     <row r="492">
-      <c r="A492" s="3"/>
+      <c r="A492" s="1"/>
       <c r="B492" s="1"/>
       <c r="C492" s="2"/>
-      <c r="D492" s="2"/>
-      <c r="E492" s="3"/>
+      <c r="D492" s="3"/>
+      <c r="E492" s="1"/>
     </row>
     <row r="493">
-      <c r="A493" s="3"/>
+      <c r="A493" s="1"/>
       <c r="B493" s="1"/>
       <c r="C493" s="2"/>
-      <c r="D493" s="2"/>
-      <c r="E493" s="3"/>
+      <c r="D493" s="3"/>
+      <c r="E493" s="1"/>
     </row>
     <row r="494">
-      <c r="A494" s="3"/>
+      <c r="A494" s="1"/>
       <c r="B494" s="1"/>
       <c r="C494" s="2"/>
-      <c r="D494" s="2"/>
-      <c r="E494" s="3"/>
+      <c r="D494" s="3"/>
+      <c r="E494" s="1"/>
     </row>
     <row r="495">
-      <c r="A495" s="3"/>
+      <c r="A495" s="1"/>
       <c r="B495" s="1"/>
       <c r="C495" s="2"/>
-      <c r="D495" s="2"/>
-      <c r="E495" s="3"/>
+      <c r="D495" s="3"/>
+      <c r="E495" s="1"/>
     </row>
     <row r="496">
-      <c r="A496" s="3"/>
+      <c r="A496" s="1"/>
       <c r="B496" s="1"/>
       <c r="C496" s="2"/>
-      <c r="D496" s="2"/>
-      <c r="E496" s="3"/>
+      <c r="D496" s="3"/>
+      <c r="E496" s="1"/>
     </row>
     <row r="497">
-      <c r="A497" s="3"/>
+      <c r="A497" s="1"/>
       <c r="B497" s="1"/>
       <c r="C497" s="2"/>
-      <c r="D497" s="2"/>
-      <c r="E497" s="3"/>
+      <c r="D497" s="3"/>
+      <c r="E497" s="1"/>
     </row>
     <row r="498">
-      <c r="A498" s="3"/>
+      <c r="A498" s="1"/>
       <c r="B498" s="1"/>
       <c r="C498" s="2"/>
-      <c r="D498" s="2"/>
-      <c r="E498" s="3"/>
+      <c r="D498" s="3"/>
+      <c r="E498" s="1"/>
     </row>
     <row r="499">
-      <c r="A499" s="3"/>
+      <c r="A499" s="1"/>
       <c r="B499" s="1"/>
       <c r="C499" s="2"/>
-      <c r="D499" s="2"/>
-      <c r="E499" s="3"/>
+      <c r="D499" s="3"/>
+      <c r="E499" s="1"/>
     </row>
     <row r="500">
-      <c r="A500" s="3"/>
+      <c r="A500" s="1"/>
       <c r="B500" s="1"/>
       <c r="C500" s="2"/>
-      <c r="D500" s="2"/>
-      <c r="E500" s="3"/>
+      <c r="D500" s="3"/>
+      <c r="E500" s="1"/>
     </row>
     <row r="501">
-      <c r="A501" s="3"/>
+      <c r="A501" s="1"/>
       <c r="B501" s="1"/>
       <c r="C501" s="2"/>
-      <c r="D501" s="2"/>
-      <c r="E501" s="3"/>
+      <c r="D501" s="3"/>
+      <c r="E501" s="1"/>
     </row>
     <row r="502">
-      <c r="A502" s="3"/>
+      <c r="A502" s="1"/>
       <c r="B502" s="1"/>
       <c r="C502" s="2"/>
-      <c r="D502" s="2"/>
-      <c r="E502" s="3"/>
+      <c r="D502" s="3"/>
+      <c r="E502" s="1"/>
     </row>
     <row r="503">
-      <c r="A503" s="3"/>
+      <c r="A503" s="1"/>
       <c r="B503" s="1"/>
       <c r="C503" s="2"/>
-      <c r="D503" s="2"/>
-      <c r="E503" s="3"/>
+      <c r="D503" s="3"/>
+      <c r="E503" s="1"/>
     </row>
     <row r="504">
-      <c r="A504" s="3"/>
+      <c r="A504" s="1"/>
       <c r="B504" s="1"/>
       <c r="C504" s="2"/>
-      <c r="D504" s="2"/>
-      <c r="E504" s="3"/>
+      <c r="D504" s="3"/>
+      <c r="E504" s="1"/>
     </row>
     <row r="505">
-      <c r="A505" s="3"/>
+      <c r="A505" s="1"/>
       <c r="B505" s="1"/>
       <c r="C505" s="2"/>
-      <c r="D505" s="2"/>
-      <c r="E505" s="3"/>
+      <c r="D505" s="3"/>
+      <c r="E505" s="1"/>
     </row>
     <row r="506">
-      <c r="A506" s="3"/>
+      <c r="A506" s="1"/>
       <c r="B506" s="1"/>
       <c r="C506" s="2"/>
-      <c r="D506" s="2"/>
-      <c r="E506" s="3"/>
+      <c r="D506" s="3"/>
+      <c r="E506" s="1"/>
     </row>
     <row r="507">
-      <c r="A507" s="3"/>
+      <c r="A507" s="1"/>
       <c r="B507" s="1"/>
       <c r="C507" s="2"/>
-      <c r="D507" s="2"/>
-      <c r="E507" s="3"/>
+      <c r="D507" s="3"/>
+      <c r="E507" s="1"/>
     </row>
     <row r="508">
-      <c r="A508" s="3"/>
+      <c r="A508" s="1"/>
       <c r="B508" s="1"/>
       <c r="C508" s="2"/>
-      <c r="D508" s="2"/>
-      <c r="E508" s="3"/>
+      <c r="D508" s="3"/>
+      <c r="E508" s="1"/>
     </row>
     <row r="509">
-      <c r="A509" s="3"/>
+      <c r="A509" s="1"/>
       <c r="B509" s="1"/>
       <c r="C509" s="2"/>
-      <c r="D509" s="2"/>
-      <c r="E509" s="3"/>
+      <c r="D509" s="3"/>
+      <c r="E509" s="1"/>
     </row>
     <row r="510">
-      <c r="A510" s="3"/>
+      <c r="A510" s="1"/>
       <c r="B510" s="1"/>
       <c r="C510" s="2"/>
-      <c r="D510" s="2"/>
-      <c r="E510" s="3"/>
+      <c r="D510" s="3"/>
+      <c r="E510" s="1"/>
     </row>
     <row r="511">
-      <c r="A511" s="3"/>
+      <c r="A511" s="1"/>
       <c r="B511" s="1"/>
       <c r="C511" s="2"/>
-      <c r="D511" s="2"/>
-      <c r="E511" s="3"/>
+      <c r="D511" s="3"/>
+      <c r="E511" s="1"/>
     </row>
     <row r="512">
-      <c r="A512" s="3"/>
+      <c r="A512" s="1"/>
       <c r="B512" s="1"/>
       <c r="C512" s="2"/>
-      <c r="D512" s="2"/>
-      <c r="E512" s="3"/>
+      <c r="D512" s="3"/>
+      <c r="E512" s="1"/>
     </row>
     <row r="513">
-      <c r="A513" s="3"/>
+      <c r="A513" s="1"/>
       <c r="B513" s="1"/>
       <c r="C513" s="2"/>
-      <c r="D513" s="2"/>
-      <c r="E513" s="3"/>
+      <c r="D513" s="3"/>
+      <c r="E513" s="1"/>
     </row>
     <row r="514">
-      <c r="A514" s="3"/>
+      <c r="A514" s="1"/>
       <c r="B514" s="1"/>
       <c r="C514" s="2"/>
-      <c r="D514" s="2"/>
-      <c r="E514" s="3"/>
+      <c r="D514" s="3"/>
+      <c r="E514" s="1"/>
     </row>
     <row r="515">
-      <c r="A515" s="3"/>
+      <c r="A515" s="1"/>
       <c r="B515" s="1"/>
       <c r="C515" s="2"/>
-      <c r="D515" s="2"/>
-      <c r="E515" s="3"/>
+      <c r="D515" s="3"/>
+      <c r="E515" s="1"/>
     </row>
     <row r="516">
-      <c r="A516" s="3"/>
+      <c r="A516" s="1"/>
       <c r="B516" s="1"/>
       <c r="C516" s="2"/>
-      <c r="D516" s="2"/>
-      <c r="E516" s="3"/>
+      <c r="D516" s="3"/>
+      <c r="E516" s="1"/>
     </row>
     <row r="517">
-      <c r="A517" s="3"/>
+      <c r="A517" s="1"/>
       <c r="B517" s="1"/>
       <c r="C517" s="2"/>
-      <c r="D517" s="2"/>
-      <c r="E517" s="3"/>
+      <c r="D517" s="3"/>
+      <c r="E517" s="1"/>
     </row>
     <row r="518">
-      <c r="A518" s="3"/>
+      <c r="A518" s="1"/>
       <c r="B518" s="1"/>
       <c r="C518" s="2"/>
-      <c r="D518" s="2"/>
-      <c r="E518" s="3"/>
+      <c r="D518" s="3"/>
+      <c r="E518" s="1"/>
     </row>
     <row r="519">
-      <c r="A519" s="3"/>
+      <c r="A519" s="1"/>
       <c r="B519" s="1"/>
       <c r="C519" s="2"/>
-      <c r="D519" s="2"/>
-      <c r="E519" s="3"/>
+      <c r="D519" s="3"/>
+      <c r="E519" s="1"/>
     </row>
     <row r="520">
-      <c r="A520" s="3"/>
+      <c r="A520" s="1"/>
       <c r="B520" s="1"/>
       <c r="C520" s="2"/>
-      <c r="D520" s="2"/>
-      <c r="E520" s="3"/>
+      <c r="D520" s="3"/>
+      <c r="E520" s="1"/>
     </row>
     <row r="521">
-      <c r="A521" s="3"/>
+      <c r="A521" s="1"/>
       <c r="B521" s="1"/>
       <c r="C521" s="2"/>
-      <c r="D521" s="2"/>
-      <c r="E521" s="3"/>
+      <c r="D521" s="3"/>
+      <c r="E521" s="1"/>
     </row>
     <row r="522">
-      <c r="A522" s="3"/>
+      <c r="A522" s="1"/>
       <c r="B522" s="1"/>
       <c r="C522" s="2"/>
-      <c r="D522" s="2"/>
-      <c r="E522" s="3"/>
+      <c r="D522" s="3"/>
+      <c r="E522" s="1"/>
     </row>
     <row r="523">
-      <c r="A523" s="3"/>
+      <c r="A523" s="1"/>
       <c r="B523" s="1"/>
       <c r="C523" s="2"/>
-      <c r="D523" s="2"/>
-      <c r="E523" s="3"/>
+      <c r="D523" s="3"/>
+      <c r="E523" s="1"/>
     </row>
     <row r="524">
-      <c r="A524" s="3"/>
+      <c r="A524" s="1"/>
       <c r="B524" s="1"/>
       <c r="C524" s="2"/>
-      <c r="D524" s="2"/>
-      <c r="E524" s="3"/>
+      <c r="D524" s="3"/>
+      <c r="E524" s="1"/>
     </row>
     <row r="525">
-      <c r="A525" s="3"/>
+      <c r="A525" s="1"/>
       <c r="B525" s="1"/>
       <c r="C525" s="2"/>
-      <c r="D525" s="2"/>
-      <c r="E525" s="3"/>
+      <c r="D525" s="3"/>
+      <c r="E525" s="1"/>
     </row>
     <row r="526">
-      <c r="A526" s="3"/>
+      <c r="A526" s="1"/>
       <c r="B526" s="1"/>
       <c r="C526" s="2"/>
-      <c r="D526" s="2"/>
-      <c r="E526" s="3"/>
+      <c r="D526" s="3"/>
+      <c r="E526" s="1"/>
     </row>
     <row r="527">
-      <c r="A527" s="3"/>
+      <c r="A527" s="1"/>
       <c r="B527" s="1"/>
       <c r="C527" s="2"/>
-      <c r="D527" s="2"/>
-      <c r="E527" s="3"/>
+      <c r="D527" s="3"/>
+      <c r="E527" s="1"/>
+    </row>
+    <row r="528">
+      <c r="A528" s="1"/>
+      <c r="B528" s="1"/>
+      <c r="C528" s="2"/>
+      <c r="D528" s="3"/>
+      <c r="E528" s="1"/>
+    </row>
+    <row r="529">
+      <c r="A529" s="1"/>
+      <c r="B529" s="1"/>
+      <c r="C529" s="2"/>
+      <c r="D529" s="3"/>
+      <c r="E529" s="1"/>
+    </row>
+    <row r="530">
+      <c r="A530" s="1"/>
+      <c r="B530" s="1"/>
+      <c r="C530" s="2"/>
+      <c r="D530" s="3"/>
+      <c r="E530" s="1"/>
+    </row>
+    <row r="531">
+      <c r="A531" s="1"/>
+      <c r="B531" s="1"/>
+      <c r="C531" s="2"/>
+      <c r="D531" s="3"/>
+      <c r="E531" s="1"/>
+    </row>
+    <row r="532">
+      <c r="A532" s="1"/>
+      <c r="B532" s="1"/>
+      <c r="C532" s="2"/>
+      <c r="D532" s="3"/>
+      <c r="E532" s="1"/>
+    </row>
+    <row r="533">
+      <c r="A533" s="1"/>
+      <c r="B533" s="1"/>
+      <c r="C533" s="2"/>
+      <c r="D533" s="3"/>
+      <c r="E533" s="1"/>
+    </row>
+    <row r="534">
+      <c r="A534" s="1"/>
+      <c r="B534" s="1"/>
+      <c r="C534" s="2"/>
+      <c r="D534" s="3"/>
+      <c r="E534" s="1"/>
+    </row>
+    <row r="535">
+      <c r="A535" s="1"/>
+      <c r="B535" s="1"/>
+      <c r="C535" s="2"/>
+      <c r="D535" s="3"/>
+      <c r="E535" s="1"/>
+    </row>
+    <row r="536">
+      <c r="A536" s="1"/>
+      <c r="B536" s="1"/>
+      <c r="C536" s="2"/>
+      <c r="D536" s="3"/>
+      <c r="E536" s="1"/>
+    </row>
+    <row r="537">
+      <c r="A537" s="1"/>
+      <c r="B537" s="1"/>
+      <c r="C537" s="2"/>
+      <c r="D537" s="3"/>
+      <c r="E537" s="1"/>
+    </row>
+    <row r="538">
+      <c r="A538" s="1"/>
+      <c r="B538" s="1"/>
+      <c r="C538" s="2"/>
+      <c r="D538" s="3"/>
+      <c r="E538" s="1"/>
+    </row>
+    <row r="539">
+      <c r="A539" s="1"/>
+      <c r="B539" s="1"/>
+      <c r="C539" s="2"/>
+      <c r="D539" s="3"/>
+      <c r="E539" s="1"/>
+    </row>
+    <row r="540">
+      <c r="A540" s="1"/>
+      <c r="B540" s="1"/>
+      <c r="C540" s="2"/>
+      <c r="D540" s="3"/>
+      <c r="E540" s="1"/>
+    </row>
+    <row r="541">
+      <c r="A541" s="1"/>
+      <c r="B541" s="1"/>
+      <c r="C541" s="2"/>
+      <c r="D541" s="3"/>
+      <c r="E541" s="1"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -7889,48 +8224,48 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="19"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" max="1" min="1" style="0" width="13"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="2" min="2" style="0" width="37"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="3" min="3" style="0" width="79"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="4" min="4" style="0" width="79"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="5" min="5" style="0" width="23"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="6" min="6" style="0" width="13"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="7" min="7" style="0" width="37"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="8" min="8" style="0" width="79"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="9" min="9" style="0" width="79"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="10" min="10" style="0" width="23"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="11" min="11" style="0" width="13"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="12" min="12" style="0" width="37"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="13" min="13" style="0" width="79"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="14" min="14" style="0" width="79"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="15" min="15" style="0" width="23"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="16" min="16" style="0" width="13"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="17" min="17" style="0" width="37"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="18" min="18" style="0" width="79"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="19" min="19" style="0" width="79"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="20" min="20" style="0" width="23"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="1" min="1" style="0" width="14"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="2" min="2" style="0" width="39"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="3" min="3" style="0" width="83"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="4" min="4" style="0" width="83"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="5" min="5" style="0" width="25"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="6" min="6" style="0" width="14"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="7" min="7" style="0" width="39"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="8" min="8" style="0" width="83"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="9" min="9" style="0" width="83"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="10" min="10" style="0" width="25"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="11" min="11" style="0" width="14"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="12" min="12" style="0" width="39"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="13" min="13" style="0" width="83"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="14" min="14" style="0" width="83"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="15" min="15" style="0" width="25"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="16" min="16" style="0" width="14"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="17" min="17" style="0" width="39"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="18" min="18" style="0" width="83"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="19" min="19" style="0" width="83"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="20" min="20" style="0" width="25"/>
   </cols>
   <sheetData>
-    <row customHeight="true" ht="21" r="1"/>
-    <row customHeight="true" ht="21" r="2"/>
-    <row customHeight="true" ht="21" r="3"/>
-    <row customHeight="true" ht="21" r="4"/>
-    <row customHeight="true" ht="21" r="5"/>
-    <row customHeight="true" ht="21" r="6"/>
-    <row customHeight="true" ht="21" r="7"/>
-    <row customHeight="true" ht="21" r="8"/>
-    <row customHeight="true" ht="21" r="9"/>
-    <row customHeight="true" ht="21" r="10"/>
-    <row customHeight="true" ht="21" r="11"/>
-    <row customHeight="true" ht="21" r="12"/>
-    <row customHeight="true" ht="21" r="13"/>
-    <row customHeight="true" ht="21" r="14"/>
-    <row customHeight="true" ht="21" r="15"/>
-    <row customHeight="true" ht="21" r="16"/>
-    <row customHeight="true" ht="21" r="17"/>
-    <row customHeight="true" ht="21" r="18"/>
-    <row customHeight="true" ht="21" r="19"/>
-    <row customHeight="true" ht="21" r="20"/>
+    <row customHeight="true" ht="23" r="1"/>
+    <row customHeight="true" ht="23" r="2"/>
+    <row customHeight="true" ht="23" r="3"/>
+    <row customHeight="true" ht="23" r="4"/>
+    <row customHeight="true" ht="23" r="5"/>
+    <row customHeight="true" ht="23" r="6"/>
+    <row customHeight="true" ht="23" r="7"/>
+    <row customHeight="true" ht="23" r="8"/>
+    <row customHeight="true" ht="23" r="9"/>
+    <row customHeight="true" ht="23" r="10"/>
+    <row customHeight="true" ht="23" r="11"/>
+    <row customHeight="true" ht="23" r="12"/>
+    <row customHeight="true" ht="23" r="13"/>
+    <row customHeight="true" ht="23" r="14"/>
+    <row customHeight="true" ht="23" r="15"/>
+    <row customHeight="true" ht="23" r="16"/>
+    <row customHeight="true" ht="23" r="17"/>
+    <row customHeight="true" ht="23" r="18"/>
+    <row customHeight="true" ht="23" r="19"/>
+    <row customHeight="true" ht="23" r="20"/>
   </sheetData>
 </worksheet>
 </file>
--- a/wolf/Excel/Language_小镇多语言.xlsx
+++ b/wolf/Excel/Language_小镇多语言.xlsx
@@ -89,105 +89,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9.75"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF1F2329"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF1F2329"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF1F2329"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF1F2329"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -250,8 +152,57 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="9"/>
       <color rgb="FF1F2329"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF1F2329"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -278,6 +229,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b val="true"/>
       <sz val="9"/>
       <color rgb="FF000000"/>
@@ -288,6 +260,34 @@
     <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF1F2329"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF1F2329"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF1F2329"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -314,6 +314,66 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFECE2FE"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFECE2FE"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEEF6C6"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEEF6C6"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF258"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEEF6C6"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD5F6F2"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD5F6F2"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFAD355"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFAD355"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFEEF6C6"/>
         <bgColor/>
       </patternFill>
@@ -332,19 +392,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFEEF6C6"/>
-        <bgColor/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFEEF6C6"/>
-        <bgColor/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFEEF6C6"/>
+        <fgColor rgb="FFD9F5D6"/>
         <bgColor/>
       </patternFill>
     </fill>
@@ -362,37 +410,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFECE2FE"/>
-        <bgColor/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFECE2FE"/>
-        <bgColor/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD9F5D6"/>
-        <bgColor/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD5F6F2"/>
-        <bgColor/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD5F6F2"/>
-        <bgColor/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFECE2FE"/>
+        <fgColor rgb="FF8EE085"/>
         <bgColor/>
       </patternFill>
     </fill>
@@ -410,13 +428,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFAD355"/>
-        <bgColor/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFAD355"/>
+        <fgColor rgb="FFFDDDEF"/>
         <bgColor/>
       </patternFill>
     </fill>
@@ -428,19 +440,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFF258"/>
-        <bgColor/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFDDDEF"/>
-        <bgColor/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF8EE085"/>
+        <fgColor rgb="FFECE2FE"/>
         <bgColor/>
       </patternFill>
     </fill>
@@ -712,100 +712,100 @@
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="3" fillId="2" fontId="3" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="4" fillId="2" fontId="4" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="4" fillId="3" fontId="4" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="5" fillId="3" fontId="5" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="5" fillId="0" fontId="5" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="6" fillId="4" fontId="6" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="7" fillId="0" fontId="7" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="8" fillId="0" fontId="8" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="9" fillId="0" fontId="9" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="6" fillId="0" fontId="6" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="10" fillId="0" fontId="10" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="7" fillId="0" fontId="7" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="8" fillId="4" fontId="8" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="11" fillId="0" fontId="11" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="9" fillId="5" fontId="9" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="12" fillId="5" fontId="12" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="13" fillId="6" fontId="13" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="14" fillId="7" fontId="14" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="15" fillId="0" fontId="15" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="10" fillId="0" fontId="10" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="16" fillId="8" fontId="16" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="11" fillId="6" fontId="11" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="17" fillId="9" fontId="17" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="12" fillId="0" fontId="12" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="18" fillId="10" fontId="18" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="19" fillId="11" fontId="19" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="20" fillId="12" fontId="20" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="13" fillId="0" fontId="13" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="21" fillId="13" fontId="21" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="22" fillId="14" fontId="22" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="14" fillId="7" fontId="14" numFmtId="0" xfId="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="15" fillId="8" fontId="15" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="23" fillId="15" fontId="23" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="16" fillId="9" fontId="16" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="24" fillId="16" fontId="24" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="25" fillId="17" fontId="25" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="17" fillId="10" fontId="17" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="26" fillId="18" fontId="26" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="18" fillId="11" fontId="18" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="27" fillId="19" fontId="27" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="19" fillId="12" fontId="19" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" applyProtection="false" borderId="28" fillId="0" fontId="28" numFmtId="164" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="29" fillId="0" fontId="29" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="20" fillId="13" fontId="20" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="30" fillId="0" fontId="30" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="31" fillId="20" fontId="31" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="32" fillId="21" fontId="32" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="21" fillId="0" fontId="21" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="33" fillId="22" fontId="33" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="22" fillId="14" fontId="22" numFmtId="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="23" fillId="15" fontId="23" numFmtId="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="24" fillId="0" fontId="24" numFmtId="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="25" fillId="16" fontId="25" numFmtId="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="26" fillId="17" fontId="26" numFmtId="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="27" fillId="18" fontId="27" numFmtId="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="28" fillId="19" fontId="28" numFmtId="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="29" fillId="20" fontId="29" numFmtId="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="30" fillId="21" fontId="30" numFmtId="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="31" fillId="22" fontId="31" numFmtId="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="32" fillId="23" fontId="32" numFmtId="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" applyProtection="false" borderId="33" fillId="0" fontId="33" numFmtId="164" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="34" fillId="0" fontId="34" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="34" fillId="23" fontId="34" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="35" fillId="24" fontId="35" numFmtId="0" xfId="0">
@@ -1211,13 +1211,13 @@
     </row>
     <row customHeight="true" ht="23" r="4">
       <c r="A4" s="1" t="str"/>
-      <c r="B4" s="34" t="str">
+      <c r="B4" s="30" t="str">
         <v>Key|ReadByName</v>
       </c>
       <c r="C4" s="2" t="str">
         <v>MainLanguage</v>
       </c>
-      <c r="D4" s="34" t="str">
+      <c r="D4" s="30" t="str">
         <v>ChildLanguage</v>
       </c>
       <c r="E4" s="1" t="str"/>
@@ -2243,7 +2243,7 @@
       <c r="C72" s="2" t="str">
         <v>Use</v>
       </c>
-      <c r="D72" s="13" t="str">
+      <c r="D72" s="15" t="str">
         <v>使用</v>
       </c>
       <c r="E72" s="1" t="str"/>
@@ -2378,7 +2378,7 @@
       <c r="C81" s="2" t="str">
         <v>Use</v>
       </c>
-      <c r="D81" s="13" t="str">
+      <c r="D81" s="15" t="str">
         <v>使用</v>
       </c>
       <c r="E81" s="1" t="str"/>
@@ -2387,13 +2387,13 @@
       <c r="A82" s="1">
         <v>30049</v>
       </c>
-      <c r="B82" s="12" t="str">
+      <c r="B82" s="11" t="str">
         <v>Text_Content_10301</v>
       </c>
-      <c r="C82" s="12" t="str">
+      <c r="C82" s="11" t="str">
         <v>Please select a map to play</v>
       </c>
-      <c r="D82" s="12" t="str">
+      <c r="D82" s="11" t="str">
         <v>请选择要游玩的地图</v>
       </c>
       <c r="E82" s="1" t="str"/>
@@ -2402,13 +2402,13 @@
       <c r="A83" s="1">
         <v>30050</v>
       </c>
-      <c r="B83" s="12" t="str">
+      <c r="B83" s="11" t="str">
         <v>Text_Content_10302</v>
       </c>
-      <c r="C83" s="12" t="str">
+      <c r="C83" s="11" t="str">
         <v>Map Selected</v>
       </c>
-      <c r="D83" s="12" t="str">
+      <c r="D83" s="11" t="str">
         <v>地图已选出</v>
       </c>
       <c r="E83" s="1" t="str"/>
@@ -2417,13 +2417,13 @@
       <c r="A84" s="1">
         <v>30051</v>
       </c>
-      <c r="B84" s="12" t="str">
+      <c r="B84" s="11" t="str">
         <v>Text_Content_10004</v>
       </c>
-      <c r="C84" s="12" t="str">
+      <c r="C84" s="11" t="str">
         <v>Randomizing</v>
       </c>
-      <c r="D84" s="12" t="str">
+      <c r="D84" s="11" t="str">
         <v>随机地图中</v>
       </c>
       <c r="E84" s="1" t="str"/>
@@ -2432,13 +2432,13 @@
       <c r="A85" s="1">
         <v>30052</v>
       </c>
-      <c r="B85" s="12" t="str">
+      <c r="B85" s="11" t="str">
         <v>Text_Content_20029</v>
       </c>
-      <c r="C85" s="12" t="str">
+      <c r="C85" s="11" t="str">
         <v>Trail</v>
       </c>
-      <c r="D85" s="13" t="str">
+      <c r="D85" s="15" t="str">
         <v>拖尾</v>
       </c>
       <c r="E85" s="1"/>
@@ -2447,13 +2447,13 @@
       <c r="A86" s="1">
         <v>30053</v>
       </c>
-      <c r="B86" s="12" t="str">
+      <c r="B86" s="11" t="str">
         <v>Text_Content_20030</v>
       </c>
-      <c r="C86" s="12" t="str">
+      <c r="C86" s="11" t="str">
         <v>Get it for free</v>
       </c>
-      <c r="D86" s="13" t="str">
+      <c r="D86" s="15" t="str">
         <v>免费领取</v>
       </c>
       <c r="E86" s="1" t="str"/>
@@ -2462,13 +2462,13 @@
       <c r="A87" s="1">
         <v>30054</v>
       </c>
-      <c r="B87" s="12" t="str">
+      <c r="B87" s="11" t="str">
         <v>Text_Content_20031</v>
       </c>
-      <c r="C87" s="12" t="str">
+      <c r="C87" s="11" t="str">
         <v>Watch ads to get extra rewards</v>
       </c>
-      <c r="D87" s="13" t="str">
+      <c r="D87" s="15" t="str">
         <v>观看广告领取额外奖励</v>
       </c>
       <c r="E87" s="1" t="str"/>
@@ -2477,13 +2477,13 @@
       <c r="A88" s="1">
         <v>30055</v>
       </c>
-      <c r="B88" s="12" t="str">
+      <c r="B88" s="11" t="str">
         <v>Text_Content_20032</v>
       </c>
-      <c r="C88" s="12" t="str">
+      <c r="C88" s="11" t="str">
         <v>Watch the ad to receive compensation</v>
       </c>
-      <c r="D88" s="12" t="str">
+      <c r="D88" s="11" t="str">
         <v>观看广告领取补偿</v>
       </c>
       <c r="E88" s="1" t="str"/>
@@ -2492,13 +2492,13 @@
       <c r="A89" s="1">
         <v>30056</v>
       </c>
-      <c r="B89" s="12" t="str">
+      <c r="B89" s="11" t="str">
         <v>Text_Content_20033</v>
       </c>
-      <c r="C89" s="12" t="str">
+      <c r="C89" s="11" t="str">
         <v>Congratulations on receiving</v>
       </c>
-      <c r="D89" s="13" t="str">
+      <c r="D89" s="15" t="str">
         <v>恭喜获得</v>
       </c>
       <c r="E89" s="1" t="str"/>
@@ -2507,13 +2507,13 @@
       <c r="A90" s="1">
         <v>30057</v>
       </c>
-      <c r="B90" s="12" t="str">
+      <c r="B90" s="11" t="str">
         <v>Tips_Content_20003</v>
       </c>
-      <c r="C90" s="12" t="str">
+      <c r="C90" s="11" t="str">
         <v>It's not ready yet, please wait a little longer to get it~</v>
       </c>
-      <c r="D90" s="13" t="str">
+      <c r="D90" s="15" t="str">
         <v>时间还没到，再等一下才能获得哦~</v>
       </c>
       <c r="E90" s="1" t="str"/>
@@ -2522,13 +2522,13 @@
       <c r="A91" s="1">
         <v>30058</v>
       </c>
-      <c r="B91" s="12" t="str">
+      <c r="B91" s="11" t="str">
         <v>Tips_Content_20004</v>
       </c>
-      <c r="C91" s="12" t="str">
+      <c r="C91" s="11" t="str">
         <v>You've already received plenty of rewards today, so please come back tomorrow~</v>
       </c>
-      <c r="D91" s="13" t="str">
+      <c r="D91" s="15" t="str">
         <v>今天已经得到很多奖励了，明天再来吧~</v>
       </c>
       <c r="E91" s="1" t="str"/>
@@ -2537,13 +2537,13 @@
       <c r="A92" s="1">
         <v>30059</v>
       </c>
-      <c r="B92" s="12" t="str">
+      <c r="B92" s="11" t="str">
         <v>Text_Content_11014</v>
       </c>
-      <c r="C92" s="12" t="str">
+      <c r="C92" s="11" t="str">
         <v>Available</v>
       </c>
-      <c r="D92" s="13" t="str">
+      <c r="D92" s="15" t="str">
         <v>待拾取</v>
       </c>
       <c r="E92" s="1"/>
@@ -2552,13 +2552,13 @@
       <c r="A93" s="1">
         <v>30060</v>
       </c>
-      <c r="B93" s="12" t="str">
+      <c r="B93" s="11" t="str">
         <v>Text_Content_11015</v>
       </c>
-      <c r="C93" s="12" t="str">
+      <c r="C93" s="11" t="str">
         <v>Exist</v>
       </c>
-      <c r="D93" s="13" t="str">
+      <c r="D93" s="15" t="str">
         <v>存在</v>
       </c>
       <c r="E93" s="1"/>
@@ -2567,13 +2567,13 @@
       <c r="A94" s="1">
         <v>30061</v>
       </c>
-      <c r="B94" s="12" t="str">
+      <c r="B94" s="11" t="str">
         <v>Text_Content_11016</v>
       </c>
-      <c r="C94" s="12" t="str">
+      <c r="C94" s="11" t="str">
         <v>Survival experience +{0}EXP</v>
       </c>
-      <c r="D94" s="13" t="str">
+      <c r="D94" s="15" t="str">
         <v>存活经验+{0}EXP</v>
       </c>
       <c r="E94" s="1"/>
@@ -2582,13 +2582,13 @@
       <c r="A95" s="1">
         <v>30062</v>
       </c>
-      <c r="B95" s="12" t="str">
+      <c r="B95" s="11" t="str">
         <v>Text_Content_12007</v>
       </c>
-      <c r="C95" s="12" t="str">
+      <c r="C95" s="11" t="str">
         <v>Reward</v>
       </c>
-      <c r="D95" s="12" t="str">
+      <c r="D95" s="11" t="str">
         <v>奖励</v>
       </c>
       <c r="E95" s="1" t="str"/>
@@ -2690,7 +2690,7 @@
       <c r="B102" s="2" t="str">
         <v>Text_Content_12014</v>
       </c>
-      <c r="C102" s="33" t="str">
+      <c r="C102" s="28" t="str">
         <v>× 1.5 (Bonus)</v>
       </c>
       <c r="D102" s="2" t="str">
@@ -2705,7 +2705,7 @@
       <c r="B103" s="2" t="str">
         <v>Text_Content_12015</v>
       </c>
-      <c r="C103" s="33" t="str">
+      <c r="C103" s="28" t="str">
         <v>+ 900 (Bonus )</v>
       </c>
       <c r="D103" s="2" t="str">
@@ -2748,247 +2748,247 @@
       </c>
     </row>
     <row customHeight="true" ht="23" r="106">
-      <c r="A106" s="13">
+      <c r="A106" s="15">
         <v>30073</v>
       </c>
-      <c r="B106" s="12" t="str">
+      <c r="B106" s="11" t="str">
         <v>Text_Content_12018</v>
       </c>
-      <c r="C106" s="12" t="str">
+      <c r="C106" s="11" t="str">
         <v>Lottery</v>
       </c>
-      <c r="D106" s="12" t="str">
+      <c r="D106" s="11" t="str">
         <v>抽奖</v>
       </c>
-      <c r="E106" s="13" t="str">
+      <c r="E106" s="15" t="str">
         <v>UI按钮上的文字</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="107">
-      <c r="A107" s="13">
+      <c r="A107" s="15">
         <v>30074</v>
       </c>
-      <c r="B107" s="12" t="str">
+      <c r="B107" s="11" t="str">
         <v>Text_Content_12019</v>
       </c>
-      <c r="C107" s="12" t="str">
+      <c r="C107" s="11" t="str">
         <v>Weapon Box</v>
       </c>
-      <c r="D107" s="12" t="str">
+      <c r="D107" s="11" t="str">
         <v>武器箱</v>
       </c>
-      <c r="E107" s="13" t="str">
+      <c r="E107" s="15" t="str">
         <v>UI按钮上的文字</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="108">
-      <c r="A108" s="13">
+      <c r="A108" s="15">
         <v>30075</v>
       </c>
-      <c r="B108" s="12" t="str">
+      <c r="B108" s="11" t="str">
         <v>Text_Content_12020</v>
       </c>
-      <c r="C108" s="12" t="str">
+      <c r="C108" s="11" t="str">
         <v>Watch the ad for a free draw</v>
       </c>
-      <c r="D108" s="12" t="str">
+      <c r="D108" s="11" t="str">
         <v>观看广告，免费抽奖一次</v>
       </c>
-      <c r="E108" s="13" t="str">
+      <c r="E108" s="15" t="str">
         <v>UI按钮上的文字</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="109">
-      <c r="A109" s="13">
+      <c r="A109" s="15">
         <v>30076</v>
       </c>
-      <c r="B109" s="12" t="str">
+      <c r="B109" s="11" t="str">
         <v>Text_Content_12021</v>
       </c>
-      <c r="C109" s="12" t="str">
+      <c r="C109" s="11" t="str">
         <v>Until the next free draw:</v>
       </c>
-      <c r="D109" s="12" t="str">
+      <c r="D109" s="11" t="str">
         <v>距离下次免费：</v>
       </c>
-      <c r="E109" s="13" t="str">
+      <c r="E109" s="15" t="str">
         <v>UI按钮上的文字</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="110">
-      <c r="A110" s="13">
+      <c r="A110" s="15">
         <v>30077</v>
       </c>
-      <c r="B110" s="12" t="str">
+      <c r="B110" s="11" t="str">
         <v>Text_Content_12022</v>
       </c>
-      <c r="C110" s="12" t="str">
+      <c r="C110" s="11" t="str">
         <v>Your draws</v>
       </c>
-      <c r="D110" s="12" t="str">
+      <c r="D110" s="11" t="str">
         <v>累计抽奖</v>
       </c>
-      <c r="E110" s="13" t="str">
+      <c r="E110" s="15" t="str">
         <v>UI按钮上的文字</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="111">
-      <c r="A111" s="13">
+      <c r="A111" s="15">
         <v>30078</v>
       </c>
-      <c r="B111" s="12" t="str">
+      <c r="B111" s="11" t="str">
         <v>Text_Content_12023</v>
       </c>
-      <c r="C111" s="12" t="str">
+      <c r="C111" s="11" t="str">
         <v>Next time you will get a RED quality weapon</v>
       </c>
-      <c r="D111" s="12" t="str">
+      <c r="D111" s="11" t="str">
         <v>下次必得红色品质武器</v>
       </c>
-      <c r="E111" s="13" t="str">
+      <c r="E111" s="15" t="str">
         <v>UI按钮上的文字</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="112">
-      <c r="A112" s="13">
+      <c r="A112" s="15">
         <v>30079</v>
       </c>
-      <c r="B112" s="12" t="str">
+      <c r="B112" s="11" t="str">
         <v>Text_Content_12024</v>
       </c>
-      <c r="C112" s="12" t="str">
+      <c r="C112" s="11" t="str">
         <v>Box opening...</v>
       </c>
-      <c r="D112" s="12" t="str">
+      <c r="D112" s="11" t="str">
         <v>正在打开箱子...</v>
       </c>
-      <c r="E112" s="13" t="str">
+      <c r="E112" s="15" t="str">
         <v>UI按钮上的文字</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="113">
-      <c r="A113" s="13">
+      <c r="A113" s="15">
         <v>30080</v>
       </c>
-      <c r="B113" s="12" t="str">
+      <c r="B113" s="11" t="str">
         <v>Text_Content_12025</v>
       </c>
-      <c r="C113" s="12" t="str">
+      <c r="C113" s="11" t="str">
         <v>Congratulations!</v>
       </c>
-      <c r="D113" s="12" t="str">
+      <c r="D113" s="11" t="str">
         <v>恭喜获得</v>
       </c>
-      <c r="E113" s="13" t="str">
+      <c r="E113" s="15" t="str">
         <v>UI按钮上的文字</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="114">
-      <c r="A114" s="13">
+      <c r="A114" s="15">
         <v>30081</v>
       </c>
-      <c r="B114" s="12" t="str">
+      <c r="B114" s="11" t="str">
         <v>Text_Content_12026</v>
       </c>
-      <c r="C114" s="12" t="str">
+      <c r="C114" s="11" t="str">
         <v>Owned, automatically recycled to gold coins</v>
       </c>
-      <c r="D114" s="12" t="str">
+      <c r="D114" s="11" t="str">
         <v>已拥有，自动回收为金币</v>
       </c>
-      <c r="E114" s="13" t="str">
+      <c r="E114" s="15" t="str">
         <v>UI按钮上的文字</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="115">
-      <c r="A115" s="13">
+      <c r="A115" s="15">
         <v>30082</v>
       </c>
-      <c r="B115" s="12" t="str">
+      <c r="B115" s="11" t="str">
         <v>Text_Content_11017</v>
       </c>
-      <c r="C115" s="12" t="str">
+      <c r="C115" s="11" t="str">
         <v>Defeat everyone and leave no one out!</v>
       </c>
-      <c r="D115" s="13" t="str">
+      <c r="D115" s="15" t="str">
         <v>击败所有人，一个也不要放过！</v>
       </c>
-      <c r="E115" s="13"/>
+      <c r="E115" s="15"/>
     </row>
     <row customHeight="true" ht="23" r="116">
-      <c r="A116" s="13">
+      <c r="A116" s="15">
         <v>30083</v>
       </c>
-      <c r="B116" s="12" t="str">
+      <c r="B116" s="11" t="str">
         <v>Text_Content_11018</v>
       </c>
-      <c r="C116" s="12" t="str">
+      <c r="C116" s="11" t="str">
         <v>You are Detective, defeat the Murderer!</v>
       </c>
-      <c r="D116" s="13" t="str">
+      <c r="D116" s="15" t="str">
         <v>你是侦探，寻找凶手并击败他！</v>
       </c>
-      <c r="E116" s="13"/>
+      <c r="E116" s="15"/>
     </row>
     <row customHeight="true" ht="23" r="117">
-      <c r="A117" s="13">
+      <c r="A117" s="15">
         <v>30084</v>
       </c>
-      <c r="B117" s="12" t="str">
+      <c r="B117" s="11" t="str">
         <v>Text_Content_11019</v>
       </c>
-      <c r="C117" s="12" t="str">
+      <c r="C117" s="11" t="str">
         <v>You're the Hero, find the Murderer and defeat him!</v>
       </c>
-      <c r="D117" s="13" t="str">
+      <c r="D117" s="15" t="str">
         <v>你化身英雄，找到凶手击败他！</v>
       </c>
-      <c r="E117" s="13"/>
+      <c r="E117" s="15"/>
     </row>
     <row customHeight="true" ht="23" r="118">
-      <c r="A118" s="13">
+      <c r="A118" s="15">
         <v>30085</v>
       </c>
-      <c r="B118" s="12" t="str">
+      <c r="B118" s="11" t="str">
         <v>Text_Content_11020</v>
       </c>
-      <c r="C118" s="12" t="str">
+      <c r="C118" s="11" t="str">
         <v>Survive...</v>
       </c>
-      <c r="D118" s="13" t="str">
+      <c r="D118" s="15" t="str">
         <v>活下去...</v>
       </c>
-      <c r="E118" s="13"/>
+      <c r="E118" s="15"/>
     </row>
     <row customHeight="true" ht="23" r="119">
-      <c r="A119" s="13">
+      <c r="A119" s="15">
         <v>30086</v>
       </c>
-      <c r="B119" s="12" t="str">
+      <c r="B119" s="11" t="str">
         <v>Text_Content_20034</v>
       </c>
-      <c r="C119" s="12" t="str">
+      <c r="C119" s="11" t="str">
         <v>Terminator!</v>
       </c>
-      <c r="D119" s="13" t="str">
+      <c r="D119" s="15" t="str">
         <v>本轮终结者！</v>
       </c>
-      <c r="E119" s="13"/>
+      <c r="E119" s="15"/>
     </row>
     <row customHeight="true" ht="23" r="120">
-      <c r="A120" s="13">
+      <c r="A120" s="15">
         <v>30087</v>
       </c>
-      <c r="B120" s="12" t="str">
+      <c r="B120" s="11" t="str">
         <v>Text_Content_20035</v>
       </c>
-      <c r="C120" s="12" t="str">
+      <c r="C120" s="11" t="str">
         <v>Lottery</v>
       </c>
-      <c r="D120" s="13" t="str">
+      <c r="D120" s="15" t="str">
         <v>抽奖获得</v>
       </c>
-      <c r="E120" s="13"/>
+      <c r="E120" s="15"/>
     </row>
     <row customHeight="true" ht="23" r="121">
       <c r="A121" s="1">
@@ -3253,13 +3253,13 @@
       <c r="A138" s="1">
         <v>50003</v>
       </c>
-      <c r="B138" s="12" t="str">
+      <c r="B138" s="11" t="str">
         <v>Weapon_WeaponName_10002</v>
       </c>
       <c r="C138" s="2" t="str">
         <v>Fire Axe</v>
       </c>
-      <c r="D138" s="13" t="str">
+      <c r="D138" s="15" t="str">
         <v>消防斧</v>
       </c>
       <c r="E138" s="1" t="str">
@@ -3270,13 +3270,13 @@
       <c r="A139" s="1">
         <v>50004</v>
       </c>
-      <c r="B139" s="12" t="str">
+      <c r="B139" s="11" t="str">
         <v>Weapon_WeaponName_10003</v>
       </c>
       <c r="C139" s="2" t="str">
         <v>Nepalese Knife</v>
       </c>
-      <c r="D139" s="13" t="str">
+      <c r="D139" s="15" t="str">
         <v>尼泊尔军刀</v>
       </c>
       <c r="E139" s="1" t="str">
@@ -3287,13 +3287,13 @@
       <c r="A140" s="1">
         <v>50005</v>
       </c>
-      <c r="B140" s="12" t="str">
+      <c r="B140" s="11" t="str">
         <v>Weapon_WeaponName_20002</v>
       </c>
       <c r="C140" s="2" t="str">
         <v>Submachine Gun</v>
       </c>
-      <c r="D140" s="13" t="str">
+      <c r="D140" s="15" t="str">
         <v>冲锋枪</v>
       </c>
       <c r="E140" s="1" t="str">
@@ -3304,13 +3304,13 @@
       <c r="A141" s="1">
         <v>50006</v>
       </c>
-      <c r="B141" s="12" t="str">
+      <c r="B141" s="11" t="str">
         <v>Weapon_WeaponName_20003</v>
       </c>
       <c r="C141" s="2" t="str">
         <v>Rifle</v>
       </c>
-      <c r="D141" s="13" t="str">
+      <c r="D141" s="15" t="str">
         <v>步枪</v>
       </c>
       <c r="E141" s="1" t="str">
@@ -3327,7 +3327,7 @@
       <c r="C142" s="2" t="str">
         <v>Assassin Dagger</v>
       </c>
-      <c r="D142" s="13" t="str">
+      <c r="D142" s="15" t="str">
         <v>暗杀匕首</v>
       </c>
       <c r="E142" s="1" t="str">
@@ -3344,7 +3344,7 @@
       <c r="C143" s="2" t="str">
         <v>Survival Dagger</v>
       </c>
-      <c r="D143" s="13" t="str">
+      <c r="D143" s="15" t="str">
         <v>求生匕首</v>
       </c>
       <c r="E143" s="1" t="str">
@@ -3361,7 +3361,7 @@
       <c r="C144" s="2" t="str">
         <v>Kitchen Knife</v>
       </c>
-      <c r="D144" s="13" t="str">
+      <c r="D144" s="15" t="str">
         <v>菜刀</v>
       </c>
       <c r="E144" s="1" t="str">
@@ -3881,10 +3881,10 @@
         <v>Level_Name_10002</v>
       </c>
       <c r="C176" s="2" t="str">
-        <v>Forest Cortyard</v>
+        <v>Barbiesville</v>
       </c>
       <c r="D176" s="1" t="str">
-        <v>林中庭院</v>
+        <v>芭比小镇</v>
       </c>
       <c r="E176" s="1" t="str">
         <v>关卡地图名称</v>
@@ -4588,750 +4588,750 @@
       </c>
     </row>
     <row customHeight="true" ht="23" r="218">
-      <c r="A218" s="3">
+      <c r="A218" s="4">
         <v>90001</v>
       </c>
-      <c r="B218" s="14" t="str">
+      <c r="B218" s="12" t="str">
         <v>Chat_chat_1</v>
       </c>
-      <c r="C218" s="3" t="str">
+      <c r="C218" s="4" t="str">
         <v>I am {1}!</v>
       </c>
-      <c r="D218" s="14" t="str">
+      <c r="D218" s="12" t="str">
         <v>我是{1}~</v>
       </c>
-      <c r="E218" s="3"/>
+      <c r="E218" s="4"/>
     </row>
     <row customHeight="true" ht="23" r="219">
-      <c r="A219" s="3">
+      <c r="A219" s="4">
         <v>90002</v>
       </c>
-      <c r="B219" s="14" t="str">
+      <c r="B219" s="12" t="str">
         <v>Chat_chat_2</v>
       </c>
-      <c r="C219" s="3" t="str">
+      <c r="C219" s="4" t="str">
         <v>Who is the murderer?</v>
       </c>
-      <c r="D219" s="15" t="str">
+      <c r="D219" s="16" t="str">
         <v>凶手是谁？</v>
       </c>
-      <c r="E219" s="3" t="str"/>
+      <c r="E219" s="4" t="str"/>
     </row>
     <row customHeight="true" ht="23" r="220">
-      <c r="A220" s="3">
+      <c r="A220" s="4">
         <v>90003</v>
       </c>
-      <c r="B220" s="14" t="str">
+      <c r="B220" s="12" t="str">
         <v>Chat_chat_3</v>
       </c>
-      <c r="C220" s="3" t="str">
+      <c r="C220" s="4" t="str">
         <v>Help!</v>
       </c>
-      <c r="D220" s="15" t="str">
+      <c r="D220" s="16" t="str">
         <v>救命！</v>
       </c>
-      <c r="E220" s="3" t="str"/>
+      <c r="E220" s="4" t="str"/>
     </row>
     <row customHeight="true" ht="23" r="221">
-      <c r="A221" s="3">
+      <c r="A221" s="4">
         <v>90004</v>
       </c>
-      <c r="B221" s="14" t="str">
+      <c r="B221" s="12" t="str">
         <v>Chat_chat_4</v>
       </c>
-      <c r="C221" s="3" t="str">
+      <c r="C221" s="4" t="str">
         <v>Thank you!</v>
       </c>
-      <c r="D221" s="15" t="str">
+      <c r="D221" s="16" t="str">
         <v>谢谢你！</v>
       </c>
-      <c r="E221" s="3" t="str"/>
+      <c r="E221" s="4" t="str"/>
     </row>
     <row customHeight="true" ht="23" r="222">
-      <c r="A222" s="3">
+      <c r="A222" s="4">
         <v>90005</v>
       </c>
-      <c r="B222" s="14" t="str">
+      <c r="B222" s="12" t="str">
         <v>Chat_chat_5</v>
       </c>
-      <c r="C222" s="3" t="str">
+      <c r="C222" s="4" t="str">
         <v>Hello!</v>
       </c>
-      <c r="D222" s="4" t="str">
+      <c r="D222" s="13" t="str">
         <v>你好！</v>
       </c>
-      <c r="E222" s="3" t="str"/>
+      <c r="E222" s="4" t="str"/>
     </row>
     <row customHeight="true" ht="23" r="223">
-      <c r="A223" s="3">
+      <c r="A223" s="4">
         <v>90006</v>
       </c>
-      <c r="B223" s="14" t="str">
+      <c r="B223" s="12" t="str">
         <v>Chat_chat_6</v>
       </c>
-      <c r="C223" s="3" t="str">
+      <c r="C223" s="4" t="str">
         <v>Don't kill me :(((</v>
       </c>
-      <c r="D223" s="15" t="str">
+      <c r="D223" s="16" t="str">
         <v>别刀我QAQ</v>
       </c>
-      <c r="E223" s="3" t="str">
+      <c r="E223" s="4" t="str">
         <v>QAQ希望也本地化一下，换成欧美比较熟悉的颜表情</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="224">
-      <c r="A224" s="3">
+      <c r="A224" s="4">
         <v>90007</v>
       </c>
-      <c r="B224" s="14" t="str">
+      <c r="B224" s="12" t="str">
         <v>Chat_chat_7</v>
       </c>
-      <c r="C224" s="3" t="str">
+      <c r="C224" s="4" t="str">
         <v>Stay away from me!</v>
       </c>
-      <c r="D224" s="15" t="str">
+      <c r="D224" s="16" t="str">
         <v>退！退！退！</v>
       </c>
-      <c r="E224" s="3"/>
+      <c r="E224" s="4"/>
     </row>
     <row customHeight="true" ht="23" r="225">
-      <c r="A225" s="3">
+      <c r="A225" s="4">
         <v>90008</v>
       </c>
-      <c r="B225" s="14" t="str">
+      <c r="B225" s="12" t="str">
         <v>Chat_chat_8</v>
       </c>
-      <c r="C225" s="3" t="str">
+      <c r="C225" s="4" t="str">
         <v>Perfect!</v>
       </c>
-      <c r="D225" s="15" t="str">
+      <c r="D225" s="16" t="str">
         <v>满分操作~</v>
       </c>
-      <c r="E225" s="3" t="str"/>
+      <c r="E225" s="4" t="str"/>
     </row>
     <row customHeight="true" ht="23" r="226">
-      <c r="A226" s="3">
+      <c r="A226" s="4">
         <v>90009</v>
       </c>
-      <c r="B226" s="14" t="str">
+      <c r="B226" s="12" t="str">
         <v>Chat_chat_9</v>
       </c>
-      <c r="C226" s="3" t="str">
+      <c r="C226" s="4" t="str">
         <v>Show time!</v>
       </c>
-      <c r="D226" s="15" t="str">
+      <c r="D226" s="16" t="str">
         <v>我要开始表演了~</v>
       </c>
-      <c r="E226" s="3" t="str"/>
+      <c r="E226" s="4" t="str"/>
     </row>
     <row customHeight="true" ht="23" r="227">
-      <c r="A227" s="3">
+      <c r="A227" s="4">
         <v>90010</v>
       </c>
-      <c r="B227" s="11" t="str">
+      <c r="B227" s="21" t="str">
         <v>Text_Content_20042</v>
       </c>
-      <c r="C227" s="3" t="str">
+      <c r="C227" s="4" t="str">
         <v>Student</v>
       </c>
-      <c r="D227" s="3" t="str">
+      <c r="D227" s="4" t="str">
         <v>学生</v>
       </c>
-      <c r="E227" s="3" t="str"/>
+      <c r="E227" s="4" t="str"/>
     </row>
     <row customHeight="true" ht="23" r="228">
-      <c r="A228" s="3">
+      <c r="A228" s="4">
         <v>90011</v>
       </c>
-      <c r="B228" s="11" t="str">
+      <c r="B228" s="21" t="str">
         <v>Text_Content_20043</v>
       </c>
-      <c r="C228" s="3" t="str">
+      <c r="C228" s="4" t="str">
         <v>Detective</v>
       </c>
-      <c r="D228" s="3" t="str">
+      <c r="D228" s="4" t="str">
         <v>侦探</v>
       </c>
-      <c r="E228" s="3" t="str"/>
+      <c r="E228" s="4" t="str"/>
     </row>
     <row customHeight="true" ht="23" r="229">
-      <c r="A229" s="3">
+      <c r="A229" s="4">
         <v>90012</v>
       </c>
-      <c r="B229" s="11" t="str">
+      <c r="B229" s="21" t="str">
         <v>Text_Content_20044</v>
       </c>
-      <c r="C229" s="3" t="str">
+      <c r="C229" s="4" t="str">
         <v>Murderer</v>
       </c>
-      <c r="D229" s="3" t="str">
+      <c r="D229" s="4" t="str">
         <v>凶手</v>
       </c>
-      <c r="E229" s="3" t="str"/>
+      <c r="E229" s="4" t="str"/>
     </row>
     <row customHeight="true" ht="23" r="230">
-      <c r="A230" s="3">
+      <c r="A230" s="4">
         <v>90013</v>
       </c>
-      <c r="B230" s="11" t="str">
+      <c r="B230" s="21" t="str">
         <v>Text_Content_20036</v>
       </c>
-      <c r="C230" s="3" t="str">
+      <c r="C230" s="4" t="str">
         <v>1. The Murderer can attack in two ways
 2. In melee attack mode, you will auto wave knife when aproaching other players.
 3. An aming sign will appear when you are nearby a target. Tap the sign to attack.</v>
       </c>
-      <c r="D230" s="3" t="str">
+      <c r="D230" s="4" t="str">
         <v>1.凶手有近战穿刺、远程飞刀两种方式，可以自由切换
 2.在近战状态下，靠近其他玩家并面向他们，就可以自动挥刀击杀
 3.在远程状态下，附近有可攻击的目标时，会出现瞄准标志，点击标志即可扔出飞刀</v>
       </c>
-      <c r="E230" s="3" t="str">
+      <c r="E230" s="4" t="str">
         <v>文本长度尽量和中文一致</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="231">
-      <c r="A231" s="3">
+      <c r="A231" s="4">
         <v>90014</v>
       </c>
-      <c r="B231" s="11" t="str">
+      <c r="B231" s="21" t="str">
         <v>Text_Content_20037</v>
       </c>
-      <c r="C231" s="3" t="str">
+      <c r="C231" s="4" t="str">
         <v>1. The detective can shoot in two ways.
 2. An aming sign will appear when holding the gun nearby a target. Tap the sign to fire.
 3. Also, you can tap any position to fire at.</v>
       </c>
-      <c r="D231" s="3" t="str">
+      <c r="D231" s="4" t="str">
         <v>1.侦探可以开枪进行射击，有两种射击方法
 2.在持枪状态下，附近有可攻击目标时，会出现瞄准标志，点击标志即可发射子弹
 3.除此之外，持枪状态下点击任意位置都可以发射子弹哦~</v>
       </c>
-      <c r="E231" s="3" t="str">
+      <c r="E231" s="4" t="str">
         <v>文本长度尽量和中文一致</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="232">
-      <c r="A232" s="3">
+      <c r="A232" s="4">
         <v>90015</v>
       </c>
-      <c r="B232" s="11" t="str">
+      <c r="B232" s="21" t="str">
         <v>Text_Content_20038</v>
       </c>
-      <c r="C232" s="3" t="str">
+      <c r="C232" s="4" t="str">
         <v>1. If you are a murderer/detective, try not to reveal your identity.
 2. Don't trust anyone who tries to get close to you, they are dangerous, always stay alert.
 3. If you are a student, try to survive!</v>
       </c>
-      <c r="D232" s="3" t="str">
+      <c r="D232" s="4" t="str">
         <v>1.如果你是杀手/侦探，请尽量不要暴露自己的身份
 2.不要相信任何试图靠近你的人，他们很危险，时刻保持警惕
 3.假如你是平民，那么努力活下来吧</v>
       </c>
-      <c r="E232" s="3" t="str">
+      <c r="E232" s="4" t="str">
         <v>文本长度尽量和中文一致</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="233">
-      <c r="A233" s="3">
+      <c r="A233" s="4">
         <v>90016</v>
       </c>
-      <c r="B233" s="11" t="str">
+      <c r="B233" s="21" t="str">
         <v>Text_Content_20039</v>
       </c>
-      <c r="C233" s="3" t="str">
+      <c r="C233" s="4" t="str">
         <v>Murderer Tutorial</v>
       </c>
-      <c r="D233" s="3" t="str">
+      <c r="D233" s="4" t="str">
         <v>凶手教学</v>
       </c>
-      <c r="E233" s="3" t="str"/>
+      <c r="E233" s="4" t="str"/>
     </row>
     <row customHeight="true" ht="23" r="234">
-      <c r="A234" s="3">
+      <c r="A234" s="4">
         <v>90017</v>
       </c>
-      <c r="B234" s="11" t="str">
+      <c r="B234" s="21" t="str">
         <v>Text_Content_20040</v>
       </c>
-      <c r="C234" s="3" t="str">
+      <c r="C234" s="4" t="str">
         <v>Detective Tutorial</v>
       </c>
-      <c r="D234" s="3" t="str">
+      <c r="D234" s="4" t="str">
         <v>侦探教学</v>
       </c>
-      <c r="E234" s="3" t="str"/>
+      <c r="E234" s="4" t="str"/>
     </row>
     <row customHeight="true" ht="23" r="235">
-      <c r="A235" s="3">
+      <c r="A235" s="4">
         <v>90018</v>
       </c>
-      <c r="B235" s="11" t="str">
+      <c r="B235" s="21" t="str">
         <v>Text_Content_20041</v>
       </c>
-      <c r="C235" s="3" t="str">
+      <c r="C235" s="4" t="str">
         <v>Tips</v>
       </c>
-      <c r="D235" s="3" t="str">
+      <c r="D235" s="4" t="str">
         <v>温馨提示</v>
       </c>
-      <c r="E235" s="3" t="str"/>
+      <c r="E235" s="4" t="str"/>
     </row>
     <row customHeight="true" ht="23" r="236">
-      <c r="A236" s="3">
+      <c r="A236" s="4">
         <v>90019</v>
       </c>
-      <c r="B236" s="4" t="str">
+      <c r="B236" s="13" t="str">
         <v>Tips_Content_20009</v>
       </c>
-      <c r="C236" s="3" t="str">
+      <c r="C236" s="4" t="str">
         <v>The murderer defeated you.</v>
       </c>
-      <c r="D236" s="16" t="str">
+      <c r="D236" s="25" t="str">
         <v>凶手淘汰了你</v>
       </c>
-      <c r="E236" s="3" t="str"/>
+      <c r="E236" s="4" t="str"/>
     </row>
     <row customHeight="true" ht="23" r="237">
-      <c r="A237" s="3">
+      <c r="A237" s="4">
         <v>90020</v>
       </c>
-      <c r="B237" s="4" t="str">
+      <c r="B237" s="13" t="str">
         <v>Tips_Content_20010</v>
       </c>
-      <c r="C237" s="3" t="str">
+      <c r="C237" s="4" t="str">
         <v>Wrong target, you're eliminated.</v>
       </c>
-      <c r="D237" s="16" t="str">
+      <c r="D237" s="25" t="str">
         <v>目标错误，你被淘汰了</v>
       </c>
-      <c r="E237" s="3" t="str"/>
+      <c r="E237" s="4" t="str"/>
     </row>
     <row customHeight="true" ht="23" r="238">
-      <c r="A238" s="3">
+      <c r="A238" s="4">
         <v>90021</v>
       </c>
-      <c r="B238" s="4" t="str">
+      <c r="B238" s="13" t="str">
         <v>Tips_Content_20011</v>
       </c>
-      <c r="C238" s="3" t="str">
+      <c r="C238" s="4" t="str">
         <v>You have been eliminated by the detective.</v>
       </c>
-      <c r="D238" s="16" t="str">
+      <c r="D238" s="25" t="str">
         <v>已被正义的警探消灭</v>
       </c>
-      <c r="E238" s="3" t="str"/>
+      <c r="E238" s="4" t="str"/>
     </row>
     <row customHeight="true" ht="23" r="239">
-      <c r="A239" s="3">
+      <c r="A239" s="4">
         <v>90022</v>
       </c>
-      <c r="B239" s="4" t="str">
+      <c r="B239" s="13" t="str">
         <v>Text_Content_12027</v>
       </c>
-      <c r="C239" s="3" t="str">
+      <c r="C239" s="4" t="str">
         <v>Power Store</v>
       </c>
-      <c r="D239" s="3" t="str">
+      <c r="D239" s="4" t="str">
         <v>能力商店</v>
       </c>
-      <c r="E239" s="3" t="str"/>
+      <c r="E239" s="4" t="str"/>
     </row>
     <row customHeight="true" ht="23" r="240">
-      <c r="A240" s="3">
+      <c r="A240" s="4">
         <v>90023</v>
       </c>
-      <c r="B240" s="4" t="str">
+      <c r="B240" s="13" t="str">
         <v>Text_Content_12028</v>
       </c>
-      <c r="C240" s="3" t="str">
+      <c r="C240" s="4" t="str">
         <v>Power Details</v>
       </c>
-      <c r="D240" s="3" t="str">
+      <c r="D240" s="4" t="str">
         <v>能力详情</v>
       </c>
-      <c r="E240" s="3" t="str"/>
+      <c r="E240" s="4" t="str"/>
     </row>
     <row customHeight="true" ht="23" r="241">
-      <c r="A241" s="3">
+      <c r="A241" s="4">
         <v>90024</v>
       </c>
-      <c r="B241" s="4" t="str">
+      <c r="B241" s="13" t="str">
         <v>Text_Content_12029</v>
       </c>
-      <c r="C241" s="3" t="str">
+      <c r="C241" s="4" t="str">
         <v>Equip</v>
       </c>
-      <c r="D241" s="3" t="str">
+      <c r="D241" s="4" t="str">
         <v>装备</v>
       </c>
-      <c r="E241" s="3" t="str">
+      <c r="E241" s="4" t="str">
         <v>动词</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="242">
-      <c r="A242" s="3">
+      <c r="A242" s="4">
         <v>90025</v>
       </c>
-      <c r="B242" s="4" t="str">
+      <c r="B242" s="13" t="str">
         <v>Text_Content_12030</v>
       </c>
-      <c r="C242" s="3" t="str">
+      <c r="C242" s="4" t="str">
         <v>Remove</v>
       </c>
-      <c r="D242" s="3" t="str">
+      <c r="D242" s="4" t="str">
         <v>卸下</v>
       </c>
-      <c r="E242" s="3" t="str"/>
+      <c r="E242" s="4" t="str"/>
     </row>
     <row customHeight="true" ht="23" r="243">
-      <c r="A243" s="3">
+      <c r="A243" s="4">
         <v>90026</v>
       </c>
-      <c r="B243" s="4" t="str">
+      <c r="B243" s="13" t="str">
         <v>Text_Content_12031</v>
       </c>
-      <c r="C243" s="3" t="str">
+      <c r="C243" s="4" t="str">
         <v>Coin Purchase</v>
       </c>
-      <c r="D243" s="3" t="str">
+      <c r="D243" s="4" t="str">
         <v>金币购买</v>
       </c>
-      <c r="E243" s="3" t="str"/>
+      <c r="E243" s="4" t="str"/>
     </row>
     <row customHeight="true" ht="23" r="244">
-      <c r="A244" s="3">
+      <c r="A244" s="4">
         <v>90027</v>
       </c>
-      <c r="B244" s="4" t="str">
+      <c r="B244" s="13" t="str">
         <v>Text_Content_12032</v>
       </c>
-      <c r="C244" s="3" t="str">
+      <c r="C244" s="4" t="str">
         <v>Diamond Purchase</v>
       </c>
-      <c r="D244" s="3" t="str">
+      <c r="D244" s="4" t="str">
         <v>钻石购买</v>
       </c>
-      <c r="E244" s="3" t="str"/>
+      <c r="E244" s="4" t="str"/>
     </row>
     <row customHeight="true" ht="23" r="245">
-      <c r="A245" s="3">
+      <c r="A245" s="4">
         <v>90028</v>
       </c>
-      <c r="B245" s="4" t="str">
+      <c r="B245" s="13" t="str">
         <v>Text_Content_12033</v>
       </c>
-      <c r="C245" s="3" t="str">
+      <c r="C245" s="4" t="str">
         <v>Equipped</v>
       </c>
-      <c r="D245" s="3" t="str">
+      <c r="D245" s="4" t="str">
         <v>装备中</v>
       </c>
-      <c r="E245" s="3" t="str">
+      <c r="E245" s="4" t="str">
         <v>指“已装备”</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="246">
-      <c r="A246" s="3">
+      <c r="A246" s="4">
         <v>90029</v>
       </c>
-      <c r="B246" s="4" t="str">
+      <c r="B246" s="13" t="str">
         <v>Text_Content_12034</v>
       </c>
-      <c r="C246" s="3" t="str">
+      <c r="C246" s="4" t="str">
         <v>Owned</v>
       </c>
-      <c r="D246" s="3" t="str">
+      <c r="D246" s="4" t="str">
         <v>已拥有</v>
       </c>
-      <c r="E246" s="3" t="str"/>
+      <c r="E246" s="4" t="str"/>
     </row>
     <row customHeight="true" ht="23" r="247">
-      <c r="A247" s="3">
+      <c r="A247" s="4">
         <v>90030</v>
       </c>
-      <c r="B247" s="4" t="str">
+      <c r="B247" s="13" t="str">
         <v>Tips_Content_10011</v>
       </c>
-      <c r="C247" s="3" t="str">
+      <c r="C247" s="4" t="str">
         <v>Purchase successfully!</v>
       </c>
-      <c r="D247" s="3" t="str">
+      <c r="D247" s="4" t="str">
         <v>购买成功</v>
       </c>
-      <c r="E247" s="3" t="str"/>
+      <c r="E247" s="4" t="str"/>
     </row>
     <row customHeight="true" ht="23" r="248">
-      <c r="A248" s="3">
+      <c r="A248" s="4">
         <v>90031</v>
       </c>
-      <c r="B248" s="4" t="str">
+      <c r="B248" s="13" t="str">
         <v>Tips_Content_10012</v>
       </c>
-      <c r="C248" s="3" t="str">
+      <c r="C248" s="4" t="str">
         <v>Purchase failed</v>
       </c>
       <c r="D248" s="2" t="str">
         <v>货币不足，再攒攒吧~</v>
       </c>
-      <c r="E248" s="3" t="str"/>
+      <c r="E248" s="4" t="str"/>
     </row>
     <row customHeight="true" ht="23" r="249">
-      <c r="A249" s="3">
+      <c r="A249" s="4">
         <v>90032</v>
       </c>
-      <c r="B249" s="3" t="str">
+      <c r="B249" s="4" t="str">
         <v>SkillShop_Name_10001</v>
       </c>
-      <c r="C249" s="3" t="str">
+      <c r="C249" s="4" t="str">
         <v>Killer Pace</v>
       </c>
-      <c r="D249" s="3" t="str">
+      <c r="D249" s="4" t="str">
         <v>杀手步伐</v>
       </c>
-      <c r="E249" s="3" t="str">
+      <c r="E249" s="4" t="str">
         <v>杀手的特殊能力名称</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="250">
-      <c r="A250" s="3">
+      <c r="A250" s="4">
         <v>90033</v>
       </c>
-      <c r="B250" s="3" t="str">
+      <c r="B250" s="4" t="str">
         <v>SkillShop_Name_10002</v>
       </c>
-      <c r="C250" s="3" t="str">
+      <c r="C250" s="4" t="str">
         <v>Quick Throw</v>
       </c>
-      <c r="D250" s="3" t="str">
+      <c r="D250" s="4" t="str">
         <v>快速投掷</v>
       </c>
-      <c r="E250" s="3" t="str">
+      <c r="E250" s="4" t="str">
         <v>杀手的特殊能力名称</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="251">
-      <c r="A251" s="3">
+      <c r="A251" s="4">
         <v>90034</v>
       </c>
-      <c r="B251" s="3" t="str">
+      <c r="B251" s="4" t="str">
         <v>SkillShop_Name_10003</v>
       </c>
-      <c r="C251" s="3" t="str">
+      <c r="C251" s="4" t="str">
         <v>Explosive Knife</v>
       </c>
-      <c r="D251" s="3" t="str">
+      <c r="D251" s="4" t="str">
         <v>爆炸飞刀</v>
       </c>
-      <c r="E251" s="3" t="str">
+      <c r="E251" s="4" t="str">
         <v>杀手的特殊能力名称</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="252">
-      <c r="A252" s="3">
+      <c r="A252" s="4">
         <v>90035</v>
       </c>
-      <c r="B252" s="3" t="str">
+      <c r="B252" s="4" t="str">
         <v>SkillShop_Description_10001</v>
       </c>
-      <c r="C252" s="3" t="str">
+      <c r="C252" s="4" t="str">
         <v>[Murderer's Passive Ability] When you pull out your knife, your movement speed is increased by 10% faster than usual.</v>
       </c>
-      <c r="D252" s="3" t="str">
+      <c r="D252" s="4" t="str">
         <v>【杀手被动能力】
 当你掏出你的刀时，你的移动速度会比平时更快，提升10％</v>
       </c>
-      <c r="E252" s="3" t="str"/>
+      <c r="E252" s="4" t="str"/>
     </row>
     <row customHeight="true" ht="23" r="253">
-      <c r="A253" s="3">
+      <c r="A253" s="4">
         <v>90036</v>
       </c>
-      <c r="B253" s="3" t="str">
+      <c r="B253" s="4" t="str">
         <v>SkillShop_Description_10002</v>
       </c>
-      <c r="C253" s="3" t="str">
+      <c r="C253" s="4" t="str">
         <v>[Murderer's Passive Ability] Now your thrown flying knives will fly faster, boosted by 100%!</v>
       </c>
-      <c r="D253" s="3" t="str">
+      <c r="D253" s="4" t="str">
         <v>【杀手被动能力】
 现在你扔出的飞刀会飞得更快，提升100％</v>
       </c>
-      <c r="E253" s="3" t="str"/>
+      <c r="E253" s="4" t="str"/>
     </row>
     <row customHeight="true" ht="23" r="254">
-      <c r="A254" s="3">
+      <c r="A254" s="4">
         <v>90037</v>
       </c>
-      <c r="B254" s="3" t="str">
+      <c r="B254" s="4" t="str">
         <v>SkillShop_Description_10003</v>
       </c>
-      <c r="C254" s="3" t="str">
+      <c r="C254" s="4" t="str">
         <v>[Murderer Passive Ability] When your throwing knife hits a target, instead of immediately dealing damage to the target, it plants a bomb. The bomb will explode after a small delay and deal damage to players around a certain range.</v>
       </c>
-      <c r="D254" s="3" t="str">
+      <c r="D254" s="4" t="str">
         <v>【杀手被动能力】
 当你的飞刀命中目标时，不会立即对目标造成伤害，而是在目标处埋下一颗炸弹，延迟一小段时间后会爆炸，并对周围一定范围内的玩家同样造成伤害</v>
       </c>
-      <c r="E254" s="3" t="str"/>
+      <c r="E254" s="4" t="str"/>
     </row>
     <row customHeight="true" ht="23" r="255">
-      <c r="A255" s="3">
+      <c r="A255" s="4">
         <v>90038</v>
       </c>
-      <c r="B255" s="4" t="str">
+      <c r="B255" s="13" t="str">
         <v>Shop_Name_40001</v>
       </c>
-      <c r="C255" s="3" t="str">
+      <c r="C255" s="4" t="str">
         <v>Skibidi Rainbow Toilet</v>
       </c>
-      <c r="D255" s="3" t="str">
+      <c r="D255" s="4" t="str">
         <v>彩虹马桶人</v>
       </c>
-      <c r="E255" s="3" t="str">
+      <c r="E255" s="4" t="str">
         <v>马桶人是外网热梗，就叫skibidi toilet</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="256">
-      <c r="A256" s="3">
+      <c r="A256" s="4">
         <v>90039</v>
       </c>
-      <c r="B256" s="4" t="str">
+      <c r="B256" s="13" t="str">
         <v>Shop_Name_40002</v>
       </c>
-      <c r="C256" s="3" t="str">
+      <c r="C256" s="4" t="str">
         <v>Skibidi Princess Toilet</v>
       </c>
-      <c r="D256" s="3" t="str">
+      <c r="D256" s="4" t="str">
         <v>公主马桶人</v>
       </c>
-      <c r="E256" s="3" t="str">
+      <c r="E256" s="4" t="str">
         <v>马桶人是外网热梗，就叫skibidi toilet</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="257">
-      <c r="A257" s="3">
+      <c r="A257" s="4">
         <v>90040</v>
       </c>
-      <c r="B257" s="4" t="str">
+      <c r="B257" s="13" t="str">
         <v>Shop_Name_40003</v>
       </c>
-      <c r="C257" s="3" t="str">
+      <c r="C257" s="4" t="str">
         <v>Skibidi Space Toilet</v>
       </c>
-      <c r="D257" s="3" t="str">
+      <c r="D257" s="4" t="str">
         <v>太空马桶人</v>
       </c>
-      <c r="E257" s="3" t="str">
+      <c r="E257" s="4" t="str">
         <v>马桶人是外网热梗，就叫skibidi toilet</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="258">
-      <c r="A258" s="3">
+      <c r="A258" s="4">
         <v>90041</v>
       </c>
-      <c r="B258" s="4" t="str">
+      <c r="B258" s="13" t="str">
         <v>Shop_Name_40004</v>
       </c>
-      <c r="C258" s="3" t="str">
+      <c r="C258" s="4" t="str">
         <v>Skibidi Spider Toilet</v>
       </c>
-      <c r="D258" s="3" t="str">
+      <c r="D258" s="4" t="str">
         <v>蜘蛛马桶人</v>
       </c>
-      <c r="E258" s="3" t="str">
+      <c r="E258" s="4" t="str">
         <v>马桶人是外网热梗，就叫skibidi toilet</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="259">
-      <c r="A259" s="3">
+      <c r="A259" s="4">
         <v>90042</v>
       </c>
-      <c r="B259" s="4" t="str">
+      <c r="B259" s="13" t="str">
         <v>Shop_Name_40005</v>
       </c>
-      <c r="C259" s="3" t="str">
+      <c r="C259" s="4" t="str">
         <v>Cameraman</v>
       </c>
-      <c r="D259" s="3" t="str">
+      <c r="D259" s="4" t="str">
         <v>监控人</v>
       </c>
-      <c r="E259" s="3" t="str">
+      <c r="E259" s="4" t="str">
         <v>马桶人系列，就叫这个</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="260">
-      <c r="A260" s="3">
+      <c r="A260" s="4">
         <v>90043</v>
       </c>
-      <c r="B260" s="4" t="str">
+      <c r="B260" s="13" t="str">
         <v>Shop_Name_40006</v>
       </c>
-      <c r="C260" s="3" t="str">
+      <c r="C260" s="4" t="str">
         <v>Speakerman</v>
       </c>
-      <c r="D260" s="3" t="str">
+      <c r="D260" s="4" t="str">
         <v>音响人</v>
       </c>
-      <c r="E260" s="3" t="str">
+      <c r="E260" s="4" t="str">
         <v>马桶人系列，就叫这个</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="261">
-      <c r="A261" s="3">
+      <c r="A261" s="4">
         <v>90044</v>
       </c>
-      <c r="B261" s="4" t="str">
+      <c r="B261" s="13" t="str">
         <v>Shop_Name_40007</v>
       </c>
-      <c r="C261" s="3" t="str">
+      <c r="C261" s="4" t="str">
         <v>TV Man</v>
       </c>
-      <c r="D261" s="3" t="str">
+      <c r="D261" s="4" t="str">
         <v>电视人</v>
       </c>
-      <c r="E261" s="3" t="str">
+      <c r="E261" s="4" t="str">
         <v>马桶人系列，就叫这个</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="262">
-      <c r="A262" s="3">
+      <c r="A262" s="4">
         <v>90045</v>
       </c>
-      <c r="B262" s="4" t="str">
+      <c r="B262" s="13" t="str">
         <v>Shop_Name_40008</v>
       </c>
-      <c r="C262" s="3" t="str">
+      <c r="C262" s="4" t="str">
         <v>Cartoon Speakerman</v>
       </c>
-      <c r="D262" s="3" t="str">
+      <c r="D262" s="4" t="str">
         <v>卡通音响人</v>
       </c>
-      <c r="E262" s="3" t="str"/>
+      <c r="E262" s="4" t="str"/>
     </row>
     <row customHeight="true" ht="23" r="263">
-      <c r="A263" s="3">
+      <c r="A263" s="4">
         <v>90046</v>
       </c>
-      <c r="B263" s="4" t="str">
+      <c r="B263" s="13" t="str">
         <v>Shop_Name_40009</v>
       </c>
-      <c r="C263" s="3" t="str">
+      <c r="C263" s="4" t="str">
         <v>Cartoon TVman</v>
       </c>
-      <c r="D263" s="3" t="str">
+      <c r="D263" s="4" t="str">
         <v>卡通电视人</v>
       </c>
-      <c r="E263" s="3" t="str"/>
+      <c r="E263" s="4" t="str"/>
     </row>
     <row customHeight="true" ht="23" r="264">
-      <c r="A264" s="28">
+      <c r="A264" s="19">
         <v>90047</v>
       </c>
-      <c r="B264" s="29" t="str">
+      <c r="B264" s="20" t="str">
         <v>Text_Content_10005</v>
       </c>
-      <c r="C264" s="3" t="str">
+      <c r="C264" s="4" t="str">
         <v>This update:
 1. New [Skibidi Toilet VS Cameraman] series of pendants, welcome to the shop!
 2. New [Power Store], the configuration of the murderer's special abilities is now available!
@@ -5339,7 +5339,7 @@
 4. Adjusted the lobby and level scenes to improve performance.
 5. New reset button, try to tap it when the camera stucks!</v>
       </c>
-      <c r="D264" s="28" t="str">
+      <c r="D264" s="19" t="str">
         <v>本次更新：
 1.新增【马桶人VS监控人】系列挂件，欢迎大家去商店选购~
 2.新增【能力商店】，开放杀手局内特殊能力的配置
@@ -5347,45 +5347,45 @@
 4.调整大厅及关卡场景，提升性能
 5.新增还原按钮，镜头卡住的时候点一下试试吧</v>
       </c>
-      <c r="E264" s="28" t="str">
+      <c r="E264" s="19" t="str">
         <v>马桶人是外网热梗，就叫skibidi toilet</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="265">
-      <c r="A265" s="17">
+      <c r="A265" s="26">
         <v>90048</v>
       </c>
-      <c r="B265" s="35" t="str">
+      <c r="B265" s="27" t="str">
         <v>Tips_Content_10013</v>
       </c>
-      <c r="C265" s="3" t="str">
+      <c r="C265" s="4" t="str">
         <v>A player fails to enter the scene, the game will restart.</v>
       </c>
-      <c r="D265" s="17" t="str">
+      <c r="D265" s="26" t="str">
         <v>有玩家进入场景失败，对局将重新开始</v>
       </c>
-      <c r="E265" s="17" t="str"/>
+      <c r="E265" s="26" t="str"/>
     </row>
     <row customHeight="true" ht="23" r="266">
-      <c r="A266" s="17">
+      <c r="A266" s="26">
         <v>90049</v>
       </c>
-      <c r="B266" s="17" t="str">
+      <c r="B266" s="26" t="str">
         <v>Text_Content_10006</v>
       </c>
       <c r="C266" s="2" t="str">
         <v>Jump</v>
       </c>
-      <c r="D266" s="17" t="str">
+      <c r="D266" s="26" t="str">
         <v>跳转</v>
       </c>
-      <c r="E266" s="17" t="str"/>
+      <c r="E266" s="26" t="str"/>
     </row>
     <row customHeight="true" ht="23" r="267">
-      <c r="A267" s="17">
+      <c r="A267" s="26">
         <v>90050</v>
       </c>
-      <c r="B267" s="12" t="str">
+      <c r="B267" s="11" t="str">
         <v>Text_Content_20045</v>
       </c>
       <c r="C267" s="2" t="str">
@@ -5394,13 +5394,13 @@
       <c r="D267" s="1" t="str">
         <v>掏出手枪</v>
       </c>
-      <c r="E267" s="17"/>
+      <c r="E267" s="26"/>
     </row>
     <row customHeight="true" ht="23" r="268">
-      <c r="A268" s="17">
+      <c r="A268" s="26">
         <v>90051</v>
       </c>
-      <c r="B268" s="12" t="str">
+      <c r="B268" s="11" t="str">
         <v>Text_Content_20046</v>
       </c>
       <c r="C268" s="2" t="str">
@@ -5409,13 +5409,13 @@
       <c r="D268" s="1" t="str">
         <v>收起手枪</v>
       </c>
-      <c r="E268" s="17"/>
+      <c r="E268" s="26"/>
     </row>
     <row customHeight="true" ht="23" r="269">
-      <c r="A269" s="17">
+      <c r="A269" s="26">
         <v>90052</v>
       </c>
-      <c r="B269" s="12" t="str">
+      <c r="B269" s="11" t="str">
         <v>Text_Content_20047</v>
       </c>
       <c r="C269" s="2" t="str">
@@ -5424,13 +5424,13 @@
       <c r="D269" s="1" t="str">
         <v>准星图标</v>
       </c>
-      <c r="E269" s="17"/>
+      <c r="E269" s="26"/>
     </row>
     <row customHeight="true" ht="23" r="270">
-      <c r="A270" s="17">
+      <c r="A270" s="26">
         <v>90053</v>
       </c>
-      <c r="B270" s="12" t="str">
+      <c r="B270" s="11" t="str">
         <v>Text_Content_20048</v>
       </c>
       <c r="C270" s="2" t="str">
@@ -5439,13 +5439,13 @@
       <c r="D270" s="1" t="str">
         <v>掏出近战匕首</v>
       </c>
-      <c r="E270" s="17"/>
+      <c r="E270" s="26"/>
     </row>
     <row customHeight="true" ht="23" r="271">
-      <c r="A271" s="17">
+      <c r="A271" s="26">
         <v>90054</v>
       </c>
-      <c r="B271" s="12" t="str">
+      <c r="B271" s="11" t="str">
         <v>Text_Content_20049</v>
       </c>
       <c r="C271" s="2" t="str">
@@ -5454,13 +5454,13 @@
       <c r="D271" s="1" t="str">
         <v>掏出远程飞刀</v>
       </c>
-      <c r="E271" s="17"/>
+      <c r="E271" s="26"/>
     </row>
     <row customHeight="true" ht="23" r="272">
-      <c r="A272" s="17">
+      <c r="A272" s="26">
         <v>90055</v>
       </c>
-      <c r="B272" s="12" t="str">
+      <c r="B272" s="11" t="str">
         <v>Text_Content_20050</v>
       </c>
       <c r="C272" s="2" t="str">
@@ -5469,13 +5469,13 @@
       <c r="D272" s="1" t="str">
         <v>收起武器</v>
       </c>
-      <c r="E272" s="17"/>
+      <c r="E272" s="26"/>
     </row>
     <row customHeight="true" ht="23" r="273">
-      <c r="A273" s="17">
+      <c r="A273" s="26">
         <v>90056</v>
       </c>
-      <c r="B273" s="12" t="str">
+      <c r="B273" s="11" t="str">
         <v>Text_Content_20051</v>
       </c>
       <c r="C273" s="1" t="str">
@@ -5484,397 +5484,397 @@
       <c r="D273" s="2" t="str">
         <v>暂无获取途径</v>
       </c>
-      <c r="E273" s="10"/>
+      <c r="E273" s="7"/>
     </row>
     <row customHeight="true" ht="23" r="274">
-      <c r="A274" s="22">
+      <c r="A274" s="17">
         <v>90057</v>
       </c>
-      <c r="B274" s="22" t="str">
+      <c r="B274" s="17" t="str">
         <v>Lottery_Name_10003</v>
       </c>
-      <c r="C274" s="23" t="str">
+      <c r="C274" s="18" t="str">
         <v>Sci-Fi Weapon Box</v>
       </c>
-      <c r="D274" s="23" t="str">
+      <c r="D274" s="18" t="str">
         <v>科幻武器箱</v>
       </c>
-      <c r="E274" s="22"/>
+      <c r="E274" s="17"/>
     </row>
     <row customHeight="true" ht="23" r="275">
-      <c r="A275" s="22">
+      <c r="A275" s="17">
         <v>90058</v>
       </c>
-      <c r="B275" s="22" t="str">
+      <c r="B275" s="17" t="str">
         <v>Lottery_Name_10004</v>
       </c>
-      <c r="C275" s="23" t="str">
+      <c r="C275" s="18" t="str">
         <v>Myth Weapon Box</v>
       </c>
-      <c r="D275" s="23" t="str">
+      <c r="D275" s="18" t="str">
         <v>神话武器箱</v>
       </c>
-      <c r="E275" s="22"/>
+      <c r="E275" s="17"/>
     </row>
     <row customHeight="true" ht="23" r="276">
       <c r="A276" s="2">
         <v>90059</v>
       </c>
-      <c r="B276" s="18" t="str">
+      <c r="B276" s="5" t="str">
         <v>Weapon_WeaponName_20004</v>
       </c>
       <c r="C276" s="1" t="str">
         <v>Gun of Singularity</v>
       </c>
-      <c r="D276" s="30" t="str">
+      <c r="D276" s="34" t="str">
         <v>奇点之枪</v>
       </c>
-      <c r="E276" s="10"/>
+      <c r="E276" s="7"/>
     </row>
     <row customHeight="true" ht="23" r="277">
       <c r="A277" s="2">
         <v>90060</v>
       </c>
-      <c r="B277" s="18" t="str">
+      <c r="B277" s="5" t="str">
         <v>Weapon_WeaponName_10023</v>
       </c>
       <c r="C277" s="2" t="str">
         <v>Staff of Imaginary</v>
       </c>
-      <c r="D277" s="25" t="str">
+      <c r="D277" s="35" t="str">
         <v>虚数之杖</v>
       </c>
-      <c r="E277" s="10"/>
+      <c r="E277" s="7"/>
     </row>
     <row customHeight="true" ht="23" r="278">
       <c r="A278" s="2">
         <v>90061</v>
       </c>
-      <c r="B278" s="18" t="str">
+      <c r="B278" s="5" t="str">
         <v>Weapon_WeaponName_10024</v>
       </c>
       <c r="C278" s="2" t="str">
         <v>Spectral Spear</v>
       </c>
-      <c r="D278" s="19" t="str">
+      <c r="D278" s="6" t="str">
         <v>光谱矛</v>
       </c>
-      <c r="E278" s="10"/>
+      <c r="E278" s="7"/>
     </row>
     <row customHeight="true" ht="23" r="279">
       <c r="A279" s="2">
         <v>90062</v>
       </c>
-      <c r="B279" s="18" t="str">
+      <c r="B279" s="5" t="str">
         <v>Weapon_WeaponName_20005</v>
       </c>
       <c r="C279" s="2" t="str">
         <v>Anti-Matter Gun</v>
       </c>
-      <c r="D279" s="19" t="str">
+      <c r="D279" s="6" t="str">
         <v>反物质枪</v>
       </c>
-      <c r="E279" s="10"/>
+      <c r="E279" s="7"/>
     </row>
     <row customHeight="true" ht="23" r="280">
       <c r="A280" s="2">
         <v>90063</v>
       </c>
-      <c r="B280" s="18" t="str">
+      <c r="B280" s="5" t="str">
         <v>Weapon_WeaponName_10025</v>
       </c>
       <c r="C280" s="2" t="str">
         <v>Spectral Blade</v>
       </c>
-      <c r="D280" s="19" t="str">
+      <c r="D280" s="6" t="str">
         <v>光谱剑</v>
       </c>
-      <c r="E280" s="10"/>
+      <c r="E280" s="7"/>
     </row>
     <row customHeight="true" ht="23" r="281">
       <c r="A281" s="2">
         <v>90064</v>
       </c>
-      <c r="B281" s="18" t="str">
+      <c r="B281" s="5" t="str">
         <v>Weapon_WeaponName_10026</v>
       </c>
       <c r="C281" s="2" t="str">
         <v>Spectral Blade (Ruby)</v>
       </c>
-      <c r="D281" s="19" t="str">
+      <c r="D281" s="6" t="str">
         <v>光谱剑(晶红)</v>
       </c>
-      <c r="E281" s="10"/>
+      <c r="E281" s="7"/>
     </row>
     <row customHeight="true" ht="23" r="282">
       <c r="A282" s="2">
         <v>90065</v>
       </c>
-      <c r="B282" s="18" t="str">
+      <c r="B282" s="5" t="str">
         <v>Weapon_WeaponName_10027</v>
       </c>
       <c r="C282" s="2" t="str">
         <v>Dagger (Simulacrum)</v>
       </c>
-      <c r="D282" s="19" t="str">
+      <c r="D282" s="6" t="str">
         <v>匕首(模拟)</v>
       </c>
-      <c r="E282" s="10"/>
+      <c r="E282" s="7"/>
     </row>
     <row customHeight="true" ht="23" r="283">
       <c r="A283" s="2">
         <v>90066</v>
       </c>
-      <c r="B283" s="18" t="str">
+      <c r="B283" s="5" t="str">
         <v>Weapon_WeaponName_10028</v>
       </c>
       <c r="C283" s="2" t="str">
         <v>Saber (Simulacrum)</v>
       </c>
-      <c r="D283" s="19" t="str">
+      <c r="D283" s="6" t="str">
         <v>军刀(模拟)</v>
       </c>
-      <c r="E283" s="10"/>
+      <c r="E283" s="7"/>
     </row>
     <row customHeight="true" ht="23" r="284">
       <c r="A284" s="2">
         <v>90067</v>
       </c>
-      <c r="B284" s="18" t="str">
+      <c r="B284" s="5" t="str">
         <v>Weapon_WeaponName_20006</v>
       </c>
       <c r="C284" s="2" t="str">
         <v>Revolver (Simulacrum)</v>
       </c>
-      <c r="D284" s="19" t="str">
+      <c r="D284" s="6" t="str">
         <v>左轮(模拟)</v>
       </c>
-      <c r="E284" s="10"/>
+      <c r="E284" s="7"/>
     </row>
     <row customHeight="true" ht="23" r="285">
       <c r="A285" s="2">
         <v>90068</v>
       </c>
-      <c r="B285" s="18" t="str">
+      <c r="B285" s="5" t="str">
         <v>Weapon_WeaponName_20007</v>
       </c>
       <c r="C285" s="2" t="str">
         <v>SMG (Simulacrum)</v>
       </c>
-      <c r="D285" s="19" t="str">
+      <c r="D285" s="6" t="str">
         <v>冲锋枪(模拟)</v>
       </c>
-      <c r="E285" s="10"/>
+      <c r="E285" s="7"/>
     </row>
     <row customHeight="true" ht="23" r="286">
       <c r="A286" s="2">
         <v>90069</v>
       </c>
-      <c r="B286" s="8" t="str">
+      <c r="B286" s="23" t="str">
         <v>Weapon_WeaponName_10029</v>
       </c>
       <c r="C286" s="2" t="str">
         <v>Storm Caller (Rune)</v>
       </c>
-      <c r="D286" s="9" t="str">
+      <c r="D286" s="22" t="str">
         <v>唤雷(符文)</v>
       </c>
-      <c r="E286" s="10"/>
+      <c r="E286" s="7"/>
     </row>
     <row customHeight="true" ht="23" r="287">
       <c r="A287" s="2">
         <v>90070</v>
       </c>
-      <c r="B287" s="8" t="str">
+      <c r="B287" s="23" t="str">
         <v>Weapon_WeaponName_20008</v>
       </c>
       <c r="C287" s="2" t="str">
         <v>Sun Seeker (Rune)</v>
       </c>
-      <c r="D287" s="9" t="str">
+      <c r="D287" s="22" t="str">
         <v>逐日(符文)</v>
       </c>
-      <c r="E287" s="10"/>
+      <c r="E287" s="7"/>
     </row>
     <row customHeight="true" ht="23" r="288">
       <c r="A288" s="2">
         <v>90071</v>
       </c>
-      <c r="B288" s="8" t="str">
+      <c r="B288" s="23" t="str">
         <v>Weapon_WeaponName_10030</v>
       </c>
       <c r="C288" s="2" t="str">
         <v>Hammer of Thor</v>
       </c>
-      <c r="D288" s="9" t="str">
+      <c r="D288" s="22" t="str">
         <v>雷神之锤</v>
       </c>
-      <c r="E288" s="10"/>
+      <c r="E288" s="7"/>
     </row>
     <row customHeight="true" ht="23" r="289">
       <c r="A289" s="2">
         <v>90072</v>
       </c>
-      <c r="B289" s="8" t="str">
+      <c r="B289" s="23" t="str">
         <v>Weapon_WeaponName_20009</v>
       </c>
       <c r="C289" s="2" t="str">
         <v>Blunderbuss</v>
       </c>
-      <c r="D289" s="9" t="str">
+      <c r="D289" s="22" t="str">
         <v>火铳</v>
       </c>
-      <c r="E289" s="10"/>
+      <c r="E289" s="7"/>
     </row>
     <row customHeight="true" ht="23" r="290">
       <c r="A290" s="2">
         <v>90073</v>
       </c>
-      <c r="B290" s="8" t="str">
+      <c r="B290" s="23" t="str">
         <v>Weapon_WeaponName_10031</v>
       </c>
       <c r="C290" s="2" t="str">
         <v>Bonespike Sword (Devine)</v>
       </c>
-      <c r="D290" s="9" t="str">
+      <c r="D290" s="22" t="str">
         <v>骨刺剑(圣)</v>
       </c>
-      <c r="E290" s="10"/>
+      <c r="E290" s="7"/>
     </row>
     <row customHeight="true" ht="23" r="291">
       <c r="A291" s="2">
         <v>90074</v>
       </c>
-      <c r="B291" s="8" t="str">
+      <c r="B291" s="23" t="str">
         <v>Weapon_WeaponName_20010</v>
       </c>
       <c r="C291" s="2" t="str">
         <v>Revolver (Devine)</v>
       </c>
-      <c r="D291" s="9" t="str">
+      <c r="D291" s="22" t="str">
         <v>左轮(圣)</v>
       </c>
-      <c r="E291" s="10"/>
+      <c r="E291" s="7"/>
     </row>
     <row customHeight="true" ht="23" r="292">
       <c r="A292" s="2">
         <v>90075</v>
       </c>
-      <c r="B292" s="8" t="str">
+      <c r="B292" s="23" t="str">
         <v>Weapon_WeaponName_10032</v>
       </c>
       <c r="C292" s="2" t="str">
         <v>Bonespike Sword (Love)</v>
       </c>
-      <c r="D292" s="9" t="str">
+      <c r="D292" s="22" t="str">
         <v>骨刺剑(恋)</v>
       </c>
-      <c r="E292" s="10"/>
+      <c r="E292" s="7"/>
     </row>
     <row customHeight="true" ht="23" r="293">
       <c r="A293" s="2">
         <v>90076</v>
       </c>
-      <c r="B293" s="8" t="str">
+      <c r="B293" s="23" t="str">
         <v>Weapon_WeaponName_20011</v>
       </c>
       <c r="C293" s="2" t="str">
         <v>Revolver (Love)</v>
       </c>
-      <c r="D293" s="9" t="str">
+      <c r="D293" s="22" t="str">
         <v>左轮(恋)</v>
       </c>
-      <c r="E293" s="10"/>
+      <c r="E293" s="7"/>
     </row>
     <row customHeight="true" ht="23" r="294">
       <c r="A294" s="2">
         <v>90077</v>
       </c>
-      <c r="B294" s="8" t="str">
+      <c r="B294" s="23" t="str">
         <v>Weapon_WeaponName_10033</v>
       </c>
       <c r="C294" s="2" t="str">
         <v>Bonespike Sword (Flame)</v>
       </c>
-      <c r="D294" s="9" t="str">
+      <c r="D294" s="22" t="str">
         <v>骨刺剑(炽)</v>
       </c>
-      <c r="E294" s="10"/>
+      <c r="E294" s="7"/>
     </row>
     <row customHeight="true" ht="23" r="295">
       <c r="A295" s="2">
         <v>90078</v>
       </c>
-      <c r="B295" s="8" t="str">
+      <c r="B295" s="23" t="str">
         <v>Weapon_WeaponName_10034</v>
       </c>
       <c r="C295" s="2" t="str">
         <v>Bonespike Sword (Frost)</v>
       </c>
-      <c r="D295" s="9" t="str">
+      <c r="D295" s="22" t="str">
         <v>骨刺剑(霜)</v>
       </c>
-      <c r="E295" s="10"/>
+      <c r="E295" s="7"/>
     </row>
     <row customHeight="true" ht="23" r="296">
       <c r="A296" s="2">
         <v>90079</v>
       </c>
-      <c r="B296" s="26" t="str">
+      <c r="B296" s="32" t="str">
         <v>Weapon_WeaponName_10035</v>
       </c>
       <c r="C296" s="2" t="str">
         <v>Sakura</v>
       </c>
-      <c r="D296" s="32" t="str">
+      <c r="D296" s="33" t="str">
         <v>樱</v>
       </c>
-      <c r="E296" s="10"/>
+      <c r="E296" s="7"/>
     </row>
     <row customHeight="true" ht="23" r="297">
       <c r="A297" s="2">
         <v>90080</v>
       </c>
-      <c r="B297" s="26" t="str">
+      <c r="B297" s="32" t="str">
         <v>Weapon_WeaponName_20012</v>
       </c>
       <c r="C297" s="2" t="str">
         <v>Butterfly</v>
       </c>
-      <c r="D297" s="32" t="str">
+      <c r="D297" s="33" t="str">
         <v>蝶</v>
       </c>
-      <c r="E297" s="10"/>
+      <c r="E297" s="7"/>
     </row>
     <row customHeight="true" ht="23" r="298">
       <c r="A298" s="2">
         <v>90081</v>
       </c>
-      <c r="B298" s="26" t="str">
+      <c r="B298" s="32" t="str">
         <v>Weapon_WeaponName_10036</v>
       </c>
       <c r="C298" s="2" t="str">
         <v>Golden Bat (Rainbow)</v>
       </c>
-      <c r="D298" s="27" t="str">
+      <c r="D298" s="31" t="str">
         <v>黄金球棍(虹彩)</v>
       </c>
-      <c r="E298" s="10"/>
+      <c r="E298" s="7"/>
     </row>
     <row customHeight="true" ht="23" r="299">
       <c r="A299" s="2">
         <v>90082</v>
       </c>
-      <c r="B299" s="26" t="str">
+      <c r="B299" s="32" t="str">
         <v>Weapon_WeaponName_20013</v>
       </c>
       <c r="C299" s="2" t="str">
         <v>Golden Revolver (Rainbow)</v>
       </c>
-      <c r="D299" s="27" t="str">
+      <c r="D299" s="31" t="str">
         <v>黄金左轮(虹彩)</v>
       </c>
-      <c r="E299" s="10"/>
+      <c r="E299" s="7"/>
     </row>
     <row customHeight="true" ht="23" r="300">
       <c r="A300" s="2">
@@ -5889,7 +5889,7 @@
       <c r="D300" s="1" t="str">
         <v>幽灵斗篷</v>
       </c>
-      <c r="E300" s="10"/>
+      <c r="E300" s="7"/>
     </row>
     <row customHeight="true" ht="23" r="301">
       <c r="A301" s="2">
@@ -5905,13 +5905,13 @@
         <v>【杀手主动能力】
 激活后，你可以隐身5秒，若你在隐身时击败了任何玩家，则会立即结束隐身</v>
       </c>
-      <c r="E301" s="10"/>
+      <c r="E301" s="7"/>
     </row>
     <row customHeight="true" ht="23" r="302">
       <c r="A302" s="2">
         <v>90085</v>
       </c>
-      <c r="B302" s="20" t="str">
+      <c r="B302" s="24" t="str">
         <v>Tips_Content_20012</v>
       </c>
       <c r="C302" s="1" t="str">
@@ -5920,13 +5920,13 @@
       <c r="D302" s="1" t="str">
         <v>兑换成功</v>
       </c>
-      <c r="E302" s="10"/>
+      <c r="E302" s="7"/>
     </row>
     <row customHeight="true" ht="23" r="303">
       <c r="A303" s="2">
         <v>90086</v>
       </c>
-      <c r="B303" s="20" t="str">
+      <c r="B303" s="24" t="str">
         <v>Tips_Content_20013</v>
       </c>
       <c r="C303" s="1" t="str">
@@ -5935,13 +5935,13 @@
       <c r="D303" s="1" t="str">
         <v>兑换失败</v>
       </c>
-      <c r="E303" s="10"/>
+      <c r="E303" s="7"/>
     </row>
     <row customHeight="true" ht="23" r="304">
       <c r="A304" s="2">
         <v>90087</v>
       </c>
-      <c r="B304" s="20" t="str">
+      <c r="B304" s="24" t="str">
         <v>Tips_Content_20014</v>
       </c>
       <c r="C304" s="1" t="str">
@@ -5950,13 +5950,13 @@
       <c r="D304" s="1" t="str">
         <v>恭喜激活会员特权</v>
       </c>
-      <c r="E304" s="10"/>
+      <c r="E304" s="7"/>
     </row>
     <row customHeight="true" ht="23" r="305">
       <c r="A305" s="2">
         <v>90088</v>
       </c>
-      <c r="B305" s="20" t="str">
+      <c r="B305" s="24" t="str">
         <v>Tips_Content_20015</v>
       </c>
       <c r="C305" s="1" t="str">
@@ -5965,13 +5965,13 @@
       <c r="D305" s="1" t="str">
         <v>恭喜激活超级特权</v>
       </c>
-      <c r="E305" s="10"/>
+      <c r="E305" s="7"/>
     </row>
     <row customHeight="true" ht="23" r="306">
       <c r="A306" s="2">
         <v>90089</v>
       </c>
-      <c r="B306" s="20" t="str">
+      <c r="B306" s="24" t="str">
         <v>Tips_Content_20016</v>
       </c>
       <c r="C306" s="1" t="str">
@@ -5980,13 +5980,13 @@
       <c r="D306" s="1" t="str">
         <v>会员特权已到期失效</v>
       </c>
-      <c r="E306" s="10"/>
+      <c r="E306" s="7"/>
     </row>
     <row customHeight="true" ht="23" r="307">
       <c r="A307" s="2">
         <v>90090</v>
       </c>
-      <c r="B307" s="20" t="str">
+      <c r="B307" s="24" t="str">
         <v>Tips_Content_20017</v>
       </c>
       <c r="C307" s="1" t="str">
@@ -5995,13 +5995,13 @@
       <c r="D307" s="1" t="str">
         <v>超级特权已到期失效</v>
       </c>
-      <c r="E307" s="10"/>
+      <c r="E307" s="7"/>
     </row>
     <row customHeight="true" ht="23" r="308">
       <c r="A308" s="2">
         <v>90091</v>
       </c>
-      <c r="B308" s="20" t="str">
+      <c r="B308" s="24" t="str">
         <v>Tips_Content_20018</v>
       </c>
       <c r="C308" s="1" t="str">
@@ -6010,13 +6010,13 @@
       <c r="D308" s="1" t="str">
         <v>持有数量已经达到上限</v>
       </c>
-      <c r="E308" s="10"/>
+      <c r="E308" s="7"/>
     </row>
     <row customHeight="true" ht="23" r="309">
       <c r="A309" s="2">
         <v>90092</v>
       </c>
-      <c r="B309" s="12" t="str">
+      <c r="B309" s="11" t="str">
         <v>Text_Content_20052</v>
       </c>
       <c r="C309" s="1" t="str">
@@ -6025,13 +6025,13 @@
       <c r="D309" s="1" t="str">
         <v>兑换</v>
       </c>
-      <c r="E309" s="10"/>
+      <c r="E309" s="7"/>
     </row>
     <row customHeight="true" ht="23" r="310">
       <c r="A310" s="2">
         <v>90093</v>
       </c>
-      <c r="B310" s="12" t="str">
+      <c r="B310" s="11" t="str">
         <v>Text_Content_20053</v>
       </c>
       <c r="C310" s="1" t="str">
@@ -6040,13 +6040,13 @@
       <c r="D310" s="1" t="str">
         <v>跳转</v>
       </c>
-      <c r="E310" s="10"/>
+      <c r="E310" s="7"/>
     </row>
     <row customHeight="true" ht="23" r="311">
       <c r="A311" s="2">
         <v>90094</v>
       </c>
-      <c r="B311" s="12" t="str">
+      <c r="B311" s="11" t="str">
         <v>Text_Content_20054</v>
       </c>
       <c r="C311" s="1" t="str">
@@ -6055,13 +6055,13 @@
       <c r="D311" s="1" t="str">
         <v>会员特权激活中</v>
       </c>
-      <c r="E311" s="10"/>
+      <c r="E311" s="7"/>
     </row>
     <row customHeight="true" ht="23" r="312">
       <c r="A312" s="2">
         <v>90095</v>
       </c>
-      <c r="B312" s="12" t="str">
+      <c r="B312" s="11" t="str">
         <v>Text_Content_20055</v>
       </c>
       <c r="C312" s="1" t="str">
@@ -6070,13 +6070,13 @@
       <c r="D312" s="1" t="str">
         <v>剩余激活时间{0}</v>
       </c>
-      <c r="E312" s="10"/>
+      <c r="E312" s="7"/>
     </row>
     <row customHeight="true" ht="23" r="313">
       <c r="A313" s="2">
         <v>90096</v>
       </c>
-      <c r="B313" s="12" t="str">
+      <c r="B313" s="11" t="str">
         <v>Text_Content_20056</v>
       </c>
       <c r="C313" s="1" t="str">
@@ -6085,13 +6085,13 @@
       <c r="D313" s="1" t="str">
         <v>尚未激活会员特权</v>
       </c>
-      <c r="E313" s="10"/>
+      <c r="E313" s="7"/>
     </row>
     <row customHeight="true" ht="23" r="314">
       <c r="A314" s="2">
         <v>90097</v>
       </c>
-      <c r="B314" s="12" t="str">
+      <c r="B314" s="11" t="str">
         <v>Text_Content_20057</v>
       </c>
       <c r="C314" s="1" t="str">
@@ -6100,13 +6100,13 @@
       <c r="D314" s="1" t="str">
         <v>尚未激活超级特权</v>
       </c>
-      <c r="E314" s="10"/>
+      <c r="E314" s="7"/>
     </row>
     <row customHeight="true" ht="23" r="315">
       <c r="A315" s="2">
         <v>90098</v>
       </c>
-      <c r="B315" s="12" t="str">
+      <c r="B315" s="11" t="str">
         <v>Text_Content_20058</v>
       </c>
       <c r="C315" s="1" t="str">
@@ -6115,13 +6115,13 @@
       <c r="D315" s="1" t="str">
         <v>剩余激活时间{0}天</v>
       </c>
-      <c r="E315" s="10"/>
+      <c r="E315" s="7"/>
     </row>
     <row customHeight="true" ht="23" r="316">
       <c r="A316" s="2">
         <v>90099</v>
       </c>
-      <c r="B316" s="12" t="str">
+      <c r="B316" s="11" t="str">
         <v>Text_Content_20059</v>
       </c>
       <c r="C316" s="1" t="str">
@@ -6130,13 +6130,13 @@
       <c r="D316" s="1" t="str">
         <v>会员特权</v>
       </c>
-      <c r="E316" s="10"/>
+      <c r="E316" s="7"/>
     </row>
     <row customHeight="true" ht="23" r="317">
       <c r="A317" s="2">
         <v>90100</v>
       </c>
-      <c r="B317" s="12" t="str">
+      <c r="B317" s="11" t="str">
         <v>Text_Content_20060</v>
       </c>
       <c r="C317" s="1" t="str">
@@ -6145,13 +6145,13 @@
       <c r="D317" s="1" t="str">
         <v>超级特权</v>
       </c>
-      <c r="E317" s="10"/>
+      <c r="E317" s="7"/>
     </row>
     <row customHeight="true" ht="23" r="318">
       <c r="A318" s="2">
         <v>90101</v>
       </c>
-      <c r="B318" s="20" t="str">
+      <c r="B318" s="24" t="str">
         <v>Tips_Content_20019</v>
       </c>
       <c r="C318" s="1" t="str">
@@ -6160,7 +6160,7 @@
       <c r="D318" s="1" t="str">
         <v>恭喜获得广告券*1</v>
       </c>
-      <c r="E318" s="10"/>
+      <c r="E318" s="7"/>
     </row>
     <row customHeight="true" ht="23" r="319">
       <c r="A319" s="2">
@@ -6175,7 +6175,7 @@
       <c r="D319" s="1" t="str">
         <v>土豪来啦</v>
       </c>
-      <c r="E319" s="10"/>
+      <c r="E319" s="7"/>
     </row>
     <row customHeight="true" ht="23" r="320">
       <c r="A320" s="2">
@@ -6188,10 +6188,10 @@
         <v>Quick throw
 experience pass</v>
       </c>
-      <c r="D320" s="31" t="str">
+      <c r="D320" s="14" t="str">
         <v>快速投掷体验券</v>
       </c>
-      <c r="E320" s="10"/>
+      <c r="E320" s="7"/>
     </row>
     <row customHeight="true" ht="23" r="321">
       <c r="A321" s="2">
@@ -6207,7 +6207,7 @@
       <c r="D321" s="1" t="str">
         <v>爆炸飞刀体验券</v>
       </c>
-      <c r="E321" s="10"/>
+      <c r="E321" s="7"/>
     </row>
     <row customHeight="true" ht="23" r="322">
       <c r="A322" s="2">
@@ -6223,7 +6223,7 @@
       <c r="D322" s="2" t="str">
         <v>幽灵斗篷体验券</v>
       </c>
-      <c r="E322" s="10"/>
+      <c r="E322" s="7"/>
     </row>
     <row customHeight="true" ht="23" r="323">
       <c r="A323" s="2">
@@ -6236,7 +6236,7 @@
         <v>【 Killer passivity 】
 The knife you throw will now fly faster, increasing by 100%</v>
       </c>
-      <c r="D323" s="3" t="str">
+      <c r="D323" s="4" t="str">
         <v>【杀手被动能力】
 现在你扔出的飞刀会飞得更快，提升100％</v>
       </c>
@@ -6255,7 +6255,7 @@
         <v>【 Killer passivity 】
 When your throwing knife hits a target, it does not deal immediate damage to the target, but instead plants a bomb at the target, which explodes after a short delay and also deals damage to players within a certain radius</v>
       </c>
-      <c r="D324" s="3" t="str">
+      <c r="D324" s="4" t="str">
         <v>【杀手被动能力】
 当你的飞刀命中目标时，不会立即对目标造成伤害，而是在目标处埋下一颗炸弹，延迟一小段时间后会爆炸，并对周围一定范围内的玩家同样造成伤害</v>
       </c>
@@ -6286,7 +6286,7 @@
       <c r="A326" s="2">
         <v>90109</v>
       </c>
-      <c r="B326" s="20" t="str">
+      <c r="B326" s="24" t="str">
         <v>Tips_Content_20020</v>
       </c>
       <c r="C326" s="1" t="str">
@@ -6301,7 +6301,7 @@
       <c r="A327" s="2">
         <v>90110</v>
       </c>
-      <c r="B327" s="20" t="str">
+      <c r="B327" s="24" t="str">
         <v>Tips_Content_20021</v>
       </c>
       <c r="C327" s="1" t="str">
@@ -6316,7 +6316,7 @@
       <c r="A328" s="2">
         <v>90111</v>
       </c>
-      <c r="B328" s="20" t="str">
+      <c r="B328" s="24" t="str">
         <v>Weapon_WeaponName_10037</v>
       </c>
       <c r="C328" s="1" t="str">
@@ -6331,7 +6331,7 @@
       <c r="A329" s="2">
         <v>90112</v>
       </c>
-      <c r="B329" s="20" t="str">
+      <c r="B329" s="24" t="str">
         <v>Weapon_WeaponName_20014</v>
       </c>
       <c r="C329" s="1" t="str">
@@ -6601,13 +6601,13 @@
       <c r="A347" s="2">
         <v>100006</v>
       </c>
-      <c r="B347" s="10" t="str">
+      <c r="B347" s="7" t="str">
         <v>Text_VoucherExchange</v>
       </c>
-      <c r="C347" s="10" t="str">
+      <c r="C347" s="7" t="str">
         <v>Voucher Exchange</v>
       </c>
-      <c r="D347" s="10" t="str">
+      <c r="D347" s="7" t="str">
         <v>广告券兑换</v>
       </c>
       <c r="E347" s="2"/>
@@ -6616,13 +6616,13 @@
       <c r="A348" s="2">
         <v>100007</v>
       </c>
-      <c r="B348" s="10" t="str">
+      <c r="B348" s="7" t="str">
         <v>Text_ASmallPileOfGoldCoins</v>
       </c>
-      <c r="C348" s="10" t="str">
+      <c r="C348" s="7" t="str">
         <v>Small Pile Of Gold Coins</v>
       </c>
-      <c r="D348" s="10" t="str">
+      <c r="D348" s="7" t="str">
         <v>一小堆金币</v>
       </c>
       <c r="E348" s="2"/>
@@ -6631,13 +6631,13 @@
       <c r="A349" s="2">
         <v>100008</v>
       </c>
-      <c r="B349" s="10" t="str">
+      <c r="B349" s="7" t="str">
         <v>Text_APileOfGoldCoins</v>
       </c>
-      <c r="C349" s="10" t="str">
+      <c r="C349" s="7" t="str">
         <v>Pile Of Gold Coins</v>
       </c>
-      <c r="D349" s="10" t="str">
+      <c r="D349" s="7" t="str">
         <v>一大堆金币</v>
       </c>
       <c r="E349" s="2"/>
@@ -6646,14 +6646,14 @@
       <c r="A350" s="2">
         <v>100009</v>
       </c>
-      <c r="B350" s="10" t="str">
+      <c r="B350" s="7" t="str">
         <v>Text_LimitedWeaponSakura</v>
       </c>
-      <c r="C350" s="10" t="str">
+      <c r="C350" s="7" t="str">
         <v>Limited Weapon
 Sakura</v>
       </c>
-      <c r="D350" s="10" t="str">
+      <c r="D350" s="7" t="str">
         <v>限定武器-樱</v>
       </c>
       <c r="E350" s="2"/>
@@ -6662,14 +6662,14 @@
       <c r="A351" s="2">
         <v>100010</v>
       </c>
-      <c r="B351" s="10" t="str">
+      <c r="B351" s="7" t="str">
         <v>Text_LimitedWeaponButterfly</v>
       </c>
-      <c r="C351" s="10" t="str">
+      <c r="C351" s="7" t="str">
         <v>Limited Weapon
 Butterfly</v>
       </c>
-      <c r="D351" s="10" t="str">
+      <c r="D351" s="7" t="str">
         <v>限定武器-蝶</v>
       </c>
       <c r="E351" s="2"/>
@@ -6678,14 +6678,14 @@
       <c r="A352" s="2">
         <v>100011</v>
       </c>
-      <c r="B352" s="10" t="str">
+      <c r="B352" s="7" t="str">
         <v>Text_LimitedWeaponPurpleLightsaber</v>
       </c>
-      <c r="C352" s="10" t="str">
+      <c r="C352" s="7" t="str">
         <v>Limited Weapon
 Purple Lightsaber</v>
       </c>
-      <c r="D352" s="10" t="str">
+      <c r="D352" s="7" t="str">
         <v>限定武器-紫光剑</v>
       </c>
       <c r="E352" s="2"/>
@@ -6694,14 +6694,14 @@
       <c r="A353" s="2">
         <v>100012</v>
       </c>
-      <c r="B353" s="10" t="str">
+      <c r="B353" s="7" t="str">
         <v>Text_LimitedWeaponIceBow</v>
       </c>
-      <c r="C353" s="10" t="str">
+      <c r="C353" s="7" t="str">
         <v>Limited Weapon
 Ice Bow</v>
       </c>
-      <c r="D353" s="10" t="str">
+      <c r="D353" s="7" t="str">
         <v>限定武器-冰寒弓箭</v>
       </c>
       <c r="E353" s="2"/>
@@ -6710,13 +6710,13 @@
       <c r="A354" s="2">
         <v>100013</v>
       </c>
-      <c r="B354" s="10" t="str">
+      <c r="B354" s="7" t="str">
         <v>Text_Expend</v>
       </c>
-      <c r="C354" s="10" t="str">
+      <c r="C354" s="7" t="str">
         <v>Expend</v>
       </c>
-      <c r="D354" s="10" t="str">
+      <c r="D354" s="7" t="str">
         <v>消耗</v>
       </c>
       <c r="E354" s="2"/>
@@ -6728,7 +6728,7 @@
       <c r="B355" s="2" t="str">
         <v>Text_KillerPowerAssembly</v>
       </c>
-      <c r="C355" s="21" t="str">
+      <c r="C355" s="29" t="str">
         <v>Killer Power Assembly</v>
       </c>
       <c r="D355" s="1" t="str">
@@ -6743,7 +6743,7 @@
       <c r="B356" s="2" t="str">
         <v>Text_Ads_1</v>
       </c>
-      <c r="C356" s="24" t="str">
+      <c r="C356" s="3" t="str">
         <v>Free Reward</v>
       </c>
       <c r="D356" s="1" t="str">
@@ -6755,7 +6755,7 @@
       <c r="A357" s="2">
         <v>100016</v>
       </c>
-      <c r="B357" s="24" t="str">
+      <c r="B357" s="3" t="str">
         <v>Text_Ads_2</v>
       </c>
       <c r="C357" s="1" t="str">
@@ -6785,7 +6785,7 @@
       <c r="A359" s="2">
         <v>100018</v>
       </c>
-      <c r="B359" s="24" t="str">
+      <c r="B359" s="3" t="str">
         <v>Text_Ads_4</v>
       </c>
       <c r="C359" s="1" t="str">
@@ -6815,7 +6815,7 @@
       <c r="A361" s="2">
         <v>100020</v>
       </c>
-      <c r="B361" s="24" t="str">
+      <c r="B361" s="3" t="str">
         <v>Text_Ads_6</v>
       </c>
       <c r="C361" s="1" t="str">
@@ -6845,7 +6845,7 @@
       <c r="A363" s="2">
         <v>100022</v>
       </c>
-      <c r="B363" s="24" t="str">
+      <c r="B363" s="3" t="str">
         <v>Text_Ads_8</v>
       </c>
       <c r="C363" s="1" t="str">
@@ -6875,7 +6875,7 @@
       <c r="A365" s="2">
         <v>100024</v>
       </c>
-      <c r="B365" s="24" t="str">
+      <c r="B365" s="3" t="str">
         <v>Text_Ads_10</v>
       </c>
       <c r="C365" s="1" t="str">
@@ -7176,13 +7176,13 @@
       <c r="A384" s="2">
         <v>100043</v>
       </c>
-      <c r="B384" s="24" t="str">
+      <c r="B384" s="3" t="str">
         <v>Text_SoldouttodayPleaseReplaceWithOtherProductsToPurchase</v>
       </c>
-      <c r="C384" s="24" t="str">
+      <c r="C384" s="3" t="str">
         <v>Sold Out Today, Please Replace With Other Products To Purchase</v>
       </c>
-      <c r="D384" s="24" t="str">
+      <c r="D384" s="3" t="str">
         <v>今日已售空,请更换其他商品购买</v>
       </c>
       <c r="E384" s="2"/>
@@ -7191,13 +7191,13 @@
       <c r="A385" s="2">
         <v>100044</v>
       </c>
-      <c r="B385" s="24" t="str">
+      <c r="B385" s="3" t="str">
         <v>Text_Rechargediamonds</v>
       </c>
-      <c r="C385" s="24" t="str">
+      <c r="C385" s="3" t="str">
         <v>Recharge</v>
       </c>
-      <c r="D385" s="24" t="str">
+      <c r="D385" s="3" t="str">
         <v>充值广告券</v>
       </c>
       <c r="E385" s="2"/>
@@ -7206,13 +7206,13 @@
       <c r="A386" s="2">
         <v>100045</v>
       </c>
-      <c r="B386" s="24" t="str">
+      <c r="B386" s="3" t="str">
         <v>Text_Nopurchaserestrictions</v>
       </c>
-      <c r="C386" s="24" t="str">
+      <c r="C386" s="3" t="str">
         <v>No purchase Restrictions</v>
       </c>
-      <c r="D386" s="24" t="str">
+      <c r="D386" s="3" t="str">
         <v>不限购</v>
       </c>
       <c r="E386" s="2"/>
@@ -7221,13 +7221,13 @@
       <c r="A387" s="2">
         <v>100046</v>
       </c>
-      <c r="B387" s="24" t="str">
+      <c r="B387" s="3" t="str">
         <v>Text_Soldouttoday</v>
       </c>
-      <c r="C387" s="24" t="str">
+      <c r="C387" s="3" t="str">
         <v>Sold Out Today</v>
       </c>
-      <c r="D387" s="24" t="str">
+      <c r="D387" s="3" t="str">
         <v>今日已售空</v>
       </c>
       <c r="E387" s="2"/>
@@ -7236,13 +7236,13 @@
       <c r="A388" s="2">
         <v>100047</v>
       </c>
-      <c r="B388" s="24" t="str">
+      <c r="B388" s="3" t="str">
         <v>Text_Limitedtoonepurchaseperday</v>
       </c>
-      <c r="C388" s="24" t="str">
+      <c r="C388" s="3" t="str">
         <v>Limited To One Purchase Per Day</v>
       </c>
-      <c r="D388" s="24" t="str">
+      <c r="D388" s="3" t="str">
         <v>每天限购一次</v>
       </c>
       <c r="E388" s="2"/>
@@ -7278,1061 +7278,1061 @@
       <c r="E390" s="2"/>
     </row>
     <row r="391">
-      <c r="A391" s="7"/>
-      <c r="B391" s="7"/>
-      <c r="C391" s="5"/>
-      <c r="D391" s="6"/>
-      <c r="E391" s="7"/>
+      <c r="A391" s="8"/>
+      <c r="B391" s="8"/>
+      <c r="C391" s="9"/>
+      <c r="D391" s="10"/>
+      <c r="E391" s="8"/>
     </row>
     <row r="392">
-      <c r="A392" s="7"/>
-      <c r="B392" s="7"/>
-      <c r="C392" s="5"/>
-      <c r="D392" s="6"/>
-      <c r="E392" s="7"/>
+      <c r="A392" s="8"/>
+      <c r="B392" s="8"/>
+      <c r="C392" s="9"/>
+      <c r="D392" s="10"/>
+      <c r="E392" s="8"/>
     </row>
     <row r="393">
-      <c r="A393" s="7"/>
-      <c r="B393" s="7"/>
-      <c r="C393" s="5"/>
-      <c r="D393" s="6"/>
-      <c r="E393" s="7"/>
+      <c r="A393" s="8"/>
+      <c r="B393" s="8"/>
+      <c r="C393" s="9"/>
+      <c r="D393" s="10"/>
+      <c r="E393" s="8"/>
     </row>
     <row r="394">
-      <c r="A394" s="7"/>
-      <c r="B394" s="7"/>
-      <c r="C394" s="5"/>
-      <c r="D394" s="6"/>
-      <c r="E394" s="7"/>
+      <c r="A394" s="8"/>
+      <c r="B394" s="8"/>
+      <c r="C394" s="9"/>
+      <c r="D394" s="10"/>
+      <c r="E394" s="8"/>
     </row>
     <row r="395">
-      <c r="A395" s="7"/>
-      <c r="B395" s="7"/>
-      <c r="C395" s="5"/>
-      <c r="D395" s="6"/>
-      <c r="E395" s="7"/>
+      <c r="A395" s="8"/>
+      <c r="B395" s="8"/>
+      <c r="C395" s="9"/>
+      <c r="D395" s="10"/>
+      <c r="E395" s="8"/>
     </row>
     <row r="396">
-      <c r="A396" s="7"/>
-      <c r="B396" s="7"/>
-      <c r="C396" s="5"/>
-      <c r="D396" s="6"/>
-      <c r="E396" s="7"/>
+      <c r="A396" s="8"/>
+      <c r="B396" s="8"/>
+      <c r="C396" s="9"/>
+      <c r="D396" s="10"/>
+      <c r="E396" s="8"/>
     </row>
     <row r="397">
-      <c r="A397" s="7"/>
-      <c r="B397" s="7"/>
-      <c r="C397" s="5"/>
-      <c r="D397" s="6"/>
-      <c r="E397" s="7"/>
+      <c r="A397" s="8"/>
+      <c r="B397" s="8"/>
+      <c r="C397" s="9"/>
+      <c r="D397" s="10"/>
+      <c r="E397" s="8"/>
     </row>
     <row r="398">
-      <c r="A398" s="7"/>
-      <c r="B398" s="7"/>
-      <c r="C398" s="5"/>
-      <c r="D398" s="6"/>
-      <c r="E398" s="7"/>
+      <c r="A398" s="8"/>
+      <c r="B398" s="8"/>
+      <c r="C398" s="9"/>
+      <c r="D398" s="10"/>
+      <c r="E398" s="8"/>
     </row>
     <row r="399">
-      <c r="A399" s="7"/>
-      <c r="B399" s="7"/>
-      <c r="C399" s="5"/>
-      <c r="D399" s="6"/>
-      <c r="E399" s="7"/>
+      <c r="A399" s="8"/>
+      <c r="B399" s="8"/>
+      <c r="C399" s="9"/>
+      <c r="D399" s="10"/>
+      <c r="E399" s="8"/>
     </row>
     <row r="400">
-      <c r="A400" s="7"/>
-      <c r="B400" s="7"/>
-      <c r="C400" s="5"/>
-      <c r="D400" s="6"/>
-      <c r="E400" s="7"/>
+      <c r="A400" s="8"/>
+      <c r="B400" s="8"/>
+      <c r="C400" s="9"/>
+      <c r="D400" s="10"/>
+      <c r="E400" s="8"/>
     </row>
     <row r="401">
-      <c r="A401" s="7"/>
-      <c r="B401" s="7"/>
-      <c r="C401" s="5"/>
-      <c r="D401" s="6"/>
-      <c r="E401" s="7"/>
+      <c r="A401" s="8"/>
+      <c r="B401" s="8"/>
+      <c r="C401" s="9"/>
+      <c r="D401" s="10"/>
+      <c r="E401" s="8"/>
     </row>
     <row r="402">
-      <c r="A402" s="7"/>
-      <c r="B402" s="7"/>
-      <c r="C402" s="5"/>
-      <c r="D402" s="6"/>
-      <c r="E402" s="7"/>
+      <c r="A402" s="8"/>
+      <c r="B402" s="8"/>
+      <c r="C402" s="9"/>
+      <c r="D402" s="10"/>
+      <c r="E402" s="8"/>
     </row>
     <row r="403">
-      <c r="A403" s="7"/>
-      <c r="B403" s="7"/>
-      <c r="C403" s="5"/>
-      <c r="D403" s="6"/>
-      <c r="E403" s="7"/>
+      <c r="A403" s="8"/>
+      <c r="B403" s="8"/>
+      <c r="C403" s="9"/>
+      <c r="D403" s="10"/>
+      <c r="E403" s="8"/>
     </row>
     <row r="404">
-      <c r="A404" s="7"/>
-      <c r="B404" s="7"/>
-      <c r="C404" s="5"/>
-      <c r="D404" s="6"/>
-      <c r="E404" s="7"/>
+      <c r="A404" s="8"/>
+      <c r="B404" s="8"/>
+      <c r="C404" s="9"/>
+      <c r="D404" s="10"/>
+      <c r="E404" s="8"/>
     </row>
     <row r="405">
-      <c r="A405" s="7"/>
-      <c r="B405" s="7"/>
-      <c r="C405" s="5"/>
-      <c r="D405" s="6"/>
-      <c r="E405" s="7"/>
+      <c r="A405" s="8"/>
+      <c r="B405" s="8"/>
+      <c r="C405" s="9"/>
+      <c r="D405" s="10"/>
+      <c r="E405" s="8"/>
     </row>
     <row r="406">
-      <c r="A406" s="7"/>
-      <c r="B406" s="7"/>
-      <c r="C406" s="5"/>
-      <c r="D406" s="6"/>
-      <c r="E406" s="7"/>
+      <c r="A406" s="8"/>
+      <c r="B406" s="8"/>
+      <c r="C406" s="9"/>
+      <c r="D406" s="10"/>
+      <c r="E406" s="8"/>
     </row>
     <row r="407">
-      <c r="A407" s="7"/>
-      <c r="B407" s="7"/>
-      <c r="C407" s="5"/>
-      <c r="D407" s="6"/>
-      <c r="E407" s="7"/>
+      <c r="A407" s="8"/>
+      <c r="B407" s="8"/>
+      <c r="C407" s="9"/>
+      <c r="D407" s="10"/>
+      <c r="E407" s="8"/>
     </row>
     <row r="408">
-      <c r="A408" s="7"/>
-      <c r="B408" s="7"/>
-      <c r="C408" s="5"/>
-      <c r="D408" s="6"/>
-      <c r="E408" s="7"/>
+      <c r="A408" s="8"/>
+      <c r="B408" s="8"/>
+      <c r="C408" s="9"/>
+      <c r="D408" s="10"/>
+      <c r="E408" s="8"/>
     </row>
     <row r="409">
-      <c r="A409" s="7"/>
-      <c r="B409" s="7"/>
-      <c r="C409" s="5"/>
-      <c r="D409" s="6"/>
-      <c r="E409" s="7"/>
+      <c r="A409" s="8"/>
+      <c r="B409" s="8"/>
+      <c r="C409" s="9"/>
+      <c r="D409" s="10"/>
+      <c r="E409" s="8"/>
     </row>
     <row r="410">
-      <c r="A410" s="7"/>
-      <c r="B410" s="7"/>
-      <c r="C410" s="5"/>
-      <c r="D410" s="6"/>
-      <c r="E410" s="7"/>
+      <c r="A410" s="8"/>
+      <c r="B410" s="8"/>
+      <c r="C410" s="9"/>
+      <c r="D410" s="10"/>
+      <c r="E410" s="8"/>
     </row>
     <row r="411">
-      <c r="A411" s="7"/>
-      <c r="B411" s="7"/>
-      <c r="C411" s="5"/>
-      <c r="D411" s="6"/>
-      <c r="E411" s="7"/>
+      <c r="A411" s="8"/>
+      <c r="B411" s="8"/>
+      <c r="C411" s="9"/>
+      <c r="D411" s="10"/>
+      <c r="E411" s="8"/>
     </row>
     <row r="412">
-      <c r="A412" s="7"/>
-      <c r="B412" s="7"/>
-      <c r="C412" s="5"/>
-      <c r="D412" s="6"/>
-      <c r="E412" s="7"/>
+      <c r="A412" s="8"/>
+      <c r="B412" s="8"/>
+      <c r="C412" s="9"/>
+      <c r="D412" s="10"/>
+      <c r="E412" s="8"/>
     </row>
     <row r="413">
-      <c r="A413" s="7"/>
-      <c r="B413" s="7"/>
-      <c r="C413" s="5"/>
-      <c r="D413" s="6"/>
-      <c r="E413" s="7"/>
+      <c r="A413" s="8"/>
+      <c r="B413" s="8"/>
+      <c r="C413" s="9"/>
+      <c r="D413" s="10"/>
+      <c r="E413" s="8"/>
     </row>
     <row r="414">
-      <c r="A414" s="7"/>
-      <c r="B414" s="7"/>
-      <c r="C414" s="5"/>
-      <c r="D414" s="6"/>
-      <c r="E414" s="7"/>
+      <c r="A414" s="8"/>
+      <c r="B414" s="8"/>
+      <c r="C414" s="9"/>
+      <c r="D414" s="10"/>
+      <c r="E414" s="8"/>
     </row>
     <row r="415">
-      <c r="A415" s="7"/>
-      <c r="B415" s="7"/>
-      <c r="C415" s="5"/>
-      <c r="D415" s="6"/>
-      <c r="E415" s="7"/>
+      <c r="A415" s="8"/>
+      <c r="B415" s="8"/>
+      <c r="C415" s="9"/>
+      <c r="D415" s="10"/>
+      <c r="E415" s="8"/>
     </row>
     <row r="416">
-      <c r="A416" s="7"/>
-      <c r="B416" s="7"/>
-      <c r="C416" s="5"/>
-      <c r="D416" s="6"/>
-      <c r="E416" s="7"/>
+      <c r="A416" s="8"/>
+      <c r="B416" s="8"/>
+      <c r="C416" s="9"/>
+      <c r="D416" s="10"/>
+      <c r="E416" s="8"/>
     </row>
     <row r="417">
-      <c r="A417" s="7"/>
-      <c r="B417" s="7"/>
-      <c r="C417" s="5"/>
-      <c r="D417" s="6"/>
-      <c r="E417" s="7"/>
+      <c r="A417" s="8"/>
+      <c r="B417" s="8"/>
+      <c r="C417" s="9"/>
+      <c r="D417" s="10"/>
+      <c r="E417" s="8"/>
     </row>
     <row r="418">
-      <c r="A418" s="7"/>
-      <c r="B418" s="7"/>
-      <c r="C418" s="5"/>
-      <c r="D418" s="6"/>
-      <c r="E418" s="7"/>
+      <c r="A418" s="8"/>
+      <c r="B418" s="8"/>
+      <c r="C418" s="9"/>
+      <c r="D418" s="10"/>
+      <c r="E418" s="8"/>
     </row>
     <row r="419">
-      <c r="A419" s="7"/>
-      <c r="B419" s="7"/>
-      <c r="C419" s="5"/>
-      <c r="D419" s="6"/>
-      <c r="E419" s="7"/>
+      <c r="A419" s="8"/>
+      <c r="B419" s="8"/>
+      <c r="C419" s="9"/>
+      <c r="D419" s="10"/>
+      <c r="E419" s="8"/>
     </row>
     <row r="420">
-      <c r="A420" s="7"/>
-      <c r="B420" s="7"/>
-      <c r="C420" s="5"/>
-      <c r="D420" s="6"/>
-      <c r="E420" s="7"/>
+      <c r="A420" s="8"/>
+      <c r="B420" s="8"/>
+      <c r="C420" s="9"/>
+      <c r="D420" s="10"/>
+      <c r="E420" s="8"/>
     </row>
     <row r="421">
-      <c r="A421" s="7"/>
-      <c r="B421" s="7"/>
-      <c r="C421" s="5"/>
-      <c r="D421" s="6"/>
-      <c r="E421" s="7"/>
+      <c r="A421" s="8"/>
+      <c r="B421" s="8"/>
+      <c r="C421" s="9"/>
+      <c r="D421" s="10"/>
+      <c r="E421" s="8"/>
     </row>
     <row r="422">
-      <c r="A422" s="7"/>
-      <c r="B422" s="7"/>
-      <c r="C422" s="5"/>
-      <c r="D422" s="6"/>
-      <c r="E422" s="7"/>
+      <c r="A422" s="8"/>
+      <c r="B422" s="8"/>
+      <c r="C422" s="9"/>
+      <c r="D422" s="10"/>
+      <c r="E422" s="8"/>
     </row>
     <row r="423">
-      <c r="A423" s="7"/>
-      <c r="B423" s="7"/>
-      <c r="C423" s="5"/>
-      <c r="D423" s="6"/>
-      <c r="E423" s="7"/>
+      <c r="A423" s="8"/>
+      <c r="B423" s="8"/>
+      <c r="C423" s="9"/>
+      <c r="D423" s="10"/>
+      <c r="E423" s="8"/>
     </row>
     <row r="424">
-      <c r="A424" s="7"/>
-      <c r="B424" s="7"/>
-      <c r="C424" s="5"/>
-      <c r="D424" s="6"/>
-      <c r="E424" s="7"/>
+      <c r="A424" s="8"/>
+      <c r="B424" s="8"/>
+      <c r="C424" s="9"/>
+      <c r="D424" s="10"/>
+      <c r="E424" s="8"/>
     </row>
     <row r="425">
-      <c r="A425" s="7"/>
-      <c r="B425" s="7"/>
-      <c r="C425" s="5"/>
-      <c r="D425" s="6"/>
-      <c r="E425" s="7"/>
+      <c r="A425" s="8"/>
+      <c r="B425" s="8"/>
+      <c r="C425" s="9"/>
+      <c r="D425" s="10"/>
+      <c r="E425" s="8"/>
     </row>
     <row r="426">
-      <c r="A426" s="7"/>
-      <c r="B426" s="7"/>
-      <c r="C426" s="5"/>
-      <c r="D426" s="6"/>
-      <c r="E426" s="7"/>
+      <c r="A426" s="8"/>
+      <c r="B426" s="8"/>
+      <c r="C426" s="9"/>
+      <c r="D426" s="10"/>
+      <c r="E426" s="8"/>
     </row>
     <row r="427">
-      <c r="A427" s="7"/>
-      <c r="B427" s="7"/>
-      <c r="C427" s="5"/>
-      <c r="D427" s="6"/>
-      <c r="E427" s="7"/>
+      <c r="A427" s="8"/>
+      <c r="B427" s="8"/>
+      <c r="C427" s="9"/>
+      <c r="D427" s="10"/>
+      <c r="E427" s="8"/>
     </row>
     <row r="428">
-      <c r="A428" s="7"/>
-      <c r="B428" s="7"/>
-      <c r="C428" s="5"/>
-      <c r="D428" s="6"/>
-      <c r="E428" s="7"/>
+      <c r="A428" s="8"/>
+      <c r="B428" s="8"/>
+      <c r="C428" s="9"/>
+      <c r="D428" s="10"/>
+      <c r="E428" s="8"/>
     </row>
     <row r="429">
-      <c r="A429" s="7"/>
-      <c r="B429" s="7"/>
-      <c r="C429" s="5"/>
-      <c r="D429" s="6"/>
-      <c r="E429" s="7"/>
+      <c r="A429" s="8"/>
+      <c r="B429" s="8"/>
+      <c r="C429" s="9"/>
+      <c r="D429" s="10"/>
+      <c r="E429" s="8"/>
     </row>
     <row r="430">
-      <c r="A430" s="7"/>
-      <c r="B430" s="7"/>
-      <c r="C430" s="5"/>
-      <c r="D430" s="6"/>
-      <c r="E430" s="7"/>
+      <c r="A430" s="8"/>
+      <c r="B430" s="8"/>
+      <c r="C430" s="9"/>
+      <c r="D430" s="10"/>
+      <c r="E430" s="8"/>
     </row>
     <row r="431">
-      <c r="A431" s="7"/>
-      <c r="B431" s="7"/>
-      <c r="C431" s="5"/>
-      <c r="D431" s="6"/>
-      <c r="E431" s="7"/>
+      <c r="A431" s="8"/>
+      <c r="B431" s="8"/>
+      <c r="C431" s="9"/>
+      <c r="D431" s="10"/>
+      <c r="E431" s="8"/>
     </row>
     <row r="432">
-      <c r="A432" s="7"/>
-      <c r="B432" s="7"/>
-      <c r="C432" s="5"/>
-      <c r="D432" s="6"/>
-      <c r="E432" s="7"/>
+      <c r="A432" s="8"/>
+      <c r="B432" s="8"/>
+      <c r="C432" s="9"/>
+      <c r="D432" s="10"/>
+      <c r="E432" s="8"/>
     </row>
     <row r="433">
-      <c r="A433" s="7"/>
-      <c r="B433" s="7"/>
-      <c r="C433" s="5"/>
-      <c r="D433" s="6"/>
-      <c r="E433" s="7"/>
+      <c r="A433" s="8"/>
+      <c r="B433" s="8"/>
+      <c r="C433" s="9"/>
+      <c r="D433" s="10"/>
+      <c r="E433" s="8"/>
     </row>
     <row r="434">
-      <c r="A434" s="7"/>
-      <c r="B434" s="7"/>
-      <c r="C434" s="5"/>
-      <c r="D434" s="6"/>
-      <c r="E434" s="7"/>
+      <c r="A434" s="8"/>
+      <c r="B434" s="8"/>
+      <c r="C434" s="9"/>
+      <c r="D434" s="10"/>
+      <c r="E434" s="8"/>
     </row>
     <row r="435">
-      <c r="A435" s="7"/>
-      <c r="B435" s="7"/>
-      <c r="C435" s="5"/>
-      <c r="D435" s="6"/>
-      <c r="E435" s="7"/>
+      <c r="A435" s="8"/>
+      <c r="B435" s="8"/>
+      <c r="C435" s="9"/>
+      <c r="D435" s="10"/>
+      <c r="E435" s="8"/>
     </row>
     <row r="436">
-      <c r="A436" s="7"/>
-      <c r="B436" s="7"/>
-      <c r="C436" s="5"/>
-      <c r="D436" s="6"/>
-      <c r="E436" s="7"/>
+      <c r="A436" s="8"/>
+      <c r="B436" s="8"/>
+      <c r="C436" s="9"/>
+      <c r="D436" s="10"/>
+      <c r="E436" s="8"/>
     </row>
     <row r="437">
-      <c r="A437" s="7"/>
-      <c r="B437" s="7"/>
-      <c r="C437" s="5"/>
-      <c r="D437" s="6"/>
-      <c r="E437" s="7"/>
+      <c r="A437" s="8"/>
+      <c r="B437" s="8"/>
+      <c r="C437" s="9"/>
+      <c r="D437" s="10"/>
+      <c r="E437" s="8"/>
     </row>
     <row r="438">
-      <c r="A438" s="7"/>
-      <c r="B438" s="7"/>
-      <c r="C438" s="5"/>
-      <c r="D438" s="6"/>
-      <c r="E438" s="7"/>
+      <c r="A438" s="8"/>
+      <c r="B438" s="8"/>
+      <c r="C438" s="9"/>
+      <c r="D438" s="10"/>
+      <c r="E438" s="8"/>
     </row>
     <row r="439">
-      <c r="A439" s="7"/>
-      <c r="B439" s="7"/>
-      <c r="C439" s="5"/>
-      <c r="D439" s="6"/>
-      <c r="E439" s="7"/>
+      <c r="A439" s="8"/>
+      <c r="B439" s="8"/>
+      <c r="C439" s="9"/>
+      <c r="D439" s="10"/>
+      <c r="E439" s="8"/>
     </row>
     <row r="440">
-      <c r="A440" s="7"/>
-      <c r="B440" s="7"/>
-      <c r="C440" s="5"/>
-      <c r="D440" s="6"/>
-      <c r="E440" s="7"/>
+      <c r="A440" s="8"/>
+      <c r="B440" s="8"/>
+      <c r="C440" s="9"/>
+      <c r="D440" s="10"/>
+      <c r="E440" s="8"/>
     </row>
     <row r="441">
-      <c r="A441" s="7"/>
-      <c r="B441" s="7"/>
-      <c r="C441" s="5"/>
-      <c r="D441" s="6"/>
-      <c r="E441" s="7"/>
+      <c r="A441" s="8"/>
+      <c r="B441" s="8"/>
+      <c r="C441" s="9"/>
+      <c r="D441" s="10"/>
+      <c r="E441" s="8"/>
     </row>
     <row r="442">
-      <c r="A442" s="7"/>
-      <c r="B442" s="7"/>
-      <c r="C442" s="5"/>
-      <c r="D442" s="6"/>
-      <c r="E442" s="7"/>
+      <c r="A442" s="8"/>
+      <c r="B442" s="8"/>
+      <c r="C442" s="9"/>
+      <c r="D442" s="10"/>
+      <c r="E442" s="8"/>
     </row>
     <row r="443">
-      <c r="A443" s="7"/>
-      <c r="B443" s="7"/>
-      <c r="C443" s="5"/>
-      <c r="D443" s="6"/>
-      <c r="E443" s="7"/>
+      <c r="A443" s="8"/>
+      <c r="B443" s="8"/>
+      <c r="C443" s="9"/>
+      <c r="D443" s="10"/>
+      <c r="E443" s="8"/>
     </row>
     <row r="444">
-      <c r="A444" s="7"/>
-      <c r="B444" s="7"/>
-      <c r="C444" s="5"/>
-      <c r="D444" s="6"/>
-      <c r="E444" s="7"/>
+      <c r="A444" s="8"/>
+      <c r="B444" s="8"/>
+      <c r="C444" s="9"/>
+      <c r="D444" s="10"/>
+      <c r="E444" s="8"/>
     </row>
     <row r="445">
-      <c r="A445" s="7"/>
-      <c r="B445" s="7"/>
-      <c r="C445" s="5"/>
-      <c r="D445" s="6"/>
-      <c r="E445" s="7"/>
+      <c r="A445" s="8"/>
+      <c r="B445" s="8"/>
+      <c r="C445" s="9"/>
+      <c r="D445" s="10"/>
+      <c r="E445" s="8"/>
     </row>
     <row r="446">
-      <c r="A446" s="7"/>
-      <c r="B446" s="7"/>
-      <c r="C446" s="5"/>
-      <c r="D446" s="6"/>
-      <c r="E446" s="7"/>
+      <c r="A446" s="8"/>
+      <c r="B446" s="8"/>
+      <c r="C446" s="9"/>
+      <c r="D446" s="10"/>
+      <c r="E446" s="8"/>
     </row>
     <row r="447">
-      <c r="A447" s="7"/>
-      <c r="B447" s="7"/>
-      <c r="C447" s="5"/>
-      <c r="D447" s="6"/>
-      <c r="E447" s="7"/>
+      <c r="A447" s="8"/>
+      <c r="B447" s="8"/>
+      <c r="C447" s="9"/>
+      <c r="D447" s="10"/>
+      <c r="E447" s="8"/>
     </row>
     <row r="448">
-      <c r="A448" s="7"/>
-      <c r="B448" s="7"/>
-      <c r="C448" s="5"/>
-      <c r="D448" s="6"/>
-      <c r="E448" s="7"/>
+      <c r="A448" s="8"/>
+      <c r="B448" s="8"/>
+      <c r="C448" s="9"/>
+      <c r="D448" s="10"/>
+      <c r="E448" s="8"/>
     </row>
     <row r="449">
-      <c r="A449" s="7"/>
-      <c r="B449" s="7"/>
-      <c r="C449" s="5"/>
-      <c r="D449" s="6"/>
-      <c r="E449" s="7"/>
+      <c r="A449" s="8"/>
+      <c r="B449" s="8"/>
+      <c r="C449" s="9"/>
+      <c r="D449" s="10"/>
+      <c r="E449" s="8"/>
     </row>
     <row r="450">
-      <c r="A450" s="7"/>
-      <c r="B450" s="7"/>
-      <c r="C450" s="5"/>
-      <c r="D450" s="6"/>
-      <c r="E450" s="7"/>
+      <c r="A450" s="8"/>
+      <c r="B450" s="8"/>
+      <c r="C450" s="9"/>
+      <c r="D450" s="10"/>
+      <c r="E450" s="8"/>
     </row>
     <row r="451">
-      <c r="A451" s="7"/>
-      <c r="B451" s="7"/>
-      <c r="C451" s="5"/>
-      <c r="D451" s="6"/>
-      <c r="E451" s="7"/>
+      <c r="A451" s="8"/>
+      <c r="B451" s="8"/>
+      <c r="C451" s="9"/>
+      <c r="D451" s="10"/>
+      <c r="E451" s="8"/>
     </row>
     <row r="452">
-      <c r="A452" s="7"/>
-      <c r="B452" s="7"/>
-      <c r="C452" s="5"/>
-      <c r="D452" s="6"/>
-      <c r="E452" s="7"/>
+      <c r="A452" s="8"/>
+      <c r="B452" s="8"/>
+      <c r="C452" s="9"/>
+      <c r="D452" s="10"/>
+      <c r="E452" s="8"/>
     </row>
     <row r="453">
-      <c r="A453" s="7"/>
-      <c r="B453" s="7"/>
-      <c r="C453" s="5"/>
-      <c r="D453" s="6"/>
-      <c r="E453" s="7"/>
+      <c r="A453" s="8"/>
+      <c r="B453" s="8"/>
+      <c r="C453" s="9"/>
+      <c r="D453" s="10"/>
+      <c r="E453" s="8"/>
     </row>
     <row r="454">
-      <c r="A454" s="7"/>
-      <c r="B454" s="7"/>
-      <c r="C454" s="5"/>
-      <c r="D454" s="6"/>
-      <c r="E454" s="7"/>
+      <c r="A454" s="8"/>
+      <c r="B454" s="8"/>
+      <c r="C454" s="9"/>
+      <c r="D454" s="10"/>
+      <c r="E454" s="8"/>
     </row>
     <row r="455">
-      <c r="A455" s="7"/>
-      <c r="B455" s="7"/>
-      <c r="C455" s="5"/>
-      <c r="D455" s="6"/>
-      <c r="E455" s="7"/>
+      <c r="A455" s="8"/>
+      <c r="B455" s="8"/>
+      <c r="C455" s="9"/>
+      <c r="D455" s="10"/>
+      <c r="E455" s="8"/>
     </row>
     <row r="456">
-      <c r="A456" s="7"/>
-      <c r="B456" s="7"/>
-      <c r="C456" s="5"/>
-      <c r="D456" s="6"/>
-      <c r="E456" s="7"/>
+      <c r="A456" s="8"/>
+      <c r="B456" s="8"/>
+      <c r="C456" s="9"/>
+      <c r="D456" s="10"/>
+      <c r="E456" s="8"/>
     </row>
     <row r="457">
-      <c r="A457" s="7"/>
-      <c r="B457" s="7"/>
-      <c r="C457" s="5"/>
-      <c r="D457" s="6"/>
-      <c r="E457" s="7"/>
+      <c r="A457" s="8"/>
+      <c r="B457" s="8"/>
+      <c r="C457" s="9"/>
+      <c r="D457" s="10"/>
+      <c r="E457" s="8"/>
     </row>
     <row r="458">
-      <c r="A458" s="7"/>
-      <c r="B458" s="7"/>
-      <c r="C458" s="5"/>
-      <c r="D458" s="6"/>
-      <c r="E458" s="7"/>
+      <c r="A458" s="8"/>
+      <c r="B458" s="8"/>
+      <c r="C458" s="9"/>
+      <c r="D458" s="10"/>
+      <c r="E458" s="8"/>
     </row>
     <row r="459">
-      <c r="A459" s="7"/>
-      <c r="B459" s="7"/>
-      <c r="C459" s="5"/>
-      <c r="D459" s="6"/>
-      <c r="E459" s="7"/>
+      <c r="A459" s="8"/>
+      <c r="B459" s="8"/>
+      <c r="C459" s="9"/>
+      <c r="D459" s="10"/>
+      <c r="E459" s="8"/>
     </row>
     <row r="460">
-      <c r="A460" s="7"/>
-      <c r="B460" s="7"/>
-      <c r="C460" s="5"/>
-      <c r="D460" s="6"/>
-      <c r="E460" s="7"/>
+      <c r="A460" s="8"/>
+      <c r="B460" s="8"/>
+      <c r="C460" s="9"/>
+      <c r="D460" s="10"/>
+      <c r="E460" s="8"/>
     </row>
     <row r="461">
-      <c r="A461" s="7"/>
-      <c r="B461" s="7"/>
-      <c r="C461" s="5"/>
-      <c r="D461" s="6"/>
-      <c r="E461" s="7"/>
+      <c r="A461" s="8"/>
+      <c r="B461" s="8"/>
+      <c r="C461" s="9"/>
+      <c r="D461" s="10"/>
+      <c r="E461" s="8"/>
     </row>
     <row r="462">
-      <c r="A462" s="7"/>
-      <c r="B462" s="7"/>
-      <c r="C462" s="5"/>
-      <c r="D462" s="6"/>
-      <c r="E462" s="7"/>
+      <c r="A462" s="8"/>
+      <c r="B462" s="8"/>
+      <c r="C462" s="9"/>
+      <c r="D462" s="10"/>
+      <c r="E462" s="8"/>
     </row>
     <row r="463">
-      <c r="A463" s="7"/>
-      <c r="B463" s="7"/>
-      <c r="C463" s="5"/>
-      <c r="D463" s="6"/>
-      <c r="E463" s="7"/>
+      <c r="A463" s="8"/>
+      <c r="B463" s="8"/>
+      <c r="C463" s="9"/>
+      <c r="D463" s="10"/>
+      <c r="E463" s="8"/>
     </row>
     <row r="464">
-      <c r="A464" s="7"/>
-      <c r="B464" s="7"/>
-      <c r="C464" s="5"/>
-      <c r="D464" s="6"/>
-      <c r="E464" s="7"/>
+      <c r="A464" s="8"/>
+      <c r="B464" s="8"/>
+      <c r="C464" s="9"/>
+      <c r="D464" s="10"/>
+      <c r="E464" s="8"/>
     </row>
     <row r="465">
-      <c r="A465" s="7"/>
-      <c r="B465" s="7"/>
-      <c r="C465" s="5"/>
-      <c r="D465" s="6"/>
-      <c r="E465" s="7"/>
+      <c r="A465" s="8"/>
+      <c r="B465" s="8"/>
+      <c r="C465" s="9"/>
+      <c r="D465" s="10"/>
+      <c r="E465" s="8"/>
     </row>
     <row r="466">
-      <c r="A466" s="7"/>
-      <c r="B466" s="7"/>
-      <c r="C466" s="5"/>
-      <c r="D466" s="6"/>
-      <c r="E466" s="7"/>
+      <c r="A466" s="8"/>
+      <c r="B466" s="8"/>
+      <c r="C466" s="9"/>
+      <c r="D466" s="10"/>
+      <c r="E466" s="8"/>
     </row>
     <row r="467">
-      <c r="A467" s="7"/>
-      <c r="B467" s="7"/>
-      <c r="C467" s="5"/>
-      <c r="D467" s="6"/>
-      <c r="E467" s="7"/>
+      <c r="A467" s="8"/>
+      <c r="B467" s="8"/>
+      <c r="C467" s="9"/>
+      <c r="D467" s="10"/>
+      <c r="E467" s="8"/>
     </row>
     <row r="468">
-      <c r="A468" s="7"/>
-      <c r="B468" s="7"/>
-      <c r="C468" s="5"/>
-      <c r="D468" s="6"/>
-      <c r="E468" s="7"/>
+      <c r="A468" s="8"/>
+      <c r="B468" s="8"/>
+      <c r="C468" s="9"/>
+      <c r="D468" s="10"/>
+      <c r="E468" s="8"/>
     </row>
     <row r="469">
-      <c r="A469" s="7"/>
-      <c r="B469" s="7"/>
-      <c r="C469" s="5"/>
-      <c r="D469" s="6"/>
-      <c r="E469" s="7"/>
+      <c r="A469" s="8"/>
+      <c r="B469" s="8"/>
+      <c r="C469" s="9"/>
+      <c r="D469" s="10"/>
+      <c r="E469" s="8"/>
     </row>
     <row r="470">
-      <c r="A470" s="7"/>
-      <c r="B470" s="7"/>
-      <c r="C470" s="5"/>
-      <c r="D470" s="6"/>
-      <c r="E470" s="7"/>
+      <c r="A470" s="8"/>
+      <c r="B470" s="8"/>
+      <c r="C470" s="9"/>
+      <c r="D470" s="10"/>
+      <c r="E470" s="8"/>
     </row>
     <row r="471">
-      <c r="A471" s="7"/>
-      <c r="B471" s="7"/>
-      <c r="C471" s="5"/>
-      <c r="D471" s="6"/>
-      <c r="E471" s="7"/>
+      <c r="A471" s="8"/>
+      <c r="B471" s="8"/>
+      <c r="C471" s="9"/>
+      <c r="D471" s="10"/>
+      <c r="E471" s="8"/>
     </row>
     <row r="472">
-      <c r="A472" s="7"/>
-      <c r="B472" s="7"/>
-      <c r="C472" s="5"/>
-      <c r="D472" s="6"/>
-      <c r="E472" s="7"/>
+      <c r="A472" s="8"/>
+      <c r="B472" s="8"/>
+      <c r="C472" s="9"/>
+      <c r="D472" s="10"/>
+      <c r="E472" s="8"/>
     </row>
     <row r="473">
-      <c r="A473" s="7"/>
-      <c r="B473" s="7"/>
-      <c r="C473" s="5"/>
-      <c r="D473" s="6"/>
-      <c r="E473" s="7"/>
+      <c r="A473" s="8"/>
+      <c r="B473" s="8"/>
+      <c r="C473" s="9"/>
+      <c r="D473" s="10"/>
+      <c r="E473" s="8"/>
     </row>
     <row r="474">
-      <c r="A474" s="7"/>
-      <c r="B474" s="7"/>
-      <c r="C474" s="5"/>
-      <c r="D474" s="6"/>
-      <c r="E474" s="7"/>
+      <c r="A474" s="8"/>
+      <c r="B474" s="8"/>
+      <c r="C474" s="9"/>
+      <c r="D474" s="10"/>
+      <c r="E474" s="8"/>
     </row>
     <row r="475">
-      <c r="A475" s="7"/>
-      <c r="B475" s="7"/>
-      <c r="C475" s="5"/>
-      <c r="D475" s="6"/>
-      <c r="E475" s="7"/>
+      <c r="A475" s="8"/>
+      <c r="B475" s="8"/>
+      <c r="C475" s="9"/>
+      <c r="D475" s="10"/>
+      <c r="E475" s="8"/>
     </row>
     <row r="476">
-      <c r="A476" s="7"/>
-      <c r="B476" s="7"/>
-      <c r="C476" s="5"/>
-      <c r="D476" s="6"/>
-      <c r="E476" s="7"/>
+      <c r="A476" s="8"/>
+      <c r="B476" s="8"/>
+      <c r="C476" s="9"/>
+      <c r="D476" s="10"/>
+      <c r="E476" s="8"/>
     </row>
     <row r="477">
-      <c r="A477" s="7"/>
-      <c r="B477" s="7"/>
-      <c r="C477" s="5"/>
-      <c r="D477" s="6"/>
-      <c r="E477" s="7"/>
+      <c r="A477" s="8"/>
+      <c r="B477" s="8"/>
+      <c r="C477" s="9"/>
+      <c r="D477" s="10"/>
+      <c r="E477" s="8"/>
     </row>
     <row r="478">
-      <c r="A478" s="7"/>
-      <c r="B478" s="7"/>
-      <c r="C478" s="5"/>
-      <c r="D478" s="6"/>
-      <c r="E478" s="7"/>
+      <c r="A478" s="8"/>
+      <c r="B478" s="8"/>
+      <c r="C478" s="9"/>
+      <c r="D478" s="10"/>
+      <c r="E478" s="8"/>
     </row>
     <row r="479">
-      <c r="A479" s="7"/>
-      <c r="B479" s="7"/>
-      <c r="C479" s="5"/>
-      <c r="D479" s="6"/>
-      <c r="E479" s="7"/>
+      <c r="A479" s="8"/>
+      <c r="B479" s="8"/>
+      <c r="C479" s="9"/>
+      <c r="D479" s="10"/>
+      <c r="E479" s="8"/>
     </row>
     <row r="480">
-      <c r="A480" s="7"/>
-      <c r="B480" s="7"/>
-      <c r="C480" s="5"/>
-      <c r="D480" s="6"/>
-      <c r="E480" s="7"/>
+      <c r="A480" s="8"/>
+      <c r="B480" s="8"/>
+      <c r="C480" s="9"/>
+      <c r="D480" s="10"/>
+      <c r="E480" s="8"/>
     </row>
     <row r="481">
-      <c r="A481" s="7"/>
-      <c r="B481" s="7"/>
-      <c r="C481" s="5"/>
-      <c r="D481" s="6"/>
-      <c r="E481" s="7"/>
+      <c r="A481" s="8"/>
+      <c r="B481" s="8"/>
+      <c r="C481" s="9"/>
+      <c r="D481" s="10"/>
+      <c r="E481" s="8"/>
     </row>
     <row r="482">
-      <c r="A482" s="7"/>
-      <c r="B482" s="7"/>
-      <c r="C482" s="5"/>
-      <c r="D482" s="6"/>
-      <c r="E482" s="7"/>
+      <c r="A482" s="8"/>
+      <c r="B482" s="8"/>
+      <c r="C482" s="9"/>
+      <c r="D482" s="10"/>
+      <c r="E482" s="8"/>
     </row>
     <row r="483">
-      <c r="A483" s="7"/>
-      <c r="B483" s="7"/>
-      <c r="C483" s="5"/>
-      <c r="D483" s="6"/>
-      <c r="E483" s="7"/>
+      <c r="A483" s="8"/>
+      <c r="B483" s="8"/>
+      <c r="C483" s="9"/>
+      <c r="D483" s="10"/>
+      <c r="E483" s="8"/>
     </row>
     <row r="484">
-      <c r="A484" s="7"/>
-      <c r="B484" s="7"/>
-      <c r="C484" s="5"/>
-      <c r="D484" s="6"/>
-      <c r="E484" s="7"/>
+      <c r="A484" s="8"/>
+      <c r="B484" s="8"/>
+      <c r="C484" s="9"/>
+      <c r="D484" s="10"/>
+      <c r="E484" s="8"/>
     </row>
     <row r="485">
-      <c r="A485" s="7"/>
-      <c r="B485" s="7"/>
-      <c r="C485" s="5"/>
-      <c r="D485" s="6"/>
-      <c r="E485" s="7"/>
+      <c r="A485" s="8"/>
+      <c r="B485" s="8"/>
+      <c r="C485" s="9"/>
+      <c r="D485" s="10"/>
+      <c r="E485" s="8"/>
     </row>
     <row r="486">
-      <c r="A486" s="7"/>
-      <c r="B486" s="7"/>
-      <c r="C486" s="5"/>
-      <c r="D486" s="6"/>
-      <c r="E486" s="7"/>
+      <c r="A486" s="8"/>
+      <c r="B486" s="8"/>
+      <c r="C486" s="9"/>
+      <c r="D486" s="10"/>
+      <c r="E486" s="8"/>
     </row>
     <row r="487">
-      <c r="A487" s="7"/>
-      <c r="B487" s="7"/>
-      <c r="C487" s="5"/>
-      <c r="D487" s="6"/>
-      <c r="E487" s="7"/>
+      <c r="A487" s="8"/>
+      <c r="B487" s="8"/>
+      <c r="C487" s="9"/>
+      <c r="D487" s="10"/>
+      <c r="E487" s="8"/>
     </row>
     <row r="488">
-      <c r="A488" s="7"/>
-      <c r="B488" s="7"/>
-      <c r="C488" s="5"/>
-      <c r="D488" s="6"/>
-      <c r="E488" s="7"/>
+      <c r="A488" s="8"/>
+      <c r="B488" s="8"/>
+      <c r="C488" s="9"/>
+      <c r="D488" s="10"/>
+      <c r="E488" s="8"/>
     </row>
     <row r="489">
-      <c r="A489" s="7"/>
-      <c r="B489" s="7"/>
-      <c r="C489" s="5"/>
-      <c r="D489" s="6"/>
-      <c r="E489" s="7"/>
+      <c r="A489" s="8"/>
+      <c r="B489" s="8"/>
+      <c r="C489" s="9"/>
+      <c r="D489" s="10"/>
+      <c r="E489" s="8"/>
     </row>
     <row r="490">
-      <c r="A490" s="7"/>
-      <c r="B490" s="7"/>
-      <c r="C490" s="5"/>
-      <c r="D490" s="6"/>
-      <c r="E490" s="7"/>
+      <c r="A490" s="8"/>
+      <c r="B490" s="8"/>
+      <c r="C490" s="9"/>
+      <c r="D490" s="10"/>
+      <c r="E490" s="8"/>
     </row>
     <row r="491">
-      <c r="A491" s="7"/>
-      <c r="B491" s="7"/>
-      <c r="C491" s="5"/>
-      <c r="D491" s="6"/>
-      <c r="E491" s="7"/>
+      <c r="A491" s="8"/>
+      <c r="B491" s="8"/>
+      <c r="C491" s="9"/>
+      <c r="D491" s="10"/>
+      <c r="E491" s="8"/>
     </row>
     <row r="492">
-      <c r="A492" s="7"/>
-      <c r="B492" s="7"/>
-      <c r="C492" s="5"/>
-      <c r="D492" s="6"/>
-      <c r="E492" s="7"/>
+      <c r="A492" s="8"/>
+      <c r="B492" s="8"/>
+      <c r="C492" s="9"/>
+      <c r="D492" s="10"/>
+      <c r="E492" s="8"/>
     </row>
     <row r="493">
-      <c r="A493" s="7"/>
-      <c r="B493" s="7"/>
-      <c r="C493" s="5"/>
-      <c r="D493" s="6"/>
-      <c r="E493" s="7"/>
+      <c r="A493" s="8"/>
+      <c r="B493" s="8"/>
+      <c r="C493" s="9"/>
+      <c r="D493" s="10"/>
+      <c r="E493" s="8"/>
     </row>
     <row r="494">
-      <c r="A494" s="7"/>
-      <c r="B494" s="7"/>
-      <c r="C494" s="5"/>
-      <c r="D494" s="6"/>
-      <c r="E494" s="7"/>
+      <c r="A494" s="8"/>
+      <c r="B494" s="8"/>
+      <c r="C494" s="9"/>
+      <c r="D494" s="10"/>
+      <c r="E494" s="8"/>
     </row>
     <row r="495">
-      <c r="A495" s="7"/>
-      <c r="B495" s="7"/>
-      <c r="C495" s="5"/>
-      <c r="D495" s="6"/>
-      <c r="E495" s="7"/>
+      <c r="A495" s="8"/>
+      <c r="B495" s="8"/>
+      <c r="C495" s="9"/>
+      <c r="D495" s="10"/>
+      <c r="E495" s="8"/>
     </row>
     <row r="496">
-      <c r="A496" s="7"/>
-      <c r="B496" s="7"/>
-      <c r="C496" s="5"/>
-      <c r="D496" s="6"/>
-      <c r="E496" s="7"/>
+      <c r="A496" s="8"/>
+      <c r="B496" s="8"/>
+      <c r="C496" s="9"/>
+      <c r="D496" s="10"/>
+      <c r="E496" s="8"/>
     </row>
     <row r="497">
-      <c r="A497" s="7"/>
-      <c r="B497" s="7"/>
-      <c r="C497" s="5"/>
-      <c r="D497" s="6"/>
-      <c r="E497" s="7"/>
+      <c r="A497" s="8"/>
+      <c r="B497" s="8"/>
+      <c r="C497" s="9"/>
+      <c r="D497" s="10"/>
+      <c r="E497" s="8"/>
     </row>
     <row r="498">
-      <c r="A498" s="7"/>
-      <c r="B498" s="7"/>
-      <c r="C498" s="5"/>
-      <c r="D498" s="6"/>
-      <c r="E498" s="7"/>
+      <c r="A498" s="8"/>
+      <c r="B498" s="8"/>
+      <c r="C498" s="9"/>
+      <c r="D498" s="10"/>
+      <c r="E498" s="8"/>
     </row>
     <row r="499">
-      <c r="A499" s="7"/>
-      <c r="B499" s="7"/>
-      <c r="C499" s="5"/>
-      <c r="D499" s="6"/>
-      <c r="E499" s="7"/>
+      <c r="A499" s="8"/>
+      <c r="B499" s="8"/>
+      <c r="C499" s="9"/>
+      <c r="D499" s="10"/>
+      <c r="E499" s="8"/>
     </row>
     <row r="500">
-      <c r="A500" s="7"/>
-      <c r="B500" s="7"/>
-      <c r="C500" s="5"/>
-      <c r="D500" s="6"/>
-      <c r="E500" s="7"/>
+      <c r="A500" s="8"/>
+      <c r="B500" s="8"/>
+      <c r="C500" s="9"/>
+      <c r="D500" s="10"/>
+      <c r="E500" s="8"/>
     </row>
     <row r="501">
-      <c r="A501" s="7"/>
-      <c r="B501" s="7"/>
-      <c r="C501" s="5"/>
-      <c r="D501" s="6"/>
-      <c r="E501" s="7"/>
+      <c r="A501" s="8"/>
+      <c r="B501" s="8"/>
+      <c r="C501" s="9"/>
+      <c r="D501" s="10"/>
+      <c r="E501" s="8"/>
     </row>
     <row r="502">
-      <c r="A502" s="7"/>
-      <c r="B502" s="7"/>
-      <c r="C502" s="5"/>
-      <c r="D502" s="6"/>
-      <c r="E502" s="7"/>
+      <c r="A502" s="8"/>
+      <c r="B502" s="8"/>
+      <c r="C502" s="9"/>
+      <c r="D502" s="10"/>
+      <c r="E502" s="8"/>
     </row>
     <row r="503">
-      <c r="A503" s="7"/>
-      <c r="B503" s="7"/>
-      <c r="C503" s="5"/>
-      <c r="D503" s="6"/>
-      <c r="E503" s="7"/>
+      <c r="A503" s="8"/>
+      <c r="B503" s="8"/>
+      <c r="C503" s="9"/>
+      <c r="D503" s="10"/>
+      <c r="E503" s="8"/>
     </row>
     <row r="504">
-      <c r="A504" s="7"/>
-      <c r="B504" s="7"/>
-      <c r="C504" s="5"/>
-      <c r="D504" s="6"/>
-      <c r="E504" s="7"/>
+      <c r="A504" s="8"/>
+      <c r="B504" s="8"/>
+      <c r="C504" s="9"/>
+      <c r="D504" s="10"/>
+      <c r="E504" s="8"/>
     </row>
     <row r="505">
-      <c r="A505" s="7"/>
-      <c r="B505" s="7"/>
-      <c r="C505" s="5"/>
-      <c r="D505" s="6"/>
-      <c r="E505" s="7"/>
+      <c r="A505" s="8"/>
+      <c r="B505" s="8"/>
+      <c r="C505" s="9"/>
+      <c r="D505" s="10"/>
+      <c r="E505" s="8"/>
     </row>
     <row r="506">
-      <c r="A506" s="7"/>
-      <c r="B506" s="7"/>
-      <c r="C506" s="5"/>
-      <c r="D506" s="6"/>
-      <c r="E506" s="7"/>
+      <c r="A506" s="8"/>
+      <c r="B506" s="8"/>
+      <c r="C506" s="9"/>
+      <c r="D506" s="10"/>
+      <c r="E506" s="8"/>
     </row>
     <row r="507">
-      <c r="A507" s="7"/>
-      <c r="B507" s="7"/>
-      <c r="C507" s="5"/>
-      <c r="D507" s="6"/>
-      <c r="E507" s="7"/>
+      <c r="A507" s="8"/>
+      <c r="B507" s="8"/>
+      <c r="C507" s="9"/>
+      <c r="D507" s="10"/>
+      <c r="E507" s="8"/>
     </row>
     <row r="508">
-      <c r="A508" s="7"/>
-      <c r="B508" s="7"/>
-      <c r="C508" s="5"/>
-      <c r="D508" s="6"/>
-      <c r="E508" s="7"/>
+      <c r="A508" s="8"/>
+      <c r="B508" s="8"/>
+      <c r="C508" s="9"/>
+      <c r="D508" s="10"/>
+      <c r="E508" s="8"/>
     </row>
     <row r="509">
-      <c r="A509" s="7"/>
-      <c r="B509" s="7"/>
-      <c r="C509" s="5"/>
-      <c r="D509" s="6"/>
-      <c r="E509" s="7"/>
+      <c r="A509" s="8"/>
+      <c r="B509" s="8"/>
+      <c r="C509" s="9"/>
+      <c r="D509" s="10"/>
+      <c r="E509" s="8"/>
     </row>
     <row r="510">
-      <c r="A510" s="7"/>
-      <c r="B510" s="7"/>
-      <c r="C510" s="5"/>
-      <c r="D510" s="6"/>
-      <c r="E510" s="7"/>
+      <c r="A510" s="8"/>
+      <c r="B510" s="8"/>
+      <c r="C510" s="9"/>
+      <c r="D510" s="10"/>
+      <c r="E510" s="8"/>
     </row>
     <row r="511">
-      <c r="A511" s="7"/>
-      <c r="B511" s="7"/>
-      <c r="C511" s="5"/>
-      <c r="D511" s="6"/>
-      <c r="E511" s="7"/>
+      <c r="A511" s="8"/>
+      <c r="B511" s="8"/>
+      <c r="C511" s="9"/>
+      <c r="D511" s="10"/>
+      <c r="E511" s="8"/>
     </row>
     <row r="512">
-      <c r="A512" s="7"/>
-      <c r="B512" s="7"/>
-      <c r="C512" s="5"/>
-      <c r="D512" s="6"/>
-      <c r="E512" s="7"/>
+      <c r="A512" s="8"/>
+      <c r="B512" s="8"/>
+      <c r="C512" s="9"/>
+      <c r="D512" s="10"/>
+      <c r="E512" s="8"/>
     </row>
     <row r="513">
-      <c r="A513" s="7"/>
-      <c r="B513" s="7"/>
-      <c r="C513" s="5"/>
-      <c r="D513" s="6"/>
-      <c r="E513" s="7"/>
+      <c r="A513" s="8"/>
+      <c r="B513" s="8"/>
+      <c r="C513" s="9"/>
+      <c r="D513" s="10"/>
+      <c r="E513" s="8"/>
     </row>
     <row r="514">
-      <c r="A514" s="7"/>
-      <c r="B514" s="7"/>
-      <c r="C514" s="5"/>
-      <c r="D514" s="6"/>
-      <c r="E514" s="7"/>
+      <c r="A514" s="8"/>
+      <c r="B514" s="8"/>
+      <c r="C514" s="9"/>
+      <c r="D514" s="10"/>
+      <c r="E514" s="8"/>
     </row>
     <row r="515">
-      <c r="A515" s="7"/>
-      <c r="B515" s="7"/>
-      <c r="C515" s="5"/>
-      <c r="D515" s="6"/>
-      <c r="E515" s="7"/>
+      <c r="A515" s="8"/>
+      <c r="B515" s="8"/>
+      <c r="C515" s="9"/>
+      <c r="D515" s="10"/>
+      <c r="E515" s="8"/>
     </row>
     <row r="516">
-      <c r="A516" s="7"/>
-      <c r="B516" s="7"/>
-      <c r="C516" s="5"/>
-      <c r="D516" s="6"/>
-      <c r="E516" s="7"/>
+      <c r="A516" s="8"/>
+      <c r="B516" s="8"/>
+      <c r="C516" s="9"/>
+      <c r="D516" s="10"/>
+      <c r="E516" s="8"/>
     </row>
     <row r="517">
-      <c r="A517" s="7"/>
-      <c r="B517" s="7"/>
-      <c r="C517" s="5"/>
-      <c r="D517" s="6"/>
-      <c r="E517" s="7"/>
+      <c r="A517" s="8"/>
+      <c r="B517" s="8"/>
+      <c r="C517" s="9"/>
+      <c r="D517" s="10"/>
+      <c r="E517" s="8"/>
     </row>
     <row r="518">
-      <c r="A518" s="7"/>
-      <c r="B518" s="7"/>
-      <c r="C518" s="5"/>
-      <c r="D518" s="6"/>
-      <c r="E518" s="7"/>
+      <c r="A518" s="8"/>
+      <c r="B518" s="8"/>
+      <c r="C518" s="9"/>
+      <c r="D518" s="10"/>
+      <c r="E518" s="8"/>
     </row>
     <row r="519">
-      <c r="A519" s="7"/>
-      <c r="B519" s="7"/>
-      <c r="C519" s="5"/>
-      <c r="D519" s="6"/>
-      <c r="E519" s="7"/>
+      <c r="A519" s="8"/>
+      <c r="B519" s="8"/>
+      <c r="C519" s="9"/>
+      <c r="D519" s="10"/>
+      <c r="E519" s="8"/>
     </row>
     <row r="520">
-      <c r="A520" s="7"/>
-      <c r="B520" s="7"/>
-      <c r="C520" s="5"/>
-      <c r="D520" s="6"/>
-      <c r="E520" s="7"/>
+      <c r="A520" s="8"/>
+      <c r="B520" s="8"/>
+      <c r="C520" s="9"/>
+      <c r="D520" s="10"/>
+      <c r="E520" s="8"/>
     </row>
     <row r="521">
-      <c r="A521" s="7"/>
-      <c r="B521" s="7"/>
-      <c r="C521" s="5"/>
-      <c r="D521" s="6"/>
-      <c r="E521" s="7"/>
+      <c r="A521" s="8"/>
+      <c r="B521" s="8"/>
+      <c r="C521" s="9"/>
+      <c r="D521" s="10"/>
+      <c r="E521" s="8"/>
     </row>
     <row r="522">
-      <c r="A522" s="7"/>
-      <c r="B522" s="7"/>
-      <c r="C522" s="5"/>
-      <c r="D522" s="6"/>
-      <c r="E522" s="7"/>
+      <c r="A522" s="8"/>
+      <c r="B522" s="8"/>
+      <c r="C522" s="9"/>
+      <c r="D522" s="10"/>
+      <c r="E522" s="8"/>
     </row>
     <row r="523">
-      <c r="A523" s="7"/>
-      <c r="B523" s="7"/>
-      <c r="C523" s="5"/>
-      <c r="D523" s="6"/>
-      <c r="E523" s="7"/>
+      <c r="A523" s="8"/>
+      <c r="B523" s="8"/>
+      <c r="C523" s="9"/>
+      <c r="D523" s="10"/>
+      <c r="E523" s="8"/>
     </row>
     <row r="524">
-      <c r="A524" s="7"/>
-      <c r="B524" s="7"/>
-      <c r="C524" s="5"/>
-      <c r="D524" s="6"/>
-      <c r="E524" s="7"/>
+      <c r="A524" s="8"/>
+      <c r="B524" s="8"/>
+      <c r="C524" s="9"/>
+      <c r="D524" s="10"/>
+      <c r="E524" s="8"/>
     </row>
     <row r="525">
-      <c r="A525" s="7"/>
-      <c r="B525" s="7"/>
-      <c r="C525" s="5"/>
-      <c r="D525" s="6"/>
-      <c r="E525" s="7"/>
+      <c r="A525" s="8"/>
+      <c r="B525" s="8"/>
+      <c r="C525" s="9"/>
+      <c r="D525" s="10"/>
+      <c r="E525" s="8"/>
     </row>
     <row r="526">
-      <c r="A526" s="7"/>
-      <c r="B526" s="7"/>
-      <c r="C526" s="5"/>
-      <c r="D526" s="6"/>
-      <c r="E526" s="7"/>
+      <c r="A526" s="8"/>
+      <c r="B526" s="8"/>
+      <c r="C526" s="9"/>
+      <c r="D526" s="10"/>
+      <c r="E526" s="8"/>
     </row>
     <row r="527">
-      <c r="A527" s="7"/>
-      <c r="B527" s="7"/>
-      <c r="C527" s="5"/>
-      <c r="D527" s="6"/>
-      <c r="E527" s="7"/>
+      <c r="A527" s="8"/>
+      <c r="B527" s="8"/>
+      <c r="C527" s="9"/>
+      <c r="D527" s="10"/>
+      <c r="E527" s="8"/>
     </row>
     <row r="528">
-      <c r="A528" s="7"/>
-      <c r="B528" s="7"/>
-      <c r="C528" s="5"/>
-      <c r="D528" s="6"/>
-      <c r="E528" s="7"/>
+      <c r="A528" s="8"/>
+      <c r="B528" s="8"/>
+      <c r="C528" s="9"/>
+      <c r="D528" s="10"/>
+      <c r="E528" s="8"/>
     </row>
     <row r="529">
-      <c r="A529" s="7"/>
-      <c r="B529" s="7"/>
-      <c r="C529" s="5"/>
-      <c r="D529" s="6"/>
-      <c r="E529" s="7"/>
+      <c r="A529" s="8"/>
+      <c r="B529" s="8"/>
+      <c r="C529" s="9"/>
+      <c r="D529" s="10"/>
+      <c r="E529" s="8"/>
     </row>
     <row r="530">
-      <c r="A530" s="7"/>
-      <c r="B530" s="7"/>
-      <c r="C530" s="5"/>
-      <c r="D530" s="6"/>
-      <c r="E530" s="7"/>
+      <c r="A530" s="8"/>
+      <c r="B530" s="8"/>
+      <c r="C530" s="9"/>
+      <c r="D530" s="10"/>
+      <c r="E530" s="8"/>
     </row>
     <row r="531">
-      <c r="A531" s="7"/>
-      <c r="B531" s="7"/>
-      <c r="C531" s="5"/>
-      <c r="D531" s="6"/>
-      <c r="E531" s="7"/>
+      <c r="A531" s="8"/>
+      <c r="B531" s="8"/>
+      <c r="C531" s="9"/>
+      <c r="D531" s="10"/>
+      <c r="E531" s="8"/>
     </row>
     <row r="532">
-      <c r="A532" s="7"/>
-      <c r="B532" s="7"/>
-      <c r="C532" s="5"/>
-      <c r="D532" s="6"/>
-      <c r="E532" s="7"/>
+      <c r="A532" s="8"/>
+      <c r="B532" s="8"/>
+      <c r="C532" s="9"/>
+      <c r="D532" s="10"/>
+      <c r="E532" s="8"/>
     </row>
     <row r="533">
-      <c r="A533" s="7"/>
-      <c r="B533" s="7"/>
-      <c r="C533" s="5"/>
-      <c r="D533" s="6"/>
-      <c r="E533" s="7"/>
+      <c r="A533" s="8"/>
+      <c r="B533" s="8"/>
+      <c r="C533" s="9"/>
+      <c r="D533" s="10"/>
+      <c r="E533" s="8"/>
     </row>
     <row r="534">
-      <c r="A534" s="7"/>
-      <c r="B534" s="7"/>
-      <c r="C534" s="5"/>
-      <c r="D534" s="6"/>
-      <c r="E534" s="7"/>
+      <c r="A534" s="8"/>
+      <c r="B534" s="8"/>
+      <c r="C534" s="9"/>
+      <c r="D534" s="10"/>
+      <c r="E534" s="8"/>
     </row>
     <row r="535">
-      <c r="A535" s="7"/>
-      <c r="B535" s="7"/>
-      <c r="C535" s="5"/>
-      <c r="D535" s="6"/>
-      <c r="E535" s="7"/>
+      <c r="A535" s="8"/>
+      <c r="B535" s="8"/>
+      <c r="C535" s="9"/>
+      <c r="D535" s="10"/>
+      <c r="E535" s="8"/>
     </row>
     <row r="536">
-      <c r="A536" s="7"/>
-      <c r="B536" s="7"/>
-      <c r="C536" s="5"/>
-      <c r="D536" s="6"/>
-      <c r="E536" s="7"/>
+      <c r="A536" s="8"/>
+      <c r="B536" s="8"/>
+      <c r="C536" s="9"/>
+      <c r="D536" s="10"/>
+      <c r="E536" s="8"/>
     </row>
     <row r="537">
-      <c r="A537" s="7"/>
-      <c r="B537" s="7"/>
-      <c r="C537" s="5"/>
-      <c r="D537" s="6"/>
-      <c r="E537" s="7"/>
+      <c r="A537" s="8"/>
+      <c r="B537" s="8"/>
+      <c r="C537" s="9"/>
+      <c r="D537" s="10"/>
+      <c r="E537" s="8"/>
     </row>
     <row r="538">
-      <c r="A538" s="7"/>
-      <c r="B538" s="7"/>
-      <c r="C538" s="5"/>
-      <c r="D538" s="6"/>
-      <c r="E538" s="7"/>
+      <c r="A538" s="8"/>
+      <c r="B538" s="8"/>
+      <c r="C538" s="9"/>
+      <c r="D538" s="10"/>
+      <c r="E538" s="8"/>
     </row>
     <row r="539">
-      <c r="A539" s="7"/>
-      <c r="B539" s="7"/>
-      <c r="C539" s="5"/>
-      <c r="D539" s="6"/>
-      <c r="E539" s="7"/>
+      <c r="A539" s="8"/>
+      <c r="B539" s="8"/>
+      <c r="C539" s="9"/>
+      <c r="D539" s="10"/>
+      <c r="E539" s="8"/>
     </row>
     <row r="540">
-      <c r="A540" s="7"/>
-      <c r="B540" s="7"/>
-      <c r="C540" s="5"/>
-      <c r="D540" s="6"/>
-      <c r="E540" s="7"/>
+      <c r="A540" s="8"/>
+      <c r="B540" s="8"/>
+      <c r="C540" s="9"/>
+      <c r="D540" s="10"/>
+      <c r="E540" s="8"/>
     </row>
     <row r="541">
-      <c r="A541" s="7"/>
-      <c r="B541" s="7"/>
-      <c r="C541" s="5"/>
-      <c r="D541" s="6"/>
-      <c r="E541" s="7"/>
+      <c r="A541" s="8"/>
+      <c r="B541" s="8"/>
+      <c r="C541" s="9"/>
+      <c r="D541" s="10"/>
+      <c r="E541" s="8"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/wolf/Excel/Language_小镇多语言.xlsx
+++ b/wolf/Excel/Language_小镇多语言.xlsx
@@ -38,129 +38,10 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="@"/>
   </numFmts>
-  <fonts count="37">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF1F2329"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF1F2329"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF1F2329"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9.75"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9.75"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -187,84 +68,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF1F2329"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF1F2329"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF1F2329"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
+      <sz val="9.75"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -286,15 +90,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="9.75"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF1F2329"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -333,43 +130,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD9F5D6"/>
-        <bgColor/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFAF1D1"/>
-        <bgColor/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFAF1D1"/>
-        <bgColor/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFDDDEF"/>
-        <bgColor/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFDDDEF"/>
-        <bgColor/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFEEF6C6"/>
         <bgColor/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFEEF6C6"/>
+        <fgColor rgb="FFD9F5D6"/>
         <bgColor/>
       </patternFill>
     </fill>
@@ -387,25 +154,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF8EE085"/>
+        <fgColor rgb="FFFAF1D1"/>
         <bgColor/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFDDDEF"/>
-        <bgColor/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFAD355"/>
-        <bgColor/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFAD355"/>
+        <fgColor rgb="FFFAF1D1"/>
         <bgColor/>
       </patternFill>
     </fill>
@@ -429,7 +184,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFDDDEF"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFDDDEF"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFF258"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF8EE085"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFAD355"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFAD355"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFDDDEF"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEEF6C6"/>
         <bgColor/>
       </patternFill>
     </fill>
@@ -452,7 +249,14 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="37">
+  <borders count="38">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left/>
       <right/>
@@ -716,117 +520,120 @@
   <cellStyleXfs count="1">
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="3" fillId="2" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="3" fillId="2" fontId="3" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="4" fillId="3" fontId="1" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="7" fillId="0" fontId="1" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="8" fillId="0" fontId="1" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="9" fillId="4" fontId="3" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="10" fillId="5" fontId="1" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="11" fillId="6" fontId="1" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="12" fillId="0" fontId="4" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="13" fillId="0" fontId="5" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="4" fillId="3" fontId="4" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="14" fillId="0" fontId="5" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="5" fillId="0" fontId="5" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="15" fillId="7" fontId="1" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="6" fillId="0" fontId="6" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="16" fillId="8" fontId="1" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="17" fillId="0" fontId="2" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="7" fillId="0" fontId="7" numFmtId="0" xfId="0">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="8" fillId="0" fontId="8" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="18" fillId="9" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="9" fillId="0" fontId="9" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="19" fillId="10" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="10" fillId="0" fontId="10" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="20" fillId="11" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="11" fillId="4" fontId="11" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="21" fillId="12" fontId="1" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="22" fillId="13" fontId="5" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" applyProtection="false" borderId="12" fillId="0" fontId="12" numFmtId="164" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" applyProtection="false" borderId="23" fillId="0" fontId="1" numFmtId="164" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="13" fillId="0" fontId="13" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="24" fillId="0" fontId="6" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="25" fillId="14" fontId="1" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="26" fillId="15" fontId="5" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="27" fillId="16" fontId="1" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="28" fillId="17" fontId="1" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="29" fillId="18" fontId="1" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="30" fillId="19" fontId="5" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="31" fillId="20" fontId="1" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="32" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="33" fillId="21" fontId="5" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="34" fillId="22" fontId="5" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="35" fillId="23" fontId="1" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="36" fillId="0" fontId="7" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="14" fillId="5" fontId="14" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="37" fillId="24" fontId="5" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="15" fillId="6" fontId="15" numFmtId="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="16" fillId="7" fontId="16" numFmtId="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="17" fillId="8" fontId="17" numFmtId="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="18" fillId="9" fontId="18" numFmtId="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="19" fillId="10" fontId="19" numFmtId="0" xfId="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="20" fillId="11" fontId="20" numFmtId="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="21" fillId="12" fontId="21" numFmtId="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="22" fillId="13" fontId="22" numFmtId="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="23" fillId="14" fontId="23" numFmtId="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="24" fillId="0" fontId="24" numFmtId="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="25" fillId="0" fontId="25" numFmtId="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="26" fillId="15" fontId="26" numFmtId="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="27" fillId="16" fontId="27" numFmtId="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="28" fillId="17" fontId="28" numFmtId="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="29" fillId="18" fontId="29" numFmtId="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="30" fillId="19" fontId="30" numFmtId="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="31" fillId="20" fontId="31" numFmtId="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="32" fillId="21" fontId="32" numFmtId="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="33" fillId="22" fontId="33" numFmtId="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="34" fillId="0" fontId="34" numFmtId="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="35" fillId="23" fontId="35" numFmtId="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="36" fillId="24" fontId="36" numFmtId="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1176,3431 +983,3431 @@
   </cols>
   <sheetData>
     <row customHeight="true" ht="23" r="1">
-      <c r="A1" s="2" t="str">
+      <c r="A1" s="1" t="str">
         <v>Int</v>
       </c>
-      <c r="B1" s="2" t="str">
+      <c r="B1" s="1" t="str">
         <v>String</v>
       </c>
-      <c r="C1" s="1" t="str">
+      <c r="C1" s="2" t="str">
         <v>String</v>
       </c>
-      <c r="D1" s="2" t="str">
+      <c r="D1" s="1" t="str">
         <v>String</v>
       </c>
-      <c r="E1" s="2" t="str">
+      <c r="E1" s="1" t="str">
         <v>String</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="2">
-      <c r="A2" s="2" t="str">
+      <c r="A2" s="1" t="str">
         <v>ID</v>
       </c>
-      <c r="B2" s="2" t="str">
+      <c r="B2" s="1" t="str">
         <v>mur</v>
       </c>
-      <c r="C2" s="1" t="str">
+      <c r="C2" s="2" t="str">
         <v>Value</v>
       </c>
-      <c r="D2" s="2" t="str">
+      <c r="D2" s="1" t="str">
         <v>Value_Ch</v>
       </c>
-      <c r="E2" s="2" t="str">
+      <c r="E2" s="1" t="str">
         <v>Comment</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="3">
-      <c r="A3" s="2" t="str">
+      <c r="A3" s="1" t="str">
         <v>ID</v>
       </c>
-      <c r="B3" s="2" t="str">
+      <c r="B3" s="1" t="str">
         <v>名字</v>
       </c>
-      <c r="C3" s="1" t="str">
+      <c r="C3" s="2" t="str">
         <v>英文</v>
       </c>
-      <c r="D3" s="2" t="str">
+      <c r="D3" s="1" t="str">
         <v>中文</v>
       </c>
-      <c r="E3" s="2" t="str">
+      <c r="E3" s="1" t="str">
         <v>备注</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="4">
-      <c r="A4" s="2" t="str"/>
-      <c r="B4" s="34" t="str">
+      <c r="A4" s="1" t="str"/>
+      <c r="B4" s="24" t="str">
         <v>Key|ReadByName</v>
       </c>
-      <c r="C4" s="1" t="str">
+      <c r="C4" s="2" t="str">
         <v>MainLanguage</v>
       </c>
-      <c r="D4" s="34" t="str">
+      <c r="D4" s="24" t="str">
         <v>ChildLanguage</v>
       </c>
-      <c r="E4" s="2" t="str"/>
+      <c r="E4" s="1" t="str"/>
     </row>
     <row customHeight="true" ht="23" r="5">
-      <c r="A5" s="2">
+      <c r="A5" s="1">
         <v>10001</v>
       </c>
-      <c r="B5" s="2" t="str">
+      <c r="B5" s="1" t="str">
         <v>Guide_GuideContent_10001</v>
       </c>
-      <c r="C5" s="1" t="str">
+      <c r="C5" s="2" t="str">
         <v>This is what you are playing in this round</v>
       </c>
-      <c r="D5" s="2" t="str">
+      <c r="D5" s="1" t="str">
         <v>这里是本局中你的身份</v>
       </c>
-      <c r="E5" s="2" t="str">
+      <c r="E5" s="1" t="str">
         <v>10000：新手引导表</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="6">
-      <c r="A6" s="2">
+      <c r="A6" s="1">
         <v>10002</v>
       </c>
-      <c r="B6" s="2" t="str">
+      <c r="B6" s="1" t="str">
         <v>Guide_GuideContent_10002</v>
       </c>
-      <c r="C6" s="1" t="str">
+      <c r="C6" s="2" t="str">
         <v>This is your goal in this round, check it here if you don't know what to do</v>
       </c>
-      <c r="D6" s="2" t="str">
+      <c r="D6" s="1" t="str">
         <v>这里是你本局的目标，不知道做什么的话就看一下这里吧</v>
       </c>
-      <c r="E6" s="2" t="str"/>
+      <c r="E6" s="1" t="str"/>
     </row>
     <row customHeight="true" ht="23" r="7">
-      <c r="A7" s="2">
+      <c r="A7" s="1">
         <v>10003</v>
       </c>
-      <c r="B7" s="2" t="str">
+      <c r="B7" s="1" t="str">
         <v>Guide_GuideContent_10003</v>
       </c>
-      <c r="C7" s="1" t="str">
+      <c r="C7" s="2" t="str">
         <v>Survive to win~</v>
       </c>
-      <c r="D7" s="2" t="str">
+      <c r="D7" s="1" t="str">
         <v>努力活下来才能够获得胜利~</v>
       </c>
-      <c r="E7" s="2" t="str"/>
+      <c r="E7" s="1" t="str"/>
     </row>
     <row customHeight="true" ht="23" r="8">
-      <c r="A8" s="2">
+      <c r="A8" s="1">
         <v>10004</v>
       </c>
-      <c r="B8" s="2" t="str">
+      <c r="B8" s="1" t="str">
         <v>Guide_GuideContent_10004</v>
       </c>
-      <c r="C8" s="1" t="str">
+      <c r="C8" s="2" t="str">
         <v>Here is the energy ball:</v>
       </c>
-      <c r="D8" s="2" t="str">
+      <c r="D8" s="1" t="str">
         <v>这是能量球：</v>
       </c>
-      <c r="E8" s="2" t="str"/>
+      <c r="E8" s="1" t="str"/>
     </row>
     <row customHeight="true" ht="23" r="9">
-      <c r="A9" s="2">
+      <c r="A9" s="1">
         <v>10005</v>
       </c>
-      <c r="B9" s="2" t="str">
+      <c r="B9" s="1" t="str">
         <v>Guide_GuideContent_10005</v>
       </c>
-      <c r="C9" s="1" t="str">
+      <c r="C9" s="2" t="str">
         <v>Collect them all to get a protective shield</v>
       </c>
-      <c r="D9" s="2" t="str">
+      <c r="D9" s="1" t="str">
         <v>集齐能量球，可以获得一层保护壳</v>
       </c>
-      <c r="E9" s="2" t="str"/>
+      <c r="E9" s="1" t="str"/>
     </row>
     <row customHeight="true" ht="23" r="10">
-      <c r="A10" s="2">
+      <c r="A10" s="1">
         <v>10006</v>
       </c>
-      <c r="B10" s="2" t="str">
+      <c r="B10" s="1" t="str">
         <v>Guide_GuideContent_10006</v>
       </c>
-      <c r="C10" s="1" t="str">
+      <c r="C10" s="2" t="str">
         <v>This is your goal in this round, achieve it before the game ends to win</v>
       </c>
-      <c r="D10" s="2" t="str">
+      <c r="D10" s="1" t="str">
         <v>这里是你本局的目标，在对局结束前完成目标才能获得胜利</v>
       </c>
-      <c r="E10" s="2" t="str"/>
+      <c r="E10" s="1" t="str"/>
     </row>
     <row customHeight="true" ht="23" r="11">
-      <c r="A11" s="2">
+      <c r="A11" s="1">
         <v>10007</v>
       </c>
-      <c r="B11" s="2" t="str">
+      <c r="B11" s="1" t="str">
         <v>Guide_GuideContent_10007</v>
       </c>
-      <c r="C11" s="1" t="str">
+      <c r="C11" s="2" t="str">
         <v>This is your goal in this round, achieve it before the game ends to win</v>
       </c>
-      <c r="D11" s="2" t="str">
+      <c r="D11" s="1" t="str">
         <v>这里是你本局的目标，在对局结束前完成目标才能获得胜利</v>
       </c>
-      <c r="E11" s="2" t="str"/>
+      <c r="E11" s="1" t="str"/>
     </row>
     <row customHeight="true" ht="23" r="12">
-      <c r="A12" s="2">
+      <c r="A12" s="1">
         <v>10008</v>
       </c>
-      <c r="B12" s="2" t="str">
+      <c r="B12" s="1" t="str">
         <v>Guide_GuideContent_10008</v>
       </c>
-      <c r="C12" s="1" t="str">
+      <c r="C12" s="2" t="str">
         <v>You have a new goal, to defeat the Murderer and protect the Students</v>
       </c>
-      <c r="D12" s="2" t="str">
+      <c r="D12" s="1" t="str">
         <v>你有了新的目标，击杀凶手，保护学生</v>
       </c>
-      <c r="E12" s="2" t="str"/>
+      <c r="E12" s="1" t="str"/>
     </row>
     <row customHeight="true" ht="23" r="13">
-      <c r="A13" s="2">
+      <c r="A13" s="1">
         <v>10009</v>
       </c>
-      <c r="B13" s="2" t="str">
+      <c r="B13" s="1" t="str">
         <v>Guide_GuideContent_10009</v>
       </c>
-      <c r="C13" s="1" t="str">
+      <c r="C13" s="2" t="str">
         <v>This is what you are playing in this round</v>
       </c>
-      <c r="D13" s="2" t="str">
+      <c r="D13" s="1" t="str">
         <v>这里是本局中你的身份</v>
       </c>
-      <c r="E13" s="2" t="str"/>
+      <c r="E13" s="1" t="str"/>
     </row>
     <row customHeight="true" ht="23" r="14">
-      <c r="A14" s="2">
+      <c r="A14" s="1">
         <v>10010</v>
       </c>
-      <c r="B14" s="2" t="str">
+      <c r="B14" s="1" t="str">
         <v>Guide_GuideContent_10010</v>
       </c>
-      <c r="C14" s="1" t="str">
+      <c r="C14" s="2" t="str">
         <v>This is what you are playing in this round</v>
       </c>
-      <c r="D14" s="2" t="str">
+      <c r="D14" s="1" t="str">
         <v>这里是本局中你的身份</v>
       </c>
-      <c r="E14" s="2" t="str"/>
+      <c r="E14" s="1" t="str"/>
     </row>
     <row customHeight="true" ht="23" r="15">
-      <c r="A15" s="2">
+      <c r="A15" s="1">
         <v>10011</v>
       </c>
-      <c r="B15" s="2" t="str">
+      <c r="B15" s="1" t="str">
         <v>Guide_GuideContent_10011</v>
       </c>
-      <c r="C15" s="1" t="str">
+      <c r="C15" s="2" t="str">
         <v>Congratulation! You just picked up the weapon and you're a Hero now</v>
       </c>
-      <c r="D15" s="2" t="str">
+      <c r="D15" s="1" t="str">
         <v>恭喜你拾取到武器，现在你成为了一名英雄</v>
       </c>
-      <c r="E15" s="2" t="str"/>
+      <c r="E15" s="1" t="str"/>
     </row>
     <row customHeight="true" ht="23" r="16">
-      <c r="A16" s="2">
+      <c r="A16" s="1">
         <v>10012</v>
       </c>
-      <c r="B16" s="2" t="str">
+      <c r="B16" s="1" t="str">
         <v>Guide_GuideContent_20001</v>
       </c>
-      <c r="C16" s="1" t="str">
+      <c r="C16" s="2" t="str">
         <v>The Coins gained in this game will be stored here and be given to you during the settlement; but there is a limitation for the Coin Bag and cannot gain more Coins when it's full.</v>
       </c>
-      <c r="D16" s="2" t="str">
+      <c r="D16" s="1" t="str">
         <v>本局游戏内获得的金币将存储在这里，结算时会发放给你；不过金币袋是有上限的，袋子装满就无法获得了</v>
       </c>
-      <c r="E16" s="2" t="str"/>
+      <c r="E16" s="1" t="str"/>
     </row>
     <row customHeight="true" ht="23" r="17">
-      <c r="A17" s="2">
+      <c r="A17" s="1">
         <v>10013</v>
       </c>
-      <c r="B17" s="2" t="str">
+      <c r="B17" s="1" t="str">
         <v>Guide_GuideContent_20002</v>
       </c>
-      <c r="C17" s="1" t="str">
+      <c r="C17" s="2" t="str">
         <v>Coin Bag is full, cannot gain more Coins in this round</v>
       </c>
-      <c r="D17" s="2" t="str">
+      <c r="D17" s="1" t="str">
         <v>金币袋已经满了，本局无法再拾取金币了</v>
       </c>
-      <c r="E17" s="2" t="str"/>
+      <c r="E17" s="1" t="str"/>
     </row>
     <row customHeight="true" ht="23" r="18">
-      <c r="A18" s="2">
+      <c r="A18" s="1">
         <v>10014</v>
       </c>
-      <c r="B18" s="2" t="str">
+      <c r="B18" s="1" t="str">
         <v>Guide_GuideContent_30001</v>
       </c>
-      <c r="C18" s="1" t="str">
+      <c r="C18" s="2" t="str">
         <v>Click here to switch your status, choose to show or hide the weapon</v>
       </c>
-      <c r="D18" s="2" t="str">
+      <c r="D18" s="1" t="str">
         <v>点击这里可以切换姿态，选择亮出武器或藏起武器</v>
       </c>
-      <c r="E18" s="2" t="str"/>
+      <c r="E18" s="1" t="str"/>
     </row>
     <row customHeight="true" ht="23" r="19">
-      <c r="A19" s="2">
+      <c r="A19" s="1">
         <v>10015</v>
       </c>
-      <c r="B19" s="2" t="str">
+      <c r="B19" s="1" t="str">
         <v>Guide_GuideContent_30002</v>
       </c>
-      <c r="C19" s="1" t="str">
+      <c r="C19" s="2" t="str">
         <v>Show the weapon, then you can click here to attack</v>
       </c>
-      <c r="D19" s="2" t="str">
+      <c r="D19" s="1" t="str">
         <v>在亮出武器后，可以点击这里进行攻击</v>
       </c>
-      <c r="E19" s="2" t="str"/>
+      <c r="E19" s="1" t="str"/>
     </row>
     <row customHeight="true" ht="23" r="20">
-      <c r="A20" s="2">
+      <c r="A20" s="1">
         <v>10016</v>
       </c>
-      <c r="B20" s="2" t="str">
+      <c r="B20" s="1" t="str">
         <v>Guide_GuideContent_30003</v>
       </c>
-      <c r="C20" s="1" t="str">
+      <c r="C20" s="2" t="str">
         <v>Click here to switch your status, choose to show or hide the weapon</v>
       </c>
-      <c r="D20" s="2" t="str">
+      <c r="D20" s="1" t="str">
         <v>点击这里可以切换姿态，选择亮出武器或藏起武器</v>
       </c>
-      <c r="E20" s="2" t="str"/>
+      <c r="E20" s="1" t="str"/>
     </row>
     <row customHeight="true" ht="23" r="21">
-      <c r="A21" s="2">
+      <c r="A21" s="1">
         <v>10017</v>
       </c>
-      <c r="B21" s="2" t="str">
+      <c r="B21" s="1" t="str">
         <v>Guide_GuideContent_30004</v>
       </c>
-      <c r="C21" s="1" t="str">
+      <c r="C21" s="2" t="str">
         <v>Show the weapon, then you can click here to attack</v>
       </c>
-      <c r="D21" s="2" t="str">
+      <c r="D21" s="1" t="str">
         <v>在亮出武器后，可以点击这里进行攻击</v>
       </c>
-      <c r="E21" s="2" t="str"/>
+      <c r="E21" s="1" t="str"/>
     </row>
     <row customHeight="true" ht="23" r="22">
-      <c r="A22" s="2">
+      <c r="A22" s="1">
         <v>10018</v>
       </c>
-      <c r="B22" s="2" t="str">
+      <c r="B22" s="1" t="str">
         <v>Guide_GuideContent_30005</v>
       </c>
-      <c r="C22" s="1" t="str">
+      <c r="C22" s="2" t="str">
         <v>Click here to switch your status, choose to show or hide the weapon</v>
       </c>
-      <c r="D22" s="2" t="str">
+      <c r="D22" s="1" t="str">
         <v>点击这里可以切换姿态，选择亮出武器或藏起武器</v>
       </c>
-      <c r="E22" s="2" t="str"/>
+      <c r="E22" s="1" t="str"/>
     </row>
     <row customHeight="true" ht="23" r="23">
-      <c r="A23" s="2">
+      <c r="A23" s="1">
         <v>10019</v>
       </c>
-      <c r="B23" s="2" t="str">
+      <c r="B23" s="1" t="str">
         <v>Guide_GuideContent_30006</v>
       </c>
-      <c r="C23" s="1" t="str">
+      <c r="C23" s="2" t="str">
         <v>Show the weapon, then you can click here to attack</v>
       </c>
-      <c r="D23" s="2" t="str">
+      <c r="D23" s="1" t="str">
         <v>在亮出武器后，可以点击这里进行攻击</v>
       </c>
-      <c r="E23" s="2" t="str"/>
+      <c r="E23" s="1" t="str"/>
     </row>
     <row customHeight="true" ht="23" r="24">
-      <c r="A24" s="2">
+      <c r="A24" s="1">
         <v>10020</v>
       </c>
-      <c r="B24" s="2" t="str">
+      <c r="B24" s="1" t="str">
         <v>Guide_GuideContent_40001</v>
       </c>
-      <c r="C24" s="1" t="str">
+      <c r="C24" s="2" t="str">
         <v>Congratulations! You collected all the energy balls! Now you have a protective shield! The protective shield can protect you from another player once, but you can only get it once per round</v>
       </c>
-      <c r="D24" s="2" t="str">
+      <c r="D24" s="1" t="str">
         <v>恭喜你集齐了道具！现在你获得了一个保护壳！保护壳可以为你抵挡一次来自其他玩家的攻击，但是每局游戏只能获得一次</v>
       </c>
-      <c r="E24" s="2" t="str"/>
+      <c r="E24" s="1" t="str"/>
     </row>
     <row customHeight="true" ht="23" r="25">
-      <c r="A25" s="2">
+      <c r="A25" s="1">
         <v>10021</v>
       </c>
-      <c r="B25" s="2" t="str">
+      <c r="B25" s="1" t="str">
         <v>Guide_GuideContent_50001</v>
       </c>
-      <c r="C25" s="1" t="str">
+      <c r="C25" s="2" t="str">
         <v>Your first round is over, take a look at the settlement panel</v>
       </c>
-      <c r="D25" s="2" t="str">
+      <c r="D25" s="1" t="str">
         <v>现在你的第一局游戏已经结束，来看看结算面板吧</v>
       </c>
-      <c r="E25" s="2" t="str"/>
+      <c r="E25" s="1" t="str"/>
     </row>
     <row customHeight="true" ht="23" r="26">
-      <c r="A26" s="2">
+      <c r="A26" s="1">
         <v>10022</v>
       </c>
-      <c r="B26" s="2" t="str">
+      <c r="B26" s="1" t="str">
         <v>Guide_GuideContent_50002</v>
       </c>
-      <c r="C26" s="1" t="str">
+      <c r="C26" s="2" t="str">
         <v>Here is the final result of the game</v>
       </c>
-      <c r="D26" s="2" t="str">
+      <c r="D26" s="1" t="str">
         <v>这里说明了对局的最终结果</v>
       </c>
-      <c r="E26" s="2" t="str"/>
+      <c r="E26" s="1" t="str"/>
     </row>
     <row customHeight="true" ht="23" r="27">
-      <c r="A27" s="2">
+      <c r="A27" s="1">
         <v>10023</v>
       </c>
-      <c r="B27" s="2" t="str">
+      <c r="B27" s="1" t="str">
         <v>Guide_GuideContent_50003</v>
       </c>
-      <c r="C27" s="1" t="str">
+      <c r="C27" s="2" t="str">
         <v>Here shows the two players who impacted the game most as well as their wins and losses</v>
       </c>
-      <c r="D27" s="2" t="str">
+      <c r="D27" s="1" t="str">
         <v>这里显示了对对局产生影响最大的两方玩家和他们的胜负</v>
       </c>
-      <c r="E27" s="2" t="str"/>
+      <c r="E27" s="1" t="str"/>
     </row>
     <row customHeight="true" ht="23" r="28">
-      <c r="A28" s="2">
+      <c r="A28" s="1">
         <v>10024</v>
       </c>
-      <c r="B28" s="2" t="str">
+      <c r="B28" s="1" t="str">
         <v>Guide_GuideContent_50004</v>
       </c>
-      <c r="C28" s="1" t="str">
+      <c r="C28" s="2" t="str">
         <v>Here's shows your earning in this round</v>
       </c>
-      <c r="D28" s="2" t="str">
+      <c r="D28" s="1" t="str">
         <v>这里显示了你在本轮对局获得的收益</v>
       </c>
-      <c r="E28" s="2" t="str"/>
+      <c r="E28" s="1" t="str"/>
     </row>
     <row customHeight="true" ht="23" r="29">
-      <c r="A29" s="2">
+      <c r="A29" s="1">
         <v>10025</v>
       </c>
-      <c r="B29" s="2" t="str">
+      <c r="B29" s="1" t="str">
         <v>Guide_GuideContent_60001</v>
       </c>
-      <c r="C29" s="1" t="str">
+      <c r="C29" s="2" t="str">
         <v>On behalf of justice, you can't shoot randomly, attacking good people leads to your own death</v>
       </c>
-      <c r="D29" s="2" t="str">
+      <c r="D29" s="1" t="str">
         <v>代表正义的你不可以乱开枪，攻击好人会导致自己死亡</v>
       </c>
-      <c r="E29" s="2" t="str"/>
+      <c r="E29" s="1" t="str"/>
     </row>
     <row customHeight="true" ht="23" r="30">
-      <c r="A30" s="2">
+      <c r="A30" s="1">
         <v>20001</v>
       </c>
-      <c r="B30" s="2" t="str">
+      <c r="B30" s="1" t="str">
         <v>Identity_IdentityName_10001</v>
       </c>
-      <c r="C30" s="1" t="str">
+      <c r="C30" s="2" t="str">
         <v>Detective</v>
       </c>
-      <c r="D30" s="1" t="str">
+      <c r="D30" s="2" t="str">
         <v>侦探</v>
       </c>
-      <c r="E30" s="2" t="str">
+      <c r="E30" s="1" t="str">
         <v>20000：身份属性表</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="31">
-      <c r="A31" s="2">
+      <c r="A31" s="1">
         <v>20002</v>
       </c>
-      <c r="B31" s="2" t="str">
+      <c r="B31" s="1" t="str">
         <v>Identity_IdentityName_10002</v>
       </c>
-      <c r="C31" s="1" t="str">
+      <c r="C31" s="2" t="str">
         <v>Murderer</v>
       </c>
-      <c r="D31" s="1" t="str">
+      <c r="D31" s="2" t="str">
         <v>凶手</v>
       </c>
-      <c r="E31" s="2" t="str"/>
+      <c r="E31" s="1" t="str"/>
     </row>
     <row customHeight="true" ht="23" r="32">
-      <c r="A32" s="2">
+      <c r="A32" s="1">
         <v>20003</v>
       </c>
-      <c r="B32" s="2" t="str">
+      <c r="B32" s="1" t="str">
         <v>Identity_IdentityName_10003</v>
       </c>
-      <c r="C32" s="1" t="str">
+      <c r="C32" s="2" t="str">
         <v>Student</v>
       </c>
-      <c r="D32" s="1" t="str">
+      <c r="D32" s="2" t="str">
         <v>学生</v>
       </c>
-      <c r="E32" s="2" t="str"/>
+      <c r="E32" s="1" t="str"/>
     </row>
     <row customHeight="true" ht="23" r="33">
-      <c r="A33" s="2">
+      <c r="A33" s="1">
         <v>20004</v>
       </c>
-      <c r="B33" s="2" t="str">
+      <c r="B33" s="1" t="str">
         <v>Identity_IdentityName_10004</v>
       </c>
-      <c r="C33" s="1" t="str">
+      <c r="C33" s="2" t="str">
         <v>Hero</v>
       </c>
-      <c r="D33" s="1" t="str">
+      <c r="D33" s="2" t="str">
         <v>英雄</v>
       </c>
-      <c r="E33" s="2" t="str"/>
+      <c r="E33" s="1" t="str"/>
     </row>
     <row customHeight="true" ht="23" r="34">
-      <c r="A34" s="2">
+      <c r="A34" s="1">
         <v>30001</v>
       </c>
-      <c r="B34" s="2" t="str">
+      <c r="B34" s="1" t="str">
         <v>Text_Content_10001</v>
       </c>
-      <c r="C34" s="1" t="str">
+      <c r="C34" s="2" t="str">
         <v>Not enough player</v>
       </c>
-      <c r="D34" s="2" t="str">
+      <c r="D34" s="1" t="str">
         <v>当前人数不足</v>
       </c>
-      <c r="E34" s="2" t="str">
+      <c r="E34" s="1" t="str">
         <v>30000：文本表</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="35">
-      <c r="A35" s="2">
+      <c r="A35" s="1">
         <v>30002</v>
       </c>
-      <c r="B35" s="2" t="str">
+      <c r="B35" s="1" t="str">
         <v>Text_Content_10002</v>
       </c>
-      <c r="C35" s="1" t="str">
+      <c r="C35" s="2" t="str">
         <v>Match in progress</v>
       </c>
-      <c r="D35" s="2" t="str">
+      <c r="D35" s="1" t="str">
         <v>对局进行中</v>
       </c>
-      <c r="E35" s="2" t="str"/>
+      <c r="E35" s="1" t="str"/>
     </row>
     <row customHeight="true" ht="23" r="36">
-      <c r="A36" s="2">
+      <c r="A36" s="1">
         <v>30003</v>
       </c>
-      <c r="B36" s="2" t="str">
+      <c r="B36" s="1" t="str">
         <v>Text_Content_10003</v>
       </c>
-      <c r="C36" s="1" t="str">
+      <c r="C36" s="2" t="str">
         <v>Matching</v>
       </c>
-      <c r="D36" s="2" t="str">
+      <c r="D36" s="1" t="str">
         <v>等待对局开始</v>
       </c>
-      <c r="E36" s="2" t="str"/>
+      <c r="E36" s="1" t="str"/>
     </row>
     <row customHeight="true" ht="23" r="37">
-      <c r="A37" s="2">
+      <c r="A37" s="1">
         <v>30004</v>
       </c>
-      <c r="B37" s="2" t="str">
+      <c r="B37" s="1" t="str">
         <v>Text_Content_11001</v>
       </c>
-      <c r="C37" s="1" t="str">
+      <c r="C37" s="2" t="str">
         <v>The game starts with a countdown...</v>
       </c>
-      <c r="D37" s="2" t="str">
+      <c r="D37" s="1" t="str">
         <v>游戏开始倒计时...</v>
       </c>
-      <c r="E37" s="2" t="str"/>
+      <c r="E37" s="1" t="str"/>
     </row>
     <row customHeight="true" ht="23" r="38">
-      <c r="A38" s="2">
+      <c r="A38" s="1">
         <v>30005</v>
       </c>
-      <c r="B38" s="2" t="str">
+      <c r="B38" s="1" t="str">
         <v>Text_Content_11002</v>
       </c>
-      <c r="C38" s="1" t="str">
+      <c r="C38" s="2" t="str">
         <v>End-of-game countdown</v>
       </c>
-      <c r="D38" s="2" t="str">
+      <c r="D38" s="1" t="str">
         <v>对局结束倒计时</v>
       </c>
-      <c r="E38" s="2" t="str"/>
+      <c r="E38" s="1" t="str"/>
     </row>
     <row customHeight="true" ht="23" r="39">
-      <c r="A39" s="2">
+      <c r="A39" s="1">
         <v>30006</v>
       </c>
-      <c r="B39" s="2" t="str">
+      <c r="B39" s="1" t="str">
         <v>Text_Content_11003</v>
       </c>
-      <c r="C39" s="1" t="str">
+      <c r="C39" s="2" t="str">
         <v>You are playing as:</v>
       </c>
-      <c r="D39" s="2" t="str">
+      <c r="D39" s="1" t="str">
         <v>你的身份是：</v>
       </c>
-      <c r="E39" s="2" t="str"/>
+      <c r="E39" s="1" t="str"/>
     </row>
     <row customHeight="true" ht="23" r="40">
-      <c r="A40" s="2">
+      <c r="A40" s="1">
         <v>30007</v>
       </c>
-      <c r="B40" s="2" t="str">
+      <c r="B40" s="1" t="str">
         <v>Text_Content_11004</v>
       </c>
-      <c r="C40" s="1" t="str">
+      <c r="C40" s="2" t="str">
         <v>Chance being Murderer:</v>
       </c>
-      <c r="D40" s="2" t="str">
+      <c r="D40" s="1" t="str">
         <v>成为凶手的概率：</v>
       </c>
-      <c r="E40" s="2" t="str"/>
+      <c r="E40" s="1" t="str"/>
     </row>
     <row customHeight="true" ht="23" r="41">
-      <c r="A41" s="2">
+      <c r="A41" s="1">
         <v>30008</v>
       </c>
-      <c r="B41" s="2" t="str">
+      <c r="B41" s="1" t="str">
         <v>Text_Content_11005</v>
       </c>
-      <c r="C41" s="1" t="str">
+      <c r="C41" s="2" t="str">
         <v>(Match in the game will increase the possibility)</v>
       </c>
-      <c r="D41" s="2" t="str">
+      <c r="D41" s="1" t="str">
         <v>（参与对局将增加概率）</v>
       </c>
-      <c r="E41" s="2" t="str"/>
+      <c r="E41" s="1" t="str"/>
     </row>
     <row customHeight="true" ht="23" r="42">
-      <c r="A42" s="2">
+      <c r="A42" s="1">
         <v>30009</v>
       </c>
-      <c r="B42" s="2" t="str">
+      <c r="B42" s="1" t="str">
         <v>Text_Content_11006</v>
       </c>
-      <c r="C42" s="1" t="str">
+      <c r="C42" s="2" t="str">
         <v>What you play</v>
       </c>
-      <c r="D42" s="2" t="str">
+      <c r="D42" s="1" t="str">
         <v>你的身份</v>
       </c>
-      <c r="E42" s="2" t="str"/>
+      <c r="E42" s="1" t="str"/>
     </row>
     <row customHeight="true" ht="23" r="43">
-      <c r="A43" s="2">
+      <c r="A43" s="1">
         <v>30010</v>
       </c>
-      <c r="B43" s="2" t="str">
+      <c r="B43" s="1" t="str">
         <v>Text_Content_11007</v>
       </c>
-      <c r="C43" s="1" t="str">
+      <c r="C43" s="2" t="str">
         <v>You Died</v>
       </c>
-      <c r="D43" s="2" t="str">
+      <c r="D43" s="1" t="str">
         <v>你死了</v>
       </c>
-      <c r="E43" s="2" t="str"/>
+      <c r="E43" s="1" t="str"/>
     </row>
     <row customHeight="true" ht="23" r="44">
-      <c r="A44" s="2">
+      <c r="A44" s="1">
         <v>30011</v>
       </c>
-      <c r="B44" s="2" t="str">
+      <c r="B44" s="1" t="str">
         <v>Text_Content_11008</v>
       </c>
-      <c r="C44" s="1" t="str">
+      <c r="C44" s="2" t="str">
         <v>Victory!</v>
       </c>
-      <c r="D44" s="2" t="str">
+      <c r="D44" s="1" t="str">
         <v>胜利！</v>
       </c>
-      <c r="E44" s="2" t="str"/>
+      <c r="E44" s="1" t="str"/>
     </row>
     <row customHeight="true" ht="23" r="45">
-      <c r="A45" s="2">
+      <c r="A45" s="1">
         <v>30012</v>
       </c>
-      <c r="B45" s="2" t="str">
+      <c r="B45" s="1" t="str">
         <v>Text_Content_11009</v>
       </c>
-      <c r="C45" s="1" t="str">
+      <c r="C45" s="2" t="str">
         <v>Kill all the players {0}/{1}</v>
       </c>
-      <c r="D45" s="2" t="str">
+      <c r="D45" s="1" t="str">
         <v>击杀所有人{0}/{1}</v>
       </c>
-      <c r="E45" s="2" t="str"/>
+      <c r="E45" s="1" t="str"/>
     </row>
     <row customHeight="true" ht="23" r="46">
-      <c r="A46" s="2">
+      <c r="A46" s="1">
         <v>30013</v>
       </c>
-      <c r="B46" s="2" t="str">
+      <c r="B46" s="1" t="str">
         <v>Text_Content_11010</v>
       </c>
-      <c r="C46" s="1" t="str">
+      <c r="C46" s="2" t="str">
         <v>Kill the Murderer {0}/{1}</v>
       </c>
-      <c r="D46" s="2" t="str">
+      <c r="D46" s="1" t="str">
         <v>击杀凶手{0}/{1}</v>
       </c>
-      <c r="E46" s="2" t="str"/>
+      <c r="E46" s="1" t="str"/>
     </row>
     <row customHeight="true" ht="23" r="47">
-      <c r="A47" s="2">
+      <c r="A47" s="1">
         <v>30014</v>
       </c>
-      <c r="B47" s="2" t="str">
+      <c r="B47" s="1" t="str">
         <v>Text_Content_11011</v>
       </c>
-      <c r="C47" s="1" t="str">
+      <c r="C47" s="2" t="str">
         <v>Stay alive</v>
       </c>
-      <c r="D47" s="2" t="str">
+      <c r="D47" s="1" t="str">
         <v>活下去</v>
       </c>
-      <c r="E47" s="2" t="str"/>
+      <c r="E47" s="1" t="str"/>
     </row>
     <row customHeight="true" ht="23" r="48">
-      <c r="A48" s="2">
+      <c r="A48" s="1">
         <v>30015</v>
       </c>
-      <c r="B48" s="2" t="str">
+      <c r="B48" s="1" t="str">
         <v>Text_Content_11012</v>
       </c>
-      <c r="C48" s="1" t="str">
+      <c r="C48" s="2" t="str">
         <v>Hidden energy balls collected {0}/{1}</v>
       </c>
-      <c r="D48" s="2" t="str">
+      <c r="D48" s="1" t="str">
         <v>收集隐秘的能量球{0}/{1}</v>
       </c>
-      <c r="E48" s="2" t="str"/>
+      <c r="E48" s="1" t="str"/>
     </row>
     <row customHeight="true" ht="23" r="49">
-      <c r="A49" s="2">
+      <c r="A49" s="1">
         <v>30016</v>
       </c>
-      <c r="B49" s="2" t="str">
+      <c r="B49" s="1" t="str">
         <v>Text_Content_11013</v>
       </c>
-      <c r="C49" s="1" t="str">
+      <c r="C49" s="2" t="str">
         <v>Time's up!</v>
       </c>
-      <c r="D49" s="2" t="str">
+      <c r="D49" s="1" t="str">
         <v>时间到！</v>
       </c>
-      <c r="E49" s="2" t="str"/>
+      <c r="E49" s="1" t="str"/>
     </row>
     <row customHeight="true" ht="23" r="50">
-      <c r="A50" s="2">
+      <c r="A50" s="1">
         <v>30017</v>
       </c>
-      <c r="B50" s="2" t="str">
+      <c r="B50" s="1" t="str">
         <v>Text_Content_12001</v>
       </c>
-      <c r="C50" s="1" t="str">
+      <c r="C50" s="2" t="str">
         <v>The Murderer is on a killing spree!</v>
       </c>
-      <c r="D50" s="2" t="str">
+      <c r="D50" s="1" t="str">
         <v>凶手大杀特杀！</v>
       </c>
-      <c r="E50" s="2" t="str"/>
+      <c r="E50" s="1" t="str"/>
     </row>
     <row customHeight="true" ht="23" r="51">
-      <c r="A51" s="2">
+      <c r="A51" s="1">
         <v>30018</v>
       </c>
-      <c r="B51" s="2" t="str">
+      <c r="B51" s="1" t="str">
         <v>Text_Content_12002</v>
       </c>
-      <c r="C51" s="1" t="str">
+      <c r="C51" s="2" t="str">
         <v>The Murderer kills all the players!</v>
       </c>
-      <c r="D51" s="2" t="str">
+      <c r="D51" s="1" t="str">
         <v>凶手轻松解决了所有人！</v>
       </c>
-      <c r="E51" s="2" t="str"/>
+      <c r="E51" s="1" t="str"/>
     </row>
     <row customHeight="true" ht="23" r="52">
-      <c r="A52" s="2">
+      <c r="A52" s="1">
         <v>30019</v>
       </c>
-      <c r="B52" s="2" t="str">
+      <c r="B52" s="1" t="str">
         <v>Text_Content_12003</v>
       </c>
-      <c r="C52" s="1" t="str">
+      <c r="C52" s="2" t="str">
         <v>Detective arrested the Murderer!</v>
       </c>
-      <c r="D52" s="2" t="str">
+      <c r="D52" s="1" t="str">
         <v>侦探逮捕了凶手！</v>
       </c>
-      <c r="E52" s="2" t="str"/>
+      <c r="E52" s="1" t="str"/>
     </row>
     <row customHeight="true" ht="23" r="53">
-      <c r="A53" s="2">
+      <c r="A53" s="1">
         <v>30020</v>
       </c>
-      <c r="B53" s="2" t="str">
+      <c r="B53" s="1" t="str">
         <v>Text_Content_12004</v>
       </c>
-      <c r="C53" s="1" t="str">
+      <c r="C53" s="2" t="str">
         <v>Hero appeared and turned the tide!</v>
       </c>
-      <c r="D53" s="2" t="str">
+      <c r="D53" s="1" t="str">
         <v>一位英雄出现并逆转了局面！</v>
       </c>
-      <c r="E53" s="2" t="str"/>
+      <c r="E53" s="1" t="str"/>
     </row>
     <row customHeight="true" ht="23" r="54">
-      <c r="A54" s="2">
+      <c r="A54" s="1">
         <v>30021</v>
       </c>
-      <c r="B54" s="2" t="str">
+      <c r="B54" s="1" t="str">
         <v>Text_Content_12005</v>
       </c>
-      <c r="C54" s="1" t="str">
+      <c r="C54" s="2" t="str">
         <v>Murderer seems to be missing something...</v>
       </c>
-      <c r="D54" s="2" t="str">
+      <c r="D54" s="1" t="str">
         <v>凶手似乎遗漏了什么...</v>
       </c>
-      <c r="E54" s="2" t="str"/>
+      <c r="E54" s="1" t="str"/>
     </row>
     <row customHeight="true" ht="23" r="55">
-      <c r="A55" s="2">
+      <c r="A55" s="1">
         <v>30022</v>
       </c>
-      <c r="B55" s="2" t="str">
+      <c r="B55" s="1" t="str">
         <v>Text_Content_12006</v>
       </c>
-      <c r="C55" s="1" t="str">
+      <c r="C55" s="2" t="str">
         <v>Murderer seems to be missing something...</v>
       </c>
-      <c r="D55" s="2" t="str">
+      <c r="D55" s="1" t="str">
         <v>凶手似乎遗漏了什么...</v>
       </c>
-      <c r="E55" s="2" t="str"/>
+      <c r="E55" s="1" t="str"/>
     </row>
     <row customHeight="true" ht="23" r="56">
-      <c r="A56" s="2">
+      <c r="A56" s="1">
         <v>30023</v>
       </c>
-      <c r="B56" s="2" t="str">
+      <c r="B56" s="1" t="str">
         <v>Text_Content_20001</v>
       </c>
-      <c r="C56" s="1" t="str">
+      <c r="C56" s="2" t="str">
         <v>Murder Mystery</v>
       </c>
-      <c r="D56" s="2" t="str">
+      <c r="D56" s="1" t="str">
         <v>合宿谜团</v>
       </c>
-      <c r="E56" s="2" t="str"/>
+      <c r="E56" s="1" t="str"/>
     </row>
     <row customHeight="true" ht="23" r="57">
-      <c r="A57" s="2">
+      <c r="A57" s="1">
         <v>30024</v>
       </c>
-      <c r="B57" s="2" t="str">
+      <c r="B57" s="1" t="str">
         <v>Text_Content_20002</v>
       </c>
-      <c r="C57" s="1" t="str">
+      <c r="C57" s="2" t="str">
         <v>Start</v>
       </c>
-      <c r="D57" s="2" t="str">
+      <c r="D57" s="1" t="str">
         <v>开始</v>
       </c>
-      <c r="E57" s="2" t="str"/>
+      <c r="E57" s="1" t="str"/>
     </row>
     <row customHeight="true" ht="23" r="58">
-      <c r="A58" s="2">
+      <c r="A58" s="1">
         <v>30025</v>
       </c>
-      <c r="B58" s="2" t="str">
+      <c r="B58" s="1" t="str">
         <v>Text_Content_20003</v>
       </c>
-      <c r="C58" s="1" t="str">
+      <c r="C58" s="2" t="str">
         <v>View</v>
       </c>
-      <c r="D58" s="2" t="str">
+      <c r="D58" s="1" t="str">
         <v>观战</v>
       </c>
-      <c r="E58" s="2" t="str"/>
+      <c r="E58" s="1" t="str"/>
     </row>
     <row customHeight="true" ht="23" r="59">
-      <c r="A59" s="2">
+      <c r="A59" s="1">
         <v>30026</v>
       </c>
-      <c r="B59" s="2" t="str">
+      <c r="B59" s="1" t="str">
         <v>Text_Content_20004</v>
       </c>
-      <c r="C59" s="1" t="str">
+      <c r="C59" s="2" t="str">
         <v>View Countdown</v>
       </c>
-      <c r="D59" s="2" t="str">
+      <c r="D59" s="1" t="str">
         <v>观战倒计时</v>
       </c>
-      <c r="E59" s="2" t="str"/>
+      <c r="E59" s="1" t="str"/>
     </row>
     <row customHeight="true" ht="23" r="60">
-      <c r="A60" s="2">
+      <c r="A60" s="1">
         <v>30027</v>
       </c>
-      <c r="B60" s="2" t="str">
+      <c r="B60" s="1" t="str">
         <v>Text_Content_20005</v>
       </c>
-      <c r="C60" s="1" t="str">
+      <c r="C60" s="2" t="str">
         <v>He is playing as:</v>
       </c>
-      <c r="D60" s="2" t="str">
+      <c r="D60" s="1" t="str">
         <v>他的身份是</v>
       </c>
-      <c r="E60" s="2" t="str"/>
+      <c r="E60" s="1" t="str"/>
     </row>
     <row customHeight="true" ht="23" r="61">
-      <c r="A61" s="2">
+      <c r="A61" s="1">
         <v>30028</v>
       </c>
-      <c r="B61" s="2" t="str">
+      <c r="B61" s="1" t="str">
         <v>Text_Content_20006</v>
       </c>
-      <c r="C61" s="1" t="str">
+      <c r="C61" s="2" t="str">
         <v>Goals for your Identity</v>
       </c>
-      <c r="D61" s="2" t="str">
+      <c r="D61" s="1" t="str">
         <v>身份目标</v>
       </c>
-      <c r="E61" s="2" t="str"/>
+      <c r="E61" s="1" t="str"/>
     </row>
     <row customHeight="true" ht="23" r="62">
-      <c r="A62" s="2">
+      <c r="A62" s="1">
         <v>30029</v>
       </c>
-      <c r="B62" s="2" t="str">
+      <c r="B62" s="1" t="str">
         <v>Text_Content_20007</v>
       </c>
-      <c r="C62" s="1" t="str">
+      <c r="C62" s="2" t="str">
         <v>Start</v>
       </c>
-      <c r="D62" s="2" t="str">
+      <c r="D62" s="1" t="str">
         <v>开始</v>
       </c>
-      <c r="E62" s="2" t="str"/>
+      <c r="E62" s="1" t="str"/>
     </row>
     <row customHeight="true" ht="23" r="63">
-      <c r="A63" s="2">
+      <c r="A63" s="1">
         <v>30030</v>
       </c>
-      <c r="B63" s="2" t="str">
+      <c r="B63" s="1" t="str">
         <v>Text_Content_20008</v>
       </c>
-      <c r="C63" s="1" t="str">
+      <c r="C63" s="2" t="str">
         <v>Loading...</v>
       </c>
-      <c r="D63" s="2" t="str">
+      <c r="D63" s="1" t="str">
         <v>加载中...</v>
       </c>
-      <c r="E63" s="2" t="str"/>
+      <c r="E63" s="1" t="str"/>
     </row>
     <row customHeight="true" ht="23" r="64">
-      <c r="A64" s="2">
+      <c r="A64" s="1">
         <v>30031</v>
       </c>
-      <c r="B64" s="1" t="str">
+      <c r="B64" s="2" t="str">
         <v>Tips_Content_20002</v>
       </c>
-      <c r="C64" s="1" t="str">
+      <c r="C64" s="2" t="str">
         <v>Insufficient currency</v>
       </c>
-      <c r="D64" s="2" t="str">
+      <c r="D64" s="1" t="str">
         <v>货币不足</v>
       </c>
-      <c r="E64" s="2" t="str"/>
+      <c r="E64" s="1" t="str"/>
     </row>
     <row customHeight="true" ht="23" r="65">
-      <c r="A65" s="2">
+      <c r="A65" s="1">
         <v>30032</v>
       </c>
-      <c r="B65" s="2" t="str">
+      <c r="B65" s="1" t="str">
         <v>Text_Content_20009</v>
       </c>
-      <c r="C65" s="1" t="str">
+      <c r="C65" s="2" t="str">
         <v>Shop</v>
       </c>
-      <c r="D65" s="2" t="str">
+      <c r="D65" s="1" t="str">
         <v>商店</v>
       </c>
-      <c r="E65" s="2" t="str"/>
+      <c r="E65" s="1" t="str"/>
     </row>
     <row customHeight="true" ht="23" r="66">
-      <c r="A66" s="2">
+      <c r="A66" s="1">
         <v>30033</v>
       </c>
-      <c r="B66" s="2" t="str">
+      <c r="B66" s="1" t="str">
         <v>Text_Content_20010</v>
       </c>
-      <c r="C66" s="1" t="str">
+      <c r="C66" s="2" t="str">
         <v>For Murderers</v>
       </c>
-      <c r="D66" s="1" t="str">
+      <c r="D66" s="2" t="str">
         <v>凶手专用</v>
       </c>
-      <c r="E66" s="2" t="str"/>
+      <c r="E66" s="1" t="str"/>
     </row>
     <row customHeight="true" ht="23" r="67">
-      <c r="A67" s="2">
+      <c r="A67" s="1">
         <v>30034</v>
       </c>
-      <c r="B67" s="2" t="str">
+      <c r="B67" s="1" t="str">
         <v>Text_Content_20011</v>
       </c>
-      <c r="C67" s="1" t="str">
+      <c r="C67" s="2" t="str">
         <v>For Detectives</v>
       </c>
-      <c r="D67" s="1" t="str">
+      <c r="D67" s="2" t="str">
         <v>侦探专用</v>
       </c>
-      <c r="E67" s="2" t="str"/>
+      <c r="E67" s="1" t="str"/>
     </row>
     <row customHeight="true" ht="23" r="68">
-      <c r="A68" s="2">
+      <c r="A68" s="1">
         <v>30035</v>
       </c>
-      <c r="B68" s="2" t="str">
+      <c r="B68" s="1" t="str">
         <v>Text_Content_20012</v>
       </c>
-      <c r="C68" s="1" t="str">
+      <c r="C68" s="2" t="str">
         <v>Gun</v>
       </c>
-      <c r="D68" s="2" t="str">
+      <c r="D68" s="1" t="str">
         <v>枪</v>
       </c>
-      <c r="E68" s="2" t="str"/>
+      <c r="E68" s="1" t="str"/>
     </row>
     <row customHeight="true" ht="23" r="69">
-      <c r="A69" s="2">
+      <c r="A69" s="1">
         <v>30036</v>
       </c>
-      <c r="B69" s="2" t="str">
+      <c r="B69" s="1" t="str">
         <v>Text_Content_20013</v>
       </c>
-      <c r="C69" s="1" t="str">
+      <c r="C69" s="2" t="str">
         <v>Knife</v>
       </c>
-      <c r="D69" s="2" t="str">
+      <c r="D69" s="1" t="str">
         <v>刀</v>
       </c>
-      <c r="E69" s="2" t="str"/>
+      <c r="E69" s="1" t="str"/>
     </row>
     <row customHeight="true" ht="23" r="70">
-      <c r="A70" s="2">
+      <c r="A70" s="1">
         <v>30037</v>
       </c>
-      <c r="B70" s="2" t="str">
+      <c r="B70" s="1" t="str">
         <v>Text_Content_20014</v>
       </c>
-      <c r="C70" s="1" t="str">
+      <c r="C70" s="2" t="str">
         <v>Acc</v>
       </c>
-      <c r="D70" s="2" t="str">
+      <c r="D70" s="1" t="str">
         <v>挂件</v>
       </c>
-      <c r="E70" s="2" t="str"/>
+      <c r="E70" s="1" t="str"/>
     </row>
     <row customHeight="true" ht="23" r="71">
-      <c r="A71" s="2">
+      <c r="A71" s="1">
         <v>30038</v>
       </c>
-      <c r="B71" s="2" t="str">
+      <c r="B71" s="1" t="str">
         <v>Text_Content_20015</v>
       </c>
-      <c r="C71" s="1" t="str">
+      <c r="C71" s="2" t="str">
         <v>Buy</v>
       </c>
-      <c r="D71" s="1" t="str">
+      <c r="D71" s="2" t="str">
         <v>购买</v>
       </c>
-      <c r="E71" s="2" t="str"/>
+      <c r="E71" s="1" t="str"/>
     </row>
     <row customHeight="true" ht="23" r="72">
-      <c r="A72" s="2">
+      <c r="A72" s="1">
         <v>30039</v>
       </c>
-      <c r="B72" s="2" t="str">
+      <c r="B72" s="1" t="str">
         <v>Text_Content_20016</v>
       </c>
-      <c r="C72" s="1" t="str">
+      <c r="C72" s="2" t="str">
         <v>Use</v>
       </c>
-      <c r="D72" s="9" t="str">
+      <c r="D72" s="13" t="str">
         <v>使用</v>
       </c>
-      <c r="E72" s="2" t="str"/>
+      <c r="E72" s="1" t="str"/>
     </row>
     <row customHeight="true" ht="23" r="73">
-      <c r="A73" s="2">
+      <c r="A73" s="1">
         <v>30040</v>
       </c>
-      <c r="B73" s="2" t="str">
+      <c r="B73" s="1" t="str">
         <v>Text_Content_20017</v>
       </c>
-      <c r="C73" s="1" t="str">
+      <c r="C73" s="2" t="str">
         <v>Take Off</v>
       </c>
-      <c r="D73" s="2" t="str">
+      <c r="D73" s="1" t="str">
         <v>脱下</v>
       </c>
-      <c r="E73" s="2" t="str"/>
+      <c r="E73" s="1" t="str"/>
     </row>
     <row customHeight="true" ht="23" r="74">
-      <c r="A74" s="2">
+      <c r="A74" s="1">
         <v>30041</v>
       </c>
-      <c r="B74" s="2" t="str">
+      <c r="B74" s="1" t="str">
         <v>Text_Content_20018</v>
       </c>
-      <c r="C74" s="1" t="str">
+      <c r="C74" s="2" t="str">
         <v>Buy Items</v>
       </c>
-      <c r="D74" s="2" t="str">
+      <c r="D74" s="1" t="str">
         <v>购买物品</v>
       </c>
-      <c r="E74" s="2" t="str"/>
+      <c r="E74" s="1" t="str"/>
     </row>
     <row customHeight="true" ht="23" r="75">
-      <c r="A75" s="2">
+      <c r="A75" s="1">
         <v>30042</v>
       </c>
-      <c r="B75" s="2" t="str">
+      <c r="B75" s="1" t="str">
         <v>Text_Content_20019</v>
       </c>
-      <c r="C75" s="1" t="str">
+      <c r="C75" s="2" t="str">
         <v>For the Murderers</v>
       </c>
-      <c r="D75" s="1" t="str">
+      <c r="D75" s="2" t="str">
         <v>凶手专用</v>
       </c>
-      <c r="E75" s="2" t="str"/>
+      <c r="E75" s="1" t="str"/>
     </row>
     <row customHeight="true" ht="23" r="76">
-      <c r="A76" s="2">
+      <c r="A76" s="1">
         <v>30043</v>
       </c>
-      <c r="B76" s="2" t="str">
+      <c r="B76" s="1" t="str">
         <v>Text_Content_20020</v>
       </c>
-      <c r="C76" s="1" t="str">
+      <c r="C76" s="2" t="str">
         <v>For Detectives</v>
       </c>
-      <c r="D76" s="1" t="str">
+      <c r="D76" s="2" t="str">
         <v>侦探专用</v>
       </c>
-      <c r="E76" s="2" t="str"/>
+      <c r="E76" s="1" t="str"/>
     </row>
     <row customHeight="true" ht="23" r="77">
-      <c r="A77" s="2">
+      <c r="A77" s="1">
         <v>30044</v>
       </c>
-      <c r="B77" s="2" t="str">
+      <c r="B77" s="1" t="str">
         <v>Text_Content_20021</v>
       </c>
-      <c r="C77" s="1" t="str">
+      <c r="C77" s="2" t="str">
         <v>Confirm</v>
       </c>
-      <c r="D77" s="2" t="str">
+      <c r="D77" s="1" t="str">
         <v>确定</v>
       </c>
-      <c r="E77" s="2" t="str"/>
+      <c r="E77" s="1" t="str"/>
     </row>
     <row customHeight="true" ht="23" r="78">
-      <c r="A78" s="2">
+      <c r="A78" s="1">
         <v>30045</v>
       </c>
-      <c r="B78" s="2" t="str">
+      <c r="B78" s="1" t="str">
         <v>Text_Content_20022</v>
       </c>
-      <c r="C78" s="1" t="str">
+      <c r="C78" s="2" t="str">
         <v>Cancel</v>
       </c>
-      <c r="D78" s="2" t="str">
+      <c r="D78" s="1" t="str">
         <v>取消</v>
       </c>
-      <c r="E78" s="2" t="str"/>
+      <c r="E78" s="1" t="str"/>
     </row>
     <row customHeight="true" ht="23" r="79">
-      <c r="A79" s="2">
+      <c r="A79" s="1">
         <v>30046</v>
       </c>
-      <c r="B79" s="2" t="str">
+      <c r="B79" s="1" t="str">
         <v>Text_Content_20023</v>
       </c>
-      <c r="C79" s="1" t="str">
+      <c r="C79" s="2" t="str">
         <v>Tap anywhere to go back</v>
       </c>
-      <c r="D79" s="1" t="str">
+      <c r="D79" s="2" t="str">
         <v>点击任意一处返回</v>
       </c>
-      <c r="E79" s="2" t="str"/>
+      <c r="E79" s="1" t="str"/>
     </row>
     <row customHeight="true" ht="23" r="80">
-      <c r="A80" s="2">
+      <c r="A80" s="1">
         <v>30047</v>
       </c>
-      <c r="B80" s="2" t="str">
+      <c r="B80" s="1" t="str">
         <v>Text_Content_20024</v>
       </c>
-      <c r="C80" s="1" t="str">
+      <c r="C80" s="2" t="str">
         <v>Purchase Successfully</v>
       </c>
-      <c r="D80" s="1" t="str">
+      <c r="D80" s="2" t="str">
         <v>购买成功</v>
       </c>
-      <c r="E80" s="2" t="str"/>
+      <c r="E80" s="1" t="str"/>
     </row>
     <row customHeight="true" ht="23" r="81">
-      <c r="A81" s="2">
+      <c r="A81" s="1">
         <v>30048</v>
       </c>
-      <c r="B81" s="2" t="str">
+      <c r="B81" s="1" t="str">
         <v>Text_Content_20025</v>
       </c>
-      <c r="C81" s="1" t="str">
+      <c r="C81" s="2" t="str">
         <v>Use</v>
       </c>
-      <c r="D81" s="9" t="str">
+      <c r="D81" s="13" t="str">
         <v>使用</v>
       </c>
-      <c r="E81" s="2" t="str"/>
+      <c r="E81" s="1" t="str"/>
     </row>
     <row customHeight="true" ht="23" r="82">
-      <c r="A82" s="2">
+      <c r="A82" s="1">
         <v>30049</v>
       </c>
-      <c r="B82" s="8" t="str">
+      <c r="B82" s="14" t="str">
         <v>Text_Content_10301</v>
       </c>
-      <c r="C82" s="8" t="str">
+      <c r="C82" s="14" t="str">
         <v>Please select a map to play</v>
       </c>
-      <c r="D82" s="8" t="str">
+      <c r="D82" s="14" t="str">
         <v>请选择要游玩的地图</v>
       </c>
-      <c r="E82" s="2" t="str"/>
+      <c r="E82" s="1" t="str"/>
     </row>
     <row customHeight="true" ht="23" r="83">
-      <c r="A83" s="2">
+      <c r="A83" s="1">
         <v>30050</v>
       </c>
-      <c r="B83" s="8" t="str">
+      <c r="B83" s="14" t="str">
         <v>Text_Content_10302</v>
       </c>
-      <c r="C83" s="8" t="str">
+      <c r="C83" s="14" t="str">
         <v>Map Selected</v>
       </c>
-      <c r="D83" s="8" t="str">
+      <c r="D83" s="14" t="str">
         <v>地图已选出</v>
       </c>
-      <c r="E83" s="2" t="str"/>
+      <c r="E83" s="1" t="str"/>
     </row>
     <row customHeight="true" ht="23" r="84">
-      <c r="A84" s="2">
+      <c r="A84" s="1">
         <v>30051</v>
       </c>
-      <c r="B84" s="8" t="str">
+      <c r="B84" s="14" t="str">
         <v>Text_Content_10004</v>
       </c>
-      <c r="C84" s="8" t="str">
+      <c r="C84" s="14" t="str">
         <v>Randomizing</v>
       </c>
-      <c r="D84" s="8" t="str">
+      <c r="D84" s="14" t="str">
         <v>随机地图中</v>
       </c>
-      <c r="E84" s="2" t="str"/>
+      <c r="E84" s="1" t="str"/>
     </row>
     <row customHeight="true" ht="23" r="85">
-      <c r="A85" s="2">
+      <c r="A85" s="1">
         <v>30052</v>
       </c>
-      <c r="B85" s="8" t="str">
+      <c r="B85" s="14" t="str">
         <v>Text_Content_20029</v>
       </c>
-      <c r="C85" s="8" t="str">
+      <c r="C85" s="14" t="str">
         <v>Trail</v>
       </c>
-      <c r="D85" s="9" t="str">
+      <c r="D85" s="13" t="str">
         <v>拖尾</v>
       </c>
-      <c r="E85" s="2"/>
+      <c r="E85" s="1"/>
     </row>
     <row customHeight="true" ht="23" r="86">
-      <c r="A86" s="2">
+      <c r="A86" s="1">
         <v>30053</v>
       </c>
-      <c r="B86" s="8" t="str">
+      <c r="B86" s="14" t="str">
         <v>Text_Content_20030</v>
       </c>
-      <c r="C86" s="8" t="str">
+      <c r="C86" s="14" t="str">
         <v>Get it for free</v>
       </c>
-      <c r="D86" s="9" t="str">
+      <c r="D86" s="13" t="str">
         <v>免费领取</v>
       </c>
-      <c r="E86" s="2" t="str"/>
+      <c r="E86" s="1" t="str"/>
     </row>
     <row customHeight="true" ht="23" r="87">
-      <c r="A87" s="2">
+      <c r="A87" s="1">
         <v>30054</v>
       </c>
-      <c r="B87" s="8" t="str">
+      <c r="B87" s="14" t="str">
         <v>Text_Content_20031</v>
       </c>
-      <c r="C87" s="8" t="str">
+      <c r="C87" s="14" t="str">
         <v>Watch ads to get extra rewards</v>
       </c>
-      <c r="D87" s="9" t="str">
+      <c r="D87" s="13" t="str">
         <v>观看广告领取额外奖励</v>
       </c>
-      <c r="E87" s="2" t="str"/>
+      <c r="E87" s="1" t="str"/>
     </row>
     <row customHeight="true" ht="23" r="88">
-      <c r="A88" s="2">
+      <c r="A88" s="1">
         <v>30055</v>
       </c>
-      <c r="B88" s="8" t="str">
+      <c r="B88" s="14" t="str">
         <v>Text_Content_20032</v>
       </c>
-      <c r="C88" s="8" t="str">
+      <c r="C88" s="14" t="str">
         <v>Watch the ad to receive compensation</v>
       </c>
-      <c r="D88" s="8" t="str">
+      <c r="D88" s="14" t="str">
         <v>观看广告领取补偿</v>
       </c>
-      <c r="E88" s="2" t="str"/>
+      <c r="E88" s="1" t="str"/>
     </row>
     <row customHeight="true" ht="23" r="89">
-      <c r="A89" s="2">
+      <c r="A89" s="1">
         <v>30056</v>
       </c>
-      <c r="B89" s="8" t="str">
+      <c r="B89" s="14" t="str">
         <v>Text_Content_20033</v>
       </c>
-      <c r="C89" s="8" t="str">
+      <c r="C89" s="14" t="str">
         <v>Congratulations on receiving</v>
       </c>
-      <c r="D89" s="9" t="str">
+      <c r="D89" s="13" t="str">
         <v>恭喜获得</v>
       </c>
-      <c r="E89" s="2" t="str"/>
+      <c r="E89" s="1" t="str"/>
     </row>
     <row customHeight="true" ht="23" r="90">
-      <c r="A90" s="2">
+      <c r="A90" s="1">
         <v>30057</v>
       </c>
-      <c r="B90" s="8" t="str">
+      <c r="B90" s="14" t="str">
         <v>Tips_Content_20003</v>
       </c>
-      <c r="C90" s="8" t="str">
+      <c r="C90" s="14" t="str">
         <v>It's not ready yet, please wait a little longer to get it~</v>
       </c>
-      <c r="D90" s="9" t="str">
+      <c r="D90" s="13" t="str">
         <v>时间还没到，再等一下才能获得哦~</v>
       </c>
-      <c r="E90" s="2" t="str"/>
+      <c r="E90" s="1" t="str"/>
     </row>
     <row customHeight="true" ht="23" r="91">
-      <c r="A91" s="2">
+      <c r="A91" s="1">
         <v>30058</v>
       </c>
-      <c r="B91" s="8" t="str">
+      <c r="B91" s="14" t="str">
         <v>Tips_Content_20004</v>
       </c>
-      <c r="C91" s="8" t="str">
+      <c r="C91" s="14" t="str">
         <v>You've already received plenty of rewards today, so please come back tomorrow~</v>
       </c>
-      <c r="D91" s="9" t="str">
+      <c r="D91" s="13" t="str">
         <v>今天已经得到很多奖励了，明天再来吧~</v>
       </c>
-      <c r="E91" s="2" t="str"/>
+      <c r="E91" s="1" t="str"/>
     </row>
     <row customHeight="true" ht="23" r="92">
-      <c r="A92" s="2">
+      <c r="A92" s="1">
         <v>30059</v>
       </c>
-      <c r="B92" s="8" t="str">
+      <c r="B92" s="14" t="str">
         <v>Text_Content_11014</v>
       </c>
-      <c r="C92" s="8" t="str">
+      <c r="C92" s="14" t="str">
         <v>Available</v>
       </c>
-      <c r="D92" s="9" t="str">
+      <c r="D92" s="13" t="str">
         <v>待拾取</v>
       </c>
-      <c r="E92" s="2"/>
+      <c r="E92" s="1"/>
     </row>
     <row customHeight="true" ht="23" r="93">
-      <c r="A93" s="2">
+      <c r="A93" s="1">
         <v>30060</v>
       </c>
-      <c r="B93" s="8" t="str">
+      <c r="B93" s="14" t="str">
         <v>Text_Content_11015</v>
       </c>
-      <c r="C93" s="8" t="str">
+      <c r="C93" s="14" t="str">
         <v>Exist</v>
       </c>
-      <c r="D93" s="9" t="str">
+      <c r="D93" s="13" t="str">
         <v>存在</v>
       </c>
-      <c r="E93" s="2"/>
+      <c r="E93" s="1"/>
     </row>
     <row customHeight="true" ht="23" r="94">
-      <c r="A94" s="2">
+      <c r="A94" s="1">
         <v>30061</v>
       </c>
-      <c r="B94" s="8" t="str">
+      <c r="B94" s="14" t="str">
         <v>Text_Content_11016</v>
       </c>
-      <c r="C94" s="8" t="str">
+      <c r="C94" s="14" t="str">
         <v>Survival experience +{0}EXP</v>
       </c>
-      <c r="D94" s="9" t="str">
+      <c r="D94" s="13" t="str">
         <v>存活经验+{0}EXP</v>
       </c>
-      <c r="E94" s="2"/>
+      <c r="E94" s="1"/>
     </row>
     <row customHeight="true" ht="23" r="95">
-      <c r="A95" s="2">
+      <c r="A95" s="1">
         <v>30062</v>
       </c>
-      <c r="B95" s="8" t="str">
+      <c r="B95" s="14" t="str">
         <v>Text_Content_12007</v>
       </c>
-      <c r="C95" s="8" t="str">
+      <c r="C95" s="14" t="str">
         <v>Reward</v>
       </c>
-      <c r="D95" s="8" t="str">
+      <c r="D95" s="14" t="str">
         <v>奖励</v>
       </c>
-      <c r="E95" s="2" t="str"/>
+      <c r="E95" s="1" t="str"/>
     </row>
     <row customHeight="true" ht="23" r="96">
-      <c r="A96" s="2">
+      <c r="A96" s="1">
         <v>30063</v>
       </c>
-      <c r="B96" s="1" t="str">
+      <c r="B96" s="2" t="str">
         <v>Text_Content_12008</v>
       </c>
-      <c r="C96" s="1" t="str">
+      <c r="C96" s="2" t="str">
         <v>Identity</v>
       </c>
-      <c r="D96" s="1" t="str">
+      <c r="D96" s="2" t="str">
         <v>本局身份</v>
       </c>
-      <c r="E96" s="2" t="str"/>
+      <c r="E96" s="1" t="str"/>
     </row>
     <row customHeight="true" ht="23" r="97">
-      <c r="A97" s="2">
+      <c r="A97" s="1">
         <v>30064</v>
       </c>
-      <c r="B97" s="1" t="str">
+      <c r="B97" s="2" t="str">
         <v>Text_Content_12009</v>
       </c>
-      <c r="C97" s="1" t="str">
+      <c r="C97" s="2" t="str">
         <v>Coins</v>
       </c>
-      <c r="D97" s="1" t="str">
+      <c r="D97" s="2" t="str">
         <v>收集金币</v>
       </c>
-      <c r="E97" s="2" t="str"/>
+      <c r="E97" s="1" t="str"/>
     </row>
     <row customHeight="true" ht="23" r="98">
-      <c r="A98" s="2">
+      <c r="A98" s="1">
         <v>30065</v>
       </c>
-      <c r="B98" s="1" t="str">
+      <c r="B98" s="2" t="str">
         <v>Text_Content_12010</v>
       </c>
-      <c r="C98" s="1" t="str">
+      <c r="C98" s="2" t="str">
         <v>Defeats {0}</v>
       </c>
-      <c r="D98" s="1" t="str">
+      <c r="D98" s="2" t="str">
         <v>消灭了{0}名学生！</v>
       </c>
-      <c r="E98" s="2" t="str"/>
+      <c r="E98" s="1" t="str"/>
     </row>
     <row customHeight="true" ht="23" r="99">
-      <c r="A99" s="2">
+      <c r="A99" s="1">
         <v>30066</v>
       </c>
-      <c r="B99" s="1" t="str">
+      <c r="B99" s="2" t="str">
         <v>Text_Content_12011</v>
       </c>
-      <c r="C99" s="1" t="str">
+      <c r="C99" s="2" t="str">
         <v>Survived for {0}mins {1} s</v>
       </c>
-      <c r="D99" s="1" t="str">
+      <c r="D99" s="2" t="str">
         <v>已存活{0}分{1}秒</v>
       </c>
-      <c r="E99" s="2" t="str"/>
+      <c r="E99" s="1" t="str"/>
     </row>
     <row customHeight="true" ht="23" r="100">
-      <c r="A100" s="2">
+      <c r="A100" s="1">
         <v>30067</v>
       </c>
-      <c r="B100" s="1" t="str">
+      <c r="B100" s="2" t="str">
         <v>Text_Content_12012</v>
       </c>
-      <c r="C100" s="1" t="str">
+      <c r="C100" s="2" t="str">
         <v>Saved {0} Students</v>
       </c>
-      <c r="D100" s="1" t="str">
+      <c r="D100" s="2" t="str">
         <v>拯救了{0}位学生</v>
       </c>
-      <c r="E100" s="2" t="str"/>
+      <c r="E100" s="1" t="str"/>
     </row>
     <row customHeight="true" ht="23" r="101">
-      <c r="A101" s="2">
+      <c r="A101" s="1">
         <v>30068</v>
       </c>
-      <c r="B101" s="1" t="str">
+      <c r="B101" s="2" t="str">
         <v>Text_Content_12013</v>
       </c>
-      <c r="C101" s="1" t="str">
+      <c r="C101" s="2" t="str">
         <v>Saved {0} Students</v>
       </c>
-      <c r="D101" s="1" t="str">
+      <c r="D101" s="2" t="str">
         <v>拯救了{0}位学生</v>
       </c>
-      <c r="E101" s="2" t="str"/>
+      <c r="E101" s="1" t="str"/>
     </row>
     <row customHeight="true" ht="23" r="102">
-      <c r="A102" s="2">
+      <c r="A102" s="1">
         <v>30069</v>
       </c>
-      <c r="B102" s="1" t="str">
+      <c r="B102" s="2" t="str">
         <v>Text_Content_12014</v>
       </c>
-      <c r="C102" s="12" t="str">
+      <c r="C102" s="23" t="str">
         <v>× 1.5 (Bonus)</v>
       </c>
-      <c r="D102" s="1" t="str">
+      <c r="D102" s="2" t="str">
         <v>× 1.5 ( 胜利奖励)</v>
       </c>
-      <c r="E102" s="2" t="str"/>
+      <c r="E102" s="1" t="str"/>
     </row>
     <row customHeight="true" ht="23" r="103">
-      <c r="A103" s="2">
+      <c r="A103" s="1">
         <v>30070</v>
       </c>
-      <c r="B103" s="1" t="str">
+      <c r="B103" s="2" t="str">
         <v>Text_Content_12015</v>
       </c>
-      <c r="C103" s="12" t="str">
+      <c r="C103" s="23" t="str">
         <v>+ 900 (Bonus )</v>
       </c>
-      <c r="D103" s="1" t="str">
+      <c r="D103" s="2" t="str">
         <v>+ 900 ( 胜利奖励)</v>
       </c>
-      <c r="E103" s="2" t="str"/>
+      <c r="E103" s="1" t="str"/>
     </row>
     <row customHeight="true" ht="23" r="104">
-      <c r="A104" s="2">
+      <c r="A104" s="1">
         <v>30071</v>
       </c>
-      <c r="B104" s="1" t="str">
+      <c r="B104" s="2" t="str">
         <v>Text_Content_12016</v>
       </c>
-      <c r="C104" s="1" t="str">
+      <c r="C104" s="2" t="str">
         <v>Watch ads to get double coins!</v>
       </c>
-      <c r="D104" s="1" t="str">
+      <c r="D104" s="2" t="str">
         <v>观看广告，获得双倍金币！</v>
       </c>
-      <c r="E104" s="2" t="str">
+      <c r="E104" s="1" t="str">
         <v>UI按钮上的文字</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="105">
-      <c r="A105" s="2">
+      <c r="A105" s="1">
         <v>30072</v>
       </c>
-      <c r="B105" s="1" t="str">
+      <c r="B105" s="2" t="str">
         <v>Text_Content_12017</v>
       </c>
-      <c r="C105" s="1" t="str">
+      <c r="C105" s="2" t="str">
         <v>GET</v>
       </c>
-      <c r="D105" s="1" t="str">
+      <c r="D105" s="2" t="str">
         <v>观看</v>
       </c>
-      <c r="E105" s="2" t="str">
+      <c r="E105" s="1" t="str">
         <v>UI按钮上的文字</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="106">
-      <c r="A106" s="9">
+      <c r="A106" s="13">
         <v>30073</v>
       </c>
-      <c r="B106" s="8" t="str">
+      <c r="B106" s="14" t="str">
         <v>Text_Content_12018</v>
       </c>
-      <c r="C106" s="8" t="str">
+      <c r="C106" s="14" t="str">
         <v>Lottery</v>
       </c>
-      <c r="D106" s="8" t="str">
+      <c r="D106" s="14" t="str">
         <v>抽奖</v>
       </c>
-      <c r="E106" s="9" t="str">
+      <c r="E106" s="13" t="str">
         <v>UI按钮上的文字</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="107">
-      <c r="A107" s="9">
+      <c r="A107" s="13">
         <v>30074</v>
       </c>
-      <c r="B107" s="8" t="str">
+      <c r="B107" s="14" t="str">
         <v>Text_Content_12019</v>
       </c>
-      <c r="C107" s="8" t="str">
+      <c r="C107" s="14" t="str">
         <v>Weapon Box</v>
       </c>
-      <c r="D107" s="8" t="str">
+      <c r="D107" s="14" t="str">
         <v>武器箱</v>
       </c>
-      <c r="E107" s="9" t="str">
+      <c r="E107" s="13" t="str">
         <v>UI按钮上的文字</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="108">
-      <c r="A108" s="9">
+      <c r="A108" s="13">
         <v>30075</v>
       </c>
-      <c r="B108" s="8" t="str">
+      <c r="B108" s="14" t="str">
         <v>Text_Content_12020</v>
       </c>
-      <c r="C108" s="8" t="str">
+      <c r="C108" s="14" t="str">
         <v>Watch the ad for a free draw</v>
       </c>
-      <c r="D108" s="8" t="str">
+      <c r="D108" s="14" t="str">
         <v>观看广告，免费抽奖一次</v>
       </c>
-      <c r="E108" s="9" t="str">
+      <c r="E108" s="13" t="str">
         <v>UI按钮上的文字</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="109">
-      <c r="A109" s="9">
+      <c r="A109" s="13">
         <v>30076</v>
       </c>
-      <c r="B109" s="8" t="str">
+      <c r="B109" s="14" t="str">
         <v>Text_Content_12021</v>
       </c>
-      <c r="C109" s="8" t="str">
+      <c r="C109" s="14" t="str">
         <v>Until the next free draw:</v>
       </c>
-      <c r="D109" s="8" t="str">
+      <c r="D109" s="14" t="str">
         <v>距离下次免费：</v>
       </c>
-      <c r="E109" s="9" t="str">
+      <c r="E109" s="13" t="str">
         <v>UI按钮上的文字</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="110">
-      <c r="A110" s="9">
+      <c r="A110" s="13">
         <v>30077</v>
       </c>
-      <c r="B110" s="8" t="str">
+      <c r="B110" s="14" t="str">
         <v>Text_Content_12022</v>
       </c>
-      <c r="C110" s="8" t="str">
+      <c r="C110" s="14" t="str">
         <v>Your draws</v>
       </c>
-      <c r="D110" s="8" t="str">
+      <c r="D110" s="14" t="str">
         <v>累计抽奖</v>
       </c>
-      <c r="E110" s="9" t="str">
+      <c r="E110" s="13" t="str">
         <v>UI按钮上的文字</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="111">
-      <c r="A111" s="9">
+      <c r="A111" s="13">
         <v>30078</v>
       </c>
-      <c r="B111" s="8" t="str">
+      <c r="B111" s="14" t="str">
         <v>Text_Content_12023</v>
       </c>
-      <c r="C111" s="8" t="str">
+      <c r="C111" s="14" t="str">
         <v>Next time you will get a RED quality weapon</v>
       </c>
-      <c r="D111" s="8" t="str">
+      <c r="D111" s="14" t="str">
         <v>下次必得红色品质武器</v>
       </c>
-      <c r="E111" s="9" t="str">
+      <c r="E111" s="13" t="str">
         <v>UI按钮上的文字</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="112">
-      <c r="A112" s="9">
+      <c r="A112" s="13">
         <v>30079</v>
       </c>
-      <c r="B112" s="8" t="str">
+      <c r="B112" s="14" t="str">
         <v>Text_Content_12024</v>
       </c>
-      <c r="C112" s="8" t="str">
+      <c r="C112" s="14" t="str">
         <v>Box opening...</v>
       </c>
-      <c r="D112" s="8" t="str">
+      <c r="D112" s="14" t="str">
         <v>正在打开箱子...</v>
       </c>
-      <c r="E112" s="9" t="str">
+      <c r="E112" s="13" t="str">
         <v>UI按钮上的文字</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="113">
-      <c r="A113" s="9">
+      <c r="A113" s="13">
         <v>30080</v>
       </c>
-      <c r="B113" s="8" t="str">
+      <c r="B113" s="14" t="str">
         <v>Text_Content_12025</v>
       </c>
-      <c r="C113" s="8" t="str">
+      <c r="C113" s="14" t="str">
         <v>Congratulations!</v>
       </c>
-      <c r="D113" s="8" t="str">
+      <c r="D113" s="14" t="str">
         <v>恭喜获得</v>
       </c>
-      <c r="E113" s="9" t="str">
+      <c r="E113" s="13" t="str">
         <v>UI按钮上的文字</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="114">
-      <c r="A114" s="9">
+      <c r="A114" s="13">
         <v>30081</v>
       </c>
-      <c r="B114" s="8" t="str">
+      <c r="B114" s="14" t="str">
         <v>Text_Content_12026</v>
       </c>
-      <c r="C114" s="8" t="str">
+      <c r="C114" s="14" t="str">
         <v>Owned, automatically recycled to gold coins</v>
       </c>
-      <c r="D114" s="8" t="str">
+      <c r="D114" s="14" t="str">
         <v>已拥有，自动回收为金币</v>
       </c>
-      <c r="E114" s="9" t="str">
+      <c r="E114" s="13" t="str">
         <v>UI按钮上的文字</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="115">
-      <c r="A115" s="9">
+      <c r="A115" s="13">
         <v>30082</v>
       </c>
-      <c r="B115" s="8" t="str">
+      <c r="B115" s="14" t="str">
         <v>Text_Content_11017</v>
       </c>
-      <c r="C115" s="8" t="str">
+      <c r="C115" s="14" t="str">
         <v>Defeat everyone and leave no one out!</v>
       </c>
-      <c r="D115" s="9" t="str">
+      <c r="D115" s="13" t="str">
         <v>击败所有人，一个也不要放过！</v>
       </c>
-      <c r="E115" s="9"/>
+      <c r="E115" s="13"/>
     </row>
     <row customHeight="true" ht="23" r="116">
-      <c r="A116" s="9">
+      <c r="A116" s="13">
         <v>30083</v>
       </c>
-      <c r="B116" s="8" t="str">
+      <c r="B116" s="14" t="str">
         <v>Text_Content_11018</v>
       </c>
-      <c r="C116" s="8" t="str">
+      <c r="C116" s="14" t="str">
         <v>You are Detective, defeat the Murderer!</v>
       </c>
-      <c r="D116" s="9" t="str">
+      <c r="D116" s="13" t="str">
         <v>你是侦探，寻找凶手并击败他！</v>
       </c>
-      <c r="E116" s="9"/>
+      <c r="E116" s="13"/>
     </row>
     <row customHeight="true" ht="23" r="117">
-      <c r="A117" s="9">
+      <c r="A117" s="13">
         <v>30084</v>
       </c>
-      <c r="B117" s="8" t="str">
+      <c r="B117" s="14" t="str">
         <v>Text_Content_11019</v>
       </c>
-      <c r="C117" s="8" t="str">
+      <c r="C117" s="14" t="str">
         <v>You're the Hero, find the Murderer and defeat him!</v>
       </c>
-      <c r="D117" s="9" t="str">
+      <c r="D117" s="13" t="str">
         <v>你化身英雄，找到凶手击败他！</v>
       </c>
-      <c r="E117" s="9"/>
+      <c r="E117" s="13"/>
     </row>
     <row customHeight="true" ht="23" r="118">
-      <c r="A118" s="9">
+      <c r="A118" s="13">
         <v>30085</v>
       </c>
-      <c r="B118" s="8" t="str">
+      <c r="B118" s="14" t="str">
         <v>Text_Content_11020</v>
       </c>
-      <c r="C118" s="8" t="str">
+      <c r="C118" s="14" t="str">
         <v>Survive...</v>
       </c>
-      <c r="D118" s="9" t="str">
+      <c r="D118" s="13" t="str">
         <v>活下去...</v>
       </c>
-      <c r="E118" s="9"/>
+      <c r="E118" s="13"/>
     </row>
     <row customHeight="true" ht="23" r="119">
-      <c r="A119" s="9">
+      <c r="A119" s="13">
         <v>30086</v>
       </c>
-      <c r="B119" s="8" t="str">
+      <c r="B119" s="14" t="str">
         <v>Text_Content_20034</v>
       </c>
-      <c r="C119" s="8" t="str">
+      <c r="C119" s="14" t="str">
         <v>Terminator!</v>
       </c>
-      <c r="D119" s="9" t="str">
+      <c r="D119" s="13" t="str">
         <v>本轮终结者！</v>
       </c>
-      <c r="E119" s="9"/>
+      <c r="E119" s="13"/>
     </row>
     <row customHeight="true" ht="23" r="120">
-      <c r="A120" s="9">
+      <c r="A120" s="13">
         <v>30087</v>
       </c>
-      <c r="B120" s="8" t="str">
+      <c r="B120" s="14" t="str">
         <v>Text_Content_20035</v>
       </c>
-      <c r="C120" s="8" t="str">
+      <c r="C120" s="14" t="str">
         <v>Lottery</v>
       </c>
-      <c r="D120" s="9" t="str">
+      <c r="D120" s="13" t="str">
         <v>抽奖获得</v>
       </c>
-      <c r="E120" s="9"/>
+      <c r="E120" s="13"/>
     </row>
     <row customHeight="true" ht="23" r="121">
-      <c r="A121" s="2">
+      <c r="A121" s="1">
         <v>40001</v>
       </c>
-      <c r="B121" s="2" t="str">
+      <c r="B121" s="1" t="str">
         <v>Tips_Content_10001</v>
       </c>
-      <c r="C121" s="1" t="str">
+      <c r="C121" s="2" t="str">
         <v>Please pick up your weapon first!</v>
       </c>
-      <c r="D121" s="2" t="str">
+      <c r="D121" s="1" t="str">
         <v>请先拿出武器！</v>
       </c>
-      <c r="E121" s="2" t="str">
+      <c r="E121" s="1" t="str">
         <v>40000：提示表</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="122">
-      <c r="A122" s="2">
+      <c r="A122" s="1">
         <v>40002</v>
       </c>
-      <c r="B122" s="2" t="str">
+      <c r="B122" s="1" t="str">
         <v>Tips_Content_10002</v>
       </c>
-      <c r="C122" s="1" t="str">
+      <c r="C122" s="2" t="str">
         <v>You are a Hero now! Pick up your weapon and attack!</v>
       </c>
-      <c r="D122" s="2" t="str">
+      <c r="D122" s="1" t="str">
         <v>变成了英雄！可以拿出武器攻击了！</v>
       </c>
-      <c r="E122" s="2" t="str"/>
+      <c r="E122" s="1" t="str"/>
     </row>
     <row customHeight="true" ht="23" r="123">
-      <c r="A123" s="2">
+      <c r="A123" s="1">
         <v>40003</v>
       </c>
-      <c r="B123" s="2" t="str">
+      <c r="B123" s="1" t="str">
         <v>Tips_Content_10003</v>
       </c>
-      <c r="C123" s="1" t="str">
+      <c r="C123" s="2" t="str">
         <v>Energy balls collected +1~</v>
       </c>
-      <c r="D123" s="2" t="str">
+      <c r="D123" s="1" t="str">
         <v>收集能量球数量+1~</v>
       </c>
-      <c r="E123" s="2" t="str"/>
+      <c r="E123" s="1" t="str"/>
     </row>
     <row customHeight="true" ht="23" r="124">
-      <c r="A124" s="2">
+      <c r="A124" s="1">
         <v>40004</v>
       </c>
-      <c r="B124" s="2" t="str">
+      <c r="B124" s="1" t="str">
         <v>Tips_Content_10004</v>
       </c>
-      <c r="C124" s="1" t="str">
+      <c r="C124" s="2" t="str">
         <v>Energy balls obtained in this round is full!</v>
       </c>
-      <c r="D124" s="2" t="str">
+      <c r="D124" s="1" t="str">
         <v>本局获得能量球数量已满！</v>
       </c>
-      <c r="E124" s="2" t="str"/>
+      <c r="E124" s="1" t="str"/>
     </row>
     <row customHeight="true" ht="23" r="125">
-      <c r="A125" s="2">
+      <c r="A125" s="1">
         <v>40005</v>
       </c>
-      <c r="B125" s="2" t="str">
+      <c r="B125" s="1" t="str">
         <v>Tips_Content_10005</v>
       </c>
-      <c r="C125" s="1" t="str">
+      <c r="C125" s="2" t="str">
         <v>Energy shield obtained! You can resist an attack now!</v>
       </c>
-      <c r="D125" s="2" t="str">
+      <c r="D125" s="1" t="str">
         <v>获得了能量保护壳！可以抵挡一次攻击！</v>
       </c>
-      <c r="E125" s="2" t="str"/>
+      <c r="E125" s="1" t="str"/>
     </row>
     <row customHeight="true" ht="23" r="126">
-      <c r="A126" s="2">
+      <c r="A126" s="1">
         <v>40006</v>
       </c>
-      <c r="B126" s="2" t="str">
+      <c r="B126" s="1" t="str">
         <v>Tips_Content_10006</v>
       </c>
-      <c r="C126" s="1" t="str">
+      <c r="C126" s="2" t="str">
         <v>Energy shield is shattered! Be careful!</v>
       </c>
-      <c r="D126" s="2" t="str">
+      <c r="D126" s="1" t="str">
         <v>能量保护壳被击碎了！小心！</v>
       </c>
-      <c r="E126" s="2" t="str"/>
+      <c r="E126" s="1" t="str"/>
     </row>
     <row customHeight="true" ht="23" r="127">
-      <c r="A127" s="2">
+      <c r="A127" s="1">
         <v>40007</v>
       </c>
-      <c r="B127" s="2" t="str">
+      <c r="B127" s="1" t="str">
         <v>Tips_Content_10007</v>
       </c>
-      <c r="C127" s="1" t="str">
+      <c r="C127" s="2" t="str">
         <v>Energy of the shield is absorbed...</v>
       </c>
-      <c r="D127" s="2" t="str">
+      <c r="D127" s="1" t="str">
         <v>保护壳的能量被吸收了...</v>
       </c>
-      <c r="E127" s="2" t="str"/>
+      <c r="E127" s="1" t="str"/>
     </row>
     <row customHeight="true" ht="23" r="128">
-      <c r="A128" s="2">
+      <c r="A128" s="1">
         <v>40008</v>
       </c>
-      <c r="B128" s="2" t="str">
+      <c r="B128" s="1" t="str">
         <v>Tips_Content_10008</v>
       </c>
-      <c r="C128" s="1" t="str">
+      <c r="C128" s="2" t="str">
         <v>Coin Bag is full!</v>
       </c>
-      <c r="D128" s="2" t="str">
+      <c r="D128" s="1" t="str">
         <v>金币袋已满！</v>
       </c>
-      <c r="E128" s="2" t="str"/>
+      <c r="E128" s="1" t="str"/>
     </row>
     <row customHeight="true" ht="23" r="129">
-      <c r="A129" s="2">
+      <c r="A129" s="1">
         <v>40009</v>
       </c>
-      <c r="B129" s="2" t="str">
+      <c r="B129" s="1" t="str">
         <v>Tips_Content_10009</v>
       </c>
-      <c r="C129" s="1" t="str">
+      <c r="C129" s="2" t="str">
         <v>Someone died!</v>
       </c>
-      <c r="D129" s="2" t="str">
+      <c r="D129" s="1" t="str">
         <v>有人倒下了！</v>
       </c>
-      <c r="E129" s="2" t="str"/>
+      <c r="E129" s="1" t="str"/>
     </row>
     <row customHeight="true" ht="23" r="130">
-      <c r="A130" s="2">
+      <c r="A130" s="1">
         <v>40010</v>
       </c>
-      <c r="B130" s="2" t="str">
+      <c r="B130" s="1" t="str">
         <v>Tips_Content_10010</v>
       </c>
-      <c r="C130" s="1" t="str">
+      <c r="C130" s="2" t="str">
         <v>The Detective is dead, find his weapon!</v>
       </c>
-      <c r="D130" s="2" t="str">
+      <c r="D130" s="1" t="str">
         <v>侦探死亡了，找找他的武器吧！</v>
       </c>
-      <c r="E130" s="2" t="str"/>
+      <c r="E130" s="1" t="str"/>
     </row>
     <row customHeight="true" ht="23" r="131">
-      <c r="A131" s="2">
+      <c r="A131" s="1">
         <v>40011</v>
       </c>
-      <c r="B131" s="2" t="str">
+      <c r="B131" s="1" t="str">
         <v>Tips_Content_20001</v>
       </c>
-      <c r="C131" s="1" t="str">
+      <c r="C131" s="2" t="str">
         <v>There are currently no active matches!</v>
       </c>
-      <c r="D131" s="2" t="str">
+      <c r="D131" s="1" t="str">
         <v>当前没有正在进行的对局！</v>
       </c>
-      <c r="E131" s="2" t="str"/>
+      <c r="E131" s="1" t="str"/>
     </row>
     <row customHeight="true" ht="23" r="132">
-      <c r="A132" s="2">
+      <c r="A132" s="1">
         <v>40012</v>
       </c>
-      <c r="B132" s="1" t="str">
+      <c r="B132" s="2" t="str">
         <v>Tips_Content_20005</v>
       </c>
-      <c r="C132" s="1" t="str">
+      <c r="C132" s="2" t="str">
         <v>Correct Password</v>
       </c>
-      <c r="D132" s="2" t="str">
+      <c r="D132" s="1" t="str">
         <v>密码输入正确</v>
       </c>
-      <c r="E132" s="2"/>
+      <c r="E132" s="1"/>
     </row>
     <row customHeight="true" ht="23" r="133">
-      <c r="A133" s="2">
+      <c r="A133" s="1">
         <v>40013</v>
       </c>
-      <c r="B133" s="1" t="str">
+      <c r="B133" s="2" t="str">
         <v>Tips_Content_20006</v>
       </c>
-      <c r="C133" s="1" t="str">
+      <c r="C133" s="2" t="str">
         <v>Wrong Password！</v>
       </c>
-      <c r="D133" s="2" t="str">
+      <c r="D133" s="1" t="str">
         <v>密码输入错误！</v>
       </c>
-      <c r="E133" s="2"/>
+      <c r="E133" s="1"/>
     </row>
     <row customHeight="true" ht="23" r="134">
-      <c r="A134" s="2">
+      <c r="A134" s="1">
         <v>40014</v>
       </c>
-      <c r="B134" s="1" t="str">
+      <c r="B134" s="2" t="str">
         <v>Tips_Content_20007</v>
       </c>
-      <c r="C134" s="1" t="str">
+      <c r="C134" s="2" t="str">
         <v>Weapon skins！Click to go！</v>
       </c>
-      <c r="D134" s="2" t="str">
+      <c r="D134" s="1" t="str">
         <v>免费抽取武器皮肤，点击前往！</v>
       </c>
-      <c r="E134" s="2"/>
+      <c r="E134" s="1"/>
     </row>
     <row customHeight="true" ht="23" r="135">
-      <c r="A135" s="2">
+      <c r="A135" s="1">
         <v>40015</v>
       </c>
-      <c r="B135" s="1" t="str">
+      <c r="B135" s="2" t="str">
         <v>Tips_Content_20008</v>
       </c>
-      <c r="C135" s="1" t="str">
+      <c r="C135" s="2" t="str">
         <v>Ad in CD</v>
       </c>
-      <c r="D135" s="2" t="str">
+      <c r="D135" s="1" t="str">
         <v>广告冷却中</v>
       </c>
-      <c r="E135" s="2"/>
+      <c r="E135" s="1"/>
     </row>
     <row customHeight="true" ht="23" r="136">
-      <c r="A136" s="2">
+      <c r="A136" s="1">
         <v>50001</v>
       </c>
-      <c r="B136" s="2" t="str">
+      <c r="B136" s="1" t="str">
         <v>Weapon_WeaponName_10001</v>
       </c>
-      <c r="C136" s="1" t="str">
+      <c r="C136" s="2" t="str">
         <v>Knife</v>
       </c>
-      <c r="D136" s="2" t="str">
+      <c r="D136" s="1" t="str">
         <v>小刀</v>
       </c>
-      <c r="E136" s="2" t="str">
+      <c r="E136" s="1" t="str">
         <v>50000：武器表</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="137">
-      <c r="A137" s="2">
+      <c r="A137" s="1">
         <v>50002</v>
       </c>
-      <c r="B137" s="2" t="str">
+      <c r="B137" s="1" t="str">
         <v>Weapon_WeaponName_20001</v>
       </c>
-      <c r="C137" s="1" t="str">
+      <c r="C137" s="2" t="str">
         <v>Revolver</v>
       </c>
-      <c r="D137" s="2" t="str">
+      <c r="D137" s="1" t="str">
         <v>左轮手枪</v>
       </c>
-      <c r="E137" s="2" t="str"/>
+      <c r="E137" s="1" t="str"/>
     </row>
     <row customHeight="true" ht="23" r="138">
-      <c r="A138" s="2">
+      <c r="A138" s="1">
         <v>50003</v>
       </c>
-      <c r="B138" s="8" t="str">
+      <c r="B138" s="14" t="str">
         <v>Weapon_WeaponName_10002</v>
       </c>
-      <c r="C138" s="1" t="str">
+      <c r="C138" s="2" t="str">
         <v>Fire Axe</v>
       </c>
-      <c r="D138" s="9" t="str">
+      <c r="D138" s="13" t="str">
         <v>消防斧</v>
       </c>
-      <c r="E138" s="2" t="str">
+      <c r="E138" s="1" t="str">
         <v>武器名称</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="139">
-      <c r="A139" s="2">
+      <c r="A139" s="1">
         <v>50004</v>
       </c>
-      <c r="B139" s="8" t="str">
+      <c r="B139" s="14" t="str">
         <v>Weapon_WeaponName_10003</v>
       </c>
-      <c r="C139" s="1" t="str">
+      <c r="C139" s="2" t="str">
         <v>Nepalese Knife</v>
       </c>
-      <c r="D139" s="9" t="str">
+      <c r="D139" s="13" t="str">
         <v>尼泊尔军刀</v>
       </c>
-      <c r="E139" s="2" t="str">
+      <c r="E139" s="1" t="str">
         <v>武器名称</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="140">
-      <c r="A140" s="2">
+      <c r="A140" s="1">
         <v>50005</v>
       </c>
-      <c r="B140" s="8" t="str">
+      <c r="B140" s="14" t="str">
         <v>Weapon_WeaponName_20002</v>
       </c>
-      <c r="C140" s="1" t="str">
+      <c r="C140" s="2" t="str">
         <v>Submachine Gun</v>
       </c>
-      <c r="D140" s="9" t="str">
+      <c r="D140" s="13" t="str">
         <v>冲锋枪</v>
       </c>
-      <c r="E140" s="2" t="str">
+      <c r="E140" s="1" t="str">
         <v>武器名称</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="141">
-      <c r="A141" s="2">
+      <c r="A141" s="1">
         <v>50006</v>
       </c>
-      <c r="B141" s="8" t="str">
+      <c r="B141" s="14" t="str">
         <v>Weapon_WeaponName_20003</v>
       </c>
-      <c r="C141" s="1" t="str">
+      <c r="C141" s="2" t="str">
         <v>Rifle</v>
       </c>
-      <c r="D141" s="9" t="str">
+      <c r="D141" s="13" t="str">
         <v>步枪</v>
       </c>
-      <c r="E141" s="2" t="str">
+      <c r="E141" s="1" t="str">
         <v>武器名称</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="142">
-      <c r="A142" s="2">
+      <c r="A142" s="1">
         <v>50007</v>
       </c>
-      <c r="B142" s="1" t="str">
+      <c r="B142" s="2" t="str">
         <v>Weapon_WeaponName_10004</v>
       </c>
-      <c r="C142" s="1" t="str">
+      <c r="C142" s="2" t="str">
         <v>Assassin Dagger</v>
       </c>
-      <c r="D142" s="9" t="str">
+      <c r="D142" s="13" t="str">
         <v>暗杀匕首</v>
       </c>
-      <c r="E142" s="2" t="str">
+      <c r="E142" s="1" t="str">
         <v>武器名称</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="143">
-      <c r="A143" s="2">
+      <c r="A143" s="1">
         <v>50008</v>
       </c>
-      <c r="B143" s="1" t="str">
+      <c r="B143" s="2" t="str">
         <v>Weapon_WeaponName_10005</v>
       </c>
-      <c r="C143" s="1" t="str">
+      <c r="C143" s="2" t="str">
         <v>Survival Dagger</v>
       </c>
-      <c r="D143" s="9" t="str">
+      <c r="D143" s="13" t="str">
         <v>求生匕首</v>
       </c>
-      <c r="E143" s="2" t="str">
+      <c r="E143" s="1" t="str">
         <v>武器名称</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="144">
-      <c r="A144" s="2">
+      <c r="A144" s="1">
         <v>50009</v>
       </c>
-      <c r="B144" s="1" t="str">
+      <c r="B144" s="2" t="str">
         <v>Weapon_WeaponName_10006</v>
       </c>
-      <c r="C144" s="1" t="str">
+      <c r="C144" s="2" t="str">
         <v>Kitchen Knife</v>
       </c>
-      <c r="D144" s="9" t="str">
+      <c r="D144" s="13" t="str">
         <v>菜刀</v>
       </c>
-      <c r="E144" s="2" t="str">
+      <c r="E144" s="1" t="str">
         <v>武器名称</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="145">
-      <c r="A145" s="2">
+      <c r="A145" s="1">
         <v>50010</v>
       </c>
-      <c r="B145" s="1" t="str">
+      <c r="B145" s="2" t="str">
         <v>Weapon_WeaponName_10007</v>
       </c>
-      <c r="C145" s="1" t="str">
+      <c r="C145" s="2" t="str">
         <v>Dart (Wave)</v>
       </c>
-      <c r="D145" s="1" t="str">
+      <c r="D145" s="2" t="str">
         <v>镖(波)</v>
       </c>
-      <c r="E145" s="2" t="str">
+      <c r="E145" s="1" t="str">
         <v>武器名称</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="146">
-      <c r="A146" s="2">
+      <c r="A146" s="1">
         <v>50011</v>
       </c>
-      <c r="B146" s="1" t="str">
+      <c r="B146" s="2" t="str">
         <v>Weapon_WeaponName_10008</v>
       </c>
-      <c r="C146" s="1" t="str">
+      <c r="C146" s="2" t="str">
         <v>Dart (Fetter)</v>
       </c>
-      <c r="D146" s="1" t="str">
+      <c r="D146" s="2" t="str">
         <v>镖(桎)</v>
       </c>
-      <c r="E146" s="2" t="str">
+      <c r="E146" s="1" t="str">
         <v>武器名称</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="147">
-      <c r="A147" s="2">
+      <c r="A147" s="1">
         <v>50012</v>
       </c>
-      <c r="B147" s="1" t="str">
+      <c r="B147" s="2" t="str">
         <v>Weapon_WeaponName_10009</v>
       </c>
-      <c r="C147" s="1" t="str">
+      <c r="C147" s="2" t="str">
         <v>Dart (Shatter)</v>
       </c>
-      <c r="D147" s="1" t="str">
+      <c r="D147" s="2" t="str">
         <v>镖(碎)</v>
       </c>
-      <c r="E147" s="2" t="str">
+      <c r="E147" s="1" t="str">
         <v>武器名称</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="148">
-      <c r="A148" s="2">
+      <c r="A148" s="1">
         <v>50013</v>
       </c>
-      <c r="B148" s="1" t="str">
+      <c r="B148" s="2" t="str">
         <v>Weapon_WeaponName_10010</v>
       </c>
-      <c r="C148" s="1" t="str">
+      <c r="C148" s="2" t="str">
         <v>Dart (Swirl)</v>
       </c>
-      <c r="D148" s="1" t="str">
+      <c r="D148" s="2" t="str">
         <v>镖(漩)</v>
       </c>
-      <c r="E148" s="2" t="str">
+      <c r="E148" s="1" t="str">
         <v>武器名称</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="149">
-      <c r="A149" s="2">
+      <c r="A149" s="1">
         <v>50014</v>
       </c>
-      <c r="B149" s="1" t="str">
+      <c r="B149" s="2" t="str">
         <v>Weapon_WeaponName_10011</v>
       </c>
-      <c r="C149" s="1" t="str">
+      <c r="C149" s="2" t="str">
         <v>Dart (Qi)</v>
       </c>
-      <c r="D149" s="1" t="str">
+      <c r="D149" s="2" t="str">
         <v>镖(气)</v>
       </c>
-      <c r="E149" s="2" t="str">
+      <c r="E149" s="1" t="str">
         <v>武器名称</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="150">
-      <c r="A150" s="2">
+      <c r="A150" s="1">
         <v>50015</v>
       </c>
-      <c r="B150" s="1" t="str">
+      <c r="B150" s="2" t="str">
         <v>Weapon_WeaponName_10012</v>
       </c>
-      <c r="C150" s="1" t="str">
+      <c r="C150" s="2" t="str">
         <v>Dart (Stirring)</v>
       </c>
-      <c r="D150" s="1" t="str">
+      <c r="D150" s="2" t="str">
         <v>镖(激荡)</v>
       </c>
-      <c r="E150" s="2" t="str">
+      <c r="E150" s="1" t="str">
         <v>武器名称</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="151">
-      <c r="A151" s="2">
+      <c r="A151" s="1">
         <v>50016</v>
       </c>
-      <c r="B151" s="1" t="str">
+      <c r="B151" s="2" t="str">
         <v>Weapon_WeaponName_10013</v>
       </c>
-      <c r="C151" s="1" t="str">
+      <c r="C151" s="2" t="str">
         <v>Dart (Seal)</v>
       </c>
-      <c r="D151" s="1" t="str">
+      <c r="D151" s="2" t="str">
         <v>镖(封印)</v>
       </c>
-      <c r="E151" s="2" t="str">
+      <c r="E151" s="1" t="str">
         <v>武器名称</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="152">
-      <c r="A152" s="2">
+      <c r="A152" s="1">
         <v>50017</v>
       </c>
-      <c r="B152" s="1" t="str">
+      <c r="B152" s="2" t="str">
         <v>Weapon_WeaponName_10014</v>
       </c>
-      <c r="C152" s="1" t="str">
+      <c r="C152" s="2" t="str">
         <v>Dart (Fate)</v>
       </c>
-      <c r="D152" s="1" t="str">
+      <c r="D152" s="2" t="str">
         <v>镖(轮回)</v>
       </c>
-      <c r="E152" s="2" t="str">
+      <c r="E152" s="1" t="str">
         <v>武器名称</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="153">
-      <c r="A153" s="2">
+      <c r="A153" s="1">
         <v>50018</v>
       </c>
-      <c r="B153" s="1" t="str">
+      <c r="B153" s="2" t="str">
         <v>Weapon_WeaponName_10015</v>
       </c>
-      <c r="C153" s="1" t="str">
+      <c r="C153" s="2" t="str">
         <v>Dogfish</v>
       </c>
-      <c r="D153" s="1" t="str">
+      <c r="D153" s="2" t="str">
         <v>狗鱼</v>
       </c>
-      <c r="E153" s="2" t="str">
+      <c r="E153" s="1" t="str">
         <v>武器名称</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="154">
-      <c r="A154" s="2">
+      <c r="A154" s="1">
         <v>50019</v>
       </c>
-      <c r="B154" s="1" t="str">
+      <c r="B154" s="2" t="str">
         <v>Weapon_WeaponName_10016</v>
       </c>
-      <c r="C154" s="1" t="str">
+      <c r="C154" s="2" t="str">
         <v>Hairy-nosed catfish</v>
       </c>
-      <c r="D154" s="1" t="str">
+      <c r="D154" s="2" t="str">
         <v>毛鼻鲶</v>
       </c>
-      <c r="E154" s="2" t="str">
+      <c r="E154" s="1" t="str">
         <v>武器名称</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="155">
-      <c r="A155" s="2">
+      <c r="A155" s="1">
         <v>50020</v>
       </c>
-      <c r="B155" s="1" t="str">
+      <c r="B155" s="2" t="str">
         <v>Weapon_WeaponName_10017</v>
       </c>
-      <c r="C155" s="1" t="str">
+      <c r="C155" s="2" t="str">
         <v>Goldfish</v>
       </c>
-      <c r="D155" s="1" t="str">
+      <c r="D155" s="2" t="str">
         <v>金鱼</v>
       </c>
-      <c r="E155" s="2" t="str">
+      <c r="E155" s="1" t="str">
         <v>武器名称</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="156">
-      <c r="A156" s="2">
+      <c r="A156" s="1">
         <v>50021</v>
       </c>
-      <c r="B156" s="1" t="str">
+      <c r="B156" s="2" t="str">
         <v>Weapon_WeaponName_10018</v>
       </c>
-      <c r="C156" s="1" t="str">
+      <c r="C156" s="2" t="str">
         <v>Tuna</v>
       </c>
-      <c r="D156" s="1" t="str">
+      <c r="D156" s="2" t="str">
         <v>金枪鱼</v>
       </c>
-      <c r="E156" s="2" t="str">
+      <c r="E156" s="1" t="str">
         <v>武器名称</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="157">
-      <c r="A157" s="2">
+      <c r="A157" s="1">
         <v>50022</v>
       </c>
-      <c r="B157" s="1" t="str">
+      <c r="B157" s="2" t="str">
         <v>Weapon_WeaponName_10019</v>
       </c>
-      <c r="C157" s="1" t="str">
+      <c r="C157" s="2" t="str">
         <v>Lobster</v>
       </c>
-      <c r="D157" s="1" t="str">
+      <c r="D157" s="2" t="str">
         <v>龙虾</v>
       </c>
-      <c r="E157" s="2" t="str">
+      <c r="E157" s="1" t="str">
         <v>武器名称</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="158">
-      <c r="A158" s="2">
+      <c r="A158" s="1">
         <v>50023</v>
       </c>
-      <c r="B158" s="1" t="str">
+      <c r="B158" s="2" t="str">
         <v>Weapon_WeaponName_10020</v>
       </c>
-      <c r="C158" s="1" t="str">
+      <c r="C158" s="2" t="str">
         <v>Oarfish</v>
       </c>
-      <c r="D158" s="1" t="str">
+      <c r="D158" s="2" t="str">
         <v>皇带鱼</v>
       </c>
-      <c r="E158" s="2" t="str">
+      <c r="E158" s="1" t="str">
         <v>武器名称</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="159">
-      <c r="A159" s="2">
+      <c r="A159" s="1">
         <v>50024</v>
       </c>
-      <c r="B159" s="1" t="str">
+      <c r="B159" s="2" t="str">
         <v>Weapon_WeaponName_10021</v>
       </c>
-      <c r="C159" s="1" t="str">
+      <c r="C159" s="2" t="str">
         <v>Miracle Conch</v>
       </c>
-      <c r="D159" s="1" t="str">
+      <c r="D159" s="2" t="str">
         <v>神奇海螺</v>
       </c>
-      <c r="E159" s="2" t="str">
+      <c r="E159" s="1" t="str">
         <v>武器名称</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="160">
-      <c r="A160" s="2">
+      <c r="A160" s="1">
         <v>50025</v>
       </c>
-      <c r="B160" s="1" t="str">
+      <c r="B160" s="2" t="str">
         <v>Weapon_WeaponName_10022</v>
       </c>
-      <c r="C160" s="1" t="str">
+      <c r="C160" s="2" t="str">
         <v>King Trident</v>
       </c>
-      <c r="D160" s="1" t="str">
+      <c r="D160" s="2" t="str">
         <v>海王三叉戟</v>
       </c>
-      <c r="E160" s="2" t="str">
+      <c r="E160" s="1" t="str">
         <v>武器名称</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="161">
-      <c r="A161" s="2">
+      <c r="A161" s="1">
         <v>50027</v>
       </c>
-      <c r="B161" s="1" t="str">
+      <c r="B161" s="2" t="str">
         <v>Lottery_Name_10001</v>
       </c>
-      <c r="C161" s="1" t="str">
+      <c r="C161" s="2" t="str">
         <v>Dart Weapon Box</v>
       </c>
-      <c r="D161" s="1" t="str">
+      <c r="D161" s="2" t="str">
         <v>飞镖武器箱</v>
       </c>
-      <c r="E161" s="2" t="str">
+      <c r="E161" s="1" t="str">
         <v>武器箱子名称</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="162">
-      <c r="A162" s="2">
+      <c r="A162" s="1">
         <v>50028</v>
       </c>
-      <c r="B162" s="1" t="str">
+      <c r="B162" s="2" t="str">
         <v>Lottery_Name_10002</v>
       </c>
-      <c r="C162" s="1" t="str">
+      <c r="C162" s="2" t="str">
         <v>Ocean Weapon Box</v>
       </c>
-      <c r="D162" s="1" t="str">
+      <c r="D162" s="2" t="str">
         <v>深海武器箱</v>
       </c>
-      <c r="E162" s="2" t="str">
+      <c r="E162" s="1" t="str">
         <v>武器箱子名称</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="163">
-      <c r="A163" s="2">
+      <c r="A163" s="1">
         <v>60001</v>
       </c>
-      <c r="B163" s="2" t="str">
+      <c r="B163" s="1" t="str">
         <v>AIData_AIName_90001</v>
       </c>
-      <c r="C163" s="1" t="str">
+      <c r="C163" s="2" t="str">
         <v>Creabhop</v>
       </c>
-      <c r="D163" s="1" t="str">
+      <c r="D163" s="2" t="str">
         <v>Creabhop</v>
       </c>
-      <c r="E163" s="2" t="str">
+      <c r="E163" s="1" t="str">
         <v>60000：AI数据表</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="164">
-      <c r="A164" s="2">
+      <c r="A164" s="1">
         <v>60002</v>
       </c>
-      <c r="B164" s="2" t="str">
+      <c r="B164" s="1" t="str">
         <v>AIData_AIName_90002</v>
       </c>
-      <c r="C164" s="1" t="str">
+      <c r="C164" s="2" t="str">
         <v>Rival</v>
       </c>
-      <c r="D164" s="1" t="str">
+      <c r="D164" s="2" t="str">
         <v>Rival</v>
       </c>
-      <c r="E164" s="2" t="str"/>
+      <c r="E164" s="1" t="str"/>
     </row>
     <row customHeight="true" ht="23" r="165">
-      <c r="A165" s="2">
+      <c r="A165" s="1">
         <v>60003</v>
       </c>
-      <c r="B165" s="2" t="str">
+      <c r="B165" s="1" t="str">
         <v>AIData_AIName_90003</v>
       </c>
-      <c r="C165" s="1" t="str">
+      <c r="C165" s="2" t="str">
         <v>Ironpup</v>
       </c>
-      <c r="D165" s="1" t="str">
+      <c r="D165" s="2" t="str">
         <v>Ironpup</v>
       </c>
-      <c r="E165" s="2" t="str"/>
+      <c r="E165" s="1" t="str"/>
     </row>
     <row customHeight="true" ht="23" r="166">
-      <c r="A166" s="2">
+      <c r="A166" s="1">
         <v>60004</v>
       </c>
-      <c r="B166" s="2" t="str">
+      <c r="B166" s="1" t="str">
         <v>AIData_AIName_90004</v>
       </c>
-      <c r="C166" s="1" t="str">
+      <c r="C166" s="2" t="str">
         <v>TonyXenos</v>
       </c>
-      <c r="D166" s="1" t="str">
+      <c r="D166" s="2" t="str">
         <v>TonyXenos</v>
       </c>
-      <c r="E166" s="2" t="str"/>
+      <c r="E166" s="1" t="str"/>
     </row>
     <row customHeight="true" ht="23" r="167">
-      <c r="A167" s="2">
+      <c r="A167" s="1">
         <v>60005</v>
       </c>
-      <c r="B167" s="2" t="str">
+      <c r="B167" s="1" t="str">
         <v>AIData_AIName_90005</v>
       </c>
-      <c r="C167" s="1" t="str">
+      <c r="C167" s="2" t="str">
         <v>L8s</v>
       </c>
-      <c r="D167" s="1" t="str">
+      <c r="D167" s="2" t="str">
         <v>L8s</v>
       </c>
-      <c r="E167" s="2" t="str"/>
+      <c r="E167" s="1" t="str"/>
     </row>
     <row customHeight="true" ht="23" r="168">
-      <c r="A168" s="2">
+      <c r="A168" s="1">
         <v>60006</v>
       </c>
-      <c r="B168" s="2" t="str">
+      <c r="B168" s="1" t="str">
         <v>AIData_AIName_90006</v>
       </c>
-      <c r="C168" s="1" t="str">
+      <c r="C168" s="2" t="str">
         <v>Crilm</v>
       </c>
-      <c r="D168" s="1" t="str">
+      <c r="D168" s="2" t="str">
         <v>Crilm</v>
       </c>
-      <c r="E168" s="2" t="str"/>
+      <c r="E168" s="1" t="str"/>
     </row>
     <row customHeight="true" ht="23" r="169">
-      <c r="A169" s="2">
+      <c r="A169" s="1">
         <v>60007</v>
       </c>
-      <c r="B169" s="2" t="str">
+      <c r="B169" s="1" t="str">
         <v>AIData_AIName_90007</v>
       </c>
-      <c r="C169" s="1" t="str">
+      <c r="C169" s="2" t="str">
         <v>Himiko Toga</v>
       </c>
-      <c r="D169" s="1" t="str">
+      <c r="D169" s="2" t="str">
         <v>Himiko Toga</v>
       </c>
-      <c r="E169" s="2" t="str"/>
+      <c r="E169" s="1" t="str"/>
     </row>
     <row customHeight="true" ht="23" r="170">
-      <c r="A170" s="2">
+      <c r="A170" s="1">
         <v>60008</v>
       </c>
-      <c r="B170" s="2" t="str">
+      <c r="B170" s="1" t="str">
         <v>AIData_AIName_90008</v>
       </c>
-      <c r="C170" s="1" t="str">
+      <c r="C170" s="2" t="str">
         <v>Rocco21</v>
       </c>
-      <c r="D170" s="1" t="str">
+      <c r="D170" s="2" t="str">
         <v>Rocco21</v>
       </c>
-      <c r="E170" s="2" t="str"/>
+      <c r="E170" s="1" t="str"/>
     </row>
     <row customHeight="true" ht="23" r="171">
-      <c r="A171" s="2">
+      <c r="A171" s="1">
         <v>60009</v>
       </c>
-      <c r="B171" s="2" t="str">
+      <c r="B171" s="1" t="str">
         <v>AIData_AIName_90009</v>
       </c>
-      <c r="C171" s="1" t="str">
+      <c r="C171" s="2" t="str">
         <v>Elysian</v>
       </c>
-      <c r="D171" s="1" t="str">
+      <c r="D171" s="2" t="str">
         <v>Elysian</v>
       </c>
-      <c r="E171" s="2" t="str"/>
+      <c r="E171" s="1" t="str"/>
     </row>
     <row customHeight="true" ht="23" r="172">
-      <c r="A172" s="2">
+      <c r="A172" s="1">
         <v>60010</v>
       </c>
-      <c r="B172" s="2" t="str">
+      <c r="B172" s="1" t="str">
         <v>AIData_AIName_90010</v>
       </c>
-      <c r="C172" s="1" t="str">
+      <c r="C172" s="2" t="str">
         <v>Bunny Rat</v>
       </c>
-      <c r="D172" s="1" t="str">
+      <c r="D172" s="2" t="str">
         <v>Bunny Rat</v>
       </c>
-      <c r="E172" s="2" t="str"/>
+      <c r="E172" s="1" t="str"/>
     </row>
     <row customHeight="true" ht="23" r="173">
-      <c r="A173" s="2">
+      <c r="A173" s="1">
         <v>60011</v>
       </c>
-      <c r="B173" s="2" t="str">
+      <c r="B173" s="1" t="str">
         <v>AIData_AIName_90011</v>
       </c>
-      <c r="C173" s="1" t="str">
+      <c r="C173" s="2" t="str">
         <v>Zaptar</v>
       </c>
-      <c r="D173" s="1" t="str">
+      <c r="D173" s="2" t="str">
         <v>Zaptar</v>
       </c>
-      <c r="E173" s="2" t="str"/>
+      <c r="E173" s="1" t="str"/>
     </row>
     <row customHeight="true" ht="23" r="174">
-      <c r="A174" s="2">
+      <c r="A174" s="1">
         <v>70001</v>
       </c>
-      <c r="B174" s="1" t="str">
+      <c r="B174" s="2" t="str">
         <v>Level_Name_10000</v>
       </c>
-      <c r="C174" s="1" t="str">
+      <c r="C174" s="2" t="str">
         <v>Hall</v>
       </c>
-      <c r="D174" s="1" t="str">
+      <c r="D174" s="2" t="str">
         <v>大厅</v>
       </c>
-      <c r="E174" s="2" t="str"/>
+      <c r="E174" s="1" t="str"/>
     </row>
     <row customHeight="true" ht="23" r="175">
-      <c r="A175" s="2">
+      <c r="A175" s="1">
         <v>70002</v>
       </c>
-      <c r="B175" s="1" t="str">
+      <c r="B175" s="2" t="str">
         <v>Level_Name_10001</v>
       </c>
-      <c r="C175" s="1" t="str">
+      <c r="C175" s="2" t="str">
         <v>Night Bar</v>
       </c>
-      <c r="D175" s="13" t="str">
+      <c r="D175" s="36" t="str">
         <v>夜色酒吧</v>
       </c>
-      <c r="E175" s="2" t="str">
+      <c r="E175" s="1" t="str">
         <v>关卡地图名称</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="176">
-      <c r="A176" s="2">
+      <c r="A176" s="1">
         <v>70003</v>
       </c>
-      <c r="B176" s="1" t="str">
+      <c r="B176" s="2" t="str">
         <v>Level_Name_10002</v>
       </c>
-      <c r="C176" s="1" t="str">
+      <c r="C176" s="2" t="str">
         <v>Barbiesville</v>
       </c>
-      <c r="D176" s="2" t="str">
+      <c r="D176" s="1" t="str">
         <v>芭比小镇</v>
       </c>
-      <c r="E176" s="2" t="str">
+      <c r="E176" s="1" t="str">
         <v>关卡地图名称</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="177">
-      <c r="A177" s="2">
+      <c r="A177" s="1">
         <v>70004</v>
       </c>
-      <c r="B177" s="1" t="str">
+      <c r="B177" s="2" t="str">
         <v>Level_Name_10003</v>
       </c>
-      <c r="C177" s="1" t="str">
+      <c r="C177" s="2" t="str">
         <v>Pool Party</v>
       </c>
-      <c r="D177" s="1" t="str">
+      <c r="D177" s="2" t="str">
         <v>泳池派对</v>
       </c>
-      <c r="E177" s="2" t="str">
+      <c r="E177" s="1" t="str">
         <v>关卡地图名称</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="178">
-      <c r="A178" s="2">
+      <c r="A178" s="1">
         <v>80001</v>
       </c>
-      <c r="B178" s="1" t="str">
+      <c r="B178" s="2" t="str">
         <v>Item_Name_20001</v>
       </c>
-      <c r="C178" s="1" t="str">
+      <c r="C178" s="2" t="str">
         <v>Smoke</v>
       </c>
-      <c r="D178" s="2" t="str">
+      <c r="D178" s="1" t="str">
         <v>烟雾</v>
       </c>
-      <c r="E178" s="1" t="str">
+      <c r="E178" s="2" t="str">
         <v>拖尾道具</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="179">
-      <c r="A179" s="2">
+      <c r="A179" s="1">
         <v>80002</v>
       </c>
-      <c r="B179" s="1" t="str">
+      <c r="B179" s="2" t="str">
         <v>Item_Name_20002</v>
       </c>
-      <c r="C179" s="1" t="str">
+      <c r="C179" s="2" t="str">
         <v>Aura</v>
       </c>
-      <c r="D179" s="2" t="str">
+      <c r="D179" s="1" t="str">
         <v>紫电</v>
       </c>
-      <c r="E179" s="1" t="str">
+      <c r="E179" s="2" t="str">
         <v>拖尾道具</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="180">
-      <c r="A180" s="2">
+      <c r="A180" s="1">
         <v>80003</v>
       </c>
-      <c r="B180" s="1" t="str">
+      <c r="B180" s="2" t="str">
         <v>Item_Name_20003</v>
       </c>
-      <c r="C180" s="1" t="str">
+      <c r="C180" s="2" t="str">
         <v>Thunder</v>
       </c>
-      <c r="D180" s="2" t="str">
+      <c r="D180" s="1" t="str">
         <v>雷霆</v>
       </c>
-      <c r="E180" s="1" t="str">
+      <c r="E180" s="2" t="str">
         <v>拖尾道具</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="181">
-      <c r="A181" s="2">
+      <c r="A181" s="1">
         <v>80004</v>
       </c>
-      <c r="B181" s="1" t="str">
+      <c r="B181" s="2" t="str">
         <v>Item_Name_20004</v>
       </c>
-      <c r="C181" s="1" t="str">
+      <c r="C181" s="2" t="str">
         <v>Breeze</v>
       </c>
-      <c r="D181" s="2" t="str">
+      <c r="D181" s="1" t="str">
         <v>清风</v>
       </c>
-      <c r="E181" s="1" t="str">
+      <c r="E181" s="2" t="str">
         <v>拖尾道具</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="182">
-      <c r="A182" s="2">
+      <c r="A182" s="1">
         <v>80005</v>
       </c>
-      <c r="B182" s="1" t="str">
+      <c r="B182" s="2" t="str">
         <v>Item_Name_20005</v>
       </c>
-      <c r="C182" s="1" t="str">
+      <c r="C182" s="2" t="str">
         <v>Rainbow</v>
       </c>
-      <c r="D182" s="2" t="str">
+      <c r="D182" s="1" t="str">
         <v>虹彩</v>
       </c>
-      <c r="E182" s="1" t="str">
+      <c r="E182" s="2" t="str">
         <v>拖尾道具</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="183">
-      <c r="A183" s="2">
+      <c r="A183" s="1">
         <v>80006</v>
       </c>
-      <c r="B183" s="1" t="str">
+      <c r="B183" s="2" t="str">
         <v>Item_Name_20006</v>
       </c>
-      <c r="C183" s="1" t="str">
+      <c r="C183" s="2" t="str">
         <v>Dream</v>
       </c>
-      <c r="D183" s="2" t="str">
+      <c r="D183" s="1" t="str">
         <v>梦幻</v>
       </c>
-      <c r="E183" s="1" t="str">
+      <c r="E183" s="2" t="str">
         <v>拖尾道具</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="184">
-      <c r="A184" s="2">
+      <c r="A184" s="1">
         <v>80007</v>
       </c>
-      <c r="B184" s="1" t="str">
+      <c r="B184" s="2" t="str">
         <v>Item_Name_30001</v>
       </c>
-      <c r="C184" s="1" t="str">
+      <c r="C184" s="2" t="str">
         <v>Gentle Senpai</v>
       </c>
-      <c r="D184" s="1" t="str">
+      <c r="D184" s="2" t="str">
         <v>温柔学姐</v>
       </c>
-      <c r="E184" s="2" t="str">
+      <c r="E184" s="1" t="str">
         <v>套装名称</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="185">
-      <c r="A185" s="2">
+      <c r="A185" s="1">
         <v>80008</v>
       </c>
-      <c r="B185" s="1" t="str">
+      <c r="B185" s="2" t="str">
         <v>Item_Name_30002</v>
       </c>
-      <c r="C185" s="1" t="str">
+      <c r="C185" s="2" t="str">
         <v>Discipline Member</v>
       </c>
-      <c r="D185" s="2" t="str">
+      <c r="D185" s="1" t="str">
         <v>风纪委员</v>
       </c>
-      <c r="E185" s="2" t="str">
+      <c r="E185" s="1" t="str">
         <v>套装名称</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="186">
-      <c r="A186" s="2">
+      <c r="A186" s="1">
         <v>80009</v>
       </c>
-      <c r="B186" s="1" t="str">
+      <c r="B186" s="2" t="str">
         <v>Item_Name_30003</v>
       </c>
-      <c r="C186" s="1" t="str">
+      <c r="C186" s="2" t="str">
         <v>Bad Girl</v>
       </c>
-      <c r="D186" s="2" t="str">
+      <c r="D186" s="1" t="str">
         <v>不良少女</v>
       </c>
-      <c r="E186" s="2" t="str">
+      <c r="E186" s="1" t="str">
         <v>套装名称</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="187">
-      <c r="A187" s="2">
+      <c r="A187" s="1">
         <v>80010</v>
       </c>
-      <c r="B187" s="1" t="str">
+      <c r="B187" s="2" t="str">
         <v>Item_Name_30004</v>
       </c>
-      <c r="C187" s="1" t="str">
+      <c r="C187" s="2" t="str">
         <v>Korean Girl</v>
       </c>
-      <c r="D187" s="2" t="str">
+      <c r="D187" s="1" t="str">
         <v>韩式淑女</v>
       </c>
-      <c r="E187" s="2" t="str">
+      <c r="E187" s="1" t="str">
         <v>套装名称</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="188">
-      <c r="A188" s="2">
+      <c r="A188" s="1">
         <v>80011</v>
       </c>
-      <c r="B188" s="1" t="str">
+      <c r="B188" s="2" t="str">
         <v>Item_Name_30005</v>
       </c>
-      <c r="C188" s="1" t="str">
+      <c r="C188" s="2" t="str">
         <v>Cute School Girl</v>
       </c>
-      <c r="D188" s="2" t="str">
+      <c r="D188" s="1" t="str">
         <v>可爱学妹</v>
       </c>
-      <c r="E188" s="2" t="str">
+      <c r="E188" s="1" t="str">
         <v>套装名称</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="189">
-      <c r="A189" s="2">
+      <c r="A189" s="1">
         <v>80012</v>
       </c>
-      <c r="B189" s="1" t="str">
+      <c r="B189" s="2" t="str">
         <v>Item_Name_30006</v>
       </c>
-      <c r="C189" s="1" t="str">
+      <c r="C189" s="2" t="str">
         <v>Fantasy Girl</v>
       </c>
-      <c r="D189" s="2" t="str">
+      <c r="D189" s="1" t="str">
         <v>奇幻少女</v>
       </c>
-      <c r="E189" s="2" t="str">
+      <c r="E189" s="1" t="str">
         <v>套装名称</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="190">
-      <c r="A190" s="2">
+      <c r="A190" s="1">
         <v>80013</v>
       </c>
-      <c r="B190" s="1" t="str">
+      <c r="B190" s="2" t="str">
         <v>Item_Name_30007</v>
       </c>
-      <c r="C190" s="1" t="str">
+      <c r="C190" s="2" t="str">
         <v>Gentle Senior</v>
       </c>
-      <c r="D190" s="2" t="str">
+      <c r="D190" s="1" t="str">
         <v>温柔学长</v>
       </c>
-      <c r="E190" s="2" t="str">
+      <c r="E190" s="1" t="str">
         <v>套装名称</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="191">
-      <c r="A191" s="2">
+      <c r="A191" s="1">
         <v>80014</v>
       </c>
-      <c r="B191" s="1" t="str">
+      <c r="B191" s="2" t="str">
         <v>Item_Name_30008</v>
       </c>
-      <c r="C191" s="1" t="str">
+      <c r="C191" s="2" t="str">
         <v>Bad Boy</v>
       </c>
-      <c r="D191" s="2" t="str">
+      <c r="D191" s="1" t="str">
         <v>不良少年</v>
       </c>
-      <c r="E191" s="2" t="str">
+      <c r="E191" s="1" t="str">
         <v>套装名称</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="192">
-      <c r="A192" s="2">
+      <c r="A192" s="1">
         <v>80015</v>
       </c>
-      <c r="B192" s="1" t="str">
+      <c r="B192" s="2" t="str">
         <v>Item_Name_30009</v>
       </c>
-      <c r="C192" s="1" t="str">
+      <c r="C192" s="2" t="str">
         <v>Cheerleader</v>
       </c>
-      <c r="D192" s="1" t="str">
+      <c r="D192" s="2" t="str">
         <v>啦啦队长</v>
       </c>
-      <c r="E192" s="2" t="str">
+      <c r="E192" s="1" t="str">
         <v>套装名称</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="193">
-      <c r="A193" s="2">
+      <c r="A193" s="1">
         <v>80016</v>
       </c>
-      <c r="B193" s="1" t="str">
+      <c r="B193" s="2" t="str">
         <v>Item_Name_30010</v>
       </c>
-      <c r="C193" s="1" t="str">
+      <c r="C193" s="2" t="str">
         <v>Art Student</v>
       </c>
-      <c r="D193" s="1" t="str">
+      <c r="D193" s="2" t="str">
         <v>艺术生</v>
       </c>
-      <c r="E193" s="2" t="str">
+      <c r="E193" s="1" t="str">
         <v>套装名称</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="194">
-      <c r="A194" s="2">
+      <c r="A194" s="1">
         <v>80017</v>
       </c>
-      <c r="B194" s="1" t="str">
+      <c r="B194" s="2" t="str">
         <v>Item_Name_30011</v>
       </c>
-      <c r="C194" s="1" t="str">
+      <c r="C194" s="2" t="str">
         <v>Anime Girl</v>
       </c>
-      <c r="D194" s="1" t="str">
+      <c r="D194" s="2" t="str">
         <v>二次元少女</v>
       </c>
-      <c r="E194" s="2" t="str">
+      <c r="E194" s="1" t="str">
         <v>套装名称</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="195">
-      <c r="A195" s="2">
+      <c r="A195" s="1">
         <v>80018</v>
       </c>
-      <c r="B195" s="1" t="str">
+      <c r="B195" s="2" t="str">
         <v>Item_Name_30012</v>
       </c>
-      <c r="C195" s="1" t="str">
+      <c r="C195" s="2" t="str">
         <v>English Teacher</v>
       </c>
-      <c r="D195" s="1" t="str">
+      <c r="D195" s="2" t="str">
         <v>英语老师</v>
       </c>
-      <c r="E195" s="2" t="str">
+      <c r="E195" s="1" t="str">
         <v>套装名称</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="196">
-      <c r="A196" s="2">
+      <c r="A196" s="1">
         <v>80019</v>
       </c>
-      <c r="B196" s="1" t="str">
+      <c r="B196" s="2" t="str">
         <v>Item_Name_30013</v>
       </c>
-      <c r="C196" s="1" t="str">
+      <c r="C196" s="2" t="str">
         <v>Justice Boy</v>
       </c>
-      <c r="D196" s="1" t="str">
+      <c r="D196" s="2" t="str">
         <v>正义少年</v>
       </c>
-      <c r="E196" s="2" t="str">
+      <c r="E196" s="1" t="str">
         <v>套装名称</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="197">
-      <c r="A197" s="2">
+      <c r="A197" s="1">
         <v>80020</v>
       </c>
-      <c r="B197" s="1" t="str">
+      <c r="B197" s="2" t="str">
         <v>Item_Name_30014</v>
       </c>
-      <c r="C197" s="1" t="str">
+      <c r="C197" s="2" t="str">
         <v>Trendy Girl</v>
       </c>
-      <c r="D197" s="1" t="str">
+      <c r="D197" s="2" t="str">
         <v>潮流少女</v>
       </c>
-      <c r="E197" s="2" t="str">
+      <c r="E197" s="1" t="str">
         <v>套装名称</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="198">
-      <c r="A198" s="2">
+      <c r="A198" s="1">
         <v>80021</v>
       </c>
-      <c r="B198" s="1" t="str">
+      <c r="B198" s="2" t="str">
         <v>Item_Name_30015</v>
       </c>
-      <c r="C198" s="1" t="str">
+      <c r="C198" s="2" t="str">
         <v>Student President</v>
       </c>
-      <c r="D198" s="2" t="str">
+      <c r="D198" s="1" t="str">
         <v>学生会长</v>
       </c>
-      <c r="E198" s="2" t="str">
+      <c r="E198" s="1" t="str">
         <v>套装名称</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="199">
-      <c r="A199" s="2">
+      <c r="A199" s="1">
         <v>80022</v>
       </c>
-      <c r="B199" s="1" t="str">
+      <c r="B199" s="2" t="str">
         <v>Item_Name_30016</v>
       </c>
-      <c r="C199" s="1" t="str">
+      <c r="C199" s="2" t="str">
         <v>Female Teacher</v>
       </c>
-      <c r="D199" s="2" t="str">
+      <c r="D199" s="1" t="str">
         <v>女老师</v>
       </c>
-      <c r="E199" s="2" t="str">
+      <c r="E199" s="1" t="str">
         <v>套装名称</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="200">
-      <c r="A200" s="2">
+      <c r="A200" s="1">
         <v>80023</v>
       </c>
-      <c r="B200" s="1" t="str">
+      <c r="B200" s="2" t="str">
         <v>Item_Name_30017</v>
       </c>
-      <c r="C200" s="1" t="str">
+      <c r="C200" s="2" t="str">
         <v>Class Monitor</v>
       </c>
-      <c r="D200" s="2" t="str">
+      <c r="D200" s="1" t="str">
         <v>班主任</v>
       </c>
-      <c r="E200" s="2" t="str">
+      <c r="E200" s="1" t="str">
         <v>套装名称</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="201">
-      <c r="A201" s="2">
+      <c r="A201" s="1">
         <v>80024</v>
       </c>
-      <c r="B201" s="1" t="str">
+      <c r="B201" s="2" t="str">
         <v>Item_Name_30018</v>
       </c>
-      <c r="C201" s="1" t="str">
+      <c r="C201" s="2" t="str">
         <v>Sea Girl</v>
       </c>
-      <c r="D201" s="2" t="str">
+      <c r="D201" s="1" t="str">
         <v>海边姐姐</v>
       </c>
-      <c r="E201" s="2" t="str">
+      <c r="E201" s="1" t="str">
         <v>套装名称</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="202">
-      <c r="A202" s="2">
+      <c r="A202" s="1">
         <v>80025</v>
       </c>
-      <c r="B202" s="1" t="str">
+      <c r="B202" s="2" t="str">
         <v>Item_Name_30019</v>
       </c>
-      <c r="C202" s="1" t="str">
+      <c r="C202" s="2" t="str">
         <v>Girl Next Door</v>
       </c>
-      <c r="D202" s="2" t="str">
+      <c r="D202" s="1" t="str">
         <v>邻家妹妹</v>
       </c>
-      <c r="E202" s="2" t="str">
+      <c r="E202" s="1" t="str">
         <v>套装名称</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="203">
-      <c r="A203" s="2">
+      <c r="A203" s="1">
         <v>80026</v>
       </c>
-      <c r="B203" s="1" t="str">
+      <c r="B203" s="2" t="str">
         <v>Item_Name_30020</v>
       </c>
-      <c r="C203" s="1" t="str">
+      <c r="C203" s="2" t="str">
         <v>Fitness Coach</v>
       </c>
-      <c r="D203" s="2" t="str">
+      <c r="D203" s="1" t="str">
         <v>健身教练</v>
       </c>
-      <c r="E203" s="2" t="str">
+      <c r="E203" s="1" t="str">
         <v>套装名称</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="204">
-      <c r="A204" s="2">
+      <c r="A204" s="1">
         <v>80027</v>
       </c>
-      <c r="B204" s="1" t="str">
+      <c r="B204" s="2" t="str">
         <v>Item_Name_30021</v>
       </c>
-      <c r="C204" s="1" t="str">
+      <c r="C204" s="2" t="str">
         <v>Elegant Girl</v>
       </c>
-      <c r="D204" s="2" t="str">
+      <c r="D204" s="1" t="str">
         <v>优雅少女</v>
       </c>
-      <c r="E204" s="2" t="str">
+      <c r="E204" s="1" t="str">
         <v>套装名称</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="205">
-      <c r="A205" s="2">
+      <c r="A205" s="1">
         <v>80028</v>
       </c>
-      <c r="B205" s="1" t="str">
+      <c r="B205" s="2" t="str">
         <v>Item_Name_30022</v>
       </c>
-      <c r="C205" s="1" t="str">
+      <c r="C205" s="2" t="str">
         <v>The Adventurer</v>
       </c>
-      <c r="D205" s="2" t="str">
+      <c r="D205" s="1" t="str">
         <v>探险家</v>
       </c>
-      <c r="E205" s="2" t="str">
+      <c r="E205" s="1" t="str">
         <v>套装名称</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="206">
-      <c r="A206" s="2">
+      <c r="A206" s="1">
         <v>80029</v>
       </c>
-      <c r="B206" s="1" t="str">
+      <c r="B206" s="2" t="str">
         <v>Item_Name_30023</v>
       </c>
-      <c r="C206" s="1" t="str">
+      <c r="C206" s="2" t="str">
         <v>Chinese Student</v>
       </c>
-      <c r="D206" s="2" t="str">
+      <c r="D206" s="1" t="str">
         <v>民国学生</v>
       </c>
-      <c r="E206" s="2" t="str">
+      <c r="E206" s="1" t="str">
         <v>套装名称</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="207">
-      <c r="A207" s="2">
+      <c r="A207" s="1">
         <v>80030</v>
       </c>
-      <c r="B207" s="1" t="str">
+      <c r="B207" s="2" t="str">
         <v>Item_Name_30024</v>
       </c>
-      <c r="C207" s="1" t="str">
+      <c r="C207" s="2" t="str">
         <v>Cocoa Girl</v>
       </c>
-      <c r="D207" s="2" t="str">
+      <c r="D207" s="1" t="str">
         <v>可可少女</v>
       </c>
-      <c r="E207" s="2" t="str">
+      <c r="E207" s="1" t="str">
         <v>套装名称</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="208">
-      <c r="A208" s="2">
+      <c r="A208" s="1">
         <v>80031</v>
       </c>
-      <c r="B208" s="1" t="str">
+      <c r="B208" s="2" t="str">
         <v>Item_Name_30025</v>
       </c>
-      <c r="C208" s="1" t="str">
+      <c r="C208" s="2" t="str">
         <v>Cat Shopkeeper</v>
       </c>
-      <c r="D208" s="2" t="str">
+      <c r="D208" s="1" t="str">
         <v>猫猫店员</v>
       </c>
-      <c r="E208" s="2" t="str">
+      <c r="E208" s="1" t="str">
         <v>套装名称</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="209">
-      <c r="A209" s="2">
+      <c r="A209" s="1">
         <v>80032</v>
       </c>
-      <c r="B209" s="1" t="str">
+      <c r="B209" s="2" t="str">
         <v>Item_Name_30026</v>
       </c>
-      <c r="C209" s="1" t="str">
+      <c r="C209" s="2" t="str">
         <v>Sweet Maid</v>
       </c>
-      <c r="D209" s="2" t="str">
+      <c r="D209" s="1" t="str">
         <v>女仆甜心</v>
       </c>
-      <c r="E209" s="2" t="str">
+      <c r="E209" s="1" t="str">
         <v>套装名称</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="210">
-      <c r="A210" s="2">
+      <c r="A210" s="1">
         <v>80033</v>
       </c>
-      <c r="B210" s="1" t="str">
+      <c r="B210" s="2" t="str">
         <v>Item_Name_30027</v>
       </c>
-      <c r="C210" s="1" t="str">
+      <c r="C210" s="2" t="str">
         <v>Cat-eared Maid</v>
       </c>
-      <c r="D210" s="2" t="str">
+      <c r="D210" s="1" t="str">
         <v>猫耳女仆</v>
       </c>
-      <c r="E210" s="2" t="str">
+      <c r="E210" s="1" t="str">
         <v>套装名称</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="211">
-      <c r="A211" s="2">
+      <c r="A211" s="1">
         <v>80034</v>
       </c>
-      <c r="B211" s="1" t="str">
+      <c r="B211" s="2" t="str">
         <v>Item_Name_30028</v>
       </c>
-      <c r="C211" s="1" t="str">
+      <c r="C211" s="2" t="str">
         <v>Girl Idol</v>
       </c>
-      <c r="D211" s="2" t="str">
+      <c r="D211" s="1" t="str">
         <v>少女偶像</v>
       </c>
-      <c r="E211" s="2" t="str">
+      <c r="E211" s="1" t="str">
         <v>套装名称</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="212">
-      <c r="A212" s="2">
+      <c r="A212" s="1">
         <v>80035</v>
       </c>
-      <c r="B212" s="1" t="str">
+      <c r="B212" s="2" t="str">
         <v>Item_Name_30029</v>
       </c>
-      <c r="C212" s="1" t="str">
+      <c r="C212" s="2" t="str">
         <v>Christmas Girl</v>
       </c>
-      <c r="D212" s="2" t="str">
+      <c r="D212" s="1" t="str">
         <v>圣诞少女</v>
       </c>
-      <c r="E212" s="2" t="str">
+      <c r="E212" s="1" t="str">
         <v>套装名称</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="213">
-      <c r="A213" s="2">
+      <c r="A213" s="1">
         <v>80036</v>
       </c>
-      <c r="B213" s="1" t="str">
+      <c r="B213" s="2" t="str">
         <v>Item_Name_20007</v>
       </c>
-      <c r="C213" s="1" t="str">
+      <c r="C213" s="2" t="str">
         <v>Flame</v>
       </c>
-      <c r="D213" s="2" t="str">
+      <c r="D213" s="1" t="str">
         <v>火焰</v>
       </c>
-      <c r="E213" s="2" t="str">
+      <c r="E213" s="1" t="str">
         <v>拖尾道具</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="214">
-      <c r="A214" s="2">
+      <c r="A214" s="1">
         <v>80037</v>
       </c>
-      <c r="B214" s="1" t="str">
+      <c r="B214" s="2" t="str">
         <v>Item_Name_20008</v>
       </c>
-      <c r="C214" s="1" t="str">
+      <c r="C214" s="2" t="str">
         <v>Witch</v>
       </c>
-      <c r="D214" s="2" t="str">
+      <c r="D214" s="1" t="str">
         <v>女巫</v>
       </c>
-      <c r="E214" s="2" t="str">
+      <c r="E214" s="1" t="str">
         <v>拖尾道具</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="215">
-      <c r="A215" s="2">
+      <c r="A215" s="1">
         <v>80038</v>
       </c>
-      <c r="B215" s="1" t="str">
+      <c r="B215" s="2" t="str">
         <v>Item_Name_20009</v>
       </c>
-      <c r="C215" s="1" t="str">
+      <c r="C215" s="2" t="str">
         <v>Knight</v>
       </c>
-      <c r="D215" s="2" t="str">
+      <c r="D215" s="1" t="str">
         <v>骑士</v>
       </c>
-      <c r="E215" s="2" t="str">
+      <c r="E215" s="1" t="str">
         <v>拖尾道具</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="216">
-      <c r="A216" s="2">
+      <c r="A216" s="1">
         <v>80039</v>
       </c>
-      <c r="B216" s="1" t="str">
+      <c r="B216" s="2" t="str">
         <v>Item_Name_20010</v>
       </c>
-      <c r="C216" s="1" t="str">
+      <c r="C216" s="2" t="str">
         <v>Demon</v>
       </c>
-      <c r="D216" s="2" t="str">
+      <c r="D216" s="1" t="str">
         <v>恶魔</v>
       </c>
-      <c r="E216" s="2" t="str">
+      <c r="E216" s="1" t="str">
         <v>拖尾道具</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="217">
-      <c r="A217" s="2">
+      <c r="A217" s="1">
         <v>80040</v>
       </c>
-      <c r="B217" s="1" t="str">
+      <c r="B217" s="2" t="str">
         <v>Item_Name_20011</v>
       </c>
-      <c r="C217" s="1" t="str">
+      <c r="C217" s="2" t="str">
         <v>Devil</v>
       </c>
-      <c r="D217" s="2" t="str">
+      <c r="D217" s="1" t="str">
         <v>魔鬼</v>
       </c>
-      <c r="E217" s="2" t="str">
+      <c r="E217" s="1" t="str">
         <v>拖尾道具</v>
       </c>
     </row>
@@ -4608,13 +4415,13 @@
       <c r="A218" s="3">
         <v>90001</v>
       </c>
-      <c r="B218" s="19" t="str">
+      <c r="B218" s="10" t="str">
         <v>Chat_chat_1</v>
       </c>
       <c r="C218" s="3" t="str">
         <v>I am {1}!</v>
       </c>
-      <c r="D218" s="19" t="str">
+      <c r="D218" s="10" t="str">
         <v>我是{1}~</v>
       </c>
       <c r="E218" s="3"/>
@@ -4623,13 +4430,13 @@
       <c r="A219" s="3">
         <v>90002</v>
       </c>
-      <c r="B219" s="19" t="str">
+      <c r="B219" s="10" t="str">
         <v>Chat_chat_2</v>
       </c>
       <c r="C219" s="3" t="str">
         <v>Who is the murderer?</v>
       </c>
-      <c r="D219" s="20" t="str">
+      <c r="D219" s="9" t="str">
         <v>凶手是谁？</v>
       </c>
       <c r="E219" s="3" t="str"/>
@@ -4638,13 +4445,13 @@
       <c r="A220" s="3">
         <v>90003</v>
       </c>
-      <c r="B220" s="19" t="str">
+      <c r="B220" s="10" t="str">
         <v>Chat_chat_3</v>
       </c>
       <c r="C220" s="3" t="str">
         <v>Help!</v>
       </c>
-      <c r="D220" s="20" t="str">
+      <c r="D220" s="9" t="str">
         <v>救命！</v>
       </c>
       <c r="E220" s="3" t="str"/>
@@ -4653,13 +4460,13 @@
       <c r="A221" s="3">
         <v>90004</v>
       </c>
-      <c r="B221" s="19" t="str">
+      <c r="B221" s="10" t="str">
         <v>Chat_chat_4</v>
       </c>
       <c r="C221" s="3" t="str">
         <v>Thank you!</v>
       </c>
-      <c r="D221" s="20" t="str">
+      <c r="D221" s="9" t="str">
         <v>谢谢你！</v>
       </c>
       <c r="E221" s="3" t="str"/>
@@ -4668,13 +4475,13 @@
       <c r="A222" s="3">
         <v>90005</v>
       </c>
-      <c r="B222" s="19" t="str">
+      <c r="B222" s="10" t="str">
         <v>Chat_chat_5</v>
       </c>
       <c r="C222" s="3" t="str">
         <v>Hello!</v>
       </c>
-      <c r="D222" s="11" t="str">
+      <c r="D222" s="4" t="str">
         <v>你好！</v>
       </c>
       <c r="E222" s="3" t="str"/>
@@ -4683,13 +4490,13 @@
       <c r="A223" s="3">
         <v>90006</v>
       </c>
-      <c r="B223" s="19" t="str">
+      <c r="B223" s="10" t="str">
         <v>Chat_chat_6</v>
       </c>
       <c r="C223" s="3" t="str">
         <v>Don't kill me :(((</v>
       </c>
-      <c r="D223" s="20" t="str">
+      <c r="D223" s="9" t="str">
         <v>别刀我QAQ</v>
       </c>
       <c r="E223" s="3" t="str">
@@ -4700,13 +4507,13 @@
       <c r="A224" s="3">
         <v>90007</v>
       </c>
-      <c r="B224" s="19" t="str">
+      <c r="B224" s="10" t="str">
         <v>Chat_chat_7</v>
       </c>
       <c r="C224" s="3" t="str">
         <v>Stay away from me!</v>
       </c>
-      <c r="D224" s="20" t="str">
+      <c r="D224" s="9" t="str">
         <v>退！退！退！</v>
       </c>
       <c r="E224" s="3"/>
@@ -4715,13 +4522,13 @@
       <c r="A225" s="3">
         <v>90008</v>
       </c>
-      <c r="B225" s="19" t="str">
+      <c r="B225" s="10" t="str">
         <v>Chat_chat_8</v>
       </c>
       <c r="C225" s="3" t="str">
         <v>Perfect!</v>
       </c>
-      <c r="D225" s="20" t="str">
+      <c r="D225" s="9" t="str">
         <v>满分操作~</v>
       </c>
       <c r="E225" s="3" t="str"/>
@@ -4730,13 +4537,13 @@
       <c r="A226" s="3">
         <v>90009</v>
       </c>
-      <c r="B226" s="19" t="str">
+      <c r="B226" s="10" t="str">
         <v>Chat_chat_9</v>
       </c>
       <c r="C226" s="3" t="str">
         <v>Show time!</v>
       </c>
-      <c r="D226" s="20" t="str">
+      <c r="D226" s="9" t="str">
         <v>我要开始表演了~</v>
       </c>
       <c r="E226" s="3" t="str"/>
@@ -4745,7 +4552,7 @@
       <c r="A227" s="3">
         <v>90010</v>
       </c>
-      <c r="B227" s="4" t="str">
+      <c r="B227" s="22" t="str">
         <v>Text_Content_20042</v>
       </c>
       <c r="C227" s="3" t="str">
@@ -4760,7 +4567,7 @@
       <c r="A228" s="3">
         <v>90011</v>
       </c>
-      <c r="B228" s="4" t="str">
+      <c r="B228" s="22" t="str">
         <v>Text_Content_20043</v>
       </c>
       <c r="C228" s="3" t="str">
@@ -4775,7 +4582,7 @@
       <c r="A229" s="3">
         <v>90012</v>
       </c>
-      <c r="B229" s="4" t="str">
+      <c r="B229" s="22" t="str">
         <v>Text_Content_20044</v>
       </c>
       <c r="C229" s="3" t="str">
@@ -4790,7 +4597,7 @@
       <c r="A230" s="3">
         <v>90013</v>
       </c>
-      <c r="B230" s="4" t="str">
+      <c r="B230" s="22" t="str">
         <v>Text_Content_20036</v>
       </c>
       <c r="C230" s="3" t="str">
@@ -4811,7 +4618,7 @@
       <c r="A231" s="3">
         <v>90014</v>
       </c>
-      <c r="B231" s="4" t="str">
+      <c r="B231" s="22" t="str">
         <v>Text_Content_20037</v>
       </c>
       <c r="C231" s="3" t="str">
@@ -4832,7 +4639,7 @@
       <c r="A232" s="3">
         <v>90015</v>
       </c>
-      <c r="B232" s="4" t="str">
+      <c r="B232" s="22" t="str">
         <v>Text_Content_20038</v>
       </c>
       <c r="C232" s="3" t="str">
@@ -4853,7 +4660,7 @@
       <c r="A233" s="3">
         <v>90016</v>
       </c>
-      <c r="B233" s="4" t="str">
+      <c r="B233" s="22" t="str">
         <v>Text_Content_20039</v>
       </c>
       <c r="C233" s="3" t="str">
@@ -4868,7 +4675,7 @@
       <c r="A234" s="3">
         <v>90017</v>
       </c>
-      <c r="B234" s="4" t="str">
+      <c r="B234" s="22" t="str">
         <v>Text_Content_20040</v>
       </c>
       <c r="C234" s="3" t="str">
@@ -4883,7 +4690,7 @@
       <c r="A235" s="3">
         <v>90018</v>
       </c>
-      <c r="B235" s="4" t="str">
+      <c r="B235" s="22" t="str">
         <v>Text_Content_20041</v>
       </c>
       <c r="C235" s="3" t="str">
@@ -4898,13 +4705,13 @@
       <c r="A236" s="3">
         <v>90019</v>
       </c>
-      <c r="B236" s="11" t="str">
+      <c r="B236" s="4" t="str">
         <v>Tips_Content_20009</v>
       </c>
       <c r="C236" s="3" t="str">
         <v>The murderer defeated you.</v>
       </c>
-      <c r="D236" s="31" t="str">
+      <c r="D236" s="33" t="str">
         <v>凶手淘汰了你</v>
       </c>
       <c r="E236" s="3" t="str"/>
@@ -4913,13 +4720,13 @@
       <c r="A237" s="3">
         <v>90020</v>
       </c>
-      <c r="B237" s="11" t="str">
+      <c r="B237" s="4" t="str">
         <v>Tips_Content_20010</v>
       </c>
       <c r="C237" s="3" t="str">
         <v>Wrong target, you're eliminated.</v>
       </c>
-      <c r="D237" s="31" t="str">
+      <c r="D237" s="33" t="str">
         <v>目标错误，你被淘汰了</v>
       </c>
       <c r="E237" s="3" t="str"/>
@@ -4928,13 +4735,13 @@
       <c r="A238" s="3">
         <v>90021</v>
       </c>
-      <c r="B238" s="11" t="str">
+      <c r="B238" s="4" t="str">
         <v>Tips_Content_20011</v>
       </c>
       <c r="C238" s="3" t="str">
         <v>You have been eliminated by the detective.</v>
       </c>
-      <c r="D238" s="31" t="str">
+      <c r="D238" s="33" t="str">
         <v>已被正义的警探消灭</v>
       </c>
       <c r="E238" s="3" t="str"/>
@@ -4943,7 +4750,7 @@
       <c r="A239" s="3">
         <v>90022</v>
       </c>
-      <c r="B239" s="11" t="str">
+      <c r="B239" s="4" t="str">
         <v>Text_Content_12027</v>
       </c>
       <c r="C239" s="3" t="str">
@@ -4958,7 +4765,7 @@
       <c r="A240" s="3">
         <v>90023</v>
       </c>
-      <c r="B240" s="11" t="str">
+      <c r="B240" s="4" t="str">
         <v>Text_Content_12028</v>
       </c>
       <c r="C240" s="3" t="str">
@@ -4973,7 +4780,7 @@
       <c r="A241" s="3">
         <v>90024</v>
       </c>
-      <c r="B241" s="11" t="str">
+      <c r="B241" s="4" t="str">
         <v>Text_Content_12029</v>
       </c>
       <c r="C241" s="3" t="str">
@@ -4990,7 +4797,7 @@
       <c r="A242" s="3">
         <v>90025</v>
       </c>
-      <c r="B242" s="11" t="str">
+      <c r="B242" s="4" t="str">
         <v>Text_Content_12030</v>
       </c>
       <c r="C242" s="3" t="str">
@@ -5005,7 +4812,7 @@
       <c r="A243" s="3">
         <v>90026</v>
       </c>
-      <c r="B243" s="11" t="str">
+      <c r="B243" s="4" t="str">
         <v>Text_Content_12031</v>
       </c>
       <c r="C243" s="3" t="str">
@@ -5020,7 +4827,7 @@
       <c r="A244" s="3">
         <v>90027</v>
       </c>
-      <c r="B244" s="11" t="str">
+      <c r="B244" s="4" t="str">
         <v>Text_Content_12032</v>
       </c>
       <c r="C244" s="3" t="str">
@@ -5035,7 +4842,7 @@
       <c r="A245" s="3">
         <v>90028</v>
       </c>
-      <c r="B245" s="11" t="str">
+      <c r="B245" s="4" t="str">
         <v>Text_Content_12033</v>
       </c>
       <c r="C245" s="3" t="str">
@@ -5052,7 +4859,7 @@
       <c r="A246" s="3">
         <v>90029</v>
       </c>
-      <c r="B246" s="11" t="str">
+      <c r="B246" s="4" t="str">
         <v>Text_Content_12034</v>
       </c>
       <c r="C246" s="3" t="str">
@@ -5067,7 +4874,7 @@
       <c r="A247" s="3">
         <v>90030</v>
       </c>
-      <c r="B247" s="11" t="str">
+      <c r="B247" s="4" t="str">
         <v>Tips_Content_10011</v>
       </c>
       <c r="C247" s="3" t="str">
@@ -5082,13 +4889,13 @@
       <c r="A248" s="3">
         <v>90031</v>
       </c>
-      <c r="B248" s="11" t="str">
+      <c r="B248" s="4" t="str">
         <v>Tips_Content_10012</v>
       </c>
       <c r="C248" s="3" t="str">
         <v>Purchase failed</v>
       </c>
-      <c r="D248" s="1" t="str">
+      <c r="D248" s="2" t="str">
         <v>货币不足，再攒攒吧~</v>
       </c>
       <c r="E248" s="3" t="str"/>
@@ -5196,7 +5003,7 @@
       <c r="A255" s="3">
         <v>90038</v>
       </c>
-      <c r="B255" s="11" t="str">
+      <c r="B255" s="4" t="str">
         <v>Shop_Name_40001</v>
       </c>
       <c r="C255" s="3" t="str">
@@ -5213,7 +5020,7 @@
       <c r="A256" s="3">
         <v>90039</v>
       </c>
-      <c r="B256" s="11" t="str">
+      <c r="B256" s="4" t="str">
         <v>Shop_Name_40002</v>
       </c>
       <c r="C256" s="3" t="str">
@@ -5230,7 +5037,7 @@
       <c r="A257" s="3">
         <v>90040</v>
       </c>
-      <c r="B257" s="11" t="str">
+      <c r="B257" s="4" t="str">
         <v>Shop_Name_40003</v>
       </c>
       <c r="C257" s="3" t="str">
@@ -5247,7 +5054,7 @@
       <c r="A258" s="3">
         <v>90041</v>
       </c>
-      <c r="B258" s="11" t="str">
+      <c r="B258" s="4" t="str">
         <v>Shop_Name_40004</v>
       </c>
       <c r="C258" s="3" t="str">
@@ -5264,7 +5071,7 @@
       <c r="A259" s="3">
         <v>90042</v>
       </c>
-      <c r="B259" s="11" t="str">
+      <c r="B259" s="4" t="str">
         <v>Shop_Name_40005</v>
       </c>
       <c r="C259" s="3" t="str">
@@ -5281,7 +5088,7 @@
       <c r="A260" s="3">
         <v>90043</v>
       </c>
-      <c r="B260" s="11" t="str">
+      <c r="B260" s="4" t="str">
         <v>Shop_Name_40006</v>
       </c>
       <c r="C260" s="3" t="str">
@@ -5298,7 +5105,7 @@
       <c r="A261" s="3">
         <v>90044</v>
       </c>
-      <c r="B261" s="11" t="str">
+      <c r="B261" s="4" t="str">
         <v>Shop_Name_40007</v>
       </c>
       <c r="C261" s="3" t="str">
@@ -5315,7 +5122,7 @@
       <c r="A262" s="3">
         <v>90045</v>
       </c>
-      <c r="B262" s="11" t="str">
+      <c r="B262" s="4" t="str">
         <v>Shop_Name_40008</v>
       </c>
       <c r="C262" s="3" t="str">
@@ -5330,7 +5137,7 @@
       <c r="A263" s="3">
         <v>90046</v>
       </c>
-      <c r="B263" s="11" t="str">
+      <c r="B263" s="4" t="str">
         <v>Shop_Name_40009</v>
       </c>
       <c r="C263" s="3" t="str">
@@ -5342,10 +5149,10 @@
       <c r="E263" s="3" t="str"/>
     </row>
     <row customHeight="true" ht="23" r="264">
-      <c r="A264" s="28">
+      <c r="A264" s="29">
         <v>90047</v>
       </c>
-      <c r="B264" s="27" t="str">
+      <c r="B264" s="30" t="str">
         <v>Text_Content_10005</v>
       </c>
       <c r="C264" s="3" t="str">
@@ -5356,7 +5163,7 @@
 4. Adjusted the lobby and level scenes to improve performance.
 5. New reset button, try to tap it when the camera stucks!</v>
       </c>
-      <c r="D264" s="28" t="str">
+      <c r="D264" s="29" t="str">
         <v>本次更新：
 1.新增【马桶人VS监控人】系列挂件，欢迎大家去商店选购~
 2.新增【能力商店】，开放杀手局内特殊能力的配置
@@ -5364,12 +5171,12 @@
 4.调整大厅及关卡场景，提升性能
 5.新增还原按钮，镜头卡住的时候点一下试试吧</v>
       </c>
-      <c r="E264" s="28" t="str">
+      <c r="E264" s="29" t="str">
         <v>马桶人是外网热梗，就叫skibidi toilet</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="265">
-      <c r="A265" s="23">
+      <c r="A265" s="28">
         <v>90048</v>
       </c>
       <c r="B265" s="35" t="str">
@@ -5378,878 +5185,878 @@
       <c r="C265" s="3" t="str">
         <v>A player fails to enter the scene, the game will restart.</v>
       </c>
-      <c r="D265" s="23" t="str">
+      <c r="D265" s="28" t="str">
         <v>有玩家进入场景失败，对局将重新开始</v>
       </c>
-      <c r="E265" s="23" t="str"/>
+      <c r="E265" s="28" t="str"/>
     </row>
     <row customHeight="true" ht="23" r="266">
-      <c r="A266" s="23">
+      <c r="A266" s="28">
         <v>90049</v>
       </c>
-      <c r="B266" s="23" t="str">
+      <c r="B266" s="28" t="str">
         <v>Text_Content_10006</v>
       </c>
-      <c r="C266" s="1" t="str">
+      <c r="C266" s="2" t="str">
         <v>Jump</v>
       </c>
-      <c r="D266" s="23" t="str">
+      <c r="D266" s="28" t="str">
         <v>跳转</v>
       </c>
-      <c r="E266" s="23" t="str"/>
+      <c r="E266" s="28" t="str"/>
     </row>
     <row customHeight="true" ht="23" r="267">
-      <c r="A267" s="23">
+      <c r="A267" s="28">
         <v>90050</v>
       </c>
-      <c r="B267" s="8" t="str">
+      <c r="B267" s="14" t="str">
         <v>Text_Content_20045</v>
       </c>
-      <c r="C267" s="1" t="str">
+      <c r="C267" s="2" t="str">
         <v>Pull out gun</v>
       </c>
-      <c r="D267" s="2" t="str">
+      <c r="D267" s="1" t="str">
         <v>掏出手枪</v>
       </c>
-      <c r="E267" s="23"/>
+      <c r="E267" s="28"/>
     </row>
     <row customHeight="true" ht="23" r="268">
-      <c r="A268" s="23">
+      <c r="A268" s="28">
         <v>90051</v>
       </c>
-      <c r="B268" s="8" t="str">
+      <c r="B268" s="14" t="str">
         <v>Text_Content_20046</v>
       </c>
-      <c r="C268" s="1" t="str">
+      <c r="C268" s="2" t="str">
         <v>Put away gun</v>
       </c>
-      <c r="D268" s="2" t="str">
+      <c r="D268" s="1" t="str">
         <v>收起手枪</v>
       </c>
-      <c r="E268" s="23"/>
+      <c r="E268" s="28"/>
     </row>
     <row customHeight="true" ht="23" r="269">
-      <c r="A269" s="23">
+      <c r="A269" s="28">
         <v>90052</v>
       </c>
-      <c r="B269" s="8" t="str">
+      <c r="B269" s="14" t="str">
         <v>Text_Content_20047</v>
       </c>
-      <c r="C269" s="1" t="str">
+      <c r="C269" s="2" t="str">
         <v>Aim Sign</v>
       </c>
-      <c r="D269" s="2" t="str">
+      <c r="D269" s="1" t="str">
         <v>准星图标</v>
       </c>
-      <c r="E269" s="23"/>
+      <c r="E269" s="28"/>
     </row>
     <row customHeight="true" ht="23" r="270">
-      <c r="A270" s="23">
+      <c r="A270" s="28">
         <v>90053</v>
       </c>
-      <c r="B270" s="8" t="str">
+      <c r="B270" s="14" t="str">
         <v>Text_Content_20048</v>
       </c>
-      <c r="C270" s="1" t="str">
+      <c r="C270" s="2" t="str">
         <v>Melee mode</v>
       </c>
-      <c r="D270" s="2" t="str">
+      <c r="D270" s="1" t="str">
         <v>掏出近战匕首</v>
       </c>
-      <c r="E270" s="23"/>
+      <c r="E270" s="28"/>
     </row>
     <row customHeight="true" ht="23" r="271">
-      <c r="A271" s="23">
+      <c r="A271" s="28">
         <v>90054</v>
       </c>
-      <c r="B271" s="8" t="str">
+      <c r="B271" s="14" t="str">
         <v>Text_Content_20049</v>
       </c>
-      <c r="C271" s="1" t="str">
+      <c r="C271" s="2" t="str">
         <v>Throwing mode</v>
       </c>
-      <c r="D271" s="2" t="str">
+      <c r="D271" s="1" t="str">
         <v>掏出远程飞刀</v>
       </c>
-      <c r="E271" s="23"/>
+      <c r="E271" s="28"/>
     </row>
     <row customHeight="true" ht="23" r="272">
-      <c r="A272" s="23">
+      <c r="A272" s="28">
         <v>90055</v>
       </c>
-      <c r="B272" s="8" t="str">
+      <c r="B272" s="14" t="str">
         <v>Text_Content_20050</v>
       </c>
-      <c r="C272" s="1" t="str">
+      <c r="C272" s="2" t="str">
         <v>Put away knife</v>
       </c>
-      <c r="D272" s="2" t="str">
+      <c r="D272" s="1" t="str">
         <v>收起武器</v>
       </c>
-      <c r="E272" s="23"/>
+      <c r="E272" s="28"/>
     </row>
     <row customHeight="true" ht="23" r="273">
-      <c r="A273" s="23">
+      <c r="A273" s="28">
         <v>90056</v>
       </c>
-      <c r="B273" s="8" t="str">
+      <c r="B273" s="14" t="str">
         <v>Text_Content_20051</v>
       </c>
-      <c r="C273" s="2" t="str">
+      <c r="C273" s="1" t="str">
         <v>A</v>
       </c>
-      <c r="D273" s="1" t="str">
+      <c r="D273" s="2" t="str">
         <v>暂无获取途径</v>
       </c>
-      <c r="E273" s="10"/>
+      <c r="E273" s="12"/>
     </row>
     <row customHeight="true" ht="23" r="274">
-      <c r="A274" s="29">
+      <c r="A274" s="20">
         <v>90057</v>
       </c>
-      <c r="B274" s="29" t="str">
+      <c r="B274" s="20" t="str">
         <v>Lottery_Name_10003</v>
       </c>
-      <c r="C274" s="30" t="str">
+      <c r="C274" s="21" t="str">
         <v>Sci-Fi Weapon Box</v>
       </c>
-      <c r="D274" s="30" t="str">
+      <c r="D274" s="21" t="str">
         <v>科幻武器箱</v>
       </c>
-      <c r="E274" s="29"/>
+      <c r="E274" s="20"/>
     </row>
     <row customHeight="true" ht="23" r="275">
-      <c r="A275" s="29">
+      <c r="A275" s="20">
         <v>90058</v>
       </c>
-      <c r="B275" s="29" t="str">
+      <c r="B275" s="20" t="str">
         <v>Lottery_Name_10004</v>
       </c>
-      <c r="C275" s="30" t="str">
+      <c r="C275" s="21" t="str">
         <v>Myth Weapon Box</v>
       </c>
-      <c r="D275" s="30" t="str">
+      <c r="D275" s="21" t="str">
         <v>神话武器箱</v>
       </c>
-      <c r="E275" s="29"/>
+      <c r="E275" s="20"/>
     </row>
     <row customHeight="true" ht="23" r="276">
-      <c r="A276" s="1">
+      <c r="A276" s="2">
         <v>90059</v>
       </c>
-      <c r="B276" s="21" t="str">
+      <c r="B276" s="15" t="str">
         <v>Weapon_WeaponName_20004</v>
       </c>
-      <c r="C276" s="2" t="str">
+      <c r="C276" s="1" t="str">
         <v>Gun of Singularity</v>
       </c>
-      <c r="D276" s="36" t="str">
+      <c r="D276" s="34" t="str">
         <v>奇点之枪</v>
       </c>
-      <c r="E276" s="10"/>
+      <c r="E276" s="12"/>
     </row>
     <row customHeight="true" ht="23" r="277">
-      <c r="A277" s="1">
+      <c r="A277" s="2">
         <v>90060</v>
       </c>
-      <c r="B277" s="21" t="str">
+      <c r="B277" s="15" t="str">
         <v>Weapon_WeaponName_10023</v>
       </c>
-      <c r="C277" s="1" t="str">
+      <c r="C277" s="2" t="str">
         <v>Staff of Imaginary</v>
       </c>
-      <c r="D277" s="33" t="str">
+      <c r="D277" s="37" t="str">
         <v>虚数之杖</v>
       </c>
-      <c r="E277" s="10"/>
+      <c r="E277" s="12"/>
     </row>
     <row customHeight="true" ht="23" r="278">
-      <c r="A278" s="1">
+      <c r="A278" s="2">
         <v>90061</v>
       </c>
-      <c r="B278" s="21" t="str">
+      <c r="B278" s="15" t="str">
         <v>Weapon_WeaponName_10024</v>
       </c>
-      <c r="C278" s="1" t="str">
+      <c r="C278" s="2" t="str">
         <v>Spectral Spear</v>
       </c>
-      <c r="D278" s="22" t="str">
+      <c r="D278" s="16" t="str">
         <v>光谱矛</v>
       </c>
-      <c r="E278" s="10"/>
+      <c r="E278" s="12"/>
     </row>
     <row customHeight="true" ht="23" r="279">
-      <c r="A279" s="1">
+      <c r="A279" s="2">
         <v>90062</v>
       </c>
-      <c r="B279" s="21" t="str">
+      <c r="B279" s="15" t="str">
         <v>Weapon_WeaponName_20005</v>
       </c>
-      <c r="C279" s="1" t="str">
+      <c r="C279" s="2" t="str">
         <v>Anti-Matter Gun</v>
       </c>
-      <c r="D279" s="22" t="str">
+      <c r="D279" s="16" t="str">
         <v>反物质枪</v>
       </c>
-      <c r="E279" s="10"/>
+      <c r="E279" s="12"/>
     </row>
     <row customHeight="true" ht="23" r="280">
-      <c r="A280" s="1">
+      <c r="A280" s="2">
         <v>90063</v>
       </c>
-      <c r="B280" s="21" t="str">
+      <c r="B280" s="15" t="str">
         <v>Weapon_WeaponName_10025</v>
       </c>
-      <c r="C280" s="1" t="str">
+      <c r="C280" s="2" t="str">
         <v>Spectral Blade</v>
       </c>
-      <c r="D280" s="22" t="str">
+      <c r="D280" s="16" t="str">
         <v>光谱剑</v>
       </c>
-      <c r="E280" s="10"/>
+      <c r="E280" s="12"/>
     </row>
     <row customHeight="true" ht="23" r="281">
-      <c r="A281" s="1">
+      <c r="A281" s="2">
         <v>90064</v>
       </c>
-      <c r="B281" s="21" t="str">
+      <c r="B281" s="15" t="str">
         <v>Weapon_WeaponName_10026</v>
       </c>
-      <c r="C281" s="1" t="str">
+      <c r="C281" s="2" t="str">
         <v>Spectral Blade (Ruby)</v>
       </c>
-      <c r="D281" s="22" t="str">
+      <c r="D281" s="16" t="str">
         <v>光谱剑(晶红)</v>
       </c>
-      <c r="E281" s="10"/>
+      <c r="E281" s="12"/>
     </row>
     <row customHeight="true" ht="23" r="282">
-      <c r="A282" s="1">
+      <c r="A282" s="2">
         <v>90065</v>
       </c>
-      <c r="B282" s="21" t="str">
+      <c r="B282" s="15" t="str">
         <v>Weapon_WeaponName_10027</v>
       </c>
-      <c r="C282" s="1" t="str">
+      <c r="C282" s="2" t="str">
         <v>Dagger (Simulacrum)</v>
       </c>
-      <c r="D282" s="22" t="str">
+      <c r="D282" s="16" t="str">
         <v>匕首(模拟)</v>
       </c>
-      <c r="E282" s="10"/>
+      <c r="E282" s="12"/>
     </row>
     <row customHeight="true" ht="23" r="283">
-      <c r="A283" s="1">
+      <c r="A283" s="2">
         <v>90066</v>
       </c>
-      <c r="B283" s="21" t="str">
+      <c r="B283" s="15" t="str">
         <v>Weapon_WeaponName_10028</v>
       </c>
-      <c r="C283" s="1" t="str">
+      <c r="C283" s="2" t="str">
         <v>Saber (Simulacrum)</v>
       </c>
-      <c r="D283" s="22" t="str">
+      <c r="D283" s="16" t="str">
         <v>军刀(模拟)</v>
       </c>
-      <c r="E283" s="10"/>
+      <c r="E283" s="12"/>
     </row>
     <row customHeight="true" ht="23" r="284">
-      <c r="A284" s="1">
+      <c r="A284" s="2">
         <v>90067</v>
       </c>
-      <c r="B284" s="21" t="str">
+      <c r="B284" s="15" t="str">
         <v>Weapon_WeaponName_20006</v>
       </c>
-      <c r="C284" s="1" t="str">
+      <c r="C284" s="2" t="str">
         <v>Revolver (Simulacrum)</v>
       </c>
-      <c r="D284" s="22" t="str">
+      <c r="D284" s="16" t="str">
         <v>左轮(模拟)</v>
       </c>
-      <c r="E284" s="10"/>
+      <c r="E284" s="12"/>
     </row>
     <row customHeight="true" ht="23" r="285">
-      <c r="A285" s="1">
+      <c r="A285" s="2">
         <v>90068</v>
       </c>
-      <c r="B285" s="21" t="str">
+      <c r="B285" s="15" t="str">
         <v>Weapon_WeaponName_20007</v>
       </c>
-      <c r="C285" s="1" t="str">
+      <c r="C285" s="2" t="str">
         <v>SMG (Simulacrum)</v>
       </c>
-      <c r="D285" s="22" t="str">
+      <c r="D285" s="16" t="str">
         <v>冲锋枪(模拟)</v>
       </c>
-      <c r="E285" s="10"/>
+      <c r="E285" s="12"/>
     </row>
     <row customHeight="true" ht="23" r="286">
-      <c r="A286" s="1">
+      <c r="A286" s="2">
         <v>90069</v>
       </c>
-      <c r="B286" s="15" t="str">
+      <c r="B286" s="18" t="str">
         <v>Weapon_WeaponName_10029</v>
       </c>
-      <c r="C286" s="1" t="str">
+      <c r="C286" s="2" t="str">
         <v>Storm Caller (Rune)</v>
       </c>
-      <c r="D286" s="16" t="str">
+      <c r="D286" s="19" t="str">
         <v>唤雷(符文)</v>
       </c>
-      <c r="E286" s="10"/>
+      <c r="E286" s="12"/>
     </row>
     <row customHeight="true" ht="23" r="287">
-      <c r="A287" s="1">
+      <c r="A287" s="2">
         <v>90070</v>
       </c>
-      <c r="B287" s="15" t="str">
+      <c r="B287" s="18" t="str">
         <v>Weapon_WeaponName_20008</v>
       </c>
-      <c r="C287" s="1" t="str">
+      <c r="C287" s="2" t="str">
         <v>Sun Seeker (Rune)</v>
       </c>
-      <c r="D287" s="16" t="str">
+      <c r="D287" s="19" t="str">
         <v>逐日(符文)</v>
       </c>
-      <c r="E287" s="10"/>
+      <c r="E287" s="12"/>
     </row>
     <row customHeight="true" ht="23" r="288">
-      <c r="A288" s="1">
+      <c r="A288" s="2">
         <v>90071</v>
       </c>
-      <c r="B288" s="15" t="str">
+      <c r="B288" s="18" t="str">
         <v>Weapon_WeaponName_10030</v>
       </c>
-      <c r="C288" s="1" t="str">
+      <c r="C288" s="2" t="str">
         <v>Hammer of Thor</v>
       </c>
-      <c r="D288" s="16" t="str">
+      <c r="D288" s="19" t="str">
         <v>雷神之锤</v>
       </c>
-      <c r="E288" s="10"/>
+      <c r="E288" s="12"/>
     </row>
     <row customHeight="true" ht="23" r="289">
-      <c r="A289" s="1">
+      <c r="A289" s="2">
         <v>90072</v>
       </c>
-      <c r="B289" s="15" t="str">
+      <c r="B289" s="18" t="str">
         <v>Weapon_WeaponName_20009</v>
       </c>
-      <c r="C289" s="1" t="str">
+      <c r="C289" s="2" t="str">
         <v>Blunderbuss</v>
       </c>
-      <c r="D289" s="16" t="str">
+      <c r="D289" s="19" t="str">
         <v>火铳</v>
       </c>
-      <c r="E289" s="10"/>
+      <c r="E289" s="12"/>
     </row>
     <row customHeight="true" ht="23" r="290">
-      <c r="A290" s="1">
+      <c r="A290" s="2">
         <v>90073</v>
       </c>
-      <c r="B290" s="15" t="str">
+      <c r="B290" s="18" t="str">
         <v>Weapon_WeaponName_10031</v>
       </c>
-      <c r="C290" s="1" t="str">
+      <c r="C290" s="2" t="str">
         <v>Bonespike Sword (Devine)</v>
       </c>
-      <c r="D290" s="16" t="str">
+      <c r="D290" s="19" t="str">
         <v>骨刺剑(圣)</v>
       </c>
-      <c r="E290" s="10"/>
+      <c r="E290" s="12"/>
     </row>
     <row customHeight="true" ht="23" r="291">
-      <c r="A291" s="1">
+      <c r="A291" s="2">
         <v>90074</v>
       </c>
-      <c r="B291" s="15" t="str">
+      <c r="B291" s="18" t="str">
         <v>Weapon_WeaponName_20010</v>
       </c>
-      <c r="C291" s="1" t="str">
+      <c r="C291" s="2" t="str">
         <v>Revolver (Devine)</v>
       </c>
-      <c r="D291" s="16" t="str">
+      <c r="D291" s="19" t="str">
         <v>左轮(圣)</v>
       </c>
-      <c r="E291" s="10"/>
+      <c r="E291" s="12"/>
     </row>
     <row customHeight="true" ht="23" r="292">
-      <c r="A292" s="1">
+      <c r="A292" s="2">
         <v>90075</v>
       </c>
-      <c r="B292" s="15" t="str">
+      <c r="B292" s="18" t="str">
         <v>Weapon_WeaponName_10032</v>
       </c>
-      <c r="C292" s="1" t="str">
+      <c r="C292" s="2" t="str">
         <v>Bonespike Sword (Love)</v>
       </c>
-      <c r="D292" s="16" t="str">
+      <c r="D292" s="19" t="str">
         <v>骨刺剑(恋)</v>
       </c>
-      <c r="E292" s="10"/>
+      <c r="E292" s="12"/>
     </row>
     <row customHeight="true" ht="23" r="293">
-      <c r="A293" s="1">
+      <c r="A293" s="2">
         <v>90076</v>
       </c>
-      <c r="B293" s="15" t="str">
+      <c r="B293" s="18" t="str">
         <v>Weapon_WeaponName_20011</v>
       </c>
-      <c r="C293" s="1" t="str">
+      <c r="C293" s="2" t="str">
         <v>Revolver (Love)</v>
       </c>
-      <c r="D293" s="16" t="str">
+      <c r="D293" s="19" t="str">
         <v>左轮(恋)</v>
       </c>
-      <c r="E293" s="10"/>
+      <c r="E293" s="12"/>
     </row>
     <row customHeight="true" ht="23" r="294">
-      <c r="A294" s="1">
+      <c r="A294" s="2">
         <v>90077</v>
       </c>
-      <c r="B294" s="15" t="str">
+      <c r="B294" s="18" t="str">
         <v>Weapon_WeaponName_10033</v>
       </c>
-      <c r="C294" s="1" t="str">
+      <c r="C294" s="2" t="str">
         <v>Bonespike Sword (Flame)</v>
       </c>
-      <c r="D294" s="16" t="str">
+      <c r="D294" s="19" t="str">
         <v>骨刺剑(炽)</v>
       </c>
-      <c r="E294" s="10"/>
+      <c r="E294" s="12"/>
     </row>
     <row customHeight="true" ht="23" r="295">
-      <c r="A295" s="1">
+      <c r="A295" s="2">
         <v>90078</v>
       </c>
-      <c r="B295" s="15" t="str">
+      <c r="B295" s="18" t="str">
         <v>Weapon_WeaponName_10034</v>
       </c>
-      <c r="C295" s="1" t="str">
+      <c r="C295" s="2" t="str">
         <v>Bonespike Sword (Frost)</v>
       </c>
-      <c r="D295" s="16" t="str">
+      <c r="D295" s="19" t="str">
         <v>骨刺剑(霜)</v>
       </c>
-      <c r="E295" s="10"/>
+      <c r="E295" s="12"/>
     </row>
     <row customHeight="true" ht="23" r="296">
-      <c r="A296" s="1">
+      <c r="A296" s="2">
         <v>90079</v>
       </c>
-      <c r="B296" s="18" t="str">
+      <c r="B296" s="25" t="str">
         <v>Weapon_WeaponName_10035</v>
       </c>
-      <c r="C296" s="1" t="str">
+      <c r="C296" s="2" t="str">
         <v>Sakura</v>
       </c>
       <c r="D296" s="26" t="str">
         <v>樱</v>
       </c>
-      <c r="E296" s="10"/>
+      <c r="E296" s="12"/>
     </row>
     <row customHeight="true" ht="23" r="297">
-      <c r="A297" s="1">
+      <c r="A297" s="2">
         <v>90080</v>
       </c>
-      <c r="B297" s="18" t="str">
+      <c r="B297" s="25" t="str">
         <v>Weapon_WeaponName_20012</v>
       </c>
-      <c r="C297" s="1" t="str">
+      <c r="C297" s="2" t="str">
         <v>Butterfly</v>
       </c>
       <c r="D297" s="26" t="str">
         <v>蝶</v>
       </c>
-      <c r="E297" s="10"/>
+      <c r="E297" s="12"/>
     </row>
     <row customHeight="true" ht="23" r="298">
-      <c r="A298" s="1">
+      <c r="A298" s="2">
         <v>90081</v>
       </c>
-      <c r="B298" s="18" t="str">
+      <c r="B298" s="25" t="str">
         <v>Weapon_WeaponName_10036</v>
       </c>
-      <c r="C298" s="1" t="str">
+      <c r="C298" s="2" t="str">
         <v>Golden Bat (Rainbow)</v>
       </c>
-      <c r="D298" s="17" t="str">
+      <c r="D298" s="31" t="str">
         <v>黄金球棍(虹彩)</v>
       </c>
-      <c r="E298" s="10"/>
+      <c r="E298" s="12"/>
     </row>
     <row customHeight="true" ht="23" r="299">
-      <c r="A299" s="1">
+      <c r="A299" s="2">
         <v>90082</v>
       </c>
-      <c r="B299" s="18" t="str">
+      <c r="B299" s="25" t="str">
         <v>Weapon_WeaponName_20013</v>
       </c>
-      <c r="C299" s="1" t="str">
+      <c r="C299" s="2" t="str">
         <v>Golden Revolver (Rainbow)</v>
       </c>
-      <c r="D299" s="17" t="str">
+      <c r="D299" s="31" t="str">
         <v>黄金左轮(虹彩)</v>
       </c>
-      <c r="E299" s="10"/>
+      <c r="E299" s="12"/>
     </row>
     <row customHeight="true" ht="23" r="300">
-      <c r="A300" s="1">
+      <c r="A300" s="2">
         <v>90083</v>
       </c>
-      <c r="B300" s="2" t="str">
+      <c r="B300" s="1" t="str">
         <v>SkillShop_Name_10004</v>
       </c>
-      <c r="C300" s="1" t="str">
+      <c r="C300" s="2" t="str">
         <v>Ghost's Cloak</v>
       </c>
-      <c r="D300" s="2" t="str">
+      <c r="D300" s="1" t="str">
         <v>幽灵斗篷</v>
       </c>
-      <c r="E300" s="10"/>
+      <c r="E300" s="12"/>
     </row>
     <row customHeight="true" ht="23" r="301">
-      <c r="A301" s="1">
+      <c r="A301" s="2">
         <v>90084</v>
       </c>
-      <c r="B301" s="2" t="str">
+      <c r="B301" s="1" t="str">
         <v>SkillShop_Description_10004</v>
       </c>
-      <c r="C301" s="2" t="str">
+      <c r="C301" s="1" t="str">
         <v>[Murderer Active Ability] When active, you become invisable for 5 secs, eliminating any player will instantly end the ghost‘s cloak</v>
       </c>
-      <c r="D301" s="2" t="str">
+      <c r="D301" s="1" t="str">
         <v>【杀手主动能力】
 激活后，你可以隐身5秒，若你在隐身时击败了任何玩家，则会立即结束隐身</v>
       </c>
-      <c r="E301" s="10"/>
+      <c r="E301" s="12"/>
     </row>
     <row customHeight="true" ht="23" r="302">
-      <c r="A302" s="1">
+      <c r="A302" s="2">
         <v>90085</v>
       </c>
-      <c r="B302" s="14" t="str">
+      <c r="B302" s="11" t="str">
         <v>Tips_Content_20012</v>
       </c>
-      <c r="C302" s="2" t="str">
+      <c r="C302" s="1" t="str">
         <v>Successful exchange</v>
       </c>
-      <c r="D302" s="2" t="str">
+      <c r="D302" s="1" t="str">
         <v>兑换成功</v>
       </c>
-      <c r="E302" s="10"/>
+      <c r="E302" s="12"/>
     </row>
     <row customHeight="true" ht="23" r="303">
-      <c r="A303" s="1">
+      <c r="A303" s="2">
         <v>90086</v>
       </c>
-      <c r="B303" s="14" t="str">
+      <c r="B303" s="11" t="str">
         <v>Tips_Content_20013</v>
       </c>
-      <c r="C303" s="2" t="str">
+      <c r="C303" s="1" t="str">
         <v>Conversion failure</v>
       </c>
-      <c r="D303" s="2" t="str">
+      <c r="D303" s="1" t="str">
         <v>兑换失败</v>
       </c>
-      <c r="E303" s="10"/>
+      <c r="E303" s="12"/>
     </row>
     <row customHeight="true" ht="23" r="304">
-      <c r="A304" s="1">
+      <c r="A304" s="2">
         <v>90087</v>
       </c>
-      <c r="B304" s="14" t="str">
+      <c r="B304" s="11" t="str">
         <v>Tips_Content_20014</v>
       </c>
-      <c r="C304" s="2" t="str">
+      <c r="C304" s="1" t="str">
         <v>Congratulations on activating membership privileges</v>
       </c>
-      <c r="D304" s="2" t="str">
+      <c r="D304" s="1" t="str">
         <v>恭喜激活会员特权</v>
       </c>
-      <c r="E304" s="10"/>
+      <c r="E304" s="12"/>
     </row>
     <row customHeight="true" ht="23" r="305">
-      <c r="A305" s="1">
+      <c r="A305" s="2">
         <v>90088</v>
       </c>
-      <c r="B305" s="14" t="str">
+      <c r="B305" s="11" t="str">
         <v>Tips_Content_20015</v>
       </c>
-      <c r="C305" s="2" t="str">
+      <c r="C305" s="1" t="str">
         <v>Congratulations on activating Super Privilege</v>
       </c>
-      <c r="D305" s="2" t="str">
+      <c r="D305" s="1" t="str">
         <v>恭喜激活超级特权</v>
       </c>
-      <c r="E305" s="10"/>
+      <c r="E305" s="12"/>
     </row>
     <row customHeight="true" ht="23" r="306">
-      <c r="A306" s="1">
+      <c r="A306" s="2">
         <v>90089</v>
       </c>
-      <c r="B306" s="14" t="str">
+      <c r="B306" s="11" t="str">
         <v>Tips_Content_20016</v>
       </c>
-      <c r="C306" s="2" t="str">
+      <c r="C306" s="1" t="str">
         <v>Membership privileges have expired</v>
       </c>
-      <c r="D306" s="2" t="str">
+      <c r="D306" s="1" t="str">
         <v>会员特权已到期失效</v>
       </c>
-      <c r="E306" s="10"/>
+      <c r="E306" s="12"/>
     </row>
     <row customHeight="true" ht="23" r="307">
-      <c r="A307" s="1">
+      <c r="A307" s="2">
         <v>90090</v>
       </c>
-      <c r="B307" s="14" t="str">
+      <c r="B307" s="11" t="str">
         <v>Tips_Content_20017</v>
       </c>
-      <c r="C307" s="2" t="str">
+      <c r="C307" s="1" t="str">
         <v>The super privilege has expired</v>
       </c>
-      <c r="D307" s="2" t="str">
+      <c r="D307" s="1" t="str">
         <v>超级特权已到期失效</v>
       </c>
-      <c r="E307" s="10"/>
+      <c r="E307" s="12"/>
     </row>
     <row customHeight="true" ht="23" r="308">
-      <c r="A308" s="1">
+      <c r="A308" s="2">
         <v>90091</v>
       </c>
-      <c r="B308" s="14" t="str">
+      <c r="B308" s="11" t="str">
         <v>Tips_Content_20018</v>
       </c>
-      <c r="C308" s="2" t="str">
+      <c r="C308" s="1" t="str">
         <v>The number of holdings has reached its limit</v>
       </c>
-      <c r="D308" s="2" t="str">
+      <c r="D308" s="1" t="str">
         <v>持有数量已经达到上限</v>
       </c>
-      <c r="E308" s="10"/>
+      <c r="E308" s="12"/>
     </row>
     <row customHeight="true" ht="23" r="309">
-      <c r="A309" s="1">
+      <c r="A309" s="2">
         <v>90092</v>
       </c>
-      <c r="B309" s="8" t="str">
+      <c r="B309" s="14" t="str">
         <v>Text_Content_20052</v>
       </c>
-      <c r="C309" s="2" t="str">
+      <c r="C309" s="1" t="str">
         <v>Exchange</v>
       </c>
-      <c r="D309" s="2" t="str">
+      <c r="D309" s="1" t="str">
         <v>兑换</v>
       </c>
-      <c r="E309" s="10"/>
+      <c r="E309" s="12"/>
     </row>
     <row customHeight="true" ht="23" r="310">
-      <c r="A310" s="1">
+      <c r="A310" s="2">
         <v>90093</v>
       </c>
-      <c r="B310" s="8" t="str">
+      <c r="B310" s="14" t="str">
         <v>Text_Content_20053</v>
       </c>
-      <c r="C310" s="2" t="str">
+      <c r="C310" s="1" t="str">
         <v>skip</v>
       </c>
-      <c r="D310" s="2" t="str">
+      <c r="D310" s="1" t="str">
         <v>跳转</v>
       </c>
-      <c r="E310" s="10"/>
+      <c r="E310" s="12"/>
     </row>
     <row customHeight="true" ht="23" r="311">
-      <c r="A311" s="1">
+      <c r="A311" s="2">
         <v>90094</v>
       </c>
-      <c r="B311" s="8" t="str">
+      <c r="B311" s="14" t="str">
         <v>Text_Content_20054</v>
       </c>
-      <c r="C311" s="2" t="str">
+      <c r="C311" s="1" t="str">
         <v>Member privileges active</v>
       </c>
-      <c r="D311" s="2" t="str">
+      <c r="D311" s="1" t="str">
         <v>会员特权激活中</v>
       </c>
-      <c r="E311" s="10"/>
+      <c r="E311" s="12"/>
     </row>
     <row customHeight="true" ht="23" r="312">
-      <c r="A312" s="1">
+      <c r="A312" s="2">
         <v>90095</v>
       </c>
-      <c r="B312" s="8" t="str">
+      <c r="B312" s="14" t="str">
         <v>Text_Content_20055</v>
       </c>
-      <c r="C312" s="2" t="str">
+      <c r="C312" s="1" t="str">
         <v>Remaining activation time {0}</v>
       </c>
-      <c r="D312" s="2" t="str">
+      <c r="D312" s="1" t="str">
         <v>剩余激活时间{0}</v>
       </c>
-      <c r="E312" s="10"/>
+      <c r="E312" s="12"/>
     </row>
     <row customHeight="true" ht="23" r="313">
-      <c r="A313" s="1">
+      <c r="A313" s="2">
         <v>90096</v>
       </c>
-      <c r="B313" s="8" t="str">
+      <c r="B313" s="14" t="str">
         <v>Text_Content_20056</v>
       </c>
-      <c r="C313" s="2" t="str">
+      <c r="C313" s="1" t="str">
         <v>Member privileges have not been activated</v>
       </c>
-      <c r="D313" s="2" t="str">
+      <c r="D313" s="1" t="str">
         <v>尚未激活会员特权</v>
       </c>
-      <c r="E313" s="10"/>
+      <c r="E313" s="12"/>
     </row>
     <row customHeight="true" ht="23" r="314">
-      <c r="A314" s="1">
+      <c r="A314" s="2">
         <v>90097</v>
       </c>
-      <c r="B314" s="8" t="str">
+      <c r="B314" s="14" t="str">
         <v>Text_Content_20057</v>
       </c>
-      <c r="C314" s="2" t="str">
+      <c r="C314" s="1" t="str">
         <v>Super privilege has not been activated</v>
       </c>
-      <c r="D314" s="2" t="str">
+      <c r="D314" s="1" t="str">
         <v>尚未激活超级特权</v>
       </c>
-      <c r="E314" s="10"/>
+      <c r="E314" s="12"/>
     </row>
     <row customHeight="true" ht="23" r="315">
-      <c r="A315" s="1">
+      <c r="A315" s="2">
         <v>90098</v>
       </c>
-      <c r="B315" s="8" t="str">
+      <c r="B315" s="14" t="str">
         <v>Text_Content_20058</v>
       </c>
-      <c r="C315" s="2" t="str">
+      <c r="C315" s="1" t="str">
         <v>Remaining activation time {0} days</v>
       </c>
-      <c r="D315" s="2" t="str">
+      <c r="D315" s="1" t="str">
         <v>剩余激活时间{0}天</v>
       </c>
-      <c r="E315" s="10"/>
+      <c r="E315" s="12"/>
     </row>
     <row customHeight="true" ht="23" r="316">
-      <c r="A316" s="1">
+      <c r="A316" s="2">
         <v>90099</v>
       </c>
-      <c r="B316" s="8" t="str">
+      <c r="B316" s="14" t="str">
         <v>Text_Content_20059</v>
       </c>
-      <c r="C316" s="2" t="str">
+      <c r="C316" s="1" t="str">
         <v>Membership privileges</v>
       </c>
-      <c r="D316" s="2" t="str">
+      <c r="D316" s="1" t="str">
         <v>会员特权</v>
       </c>
-      <c r="E316" s="10"/>
+      <c r="E316" s="12"/>
     </row>
     <row customHeight="true" ht="23" r="317">
-      <c r="A317" s="1">
+      <c r="A317" s="2">
         <v>90100</v>
       </c>
-      <c r="B317" s="8" t="str">
+      <c r="B317" s="14" t="str">
         <v>Text_Content_20060</v>
       </c>
-      <c r="C317" s="2" t="str">
+      <c r="C317" s="1" t="str">
         <v>Super privilege</v>
       </c>
-      <c r="D317" s="2" t="str">
+      <c r="D317" s="1" t="str">
         <v>超级特权</v>
       </c>
-      <c r="E317" s="10"/>
+      <c r="E317" s="12"/>
     </row>
     <row customHeight="true" ht="23" r="318">
-      <c r="A318" s="1">
+      <c r="A318" s="2">
         <v>90101</v>
       </c>
-      <c r="B318" s="14" t="str">
+      <c r="B318" s="11" t="str">
         <v>Tips_Content_20019</v>
       </c>
-      <c r="C318" s="2" t="str">
+      <c r="C318" s="1" t="str">
         <v>Congratulations on getting an advertising voucher *1</v>
       </c>
-      <c r="D318" s="2" t="str">
+      <c r="D318" s="1" t="str">
         <v>恭喜获得广告券*1</v>
       </c>
-      <c r="E318" s="10"/>
+      <c r="E318" s="12"/>
     </row>
     <row customHeight="true" ht="23" r="319">
-      <c r="A319" s="1">
+      <c r="A319" s="2">
         <v>90102</v>
       </c>
-      <c r="B319" s="1" t="str">
+      <c r="B319" s="2" t="str">
         <v>Item_Name_20012</v>
       </c>
-      <c r="C319" s="2" t="str">
+      <c r="C319" s="1" t="str">
         <v>Here comes the Tuhao</v>
       </c>
-      <c r="D319" s="2" t="str">
+      <c r="D319" s="1" t="str">
         <v>土豪来啦</v>
       </c>
-      <c r="E319" s="10"/>
+      <c r="E319" s="12"/>
     </row>
     <row customHeight="true" ht="23" r="320">
-      <c r="A320" s="1">
+      <c r="A320" s="2">
         <v>90103</v>
       </c>
-      <c r="B320" s="2" t="str">
+      <c r="B320" s="1" t="str">
         <v>SkillShop_Name_10005</v>
       </c>
-      <c r="C320" s="2" t="str">
+      <c r="C320" s="1" t="str">
         <v>Quick throw
 experience pass</v>
       </c>
-      <c r="D320" s="32" t="str">
+      <c r="D320" s="27" t="str">
         <v>快速投掷体验券</v>
       </c>
-      <c r="E320" s="10"/>
+      <c r="E320" s="12"/>
     </row>
     <row customHeight="true" ht="23" r="321">
-      <c r="A321" s="1">
+      <c r="A321" s="2">
         <v>90104</v>
       </c>
-      <c r="B321" s="2" t="str">
+      <c r="B321" s="1" t="str">
         <v>SkillShop_Name_10006</v>
       </c>
-      <c r="C321" s="2" t="str">
+      <c r="C321" s="1" t="str">
         <v>Explosive knife
 experience coupon</v>
       </c>
-      <c r="D321" s="2" t="str">
+      <c r="D321" s="1" t="str">
         <v>爆炸飞刀体验券</v>
       </c>
-      <c r="E321" s="10"/>
+      <c r="E321" s="12"/>
     </row>
     <row customHeight="true" ht="23" r="322">
-      <c r="A322" s="1">
+      <c r="A322" s="2">
         <v>90105</v>
       </c>
-      <c r="B322" s="2" t="str">
+      <c r="B322" s="1" t="str">
         <v>SkillShop_Name_10007</v>
       </c>
-      <c r="C322" s="2" t="str">
+      <c r="C322" s="1" t="str">
         <v>Ghost Cloak
 experience pass</v>
       </c>
-      <c r="D322" s="1" t="str">
+      <c r="D322" s="2" t="str">
         <v>幽灵斗篷体验券</v>
       </c>
-      <c r="E322" s="10"/>
+      <c r="E322" s="12"/>
     </row>
     <row customHeight="true" ht="23" r="323">
-      <c r="A323" s="1">
+      <c r="A323" s="2">
         <v>90106</v>
       </c>
-      <c r="B323" s="2" t="str">
+      <c r="B323" s="1" t="str">
         <v>SkillShop_Description_10005</v>
       </c>
-      <c r="C323" s="2" t="str">
+      <c r="C323" s="1" t="str">
         <v>【 Killer passivity 】
 The knife you throw will now fly faster, increasing by 100%</v>
       </c>
@@ -6257,18 +6064,18 @@
         <v>【杀手被动能力】
 现在你扔出的飞刀会飞得更快，提升100％</v>
       </c>
-      <c r="E323" s="1" t="str">
+      <c r="E323" s="2" t="str">
         <v>和上面一样</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="324">
-      <c r="A324" s="1">
+      <c r="A324" s="2">
         <v>90107</v>
       </c>
-      <c r="B324" s="2" t="str">
+      <c r="B324" s="1" t="str">
         <v>SkillShop_Description_10006</v>
       </c>
-      <c r="C324" s="2" t="str">
+      <c r="C324" s="1" t="str">
         <v>【 Killer passivity 】
 When your throwing knife hits a target, it does not deal immediate damage to the target, but instead plants a bomb at the target, which explodes after a short delay and also deals damage to players within a certain radius</v>
       </c>
@@ -6276,2102 +6083,2110 @@
         <v>【杀手被动能力】
 当你的飞刀命中目标时，不会立即对目标造成伤害，而是在目标处埋下一颗炸弹，延迟一小段时间后会爆炸，并对周围一定范围内的玩家同样造成伤害</v>
       </c>
-      <c r="E324" s="1" t="str">
+      <c r="E324" s="2" t="str">
         <v>和上面一样</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="325">
-      <c r="A325" s="1">
+      <c r="A325" s="2">
         <v>90108</v>
       </c>
-      <c r="B325" s="2" t="str">
+      <c r="B325" s="1" t="str">
         <v>SkillShop_Description_10007</v>
       </c>
-      <c r="C325" s="2" t="str">
+      <c r="C325" s="1" t="str">
         <v>【 Killer initiative 】
 Once activated, you can be invisible for 5 seconds, and if you beat any player while cloaking, the cloaking ends immediately</v>
       </c>
-      <c r="D325" s="2" t="str">
+      <c r="D325" s="1" t="str">
         <v>【杀手主动能力】
 激活后，你可以隐身5秒，若你在隐身时击败了任何玩家，则会立即结束隐身</v>
       </c>
-      <c r="E325" s="1" t="str">
+      <c r="E325" s="2" t="str">
         <v>和上面一样</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="326">
-      <c r="A326" s="1">
+      <c r="A326" s="2">
         <v>90109</v>
       </c>
-      <c r="B326" s="14" t="str">
+      <c r="B326" s="11" t="str">
         <v>Tips_Content_20020</v>
       </c>
-      <c r="C326" s="2" t="str">
+      <c r="C326" s="1" t="str">
         <v>There are not enough golden keys</v>
       </c>
-      <c r="D326" s="2" t="str">
+      <c r="D326" s="1" t="str">
         <v>金钥匙数量不足</v>
       </c>
-      <c r="E326" s="1"/>
+      <c r="E326" s="2"/>
     </row>
     <row customHeight="true" ht="23" r="327">
-      <c r="A327" s="1">
+      <c r="A327" s="2">
         <v>90110</v>
       </c>
-      <c r="B327" s="14" t="str">
+      <c r="B327" s="11" t="str">
         <v>Tips_Content_20021</v>
       </c>
-      <c r="C327" s="2" t="str">
+      <c r="C327" s="1" t="str">
         <v>This version does not support large membership</v>
       </c>
-      <c r="D327" s="2" t="str">
+      <c r="D327" s="1" t="str">
         <v>这个版本不支持开通大会员</v>
       </c>
-      <c r="E327" s="1"/>
+      <c r="E327" s="2"/>
     </row>
     <row customHeight="true" ht="21" r="328">
-      <c r="A328" s="1">
+      <c r="A328" s="2">
         <v>90111</v>
       </c>
-      <c r="B328" s="14" t="str">
+      <c r="B328" s="11" t="str">
         <v>Weapon_WeaponName_10037</v>
       </c>
-      <c r="C328" s="2" t="str">
+      <c r="C328" s="1" t="str">
         <v>Purple Lightsaber</v>
       </c>
-      <c r="D328" s="2" t="str">
+      <c r="D328" s="1" t="str">
         <v>紫光剑</v>
       </c>
-      <c r="E328" s="1"/>
+      <c r="E328" s="2"/>
     </row>
     <row customHeight="true" ht="21" r="329">
-      <c r="A329" s="1">
+      <c r="A329" s="2">
         <v>90112</v>
       </c>
-      <c r="B329" s="14" t="str">
+      <c r="B329" s="11" t="str">
         <v>Weapon_WeaponName_20014</v>
       </c>
-      <c r="C329" s="2" t="str">
+      <c r="C329" s="1" t="str">
         <v>Ice bow and arrow</v>
       </c>
-      <c r="D329" s="2" t="str">
+      <c r="D329" s="1" t="str">
         <v>冰寒弓箭</v>
       </c>
-      <c r="E329" s="1"/>
+      <c r="E329" s="2"/>
     </row>
     <row customHeight="true" ht="21" r="330">
-      <c r="A330" s="1">
+      <c r="A330" s="2">
         <v>90113</v>
       </c>
-      <c r="B330" s="1" t="str">
+      <c r="B330" s="2" t="str">
         <v>Item_Name_20013</v>
       </c>
-      <c r="C330" s="2" t="str">
+      <c r="C330" s="1" t="str">
         <v>Firework tail</v>
       </c>
-      <c r="D330" s="2" t="str">
+      <c r="D330" s="1" t="str">
         <v>烟花拖尾</v>
       </c>
-      <c r="E330" s="1"/>
+      <c r="E330" s="2"/>
     </row>
     <row customHeight="true" ht="21" r="331">
-      <c r="A331" s="1">
+      <c r="A331" s="2">
         <v>90114</v>
       </c>
-      <c r="B331" s="1" t="str">
+      <c r="B331" s="2" t="str">
         <v>Item_Name_20014</v>
       </c>
-      <c r="C331" s="2" t="str">
+      <c r="C331" s="1" t="str">
         <v>Firecracker tail</v>
       </c>
-      <c r="D331" s="2" t="str">
+      <c r="D331" s="1" t="str">
         <v>爆竹拖尾</v>
       </c>
-      <c r="E331" s="1"/>
+      <c r="E331" s="2"/>
     </row>
     <row customHeight="true" ht="21" r="332">
-      <c r="A332" s="1">
+      <c r="A332" s="2">
         <v>90115</v>
       </c>
-      <c r="B332" s="1" t="str">
+      <c r="B332" s="2" t="str">
         <v>Item_Name_20015</v>
       </c>
-      <c r="C332" s="2" t="str">
+      <c r="C332" s="1" t="str">
         <v>Gift trail</v>
       </c>
-      <c r="D332" s="2" t="str">
+      <c r="D332" s="1" t="str">
         <v>礼物拖尾</v>
       </c>
-      <c r="E332" s="1"/>
+      <c r="E332" s="2"/>
     </row>
     <row customHeight="true" ht="21" r="333">
-      <c r="A333" s="1">
+      <c r="A333" s="2">
         <v>90116</v>
       </c>
-      <c r="B333" s="1" t="str">
+      <c r="B333" s="2" t="str">
         <v>Item_Name_20016</v>
       </c>
-      <c r="C333" s="2" t="str">
+      <c r="C333" s="1" t="str">
         <v>Candy tail</v>
       </c>
-      <c r="D333" s="2" t="str">
+      <c r="D333" s="1" t="str">
         <v>糖果拖尾</v>
       </c>
-      <c r="E333" s="1"/>
+      <c r="E333" s="2"/>
     </row>
     <row customHeight="true" ht="21" r="334">
-      <c r="A334" s="1">
+      <c r="A334" s="2">
         <v>90117</v>
       </c>
-      <c r="B334" s="1" t="str">
+      <c r="B334" s="2" t="str">
         <v>Item_Name_20017</v>
       </c>
-      <c r="C334" s="2" t="str">
+      <c r="C334" s="1" t="str">
         <v>Poop trail</v>
       </c>
-      <c r="D334" s="2" t="str">
+      <c r="D334" s="1" t="str">
         <v>便便拖尾</v>
       </c>
-      <c r="E334" s="1"/>
+      <c r="E334" s="2"/>
     </row>
     <row customHeight="true" ht="21" r="335">
-      <c r="A335" s="1">
+      <c r="A335" s="2">
         <v>90118</v>
       </c>
-      <c r="B335" s="1" t="str">
+      <c r="B335" s="2" t="str">
         <v>Shop_Name_40010</v>
       </c>
-      <c r="C335" s="2" t="str">
+      <c r="C335" s="1" t="str">
         <v>Flame wing</v>
       </c>
-      <c r="D335" s="2" t="str" xml:space="preserve">
+      <c r="D335" s="1" t="str" xml:space="preserve">
         <v> 火焰翅膀</v>
       </c>
-      <c r="E335" s="1"/>
+      <c r="E335" s="2"/>
     </row>
     <row customHeight="true" ht="21" r="336">
-      <c r="A336" s="1">
+      <c r="A336" s="2">
         <v>90119</v>
       </c>
-      <c r="B336" s="1" t="str">
+      <c r="B336" s="2" t="str">
         <v>Shop_Name_40011</v>
       </c>
-      <c r="C336" s="2" t="str">
+      <c r="C336" s="1" t="str">
         <v>Flame wing</v>
       </c>
-      <c r="D336" s="2" t="str">
+      <c r="D336" s="1" t="str">
         <v>火焰翅膀</v>
       </c>
-      <c r="E336" s="1"/>
+      <c r="E336" s="2"/>
     </row>
     <row customHeight="true" ht="21" r="337">
-      <c r="A337" s="1">
+      <c r="A337" s="2">
         <v>90120</v>
       </c>
-      <c r="B337" s="1" t="str">
+      <c r="B337" s="2" t="str">
         <v>Shop_Name_40012</v>
       </c>
-      <c r="C337" s="2" t="str">
+      <c r="C337" s="1" t="str">
         <v>Drainage wing</v>
       </c>
-      <c r="D337" s="2" t="str">
+      <c r="D337" s="1" t="str">
         <v>水系翅膀</v>
       </c>
-      <c r="E337" s="1"/>
+      <c r="E337" s="2"/>
     </row>
     <row customHeight="true" ht="21" r="338">
-      <c r="A338" s="1">
+      <c r="A338" s="2">
         <v>90121</v>
       </c>
-      <c r="B338" s="1" t="str">
+      <c r="B338" s="2" t="str">
         <v>Shop_Name_40013</v>
       </c>
-      <c r="C338" s="2" t="str">
+      <c r="C338" s="1" t="str">
         <v>Dark wing</v>
       </c>
-      <c r="D338" s="2" t="str">
+      <c r="D338" s="1" t="str">
         <v>黑暗翅膀</v>
       </c>
-      <c r="E338" s="1"/>
+      <c r="E338" s="2"/>
     </row>
     <row customHeight="true" ht="21" r="339">
-      <c r="A339" s="1">
+      <c r="A339" s="2">
         <v>90122</v>
       </c>
-      <c r="B339" s="1" t="str">
+      <c r="B339" s="2" t="str">
         <v>Shop_Name_40014</v>
       </c>
-      <c r="C339" s="2" t="str">
+      <c r="C339" s="1" t="str">
         <v>Devil wing</v>
       </c>
-      <c r="D339" s="2" t="str">
+      <c r="D339" s="1" t="str">
         <v>恶魔翅膀</v>
       </c>
-      <c r="E339" s="1"/>
+      <c r="E339" s="2"/>
     </row>
     <row customHeight="true" ht="21" r="340">
-      <c r="A340" s="1">
+      <c r="A340" s="2">
         <v>90123</v>
       </c>
-      <c r="B340" s="1" t="str">
+      <c r="B340" s="2" t="str">
         <v>Shop_Name_40015</v>
       </c>
-      <c r="C340" s="2" t="str">
+      <c r="C340" s="1" t="str">
         <v>Ghost wing</v>
       </c>
-      <c r="D340" s="2" t="str">
+      <c r="D340" s="1" t="str">
         <v>恶灵翅膀</v>
       </c>
-      <c r="E340" s="1"/>
+      <c r="E340" s="2"/>
     </row>
     <row customHeight="true" ht="21" r="341">
-      <c r="A341" s="1">
+      <c r="A341" s="2">
         <v>90124</v>
       </c>
-      <c r="B341" s="1" t="str">
+      <c r="B341" s="2" t="str">
         <v>Shop_Name_40016</v>
       </c>
-      <c r="C341" s="2" t="str">
+      <c r="C341" s="1" t="str">
         <v>Angel wings</v>
       </c>
-      <c r="D341" s="2" t="str">
+      <c r="D341" s="1" t="str">
         <v>天使翅膀</v>
       </c>
-      <c r="E341" s="1"/>
+      <c r="E341" s="2"/>
     </row>
     <row customHeight="true" ht="21" r="342">
-      <c r="A342" s="1">
+      <c r="A342" s="2">
         <v>90125</v>
       </c>
-      <c r="B342" s="1" t="str">
+      <c r="B342" s="2" t="str">
         <v>Shop_Name_40017</v>
       </c>
-      <c r="C342" s="2" t="str">
+      <c r="C342" s="1" t="str">
         <v>Angel wings</v>
       </c>
-      <c r="D342" s="24" t="str">
+      <c r="D342" s="32" t="str">
         <v>六翼翅膀</v>
       </c>
-      <c r="E342" s="1"/>
+      <c r="E342" s="2"/>
     </row>
     <row r="343">
-      <c r="A343" s="1">
+      <c r="A343" s="2">
         <v>100001</v>
       </c>
-      <c r="B343" s="1" t="str">
+      <c r="B343" s="2" t="str">
         <v>Text_FreeCoupon</v>
       </c>
-      <c r="C343" s="2" t="str">
+      <c r="C343" s="1" t="str">
         <v>Free Coupon</v>
       </c>
-      <c r="D343" s="2" t="str">
+      <c r="D343" s="1" t="str">
         <v>免费领券</v>
       </c>
-      <c r="E343" s="1"/>
+      <c r="E343" s="2"/>
     </row>
     <row r="344">
-      <c r="A344" s="1">
+      <c r="A344" s="2">
         <v>100002</v>
       </c>
-      <c r="B344" s="1" t="str">
+      <c r="B344" s="2" t="str">
         <v>Text_Set</v>
       </c>
-      <c r="C344" s="2" t="str">
+      <c r="C344" s="1" t="str">
         <v>Set</v>
       </c>
-      <c r="D344" s="2" t="str">
+      <c r="D344" s="1" t="str">
         <v>设置</v>
       </c>
-      <c r="E344" s="1"/>
+      <c r="E344" s="2"/>
     </row>
     <row r="345">
-      <c r="A345" s="1">
+      <c r="A345" s="2">
         <v>100003</v>
       </c>
-      <c r="B345" s="1" t="str">
+      <c r="B345" s="2" t="str">
         <v>Text_Pay</v>
       </c>
-      <c r="C345" s="2" t="str">
+      <c r="C345" s="1" t="str">
         <v>Pay</v>
       </c>
-      <c r="D345" s="2" t="str">
+      <c r="D345" s="1" t="str">
         <v>充值</v>
       </c>
-      <c r="E345" s="1"/>
+      <c r="E345" s="2"/>
     </row>
     <row r="346">
-      <c r="A346" s="1">
+      <c r="A346" s="2">
         <v>100004</v>
       </c>
-      <c r="B346" s="1" t="str">
+      <c r="B346" s="2" t="str">
         <v>Text_HUD_SkillShop</v>
       </c>
-      <c r="C346" s="2" t="str">
+      <c r="C346" s="1" t="str">
         <v>Skill</v>
       </c>
-      <c r="D346" s="2" t="str">
+      <c r="D346" s="1" t="str">
         <v>能力商店</v>
       </c>
-      <c r="E346" s="1"/>
+      <c r="E346" s="2"/>
     </row>
     <row r="347">
-      <c r="A347" s="1">
+      <c r="A347" s="2">
         <v>100005</v>
       </c>
-      <c r="B347" s="1" t="str">
+      <c r="B347" s="2" t="str">
         <v>Text_Shop_Skin</v>
       </c>
-      <c r="C347" s="2" t="str">
+      <c r="C347" s="1" t="str">
         <v>Skin</v>
       </c>
-      <c r="D347" s="2" t="str">
+      <c r="D347" s="1" t="str">
         <v>皮肤</v>
       </c>
-      <c r="E347" s="1"/>
+      <c r="E347" s="2"/>
     </row>
     <row r="348">
-      <c r="A348" s="1">
+      <c r="A348" s="2">
         <v>100006</v>
       </c>
-      <c r="B348" s="10" t="str">
+      <c r="B348" s="12" t="str">
         <v>Text_VoucherExchange</v>
       </c>
-      <c r="C348" s="10" t="str">
+      <c r="C348" s="12" t="str">
         <v>Voucher Exchange</v>
       </c>
-      <c r="D348" s="10" t="str">
+      <c r="D348" s="12" t="str">
         <v>广告券兑换</v>
       </c>
-      <c r="E348" s="1"/>
+      <c r="E348" s="2"/>
     </row>
     <row r="349">
-      <c r="A349" s="1">
+      <c r="A349" s="2">
         <v>100007</v>
       </c>
-      <c r="B349" s="10" t="str">
+      <c r="B349" s="12" t="str">
         <v>Text_ASmallPileOfGoldCoins</v>
       </c>
-      <c r="C349" s="10" t="str">
+      <c r="C349" s="12" t="str">
         <v>Small Pile Of Gold Coins</v>
       </c>
-      <c r="D349" s="10" t="str">
+      <c r="D349" s="12" t="str">
         <v>一小堆金币</v>
       </c>
-      <c r="E349" s="1"/>
+      <c r="E349" s="2"/>
     </row>
     <row r="350">
-      <c r="A350" s="1">
+      <c r="A350" s="2">
         <v>100008</v>
       </c>
-      <c r="B350" s="10" t="str">
+      <c r="B350" s="12" t="str">
         <v>Text_APileOfGoldCoins</v>
       </c>
-      <c r="C350" s="10" t="str">
+      <c r="C350" s="12" t="str">
         <v>Pile Of Gold Coins</v>
       </c>
-      <c r="D350" s="10" t="str">
+      <c r="D350" s="12" t="str">
         <v>一大堆金币</v>
       </c>
-      <c r="E350" s="1"/>
+      <c r="E350" s="2"/>
     </row>
     <row r="351">
-      <c r="A351" s="1">
+      <c r="A351" s="2">
         <v>100009</v>
       </c>
-      <c r="B351" s="10" t="str">
+      <c r="B351" s="12" t="str">
         <v>Text_LimitedWeaponSakura</v>
       </c>
-      <c r="C351" s="10" t="str">
+      <c r="C351" s="12" t="str">
         <v>Limited Weapon
 Sakura</v>
       </c>
-      <c r="D351" s="10" t="str">
+      <c r="D351" s="12" t="str">
         <v>限定武器-樱</v>
       </c>
-      <c r="E351" s="1"/>
+      <c r="E351" s="2"/>
     </row>
     <row r="352">
-      <c r="A352" s="1">
+      <c r="A352" s="2">
         <v>100010</v>
       </c>
-      <c r="B352" s="10" t="str">
+      <c r="B352" s="12" t="str">
         <v>Text_LimitedWeaponButterfly</v>
       </c>
-      <c r="C352" s="10" t="str">
+      <c r="C352" s="12" t="str">
         <v>Limited Weapon
 Butterfly</v>
       </c>
-      <c r="D352" s="10" t="str">
+      <c r="D352" s="12" t="str">
         <v>限定武器-蝶</v>
       </c>
-      <c r="E352" s="1"/>
+      <c r="E352" s="2"/>
     </row>
     <row r="353">
-      <c r="A353" s="1">
+      <c r="A353" s="2">
         <v>100011</v>
       </c>
-      <c r="B353" s="10" t="str">
+      <c r="B353" s="12" t="str">
         <v>Text_LimitedWeaponPurpleLightsaber</v>
       </c>
-      <c r="C353" s="10" t="str">
+      <c r="C353" s="12" t="str">
         <v>Limited Weapon
 Purple Lightsaber</v>
       </c>
-      <c r="D353" s="10" t="str">
+      <c r="D353" s="12" t="str">
         <v>限定武器-紫光剑</v>
       </c>
-      <c r="E353" s="1"/>
+      <c r="E353" s="2"/>
     </row>
     <row r="354">
-      <c r="A354" s="1">
+      <c r="A354" s="2">
         <v>100012</v>
       </c>
-      <c r="B354" s="10" t="str">
+      <c r="B354" s="12" t="str">
         <v>Text_LimitedWeaponIceBow</v>
       </c>
-      <c r="C354" s="10" t="str">
+      <c r="C354" s="12" t="str">
         <v>Limited Weapon
 Ice Bow</v>
       </c>
-      <c r="D354" s="10" t="str">
+      <c r="D354" s="12" t="str">
         <v>限定武器-冰寒弓箭</v>
       </c>
-      <c r="E354" s="1"/>
+      <c r="E354" s="2"/>
     </row>
     <row r="355">
-      <c r="A355" s="1">
+      <c r="A355" s="2">
         <v>100013</v>
       </c>
-      <c r="B355" s="10" t="str">
+      <c r="B355" s="12" t="str">
         <v>Text_Expend</v>
       </c>
-      <c r="C355" s="10" t="str">
+      <c r="C355" s="12" t="str">
         <v>Expend</v>
       </c>
-      <c r="D355" s="10" t="str">
+      <c r="D355" s="12" t="str">
         <v>消耗</v>
       </c>
-      <c r="E355" s="1"/>
+      <c r="E355" s="2"/>
     </row>
     <row r="356">
-      <c r="A356" s="1">
+      <c r="A356" s="2">
         <v>100014</v>
       </c>
-      <c r="B356" s="1" t="str">
+      <c r="B356" s="2" t="str">
         <v>Text_KillerPowerAssembly</v>
       </c>
-      <c r="C356" s="24" t="str">
+      <c r="C356" s="32" t="str">
         <v>Killer Power Assembly</v>
       </c>
-      <c r="D356" s="2" t="str">
+      <c r="D356" s="1" t="str">
         <v>凶手能力装配</v>
       </c>
-      <c r="E356" s="1"/>
+      <c r="E356" s="2"/>
     </row>
     <row r="357">
-      <c r="A357" s="1">
+      <c r="A357" s="2">
         <v>100015</v>
       </c>
-      <c r="B357" s="1" t="str">
+      <c r="B357" s="2" t="str">
         <v>Text_Ads_1</v>
       </c>
-      <c r="C357" s="25" t="str">
+      <c r="C357" s="5" t="str">
         <v>Free Reward</v>
       </c>
-      <c r="D357" s="2" t="str">
+      <c r="D357" s="1" t="str">
         <v>免费奖励</v>
       </c>
-      <c r="E357" s="1"/>
+      <c r="E357" s="2"/>
     </row>
     <row r="358">
-      <c r="A358" s="1">
+      <c r="A358" s="2">
         <v>100016</v>
       </c>
-      <c r="B358" s="25" t="str">
+      <c r="B358" s="5" t="str">
         <v>Text_Ads_2</v>
       </c>
-      <c r="C358" s="2" t="str">
+      <c r="C358" s="1" t="str">
         <v>{0} Failed, Please Try Again</v>
       </c>
-      <c r="D358" s="2" t="str">
+      <c r="D358" s="1" t="str">
         <v>{0}失败，请重试</v>
       </c>
-      <c r="E358" s="1"/>
+      <c r="E358" s="2"/>
     </row>
     <row r="359">
-      <c r="A359" s="1">
+      <c r="A359" s="2">
         <v>100017</v>
       </c>
-      <c r="B359" s="1" t="str">
+      <c r="B359" s="2" t="str">
         <v>Text_Ads_3</v>
       </c>
-      <c r="C359" s="2" t="str">
+      <c r="C359" s="1" t="str">
         <v>Successful Costume Change</v>
       </c>
-      <c r="D359" s="2" t="str">
+      <c r="D359" s="1" t="str">
         <v>换装成功</v>
       </c>
-      <c r="E359" s="1"/>
+      <c r="E359" s="2"/>
     </row>
     <row r="360">
-      <c r="A360" s="1">
+      <c r="A360" s="2">
         <v>100018</v>
       </c>
-      <c r="B360" s="25" t="str">
+      <c r="B360" s="5" t="str">
         <v>Text_Ads_4</v>
       </c>
-      <c r="C360" s="2" t="str">
+      <c r="C360" s="1" t="str">
         <v>See Ads For Free Fittings</v>
       </c>
-      <c r="D360" s="2" t="str">
+      <c r="D360" s="1" t="str">
         <v>看广告免费试穿</v>
       </c>
-      <c r="E360" s="1"/>
+      <c r="E360" s="2"/>
     </row>
     <row r="361">
-      <c r="A361" s="1">
+      <c r="A361" s="2">
         <v>100019</v>
       </c>
-      <c r="B361" s="1" t="str">
+      <c r="B361" s="2" t="str">
         <v>Text_Ads_5</v>
       </c>
-      <c r="C361" s="2" t="str">
+      <c r="C361" s="1" t="str">
         <v>Free Try On</v>
       </c>
-      <c r="D361" s="2" t="str">
+      <c r="D361" s="1" t="str">
         <v>免费试穿</v>
       </c>
-      <c r="E361" s="1"/>
+      <c r="E361" s="2"/>
     </row>
     <row r="362">
-      <c r="A362" s="1">
+      <c r="A362" s="2">
         <v>100020</v>
       </c>
-      <c r="B362" s="25" t="str">
+      <c r="B362" s="5" t="str">
         <v>Text_Ads_6</v>
       </c>
-      <c r="C362" s="2" t="str">
+      <c r="C362" s="1" t="str">
         <v>Congratulations On Winning {0} Gold</v>
       </c>
-      <c r="D362" s="2" t="str">
+      <c r="D362" s="1" t="str">
         <v>恭喜获得{0}金币</v>
       </c>
-      <c r="E362" s="1"/>
+      <c r="E362" s="2"/>
     </row>
     <row r="363">
-      <c r="A363" s="1">
+      <c r="A363" s="2">
         <v>100021</v>
       </c>
-      <c r="B363" s="1" t="str">
+      <c r="B363" s="2" t="str">
         <v>Text_Ads_7</v>
       </c>
-      <c r="C363" s="2" t="str">
+      <c r="C363" s="1" t="str">
         <v>See Ads To Receive {0} Coins For Free</v>
       </c>
-      <c r="D363" s="2" t="str">
+      <c r="D363" s="1" t="str">
         <v>看广告免费领取{0}金币</v>
       </c>
-      <c r="E363" s="1"/>
+      <c r="E363" s="2"/>
     </row>
     <row r="364">
-      <c r="A364" s="1">
+      <c r="A364" s="2">
         <v>100022</v>
       </c>
-      <c r="B364" s="25" t="str">
+      <c r="B364" s="5" t="str">
         <v>Text_Ads_8</v>
       </c>
-      <c r="C364" s="2" t="str">
+      <c r="C364" s="1" t="str">
         <v>Congratulations On Getting {0} Advertising Vouchers</v>
       </c>
-      <c r="D364" s="2" t="str">
+      <c r="D364" s="1" t="str">
         <v>恭喜获得{0}张广告券</v>
       </c>
-      <c r="E364" s="1"/>
+      <c r="E364" s="2"/>
     </row>
     <row r="365">
-      <c r="A365" s="1">
+      <c r="A365" s="2">
         <v>100023</v>
       </c>
-      <c r="B365" s="1" t="str">
+      <c r="B365" s="2" t="str">
         <v>Text_Ads_9</v>
       </c>
-      <c r="C365" s="2" t="str">
+      <c r="C365" s="1" t="str">
         <v>Receive {0} Free Advertising Vouchers</v>
       </c>
-      <c r="D365" s="2" t="str">
+      <c r="D365" s="1" t="str">
         <v>免费领取{0}张广告券</v>
       </c>
-      <c r="E365" s="1"/>
+      <c r="E365" s="2"/>
     </row>
     <row r="366">
-      <c r="A366" s="1">
+      <c r="A366" s="2">
         <v>100024</v>
       </c>
-      <c r="B366" s="25" t="str">
+      <c r="B366" s="5" t="str">
         <v>Text_Ads_10</v>
       </c>
-      <c r="C366" s="2" t="str">
+      <c r="C366" s="1" t="str">
         <v>Free Double Gold
 Send Another Advertising Voucher.</v>
       </c>
-      <c r="D366" s="2" t="str">
+      <c r="D366" s="1" t="str">
         <v>免费领取双倍金币
 再送一张广告券</v>
       </c>
-      <c r="E366" s="1"/>
+      <c r="E366" s="2"/>
     </row>
     <row r="367">
-      <c r="A367" s="1">
+      <c r="A367" s="2">
         <v>100025</v>
       </c>
-      <c r="B367" s="1" t="str">
+      <c r="B367" s="2" t="str">
         <v>Text_FreeDraw</v>
       </c>
-      <c r="C367" s="2" t="str">
+      <c r="C367" s="1" t="str">
         <v>Free draw</v>
       </c>
-      <c r="D367" s="2" t="str">
+      <c r="D367" s="1" t="str">
         <v>免费抽奖</v>
       </c>
-      <c r="E367" s="1"/>
+      <c r="E367" s="2"/>
     </row>
     <row r="368">
-      <c r="A368" s="1">
+      <c r="A368" s="2">
         <v>100026</v>
       </c>
-      <c r="B368" s="1" t="str">
+      <c r="B368" s="2" t="str">
         <v>Text_Ranking</v>
       </c>
-      <c r="C368" s="2" t="str">
+      <c r="C368" s="1" t="str">
         <v>Ranking</v>
       </c>
-      <c r="D368" s="2" t="str">
+      <c r="D368" s="1" t="str">
         <v>排名</v>
       </c>
-      <c r="E368" s="1"/>
+      <c r="E368" s="2"/>
     </row>
     <row r="369">
-      <c r="A369" s="1">
+      <c r="A369" s="2">
         <v>100027</v>
       </c>
-      <c r="B369" s="1" t="str">
+      <c r="B369" s="2" t="str">
         <v>Text_nickname</v>
       </c>
-      <c r="C369" s="2" t="str">
+      <c r="C369" s="1" t="str">
         <v>nickname</v>
       </c>
-      <c r="D369" s="2" t="str">
+      <c r="D369" s="1" t="str">
         <v>昵称</v>
       </c>
-      <c r="E369" s="1"/>
+      <c r="E369" s="2"/>
     </row>
     <row r="370">
-      <c r="A370" s="1">
+      <c r="A370" s="2">
         <v>100028</v>
       </c>
-      <c r="B370" s="1" t="str">
+      <c r="B370" s="2" t="str">
         <v>Text_Altitude</v>
       </c>
-      <c r="C370" s="2" t="str">
+      <c r="C370" s="1" t="str">
         <v>Altitude</v>
       </c>
-      <c r="D370" s="2" t="str">
+      <c r="D370" s="1" t="str">
         <v>高度</v>
       </c>
-      <c r="E370" s="1"/>
+      <c r="E370" s="2"/>
     </row>
     <row r="371">
-      <c r="A371" s="1">
+      <c r="A371" s="2">
         <v>100029</v>
       </c>
-      <c r="B371" s="1" t="str">
+      <c r="B371" s="2" t="str">
         <v>Text_StartSettlement</v>
       </c>
-      <c r="C371" s="2" t="str">
+      <c r="C371" s="1" t="str">
         <v>Start settlement</v>
       </c>
-      <c r="D371" s="2" t="str">
+      <c r="D371" s="1" t="str">
         <v>开始结算</v>
       </c>
-      <c r="E371" s="1"/>
+      <c r="E371" s="2"/>
     </row>
     <row r="372">
-      <c r="A372" s="1">
+      <c r="A372" s="2">
         <v>100030</v>
       </c>
-      <c r="B372" s="1" t="str">
+      <c r="B372" s="2" t="str">
         <v>Text_PlayerIsDead</v>
       </c>
-      <c r="C372" s="2" t="str">
+      <c r="C372" s="1" t="str">
         <v>Player {0} is dead</v>
       </c>
-      <c r="D372" s="2" t="str">
+      <c r="D372" s="1" t="str">
         <v>玩家{0}死亡了</v>
       </c>
-      <c r="E372" s="1"/>
+      <c r="E372" s="2"/>
     </row>
     <row r="373">
-      <c r="A373" s="1">
+      <c r="A373" s="2">
         <v>100031</v>
       </c>
-      <c r="B373" s="1" t="str">
+      <c r="B373" s="2" t="str">
         <v>Text_1</v>
       </c>
-      <c r="C373" s="2" t="str">
+      <c r="C373" s="1" t="str">
         <v>If a player fails to enter the scene, the game restarts</v>
       </c>
-      <c r="D373" s="2" t="str">
+      <c r="D373" s="1" t="str">
         <v>有玩家没有成功进入场景，游戏重新开始</v>
       </c>
-      <c r="E373" s="1"/>
+      <c r="E373" s="2"/>
     </row>
     <row r="374">
-      <c r="A374" s="1">
+      <c r="A374" s="2">
         <v>100032</v>
       </c>
-      <c r="B374" s="1" t="str">
+      <c r="B374" s="2" t="str">
         <v>Text_World1</v>
       </c>
-      <c r="C374" s="2" t="str">
+      <c r="C374" s="1" t="str">
         <v>Don't reveal your identity easily
 Stay away from people who try to get close to you
 Don't trust anyone.
 Everyone can be dangerous!</v>
       </c>
-      <c r="D374" s="2" t="str">
+      <c r="D374" s="1" t="str">
         <v>不要轻易暴露自己的身份
 远离那些试图靠近你的人
 不要相信任何人
 每个人都可能很危险!</v>
       </c>
-      <c r="E374" s="1"/>
+      <c r="E374" s="2"/>
     </row>
     <row r="375">
-      <c r="A375" s="1">
+      <c r="A375" s="2">
         <v>100033</v>
       </c>
-      <c r="B375" s="1" t="str">
+      <c r="B375" s="2" t="str">
         <v>Text_World2</v>
       </c>
-      <c r="C375" s="2" t="str">
+      <c r="C375" s="1" t="str">
         <v>Pull out your pistol and tap the screen to fire
 Find the hidden killer and defeat him!
 Don't attack civilians.</v>
       </c>
-      <c r="D375" s="2" t="str">
+      <c r="D375" s="1" t="str">
         <v>掏出手枪后，点击屏幕射击
 找到隐藏的凶手，击败他!
 不要攻击平民</v>
       </c>
-      <c r="E375" s="1"/>
+      <c r="E375" s="2"/>
     </row>
     <row r="376">
-      <c r="A376" s="1">
+      <c r="A376" s="2">
         <v>100034</v>
       </c>
-      <c r="B376" s="1" t="str">
+      <c r="B376" s="2" t="str">
         <v>Text_World3</v>
       </c>
-      <c r="C376" s="2" t="str">
+      <c r="C376" s="1" t="str">
         <v>When you pull out a melee weapon, it will automatically attack surrounding players
 After taking out the long range knife, click the crosshairs to throw it
 Beat them all! Watch out, detective!</v>
       </c>
-      <c r="D376" s="2" t="str">
+      <c r="D376" s="1" t="str">
         <v>掏出近战武器后，会自动攻击周围玩家
 掏出远程飞刀后，点击准星来扔出
 击败所有人，小心侦探!</v>
       </c>
-      <c r="E376" s="1"/>
+      <c r="E376" s="2"/>
     </row>
     <row r="377">
-      <c r="A377" s="1">
+      <c r="A377" s="2">
         <v>100035</v>
       </c>
-      <c r="B377" s="1" t="str">
+      <c r="B377" s="2" t="str">
         <v>Text_World4</v>
       </c>
-      <c r="C377" s="2" t="str">
+      <c r="C377" s="1" t="str">
         <v>Restore default image</v>
       </c>
-      <c r="D377" s="2" t="str">
+      <c r="D377" s="1" t="str">
         <v>恢复默认形象</v>
       </c>
-      <c r="E377" s="1"/>
+      <c r="E377" s="2"/>
     </row>
     <row r="378">
-      <c r="A378" s="1">
+      <c r="A378" s="2">
         <v>100036</v>
       </c>
-      <c r="B378" s="1" t="str">
+      <c r="B378" s="2" t="str">
         <v>Text_Task1</v>
       </c>
-      <c r="C378" s="2" t="str">
+      <c r="C378" s="1" t="str">
         <v>non-repeatable</v>
       </c>
-      <c r="D378" s="2" t="str">
+      <c r="D378" s="1" t="str">
         <v>不能重复领取</v>
       </c>
-      <c r="E378" s="1"/>
+      <c r="E378" s="2"/>
     </row>
     <row r="379">
-      <c r="A379" s="1">
+      <c r="A379" s="2">
         <v>100037</v>
       </c>
-      <c r="B379" s="1" t="str">
+      <c r="B379" s="2" t="str">
         <v>Text_Task2</v>
       </c>
-      <c r="C379" s="2" t="str">
+      <c r="C379" s="1" t="str">
         <v>Online for less than {0} minutes</v>
       </c>
-      <c r="D379" s="2" t="str">
+      <c r="D379" s="1" t="str">
         <v>在线时间不足{0}分钟</v>
       </c>
-      <c r="E379" s="1"/>
+      <c r="E379" s="2"/>
     </row>
     <row r="380">
-      <c r="A380" s="1">
+      <c r="A380" s="2">
         <v>100038</v>
       </c>
-      <c r="B380" s="1" t="str">
+      <c r="B380" s="2" t="str">
         <v>Text_Task3</v>
       </c>
-      <c r="C380" s="2" t="str">
+      <c r="C380" s="1" t="str">
         <v>Claimed</v>
       </c>
-      <c r="D380" s="2" t="str">
+      <c r="D380" s="1" t="str">
         <v>已领取</v>
       </c>
-      <c r="E380" s="1"/>
+      <c r="E380" s="2"/>
     </row>
     <row r="381">
-      <c r="A381" s="1">
+      <c r="A381" s="2">
         <v>100039</v>
       </c>
-      <c r="B381" s="1" t="str">
+      <c r="B381" s="2" t="str">
         <v>Text_Task4</v>
       </c>
-      <c r="C381" s="2" t="str">
+      <c r="C381" s="1" t="str">
         <v>Bonus Gold</v>
       </c>
-      <c r="D381" s="2" t="str">
+      <c r="D381" s="1" t="str">
         <v>奖励金币</v>
       </c>
-      <c r="E381" s="1"/>
+      <c r="E381" s="2"/>
     </row>
     <row r="382">
-      <c r="A382" s="1">
+      <c r="A382" s="2">
         <v>100040</v>
       </c>
-      <c r="B382" s="1" t="str">
+      <c r="B382" s="2" t="str">
         <v>Text_Task5</v>
       </c>
-      <c r="C382" s="2" t="str">
+      <c r="C382" s="1" t="str">
         <v>Tomorrow's Reward</v>
       </c>
-      <c r="D382" s="2" t="str">
+      <c r="D382" s="1" t="str">
         <v>明日奖励</v>
       </c>
-      <c r="E382" s="1"/>
+      <c r="E382" s="2"/>
     </row>
     <row r="383">
-      <c r="A383" s="1">
+      <c r="A383" s="2">
         <v>100041</v>
       </c>
-      <c r="B383" s="1" t="str">
+      <c r="B383" s="2" t="str">
         <v>Text_Task6</v>
       </c>
-      <c r="C383" s="2" t="str">
+      <c r="C383" s="1" t="str">
         <v>Free Online {0} Minutes ({1}/{2})</v>
       </c>
-      <c r="D383" s="2" t="str">
+      <c r="D383" s="1" t="str">
         <v>在线{0}分钟免费领取({1}/{2})</v>
       </c>
-      <c r="E383" s="1"/>
+      <c r="E383" s="2"/>
     </row>
     <row r="384">
-      <c r="A384" s="1">
+      <c r="A384" s="2">
         <v>100042</v>
       </c>
-      <c r="B384" s="1" t="str">
+      <c r="B384" s="2" t="str">
         <v>Text_Task7</v>
       </c>
-      <c r="C384" s="2" t="str">
+      <c r="C384" s="1" t="str">
         <v>Receive successfully, open the shop to use</v>
       </c>
-      <c r="D384" s="2" t="str">
+      <c r="D384" s="1" t="str">
         <v>领取成功、打开商店使用</v>
       </c>
-      <c r="E384" s="1"/>
+      <c r="E384" s="2"/>
     </row>
     <row r="385">
-      <c r="A385" s="1">
+      <c r="A385" s="2">
         <v>100043</v>
       </c>
-      <c r="B385" s="25" t="str">
+      <c r="B385" s="5" t="str">
         <v>Text_SoldouttodayPleaseReplaceWithOtherProductsToPurchase</v>
       </c>
-      <c r="C385" s="25" t="str">
+      <c r="C385" s="5" t="str">
         <v>Sold Out Today, Please Replace With Other Products To Purchase</v>
       </c>
-      <c r="D385" s="25" t="str">
+      <c r="D385" s="5" t="str">
         <v>今日已售空,请更换其他商品购买</v>
       </c>
-      <c r="E385" s="1"/>
+      <c r="E385" s="2"/>
     </row>
     <row r="386">
-      <c r="A386" s="1">
+      <c r="A386" s="2">
         <v>100044</v>
       </c>
-      <c r="B386" s="25" t="str">
+      <c r="B386" s="5" t="str">
         <v>Text_Rechargediamonds</v>
       </c>
-      <c r="C386" s="25" t="str">
+      <c r="C386" s="5" t="str">
         <v>Recharge</v>
       </c>
-      <c r="D386" s="25" t="str">
+      <c r="D386" s="5" t="str">
         <v>充值广告券</v>
       </c>
-      <c r="E386" s="1"/>
+      <c r="E386" s="2"/>
     </row>
     <row r="387">
-      <c r="A387" s="1">
+      <c r="A387" s="2">
         <v>100045</v>
       </c>
-      <c r="B387" s="25" t="str">
+      <c r="B387" s="5" t="str">
         <v>Text_Nopurchaserestrictions</v>
       </c>
-      <c r="C387" s="25" t="str">
+      <c r="C387" s="5" t="str">
         <v>No purchase Restrictions</v>
       </c>
-      <c r="D387" s="25" t="str">
+      <c r="D387" s="5" t="str">
         <v>不限购</v>
       </c>
-      <c r="E387" s="1"/>
+      <c r="E387" s="2"/>
     </row>
     <row r="388">
-      <c r="A388" s="1">
+      <c r="A388" s="2">
         <v>100046</v>
       </c>
-      <c r="B388" s="25" t="str">
+      <c r="B388" s="5" t="str">
         <v>Text_Soldouttoday</v>
       </c>
-      <c r="C388" s="25" t="str">
+      <c r="C388" s="5" t="str">
         <v>Sold Out Today</v>
       </c>
-      <c r="D388" s="25" t="str">
+      <c r="D388" s="5" t="str">
         <v>今日已售空</v>
       </c>
-      <c r="E388" s="1"/>
+      <c r="E388" s="2"/>
     </row>
     <row r="389">
-      <c r="A389" s="1">
+      <c r="A389" s="2">
         <v>100047</v>
       </c>
-      <c r="B389" s="25" t="str">
+      <c r="B389" s="5" t="str">
         <v>Text_Limitedtoonepurchaseperday</v>
       </c>
-      <c r="C389" s="25" t="str">
+      <c r="C389" s="5" t="str">
         <v>Limited To One Purchase Per Day</v>
       </c>
-      <c r="D389" s="25" t="str">
+      <c r="D389" s="5" t="str">
         <v>每天限购一次</v>
       </c>
-      <c r="E389" s="1"/>
+      <c r="E389" s="2"/>
     </row>
     <row r="390">
-      <c r="A390" s="1">
+      <c r="A390" s="2">
         <v>100048</v>
       </c>
-      <c r="B390" s="1" t="str">
+      <c r="B390" s="2" t="str">
         <v>Text_AdvertisingCoupon</v>
       </c>
-      <c r="C390" s="2" t="str">
+      <c r="C390" s="1" t="str">
         <v>Coupon</v>
       </c>
-      <c r="D390" s="2" t="str">
+      <c r="D390" s="1" t="str">
         <v>广告券</v>
       </c>
-      <c r="E390" s="1"/>
+      <c r="E390" s="2"/>
     </row>
     <row r="391">
-      <c r="A391" s="1">
+      <c r="A391" s="2">
         <v>100049</v>
       </c>
-      <c r="B391" s="1" t="str">
+      <c r="B391" s="2" t="str">
         <v>Text_TipsTooFast</v>
       </c>
-      <c r="C391" s="2" t="str">
+      <c r="C391" s="1" t="str">
         <v>Don't order too fast</v>
       </c>
-      <c r="D391" s="2" t="str">
+      <c r="D391" s="1" t="str">
         <v>别点太快</v>
       </c>
-      <c r="E391" s="1"/>
+      <c r="E391" s="2"/>
     </row>
     <row r="392">
-      <c r="A392" s="1">
+      <c r="A392" s="2">
         <v>100050</v>
       </c>
-      <c r="B392" s="1" t="str">
+      <c r="B392" s="2" t="str">
         <v>Text_ChangeClothes</v>
       </c>
-      <c r="C392" s="2" t="str">
+      <c r="C392" s="1" t="str">
         <v>Clothes</v>
       </c>
-      <c r="D392" s="2" t="str">
+      <c r="D392" s="1" t="str">
         <v>超级装扮</v>
       </c>
-      <c r="E392" s="1"/>
+      <c r="E392" s="2"/>
     </row>
     <row r="393">
-      <c r="A393" s="6"/>
-      <c r="B393" s="6"/>
-      <c r="C393" s="7"/>
-      <c r="D393" s="5"/>
+      <c r="A393" s="2">
+        <v>100051</v>
+      </c>
+      <c r="B393" s="17" t="str">
+        <v>Level_Name_10004</v>
+      </c>
+      <c r="C393" s="7" t="str">
+        <v>Terror Campus</v>
+      </c>
+      <c r="D393" s="8" t="str">
+        <v>恐怖校园</v>
+      </c>
       <c r="E393" s="6"/>
     </row>
     <row r="394">
       <c r="A394" s="6"/>
       <c r="B394" s="6"/>
       <c r="C394" s="7"/>
-      <c r="D394" s="5"/>
+      <c r="D394" s="8"/>
       <c r="E394" s="6"/>
     </row>
     <row r="395">
       <c r="A395" s="6"/>
       <c r="B395" s="6"/>
       <c r="C395" s="7"/>
-      <c r="D395" s="5"/>
+      <c r="D395" s="8"/>
       <c r="E395" s="6"/>
     </row>
     <row r="396">
       <c r="A396" s="6"/>
       <c r="B396" s="6"/>
       <c r="C396" s="7"/>
-      <c r="D396" s="5"/>
+      <c r="D396" s="8"/>
       <c r="E396" s="6"/>
     </row>
     <row r="397">
       <c r="A397" s="6"/>
       <c r="B397" s="6"/>
       <c r="C397" s="7"/>
-      <c r="D397" s="5"/>
+      <c r="D397" s="8"/>
       <c r="E397" s="6"/>
     </row>
     <row r="398">
       <c r="A398" s="6"/>
       <c r="B398" s="6"/>
       <c r="C398" s="7"/>
-      <c r="D398" s="5"/>
+      <c r="D398" s="8"/>
       <c r="E398" s="6"/>
     </row>
     <row r="399">
       <c r="A399" s="6"/>
       <c r="B399" s="6"/>
       <c r="C399" s="7"/>
-      <c r="D399" s="5"/>
+      <c r="D399" s="8"/>
       <c r="E399" s="6"/>
     </row>
     <row r="400">
       <c r="A400" s="6"/>
       <c r="B400" s="6"/>
       <c r="C400" s="7"/>
-      <c r="D400" s="5"/>
+      <c r="D400" s="8"/>
       <c r="E400" s="6"/>
     </row>
     <row r="401">
       <c r="A401" s="6"/>
       <c r="B401" s="6"/>
       <c r="C401" s="7"/>
-      <c r="D401" s="5"/>
+      <c r="D401" s="8"/>
       <c r="E401" s="6"/>
     </row>
     <row r="402">
       <c r="A402" s="6"/>
       <c r="B402" s="6"/>
       <c r="C402" s="7"/>
-      <c r="D402" s="5"/>
+      <c r="D402" s="8"/>
       <c r="E402" s="6"/>
     </row>
     <row r="403">
       <c r="A403" s="6"/>
       <c r="B403" s="6"/>
       <c r="C403" s="7"/>
-      <c r="D403" s="5"/>
+      <c r="D403" s="8"/>
       <c r="E403" s="6"/>
     </row>
     <row r="404">
       <c r="A404" s="6"/>
       <c r="B404" s="6"/>
       <c r="C404" s="7"/>
-      <c r="D404" s="5"/>
+      <c r="D404" s="8"/>
       <c r="E404" s="6"/>
     </row>
     <row r="405">
       <c r="A405" s="6"/>
       <c r="B405" s="6"/>
       <c r="C405" s="7"/>
-      <c r="D405" s="5"/>
+      <c r="D405" s="8"/>
       <c r="E405" s="6"/>
     </row>
     <row r="406">
       <c r="A406" s="6"/>
       <c r="B406" s="6"/>
       <c r="C406" s="7"/>
-      <c r="D406" s="5"/>
+      <c r="D406" s="8"/>
       <c r="E406" s="6"/>
     </row>
     <row r="407">
       <c r="A407" s="6"/>
       <c r="B407" s="6"/>
       <c r="C407" s="7"/>
-      <c r="D407" s="5"/>
+      <c r="D407" s="8"/>
       <c r="E407" s="6"/>
     </row>
     <row r="408">
       <c r="A408" s="6"/>
       <c r="B408" s="6"/>
       <c r="C408" s="7"/>
-      <c r="D408" s="5"/>
+      <c r="D408" s="8"/>
       <c r="E408" s="6"/>
     </row>
     <row r="409">
       <c r="A409" s="6"/>
       <c r="B409" s="6"/>
       <c r="C409" s="7"/>
-      <c r="D409" s="5"/>
+      <c r="D409" s="8"/>
       <c r="E409" s="6"/>
     </row>
     <row r="410">
       <c r="A410" s="6"/>
       <c r="B410" s="6"/>
       <c r="C410" s="7"/>
-      <c r="D410" s="5"/>
+      <c r="D410" s="8"/>
       <c r="E410" s="6"/>
     </row>
     <row r="411">
       <c r="A411" s="6"/>
       <c r="B411" s="6"/>
       <c r="C411" s="7"/>
-      <c r="D411" s="5"/>
+      <c r="D411" s="8"/>
       <c r="E411" s="6"/>
     </row>
     <row r="412">
       <c r="A412" s="6"/>
       <c r="B412" s="6"/>
       <c r="C412" s="7"/>
-      <c r="D412" s="5"/>
+      <c r="D412" s="8"/>
       <c r="E412" s="6"/>
     </row>
     <row r="413">
       <c r="A413" s="6"/>
       <c r="B413" s="6"/>
       <c r="C413" s="7"/>
-      <c r="D413" s="5"/>
+      <c r="D413" s="8"/>
       <c r="E413" s="6"/>
     </row>
     <row r="414">
       <c r="A414" s="6"/>
       <c r="B414" s="6"/>
       <c r="C414" s="7"/>
-      <c r="D414" s="5"/>
+      <c r="D414" s="8"/>
       <c r="E414" s="6"/>
     </row>
     <row r="415">
       <c r="A415" s="6"/>
       <c r="B415" s="6"/>
       <c r="C415" s="7"/>
-      <c r="D415" s="5"/>
+      <c r="D415" s="8"/>
       <c r="E415" s="6"/>
     </row>
     <row r="416">
       <c r="A416" s="6"/>
       <c r="B416" s="6"/>
       <c r="C416" s="7"/>
-      <c r="D416" s="5"/>
+      <c r="D416" s="8"/>
       <c r="E416" s="6"/>
     </row>
     <row r="417">
       <c r="A417" s="6"/>
       <c r="B417" s="6"/>
       <c r="C417" s="7"/>
-      <c r="D417" s="5"/>
+      <c r="D417" s="8"/>
       <c r="E417" s="6"/>
     </row>
     <row r="418">
       <c r="A418" s="6"/>
       <c r="B418" s="6"/>
       <c r="C418" s="7"/>
-      <c r="D418" s="5"/>
+      <c r="D418" s="8"/>
       <c r="E418" s="6"/>
     </row>
     <row r="419">
       <c r="A419" s="6"/>
       <c r="B419" s="6"/>
       <c r="C419" s="7"/>
-      <c r="D419" s="5"/>
+      <c r="D419" s="8"/>
       <c r="E419" s="6"/>
     </row>
     <row r="420">
       <c r="A420" s="6"/>
       <c r="B420" s="6"/>
       <c r="C420" s="7"/>
-      <c r="D420" s="5"/>
+      <c r="D420" s="8"/>
       <c r="E420" s="6"/>
     </row>
     <row r="421">
       <c r="A421" s="6"/>
       <c r="B421" s="6"/>
       <c r="C421" s="7"/>
-      <c r="D421" s="5"/>
+      <c r="D421" s="8"/>
       <c r="E421" s="6"/>
     </row>
     <row r="422">
       <c r="A422" s="6"/>
       <c r="B422" s="6"/>
       <c r="C422" s="7"/>
-      <c r="D422" s="5"/>
+      <c r="D422" s="8"/>
       <c r="E422" s="6"/>
     </row>
     <row r="423">
       <c r="A423" s="6"/>
       <c r="B423" s="6"/>
       <c r="C423" s="7"/>
-      <c r="D423" s="5"/>
+      <c r="D423" s="8"/>
       <c r="E423" s="6"/>
     </row>
     <row r="424">
       <c r="A424" s="6"/>
       <c r="B424" s="6"/>
       <c r="C424" s="7"/>
-      <c r="D424" s="5"/>
+      <c r="D424" s="8"/>
       <c r="E424" s="6"/>
     </row>
     <row r="425">
       <c r="A425" s="6"/>
       <c r="B425" s="6"/>
       <c r="C425" s="7"/>
-      <c r="D425" s="5"/>
+      <c r="D425" s="8"/>
       <c r="E425" s="6"/>
     </row>
     <row r="426">
       <c r="A426" s="6"/>
       <c r="B426" s="6"/>
       <c r="C426" s="7"/>
-      <c r="D426" s="5"/>
+      <c r="D426" s="8"/>
       <c r="E426" s="6"/>
     </row>
     <row r="427">
       <c r="A427" s="6"/>
       <c r="B427" s="6"/>
       <c r="C427" s="7"/>
-      <c r="D427" s="5"/>
+      <c r="D427" s="8"/>
       <c r="E427" s="6"/>
     </row>
     <row r="428">
       <c r="A428" s="6"/>
       <c r="B428" s="6"/>
       <c r="C428" s="7"/>
-      <c r="D428" s="5"/>
+      <c r="D428" s="8"/>
       <c r="E428" s="6"/>
     </row>
     <row r="429">
       <c r="A429" s="6"/>
       <c r="B429" s="6"/>
       <c r="C429" s="7"/>
-      <c r="D429" s="5"/>
+      <c r="D429" s="8"/>
       <c r="E429" s="6"/>
     </row>
     <row r="430">
       <c r="A430" s="6"/>
       <c r="B430" s="6"/>
       <c r="C430" s="7"/>
-      <c r="D430" s="5"/>
+      <c r="D430" s="8"/>
       <c r="E430" s="6"/>
     </row>
     <row r="431">
       <c r="A431" s="6"/>
       <c r="B431" s="6"/>
       <c r="C431" s="7"/>
-      <c r="D431" s="5"/>
+      <c r="D431" s="8"/>
       <c r="E431" s="6"/>
     </row>
     <row r="432">
       <c r="A432" s="6"/>
       <c r="B432" s="6"/>
       <c r="C432" s="7"/>
-      <c r="D432" s="5"/>
+      <c r="D432" s="8"/>
       <c r="E432" s="6"/>
     </row>
     <row r="433">
       <c r="A433" s="6"/>
       <c r="B433" s="6"/>
       <c r="C433" s="7"/>
-      <c r="D433" s="5"/>
+      <c r="D433" s="8"/>
       <c r="E433" s="6"/>
     </row>
     <row r="434">
       <c r="A434" s="6"/>
       <c r="B434" s="6"/>
       <c r="C434" s="7"/>
-      <c r="D434" s="5"/>
+      <c r="D434" s="8"/>
       <c r="E434" s="6"/>
     </row>
     <row r="435">
       <c r="A435" s="6"/>
       <c r="B435" s="6"/>
       <c r="C435" s="7"/>
-      <c r="D435" s="5"/>
+      <c r="D435" s="8"/>
       <c r="E435" s="6"/>
     </row>
     <row r="436">
       <c r="A436" s="6"/>
       <c r="B436" s="6"/>
       <c r="C436" s="7"/>
-      <c r="D436" s="5"/>
+      <c r="D436" s="8"/>
       <c r="E436" s="6"/>
     </row>
     <row r="437">
       <c r="A437" s="6"/>
       <c r="B437" s="6"/>
       <c r="C437" s="7"/>
-      <c r="D437" s="5"/>
+      <c r="D437" s="8"/>
       <c r="E437" s="6"/>
     </row>
     <row r="438">
       <c r="A438" s="6"/>
       <c r="B438" s="6"/>
       <c r="C438" s="7"/>
-      <c r="D438" s="5"/>
+      <c r="D438" s="8"/>
       <c r="E438" s="6"/>
     </row>
     <row r="439">
       <c r="A439" s="6"/>
       <c r="B439" s="6"/>
       <c r="C439" s="7"/>
-      <c r="D439" s="5"/>
+      <c r="D439" s="8"/>
       <c r="E439" s="6"/>
     </row>
     <row r="440">
       <c r="A440" s="6"/>
       <c r="B440" s="6"/>
       <c r="C440" s="7"/>
-      <c r="D440" s="5"/>
+      <c r="D440" s="8"/>
       <c r="E440" s="6"/>
     </row>
     <row r="441">
       <c r="A441" s="6"/>
       <c r="B441" s="6"/>
       <c r="C441" s="7"/>
-      <c r="D441" s="5"/>
+      <c r="D441" s="8"/>
       <c r="E441" s="6"/>
     </row>
     <row r="442">
       <c r="A442" s="6"/>
       <c r="B442" s="6"/>
       <c r="C442" s="7"/>
-      <c r="D442" s="5"/>
+      <c r="D442" s="8"/>
       <c r="E442" s="6"/>
     </row>
     <row r="443">
       <c r="A443" s="6"/>
       <c r="B443" s="6"/>
       <c r="C443" s="7"/>
-      <c r="D443" s="5"/>
+      <c r="D443" s="8"/>
       <c r="E443" s="6"/>
     </row>
     <row r="444">
       <c r="A444" s="6"/>
       <c r="B444" s="6"/>
       <c r="C444" s="7"/>
-      <c r="D444" s="5"/>
+      <c r="D444" s="8"/>
       <c r="E444" s="6"/>
     </row>
     <row r="445">
       <c r="A445" s="6"/>
       <c r="B445" s="6"/>
       <c r="C445" s="7"/>
-      <c r="D445" s="5"/>
+      <c r="D445" s="8"/>
       <c r="E445" s="6"/>
     </row>
     <row r="446">
       <c r="A446" s="6"/>
       <c r="B446" s="6"/>
       <c r="C446" s="7"/>
-      <c r="D446" s="5"/>
+      <c r="D446" s="8"/>
       <c r="E446" s="6"/>
     </row>
     <row r="447">
       <c r="A447" s="6"/>
       <c r="B447" s="6"/>
       <c r="C447" s="7"/>
-      <c r="D447" s="5"/>
+      <c r="D447" s="8"/>
       <c r="E447" s="6"/>
     </row>
     <row r="448">
       <c r="A448" s="6"/>
       <c r="B448" s="6"/>
       <c r="C448" s="7"/>
-      <c r="D448" s="5"/>
+      <c r="D448" s="8"/>
       <c r="E448" s="6"/>
     </row>
     <row r="449">
       <c r="A449" s="6"/>
       <c r="B449" s="6"/>
       <c r="C449" s="7"/>
-      <c r="D449" s="5"/>
+      <c r="D449" s="8"/>
       <c r="E449" s="6"/>
     </row>
     <row r="450">
       <c r="A450" s="6"/>
       <c r="B450" s="6"/>
       <c r="C450" s="7"/>
-      <c r="D450" s="5"/>
+      <c r="D450" s="8"/>
       <c r="E450" s="6"/>
     </row>
     <row r="451">
       <c r="A451" s="6"/>
       <c r="B451" s="6"/>
       <c r="C451" s="7"/>
-      <c r="D451" s="5"/>
+      <c r="D451" s="8"/>
       <c r="E451" s="6"/>
     </row>
     <row r="452">
       <c r="A452" s="6"/>
       <c r="B452" s="6"/>
       <c r="C452" s="7"/>
-      <c r="D452" s="5"/>
+      <c r="D452" s="8"/>
       <c r="E452" s="6"/>
     </row>
     <row r="453">
       <c r="A453" s="6"/>
       <c r="B453" s="6"/>
       <c r="C453" s="7"/>
-      <c r="D453" s="5"/>
+      <c r="D453" s="8"/>
       <c r="E453" s="6"/>
     </row>
     <row r="454">
       <c r="A454" s="6"/>
       <c r="B454" s="6"/>
       <c r="C454" s="7"/>
-      <c r="D454" s="5"/>
+      <c r="D454" s="8"/>
       <c r="E454" s="6"/>
     </row>
     <row r="455">
       <c r="A455" s="6"/>
       <c r="B455" s="6"/>
       <c r="C455" s="7"/>
-      <c r="D455" s="5"/>
+      <c r="D455" s="8"/>
       <c r="E455" s="6"/>
     </row>
     <row r="456">
       <c r="A456" s="6"/>
       <c r="B456" s="6"/>
       <c r="C456" s="7"/>
-      <c r="D456" s="5"/>
+      <c r="D456" s="8"/>
       <c r="E456" s="6"/>
     </row>
     <row r="457">
       <c r="A457" s="6"/>
       <c r="B457" s="6"/>
       <c r="C457" s="7"/>
-      <c r="D457" s="5"/>
+      <c r="D457" s="8"/>
       <c r="E457" s="6"/>
     </row>
     <row r="458">
       <c r="A458" s="6"/>
       <c r="B458" s="6"/>
       <c r="C458" s="7"/>
-      <c r="D458" s="5"/>
+      <c r="D458" s="8"/>
       <c r="E458" s="6"/>
     </row>
     <row r="459">
       <c r="A459" s="6"/>
       <c r="B459" s="6"/>
       <c r="C459" s="7"/>
-      <c r="D459" s="5"/>
+      <c r="D459" s="8"/>
       <c r="E459" s="6"/>
     </row>
     <row r="460">
       <c r="A460" s="6"/>
       <c r="B460" s="6"/>
       <c r="C460" s="7"/>
-      <c r="D460" s="5"/>
+      <c r="D460" s="8"/>
       <c r="E460" s="6"/>
     </row>
     <row r="461">
       <c r="A461" s="6"/>
       <c r="B461" s="6"/>
       <c r="C461" s="7"/>
-      <c r="D461" s="5"/>
+      <c r="D461" s="8"/>
       <c r="E461" s="6"/>
     </row>
     <row r="462">
       <c r="A462" s="6"/>
       <c r="B462" s="6"/>
       <c r="C462" s="7"/>
-      <c r="D462" s="5"/>
+      <c r="D462" s="8"/>
       <c r="E462" s="6"/>
     </row>
     <row r="463">
       <c r="A463" s="6"/>
       <c r="B463" s="6"/>
       <c r="C463" s="7"/>
-      <c r="D463" s="5"/>
+      <c r="D463" s="8"/>
       <c r="E463" s="6"/>
     </row>
     <row r="464">
       <c r="A464" s="6"/>
       <c r="B464" s="6"/>
       <c r="C464" s="7"/>
-      <c r="D464" s="5"/>
+      <c r="D464" s="8"/>
       <c r="E464" s="6"/>
     </row>
     <row r="465">
       <c r="A465" s="6"/>
       <c r="B465" s="6"/>
       <c r="C465" s="7"/>
-      <c r="D465" s="5"/>
+      <c r="D465" s="8"/>
       <c r="E465" s="6"/>
     </row>
     <row r="466">
       <c r="A466" s="6"/>
       <c r="B466" s="6"/>
       <c r="C466" s="7"/>
-      <c r="D466" s="5"/>
+      <c r="D466" s="8"/>
       <c r="E466" s="6"/>
     </row>
     <row r="467">
       <c r="A467" s="6"/>
       <c r="B467" s="6"/>
       <c r="C467" s="7"/>
-      <c r="D467" s="5"/>
+      <c r="D467" s="8"/>
       <c r="E467" s="6"/>
     </row>
     <row r="468">
       <c r="A468" s="6"/>
       <c r="B468" s="6"/>
       <c r="C468" s="7"/>
-      <c r="D468" s="5"/>
+      <c r="D468" s="8"/>
       <c r="E468" s="6"/>
     </row>
     <row r="469">
       <c r="A469" s="6"/>
       <c r="B469" s="6"/>
       <c r="C469" s="7"/>
-      <c r="D469" s="5"/>
+      <c r="D469" s="8"/>
       <c r="E469" s="6"/>
     </row>
     <row r="470">
       <c r="A470" s="6"/>
       <c r="B470" s="6"/>
       <c r="C470" s="7"/>
-      <c r="D470" s="5"/>
+      <c r="D470" s="8"/>
       <c r="E470" s="6"/>
     </row>
     <row r="471">
       <c r="A471" s="6"/>
       <c r="B471" s="6"/>
       <c r="C471" s="7"/>
-      <c r="D471" s="5"/>
+      <c r="D471" s="8"/>
       <c r="E471" s="6"/>
     </row>
     <row r="472">
       <c r="A472" s="6"/>
       <c r="B472" s="6"/>
       <c r="C472" s="7"/>
-      <c r="D472" s="5"/>
+      <c r="D472" s="8"/>
       <c r="E472" s="6"/>
     </row>
     <row r="473">
       <c r="A473" s="6"/>
       <c r="B473" s="6"/>
       <c r="C473" s="7"/>
-      <c r="D473" s="5"/>
+      <c r="D473" s="8"/>
       <c r="E473" s="6"/>
     </row>
     <row r="474">
       <c r="A474" s="6"/>
       <c r="B474" s="6"/>
       <c r="C474" s="7"/>
-      <c r="D474" s="5"/>
+      <c r="D474" s="8"/>
       <c r="E474" s="6"/>
     </row>
     <row r="475">
       <c r="A475" s="6"/>
       <c r="B475" s="6"/>
       <c r="C475" s="7"/>
-      <c r="D475" s="5"/>
+      <c r="D475" s="8"/>
       <c r="E475" s="6"/>
     </row>
     <row r="476">
       <c r="A476" s="6"/>
       <c r="B476" s="6"/>
       <c r="C476" s="7"/>
-      <c r="D476" s="5"/>
+      <c r="D476" s="8"/>
       <c r="E476" s="6"/>
     </row>
     <row r="477">
       <c r="A477" s="6"/>
       <c r="B477" s="6"/>
       <c r="C477" s="7"/>
-      <c r="D477" s="5"/>
+      <c r="D477" s="8"/>
       <c r="E477" s="6"/>
     </row>
     <row r="478">
       <c r="A478" s="6"/>
       <c r="B478" s="6"/>
       <c r="C478" s="7"/>
-      <c r="D478" s="5"/>
+      <c r="D478" s="8"/>
       <c r="E478" s="6"/>
     </row>
     <row r="479">
       <c r="A479" s="6"/>
       <c r="B479" s="6"/>
       <c r="C479" s="7"/>
-      <c r="D479" s="5"/>
+      <c r="D479" s="8"/>
       <c r="E479" s="6"/>
     </row>
     <row r="480">
       <c r="A480" s="6"/>
       <c r="B480" s="6"/>
       <c r="C480" s="7"/>
-      <c r="D480" s="5"/>
+      <c r="D480" s="8"/>
       <c r="E480" s="6"/>
     </row>
     <row r="481">
       <c r="A481" s="6"/>
       <c r="B481" s="6"/>
       <c r="C481" s="7"/>
-      <c r="D481" s="5"/>
+      <c r="D481" s="8"/>
       <c r="E481" s="6"/>
     </row>
     <row r="482">
       <c r="A482" s="6"/>
       <c r="B482" s="6"/>
       <c r="C482" s="7"/>
-      <c r="D482" s="5"/>
+      <c r="D482" s="8"/>
       <c r="E482" s="6"/>
     </row>
     <row r="483">
       <c r="A483" s="6"/>
       <c r="B483" s="6"/>
       <c r="C483" s="7"/>
-      <c r="D483" s="5"/>
+      <c r="D483" s="8"/>
       <c r="E483" s="6"/>
     </row>
     <row r="484">
       <c r="A484" s="6"/>
       <c r="B484" s="6"/>
       <c r="C484" s="7"/>
-      <c r="D484" s="5"/>
+      <c r="D484" s="8"/>
       <c r="E484" s="6"/>
     </row>
     <row r="485">
       <c r="A485" s="6"/>
       <c r="B485" s="6"/>
       <c r="C485" s="7"/>
-      <c r="D485" s="5"/>
+      <c r="D485" s="8"/>
       <c r="E485" s="6"/>
     </row>
     <row r="486">
       <c r="A486" s="6"/>
       <c r="B486" s="6"/>
       <c r="C486" s="7"/>
-      <c r="D486" s="5"/>
+      <c r="D486" s="8"/>
       <c r="E486" s="6"/>
     </row>
     <row r="487">
       <c r="A487" s="6"/>
       <c r="B487" s="6"/>
       <c r="C487" s="7"/>
-      <c r="D487" s="5"/>
+      <c r="D487" s="8"/>
       <c r="E487" s="6"/>
     </row>
     <row r="488">
       <c r="A488" s="6"/>
       <c r="B488" s="6"/>
       <c r="C488" s="7"/>
-      <c r="D488" s="5"/>
+      <c r="D488" s="8"/>
       <c r="E488" s="6"/>
     </row>
     <row r="489">
       <c r="A489" s="6"/>
       <c r="B489" s="6"/>
       <c r="C489" s="7"/>
-      <c r="D489" s="5"/>
+      <c r="D489" s="8"/>
       <c r="E489" s="6"/>
     </row>
     <row r="490">
       <c r="A490" s="6"/>
       <c r="B490" s="6"/>
       <c r="C490" s="7"/>
-      <c r="D490" s="5"/>
+      <c r="D490" s="8"/>
       <c r="E490" s="6"/>
     </row>
     <row r="491">
       <c r="A491" s="6"/>
       <c r="B491" s="6"/>
       <c r="C491" s="7"/>
-      <c r="D491" s="5"/>
+      <c r="D491" s="8"/>
       <c r="E491" s="6"/>
     </row>
     <row r="492">
       <c r="A492" s="6"/>
       <c r="B492" s="6"/>
       <c r="C492" s="7"/>
-      <c r="D492" s="5"/>
+      <c r="D492" s="8"/>
       <c r="E492" s="6"/>
     </row>
     <row r="493">
       <c r="A493" s="6"/>
       <c r="B493" s="6"/>
       <c r="C493" s="7"/>
-      <c r="D493" s="5"/>
+      <c r="D493" s="8"/>
       <c r="E493" s="6"/>
     </row>
     <row r="494">
       <c r="A494" s="6"/>
       <c r="B494" s="6"/>
       <c r="C494" s="7"/>
-      <c r="D494" s="5"/>
+      <c r="D494" s="8"/>
       <c r="E494" s="6"/>
     </row>
     <row r="495">
       <c r="A495" s="6"/>
       <c r="B495" s="6"/>
       <c r="C495" s="7"/>
-      <c r="D495" s="5"/>
+      <c r="D495" s="8"/>
       <c r="E495" s="6"/>
     </row>
     <row r="496">
       <c r="A496" s="6"/>
       <c r="B496" s="6"/>
       <c r="C496" s="7"/>
-      <c r="D496" s="5"/>
+      <c r="D496" s="8"/>
       <c r="E496" s="6"/>
     </row>
     <row r="497">
       <c r="A497" s="6"/>
       <c r="B497" s="6"/>
       <c r="C497" s="7"/>
-      <c r="D497" s="5"/>
+      <c r="D497" s="8"/>
       <c r="E497" s="6"/>
     </row>
     <row r="498">
       <c r="A498" s="6"/>
       <c r="B498" s="6"/>
       <c r="C498" s="7"/>
-      <c r="D498" s="5"/>
+      <c r="D498" s="8"/>
       <c r="E498" s="6"/>
     </row>
     <row r="499">
       <c r="A499" s="6"/>
       <c r="B499" s="6"/>
       <c r="C499" s="7"/>
-      <c r="D499" s="5"/>
+      <c r="D499" s="8"/>
       <c r="E499" s="6"/>
     </row>
     <row r="500">
       <c r="A500" s="6"/>
       <c r="B500" s="6"/>
       <c r="C500" s="7"/>
-      <c r="D500" s="5"/>
+      <c r="D500" s="8"/>
       <c r="E500" s="6"/>
     </row>
     <row r="501">
       <c r="A501" s="6"/>
       <c r="B501" s="6"/>
       <c r="C501" s="7"/>
-      <c r="D501" s="5"/>
+      <c r="D501" s="8"/>
       <c r="E501" s="6"/>
     </row>
     <row r="502">
       <c r="A502" s="6"/>
       <c r="B502" s="6"/>
       <c r="C502" s="7"/>
-      <c r="D502" s="5"/>
+      <c r="D502" s="8"/>
       <c r="E502" s="6"/>
     </row>
     <row r="503">
       <c r="A503" s="6"/>
       <c r="B503" s="6"/>
       <c r="C503" s="7"/>
-      <c r="D503" s="5"/>
+      <c r="D503" s="8"/>
       <c r="E503" s="6"/>
     </row>
     <row r="504">
       <c r="A504" s="6"/>
       <c r="B504" s="6"/>
       <c r="C504" s="7"/>
-      <c r="D504" s="5"/>
+      <c r="D504" s="8"/>
       <c r="E504" s="6"/>
     </row>
     <row r="505">
       <c r="A505" s="6"/>
       <c r="B505" s="6"/>
       <c r="C505" s="7"/>
-      <c r="D505" s="5"/>
+      <c r="D505" s="8"/>
       <c r="E505" s="6"/>
     </row>
     <row r="506">
       <c r="A506" s="6"/>
       <c r="B506" s="6"/>
       <c r="C506" s="7"/>
-      <c r="D506" s="5"/>
+      <c r="D506" s="8"/>
       <c r="E506" s="6"/>
     </row>
     <row r="507">
       <c r="A507" s="6"/>
       <c r="B507" s="6"/>
       <c r="C507" s="7"/>
-      <c r="D507" s="5"/>
+      <c r="D507" s="8"/>
       <c r="E507" s="6"/>
     </row>
     <row r="508">
       <c r="A508" s="6"/>
       <c r="B508" s="6"/>
       <c r="C508" s="7"/>
-      <c r="D508" s="5"/>
+      <c r="D508" s="8"/>
       <c r="E508" s="6"/>
     </row>
     <row r="509">
       <c r="A509" s="6"/>
       <c r="B509" s="6"/>
       <c r="C509" s="7"/>
-      <c r="D509" s="5"/>
+      <c r="D509" s="8"/>
       <c r="E509" s="6"/>
     </row>
     <row r="510">
       <c r="A510" s="6"/>
       <c r="B510" s="6"/>
       <c r="C510" s="7"/>
-      <c r="D510" s="5"/>
+      <c r="D510" s="8"/>
       <c r="E510" s="6"/>
     </row>
     <row r="511">
       <c r="A511" s="6"/>
       <c r="B511" s="6"/>
       <c r="C511" s="7"/>
-      <c r="D511" s="5"/>
+      <c r="D511" s="8"/>
       <c r="E511" s="6"/>
     </row>
     <row r="512">
       <c r="A512" s="6"/>
       <c r="B512" s="6"/>
       <c r="C512" s="7"/>
-      <c r="D512" s="5"/>
+      <c r="D512" s="8"/>
       <c r="E512" s="6"/>
     </row>
     <row r="513">
       <c r="A513" s="6"/>
       <c r="B513" s="6"/>
       <c r="C513" s="7"/>
-      <c r="D513" s="5"/>
+      <c r="D513" s="8"/>
       <c r="E513" s="6"/>
     </row>
     <row r="514">
       <c r="A514" s="6"/>
       <c r="B514" s="6"/>
       <c r="C514" s="7"/>
-      <c r="D514" s="5"/>
+      <c r="D514" s="8"/>
       <c r="E514" s="6"/>
     </row>
     <row r="515">
       <c r="A515" s="6"/>
       <c r="B515" s="6"/>
       <c r="C515" s="7"/>
-      <c r="D515" s="5"/>
+      <c r="D515" s="8"/>
       <c r="E515" s="6"/>
     </row>
     <row r="516">
       <c r="A516" s="6"/>
       <c r="B516" s="6"/>
       <c r="C516" s="7"/>
-      <c r="D516" s="5"/>
+      <c r="D516" s="8"/>
       <c r="E516" s="6"/>
     </row>
     <row r="517">
       <c r="A517" s="6"/>
       <c r="B517" s="6"/>
       <c r="C517" s="7"/>
-      <c r="D517" s="5"/>
+      <c r="D517" s="8"/>
       <c r="E517" s="6"/>
     </row>
     <row r="518">
       <c r="A518" s="6"/>
       <c r="B518" s="6"/>
       <c r="C518" s="7"/>
-      <c r="D518" s="5"/>
+      <c r="D518" s="8"/>
       <c r="E518" s="6"/>
     </row>
     <row r="519">
       <c r="A519" s="6"/>
       <c r="B519" s="6"/>
       <c r="C519" s="7"/>
-      <c r="D519" s="5"/>
+      <c r="D519" s="8"/>
       <c r="E519" s="6"/>
     </row>
     <row r="520">
       <c r="A520" s="6"/>
       <c r="B520" s="6"/>
       <c r="C520" s="7"/>
-      <c r="D520" s="5"/>
+      <c r="D520" s="8"/>
       <c r="E520" s="6"/>
     </row>
     <row r="521">
       <c r="A521" s="6"/>
       <c r="B521" s="6"/>
       <c r="C521" s="7"/>
-      <c r="D521" s="5"/>
+      <c r="D521" s="8"/>
       <c r="E521" s="6"/>
     </row>
     <row r="522">
       <c r="A522" s="6"/>
       <c r="B522" s="6"/>
       <c r="C522" s="7"/>
-      <c r="D522" s="5"/>
+      <c r="D522" s="8"/>
       <c r="E522" s="6"/>
     </row>
     <row r="523">
       <c r="A523" s="6"/>
       <c r="B523" s="6"/>
       <c r="C523" s="7"/>
-      <c r="D523" s="5"/>
+      <c r="D523" s="8"/>
       <c r="E523" s="6"/>
     </row>
     <row r="524">
       <c r="A524" s="6"/>
       <c r="B524" s="6"/>
       <c r="C524" s="7"/>
-      <c r="D524" s="5"/>
+      <c r="D524" s="8"/>
       <c r="E524" s="6"/>
     </row>
     <row r="525">
       <c r="A525" s="6"/>
       <c r="B525" s="6"/>
       <c r="C525" s="7"/>
-      <c r="D525" s="5"/>
+      <c r="D525" s="8"/>
       <c r="E525" s="6"/>
     </row>
     <row r="526">
       <c r="A526" s="6"/>
       <c r="B526" s="6"/>
       <c r="C526" s="7"/>
-      <c r="D526" s="5"/>
+      <c r="D526" s="8"/>
       <c r="E526" s="6"/>
     </row>
     <row r="527">
       <c r="A527" s="6"/>
       <c r="B527" s="6"/>
       <c r="C527" s="7"/>
-      <c r="D527" s="5"/>
+      <c r="D527" s="8"/>
       <c r="E527" s="6"/>
     </row>
     <row r="528">
       <c r="A528" s="6"/>
       <c r="B528" s="6"/>
       <c r="C528" s="7"/>
-      <c r="D528" s="5"/>
+      <c r="D528" s="8"/>
       <c r="E528" s="6"/>
     </row>
     <row r="529">
       <c r="A529" s="6"/>
       <c r="B529" s="6"/>
       <c r="C529" s="7"/>
-      <c r="D529" s="5"/>
+      <c r="D529" s="8"/>
       <c r="E529" s="6"/>
     </row>
     <row r="530">
       <c r="A530" s="6"/>
       <c r="B530" s="6"/>
       <c r="C530" s="7"/>
-      <c r="D530" s="5"/>
+      <c r="D530" s="8"/>
       <c r="E530" s="6"/>
     </row>
     <row r="531">
       <c r="A531" s="6"/>
       <c r="B531" s="6"/>
       <c r="C531" s="7"/>
-      <c r="D531" s="5"/>
+      <c r="D531" s="8"/>
       <c r="E531" s="6"/>
     </row>
     <row r="532">
       <c r="A532" s="6"/>
       <c r="B532" s="6"/>
       <c r="C532" s="7"/>
-      <c r="D532" s="5"/>
+      <c r="D532" s="8"/>
       <c r="E532" s="6"/>
     </row>
     <row r="533">
       <c r="A533" s="6"/>
       <c r="B533" s="6"/>
       <c r="C533" s="7"/>
-      <c r="D533" s="5"/>
+      <c r="D533" s="8"/>
       <c r="E533" s="6"/>
     </row>
     <row r="534">
       <c r="A534" s="6"/>
       <c r="B534" s="6"/>
       <c r="C534" s="7"/>
-      <c r="D534" s="5"/>
+      <c r="D534" s="8"/>
       <c r="E534" s="6"/>
     </row>
     <row r="535">
       <c r="A535" s="6"/>
       <c r="B535" s="6"/>
       <c r="C535" s="7"/>
-      <c r="D535" s="5"/>
+      <c r="D535" s="8"/>
       <c r="E535" s="6"/>
     </row>
     <row r="536">
       <c r="A536" s="6"/>
       <c r="B536" s="6"/>
       <c r="C536" s="7"/>
-      <c r="D536" s="5"/>
+      <c r="D536" s="8"/>
       <c r="E536" s="6"/>
     </row>
     <row r="537">
       <c r="A537" s="6"/>
       <c r="B537" s="6"/>
       <c r="C537" s="7"/>
-      <c r="D537" s="5"/>
+      <c r="D537" s="8"/>
       <c r="E537" s="6"/>
     </row>
     <row r="538">
       <c r="A538" s="6"/>
       <c r="B538" s="6"/>
       <c r="C538" s="7"/>
-      <c r="D538" s="5"/>
+      <c r="D538" s="8"/>
       <c r="E538" s="6"/>
     </row>
     <row r="539">
       <c r="A539" s="6"/>
       <c r="B539" s="6"/>
       <c r="C539" s="7"/>
-      <c r="D539" s="5"/>
+      <c r="D539" s="8"/>
       <c r="E539" s="6"/>
     </row>
     <row r="540">
       <c r="A540" s="6"/>
       <c r="B540" s="6"/>
       <c r="C540" s="7"/>
-      <c r="D540" s="5"/>
+      <c r="D540" s="8"/>
       <c r="E540" s="6"/>
     </row>
     <row r="541">
       <c r="A541" s="6"/>
       <c r="B541" s="6"/>
       <c r="C541" s="7"/>
-      <c r="D541" s="5"/>
+      <c r="D541" s="8"/>
       <c r="E541" s="6"/>
     </row>
     <row r="542">
       <c r="A542" s="6"/>
       <c r="B542" s="6"/>
       <c r="C542" s="7"/>
-      <c r="D542" s="5"/>
+      <c r="D542" s="8"/>
       <c r="E542" s="6"/>
     </row>
   </sheetData>

--- a/wolf/Excel/Language_小镇多语言.xlsx
+++ b/wolf/Excel/Language_小镇多语言.xlsx
@@ -55,6 +55,13 @@
     </font>
     <font>
       <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <color rgb="FF1F2329"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -62,13 +69,6 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -110,24 +110,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFEEF6C6"/>
-        <bgColor/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFEEF6C6"/>
-        <bgColor/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFEEF6C6"/>
-        <bgColor/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFD9F5D6"/>
         <bgColor/>
       </patternFill>
@@ -152,19 +134,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFECE2FE"/>
+        <fgColor rgb="FFEEF6C6"/>
         <bgColor/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFECE2FE"/>
+        <fgColor rgb="FFEEF6C6"/>
         <bgColor/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF8EE085"/>
+        <fgColor rgb="FFEEF6C6"/>
         <bgColor/>
       </patternFill>
     </fill>
@@ -182,25 +164,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF8EE085"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFECE2FE"/>
         <bgColor/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF8EE085"/>
+        <fgColor rgb="FFECE2FE"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFAD355"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFAD355"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFECE2FE"/>
         <bgColor/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFDDDEF"/>
-        <bgColor/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFF258"/>
         <bgColor/>
       </patternFill>
     </fill>
@@ -224,13 +224,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFAD355"/>
+        <fgColor rgb="FFFFF258"/>
         <bgColor/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFAD355"/>
+        <fgColor rgb="FF8EE085"/>
         <bgColor/>
       </patternFill>
     </fill>
@@ -469,96 +469,96 @@
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="2" fillId="3" fontId="1" numFmtId="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="4" fillId="4" fontId="1" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="6" fillId="0" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="6" fillId="0" fontId="2" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="7" fillId="0" fontId="3" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="8" fillId="0" fontId="3" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="7" fillId="4" fontId="2" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="9" fillId="5" fontId="3" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" applyProtection="false" borderId="10" fillId="0" fontId="1" numFmtId="164" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="11" fillId="6" fontId="1" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="12" fillId="7" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="8" fillId="5" fontId="1" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="13" fillId="8" fontId="3" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="14" fillId="9" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="9" fillId="6" fontId="3" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="15" fillId="10" fontId="4" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="10" fillId="7" fontId="1" numFmtId="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="11" fillId="8" fontId="2" numFmtId="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" applyProtection="false" borderId="12" fillId="0" fontId="1" numFmtId="164" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="13" fillId="0" fontId="4" numFmtId="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="14" fillId="9" fontId="1" numFmtId="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="15" fillId="10" fontId="1" numFmtId="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="16" fillId="11" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="17" fillId="12" fontId="1" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="17" fillId="12" fontId="3" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="18" fillId="13" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="19" fillId="0" fontId="5" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="19" fillId="14" fontId="1" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="20" fillId="15" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="20" fillId="14" fontId="1" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="21" fillId="16" fontId="1" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="22" fillId="17" fontId="3" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="21" fillId="15" fontId="1" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="23" fillId="18" fontId="3" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="24" fillId="19" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="22" fillId="16" fontId="2" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="25" fillId="20" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="23" fillId="17" fontId="1" numFmtId="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="24" fillId="18" fontId="2" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="26" fillId="21" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="25" fillId="19" fontId="1" numFmtId="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="26" fillId="0" fontId="1" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="27" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="27" fillId="20" fontId="1" numFmtId="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="28" fillId="21" fontId="1" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="28" fillId="22" fontId="3" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="29" fillId="22" fontId="2" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="29" fillId="0" fontId="5" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="30" fillId="23" fontId="1" numFmtId="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="31" fillId="24" fontId="2" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="31" fillId="24" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -909,451 +909,451 @@
   </cols>
   <sheetData>
     <row customHeight="true" ht="25" r="1">
-      <c r="A1" s="4" t="str">
+      <c r="A1" s="5" t="str">
         <v>Int</v>
       </c>
-      <c r="B1" s="4" t="str">
+      <c r="B1" s="5" t="str">
         <v>String</v>
       </c>
       <c r="C1" s="3" t="str">
         <v>String</v>
       </c>
-      <c r="D1" s="4" t="str">
+      <c r="D1" s="5" t="str">
         <v>String</v>
       </c>
-      <c r="E1" s="4" t="str">
+      <c r="E1" s="5" t="str">
         <v>String</v>
       </c>
     </row>
     <row customHeight="true" ht="25" r="2">
-      <c r="A2" s="4" t="str">
+      <c r="A2" s="5" t="str">
         <v>ID</v>
       </c>
-      <c r="B2" s="4" t="str">
+      <c r="B2" s="5" t="str">
         <v>mur</v>
       </c>
       <c r="C2" s="3" t="str">
         <v>Value</v>
       </c>
-      <c r="D2" s="4" t="str">
+      <c r="D2" s="5" t="str">
         <v>Value_Ch</v>
       </c>
-      <c r="E2" s="4" t="str">
+      <c r="E2" s="5" t="str">
         <v>Comment</v>
       </c>
     </row>
     <row customHeight="true" ht="25" r="3">
-      <c r="A3" s="4" t="str">
+      <c r="A3" s="5" t="str">
         <v>ID</v>
       </c>
-      <c r="B3" s="4" t="str">
+      <c r="B3" s="5" t="str">
         <v>名字</v>
       </c>
       <c r="C3" s="3" t="str">
         <v>英文</v>
       </c>
-      <c r="D3" s="4" t="str">
+      <c r="D3" s="5" t="str">
         <v>中文</v>
       </c>
-      <c r="E3" s="4" t="str">
+      <c r="E3" s="5" t="str">
         <v>备注</v>
       </c>
     </row>
     <row customHeight="true" ht="25" r="4">
-      <c r="A4" s="4" t="str"/>
-      <c r="B4" s="19" t="str">
+      <c r="A4" s="5" t="str"/>
+      <c r="B4" s="29" t="str">
         <v>Key|ReadByName</v>
       </c>
       <c r="C4" s="3" t="str">
         <v>MainLanguage</v>
       </c>
-      <c r="D4" s="19" t="str">
+      <c r="D4" s="29" t="str">
         <v>ChildLanguage</v>
       </c>
-      <c r="E4" s="4" t="str"/>
+      <c r="E4" s="5" t="str"/>
     </row>
     <row customHeight="true" ht="25" r="5">
-      <c r="A5" s="4">
+      <c r="A5" s="5">
         <v>10001</v>
       </c>
-      <c r="B5" s="4" t="str">
+      <c r="B5" s="5" t="str">
         <v>Guide_GuideContent_10001</v>
       </c>
       <c r="C5" s="3" t="str">
         <v>This is what you are playing in this round</v>
       </c>
-      <c r="D5" s="4" t="str">
+      <c r="D5" s="5" t="str">
         <v>这里是本局中你的身份</v>
       </c>
-      <c r="E5" s="4" t="str">
+      <c r="E5" s="5" t="str">
         <v>10000：新手引导表</v>
       </c>
     </row>
     <row customHeight="true" ht="25" r="6">
-      <c r="A6" s="4">
+      <c r="A6" s="5">
         <v>10002</v>
       </c>
-      <c r="B6" s="4" t="str">
+      <c r="B6" s="5" t="str">
         <v>Guide_GuideContent_10002</v>
       </c>
       <c r="C6" s="3" t="str">
         <v>This is your goal in this round, check it here if you don't know what to do</v>
       </c>
-      <c r="D6" s="4" t="str">
+      <c r="D6" s="5" t="str">
         <v>这里是你本局的目标，不知道做什么的话就看一下这里吧</v>
       </c>
-      <c r="E6" s="4" t="str"/>
+      <c r="E6" s="5" t="str"/>
     </row>
     <row customHeight="true" ht="25" r="7">
-      <c r="A7" s="4">
+      <c r="A7" s="5">
         <v>10003</v>
       </c>
-      <c r="B7" s="4" t="str">
+      <c r="B7" s="5" t="str">
         <v>Guide_GuideContent_10003</v>
       </c>
       <c r="C7" s="3" t="str">
         <v>Survive to win~</v>
       </c>
-      <c r="D7" s="4" t="str">
+      <c r="D7" s="5" t="str">
         <v>努力活下来才能够获得胜利~</v>
       </c>
-      <c r="E7" s="4" t="str"/>
+      <c r="E7" s="5" t="str"/>
     </row>
     <row customHeight="true" ht="25" r="8">
-      <c r="A8" s="4">
+      <c r="A8" s="5">
         <v>10004</v>
       </c>
-      <c r="B8" s="4" t="str">
+      <c r="B8" s="5" t="str">
         <v>Guide_GuideContent_10004</v>
       </c>
       <c r="C8" s="3" t="str">
         <v>Here is the energy ball:</v>
       </c>
-      <c r="D8" s="4" t="str">
+      <c r="D8" s="5" t="str">
         <v>这是能量球：</v>
       </c>
-      <c r="E8" s="4" t="str"/>
+      <c r="E8" s="5" t="str"/>
     </row>
     <row customHeight="true" ht="25" r="9">
-      <c r="A9" s="4">
+      <c r="A9" s="5">
         <v>10005</v>
       </c>
-      <c r="B9" s="4" t="str">
+      <c r="B9" s="5" t="str">
         <v>Guide_GuideContent_10005</v>
       </c>
       <c r="C9" s="3" t="str">
         <v>Collect them all to get a protective shield</v>
       </c>
-      <c r="D9" s="4" t="str">
+      <c r="D9" s="5" t="str">
         <v>集齐能量球，可以获得一层保护壳</v>
       </c>
-      <c r="E9" s="4" t="str"/>
+      <c r="E9" s="5" t="str"/>
     </row>
     <row customHeight="true" ht="25" r="10">
-      <c r="A10" s="4">
+      <c r="A10" s="5">
         <v>10006</v>
       </c>
-      <c r="B10" s="4" t="str">
+      <c r="B10" s="5" t="str">
         <v>Guide_GuideContent_10006</v>
       </c>
       <c r="C10" s="3" t="str">
         <v>This is your goal in this round, achieve it before the game ends to win</v>
       </c>
-      <c r="D10" s="4" t="str">
+      <c r="D10" s="5" t="str">
         <v>这里是你本局的目标，在对局结束前完成目标才能获得胜利</v>
       </c>
-      <c r="E10" s="4" t="str"/>
+      <c r="E10" s="5" t="str"/>
     </row>
     <row customHeight="true" ht="25" r="11">
-      <c r="A11" s="4">
+      <c r="A11" s="5">
         <v>10007</v>
       </c>
-      <c r="B11" s="4" t="str">
+      <c r="B11" s="5" t="str">
         <v>Guide_GuideContent_10007</v>
       </c>
       <c r="C11" s="3" t="str">
         <v>This is your goal in this round, achieve it before the game ends to win</v>
       </c>
-      <c r="D11" s="4" t="str">
+      <c r="D11" s="5" t="str">
         <v>这里是你本局的目标，在对局结束前完成目标才能获得胜利</v>
       </c>
-      <c r="E11" s="4" t="str"/>
+      <c r="E11" s="5" t="str"/>
     </row>
     <row customHeight="true" ht="25" r="12">
-      <c r="A12" s="4">
+      <c r="A12" s="5">
         <v>10008</v>
       </c>
-      <c r="B12" s="4" t="str">
+      <c r="B12" s="5" t="str">
         <v>Guide_GuideContent_10008</v>
       </c>
       <c r="C12" s="3" t="str">
         <v>You have a new goal, to defeat the Murderer and protect the Students</v>
       </c>
-      <c r="D12" s="4" t="str">
+      <c r="D12" s="5" t="str">
         <v>你有了新的目标，击杀凶手，保护学生</v>
       </c>
-      <c r="E12" s="4" t="str"/>
+      <c r="E12" s="5" t="str"/>
     </row>
     <row customHeight="true" ht="25" r="13">
-      <c r="A13" s="4">
+      <c r="A13" s="5">
         <v>10009</v>
       </c>
-      <c r="B13" s="4" t="str">
+      <c r="B13" s="5" t="str">
         <v>Guide_GuideContent_10009</v>
       </c>
       <c r="C13" s="3" t="str">
         <v>This is what you are playing in this round</v>
       </c>
-      <c r="D13" s="4" t="str">
+      <c r="D13" s="5" t="str">
         <v>这里是本局中你的身份</v>
       </c>
-      <c r="E13" s="4" t="str"/>
+      <c r="E13" s="5" t="str"/>
     </row>
     <row customHeight="true" ht="25" r="14">
-      <c r="A14" s="4">
+      <c r="A14" s="5">
         <v>10010</v>
       </c>
-      <c r="B14" s="4" t="str">
+      <c r="B14" s="5" t="str">
         <v>Guide_GuideContent_10010</v>
       </c>
       <c r="C14" s="3" t="str">
         <v>This is what you are playing in this round</v>
       </c>
-      <c r="D14" s="4" t="str">
+      <c r="D14" s="5" t="str">
         <v>这里是本局中你的身份</v>
       </c>
-      <c r="E14" s="4" t="str"/>
+      <c r="E14" s="5" t="str"/>
     </row>
     <row customHeight="true" ht="25" r="15">
-      <c r="A15" s="4">
+      <c r="A15" s="5">
         <v>10011</v>
       </c>
-      <c r="B15" s="4" t="str">
+      <c r="B15" s="5" t="str">
         <v>Guide_GuideContent_10011</v>
       </c>
       <c r="C15" s="3" t="str">
         <v>Congratulation! You just picked up the weapon and you're a Hero now</v>
       </c>
-      <c r="D15" s="4" t="str">
+      <c r="D15" s="5" t="str">
         <v>恭喜你拾取到武器，现在你成为了一名英雄</v>
       </c>
-      <c r="E15" s="4" t="str"/>
+      <c r="E15" s="5" t="str"/>
     </row>
     <row customHeight="true" ht="25" r="16">
-      <c r="A16" s="4">
+      <c r="A16" s="5">
         <v>10012</v>
       </c>
-      <c r="B16" s="4" t="str">
+      <c r="B16" s="5" t="str">
         <v>Guide_GuideContent_20001</v>
       </c>
       <c r="C16" s="3" t="str">
         <v>The Coins gained in this game will be stored here and be given to you during the settlement; but there is a limitation for the Coin Bag and cannot gain more Coins when it's full.</v>
       </c>
-      <c r="D16" s="4" t="str">
+      <c r="D16" s="5" t="str">
         <v>本局游戏内获得的金币将存储在这里，结算时会发放给你；不过金币袋是有上限的，袋子装满就无法获得了</v>
       </c>
-      <c r="E16" s="4" t="str"/>
+      <c r="E16" s="5" t="str"/>
     </row>
     <row customHeight="true" ht="25" r="17">
-      <c r="A17" s="4">
+      <c r="A17" s="5">
         <v>10013</v>
       </c>
-      <c r="B17" s="4" t="str">
+      <c r="B17" s="5" t="str">
         <v>Guide_GuideContent_20002</v>
       </c>
       <c r="C17" s="3" t="str">
         <v>Coin Bag is full, cannot gain more Coins in this round</v>
       </c>
-      <c r="D17" s="4" t="str">
+      <c r="D17" s="5" t="str">
         <v>金币袋已经满了，本局无法再拾取金币了</v>
       </c>
-      <c r="E17" s="4" t="str"/>
+      <c r="E17" s="5" t="str"/>
     </row>
     <row customHeight="true" ht="25" r="18">
-      <c r="A18" s="4">
+      <c r="A18" s="5">
         <v>10014</v>
       </c>
-      <c r="B18" s="4" t="str">
+      <c r="B18" s="5" t="str">
         <v>Guide_GuideContent_30001</v>
       </c>
       <c r="C18" s="3" t="str">
         <v>Click here to switch your status, choose to show or hide the weapon</v>
       </c>
-      <c r="D18" s="4" t="str">
+      <c r="D18" s="5" t="str">
         <v>点击这里可以切换姿态，选择亮出武器或藏起武器</v>
       </c>
-      <c r="E18" s="4" t="str"/>
+      <c r="E18" s="5" t="str"/>
     </row>
     <row customHeight="true" ht="25" r="19">
-      <c r="A19" s="4">
+      <c r="A19" s="5">
         <v>10015</v>
       </c>
-      <c r="B19" s="4" t="str">
+      <c r="B19" s="5" t="str">
         <v>Guide_GuideContent_30002</v>
       </c>
       <c r="C19" s="3" t="str">
         <v>Show the weapon, then you can click here to attack</v>
       </c>
-      <c r="D19" s="4" t="str">
+      <c r="D19" s="5" t="str">
         <v>在亮出武器后，可以点击这里进行攻击</v>
       </c>
-      <c r="E19" s="4" t="str"/>
+      <c r="E19" s="5" t="str"/>
     </row>
     <row customHeight="true" ht="25" r="20">
-      <c r="A20" s="4">
+      <c r="A20" s="5">
         <v>10016</v>
       </c>
-      <c r="B20" s="4" t="str">
+      <c r="B20" s="5" t="str">
         <v>Guide_GuideContent_30003</v>
       </c>
       <c r="C20" s="3" t="str">
         <v>Click here to switch your status, choose to show or hide the weapon</v>
       </c>
-      <c r="D20" s="4" t="str">
+      <c r="D20" s="5" t="str">
         <v>点击这里可以切换姿态，选择亮出武器或藏起武器</v>
       </c>
-      <c r="E20" s="4" t="str"/>
+      <c r="E20" s="5" t="str"/>
     </row>
     <row customHeight="true" ht="25" r="21">
-      <c r="A21" s="4">
+      <c r="A21" s="5">
         <v>10017</v>
       </c>
-      <c r="B21" s="4" t="str">
+      <c r="B21" s="5" t="str">
         <v>Guide_GuideContent_30004</v>
       </c>
       <c r="C21" s="3" t="str">
         <v>Show the weapon, then you can click here to attack</v>
       </c>
-      <c r="D21" s="4" t="str">
+      <c r="D21" s="5" t="str">
         <v>在亮出武器后，可以点击这里进行攻击</v>
       </c>
-      <c r="E21" s="4" t="str"/>
+      <c r="E21" s="5" t="str"/>
     </row>
     <row customHeight="true" ht="25" r="22">
-      <c r="A22" s="4">
+      <c r="A22" s="5">
         <v>10018</v>
       </c>
-      <c r="B22" s="4" t="str">
+      <c r="B22" s="5" t="str">
         <v>Guide_GuideContent_30005</v>
       </c>
       <c r="C22" s="3" t="str">
         <v>Click here to switch your status, choose to show or hide the weapon</v>
       </c>
-      <c r="D22" s="4" t="str">
+      <c r="D22" s="5" t="str">
         <v>点击这里可以切换姿态，选择亮出武器或藏起武器</v>
       </c>
-      <c r="E22" s="4" t="str"/>
+      <c r="E22" s="5" t="str"/>
     </row>
     <row customHeight="true" ht="25" r="23">
-      <c r="A23" s="4">
+      <c r="A23" s="5">
         <v>10019</v>
       </c>
-      <c r="B23" s="4" t="str">
+      <c r="B23" s="5" t="str">
         <v>Guide_GuideContent_30006</v>
       </c>
       <c r="C23" s="3" t="str">
         <v>Show the weapon, then you can click here to attack</v>
       </c>
-      <c r="D23" s="4" t="str">
+      <c r="D23" s="5" t="str">
         <v>在亮出武器后，可以点击这里进行攻击</v>
       </c>
-      <c r="E23" s="4" t="str"/>
+      <c r="E23" s="5" t="str"/>
     </row>
     <row customHeight="true" ht="25" r="24">
-      <c r="A24" s="4">
+      <c r="A24" s="5">
         <v>10020</v>
       </c>
-      <c r="B24" s="4" t="str">
+      <c r="B24" s="5" t="str">
         <v>Guide_GuideContent_40001</v>
       </c>
       <c r="C24" s="3" t="str">
         <v>Congratulations! You collected all the energy balls! Now you have a protective shield! The protective shield can protect you from another player once, but you can only get it once per round</v>
       </c>
-      <c r="D24" s="4" t="str">
+      <c r="D24" s="5" t="str">
         <v>恭喜你集齐了道具！现在你获得了一个保护壳！保护壳可以为你抵挡一次来自其他玩家的攻击，但是每局游戏只能获得一次</v>
       </c>
-      <c r="E24" s="4" t="str"/>
+      <c r="E24" s="5" t="str"/>
     </row>
     <row customHeight="true" ht="25" r="25">
-      <c r="A25" s="4">
+      <c r="A25" s="5">
         <v>10021</v>
       </c>
-      <c r="B25" s="4" t="str">
+      <c r="B25" s="5" t="str">
         <v>Guide_GuideContent_50001</v>
       </c>
       <c r="C25" s="3" t="str">
         <v>Your first round is over, take a look at the settlement panel</v>
       </c>
-      <c r="D25" s="4" t="str">
+      <c r="D25" s="5" t="str">
         <v>现在你的第一局游戏已经结束，来看看结算面板吧</v>
       </c>
-      <c r="E25" s="4" t="str"/>
+      <c r="E25" s="5" t="str"/>
     </row>
     <row customHeight="true" ht="25" r="26">
-      <c r="A26" s="4">
+      <c r="A26" s="5">
         <v>10022</v>
       </c>
-      <c r="B26" s="4" t="str">
+      <c r="B26" s="5" t="str">
         <v>Guide_GuideContent_50002</v>
       </c>
       <c r="C26" s="3" t="str">
         <v>Here is the final result of the game</v>
       </c>
-      <c r="D26" s="4" t="str">
+      <c r="D26" s="5" t="str">
         <v>这里说明了对局的最终结果</v>
       </c>
-      <c r="E26" s="4" t="str"/>
+      <c r="E26" s="5" t="str"/>
     </row>
     <row customHeight="true" ht="25" r="27">
-      <c r="A27" s="4">
+      <c r="A27" s="5">
         <v>10023</v>
       </c>
-      <c r="B27" s="4" t="str">
+      <c r="B27" s="5" t="str">
         <v>Guide_GuideContent_50003</v>
       </c>
       <c r="C27" s="3" t="str">
         <v>Here shows the two players who impacted the game most as well as their wins and losses</v>
       </c>
-      <c r="D27" s="4" t="str">
+      <c r="D27" s="5" t="str">
         <v>这里显示了对对局产生影响最大的两方玩家和他们的胜负</v>
       </c>
-      <c r="E27" s="4" t="str"/>
+      <c r="E27" s="5" t="str"/>
     </row>
     <row customHeight="true" ht="25" r="28">
-      <c r="A28" s="4">
+      <c r="A28" s="5">
         <v>10024</v>
       </c>
-      <c r="B28" s="4" t="str">
+      <c r="B28" s="5" t="str">
         <v>Guide_GuideContent_50004</v>
       </c>
       <c r="C28" s="3" t="str">
         <v>Here's shows your earning in this round</v>
       </c>
-      <c r="D28" s="4" t="str">
+      <c r="D28" s="5" t="str">
         <v>这里显示了你在本轮对局获得的收益</v>
       </c>
-      <c r="E28" s="4" t="str"/>
+      <c r="E28" s="5" t="str"/>
     </row>
     <row customHeight="true" ht="25" r="29">
-      <c r="A29" s="4">
+      <c r="A29" s="5">
         <v>10025</v>
       </c>
-      <c r="B29" s="4" t="str">
+      <c r="B29" s="5" t="str">
         <v>Guide_GuideContent_60001</v>
       </c>
       <c r="C29" s="3" t="str">
         <v>On behalf of justice, you can't shoot randomly, attacking good people leads to your own death</v>
       </c>
-      <c r="D29" s="4" t="str">
+      <c r="D29" s="5" t="str">
         <v>代表正义的你不可以乱开枪，攻击好人会导致自己死亡</v>
       </c>
-      <c r="E29" s="4" t="str"/>
+      <c r="E29" s="5" t="str"/>
     </row>
     <row customHeight="true" ht="25" r="30">
-      <c r="A30" s="4">
+      <c r="A30" s="5">
         <v>20001</v>
       </c>
-      <c r="B30" s="4" t="str">
+      <c r="B30" s="5" t="str">
         <v>Identity_IdentityName_10001</v>
       </c>
       <c r="C30" s="3" t="str">
@@ -1362,15 +1362,15 @@
       <c r="D30" s="3" t="str">
         <v>侦探</v>
       </c>
-      <c r="E30" s="4" t="str">
+      <c r="E30" s="5" t="str">
         <v>20000：身份属性表</v>
       </c>
     </row>
     <row customHeight="true" ht="25" r="31">
-      <c r="A31" s="4">
+      <c r="A31" s="5">
         <v>20002</v>
       </c>
-      <c r="B31" s="4" t="str">
+      <c r="B31" s="5" t="str">
         <v>Identity_IdentityName_10002</v>
       </c>
       <c r="C31" s="3" t="str">
@@ -1379,13 +1379,13 @@
       <c r="D31" s="3" t="str">
         <v>凶手</v>
       </c>
-      <c r="E31" s="4" t="str"/>
+      <c r="E31" s="5" t="str"/>
     </row>
     <row customHeight="true" ht="25" r="32">
-      <c r="A32" s="4">
+      <c r="A32" s="5">
         <v>20003</v>
       </c>
-      <c r="B32" s="4" t="str">
+      <c r="B32" s="5" t="str">
         <v>Identity_IdentityName_10003</v>
       </c>
       <c r="C32" s="3" t="str">
@@ -1394,13 +1394,13 @@
       <c r="D32" s="3" t="str">
         <v>学生</v>
       </c>
-      <c r="E32" s="4" t="str"/>
+      <c r="E32" s="5" t="str"/>
     </row>
     <row customHeight="true" ht="25" r="33">
-      <c r="A33" s="4">
+      <c r="A33" s="5">
         <v>20004</v>
       </c>
-      <c r="B33" s="4" t="str">
+      <c r="B33" s="5" t="str">
         <v>Identity_IdentityName_10004</v>
       </c>
       <c r="C33" s="3" t="str">
@@ -1409,462 +1409,462 @@
       <c r="D33" s="3" t="str">
         <v>英雄</v>
       </c>
-      <c r="E33" s="4" t="str"/>
+      <c r="E33" s="5" t="str"/>
     </row>
     <row customHeight="true" ht="25" r="34">
-      <c r="A34" s="4">
+      <c r="A34" s="5">
         <v>30001</v>
       </c>
-      <c r="B34" s="4" t="str">
+      <c r="B34" s="5" t="str">
         <v>Text_Content_10001</v>
       </c>
       <c r="C34" s="3" t="str">
         <v>Not enough player</v>
       </c>
-      <c r="D34" s="4" t="str">
+      <c r="D34" s="5" t="str">
         <v>当前人数不足</v>
       </c>
-      <c r="E34" s="4" t="str">
+      <c r="E34" s="5" t="str">
         <v>30000：文本表</v>
       </c>
     </row>
     <row customHeight="true" ht="25" r="35">
-      <c r="A35" s="4">
+      <c r="A35" s="5">
         <v>30002</v>
       </c>
-      <c r="B35" s="4" t="str">
+      <c r="B35" s="5" t="str">
         <v>Text_Content_10002</v>
       </c>
       <c r="C35" s="3" t="str">
         <v>Match in progress</v>
       </c>
-      <c r="D35" s="4" t="str">
+      <c r="D35" s="5" t="str">
         <v>对局进行中</v>
       </c>
-      <c r="E35" s="4" t="str"/>
+      <c r="E35" s="5" t="str"/>
     </row>
     <row customHeight="true" ht="25" r="36">
-      <c r="A36" s="4">
+      <c r="A36" s="5">
         <v>30003</v>
       </c>
-      <c r="B36" s="4" t="str">
+      <c r="B36" s="5" t="str">
         <v>Text_Content_10003</v>
       </c>
       <c r="C36" s="3" t="str">
         <v>Matching</v>
       </c>
-      <c r="D36" s="4" t="str">
+      <c r="D36" s="5" t="str">
         <v>等待对局开始</v>
       </c>
-      <c r="E36" s="4" t="str"/>
+      <c r="E36" s="5" t="str"/>
     </row>
     <row customHeight="true" ht="25" r="37">
-      <c r="A37" s="4">
+      <c r="A37" s="5">
         <v>30004</v>
       </c>
-      <c r="B37" s="4" t="str">
+      <c r="B37" s="5" t="str">
         <v>Text_Content_11001</v>
       </c>
       <c r="C37" s="3" t="str">
         <v>The game starts with a countdown...</v>
       </c>
-      <c r="D37" s="4" t="str">
+      <c r="D37" s="5" t="str">
         <v>游戏开始倒计时...</v>
       </c>
-      <c r="E37" s="4" t="str"/>
+      <c r="E37" s="5" t="str"/>
     </row>
     <row customHeight="true" ht="25" r="38">
-      <c r="A38" s="4">
+      <c r="A38" s="5">
         <v>30005</v>
       </c>
-      <c r="B38" s="4" t="str">
+      <c r="B38" s="5" t="str">
         <v>Text_Content_11002</v>
       </c>
       <c r="C38" s="3" t="str">
         <v>End-of-game countdown</v>
       </c>
-      <c r="D38" s="4" t="str">
+      <c r="D38" s="5" t="str">
         <v>对局结束倒计时</v>
       </c>
-      <c r="E38" s="4" t="str"/>
+      <c r="E38" s="5" t="str"/>
     </row>
     <row customHeight="true" ht="25" r="39">
-      <c r="A39" s="4">
+      <c r="A39" s="5">
         <v>30006</v>
       </c>
-      <c r="B39" s="4" t="str">
+      <c r="B39" s="5" t="str">
         <v>Text_Content_11003</v>
       </c>
       <c r="C39" s="3" t="str">
         <v>You are playing as:</v>
       </c>
-      <c r="D39" s="4" t="str">
+      <c r="D39" s="5" t="str">
         <v>你的身份是：</v>
       </c>
-      <c r="E39" s="4" t="str"/>
+      <c r="E39" s="5" t="str"/>
     </row>
     <row customHeight="true" ht="25" r="40">
-      <c r="A40" s="4">
+      <c r="A40" s="5">
         <v>30007</v>
       </c>
-      <c r="B40" s="4" t="str">
+      <c r="B40" s="5" t="str">
         <v>Text_Content_11004</v>
       </c>
       <c r="C40" s="3" t="str">
         <v>Chance being Murderer:</v>
       </c>
-      <c r="D40" s="4" t="str">
+      <c r="D40" s="5" t="str">
         <v>成为凶手的概率：</v>
       </c>
-      <c r="E40" s="4" t="str"/>
+      <c r="E40" s="5" t="str"/>
     </row>
     <row customHeight="true" ht="25" r="41">
-      <c r="A41" s="4">
+      <c r="A41" s="5">
         <v>30008</v>
       </c>
-      <c r="B41" s="4" t="str">
+      <c r="B41" s="5" t="str">
         <v>Text_Content_11005</v>
       </c>
       <c r="C41" s="3" t="str">
         <v>(Match in the game will increase the possibility)</v>
       </c>
-      <c r="D41" s="4" t="str">
+      <c r="D41" s="5" t="str">
         <v>（参与对局将增加概率）</v>
       </c>
-      <c r="E41" s="4" t="str"/>
+      <c r="E41" s="5" t="str"/>
     </row>
     <row customHeight="true" ht="25" r="42">
-      <c r="A42" s="4">
+      <c r="A42" s="5">
         <v>30009</v>
       </c>
-      <c r="B42" s="4" t="str">
+      <c r="B42" s="5" t="str">
         <v>Text_Content_11006</v>
       </c>
       <c r="C42" s="3" t="str">
         <v>What you play</v>
       </c>
-      <c r="D42" s="4" t="str">
+      <c r="D42" s="5" t="str">
         <v>你的身份</v>
       </c>
-      <c r="E42" s="4" t="str"/>
+      <c r="E42" s="5" t="str"/>
     </row>
     <row customHeight="true" ht="25" r="43">
-      <c r="A43" s="4">
+      <c r="A43" s="5">
         <v>30010</v>
       </c>
-      <c r="B43" s="4" t="str">
+      <c r="B43" s="5" t="str">
         <v>Text_Content_11007</v>
       </c>
       <c r="C43" s="3" t="str">
         <v>You Died</v>
       </c>
-      <c r="D43" s="4" t="str">
+      <c r="D43" s="5" t="str">
         <v>你死了</v>
       </c>
-      <c r="E43" s="4" t="str"/>
+      <c r="E43" s="5" t="str"/>
     </row>
     <row customHeight="true" ht="25" r="44">
-      <c r="A44" s="4">
+      <c r="A44" s="5">
         <v>30011</v>
       </c>
-      <c r="B44" s="4" t="str">
+      <c r="B44" s="5" t="str">
         <v>Text_Content_11008</v>
       </c>
       <c r="C44" s="3" t="str">
         <v>Victory!</v>
       </c>
-      <c r="D44" s="4" t="str">
+      <c r="D44" s="5" t="str">
         <v>胜利！</v>
       </c>
-      <c r="E44" s="4" t="str"/>
+      <c r="E44" s="5" t="str"/>
     </row>
     <row customHeight="true" ht="25" r="45">
-      <c r="A45" s="4">
+      <c r="A45" s="5">
         <v>30012</v>
       </c>
-      <c r="B45" s="4" t="str">
+      <c r="B45" s="5" t="str">
         <v>Text_Content_11009</v>
       </c>
       <c r="C45" s="3" t="str">
         <v>Kill all the players {0}/{1}</v>
       </c>
-      <c r="D45" s="4" t="str">
+      <c r="D45" s="5" t="str">
         <v>击杀所有人{0}/{1}</v>
       </c>
-      <c r="E45" s="4" t="str"/>
+      <c r="E45" s="5" t="str"/>
     </row>
     <row customHeight="true" ht="25" r="46">
-      <c r="A46" s="4">
+      <c r="A46" s="5">
         <v>30013</v>
       </c>
-      <c r="B46" s="4" t="str">
+      <c r="B46" s="5" t="str">
         <v>Text_Content_11010</v>
       </c>
       <c r="C46" s="3" t="str">
         <v>Kill the Murderer {0}/{1}</v>
       </c>
-      <c r="D46" s="4" t="str">
+      <c r="D46" s="5" t="str">
         <v>击杀凶手{0}/{1}</v>
       </c>
-      <c r="E46" s="4" t="str"/>
+      <c r="E46" s="5" t="str"/>
     </row>
     <row customHeight="true" ht="25" r="47">
-      <c r="A47" s="4">
+      <c r="A47" s="5">
         <v>30014</v>
       </c>
-      <c r="B47" s="4" t="str">
+      <c r="B47" s="5" t="str">
         <v>Text_Content_11011</v>
       </c>
       <c r="C47" s="3" t="str">
         <v>Stay alive</v>
       </c>
-      <c r="D47" s="4" t="str">
+      <c r="D47" s="5" t="str">
         <v>活下去</v>
       </c>
-      <c r="E47" s="4" t="str"/>
+      <c r="E47" s="5" t="str"/>
     </row>
     <row customHeight="true" ht="25" r="48">
-      <c r="A48" s="4">
+      <c r="A48" s="5">
         <v>30015</v>
       </c>
-      <c r="B48" s="4" t="str">
+      <c r="B48" s="5" t="str">
         <v>Text_Content_11012</v>
       </c>
       <c r="C48" s="3" t="str">
         <v>Hidden energy balls collected {0}/{1}</v>
       </c>
-      <c r="D48" s="4" t="str">
+      <c r="D48" s="5" t="str">
         <v>收集隐秘的能量球{0}/{1}</v>
       </c>
-      <c r="E48" s="4" t="str"/>
+      <c r="E48" s="5" t="str"/>
     </row>
     <row customHeight="true" ht="25" r="49">
-      <c r="A49" s="4">
+      <c r="A49" s="5">
         <v>30016</v>
       </c>
-      <c r="B49" s="4" t="str">
+      <c r="B49" s="5" t="str">
         <v>Text_Content_11013</v>
       </c>
       <c r="C49" s="3" t="str">
         <v>Time's up!</v>
       </c>
-      <c r="D49" s="4" t="str">
+      <c r="D49" s="5" t="str">
         <v>时间到！</v>
       </c>
-      <c r="E49" s="4" t="str"/>
+      <c r="E49" s="5" t="str"/>
     </row>
     <row customHeight="true" ht="25" r="50">
-      <c r="A50" s="4">
+      <c r="A50" s="5">
         <v>30017</v>
       </c>
-      <c r="B50" s="4" t="str">
+      <c r="B50" s="5" t="str">
         <v>Text_Content_12001</v>
       </c>
       <c r="C50" s="3" t="str">
         <v>The Murderer is on a killing spree!</v>
       </c>
-      <c r="D50" s="4" t="str">
+      <c r="D50" s="5" t="str">
         <v>凶手大杀特杀！</v>
       </c>
-      <c r="E50" s="4" t="str"/>
+      <c r="E50" s="5" t="str"/>
     </row>
     <row customHeight="true" ht="25" r="51">
-      <c r="A51" s="4">
+      <c r="A51" s="5">
         <v>30018</v>
       </c>
-      <c r="B51" s="4" t="str">
+      <c r="B51" s="5" t="str">
         <v>Text_Content_12002</v>
       </c>
       <c r="C51" s="3" t="str">
         <v>The Murderer kills all the players!</v>
       </c>
-      <c r="D51" s="4" t="str">
+      <c r="D51" s="5" t="str">
         <v>凶手轻松解决了所有人！</v>
       </c>
-      <c r="E51" s="4" t="str"/>
+      <c r="E51" s="5" t="str"/>
     </row>
     <row customHeight="true" ht="25" r="52">
-      <c r="A52" s="4">
+      <c r="A52" s="5">
         <v>30019</v>
       </c>
-      <c r="B52" s="4" t="str">
+      <c r="B52" s="5" t="str">
         <v>Text_Content_12003</v>
       </c>
       <c r="C52" s="3" t="str">
         <v>Detective arrested the Murderer!</v>
       </c>
-      <c r="D52" s="4" t="str">
+      <c r="D52" s="5" t="str">
         <v>侦探逮捕了凶手！</v>
       </c>
-      <c r="E52" s="4" t="str"/>
+      <c r="E52" s="5" t="str"/>
     </row>
     <row customHeight="true" ht="25" r="53">
-      <c r="A53" s="4">
+      <c r="A53" s="5">
         <v>30020</v>
       </c>
-      <c r="B53" s="4" t="str">
+      <c r="B53" s="5" t="str">
         <v>Text_Content_12004</v>
       </c>
       <c r="C53" s="3" t="str">
         <v>Hero appeared and turned the tide!</v>
       </c>
-      <c r="D53" s="4" t="str">
+      <c r="D53" s="5" t="str">
         <v>一位英雄出现并逆转了局面！</v>
       </c>
-      <c r="E53" s="4" t="str"/>
+      <c r="E53" s="5" t="str"/>
     </row>
     <row customHeight="true" ht="25" r="54">
-      <c r="A54" s="4">
+      <c r="A54" s="5">
         <v>30021</v>
       </c>
-      <c r="B54" s="4" t="str">
+      <c r="B54" s="5" t="str">
         <v>Text_Content_12005</v>
       </c>
       <c r="C54" s="3" t="str">
         <v>Murderer seems to be missing something...</v>
       </c>
-      <c r="D54" s="4" t="str">
+      <c r="D54" s="5" t="str">
         <v>凶手似乎遗漏了什么...</v>
       </c>
-      <c r="E54" s="4" t="str"/>
+      <c r="E54" s="5" t="str"/>
     </row>
     <row customHeight="true" ht="25" r="55">
-      <c r="A55" s="4">
+      <c r="A55" s="5">
         <v>30022</v>
       </c>
-      <c r="B55" s="4" t="str">
+      <c r="B55" s="5" t="str">
         <v>Text_Content_12006</v>
       </c>
       <c r="C55" s="3" t="str">
         <v>Murderer seems to be missing something...</v>
       </c>
-      <c r="D55" s="4" t="str">
+      <c r="D55" s="5" t="str">
         <v>凶手似乎遗漏了什么...</v>
       </c>
-      <c r="E55" s="4" t="str"/>
+      <c r="E55" s="5" t="str"/>
     </row>
     <row customHeight="true" ht="25" r="56">
-      <c r="A56" s="4">
+      <c r="A56" s="5">
         <v>30023</v>
       </c>
-      <c r="B56" s="4" t="str">
+      <c r="B56" s="5" t="str">
         <v>Text_Content_20001</v>
       </c>
       <c r="C56" s="3" t="str">
         <v>Murder Mystery</v>
       </c>
-      <c r="D56" s="4" t="str">
+      <c r="D56" s="5" t="str">
         <v>合宿谜团</v>
       </c>
-      <c r="E56" s="4" t="str"/>
+      <c r="E56" s="5" t="str"/>
     </row>
     <row customHeight="true" ht="25" r="57">
-      <c r="A57" s="4">
+      <c r="A57" s="5">
         <v>30024</v>
       </c>
-      <c r="B57" s="4" t="str">
+      <c r="B57" s="5" t="str">
         <v>Text_Content_20002</v>
       </c>
       <c r="C57" s="3" t="str">
         <v>Start</v>
       </c>
-      <c r="D57" s="4" t="str">
+      <c r="D57" s="5" t="str">
         <v>开始</v>
       </c>
-      <c r="E57" s="4" t="str"/>
+      <c r="E57" s="5" t="str"/>
     </row>
     <row customHeight="true" ht="25" r="58">
-      <c r="A58" s="4">
+      <c r="A58" s="5">
         <v>30025</v>
       </c>
-      <c r="B58" s="4" t="str">
+      <c r="B58" s="5" t="str">
         <v>Text_Content_20003</v>
       </c>
       <c r="C58" s="3" t="str">
         <v>View</v>
       </c>
-      <c r="D58" s="4" t="str">
+      <c r="D58" s="5" t="str">
         <v>观战</v>
       </c>
-      <c r="E58" s="4" t="str"/>
+      <c r="E58" s="5" t="str"/>
     </row>
     <row customHeight="true" ht="25" r="59">
-      <c r="A59" s="4">
+      <c r="A59" s="5">
         <v>30026</v>
       </c>
-      <c r="B59" s="4" t="str">
+      <c r="B59" s="5" t="str">
         <v>Text_Content_20004</v>
       </c>
       <c r="C59" s="3" t="str">
         <v>View Countdown</v>
       </c>
-      <c r="D59" s="4" t="str">
+      <c r="D59" s="5" t="str">
         <v>观战倒计时</v>
       </c>
-      <c r="E59" s="4" t="str"/>
+      <c r="E59" s="5" t="str"/>
     </row>
     <row customHeight="true" ht="25" r="60">
-      <c r="A60" s="4">
+      <c r="A60" s="5">
         <v>30027</v>
       </c>
-      <c r="B60" s="4" t="str">
+      <c r="B60" s="5" t="str">
         <v>Text_Content_20005</v>
       </c>
       <c r="C60" s="3" t="str">
         <v>He is playing as:</v>
       </c>
-      <c r="D60" s="4" t="str">
+      <c r="D60" s="5" t="str">
         <v>他的身份是</v>
       </c>
-      <c r="E60" s="4" t="str"/>
+      <c r="E60" s="5" t="str"/>
     </row>
     <row customHeight="true" ht="25" r="61">
-      <c r="A61" s="4">
+      <c r="A61" s="5">
         <v>30028</v>
       </c>
-      <c r="B61" s="4" t="str">
+      <c r="B61" s="5" t="str">
         <v>Text_Content_20006</v>
       </c>
       <c r="C61" s="3" t="str">
         <v>Goals for your Identity</v>
       </c>
-      <c r="D61" s="4" t="str">
+      <c r="D61" s="5" t="str">
         <v>身份目标</v>
       </c>
-      <c r="E61" s="4" t="str"/>
+      <c r="E61" s="5" t="str"/>
     </row>
     <row customHeight="true" ht="25" r="62">
-      <c r="A62" s="4">
+      <c r="A62" s="5">
         <v>30029</v>
       </c>
-      <c r="B62" s="4" t="str">
+      <c r="B62" s="5" t="str">
         <v>Text_Content_20007</v>
       </c>
       <c r="C62" s="3" t="str">
         <v>Start</v>
       </c>
-      <c r="D62" s="4" t="str">
+      <c r="D62" s="5" t="str">
         <v>开始</v>
       </c>
-      <c r="E62" s="4" t="str"/>
+      <c r="E62" s="5" t="str"/>
     </row>
     <row customHeight="true" ht="25" r="63">
-      <c r="A63" s="4">
+      <c r="A63" s="5">
         <v>30030</v>
       </c>
-      <c r="B63" s="4" t="str">
+      <c r="B63" s="5" t="str">
         <v>Text_Content_20008</v>
       </c>
       <c r="C63" s="3" t="str">
         <v>Loading...</v>
       </c>
-      <c r="D63" s="4" t="str">
+      <c r="D63" s="5" t="str">
         <v>加载中...</v>
       </c>
-      <c r="E63" s="4" t="str"/>
+      <c r="E63" s="5" t="str"/>
     </row>
     <row customHeight="true" ht="25" r="64">
-      <c r="A64" s="4">
+      <c r="A64" s="5">
         <v>30031</v>
       </c>
       <c r="B64" s="3" t="str">
@@ -1873,31 +1873,31 @@
       <c r="C64" s="3" t="str">
         <v>Insufficient currency</v>
       </c>
-      <c r="D64" s="4" t="str">
+      <c r="D64" s="5" t="str">
         <v>货币不足</v>
       </c>
-      <c r="E64" s="4" t="str"/>
+      <c r="E64" s="5" t="str"/>
     </row>
     <row customHeight="true" ht="25" r="65">
-      <c r="A65" s="4">
+      <c r="A65" s="5">
         <v>30032</v>
       </c>
-      <c r="B65" s="4" t="str">
+      <c r="B65" s="5" t="str">
         <v>Text_Content_20009</v>
       </c>
       <c r="C65" s="3" t="str">
         <v>Shop</v>
       </c>
-      <c r="D65" s="4" t="str">
+      <c r="D65" s="5" t="str">
         <v>商店</v>
       </c>
-      <c r="E65" s="4" t="str"/>
+      <c r="E65" s="5" t="str"/>
     </row>
     <row customHeight="true" ht="25" r="66">
-      <c r="A66" s="4">
+      <c r="A66" s="5">
         <v>30033</v>
       </c>
-      <c r="B66" s="4" t="str">
+      <c r="B66" s="5" t="str">
         <v>Text_Content_20010</v>
       </c>
       <c r="C66" s="3" t="str">
@@ -1906,13 +1906,13 @@
       <c r="D66" s="3" t="str">
         <v>凶手专用</v>
       </c>
-      <c r="E66" s="4" t="str"/>
+      <c r="E66" s="5" t="str"/>
     </row>
     <row customHeight="true" ht="25" r="67">
-      <c r="A67" s="4">
+      <c r="A67" s="5">
         <v>30034</v>
       </c>
-      <c r="B67" s="4" t="str">
+      <c r="B67" s="5" t="str">
         <v>Text_Content_20011</v>
       </c>
       <c r="C67" s="3" t="str">
@@ -1921,58 +1921,58 @@
       <c r="D67" s="3" t="str">
         <v>侦探专用</v>
       </c>
-      <c r="E67" s="4" t="str"/>
+      <c r="E67" s="5" t="str"/>
     </row>
     <row customHeight="true" ht="25" r="68">
-      <c r="A68" s="4">
+      <c r="A68" s="5">
         <v>30035</v>
       </c>
-      <c r="B68" s="4" t="str">
+      <c r="B68" s="5" t="str">
         <v>Text_Content_20012</v>
       </c>
       <c r="C68" s="3" t="str">
         <v>Gun</v>
       </c>
-      <c r="D68" s="4" t="str">
+      <c r="D68" s="5" t="str">
         <v>枪</v>
       </c>
-      <c r="E68" s="4" t="str"/>
+      <c r="E68" s="5" t="str"/>
     </row>
     <row customHeight="true" ht="25" r="69">
-      <c r="A69" s="4">
+      <c r="A69" s="5">
         <v>30036</v>
       </c>
-      <c r="B69" s="4" t="str">
+      <c r="B69" s="5" t="str">
         <v>Text_Content_20013</v>
       </c>
       <c r="C69" s="3" t="str">
         <v>Knife</v>
       </c>
-      <c r="D69" s="4" t="str">
+      <c r="D69" s="5" t="str">
         <v>刀</v>
       </c>
-      <c r="E69" s="4" t="str"/>
+      <c r="E69" s="5" t="str"/>
     </row>
     <row customHeight="true" ht="25" r="70">
-      <c r="A70" s="4">
+      <c r="A70" s="5">
         <v>30037</v>
       </c>
-      <c r="B70" s="4" t="str">
+      <c r="B70" s="5" t="str">
         <v>Text_Content_20014</v>
       </c>
       <c r="C70" s="3" t="str">
         <v>Acc</v>
       </c>
-      <c r="D70" s="4" t="str">
+      <c r="D70" s="5" t="str">
         <v>挂件</v>
       </c>
-      <c r="E70" s="4" t="str"/>
+      <c r="E70" s="5" t="str"/>
     </row>
     <row customHeight="true" ht="25" r="71">
-      <c r="A71" s="4">
+      <c r="A71" s="5">
         <v>30038</v>
       </c>
-      <c r="B71" s="4" t="str">
+      <c r="B71" s="5" t="str">
         <v>Text_Content_20015</v>
       </c>
       <c r="C71" s="3" t="str">
@@ -1981,58 +1981,58 @@
       <c r="D71" s="3" t="str">
         <v>购买</v>
       </c>
-      <c r="E71" s="4" t="str"/>
+      <c r="E71" s="5" t="str"/>
     </row>
     <row customHeight="true" ht="25" r="72">
-      <c r="A72" s="4">
+      <c r="A72" s="5">
         <v>30039</v>
       </c>
-      <c r="B72" s="4" t="str">
+      <c r="B72" s="5" t="str">
         <v>Text_Content_20016</v>
       </c>
       <c r="C72" s="3" t="str">
         <v>Use</v>
       </c>
-      <c r="D72" s="6" t="str">
+      <c r="D72" s="8" t="str">
         <v>使用</v>
       </c>
-      <c r="E72" s="4" t="str"/>
+      <c r="E72" s="5" t="str"/>
     </row>
     <row customHeight="true" ht="25" r="73">
-      <c r="A73" s="4">
+      <c r="A73" s="5">
         <v>30040</v>
       </c>
-      <c r="B73" s="4" t="str">
+      <c r="B73" s="5" t="str">
         <v>Text_Content_20017</v>
       </c>
       <c r="C73" s="3" t="str">
         <v>Take Off</v>
       </c>
-      <c r="D73" s="4" t="str">
+      <c r="D73" s="5" t="str">
         <v>脱下</v>
       </c>
-      <c r="E73" s="4" t="str"/>
+      <c r="E73" s="5" t="str"/>
     </row>
     <row customHeight="true" ht="25" r="74">
-      <c r="A74" s="4">
+      <c r="A74" s="5">
         <v>30041</v>
       </c>
-      <c r="B74" s="4" t="str">
+      <c r="B74" s="5" t="str">
         <v>Text_Content_20018</v>
       </c>
       <c r="C74" s="3" t="str">
         <v>Buy Items</v>
       </c>
-      <c r="D74" s="4" t="str">
+      <c r="D74" s="5" t="str">
         <v>购买物品</v>
       </c>
-      <c r="E74" s="4" t="str"/>
+      <c r="E74" s="5" t="str"/>
     </row>
     <row customHeight="true" ht="25" r="75">
-      <c r="A75" s="4">
+      <c r="A75" s="5">
         <v>30042</v>
       </c>
-      <c r="B75" s="4" t="str">
+      <c r="B75" s="5" t="str">
         <v>Text_Content_20019</v>
       </c>
       <c r="C75" s="3" t="str">
@@ -2041,13 +2041,13 @@
       <c r="D75" s="3" t="str">
         <v>凶手专用</v>
       </c>
-      <c r="E75" s="4" t="str"/>
+      <c r="E75" s="5" t="str"/>
     </row>
     <row customHeight="true" ht="25" r="76">
-      <c r="A76" s="4">
+      <c r="A76" s="5">
         <v>30043</v>
       </c>
-      <c r="B76" s="4" t="str">
+      <c r="B76" s="5" t="str">
         <v>Text_Content_20020</v>
       </c>
       <c r="C76" s="3" t="str">
@@ -2056,43 +2056,43 @@
       <c r="D76" s="3" t="str">
         <v>侦探专用</v>
       </c>
-      <c r="E76" s="4" t="str"/>
+      <c r="E76" s="5" t="str"/>
     </row>
     <row customHeight="true" ht="25" r="77">
-      <c r="A77" s="4">
+      <c r="A77" s="5">
         <v>30044</v>
       </c>
-      <c r="B77" s="4" t="str">
+      <c r="B77" s="5" t="str">
         <v>Text_Content_20021</v>
       </c>
       <c r="C77" s="3" t="str">
         <v>Confirm</v>
       </c>
-      <c r="D77" s="4" t="str">
+      <c r="D77" s="5" t="str">
         <v>确定</v>
       </c>
-      <c r="E77" s="4" t="str"/>
+      <c r="E77" s="5" t="str"/>
     </row>
     <row customHeight="true" ht="25" r="78">
-      <c r="A78" s="4">
+      <c r="A78" s="5">
         <v>30045</v>
       </c>
-      <c r="B78" s="4" t="str">
+      <c r="B78" s="5" t="str">
         <v>Text_Content_20022</v>
       </c>
       <c r="C78" s="3" t="str">
         <v>Cancel</v>
       </c>
-      <c r="D78" s="4" t="str">
+      <c r="D78" s="5" t="str">
         <v>取消</v>
       </c>
-      <c r="E78" s="4" t="str"/>
+      <c r="E78" s="5" t="str"/>
     </row>
     <row customHeight="true" ht="25" r="79">
-      <c r="A79" s="4">
+      <c r="A79" s="5">
         <v>30046</v>
       </c>
-      <c r="B79" s="4" t="str">
+      <c r="B79" s="5" t="str">
         <v>Text_Content_20023</v>
       </c>
       <c r="C79" s="3" t="str">
@@ -2101,13 +2101,13 @@
       <c r="D79" s="3" t="str">
         <v>点击任意一处返回</v>
       </c>
-      <c r="E79" s="4" t="str"/>
+      <c r="E79" s="5" t="str"/>
     </row>
     <row customHeight="true" ht="25" r="80">
-      <c r="A80" s="4">
+      <c r="A80" s="5">
         <v>30047</v>
       </c>
-      <c r="B80" s="4" t="str">
+      <c r="B80" s="5" t="str">
         <v>Text_Content_20024</v>
       </c>
       <c r="C80" s="3" t="str">
@@ -2116,235 +2116,235 @@
       <c r="D80" s="3" t="str">
         <v>购买成功</v>
       </c>
-      <c r="E80" s="4" t="str"/>
+      <c r="E80" s="5" t="str"/>
     </row>
     <row customHeight="true" ht="25" r="81">
-      <c r="A81" s="4">
+      <c r="A81" s="5">
         <v>30048</v>
       </c>
-      <c r="B81" s="4" t="str">
+      <c r="B81" s="5" t="str">
         <v>Text_Content_20025</v>
       </c>
       <c r="C81" s="3" t="str">
         <v>Use</v>
       </c>
-      <c r="D81" s="6" t="str">
+      <c r="D81" s="8" t="str">
         <v>使用</v>
       </c>
-      <c r="E81" s="4" t="str"/>
+      <c r="E81" s="5" t="str"/>
     </row>
     <row customHeight="true" ht="25" r="82">
-      <c r="A82" s="4">
+      <c r="A82" s="5">
         <v>30049</v>
       </c>
-      <c r="B82" s="5" t="str">
+      <c r="B82" s="7" t="str">
         <v>Text_Content_10301</v>
       </c>
-      <c r="C82" s="5" t="str">
+      <c r="C82" s="7" t="str">
         <v>Please select a map to play</v>
       </c>
-      <c r="D82" s="5" t="str">
+      <c r="D82" s="7" t="str">
         <v>请选择要游玩的地图</v>
       </c>
-      <c r="E82" s="4" t="str"/>
+      <c r="E82" s="5" t="str"/>
     </row>
     <row customHeight="true" ht="25" r="83">
-      <c r="A83" s="4">
+      <c r="A83" s="5">
         <v>30050</v>
       </c>
-      <c r="B83" s="5" t="str">
+      <c r="B83" s="7" t="str">
         <v>Text_Content_10302</v>
       </c>
-      <c r="C83" s="5" t="str">
+      <c r="C83" s="7" t="str">
         <v>Map Selected</v>
       </c>
-      <c r="D83" s="5" t="str">
+      <c r="D83" s="7" t="str">
         <v>地图已选出</v>
       </c>
-      <c r="E83" s="4" t="str"/>
+      <c r="E83" s="5" t="str"/>
     </row>
     <row customHeight="true" ht="25" r="84">
-      <c r="A84" s="4">
+      <c r="A84" s="5">
         <v>30051</v>
       </c>
-      <c r="B84" s="5" t="str">
+      <c r="B84" s="7" t="str">
         <v>Text_Content_10004</v>
       </c>
-      <c r="C84" s="5" t="str">
+      <c r="C84" s="7" t="str">
         <v>Randomizing</v>
       </c>
-      <c r="D84" s="5" t="str">
+      <c r="D84" s="7" t="str">
         <v>随机地图中</v>
       </c>
-      <c r="E84" s="4" t="str"/>
+      <c r="E84" s="5" t="str"/>
     </row>
     <row customHeight="true" ht="25" r="85">
-      <c r="A85" s="4">
+      <c r="A85" s="5">
         <v>30052</v>
       </c>
-      <c r="B85" s="5" t="str">
+      <c r="B85" s="7" t="str">
         <v>Text_Content_20029</v>
       </c>
-      <c r="C85" s="5" t="str">
+      <c r="C85" s="7" t="str">
         <v>Trail</v>
       </c>
-      <c r="D85" s="6" t="str">
+      <c r="D85" s="8" t="str">
         <v>拖尾</v>
       </c>
-      <c r="E85" s="4"/>
+      <c r="E85" s="5"/>
     </row>
     <row customHeight="true" ht="25" r="86">
-      <c r="A86" s="4">
+      <c r="A86" s="5">
         <v>30053</v>
       </c>
-      <c r="B86" s="5" t="str">
+      <c r="B86" s="7" t="str">
         <v>Text_Content_20030</v>
       </c>
-      <c r="C86" s="5" t="str">
+      <c r="C86" s="7" t="str">
         <v>Get it for free</v>
       </c>
-      <c r="D86" s="6" t="str">
+      <c r="D86" s="8" t="str">
         <v>免费领取</v>
       </c>
-      <c r="E86" s="4" t="str"/>
+      <c r="E86" s="5" t="str"/>
     </row>
     <row customHeight="true" ht="25" r="87">
-      <c r="A87" s="4">
+      <c r="A87" s="5">
         <v>30054</v>
       </c>
-      <c r="B87" s="5" t="str">
+      <c r="B87" s="7" t="str">
         <v>Text_Content_20031</v>
       </c>
-      <c r="C87" s="5" t="str">
+      <c r="C87" s="7" t="str">
         <v>Watch ads to get extra rewards</v>
       </c>
-      <c r="D87" s="6" t="str">
+      <c r="D87" s="8" t="str">
         <v>观看广告领取额外奖励</v>
       </c>
-      <c r="E87" s="4" t="str"/>
+      <c r="E87" s="5" t="str"/>
     </row>
     <row customHeight="true" ht="25" r="88">
-      <c r="A88" s="4">
+      <c r="A88" s="5">
         <v>30055</v>
       </c>
-      <c r="B88" s="5" t="str">
+      <c r="B88" s="7" t="str">
         <v>Text_Content_20032</v>
       </c>
-      <c r="C88" s="5" t="str">
+      <c r="C88" s="7" t="str">
         <v>Watch the ad to receive compensation</v>
       </c>
-      <c r="D88" s="5" t="str">
+      <c r="D88" s="7" t="str">
         <v>观看广告领取补偿</v>
       </c>
-      <c r="E88" s="4" t="str"/>
+      <c r="E88" s="5" t="str"/>
     </row>
     <row customHeight="true" ht="25" r="89">
-      <c r="A89" s="4">
+      <c r="A89" s="5">
         <v>30056</v>
       </c>
-      <c r="B89" s="5" t="str">
+      <c r="B89" s="7" t="str">
         <v>Text_Content_20033</v>
       </c>
-      <c r="C89" s="5" t="str">
+      <c r="C89" s="7" t="str">
         <v>Congratulations on receiving</v>
       </c>
-      <c r="D89" s="6" t="str">
+      <c r="D89" s="8" t="str">
         <v>恭喜获得</v>
       </c>
-      <c r="E89" s="4" t="str"/>
+      <c r="E89" s="5" t="str"/>
     </row>
     <row customHeight="true" ht="25" r="90">
-      <c r="A90" s="4">
+      <c r="A90" s="5">
         <v>30057</v>
       </c>
-      <c r="B90" s="5" t="str">
+      <c r="B90" s="7" t="str">
         <v>Tips_Content_20003</v>
       </c>
-      <c r="C90" s="5" t="str">
+      <c r="C90" s="7" t="str">
         <v>It's not ready yet, please wait a little longer to get it~</v>
       </c>
-      <c r="D90" s="6" t="str">
+      <c r="D90" s="8" t="str">
         <v>时间还没到，再等一下才能获得哦~</v>
       </c>
-      <c r="E90" s="4" t="str"/>
+      <c r="E90" s="5" t="str"/>
     </row>
     <row customHeight="true" ht="25" r="91">
-      <c r="A91" s="4">
+      <c r="A91" s="5">
         <v>30058</v>
       </c>
-      <c r="B91" s="5" t="str">
+      <c r="B91" s="7" t="str">
         <v>Tips_Content_20004</v>
       </c>
-      <c r="C91" s="5" t="str">
+      <c r="C91" s="7" t="str">
         <v>You've already received plenty of rewards today, so please come back tomorrow~</v>
       </c>
-      <c r="D91" s="6" t="str">
+      <c r="D91" s="8" t="str">
         <v>今天已经得到很多奖励了，明天再来吧~</v>
       </c>
-      <c r="E91" s="4" t="str"/>
+      <c r="E91" s="5" t="str"/>
     </row>
     <row customHeight="true" ht="25" r="92">
-      <c r="A92" s="4">
+      <c r="A92" s="5">
         <v>30059</v>
       </c>
-      <c r="B92" s="5" t="str">
+      <c r="B92" s="7" t="str">
         <v>Text_Content_11014</v>
       </c>
-      <c r="C92" s="5" t="str">
+      <c r="C92" s="7" t="str">
         <v>Available</v>
       </c>
-      <c r="D92" s="6" t="str">
+      <c r="D92" s="8" t="str">
         <v>待拾取</v>
       </c>
-      <c r="E92" s="4"/>
+      <c r="E92" s="5"/>
     </row>
     <row customHeight="true" ht="25" r="93">
-      <c r="A93" s="4">
+      <c r="A93" s="5">
         <v>30060</v>
       </c>
-      <c r="B93" s="5" t="str">
+      <c r="B93" s="7" t="str">
         <v>Text_Content_11015</v>
       </c>
-      <c r="C93" s="5" t="str">
+      <c r="C93" s="7" t="str">
         <v>Exist</v>
       </c>
-      <c r="D93" s="6" t="str">
+      <c r="D93" s="8" t="str">
         <v>存在</v>
       </c>
-      <c r="E93" s="4"/>
+      <c r="E93" s="5"/>
     </row>
     <row customHeight="true" ht="25" r="94">
-      <c r="A94" s="4">
+      <c r="A94" s="5">
         <v>30061</v>
       </c>
-      <c r="B94" s="5" t="str">
+      <c r="B94" s="7" t="str">
         <v>Text_Content_11016</v>
       </c>
-      <c r="C94" s="5" t="str">
+      <c r="C94" s="7" t="str">
         <v>Survival experience +{0}EXP</v>
       </c>
-      <c r="D94" s="6" t="str">
+      <c r="D94" s="8" t="str">
         <v>存活经验+{0}EXP</v>
       </c>
-      <c r="E94" s="4"/>
+      <c r="E94" s="5"/>
     </row>
     <row customHeight="true" ht="25" r="95">
-      <c r="A95" s="4">
+      <c r="A95" s="5">
         <v>30062</v>
       </c>
-      <c r="B95" s="5" t="str">
+      <c r="B95" s="7" t="str">
         <v>Text_Content_12007</v>
       </c>
-      <c r="C95" s="5" t="str">
+      <c r="C95" s="7" t="str">
         <v>Reward</v>
       </c>
-      <c r="D95" s="5" t="str">
+      <c r="D95" s="7" t="str">
         <v>奖励</v>
       </c>
-      <c r="E95" s="4" t="str"/>
+      <c r="E95" s="5" t="str"/>
     </row>
     <row customHeight="true" ht="25" r="96">
-      <c r="A96" s="4">
+      <c r="A96" s="5">
         <v>30063</v>
       </c>
       <c r="B96" s="3" t="str">
@@ -2356,10 +2356,10 @@
       <c r="D96" s="3" t="str">
         <v>本局身份</v>
       </c>
-      <c r="E96" s="4" t="str"/>
+      <c r="E96" s="5" t="str"/>
     </row>
     <row customHeight="true" ht="25" r="97">
-      <c r="A97" s="4">
+      <c r="A97" s="5">
         <v>30064</v>
       </c>
       <c r="B97" s="3" t="str">
@@ -2371,10 +2371,10 @@
       <c r="D97" s="3" t="str">
         <v>收集金币</v>
       </c>
-      <c r="E97" s="4" t="str"/>
+      <c r="E97" s="5" t="str"/>
     </row>
     <row customHeight="true" ht="25" r="98">
-      <c r="A98" s="4">
+      <c r="A98" s="5">
         <v>30065</v>
       </c>
       <c r="B98" s="3" t="str">
@@ -2386,10 +2386,10 @@
       <c r="D98" s="3" t="str">
         <v>消灭了{0}名学生！</v>
       </c>
-      <c r="E98" s="4" t="str"/>
+      <c r="E98" s="5" t="str"/>
     </row>
     <row customHeight="true" ht="25" r="99">
-      <c r="A99" s="4">
+      <c r="A99" s="5">
         <v>30066</v>
       </c>
       <c r="B99" s="3" t="str">
@@ -2401,10 +2401,10 @@
       <c r="D99" s="3" t="str">
         <v>已存活{0}分{1}秒</v>
       </c>
-      <c r="E99" s="4" t="str"/>
+      <c r="E99" s="5" t="str"/>
     </row>
     <row customHeight="true" ht="25" r="100">
-      <c r="A100" s="4">
+      <c r="A100" s="5">
         <v>30067</v>
       </c>
       <c r="B100" s="3" t="str">
@@ -2416,10 +2416,10 @@
       <c r="D100" s="3" t="str">
         <v>拯救了{0}位学生</v>
       </c>
-      <c r="E100" s="4" t="str"/>
+      <c r="E100" s="5" t="str"/>
     </row>
     <row customHeight="true" ht="25" r="101">
-      <c r="A101" s="4">
+      <c r="A101" s="5">
         <v>30068</v>
       </c>
       <c r="B101" s="3" t="str">
@@ -2431,40 +2431,40 @@
       <c r="D101" s="3" t="str">
         <v>拯救了{0}位学生</v>
       </c>
-      <c r="E101" s="4" t="str"/>
+      <c r="E101" s="5" t="str"/>
     </row>
     <row customHeight="true" ht="25" r="102">
-      <c r="A102" s="4">
+      <c r="A102" s="5">
         <v>30069</v>
       </c>
       <c r="B102" s="3" t="str">
         <v>Text_Content_12014</v>
       </c>
-      <c r="C102" s="12" t="str">
+      <c r="C102" s="10" t="str">
         <v>× 1.5 (Bonus)</v>
       </c>
       <c r="D102" s="3" t="str">
         <v>× 1.5 ( 胜利奖励)</v>
       </c>
-      <c r="E102" s="4" t="str"/>
+      <c r="E102" s="5" t="str"/>
     </row>
     <row customHeight="true" ht="25" r="103">
-      <c r="A103" s="4">
+      <c r="A103" s="5">
         <v>30070</v>
       </c>
       <c r="B103" s="3" t="str">
         <v>Text_Content_12015</v>
       </c>
-      <c r="C103" s="12" t="str">
+      <c r="C103" s="10" t="str">
         <v>+ 900 (Bonus )</v>
       </c>
       <c r="D103" s="3" t="str">
         <v>+ 900 ( 胜利奖励)</v>
       </c>
-      <c r="E103" s="4" t="str"/>
+      <c r="E103" s="5" t="str"/>
     </row>
     <row customHeight="true" ht="25" r="104">
-      <c r="A104" s="4">
+      <c r="A104" s="5">
         <v>30071</v>
       </c>
       <c r="B104" s="3" t="str">
@@ -2476,12 +2476,12 @@
       <c r="D104" s="3" t="str">
         <v>观看广告，获得双倍金币！</v>
       </c>
-      <c r="E104" s="4" t="str">
+      <c r="E104" s="5" t="str">
         <v>UI按钮上的文字</v>
       </c>
     </row>
     <row customHeight="true" ht="25" r="105">
-      <c r="A105" s="4">
+      <c r="A105" s="5">
         <v>30072</v>
       </c>
       <c r="B105" s="3" t="str">
@@ -2493,422 +2493,422 @@
       <c r="D105" s="3" t="str">
         <v>观看</v>
       </c>
-      <c r="E105" s="4" t="str">
+      <c r="E105" s="5" t="str">
         <v>UI按钮上的文字</v>
       </c>
     </row>
     <row customHeight="true" ht="25" r="106">
-      <c r="A106" s="6">
+      <c r="A106" s="8">
         <v>30073</v>
       </c>
-      <c r="B106" s="5" t="str">
+      <c r="B106" s="7" t="str">
         <v>Text_Content_12018</v>
       </c>
-      <c r="C106" s="5" t="str">
+      <c r="C106" s="7" t="str">
         <v>Lottery</v>
       </c>
-      <c r="D106" s="5" t="str">
+      <c r="D106" s="7" t="str">
         <v>抽奖</v>
       </c>
-      <c r="E106" s="6" t="str">
+      <c r="E106" s="8" t="str">
         <v>UI按钮上的文字</v>
       </c>
     </row>
     <row customHeight="true" ht="25" r="107">
-      <c r="A107" s="6">
+      <c r="A107" s="8">
         <v>30074</v>
       </c>
-      <c r="B107" s="5" t="str">
+      <c r="B107" s="7" t="str">
         <v>Text_Content_12019</v>
       </c>
-      <c r="C107" s="5" t="str">
+      <c r="C107" s="7" t="str">
         <v>Weapon Box</v>
       </c>
-      <c r="D107" s="5" t="str">
+      <c r="D107" s="7" t="str">
         <v>武器箱</v>
       </c>
-      <c r="E107" s="6" t="str">
+      <c r="E107" s="8" t="str">
         <v>UI按钮上的文字</v>
       </c>
     </row>
     <row customHeight="true" ht="25" r="108">
-      <c r="A108" s="6">
+      <c r="A108" s="8">
         <v>30075</v>
       </c>
-      <c r="B108" s="5" t="str">
+      <c r="B108" s="7" t="str">
         <v>Text_Content_12020</v>
       </c>
-      <c r="C108" s="5" t="str">
+      <c r="C108" s="7" t="str">
         <v>Watch the ad for a free draw</v>
       </c>
-      <c r="D108" s="5" t="str">
+      <c r="D108" s="7" t="str">
         <v>观看广告，免费抽奖一次</v>
       </c>
-      <c r="E108" s="6" t="str">
+      <c r="E108" s="8" t="str">
         <v>UI按钮上的文字</v>
       </c>
     </row>
     <row customHeight="true" ht="25" r="109">
-      <c r="A109" s="6">
+      <c r="A109" s="8">
         <v>30076</v>
       </c>
-      <c r="B109" s="5" t="str">
+      <c r="B109" s="7" t="str">
         <v>Text_Content_12021</v>
       </c>
-      <c r="C109" s="5" t="str">
+      <c r="C109" s="7" t="str">
         <v>Until the next free draw:</v>
       </c>
-      <c r="D109" s="5" t="str">
+      <c r="D109" s="7" t="str">
         <v>距离下次免费：</v>
       </c>
-      <c r="E109" s="6" t="str">
+      <c r="E109" s="8" t="str">
         <v>UI按钮上的文字</v>
       </c>
     </row>
     <row customHeight="true" ht="25" r="110">
-      <c r="A110" s="6">
+      <c r="A110" s="8">
         <v>30077</v>
       </c>
-      <c r="B110" s="5" t="str">
+      <c r="B110" s="7" t="str">
         <v>Text_Content_12022</v>
       </c>
-      <c r="C110" s="5" t="str">
+      <c r="C110" s="7" t="str">
         <v>Your draws</v>
       </c>
-      <c r="D110" s="5" t="str">
+      <c r="D110" s="7" t="str">
         <v>累计抽奖</v>
       </c>
-      <c r="E110" s="6" t="str">
+      <c r="E110" s="8" t="str">
         <v>UI按钮上的文字</v>
       </c>
     </row>
     <row customHeight="true" ht="25" r="111">
-      <c r="A111" s="6">
+      <c r="A111" s="8">
         <v>30078</v>
       </c>
-      <c r="B111" s="5" t="str">
+      <c r="B111" s="7" t="str">
         <v>Text_Content_12023</v>
       </c>
-      <c r="C111" s="5" t="str">
+      <c r="C111" s="7" t="str">
         <v>Next time you will get a RED quality weapon</v>
       </c>
-      <c r="D111" s="5" t="str">
+      <c r="D111" s="7" t="str">
         <v>下次必得红色品质武器</v>
       </c>
-      <c r="E111" s="6" t="str">
+      <c r="E111" s="8" t="str">
         <v>UI按钮上的文字</v>
       </c>
     </row>
     <row customHeight="true" ht="25" r="112">
-      <c r="A112" s="6">
+      <c r="A112" s="8">
         <v>30079</v>
       </c>
-      <c r="B112" s="5" t="str">
+      <c r="B112" s="7" t="str">
         <v>Text_Content_12024</v>
       </c>
-      <c r="C112" s="5" t="str">
+      <c r="C112" s="7" t="str">
         <v>Box opening...</v>
       </c>
-      <c r="D112" s="5" t="str">
+      <c r="D112" s="7" t="str">
         <v>正在打开箱子...</v>
       </c>
-      <c r="E112" s="6" t="str">
+      <c r="E112" s="8" t="str">
         <v>UI按钮上的文字</v>
       </c>
     </row>
     <row customHeight="true" ht="25" r="113">
-      <c r="A113" s="6">
+      <c r="A113" s="8">
         <v>30080</v>
       </c>
-      <c r="B113" s="5" t="str">
+      <c r="B113" s="7" t="str">
         <v>Text_Content_12025</v>
       </c>
-      <c r="C113" s="5" t="str">
+      <c r="C113" s="7" t="str">
         <v>Congratulations!</v>
       </c>
-      <c r="D113" s="5" t="str">
+      <c r="D113" s="7" t="str">
         <v>恭喜获得</v>
       </c>
-      <c r="E113" s="6" t="str">
+      <c r="E113" s="8" t="str">
         <v>UI按钮上的文字</v>
       </c>
     </row>
     <row customHeight="true" ht="25" r="114">
-      <c r="A114" s="6">
+      <c r="A114" s="8">
         <v>30081</v>
       </c>
-      <c r="B114" s="5" t="str">
+      <c r="B114" s="7" t="str">
         <v>Text_Content_12026</v>
       </c>
-      <c r="C114" s="5" t="str">
+      <c r="C114" s="7" t="str">
         <v>Owned, automatically recycled to gold coins</v>
       </c>
-      <c r="D114" s="5" t="str">
+      <c r="D114" s="7" t="str">
         <v>已拥有，自动回收为金币</v>
       </c>
-      <c r="E114" s="6" t="str">
+      <c r="E114" s="8" t="str">
         <v>UI按钮上的文字</v>
       </c>
     </row>
     <row customHeight="true" ht="25" r="115">
-      <c r="A115" s="6">
+      <c r="A115" s="8">
         <v>30082</v>
       </c>
-      <c r="B115" s="5" t="str">
+      <c r="B115" s="7" t="str">
         <v>Text_Content_11017</v>
       </c>
-      <c r="C115" s="5" t="str">
+      <c r="C115" s="7" t="str">
         <v>Defeat everyone and leave no one out!</v>
       </c>
-      <c r="D115" s="6" t="str">
+      <c r="D115" s="8" t="str">
         <v>击败所有人，一个也不要放过！</v>
       </c>
-      <c r="E115" s="6"/>
+      <c r="E115" s="8"/>
     </row>
     <row customHeight="true" ht="25" r="116">
-      <c r="A116" s="6">
+      <c r="A116" s="8">
         <v>30083</v>
       </c>
-      <c r="B116" s="5" t="str">
+      <c r="B116" s="7" t="str">
         <v>Text_Content_11018</v>
       </c>
-      <c r="C116" s="5" t="str">
+      <c r="C116" s="7" t="str">
         <v>You are Detective, defeat the Murderer!</v>
       </c>
-      <c r="D116" s="6" t="str">
+      <c r="D116" s="8" t="str">
         <v>你是侦探，寻找凶手并击败他！</v>
       </c>
-      <c r="E116" s="6"/>
+      <c r="E116" s="8"/>
     </row>
     <row customHeight="true" ht="25" r="117">
-      <c r="A117" s="6">
+      <c r="A117" s="8">
         <v>30084</v>
       </c>
-      <c r="B117" s="5" t="str">
+      <c r="B117" s="7" t="str">
         <v>Text_Content_11019</v>
       </c>
-      <c r="C117" s="5" t="str">
+      <c r="C117" s="7" t="str">
         <v>You're the Hero, find the Murderer and defeat him!</v>
       </c>
-      <c r="D117" s="6" t="str">
+      <c r="D117" s="8" t="str">
         <v>你化身英雄，找到凶手击败他！</v>
       </c>
-      <c r="E117" s="6"/>
+      <c r="E117" s="8"/>
     </row>
     <row customHeight="true" ht="25" r="118">
-      <c r="A118" s="6">
+      <c r="A118" s="8">
         <v>30085</v>
       </c>
-      <c r="B118" s="5" t="str">
+      <c r="B118" s="7" t="str">
         <v>Text_Content_11020</v>
       </c>
-      <c r="C118" s="5" t="str">
+      <c r="C118" s="7" t="str">
         <v>Survive...</v>
       </c>
-      <c r="D118" s="6" t="str">
+      <c r="D118" s="8" t="str">
         <v>活下去...</v>
       </c>
-      <c r="E118" s="6"/>
+      <c r="E118" s="8"/>
     </row>
     <row customHeight="true" ht="25" r="119">
-      <c r="A119" s="6">
+      <c r="A119" s="8">
         <v>30086</v>
       </c>
-      <c r="B119" s="5" t="str">
+      <c r="B119" s="7" t="str">
         <v>Text_Content_20034</v>
       </c>
-      <c r="C119" s="5" t="str">
+      <c r="C119" s="7" t="str">
         <v>Terminator!</v>
       </c>
-      <c r="D119" s="6" t="str">
+      <c r="D119" s="8" t="str">
         <v>本轮终结者！</v>
       </c>
-      <c r="E119" s="6"/>
+      <c r="E119" s="8"/>
     </row>
     <row customHeight="true" ht="25" r="120">
-      <c r="A120" s="6">
+      <c r="A120" s="8">
         <v>30087</v>
       </c>
-      <c r="B120" s="5" t="str">
+      <c r="B120" s="7" t="str">
         <v>Text_Content_20035</v>
       </c>
-      <c r="C120" s="5" t="str">
+      <c r="C120" s="7" t="str">
         <v>Lottery</v>
       </c>
-      <c r="D120" s="6" t="str">
+      <c r="D120" s="8" t="str">
         <v>抽奖获得</v>
       </c>
-      <c r="E120" s="6"/>
+      <c r="E120" s="8"/>
     </row>
     <row customHeight="true" ht="25" r="121">
-      <c r="A121" s="4">
+      <c r="A121" s="5">
         <v>40001</v>
       </c>
-      <c r="B121" s="4" t="str">
+      <c r="B121" s="5" t="str">
         <v>Tips_Content_10001</v>
       </c>
       <c r="C121" s="3" t="str">
         <v>Please pick up your weapon first!</v>
       </c>
-      <c r="D121" s="4" t="str">
+      <c r="D121" s="5" t="str">
         <v>请先拿出武器！</v>
       </c>
-      <c r="E121" s="4" t="str">
+      <c r="E121" s="5" t="str">
         <v>40000：提示表</v>
       </c>
     </row>
     <row customHeight="true" ht="25" r="122">
-      <c r="A122" s="4">
+      <c r="A122" s="5">
         <v>40002</v>
       </c>
-      <c r="B122" s="4" t="str">
+      <c r="B122" s="5" t="str">
         <v>Tips_Content_10002</v>
       </c>
       <c r="C122" s="3" t="str">
         <v>You are a Hero now! Pick up your weapon and attack!</v>
       </c>
-      <c r="D122" s="4" t="str">
+      <c r="D122" s="5" t="str">
         <v>变成了英雄！可以拿出武器攻击了！</v>
       </c>
-      <c r="E122" s="4" t="str"/>
+      <c r="E122" s="5" t="str"/>
     </row>
     <row customHeight="true" ht="25" r="123">
-      <c r="A123" s="4">
+      <c r="A123" s="5">
         <v>40003</v>
       </c>
-      <c r="B123" s="4" t="str">
+      <c r="B123" s="5" t="str">
         <v>Tips_Content_10003</v>
       </c>
       <c r="C123" s="3" t="str">
         <v>Energy balls collected +1~</v>
       </c>
-      <c r="D123" s="4" t="str">
+      <c r="D123" s="5" t="str">
         <v>收集能量球数量+1~</v>
       </c>
-      <c r="E123" s="4" t="str"/>
+      <c r="E123" s="5" t="str"/>
     </row>
     <row customHeight="true" ht="25" r="124">
-      <c r="A124" s="4">
+      <c r="A124" s="5">
         <v>40004</v>
       </c>
-      <c r="B124" s="4" t="str">
+      <c r="B124" s="5" t="str">
         <v>Tips_Content_10004</v>
       </c>
       <c r="C124" s="3" t="str">
         <v>Energy balls obtained in this round is full!</v>
       </c>
-      <c r="D124" s="4" t="str">
+      <c r="D124" s="5" t="str">
         <v>本局获得能量球数量已满！</v>
       </c>
-      <c r="E124" s="4" t="str"/>
+      <c r="E124" s="5" t="str"/>
     </row>
     <row customHeight="true" ht="25" r="125">
-      <c r="A125" s="4">
+      <c r="A125" s="5">
         <v>40005</v>
       </c>
-      <c r="B125" s="4" t="str">
+      <c r="B125" s="5" t="str">
         <v>Tips_Content_10005</v>
       </c>
       <c r="C125" s="3" t="str">
         <v>Energy shield obtained! You can resist an attack now!</v>
       </c>
-      <c r="D125" s="4" t="str">
+      <c r="D125" s="5" t="str">
         <v>获得了能量保护壳！可以抵挡一次攻击！</v>
       </c>
-      <c r="E125" s="4" t="str"/>
+      <c r="E125" s="5" t="str"/>
     </row>
     <row customHeight="true" ht="25" r="126">
-      <c r="A126" s="4">
+      <c r="A126" s="5">
         <v>40006</v>
       </c>
-      <c r="B126" s="4" t="str">
+      <c r="B126" s="5" t="str">
         <v>Tips_Content_10006</v>
       </c>
       <c r="C126" s="3" t="str">
         <v>Energy shield is shattered! Be careful!</v>
       </c>
-      <c r="D126" s="4" t="str">
+      <c r="D126" s="5" t="str">
         <v>能量保护壳被击碎了！小心！</v>
       </c>
-      <c r="E126" s="4" t="str"/>
+      <c r="E126" s="5" t="str"/>
     </row>
     <row customHeight="true" ht="25" r="127">
-      <c r="A127" s="4">
+      <c r="A127" s="5">
         <v>40007</v>
       </c>
-      <c r="B127" s="4" t="str">
+      <c r="B127" s="5" t="str">
         <v>Tips_Content_10007</v>
       </c>
       <c r="C127" s="3" t="str">
         <v>Energy of the shield is absorbed...</v>
       </c>
-      <c r="D127" s="4" t="str">
+      <c r="D127" s="5" t="str">
         <v>保护壳的能量被吸收了...</v>
       </c>
-      <c r="E127" s="4" t="str"/>
+      <c r="E127" s="5" t="str"/>
     </row>
     <row customHeight="true" ht="25" r="128">
-      <c r="A128" s="4">
+      <c r="A128" s="5">
         <v>40008</v>
       </c>
-      <c r="B128" s="4" t="str">
+      <c r="B128" s="5" t="str">
         <v>Tips_Content_10008</v>
       </c>
       <c r="C128" s="3" t="str">
         <v>Coin Bag is full!</v>
       </c>
-      <c r="D128" s="4" t="str">
+      <c r="D128" s="5" t="str">
         <v>金币袋已满！</v>
       </c>
-      <c r="E128" s="4" t="str"/>
+      <c r="E128" s="5" t="str"/>
     </row>
     <row customHeight="true" ht="25" r="129">
-      <c r="A129" s="4">
+      <c r="A129" s="5">
         <v>40009</v>
       </c>
-      <c r="B129" s="4" t="str">
+      <c r="B129" s="5" t="str">
         <v>Tips_Content_10009</v>
       </c>
       <c r="C129" s="3" t="str">
         <v>Someone died!</v>
       </c>
-      <c r="D129" s="4" t="str">
+      <c r="D129" s="5" t="str">
         <v>有人倒下了！</v>
       </c>
-      <c r="E129" s="4" t="str"/>
+      <c r="E129" s="5" t="str"/>
     </row>
     <row customHeight="true" ht="25" r="130">
-      <c r="A130" s="4">
+      <c r="A130" s="5">
         <v>40010</v>
       </c>
-      <c r="B130" s="4" t="str">
+      <c r="B130" s="5" t="str">
         <v>Tips_Content_10010</v>
       </c>
       <c r="C130" s="3" t="str">
         <v>The Detective is dead, find his weapon!</v>
       </c>
-      <c r="D130" s="4" t="str">
+      <c r="D130" s="5" t="str">
         <v>侦探死亡了，找找他的武器吧！</v>
       </c>
-      <c r="E130" s="4" t="str"/>
+      <c r="E130" s="5" t="str"/>
     </row>
     <row customHeight="true" ht="25" r="131">
-      <c r="A131" s="4">
+      <c r="A131" s="5">
         <v>40011</v>
       </c>
-      <c r="B131" s="4" t="str">
+      <c r="B131" s="5" t="str">
         <v>Tips_Content_20001</v>
       </c>
       <c r="C131" s="3" t="str">
         <v>There are currently no active matches!</v>
       </c>
-      <c r="D131" s="4" t="str">
+      <c r="D131" s="5" t="str">
         <v>当前没有正在进行的对局！</v>
       </c>
-      <c r="E131" s="4" t="str"/>
+      <c r="E131" s="5" t="str"/>
     </row>
     <row customHeight="true" ht="25" r="132">
-      <c r="A132" s="4">
+      <c r="A132" s="5">
         <v>40012</v>
       </c>
       <c r="B132" s="3" t="str">
@@ -2917,13 +2917,13 @@
       <c r="C132" s="3" t="str">
         <v>Correct Password</v>
       </c>
-      <c r="D132" s="4" t="str">
+      <c r="D132" s="5" t="str">
         <v>密码输入正确</v>
       </c>
-      <c r="E132" s="4"/>
+      <c r="E132" s="5"/>
     </row>
     <row customHeight="true" ht="25" r="133">
-      <c r="A133" s="4">
+      <c r="A133" s="5">
         <v>40013</v>
       </c>
       <c r="B133" s="3" t="str">
@@ -2932,13 +2932,13 @@
       <c r="C133" s="3" t="str">
         <v>Wrong Password！</v>
       </c>
-      <c r="D133" s="4" t="str">
+      <c r="D133" s="5" t="str">
         <v>密码输入错误！</v>
       </c>
-      <c r="E133" s="4"/>
+      <c r="E133" s="5"/>
     </row>
     <row customHeight="true" ht="25" r="134">
-      <c r="A134" s="4">
+      <c r="A134" s="5">
         <v>40014</v>
       </c>
       <c r="B134" s="3" t="str">
@@ -2947,13 +2947,13 @@
       <c r="C134" s="3" t="str">
         <v>Weapon skins！Click to go！</v>
       </c>
-      <c r="D134" s="4" t="str">
+      <c r="D134" s="5" t="str">
         <v>免费抽取武器皮肤，点击前往！</v>
       </c>
-      <c r="E134" s="4"/>
+      <c r="E134" s="5"/>
     </row>
     <row customHeight="true" ht="25" r="135">
-      <c r="A135" s="4">
+      <c r="A135" s="5">
         <v>40015</v>
       </c>
       <c r="B135" s="3" t="str">
@@ -2962,113 +2962,113 @@
       <c r="C135" s="3" t="str">
         <v>Ad in CD</v>
       </c>
-      <c r="D135" s="4" t="str">
+      <c r="D135" s="5" t="str">
         <v>广告冷却中</v>
       </c>
-      <c r="E135" s="4"/>
+      <c r="E135" s="5"/>
     </row>
     <row customHeight="true" ht="25" r="136">
-      <c r="A136" s="4">
+      <c r="A136" s="5">
         <v>50001</v>
       </c>
-      <c r="B136" s="4" t="str">
+      <c r="B136" s="5" t="str">
         <v>Weapon_WeaponName_10001</v>
       </c>
       <c r="C136" s="3" t="str">
         <v>Knife</v>
       </c>
-      <c r="D136" s="4" t="str">
+      <c r="D136" s="5" t="str">
         <v>小刀</v>
       </c>
-      <c r="E136" s="4" t="str">
+      <c r="E136" s="5" t="str">
         <v>50000：武器表</v>
       </c>
     </row>
     <row customHeight="true" ht="25" r="137">
-      <c r="A137" s="4">
+      <c r="A137" s="5">
         <v>50002</v>
       </c>
-      <c r="B137" s="4" t="str">
+      <c r="B137" s="5" t="str">
         <v>Weapon_WeaponName_20001</v>
       </c>
       <c r="C137" s="3" t="str">
         <v>Revolver</v>
       </c>
-      <c r="D137" s="4" t="str">
+      <c r="D137" s="5" t="str">
         <v>左轮手枪</v>
       </c>
-      <c r="E137" s="4" t="str"/>
+      <c r="E137" s="5" t="str"/>
     </row>
     <row customHeight="true" ht="25" r="138">
-      <c r="A138" s="4">
+      <c r="A138" s="5">
         <v>50003</v>
       </c>
-      <c r="B138" s="5" t="str">
+      <c r="B138" s="7" t="str">
         <v>Weapon_WeaponName_10002</v>
       </c>
       <c r="C138" s="3" t="str">
         <v>Fire Axe</v>
       </c>
-      <c r="D138" s="6" t="str">
+      <c r="D138" s="8" t="str">
         <v>消防斧</v>
       </c>
-      <c r="E138" s="4" t="str">
+      <c r="E138" s="5" t="str">
         <v>武器名称</v>
       </c>
     </row>
     <row customHeight="true" ht="25" r="139">
-      <c r="A139" s="4">
+      <c r="A139" s="5">
         <v>50004</v>
       </c>
-      <c r="B139" s="5" t="str">
+      <c r="B139" s="7" t="str">
         <v>Weapon_WeaponName_10003</v>
       </c>
       <c r="C139" s="3" t="str">
         <v>Nepalese Knife</v>
       </c>
-      <c r="D139" s="6" t="str">
+      <c r="D139" s="8" t="str">
         <v>尼泊尔军刀</v>
       </c>
-      <c r="E139" s="4" t="str">
+      <c r="E139" s="5" t="str">
         <v>武器名称</v>
       </c>
     </row>
     <row customHeight="true" ht="25" r="140">
-      <c r="A140" s="4">
+      <c r="A140" s="5">
         <v>50005</v>
       </c>
-      <c r="B140" s="5" t="str">
+      <c r="B140" s="7" t="str">
         <v>Weapon_WeaponName_20002</v>
       </c>
       <c r="C140" s="3" t="str">
         <v>Submachine Gun</v>
       </c>
-      <c r="D140" s="6" t="str">
+      <c r="D140" s="8" t="str">
         <v>冲锋枪</v>
       </c>
-      <c r="E140" s="4" t="str">
+      <c r="E140" s="5" t="str">
         <v>武器名称</v>
       </c>
     </row>
     <row customHeight="true" ht="25" r="141">
-      <c r="A141" s="4">
+      <c r="A141" s="5">
         <v>50006</v>
       </c>
-      <c r="B141" s="5" t="str">
+      <c r="B141" s="7" t="str">
         <v>Weapon_WeaponName_20003</v>
       </c>
       <c r="C141" s="3" t="str">
         <v>Rifle</v>
       </c>
-      <c r="D141" s="6" t="str">
+      <c r="D141" s="8" t="str">
         <v>步枪</v>
       </c>
-      <c r="E141" s="4" t="str">
+      <c r="E141" s="5" t="str">
         <v>武器名称</v>
       </c>
     </row>
     <row customHeight="true" ht="25" r="142">
-      <c r="A142" s="4">
+      <c r="A142" s="5">
         <v>50007</v>
       </c>
       <c r="B142" s="3" t="str">
@@ -3077,15 +3077,15 @@
       <c r="C142" s="3" t="str">
         <v>Assassin Dagger</v>
       </c>
-      <c r="D142" s="6" t="str">
+      <c r="D142" s="8" t="str">
         <v>暗杀匕首</v>
       </c>
-      <c r="E142" s="4" t="str">
+      <c r="E142" s="5" t="str">
         <v>武器名称</v>
       </c>
     </row>
     <row customHeight="true" ht="25" r="143">
-      <c r="A143" s="4">
+      <c r="A143" s="5">
         <v>50008</v>
       </c>
       <c r="B143" s="3" t="str">
@@ -3094,15 +3094,15 @@
       <c r="C143" s="3" t="str">
         <v>Survival Dagger</v>
       </c>
-      <c r="D143" s="6" t="str">
+      <c r="D143" s="8" t="str">
         <v>求生匕首</v>
       </c>
-      <c r="E143" s="4" t="str">
+      <c r="E143" s="5" t="str">
         <v>武器名称</v>
       </c>
     </row>
     <row customHeight="true" ht="25" r="144">
-      <c r="A144" s="4">
+      <c r="A144" s="5">
         <v>50009</v>
       </c>
       <c r="B144" s="3" t="str">
@@ -3111,15 +3111,15 @@
       <c r="C144" s="3" t="str">
         <v>Kitchen Knife</v>
       </c>
-      <c r="D144" s="6" t="str">
+      <c r="D144" s="8" t="str">
         <v>菜刀</v>
       </c>
-      <c r="E144" s="4" t="str">
+      <c r="E144" s="5" t="str">
         <v>武器名称</v>
       </c>
     </row>
     <row customHeight="true" ht="25" r="145">
-      <c r="A145" s="4">
+      <c r="A145" s="5">
         <v>50010</v>
       </c>
       <c r="B145" s="3" t="str">
@@ -3131,12 +3131,12 @@
       <c r="D145" s="3" t="str">
         <v>镖(波)</v>
       </c>
-      <c r="E145" s="4" t="str">
+      <c r="E145" s="5" t="str">
         <v>武器名称</v>
       </c>
     </row>
     <row customHeight="true" ht="25" r="146">
-      <c r="A146" s="4">
+      <c r="A146" s="5">
         <v>50011</v>
       </c>
       <c r="B146" s="3" t="str">
@@ -3148,12 +3148,12 @@
       <c r="D146" s="3" t="str">
         <v>镖(桎)</v>
       </c>
-      <c r="E146" s="4" t="str">
+      <c r="E146" s="5" t="str">
         <v>武器名称</v>
       </c>
     </row>
     <row customHeight="true" ht="25" r="147">
-      <c r="A147" s="4">
+      <c r="A147" s="5">
         <v>50012</v>
       </c>
       <c r="B147" s="3" t="str">
@@ -3165,12 +3165,12 @@
       <c r="D147" s="3" t="str">
         <v>镖(碎)</v>
       </c>
-      <c r="E147" s="4" t="str">
+      <c r="E147" s="5" t="str">
         <v>武器名称</v>
       </c>
     </row>
     <row customHeight="true" ht="25" r="148">
-      <c r="A148" s="4">
+      <c r="A148" s="5">
         <v>50013</v>
       </c>
       <c r="B148" s="3" t="str">
@@ -3182,12 +3182,12 @@
       <c r="D148" s="3" t="str">
         <v>镖(漩)</v>
       </c>
-      <c r="E148" s="4" t="str">
+      <c r="E148" s="5" t="str">
         <v>武器名称</v>
       </c>
     </row>
     <row customHeight="true" ht="25" r="149">
-      <c r="A149" s="4">
+      <c r="A149" s="5">
         <v>50014</v>
       </c>
       <c r="B149" s="3" t="str">
@@ -3199,12 +3199,12 @@
       <c r="D149" s="3" t="str">
         <v>镖(气)</v>
       </c>
-      <c r="E149" s="4" t="str">
+      <c r="E149" s="5" t="str">
         <v>武器名称</v>
       </c>
     </row>
     <row customHeight="true" ht="25" r="150">
-      <c r="A150" s="4">
+      <c r="A150" s="5">
         <v>50015</v>
       </c>
       <c r="B150" s="3" t="str">
@@ -3216,12 +3216,12 @@
       <c r="D150" s="3" t="str">
         <v>镖(激荡)</v>
       </c>
-      <c r="E150" s="4" t="str">
+      <c r="E150" s="5" t="str">
         <v>武器名称</v>
       </c>
     </row>
     <row customHeight="true" ht="25" r="151">
-      <c r="A151" s="4">
+      <c r="A151" s="5">
         <v>50016</v>
       </c>
       <c r="B151" s="3" t="str">
@@ -3233,12 +3233,12 @@
       <c r="D151" s="3" t="str">
         <v>镖(封印)</v>
       </c>
-      <c r="E151" s="4" t="str">
+      <c r="E151" s="5" t="str">
         <v>武器名称</v>
       </c>
     </row>
     <row customHeight="true" ht="25" r="152">
-      <c r="A152" s="4">
+      <c r="A152" s="5">
         <v>50017</v>
       </c>
       <c r="B152" s="3" t="str">
@@ -3250,12 +3250,12 @@
       <c r="D152" s="3" t="str">
         <v>镖(轮回)</v>
       </c>
-      <c r="E152" s="4" t="str">
+      <c r="E152" s="5" t="str">
         <v>武器名称</v>
       </c>
     </row>
     <row customHeight="true" ht="25" r="153">
-      <c r="A153" s="4">
+      <c r="A153" s="5">
         <v>50018</v>
       </c>
       <c r="B153" s="3" t="str">
@@ -3267,12 +3267,12 @@
       <c r="D153" s="3" t="str">
         <v>狗鱼</v>
       </c>
-      <c r="E153" s="4" t="str">
+      <c r="E153" s="5" t="str">
         <v>武器名称</v>
       </c>
     </row>
     <row customHeight="true" ht="25" r="154">
-      <c r="A154" s="4">
+      <c r="A154" s="5">
         <v>50019</v>
       </c>
       <c r="B154" s="3" t="str">
@@ -3284,12 +3284,12 @@
       <c r="D154" s="3" t="str">
         <v>毛鼻鲶</v>
       </c>
-      <c r="E154" s="4" t="str">
+      <c r="E154" s="5" t="str">
         <v>武器名称</v>
       </c>
     </row>
     <row customHeight="true" ht="25" r="155">
-      <c r="A155" s="4">
+      <c r="A155" s="5">
         <v>50020</v>
       </c>
       <c r="B155" s="3" t="str">
@@ -3301,12 +3301,12 @@
       <c r="D155" s="3" t="str">
         <v>金鱼</v>
       </c>
-      <c r="E155" s="4" t="str">
+      <c r="E155" s="5" t="str">
         <v>武器名称</v>
       </c>
     </row>
     <row customHeight="true" ht="25" r="156">
-      <c r="A156" s="4">
+      <c r="A156" s="5">
         <v>50021</v>
       </c>
       <c r="B156" s="3" t="str">
@@ -3318,12 +3318,12 @@
       <c r="D156" s="3" t="str">
         <v>金枪鱼</v>
       </c>
-      <c r="E156" s="4" t="str">
+      <c r="E156" s="5" t="str">
         <v>武器名称</v>
       </c>
     </row>
     <row customHeight="true" ht="25" r="157">
-      <c r="A157" s="4">
+      <c r="A157" s="5">
         <v>50022</v>
       </c>
       <c r="B157" s="3" t="str">
@@ -3335,12 +3335,12 @@
       <c r="D157" s="3" t="str">
         <v>龙虾</v>
       </c>
-      <c r="E157" s="4" t="str">
+      <c r="E157" s="5" t="str">
         <v>武器名称</v>
       </c>
     </row>
     <row customHeight="true" ht="25" r="158">
-      <c r="A158" s="4">
+      <c r="A158" s="5">
         <v>50023</v>
       </c>
       <c r="B158" s="3" t="str">
@@ -3352,12 +3352,12 @@
       <c r="D158" s="3" t="str">
         <v>皇带鱼</v>
       </c>
-      <c r="E158" s="4" t="str">
+      <c r="E158" s="5" t="str">
         <v>武器名称</v>
       </c>
     </row>
     <row customHeight="true" ht="25" r="159">
-      <c r="A159" s="4">
+      <c r="A159" s="5">
         <v>50024</v>
       </c>
       <c r="B159" s="3" t="str">
@@ -3369,12 +3369,12 @@
       <c r="D159" s="3" t="str">
         <v>神奇海螺</v>
       </c>
-      <c r="E159" s="4" t="str">
+      <c r="E159" s="5" t="str">
         <v>武器名称</v>
       </c>
     </row>
     <row customHeight="true" ht="25" r="160">
-      <c r="A160" s="4">
+      <c r="A160" s="5">
         <v>50025</v>
       </c>
       <c r="B160" s="3" t="str">
@@ -3386,12 +3386,12 @@
       <c r="D160" s="3" t="str">
         <v>海王三叉戟</v>
       </c>
-      <c r="E160" s="4" t="str">
+      <c r="E160" s="5" t="str">
         <v>武器名称</v>
       </c>
     </row>
     <row customHeight="true" ht="25" r="161">
-      <c r="A161" s="4">
+      <c r="A161" s="5">
         <v>50027</v>
       </c>
       <c r="B161" s="3" t="str">
@@ -3403,12 +3403,12 @@
       <c r="D161" s="3" t="str">
         <v>飞镖武器箱</v>
       </c>
-      <c r="E161" s="4" t="str">
+      <c r="E161" s="5" t="str">
         <v>武器箱子名称</v>
       </c>
     </row>
     <row customHeight="true" ht="25" r="162">
-      <c r="A162" s="4">
+      <c r="A162" s="5">
         <v>50028</v>
       </c>
       <c r="B162" s="3" t="str">
@@ -3420,15 +3420,15 @@
       <c r="D162" s="3" t="str">
         <v>深海武器箱</v>
       </c>
-      <c r="E162" s="4" t="str">
+      <c r="E162" s="5" t="str">
         <v>武器箱子名称</v>
       </c>
     </row>
     <row customHeight="true" ht="25" r="163">
-      <c r="A163" s="4">
+      <c r="A163" s="5">
         <v>60001</v>
       </c>
-      <c r="B163" s="4" t="str">
+      <c r="B163" s="5" t="str">
         <v>AIData_AIName_90001</v>
       </c>
       <c r="C163" s="3" t="str">
@@ -3437,15 +3437,15 @@
       <c r="D163" s="3" t="str">
         <v>Creabhop</v>
       </c>
-      <c r="E163" s="4" t="str">
+      <c r="E163" s="5" t="str">
         <v>60000：AI数据表</v>
       </c>
     </row>
     <row customHeight="true" ht="25" r="164">
-      <c r="A164" s="4">
+      <c r="A164" s="5">
         <v>60002</v>
       </c>
-      <c r="B164" s="4" t="str">
+      <c r="B164" s="5" t="str">
         <v>AIData_AIName_90002</v>
       </c>
       <c r="C164" s="3" t="str">
@@ -3454,13 +3454,13 @@
       <c r="D164" s="3" t="str">
         <v>Rival</v>
       </c>
-      <c r="E164" s="4" t="str"/>
+      <c r="E164" s="5" t="str"/>
     </row>
     <row customHeight="true" ht="25" r="165">
-      <c r="A165" s="4">
+      <c r="A165" s="5">
         <v>60003</v>
       </c>
-      <c r="B165" s="4" t="str">
+      <c r="B165" s="5" t="str">
         <v>AIData_AIName_90003</v>
       </c>
       <c r="C165" s="3" t="str">
@@ -3469,13 +3469,13 @@
       <c r="D165" s="3" t="str">
         <v>Ironpup</v>
       </c>
-      <c r="E165" s="4" t="str"/>
+      <c r="E165" s="5" t="str"/>
     </row>
     <row customHeight="true" ht="25" r="166">
-      <c r="A166" s="4">
+      <c r="A166" s="5">
         <v>60004</v>
       </c>
-      <c r="B166" s="4" t="str">
+      <c r="B166" s="5" t="str">
         <v>AIData_AIName_90004</v>
       </c>
       <c r="C166" s="3" t="str">
@@ -3484,13 +3484,13 @@
       <c r="D166" s="3" t="str">
         <v>TonyXenos</v>
       </c>
-      <c r="E166" s="4" t="str"/>
+      <c r="E166" s="5" t="str"/>
     </row>
     <row customHeight="true" ht="25" r="167">
-      <c r="A167" s="4">
+      <c r="A167" s="5">
         <v>60005</v>
       </c>
-      <c r="B167" s="4" t="str">
+      <c r="B167" s="5" t="str">
         <v>AIData_AIName_90005</v>
       </c>
       <c r="C167" s="3" t="str">
@@ -3499,13 +3499,13 @@
       <c r="D167" s="3" t="str">
         <v>L8s</v>
       </c>
-      <c r="E167" s="4" t="str"/>
+      <c r="E167" s="5" t="str"/>
     </row>
     <row customHeight="true" ht="25" r="168">
-      <c r="A168" s="4">
+      <c r="A168" s="5">
         <v>60006</v>
       </c>
-      <c r="B168" s="4" t="str">
+      <c r="B168" s="5" t="str">
         <v>AIData_AIName_90006</v>
       </c>
       <c r="C168" s="3" t="str">
@@ -3514,13 +3514,13 @@
       <c r="D168" s="3" t="str">
         <v>Crilm</v>
       </c>
-      <c r="E168" s="4" t="str"/>
+      <c r="E168" s="5" t="str"/>
     </row>
     <row customHeight="true" ht="25" r="169">
-      <c r="A169" s="4">
+      <c r="A169" s="5">
         <v>60007</v>
       </c>
-      <c r="B169" s="4" t="str">
+      <c r="B169" s="5" t="str">
         <v>AIData_AIName_90007</v>
       </c>
       <c r="C169" s="3" t="str">
@@ -3529,13 +3529,13 @@
       <c r="D169" s="3" t="str">
         <v>Himiko Toga</v>
       </c>
-      <c r="E169" s="4" t="str"/>
+      <c r="E169" s="5" t="str"/>
     </row>
     <row customHeight="true" ht="25" r="170">
-      <c r="A170" s="4">
+      <c r="A170" s="5">
         <v>60008</v>
       </c>
-      <c r="B170" s="4" t="str">
+      <c r="B170" s="5" t="str">
         <v>AIData_AIName_90008</v>
       </c>
       <c r="C170" s="3" t="str">
@@ -3544,13 +3544,13 @@
       <c r="D170" s="3" t="str">
         <v>Rocco21</v>
       </c>
-      <c r="E170" s="4" t="str"/>
+      <c r="E170" s="5" t="str"/>
     </row>
     <row customHeight="true" ht="25" r="171">
-      <c r="A171" s="4">
+      <c r="A171" s="5">
         <v>60009</v>
       </c>
-      <c r="B171" s="4" t="str">
+      <c r="B171" s="5" t="str">
         <v>AIData_AIName_90009</v>
       </c>
       <c r="C171" s="3" t="str">
@@ -3559,13 +3559,13 @@
       <c r="D171" s="3" t="str">
         <v>Elysian</v>
       </c>
-      <c r="E171" s="4" t="str"/>
+      <c r="E171" s="5" t="str"/>
     </row>
     <row customHeight="true" ht="25" r="172">
-      <c r="A172" s="4">
+      <c r="A172" s="5">
         <v>60010</v>
       </c>
-      <c r="B172" s="4" t="str">
+      <c r="B172" s="5" t="str">
         <v>AIData_AIName_90010</v>
       </c>
       <c r="C172" s="3" t="str">
@@ -3574,13 +3574,13 @@
       <c r="D172" s="3" t="str">
         <v>Bunny Rat</v>
       </c>
-      <c r="E172" s="4" t="str"/>
+      <c r="E172" s="5" t="str"/>
     </row>
     <row customHeight="true" ht="25" r="173">
-      <c r="A173" s="4">
+      <c r="A173" s="5">
         <v>60011</v>
       </c>
-      <c r="B173" s="4" t="str">
+      <c r="B173" s="5" t="str">
         <v>AIData_AIName_90011</v>
       </c>
       <c r="C173" s="3" t="str">
@@ -3589,10 +3589,10 @@
       <c r="D173" s="3" t="str">
         <v>Zaptar</v>
       </c>
-      <c r="E173" s="4" t="str"/>
+      <c r="E173" s="5" t="str"/>
     </row>
     <row customHeight="true" ht="25" r="174">
-      <c r="A174" s="4">
+      <c r="A174" s="5">
         <v>70001</v>
       </c>
       <c r="B174" s="3" t="str">
@@ -3604,10 +3604,10 @@
       <c r="D174" s="3" t="str">
         <v>大厅</v>
       </c>
-      <c r="E174" s="4" t="str"/>
+      <c r="E174" s="5" t="str"/>
     </row>
     <row customHeight="true" ht="25" r="175">
-      <c r="A175" s="4">
+      <c r="A175" s="5">
         <v>70002</v>
       </c>
       <c r="B175" s="3" t="str">
@@ -3616,15 +3616,15 @@
       <c r="C175" s="3" t="str">
         <v>Night Bar</v>
       </c>
-      <c r="D175" s="26" t="str">
+      <c r="D175" s="27" t="str">
         <v>夜色酒吧</v>
       </c>
-      <c r="E175" s="4" t="str">
+      <c r="E175" s="5" t="str">
         <v>关卡地图名称</v>
       </c>
     </row>
     <row customHeight="true" ht="25" r="176">
-      <c r="A176" s="4">
+      <c r="A176" s="5">
         <v>70003</v>
       </c>
       <c r="B176" s="3" t="str">
@@ -3633,15 +3633,15 @@
       <c r="C176" s="3" t="str">
         <v>Sakura Cafe</v>
       </c>
-      <c r="D176" s="4" t="str">
+      <c r="D176" s="5" t="str">
         <v>樱花咖啡馆</v>
       </c>
-      <c r="E176" s="4" t="str">
+      <c r="E176" s="5" t="str">
         <v>关卡地图名称</v>
       </c>
     </row>
     <row customHeight="true" ht="25" r="177">
-      <c r="A177" s="4">
+      <c r="A177" s="5">
         <v>70004</v>
       </c>
       <c r="B177" s="3" t="str">
@@ -3653,12 +3653,12 @@
       <c r="D177" s="3" t="str">
         <v>泳池派对</v>
       </c>
-      <c r="E177" s="4" t="str">
+      <c r="E177" s="5" t="str">
         <v>关卡地图名称</v>
       </c>
     </row>
     <row customHeight="true" ht="25" r="178">
-      <c r="A178" s="4">
+      <c r="A178" s="5">
         <v>80001</v>
       </c>
       <c r="B178" s="3" t="str">
@@ -3667,7 +3667,7 @@
       <c r="C178" s="3" t="str">
         <v>Smoke</v>
       </c>
-      <c r="D178" s="4" t="str">
+      <c r="D178" s="5" t="str">
         <v>烟雾</v>
       </c>
       <c r="E178" s="3" t="str">
@@ -3675,7 +3675,7 @@
       </c>
     </row>
     <row customHeight="true" ht="25" r="179">
-      <c r="A179" s="4">
+      <c r="A179" s="5">
         <v>80002</v>
       </c>
       <c r="B179" s="3" t="str">
@@ -3684,7 +3684,7 @@
       <c r="C179" s="3" t="str">
         <v>Aura</v>
       </c>
-      <c r="D179" s="4" t="str">
+      <c r="D179" s="5" t="str">
         <v>紫电</v>
       </c>
       <c r="E179" s="3" t="str">
@@ -3692,7 +3692,7 @@
       </c>
     </row>
     <row customHeight="true" ht="25" r="180">
-      <c r="A180" s="4">
+      <c r="A180" s="5">
         <v>80003</v>
       </c>
       <c r="B180" s="3" t="str">
@@ -3701,7 +3701,7 @@
       <c r="C180" s="3" t="str">
         <v>Thunder</v>
       </c>
-      <c r="D180" s="4" t="str">
+      <c r="D180" s="5" t="str">
         <v>雷霆</v>
       </c>
       <c r="E180" s="3" t="str">
@@ -3709,7 +3709,7 @@
       </c>
     </row>
     <row customHeight="true" ht="25" r="181">
-      <c r="A181" s="4">
+      <c r="A181" s="5">
         <v>80004</v>
       </c>
       <c r="B181" s="3" t="str">
@@ -3718,7 +3718,7 @@
       <c r="C181" s="3" t="str">
         <v>Breeze</v>
       </c>
-      <c r="D181" s="4" t="str">
+      <c r="D181" s="5" t="str">
         <v>清风</v>
       </c>
       <c r="E181" s="3" t="str">
@@ -3726,7 +3726,7 @@
       </c>
     </row>
     <row customHeight="true" ht="25" r="182">
-      <c r="A182" s="4">
+      <c r="A182" s="5">
         <v>80005</v>
       </c>
       <c r="B182" s="3" t="str">
@@ -3735,7 +3735,7 @@
       <c r="C182" s="3" t="str">
         <v>Rainbow</v>
       </c>
-      <c r="D182" s="4" t="str">
+      <c r="D182" s="5" t="str">
         <v>虹彩</v>
       </c>
       <c r="E182" s="3" t="str">
@@ -3743,7 +3743,7 @@
       </c>
     </row>
     <row customHeight="true" ht="25" r="183">
-      <c r="A183" s="4">
+      <c r="A183" s="5">
         <v>80006</v>
       </c>
       <c r="B183" s="3" t="str">
@@ -3752,7 +3752,7 @@
       <c r="C183" s="3" t="str">
         <v>Dream</v>
       </c>
-      <c r="D183" s="4" t="str">
+      <c r="D183" s="5" t="str">
         <v>梦幻</v>
       </c>
       <c r="E183" s="3" t="str">
@@ -3760,7 +3760,7 @@
       </c>
     </row>
     <row customHeight="true" ht="25" r="184">
-      <c r="A184" s="4">
+      <c r="A184" s="5">
         <v>80007</v>
       </c>
       <c r="B184" s="3" t="str">
@@ -3772,12 +3772,12 @@
       <c r="D184" s="3" t="str">
         <v>温柔学姐</v>
       </c>
-      <c r="E184" s="4" t="str">
+      <c r="E184" s="5" t="str">
         <v>套装名称</v>
       </c>
     </row>
     <row customHeight="true" ht="25" r="185">
-      <c r="A185" s="4">
+      <c r="A185" s="5">
         <v>80008</v>
       </c>
       <c r="B185" s="3" t="str">
@@ -3786,15 +3786,15 @@
       <c r="C185" s="3" t="str">
         <v>Discipline Member</v>
       </c>
-      <c r="D185" s="4" t="str">
+      <c r="D185" s="5" t="str">
         <v>风纪委员</v>
       </c>
-      <c r="E185" s="4" t="str">
+      <c r="E185" s="5" t="str">
         <v>套装名称</v>
       </c>
     </row>
     <row customHeight="true" ht="25" r="186">
-      <c r="A186" s="4">
+      <c r="A186" s="5">
         <v>80009</v>
       </c>
       <c r="B186" s="3" t="str">
@@ -3803,15 +3803,15 @@
       <c r="C186" s="3" t="str">
         <v>Bad Girl</v>
       </c>
-      <c r="D186" s="4" t="str">
+      <c r="D186" s="5" t="str">
         <v>不良少女</v>
       </c>
-      <c r="E186" s="4" t="str">
+      <c r="E186" s="5" t="str">
         <v>套装名称</v>
       </c>
     </row>
     <row customHeight="true" ht="25" r="187">
-      <c r="A187" s="4">
+      <c r="A187" s="5">
         <v>80010</v>
       </c>
       <c r="B187" s="3" t="str">
@@ -3820,15 +3820,15 @@
       <c r="C187" s="3" t="str">
         <v>Korean Girl</v>
       </c>
-      <c r="D187" s="4" t="str">
+      <c r="D187" s="5" t="str">
         <v>韩式淑女</v>
       </c>
-      <c r="E187" s="4" t="str">
+      <c r="E187" s="5" t="str">
         <v>套装名称</v>
       </c>
     </row>
     <row customHeight="true" ht="25" r="188">
-      <c r="A188" s="4">
+      <c r="A188" s="5">
         <v>80011</v>
       </c>
       <c r="B188" s="3" t="str">
@@ -3837,15 +3837,15 @@
       <c r="C188" s="3" t="str">
         <v>Cute School Girl</v>
       </c>
-      <c r="D188" s="4" t="str">
+      <c r="D188" s="5" t="str">
         <v>可爱学妹</v>
       </c>
-      <c r="E188" s="4" t="str">
+      <c r="E188" s="5" t="str">
         <v>套装名称</v>
       </c>
     </row>
     <row customHeight="true" ht="25" r="189">
-      <c r="A189" s="4">
+      <c r="A189" s="5">
         <v>80012</v>
       </c>
       <c r="B189" s="3" t="str">
@@ -3854,15 +3854,15 @@
       <c r="C189" s="3" t="str">
         <v>Fantasy Girl</v>
       </c>
-      <c r="D189" s="4" t="str">
+      <c r="D189" s="5" t="str">
         <v>奇幻少女</v>
       </c>
-      <c r="E189" s="4" t="str">
+      <c r="E189" s="5" t="str">
         <v>套装名称</v>
       </c>
     </row>
     <row customHeight="true" ht="25" r="190">
-      <c r="A190" s="4">
+      <c r="A190" s="5">
         <v>80013</v>
       </c>
       <c r="B190" s="3" t="str">
@@ -3871,15 +3871,15 @@
       <c r="C190" s="3" t="str">
         <v>Gentle Senior</v>
       </c>
-      <c r="D190" s="4" t="str">
+      <c r="D190" s="5" t="str">
         <v>温柔学长</v>
       </c>
-      <c r="E190" s="4" t="str">
+      <c r="E190" s="5" t="str">
         <v>套装名称</v>
       </c>
     </row>
     <row customHeight="true" ht="25" r="191">
-      <c r="A191" s="4">
+      <c r="A191" s="5">
         <v>80014</v>
       </c>
       <c r="B191" s="3" t="str">
@@ -3888,15 +3888,15 @@
       <c r="C191" s="3" t="str">
         <v>Bad Boy</v>
       </c>
-      <c r="D191" s="4" t="str">
+      <c r="D191" s="5" t="str">
         <v>不良少年</v>
       </c>
-      <c r="E191" s="4" t="str">
+      <c r="E191" s="5" t="str">
         <v>套装名称</v>
       </c>
     </row>
     <row customHeight="true" ht="25" r="192">
-      <c r="A192" s="4">
+      <c r="A192" s="5">
         <v>80015</v>
       </c>
       <c r="B192" s="3" t="str">
@@ -3908,12 +3908,12 @@
       <c r="D192" s="3" t="str">
         <v>啦啦队长</v>
       </c>
-      <c r="E192" s="4" t="str">
+      <c r="E192" s="5" t="str">
         <v>套装名称</v>
       </c>
     </row>
     <row customHeight="true" ht="25" r="193">
-      <c r="A193" s="4">
+      <c r="A193" s="5">
         <v>80016</v>
       </c>
       <c r="B193" s="3" t="str">
@@ -3925,12 +3925,12 @@
       <c r="D193" s="3" t="str">
         <v>艺术生</v>
       </c>
-      <c r="E193" s="4" t="str">
+      <c r="E193" s="5" t="str">
         <v>套装名称</v>
       </c>
     </row>
     <row customHeight="true" ht="25" r="194">
-      <c r="A194" s="4">
+      <c r="A194" s="5">
         <v>80017</v>
       </c>
       <c r="B194" s="3" t="str">
@@ -3942,12 +3942,12 @@
       <c r="D194" s="3" t="str">
         <v>二次元少女</v>
       </c>
-      <c r="E194" s="4" t="str">
+      <c r="E194" s="5" t="str">
         <v>套装名称</v>
       </c>
     </row>
     <row customHeight="true" ht="25" r="195">
-      <c r="A195" s="4">
+      <c r="A195" s="5">
         <v>80018</v>
       </c>
       <c r="B195" s="3" t="str">
@@ -3959,12 +3959,12 @@
       <c r="D195" s="3" t="str">
         <v>英语老师</v>
       </c>
-      <c r="E195" s="4" t="str">
+      <c r="E195" s="5" t="str">
         <v>套装名称</v>
       </c>
     </row>
     <row customHeight="true" ht="25" r="196">
-      <c r="A196" s="4">
+      <c r="A196" s="5">
         <v>80019</v>
       </c>
       <c r="B196" s="3" t="str">
@@ -3976,12 +3976,12 @@
       <c r="D196" s="3" t="str">
         <v>正义少年</v>
       </c>
-      <c r="E196" s="4" t="str">
+      <c r="E196" s="5" t="str">
         <v>套装名称</v>
       </c>
     </row>
     <row customHeight="true" ht="25" r="197">
-      <c r="A197" s="4">
+      <c r="A197" s="5">
         <v>80020</v>
       </c>
       <c r="B197" s="3" t="str">
@@ -3993,12 +3993,12 @@
       <c r="D197" s="3" t="str">
         <v>潮流少女</v>
       </c>
-      <c r="E197" s="4" t="str">
+      <c r="E197" s="5" t="str">
         <v>套装名称</v>
       </c>
     </row>
     <row customHeight="true" ht="25" r="198">
-      <c r="A198" s="4">
+      <c r="A198" s="5">
         <v>80021</v>
       </c>
       <c r="B198" s="3" t="str">
@@ -4007,15 +4007,15 @@
       <c r="C198" s="3" t="str">
         <v>Student President</v>
       </c>
-      <c r="D198" s="4" t="str">
+      <c r="D198" s="5" t="str">
         <v>学生会长</v>
       </c>
-      <c r="E198" s="4" t="str">
+      <c r="E198" s="5" t="str">
         <v>套装名称</v>
       </c>
     </row>
     <row customHeight="true" ht="25" r="199">
-      <c r="A199" s="4">
+      <c r="A199" s="5">
         <v>80022</v>
       </c>
       <c r="B199" s="3" t="str">
@@ -4024,15 +4024,15 @@
       <c r="C199" s="3" t="str">
         <v>Female Teacher</v>
       </c>
-      <c r="D199" s="4" t="str">
+      <c r="D199" s="5" t="str">
         <v>女老师</v>
       </c>
-      <c r="E199" s="4" t="str">
+      <c r="E199" s="5" t="str">
         <v>套装名称</v>
       </c>
     </row>
     <row customHeight="true" ht="25" r="200">
-      <c r="A200" s="4">
+      <c r="A200" s="5">
         <v>80023</v>
       </c>
       <c r="B200" s="3" t="str">
@@ -4041,15 +4041,15 @@
       <c r="C200" s="3" t="str">
         <v>Class Monitor</v>
       </c>
-      <c r="D200" s="4" t="str">
+      <c r="D200" s="5" t="str">
         <v>班主任</v>
       </c>
-      <c r="E200" s="4" t="str">
+      <c r="E200" s="5" t="str">
         <v>套装名称</v>
       </c>
     </row>
     <row customHeight="true" ht="25" r="201">
-      <c r="A201" s="4">
+      <c r="A201" s="5">
         <v>80024</v>
       </c>
       <c r="B201" s="3" t="str">
@@ -4058,15 +4058,15 @@
       <c r="C201" s="3" t="str">
         <v>Sea Girl</v>
       </c>
-      <c r="D201" s="4" t="str">
+      <c r="D201" s="5" t="str">
         <v>海边姐姐</v>
       </c>
-      <c r="E201" s="4" t="str">
+      <c r="E201" s="5" t="str">
         <v>套装名称</v>
       </c>
     </row>
     <row customHeight="true" ht="25" r="202">
-      <c r="A202" s="4">
+      <c r="A202" s="5">
         <v>80025</v>
       </c>
       <c r="B202" s="3" t="str">
@@ -4075,15 +4075,15 @@
       <c r="C202" s="3" t="str">
         <v>Girl Next Door</v>
       </c>
-      <c r="D202" s="4" t="str">
+      <c r="D202" s="5" t="str">
         <v>邻家妹妹</v>
       </c>
-      <c r="E202" s="4" t="str">
+      <c r="E202" s="5" t="str">
         <v>套装名称</v>
       </c>
     </row>
     <row customHeight="true" ht="25" r="203">
-      <c r="A203" s="4">
+      <c r="A203" s="5">
         <v>80026</v>
       </c>
       <c r="B203" s="3" t="str">
@@ -4092,15 +4092,15 @@
       <c r="C203" s="3" t="str">
         <v>Fitness Coach</v>
       </c>
-      <c r="D203" s="4" t="str">
+      <c r="D203" s="5" t="str">
         <v>健身教练</v>
       </c>
-      <c r="E203" s="4" t="str">
+      <c r="E203" s="5" t="str">
         <v>套装名称</v>
       </c>
     </row>
     <row customHeight="true" ht="25" r="204">
-      <c r="A204" s="4">
+      <c r="A204" s="5">
         <v>80027</v>
       </c>
       <c r="B204" s="3" t="str">
@@ -4109,15 +4109,15 @@
       <c r="C204" s="3" t="str">
         <v>Elegant Girl</v>
       </c>
-      <c r="D204" s="4" t="str">
+      <c r="D204" s="5" t="str">
         <v>优雅少女</v>
       </c>
-      <c r="E204" s="4" t="str">
+      <c r="E204" s="5" t="str">
         <v>套装名称</v>
       </c>
     </row>
     <row customHeight="true" ht="25" r="205">
-      <c r="A205" s="4">
+      <c r="A205" s="5">
         <v>80028</v>
       </c>
       <c r="B205" s="3" t="str">
@@ -4126,15 +4126,15 @@
       <c r="C205" s="3" t="str">
         <v>The Adventurer</v>
       </c>
-      <c r="D205" s="4" t="str">
+      <c r="D205" s="5" t="str">
         <v>探险家</v>
       </c>
-      <c r="E205" s="4" t="str">
+      <c r="E205" s="5" t="str">
         <v>套装名称</v>
       </c>
     </row>
     <row customHeight="true" ht="25" r="206">
-      <c r="A206" s="4">
+      <c r="A206" s="5">
         <v>80029</v>
       </c>
       <c r="B206" s="3" t="str">
@@ -4143,15 +4143,15 @@
       <c r="C206" s="3" t="str">
         <v>Chinese Student</v>
       </c>
-      <c r="D206" s="4" t="str">
+      <c r="D206" s="5" t="str">
         <v>民国学生</v>
       </c>
-      <c r="E206" s="4" t="str">
+      <c r="E206" s="5" t="str">
         <v>套装名称</v>
       </c>
     </row>
     <row customHeight="true" ht="25" r="207">
-      <c r="A207" s="4">
+      <c r="A207" s="5">
         <v>80030</v>
       </c>
       <c r="B207" s="3" t="str">
@@ -4160,15 +4160,15 @@
       <c r="C207" s="3" t="str">
         <v>Cocoa Girl</v>
       </c>
-      <c r="D207" s="4" t="str">
+      <c r="D207" s="5" t="str">
         <v>可可少女</v>
       </c>
-      <c r="E207" s="4" t="str">
+      <c r="E207" s="5" t="str">
         <v>套装名称</v>
       </c>
     </row>
     <row customHeight="true" ht="25" r="208">
-      <c r="A208" s="4">
+      <c r="A208" s="5">
         <v>80031</v>
       </c>
       <c r="B208" s="3" t="str">
@@ -4177,15 +4177,15 @@
       <c r="C208" s="3" t="str">
         <v>Cat Shopkeeper</v>
       </c>
-      <c r="D208" s="4" t="str">
+      <c r="D208" s="5" t="str">
         <v>猫猫店员</v>
       </c>
-      <c r="E208" s="4" t="str">
+      <c r="E208" s="5" t="str">
         <v>套装名称</v>
       </c>
     </row>
     <row customHeight="true" ht="25" r="209">
-      <c r="A209" s="4">
+      <c r="A209" s="5">
         <v>80032</v>
       </c>
       <c r="B209" s="3" t="str">
@@ -4194,15 +4194,15 @@
       <c r="C209" s="3" t="str">
         <v>Sweet Maid</v>
       </c>
-      <c r="D209" s="4" t="str">
+      <c r="D209" s="5" t="str">
         <v>女仆甜心</v>
       </c>
-      <c r="E209" s="4" t="str">
+      <c r="E209" s="5" t="str">
         <v>套装名称</v>
       </c>
     </row>
     <row customHeight="true" ht="25" r="210">
-      <c r="A210" s="4">
+      <c r="A210" s="5">
         <v>80033</v>
       </c>
       <c r="B210" s="3" t="str">
@@ -4211,15 +4211,15 @@
       <c r="C210" s="3" t="str">
         <v>Cat-eared Maid</v>
       </c>
-      <c r="D210" s="4" t="str">
+      <c r="D210" s="5" t="str">
         <v>猫耳女仆</v>
       </c>
-      <c r="E210" s="4" t="str">
+      <c r="E210" s="5" t="str">
         <v>套装名称</v>
       </c>
     </row>
     <row customHeight="true" ht="25" r="211">
-      <c r="A211" s="4">
+      <c r="A211" s="5">
         <v>80034</v>
       </c>
       <c r="B211" s="3" t="str">
@@ -4228,15 +4228,15 @@
       <c r="C211" s="3" t="str">
         <v>Girl Idol</v>
       </c>
-      <c r="D211" s="4" t="str">
+      <c r="D211" s="5" t="str">
         <v>少女偶像</v>
       </c>
-      <c r="E211" s="4" t="str">
+      <c r="E211" s="5" t="str">
         <v>套装名称</v>
       </c>
     </row>
     <row customHeight="true" ht="25" r="212">
-      <c r="A212" s="4">
+      <c r="A212" s="5">
         <v>80035</v>
       </c>
       <c r="B212" s="3" t="str">
@@ -4245,15 +4245,15 @@
       <c r="C212" s="3" t="str">
         <v>Christmas Girl</v>
       </c>
-      <c r="D212" s="4" t="str">
+      <c r="D212" s="5" t="str">
         <v>圣诞少女</v>
       </c>
-      <c r="E212" s="4" t="str">
+      <c r="E212" s="5" t="str">
         <v>套装名称</v>
       </c>
     </row>
     <row customHeight="true" ht="25" r="213">
-      <c r="A213" s="4">
+      <c r="A213" s="5">
         <v>80036</v>
       </c>
       <c r="B213" s="3" t="str">
@@ -4262,15 +4262,15 @@
       <c r="C213" s="3" t="str">
         <v>Flame</v>
       </c>
-      <c r="D213" s="4" t="str">
+      <c r="D213" s="5" t="str">
         <v>火焰</v>
       </c>
-      <c r="E213" s="4" t="str">
+      <c r="E213" s="5" t="str">
         <v>拖尾道具</v>
       </c>
     </row>
     <row customHeight="true" ht="25" r="214">
-      <c r="A214" s="4">
+      <c r="A214" s="5">
         <v>80037</v>
       </c>
       <c r="B214" s="3" t="str">
@@ -4279,15 +4279,15 @@
       <c r="C214" s="3" t="str">
         <v>Witch</v>
       </c>
-      <c r="D214" s="4" t="str">
+      <c r="D214" s="5" t="str">
         <v>女巫</v>
       </c>
-      <c r="E214" s="4" t="str">
+      <c r="E214" s="5" t="str">
         <v>拖尾道具</v>
       </c>
     </row>
     <row customHeight="true" ht="25" r="215">
-      <c r="A215" s="4">
+      <c r="A215" s="5">
         <v>80038</v>
       </c>
       <c r="B215" s="3" t="str">
@@ -4296,15 +4296,15 @@
       <c r="C215" s="3" t="str">
         <v>Knight</v>
       </c>
-      <c r="D215" s="4" t="str">
+      <c r="D215" s="5" t="str">
         <v>骑士</v>
       </c>
-      <c r="E215" s="4" t="str">
+      <c r="E215" s="5" t="str">
         <v>拖尾道具</v>
       </c>
     </row>
     <row customHeight="true" ht="25" r="216">
-      <c r="A216" s="4">
+      <c r="A216" s="5">
         <v>80039</v>
       </c>
       <c r="B216" s="3" t="str">
@@ -4313,15 +4313,15 @@
       <c r="C216" s="3" t="str">
         <v>Demon</v>
       </c>
-      <c r="D216" s="4" t="str">
+      <c r="D216" s="5" t="str">
         <v>恶魔</v>
       </c>
-      <c r="E216" s="4" t="str">
+      <c r="E216" s="5" t="str">
         <v>拖尾道具</v>
       </c>
     </row>
     <row customHeight="true" ht="25" r="217">
-      <c r="A217" s="4">
+      <c r="A217" s="5">
         <v>80040</v>
       </c>
       <c r="B217" s="3" t="str">
@@ -4330,758 +4330,758 @@
       <c r="C217" s="3" t="str">
         <v>Devil</v>
       </c>
-      <c r="D217" s="4" t="str">
+      <c r="D217" s="5" t="str">
         <v>魔鬼</v>
       </c>
-      <c r="E217" s="4" t="str">
+      <c r="E217" s="5" t="str">
         <v>拖尾道具</v>
       </c>
     </row>
     <row customHeight="true" ht="25" r="218">
-      <c r="A218" s="1">
+      <c r="A218" s="2">
         <v>90001</v>
       </c>
-      <c r="B218" s="8" t="str">
+      <c r="B218" s="14" t="str">
         <v>Chat_chat_1</v>
       </c>
-      <c r="C218" s="1" t="str">
+      <c r="C218" s="2" t="str">
         <v>I am {1}!</v>
       </c>
-      <c r="D218" s="8" t="str">
+      <c r="D218" s="14" t="str">
         <v>我是{1}~</v>
       </c>
-      <c r="E218" s="1"/>
+      <c r="E218" s="2"/>
     </row>
     <row customHeight="true" ht="25" r="219">
-      <c r="A219" s="1">
+      <c r="A219" s="2">
         <v>90002</v>
       </c>
-      <c r="B219" s="8" t="str">
+      <c r="B219" s="14" t="str">
         <v>Chat_chat_2</v>
       </c>
-      <c r="C219" s="1" t="str">
+      <c r="C219" s="2" t="str">
         <v>Who is the murderer?</v>
       </c>
-      <c r="D219" s="9" t="str">
+      <c r="D219" s="15" t="str">
         <v>凶手是谁？</v>
       </c>
-      <c r="E219" s="1" t="str"/>
+      <c r="E219" s="2" t="str"/>
     </row>
     <row customHeight="true" ht="25" r="220">
-      <c r="A220" s="1">
+      <c r="A220" s="2">
         <v>90003</v>
       </c>
-      <c r="B220" s="8" t="str">
+      <c r="B220" s="14" t="str">
         <v>Chat_chat_3</v>
       </c>
-      <c r="C220" s="1" t="str">
+      <c r="C220" s="2" t="str">
         <v>Help!</v>
       </c>
-      <c r="D220" s="9" t="str">
+      <c r="D220" s="15" t="str">
         <v>救命！</v>
       </c>
-      <c r="E220" s="1" t="str"/>
+      <c r="E220" s="2" t="str"/>
     </row>
     <row customHeight="true" ht="25" r="221">
-      <c r="A221" s="1">
+      <c r="A221" s="2">
         <v>90004</v>
       </c>
-      <c r="B221" s="8" t="str">
+      <c r="B221" s="14" t="str">
         <v>Chat_chat_4</v>
       </c>
-      <c r="C221" s="1" t="str">
+      <c r="C221" s="2" t="str">
         <v>Thank you!</v>
       </c>
-      <c r="D221" s="9" t="str">
+      <c r="D221" s="15" t="str">
         <v>谢谢你！</v>
       </c>
-      <c r="E221" s="1" t="str"/>
+      <c r="E221" s="2" t="str"/>
     </row>
     <row customHeight="true" ht="25" r="222">
-      <c r="A222" s="1">
+      <c r="A222" s="2">
         <v>90005</v>
       </c>
-      <c r="B222" s="8" t="str">
+      <c r="B222" s="14" t="str">
         <v>Chat_chat_5</v>
       </c>
-      <c r="C222" s="1" t="str">
+      <c r="C222" s="2" t="str">
         <v>Hello!</v>
       </c>
-      <c r="D222" s="2" t="str">
+      <c r="D222" s="1" t="str">
         <v>你好！</v>
       </c>
-      <c r="E222" s="1" t="str"/>
+      <c r="E222" s="2" t="str"/>
     </row>
     <row customHeight="true" ht="25" r="223">
-      <c r="A223" s="1">
+      <c r="A223" s="2">
         <v>90006</v>
       </c>
-      <c r="B223" s="8" t="str">
+      <c r="B223" s="14" t="str">
         <v>Chat_chat_6</v>
       </c>
-      <c r="C223" s="1" t="str">
+      <c r="C223" s="2" t="str">
         <v>Don't kill me :(((</v>
       </c>
-      <c r="D223" s="9" t="str">
+      <c r="D223" s="15" t="str">
         <v>别刀我QAQ</v>
       </c>
-      <c r="E223" s="1" t="str">
+      <c r="E223" s="2" t="str">
         <v>QAQ希望也本地化一下，换成欧美比较熟悉的颜表情</v>
       </c>
     </row>
     <row customHeight="true" ht="25" r="224">
-      <c r="A224" s="1">
+      <c r="A224" s="2">
         <v>90007</v>
       </c>
-      <c r="B224" s="8" t="str">
+      <c r="B224" s="14" t="str">
         <v>Chat_chat_7</v>
       </c>
-      <c r="C224" s="1" t="str">
+      <c r="C224" s="2" t="str">
         <v>Stay away from me!</v>
       </c>
-      <c r="D224" s="9" t="str">
+      <c r="D224" s="15" t="str">
         <v>退！退！退！</v>
       </c>
-      <c r="E224" s="1"/>
+      <c r="E224" s="2"/>
     </row>
     <row customHeight="true" ht="25" r="225">
-      <c r="A225" s="1">
+      <c r="A225" s="2">
         <v>90008</v>
       </c>
-      <c r="B225" s="8" t="str">
+      <c r="B225" s="14" t="str">
         <v>Chat_chat_8</v>
       </c>
-      <c r="C225" s="1" t="str">
+      <c r="C225" s="2" t="str">
         <v>Perfect!</v>
       </c>
-      <c r="D225" s="9" t="str">
+      <c r="D225" s="15" t="str">
         <v>满分操作~</v>
       </c>
-      <c r="E225" s="1" t="str"/>
+      <c r="E225" s="2" t="str"/>
     </row>
     <row customHeight="true" ht="25" r="226">
-      <c r="A226" s="1">
+      <c r="A226" s="2">
         <v>90009</v>
       </c>
-      <c r="B226" s="8" t="str">
+      <c r="B226" s="14" t="str">
         <v>Chat_chat_9</v>
       </c>
-      <c r="C226" s="1" t="str">
+      <c r="C226" s="2" t="str">
         <v>Show time!</v>
       </c>
-      <c r="D226" s="9" t="str">
+      <c r="D226" s="15" t="str">
         <v>我要开始表演了~</v>
       </c>
-      <c r="E226" s="1" t="str"/>
+      <c r="E226" s="2" t="str"/>
     </row>
     <row customHeight="true" ht="25" r="227">
-      <c r="A227" s="1">
+      <c r="A227" s="2">
         <v>90010</v>
       </c>
-      <c r="B227" s="11" t="str">
+      <c r="B227" s="9" t="str">
         <v>Text_Content_20042</v>
       </c>
-      <c r="C227" s="1" t="str">
+      <c r="C227" s="2" t="str">
         <v>Student</v>
       </c>
-      <c r="D227" s="1" t="str">
+      <c r="D227" s="2" t="str">
         <v>学生</v>
       </c>
-      <c r="E227" s="1" t="str"/>
+      <c r="E227" s="2" t="str"/>
     </row>
     <row customHeight="true" ht="25" r="228">
-      <c r="A228" s="1">
+      <c r="A228" s="2">
         <v>90011</v>
       </c>
-      <c r="B228" s="11" t="str">
+      <c r="B228" s="9" t="str">
         <v>Text_Content_20043</v>
       </c>
-      <c r="C228" s="1" t="str">
+      <c r="C228" s="2" t="str">
         <v>Detective</v>
       </c>
-      <c r="D228" s="1" t="str">
+      <c r="D228" s="2" t="str">
         <v>侦探</v>
       </c>
-      <c r="E228" s="1" t="str"/>
+      <c r="E228" s="2" t="str"/>
     </row>
     <row customHeight="true" ht="25" r="229">
-      <c r="A229" s="1">
+      <c r="A229" s="2">
         <v>90012</v>
       </c>
-      <c r="B229" s="11" t="str">
+      <c r="B229" s="9" t="str">
         <v>Text_Content_20044</v>
       </c>
-      <c r="C229" s="1" t="str">
+      <c r="C229" s="2" t="str">
         <v>Murderer</v>
       </c>
-      <c r="D229" s="1" t="str">
+      <c r="D229" s="2" t="str">
         <v>凶手</v>
       </c>
-      <c r="E229" s="1" t="str"/>
+      <c r="E229" s="2" t="str"/>
     </row>
     <row customHeight="true" ht="25" r="230">
-      <c r="A230" s="1">
+      <c r="A230" s="2">
         <v>90013</v>
       </c>
-      <c r="B230" s="11" t="str">
+      <c r="B230" s="9" t="str">
         <v>Text_Content_20036</v>
       </c>
-      <c r="C230" s="1" t="str">
+      <c r="C230" s="2" t="str">
         <v>1. The Murderer can attack in two ways
 2. In melee attack mode, you will auto wave knife when aproaching other players.
 3. An aming sign will appear when you are nearby a target. Tap the sign to attack.</v>
       </c>
-      <c r="D230" s="1" t="str">
+      <c r="D230" s="2" t="str">
         <v>1.凶手有近战穿刺、远程飞刀两种方式，可以自由切换
 2.在近战状态下，靠近其他玩家并面向他们，就可以自动挥刀击杀
 3.在远程状态下，附近有可攻击的目标时，会出现瞄准标志，点击标志即可扔出飞刀</v>
       </c>
-      <c r="E230" s="1" t="str">
+      <c r="E230" s="2" t="str">
         <v>文本长度尽量和中文一致</v>
       </c>
     </row>
     <row customHeight="true" ht="25" r="231">
-      <c r="A231" s="1">
+      <c r="A231" s="2">
         <v>90014</v>
       </c>
-      <c r="B231" s="11" t="str">
+      <c r="B231" s="9" t="str">
         <v>Text_Content_20037</v>
       </c>
-      <c r="C231" s="1" t="str">
+      <c r="C231" s="2" t="str">
         <v>1. The detective can shoot in two ways.
 2. An aming sign will appear when holding the gun nearby a target. Tap the sign to fire.
 3. Also, you can tap any position to fire at.</v>
       </c>
-      <c r="D231" s="1" t="str">
+      <c r="D231" s="2" t="str">
         <v>1.侦探可以开枪进行射击，有两种射击方法
 2.在持枪状态下，附近有可攻击目标时，会出现瞄准标志，点击标志即可发射子弹
 3.除此之外，持枪状态下点击任意位置都可以发射子弹哦~</v>
       </c>
-      <c r="E231" s="1" t="str">
+      <c r="E231" s="2" t="str">
         <v>文本长度尽量和中文一致</v>
       </c>
     </row>
     <row customHeight="true" ht="25" r="232">
-      <c r="A232" s="1">
+      <c r="A232" s="2">
         <v>90015</v>
       </c>
-      <c r="B232" s="11" t="str">
+      <c r="B232" s="9" t="str">
         <v>Text_Content_20038</v>
       </c>
-      <c r="C232" s="1" t="str">
+      <c r="C232" s="2" t="str">
         <v>1. If you are a murderer/detective, try not to reveal your identity.
 2. Don't trust anyone who tries to get close to you, they are dangerous, always stay alert.
 3. If you are a student, try to survive!</v>
       </c>
-      <c r="D232" s="1" t="str">
+      <c r="D232" s="2" t="str">
         <v>1.如果你是杀手/侦探，请尽量不要暴露自己的身份
 2.不要相信任何试图靠近你的人，他们很危险，时刻保持警惕
 3.假如你是平民，那么努力活下来吧</v>
       </c>
-      <c r="E232" s="1" t="str">
+      <c r="E232" s="2" t="str">
         <v>文本长度尽量和中文一致</v>
       </c>
     </row>
     <row customHeight="true" ht="25" r="233">
-      <c r="A233" s="1">
+      <c r="A233" s="2">
         <v>90016</v>
       </c>
-      <c r="B233" s="11" t="str">
+      <c r="B233" s="9" t="str">
         <v>Text_Content_20039</v>
       </c>
-      <c r="C233" s="1" t="str">
+      <c r="C233" s="2" t="str">
         <v>Murderer Tutorial</v>
       </c>
-      <c r="D233" s="1" t="str">
+      <c r="D233" s="2" t="str">
         <v>凶手教学</v>
       </c>
-      <c r="E233" s="1" t="str"/>
+      <c r="E233" s="2" t="str"/>
     </row>
     <row customHeight="true" ht="25" r="234">
-      <c r="A234" s="1">
+      <c r="A234" s="2">
         <v>90017</v>
       </c>
-      <c r="B234" s="11" t="str">
+      <c r="B234" s="9" t="str">
         <v>Text_Content_20040</v>
       </c>
-      <c r="C234" s="1" t="str">
+      <c r="C234" s="2" t="str">
         <v>Detective Tutorial</v>
       </c>
-      <c r="D234" s="1" t="str">
+      <c r="D234" s="2" t="str">
         <v>侦探教学</v>
       </c>
-      <c r="E234" s="1" t="str"/>
+      <c r="E234" s="2" t="str"/>
     </row>
     <row customHeight="true" ht="25" r="235">
-      <c r="A235" s="1">
+      <c r="A235" s="2">
         <v>90018</v>
       </c>
-      <c r="B235" s="11" t="str">
+      <c r="B235" s="9" t="str">
         <v>Text_Content_20041</v>
       </c>
-      <c r="C235" s="1" t="str">
+      <c r="C235" s="2" t="str">
         <v>Tips</v>
       </c>
-      <c r="D235" s="1" t="str">
+      <c r="D235" s="2" t="str">
         <v>温馨提示</v>
       </c>
-      <c r="E235" s="1" t="str"/>
+      <c r="E235" s="2" t="str"/>
     </row>
     <row customHeight="true" ht="25" r="236">
-      <c r="A236" s="1">
+      <c r="A236" s="2">
         <v>90019</v>
       </c>
-      <c r="B236" s="2" t="str">
+      <c r="B236" s="1" t="str">
         <v>Tips_Content_20009</v>
       </c>
-      <c r="C236" s="1" t="str">
+      <c r="C236" s="2" t="str">
         <v>The murderer defeated you.</v>
       </c>
-      <c r="D236" s="7" t="str">
+      <c r="D236" s="13" t="str">
         <v>凶手淘汰了你</v>
       </c>
-      <c r="E236" s="1" t="str"/>
+      <c r="E236" s="2" t="str"/>
     </row>
     <row customHeight="true" ht="25" r="237">
-      <c r="A237" s="1">
+      <c r="A237" s="2">
         <v>90020</v>
       </c>
-      <c r="B237" s="2" t="str">
+      <c r="B237" s="1" t="str">
         <v>Tips_Content_20010</v>
       </c>
-      <c r="C237" s="1" t="str">
+      <c r="C237" s="2" t="str">
         <v>Wrong target, you're eliminated.</v>
       </c>
-      <c r="D237" s="7" t="str">
+      <c r="D237" s="13" t="str">
         <v>目标错误，你被淘汰了</v>
       </c>
-      <c r="E237" s="1" t="str"/>
+      <c r="E237" s="2" t="str"/>
     </row>
     <row customHeight="true" ht="25" r="238">
-      <c r="A238" s="1">
+      <c r="A238" s="2">
         <v>90021</v>
       </c>
-      <c r="B238" s="2" t="str">
+      <c r="B238" s="1" t="str">
         <v>Tips_Content_20011</v>
       </c>
-      <c r="C238" s="1" t="str">
+      <c r="C238" s="2" t="str">
         <v>You have been eliminated by the detective.</v>
       </c>
-      <c r="D238" s="7" t="str">
+      <c r="D238" s="13" t="str">
         <v>已被正义的警探消灭</v>
       </c>
-      <c r="E238" s="1" t="str"/>
+      <c r="E238" s="2" t="str"/>
     </row>
     <row customHeight="true" ht="25" r="239">
-      <c r="A239" s="1">
+      <c r="A239" s="2">
         <v>90022</v>
       </c>
-      <c r="B239" s="2" t="str">
+      <c r="B239" s="1" t="str">
         <v>Text_Content_12027</v>
       </c>
-      <c r="C239" s="1" t="str">
+      <c r="C239" s="2" t="str">
         <v>Power Store</v>
       </c>
-      <c r="D239" s="1" t="str">
+      <c r="D239" s="2" t="str">
         <v>能力商店</v>
       </c>
-      <c r="E239" s="1" t="str"/>
+      <c r="E239" s="2" t="str"/>
     </row>
     <row customHeight="true" ht="25" r="240">
-      <c r="A240" s="1">
+      <c r="A240" s="2">
         <v>90023</v>
       </c>
-      <c r="B240" s="2" t="str">
+      <c r="B240" s="1" t="str">
         <v>Text_Content_12028</v>
       </c>
-      <c r="C240" s="1" t="str">
+      <c r="C240" s="2" t="str">
         <v>Power Details</v>
       </c>
-      <c r="D240" s="1" t="str">
+      <c r="D240" s="2" t="str">
         <v>能力详情</v>
       </c>
-      <c r="E240" s="1" t="str"/>
+      <c r="E240" s="2" t="str"/>
     </row>
     <row customHeight="true" ht="25" r="241">
-      <c r="A241" s="1">
+      <c r="A241" s="2">
         <v>90024</v>
       </c>
-      <c r="B241" s="2" t="str">
+      <c r="B241" s="1" t="str">
         <v>Text_Content_12029</v>
       </c>
-      <c r="C241" s="1" t="str">
+      <c r="C241" s="2" t="str">
         <v>Equip</v>
       </c>
-      <c r="D241" s="1" t="str">
+      <c r="D241" s="2" t="str">
         <v>装备</v>
       </c>
-      <c r="E241" s="1" t="str">
+      <c r="E241" s="2" t="str">
         <v>动词</v>
       </c>
     </row>
     <row customHeight="true" ht="25" r="242">
-      <c r="A242" s="1">
+      <c r="A242" s="2">
         <v>90025</v>
       </c>
-      <c r="B242" s="2" t="str">
+      <c r="B242" s="1" t="str">
         <v>Text_Content_12030</v>
       </c>
-      <c r="C242" s="1" t="str">
+      <c r="C242" s="2" t="str">
         <v>Remove</v>
       </c>
-      <c r="D242" s="1" t="str">
+      <c r="D242" s="2" t="str">
         <v>卸下</v>
       </c>
-      <c r="E242" s="1" t="str"/>
+      <c r="E242" s="2" t="str"/>
     </row>
     <row customHeight="true" ht="25" r="243">
-      <c r="A243" s="1">
+      <c r="A243" s="2">
         <v>90026</v>
       </c>
-      <c r="B243" s="2" t="str">
+      <c r="B243" s="1" t="str">
         <v>Text_Content_12031</v>
       </c>
-      <c r="C243" s="1" t="str">
+      <c r="C243" s="2" t="str">
         <v>Coin Purchase</v>
       </c>
-      <c r="D243" s="1" t="str">
+      <c r="D243" s="2" t="str">
         <v>金币购买</v>
       </c>
-      <c r="E243" s="1" t="str"/>
+      <c r="E243" s="2" t="str"/>
     </row>
     <row customHeight="true" ht="25" r="244">
-      <c r="A244" s="1">
+      <c r="A244" s="2">
         <v>90027</v>
       </c>
-      <c r="B244" s="2" t="str">
+      <c r="B244" s="1" t="str">
         <v>Text_Content_12032</v>
       </c>
-      <c r="C244" s="1" t="str">
+      <c r="C244" s="2" t="str">
         <v>Diamond Purchase</v>
       </c>
-      <c r="D244" s="1" t="str">
+      <c r="D244" s="2" t="str">
         <v>钻石购买</v>
       </c>
-      <c r="E244" s="1" t="str"/>
+      <c r="E244" s="2" t="str"/>
     </row>
     <row customHeight="true" ht="25" r="245">
-      <c r="A245" s="1">
+      <c r="A245" s="2">
         <v>90028</v>
       </c>
-      <c r="B245" s="2" t="str">
+      <c r="B245" s="1" t="str">
         <v>Text_Content_12033</v>
       </c>
-      <c r="C245" s="1" t="str">
+      <c r="C245" s="2" t="str">
         <v>Equipped</v>
       </c>
-      <c r="D245" s="1" t="str">
+      <c r="D245" s="2" t="str">
         <v>装备中</v>
       </c>
-      <c r="E245" s="1" t="str">
+      <c r="E245" s="2" t="str">
         <v>指“已装备”</v>
       </c>
     </row>
     <row customHeight="true" ht="25" r="246">
-      <c r="A246" s="1">
+      <c r="A246" s="2">
         <v>90029</v>
       </c>
-      <c r="B246" s="2" t="str">
+      <c r="B246" s="1" t="str">
         <v>Text_Content_12034</v>
       </c>
-      <c r="C246" s="1" t="str">
+      <c r="C246" s="2" t="str">
         <v>Owned</v>
       </c>
-      <c r="D246" s="1" t="str">
+      <c r="D246" s="2" t="str">
         <v>已拥有</v>
       </c>
-      <c r="E246" s="1" t="str"/>
+      <c r="E246" s="2" t="str"/>
     </row>
     <row customHeight="true" ht="25" r="247">
-      <c r="A247" s="1">
+      <c r="A247" s="2">
         <v>90030</v>
       </c>
-      <c r="B247" s="2" t="str">
+      <c r="B247" s="1" t="str">
         <v>Tips_Content_10011</v>
       </c>
-      <c r="C247" s="1" t="str">
+      <c r="C247" s="2" t="str">
         <v>Purchase successfully!</v>
       </c>
-      <c r="D247" s="1" t="str">
+      <c r="D247" s="2" t="str">
         <v>购买成功</v>
       </c>
-      <c r="E247" s="1" t="str"/>
+      <c r="E247" s="2" t="str"/>
     </row>
     <row customHeight="true" ht="25" r="248">
-      <c r="A248" s="1">
+      <c r="A248" s="2">
         <v>90031</v>
       </c>
-      <c r="B248" s="2" t="str">
+      <c r="B248" s="1" t="str">
         <v>Tips_Content_10012</v>
       </c>
-      <c r="C248" s="1" t="str">
+      <c r="C248" s="2" t="str">
         <v>Purchase failed</v>
       </c>
       <c r="D248" s="3" t="str">
         <v>货币不足，再攒攒吧~</v>
       </c>
-      <c r="E248" s="1" t="str"/>
+      <c r="E248" s="2" t="str"/>
     </row>
     <row customHeight="true" ht="25" r="249">
-      <c r="A249" s="1">
+      <c r="A249" s="2">
         <v>90032</v>
       </c>
-      <c r="B249" s="1" t="str">
+      <c r="B249" s="2" t="str">
         <v>SkillShop_Name_10001</v>
       </c>
-      <c r="C249" s="1" t="str">
+      <c r="C249" s="2" t="str">
         <v>Killer Pace</v>
       </c>
-      <c r="D249" s="1" t="str">
+      <c r="D249" s="2" t="str">
         <v>杀手步伐</v>
       </c>
-      <c r="E249" s="1" t="str">
+      <c r="E249" s="2" t="str">
         <v>杀手的特殊能力名称</v>
       </c>
     </row>
     <row customHeight="true" ht="25" r="250">
-      <c r="A250" s="1">
+      <c r="A250" s="2">
         <v>90033</v>
       </c>
-      <c r="B250" s="1" t="str">
+      <c r="B250" s="2" t="str">
         <v>SkillShop_Name_10002</v>
       </c>
-      <c r="C250" s="1" t="str">
+      <c r="C250" s="2" t="str">
         <v>Quick Throw</v>
       </c>
-      <c r="D250" s="1" t="str">
+      <c r="D250" s="2" t="str">
         <v>快速投掷</v>
       </c>
-      <c r="E250" s="1" t="str">
+      <c r="E250" s="2" t="str">
         <v>杀手的特殊能力名称</v>
       </c>
     </row>
     <row customHeight="true" ht="25" r="251">
-      <c r="A251" s="1">
+      <c r="A251" s="2">
         <v>90034</v>
       </c>
-      <c r="B251" s="1" t="str">
+      <c r="B251" s="2" t="str">
         <v>SkillShop_Name_10003</v>
       </c>
-      <c r="C251" s="1" t="str">
+      <c r="C251" s="2" t="str">
         <v>Explosive Knife</v>
       </c>
-      <c r="D251" s="1" t="str">
+      <c r="D251" s="2" t="str">
         <v>爆炸飞刀</v>
       </c>
-      <c r="E251" s="1" t="str">
+      <c r="E251" s="2" t="str">
         <v>杀手的特殊能力名称</v>
       </c>
     </row>
     <row customHeight="true" ht="25" r="252">
-      <c r="A252" s="1">
+      <c r="A252" s="2">
         <v>90035</v>
       </c>
-      <c r="B252" s="1" t="str">
+      <c r="B252" s="2" t="str">
         <v>SkillShop_Description_10001</v>
       </c>
-      <c r="C252" s="1" t="str">
+      <c r="C252" s="2" t="str">
         <v>[Murderer's Passive Ability] When you pull out your knife, your movement speed is increased by 10% faster than usual.</v>
       </c>
-      <c r="D252" s="1" t="str">
+      <c r="D252" s="2" t="str">
         <v>【杀手被动能力】
 当你掏出你的刀时，你的移动速度会比平时更快，提升10％</v>
       </c>
-      <c r="E252" s="1" t="str"/>
+      <c r="E252" s="2" t="str"/>
     </row>
     <row customHeight="true" ht="25" r="253">
-      <c r="A253" s="1">
+      <c r="A253" s="2">
         <v>90036</v>
       </c>
-      <c r="B253" s="1" t="str">
+      <c r="B253" s="2" t="str">
         <v>SkillShop_Description_10002</v>
       </c>
-      <c r="C253" s="1" t="str">
+      <c r="C253" s="2" t="str">
         <v>[Murderer's Passive Ability] Now your thrown flying knives will fly faster, boosted by 100%!</v>
       </c>
-      <c r="D253" s="1" t="str">
+      <c r="D253" s="2" t="str">
         <v>【杀手被动能力】
 现在你扔出的飞刀会飞得更快，提升100％</v>
       </c>
-      <c r="E253" s="1" t="str"/>
+      <c r="E253" s="2" t="str"/>
     </row>
     <row customHeight="true" ht="25" r="254">
-      <c r="A254" s="1">
+      <c r="A254" s="2">
         <v>90037</v>
       </c>
-      <c r="B254" s="1" t="str">
+      <c r="B254" s="2" t="str">
         <v>SkillShop_Description_10003</v>
       </c>
-      <c r="C254" s="1" t="str">
+      <c r="C254" s="2" t="str">
         <v>[Murderer Passive Ability] When your throwing knife hits a target, instead of immediately dealing damage to the target, it plants a bomb. The bomb will explode after a small delay and deal damage to players around a certain range.</v>
       </c>
-      <c r="D254" s="1" t="str">
+      <c r="D254" s="2" t="str">
         <v>【杀手被动能力】
 当你的飞刀命中目标时，不会立即对目标造成伤害，而是在目标处埋下一颗炸弹，延迟一小段时间后会爆炸，并对周围一定范围内的玩家同样造成伤害</v>
       </c>
-      <c r="E254" s="1" t="str"/>
+      <c r="E254" s="2" t="str"/>
     </row>
     <row customHeight="true" ht="25" r="255">
-      <c r="A255" s="1">
+      <c r="A255" s="2">
         <v>90038</v>
       </c>
-      <c r="B255" s="2" t="str">
+      <c r="B255" s="1" t="str">
         <v>Shop_Name_40001</v>
       </c>
-      <c r="C255" s="1" t="str">
+      <c r="C255" s="2" t="str">
         <v>Skibidi Rainbow Toilet</v>
       </c>
-      <c r="D255" s="1" t="str">
+      <c r="D255" s="2" t="str">
         <v>彩虹马桶人</v>
       </c>
-      <c r="E255" s="1" t="str">
+      <c r="E255" s="2" t="str">
         <v>马桶人是外网热梗，就叫skibidi toilet</v>
       </c>
     </row>
     <row customHeight="true" ht="25" r="256">
-      <c r="A256" s="1">
+      <c r="A256" s="2">
         <v>90039</v>
       </c>
-      <c r="B256" s="2" t="str">
+      <c r="B256" s="1" t="str">
         <v>Shop_Name_40002</v>
       </c>
-      <c r="C256" s="1" t="str">
+      <c r="C256" s="2" t="str">
         <v>Skibidi Princess Toilet</v>
       </c>
-      <c r="D256" s="1" t="str">
+      <c r="D256" s="2" t="str">
         <v>公主马桶人</v>
       </c>
-      <c r="E256" s="1" t="str">
+      <c r="E256" s="2" t="str">
         <v>马桶人是外网热梗，就叫skibidi toilet</v>
       </c>
     </row>
     <row customHeight="true" ht="25" r="257">
-      <c r="A257" s="1">
+      <c r="A257" s="2">
         <v>90040</v>
       </c>
-      <c r="B257" s="2" t="str">
+      <c r="B257" s="1" t="str">
         <v>Shop_Name_40003</v>
       </c>
-      <c r="C257" s="1" t="str">
+      <c r="C257" s="2" t="str">
         <v>Skibidi Space Toilet</v>
       </c>
-      <c r="D257" s="1" t="str">
+      <c r="D257" s="2" t="str">
         <v>太空马桶人</v>
       </c>
-      <c r="E257" s="1" t="str">
+      <c r="E257" s="2" t="str">
         <v>马桶人是外网热梗，就叫skibidi toilet</v>
       </c>
     </row>
     <row customHeight="true" ht="25" r="258">
-      <c r="A258" s="1">
+      <c r="A258" s="2">
         <v>90041</v>
       </c>
-      <c r="B258" s="2" t="str">
+      <c r="B258" s="1" t="str">
         <v>Shop_Name_40004</v>
       </c>
-      <c r="C258" s="1" t="str">
+      <c r="C258" s="2" t="str">
         <v>Skibidi Spider Toilet</v>
       </c>
-      <c r="D258" s="1" t="str">
+      <c r="D258" s="2" t="str">
         <v>蜘蛛马桶人</v>
       </c>
-      <c r="E258" s="1" t="str">
+      <c r="E258" s="2" t="str">
         <v>马桶人是外网热梗，就叫skibidi toilet</v>
       </c>
     </row>
     <row customHeight="true" ht="25" r="259">
-      <c r="A259" s="1">
+      <c r="A259" s="2">
         <v>90042</v>
       </c>
-      <c r="B259" s="2" t="str">
+      <c r="B259" s="1" t="str">
         <v>Shop_Name_40005</v>
       </c>
-      <c r="C259" s="1" t="str">
+      <c r="C259" s="2" t="str">
         <v>Cameraman</v>
       </c>
-      <c r="D259" s="1" t="str">
+      <c r="D259" s="2" t="str">
         <v>监控人</v>
       </c>
-      <c r="E259" s="1" t="str">
+      <c r="E259" s="2" t="str">
         <v>马桶人系列，就叫这个</v>
       </c>
     </row>
     <row customHeight="true" ht="25" r="260">
-      <c r="A260" s="1">
+      <c r="A260" s="2">
         <v>90043</v>
       </c>
-      <c r="B260" s="2" t="str">
+      <c r="B260" s="1" t="str">
         <v>Shop_Name_40006</v>
       </c>
-      <c r="C260" s="1" t="str">
+      <c r="C260" s="2" t="str">
         <v>Speakerman</v>
       </c>
-      <c r="D260" s="1" t="str">
+      <c r="D260" s="2" t="str">
         <v>音响人</v>
       </c>
-      <c r="E260" s="1" t="str">
+      <c r="E260" s="2" t="str">
         <v>马桶人系列，就叫这个</v>
       </c>
     </row>
     <row customHeight="true" ht="25" r="261">
-      <c r="A261" s="1">
+      <c r="A261" s="2">
         <v>90044</v>
       </c>
-      <c r="B261" s="2" t="str">
+      <c r="B261" s="1" t="str">
         <v>Shop_Name_40007</v>
       </c>
-      <c r="C261" s="1" t="str">
+      <c r="C261" s="2" t="str">
         <v>TV Man</v>
       </c>
-      <c r="D261" s="1" t="str">
+      <c r="D261" s="2" t="str">
         <v>电视人</v>
       </c>
-      <c r="E261" s="1" t="str">
+      <c r="E261" s="2" t="str">
         <v>马桶人系列，就叫这个</v>
       </c>
     </row>
     <row customHeight="true" ht="25" r="262">
-      <c r="A262" s="1">
+      <c r="A262" s="2">
         <v>90045</v>
       </c>
-      <c r="B262" s="2" t="str">
+      <c r="B262" s="1" t="str">
         <v>Shop_Name_40008</v>
       </c>
-      <c r="C262" s="1" t="str">
+      <c r="C262" s="2" t="str">
         <v>Cartoon Speakerman</v>
       </c>
-      <c r="D262" s="1" t="str">
+      <c r="D262" s="2" t="str">
         <v>卡通音响人</v>
       </c>
-      <c r="E262" s="1" t="str"/>
+      <c r="E262" s="2" t="str"/>
     </row>
     <row customHeight="true" ht="25" r="263">
-      <c r="A263" s="1">
+      <c r="A263" s="2">
         <v>90046</v>
       </c>
-      <c r="B263" s="2" t="str">
+      <c r="B263" s="1" t="str">
         <v>Shop_Name_40009</v>
       </c>
-      <c r="C263" s="1" t="str">
+      <c r="C263" s="2" t="str">
         <v>Cartoon TVman</v>
       </c>
-      <c r="D263" s="1" t="str">
+      <c r="D263" s="2" t="str">
         <v>卡通电视人</v>
       </c>
-      <c r="E263" s="1" t="str"/>
+      <c r="E263" s="2" t="str"/>
     </row>
     <row customHeight="true" ht="25" r="264">
-      <c r="A264" s="30">
+      <c r="A264" s="21">
         <v>90047</v>
       </c>
-      <c r="B264" s="31" t="str">
+      <c r="B264" s="22" t="str">
         <v>Text_Content_10005</v>
       </c>
-      <c r="C264" s="1" t="str">
+      <c r="C264" s="2" t="str">
         <v>This update:
 1. New [Skibidi Toilet VS Cameraman] series of pendants, welcome to the shop!
 2. New [Power Store], the configuration of the murderer's special abilities is now available!
@@ -5089,7 +5089,7 @@
 4. Adjusted the lobby and level scenes to improve performance.
 5. New reset button, try to tap it when the camera stucks!</v>
       </c>
-      <c r="D264" s="30" t="str">
+      <c r="D264" s="21" t="str">
         <v>本次更新：
 1.新增【马桶人VS监控人】系列挂件，欢迎大家去商店选购~
 2.新增【能力商店】，开放杀手局内特殊能力的配置
@@ -5097,7 +5097,7 @@
 4.调整大厅及关卡场景，提升性能
 5.新增还原按钮，镜头卡住的时候点一下试试吧</v>
       </c>
-      <c r="E264" s="30" t="str">
+      <c r="E264" s="21" t="str">
         <v>马桶人是外网热梗，就叫skibidi toilet</v>
       </c>
     </row>
@@ -5105,10 +5105,10 @@
       <c r="A265" s="18">
         <v>90048</v>
       </c>
-      <c r="B265" s="23" t="str">
+      <c r="B265" s="31" t="str">
         <v>Tips_Content_10013</v>
       </c>
-      <c r="C265" s="1" t="str">
+      <c r="C265" s="2" t="str">
         <v>A player fails to enter the scene, the game will restart.</v>
       </c>
       <c r="D265" s="18" t="str">
@@ -5135,13 +5135,13 @@
       <c r="A267" s="18">
         <v>90050</v>
       </c>
-      <c r="B267" s="5" t="str">
+      <c r="B267" s="7" t="str">
         <v>Text_Content_20045</v>
       </c>
       <c r="C267" s="3" t="str">
         <v>Pull out gun</v>
       </c>
-      <c r="D267" s="4" t="str">
+      <c r="D267" s="5" t="str">
         <v>掏出手枪</v>
       </c>
       <c r="E267" s="18"/>
@@ -5150,13 +5150,13 @@
       <c r="A268" s="18">
         <v>90051</v>
       </c>
-      <c r="B268" s="5" t="str">
+      <c r="B268" s="7" t="str">
         <v>Text_Content_20046</v>
       </c>
       <c r="C268" s="3" t="str">
         <v>Put away gun</v>
       </c>
-      <c r="D268" s="4" t="str">
+      <c r="D268" s="5" t="str">
         <v>收起手枪</v>
       </c>
       <c r="E268" s="18"/>
@@ -5165,13 +5165,13 @@
       <c r="A269" s="18">
         <v>90052</v>
       </c>
-      <c r="B269" s="5" t="str">
+      <c r="B269" s="7" t="str">
         <v>Text_Content_20047</v>
       </c>
       <c r="C269" s="3" t="str">
         <v>Aim Sign</v>
       </c>
-      <c r="D269" s="4" t="str">
+      <c r="D269" s="5" t="str">
         <v>准星图标</v>
       </c>
       <c r="E269" s="18"/>
@@ -5180,13 +5180,13 @@
       <c r="A270" s="18">
         <v>90053</v>
       </c>
-      <c r="B270" s="5" t="str">
+      <c r="B270" s="7" t="str">
         <v>Text_Content_20048</v>
       </c>
       <c r="C270" s="3" t="str">
         <v>Melee mode</v>
       </c>
-      <c r="D270" s="4" t="str">
+      <c r="D270" s="5" t="str">
         <v>掏出近战匕首</v>
       </c>
       <c r="E270" s="18"/>
@@ -5195,13 +5195,13 @@
       <c r="A271" s="18">
         <v>90054</v>
       </c>
-      <c r="B271" s="5" t="str">
+      <c r="B271" s="7" t="str">
         <v>Text_Content_20049</v>
       </c>
       <c r="C271" s="3" t="str">
         <v>Throwing mode</v>
       </c>
-      <c r="D271" s="4" t="str">
+      <c r="D271" s="5" t="str">
         <v>掏出远程飞刀</v>
       </c>
       <c r="E271" s="18"/>
@@ -5210,13 +5210,13 @@
       <c r="A272" s="18">
         <v>90055</v>
       </c>
-      <c r="B272" s="5" t="str">
+      <c r="B272" s="7" t="str">
         <v>Text_Content_20050</v>
       </c>
       <c r="C272" s="3" t="str">
         <v>Put away knife</v>
       </c>
-      <c r="D272" s="4" t="str">
+      <c r="D272" s="5" t="str">
         <v>收起武器</v>
       </c>
       <c r="E272" s="18"/>
@@ -5225,10 +5225,10 @@
       <c r="A273" s="18">
         <v>90056</v>
       </c>
-      <c r="B273" s="5" t="str">
+      <c r="B273" s="7" t="str">
         <v>Text_Content_20051</v>
       </c>
-      <c r="C273" s="4" t="str">
+      <c r="C273" s="5" t="str">
         <v>A</v>
       </c>
       <c r="D273" s="3" t="str">
@@ -5237,46 +5237,46 @@
       <c r="E273" s="3"/>
     </row>
     <row customHeight="true" ht="25" r="274">
-      <c r="A274" s="27">
+      <c r="A274" s="25">
         <v>90057</v>
       </c>
-      <c r="B274" s="27" t="str">
+      <c r="B274" s="25" t="str">
         <v>Lottery_Name_10003</v>
       </c>
-      <c r="C274" s="28" t="str">
+      <c r="C274" s="26" t="str">
         <v>Sci-Fi Weapon Box</v>
       </c>
-      <c r="D274" s="28" t="str">
+      <c r="D274" s="26" t="str">
         <v>科幻武器箱</v>
       </c>
-      <c r="E274" s="27"/>
+      <c r="E274" s="25"/>
     </row>
     <row customHeight="true" ht="25" r="275">
-      <c r="A275" s="27">
+      <c r="A275" s="25">
         <v>90058</v>
       </c>
-      <c r="B275" s="27" t="str">
+      <c r="B275" s="25" t="str">
         <v>Lottery_Name_10004</v>
       </c>
-      <c r="C275" s="28" t="str">
+      <c r="C275" s="26" t="str">
         <v>Myth Weapon Box</v>
       </c>
-      <c r="D275" s="28" t="str">
+      <c r="D275" s="26" t="str">
         <v>神话武器箱</v>
       </c>
-      <c r="E275" s="27"/>
+      <c r="E275" s="25"/>
     </row>
     <row customHeight="true" ht="25" r="276">
       <c r="A276" s="3">
         <v>90059</v>
       </c>
-      <c r="B276" s="16" t="str">
+      <c r="B276" s="19" t="str">
         <v>Weapon_WeaponName_20004</v>
       </c>
-      <c r="C276" s="4" t="str">
+      <c r="C276" s="5" t="str">
         <v>Gun of Singularity</v>
       </c>
-      <c r="D276" s="29" t="str">
+      <c r="D276" s="28" t="str">
         <v>奇点之枪</v>
       </c>
       <c r="E276" s="3"/>
@@ -5285,13 +5285,13 @@
       <c r="A277" s="3">
         <v>90060</v>
       </c>
-      <c r="B277" s="16" t="str">
+      <c r="B277" s="19" t="str">
         <v>Weapon_WeaponName_10023</v>
       </c>
       <c r="C277" s="3" t="str">
         <v>Staff of Imaginary</v>
       </c>
-      <c r="D277" s="22" t="str">
+      <c r="D277" s="23" t="str">
         <v>虚数之杖</v>
       </c>
       <c r="E277" s="3"/>
@@ -5300,13 +5300,13 @@
       <c r="A278" s="3">
         <v>90061</v>
       </c>
-      <c r="B278" s="16" t="str">
+      <c r="B278" s="19" t="str">
         <v>Weapon_WeaponName_10024</v>
       </c>
       <c r="C278" s="3" t="str">
         <v>Spectral Spear</v>
       </c>
-      <c r="D278" s="17" t="str">
+      <c r="D278" s="20" t="str">
         <v>光谱矛</v>
       </c>
       <c r="E278" s="3"/>
@@ -5315,13 +5315,13 @@
       <c r="A279" s="3">
         <v>90062</v>
       </c>
-      <c r="B279" s="16" t="str">
+      <c r="B279" s="19" t="str">
         <v>Weapon_WeaponName_20005</v>
       </c>
       <c r="C279" s="3" t="str">
         <v>Anti-Matter Gun</v>
       </c>
-      <c r="D279" s="17" t="str">
+      <c r="D279" s="20" t="str">
         <v>反物质枪</v>
       </c>
       <c r="E279" s="3"/>
@@ -5330,13 +5330,13 @@
       <c r="A280" s="3">
         <v>90063</v>
       </c>
-      <c r="B280" s="16" t="str">
+      <c r="B280" s="19" t="str">
         <v>Weapon_WeaponName_10025</v>
       </c>
       <c r="C280" s="3" t="str">
         <v>Spectral Blade</v>
       </c>
-      <c r="D280" s="17" t="str">
+      <c r="D280" s="20" t="str">
         <v>光谱剑</v>
       </c>
       <c r="E280" s="3"/>
@@ -5345,13 +5345,13 @@
       <c r="A281" s="3">
         <v>90064</v>
       </c>
-      <c r="B281" s="16" t="str">
+      <c r="B281" s="19" t="str">
         <v>Weapon_WeaponName_10026</v>
       </c>
       <c r="C281" s="3" t="str">
         <v>Spectral Blade (Ruby)</v>
       </c>
-      <c r="D281" s="17" t="str">
+      <c r="D281" s="20" t="str">
         <v>光谱剑(晶红)</v>
       </c>
       <c r="E281" s="3"/>
@@ -5360,13 +5360,13 @@
       <c r="A282" s="3">
         <v>90065</v>
       </c>
-      <c r="B282" s="16" t="str">
+      <c r="B282" s="19" t="str">
         <v>Weapon_WeaponName_10027</v>
       </c>
       <c r="C282" s="3" t="str">
         <v>Dagger (Simulacrum)</v>
       </c>
-      <c r="D282" s="17" t="str">
+      <c r="D282" s="20" t="str">
         <v>匕首(模拟)</v>
       </c>
       <c r="E282" s="3"/>
@@ -5375,13 +5375,13 @@
       <c r="A283" s="3">
         <v>90066</v>
       </c>
-      <c r="B283" s="16" t="str">
+      <c r="B283" s="19" t="str">
         <v>Weapon_WeaponName_10028</v>
       </c>
       <c r="C283" s="3" t="str">
         <v>Saber (Simulacrum)</v>
       </c>
-      <c r="D283" s="17" t="str">
+      <c r="D283" s="20" t="str">
         <v>军刀(模拟)</v>
       </c>
       <c r="E283" s="3"/>
@@ -5390,13 +5390,13 @@
       <c r="A284" s="3">
         <v>90067</v>
       </c>
-      <c r="B284" s="16" t="str">
+      <c r="B284" s="19" t="str">
         <v>Weapon_WeaponName_20006</v>
       </c>
       <c r="C284" s="3" t="str">
         <v>Revolver (Simulacrum)</v>
       </c>
-      <c r="D284" s="17" t="str">
+      <c r="D284" s="20" t="str">
         <v>左轮(模拟)</v>
       </c>
       <c r="E284" s="3"/>
@@ -5405,13 +5405,13 @@
       <c r="A285" s="3">
         <v>90068</v>
       </c>
-      <c r="B285" s="16" t="str">
+      <c r="B285" s="19" t="str">
         <v>Weapon_WeaponName_20007</v>
       </c>
       <c r="C285" s="3" t="str">
         <v>SMG (Simulacrum)</v>
       </c>
-      <c r="D285" s="17" t="str">
+      <c r="D285" s="20" t="str">
         <v>冲锋枪(模拟)</v>
       </c>
       <c r="E285" s="3"/>
@@ -5420,13 +5420,13 @@
       <c r="A286" s="3">
         <v>90069</v>
       </c>
-      <c r="B286" s="14" t="str">
+      <c r="B286" s="11" t="str">
         <v>Weapon_WeaponName_10029</v>
       </c>
       <c r="C286" s="3" t="str">
         <v>Storm Caller (Rune)</v>
       </c>
-      <c r="D286" s="15" t="str">
+      <c r="D286" s="12" t="str">
         <v>唤雷(符文)</v>
       </c>
       <c r="E286" s="3"/>
@@ -5435,13 +5435,13 @@
       <c r="A287" s="3">
         <v>90070</v>
       </c>
-      <c r="B287" s="14" t="str">
+      <c r="B287" s="11" t="str">
         <v>Weapon_WeaponName_20008</v>
       </c>
       <c r="C287" s="3" t="str">
         <v>Sun Seeker (Rune)</v>
       </c>
-      <c r="D287" s="15" t="str">
+      <c r="D287" s="12" t="str">
         <v>逐日(符文)</v>
       </c>
       <c r="E287" s="3"/>
@@ -5450,13 +5450,13 @@
       <c r="A288" s="3">
         <v>90071</v>
       </c>
-      <c r="B288" s="14" t="str">
+      <c r="B288" s="11" t="str">
         <v>Weapon_WeaponName_10030</v>
       </c>
       <c r="C288" s="3" t="str">
         <v>Hammer of Thor</v>
       </c>
-      <c r="D288" s="15" t="str">
+      <c r="D288" s="12" t="str">
         <v>雷神之锤</v>
       </c>
       <c r="E288" s="3"/>
@@ -5465,13 +5465,13 @@
       <c r="A289" s="3">
         <v>90072</v>
       </c>
-      <c r="B289" s="14" t="str">
+      <c r="B289" s="11" t="str">
         <v>Weapon_WeaponName_20009</v>
       </c>
       <c r="C289" s="3" t="str">
         <v>Blunderbuss</v>
       </c>
-      <c r="D289" s="15" t="str">
+      <c r="D289" s="12" t="str">
         <v>火铳</v>
       </c>
       <c r="E289" s="3"/>
@@ -5480,13 +5480,13 @@
       <c r="A290" s="3">
         <v>90073</v>
       </c>
-      <c r="B290" s="14" t="str">
+      <c r="B290" s="11" t="str">
         <v>Weapon_WeaponName_10031</v>
       </c>
       <c r="C290" s="3" t="str">
         <v>Bonespike Sword (Devine)</v>
       </c>
-      <c r="D290" s="15" t="str">
+      <c r="D290" s="12" t="str">
         <v>骨刺剑(圣)</v>
       </c>
       <c r="E290" s="3"/>
@@ -5495,13 +5495,13 @@
       <c r="A291" s="3">
         <v>90074</v>
       </c>
-      <c r="B291" s="14" t="str">
+      <c r="B291" s="11" t="str">
         <v>Weapon_WeaponName_20010</v>
       </c>
       <c r="C291" s="3" t="str">
         <v>Revolver (Devine)</v>
       </c>
-      <c r="D291" s="15" t="str">
+      <c r="D291" s="12" t="str">
         <v>左轮(圣)</v>
       </c>
       <c r="E291" s="3"/>
@@ -5510,13 +5510,13 @@
       <c r="A292" s="3">
         <v>90075</v>
       </c>
-      <c r="B292" s="14" t="str">
+      <c r="B292" s="11" t="str">
         <v>Weapon_WeaponName_10032</v>
       </c>
       <c r="C292" s="3" t="str">
         <v>Bonespike Sword (Love)</v>
       </c>
-      <c r="D292" s="15" t="str">
+      <c r="D292" s="12" t="str">
         <v>骨刺剑(恋)</v>
       </c>
       <c r="E292" s="3"/>
@@ -5525,13 +5525,13 @@
       <c r="A293" s="3">
         <v>90076</v>
       </c>
-      <c r="B293" s="14" t="str">
+      <c r="B293" s="11" t="str">
         <v>Weapon_WeaponName_20011</v>
       </c>
       <c r="C293" s="3" t="str">
         <v>Revolver (Love)</v>
       </c>
-      <c r="D293" s="15" t="str">
+      <c r="D293" s="12" t="str">
         <v>左轮(恋)</v>
       </c>
       <c r="E293" s="3"/>
@@ -5540,13 +5540,13 @@
       <c r="A294" s="3">
         <v>90077</v>
       </c>
-      <c r="B294" s="14" t="str">
+      <c r="B294" s="11" t="str">
         <v>Weapon_WeaponName_10033</v>
       </c>
       <c r="C294" s="3" t="str">
         <v>Bonespike Sword (Flame)</v>
       </c>
-      <c r="D294" s="15" t="str">
+      <c r="D294" s="12" t="str">
         <v>骨刺剑(炽)</v>
       </c>
       <c r="E294" s="3"/>
@@ -5555,13 +5555,13 @@
       <c r="A295" s="3">
         <v>90078</v>
       </c>
-      <c r="B295" s="14" t="str">
+      <c r="B295" s="11" t="str">
         <v>Weapon_WeaponName_10034</v>
       </c>
       <c r="C295" s="3" t="str">
         <v>Bonespike Sword (Frost)</v>
       </c>
-      <c r="D295" s="15" t="str">
+      <c r="D295" s="12" t="str">
         <v>骨刺剑(霜)</v>
       </c>
       <c r="E295" s="3"/>
@@ -5570,13 +5570,13 @@
       <c r="A296" s="3">
         <v>90079</v>
       </c>
-      <c r="B296" s="20" t="str">
+      <c r="B296" s="16" t="str">
         <v>Weapon_WeaponName_10035</v>
       </c>
       <c r="C296" s="3" t="str">
         <v>Sakura</v>
       </c>
-      <c r="D296" s="24" t="str">
+      <c r="D296" s="17" t="str">
         <v>樱</v>
       </c>
       <c r="E296" s="3"/>
@@ -5585,13 +5585,13 @@
       <c r="A297" s="3">
         <v>90080</v>
       </c>
-      <c r="B297" s="20" t="str">
+      <c r="B297" s="16" t="str">
         <v>Weapon_WeaponName_20012</v>
       </c>
       <c r="C297" s="3" t="str">
         <v>Butterfly</v>
       </c>
-      <c r="D297" s="24" t="str">
+      <c r="D297" s="17" t="str">
         <v>蝶</v>
       </c>
       <c r="E297" s="3"/>
@@ -5600,13 +5600,13 @@
       <c r="A298" s="3">
         <v>90081</v>
       </c>
-      <c r="B298" s="20" t="str">
+      <c r="B298" s="16" t="str">
         <v>Weapon_WeaponName_10036</v>
       </c>
       <c r="C298" s="3" t="str">
         <v>Golden Bat (Rainbow)</v>
       </c>
-      <c r="D298" s="21" t="str">
+      <c r="D298" s="24" t="str">
         <v>黄金球棍(虹彩)</v>
       </c>
       <c r="E298" s="3"/>
@@ -5615,13 +5615,13 @@
       <c r="A299" s="3">
         <v>90082</v>
       </c>
-      <c r="B299" s="20" t="str">
+      <c r="B299" s="16" t="str">
         <v>Weapon_WeaponName_20013</v>
       </c>
       <c r="C299" s="3" t="str">
         <v>Golden Revolver (Rainbow)</v>
       </c>
-      <c r="D299" s="21" t="str">
+      <c r="D299" s="24" t="str">
         <v>黄金左轮(虹彩)</v>
       </c>
       <c r="E299" s="3"/>
@@ -5630,13 +5630,13 @@
       <c r="A300" s="3">
         <v>90083</v>
       </c>
-      <c r="B300" s="4" t="str">
+      <c r="B300" s="5" t="str">
         <v>SkillShop_Name_10004</v>
       </c>
       <c r="C300" s="3" t="str">
         <v>Ghost's Cloak</v>
       </c>
-      <c r="D300" s="4" t="str">
+      <c r="D300" s="5" t="str">
         <v>幽灵斗篷</v>
       </c>
       <c r="E300" s="3"/>
@@ -5645,13 +5645,13 @@
       <c r="A301" s="3">
         <v>90084</v>
       </c>
-      <c r="B301" s="4" t="str">
+      <c r="B301" s="5" t="str">
         <v>SkillShop_Description_10004</v>
       </c>
-      <c r="C301" s="4" t="str">
+      <c r="C301" s="5" t="str">
         <v>[Murderer Active Ability] When active, you become invisable for 5 secs, eliminating any player will instantly end the ghost‘s cloak</v>
       </c>
-      <c r="D301" s="4" t="str">
+      <c r="D301" s="5" t="str">
         <v>【杀手主动能力】
 激活后，你可以隐身5秒，若你在隐身时击败了任何玩家，则会立即结束隐身</v>
       </c>
@@ -5661,13 +5661,13 @@
       <c r="A302" s="3">
         <v>90085</v>
       </c>
-      <c r="B302" s="10" t="str">
+      <c r="B302" s="4" t="str">
         <v>Tips_Content_20012</v>
       </c>
-      <c r="C302" s="4" t="str">
+      <c r="C302" s="5" t="str">
         <v>Successful exchange</v>
       </c>
-      <c r="D302" s="4" t="str">
+      <c r="D302" s="5" t="str">
         <v>兑换成功</v>
       </c>
       <c r="E302" s="3"/>
@@ -5676,13 +5676,13 @@
       <c r="A303" s="3">
         <v>90086</v>
       </c>
-      <c r="B303" s="10" t="str">
+      <c r="B303" s="4" t="str">
         <v>Tips_Content_20013</v>
       </c>
-      <c r="C303" s="4" t="str">
+      <c r="C303" s="5" t="str">
         <v>Conversion failure</v>
       </c>
-      <c r="D303" s="4" t="str">
+      <c r="D303" s="5" t="str">
         <v>兑换失败</v>
       </c>
       <c r="E303" s="3"/>
@@ -5691,13 +5691,13 @@
       <c r="A304" s="3">
         <v>90087</v>
       </c>
-      <c r="B304" s="10" t="str">
+      <c r="B304" s="4" t="str">
         <v>Tips_Content_20014</v>
       </c>
-      <c r="C304" s="4" t="str">
+      <c r="C304" s="5" t="str">
         <v>Congratulations on activating membership privileges</v>
       </c>
-      <c r="D304" s="4" t="str">
+      <c r="D304" s="5" t="str">
         <v>恭喜激活会员特权</v>
       </c>
       <c r="E304" s="3"/>
@@ -5706,13 +5706,13 @@
       <c r="A305" s="3">
         <v>90088</v>
       </c>
-      <c r="B305" s="10" t="str">
+      <c r="B305" s="4" t="str">
         <v>Tips_Content_20015</v>
       </c>
-      <c r="C305" s="4" t="str">
+      <c r="C305" s="5" t="str">
         <v>Congratulations on activating Super Privilege</v>
       </c>
-      <c r="D305" s="4" t="str">
+      <c r="D305" s="5" t="str">
         <v>恭喜激活超级特权</v>
       </c>
       <c r="E305" s="3"/>
@@ -5721,13 +5721,13 @@
       <c r="A306" s="3">
         <v>90089</v>
       </c>
-      <c r="B306" s="10" t="str">
+      <c r="B306" s="4" t="str">
         <v>Tips_Content_20016</v>
       </c>
-      <c r="C306" s="4" t="str">
+      <c r="C306" s="5" t="str">
         <v>Membership privileges have expired</v>
       </c>
-      <c r="D306" s="4" t="str">
+      <c r="D306" s="5" t="str">
         <v>会员特权已到期失效</v>
       </c>
       <c r="E306" s="3"/>
@@ -5736,13 +5736,13 @@
       <c r="A307" s="3">
         <v>90090</v>
       </c>
-      <c r="B307" s="10" t="str">
+      <c r="B307" s="4" t="str">
         <v>Tips_Content_20017</v>
       </c>
-      <c r="C307" s="4" t="str">
+      <c r="C307" s="5" t="str">
         <v>The super privilege has expired</v>
       </c>
-      <c r="D307" s="4" t="str">
+      <c r="D307" s="5" t="str">
         <v>超级特权已到期失效</v>
       </c>
       <c r="E307" s="3"/>
@@ -5751,13 +5751,13 @@
       <c r="A308" s="3">
         <v>90091</v>
       </c>
-      <c r="B308" s="10" t="str">
+      <c r="B308" s="4" t="str">
         <v>Tips_Content_20018</v>
       </c>
-      <c r="C308" s="4" t="str">
+      <c r="C308" s="5" t="str">
         <v>The number of holdings has reached its limit</v>
       </c>
-      <c r="D308" s="4" t="str">
+      <c r="D308" s="5" t="str">
         <v>持有数量已经达到上限</v>
       </c>
       <c r="E308" s="3"/>
@@ -5766,13 +5766,13 @@
       <c r="A309" s="3">
         <v>90092</v>
       </c>
-      <c r="B309" s="5" t="str">
+      <c r="B309" s="7" t="str">
         <v>Text_Content_20052</v>
       </c>
-      <c r="C309" s="4" t="str">
+      <c r="C309" s="5" t="str">
         <v>Exchange</v>
       </c>
-      <c r="D309" s="4" t="str">
+      <c r="D309" s="5" t="str">
         <v>兑换</v>
       </c>
       <c r="E309" s="3"/>
@@ -5781,13 +5781,13 @@
       <c r="A310" s="3">
         <v>90093</v>
       </c>
-      <c r="B310" s="5" t="str">
+      <c r="B310" s="7" t="str">
         <v>Text_Content_20053</v>
       </c>
-      <c r="C310" s="4" t="str">
+      <c r="C310" s="5" t="str">
         <v>skip</v>
       </c>
-      <c r="D310" s="4" t="str">
+      <c r="D310" s="5" t="str">
         <v>跳转</v>
       </c>
       <c r="E310" s="3"/>
@@ -5796,13 +5796,13 @@
       <c r="A311" s="3">
         <v>90094</v>
       </c>
-      <c r="B311" s="5" t="str">
+      <c r="B311" s="7" t="str">
         <v>Text_Content_20054</v>
       </c>
-      <c r="C311" s="4" t="str">
+      <c r="C311" s="5" t="str">
         <v>Member privileges active</v>
       </c>
-      <c r="D311" s="4" t="str">
+      <c r="D311" s="5" t="str">
         <v>会员特权激活中</v>
       </c>
       <c r="E311" s="3"/>
@@ -5811,13 +5811,13 @@
       <c r="A312" s="3">
         <v>90095</v>
       </c>
-      <c r="B312" s="5" t="str">
+      <c r="B312" s="7" t="str">
         <v>Text_Content_20055</v>
       </c>
-      <c r="C312" s="4" t="str">
+      <c r="C312" s="5" t="str">
         <v>Remaining activation time {0}</v>
       </c>
-      <c r="D312" s="4" t="str">
+      <c r="D312" s="5" t="str">
         <v>剩余激活时间{0}</v>
       </c>
       <c r="E312" s="3"/>
@@ -5826,13 +5826,13 @@
       <c r="A313" s="3">
         <v>90096</v>
       </c>
-      <c r="B313" s="5" t="str">
+      <c r="B313" s="7" t="str">
         <v>Text_Content_20056</v>
       </c>
-      <c r="C313" s="4" t="str">
+      <c r="C313" s="5" t="str">
         <v>Member privileges have not been activated</v>
       </c>
-      <c r="D313" s="4" t="str">
+      <c r="D313" s="5" t="str">
         <v>尚未激活会员特权</v>
       </c>
       <c r="E313" s="3"/>
@@ -5841,13 +5841,13 @@
       <c r="A314" s="3">
         <v>90097</v>
       </c>
-      <c r="B314" s="5" t="str">
+      <c r="B314" s="7" t="str">
         <v>Text_Content_20057</v>
       </c>
-      <c r="C314" s="4" t="str">
+      <c r="C314" s="5" t="str">
         <v>Super privilege has not been activated</v>
       </c>
-      <c r="D314" s="4" t="str">
+      <c r="D314" s="5" t="str">
         <v>尚未激活超级特权</v>
       </c>
       <c r="E314" s="3"/>
@@ -5856,13 +5856,13 @@
       <c r="A315" s="3">
         <v>90098</v>
       </c>
-      <c r="B315" s="5" t="str">
+      <c r="B315" s="7" t="str">
         <v>Text_Content_20058</v>
       </c>
-      <c r="C315" s="4" t="str">
+      <c r="C315" s="5" t="str">
         <v>Remaining activation time {0} days</v>
       </c>
-      <c r="D315" s="4" t="str">
+      <c r="D315" s="5" t="str">
         <v>剩余激活时间{0}天</v>
       </c>
       <c r="E315" s="3"/>
@@ -5871,13 +5871,13 @@
       <c r="A316" s="3">
         <v>90099</v>
       </c>
-      <c r="B316" s="5" t="str">
+      <c r="B316" s="7" t="str">
         <v>Text_Content_20059</v>
       </c>
-      <c r="C316" s="4" t="str">
+      <c r="C316" s="5" t="str">
         <v>Membership privileges</v>
       </c>
-      <c r="D316" s="4" t="str">
+      <c r="D316" s="5" t="str">
         <v>会员特权</v>
       </c>
       <c r="E316" s="3"/>
@@ -5886,13 +5886,13 @@
       <c r="A317" s="3">
         <v>90100</v>
       </c>
-      <c r="B317" s="5" t="str">
+      <c r="B317" s="7" t="str">
         <v>Text_Content_20060</v>
       </c>
-      <c r="C317" s="4" t="str">
+      <c r="C317" s="5" t="str">
         <v>Super privilege</v>
       </c>
-      <c r="D317" s="4" t="str">
+      <c r="D317" s="5" t="str">
         <v>超级特权</v>
       </c>
       <c r="E317" s="3"/>
@@ -5901,13 +5901,13 @@
       <c r="A318" s="3">
         <v>90101</v>
       </c>
-      <c r="B318" s="10" t="str">
+      <c r="B318" s="4" t="str">
         <v>Tips_Content_20019</v>
       </c>
-      <c r="C318" s="4" t="str">
+      <c r="C318" s="5" t="str">
         <v>Congratulations on getting an advertising voucher *1</v>
       </c>
-      <c r="D318" s="4" t="str">
+      <c r="D318" s="5" t="str">
         <v>恭喜获得广告券*1</v>
       </c>
       <c r="E318" s="3"/>
@@ -5919,10 +5919,10 @@
       <c r="B319" s="3" t="str">
         <v>Item_Name_20012</v>
       </c>
-      <c r="C319" s="4" t="str">
+      <c r="C319" s="5" t="str">
         <v>Here comes the Tuhao</v>
       </c>
-      <c r="D319" s="4" t="str">
+      <c r="D319" s="5" t="str">
         <v>土豪来啦</v>
       </c>
       <c r="E319" s="3"/>
@@ -5931,14 +5931,14 @@
       <c r="A320" s="3">
         <v>90103</v>
       </c>
-      <c r="B320" s="4" t="str">
+      <c r="B320" s="5" t="str">
         <v>SkillShop_Name_10005</v>
       </c>
-      <c r="C320" s="4" t="str">
+      <c r="C320" s="5" t="str">
         <v>Quick throw
 experience pass</v>
       </c>
-      <c r="D320" s="25" t="str">
+      <c r="D320" s="30" t="str">
         <v>快速投掷体验券</v>
       </c>
       <c r="E320" s="3"/>
@@ -5947,14 +5947,14 @@
       <c r="A321" s="3">
         <v>90104</v>
       </c>
-      <c r="B321" s="4" t="str">
+      <c r="B321" s="5" t="str">
         <v>SkillShop_Name_10006</v>
       </c>
-      <c r="C321" s="4" t="str">
+      <c r="C321" s="5" t="str">
         <v>Explosive knife
 experience coupon</v>
       </c>
-      <c r="D321" s="4" t="str">
+      <c r="D321" s="5" t="str">
         <v>爆炸飞刀体验券</v>
       </c>
       <c r="E321" s="3"/>
@@ -5963,10 +5963,10 @@
       <c r="A322" s="3">
         <v>90105</v>
       </c>
-      <c r="B322" s="4" t="str">
+      <c r="B322" s="5" t="str">
         <v>SkillShop_Name_10007</v>
       </c>
-      <c r="C322" s="4" t="str">
+      <c r="C322" s="5" t="str">
         <v>Ghost Cloak
 experience pass</v>
       </c>
@@ -5979,14 +5979,14 @@
       <c r="A323" s="3">
         <v>90106</v>
       </c>
-      <c r="B323" s="4" t="str">
+      <c r="B323" s="5" t="str">
         <v>SkillShop_Description_10005</v>
       </c>
-      <c r="C323" s="4" t="str">
+      <c r="C323" s="5" t="str">
         <v>【 Killer passivity 】
 The knife you throw will now fly faster, increasing by 100%</v>
       </c>
-      <c r="D323" s="1" t="str">
+      <c r="D323" s="2" t="str">
         <v>【杀手被动能力】
 现在你扔出的飞刀会飞得更快，提升100％</v>
       </c>
@@ -5998,14 +5998,14 @@
       <c r="A324" s="3">
         <v>90107</v>
       </c>
-      <c r="B324" s="4" t="str">
+      <c r="B324" s="5" t="str">
         <v>SkillShop_Description_10006</v>
       </c>
-      <c r="C324" s="4" t="str">
+      <c r="C324" s="5" t="str">
         <v>【 Killer passivity 】
 When your throwing knife hits a target, it does not deal immediate damage to the target, but instead plants a bomb at the target, which explodes after a short delay and also deals damage to players within a certain radius</v>
       </c>
-      <c r="D324" s="1" t="str">
+      <c r="D324" s="2" t="str">
         <v>【杀手被动能力】
 当你的飞刀命中目标时，不会立即对目标造成伤害，而是在目标处埋下一颗炸弹，延迟一小段时间后会爆炸，并对周围一定范围内的玩家同样造成伤害</v>
       </c>
@@ -6017,14 +6017,14 @@
       <c r="A325" s="3">
         <v>90108</v>
       </c>
-      <c r="B325" s="4" t="str">
+      <c r="B325" s="5" t="str">
         <v>SkillShop_Description_10007</v>
       </c>
-      <c r="C325" s="4" t="str">
+      <c r="C325" s="5" t="str">
         <v>【 Killer initiative 】
 Once activated, you can be invisible for 5 seconds, and if you beat any player while cloaking, the cloaking ends immediately</v>
       </c>
-      <c r="D325" s="4" t="str">
+      <c r="D325" s="5" t="str">
         <v>【杀手主动能力】
 激活后，你可以隐身5秒，若你在隐身时击败了任何玩家，则会立即结束隐身</v>
       </c>
@@ -6036,13 +6036,13 @@
       <c r="A326" s="3">
         <v>90109</v>
       </c>
-      <c r="B326" s="10" t="str">
+      <c r="B326" s="4" t="str">
         <v>Tips_Content_20020</v>
       </c>
-      <c r="C326" s="4" t="str">
+      <c r="C326" s="5" t="str">
         <v>There are not enough golden keys</v>
       </c>
-      <c r="D326" s="4" t="str">
+      <c r="D326" s="5" t="str">
         <v>金钥匙数量不足</v>
       </c>
       <c r="E326" s="3"/>
@@ -6051,13 +6051,13 @@
       <c r="A327" s="3">
         <v>90110</v>
       </c>
-      <c r="B327" s="10" t="str">
+      <c r="B327" s="4" t="str">
         <v>Tips_Content_20021</v>
       </c>
-      <c r="C327" s="4" t="str">
+      <c r="C327" s="5" t="str">
         <v>This version does not support large membership</v>
       </c>
-      <c r="D327" s="4" t="str">
+      <c r="D327" s="5" t="str">
         <v>这个版本不支持开通大会员</v>
       </c>
       <c r="E327" s="3"/>
@@ -6066,13 +6066,13 @@
       <c r="A328" s="3">
         <v>90111</v>
       </c>
-      <c r="B328" s="10" t="str">
+      <c r="B328" s="4" t="str">
         <v>Weapon_WeaponName_10037</v>
       </c>
-      <c r="C328" s="4" t="str">
+      <c r="C328" s="5" t="str">
         <v>Purple Lightsaber</v>
       </c>
-      <c r="D328" s="4" t="str">
+      <c r="D328" s="5" t="str">
         <v>紫光剑</v>
       </c>
       <c r="E328" s="3"/>
@@ -6081,13 +6081,13 @@
       <c r="A329" s="3">
         <v>90112</v>
       </c>
-      <c r="B329" s="10" t="str">
+      <c r="B329" s="4" t="str">
         <v>Weapon_WeaponName_20014</v>
       </c>
-      <c r="C329" s="4" t="str">
+      <c r="C329" s="5" t="str">
         <v>Ice bow and arrow</v>
       </c>
-      <c r="D329" s="4" t="str">
+      <c r="D329" s="5" t="str">
         <v>冰寒弓箭</v>
       </c>
       <c r="E329" s="3"/>
@@ -6099,10 +6099,10 @@
       <c r="B330" s="3" t="str">
         <v>Item_Name_20013</v>
       </c>
-      <c r="C330" s="4" t="str">
+      <c r="C330" s="5" t="str">
         <v>Firework tail</v>
       </c>
-      <c r="D330" s="4" t="str">
+      <c r="D330" s="5" t="str">
         <v>烟花拖尾</v>
       </c>
       <c r="E330" s="3"/>
@@ -6114,10 +6114,10 @@
       <c r="B331" s="3" t="str">
         <v>Item_Name_20014</v>
       </c>
-      <c r="C331" s="4" t="str">
+      <c r="C331" s="5" t="str">
         <v>Firecracker tail</v>
       </c>
-      <c r="D331" s="4" t="str">
+      <c r="D331" s="5" t="str">
         <v>爆竹拖尾</v>
       </c>
       <c r="E331" s="3"/>
@@ -6129,10 +6129,10 @@
       <c r="B332" s="3" t="str">
         <v>Item_Name_20015</v>
       </c>
-      <c r="C332" s="4" t="str">
+      <c r="C332" s="5" t="str">
         <v>Gift trail</v>
       </c>
-      <c r="D332" s="4" t="str">
+      <c r="D332" s="5" t="str">
         <v>礼物拖尾</v>
       </c>
       <c r="E332" s="3"/>
@@ -6144,10 +6144,10 @@
       <c r="B333" s="3" t="str">
         <v>Item_Name_20016</v>
       </c>
-      <c r="C333" s="4" t="str">
+      <c r="C333" s="5" t="str">
         <v>Candy tail</v>
       </c>
-      <c r="D333" s="4" t="str">
+      <c r="D333" s="5" t="str">
         <v>糖果拖尾</v>
       </c>
       <c r="E333" s="3"/>
@@ -6159,10 +6159,10 @@
       <c r="B334" s="3" t="str">
         <v>Item_Name_20017</v>
       </c>
-      <c r="C334" s="4" t="str">
+      <c r="C334" s="5" t="str">
         <v>Poop trail</v>
       </c>
-      <c r="D334" s="4" t="str">
+      <c r="D334" s="5" t="str">
         <v>便便拖尾</v>
       </c>
       <c r="E334" s="3"/>
@@ -6174,10 +6174,10 @@
       <c r="B335" s="3" t="str">
         <v>Shop_Name_40010</v>
       </c>
-      <c r="C335" s="4" t="str">
+      <c r="C335" s="5" t="str">
         <v>Flame wing</v>
       </c>
-      <c r="D335" s="4" t="str" xml:space="preserve">
+      <c r="D335" s="5" t="str" xml:space="preserve">
         <v> 火焰翅膀</v>
       </c>
       <c r="E335" s="3"/>
@@ -6189,10 +6189,10 @@
       <c r="B336" s="3" t="str">
         <v>Shop_Name_40011</v>
       </c>
-      <c r="C336" s="4" t="str">
+      <c r="C336" s="5" t="str">
         <v>Flame wing</v>
       </c>
-      <c r="D336" s="4" t="str">
+      <c r="D336" s="5" t="str">
         <v>火焰翅膀</v>
       </c>
       <c r="E336" s="3"/>
@@ -6204,10 +6204,10 @@
       <c r="B337" s="3" t="str">
         <v>Shop_Name_40012</v>
       </c>
-      <c r="C337" s="4" t="str">
+      <c r="C337" s="5" t="str">
         <v>Drainage wing</v>
       </c>
-      <c r="D337" s="4" t="str">
+      <c r="D337" s="5" t="str">
         <v>水系翅膀</v>
       </c>
       <c r="E337" s="3"/>
@@ -6219,10 +6219,10 @@
       <c r="B338" s="3" t="str">
         <v>Shop_Name_40013</v>
       </c>
-      <c r="C338" s="4" t="str">
+      <c r="C338" s="5" t="str">
         <v>Dark wing</v>
       </c>
-      <c r="D338" s="4" t="str">
+      <c r="D338" s="5" t="str">
         <v>黑暗翅膀</v>
       </c>
       <c r="E338" s="3"/>
@@ -6234,10 +6234,10 @@
       <c r="B339" s="3" t="str">
         <v>Shop_Name_40014</v>
       </c>
-      <c r="C339" s="4" t="str">
+      <c r="C339" s="5" t="str">
         <v>Devil wing</v>
       </c>
-      <c r="D339" s="4" t="str">
+      <c r="D339" s="5" t="str">
         <v>恶魔翅膀</v>
       </c>
       <c r="E339" s="3"/>
@@ -6249,10 +6249,10 @@
       <c r="B340" s="3" t="str">
         <v>Shop_Name_40015</v>
       </c>
-      <c r="C340" s="4" t="str">
+      <c r="C340" s="5" t="str">
         <v>Ghost wing</v>
       </c>
-      <c r="D340" s="4" t="str">
+      <c r="D340" s="5" t="str">
         <v>恶灵翅膀</v>
       </c>
       <c r="E340" s="3"/>
@@ -6264,10 +6264,10 @@
       <c r="B341" s="3" t="str">
         <v>Shop_Name_40016</v>
       </c>
-      <c r="C341" s="4" t="str">
+      <c r="C341" s="5" t="str">
         <v>Angel wings</v>
       </c>
-      <c r="D341" s="4" t="str">
+      <c r="D341" s="5" t="str">
         <v>天使翅膀</v>
       </c>
       <c r="E341" s="3"/>
@@ -6279,10 +6279,10 @@
       <c r="B342" s="3" t="str">
         <v>Shop_Name_40017</v>
       </c>
-      <c r="C342" s="4" t="str">
+      <c r="C342" s="5" t="str">
         <v>Angel wings</v>
       </c>
-      <c r="D342" s="4" t="str">
+      <c r="D342" s="5" t="str">
         <v>六翼翅膀</v>
       </c>
       <c r="E342" s="3"/>
@@ -6294,10 +6294,10 @@
       <c r="B343" s="3" t="str">
         <v>Text_FreeCoupon</v>
       </c>
-      <c r="C343" s="4" t="str">
+      <c r="C343" s="5" t="str">
         <v>Free Coupon</v>
       </c>
-      <c r="D343" s="4" t="str">
+      <c r="D343" s="5" t="str">
         <v>免费领券</v>
       </c>
       <c r="E343" s="3"/>
@@ -6309,10 +6309,10 @@
       <c r="B344" s="3" t="str">
         <v>Text_Set</v>
       </c>
-      <c r="C344" s="4" t="str">
+      <c r="C344" s="5" t="str">
         <v>Set</v>
       </c>
-      <c r="D344" s="4" t="str">
+      <c r="D344" s="5" t="str">
         <v>设置</v>
       </c>
       <c r="E344" s="3"/>
@@ -6324,10 +6324,10 @@
       <c r="B345" s="3" t="str">
         <v>Text_Pay</v>
       </c>
-      <c r="C345" s="4" t="str">
+      <c r="C345" s="5" t="str">
         <v>Pay</v>
       </c>
-      <c r="D345" s="4" t="str">
+      <c r="D345" s="5" t="str">
         <v>充值</v>
       </c>
       <c r="E345" s="3"/>
@@ -6339,10 +6339,10 @@
       <c r="B346" s="3" t="str">
         <v>Text_HUD_SkillShop</v>
       </c>
-      <c r="C346" s="4" t="str">
+      <c r="C346" s="5" t="str">
         <v>Skill</v>
       </c>
-      <c r="D346" s="4" t="str">
+      <c r="D346" s="5" t="str">
         <v>能力商店</v>
       </c>
       <c r="E346" s="3"/>
@@ -6354,10 +6354,10 @@
       <c r="B347" s="3" t="str">
         <v>Text_Shop_Skin</v>
       </c>
-      <c r="C347" s="4" t="str">
+      <c r="C347" s="5" t="str">
         <v>Skin</v>
       </c>
-      <c r="D347" s="4" t="str">
+      <c r="D347" s="5" t="str">
         <v>皮肤</v>
       </c>
       <c r="E347" s="3"/>
@@ -6493,10 +6493,10 @@
       <c r="B356" s="3" t="str">
         <v>Text_KillerPowerAssembly</v>
       </c>
-      <c r="C356" s="4" t="str">
+      <c r="C356" s="5" t="str">
         <v>Killer Power Assembly</v>
       </c>
-      <c r="D356" s="4" t="str">
+      <c r="D356" s="5" t="str">
         <v>凶手能力装配</v>
       </c>
       <c r="E356" s="3"/>
@@ -6511,7 +6511,7 @@
       <c r="C357" s="3" t="str">
         <v>Free Reward</v>
       </c>
-      <c r="D357" s="4" t="str">
+      <c r="D357" s="5" t="str">
         <v>免费奖励</v>
       </c>
       <c r="E357" s="3"/>
@@ -6523,10 +6523,10 @@
       <c r="B358" s="3" t="str">
         <v>Text_Ads_2</v>
       </c>
-      <c r="C358" s="4" t="str">
+      <c r="C358" s="5" t="str">
         <v>{0} Failed, Please Try Again</v>
       </c>
-      <c r="D358" s="4" t="str">
+      <c r="D358" s="5" t="str">
         <v>{0}失败，请重试</v>
       </c>
       <c r="E358" s="3"/>
@@ -6538,10 +6538,10 @@
       <c r="B359" s="3" t="str">
         <v>Text_Ads_3</v>
       </c>
-      <c r="C359" s="4" t="str">
+      <c r="C359" s="5" t="str">
         <v>Successful Costume Change</v>
       </c>
-      <c r="D359" s="4" t="str">
+      <c r="D359" s="5" t="str">
         <v>换装成功</v>
       </c>
       <c r="E359" s="3"/>
@@ -6553,10 +6553,10 @@
       <c r="B360" s="3" t="str">
         <v>Text_Ads_4</v>
       </c>
-      <c r="C360" s="4" t="str">
+      <c r="C360" s="5" t="str">
         <v>See Ads For Free Fittings</v>
       </c>
-      <c r="D360" s="4" t="str">
+      <c r="D360" s="5" t="str">
         <v>看广告免费试穿</v>
       </c>
       <c r="E360" s="3"/>
@@ -6568,10 +6568,10 @@
       <c r="B361" s="3" t="str">
         <v>Text_Ads_5</v>
       </c>
-      <c r="C361" s="4" t="str">
+      <c r="C361" s="5" t="str">
         <v>Free Try On</v>
       </c>
-      <c r="D361" s="4" t="str">
+      <c r="D361" s="5" t="str">
         <v>免费试穿</v>
       </c>
       <c r="E361" s="3"/>
@@ -6583,10 +6583,10 @@
       <c r="B362" s="3" t="str">
         <v>Text_Ads_6</v>
       </c>
-      <c r="C362" s="4" t="str">
+      <c r="C362" s="5" t="str">
         <v>Congratulations On Winning {0} Gold</v>
       </c>
-      <c r="D362" s="4" t="str">
+      <c r="D362" s="5" t="str">
         <v>恭喜获得{0}金币</v>
       </c>
       <c r="E362" s="3"/>
@@ -6598,10 +6598,10 @@
       <c r="B363" s="3" t="str">
         <v>Text_Ads_7</v>
       </c>
-      <c r="C363" s="4" t="str">
+      <c r="C363" s="5" t="str">
         <v>See Ads To Receive {0} Coins For Free</v>
       </c>
-      <c r="D363" s="4" t="str">
+      <c r="D363" s="5" t="str">
         <v>看广告免费领取{0}金币</v>
       </c>
       <c r="E363" s="3"/>
@@ -6613,10 +6613,10 @@
       <c r="B364" s="3" t="str">
         <v>Text_Ads_8</v>
       </c>
-      <c r="C364" s="4" t="str">
+      <c r="C364" s="5" t="str">
         <v>Congratulations On Getting {0} Advertising Vouchers</v>
       </c>
-      <c r="D364" s="4" t="str">
+      <c r="D364" s="5" t="str">
         <v>恭喜获得{0}张广告券</v>
       </c>
       <c r="E364" s="3"/>
@@ -6628,10 +6628,10 @@
       <c r="B365" s="3" t="str">
         <v>Text_Ads_9</v>
       </c>
-      <c r="C365" s="4" t="str">
+      <c r="C365" s="5" t="str">
         <v>Receive {0} Free Advertising Vouchers</v>
       </c>
-      <c r="D365" s="4" t="str">
+      <c r="D365" s="5" t="str">
         <v>免费领取{0}张广告券</v>
       </c>
       <c r="E365" s="3"/>
@@ -6643,11 +6643,11 @@
       <c r="B366" s="3" t="str">
         <v>Text_Ads_10</v>
       </c>
-      <c r="C366" s="4" t="str">
+      <c r="C366" s="5" t="str">
         <v>Free Double Gold
 Send Another Advertising Voucher.</v>
       </c>
-      <c r="D366" s="4" t="str">
+      <c r="D366" s="5" t="str">
         <v>免费领取双倍金币
 再送一张广告券</v>
       </c>
@@ -6660,10 +6660,10 @@
       <c r="B367" s="3" t="str">
         <v>Text_FreeDraw</v>
       </c>
-      <c r="C367" s="4" t="str">
+      <c r="C367" s="5" t="str">
         <v>Free draw</v>
       </c>
-      <c r="D367" s="4" t="str">
+      <c r="D367" s="5" t="str">
         <v>免费抽奖</v>
       </c>
       <c r="E367" s="3"/>
@@ -6675,10 +6675,10 @@
       <c r="B368" s="3" t="str">
         <v>Text_Ranking</v>
       </c>
-      <c r="C368" s="4" t="str">
+      <c r="C368" s="5" t="str">
         <v>Ranking</v>
       </c>
-      <c r="D368" s="4" t="str">
+      <c r="D368" s="5" t="str">
         <v>排名</v>
       </c>
       <c r="E368" s="3"/>
@@ -6690,10 +6690,10 @@
       <c r="B369" s="3" t="str">
         <v>Text_nickname</v>
       </c>
-      <c r="C369" s="4" t="str">
+      <c r="C369" s="5" t="str">
         <v>nickname</v>
       </c>
-      <c r="D369" s="4" t="str">
+      <c r="D369" s="5" t="str">
         <v>昵称</v>
       </c>
       <c r="E369" s="3"/>
@@ -6705,10 +6705,10 @@
       <c r="B370" s="3" t="str">
         <v>Text_Altitude</v>
       </c>
-      <c r="C370" s="4" t="str">
+      <c r="C370" s="5" t="str">
         <v>Altitude</v>
       </c>
-      <c r="D370" s="4" t="str">
+      <c r="D370" s="5" t="str">
         <v>高度</v>
       </c>
       <c r="E370" s="3"/>
@@ -6720,10 +6720,10 @@
       <c r="B371" s="3" t="str">
         <v>Text_StartSettlement</v>
       </c>
-      <c r="C371" s="4" t="str">
+      <c r="C371" s="5" t="str">
         <v>Start settlement</v>
       </c>
-      <c r="D371" s="4" t="str">
+      <c r="D371" s="5" t="str">
         <v>开始结算</v>
       </c>
       <c r="E371" s="3"/>
@@ -6735,10 +6735,10 @@
       <c r="B372" s="3" t="str">
         <v>Text_PlayerIsDead</v>
       </c>
-      <c r="C372" s="4" t="str">
+      <c r="C372" s="5" t="str">
         <v>Player {0} is dead</v>
       </c>
-      <c r="D372" s="4" t="str">
+      <c r="D372" s="5" t="str">
         <v>玩家{0}死亡了</v>
       </c>
       <c r="E372" s="3"/>
@@ -6750,10 +6750,10 @@
       <c r="B373" s="3" t="str">
         <v>Text_1</v>
       </c>
-      <c r="C373" s="4" t="str">
+      <c r="C373" s="5" t="str">
         <v>If a player fails to enter the scene, the game restarts</v>
       </c>
-      <c r="D373" s="4" t="str">
+      <c r="D373" s="5" t="str">
         <v>有玩家没有成功进入场景，游戏重新开始</v>
       </c>
       <c r="E373" s="3"/>
@@ -6765,13 +6765,13 @@
       <c r="B374" s="3" t="str">
         <v>Text_World1</v>
       </c>
-      <c r="C374" s="4" t="str">
+      <c r="C374" s="5" t="str">
         <v>Don't reveal your identity easily
 Stay away from people who try to get close to you
 Don't trust anyone.
 Everyone can be dangerous!</v>
       </c>
-      <c r="D374" s="4" t="str">
+      <c r="D374" s="5" t="str">
         <v>不要轻易暴露自己的身份
 远离那些试图靠近你的人
 不要相信任何人
@@ -6786,12 +6786,12 @@
       <c r="B375" s="3" t="str">
         <v>Text_World2</v>
       </c>
-      <c r="C375" s="4" t="str">
+      <c r="C375" s="5" t="str">
         <v>Pull out your pistol and tap the screen to fire
 Find the hidden killer and defeat him!
 Don't attack civilians.</v>
       </c>
-      <c r="D375" s="4" t="str">
+      <c r="D375" s="5" t="str">
         <v>掏出手枪后，点击屏幕射击
 找到隐藏的凶手，击败他!
 不要攻击平民</v>
@@ -6805,12 +6805,12 @@
       <c r="B376" s="3" t="str">
         <v>Text_World3</v>
       </c>
-      <c r="C376" s="4" t="str">
+      <c r="C376" s="5" t="str">
         <v>When you pull out a melee weapon, it will automatically attack surrounding players
 After taking out the long range knife, click the crosshairs to throw it
 Beat them all! Watch out, detective!</v>
       </c>
-      <c r="D376" s="4" t="str">
+      <c r="D376" s="5" t="str">
         <v>掏出近战武器后，会自动攻击周围玩家
 掏出远程飞刀后，点击准星来扔出
 击败所有人，小心侦探!</v>
@@ -6824,10 +6824,10 @@
       <c r="B377" s="3" t="str">
         <v>Text_World4</v>
       </c>
-      <c r="C377" s="4" t="str">
+      <c r="C377" s="5" t="str">
         <v>Restore default image</v>
       </c>
-      <c r="D377" s="4" t="str">
+      <c r="D377" s="5" t="str">
         <v>恢复默认形象</v>
       </c>
       <c r="E377" s="3"/>
@@ -6839,10 +6839,10 @@
       <c r="B378" s="3" t="str">
         <v>Text_Task1</v>
       </c>
-      <c r="C378" s="4" t="str">
+      <c r="C378" s="5" t="str">
         <v>non-repeatable</v>
       </c>
-      <c r="D378" s="4" t="str">
+      <c r="D378" s="5" t="str">
         <v>不能重复领取</v>
       </c>
       <c r="E378" s="3"/>
@@ -6854,10 +6854,10 @@
       <c r="B379" s="3" t="str">
         <v>Text_Task2</v>
       </c>
-      <c r="C379" s="4" t="str">
+      <c r="C379" s="5" t="str">
         <v>Online for less than {0} minutes</v>
       </c>
-      <c r="D379" s="4" t="str">
+      <c r="D379" s="5" t="str">
         <v>在线时间不足{0}分钟</v>
       </c>
       <c r="E379" s="3"/>
@@ -6869,10 +6869,10 @@
       <c r="B380" s="3" t="str">
         <v>Text_Task3</v>
       </c>
-      <c r="C380" s="4" t="str">
+      <c r="C380" s="5" t="str">
         <v>Claimed</v>
       </c>
-      <c r="D380" s="4" t="str">
+      <c r="D380" s="5" t="str">
         <v>已领取</v>
       </c>
       <c r="E380" s="3"/>
@@ -6884,10 +6884,10 @@
       <c r="B381" s="3" t="str">
         <v>Text_Task4</v>
       </c>
-      <c r="C381" s="4" t="str">
+      <c r="C381" s="5" t="str">
         <v>Bonus Gold</v>
       </c>
-      <c r="D381" s="4" t="str">
+      <c r="D381" s="5" t="str">
         <v>奖励金币</v>
       </c>
       <c r="E381" s="3"/>
@@ -6899,10 +6899,10 @@
       <c r="B382" s="3" t="str">
         <v>Text_Task5</v>
       </c>
-      <c r="C382" s="4" t="str">
+      <c r="C382" s="5" t="str">
         <v>Tomorrow's Reward</v>
       </c>
-      <c r="D382" s="4" t="str">
+      <c r="D382" s="5" t="str">
         <v>明日奖励</v>
       </c>
       <c r="E382" s="3"/>
@@ -6914,10 +6914,10 @@
       <c r="B383" s="3" t="str">
         <v>Text_Task6</v>
       </c>
-      <c r="C383" s="4" t="str">
+      <c r="C383" s="5" t="str">
         <v>Free Online {0} Minutes ({1}/{2})</v>
       </c>
-      <c r="D383" s="4" t="str">
+      <c r="D383" s="5" t="str">
         <v>在线{0}分钟免费领取({1}/{2})</v>
       </c>
       <c r="E383" s="3"/>
@@ -6929,10 +6929,10 @@
       <c r="B384" s="3" t="str">
         <v>Text_Task7</v>
       </c>
-      <c r="C384" s="4" t="str">
+      <c r="C384" s="5" t="str">
         <v>Receive successfully, open the shop to use</v>
       </c>
-      <c r="D384" s="4" t="str">
+      <c r="D384" s="5" t="str">
         <v>领取成功、打开商店使用</v>
       </c>
       <c r="E384" s="3"/>
@@ -7019,10 +7019,10 @@
       <c r="B390" s="3" t="str">
         <v>Text_AdvertisingCoupon</v>
       </c>
-      <c r="C390" s="4" t="str">
+      <c r="C390" s="5" t="str">
         <v>Coupon</v>
       </c>
-      <c r="D390" s="4" t="str">
+      <c r="D390" s="5" t="str">
         <v>广告券</v>
       </c>
       <c r="E390" s="3"/>
@@ -7034,10 +7034,10 @@
       <c r="B391" s="3" t="str">
         <v>Text_TipsTooFast</v>
       </c>
-      <c r="C391" s="4" t="str">
+      <c r="C391" s="5" t="str">
         <v>Don't order too fast</v>
       </c>
-      <c r="D391" s="4" t="str">
+      <c r="D391" s="5" t="str">
         <v>别点太快</v>
       </c>
       <c r="E391" s="3"/>
@@ -7049,10 +7049,10 @@
       <c r="B392" s="3" t="str">
         <v>Text_ChangeClothes</v>
       </c>
-      <c r="C392" s="4" t="str">
+      <c r="C392" s="5" t="str">
         <v>Clothes</v>
       </c>
-      <c r="D392" s="4" t="str">
+      <c r="D392" s="5" t="str">
         <v>超级装扮</v>
       </c>
       <c r="E392" s="3"/>
@@ -7061,13 +7061,13 @@
       <c r="A393" s="3">
         <v>100051</v>
       </c>
-      <c r="B393" s="13" t="str">
+      <c r="B393" s="6" t="str">
         <v>Text_MyCharacterId</v>
       </c>
-      <c r="C393" s="13" t="str">
+      <c r="C393" s="6" t="str">
         <v>My Character ID- Share Friend Try On</v>
       </c>
-      <c r="D393" s="13" t="str">
+      <c r="D393" s="6" t="str">
         <v>我的角色ID-分享好友试穿</v>
       </c>
       <c r="E393" s="3"/>
@@ -7076,13 +7076,13 @@
       <c r="A394" s="3">
         <v>100052</v>
       </c>
-      <c r="B394" s="13" t="str">
+      <c r="B394" s="6" t="str">
         <v>Text_PleaseEnter</v>
       </c>
-      <c r="C394" s="13" t="str">
+      <c r="C394" s="6" t="str">
         <v>Please Enter The Friend Role ID</v>
       </c>
-      <c r="D394" s="13" t="str">
+      <c r="D394" s="6" t="str">
         <v>请输入好友角色ID</v>
       </c>
       <c r="E394" s="3"/>
@@ -7091,13 +7091,13 @@
       <c r="A395" s="3">
         <v>100053</v>
       </c>
-      <c r="B395" s="13" t="str">
+      <c r="B395" s="6" t="str">
         <v>Text_Cancel</v>
       </c>
-      <c r="C395" s="13" t="str">
+      <c r="C395" s="6" t="str">
         <v>Cancel</v>
       </c>
-      <c r="D395" s="13" t="str">
+      <c r="D395" s="6" t="str">
         <v>取消</v>
       </c>
       <c r="E395" s="3"/>
@@ -7106,13 +7106,13 @@
       <c r="A396" s="3">
         <v>100054</v>
       </c>
-      <c r="B396" s="13" t="str">
+      <c r="B396" s="6" t="str">
         <v>Text_FreeTryOn</v>
       </c>
-      <c r="C396" s="13" t="str">
+      <c r="C396" s="6" t="str">
         <v>Free Try On</v>
       </c>
-      <c r="D396" s="13" t="str">
+      <c r="D396" s="6" t="str">
         <v>免费试穿</v>
       </c>
       <c r="E396" s="3"/>
@@ -7121,13 +7121,13 @@
       <c r="A397" s="3">
         <v>100055</v>
       </c>
-      <c r="B397" s="13" t="str">
+      <c r="B397" s="6" t="str">
         <v>Text_SaveImagesForFree</v>
       </c>
-      <c r="C397" s="13" t="str">
+      <c r="C397" s="6" t="str">
         <v>Save images for free</v>
       </c>
-      <c r="D397" s="13" t="str">
+      <c r="D397" s="6" t="str">
         <v>免费保存形象</v>
       </c>
       <c r="E397" s="3"/>
@@ -7136,13 +7136,13 @@
       <c r="A398" s="3">
         <v>100056</v>
       </c>
-      <c r="B398" s="13" t="str">
+      <c r="B398" s="6" t="str">
         <v>Text_TryOnYourFriendAvatarForFree</v>
       </c>
-      <c r="C398" s="13" t="str">
+      <c r="C398" s="6" t="str">
         <v>Try On Your Friend's Avatar For Free</v>
       </c>
-      <c r="D398" s="13" t="str">
+      <c r="D398" s="6" t="str">
         <v>免费试穿好友的角色形象</v>
       </c>
       <c r="E398" s="3"/>
@@ -7151,13 +7151,13 @@
       <c r="A399" s="3">
         <v>100057</v>
       </c>
-      <c r="B399" s="13" t="str">
+      <c r="B399" s="6" t="str">
         <v>Text_CopySuccessfully</v>
       </c>
-      <c r="C399" s="13" t="str">
+      <c r="C399" s="6" t="str">
         <v>Copy Successfully</v>
       </c>
-      <c r="D399" s="13" t="str">
+      <c r="D399" s="6" t="str">
         <v>复制成功</v>
       </c>
       <c r="E399" s="3"/>
@@ -7166,13 +7166,13 @@
       <c r="A400" s="3">
         <v>100058</v>
       </c>
-      <c r="B400" s="13" t="str">
+      <c r="B400" s="6" t="str">
         <v>Text_InvalidID</v>
       </c>
-      <c r="C400" s="13" t="str">
+      <c r="C400" s="6" t="str">
         <v>Invalid ID!</v>
       </c>
-      <c r="D400" s="13" t="str">
+      <c r="D400" s="6" t="str">
         <v>ID无效！</v>
       </c>
       <c r="E400" s="3"/>
@@ -7181,13 +7181,13 @@
       <c r="A401" s="3">
         <v>100059</v>
       </c>
-      <c r="B401" s="13" t="str">
+      <c r="B401" s="6" t="str">
         <v>Text_Loading</v>
       </c>
-      <c r="C401" s="13" t="str">
+      <c r="C401" s="6" t="str">
         <v>Loading</v>
       </c>
-      <c r="D401" s="13" t="str">
+      <c r="D401" s="6" t="str">
         <v>加载中</v>
       </c>
       <c r="E401" s="3"/>
@@ -7196,13 +7196,13 @@
       <c r="A402" s="3">
         <v>100060</v>
       </c>
-      <c r="B402" s="13" t="str">
+      <c r="B402" s="6" t="str">
         <v>Text_TryItOnSuccessfully</v>
       </c>
-      <c r="C402" s="13" t="str">
+      <c r="C402" s="6" t="str">
         <v>Try it on successfully</v>
       </c>
-      <c r="D402" s="13" t="str">
+      <c r="D402" s="6" t="str">
         <v>试穿成功</v>
       </c>
       <c r="E402" s="3"/>
@@ -7211,13 +7211,13 @@
       <c r="A403" s="3">
         <v>100061</v>
       </c>
-      <c r="B403" s="13" t="str">
+      <c r="B403" s="6" t="str">
         <v>Text_CopyTheCharacterIDShareFriendsTryOn</v>
       </c>
-      <c r="C403" s="13" t="str">
+      <c r="C403" s="6" t="str">
         <v>Copy the character ID share friends try on</v>
       </c>
-      <c r="D403" s="13" t="str">
+      <c r="D403" s="6" t="str">
         <v>复制角色ID分享好友试穿</v>
       </c>
       <c r="E403" s="3"/>
@@ -7226,13 +7226,13 @@
       <c r="A404" s="3">
         <v>100062</v>
       </c>
-      <c r="B404" s="13" t="str">
+      <c r="B404" s="6" t="str">
         <v>Text_TryItOnForFree</v>
       </c>
-      <c r="C404" s="13" t="str">
+      <c r="C404" s="6" t="str">
         <v>Try it on for free</v>
       </c>
-      <c r="D404" s="13" t="str">
+      <c r="D404" s="6" t="str">
         <v>看广告免费试穿</v>
       </c>
       <c r="E404" s="3"/>
@@ -7244,1321 +7244,1329 @@
       <c r="B405" s="3" t="str">
         <v>Text_FREE</v>
       </c>
-      <c r="C405" s="4" t="str">
+      <c r="C405" s="5" t="str">
         <v>Free</v>
       </c>
-      <c r="D405" s="4" t="str">
+      <c r="D405" s="5" t="str">
         <v>免费换装</v>
       </c>
       <c r="E405" s="3"/>
     </row>
     <row r="406">
-      <c r="A406" s="3"/>
-      <c r="B406" s="3"/>
-      <c r="C406" s="4"/>
-      <c r="D406" s="4"/>
+      <c r="A406" s="3">
+        <v>100064</v>
+      </c>
+      <c r="B406" s="3" t="str">
+        <v>Text_FREE1</v>
+      </c>
+      <c r="C406" s="5" t="str">
+        <v>Try on, please wait patiently.</v>
+      </c>
+      <c r="D406" s="5" t="str">
+        <v>试穿中，请耐心等待。</v>
+      </c>
       <c r="E406" s="3"/>
     </row>
     <row r="407">
       <c r="A407" s="3"/>
       <c r="B407" s="3"/>
-      <c r="C407" s="4"/>
-      <c r="D407" s="4"/>
+      <c r="C407" s="5"/>
+      <c r="D407" s="5"/>
       <c r="E407" s="3"/>
     </row>
     <row r="408">
       <c r="A408" s="3"/>
       <c r="B408" s="3"/>
-      <c r="C408" s="4"/>
-      <c r="D408" s="4"/>
+      <c r="C408" s="5"/>
+      <c r="D408" s="5"/>
       <c r="E408" s="3"/>
     </row>
     <row r="409">
       <c r="A409" s="3"/>
       <c r="B409" s="3"/>
-      <c r="C409" s="4"/>
-      <c r="D409" s="4"/>
+      <c r="C409" s="5"/>
+      <c r="D409" s="5"/>
       <c r="E409" s="3"/>
     </row>
     <row r="410">
       <c r="A410" s="3"/>
       <c r="B410" s="3"/>
-      <c r="C410" s="4"/>
-      <c r="D410" s="4"/>
+      <c r="C410" s="5"/>
+      <c r="D410" s="5"/>
       <c r="E410" s="3"/>
     </row>
     <row r="411">
       <c r="A411" s="3"/>
       <c r="B411" s="3"/>
-      <c r="C411" s="4"/>
-      <c r="D411" s="4"/>
+      <c r="C411" s="5"/>
+      <c r="D411" s="5"/>
       <c r="E411" s="3"/>
     </row>
     <row r="412">
       <c r="A412" s="3"/>
       <c r="B412" s="3"/>
-      <c r="C412" s="4"/>
-      <c r="D412" s="4"/>
+      <c r="C412" s="5"/>
+      <c r="D412" s="5"/>
       <c r="E412" s="3"/>
     </row>
     <row r="413">
       <c r="A413" s="3"/>
       <c r="B413" s="3"/>
-      <c r="C413" s="4"/>
-      <c r="D413" s="4"/>
+      <c r="C413" s="5"/>
+      <c r="D413" s="5"/>
       <c r="E413" s="3"/>
     </row>
     <row r="414">
       <c r="A414" s="3"/>
       <c r="B414" s="3"/>
-      <c r="C414" s="4"/>
-      <c r="D414" s="4"/>
+      <c r="C414" s="5"/>
+      <c r="D414" s="5"/>
       <c r="E414" s="3"/>
     </row>
     <row r="415">
       <c r="A415" s="3"/>
       <c r="B415" s="3"/>
-      <c r="C415" s="4"/>
-      <c r="D415" s="4"/>
+      <c r="C415" s="5"/>
+      <c r="D415" s="5"/>
       <c r="E415" s="3"/>
     </row>
     <row r="416">
       <c r="A416" s="3"/>
       <c r="B416" s="3"/>
-      <c r="C416" s="4"/>
-      <c r="D416" s="4"/>
+      <c r="C416" s="5"/>
+      <c r="D416" s="5"/>
       <c r="E416" s="3"/>
     </row>
     <row r="417">
       <c r="A417" s="3"/>
       <c r="B417" s="3"/>
-      <c r="C417" s="4"/>
-      <c r="D417" s="4"/>
+      <c r="C417" s="5"/>
+      <c r="D417" s="5"/>
       <c r="E417" s="3"/>
     </row>
     <row r="418">
       <c r="A418" s="3"/>
       <c r="B418" s="3"/>
-      <c r="C418" s="4"/>
-      <c r="D418" s="4"/>
+      <c r="C418" s="5"/>
+      <c r="D418" s="5"/>
       <c r="E418" s="3"/>
     </row>
     <row r="419">
       <c r="A419" s="3"/>
       <c r="B419" s="3"/>
-      <c r="C419" s="4"/>
-      <c r="D419" s="4"/>
+      <c r="C419" s="5"/>
+      <c r="D419" s="5"/>
       <c r="E419" s="3"/>
     </row>
     <row r="420">
       <c r="A420" s="3"/>
       <c r="B420" s="3"/>
-      <c r="C420" s="4"/>
-      <c r="D420" s="4"/>
+      <c r="C420" s="5"/>
+      <c r="D420" s="5"/>
       <c r="E420" s="3"/>
     </row>
     <row r="421">
       <c r="A421" s="3"/>
       <c r="B421" s="3"/>
-      <c r="C421" s="4"/>
-      <c r="D421" s="4"/>
+      <c r="C421" s="5"/>
+      <c r="D421" s="5"/>
       <c r="E421" s="3"/>
     </row>
     <row r="422">
       <c r="A422" s="3"/>
       <c r="B422" s="3"/>
-      <c r="C422" s="4"/>
-      <c r="D422" s="4"/>
+      <c r="C422" s="5"/>
+      <c r="D422" s="5"/>
       <c r="E422" s="3"/>
     </row>
     <row r="423">
       <c r="A423" s="3"/>
       <c r="B423" s="3"/>
-      <c r="C423" s="4"/>
-      <c r="D423" s="4"/>
+      <c r="C423" s="5"/>
+      <c r="D423" s="5"/>
       <c r="E423" s="3"/>
     </row>
     <row r="424">
       <c r="A424" s="3"/>
       <c r="B424" s="3"/>
-      <c r="C424" s="4"/>
-      <c r="D424" s="4"/>
+      <c r="C424" s="5"/>
+      <c r="D424" s="5"/>
       <c r="E424" s="3"/>
     </row>
     <row r="425">
       <c r="A425" s="3"/>
       <c r="B425" s="3"/>
-      <c r="C425" s="4"/>
-      <c r="D425" s="4"/>
+      <c r="C425" s="5"/>
+      <c r="D425" s="5"/>
       <c r="E425" s="3"/>
     </row>
     <row r="426">
       <c r="A426" s="3"/>
       <c r="B426" s="3"/>
-      <c r="C426" s="4"/>
-      <c r="D426" s="4"/>
+      <c r="C426" s="5"/>
+      <c r="D426" s="5"/>
       <c r="E426" s="3"/>
     </row>
     <row r="427">
       <c r="A427" s="3"/>
       <c r="B427" s="3"/>
-      <c r="C427" s="4"/>
-      <c r="D427" s="4"/>
+      <c r="C427" s="5"/>
+      <c r="D427" s="5"/>
       <c r="E427" s="3"/>
     </row>
     <row r="428">
       <c r="A428" s="3"/>
       <c r="B428" s="3"/>
-      <c r="C428" s="4"/>
-      <c r="D428" s="4"/>
+      <c r="C428" s="5"/>
+      <c r="D428" s="5"/>
       <c r="E428" s="3"/>
     </row>
     <row r="429">
       <c r="A429" s="3"/>
       <c r="B429" s="3"/>
-      <c r="C429" s="4"/>
-      <c r="D429" s="4"/>
+      <c r="C429" s="5"/>
+      <c r="D429" s="5"/>
       <c r="E429" s="3"/>
     </row>
     <row r="430">
       <c r="A430" s="3"/>
       <c r="B430" s="3"/>
-      <c r="C430" s="4"/>
-      <c r="D430" s="4"/>
+      <c r="C430" s="5"/>
+      <c r="D430" s="5"/>
       <c r="E430" s="3"/>
     </row>
     <row r="431">
       <c r="A431" s="3"/>
       <c r="B431" s="3"/>
-      <c r="C431" s="4"/>
-      <c r="D431" s="4"/>
+      <c r="C431" s="5"/>
+      <c r="D431" s="5"/>
       <c r="E431" s="3"/>
     </row>
     <row r="432">
       <c r="A432" s="3"/>
       <c r="B432" s="3"/>
-      <c r="C432" s="4"/>
-      <c r="D432" s="4"/>
+      <c r="C432" s="5"/>
+      <c r="D432" s="5"/>
       <c r="E432" s="3"/>
     </row>
     <row r="433">
       <c r="A433" s="3"/>
       <c r="B433" s="3"/>
-      <c r="C433" s="4"/>
-      <c r="D433" s="4"/>
+      <c r="C433" s="5"/>
+      <c r="D433" s="5"/>
       <c r="E433" s="3"/>
     </row>
     <row r="434">
       <c r="A434" s="3"/>
       <c r="B434" s="3"/>
-      <c r="C434" s="4"/>
-      <c r="D434" s="4"/>
+      <c r="C434" s="5"/>
+      <c r="D434" s="5"/>
       <c r="E434" s="3"/>
     </row>
     <row r="435">
       <c r="A435" s="3"/>
       <c r="B435" s="3"/>
-      <c r="C435" s="4"/>
-      <c r="D435" s="4"/>
+      <c r="C435" s="5"/>
+      <c r="D435" s="5"/>
       <c r="E435" s="3"/>
     </row>
     <row r="436">
       <c r="A436" s="3"/>
       <c r="B436" s="3"/>
-      <c r="C436" s="4"/>
-      <c r="D436" s="4"/>
+      <c r="C436" s="5"/>
+      <c r="D436" s="5"/>
       <c r="E436" s="3"/>
     </row>
     <row r="437">
       <c r="A437" s="3"/>
       <c r="B437" s="3"/>
-      <c r="C437" s="4"/>
-      <c r="D437" s="4"/>
+      <c r="C437" s="5"/>
+      <c r="D437" s="5"/>
       <c r="E437" s="3"/>
     </row>
     <row r="438">
       <c r="A438" s="3"/>
       <c r="B438" s="3"/>
-      <c r="C438" s="4"/>
-      <c r="D438" s="4"/>
+      <c r="C438" s="5"/>
+      <c r="D438" s="5"/>
       <c r="E438" s="3"/>
     </row>
     <row r="439">
       <c r="A439" s="3"/>
       <c r="B439" s="3"/>
-      <c r="C439" s="4"/>
-      <c r="D439" s="4"/>
+      <c r="C439" s="5"/>
+      <c r="D439" s="5"/>
       <c r="E439" s="3"/>
     </row>
     <row r="440">
       <c r="A440" s="3"/>
       <c r="B440" s="3"/>
-      <c r="C440" s="4"/>
-      <c r="D440" s="4"/>
+      <c r="C440" s="5"/>
+      <c r="D440" s="5"/>
       <c r="E440" s="3"/>
     </row>
     <row r="441">
       <c r="A441" s="3"/>
       <c r="B441" s="3"/>
-      <c r="C441" s="4"/>
-      <c r="D441" s="4"/>
+      <c r="C441" s="5"/>
+      <c r="D441" s="5"/>
       <c r="E441" s="3"/>
     </row>
     <row r="442">
       <c r="A442" s="3"/>
       <c r="B442" s="3"/>
-      <c r="C442" s="4"/>
-      <c r="D442" s="4"/>
+      <c r="C442" s="5"/>
+      <c r="D442" s="5"/>
       <c r="E442" s="3"/>
     </row>
     <row r="443">
       <c r="A443" s="3"/>
       <c r="B443" s="3"/>
-      <c r="C443" s="4"/>
-      <c r="D443" s="4"/>
+      <c r="C443" s="5"/>
+      <c r="D443" s="5"/>
       <c r="E443" s="3"/>
     </row>
     <row r="444">
       <c r="A444" s="3"/>
       <c r="B444" s="3"/>
-      <c r="C444" s="4"/>
-      <c r="D444" s="4"/>
+      <c r="C444" s="5"/>
+      <c r="D444" s="5"/>
       <c r="E444" s="3"/>
     </row>
     <row r="445">
       <c r="A445" s="3"/>
       <c r="B445" s="3"/>
-      <c r="C445" s="4"/>
-      <c r="D445" s="4"/>
+      <c r="C445" s="5"/>
+      <c r="D445" s="5"/>
       <c r="E445" s="3"/>
     </row>
     <row r="446">
       <c r="A446" s="3"/>
       <c r="B446" s="3"/>
-      <c r="C446" s="4"/>
-      <c r="D446" s="4"/>
+      <c r="C446" s="5"/>
+      <c r="D446" s="5"/>
       <c r="E446" s="3"/>
     </row>
     <row r="447">
       <c r="A447" s="3"/>
       <c r="B447" s="3"/>
-      <c r="C447" s="4"/>
-      <c r="D447" s="4"/>
+      <c r="C447" s="5"/>
+      <c r="D447" s="5"/>
       <c r="E447" s="3"/>
     </row>
     <row r="448">
       <c r="A448" s="3"/>
       <c r="B448" s="3"/>
-      <c r="C448" s="4"/>
-      <c r="D448" s="4"/>
+      <c r="C448" s="5"/>
+      <c r="D448" s="5"/>
       <c r="E448" s="3"/>
     </row>
     <row r="449">
       <c r="A449" s="3"/>
       <c r="B449" s="3"/>
-      <c r="C449" s="4"/>
-      <c r="D449" s="4"/>
+      <c r="C449" s="5"/>
+      <c r="D449" s="5"/>
       <c r="E449" s="3"/>
     </row>
     <row r="450">
       <c r="A450" s="3"/>
       <c r="B450" s="3"/>
-      <c r="C450" s="4"/>
-      <c r="D450" s="4"/>
+      <c r="C450" s="5"/>
+      <c r="D450" s="5"/>
       <c r="E450" s="3"/>
     </row>
     <row r="451">
       <c r="A451" s="3"/>
       <c r="B451" s="3"/>
-      <c r="C451" s="4"/>
-      <c r="D451" s="4"/>
+      <c r="C451" s="5"/>
+      <c r="D451" s="5"/>
       <c r="E451" s="3"/>
     </row>
     <row r="452">
       <c r="A452" s="3"/>
       <c r="B452" s="3"/>
-      <c r="C452" s="4"/>
-      <c r="D452" s="4"/>
+      <c r="C452" s="5"/>
+      <c r="D452" s="5"/>
       <c r="E452" s="3"/>
     </row>
     <row r="453">
       <c r="A453" s="3"/>
       <c r="B453" s="3"/>
-      <c r="C453" s="4"/>
-      <c r="D453" s="4"/>
+      <c r="C453" s="5"/>
+      <c r="D453" s="5"/>
       <c r="E453" s="3"/>
     </row>
     <row r="454">
       <c r="A454" s="3"/>
       <c r="B454" s="3"/>
-      <c r="C454" s="4"/>
-      <c r="D454" s="4"/>
+      <c r="C454" s="5"/>
+      <c r="D454" s="5"/>
       <c r="E454" s="3"/>
     </row>
     <row r="455">
       <c r="A455" s="3"/>
       <c r="B455" s="3"/>
-      <c r="C455" s="4"/>
-      <c r="D455" s="4"/>
+      <c r="C455" s="5"/>
+      <c r="D455" s="5"/>
       <c r="E455" s="3"/>
     </row>
     <row r="456">
       <c r="A456" s="3"/>
       <c r="B456" s="3"/>
-      <c r="C456" s="4"/>
-      <c r="D456" s="4"/>
+      <c r="C456" s="5"/>
+      <c r="D456" s="5"/>
       <c r="E456" s="3"/>
     </row>
     <row r="457">
       <c r="A457" s="3"/>
       <c r="B457" s="3"/>
-      <c r="C457" s="4"/>
-      <c r="D457" s="4"/>
+      <c r="C457" s="5"/>
+      <c r="D457" s="5"/>
       <c r="E457" s="3"/>
     </row>
     <row r="458">
       <c r="A458" s="3"/>
       <c r="B458" s="3"/>
-      <c r="C458" s="4"/>
-      <c r="D458" s="4"/>
+      <c r="C458" s="5"/>
+      <c r="D458" s="5"/>
       <c r="E458" s="3"/>
     </row>
     <row r="459">
       <c r="A459" s="3"/>
       <c r="B459" s="3"/>
-      <c r="C459" s="4"/>
-      <c r="D459" s="4"/>
+      <c r="C459" s="5"/>
+      <c r="D459" s="5"/>
       <c r="E459" s="3"/>
     </row>
     <row r="460">
       <c r="A460" s="3"/>
       <c r="B460" s="3"/>
-      <c r="C460" s="4"/>
-      <c r="D460" s="4"/>
+      <c r="C460" s="5"/>
+      <c r="D460" s="5"/>
       <c r="E460" s="3"/>
     </row>
     <row r="461">
       <c r="A461" s="3"/>
       <c r="B461" s="3"/>
-      <c r="C461" s="4"/>
-      <c r="D461" s="4"/>
+      <c r="C461" s="5"/>
+      <c r="D461" s="5"/>
       <c r="E461" s="3"/>
     </row>
     <row r="462">
       <c r="A462" s="3"/>
       <c r="B462" s="3"/>
-      <c r="C462" s="4"/>
-      <c r="D462" s="4"/>
+      <c r="C462" s="5"/>
+      <c r="D462" s="5"/>
       <c r="E462" s="3"/>
     </row>
     <row r="463">
       <c r="A463" s="3"/>
       <c r="B463" s="3"/>
-      <c r="C463" s="4"/>
-      <c r="D463" s="4"/>
+      <c r="C463" s="5"/>
+      <c r="D463" s="5"/>
       <c r="E463" s="3"/>
     </row>
     <row r="464">
       <c r="A464" s="3"/>
       <c r="B464" s="3"/>
-      <c r="C464" s="4"/>
-      <c r="D464" s="4"/>
+      <c r="C464" s="5"/>
+      <c r="D464" s="5"/>
       <c r="E464" s="3"/>
     </row>
     <row r="465">
       <c r="A465" s="3"/>
       <c r="B465" s="3"/>
-      <c r="C465" s="4"/>
-      <c r="D465" s="4"/>
+      <c r="C465" s="5"/>
+      <c r="D465" s="5"/>
       <c r="E465" s="3"/>
     </row>
     <row r="466">
       <c r="A466" s="3"/>
       <c r="B466" s="3"/>
-      <c r="C466" s="4"/>
-      <c r="D466" s="4"/>
+      <c r="C466" s="5"/>
+      <c r="D466" s="5"/>
       <c r="E466" s="3"/>
     </row>
     <row r="467">
       <c r="A467" s="3"/>
       <c r="B467" s="3"/>
-      <c r="C467" s="4"/>
-      <c r="D467" s="4"/>
+      <c r="C467" s="5"/>
+      <c r="D467" s="5"/>
       <c r="E467" s="3"/>
     </row>
     <row r="468">
       <c r="A468" s="3"/>
       <c r="B468" s="3"/>
-      <c r="C468" s="4"/>
-      <c r="D468" s="4"/>
+      <c r="C468" s="5"/>
+      <c r="D468" s="5"/>
       <c r="E468" s="3"/>
     </row>
     <row r="469">
       <c r="A469" s="3"/>
       <c r="B469" s="3"/>
-      <c r="C469" s="4"/>
-      <c r="D469" s="4"/>
+      <c r="C469" s="5"/>
+      <c r="D469" s="5"/>
       <c r="E469" s="3"/>
     </row>
     <row r="470">
       <c r="A470" s="3"/>
       <c r="B470" s="3"/>
-      <c r="C470" s="4"/>
-      <c r="D470" s="4"/>
+      <c r="C470" s="5"/>
+      <c r="D470" s="5"/>
       <c r="E470" s="3"/>
     </row>
     <row r="471">
       <c r="A471" s="3"/>
       <c r="B471" s="3"/>
-      <c r="C471" s="4"/>
-      <c r="D471" s="4"/>
+      <c r="C471" s="5"/>
+      <c r="D471" s="5"/>
       <c r="E471" s="3"/>
     </row>
     <row r="472">
       <c r="A472" s="3"/>
       <c r="B472" s="3"/>
-      <c r="C472" s="4"/>
-      <c r="D472" s="4"/>
+      <c r="C472" s="5"/>
+      <c r="D472" s="5"/>
       <c r="E472" s="3"/>
     </row>
     <row r="473">
       <c r="A473" s="3"/>
       <c r="B473" s="3"/>
-      <c r="C473" s="4"/>
-      <c r="D473" s="4"/>
+      <c r="C473" s="5"/>
+      <c r="D473" s="5"/>
       <c r="E473" s="3"/>
     </row>
     <row r="474">
       <c r="A474" s="3"/>
       <c r="B474" s="3"/>
-      <c r="C474" s="4"/>
-      <c r="D474" s="4"/>
+      <c r="C474" s="5"/>
+      <c r="D474" s="5"/>
       <c r="E474" s="3"/>
     </row>
     <row r="475">
       <c r="A475" s="3"/>
       <c r="B475" s="3"/>
-      <c r="C475" s="4"/>
-      <c r="D475" s="4"/>
+      <c r="C475" s="5"/>
+      <c r="D475" s="5"/>
       <c r="E475" s="3"/>
     </row>
     <row r="476">
       <c r="A476" s="3"/>
       <c r="B476" s="3"/>
-      <c r="C476" s="4"/>
-      <c r="D476" s="4"/>
+      <c r="C476" s="5"/>
+      <c r="D476" s="5"/>
       <c r="E476" s="3"/>
     </row>
     <row r="477">
       <c r="A477" s="3"/>
       <c r="B477" s="3"/>
-      <c r="C477" s="4"/>
-      <c r="D477" s="4"/>
+      <c r="C477" s="5"/>
+      <c r="D477" s="5"/>
       <c r="E477" s="3"/>
     </row>
     <row r="478">
       <c r="A478" s="3"/>
       <c r="B478" s="3"/>
-      <c r="C478" s="4"/>
-      <c r="D478" s="4"/>
+      <c r="C478" s="5"/>
+      <c r="D478" s="5"/>
       <c r="E478" s="3"/>
     </row>
     <row r="479">
       <c r="A479" s="3"/>
       <c r="B479" s="3"/>
-      <c r="C479" s="4"/>
-      <c r="D479" s="4"/>
+      <c r="C479" s="5"/>
+      <c r="D479" s="5"/>
       <c r="E479" s="3"/>
     </row>
     <row r="480">
       <c r="A480" s="3"/>
       <c r="B480" s="3"/>
-      <c r="C480" s="4"/>
-      <c r="D480" s="4"/>
+      <c r="C480" s="5"/>
+      <c r="D480" s="5"/>
       <c r="E480" s="3"/>
     </row>
     <row r="481">
       <c r="A481" s="3"/>
       <c r="B481" s="3"/>
-      <c r="C481" s="4"/>
-      <c r="D481" s="4"/>
+      <c r="C481" s="5"/>
+      <c r="D481" s="5"/>
       <c r="E481" s="3"/>
     </row>
     <row r="482">
       <c r="A482" s="3"/>
       <c r="B482" s="3"/>
-      <c r="C482" s="4"/>
-      <c r="D482" s="4"/>
+      <c r="C482" s="5"/>
+      <c r="D482" s="5"/>
       <c r="E482" s="3"/>
     </row>
     <row r="483">
       <c r="A483" s="3"/>
       <c r="B483" s="3"/>
-      <c r="C483" s="4"/>
-      <c r="D483" s="4"/>
+      <c r="C483" s="5"/>
+      <c r="D483" s="5"/>
       <c r="E483" s="3"/>
     </row>
     <row r="484">
       <c r="A484" s="3"/>
       <c r="B484" s="3"/>
-      <c r="C484" s="4"/>
-      <c r="D484" s="4"/>
+      <c r="C484" s="5"/>
+      <c r="D484" s="5"/>
       <c r="E484" s="3"/>
     </row>
     <row r="485">
       <c r="A485" s="3"/>
       <c r="B485" s="3"/>
-      <c r="C485" s="4"/>
-      <c r="D485" s="4"/>
+      <c r="C485" s="5"/>
+      <c r="D485" s="5"/>
       <c r="E485" s="3"/>
     </row>
     <row r="486">
       <c r="A486" s="3"/>
       <c r="B486" s="3"/>
-      <c r="C486" s="4"/>
-      <c r="D486" s="4"/>
+      <c r="C486" s="5"/>
+      <c r="D486" s="5"/>
       <c r="E486" s="3"/>
     </row>
     <row r="487">
       <c r="A487" s="3"/>
       <c r="B487" s="3"/>
-      <c r="C487" s="4"/>
-      <c r="D487" s="4"/>
+      <c r="C487" s="5"/>
+      <c r="D487" s="5"/>
       <c r="E487" s="3"/>
     </row>
     <row r="488">
       <c r="A488" s="3"/>
       <c r="B488" s="3"/>
-      <c r="C488" s="4"/>
-      <c r="D488" s="4"/>
+      <c r="C488" s="5"/>
+      <c r="D488" s="5"/>
       <c r="E488" s="3"/>
     </row>
     <row r="489">
       <c r="A489" s="3"/>
       <c r="B489" s="3"/>
-      <c r="C489" s="4"/>
-      <c r="D489" s="4"/>
+      <c r="C489" s="5"/>
+      <c r="D489" s="5"/>
       <c r="E489" s="3"/>
     </row>
     <row r="490">
       <c r="A490" s="3"/>
       <c r="B490" s="3"/>
-      <c r="C490" s="4"/>
-      <c r="D490" s="4"/>
+      <c r="C490" s="5"/>
+      <c r="D490" s="5"/>
       <c r="E490" s="3"/>
     </row>
     <row r="491">
       <c r="A491" s="3"/>
       <c r="B491" s="3"/>
-      <c r="C491" s="4"/>
-      <c r="D491" s="4"/>
+      <c r="C491" s="5"/>
+      <c r="D491" s="5"/>
       <c r="E491" s="3"/>
     </row>
     <row r="492">
       <c r="A492" s="3"/>
       <c r="B492" s="3"/>
-      <c r="C492" s="4"/>
-      <c r="D492" s="4"/>
+      <c r="C492" s="5"/>
+      <c r="D492" s="5"/>
       <c r="E492" s="3"/>
     </row>
     <row r="493">
       <c r="A493" s="3"/>
       <c r="B493" s="3"/>
-      <c r="C493" s="4"/>
-      <c r="D493" s="4"/>
+      <c r="C493" s="5"/>
+      <c r="D493" s="5"/>
       <c r="E493" s="3"/>
     </row>
     <row r="494">
       <c r="A494" s="3"/>
       <c r="B494" s="3"/>
-      <c r="C494" s="4"/>
-      <c r="D494" s="4"/>
+      <c r="C494" s="5"/>
+      <c r="D494" s="5"/>
       <c r="E494" s="3"/>
     </row>
     <row r="495">
       <c r="A495" s="3"/>
       <c r="B495" s="3"/>
-      <c r="C495" s="4"/>
-      <c r="D495" s="4"/>
+      <c r="C495" s="5"/>
+      <c r="D495" s="5"/>
       <c r="E495" s="3"/>
     </row>
     <row r="496">
       <c r="A496" s="3"/>
       <c r="B496" s="3"/>
-      <c r="C496" s="4"/>
-      <c r="D496" s="4"/>
+      <c r="C496" s="5"/>
+      <c r="D496" s="5"/>
       <c r="E496" s="3"/>
     </row>
     <row r="497">
       <c r="A497" s="3"/>
       <c r="B497" s="3"/>
-      <c r="C497" s="4"/>
-      <c r="D497" s="4"/>
+      <c r="C497" s="5"/>
+      <c r="D497" s="5"/>
       <c r="E497" s="3"/>
     </row>
     <row r="498">
       <c r="A498" s="3"/>
       <c r="B498" s="3"/>
-      <c r="C498" s="4"/>
-      <c r="D498" s="4"/>
+      <c r="C498" s="5"/>
+      <c r="D498" s="5"/>
       <c r="E498" s="3"/>
     </row>
     <row r="499">
       <c r="A499" s="3"/>
       <c r="B499" s="3"/>
-      <c r="C499" s="4"/>
-      <c r="D499" s="4"/>
+      <c r="C499" s="5"/>
+      <c r="D499" s="5"/>
       <c r="E499" s="3"/>
     </row>
     <row r="500">
       <c r="A500" s="3"/>
       <c r="B500" s="3"/>
-      <c r="C500" s="4"/>
-      <c r="D500" s="4"/>
+      <c r="C500" s="5"/>
+      <c r="D500" s="5"/>
       <c r="E500" s="3"/>
     </row>
     <row r="501">
       <c r="A501" s="3"/>
       <c r="B501" s="3"/>
-      <c r="C501" s="4"/>
-      <c r="D501" s="4"/>
+      <c r="C501" s="5"/>
+      <c r="D501" s="5"/>
       <c r="E501" s="3"/>
     </row>
     <row r="502">
       <c r="A502" s="3"/>
       <c r="B502" s="3"/>
-      <c r="C502" s="4"/>
-      <c r="D502" s="4"/>
+      <c r="C502" s="5"/>
+      <c r="D502" s="5"/>
       <c r="E502" s="3"/>
     </row>
     <row r="503">
       <c r="A503" s="3"/>
       <c r="B503" s="3"/>
-      <c r="C503" s="4"/>
-      <c r="D503" s="4"/>
+      <c r="C503" s="5"/>
+      <c r="D503" s="5"/>
       <c r="E503" s="3"/>
     </row>
     <row r="504">
       <c r="A504" s="3"/>
       <c r="B504" s="3"/>
-      <c r="C504" s="4"/>
-      <c r="D504" s="4"/>
+      <c r="C504" s="5"/>
+      <c r="D504" s="5"/>
       <c r="E504" s="3"/>
     </row>
     <row r="505">
       <c r="A505" s="3"/>
       <c r="B505" s="3"/>
-      <c r="C505" s="4"/>
-      <c r="D505" s="4"/>
+      <c r="C505" s="5"/>
+      <c r="D505" s="5"/>
       <c r="E505" s="3"/>
     </row>
     <row r="506">
       <c r="A506" s="3"/>
       <c r="B506" s="3"/>
-      <c r="C506" s="4"/>
-      <c r="D506" s="4"/>
+      <c r="C506" s="5"/>
+      <c r="D506" s="5"/>
       <c r="E506" s="3"/>
     </row>
     <row r="507">
       <c r="A507" s="3"/>
       <c r="B507" s="3"/>
-      <c r="C507" s="4"/>
-      <c r="D507" s="4"/>
+      <c r="C507" s="5"/>
+      <c r="D507" s="5"/>
       <c r="E507" s="3"/>
     </row>
     <row r="508">
       <c r="A508" s="3"/>
       <c r="B508" s="3"/>
-      <c r="C508" s="4"/>
-      <c r="D508" s="4"/>
+      <c r="C508" s="5"/>
+      <c r="D508" s="5"/>
       <c r="E508" s="3"/>
     </row>
     <row r="509">
       <c r="A509" s="3"/>
       <c r="B509" s="3"/>
-      <c r="C509" s="4"/>
-      <c r="D509" s="4"/>
+      <c r="C509" s="5"/>
+      <c r="D509" s="5"/>
       <c r="E509" s="3"/>
     </row>
     <row r="510">
       <c r="A510" s="3"/>
       <c r="B510" s="3"/>
-      <c r="C510" s="4"/>
-      <c r="D510" s="4"/>
+      <c r="C510" s="5"/>
+      <c r="D510" s="5"/>
       <c r="E510" s="3"/>
     </row>
     <row r="511">
       <c r="A511" s="3"/>
       <c r="B511" s="3"/>
-      <c r="C511" s="4"/>
-      <c r="D511" s="4"/>
+      <c r="C511" s="5"/>
+      <c r="D511" s="5"/>
       <c r="E511" s="3"/>
     </row>
     <row r="512">
       <c r="A512" s="3"/>
       <c r="B512" s="3"/>
-      <c r="C512" s="4"/>
-      <c r="D512" s="4"/>
+      <c r="C512" s="5"/>
+      <c r="D512" s="5"/>
       <c r="E512" s="3"/>
     </row>
     <row r="513">
       <c r="A513" s="3"/>
       <c r="B513" s="3"/>
-      <c r="C513" s="4"/>
-      <c r="D513" s="4"/>
+      <c r="C513" s="5"/>
+      <c r="D513" s="5"/>
       <c r="E513" s="3"/>
     </row>
     <row r="514">
       <c r="A514" s="3"/>
       <c r="B514" s="3"/>
-      <c r="C514" s="4"/>
-      <c r="D514" s="4"/>
+      <c r="C514" s="5"/>
+      <c r="D514" s="5"/>
       <c r="E514" s="3"/>
     </row>
     <row r="515">
       <c r="A515" s="3"/>
       <c r="B515" s="3"/>
-      <c r="C515" s="4"/>
-      <c r="D515" s="4"/>
+      <c r="C515" s="5"/>
+      <c r="D515" s="5"/>
       <c r="E515" s="3"/>
     </row>
     <row r="516">
       <c r="A516" s="3"/>
       <c r="B516" s="3"/>
-      <c r="C516" s="4"/>
-      <c r="D516" s="4"/>
+      <c r="C516" s="5"/>
+      <c r="D516" s="5"/>
       <c r="E516" s="3"/>
     </row>
     <row r="517">
       <c r="A517" s="3"/>
       <c r="B517" s="3"/>
-      <c r="C517" s="4"/>
-      <c r="D517" s="4"/>
+      <c r="C517" s="5"/>
+      <c r="D517" s="5"/>
       <c r="E517" s="3"/>
     </row>
     <row r="518">
       <c r="A518" s="3"/>
       <c r="B518" s="3"/>
-      <c r="C518" s="4"/>
-      <c r="D518" s="4"/>
+      <c r="C518" s="5"/>
+      <c r="D518" s="5"/>
       <c r="E518" s="3"/>
     </row>
     <row r="519">
       <c r="A519" s="3"/>
       <c r="B519" s="3"/>
-      <c r="C519" s="4"/>
-      <c r="D519" s="4"/>
+      <c r="C519" s="5"/>
+      <c r="D519" s="5"/>
       <c r="E519" s="3"/>
     </row>
     <row r="520">
       <c r="A520" s="3"/>
       <c r="B520" s="3"/>
-      <c r="C520" s="4"/>
-      <c r="D520" s="4"/>
+      <c r="C520" s="5"/>
+      <c r="D520" s="5"/>
       <c r="E520" s="3"/>
     </row>
     <row r="521">
       <c r="A521" s="3"/>
       <c r="B521" s="3"/>
-      <c r="C521" s="4"/>
-      <c r="D521" s="4"/>
+      <c r="C521" s="5"/>
+      <c r="D521" s="5"/>
       <c r="E521" s="3"/>
     </row>
     <row r="522">
       <c r="A522" s="3"/>
       <c r="B522" s="3"/>
-      <c r="C522" s="4"/>
-      <c r="D522" s="4"/>
+      <c r="C522" s="5"/>
+      <c r="D522" s="5"/>
       <c r="E522" s="3"/>
     </row>
     <row r="523">
       <c r="A523" s="3"/>
       <c r="B523" s="3"/>
-      <c r="C523" s="4"/>
-      <c r="D523" s="4"/>
+      <c r="C523" s="5"/>
+      <c r="D523" s="5"/>
       <c r="E523" s="3"/>
     </row>
     <row r="524">
       <c r="A524" s="3"/>
       <c r="B524" s="3"/>
-      <c r="C524" s="4"/>
-      <c r="D524" s="4"/>
+      <c r="C524" s="5"/>
+      <c r="D524" s="5"/>
       <c r="E524" s="3"/>
     </row>
     <row r="525">
       <c r="A525" s="3"/>
       <c r="B525" s="3"/>
-      <c r="C525" s="4"/>
-      <c r="D525" s="4"/>
+      <c r="C525" s="5"/>
+      <c r="D525" s="5"/>
       <c r="E525" s="3"/>
     </row>
     <row r="526">
       <c r="A526" s="3"/>
       <c r="B526" s="3"/>
-      <c r="C526" s="4"/>
-      <c r="D526" s="4"/>
+      <c r="C526" s="5"/>
+      <c r="D526" s="5"/>
       <c r="E526" s="3"/>
     </row>
     <row r="527">
       <c r="A527" s="3"/>
       <c r="B527" s="3"/>
-      <c r="C527" s="4"/>
-      <c r="D527" s="4"/>
+      <c r="C527" s="5"/>
+      <c r="D527" s="5"/>
       <c r="E527" s="3"/>
     </row>
     <row r="528">
       <c r="A528" s="3"/>
       <c r="B528" s="3"/>
-      <c r="C528" s="4"/>
-      <c r="D528" s="4"/>
+      <c r="C528" s="5"/>
+      <c r="D528" s="5"/>
       <c r="E528" s="3"/>
     </row>
     <row r="529">
       <c r="A529" s="3"/>
       <c r="B529" s="3"/>
-      <c r="C529" s="4"/>
-      <c r="D529" s="4"/>
+      <c r="C529" s="5"/>
+      <c r="D529" s="5"/>
       <c r="E529" s="3"/>
     </row>
     <row r="530">
       <c r="A530" s="3"/>
       <c r="B530" s="3"/>
-      <c r="C530" s="4"/>
-      <c r="D530" s="4"/>
+      <c r="C530" s="5"/>
+      <c r="D530" s="5"/>
       <c r="E530" s="3"/>
     </row>
     <row r="531">
       <c r="A531" s="3"/>
       <c r="B531" s="3"/>
-      <c r="C531" s="4"/>
-      <c r="D531" s="4"/>
+      <c r="C531" s="5"/>
+      <c r="D531" s="5"/>
       <c r="E531" s="3"/>
     </row>
     <row r="532">
       <c r="A532" s="3"/>
       <c r="B532" s="3"/>
-      <c r="C532" s="4"/>
-      <c r="D532" s="4"/>
+      <c r="C532" s="5"/>
+      <c r="D532" s="5"/>
       <c r="E532" s="3"/>
     </row>
     <row r="533">
       <c r="A533" s="3"/>
       <c r="B533" s="3"/>
-      <c r="C533" s="4"/>
-      <c r="D533" s="4"/>
+      <c r="C533" s="5"/>
+      <c r="D533" s="5"/>
       <c r="E533" s="3"/>
     </row>
     <row r="534">
       <c r="A534" s="3"/>
       <c r="B534" s="3"/>
-      <c r="C534" s="4"/>
-      <c r="D534" s="4"/>
+      <c r="C534" s="5"/>
+      <c r="D534" s="5"/>
       <c r="E534" s="3"/>
     </row>
     <row r="535">
       <c r="A535" s="3"/>
       <c r="B535" s="3"/>
-      <c r="C535" s="4"/>
-      <c r="D535" s="4"/>
+      <c r="C535" s="5"/>
+      <c r="D535" s="5"/>
       <c r="E535" s="3"/>
     </row>
     <row r="536">
       <c r="A536" s="3"/>
       <c r="B536" s="3"/>
-      <c r="C536" s="4"/>
-      <c r="D536" s="4"/>
+      <c r="C536" s="5"/>
+      <c r="D536" s="5"/>
       <c r="E536" s="3"/>
     </row>
     <row r="537">
       <c r="A537" s="3"/>
       <c r="B537" s="3"/>
-      <c r="C537" s="4"/>
-      <c r="D537" s="4"/>
+      <c r="C537" s="5"/>
+      <c r="D537" s="5"/>
       <c r="E537" s="3"/>
     </row>
     <row r="538">
       <c r="A538" s="3"/>
       <c r="B538" s="3"/>
-      <c r="C538" s="4"/>
-      <c r="D538" s="4"/>
+      <c r="C538" s="5"/>
+      <c r="D538" s="5"/>
       <c r="E538" s="3"/>
     </row>
     <row r="539">
       <c r="A539" s="3"/>
       <c r="B539" s="3"/>
-      <c r="C539" s="4"/>
-      <c r="D539" s="4"/>
+      <c r="C539" s="5"/>
+      <c r="D539" s="5"/>
       <c r="E539" s="3"/>
     </row>
     <row r="540">
       <c r="A540" s="3"/>
       <c r="B540" s="3"/>
-      <c r="C540" s="4"/>
-      <c r="D540" s="4"/>
+      <c r="C540" s="5"/>
+      <c r="D540" s="5"/>
       <c r="E540" s="3"/>
     </row>
     <row r="541">
       <c r="A541" s="3"/>
       <c r="B541" s="3"/>
-      <c r="C541" s="4"/>
-      <c r="D541" s="4"/>
+      <c r="C541" s="5"/>
+      <c r="D541" s="5"/>
       <c r="E541" s="3"/>
     </row>
     <row r="542">
       <c r="A542" s="3"/>
       <c r="B542" s="3"/>
-      <c r="C542" s="4"/>
-      <c r="D542" s="4"/>
+      <c r="C542" s="5"/>
+      <c r="D542" s="5"/>
       <c r="E542" s="3"/>
     </row>
     <row r="543">
       <c r="A543" s="3"/>
       <c r="B543" s="3"/>
-      <c r="C543" s="4"/>
-      <c r="D543" s="4"/>
+      <c r="C543" s="5"/>
+      <c r="D543" s="5"/>
       <c r="E543" s="3"/>
     </row>
     <row r="544">
       <c r="A544" s="3"/>
       <c r="B544" s="3"/>
-      <c r="C544" s="4"/>
-      <c r="D544" s="4"/>
+      <c r="C544" s="5"/>
+      <c r="D544" s="5"/>
       <c r="E544" s="3"/>
     </row>
     <row r="545">
       <c r="A545" s="3"/>
       <c r="B545" s="3"/>
-      <c r="C545" s="4"/>
-      <c r="D545" s="4"/>
+      <c r="C545" s="5"/>
+      <c r="D545" s="5"/>
       <c r="E545" s="3"/>
     </row>
     <row r="546">
       <c r="A546" s="3"/>
       <c r="B546" s="3"/>
-      <c r="C546" s="4"/>
-      <c r="D546" s="4"/>
+      <c r="C546" s="5"/>
+      <c r="D546" s="5"/>
       <c r="E546" s="3"/>
     </row>
     <row r="547">
       <c r="A547" s="3"/>
       <c r="B547" s="3"/>
-      <c r="C547" s="4"/>
-      <c r="D547" s="4"/>
+      <c r="C547" s="5"/>
+      <c r="D547" s="5"/>
       <c r="E547" s="3"/>
     </row>
     <row r="548">
       <c r="A548" s="3"/>
       <c r="B548" s="3"/>
-      <c r="C548" s="4"/>
-      <c r="D548" s="4"/>
+      <c r="C548" s="5"/>
+      <c r="D548" s="5"/>
       <c r="E548" s="3"/>
     </row>
     <row r="549">
       <c r="A549" s="3"/>
       <c r="B549" s="3"/>
-      <c r="C549" s="4"/>
-      <c r="D549" s="4"/>
+      <c r="C549" s="5"/>
+      <c r="D549" s="5"/>
       <c r="E549" s="3"/>
     </row>
     <row r="550">
       <c r="A550" s="3"/>
       <c r="B550" s="3"/>
-      <c r="C550" s="4"/>
-      <c r="D550" s="4"/>
+      <c r="C550" s="5"/>
+      <c r="D550" s="5"/>
       <c r="E550" s="3"/>
     </row>
     <row r="551">
       <c r="A551" s="3"/>
       <c r="B551" s="3"/>
-      <c r="C551" s="4"/>
-      <c r="D551" s="4"/>
+      <c r="C551" s="5"/>
+      <c r="D551" s="5"/>
       <c r="E551" s="3"/>
     </row>
     <row r="552">
       <c r="A552" s="3"/>
       <c r="B552" s="3"/>
-      <c r="C552" s="4"/>
-      <c r="D552" s="4"/>
+      <c r="C552" s="5"/>
+      <c r="D552" s="5"/>
       <c r="E552" s="3"/>
     </row>
     <row r="553">
       <c r="A553" s="3"/>
       <c r="B553" s="3"/>
-      <c r="C553" s="4"/>
-      <c r="D553" s="4"/>
+      <c r="C553" s="5"/>
+      <c r="D553" s="5"/>
       <c r="E553" s="3"/>
     </row>
     <row r="554">
       <c r="A554" s="3"/>
       <c r="B554" s="3"/>
-      <c r="C554" s="4"/>
-      <c r="D554" s="4"/>
+      <c r="C554" s="5"/>
+      <c r="D554" s="5"/>
       <c r="E554" s="3"/>
     </row>
     <row r="555">
       <c r="A555" s="3"/>
       <c r="B555" s="3"/>
-      <c r="C555" s="4"/>
-      <c r="D555" s="4"/>
+      <c r="C555" s="5"/>
+      <c r="D555" s="5"/>
       <c r="E555" s="3"/>
     </row>
     <row r="556">
       <c r="A556" s="3"/>
       <c r="B556" s="3"/>
-      <c r="C556" s="4"/>
-      <c r="D556" s="4"/>
+      <c r="C556" s="5"/>
+      <c r="D556" s="5"/>
       <c r="E556" s="3"/>
     </row>
     <row r="557">
       <c r="A557" s="3"/>
       <c r="B557" s="3"/>
-      <c r="C557" s="4"/>
-      <c r="D557" s="4"/>
+      <c r="C557" s="5"/>
+      <c r="D557" s="5"/>
       <c r="E557" s="3"/>
     </row>
     <row r="558">
       <c r="A558" s="3"/>
       <c r="B558" s="3"/>
-      <c r="C558" s="4"/>
-      <c r="D558" s="4"/>
+      <c r="C558" s="5"/>
+      <c r="D558" s="5"/>
       <c r="E558" s="3"/>
     </row>
     <row r="559">
       <c r="A559" s="3"/>
       <c r="B559" s="3"/>
-      <c r="C559" s="4"/>
-      <c r="D559" s="4"/>
+      <c r="C559" s="5"/>
+      <c r="D559" s="5"/>
       <c r="E559" s="3"/>
     </row>
     <row r="560">
       <c r="A560" s="3"/>
       <c r="B560" s="3"/>
-      <c r="C560" s="4"/>
-      <c r="D560" s="4"/>
+      <c r="C560" s="5"/>
+      <c r="D560" s="5"/>
       <c r="E560" s="3"/>
     </row>
     <row r="561">
       <c r="A561" s="3"/>
       <c r="B561" s="3"/>
-      <c r="C561" s="4"/>
-      <c r="D561" s="4"/>
+      <c r="C561" s="5"/>
+      <c r="D561" s="5"/>
       <c r="E561" s="3"/>
     </row>
     <row r="562">
       <c r="A562" s="3"/>
       <c r="B562" s="3"/>
-      <c r="C562" s="4"/>
-      <c r="D562" s="4"/>
+      <c r="C562" s="5"/>
+      <c r="D562" s="5"/>
       <c r="E562" s="3"/>
     </row>
     <row r="563">
       <c r="A563" s="3"/>
       <c r="B563" s="3"/>
-      <c r="C563" s="4"/>
-      <c r="D563" s="4"/>
+      <c r="C563" s="5"/>
+      <c r="D563" s="5"/>
       <c r="E563" s="3"/>
     </row>
     <row r="564">
       <c r="A564" s="3"/>
       <c r="B564" s="3"/>
-      <c r="C564" s="4"/>
-      <c r="D564" s="4"/>
+      <c r="C564" s="5"/>
+      <c r="D564" s="5"/>
       <c r="E564" s="3"/>
     </row>
     <row r="565">
       <c r="A565" s="3"/>
       <c r="B565" s="3"/>
-      <c r="C565" s="4"/>
-      <c r="D565" s="4"/>
+      <c r="C565" s="5"/>
+      <c r="D565" s="5"/>
       <c r="E565" s="3"/>
     </row>
     <row r="566">
       <c r="A566" s="3"/>
       <c r="B566" s="3"/>
-      <c r="C566" s="4"/>
-      <c r="D566" s="4"/>
+      <c r="C566" s="5"/>
+      <c r="D566" s="5"/>
       <c r="E566" s="3"/>
     </row>
     <row r="567">
       <c r="A567" s="3"/>
       <c r="B567" s="3"/>
-      <c r="C567" s="4"/>
-      <c r="D567" s="4"/>
+      <c r="C567" s="5"/>
+      <c r="D567" s="5"/>
       <c r="E567" s="3"/>
     </row>
     <row r="568">
       <c r="A568" s="3"/>
       <c r="B568" s="3"/>
-      <c r="C568" s="4"/>
-      <c r="D568" s="4"/>
+      <c r="C568" s="5"/>
+      <c r="D568" s="5"/>
       <c r="E568" s="3"/>
     </row>
     <row r="569">
       <c r="A569" s="3"/>
       <c r="B569" s="3"/>
-      <c r="C569" s="4"/>
-      <c r="D569" s="4"/>
+      <c r="C569" s="5"/>
+      <c r="D569" s="5"/>
       <c r="E569" s="3"/>
     </row>
     <row r="570">
       <c r="A570" s="3"/>
       <c r="B570" s="3"/>
-      <c r="C570" s="4"/>
-      <c r="D570" s="4"/>
+      <c r="C570" s="5"/>
+      <c r="D570" s="5"/>
       <c r="E570" s="3"/>
     </row>
     <row r="571">
       <c r="A571" s="3"/>
       <c r="B571" s="3"/>
-      <c r="C571" s="4"/>
-      <c r="D571" s="4"/>
+      <c r="C571" s="5"/>
+      <c r="D571" s="5"/>
       <c r="E571" s="3"/>
     </row>
     <row r="572">
       <c r="A572" s="3"/>
       <c r="B572" s="3"/>
-      <c r="C572" s="4"/>
-      <c r="D572" s="4"/>
+      <c r="C572" s="5"/>
+      <c r="D572" s="5"/>
       <c r="E572" s="3"/>
     </row>
     <row r="573">
       <c r="A573" s="3"/>
       <c r="B573" s="3"/>
-      <c r="C573" s="4"/>
-      <c r="D573" s="4"/>
+      <c r="C573" s="5"/>
+      <c r="D573" s="5"/>
       <c r="E573" s="3"/>
     </row>
     <row r="574">
       <c r="A574" s="3"/>
       <c r="B574" s="3"/>
-      <c r="C574" s="4"/>
-      <c r="D574" s="4"/>
+      <c r="C574" s="5"/>
+      <c r="D574" s="5"/>
       <c r="E574" s="3"/>
     </row>
     <row r="575">
       <c r="A575" s="3"/>
       <c r="B575" s="3"/>
-      <c r="C575" s="4"/>
-      <c r="D575" s="4"/>
+      <c r="C575" s="5"/>
+      <c r="D575" s="5"/>
       <c r="E575" s="3"/>
     </row>
     <row r="576">
       <c r="A576" s="3"/>
       <c r="B576" s="3"/>
-      <c r="C576" s="4"/>
-      <c r="D576" s="4"/>
+      <c r="C576" s="5"/>
+      <c r="D576" s="5"/>
       <c r="E576" s="3"/>
     </row>
     <row r="577">
       <c r="A577" s="3"/>
       <c r="B577" s="3"/>
-      <c r="C577" s="4"/>
-      <c r="D577" s="4"/>
+      <c r="C577" s="5"/>
+      <c r="D577" s="5"/>
       <c r="E577" s="3"/>
     </row>
     <row r="578">
       <c r="A578" s="3"/>
       <c r="B578" s="3"/>
-      <c r="C578" s="4"/>
-      <c r="D578" s="4"/>
+      <c r="C578" s="5"/>
+      <c r="D578" s="5"/>
       <c r="E578" s="3"/>
     </row>
     <row r="579">
       <c r="A579" s="3"/>
       <c r="B579" s="3"/>
-      <c r="C579" s="4"/>
-      <c r="D579" s="4"/>
+      <c r="C579" s="5"/>
+      <c r="D579" s="5"/>
       <c r="E579" s="3"/>
     </row>
     <row r="580">
       <c r="A580" s="3"/>
       <c r="B580" s="3"/>
-      <c r="C580" s="4"/>
-      <c r="D580" s="4"/>
+      <c r="C580" s="5"/>
+      <c r="D580" s="5"/>
       <c r="E580" s="3"/>
     </row>
     <row r="581">
       <c r="A581" s="3"/>
       <c r="B581" s="3"/>
-      <c r="C581" s="4"/>
-      <c r="D581" s="4"/>
+      <c r="C581" s="5"/>
+      <c r="D581" s="5"/>
       <c r="E581" s="3"/>
     </row>
     <row r="582">
       <c r="A582" s="3"/>
       <c r="B582" s="3"/>
-      <c r="C582" s="4"/>
-      <c r="D582" s="4"/>
+      <c r="C582" s="5"/>
+      <c r="D582" s="5"/>
       <c r="E582" s="3"/>
     </row>
     <row r="583">
       <c r="A583" s="3"/>
       <c r="B583" s="3"/>
-      <c r="C583" s="4"/>
-      <c r="D583" s="4"/>
+      <c r="C583" s="5"/>
+      <c r="D583" s="5"/>
       <c r="E583" s="3"/>
     </row>
     <row r="584">
       <c r="A584" s="3"/>
       <c r="B584" s="3"/>
-      <c r="C584" s="4"/>
-      <c r="D584" s="4"/>
+      <c r="C584" s="5"/>
+      <c r="D584" s="5"/>
       <c r="E584" s="3"/>
     </row>
     <row r="585">
       <c r="A585" s="3"/>
       <c r="B585" s="3"/>
-      <c r="C585" s="4"/>
-      <c r="D585" s="4"/>
+      <c r="C585" s="5"/>
+      <c r="D585" s="5"/>
       <c r="E585" s="3"/>
     </row>
     <row r="586">
       <c r="A586" s="3"/>
       <c r="B586" s="3"/>
-      <c r="C586" s="4"/>
-      <c r="D586" s="4"/>
+      <c r="C586" s="5"/>
+      <c r="D586" s="5"/>
       <c r="E586" s="3"/>
     </row>
     <row r="587">
       <c r="A587" s="3"/>
       <c r="B587" s="3"/>
-      <c r="C587" s="4"/>
-      <c r="D587" s="4"/>
+      <c r="C587" s="5"/>
+      <c r="D587" s="5"/>
       <c r="E587" s="3"/>
     </row>
     <row r="588">
       <c r="A588" s="3"/>
       <c r="B588" s="3"/>
-      <c r="C588" s="4"/>
-      <c r="D588" s="4"/>
+      <c r="C588" s="5"/>
+      <c r="D588" s="5"/>
       <c r="E588" s="3"/>
     </row>
     <row r="589">
       <c r="A589" s="3"/>
       <c r="B589" s="3"/>
-      <c r="C589" s="4"/>
-      <c r="D589" s="4"/>
+      <c r="C589" s="5"/>
+      <c r="D589" s="5"/>
       <c r="E589" s="3"/>
     </row>
     <row r="590">
       <c r="A590" s="3"/>
       <c r="B590" s="3"/>
-      <c r="C590" s="4"/>
-      <c r="D590" s="4"/>
+      <c r="C590" s="5"/>
+      <c r="D590" s="5"/>
       <c r="E590" s="3"/>
     </row>
     <row r="591">
       <c r="A591" s="3"/>
       <c r="B591" s="3"/>
-      <c r="C591" s="4"/>
-      <c r="D591" s="4"/>
+      <c r="C591" s="5"/>
+      <c r="D591" s="5"/>
       <c r="E591" s="3"/>
     </row>
     <row r="592">
       <c r="A592" s="3"/>
       <c r="B592" s="3"/>
-      <c r="C592" s="4"/>
-      <c r="D592" s="4"/>
+      <c r="C592" s="5"/>
+      <c r="D592" s="5"/>
       <c r="E592" s="3"/>
     </row>
   </sheetData>

--- a/wolf/Excel/Language_小镇多语言.xlsx
+++ b/wolf/Excel/Language_小镇多语言.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17655"/>
+    <workbookView windowWidth="23040" windowHeight="9015"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1521,7 +1521,7 @@
     <t>Night Bar</t>
   </si>
   <si>
-    <t>夜色酒吧</t>
+    <t>邮轮之旅</t>
   </si>
   <si>
     <t>关卡地图名称</t>
@@ -1542,7 +1542,7 @@
     <t>Pool Party</t>
   </si>
   <si>
-    <t>泳池派对</t>
+    <t>运输船</t>
   </si>
   <si>
     <t>Item_Name_20001</t>
@@ -4727,7 +4727,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="26">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -4753,6 +4753,13 @@
     <font>
       <sz val="9"/>
       <color rgb="FF1F2329"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9.75"/>
+      <color rgb="FF000000"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -5273,31 +5280,28 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5306,115 +5310,118 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -5440,8 +5447,8 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -5449,7 +5456,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -5836,9 +5843,9 @@
   <dimension ref="A1:E592"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A505" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A172" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D536" sqref="D536"/>
+      <selection pane="bottomLeft" activeCell="C177" sqref="C177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="12.75" outlineLevelCol="4"/>
@@ -8808,7 +8815,7 @@
       <c r="C176" s="2" t="s">
         <v>500</v>
       </c>
-      <c r="D176" s="1" t="s">
+      <c r="D176" s="2" t="s">
         <v>501</v>
       </c>
       <c r="E176" s="1" t="s">

--- a/wolf/Excel/Language_小镇多语言.xlsx
+++ b/wolf/Excel/Language_小镇多语言.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9015"/>
+    <workbookView windowHeight="17655"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1952" uniqueCount="1545">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1972" uniqueCount="1562">
   <si>
     <t>Int</t>
   </si>
@@ -4715,6 +4715,57 @@
   </si>
   <si>
     <t>日常造型2</t>
+  </si>
+  <si>
+    <t>Text_NoOnTheList1</t>
+  </si>
+  <si>
+    <t>Not</t>
+  </si>
+  <si>
+    <t>未上榜</t>
+  </si>
+  <si>
+    <t>Text_Ranking1</t>
+  </si>
+  <si>
+    <t>Text_Nickname1</t>
+  </si>
+  <si>
+    <t>Nickname</t>
+  </si>
+  <si>
+    <t>Text_Score1</t>
+  </si>
+  <si>
+    <t>Score</t>
+  </si>
+  <si>
+    <t>分数</t>
+  </si>
+  <si>
+    <t>Text_Duration1</t>
+  </si>
+  <si>
+    <t>Duration</t>
+  </si>
+  <si>
+    <t>等级</t>
+  </si>
+  <si>
+    <t>Text_TopInTermsOfDuration1</t>
+  </si>
+  <si>
+    <t>Top {0} In Terms Of Duration</t>
+  </si>
+  <si>
+    <t>等级全服前{0}名</t>
+  </si>
+  <si>
+    <t>Text_Ranking2</t>
+  </si>
+  <si>
+    <t>全服排行榜</t>
   </si>
 </sst>
 </file>
@@ -4727,7 +4778,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="27">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -4770,6 +4821,12 @@
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9.75"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -5280,31 +5337,28 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5313,119 +5367,122 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -5517,6 +5574,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -5843,9 +5903,9 @@
   <dimension ref="A1:E592"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A172" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A545" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C177" sqref="C177"/>
+      <selection pane="bottomLeft" activeCell="B561" sqref="B561"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="12.75" outlineLevelCol="4"/>
@@ -14732,52 +14792,106 @@
       <c r="E553" s="2"/>
     </row>
     <row r="554" spans="1:5">
-      <c r="A554" s="2"/>
-      <c r="B554" s="2"/>
-      <c r="C554" s="1"/>
-      <c r="D554" s="1"/>
+      <c r="A554" s="2">
+        <v>100212</v>
+      </c>
+      <c r="B554" s="31" t="s">
+        <v>1545</v>
+      </c>
+      <c r="C554" s="31" t="s">
+        <v>1546</v>
+      </c>
+      <c r="D554" s="31" t="s">
+        <v>1547</v>
+      </c>
       <c r="E554" s="2"/>
     </row>
     <row r="555" spans="1:5">
-      <c r="A555" s="2"/>
-      <c r="B555" s="2"/>
-      <c r="C555" s="1"/>
-      <c r="D555" s="1"/>
+      <c r="A555" s="2">
+        <v>100213</v>
+      </c>
+      <c r="B555" s="31" t="s">
+        <v>1548</v>
+      </c>
+      <c r="C555" s="31" t="s">
+        <v>1072</v>
+      </c>
+      <c r="D555" s="31" t="s">
+        <v>1073</v>
+      </c>
       <c r="E555" s="2"/>
     </row>
     <row r="556" spans="1:5">
-      <c r="A556" s="2"/>
-      <c r="B556" s="2"/>
-      <c r="C556" s="1"/>
-      <c r="D556" s="1"/>
+      <c r="A556" s="2">
+        <v>100214</v>
+      </c>
+      <c r="B556" s="31" t="s">
+        <v>1549</v>
+      </c>
+      <c r="C556" s="31" t="s">
+        <v>1550</v>
+      </c>
+      <c r="D556" s="31" t="s">
+        <v>1076</v>
+      </c>
       <c r="E556" s="2"/>
     </row>
     <row r="557" spans="1:5">
-      <c r="A557" s="2"/>
-      <c r="B557" s="2"/>
-      <c r="C557" s="1"/>
-      <c r="D557" s="1"/>
+      <c r="A557" s="2">
+        <v>100215</v>
+      </c>
+      <c r="B557" s="31" t="s">
+        <v>1551</v>
+      </c>
+      <c r="C557" s="31" t="s">
+        <v>1552</v>
+      </c>
+      <c r="D557" s="31" t="s">
+        <v>1553</v>
+      </c>
       <c r="E557" s="2"/>
     </row>
     <row r="558" spans="1:5">
-      <c r="A558" s="2"/>
-      <c r="B558" s="2"/>
-      <c r="C558" s="1"/>
-      <c r="D558" s="1"/>
+      <c r="A558" s="2">
+        <v>100216</v>
+      </c>
+      <c r="B558" s="31" t="s">
+        <v>1554</v>
+      </c>
+      <c r="C558" s="31" t="s">
+        <v>1555</v>
+      </c>
+      <c r="D558" s="31" t="s">
+        <v>1556</v>
+      </c>
       <c r="E558" s="2"/>
     </row>
     <row r="559" spans="1:5">
-      <c r="A559" s="2"/>
-      <c r="B559" s="2"/>
-      <c r="C559" s="1"/>
-      <c r="D559" s="1"/>
+      <c r="A559" s="2">
+        <v>100217</v>
+      </c>
+      <c r="B559" s="31" t="s">
+        <v>1557</v>
+      </c>
+      <c r="C559" s="31" t="s">
+        <v>1558</v>
+      </c>
+      <c r="D559" s="31" t="s">
+        <v>1559</v>
+      </c>
       <c r="E559" s="2"/>
     </row>
     <row r="560" spans="1:5">
-      <c r="A560" s="2"/>
-      <c r="B560" s="2"/>
+      <c r="A560" s="2">
+        <v>100218</v>
+      </c>
+      <c r="B560" s="31" t="s">
+        <v>1560</v>
+      </c>
       <c r="C560" s="1"/>
-      <c r="D560" s="1"/>
+      <c r="D560" s="1" t="s">
+        <v>1561</v>
+      </c>
       <c r="E560" s="2"/>
     </row>
     <row r="561" spans="1:5">
